--- a/srg_mapping/srg-mapping-rhel9.xlsx
+++ b/srg_mapping/srg-mapping-rhel9.xlsx
@@ -642,7 +642,7 @@
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t>The operating system must manage excess capacity, bandwidth, or other redundancy to limit the effects of information flooding types of Denial of Service (DoS) attacks.</t>
+          <t>Red Hat Enterprise Linux 9 must manage excess capacity, bandwidth, or other redundancy to limit the effects of information flooding types of Denial of Service (DoS) attacks.</t>
         </is>
       </c>
       <c r="G3" s="2" t="inlineStr">
@@ -695,7 +695,15 @@
         </is>
       </c>
       <c r="L3" s="2" t="n"/>
-      <c r="M3" s="2" t="inlineStr"/>
+      <c r="M3" s="2" t="inlineStr">
+        <is>
+          <t>Configure Red Hat Enterprise Linux 9 to use TCP syncookies.
+Add or edit the following line in a system configuration file in the "/etc/sysctl.d/" directory:
+ net.ipv4.tcp_syncookies = 1
+ Load settings from all system configuration files with the following command:
+ $ sudo sysctl --system</t>
+        </is>
+      </c>
       <c r="N3" s="2" t="inlineStr">
         <is>
           <t>CAT II</t>
@@ -3945,7 +3953,7 @@
       </c>
       <c r="F50" s="2" t="inlineStr">
         <is>
-          <t>The operating system must require individuals to be authenticated with an individual authenticator prior to using a group authenticator.</t>
+          <t>Red Hat Enterprise Linux 9must require individuals to be authenticated with an individual authenticator prior to using a group authenticator.</t>
         </is>
       </c>
       <c r="G50" s="2" t="inlineStr">
@@ -4999,7 +5007,7 @@
       </c>
       <c r="F65" s="2" t="inlineStr">
         <is>
-          <t>The operating system must use multifactor authentication for network access to non-privileged accounts.</t>
+          <t>Red Hat Enterprise Linux 9 must use multifactor authentication for network access to non-privileged accounts.</t>
         </is>
       </c>
       <c r="G65" s="2" t="inlineStr">
@@ -6042,7 +6050,7 @@
       </c>
       <c r="F80" s="2" t="inlineStr">
         <is>
-          <t>The operating system must use multifactor authentication for local access to privileged accounts.</t>
+          <t>Red Hat Enterprise Linux 9 must use multifactor authentication for local access to privileged accounts.</t>
         </is>
       </c>
       <c r="G80" s="2" t="inlineStr">
@@ -6088,7 +6096,14 @@
         </is>
       </c>
       <c r="L80" s="2" t="n"/>
-      <c r="M80" s="2" t="inlineStr"/>
+      <c r="M80" s="2" t="inlineStr">
+        <is>
+          <t>To configure the system add or modify the following line in "/etc/ssh/sshd_config".
+PubkeyAuthentication yes
+Restart the SSH daemon for the settings to take effect:
+$ sudo systemctl restart sshd.service</t>
+        </is>
+      </c>
       <c r="N80" s="2" t="inlineStr">
         <is>
           <t>CAT II</t>
@@ -9410,7 +9425,7 @@
       </c>
       <c r="F129" s="2" t="inlineStr">
         <is>
-          <t>The operating system must use multifactor authentication for local access to non-privileged accounts.</t>
+          <t>Red Hat Enterprise Linux 9 must use multifactor authentication for local access to non-privileged accounts.</t>
         </is>
       </c>
       <c r="G129" s="2" t="inlineStr">
@@ -10979,7 +10994,7 @@
       </c>
       <c r="F151" s="2" t="inlineStr">
         <is>
-          <t>The operating system must use multifactor authentication for network access to privileged accounts.</t>
+          <t>Red Hat Enterprise Linux 9 must use multifactor authentication for network access to privileged accounts.</t>
         </is>
       </c>
       <c r="G151" s="2" t="inlineStr">
@@ -12813,7 +12828,7 @@
       </c>
       <c r="F181" s="2" t="inlineStr">
         <is>
-          <t>The operating system must isolate security functions from nonsecurity functions.</t>
+          <t>Red Hat Enterprise Linux 9 must isolate security functions from nonsecurity functions.</t>
         </is>
       </c>
       <c r="G181" s="2" t="inlineStr">
@@ -12857,7 +12872,16 @@
         </is>
       </c>
       <c r="L181" s="2" t="n"/>
-      <c r="M181" s="2" t="inlineStr"/>
+      <c r="M181" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">To ensure that "vsyscall=none" is added as a kernel command line
+argument to newly installed kernels, add "vsyscall=none" to the
+default Grub2 command line for Linux operating systems.  Modify the line within
+"/etc/default/grub" as shown below:
+ GRUB_CMDLINE_LINUX="... vsyscall=none ..." 
+Run the following command to update command line for already installed kernels: # grubby --update-kernel=ALL --args="vsyscall=none" </t>
+        </is>
+      </c>
       <c r="N181" s="2" t="inlineStr">
         <is>
           <t>CAT II</t>

--- a/srg_mapping/srg-mapping-rhel9.xlsx
+++ b/srg_mapping/srg-mapping-rhel9.xlsx
@@ -541,7 +541,7 @@
     <row r="2" ht="130" customHeight="1">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>AU-4, AU-4 (1)</t>
+          <t>AU-4,AU-4 (1)</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -621,7 +621,7 @@
     <row r="3" ht="130" customHeight="1">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b, SC-5, SC-5 (2)</t>
+          <t>SC-5 (2),CM-6 b,SC-5</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
@@ -716,7 +716,7 @@
     <row r="4" ht="130" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>AC-6 (8), AC-6 (9), AU-12 (3), AU-7 a, AU-7 a, AU-7 a, AU-7 a, AU-7 a, AU-7 b, AU-7 b, AU-8 b, AU-8 b, CM-5 (1)</t>
+          <t>AU-7 a,CM-5 (1),AU-7 b,AU-12 (3),AC-6 (9),AU-8 b,AC-6 (8)</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
@@ -792,7 +792,7 @@
     <row r="5" ht="130" customHeight="1">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>CM-7 b, AC-17 (1), AC-17 (9), CM-6 b, CM-6 b</t>
+          <t>AC-17 (9),CM-6 b,CM-7 b,AC-17 (1)</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
@@ -1008,7 +1008,7 @@
     <row r="8" ht="130" customHeight="1">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (11), IA-2 (12)</t>
+          <t>IA-2 (11),IA-2 (12)</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
@@ -1155,7 +1155,7 @@
     <row r="10" ht="130" customHeight="1">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>CM-7 (5) (b), CM-7 (2)</t>
+          <t>CM-7 (2),CM-7 (5) (b)</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
@@ -1307,7 +1307,7 @@
     <row r="12" ht="130" customHeight="1">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>AC-7 b, AC-7 a</t>
+          <t>AC-7 b,AC-7 a</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
@@ -1522,7 +1522,7 @@
     <row r="15" ht="130" customHeight="1">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>IA-2, IA-8, AU-3 (1)</t>
+          <t>AU-3 (1),IA-2,IA-8</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
@@ -1596,7 +1596,7 @@
     <row r="16" ht="130" customHeight="1">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>AC-6 (10), CM-6 b</t>
+          <t>CM-6 b,AC-6 (10)</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
@@ -1668,7 +1668,7 @@
     <row r="17" ht="130" customHeight="1">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>AU-3, AU-3 (1), AU-12 a, MA-4 (1) (a), AU-12 c, AU-12 c, AU-12 c, AU-12 c, AU-12 c</t>
+          <t>MA-4 (1) (a),AU-12 c,AU-12 a,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
@@ -1795,7 +1795,7 @@
     <row r="19" ht="130" customHeight="1">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>IA-5 (1) (b), IA-5 (1) (a), IA-5 (1) (a), IA-5 (1) (a), IA-5 (1) (a), CM-6 b, IA-5 (1) (a)</t>
+          <t>IA-5 (1) (b),IA-5 (1) (a),CM-6 b</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
@@ -1943,7 +1943,7 @@
     <row r="21" ht="130" customHeight="1">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>MA-4 e, SC-10, AC-12, MA-4 (7)</t>
+          <t>AC-12,SC-10,MA-4 (7),MA-4 e</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
@@ -2014,7 +2014,7 @@
     <row r="22" ht="130" customHeight="1">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>AU-3, AU-3, AU-3, AU-3, AU-3, AU-3 (1), AU-6 (4), AU-7 (1), AU-7 a, AU-14 (1), AU-3, CM-5 (1), MA-4 (1) (a), CM-6 b, AU-12 a, AU-7 a</t>
+          <t>MA-4 (1) (a),AU-7 a,CM-5 (1),AU-12 a,AU-7 (1),AU-6 (4),AU-3,CM-6 b,AU-14 (1),AU-3 (1)</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
@@ -2243,7 +2243,7 @@
     <row r="25" ht="130" customHeight="1">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>AU-3, AU-3 (1), AU-12 a, MA-4 (1) (a), AU-12 c, AU-12 c, AU-12 c, AU-12 c, AU-12 c</t>
+          <t>MA-4 (1) (a),AU-12 c,AU-12 a,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
@@ -2509,7 +2509,7 @@
     <row r="29" ht="130" customHeight="1">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>SC-8, SC-8 (1), SC-8 (2), SC-8 (2)</t>
+          <t>SC-8 (2),SC-8,SC-8 (1)</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
@@ -2634,7 +2634,7 @@
     <row r="31" ht="130" customHeight="1">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>AC-2 (4), AU-3, AU-3 (1), AU-12 a, AC-2 (4), MA-4 (1) (a), AU-12 c, AU-12 c, AU-12 c, AC-2 (4), AC-2 (4), AC-2 (4), AC-2 (4), AC-2 (4), AU-12 c, AU-12 c</t>
+          <t>MA-4 (1) (a),AU-12 c,AU-12 a,AC-2 (4),AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
@@ -2838,7 +2838,7 @@
     <row r="34" ht="130" customHeight="1">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>AC-11 a, AC-11 b</t>
+          <t>AC-11 b,AC-11 a</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
@@ -3110,7 +3110,7 @@
     <row r="38" ht="130" customHeight="1">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>AU-9, AU-9, AU-9, SI-11 b</t>
+          <t>SI-11 b,AU-9</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
@@ -3178,7 +3178,7 @@
     <row r="39" ht="130" customHeight="1">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>AU-3, CM-6 b</t>
+          <t>AU-3,CM-6 b</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
@@ -3305,7 +3305,7 @@
     <row r="41" ht="130" customHeight="1">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>AU-4 (1), AU-4 (1)</t>
+          <t>AU-4 (1)</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
@@ -3377,7 +3377,7 @@
     <row r="42" ht="130" customHeight="1">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>SC-28 (1), SC-28, SC-28 (1)</t>
+          <t>SC-28 (1),SC-28</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
@@ -3439,7 +3439,13 @@
         </is>
       </c>
       <c r="L42" s="2" t="n"/>
-      <c r="M42" s="2" t="inlineStr"/>
+      <c r="M42" s="2" t="inlineStr">
+        <is>
+          <t>Configure Red Hat Enterprise Linux 9 to prevent unauthorized modification of all information at rest by using disk encryption.
+Encrypting a partition in an already installed system is more difficult, because existing partitions will need to be resized and changed.
+To encrypt an entire partition, dedicate a partition for encryption in the partition layout.</t>
+        </is>
+      </c>
       <c r="N42" s="2" t="inlineStr">
         <is>
           <t>CAT II</t>
@@ -3523,7 +3529,7 @@
     <row r="44" ht="130" customHeight="1">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>IA-11, IA-11, IA-11</t>
+          <t>IA-11</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
@@ -3593,7 +3599,7 @@
     <row r="45" ht="130" customHeight="1">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>AC-8 a, AC-8 b, AC-8 c 1, AC-8 c 2, AC-8 c 3</t>
+          <t>AC-8 a,AC-8 c 1, AC-8 c 2, AC-8 c 3,AC-8 b</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
@@ -3804,7 +3810,7 @@
     <row r="48" ht="130" customHeight="1">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b, CM-6 b</t>
+          <t>CM-6 b</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
@@ -3932,7 +3938,7 @@
     <row r="50" ht="130" customHeight="1">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (5), CM-6 b</t>
+          <t>IA-2 (5),CM-6 b</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
@@ -4140,7 +4146,7 @@
     <row r="53" ht="130" customHeight="1">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>SC-13, MA-4 (6), MA-4 (6)</t>
+          <t>SC-13,MA-4 (6)</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
@@ -4277,7 +4283,7 @@
     <row r="55" ht="130" customHeight="1">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>AC-17 (2), SC-8</t>
+          <t>AC-17 (2),SC-8</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
@@ -4348,7 +4354,7 @@
     <row r="56" ht="130" customHeight="1">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a), AU-12 c, AU-12 c</t>
+          <t>MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
@@ -4835,7 +4841,7 @@
     <row r="63" ht="130" customHeight="1">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>AU-5 a, AU-5 (1)</t>
+          <t>AU-5 a,AU-5 (1)</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
@@ -4986,7 +4992,7 @@
     <row r="65" ht="130" customHeight="1">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (2), CM-6 b, CM-6 b</t>
+          <t>IA-2 (2),CM-6 b</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
@@ -5126,7 +5132,7 @@
     <row r="67" ht="130" customHeight="1">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>AU-3, AU-3 (1), AU-12 a, MA-4 (1) (a), AU-12 c, AU-12 c, AU-12 c, AU-12 c, AU-12 c, AU-12 c, AU-12 c</t>
+          <t>MA-4 (1) (a),AU-12 c,AU-12 a,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
@@ -5252,7 +5258,7 @@
     <row r="69" ht="130" customHeight="1">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>AU-7 a, AU-12 (3), AU-7 a, AU-7 a, AU-7 a, AU-7 a, AU-7 a, AU-7 b, AU-7 b, AU-8 b, AU-8 b, CM-5 (1), AU-12 c, AU-12 c, CM-6 b, AU-12 a</t>
+          <t>CM-5 (1),AU-7 a,AU-12 c,AU-12 (3),AU-7 b,AU-12 a,AU-8 b,CM-6 b</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
@@ -5402,7 +5408,7 @@
     <row r="71" ht="130" customHeight="1">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>AU-3, AU-4 (1), AU-4 (1)</t>
+          <t>AU-3,AU-4 (1)</t>
         </is>
       </c>
       <c r="B71" s="2" t="inlineStr">
@@ -5793,7 +5799,7 @@
     <row r="77" ht="130" customHeight="1">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>AC-2 (4), AU-3, AU-3 (1), AU-12 a, AC-2 (4), MA-4 (1) (a), AU-12 c, AU-12 c, AU-12 c, AC-2 (4), AC-2 (4), AC-2 (4), AC-2 (4), AC-2 (4), AU-12 c, AU-12 c, AC-2 (4), AC-2 (4), AC-2 (4), AC-2 (4)</t>
+          <t>MA-4 (1) (a),AU-12 c,AU-12 a,AC-2 (4),AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B77" s="2" t="inlineStr">
@@ -5958,7 +5964,7 @@
     <row r="79" ht="130" customHeight="1">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>AU-9, AU-9, AU-9, AU-9 (3)</t>
+          <t>AU-9 (3),AU-9</t>
         </is>
       </c>
       <c r="B79" s="2" t="inlineStr">
@@ -6029,7 +6035,7 @@
     <row r="80" ht="130" customHeight="1">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (1), IA-2 (2), IA-2 (3), IA-2 (4)</t>
+          <t>IA-2 (1),IA-2 (2),IA-2 (4),IA-2 (3)</t>
         </is>
       </c>
       <c r="B80" s="2" t="inlineStr">
@@ -6116,7 +6122,7 @@
     <row r="81" ht="130" customHeight="1">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b, CM-5 (3)</t>
+          <t>CM-5 (3),CM-6 b</t>
         </is>
       </c>
       <c r="B81" s="2" t="inlineStr">
@@ -6449,7 +6455,7 @@
     <row r="86" ht="130" customHeight="1">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>AU-3, AU-3 (1), AU-12 a, MA-4 (1) (a), AU-12 c, AU-12 c, AU-12 c, AU-12 c, AU-12 c, AU-12 c</t>
+          <t>MA-4 (1) (a),AU-12 c,AU-12 a,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B86" s="2" t="inlineStr">
@@ -6595,7 +6601,7 @@
     <row r="88" ht="130" customHeight="1">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>AC-2 (4), AC-2 (4), AC-2 (4), AC-2 (4), AU-12 c, AC-6 (9), AU-12 c, CM-5 (1), AU-12 c, AU-12 c, AU-12 c, AU-12 c, AU-12 c, AU-12 c, AU-12 c, AU-12 c, AU-12 c, AU-12 c, AU-12 c, AU-12 c, AU-12 c, AU-12 c, AU-12 c</t>
+          <t>AC-2 (4),AC-6 (9),CM-5 (1),AU-12 c</t>
         </is>
       </c>
       <c r="B88" s="2" t="inlineStr">
@@ -6662,7 +6668,7 @@
     <row r="89" ht="130" customHeight="1">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>IA-2, IA-2 (2), IA-2 (3), IA-2 (5), IA-2 (4)</t>
+          <t>IA-2 (5),IA-2 (3),IA-2 (2),IA-2 (4),IA-2</t>
         </is>
       </c>
       <c r="B89" s="2" t="inlineStr">
@@ -6742,7 +6748,7 @@
     <row r="90" ht="130" customHeight="1">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (11), IA-2 (12)</t>
+          <t>IA-2 (11),IA-2 (12)</t>
         </is>
       </c>
       <c r="B90" s="2" t="inlineStr">
@@ -6818,7 +6824,7 @@
     <row r="91" ht="130" customHeight="1">
       <c r="A91" s="2" t="inlineStr">
         <is>
-          <t>AU-9, AU-9, AU-9 (3)</t>
+          <t>AU-9 (3),AU-9</t>
         </is>
       </c>
       <c r="B91" s="2" t="inlineStr">
@@ -7192,7 +7198,7 @@
     <row r="96" ht="130" customHeight="1">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>AC-18 (1), AC-18 (1), SC-8 (1), SC-8</t>
+          <t>AC-18 (1),SC-8,SC-8 (1)</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
@@ -7268,7 +7274,7 @@
     <row r="97" ht="130" customHeight="1">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>AU-8 (1) (a), AU-8 (1) (b), AU-8 b</t>
+          <t>AU-8 (1) (b),AU-8 (1) (a),AU-8 b</t>
         </is>
       </c>
       <c r="B97" s="2" t="inlineStr">
@@ -7416,7 +7422,7 @@
     <row r="99" ht="130" customHeight="1">
       <c r="A99" s="2" t="inlineStr">
         <is>
-          <t>AU-9, AU-9, AU-9</t>
+          <t>AU-9</t>
         </is>
       </c>
       <c r="B99" s="2" t="inlineStr">
@@ -7505,7 +7511,7 @@
       </c>
       <c r="F100" s="2" t="inlineStr">
         <is>
-          <t>The operating system must allow the use of a temporary password for system logons with an immediate change to a permanent password.</t>
+          <t>Red Hat Enterprise Linux 9 must allow the use of a temporary password for system logons with an immediate change to a permanent password.</t>
         </is>
       </c>
       <c r="G100" s="2" t="inlineStr">
@@ -7514,10 +7520,17 @@
 Temporary passwords are typically used to allow access when new accounts are created or passwords are changed. It is common practice for administrators to create temporary passwords for user accounts which allow the users to log on, yet force them to change the password once they have successfully authenticated.</t>
         </is>
       </c>
-      <c r="H100" s="2" t="inlineStr"/>
+      <c r="H100" s="2" t="inlineStr">
+        <is>
+          <t>Without providing this capability, an account may be created without a password.
+Non-repudiation cannot be guaranteed once an account is created if a user is not forced to change the temporary password upon initial logon.
+Temporary passwords are typically used to allow access when new accounts are created or passwords are changed.
+It is common practice for administrators to create temporary passwords for user accounts that allow the users to log on, yet force them to change the password once they have successfully authenticated.</t>
+        </is>
+      </c>
       <c r="I100" s="2" t="inlineStr">
         <is>
-          <t>Applicable - Configurable</t>
+          <t>Applicable - Inherently Met</t>
         </is>
       </c>
       <c r="J100" s="2" t="inlineStr">
@@ -7525,7 +7538,12 @@
           <t>Verify the operating system allows the use of a temporary password for system logons with an immediate change to a permanent password. If it does not, this is a finding.</t>
         </is>
       </c>
-      <c r="K100" s="2" t="n"/>
+      <c r="K100" s="2" t="inlineStr">
+        <is>
+          <t>Red Hat Enterprise Linux 9 supports this requirement and cannot be configured to be out of compliance.
+Red Hat Enterprise Linux 9 inherently meets this requirement.</t>
+        </is>
+      </c>
       <c r="L100" s="2" t="n"/>
       <c r="M100" s="2" t="n"/>
       <c r="N100" s="2" t="inlineStr">
@@ -7534,13 +7552,26 @@
         </is>
       </c>
       <c r="O100" s="2" t="n"/>
-      <c r="P100" s="2" t="n"/>
-      <c r="Q100" s="2" t="n"/>
+      <c r="P100" s="2" t="inlineStr">
+        <is>
+          <t>Red Hat Enterprise Linux 9 offers the following commands to facilitate the use of a temporary password.
+chage -d 0 [username]
+(forces the user to change their password at next logon)
+passwd -e [username]
+(expires the passwd for a given user forcing a change at next logon.)</t>
+        </is>
+      </c>
+      <c r="Q100" s="2" t="inlineStr">
+        <is>
+          <t>Red Hat Enterprise Linux 9 has the capability to perform temporary passwords based on organization policy.
+Configuration is not appropriate to define at an enterprise level.</t>
+        </is>
+      </c>
     </row>
     <row r="101" ht="130" customHeight="1">
       <c r="A101" s="2" t="inlineStr">
         <is>
-          <t>IA-11, AC-3 (4)</t>
+          <t>AC-3 (4),IA-11</t>
         </is>
       </c>
       <c r="B101" s="2" t="inlineStr">
@@ -7610,7 +7641,7 @@
     <row r="102" ht="130" customHeight="1">
       <c r="A102" s="2" t="inlineStr">
         <is>
-          <t>AU-3, AU-3 (1), AU-12 a, MA-4 (1) (a), AU-12 c, AU-12 c, AU-12 c, AU-12 c</t>
+          <t>MA-4 (1) (a),AU-12 c,AU-12 a,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B102" s="2" t="inlineStr">
@@ -7701,7 +7732,7 @@
       </c>
       <c r="F103" s="2" t="inlineStr">
         <is>
-          <t>The operating system must implement replay-resistant authentication mechanisms for network access to non-privileged accounts.</t>
+          <t>Red Hat Enterprise Linux 9 system must implement replay-resistant authentication mechanisms for network access to non-privileged accounts.</t>
         </is>
       </c>
       <c r="G103" s="2" t="inlineStr">
@@ -7715,7 +7746,7 @@
       <c r="H103" s="2" t="inlineStr"/>
       <c r="I103" s="2" t="inlineStr">
         <is>
-          <t>Applicable - Configurable</t>
+          <t>Applicable - Inherently Met</t>
         </is>
       </c>
       <c r="J103" s="2" t="inlineStr">
@@ -7723,17 +7754,36 @@
           <t>Verify the operating system implements replay-resistant authentication mechanisms for network access to non-privileged accounts. If it does not, this is a finding.</t>
         </is>
       </c>
-      <c r="K103" s="2" t="n"/>
+      <c r="K103" s="2" t="inlineStr">
+        <is>
+          <t>Red Hat Enterprise Linux 9 supports this requirement and cannot be configured to be out of compliance.
+Red Hat Enterprise Linux 9 inherently meets this requirement.</t>
+        </is>
+      </c>
       <c r="L103" s="2" t="n"/>
-      <c r="M103" s="2" t="n"/>
+      <c r="M103" s="2" t="inlineStr">
+        <is>
+          <t>Red Hat Enterprise Linux 9 inherently meets this requirement.
+No fix is required.</t>
+        </is>
+      </c>
       <c r="N103" s="2" t="inlineStr">
         <is>
           <t>CAT II</t>
         </is>
       </c>
       <c r="O103" s="2" t="n"/>
-      <c r="P103" s="2" t="n"/>
-      <c r="Q103" s="2" t="n"/>
+      <c r="P103" s="2" t="inlineStr">
+        <is>
+          <t>The release notes of OpenSSH 7.6 states "OpenSSH is a 100% complete SSH protocol 2.0 implementation and includes sftp client and server support."
+https://www.openssh.com/txt/release-7.6</t>
+        </is>
+      </c>
+      <c r="Q103" s="2" t="inlineStr">
+        <is>
+          <t>The OpenSSH package in Red Hat Enterprise Linux 9 is version 8.7, which is newer than 7.6 which only supports SSH protocol 2.0 which is restraint to replay attacks.</t>
+        </is>
+      </c>
     </row>
     <row r="104" ht="130" customHeight="1">
       <c r="A104" s="2" t="inlineStr">
@@ -8177,7 +8227,7 @@
     <row r="111" ht="130" customHeight="1">
       <c r="A111" s="2" t="inlineStr">
         <is>
-          <t>AU-5 a, AU-5 b</t>
+          <t>AU-5 a,AU-5 b</t>
         </is>
       </c>
       <c r="B111" s="2" t="inlineStr">
@@ -8719,7 +8769,7 @@
     <row r="119" ht="130" customHeight="1">
       <c r="A119" s="2" t="inlineStr">
         <is>
-          <t>AU-3, AU-3 (1), AU-12 a, MA-4 (1) (a), AU-12 c, AU-12 c, AU-12 c, AU-12 c, AU-12 c, AU-12 c, AU-12 c</t>
+          <t>MA-4 (1) (a),AU-12 c,AU-12 a,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B119" s="2" t="inlineStr">
@@ -9009,7 +9059,7 @@
     <row r="123" ht="130" customHeight="1">
       <c r="A123" s="2" t="inlineStr">
         <is>
-          <t>CM-7 b, CM-7 a</t>
+          <t>CM-7 a,CM-7 b</t>
         </is>
       </c>
       <c r="B123" s="2" t="inlineStr">
@@ -9079,7 +9129,7 @@
     <row r="124" ht="130" customHeight="1">
       <c r="A124" s="2" t="inlineStr">
         <is>
-          <t>AU-3, AU-3 (1), AU-12 a, MA-4 (1) (a), AU-12 c, AU-12 c, AU-12 c, AU-12 c, AU-12 c</t>
+          <t>MA-4 (1) (a),AU-12 c,AU-12 a,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B124" s="2" t="inlineStr">
@@ -9149,7 +9199,7 @@
     <row r="125" ht="130" customHeight="1">
       <c r="A125" s="2" t="inlineStr">
         <is>
-          <t>CM-7 a, AC-18 (1)</t>
+          <t>AC-18 (1),CM-7 a</t>
         </is>
       </c>
       <c r="B125" s="2" t="inlineStr">
@@ -9334,7 +9384,7 @@
     <row r="128" ht="130" customHeight="1">
       <c r="A128" s="2" t="inlineStr">
         <is>
-          <t>IA-5 (1) (c), CM-7 a, CM-6 b</t>
+          <t>CM-7 a,CM-6 b,IA-5 (1) (c)</t>
         </is>
       </c>
       <c r="B128" s="2" t="inlineStr">
@@ -9896,7 +9946,7 @@
     <row r="136" ht="130" customHeight="1">
       <c r="A136" s="2" t="inlineStr">
         <is>
-          <t>AC-11 (1), AC-11 b</t>
+          <t>AC-11 (1),AC-11 b</t>
         </is>
       </c>
       <c r="B136" s="2" t="inlineStr">
@@ -10117,7 +10167,7 @@
     <row r="139" ht="130" customHeight="1">
       <c r="A139" s="2" t="inlineStr">
         <is>
-          <t>CM-3 (5), SI-6 b, SI-6 d</t>
+          <t>CM-3 (5),SI-6 d,SI-6 b</t>
         </is>
       </c>
       <c r="B139" s="2" t="inlineStr">
@@ -10310,7 +10360,7 @@
     <row r="142" ht="130" customHeight="1">
       <c r="A142" s="2" t="inlineStr">
         <is>
-          <t>AC-2 (2), AC-2 (2)</t>
+          <t>AC-2 (2)</t>
         </is>
       </c>
       <c r="B142" s="2" t="inlineStr">
@@ -10759,7 +10809,7 @@
     <row r="148" ht="130" customHeight="1">
       <c r="A148" s="2" t="inlineStr">
         <is>
-          <t>AU-3, AU-3 (1), AU-12 a, MA-4 (1) (a), AU-12 c, AU-12 c, AU-12 c, AU-14 (1)</t>
+          <t>MA-4 (1) (a),AU-12 c,AU-12 a,AU-3,AU-14 (1),AU-3 (1)</t>
         </is>
       </c>
       <c r="B148" s="2" t="inlineStr">
@@ -11320,7 +11370,7 @@
     <row r="157" ht="130" customHeight="1">
       <c r="A157" s="2" t="inlineStr">
         <is>
-          <t>AU-3, AU-3 (1), AU-12 a, MA-4 (1) (a), AU-12 c, AU-12 c, AU-12 c, AU-12 c, AU-12 c</t>
+          <t>MA-4 (1) (a),AU-12 c,AU-12 a,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B157" s="2" t="inlineStr">
@@ -11452,7 +11502,7 @@
     <row r="159" ht="130" customHeight="1">
       <c r="A159" s="2" t="inlineStr">
         <is>
-          <t>SC-8, AC-17 (2)</t>
+          <t>AC-17 (2),SC-8</t>
         </is>
       </c>
       <c r="B159" s="2" t="inlineStr">
@@ -12435,7 +12485,7 @@
     <row r="175" ht="130" customHeight="1">
       <c r="A175" s="2" t="inlineStr">
         <is>
-          <t>SI-16, CM-7 a</t>
+          <t>CM-7 a,SI-16</t>
         </is>
       </c>
       <c r="B175" s="2" t="inlineStr">
@@ -12807,7 +12857,7 @@
     <row r="181" ht="130" customHeight="1">
       <c r="A181" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b, SC-3</t>
+          <t>SC-3,CM-6 b</t>
         </is>
       </c>
       <c r="B181" s="2" t="inlineStr">
@@ -13629,7 +13679,7 @@
       </c>
       <c r="F192" s="2" t="inlineStr">
         <is>
-          <t>The operating system must protect the confidentiality and integrity of all information at rest.</t>
+          <t>Red Hat Enterprise Linux 9 must protect the confidentiality and integrity of all information at rest.</t>
         </is>
       </c>
       <c r="G192" s="2" t="inlineStr">

--- a/srg_mapping/srg-mapping-rhel9.xlsx
+++ b/srg_mapping/srg-mapping-rhel9.xlsx
@@ -621,7 +621,7 @@
     <row r="3" ht="130" customHeight="1">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>SC-5 (2),CM-6 b,SC-5</t>
+          <t>SC-5,SC-5 (2),CM-6 b</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
@@ -716,7 +716,7 @@
     <row r="4" ht="130" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>AU-7 a,CM-5 (1),AU-7 b,AU-12 (3),AC-6 (9),AU-8 b,AC-6 (8)</t>
+          <t>AC-6 (8),AC-6 (9),AU-12 (3),AU-7 a,AU-7 b,CM-5 (1),AU-8 b</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
@@ -792,7 +792,7 @@
     <row r="5" ht="130" customHeight="1">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>AC-17 (9),CM-6 b,CM-7 b,AC-17 (1)</t>
+          <t>CM-7 b,CM-6 b,AC-17 (9),AC-17 (1)</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
@@ -1522,7 +1522,7 @@
     <row r="15" ht="130" customHeight="1">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),IA-2,IA-8</t>
+          <t>AU-3 (1),IA-8,IA-2</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
@@ -1668,7 +1668,7 @@
     <row r="17" ht="130" customHeight="1">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c,AU-12 a,AU-3,AU-3 (1)</t>
+          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
@@ -1795,7 +1795,7 @@
     <row r="19" ht="130" customHeight="1">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>IA-5 (1) (b),IA-5 (1) (a),CM-6 b</t>
+          <t>IA-5 (1) (a),IA-5 (1) (b),CM-6 b</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
@@ -1943,7 +1943,7 @@
     <row r="21" ht="130" customHeight="1">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>AC-12,SC-10,MA-4 (7),MA-4 e</t>
+          <t>AC-12,MA-4 (7),MA-4 e,SC-10</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
@@ -2014,7 +2014,7 @@
     <row r="22" ht="130" customHeight="1">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-7 a,CM-5 (1),AU-12 a,AU-7 (1),AU-6 (4),AU-3,CM-6 b,AU-14 (1),AU-3 (1)</t>
+          <t>AU-7 (1),AU-14 (1),AU-12 a,AU-6 (4),AU-3,AU-7 a,AU-3 (1),CM-5 (1),MA-4 (1) (a),CM-6 b</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
@@ -2243,7 +2243,7 @@
     <row r="25" ht="130" customHeight="1">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c,AU-12 a,AU-3,AU-3 (1)</t>
+          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
@@ -2509,7 +2509,7 @@
     <row r="29" ht="130" customHeight="1">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>SC-8 (2),SC-8,SC-8 (1)</t>
+          <t>SC-8 (1),SC-8,SC-8 (2)</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
@@ -2634,7 +2634,7 @@
     <row r="31" ht="130" customHeight="1">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c,AU-12 a,AC-2 (4),AU-3,AU-3 (1)</t>
+          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a),AC-2 (4)</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
@@ -3110,7 +3110,7 @@
     <row r="38" ht="130" customHeight="1">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>SI-11 b,AU-9</t>
+          <t>AU-9,SI-11 b</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
@@ -3178,7 +3178,7 @@
     <row r="39" ht="130" customHeight="1">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>AU-3,CM-6 b</t>
+          <t>CM-6 b,AU-3</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
@@ -3599,7 +3599,7 @@
     <row r="45" ht="130" customHeight="1">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>AC-8 a,AC-8 c 1, AC-8 c 2, AC-8 c 3,AC-8 b</t>
+          <t>AC-8 c 1, AC-8 c 2, AC-8 c 3,AC-8 a,AC-8 b</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
@@ -4146,7 +4146,7 @@
     <row r="53" ht="130" customHeight="1">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>SC-13,MA-4 (6)</t>
+          <t>MA-4 (6),SC-13</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
@@ -4283,7 +4283,7 @@
     <row r="55" ht="130" customHeight="1">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>AC-17 (2),SC-8</t>
+          <t>SC-8,AC-17 (2)</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
@@ -4841,7 +4841,7 @@
     <row r="63" ht="130" customHeight="1">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>AU-5 a,AU-5 (1)</t>
+          <t>AU-5 (1),AU-5 a</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
@@ -4992,7 +4992,7 @@
     <row r="65" ht="130" customHeight="1">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (2),CM-6 b</t>
+          <t>CM-6 b,IA-2 (2)</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
@@ -5132,7 +5132,7 @@
     <row r="67" ht="130" customHeight="1">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c,AU-12 a,AU-3,AU-3 (1)</t>
+          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
@@ -5258,7 +5258,7 @@
     <row r="69" ht="130" customHeight="1">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>CM-5 (1),AU-7 a,AU-12 c,AU-12 (3),AU-7 b,AU-12 a,AU-8 b,CM-6 b</t>
+          <t>AU-12 c,AU-12 a,AU-7 a,AU-12 (3),AU-7 b,CM-5 (1),AU-8 b,CM-6 b</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
@@ -5408,7 +5408,7 @@
     <row r="71" ht="130" customHeight="1">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-4 (1)</t>
+          <t>AU-4 (1),AU-3</t>
         </is>
       </c>
       <c r="B71" s="2" t="inlineStr">
@@ -5799,7 +5799,7 @@
     <row r="77" ht="130" customHeight="1">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c,AU-12 a,AC-2 (4),AU-3,AU-3 (1)</t>
+          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a),AC-2 (4)</t>
         </is>
       </c>
       <c r="B77" s="2" t="inlineStr">
@@ -5964,7 +5964,7 @@
     <row r="79" ht="130" customHeight="1">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>AU-9 (3),AU-9</t>
+          <t>AU-9,AU-9 (3)</t>
         </is>
       </c>
       <c r="B79" s="2" t="inlineStr">
@@ -6035,7 +6035,7 @@
     <row r="80" ht="130" customHeight="1">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (1),IA-2 (2),IA-2 (4),IA-2 (3)</t>
+          <t>IA-2 (3),IA-2 (1),IA-2 (4),IA-2 (2)</t>
         </is>
       </c>
       <c r="B80" s="2" t="inlineStr">
@@ -6455,7 +6455,7 @@
     <row r="86" ht="130" customHeight="1">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c,AU-12 a,AU-3,AU-3 (1)</t>
+          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B86" s="2" t="inlineStr">
@@ -6601,7 +6601,7 @@
     <row r="88" ht="130" customHeight="1">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>AC-2 (4),AC-6 (9),CM-5 (1),AU-12 c</t>
+          <t>AC-2 (4),AC-6 (9),AU-12 c,CM-5 (1)</t>
         </is>
       </c>
       <c r="B88" s="2" t="inlineStr">
@@ -6668,7 +6668,7 @@
     <row r="89" ht="130" customHeight="1">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (5),IA-2 (3),IA-2 (2),IA-2 (4),IA-2</t>
+          <t>IA-2 (3),IA-2 (5),IA-2 (4),IA-2,IA-2 (2)</t>
         </is>
       </c>
       <c r="B89" s="2" t="inlineStr">
@@ -6824,7 +6824,7 @@
     <row r="91" ht="130" customHeight="1">
       <c r="A91" s="2" t="inlineStr">
         <is>
-          <t>AU-9 (3),AU-9</t>
+          <t>AU-9,AU-9 (3)</t>
         </is>
       </c>
       <c r="B91" s="2" t="inlineStr">
@@ -7198,7 +7198,7 @@
     <row r="96" ht="130" customHeight="1">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>AC-18 (1),SC-8,SC-8 (1)</t>
+          <t>SC-8 (1),SC-8,AC-18 (1)</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
@@ -7274,7 +7274,7 @@
     <row r="97" ht="130" customHeight="1">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>AU-8 (1) (b),AU-8 (1) (a),AU-8 b</t>
+          <t>AU-8 b,AU-8 (1) (a),AU-8 (1) (b)</t>
         </is>
       </c>
       <c r="B97" s="2" t="inlineStr">
@@ -7571,7 +7571,7 @@
     <row r="101" ht="130" customHeight="1">
       <c r="A101" s="2" t="inlineStr">
         <is>
-          <t>AC-3 (4),IA-11</t>
+          <t>IA-11,AC-3 (4)</t>
         </is>
       </c>
       <c r="B101" s="2" t="inlineStr">
@@ -7641,7 +7641,7 @@
     <row r="102" ht="130" customHeight="1">
       <c r="A102" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c,AU-12 a,AU-3,AU-3 (1)</t>
+          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B102" s="2" t="inlineStr">
@@ -8227,7 +8227,7 @@
     <row r="111" ht="130" customHeight="1">
       <c r="A111" s="2" t="inlineStr">
         <is>
-          <t>AU-5 a,AU-5 b</t>
+          <t>AU-5 b,AU-5 a</t>
         </is>
       </c>
       <c r="B111" s="2" t="inlineStr">
@@ -8769,7 +8769,7 @@
     <row r="119" ht="130" customHeight="1">
       <c r="A119" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c,AU-12 a,AU-3,AU-3 (1)</t>
+          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B119" s="2" t="inlineStr">
@@ -9059,7 +9059,7 @@
     <row r="123" ht="130" customHeight="1">
       <c r="A123" s="2" t="inlineStr">
         <is>
-          <t>CM-7 a,CM-7 b</t>
+          <t>CM-7 b,CM-7 a</t>
         </is>
       </c>
       <c r="B123" s="2" t="inlineStr">
@@ -9129,7 +9129,7 @@
     <row r="124" ht="130" customHeight="1">
       <c r="A124" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c,AU-12 a,AU-3,AU-3 (1)</t>
+          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B124" s="2" t="inlineStr">
@@ -9384,7 +9384,7 @@
     <row r="128" ht="130" customHeight="1">
       <c r="A128" s="2" t="inlineStr">
         <is>
-          <t>CM-7 a,CM-6 b,IA-5 (1) (c)</t>
+          <t>CM-6 b,CM-7 a,IA-5 (1) (c)</t>
         </is>
       </c>
       <c r="B128" s="2" t="inlineStr">
@@ -10167,7 +10167,7 @@
     <row r="139" ht="130" customHeight="1">
       <c r="A139" s="2" t="inlineStr">
         <is>
-          <t>CM-3 (5),SI-6 d,SI-6 b</t>
+          <t>SI-6 d,CM-3 (5),SI-6 b</t>
         </is>
       </c>
       <c r="B139" s="2" t="inlineStr">
@@ -10809,7 +10809,7 @@
     <row r="148" ht="130" customHeight="1">
       <c r="A148" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c,AU-12 a,AU-3,AU-14 (1),AU-3 (1)</t>
+          <t>AU-12 c,AU-14 (1),AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B148" s="2" t="inlineStr">
@@ -11370,7 +11370,7 @@
     <row r="157" ht="130" customHeight="1">
       <c r="A157" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c,AU-12 a,AU-3,AU-3 (1)</t>
+          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B157" s="2" t="inlineStr">
@@ -11502,7 +11502,7 @@
     <row r="159" ht="130" customHeight="1">
       <c r="A159" s="2" t="inlineStr">
         <is>
-          <t>AC-17 (2),SC-8</t>
+          <t>SC-8,AC-17 (2)</t>
         </is>
       </c>
       <c r="B159" s="2" t="inlineStr">
@@ -12485,7 +12485,7 @@
     <row r="175" ht="130" customHeight="1">
       <c r="A175" s="2" t="inlineStr">
         <is>
-          <t>CM-7 a,SI-16</t>
+          <t>SI-16,CM-7 a</t>
         </is>
       </c>
       <c r="B175" s="2" t="inlineStr">

--- a/srg_mapping/srg-mapping-rhel9.xlsx
+++ b/srg_mapping/srg-mapping-rhel9.xlsx
@@ -541,7 +541,7 @@
     <row r="2" ht="130" customHeight="1">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>AU-4,AU-4 (1)</t>
+          <t>AU-4 (1),AU-4</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -621,7 +621,7 @@
     <row r="3" ht="130" customHeight="1">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>SC-5,SC-5 (2),CM-6 b</t>
+          <t>SC-5 (2),CM-6 b,SC-5</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
@@ -716,7 +716,7 @@
     <row r="4" ht="130" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>AC-6 (8),AC-6 (9),AU-12 (3),AU-7 a,AU-7 b,CM-5 (1),AU-8 b</t>
+          <t>AU-12 (3),AU-7 b,AC-6 (8),AU-7 a,CM-5 (1),AC-6 (9),AU-8 b</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
@@ -792,7 +792,7 @@
     <row r="5" ht="130" customHeight="1">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>CM-7 b,CM-6 b,AC-17 (9),AC-17 (1)</t>
+          <t>AC-17 (9),CM-7 b,CM-6 b,AC-17 (1)</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
@@ -1008,7 +1008,7 @@
     <row r="8" ht="130" customHeight="1">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (11),IA-2 (12)</t>
+          <t>IA-2 (12),IA-2 (11)</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
@@ -1522,7 +1522,7 @@
     <row r="15" ht="130" customHeight="1">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),IA-8,IA-2</t>
+          <t>IA-2,IA-8,AU-3 (1)</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
@@ -1668,7 +1668,7 @@
     <row r="17" ht="130" customHeight="1">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
+          <t>AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1),AU-12 c</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
@@ -1795,7 +1795,7 @@
     <row r="19" ht="130" customHeight="1">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>IA-5 (1) (a),IA-5 (1) (b),CM-6 b</t>
+          <t>IA-5 (1) (b),CM-6 b,IA-5 (1) (a)</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
@@ -1943,7 +1943,7 @@
     <row r="21" ht="130" customHeight="1">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>AC-12,MA-4 (7),MA-4 e,SC-10</t>
+          <t>AC-12,MA-4 (7),SC-10,MA-4 e</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
@@ -2014,7 +2014,7 @@
     <row r="22" ht="130" customHeight="1">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>AU-7 (1),AU-14 (1),AU-12 a,AU-6 (4),AU-3,AU-7 a,AU-3 (1),CM-5 (1),MA-4 (1) (a),CM-6 b</t>
+          <t>CM-6 b,AU-12 a,AU-7 a,CM-5 (1),AU-3,MA-4 (1) (a),AU-3 (1),AU-14 (1),AU-7 (1),AU-6 (4)</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
@@ -2243,7 +2243,7 @@
     <row r="25" ht="130" customHeight="1">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
+          <t>AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1),AU-12 c</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
@@ -2509,7 +2509,7 @@
     <row r="29" ht="130" customHeight="1">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>SC-8 (1),SC-8,SC-8 (2)</t>
+          <t>SC-8 (1),SC-8 (2),SC-8</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
@@ -2634,7 +2634,7 @@
     <row r="31" ht="130" customHeight="1">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a),AC-2 (4)</t>
+          <t>AU-12 a,AC-2 (4),MA-4 (1) (a),AU-3,AU-3 (1),AU-12 c</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
@@ -2838,7 +2838,7 @@
     <row r="34" ht="130" customHeight="1">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>AC-11 b,AC-11 a</t>
+          <t>AC-11 a,AC-11 b</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
@@ -3599,7 +3599,7 @@
     <row r="45" ht="130" customHeight="1">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>AC-8 c 1, AC-8 c 2, AC-8 c 3,AC-8 a,AC-8 b</t>
+          <t>AC-8 c 1, AC-8 c 2, AC-8 c 3,AC-8 b,AC-8 a</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
@@ -4283,7 +4283,7 @@
     <row r="55" ht="130" customHeight="1">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>SC-8,AC-17 (2)</t>
+          <t>AC-17 (2),SC-8</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
@@ -4992,7 +4992,7 @@
     <row r="65" ht="130" customHeight="1">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,IA-2 (2)</t>
+          <t>IA-2 (2),CM-6 b</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
@@ -5132,7 +5132,7 @@
     <row r="67" ht="130" customHeight="1">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
+          <t>AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1),AU-12 c</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
@@ -5258,7 +5258,7 @@
     <row r="69" ht="130" customHeight="1">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,AU-7 a,AU-12 (3),AU-7 b,CM-5 (1),AU-8 b,CM-6 b</t>
+          <t>AU-12 (3),CM-6 b,AU-7 b,AU-12 a,AU-7 a,CM-5 (1),AU-12 c,AU-8 b</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
@@ -5799,7 +5799,7 @@
     <row r="77" ht="130" customHeight="1">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a),AC-2 (4)</t>
+          <t>AU-12 a,AC-2 (4),MA-4 (1) (a),AU-3,AU-3 (1),AU-12 c</t>
         </is>
       </c>
       <c r="B77" s="2" t="inlineStr">
@@ -6035,7 +6035,7 @@
     <row r="80" ht="130" customHeight="1">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (3),IA-2 (1),IA-2 (4),IA-2 (2)</t>
+          <t>IA-2 (2),IA-2 (1),IA-2 (3),IA-2 (4)</t>
         </is>
       </c>
       <c r="B80" s="2" t="inlineStr">
@@ -6455,7 +6455,7 @@
     <row r="86" ht="130" customHeight="1">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
+          <t>AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1),AU-12 c</t>
         </is>
       </c>
       <c r="B86" s="2" t="inlineStr">
@@ -6601,7 +6601,7 @@
     <row r="88" ht="130" customHeight="1">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>AC-2 (4),AC-6 (9),AU-12 c,CM-5 (1)</t>
+          <t>AC-6 (9),AC-2 (4),AU-12 c,CM-5 (1)</t>
         </is>
       </c>
       <c r="B88" s="2" t="inlineStr">
@@ -6668,7 +6668,7 @@
     <row r="89" ht="130" customHeight="1">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (3),IA-2 (5),IA-2 (4),IA-2,IA-2 (2)</t>
+          <t>IA-2,IA-2 (5),IA-2 (2),IA-2 (4),IA-2 (3)</t>
         </is>
       </c>
       <c r="B89" s="2" t="inlineStr">
@@ -6748,7 +6748,7 @@
     <row r="90" ht="130" customHeight="1">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (11),IA-2 (12)</t>
+          <t>IA-2 (12),IA-2 (11)</t>
         </is>
       </c>
       <c r="B90" s="2" t="inlineStr">
@@ -7274,7 +7274,7 @@
     <row r="97" ht="130" customHeight="1">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>AU-8 b,AU-8 (1) (a),AU-8 (1) (b)</t>
+          <t>AU-8 (1) (a),AU-8 b,AU-8 (1) (b)</t>
         </is>
       </c>
       <c r="B97" s="2" t="inlineStr">
@@ -7641,7 +7641,7 @@
     <row r="102" ht="130" customHeight="1">
       <c r="A102" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
+          <t>AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1),AU-12 c</t>
         </is>
       </c>
       <c r="B102" s="2" t="inlineStr">
@@ -8227,7 +8227,7 @@
     <row r="111" ht="130" customHeight="1">
       <c r="A111" s="2" t="inlineStr">
         <is>
-          <t>AU-5 b,AU-5 a</t>
+          <t>AU-5 a,AU-5 b</t>
         </is>
       </c>
       <c r="B111" s="2" t="inlineStr">
@@ -8769,7 +8769,7 @@
     <row r="119" ht="130" customHeight="1">
       <c r="A119" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
+          <t>AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1),AU-12 c</t>
         </is>
       </c>
       <c r="B119" s="2" t="inlineStr">
@@ -9129,7 +9129,7 @@
     <row r="124" ht="130" customHeight="1">
       <c r="A124" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
+          <t>AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1),AU-12 c</t>
         </is>
       </c>
       <c r="B124" s="2" t="inlineStr">
@@ -9199,7 +9199,7 @@
     <row r="125" ht="130" customHeight="1">
       <c r="A125" s="2" t="inlineStr">
         <is>
-          <t>AC-18 (1),CM-7 a</t>
+          <t>CM-7 a,AC-18 (1)</t>
         </is>
       </c>
       <c r="B125" s="2" t="inlineStr">
@@ -9384,7 +9384,7 @@
     <row r="128" ht="130" customHeight="1">
       <c r="A128" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,CM-7 a,IA-5 (1) (c)</t>
+          <t>IA-5 (1) (c),CM-6 b,CM-7 a</t>
         </is>
       </c>
       <c r="B128" s="2" t="inlineStr">
@@ -9946,7 +9946,7 @@
     <row r="136" ht="130" customHeight="1">
       <c r="A136" s="2" t="inlineStr">
         <is>
-          <t>AC-11 (1),AC-11 b</t>
+          <t>AC-11 b,AC-11 (1)</t>
         </is>
       </c>
       <c r="B136" s="2" t="inlineStr">
@@ -10167,7 +10167,7 @@
     <row r="139" ht="130" customHeight="1">
       <c r="A139" s="2" t="inlineStr">
         <is>
-          <t>SI-6 d,CM-3 (5),SI-6 b</t>
+          <t>CM-3 (5),SI-6 b,SI-6 d</t>
         </is>
       </c>
       <c r="B139" s="2" t="inlineStr">
@@ -10809,7 +10809,7 @@
     <row r="148" ht="130" customHeight="1">
       <c r="A148" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-14 (1),AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
+          <t>AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1),AU-12 c,AU-14 (1)</t>
         </is>
       </c>
       <c r="B148" s="2" t="inlineStr">
@@ -11370,7 +11370,7 @@
     <row r="157" ht="130" customHeight="1">
       <c r="A157" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
+          <t>AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1),AU-12 c</t>
         </is>
       </c>
       <c r="B157" s="2" t="inlineStr">
@@ -11502,7 +11502,7 @@
     <row r="159" ht="130" customHeight="1">
       <c r="A159" s="2" t="inlineStr">
         <is>
-          <t>SC-8,AC-17 (2)</t>
+          <t>AC-17 (2),SC-8</t>
         </is>
       </c>
       <c r="B159" s="2" t="inlineStr">

--- a/srg_mapping/srg-mapping-rhel9.xlsx
+++ b/srg_mapping/srg-mapping-rhel9.xlsx
@@ -541,7 +541,7 @@
     <row r="2" ht="130" customHeight="1">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>AU-4 (1),AU-4</t>
+          <t>AU-4,AU-4 (1)</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -621,7 +621,7 @@
     <row r="3" ht="130" customHeight="1">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>SC-5 (2),CM-6 b,SC-5</t>
+          <t>CM-6 b,SC-5,SC-5 (2)</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
@@ -716,7 +716,7 @@
     <row r="4" ht="130" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>AU-12 (3),AU-7 b,AC-6 (8),AU-7 a,CM-5 (1),AC-6 (9),AU-8 b</t>
+          <t>AU-7 a,AC-6 (9),AU-7 b,AU-12 (3),AU-8 b,AC-6 (8),CM-5 (1)</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
@@ -792,7 +792,7 @@
     <row r="5" ht="130" customHeight="1">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>AC-17 (9),CM-7 b,CM-6 b,AC-17 (1)</t>
+          <t>CM-7 b,CM-6 b,AC-17 (9),AC-17 (1)</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
@@ -1155,7 +1155,7 @@
     <row r="10" ht="130" customHeight="1">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>CM-7 (2),CM-7 (5) (b)</t>
+          <t>CM-7 (5) (b),CM-7 (2)</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
@@ -1522,7 +1522,7 @@
     <row r="15" ht="130" customHeight="1">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>IA-2,IA-8,AU-3 (1)</t>
+          <t>IA-8,IA-2,AU-3 (1)</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
@@ -1668,7 +1668,7 @@
     <row r="17" ht="130" customHeight="1">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1),AU-12 c</t>
+          <t>AU-12 c,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-3</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
@@ -1795,7 +1795,7 @@
     <row r="19" ht="130" customHeight="1">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>IA-5 (1) (b),CM-6 b,IA-5 (1) (a)</t>
+          <t>CM-6 b,IA-5 (1) (a),IA-5 (1) (b)</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
@@ -1943,7 +1943,7 @@
     <row r="21" ht="130" customHeight="1">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>AC-12,MA-4 (7),SC-10,MA-4 e</t>
+          <t>AC-12,SC-10,MA-4 e,MA-4 (7)</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
@@ -2014,7 +2014,7 @@
     <row r="22" ht="130" customHeight="1">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,AU-12 a,AU-7 a,CM-5 (1),AU-3,MA-4 (1) (a),AU-3 (1),AU-14 (1),AU-7 (1),AU-6 (4)</t>
+          <t>AU-7 a,AU-12 a,CM-6 b,AU-7 (1),AU-3 (1),AU-6 (4),MA-4 (1) (a),CM-5 (1),AU-14 (1),AU-3</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
@@ -2243,7 +2243,7 @@
     <row r="25" ht="130" customHeight="1">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1),AU-12 c</t>
+          <t>AU-12 c,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-3</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
@@ -2634,7 +2634,7 @@
     <row r="31" ht="130" customHeight="1">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>AU-12 a,AC-2 (4),MA-4 (1) (a),AU-3,AU-3 (1),AU-12 c</t>
+          <t>AU-12 c,AU-12 a,AC-2 (4),AU-3 (1),MA-4 (1) (a),AU-3</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
@@ -2838,7 +2838,7 @@
     <row r="34" ht="130" customHeight="1">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>AC-11 a,AC-11 b</t>
+          <t>AC-11 b,AC-11 a</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
@@ -3377,7 +3377,7 @@
     <row r="42" ht="130" customHeight="1">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>SC-28 (1),SC-28</t>
+          <t>SC-28,SC-28 (1)</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
@@ -3599,7 +3599,7 @@
     <row r="45" ht="130" customHeight="1">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>AC-8 c 1, AC-8 c 2, AC-8 c 3,AC-8 b,AC-8 a</t>
+          <t>AC-8 a,AC-8 c 1, AC-8 c 2, AC-8 c 3,AC-8 b</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
@@ -3938,7 +3938,7 @@
     <row r="50" ht="130" customHeight="1">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (5),CM-6 b</t>
+          <t>CM-6 b,IA-2 (5)</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
@@ -4146,7 +4146,7 @@
     <row r="53" ht="130" customHeight="1">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (6),SC-13</t>
+          <t>SC-13,MA-4 (6)</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
@@ -4354,7 +4354,7 @@
     <row r="56" ht="130" customHeight="1">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
@@ -4841,7 +4841,7 @@
     <row r="63" ht="130" customHeight="1">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>AU-5 (1),AU-5 a</t>
+          <t>AU-5 a,AU-5 (1)</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
@@ -5132,7 +5132,7 @@
     <row r="67" ht="130" customHeight="1">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1),AU-12 c</t>
+          <t>AU-12 c,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-3</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
@@ -5258,7 +5258,7 @@
     <row r="69" ht="130" customHeight="1">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>AU-12 (3),CM-6 b,AU-7 b,AU-12 a,AU-7 a,CM-5 (1),AU-12 c,AU-8 b</t>
+          <t>AU-7 a,AU-12 c,AU-12 a,CM-6 b,AU-7 b,AU-12 (3),AU-8 b,CM-5 (1)</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
@@ -5799,7 +5799,7 @@
     <row r="77" ht="130" customHeight="1">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>AU-12 a,AC-2 (4),MA-4 (1) (a),AU-3,AU-3 (1),AU-12 c</t>
+          <t>AU-12 c,AU-12 a,AC-2 (4),AU-3 (1),MA-4 (1) (a),AU-3</t>
         </is>
       </c>
       <c r="B77" s="2" t="inlineStr">
@@ -6035,7 +6035,7 @@
     <row r="80" ht="130" customHeight="1">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (2),IA-2 (1),IA-2 (3),IA-2 (4)</t>
+          <t>IA-2 (2),IA-2 (1),IA-2 (4),IA-2 (3)</t>
         </is>
       </c>
       <c r="B80" s="2" t="inlineStr">
@@ -6122,7 +6122,7 @@
     <row r="81" ht="130" customHeight="1">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>CM-5 (3),CM-6 b</t>
+          <t>CM-6 b,CM-5 (3)</t>
         </is>
       </c>
       <c r="B81" s="2" t="inlineStr">
@@ -6455,7 +6455,7 @@
     <row r="86" ht="130" customHeight="1">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1),AU-12 c</t>
+          <t>AU-12 c,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-3</t>
         </is>
       </c>
       <c r="B86" s="2" t="inlineStr">
@@ -6601,7 +6601,7 @@
     <row r="88" ht="130" customHeight="1">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>AC-6 (9),AC-2 (4),AU-12 c,CM-5 (1)</t>
+          <t>AU-12 c,AC-6 (9),AC-2 (4),CM-5 (1)</t>
         </is>
       </c>
       <c r="B88" s="2" t="inlineStr">
@@ -6668,7 +6668,7 @@
     <row r="89" ht="130" customHeight="1">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>IA-2,IA-2 (5),IA-2 (2),IA-2 (4),IA-2 (3)</t>
+          <t>IA-2 (2),IA-2,IA-2 (5),IA-2 (4),IA-2 (3)</t>
         </is>
       </c>
       <c r="B89" s="2" t="inlineStr">
@@ -7274,7 +7274,7 @@
     <row r="97" ht="130" customHeight="1">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>AU-8 (1) (a),AU-8 b,AU-8 (1) (b)</t>
+          <t>AU-8 (1) (a),AU-8 (1) (b),AU-8 b</t>
         </is>
       </c>
       <c r="B97" s="2" t="inlineStr">
@@ -7641,7 +7641,7 @@
     <row r="102" ht="130" customHeight="1">
       <c r="A102" s="2" t="inlineStr">
         <is>
-          <t>AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1),AU-12 c</t>
+          <t>AU-12 c,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-3</t>
         </is>
       </c>
       <c r="B102" s="2" t="inlineStr">
@@ -8227,7 +8227,7 @@
     <row r="111" ht="130" customHeight="1">
       <c r="A111" s="2" t="inlineStr">
         <is>
-          <t>AU-5 a,AU-5 b</t>
+          <t>AU-5 b,AU-5 a</t>
         </is>
       </c>
       <c r="B111" s="2" t="inlineStr">
@@ -8769,7 +8769,7 @@
     <row r="119" ht="130" customHeight="1">
       <c r="A119" s="2" t="inlineStr">
         <is>
-          <t>AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1),AU-12 c</t>
+          <t>AU-12 c,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-3</t>
         </is>
       </c>
       <c r="B119" s="2" t="inlineStr">
@@ -9129,7 +9129,7 @@
     <row r="124" ht="130" customHeight="1">
       <c r="A124" s="2" t="inlineStr">
         <is>
-          <t>AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1),AU-12 c</t>
+          <t>AU-12 c,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-3</t>
         </is>
       </c>
       <c r="B124" s="2" t="inlineStr">
@@ -9199,7 +9199,7 @@
     <row r="125" ht="130" customHeight="1">
       <c r="A125" s="2" t="inlineStr">
         <is>
-          <t>CM-7 a,AC-18 (1)</t>
+          <t>AC-18 (1),CM-7 a</t>
         </is>
       </c>
       <c r="B125" s="2" t="inlineStr">
@@ -9384,7 +9384,7 @@
     <row r="128" ht="130" customHeight="1">
       <c r="A128" s="2" t="inlineStr">
         <is>
-          <t>IA-5 (1) (c),CM-6 b,CM-7 a</t>
+          <t>CM-6 b,IA-5 (1) (c),CM-7 a</t>
         </is>
       </c>
       <c r="B128" s="2" t="inlineStr">
@@ -10809,7 +10809,7 @@
     <row r="148" ht="130" customHeight="1">
       <c r="A148" s="2" t="inlineStr">
         <is>
-          <t>AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1),AU-12 c,AU-14 (1)</t>
+          <t>AU-12 c,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-14 (1),AU-3</t>
         </is>
       </c>
       <c r="B148" s="2" t="inlineStr">
@@ -11370,7 +11370,7 @@
     <row r="157" ht="130" customHeight="1">
       <c r="A157" s="2" t="inlineStr">
         <is>
-          <t>AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1),AU-12 c</t>
+          <t>AU-12 c,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-3</t>
         </is>
       </c>
       <c r="B157" s="2" t="inlineStr">
@@ -12857,7 +12857,7 @@
     <row r="181" ht="130" customHeight="1">
       <c r="A181" s="2" t="inlineStr">
         <is>
-          <t>SC-3,CM-6 b</t>
+          <t>CM-6 b,SC-3</t>
         </is>
       </c>
       <c r="B181" s="2" t="inlineStr">

--- a/srg_mapping/srg-mapping-rhel9.xlsx
+++ b/srg_mapping/srg-mapping-rhel9.xlsx
@@ -716,7 +716,7 @@
     <row r="4" ht="130" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>AU-7 a,AC-6 (9),AU-7 b,AU-12 (3),AU-8 b,AC-6 (8),CM-5 (1)</t>
+          <t>AU-8 b,AU-12 (3),AU-7 b,AU-7 a,AC-6 (9),AC-6 (8),CM-5 (1)</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
@@ -1008,7 +1008,7 @@
     <row r="8" ht="130" customHeight="1">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (12),IA-2 (11)</t>
+          <t>IA-2 (11),IA-2 (12)</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
@@ -1155,7 +1155,7 @@
     <row r="10" ht="130" customHeight="1">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>CM-7 (5) (b),CM-7 (2)</t>
+          <t>CM-7 (2),CM-7 (5) (b)</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
@@ -1522,7 +1522,7 @@
     <row r="15" ht="130" customHeight="1">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>IA-8,IA-2,AU-3 (1)</t>
+          <t>IA-2,AU-3 (1),IA-8</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
@@ -1596,7 +1596,7 @@
     <row r="16" ht="130" customHeight="1">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,AC-6 (10)</t>
+          <t>AC-6 (10),CM-6 b</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
@@ -1668,7 +1668,7 @@
     <row r="17" ht="130" customHeight="1">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-3</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-3,AU-3 (1),AU-12 c</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
@@ -1795,7 +1795,7 @@
     <row r="19" ht="130" customHeight="1">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,IA-5 (1) (a),IA-5 (1) (b)</t>
+          <t>IA-5 (1) (b),CM-6 b,IA-5 (1) (a)</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
@@ -1943,7 +1943,7 @@
     <row r="21" ht="130" customHeight="1">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>AC-12,SC-10,MA-4 e,MA-4 (7)</t>
+          <t>SC-10,AC-12,MA-4 e,MA-4 (7)</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
@@ -2014,7 +2014,7 @@
     <row r="22" ht="130" customHeight="1">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>AU-7 a,AU-12 a,CM-6 b,AU-7 (1),AU-3 (1),AU-6 (4),MA-4 (1) (a),CM-5 (1),AU-14 (1),AU-3</t>
+          <t>MA-4 (1) (a),AU-7 (1),AU-7 a,AU-12 a,AU-3,AU-3 (1),AU-6 (4),AU-14 (1),CM-6 b,CM-5 (1)</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
@@ -2243,7 +2243,7 @@
     <row r="25" ht="130" customHeight="1">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-3</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-3,AU-3 (1),AU-12 c</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
@@ -2509,7 +2509,7 @@
     <row r="29" ht="130" customHeight="1">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>SC-8 (1),SC-8 (2),SC-8</t>
+          <t>SC-8 (1),SC-8,SC-8 (2)</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
@@ -2634,7 +2634,7 @@
     <row r="31" ht="130" customHeight="1">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,AC-2 (4),AU-3 (1),MA-4 (1) (a),AU-3</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-3,AC-2 (4),AU-3 (1),AU-12 c</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
@@ -3599,7 +3599,7 @@
     <row r="45" ht="130" customHeight="1">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>AC-8 a,AC-8 c 1, AC-8 c 2, AC-8 c 3,AC-8 b</t>
+          <t>AC-8 c 1, AC-8 c 2, AC-8 c 3,AC-8 a,AC-8 b</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
@@ -4283,7 +4283,7 @@
     <row r="55" ht="130" customHeight="1">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>AC-17 (2),SC-8</t>
+          <t>SC-8,AC-17 (2)</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
@@ -4354,7 +4354,7 @@
     <row r="56" ht="130" customHeight="1">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
@@ -4992,7 +4992,7 @@
     <row r="65" ht="130" customHeight="1">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (2),CM-6 b</t>
+          <t>CM-6 b,IA-2 (2)</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
@@ -5132,7 +5132,7 @@
     <row r="67" ht="130" customHeight="1">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-3</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-3,AU-3 (1),AU-12 c</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
@@ -5258,7 +5258,7 @@
     <row r="69" ht="130" customHeight="1">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>AU-7 a,AU-12 c,AU-12 a,CM-6 b,AU-7 b,AU-12 (3),AU-8 b,CM-5 (1)</t>
+          <t>AU-8 b,AU-12 (3),AU-7 b,AU-7 a,AU-12 a,CM-6 b,AU-12 c,CM-5 (1)</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
@@ -5799,7 +5799,7 @@
     <row r="77" ht="130" customHeight="1">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,AC-2 (4),AU-3 (1),MA-4 (1) (a),AU-3</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-3,AC-2 (4),AU-3 (1),AU-12 c</t>
         </is>
       </c>
       <c r="B77" s="2" t="inlineStr">
@@ -6035,7 +6035,7 @@
     <row r="80" ht="130" customHeight="1">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (2),IA-2 (1),IA-2 (4),IA-2 (3)</t>
+          <t>IA-2 (3),IA-2 (1),IA-2 (4),IA-2 (2)</t>
         </is>
       </c>
       <c r="B80" s="2" t="inlineStr">
@@ -6122,7 +6122,7 @@
     <row r="81" ht="130" customHeight="1">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,CM-5 (3)</t>
+          <t>CM-5 (3),CM-6 b</t>
         </is>
       </c>
       <c r="B81" s="2" t="inlineStr">
@@ -6455,7 +6455,7 @@
     <row r="86" ht="130" customHeight="1">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-3</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-3,AU-3 (1),AU-12 c</t>
         </is>
       </c>
       <c r="B86" s="2" t="inlineStr">
@@ -6601,7 +6601,7 @@
     <row r="88" ht="130" customHeight="1">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AC-6 (9),AC-2 (4),CM-5 (1)</t>
+          <t>AC-2 (4),CM-5 (1),AC-6 (9),AU-12 c</t>
         </is>
       </c>
       <c r="B88" s="2" t="inlineStr">
@@ -6668,7 +6668,7 @@
     <row r="89" ht="130" customHeight="1">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (2),IA-2,IA-2 (5),IA-2 (4),IA-2 (3)</t>
+          <t>IA-2 (5),IA-2 (4),IA-2 (2),IA-2 (3),IA-2</t>
         </is>
       </c>
       <c r="B89" s="2" t="inlineStr">
@@ -6748,7 +6748,7 @@
     <row r="90" ht="130" customHeight="1">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (12),IA-2 (11)</t>
+          <t>IA-2 (11),IA-2 (12)</t>
         </is>
       </c>
       <c r="B90" s="2" t="inlineStr">
@@ -7274,7 +7274,7 @@
     <row r="97" ht="130" customHeight="1">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>AU-8 (1) (a),AU-8 (1) (b),AU-8 b</t>
+          <t>AU-8 b,AU-8 (1) (a),AU-8 (1) (b)</t>
         </is>
       </c>
       <c r="B97" s="2" t="inlineStr">
@@ -7571,7 +7571,7 @@
     <row r="101" ht="130" customHeight="1">
       <c r="A101" s="2" t="inlineStr">
         <is>
-          <t>IA-11,AC-3 (4)</t>
+          <t>AC-3 (4),IA-11</t>
         </is>
       </c>
       <c r="B101" s="2" t="inlineStr">
@@ -7641,7 +7641,7 @@
     <row r="102" ht="130" customHeight="1">
       <c r="A102" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-3</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-3,AU-3 (1),AU-12 c</t>
         </is>
       </c>
       <c r="B102" s="2" t="inlineStr">
@@ -8769,7 +8769,7 @@
     <row r="119" ht="130" customHeight="1">
       <c r="A119" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-3</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-3,AU-3 (1),AU-12 c</t>
         </is>
       </c>
       <c r="B119" s="2" t="inlineStr">
@@ -9059,7 +9059,7 @@
     <row r="123" ht="130" customHeight="1">
       <c r="A123" s="2" t="inlineStr">
         <is>
-          <t>CM-7 b,CM-7 a</t>
+          <t>CM-7 a,CM-7 b</t>
         </is>
       </c>
       <c r="B123" s="2" t="inlineStr">
@@ -9129,7 +9129,7 @@
     <row r="124" ht="130" customHeight="1">
       <c r="A124" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-3</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-3,AU-3 (1),AU-12 c</t>
         </is>
       </c>
       <c r="B124" s="2" t="inlineStr">
@@ -9199,7 +9199,7 @@
     <row r="125" ht="130" customHeight="1">
       <c r="A125" s="2" t="inlineStr">
         <is>
-          <t>AC-18 (1),CM-7 a</t>
+          <t>CM-7 a,AC-18 (1)</t>
         </is>
       </c>
       <c r="B125" s="2" t="inlineStr">
@@ -9384,7 +9384,7 @@
     <row r="128" ht="130" customHeight="1">
       <c r="A128" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,IA-5 (1) (c),CM-7 a</t>
+          <t>CM-7 a,IA-5 (1) (c),CM-6 b</t>
         </is>
       </c>
       <c r="B128" s="2" t="inlineStr">
@@ -9946,7 +9946,7 @@
     <row r="136" ht="130" customHeight="1">
       <c r="A136" s="2" t="inlineStr">
         <is>
-          <t>AC-11 b,AC-11 (1)</t>
+          <t>AC-11 (1),AC-11 b</t>
         </is>
       </c>
       <c r="B136" s="2" t="inlineStr">
@@ -10167,7 +10167,7 @@
     <row r="139" ht="130" customHeight="1">
       <c r="A139" s="2" t="inlineStr">
         <is>
-          <t>CM-3 (5),SI-6 b,SI-6 d</t>
+          <t>SI-6 b,SI-6 d,CM-3 (5)</t>
         </is>
       </c>
       <c r="B139" s="2" t="inlineStr">
@@ -10809,7 +10809,7 @@
     <row r="148" ht="130" customHeight="1">
       <c r="A148" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-14 (1),AU-3</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-3,AU-3 (1),AU-14 (1),AU-12 c</t>
         </is>
       </c>
       <c r="B148" s="2" t="inlineStr">
@@ -11370,7 +11370,7 @@
     <row r="157" ht="130" customHeight="1">
       <c r="A157" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-3</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-3,AU-3 (1),AU-12 c</t>
         </is>
       </c>
       <c r="B157" s="2" t="inlineStr">
@@ -11502,7 +11502,7 @@
     <row r="159" ht="130" customHeight="1">
       <c r="A159" s="2" t="inlineStr">
         <is>
-          <t>AC-17 (2),SC-8</t>
+          <t>SC-8,AC-17 (2)</t>
         </is>
       </c>
       <c r="B159" s="2" t="inlineStr">

--- a/srg_mapping/srg-mapping-rhel9.xlsx
+++ b/srg_mapping/srg-mapping-rhel9.xlsx
@@ -541,7 +541,7 @@
     <row r="2" ht="130" customHeight="1">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>AU-4,AU-4 (1)</t>
+          <t>AU-4 (1),AU-4</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -554,7 +554,11 @@
           <t>SRG-OS-000341-GPOS-00132,SRG-OS-000342-GPOS-00133</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr"/>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>CCE-88173-0</t>
+        </is>
+      </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
           <t>The operating system must allocate audit record storage capacity to store at least one weeks worth of audit records, when audit records are not immediately sent to a central audit record storage facility.</t>
@@ -562,7 +566,7 @@
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>The operating system must allocate audit record storage capacity to store at least one weeks worth of audit records, when audit records are not immediately sent to a central audit record storage facility.</t>
+          <t>Red Hat Enterprise Linux 9 must allocate audit record storage capacity to store at least one weeks worth of audit records, when audit records are not immediately sent to a central audit record storage facility.</t>
         </is>
       </c>
       <c r="G2" s="2" t="inlineStr">
@@ -621,7 +625,7 @@
     <row r="3" ht="130" customHeight="1">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,SC-5,SC-5 (2)</t>
+          <t>SC-5,CM-6 b,SC-5 (2)</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
@@ -634,7 +638,11 @@
           <t>SRG-OS-000480-GPOS-00227,SRG-OS-000420-GPOS-00186,SRG-OS-000142-GPOS-00071</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr"/>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>CCE-84006-6</t>
+        </is>
+      </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
           <t>The operating system must manage excess capacity, bandwidth, or other redundancy to limit the effects of information flooding types of Denial of Service (DoS) attacks.</t>
@@ -716,7 +724,7 @@
     <row r="4" ht="130" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>AU-8 b,AU-12 (3),AU-7 b,AU-7 a,AC-6 (9),AC-6 (8),CM-5 (1)</t>
+          <t>AU-7 b,AU-7 a,AC-6 (8),CM-5 (1),AU-12 (3),AC-6 (9),AU-8 b</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
@@ -729,7 +737,11 @@
           <t>SRG-OS-000326-GPOS-00126,SRG-OS-000327-GPOS-00127,SRG-OS-000337-GPOS-00129,SRG-OS-000348-GPOS-00136,SRG-OS-000349-GPOS-00137,SRG-OS-000350-GPOS-00138,SRG-OS-000351-GPOS-00139,SRG-OS-000352-GPOS-00140,SRG-OS-000353-GPOS-00141,SRG-OS-000354-GPOS-00142,SRG-OS-000358-GPOS-00145,SRG-OS-000359-GPOS-00146,SRG-OS-000365-GPOS-00152</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr"/>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>CCE-86402-5</t>
+        </is>
+      </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
           <t>The operating system must provide a report generation capability that supports on-demand audit review and analysis.</t>
@@ -737,7 +749,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>The operating system must provide a report generation capability that supports on-demand audit review and analysis.</t>
+          <t>Red Hat Enterprise Linux 9 must provide a report generation capability that supports on-demand audit review and analysis.</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -792,7 +804,7 @@
     <row r="5" ht="130" customHeight="1">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>CM-7 b,CM-6 b,AC-17 (9),AC-17 (1)</t>
+          <t>AC-17 (9),CM-7 b,CM-6 b,AC-17 (1)</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
@@ -805,7 +817,11 @@
           <t>SRG-OS-000096-GPOS-00050,SRG-OS-000297-GPOS-00115,SRG-OS-000298-GPOS-00116,SRG-OS-000480-GPOS-00227,SRG-OS-000480-GPOS-00232</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr"/>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>CCE-84021-5</t>
+        </is>
+      </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
           <t>The operating system must provide the capability to immediately disconnect or disable remote access to the operating system.</t>
@@ -813,7 +829,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>The operating system must provide the capability to immediately disconnect or disable remote access to the operating system.</t>
+          <t>Red Hat Enterprise Linux 9 must provide the capability to immediately disconnect or disable remote access to the operating system.</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -973,7 +989,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>The operating system must require devices to re-authenticate when changing authenticators.</t>
+          <t>Red Hat Enterprise Linux 9 must require devices to re-authenticate when changing authenticators.</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -1021,7 +1037,11 @@
           <t>SRG-OS-000375-GPOS-00160,SRG-OS-000376-GPOS-00161</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr"/>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>CCE-83595-9</t>
+        </is>
+      </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
           <t>The operating system must accept Personal Identity Verification (PIV) credentials.</t>
@@ -1029,7 +1049,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>The operating system must accept Personal Identity Verification (PIV) credentials.</t>
+          <t>Red Hat Enterprise Linux 9 must accept Personal Identity Verification (PIV) credentials.</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1155,7 +1175,7 @@
     <row r="10" ht="130" customHeight="1">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>CM-7 (2),CM-7 (5) (b)</t>
+          <t>CM-7 (5) (b),CM-7 (2)</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
@@ -1168,7 +1188,11 @@
           <t>SRG-OS-000370-GPOS-00155,SRG-OS-000368-GPOS-00154</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr"/>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>CCE-84224-5</t>
+        </is>
+      </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
           <t>The operating system must prevent program execution in accordance with local policies regarding software program usage and restrictions and/or rules authorizing the terms and conditions of software program usage.</t>
@@ -1176,7 +1200,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>The operating system must prevent program execution in accordance with local policies regarding software program usage and restrictions and/or rules authorizing the terms and conditions of software program usage.</t>
+          <t>Red Hat Enterprise Linux 9 must prevent program execution in accordance with local policies regarding software program usage and restrictions and/or rules authorizing the terms and conditions of software program usage.</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1240,7 +1264,11 @@
           <t>SRG-OS-000118-GPOS-00060</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr"/>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>CCE-83627-0</t>
+        </is>
+      </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
           <t>The operating system must disable account identifiers (individuals, groups, roles, and devices) after 35 days of inactivity.</t>
@@ -1320,7 +1348,11 @@
           <t>SRG-OS-000329-GPOS-00128,SRG-OS-000021-GPOS-00005</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr"/>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>CCE-83587-6</t>
+        </is>
+      </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
           <t>The operating system must enforce the limit of three consecutive invalid logon attempts by a user during a 15-minute time period.</t>
@@ -1328,7 +1360,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>The operating system must enforce the limit of three consecutive invalid logon attempts by a user during a 15-minute time period.</t>
+          <t>Red Hat Enterprise Linux 9 must enforce the limit of three consecutive invalid logon attempts by a user during a 15-minute time period.</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1400,7 +1432,11 @@
           <t>SRG-OS-000076-GPOS-00044</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr"/>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>CCE-83606-4</t>
+        </is>
+      </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
           <t>Operating systems must enforce a 60-day maximum password lifetime restriction.</t>
@@ -1487,7 +1523,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>The operating system must allow operating system admins to pass information to any other operating system admin or user.</t>
+          <t>Red Hat Enterprise Linux 9 must allow operating system admins to pass information to any other operating system admin or user.</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1522,7 +1558,7 @@
     <row r="15" ht="130" customHeight="1">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>IA-2,AU-3 (1),IA-8</t>
+          <t>IA-2,IA-8,AU-3 (1)</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
@@ -1535,7 +1571,11 @@
           <t>SRG-OS-000104-GPOS-00051,SRG-OS-000121-GPOS-00062,SRG-OS-000042-GPOS-00020</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr"/>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>CCE-88493-2</t>
+        </is>
+      </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
           <t>The operating system must generate audit records containing the full-text recording of privileged commands.</t>
@@ -1543,7 +1583,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>The operating system must generate audit records containing the full-text recording of privileged commands.</t>
+          <t>Red Hat Enterprise Linux 9 must generate audit records containing the full-text recording of privileged commands.</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1596,7 +1636,7 @@
     <row r="16" ht="130" customHeight="1">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>AC-6 (10),CM-6 b</t>
+          <t>CM-6 b,AC-6 (10)</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
@@ -1609,7 +1649,11 @@
           <t>SRG-OS-000324-GPOS-00125,SRG-OS-000480-GPOS-00227</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr"/>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>CCE-90308-8</t>
+        </is>
+      </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
           <t>The operating system must prevent non-privileged users from executing privileged functions to include disabling, circumventing, or altering implemented security safeguards/countermeasures.</t>
@@ -1617,7 +1661,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>The operating system must prevent non-privileged users from executing privileged functions to include disabling, circumventing, or altering implemented security safeguards/countermeasures.</t>
+          <t>Red Hat Enterprise Linux 9 must prevent non-privileged users from executing privileged functions to include disabling, circumventing, or altering implemented security safeguards/countermeasures.</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1668,7 +1712,7 @@
     <row r="17" ht="130" customHeight="1">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 a,AU-3,AU-3 (1),AU-12 c</t>
+          <t>AU-12 a,AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
@@ -1681,7 +1725,11 @@
           <t>SRG-OS-000037-GPOS-00015,SRG-OS-000042-GPOS-00020,SRG-OS-000062-GPOS-00031,SRG-OS-000392-GPOS-00172,SRG-OS-000462-GPOS-00206,SRG-OS-000471-GPOS-00215,SRG-OS-000064-GPOS-00033,SRG-OS-000466-GPOS-00210,SRG-OS-000458-GPOS-00203</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr"/>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>CCE-83830-0</t>
+        </is>
+      </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
           <t>The operating system must generate audit records when successful/unsuccessful attempts to modify privileges occur.</t>
@@ -1689,7 +1737,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>The operating system must generate audit records when successful/unsuccessful attempts to modify privileges occur.</t>
+          <t>Red Hat Enterprise Linux 9 must generate audit records when successful/unsuccessful attempts to modify privileges occur.</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1760,7 +1808,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>In the event of a system failure, the operating system must preserve any information necessary to determine cause of failure and any information necessary to return to operations with least disruption to mission processes.</t>
+          <t>In the event of a system failure, Red Hat Enterprise Linux 9 must preserve any information necessary to determine cause of failure and any information necessary to return to operations with least disruption to mission processes.</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1795,7 +1843,7 @@
     <row r="19" ht="130" customHeight="1">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>IA-5 (1) (b),CM-6 b,IA-5 (1) (a)</t>
+          <t>IA-5 (1) (a),CM-6 b,IA-5 (1) (b)</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
@@ -1808,7 +1856,11 @@
           <t>SRG-OS-000072-GPOS-00040,SRG-OS-000071-GPOS-00039,SRG-OS-000070-GPOS-00038,SRG-OS-000266-GPOS-00101,SRG-OS-000078-GPOS-00046,SRG-OS-000480-GPOS-00225,SRG-OS-000069-GPOS-00037</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr"/>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>CCE-86356-3</t>
+        </is>
+      </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
           <t>The operating system must enforce password complexity by requiring that at least one lower-case character be used.</t>
@@ -1886,7 +1938,11 @@
           <t>SRG-OS-000478-GPOS-00223</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr"/>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>CCE-86547-7</t>
+        </is>
+      </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
           <t>The operating system must implement NIST FIPS-validated cryptography for the following: to provision digital signatures, to generate cryptographic hashes, and to protect unclassified information requiring confidentiality and cryptographic protection in accordance with applicable federal laws, Executive Orders, directives, policies, regulations, and standards.</t>
@@ -1894,7 +1950,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>The operating system must implement NIST FIPS-validated cryptography for the following: to provision digital signatures, to generate cryptographic hashes, and to protect unclassified information requiring confidentiality and cryptographic protection in accordance with applicable federal laws, Executive Orders, directives, policies, regulations, and standards.</t>
+          <t>Red Hat Enterprise Linux 9 must implement NIST FIPS-validated cryptography for the following: to provision digital signatures, to generate cryptographic hashes, and to protect unclassified information requiring confidentiality and cryptographic protection in accordance with applicable federal laws, Executive Orders, directives, policies, regulations, and standards.</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1943,7 +1999,7 @@
     <row r="21" ht="130" customHeight="1">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>SC-10,AC-12,MA-4 e,MA-4 (7)</t>
+          <t>AC-12,MA-4 e,SC-10,MA-4 (7)</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
@@ -1956,7 +2012,11 @@
           <t>SRG-OS-000126-GPOS-00066,SRG-OS-000163-GPOS-00072,SRG-OS-000279-GPOS-00109,SRG-OS-000395-GPOS-00175</t>
         </is>
       </c>
-      <c r="D21" s="2" t="inlineStr"/>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>CCE-90811-1</t>
+        </is>
+      </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
           <t>The operating system must terminate all network connections associated with a communications session at the end of the session, or as follows: for in-band management sessions (privileged sessions), the session must be terminated after 10 minutes of inactivity; and for user sessions (non-privileged session), the session must be terminated after 15 minutes of inactivity, except to fulfill documented and validated mission requirements.</t>
@@ -1964,7 +2024,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>The operating system must terminate all network connections associated with a communications session at the end of the session, or as follows: for in-band management sessions (privileged sessions), the session must be terminated after 10 minutes of inacti</t>
+          <t>Red Hat Enterprise Linux 9 must terminate all network connections associated with a communications session at the end of the session, or as follows: for in-band management sessions (privileged sessions), the session must be terminated after 10 minutes of inacti</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2014,7 +2074,7 @@
     <row r="22" ht="130" customHeight="1">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-7 (1),AU-7 a,AU-12 a,AU-3,AU-3 (1),AU-6 (4),AU-14 (1),CM-6 b,CM-5 (1)</t>
+          <t>AU-7 a,AU-12 a,CM-5 (1),AU-7 (1),CM-6 b,AU-3,AU-3 (1),MA-4 (1) (a),AU-14 (1),AU-6 (4)</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
@@ -2027,7 +2087,11 @@
           <t>SRG-OS-000037-GPOS-00015,SRG-OS-000038-GPOS-00016,SRG-OS-000039-GPOS-00017,SRG-OS-000040-GPOS-00018,SRG-OS-000041-GPOS-00019,SRG-OS-000042-GPOS-00021,SRG-OS-000051-GPOS-00024,SRG-OS-000054-GPOS-00025,SRG-OS-000122-GPOS-00063,SRG-OS-000254-GPOS-00095,SRG-OS-000255-GPOS-00096,SRG-OS-000365-GPOS-00152,SRG-OS-000392-GPOS-00172,SRG-OS-000480-GPOS-00227,SRG-OS-000062-GPOS-00031,SRG-OS-000349-GPOS-00137</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr"/>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>CCE-90829-3</t>
+        </is>
+      </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
           <t>The operating system must produce audit records containing information to establish the outcome of the events.</t>
@@ -2115,7 +2179,7 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>The operating system must allow operating system admins to change security attributes on users, the operating system, or the operating systems components.</t>
+          <t>Red Hat Enterprise Linux 9 must allow operating system admins to change security attributes on users, the operating system, or the operating systems components.</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2163,7 +2227,11 @@
           <t>SRG-OS-000278-GPOS-00108</t>
         </is>
       </c>
-      <c r="D24" s="2" t="inlineStr"/>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>CCE-87757-1</t>
+        </is>
+      </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
           <t>The operating system must use cryptographic mechanisms to protect the integrity of audit tools.</t>
@@ -2171,7 +2239,7 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>The operating system must use cryptographic mechanisms to protect the integrity of audit tools.</t>
+          <t>Red Hat Enterprise Linux 9 must use cryptographic mechanisms to protect the integrity of audit tools.</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -2243,7 +2311,7 @@
     <row r="25" ht="130" customHeight="1">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 a,AU-3,AU-3 (1),AU-12 c</t>
+          <t>AU-12 a,AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
@@ -2256,7 +2324,11 @@
           <t>SRG-OS-000037-GPOS-00015,SRG-OS-000042-GPOS-00020,SRG-OS-000062-GPOS-00031,SRG-OS-000392-GPOS-00172,SRG-OS-000462-GPOS-00206,SRG-OS-000471-GPOS-00215,SRG-OS-000064-GPOS-00033,SRG-OS-000458-GPOS-00203,SRG-OS-000461-GPOS-00205</t>
         </is>
       </c>
-      <c r="D25" s="2" t="inlineStr"/>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>CCE-83786-4</t>
+        </is>
+      </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
           <t>The operating system must generate audit records when successful/unsuccessful attempts to access categories of information (e.g., classification levels) occur.</t>
@@ -2264,7 +2336,7 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>The operating system must generate audit records when successful/unsuccessful attempts to access categories of information (e.g., classification levels) occur.</t>
+          <t>Red Hat Enterprise Linux 9 must generate audit records when successful/unsuccessful attempts to access categories of information (e.g., classification levels) occur.</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -2325,7 +2397,11 @@
           <t>SRG-OS-000068-GPOS-00036</t>
         </is>
       </c>
-      <c r="D26" s="2" t="inlineStr"/>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>CCE-89737-1</t>
+        </is>
+      </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
           <t>The operating system must map the authenticated identity to the user or group account for PKI-based authentication.</t>
@@ -2472,7 +2548,7 @@
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>The operating system must automatically terminate a user session after inactivity time-outs have expired or at shutdown.</t>
+          <t>Red Hat Enterprise Linux 9 must automatically terminate a user session after inactivity time-outs have expired or at shutdown.</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
@@ -2522,7 +2598,11 @@
           <t>SRG-OS-000423-GPOS-00187,SRG-OS-000424-GPOS-00188,SRG-OS-000425-GPOS-00189,SRG-OS-000426-GPOS-00190</t>
         </is>
       </c>
-      <c r="D29" s="2" t="inlineStr"/>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>CCE-90823-6</t>
+        </is>
+      </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
           <t>The operating system must protect the confidentiality and integrity of transmitted information.</t>
@@ -2530,7 +2610,7 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>The operating system must protect the confidentiality and integrity of transmitted information.</t>
+          <t>Red Hat Enterprise Linux 9 must protect the confidentiality and integrity of transmitted information.</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
@@ -2634,7 +2714,7 @@
     <row r="31" ht="130" customHeight="1">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 a,AU-3,AC-2 (4),AU-3 (1),AU-12 c</t>
+          <t>AU-12 a,AC-2 (4),AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
@@ -2647,7 +2727,11 @@
           <t>SRG-OS-000004-GPOS-00004,SRG-OS-000037-GPOS-00015,SRG-OS-000042-GPOS-00020,SRG-OS-000062-GPOS-00031,SRG-OS-000304-GPOS-00121,SRG-OS-000392-GPOS-00172,SRG-OS-000462-GPOS-00206,SRG-OS-000470-GPOS-00214,SRG-OS-000471-GPOS-00215,SRG-OS-000239-GPOS-00089,SRG-OS-000240-GPOS-00090,SRG-OS-000241-GPOS-00091,SRG-OS-000303-GPOS-00120,SRG-OS-000304-GPOS-00121,SRG-OS-000466-GPOS-00210,SRG-OS-000476-GPOS-00221</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr"/>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>CCE-90176-9</t>
+        </is>
+      </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
           <t>The operating system must audit all account removal actions.</t>
@@ -2655,7 +2739,7 @@
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>The operating system must audit all account removal actions.</t>
+          <t>Red Hat Enterprise Linux 9 must audit all account removal actions.</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
@@ -2732,7 +2816,7 @@
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>The operating system must produce audit records containing information to establish what type of events occurred.</t>
+          <t>Red Hat Enterprise Linux 9 must produce audit records containing information to establish what type of events occurred.</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
@@ -2781,7 +2865,11 @@
           <t>SRG-OS-000480-GPOS-00226</t>
         </is>
       </c>
-      <c r="D33" s="2" t="inlineStr"/>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>CCE-83635-3</t>
+        </is>
+      </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
           <t>The operating system must enforce a delay of at least 4 seconds between logon prompts following a failed logon attempt.</t>
@@ -2789,7 +2877,7 @@
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>The operating system must enforce a delay of at least 4 seconds between logon prompts following a failed logon attempt.</t>
+          <t>Red Hat Enterprise Linux 9 must enforce a delay of at least 4 seconds between logon prompts following a failed logon attempt.</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
@@ -2851,7 +2939,11 @@
           <t>SRG-OS-000030-GPOS-00011,SRG-OS-000028-GPOS-00009</t>
         </is>
       </c>
-      <c r="D34" s="2" t="inlineStr"/>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>CCE-83599-1</t>
+        </is>
+      </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
           <t>The operating system must provide the capability for users to directly initiate a session lock for all connection types.</t>
@@ -2925,7 +3017,11 @@
           <t>SRG-OS-000077-GPOS-00045</t>
         </is>
       </c>
-      <c r="D35" s="2" t="inlineStr"/>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>CCE-86354-8</t>
+        </is>
+      </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
           <t>The operating system must prohibit password reuse for a minimum of five generations.</t>
@@ -2933,7 +3029,7 @@
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>The operating system must prohibit password reuse for a minimum of five generations.</t>
+          <t>Red Hat Enterprise Linux 9 must prohibit password reuse for a minimum of five generations.</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
@@ -2996,7 +3092,11 @@
           <t>SRG-OS-000051-GPOS-00024</t>
         </is>
       </c>
-      <c r="D36" s="2" t="inlineStr"/>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>CCE-83704-7</t>
+        </is>
+      </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
           <t>The operating system must provide the capability to centrally review and analyze audit records from multiple components within the system.</t>
@@ -3004,7 +3104,7 @@
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>The operating system must provide the capability to centrally review and analyze audit records from multiple components within the system.</t>
+          <t>Red Hat Enterprise Linux 9 must provide the capability to centrally review and analyze audit records from multiple components within the system.</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
@@ -3110,7 +3210,7 @@
     <row r="38" ht="130" customHeight="1">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>AU-9,SI-11 b</t>
+          <t>SI-11 b,AU-9</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
@@ -3123,7 +3223,11 @@
           <t>SRG-OS-000057-GPOS-00027,SRG-OS-000058-GPOS-00028,SRG-OS-000059-GPOS-00029,SRG-OS-000206-GPOS-00084</t>
         </is>
       </c>
-      <c r="D38" s="2" t="inlineStr"/>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>CCE-90516-6</t>
+        </is>
+      </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
           <t>The operating system must reveal error messages only to authorized users.</t>
@@ -3131,7 +3235,7 @@
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>The operating system must reveal error messages only to authorized users.</t>
+          <t>Red Hat Enterprise Linux 9 must reveal error messages only to authorized users.</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
@@ -3178,7 +3282,7 @@
     <row r="39" ht="130" customHeight="1">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,AU-3</t>
+          <t>AU-3,CM-6 b</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
@@ -3191,7 +3295,11 @@
           <t>SRG-OS-000255-GPOS-00096,SRG-OS-000480-GPOS-00227</t>
         </is>
       </c>
-      <c r="D39" s="2" t="inlineStr"/>
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>CCE-83696-5</t>
+        </is>
+      </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
           <t>The operating system must produce audit records containing information to establish the identity of any individual or process associated with the event.</t>
@@ -3199,7 +3307,7 @@
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>The operating system must produce audit records containing information to establish the identity of any individual or process associated with the event.</t>
+          <t>Red Hat Enterprise Linux 9 must produce audit records containing information to establish the identity of any individual or process associated with the event.</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
@@ -3269,7 +3377,7 @@
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>The operating system must not alter original content or time ordering of audit records when it provides an audit reduction capability.</t>
+          <t>Red Hat Enterprise Linux 9 must not alter original content or time ordering of audit records when it provides an audit reduction capability.</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
@@ -3326,7 +3434,7 @@
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>The operating system must off-load audit records onto a different system or media from the system being audited.</t>
+          <t>Red Hat Enterprise Linux 9 must off-load audit records onto a different system or media from the system being audited.</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
@@ -3377,7 +3485,7 @@
     <row r="42" ht="130" customHeight="1">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>SC-28,SC-28 (1)</t>
+          <t>SC-28 (1),SC-28</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
@@ -3390,7 +3498,11 @@
           <t>SRG-OS-000405-GPOS-00184,SRG-OS-000185-GPOS-00079,SRG-OS-000404-GPOS-00183</t>
         </is>
       </c>
-      <c r="D42" s="2" t="inlineStr"/>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>CCE-90849-1</t>
+        </is>
+      </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
           <t>The operating system must implement cryptographic mechanisms to prevent unauthorized modification of all information at rest on all operating system components.</t>
@@ -3398,7 +3510,7 @@
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>The operating system must implement cryptographic mechanisms to prevent unauthorized modification of all information at rest on all operating system components.</t>
+          <t>Red Hat Enterprise Linux 9 must implement cryptographic mechanisms to prevent unauthorized modification of all information at rest on all operating system components.</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
@@ -3471,7 +3583,11 @@
           <t>SRG-OS-000027-GPOS-00008</t>
         </is>
       </c>
-      <c r="D43" s="2" t="inlineStr"/>
+      <c r="D43" s="2" t="inlineStr">
+        <is>
+          <t>CCE-83641-1</t>
+        </is>
+      </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
           <t>The operating system must limit the number of concurrent sessions to ten for all accounts and/or account types.</t>
@@ -3479,7 +3595,7 @@
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>The operating system must limit the number of concurrent sessions to ten for all accounts and/or account types.</t>
+          <t>Red Hat Enterprise Linux 9 must limit the number of concurrent sessions to ten for all accounts and/or account types.</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
@@ -3542,7 +3658,11 @@
           <t>SRG-OS-000373-GPOS-00156,SRG-OS-000373-GPOS-00157,SRG-OS-000373-GPOS-00158</t>
         </is>
       </c>
-      <c r="D44" s="2" t="inlineStr"/>
+      <c r="D44" s="2" t="inlineStr">
+        <is>
+          <t>CCE-83544-7</t>
+        </is>
+      </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
           <t>The operating system must require users to re-authenticate when changing authenticators.</t>
@@ -3550,7 +3670,7 @@
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>The operating system must require users to re-authenticate when changing authenticators.</t>
+          <t>Red Hat Enterprise Linux 9 must require users to re-authenticate when changing authenticators.</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
@@ -3612,7 +3732,11 @@
           <t>SRG-OS-000023-GPOS-00006,SRG-OS-000024-GPOS-00007,SRG-OS-000228-GPOS-00088</t>
         </is>
       </c>
-      <c r="D45" s="2" t="inlineStr"/>
+      <c r="D45" s="2" t="inlineStr">
+        <is>
+          <t>CCE-90807-9</t>
+        </is>
+      </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
           <t>Any publically accessible connection to the operating system must display the Standard Mandatory DoD Notice and Consent Banner before granting access to the system.</t>
@@ -3620,7 +3744,7 @@
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>Any publically accessible connection to the operating system must display the Standard Mandatory DoD Notice and Consent Banner before granting access to the system.</t>
+          <t>Any publically accessible connection to Red Hat Enterprise Linux 9 must display the Standard Mandatory DoD Notice and Consent Banner before granting access to the system.</t>
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr">
@@ -3718,7 +3842,7 @@
       </c>
       <c r="F46" s="2" t="inlineStr">
         <is>
-          <t>The operating system must generate audit records when successful/unsuccessful attempts to access security objects occur.</t>
+          <t>Red Hat Enterprise Linux 9 must generate audit records when successful/unsuccessful attempts to access security objects occur.</t>
         </is>
       </c>
       <c r="G46" s="2" t="inlineStr">
@@ -3774,7 +3898,7 @@
       </c>
       <c r="F47" s="2" t="inlineStr">
         <is>
-          <t>The operating system must notify system administrators and ISSOs of account enabling actions.</t>
+          <t>Red Hat Enterprise Linux 9 must notify system administrators and ISSOs of account enabling actions.</t>
         </is>
       </c>
       <c r="G47" s="2" t="inlineStr">
@@ -3823,7 +3947,11 @@
           <t>SRG-OS-000480-GPOS-00228,SRG-OS-000480-GPOS-00227</t>
         </is>
       </c>
-      <c r="D48" s="2" t="inlineStr"/>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>CCE-83644-5</t>
+        </is>
+      </c>
       <c r="E48" s="2" t="inlineStr">
         <is>
           <t>The operating system must define default permissions for all authenticated users in such a way that the user can only read and modify their own files.</t>
@@ -3831,7 +3959,7 @@
       </c>
       <c r="F48" s="2" t="inlineStr">
         <is>
-          <t>The operating system must define default permissions for all authenticated users in such a way that the user can only read and modify their own files.</t>
+          <t>Red Hat Enterprise Linux 9 must define default permissions for all authenticated users in such a way that the user can only read and modify their own files.</t>
         </is>
       </c>
       <c r="G48" s="2" t="inlineStr">
@@ -3903,7 +4031,7 @@
       </c>
       <c r="F49" s="2" t="inlineStr">
         <is>
-          <t>The operating system must implement cryptographic mechanisms to prevent unauthorized disclosure of all information at rest on all operating system components.</t>
+          <t>Red Hat Enterprise Linux 9 must implement cryptographic mechanisms to prevent unauthorized disclosure of all information at rest on all operating system components.</t>
         </is>
       </c>
       <c r="G49" s="2" t="inlineStr">
@@ -3951,7 +4079,11 @@
           <t>SRG-OS-000109-GPOS-00056,SRG-OS-000480-GPOS-00227</t>
         </is>
       </c>
-      <c r="D50" s="2" t="inlineStr"/>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>CCE-90800-4</t>
+        </is>
+      </c>
       <c r="E50" s="2" t="inlineStr">
         <is>
           <t>The operating system must require individuals to be authenticated with an individual authenticator prior to using a group authenticator.</t>
@@ -4033,7 +4165,7 @@
       </c>
       <c r="F51" s="2" t="inlineStr">
         <is>
-          <t>The operating system must implement cryptographic mechanisms to prevent unauthorized disclosure of information and/or detect changes to information during transmission unless otherwise protected by alternative physical safeguards, such as, at a minimum, a</t>
+          <t>Red Hat Enterprise Linux 9 must implement cryptographic mechanisms to prevent unauthorized disclosure of information and/or detect changes to information during transmission unless otherwise protected by alternative physical safeguards, such as, at a minimum, a</t>
         </is>
       </c>
       <c r="G51" s="2" t="inlineStr">
@@ -4083,7 +4215,11 @@
           <t>SRG-OS-000120-GPOS-00061</t>
         </is>
       </c>
-      <c r="D52" s="2" t="inlineStr"/>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>CCE-84221-1</t>
+        </is>
+      </c>
       <c r="E52" s="2" t="inlineStr">
         <is>
           <t>The operating system must use mechanisms meeting the requirements of applicable federal laws, Executive orders, directives, policies, regulations, standards, and guidance for authentication to a cryptographic module.</t>
@@ -4159,7 +4295,11 @@
           <t>SRG-OS-000396-GPOS-00176,SRG-OS-000393-GPOS-00173,SRG-OS-000394-GPOS-00174</t>
         </is>
       </c>
-      <c r="D53" s="2" t="inlineStr"/>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>CCE-83450-7</t>
+        </is>
+      </c>
       <c r="E53" s="2" t="inlineStr">
         <is>
           <t>The operating system must implement cryptographic mechanisms to protect the integrity of nonlocal maintenance and diagnostic communications, when used for nonlocal maintenance sessions.</t>
@@ -4167,7 +4307,7 @@
       </c>
       <c r="F53" s="2" t="inlineStr">
         <is>
-          <t>The operating system must implement cryptographic mechanisms to protect the integrity of nonlocal maintenance and diagnostic communications, when used for nonlocal maintenance sessions.</t>
+          <t>Red Hat Enterprise Linux 9 must implement cryptographic mechanisms to protect the integrity of nonlocal maintenance and diagnostic communications, when used for nonlocal maintenance sessions.</t>
         </is>
       </c>
       <c r="G53" s="2" t="inlineStr">
@@ -4296,7 +4436,11 @@
           <t>SRG-OS-000250-GPOS-00093,SRG-OS-000423-GPOS-00187</t>
         </is>
       </c>
-      <c r="D55" s="2" t="inlineStr"/>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>CCE-86860-4</t>
+        </is>
+      </c>
       <c r="E55" s="2" t="inlineStr">
         <is>
           <t>The operating system must implement cryptography to protect the integrity of remote access sessions.</t>
@@ -4304,7 +4448,7 @@
       </c>
       <c r="F55" s="2" t="inlineStr">
         <is>
-          <t>The operating system must implement cryptography to protect the integrity of remote access sessions.</t>
+          <t>Red Hat Enterprise Linux 9 must implement cryptography to protect the integrity of remote access sessions.</t>
         </is>
       </c>
       <c r="G55" s="2" t="inlineStr">
@@ -4354,7 +4498,7 @@
     <row r="56" ht="130" customHeight="1">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
@@ -4367,7 +4511,11 @@
           <t>SRG-OS-000392-GPOS-00172,SRG-OS-000470-GPOS-00214,SRG-OS-000473-GPOS-00218</t>
         </is>
       </c>
-      <c r="D56" s="2" t="inlineStr"/>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>CCE-83783-1</t>
+        </is>
+      </c>
       <c r="E56" s="2" t="inlineStr">
         <is>
           <t>The operating system must generate audit records when successful/unsuccessful logon attempts occur.</t>
@@ -4375,7 +4523,7 @@
       </c>
       <c r="F56" s="2" t="inlineStr">
         <is>
-          <t>The operating system must generate audit records when successful/unsuccessful logon attempts occur.</t>
+          <t>Red Hat Enterprise Linux 9 must generate audit records when successful/unsuccessful logon attempts occur.</t>
         </is>
       </c>
       <c r="G56" s="2" t="inlineStr">
@@ -4434,7 +4582,11 @@
           <t>SRG-OS-000433-GPOS-00192</t>
         </is>
       </c>
-      <c r="D57" s="2" t="inlineStr"/>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>CCE-83970-4</t>
+        </is>
+      </c>
       <c r="E57" s="2" t="inlineStr">
         <is>
           <t>The operating system must implement non-executable data to protect its memory from unauthorized code execution.</t>
@@ -4442,7 +4594,7 @@
       </c>
       <c r="F57" s="2" t="inlineStr">
         <is>
-          <t>The operating system must implement non-executable data to protect its memory from unauthorized code execution.</t>
+          <t>Red Hat Enterprise Linux 9 must implement non-executable data to protect its memory from unauthorized code execution.</t>
         </is>
       </c>
       <c r="G57" s="2" t="inlineStr">
@@ -4521,7 +4673,11 @@
           <t>SRG-OS-000029-GPOS-00010</t>
         </is>
       </c>
-      <c r="D58" s="2" t="inlineStr"/>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>CCE-89876-7</t>
+        </is>
+      </c>
       <c r="E58" s="2" t="inlineStr">
         <is>
           <t>The operating system must initiate a session lock after a 15-minute period of inactivity for all connection types.</t>
@@ -4529,7 +4685,7 @@
       </c>
       <c r="F58" s="2" t="inlineStr">
         <is>
-          <t>The operating system must initiate a session lock after a 15-minute period of inactivity for all connection types.</t>
+          <t>Red Hat Enterprise Linux 9 must initiate a session lock after a 15-minute period of inactivity for all connection types.</t>
         </is>
       </c>
       <c r="G58" s="2" t="inlineStr">
@@ -4599,7 +4755,7 @@
       </c>
       <c r="F59" s="2" t="inlineStr">
         <is>
-          <t>The operating system must uniquely identify peripherals before establishing a connection.</t>
+          <t>Red Hat Enterprise Linux 9 must uniquely identify peripherals before establishing a connection.</t>
         </is>
       </c>
       <c r="G59" s="2" t="inlineStr">
@@ -4750,7 +4906,7 @@
       </c>
       <c r="F61" s="2" t="inlineStr">
         <is>
-          <t>The operating system must provide the capability for assigned IMOs/ISSOs or designated SAs to change the auditing to be performed on all operating system components, based on all selectable event criteria in near real time.</t>
+          <t>Red Hat Enterprise Linux 9 must provide the capability for assigned IMOs/ISSOs or designated SAs to change the auditing to be performed on all operating system components, based on all selectable event criteria in near real time.</t>
         </is>
       </c>
       <c r="G61" s="2" t="inlineStr">
@@ -4806,7 +4962,7 @@
       </c>
       <c r="F62" s="2" t="inlineStr">
         <is>
-          <t>The operating system must generate audit records when successful/unsuccessful attempts to delete privileges occur.</t>
+          <t>Red Hat Enterprise Linux 9 must generate audit records when successful/unsuccessful attempts to delete privileges occur.</t>
         </is>
       </c>
       <c r="G62" s="2" t="inlineStr">
@@ -4841,7 +4997,7 @@
     <row r="63" ht="130" customHeight="1">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>AU-5 a,AU-5 (1)</t>
+          <t>AU-5 (1),AU-5 a</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
@@ -4854,7 +5010,11 @@
           <t>SRG-OS-000046-GPOS-00022,SRG-OS-000343-GPOS-00134</t>
         </is>
       </c>
-      <c r="D63" s="2" t="inlineStr"/>
+      <c r="D63" s="2" t="inlineStr">
+        <is>
+          <t>CCE-83698-1</t>
+        </is>
+      </c>
       <c r="E63" s="2" t="inlineStr">
         <is>
           <t>The operating system must immediately notify the SA and ISSO (at a minimum) when allocated audit record storage volume reaches 75% of the repository maximum audit record storage capacity.</t>
@@ -4862,7 +5022,7 @@
       </c>
       <c r="F63" s="2" t="inlineStr">
         <is>
-          <t>The operating system must immediately notify the SA and ISSO (at a minimum) when allocated audit record storage volume reaches 75% of the repository maximum audit record storage capacity.</t>
+          <t>Red Hat Enterprise Linux 9 must immediately notify the SA and ISSO (at a minimum) when allocated audit record storage volume reaches 75% of the repository maximum audit record storage capacity.</t>
         </is>
       </c>
       <c r="G63" s="2" t="inlineStr">
@@ -4942,7 +5102,7 @@
       </c>
       <c r="H64" s="2" t="inlineStr">
         <is>
-          <t>To prevent the compromise of authentication information, such as passwords during the authentication process, the feedback from the operating system must not provide any information allowing an unauthorized user to compromise the authentication mechanism.
+          <t>To prevent the compromise of authentication information, such as passwords during the authentication process, the feedback from Red Hat Enterprise Linux 9 must not provide any information allowing an unauthorized user to compromise the authentication mechanism.
 Obfuscation of user-provided information that is typed into the system is a method used when addressing this risk.
 For example, displaying asterisks when a user types in a password is an example of obscuring feedback of authentication information.</t>
         </is>
@@ -5005,7 +5165,11 @@
           <t>SRG-OS-000106-GPOS-00053,SRG-OS-000480-GPOS-00229,SRG-OS-000480-GPOS-00227</t>
         </is>
       </c>
-      <c r="D65" s="2" t="inlineStr"/>
+      <c r="D65" s="2" t="inlineStr">
+        <is>
+          <t>CCE-90799-8</t>
+        </is>
+      </c>
       <c r="E65" s="2" t="inlineStr">
         <is>
           <t>The operating system must use multifactor authentication for network access to non-privileged accounts.</t>
@@ -5096,7 +5260,7 @@
       </c>
       <c r="F66" s="2" t="inlineStr">
         <is>
-          <t>The operating system must enforce password complexity by requiring that at least one special character be used.</t>
+          <t>Red Hat Enterprise Linux 9 must enforce password complexity by requiring that at least one special character be used.</t>
         </is>
       </c>
       <c r="G66" s="2" t="inlineStr">
@@ -5132,7 +5296,7 @@
     <row r="67" ht="130" customHeight="1">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 a,AU-3,AU-3 (1),AU-12 c</t>
+          <t>AU-12 a,AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
@@ -5145,7 +5309,11 @@
           <t>SRG-OS-000037-GPOS-00015,SRG-OS-000042-GPOS-00020,SRG-OS-000062-GPOS-00031,SRG-OS-000392-GPOS-00172,SRG-OS-000458-GPOS-00203,SRG-OS-000462-GPOS-00206,SRG-OS-000463-GPOS-00207,SRG-OS-000471-GPOS-00215,SRG-OS-000474-GPOS-00219,SRG-OS-000466-GPOS-00210,SRG-OS-000064-GPOS-00033</t>
         </is>
       </c>
-      <c r="D67" s="2" t="inlineStr"/>
+      <c r="D67" s="2" t="inlineStr">
+        <is>
+          <t>CCE-83821-9</t>
+        </is>
+      </c>
       <c r="E67" s="2" t="inlineStr">
         <is>
           <t>The operating system must generate audit records when successful/unsuccessful attempts to modify security objects occur.</t>
@@ -5153,7 +5321,7 @@
       </c>
       <c r="F67" s="2" t="inlineStr">
         <is>
-          <t>The operating system must generate audit records when successful/unsuccessful attempts to modify security objects occur.</t>
+          <t>Red Hat Enterprise Linux 9 must generate audit records when successful/unsuccessful attempts to modify security objects occur.</t>
         </is>
       </c>
       <c r="G67" s="2" t="inlineStr">
@@ -5224,7 +5392,7 @@
       </c>
       <c r="F68" s="2" t="inlineStr">
         <is>
-          <t>The operating system must limit the ability of non-privileged users to grant other users direct access to the contents of their home directories/folders.</t>
+          <t>Red Hat Enterprise Linux 9 must limit the ability of non-privileged users to grant other users direct access to the contents of their home directories/folders.</t>
         </is>
       </c>
       <c r="G68" s="2" t="inlineStr">
@@ -5258,7 +5426,7 @@
     <row r="69" ht="130" customHeight="1">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>AU-8 b,AU-12 (3),AU-7 b,AU-7 a,AU-12 a,CM-6 b,AU-12 c,CM-5 (1)</t>
+          <t>AU-7 b,AU-7 a,AU-12 a,CM-5 (1),CM-6 b,AU-12 (3),AU-12 c,AU-8 b</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
@@ -5271,7 +5439,11 @@
           <t>SRG-OS-000122-GPOS-00063,SRG-OS-000337-GPOS-00129,SRG-OS-000348-GPOS-00136,SRG-OS-000349-GPOS-00137,SRG-OS-000350-GPOS-00138,SRG-OS-000351-GPOS-00139,SRG-OS-000352-GPOS-00140,SRG-OS-000353-GPOS-00141,SRG-OS-000354-GPOS-00142,SRG-OS-000358-GPOS-00145,SRG-OS-000359-GPOS-00146,SRG-OS-000365-GPOS-00152,SRG-OS-000474-GPOS-00219,SRG-OS-000475-GPOS-00220,SRG-OS-000480-GPOS-00227,SRG-OS-000062-GPOS-00031</t>
         </is>
       </c>
-      <c r="D69" s="2" t="inlineStr"/>
+      <c r="D69" s="2" t="inlineStr">
+        <is>
+          <t>CCE-83649-4</t>
+        </is>
+      </c>
       <c r="E69" s="2" t="inlineStr">
         <is>
           <t>The operating system must produce audit records containing information to establish when (date and time) the events occurred.</t>
@@ -5342,7 +5514,11 @@
           <t>SRG-OS-000138-GPOS-00069</t>
         </is>
       </c>
-      <c r="D70" s="2" t="inlineStr"/>
+      <c r="D70" s="2" t="inlineStr">
+        <is>
+          <t>CCE-83895-3</t>
+        </is>
+      </c>
       <c r="E70" s="2" t="inlineStr">
         <is>
           <t>Operating systems must prevent unauthorized and unintended information transfer via shared system resources.</t>
@@ -5421,7 +5597,11 @@
           <t>SRG-OS-000039-GPOS-00017,SRG-OS-000342-GPOS-00133,SRG-OS-000479-GPOS-00224</t>
         </is>
       </c>
-      <c r="D71" s="2" t="inlineStr"/>
+      <c r="D71" s="2" t="inlineStr">
+        <is>
+          <t>CCE-83686-6</t>
+        </is>
+      </c>
       <c r="E71" s="2" t="inlineStr">
         <is>
           <t>The operating system must produce audit records containing information to establish where the events occurred.</t>
@@ -5571,7 +5751,7 @@
       </c>
       <c r="F73" s="2" t="inlineStr">
         <is>
-          <t>The operating system must not alter original content or time ordering of audit records when it provides a report generation capability.</t>
+          <t>Red Hat Enterprise Linux 9 must not alter original content or time ordering of audit records when it provides a report generation capability.</t>
         </is>
       </c>
       <c r="G73" s="2" t="inlineStr">
@@ -5620,7 +5800,11 @@
           <t>SRG-OS-000062-GPOS-00031</t>
         </is>
       </c>
-      <c r="D74" s="2" t="inlineStr"/>
+      <c r="D74" s="2" t="inlineStr">
+        <is>
+          <t>CCE-84206-2</t>
+        </is>
+      </c>
       <c r="E74" s="2" t="inlineStr">
         <is>
           <t>The operating system must provide audit record generation capability for DoD-defined auditable events for all operating system components.</t>
@@ -5628,7 +5812,7 @@
       </c>
       <c r="F74" s="2" t="inlineStr">
         <is>
-          <t>The operating system must provide audit record generation capability for DoD-defined auditable events for all operating system components.</t>
+          <t>Red Hat Enterprise Linux 9 must provide audit record generation capability for DoD-defined auditable events for all operating system components.</t>
         </is>
       </c>
       <c r="G74" s="2" t="inlineStr">
@@ -5765,7 +5949,7 @@
       </c>
       <c r="F76" s="2" t="inlineStr">
         <is>
-          <t>The operating system must implement NSA-approved cryptography to protect classified information in accordance with applicable federal laws, Executive Orders, directives, policies, regulations, and standards.</t>
+          <t>Red Hat Enterprise Linux 9 must implement NSA-approved cryptography to protect classified information in accordance with applicable federal laws, Executive Orders, directives, policies, regulations, and standards.</t>
         </is>
       </c>
       <c r="G76" s="2" t="inlineStr">
@@ -5799,7 +5983,7 @@
     <row r="77" ht="130" customHeight="1">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 a,AU-3,AC-2 (4),AU-3 (1),AU-12 c</t>
+          <t>AU-12 a,AC-2 (4),AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B77" s="2" t="inlineStr">
@@ -5812,7 +5996,11 @@
           <t>SRG-OS-000004-GPOS-00004,SRG-OS-000037-GPOS-00015,SRG-OS-000042-GPOS-00020,SRG-OS-000062-GPOS-00031,SRG-OS-000304-GPOS-00121,SRG-OS-000392-GPOS-00172,SRG-OS-000462-GPOS-00206,SRG-OS-000470-GPOS-00214,SRG-OS-000471-GPOS-00215,SRG-OS-000239-GPOS-00089,SRG-OS-000240-GPOS-00090,SRG-OS-000241-GPOS-00091,SRG-OS-000303-GPOS-00120,SRG-OS-000304-GPOS-00121,SRG-OS-000466-GPOS-00210,SRG-OS-000476-GPOS-00221,SRG-OS-000274-GPOS-00104,SRG-OS-000275-GPOS-00105,SRG-OS-000276-GPOS-00106,SRG-OS-000277-GPOS-00107</t>
         </is>
       </c>
-      <c r="D77" s="2" t="inlineStr"/>
+      <c r="D77" s="2" t="inlineStr">
+        <is>
+          <t>CCE-83714-6</t>
+        </is>
+      </c>
       <c r="E77" s="2" t="inlineStr">
         <is>
           <t>The operating system must notify system administrators and ISSOs when accounts are removed.</t>
@@ -5899,7 +6087,11 @@
           <t>SRG-OS-000125-GPOS-00065</t>
         </is>
       </c>
-      <c r="D78" s="2" t="inlineStr"/>
+      <c r="D78" s="2" t="inlineStr">
+        <is>
+          <t>CCE-86722-6</t>
+        </is>
+      </c>
       <c r="E78" s="2" t="inlineStr">
         <is>
           <t>The operating system must employ strong authenticators in the establishment of nonlocal maintenance and diagnostic sessions.</t>
@@ -5964,7 +6156,7 @@
     <row r="79" ht="130" customHeight="1">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>AU-9,AU-9 (3)</t>
+          <t>AU-9 (3),AU-9</t>
         </is>
       </c>
       <c r="B79" s="2" t="inlineStr">
@@ -5977,7 +6169,11 @@
           <t>SRG-OS-000256-GPOS-00097,SRG-OS-000257-GPOS-00098,SRG-OS-000258-GPOS-00099,SRG-OS-000278-GPOS-00108</t>
         </is>
       </c>
-      <c r="D79" s="2" t="inlineStr"/>
+      <c r="D79" s="2" t="inlineStr">
+        <is>
+          <t>CCE-90840-0</t>
+        </is>
+      </c>
       <c r="E79" s="2" t="inlineStr">
         <is>
           <t>The operating system must protect audit tools from unauthorized deletion.</t>
@@ -5985,7 +6181,7 @@
       </c>
       <c r="F79" s="2" t="inlineStr">
         <is>
-          <t>The operating system must protect audit tools from unauthorized deletion.</t>
+          <t>Red Hat Enterprise Linux 9 must protect audit tools from unauthorized deletion.</t>
         </is>
       </c>
       <c r="G79" s="2" t="inlineStr">
@@ -6035,7 +6231,7 @@
     <row r="80" ht="130" customHeight="1">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (3),IA-2 (1),IA-2 (4),IA-2 (2)</t>
+          <t>IA-2 (1),IA-2 (2),IA-2 (3),IA-2 (4)</t>
         </is>
       </c>
       <c r="B80" s="2" t="inlineStr">
@@ -6122,7 +6318,7 @@
     <row r="81" ht="130" customHeight="1">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>CM-5 (3),CM-6 b</t>
+          <t>CM-6 b,CM-5 (3)</t>
         </is>
       </c>
       <c r="B81" s="2" t="inlineStr">
@@ -6135,7 +6331,11 @@
           <t>SRG-OS-000480-GPOS-00227,SRG-OS-000366-GPOS-00153</t>
         </is>
       </c>
-      <c r="D81" s="2" t="inlineStr"/>
+      <c r="D81" s="2" t="inlineStr">
+        <is>
+          <t>CCE-83954-8</t>
+        </is>
+      </c>
       <c r="E81" s="2" t="inlineStr">
         <is>
           <t>The operating system must prevent the installation of patches, service packs, device drivers, or operating system components without verification they have been digitally signed using a certificate that is recognized and approved by the organization.</t>
@@ -6143,7 +6343,7 @@
       </c>
       <c r="F81" s="2" t="inlineStr">
         <is>
-          <t>The operating system must prevent the installation of patches, service packs, device drivers, or operating system components without verification they have been digitally signed using a certificate that is recognized and approved by the organization.</t>
+          <t>Red Hat Enterprise Linux 9 must prevent the installation of patches, service packs, device drivers, or operating system components without verification they have been digitally signed using a certificate that is recognized and approved by the organization.</t>
         </is>
       </c>
       <c r="G81" s="2" t="inlineStr">
@@ -6228,7 +6428,7 @@
       </c>
       <c r="F82" s="2" t="inlineStr">
         <is>
-          <t>The operating system must generate audit records when successful/unsuccessful attempts to access privileges occur.</t>
+          <t>Red Hat Enterprise Linux 9 must generate audit records when successful/unsuccessful attempts to access privileges occur.</t>
         </is>
       </c>
       <c r="G82" s="2" t="inlineStr">
@@ -6341,7 +6541,7 @@
       </c>
       <c r="F84" s="2" t="inlineStr">
         <is>
-          <t>The operating system must protect against or limit the effects of Denial of Service (DoS) attacks by ensuring the operating system is implementing rate-limiting measures on impacted network interfaces.</t>
+          <t>Red Hat Enterprise Linux 9 must protect against or limit the effects of Denial of Service (DoS) attacks by ensuring the operating system is implementing rate-limiting measures on impacted network interfaces.</t>
         </is>
       </c>
       <c r="G84" s="2" t="inlineStr">
@@ -6420,7 +6620,7 @@
       </c>
       <c r="F85" s="2" t="inlineStr">
         <is>
-          <t>The operating system must prevent all software from executing at higher privilege levels than users executing the software.</t>
+          <t>Red Hat Enterprise Linux 9 must prevent all software from executing at higher privilege levels than users executing the software.</t>
         </is>
       </c>
       <c r="G85" s="2" t="inlineStr">
@@ -6455,7 +6655,7 @@
     <row r="86" ht="130" customHeight="1">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 a,AU-3,AU-3 (1),AU-12 c</t>
+          <t>AU-12 a,AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B86" s="2" t="inlineStr">
@@ -6468,7 +6668,11 @@
           <t>SRG-OS-000037-GPOS-00015,SRG-OS-000042-GPOS-00020,SRG-OS-000062-GPOS-00031,SRG-OS-000392-GPOS-00172,SRG-OS-000462-GPOS-00206,SRG-OS-000471-GPOS-00215,SRG-OS-000064-GPOS-00033,SRG-OS-000466-GPOS-00210,SRG-OS-000458-GPOS-00203,SRG-OS-000474-GPOS-00219</t>
         </is>
       </c>
-      <c r="D86" s="2" t="inlineStr"/>
+      <c r="D86" s="2" t="inlineStr">
+        <is>
+          <t>CCE-83812-8</t>
+        </is>
+      </c>
       <c r="E86" s="2" t="inlineStr">
         <is>
           <t>The operating system must generate audit records when successful/unsuccessful accesses to objects occur.</t>
@@ -6476,7 +6680,7 @@
       </c>
       <c r="F86" s="2" t="inlineStr">
         <is>
-          <t>The operating system must generate audit records when successful/unsuccessful accesses to objects occur.</t>
+          <t>Red Hat Enterprise Linux 9 must generate audit records when successful/unsuccessful accesses to objects occur.</t>
         </is>
       </c>
       <c r="G86" s="2" t="inlineStr">
@@ -6539,7 +6743,11 @@
           <t>SRG-OS-000073-GPOS-00041</t>
         </is>
       </c>
-      <c r="D87" s="2" t="inlineStr"/>
+      <c r="D87" s="2" t="inlineStr">
+        <is>
+          <t>CCE-88865-1</t>
+        </is>
+      </c>
       <c r="E87" s="2" t="inlineStr">
         <is>
           <t>The operating system must store only encrypted representations of passwords.</t>
@@ -6547,7 +6755,7 @@
       </c>
       <c r="F87" s="2" t="inlineStr">
         <is>
-          <t>The operating system must store only encrypted representations of passwords.</t>
+          <t>Red Hat Enterprise Linux 9 must store only encrypted representations of passwords.</t>
         </is>
       </c>
       <c r="G87" s="2" t="inlineStr">
@@ -6601,7 +6809,7 @@
     <row r="88" ht="130" customHeight="1">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>AC-2 (4),CM-5 (1),AC-6 (9),AU-12 c</t>
+          <t>AU-12 c,CM-5 (1),AC-2 (4),AC-6 (9)</t>
         </is>
       </c>
       <c r="B88" s="2" t="inlineStr">
@@ -6622,7 +6830,7 @@
       </c>
       <c r="F88" s="2" t="inlineStr">
         <is>
-          <t>The operating system must generate audit records showing starting and ending time for user access to the system.</t>
+          <t>Red Hat Enterprise Linux 9 must generate audit records showing starting and ending time for user access to the system.</t>
         </is>
       </c>
       <c r="G88" s="2" t="inlineStr">
@@ -6668,7 +6876,7 @@
     <row r="89" ht="130" customHeight="1">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (5),IA-2 (4),IA-2 (2),IA-2 (3),IA-2</t>
+          <t>IA-2,IA-2 (2),IA-2 (3),IA-2 (5),IA-2 (4)</t>
         </is>
       </c>
       <c r="B89" s="2" t="inlineStr">
@@ -6681,7 +6889,11 @@
           <t>SRG-OS-000104-GPOS-00051,SRG-OS-000106-GPOS-00053,SRG-OS-000107-GPOS-00054,SRG-OS-000109-GPOS-00056,SRG-OS-000108-GPOS-00055,SRG-OS-000108-GPOS-00057,SRG-OS-000108-GPOS-00058</t>
         </is>
       </c>
-      <c r="D89" s="2" t="inlineStr"/>
+      <c r="D89" s="2" t="inlineStr">
+        <is>
+          <t>CCE-89122-6</t>
+        </is>
+      </c>
       <c r="E89" s="2" t="inlineStr">
         <is>
           <t>The operating system must uniquely identify and must authenticate organizational users (or processes acting on behalf of organizational users).</t>
@@ -6761,7 +6973,11 @@
           <t>SRG-OS-000375-GPOS-00160,SRG-OS-000377-GPOS-00162</t>
         </is>
       </c>
-      <c r="D90" s="2" t="inlineStr"/>
+      <c r="D90" s="2" t="inlineStr">
+        <is>
+          <t>CCE-87088-1</t>
+        </is>
+      </c>
       <c r="E90" s="2" t="inlineStr">
         <is>
           <t>The operating system must implement multifactor authentication for remote access to privileged accounts in such a way that one of the factors is provided by a device separate from the system gaining access.</t>
@@ -6769,7 +6985,7 @@
       </c>
       <c r="F90" s="2" t="inlineStr">
         <is>
-          <t>The operating system must implement multifactor authentication for remote access to privileged accounts in such a way that one of the factors is provided by a device separate from the system gaining access.</t>
+          <t>Red Hat Enterprise Linux 9 must implement multifactor authentication for remote access to privileged accounts in such a way that one of the factors is provided by a device separate from the system gaining access.</t>
         </is>
       </c>
       <c r="G90" s="2" t="inlineStr">
@@ -6824,7 +7040,7 @@
     <row r="91" ht="130" customHeight="1">
       <c r="A91" s="2" t="inlineStr">
         <is>
-          <t>AU-9,AU-9 (3)</t>
+          <t>AU-9 (3),AU-9</t>
         </is>
       </c>
       <c r="B91" s="2" t="inlineStr">
@@ -6837,7 +7053,11 @@
           <t>SRG-OS-000256-GPOS-00097,SRG-OS-000257-GPOS-00098,SRG-OS-000278-GPOS-00108</t>
         </is>
       </c>
-      <c r="D91" s="2" t="inlineStr"/>
+      <c r="D91" s="2" t="inlineStr">
+        <is>
+          <t>CCE-90842-6</t>
+        </is>
+      </c>
       <c r="E91" s="2" t="inlineStr">
         <is>
           <t>The operating system must protect audit tools from unauthorized modification.</t>
@@ -6845,7 +7065,7 @@
       </c>
       <c r="F91" s="2" t="inlineStr">
         <is>
-          <t>The operating system must protect audit tools from unauthorized modification.</t>
+          <t>Red Hat Enterprise Linux 9 must protect audit tools from unauthorized modification.</t>
         </is>
       </c>
       <c r="G91" s="2" t="inlineStr">
@@ -7008,7 +7228,7 @@
       </c>
       <c r="F93" s="2" t="inlineStr">
         <is>
-          <t>The operating system must, at a minimum, off-load audit data from interconnected systems in real time and off-load audit data from standalone systems weekly.</t>
+          <t>Red Hat Enterprise Linux 9 must, at a minimum, off-load audit data from interconnected systems in real time and off-load audit data from standalone systems weekly.</t>
         </is>
       </c>
       <c r="G93" s="2" t="inlineStr">
@@ -7056,7 +7276,11 @@
           <t>SRG-OS-000075-GPOS-00043</t>
         </is>
       </c>
-      <c r="D94" s="2" t="inlineStr"/>
+      <c r="D94" s="2" t="inlineStr">
+        <is>
+          <t>CCE-83610-6</t>
+        </is>
+      </c>
       <c r="E94" s="2" t="inlineStr">
         <is>
           <t>Operating systems must enforce 24 hours/1 day as the minimum password lifetime.</t>
@@ -7133,7 +7357,11 @@
           <t>SRG-OS-000072-GPOS-00040</t>
         </is>
       </c>
-      <c r="D95" s="2" t="inlineStr"/>
+      <c r="D95" s="2" t="inlineStr">
+        <is>
+          <t>CCE-83564-5</t>
+        </is>
+      </c>
       <c r="E95" s="2" t="inlineStr">
         <is>
           <t>The operating system must require the change of at least 50% of the total number of characters when passwords are changed.</t>
@@ -7141,7 +7369,7 @@
       </c>
       <c r="F95" s="2" t="inlineStr">
         <is>
-          <t>The operating system must require the change of at least 50% of the total number of characters when passwords are changed.</t>
+          <t>Red Hat Enterprise Linux 9 must require the change of at least 50% of the total number of characters when passwords are changed.</t>
         </is>
       </c>
       <c r="G95" s="2" t="inlineStr">
@@ -7198,7 +7426,7 @@
     <row r="96" ht="130" customHeight="1">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>SC-8 (1),SC-8,AC-18 (1)</t>
+          <t>SC-8 (1),AC-18 (1),SC-8</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
@@ -7211,7 +7439,11 @@
           <t>SRG-OS-000299-GPOS-00117,SRG-OS-000300-GPOS-00118,SRG-OS-000424-GPOS-00188,SRG-OS-000481-GPOS-000481</t>
         </is>
       </c>
-      <c r="D96" s="2" t="inlineStr"/>
+      <c r="D96" s="2" t="inlineStr">
+        <is>
+          <t>CCE-84066-0</t>
+        </is>
+      </c>
       <c r="E96" s="2" t="inlineStr">
         <is>
           <t>The operating system must protect wireless access to and from the system using encryption.</t>
@@ -7219,7 +7451,7 @@
       </c>
       <c r="F96" s="2" t="inlineStr">
         <is>
-          <t>The operating system must protect wireless access to and from the system using encryption.</t>
+          <t>Red Hat Enterprise Linux 9 must protect wireless access to and from the system using encryption.</t>
         </is>
       </c>
       <c r="G96" s="2" t="inlineStr">
@@ -7287,7 +7519,11 @@
           <t>SRG-OS-000355-GPOS-00143,SRG-OS-000356-GPOS-00144,SRG-OS-000359-GPOS-00146</t>
         </is>
       </c>
-      <c r="D97" s="2" t="inlineStr"/>
+      <c r="D97" s="2" t="inlineStr">
+        <is>
+          <t>CCE-88648-1</t>
+        </is>
+      </c>
       <c r="E97" s="2" t="inlineStr">
         <is>
           <t>The operating system must synchronize internal information system clocks to the authoritative time source when the time difference is greater than one second.</t>
@@ -7295,7 +7531,7 @@
       </c>
       <c r="F97" s="2" t="inlineStr">
         <is>
-          <t>The operating system must synchronize internal information system clocks to the authoritative time source when the time difference is greater than one second.</t>
+          <t>Red Hat Enterprise Linux 9 must synchronize internal information system clocks to the authoritative time source when the time difference is greater than one second.</t>
         </is>
       </c>
       <c r="G97" s="2" t="inlineStr">
@@ -7360,7 +7596,11 @@
           <t>SRG-OS-000259-GPOS-00100</t>
         </is>
       </c>
-      <c r="D98" s="2" t="inlineStr"/>
+      <c r="D98" s="2" t="inlineStr">
+        <is>
+          <t>CCE-89858-5</t>
+        </is>
+      </c>
       <c r="E98" s="2" t="inlineStr">
         <is>
           <t>The operating system must limit privileges to change software resident within software libraries.</t>
@@ -7368,7 +7608,7 @@
       </c>
       <c r="F98" s="2" t="inlineStr">
         <is>
-          <t>The operating system must limit privileges to change software resident within software libraries.</t>
+          <t>Red Hat Enterprise Linux 9 must limit privileges to change software resident within software libraries.</t>
         </is>
       </c>
       <c r="G98" s="2" t="inlineStr">
@@ -7435,7 +7675,11 @@
           <t>SRG-OS-000057-GPOS-00027,SRG-OS-000058-GPOS-00028,SRG-OS-000059-GPOS-00029</t>
         </is>
       </c>
-      <c r="D99" s="2" t="inlineStr"/>
+      <c r="D99" s="2" t="inlineStr">
+        <is>
+          <t>CCE-83716-1</t>
+        </is>
+      </c>
       <c r="E99" s="2" t="inlineStr">
         <is>
           <t>The operating system must protect audit information from unauthorized read access.</t>
@@ -7443,7 +7687,7 @@
       </c>
       <c r="F99" s="2" t="inlineStr">
         <is>
-          <t>The operating system must protect audit information from unauthorized read access.</t>
+          <t>Red Hat Enterprise Linux 9 must protect audit information from unauthorized read access.</t>
         </is>
       </c>
       <c r="G99" s="2" t="inlineStr">
@@ -7584,7 +7828,11 @@
           <t>SRG-OS-000373-GPOS-00156,SRG-OS-000312-GPOS-00123</t>
         </is>
       </c>
-      <c r="D101" s="2" t="inlineStr"/>
+      <c r="D101" s="2" t="inlineStr">
+        <is>
+          <t>CCE-90085-2</t>
+        </is>
+      </c>
       <c r="E101" s="2" t="inlineStr">
         <is>
           <t>The operating system must require users to re-authenticate for privilege escalation.</t>
@@ -7592,7 +7840,7 @@
       </c>
       <c r="F101" s="2" t="inlineStr">
         <is>
-          <t>The operating system must require users to re-authenticate for privilege escalation.</t>
+          <t>Red Hat Enterprise Linux 9 must require users to re-authenticate for privilege escalation.</t>
         </is>
       </c>
       <c r="G101" s="2" t="inlineStr">
@@ -7641,7 +7889,7 @@
     <row r="102" ht="130" customHeight="1">
       <c r="A102" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 a,AU-3,AU-3 (1),AU-12 c</t>
+          <t>AU-12 a,AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B102" s="2" t="inlineStr">
@@ -7654,7 +7902,11 @@
           <t>SRG-OS-000037-GPOS-00015,SRG-OS-000042-GPOS-00020,SRG-OS-000062-GPOS-00031,SRG-OS-000392-GPOS-00172,SRG-OS-000462-GPOS-00206,SRG-OS-000471-GPOS-00215,SRG-OS-000471-GPOS-00216,SRG-OS-000477-GPOS-00222</t>
         </is>
       </c>
-      <c r="D102" s="2" t="inlineStr"/>
+      <c r="D102" s="2" t="inlineStr">
+        <is>
+          <t>CCE-83802-9</t>
+        </is>
+      </c>
       <c r="E102" s="2" t="inlineStr">
         <is>
           <t>The operating system must generate audit records for all kernel module load, unload, and restart actions, and also for all program initiations.</t>
@@ -7662,7 +7914,7 @@
       </c>
       <c r="F102" s="2" t="inlineStr">
         <is>
-          <t>The operating system must generate audit records for all kernel module load, unload, and restart actions, and also for all program initiations.</t>
+          <t>Red Hat Enterprise Linux 9 must generate audit records for all kernel module load, unload, and restart actions, and also for all program initiations.</t>
         </is>
       </c>
       <c r="G102" s="2" t="inlineStr">
@@ -7809,7 +8061,7 @@
       </c>
       <c r="F104" s="2" t="inlineStr">
         <is>
-          <t>The operating system must audit all account enabling actions.</t>
+          <t>Red Hat Enterprise Linux 9 must audit all account enabling actions.</t>
         </is>
       </c>
       <c r="G104" s="2" t="inlineStr">
@@ -7857,7 +8109,11 @@
           <t>SRG-OS-000327-GPOS-00127</t>
         </is>
       </c>
-      <c r="D105" s="2" t="inlineStr"/>
+      <c r="D105" s="2" t="inlineStr">
+        <is>
+          <t>CCE-83759-1</t>
+        </is>
+      </c>
       <c r="E105" s="2" t="inlineStr">
         <is>
           <t>The operating system must audit the execution of privileged functions.</t>
@@ -7865,7 +8121,7 @@
       </c>
       <c r="F105" s="2" t="inlineStr">
         <is>
-          <t>The operating system must audit the execution of privileged functions.</t>
+          <t>Red Hat Enterprise Linux 9 must audit the execution of privileged functions.</t>
         </is>
       </c>
       <c r="G105" s="2" t="inlineStr">
@@ -7945,7 +8201,7 @@
       </c>
       <c r="F106" s="2" t="inlineStr">
         <is>
-          <t>The operating system must generate audit records for all direct access to the information system.</t>
+          <t>Red Hat Enterprise Linux 9 must generate audit records for all direct access to the information system.</t>
         </is>
       </c>
       <c r="G106" s="2" t="inlineStr">
@@ -8001,7 +8257,7 @@
       </c>
       <c r="F107" s="2" t="inlineStr">
         <is>
-          <t>The operating system must provide a report generation capability that supports on-demand reporting requirements.</t>
+          <t>Red Hat Enterprise Linux 9 must provide a report generation capability that supports on-demand reporting requirements.</t>
         </is>
       </c>
       <c r="G107" s="2" t="inlineStr">
@@ -8057,7 +8313,7 @@
       </c>
       <c r="F108" s="2" t="inlineStr">
         <is>
-          <t>The operating system must protect audit information from unauthorized deletion.</t>
+          <t>Red Hat Enterprise Linux 9 must protect audit information from unauthorized deletion.</t>
         </is>
       </c>
       <c r="G108" s="2" t="inlineStr">
@@ -8191,7 +8447,7 @@
       </c>
       <c r="F110" s="2" t="inlineStr">
         <is>
-          <t>The operating system must maintain the confidentiality and integrity of information during reception.</t>
+          <t>Red Hat Enterprise Linux 9 must maintain the confidentiality and integrity of information during reception.</t>
         </is>
       </c>
       <c r="G110" s="2" t="inlineStr">
@@ -8240,7 +8496,11 @@
           <t>SRG-OS-000046-GPOS-00022,SRG-OS-000047-GPOS-00023</t>
         </is>
       </c>
-      <c r="D111" s="2" t="inlineStr"/>
+      <c r="D111" s="2" t="inlineStr">
+        <is>
+          <t>CCE-83709-6</t>
+        </is>
+      </c>
       <c r="E111" s="2" t="inlineStr">
         <is>
           <t>The operating system must shut down by default upon audit failure (unless availability is an overriding concern).</t>
@@ -8248,7 +8508,7 @@
       </c>
       <c r="F111" s="2" t="inlineStr">
         <is>
-          <t>The operating system must shut down by default upon audit failure (unless availability is an overriding concern).</t>
+          <t>Red Hat Enterprise Linux 9 must shut down by default upon audit failure (unless availability is an overriding concern).</t>
         </is>
       </c>
       <c r="G111" s="2" t="inlineStr">
@@ -8325,7 +8585,7 @@
       </c>
       <c r="F112" s="2" t="inlineStr">
         <is>
-          <t>The operating system must generate audit records when concurrent logons to the same account occur from different sources.</t>
+          <t>Red Hat Enterprise Linux 9 must generate audit records when concurrent logons to the same account occur from different sources.</t>
         </is>
       </c>
       <c r="G112" s="2" t="inlineStr">
@@ -8381,7 +8641,7 @@
       </c>
       <c r="F113" s="2" t="inlineStr">
         <is>
-          <t>The operating system must allow operating system admins to grant their privileges to other operating system admins.</t>
+          <t>Red Hat Enterprise Linux 9 must allow operating system admins to grant their privileges to other operating system admins.</t>
         </is>
       </c>
       <c r="G113" s="2" t="inlineStr">
@@ -8437,7 +8697,7 @@
       </c>
       <c r="F114" s="2" t="inlineStr">
         <is>
-          <t>The operating system must provide a report generation capability that supports after-the-fact investigations of security incidents.</t>
+          <t>Red Hat Enterprise Linux 9 must provide a report generation capability that supports after-the-fact investigations of security incidents.</t>
         </is>
       </c>
       <c r="G114" s="2" t="inlineStr">
@@ -8576,7 +8836,7 @@
       </c>
       <c r="F116" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">The operating system must notify system administrators and ISSOs when accounts are disabled. </t>
+          <t xml:space="preserve">Red Hat Enterprise Linux 9 must notify system administrators and ISSOs when accounts are disabled. </t>
         </is>
       </c>
       <c r="G116" s="2" t="inlineStr">
@@ -8629,7 +8889,11 @@
           <t>SRG-OS-000437-GPOS-00194</t>
         </is>
       </c>
-      <c r="D117" s="2" t="inlineStr"/>
+      <c r="D117" s="2" t="inlineStr">
+        <is>
+          <t>CCE-83458-0</t>
+        </is>
+      </c>
       <c r="E117" s="2" t="inlineStr">
         <is>
           <t>The operating system must remove all software components after updated versions have been installed.</t>
@@ -8769,7 +9033,7 @@
     <row r="119" ht="130" customHeight="1">
       <c r="A119" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 a,AU-3,AU-3 (1),AU-12 c</t>
+          <t>AU-12 a,AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B119" s="2" t="inlineStr">
@@ -8782,7 +9046,11 @@
           <t>SRG-OS-000037-GPOS-00015,SRG-OS-000042-GPOS-00020,SRG-OS-000062-GPOS-00031,SRG-OS-000392-GPOS-00172,SRG-OS-000458-GPOS-00203,SRG-OS-000462-GPOS-00206,SRG-OS-000463-GPOS-00207,SRG-OS-000468-GPOS-00212,SRG-OS-000471-GPOS-00215,SRG-OS-000474-GPOS-00219,SRG-OS-000064-GPOS-00033</t>
         </is>
       </c>
-      <c r="D119" s="2" t="inlineStr"/>
+      <c r="D119" s="2" t="inlineStr">
+        <is>
+          <t>CCE-83817-7</t>
+        </is>
+      </c>
       <c r="E119" s="2" t="inlineStr">
         <is>
           <t>The operating system must generate audit records when successful/unsuccessful attempts to delete security objects occur.</t>
@@ -8790,7 +9058,7 @@
       </c>
       <c r="F119" s="2" t="inlineStr">
         <is>
-          <t>The operating system must generate audit records when successful/unsuccessful attempts to delete security objects occur.</t>
+          <t>Red Hat Enterprise Linux 9 must generate audit records when successful/unsuccessful attempts to delete security objects occur.</t>
         </is>
       </c>
       <c r="G119" s="2" t="inlineStr">
@@ -8936,7 +9204,7 @@
       </c>
       <c r="F121" s="2" t="inlineStr">
         <is>
-          <t>The operating system must behave in a predictable and documented manner that reflects organizational and system objectives when invalid inputs are received.</t>
+          <t>Red Hat Enterprise Linux 9 must behave in a predictable and documented manner that reflects organizational and system objectives when invalid inputs are received.</t>
         </is>
       </c>
       <c r="G121" s="2" t="inlineStr">
@@ -9005,7 +9273,11 @@
           <t>SRG-OS-000378-GPOS-00163</t>
         </is>
       </c>
-      <c r="D122" s="2" t="inlineStr"/>
+      <c r="D122" s="2" t="inlineStr">
+        <is>
+          <t>CCE-84203-9</t>
+        </is>
+      </c>
       <c r="E122" s="2" t="inlineStr">
         <is>
           <t>The operating system must authenticate peripherals before establishing a connection.</t>
@@ -9013,7 +9285,7 @@
       </c>
       <c r="F122" s="2" t="inlineStr">
         <is>
-          <t>The operating system must authenticate peripherals before establishing a connection.</t>
+          <t>Red Hat Enterprise Linux 9 must authenticate peripherals before establishing a connection.</t>
         </is>
       </c>
       <c r="G122" s="2" t="inlineStr">
@@ -9059,7 +9331,7 @@
     <row r="123" ht="130" customHeight="1">
       <c r="A123" s="2" t="inlineStr">
         <is>
-          <t>CM-7 a,CM-7 b</t>
+          <t>CM-7 b,CM-7 a</t>
         </is>
       </c>
       <c r="B123" s="2" t="inlineStr">
@@ -9072,7 +9344,11 @@
           <t>SRG-OS-000096-GPOS-00050,SRG-OS-000095-GPOS-00049</t>
         </is>
       </c>
-      <c r="D123" s="2" t="inlineStr"/>
+      <c r="D123" s="2" t="inlineStr">
+        <is>
+          <t>CCE-87543-5</t>
+        </is>
+      </c>
       <c r="E123" s="2" t="inlineStr">
         <is>
           <t>The operating system must be configured to prohibit or restrict the use of functions, ports, protocols, and/or services, as defined in the PPSM CAL and vulnerability assessments.</t>
@@ -9080,7 +9356,7 @@
       </c>
       <c r="F123" s="2" t="inlineStr">
         <is>
-          <t>The operating system must be configured to prohibit or restrict the use of functions, ports, protocols, and/or services, as defined in the PPSM CAL and vulnerability assessments.</t>
+          <t>Red Hat Enterprise Linux 9 must be configured to prohibit or restrict the use of functions, ports, protocols, and/or services, as defined in the PPSM CAL and vulnerability assessments.</t>
         </is>
       </c>
       <c r="G123" s="2" t="inlineStr">
@@ -9129,7 +9405,7 @@
     <row r="124" ht="130" customHeight="1">
       <c r="A124" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 a,AU-3,AU-3 (1),AU-12 c</t>
+          <t>AU-12 a,AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B124" s="2" t="inlineStr">
@@ -9142,7 +9418,11 @@
           <t>SRG-OS-000037-GPOS-00015,SRG-OS-000042-GPOS-00020,SRG-OS-000062-GPOS-00031,SRG-OS-000392-GPOS-00172,SRG-OS-000462-GPOS-00206,SRG-OS-000471-GPOS-00215,SRG-OS-000466-GPOS-00210,SRG-OS-000467-GPOS-00211,SRG-OS-000468-GPOS-00212</t>
         </is>
       </c>
-      <c r="D124" s="2" t="inlineStr"/>
+      <c r="D124" s="2" t="inlineStr">
+        <is>
+          <t>CCE-83754-2</t>
+        </is>
+      </c>
       <c r="E124" s="2" t="inlineStr">
         <is>
           <t>The operating system must generate audit records when successful/unsuccessful attempts to delete security levels occur.</t>
@@ -9150,7 +9430,7 @@
       </c>
       <c r="F124" s="2" t="inlineStr">
         <is>
-          <t>The operating system must generate audit records when successful/unsuccessful attempts to delete security levels occur.</t>
+          <t>Red Hat Enterprise Linux 9 must generate audit records when successful/unsuccessful attempts to delete security levels occur.</t>
         </is>
       </c>
       <c r="G124" s="2" t="inlineStr">
@@ -9199,7 +9479,7 @@
     <row r="125" ht="130" customHeight="1">
       <c r="A125" s="2" t="inlineStr">
         <is>
-          <t>CM-7 a,AC-18 (1)</t>
+          <t>AC-18 (1),CM-7 a</t>
         </is>
       </c>
       <c r="B125" s="2" t="inlineStr">
@@ -9212,7 +9492,11 @@
           <t>SRG-OS-000095-GPOS-00049,SRG-OS-000300-GPOS-00118</t>
         </is>
       </c>
-      <c r="D125" s="2" t="inlineStr"/>
+      <c r="D125" s="2" t="inlineStr">
+        <is>
+          <t>CCE-84067-8</t>
+        </is>
+      </c>
       <c r="E125" s="2" t="inlineStr">
         <is>
           <t>The operating system must protect wireless access to the system using authentication of users and/or devices.</t>
@@ -9220,7 +9504,7 @@
       </c>
       <c r="F125" s="2" t="inlineStr">
         <is>
-          <t>The operating system must protect wireless access to the system using authentication of users and/or devices.</t>
+          <t>Red Hat Enterprise Linux 9 must protect wireless access to the system using authentication of users and/or devices.</t>
         </is>
       </c>
       <c r="G125" s="2" t="inlineStr">
@@ -9293,7 +9577,7 @@
       </c>
       <c r="F126" s="2" t="inlineStr">
         <is>
-          <t>The operating system must audit all account disabling actions.</t>
+          <t>Red Hat Enterprise Linux 9 must audit all account disabling actions.</t>
         </is>
       </c>
       <c r="G126" s="2" t="inlineStr">
@@ -9349,7 +9633,7 @@
       </c>
       <c r="F127" s="2" t="inlineStr">
         <is>
-          <t>The operating system must record time stamps for audit records that meet a minimum granularity of one second for a minimum degree of precision.</t>
+          <t>Red Hat Enterprise Linux 9 must record time stamps for audit records that meet a minimum granularity of one second for a minimum degree of precision.</t>
         </is>
       </c>
       <c r="G127" s="2" t="inlineStr">
@@ -9384,7 +9668,7 @@
     <row r="128" ht="130" customHeight="1">
       <c r="A128" s="2" t="inlineStr">
         <is>
-          <t>CM-7 a,IA-5 (1) (c),CM-6 b</t>
+          <t>CM-6 b,IA-5 (1) (c),CM-7 a</t>
         </is>
       </c>
       <c r="B128" s="2" t="inlineStr">
@@ -9397,7 +9681,11 @@
           <t>SRG-OS-000074-GPOS-00042,SRG-OS-000095-GPOS-00049,SRG-OS-000480-GPOS-00227</t>
         </is>
       </c>
-      <c r="D128" s="2" t="inlineStr"/>
+      <c r="D128" s="2" t="inlineStr">
+        <is>
+          <t>CCE-84159-3</t>
+        </is>
+      </c>
       <c r="E128" s="2" t="inlineStr">
         <is>
           <t>The operating system must transmit only encrypted representations of passwords.</t>
@@ -9611,7 +9899,11 @@
           <t>SRG-OS-000071-GPOS-00039</t>
         </is>
       </c>
-      <c r="D131" s="2" t="inlineStr"/>
+      <c r="D131" s="2" t="inlineStr">
+        <is>
+          <t>CCE-83566-0</t>
+        </is>
+      </c>
       <c r="E131" s="2" t="inlineStr">
         <is>
           <t>The operating system must enforce password complexity by requiring that at least one numeric character be used.</t>
@@ -9701,7 +9993,7 @@
       </c>
       <c r="F132" s="2" t="inlineStr">
         <is>
-          <t>The operating system must authenticate all endpoint devices before establishing a local, remote, and/or network connection using bidirectional authentication that is cryptographically based.</t>
+          <t>Red Hat Enterprise Linux 9 must authenticate all endpoint devices before establishing a local, remote, and/or network connection using bidirectional authentication that is cryptographically based.</t>
         </is>
       </c>
       <c r="G132" s="2" t="inlineStr">
@@ -9816,7 +10108,11 @@
           <t>SRG-OS-000046-GPOS-00022</t>
         </is>
       </c>
-      <c r="D134" s="2" t="inlineStr"/>
+      <c r="D134" s="2" t="inlineStr">
+        <is>
+          <t>CCE-90826-9</t>
+        </is>
+      </c>
       <c r="E134" s="2" t="inlineStr">
         <is>
           <t>The operating system must alert the ISSO and SA (at a minimum) in the event of an audit processing failure.</t>
@@ -9824,7 +10120,7 @@
       </c>
       <c r="F134" s="2" t="inlineStr">
         <is>
-          <t>The operating system must alert the ISSO and SA (at a minimum) in the event of an audit processing failure.</t>
+          <t>Red Hat Enterprise Linux 9 must alert the ISSO and SA (at a minimum) in the event of an audit processing failure.</t>
         </is>
       </c>
       <c r="G134" s="2" t="inlineStr">
@@ -9888,7 +10184,11 @@
           <t>SRG-OS-000080-GPOS-00048</t>
         </is>
       </c>
-      <c r="D135" s="2" t="inlineStr"/>
+      <c r="D135" s="2" t="inlineStr">
+        <is>
+          <t>CCE-83592-6</t>
+        </is>
+      </c>
       <c r="E135" s="2" t="inlineStr">
         <is>
           <t>The operating system must enforce approved authorizations for logical access to information and system resources in accordance with applicable access control policies.</t>
@@ -9896,7 +10196,7 @@
       </c>
       <c r="F135" s="2" t="inlineStr">
         <is>
-          <t>The operating system must enforce approved authorizations for logical access to information and system resources in accordance with applicable access control policies.</t>
+          <t>Red Hat Enterprise Linux 9 must enforce approved authorizations for logical access to information and system resources in accordance with applicable access control policies.</t>
         </is>
       </c>
       <c r="G135" s="2" t="inlineStr">
@@ -9946,7 +10246,7 @@
     <row r="136" ht="130" customHeight="1">
       <c r="A136" s="2" t="inlineStr">
         <is>
-          <t>AC-11 (1),AC-11 b</t>
+          <t>AC-11 b,AC-11 (1)</t>
         </is>
       </c>
       <c r="B136" s="2" t="inlineStr">
@@ -9959,7 +10259,11 @@
           <t>SRG-OS-000031-GPOS-00012,SRG-OS-000028-GPOS-00009</t>
         </is>
       </c>
-      <c r="D136" s="2" t="inlineStr"/>
+      <c r="D136" s="2" t="inlineStr">
+        <is>
+          <t>CCE-90586-9</t>
+        </is>
+      </c>
       <c r="E136" s="2" t="inlineStr">
         <is>
           <t>The operating system must retain a users session lock until that user reestablishes access using established identification and authentication procedures.</t>
@@ -10054,7 +10358,7 @@
       </c>
       <c r="F137" s="2" t="inlineStr">
         <is>
-          <t>The operating system must notify system administrators and ISSOs when accounts are created.</t>
+          <t>Red Hat Enterprise Linux 9 must notify system administrators and ISSOs when accounts are created.</t>
         </is>
       </c>
       <c r="G137" s="2" t="inlineStr">
@@ -10167,7 +10471,7 @@
     <row r="139" ht="130" customHeight="1">
       <c r="A139" s="2" t="inlineStr">
         <is>
-          <t>SI-6 b,SI-6 d,CM-3 (5)</t>
+          <t>CM-3 (5),SI-6 d,SI-6 b</t>
         </is>
       </c>
       <c r="B139" s="2" t="inlineStr">
@@ -10180,7 +10484,11 @@
           <t>SRG-OS-000363-GPOS-00150,SRG-OS-000446-GPOS-00200,SRG-OS-000447-GPOS-00201</t>
         </is>
       </c>
-      <c r="D139" s="2" t="inlineStr"/>
+      <c r="D139" s="2" t="inlineStr">
+        <is>
+          <t>CCE-83437-4</t>
+        </is>
+      </c>
       <c r="E139" s="2" t="inlineStr">
         <is>
           <t>The operating system must perform verification of the correct operation of security functions: upon system start-up and/or restart; upon command by a user with privileged access; and/or every 30 days.</t>
@@ -10188,7 +10496,7 @@
       </c>
       <c r="F139" s="2" t="inlineStr">
         <is>
-          <t>The operating system must perform verification of the correct operation of security functions: upon system start-up and/or restart; upon command by a user with privileged access; and/or every 30 days.</t>
+          <t>Red Hat Enterprise Linux 9 must perform verification of the correct operation of security functions: upon system start-up and/or restart; upon command by a user with privileged access; and/or every 30 days.</t>
         </is>
       </c>
       <c r="G139" s="2" t="inlineStr">
@@ -10268,7 +10576,7 @@
       </c>
       <c r="F140" s="2" t="inlineStr">
         <is>
-          <t>The operating system must be configured to disable non-essential capabilities.</t>
+          <t>Red Hat Enterprise Linux 9 must be configured to disable non-essential capabilities.</t>
         </is>
       </c>
       <c r="G140" s="2" t="inlineStr">
@@ -10325,7 +10633,7 @@
       </c>
       <c r="F141" s="2" t="inlineStr">
         <is>
-          <t>The operating system must provide an audit reduction capability that supports on-demand audit review and analysis.</t>
+          <t>Red Hat Enterprise Linux 9 must provide an audit reduction capability that supports on-demand audit review and analysis.</t>
         </is>
       </c>
       <c r="G141" s="2" t="inlineStr">
@@ -10373,7 +10681,11 @@
           <t>SRG-OS-000123-GPOS-00064,SRG-OS-000002-GPOS-00002</t>
         </is>
       </c>
-      <c r="D142" s="2" t="inlineStr"/>
+      <c r="D142" s="2" t="inlineStr">
+        <is>
+          <t>CCE-90560-4</t>
+        </is>
+      </c>
       <c r="E142" s="2" t="inlineStr">
         <is>
           <t>The operating system must automatically remove or disable temporary user accounts after 72 hours.</t>
@@ -10692,7 +11004,7 @@
       </c>
       <c r="F146" s="2" t="inlineStr">
         <is>
-          <t>The operating system must control remote access methods.</t>
+          <t>Red Hat Enterprise Linux 9 must control remote access methods.</t>
         </is>
       </c>
       <c r="G146" s="2" t="inlineStr">
@@ -10741,7 +11053,11 @@
           <t>SRG-OS-000032-GPOS-00013</t>
         </is>
       </c>
-      <c r="D147" s="2" t="inlineStr"/>
+      <c r="D147" s="2" t="inlineStr">
+        <is>
+          <t>CCE-86923-0</t>
+        </is>
+      </c>
       <c r="E147" s="2" t="inlineStr">
         <is>
           <t>The operating system must monitor remote access methods.</t>
@@ -10809,7 +11125,7 @@
     <row r="148" ht="130" customHeight="1">
       <c r="A148" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 a,AU-3,AU-3 (1),AU-14 (1),AU-12 c</t>
+          <t>AU-12 a,AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-14 (1)</t>
         </is>
       </c>
       <c r="B148" s="2" t="inlineStr">
@@ -10822,7 +11138,11 @@
           <t>SRG-OS-000037-GPOS-00015,SRG-OS-000042-GPOS-00020,SRG-OS-000062-GPOS-00031,SRG-OS-000392-GPOS-00172,SRG-OS-000462-GPOS-00206,SRG-OS-000471-GPOS-00215,SRG-OS-000473-GPOS-00218,SRG-OS-000254-GPOS-00095</t>
         </is>
       </c>
-      <c r="D148" s="2" t="inlineStr"/>
+      <c r="D148" s="2" t="inlineStr">
+        <is>
+          <t>CCE-83651-0</t>
+        </is>
+      </c>
       <c r="E148" s="2" t="inlineStr">
         <is>
           <t>The operating system must initiate session audits at system start-up.</t>
@@ -10830,7 +11150,7 @@
       </c>
       <c r="F148" s="2" t="inlineStr">
         <is>
-          <t>The operating system must initiate session audits at system start-up.</t>
+          <t>Red Hat Enterprise Linux 9 must initiate session audits at system start-up.</t>
         </is>
       </c>
       <c r="G148" s="2" t="inlineStr">
@@ -10957,7 +11277,11 @@
           <t>SRG-OS-000063-GPOS-00032</t>
         </is>
       </c>
-      <c r="D150" s="2" t="inlineStr"/>
+      <c r="D150" s="2" t="inlineStr">
+        <is>
+          <t>CCE-89284-4</t>
+        </is>
+      </c>
       <c r="E150" s="2" t="inlineStr">
         <is>
           <t>The operating system must allow only the ISSM (or individuals or roles appointed by the ISSM) to select which auditable events are to be audited.</t>
@@ -11220,7 +11544,7 @@
       </c>
       <c r="F154" s="2" t="inlineStr">
         <is>
-          <t>The operating system must require users to re-authenticate when changing roles.</t>
+          <t>Red Hat Enterprise Linux 9 must require users to re-authenticate when changing roles.</t>
         </is>
       </c>
       <c r="G154" s="2" t="inlineStr">
@@ -11276,7 +11600,7 @@
       </c>
       <c r="F155" s="2" t="inlineStr">
         <is>
-          <t>The operating system must implement cryptographic mechanisms to protect the confidentiality of nonlocal maintenance and diagnostic communications, when used for nonlocal maintenance sessions.</t>
+          <t>Red Hat Enterprise Linux 9 must implement cryptographic mechanisms to protect the confidentiality of nonlocal maintenance and diagnostic communications, when used for nonlocal maintenance sessions.</t>
         </is>
       </c>
       <c r="G155" s="2" t="inlineStr">
@@ -11334,7 +11658,7 @@
       </c>
       <c r="F156" s="2" t="inlineStr">
         <is>
-          <t>The operating system must protect audit information from unauthorized modification.</t>
+          <t>Red Hat Enterprise Linux 9 must protect audit information from unauthorized modification.</t>
         </is>
       </c>
       <c r="G156" s="2" t="inlineStr">
@@ -11370,7 +11694,7 @@
     <row r="157" ht="130" customHeight="1">
       <c r="A157" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 a,AU-3,AU-3 (1),AU-12 c</t>
+          <t>AU-12 a,AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B157" s="2" t="inlineStr">
@@ -11383,7 +11707,11 @@
           <t>SRG-OS-000037-GPOS-00015,SRG-OS-000042-GPOS-00020,SRG-OS-000062-GPOS-00031,SRG-OS-000392-GPOS-00172,SRG-OS-000462-GPOS-00206,SRG-OS-000468-GPOS-00212,SRG-OS-000471-GPOS-00215,SRG-OS-000463-GPOS-00207,SRG-OS-000465-GPOS-00209</t>
         </is>
       </c>
-      <c r="D157" s="2" t="inlineStr"/>
+      <c r="D157" s="2" t="inlineStr">
+        <is>
+          <t>CCE-83748-4</t>
+        </is>
+      </c>
       <c r="E157" s="2" t="inlineStr">
         <is>
           <t>The operating system must generate audit records when successful/unsuccessful attempts to modify categories of information (e.g., classification levels) occur.</t>
@@ -11391,7 +11719,7 @@
       </c>
       <c r="F157" s="2" t="inlineStr">
         <is>
-          <t>The operating system must generate audit records when successful/unsuccessful attempts to modify categories of information (e.g., classification levels) occur.</t>
+          <t>Red Hat Enterprise Linux 9 must generate audit records when successful/unsuccessful attempts to modify categories of information (e.g., classification levels) occur.</t>
         </is>
       </c>
       <c r="G157" s="2" t="inlineStr">
@@ -11467,7 +11795,7 @@
       </c>
       <c r="F158" s="2" t="inlineStr">
         <is>
-          <t>The operating system must electronically verify Personal Identity Verification (PIV) credentials.</t>
+          <t>Red Hat Enterprise Linux 9 must electronically verify Personal Identity Verification (PIV) credentials.</t>
         </is>
       </c>
       <c r="G158" s="2" t="inlineStr">
@@ -11515,7 +11843,11 @@
           <t>SRG-OS-000423-GPOS-00187,SRG-OS-000033-GPOS-00014</t>
         </is>
       </c>
-      <c r="D159" s="2" t="inlineStr"/>
+      <c r="D159" s="2" t="inlineStr">
+        <is>
+          <t>CCE-87522-9</t>
+        </is>
+      </c>
       <c r="E159" s="2" t="inlineStr">
         <is>
           <t>The operating system must implement DoD-approved encryption to protect the confidentiality of remote access sessions.</t>
@@ -11523,7 +11855,7 @@
       </c>
       <c r="F159" s="2" t="inlineStr">
         <is>
-          <t>The operating system must implement DoD-approved encryption to protect the confidentiality of remote access sessions.</t>
+          <t>Red Hat Enterprise Linux 9 must implement DoD-approved encryption to protect the confidentiality of remote access sessions.</t>
         </is>
       </c>
       <c r="G159" s="2" t="inlineStr">
@@ -11663,7 +11995,11 @@
           <t>SRG-OS-000445-GPOS-00199</t>
         </is>
       </c>
-      <c r="D161" s="2" t="inlineStr"/>
+      <c r="D161" s="2" t="inlineStr">
+        <is>
+          <t>CCE-84074-4</t>
+        </is>
+      </c>
       <c r="E161" s="2" t="inlineStr">
         <is>
           <t>The operating system must verify correct operation of all security functions.</t>
@@ -11752,7 +12088,7 @@
       </c>
       <c r="F162" s="2" t="inlineStr">
         <is>
-          <t>The operating system must protect the confidentiality and integrity of communications with wireless peripherals.</t>
+          <t>Red Hat Enterprise Linux 9 must protect the confidentiality and integrity of communications with wireless peripherals.</t>
         </is>
       </c>
       <c r="G162" s="2" t="inlineStr">
@@ -11809,7 +12145,7 @@
       </c>
       <c r="F163" s="2" t="inlineStr">
         <is>
-          <t>The operating system must audit all activities performed during nonlocal maintenance and diagnostic sessions.</t>
+          <t>Red Hat Enterprise Linux 9 must audit all activities performed during nonlocal maintenance and diagnostic sessions.</t>
         </is>
       </c>
       <c r="G163" s="2" t="inlineStr">
@@ -11867,7 +12203,7 @@
       </c>
       <c r="F164" s="2" t="inlineStr">
         <is>
-          <t>The operating system must terminate all sessions and network connections related to nonlocal maintenance when nonlocal maintenance is completed.</t>
+          <t>Red Hat Enterprise Linux 9 must terminate all sessions and network connections related to nonlocal maintenance when nonlocal maintenance is completed.</t>
         </is>
       </c>
       <c r="G164" s="2" t="inlineStr">
@@ -11980,7 +12316,7 @@
       </c>
       <c r="F166" s="2" t="inlineStr">
         <is>
-          <t>The operating system must maintain the confidentiality and integrity of information during preparation for transmission.</t>
+          <t>Red Hat Enterprise Linux 9 must maintain the confidentiality and integrity of information during preparation for transmission.</t>
         </is>
       </c>
       <c r="G166" s="2" t="inlineStr">
@@ -12037,7 +12373,7 @@
       </c>
       <c r="F167" s="2" t="inlineStr">
         <is>
-          <t>The operating system must enforce password complexity by requiring that at least one upper-case character be used.</t>
+          <t>Red Hat Enterprise Linux 9 must enforce password complexity by requiring that at least one upper-case character be used.</t>
         </is>
       </c>
       <c r="G167" s="2" t="inlineStr">
@@ -12093,7 +12429,7 @@
       </c>
       <c r="F168" s="2" t="inlineStr">
         <is>
-          <t>The operating system must automatically lock an account until the locked account is released by an administrator when three unsuccessful logon attempts in 15 minutes occur.</t>
+          <t>Red Hat Enterprise Linux 9 must automatically lock an account until the locked account is released by an administrator when three unsuccessful logon attempts in 15 minutes occur.</t>
         </is>
       </c>
       <c r="G168" s="2" t="inlineStr">
@@ -12148,7 +12484,7 @@
       </c>
       <c r="F169" s="2" t="inlineStr">
         <is>
-          <t>The operating system must record time stamps for audit records that can be mapped to Coordinated Universal Time (UTC) or Greenwich Mean Time (GMT).</t>
+          <t>Red Hat Enterprise Linux 9 must record time stamps for audit records that can be mapped to Coordinated Universal Time (UTC) or Greenwich Mean Time (GMT).</t>
         </is>
       </c>
       <c r="G169" s="2" t="inlineStr">
@@ -12196,7 +12532,11 @@
           <t>SRG-OS-000480-GPOS-00225</t>
         </is>
       </c>
-      <c r="D170" s="2" t="inlineStr"/>
+      <c r="D170" s="2" t="inlineStr">
+        <is>
+          <t>CCE-88413-0</t>
+        </is>
+      </c>
       <c r="E170" s="2" t="inlineStr">
         <is>
           <t>The operating system must prevent the use of dictionary words for passwords.</t>
@@ -12204,7 +12544,7 @@
       </c>
       <c r="F170" s="2" t="inlineStr">
         <is>
-          <t>The operating system must prevent the use of dictionary words for passwords.</t>
+          <t>Red Hat Enterprise Linux 9 must prevent the use of dictionary words for passwords.</t>
         </is>
       </c>
       <c r="G170" s="2" t="inlineStr">
@@ -12277,7 +12617,7 @@
       </c>
       <c r="F171" s="2" t="inlineStr">
         <is>
-          <t>The operating system must protect audit tools from unauthorized access.</t>
+          <t>Red Hat Enterprise Linux 9 must protect audit tools from unauthorized access.</t>
         </is>
       </c>
       <c r="G171" s="2" t="inlineStr">
@@ -12392,7 +12732,7 @@
       </c>
       <c r="F173" s="2" t="inlineStr">
         <is>
-          <t>The operating system must generate audit records for privileged activities or other system-level access.</t>
+          <t>Red Hat Enterprise Linux 9 must generate audit records for privileged activities or other system-level access.</t>
         </is>
       </c>
       <c r="G173" s="2" t="inlineStr">
@@ -12448,7 +12788,7 @@
       </c>
       <c r="F174" s="2" t="inlineStr">
         <is>
-          <t>The operating system must shut down the information system, restart the information system, and/or notify the system administrator when anomalies in the operation of any security functions are discovered.</t>
+          <t>Red Hat Enterprise Linux 9 must shut down the information system, restart the information system, and/or notify the system administrator when anomalies in the operation of any security functions are discovered.</t>
         </is>
       </c>
       <c r="G174" s="2" t="inlineStr">
@@ -12485,7 +12825,7 @@
     <row r="175" ht="130" customHeight="1">
       <c r="A175" s="2" t="inlineStr">
         <is>
-          <t>SI-16,CM-7 a</t>
+          <t>CM-7 a,SI-16</t>
         </is>
       </c>
       <c r="B175" s="2" t="inlineStr">
@@ -12498,7 +12838,11 @@
           <t>SRG-OS-000433-GPOS-00193,SRG-OS-000095-GPOS-00049</t>
         </is>
       </c>
-      <c r="D175" s="2" t="inlineStr"/>
+      <c r="D175" s="2" t="inlineStr">
+        <is>
+          <t>CCE-83843-3</t>
+        </is>
+      </c>
       <c r="E175" s="2" t="inlineStr">
         <is>
           <t>The operating system must implement address space layout randomization to protect its memory from unauthorized code execution.</t>
@@ -12506,7 +12850,7 @@
       </c>
       <c r="F175" s="2" t="inlineStr">
         <is>
-          <t>The operating system must implement address space layout randomization to protect its memory from unauthorized code execution.</t>
+          <t>Red Hat Enterprise Linux 9 must implement address space layout randomization to protect its memory from unauthorized code execution.</t>
         </is>
       </c>
       <c r="G175" s="2" t="inlineStr">
@@ -12585,7 +12929,7 @@
       </c>
       <c r="F176" s="2" t="inlineStr">
         <is>
-          <t>The operating system must, for networked systems, compare internal information system clocks at least every 24 hours with a server which is synchronized to one of the redundant United States Naval Observatory (USNO) time servers, or a time server designat</t>
+          <t>Red Hat Enterprise Linux 9 must, for networked systems, compare internal information system clocks at least every 24 hours with a server which is synchronized to one of the redundant United States Naval Observatory (USNO) time servers, or a time server designat</t>
         </is>
       </c>
       <c r="G176" s="2" t="inlineStr">
@@ -12634,7 +12978,11 @@
           <t>SRG-OS-000383-GPOS-00166</t>
         </is>
       </c>
-      <c r="D177" s="2" t="inlineStr"/>
+      <c r="D177" s="2" t="inlineStr">
+        <is>
+          <t>CCE-87996-5</t>
+        </is>
+      </c>
       <c r="E177" s="2" t="inlineStr">
         <is>
           <t>The operating system must prohibit the use of cached authenticators after one day.</t>
@@ -12642,7 +12990,7 @@
       </c>
       <c r="F177" s="2" t="inlineStr">
         <is>
-          <t>The operating system must prohibit the use of cached authenticators after one day.</t>
+          <t>Red Hat Enterprise Linux 9 must prohibit the use of cached authenticators after one day.</t>
         </is>
       </c>
       <c r="G177" s="2" t="inlineStr">
@@ -12710,7 +13058,7 @@
       </c>
       <c r="F178" s="2" t="inlineStr">
         <is>
-          <t>The operating system must audit all account modifications.</t>
+          <t>Red Hat Enterprise Linux 9 must audit all account modifications.</t>
         </is>
       </c>
       <c r="G178" s="2" t="inlineStr">
@@ -12822,7 +13170,7 @@
       </c>
       <c r="F180" s="2" t="inlineStr">
         <is>
-          <t>The operating system must generate audit records for all account creations, modifications, disabling, and termination events.</t>
+          <t>Red Hat Enterprise Linux 9 must generate audit records for all account creations, modifications, disabling, and termination events.</t>
         </is>
       </c>
       <c r="G180" s="2" t="inlineStr">
@@ -12870,7 +13218,11 @@
           <t>SRG-OS-000480-GPOS-00227,SRG-OS-000134-GPOS-00068</t>
         </is>
       </c>
-      <c r="D181" s="2" t="inlineStr"/>
+      <c r="D181" s="2" t="inlineStr">
+        <is>
+          <t>CCE-83842-5</t>
+        </is>
+      </c>
       <c r="E181" s="2" t="inlineStr">
         <is>
           <t>The operating system must isolate security functions from nonsecurity functions.</t>
@@ -13113,7 +13465,11 @@
           <t>SRG-OS-000480-GPOS-00229</t>
         </is>
       </c>
-      <c r="D184" s="2" t="inlineStr"/>
+      <c r="D184" s="2" t="inlineStr">
+        <is>
+          <t>CCE-90816-0</t>
+        </is>
+      </c>
       <c r="E184" s="2" t="inlineStr">
         <is>
           <t>The operating system must not allow an unattended or automatic logon to the system.</t>
@@ -13187,7 +13543,11 @@
           <t>SRG-OS-000480-GPOS-00227</t>
         </is>
       </c>
-      <c r="D185" s="2" t="inlineStr"/>
+      <c r="D185" s="2" t="inlineStr">
+        <is>
+          <t>CCE-84232-8</t>
+        </is>
+      </c>
       <c r="E185" s="2" t="inlineStr">
         <is>
           <t>The operating system must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
@@ -13195,7 +13555,7 @@
       </c>
       <c r="F185" s="2" t="inlineStr">
         <is>
-          <t>The operating system must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
         </is>
       </c>
       <c r="G185" s="2" t="inlineStr">
@@ -13360,7 +13720,7 @@
       </c>
       <c r="F187" s="2" t="inlineStr">
         <is>
-          <t>The operating system must enforce a minimum 15-character password length.</t>
+          <t>Red Hat Enterprise Linux 9 must enforce a minimum 15-character password length.</t>
         </is>
       </c>
       <c r="G187" s="2" t="inlineStr">
@@ -13487,7 +13847,7 @@
       </c>
       <c r="F189" s="2" t="inlineStr">
         <is>
-          <t>The operating system must audit the enforcement actions used to restrict access associated with changes to the system.</t>
+          <t>Red Hat Enterprise Linux 9 must audit the enforcement actions used to restrict access associated with changes to the system.</t>
         </is>
       </c>
       <c r="G189" s="2" t="inlineStr">
@@ -13543,7 +13903,7 @@
       </c>
       <c r="F190" s="2" t="inlineStr">
         <is>
-          <t>The operating system must notify designated personnel if baseline configurations are changed in an unauthorized manner.</t>
+          <t>Red Hat Enterprise Linux 9 must notify designated personnel if baseline configurations are changed in an unauthorized manner.</t>
         </is>
       </c>
       <c r="G190" s="2" t="inlineStr">

--- a/srg_mapping/srg-mapping-rhel9.xlsx
+++ b/srg_mapping/srg-mapping-rhel9.xlsx
@@ -724,7 +724,7 @@
     <row r="4" ht="130" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>AU-7 b,AU-7 a,AC-6 (8),CM-5 (1),AU-12 (3),AC-6 (9),AU-8 b</t>
+          <t>AC-6 (9),CM-5 (1),AU-12 (3),AU-7 a,AC-6 (8),AU-8 b,AU-7 b</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
@@ -804,7 +804,7 @@
     <row r="5" ht="130" customHeight="1">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>AC-17 (9),CM-7 b,CM-6 b,AC-17 (1)</t>
+          <t>AC-17 (9),AC-17 (1),CM-6 b,CM-7 b</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
@@ -1175,7 +1175,7 @@
     <row r="10" ht="130" customHeight="1">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>CM-7 (5) (b),CM-7 (2)</t>
+          <t>CM-7 (2),CM-7 (5) (b)</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
@@ -1335,7 +1335,7 @@
     <row r="12" ht="130" customHeight="1">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>AC-7 b,AC-7 a</t>
+          <t>AC-7 a,AC-7 b</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
@@ -1558,7 +1558,7 @@
     <row r="15" ht="130" customHeight="1">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>IA-2,IA-8,AU-3 (1)</t>
+          <t>AU-3 (1),IA-2,IA-8</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
@@ -1712,7 +1712,7 @@
     <row r="17" ht="130" customHeight="1">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>AU-12 a,AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a)</t>
+          <t>AU-3 (1),AU-3,AU-12 a,AU-12 c,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
@@ -1843,7 +1843,7 @@
     <row r="19" ht="130" customHeight="1">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>IA-5 (1) (a),CM-6 b,IA-5 (1) (b)</t>
+          <t>IA-5 (1) (a),IA-5 (1) (b),CM-6 b</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
@@ -1999,7 +1999,7 @@
     <row r="21" ht="130" customHeight="1">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>AC-12,MA-4 e,SC-10,MA-4 (7)</t>
+          <t>MA-4 e,AC-12,SC-10,MA-4 (7)</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
@@ -2074,7 +2074,7 @@
     <row r="22" ht="130" customHeight="1">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>AU-7 a,AU-12 a,CM-5 (1),AU-7 (1),CM-6 b,AU-3,AU-3 (1),MA-4 (1) (a),AU-14 (1),AU-6 (4)</t>
+          <t>AU-3 (1),CM-6 b,AU-3,AU-7 (1),CM-5 (1),AU-12 a,AU-7 a,MA-4 (1) (a),AU-6 (4),AU-14 (1)</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
@@ -2311,7 +2311,7 @@
     <row r="25" ht="130" customHeight="1">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>AU-12 a,AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a)</t>
+          <t>AU-3 (1),AU-3,AU-12 a,AU-12 c,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
@@ -2585,7 +2585,7 @@
     <row r="29" ht="130" customHeight="1">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>SC-8 (1),SC-8,SC-8 (2)</t>
+          <t>SC-8,SC-8 (2),SC-8 (1)</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
@@ -2714,7 +2714,7 @@
     <row r="31" ht="130" customHeight="1">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>AU-12 a,AC-2 (4),AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a)</t>
+          <t>AC-2 (4),AU-3 (1),AU-3,AU-12 a,AU-12 c,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
@@ -2926,7 +2926,7 @@
     <row r="34" ht="130" customHeight="1">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>AC-11 b,AC-11 a</t>
+          <t>AC-11 a,AC-11 b</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
@@ -3210,7 +3210,7 @@
     <row r="38" ht="130" customHeight="1">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>SI-11 b,AU-9</t>
+          <t>AU-9,SI-11 b</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
@@ -3282,7 +3282,7 @@
     <row r="39" ht="130" customHeight="1">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>AU-3,CM-6 b</t>
+          <t>CM-6 b,AU-3</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
@@ -4498,7 +4498,7 @@
     <row r="56" ht="130" customHeight="1">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
@@ -5296,7 +5296,7 @@
     <row r="67" ht="130" customHeight="1">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>AU-12 a,AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a)</t>
+          <t>AU-3 (1),AU-3,AU-12 a,AU-12 c,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
@@ -5426,7 +5426,7 @@
     <row r="69" ht="130" customHeight="1">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>AU-7 b,AU-7 a,AU-12 a,CM-5 (1),CM-6 b,AU-12 (3),AU-12 c,AU-8 b</t>
+          <t>CM-6 b,CM-5 (1),AU-12 (3),AU-12 a,AU-12 c,AU-7 a,AU-8 b,AU-7 b</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
@@ -5983,7 +5983,7 @@
     <row r="77" ht="130" customHeight="1">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>AU-12 a,AC-2 (4),AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a)</t>
+          <t>AC-2 (4),AU-3 (1),AU-3,AU-12 a,AU-12 c,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B77" s="2" t="inlineStr">
@@ -6156,7 +6156,7 @@
     <row r="79" ht="130" customHeight="1">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>AU-9 (3),AU-9</t>
+          <t>AU-9,AU-9 (3)</t>
         </is>
       </c>
       <c r="B79" s="2" t="inlineStr">
@@ -6231,7 +6231,7 @@
     <row r="80" ht="130" customHeight="1">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (1),IA-2 (2),IA-2 (3),IA-2 (4)</t>
+          <t>IA-2 (1),IA-2 (3),IA-2 (4),IA-2 (2)</t>
         </is>
       </c>
       <c r="B80" s="2" t="inlineStr">
@@ -6318,7 +6318,7 @@
     <row r="81" ht="130" customHeight="1">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,CM-5 (3)</t>
+          <t>CM-5 (3),CM-6 b</t>
         </is>
       </c>
       <c r="B81" s="2" t="inlineStr">
@@ -6655,7 +6655,7 @@
     <row r="86" ht="130" customHeight="1">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>AU-12 a,AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a)</t>
+          <t>AU-3 (1),AU-3,AU-12 a,AU-12 c,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B86" s="2" t="inlineStr">
@@ -6809,7 +6809,7 @@
     <row r="88" ht="130" customHeight="1">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,CM-5 (1),AC-2 (4),AC-6 (9)</t>
+          <t>AC-2 (4),AC-6 (9),CM-5 (1),AU-12 c</t>
         </is>
       </c>
       <c r="B88" s="2" t="inlineStr">
@@ -6876,7 +6876,7 @@
     <row r="89" ht="130" customHeight="1">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>IA-2,IA-2 (2),IA-2 (3),IA-2 (5),IA-2 (4)</t>
+          <t>IA-2 (2),IA-2,IA-2 (4),IA-2 (5),IA-2 (3)</t>
         </is>
       </c>
       <c r="B89" s="2" t="inlineStr">
@@ -7040,7 +7040,7 @@
     <row r="91" ht="130" customHeight="1">
       <c r="A91" s="2" t="inlineStr">
         <is>
-          <t>AU-9 (3),AU-9</t>
+          <t>AU-9,AU-9 (3)</t>
         </is>
       </c>
       <c r="B91" s="2" t="inlineStr">
@@ -7426,7 +7426,7 @@
     <row r="96" ht="130" customHeight="1">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>SC-8 (1),AC-18 (1),SC-8</t>
+          <t>SC-8,AC-18 (1),SC-8 (1)</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
@@ -7506,7 +7506,7 @@
     <row r="97" ht="130" customHeight="1">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>AU-8 b,AU-8 (1) (a),AU-8 (1) (b)</t>
+          <t>AU-8 (1) (a),AU-8 b,AU-8 (1) (b)</t>
         </is>
       </c>
       <c r="B97" s="2" t="inlineStr">
@@ -7815,7 +7815,7 @@
     <row r="101" ht="130" customHeight="1">
       <c r="A101" s="2" t="inlineStr">
         <is>
-          <t>AC-3 (4),IA-11</t>
+          <t>IA-11,AC-3 (4)</t>
         </is>
       </c>
       <c r="B101" s="2" t="inlineStr">
@@ -7889,7 +7889,7 @@
     <row r="102" ht="130" customHeight="1">
       <c r="A102" s="2" t="inlineStr">
         <is>
-          <t>AU-12 a,AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a)</t>
+          <t>AU-3 (1),AU-3,AU-12 a,AU-12 c,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B102" s="2" t="inlineStr">
@@ -9033,7 +9033,7 @@
     <row r="119" ht="130" customHeight="1">
       <c r="A119" s="2" t="inlineStr">
         <is>
-          <t>AU-12 a,AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a)</t>
+          <t>AU-3 (1),AU-3,AU-12 a,AU-12 c,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B119" s="2" t="inlineStr">
@@ -9331,7 +9331,7 @@
     <row r="123" ht="130" customHeight="1">
       <c r="A123" s="2" t="inlineStr">
         <is>
-          <t>CM-7 b,CM-7 a</t>
+          <t>CM-7 a,CM-7 b</t>
         </is>
       </c>
       <c r="B123" s="2" t="inlineStr">
@@ -9405,7 +9405,7 @@
     <row r="124" ht="130" customHeight="1">
       <c r="A124" s="2" t="inlineStr">
         <is>
-          <t>AU-12 a,AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a)</t>
+          <t>AU-3 (1),AU-3,AU-12 a,AU-12 c,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B124" s="2" t="inlineStr">
@@ -9479,7 +9479,7 @@
     <row r="125" ht="130" customHeight="1">
       <c r="A125" s="2" t="inlineStr">
         <is>
-          <t>AC-18 (1),CM-7 a</t>
+          <t>CM-7 a,AC-18 (1)</t>
         </is>
       </c>
       <c r="B125" s="2" t="inlineStr">
@@ -9668,7 +9668,7 @@
     <row r="128" ht="130" customHeight="1">
       <c r="A128" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,IA-5 (1) (c),CM-7 a</t>
+          <t>CM-7 a,CM-6 b,IA-5 (1) (c)</t>
         </is>
       </c>
       <c r="B128" s="2" t="inlineStr">
@@ -10471,7 +10471,7 @@
     <row r="139" ht="130" customHeight="1">
       <c r="A139" s="2" t="inlineStr">
         <is>
-          <t>CM-3 (5),SI-6 d,SI-6 b</t>
+          <t>SI-6 b,SI-6 d,CM-3 (5)</t>
         </is>
       </c>
       <c r="B139" s="2" t="inlineStr">
@@ -11125,7 +11125,7 @@
     <row r="148" ht="130" customHeight="1">
       <c r="A148" s="2" t="inlineStr">
         <is>
-          <t>AU-12 a,AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-14 (1)</t>
+          <t>AU-3 (1),AU-3,AU-12 a,AU-12 c,MA-4 (1) (a),AU-14 (1)</t>
         </is>
       </c>
       <c r="B148" s="2" t="inlineStr">
@@ -11694,7 +11694,7 @@
     <row r="157" ht="130" customHeight="1">
       <c r="A157" s="2" t="inlineStr">
         <is>
-          <t>AU-12 a,AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a)</t>
+          <t>AU-3 (1),AU-3,AU-12 a,AU-12 c,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B157" s="2" t="inlineStr">

--- a/srg_mapping/srg-mapping-rhel9.xlsx
+++ b/srg_mapping/srg-mapping-rhel9.xlsx
@@ -625,7 +625,7 @@
     <row r="3" ht="130" customHeight="1">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>SC-5,CM-6 b,SC-5 (2)</t>
+          <t>SC-5,SC-5 (2),CM-6 b</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
@@ -724,7 +724,7 @@
     <row r="4" ht="130" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>AC-6 (9),CM-5 (1),AU-12 (3),AU-7 a,AC-6 (8),AU-8 b,AU-7 b</t>
+          <t>AC-6 (9),AC-6 (8),AU-12 (3),AU-7 a,CM-5 (1),AU-7 b,AU-8 b</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
@@ -804,7 +804,7 @@
     <row r="5" ht="130" customHeight="1">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>AC-17 (9),AC-17 (1),CM-6 b,CM-7 b</t>
+          <t>AC-17 (1),AC-17 (9),CM-7 b,CM-6 b</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="8" ht="130" customHeight="1">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (11),IA-2 (12)</t>
+          <t>IA-2 (12),IA-2 (11)</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
@@ -1175,7 +1175,7 @@
     <row r="10" ht="130" customHeight="1">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>CM-7 (2),CM-7 (5) (b)</t>
+          <t>CM-7 (5) (b),CM-7 (2)</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
@@ -1335,7 +1335,7 @@
     <row r="12" ht="130" customHeight="1">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>AC-7 a,AC-7 b</t>
+          <t>AC-7 b,AC-7 a</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
@@ -1558,7 +1558,7 @@
     <row r="15" ht="130" customHeight="1">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),IA-2,IA-8</t>
+          <t>IA-2,AU-3 (1),IA-8</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
@@ -1636,7 +1636,7 @@
     <row r="16" ht="130" customHeight="1">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,AC-6 (10)</t>
+          <t>AC-6 (10),CM-6 b</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
@@ -1712,7 +1712,7 @@
     <row r="17" ht="130" customHeight="1">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,AU-12 a,AU-12 c,MA-4 (1) (a)</t>
+          <t>AU-12 a,AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1)</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
@@ -1843,7 +1843,7 @@
     <row r="19" ht="130" customHeight="1">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>IA-5 (1) (a),IA-5 (1) (b),CM-6 b</t>
+          <t>IA-5 (1) (b),IA-5 (1) (a),CM-6 b</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
@@ -1999,7 +1999,7 @@
     <row r="21" ht="130" customHeight="1">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>MA-4 e,AC-12,SC-10,MA-4 (7)</t>
+          <t>AC-12,MA-4 (7),SC-10,MA-4 e</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
@@ -2074,7 +2074,7 @@
     <row r="22" ht="130" customHeight="1">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),CM-6 b,AU-3,AU-7 (1),CM-5 (1),AU-12 a,AU-7 a,MA-4 (1) (a),AU-6 (4),AU-14 (1)</t>
+          <t>AU-12 a,AU-14 (1),AU-3,AU-7 (1),AU-7 a,MA-4 (1) (a),AU-6 (4),CM-6 b,CM-5 (1),AU-3 (1)</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
@@ -2311,7 +2311,7 @@
     <row r="25" ht="130" customHeight="1">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,AU-12 a,AU-12 c,MA-4 (1) (a)</t>
+          <t>AU-12 a,AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1)</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
@@ -2585,7 +2585,7 @@
     <row r="29" ht="130" customHeight="1">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>SC-8,SC-8 (2),SC-8 (1)</t>
+          <t>SC-8 (1),SC-8 (2),SC-8</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
@@ -2714,7 +2714,7 @@
     <row r="31" ht="130" customHeight="1">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>AC-2 (4),AU-3 (1),AU-3,AU-12 a,AU-12 c,MA-4 (1) (a)</t>
+          <t>AU-12 a,AU-3,MA-4 (1) (a),AC-2 (4),AU-12 c,AU-3 (1)</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
@@ -3210,7 +3210,7 @@
     <row r="38" ht="130" customHeight="1">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>AU-9,SI-11 b</t>
+          <t>SI-11 b,AU-9</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
@@ -3282,7 +3282,7 @@
     <row r="39" ht="130" customHeight="1">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,AU-3</t>
+          <t>AU-3,CM-6 b</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
@@ -3719,7 +3719,7 @@
     <row r="45" ht="130" customHeight="1">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>AC-8 c 1, AC-8 c 2, AC-8 c 3,AC-8 a,AC-8 b</t>
+          <t>AC-8 c 1, AC-8 c 2, AC-8 c 3,AC-8 b,AC-8 a</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
@@ -4282,7 +4282,7 @@
     <row r="53" ht="130" customHeight="1">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>SC-13,MA-4 (6)</t>
+          <t>MA-4 (6),SC-13</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
@@ -4423,7 +4423,7 @@
     <row r="55" ht="130" customHeight="1">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>SC-8,AC-17 (2)</t>
+          <t>AC-17 (2),SC-8</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
@@ -4997,7 +4997,7 @@
     <row r="63" ht="130" customHeight="1">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>AU-5 (1),AU-5 a</t>
+          <t>AU-5 a,AU-5 (1)</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
@@ -5152,7 +5152,7 @@
     <row r="65" ht="130" customHeight="1">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,IA-2 (2)</t>
+          <t>IA-2 (2),CM-6 b</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
@@ -5296,7 +5296,7 @@
     <row r="67" ht="130" customHeight="1">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,AU-12 a,AU-12 c,MA-4 (1) (a)</t>
+          <t>AU-12 a,AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1)</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
@@ -5426,7 +5426,7 @@
     <row r="69" ht="130" customHeight="1">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,CM-5 (1),AU-12 (3),AU-12 a,AU-12 c,AU-7 a,AU-8 b,AU-7 b</t>
+          <t>AU-12 a,AU-12 (3),AU-12 c,AU-7 a,CM-6 b,CM-5 (1),AU-7 b,AU-8 b</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
@@ -5584,7 +5584,7 @@
     <row r="71" ht="130" customHeight="1">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>AU-4 (1),AU-3</t>
+          <t>AU-3,AU-4 (1)</t>
         </is>
       </c>
       <c r="B71" s="2" t="inlineStr">
@@ -5983,7 +5983,7 @@
     <row r="77" ht="130" customHeight="1">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>AC-2 (4),AU-3 (1),AU-3,AU-12 a,AU-12 c,MA-4 (1) (a)</t>
+          <t>AU-12 a,AU-3,MA-4 (1) (a),AC-2 (4),AU-12 c,AU-3 (1)</t>
         </is>
       </c>
       <c r="B77" s="2" t="inlineStr">
@@ -6231,7 +6231,7 @@
     <row r="80" ht="130" customHeight="1">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (1),IA-2 (3),IA-2 (4),IA-2 (2)</t>
+          <t>IA-2 (2),IA-2 (3),IA-2 (1),IA-2 (4)</t>
         </is>
       </c>
       <c r="B80" s="2" t="inlineStr">
@@ -6318,7 +6318,7 @@
     <row r="81" ht="130" customHeight="1">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>CM-5 (3),CM-6 b</t>
+          <t>CM-6 b,CM-5 (3)</t>
         </is>
       </c>
       <c r="B81" s="2" t="inlineStr">
@@ -6655,7 +6655,7 @@
     <row r="86" ht="130" customHeight="1">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,AU-12 a,AU-12 c,MA-4 (1) (a)</t>
+          <t>AU-12 a,AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1)</t>
         </is>
       </c>
       <c r="B86" s="2" t="inlineStr">
@@ -6809,7 +6809,7 @@
     <row r="88" ht="130" customHeight="1">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>AC-2 (4),AC-6 (9),CM-5 (1),AU-12 c</t>
+          <t>CM-5 (1),AC-2 (4),AC-6 (9),AU-12 c</t>
         </is>
       </c>
       <c r="B88" s="2" t="inlineStr">
@@ -6876,7 +6876,7 @@
     <row r="89" ht="130" customHeight="1">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (2),IA-2,IA-2 (4),IA-2 (5),IA-2 (3)</t>
+          <t>IA-2 (2),IA-2,IA-2 (3),IA-2 (5),IA-2 (4)</t>
         </is>
       </c>
       <c r="B89" s="2" t="inlineStr">
@@ -6960,7 +6960,7 @@
     <row r="90" ht="130" customHeight="1">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (11),IA-2 (12)</t>
+          <t>IA-2 (12),IA-2 (11)</t>
         </is>
       </c>
       <c r="B90" s="2" t="inlineStr">
@@ -7426,7 +7426,7 @@
     <row r="96" ht="130" customHeight="1">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>SC-8,AC-18 (1),SC-8 (1)</t>
+          <t>SC-8 (1),SC-8,AC-18 (1)</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
@@ -7889,7 +7889,7 @@
     <row r="102" ht="130" customHeight="1">
       <c r="A102" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,AU-12 a,AU-12 c,MA-4 (1) (a)</t>
+          <t>AU-12 a,AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1)</t>
         </is>
       </c>
       <c r="B102" s="2" t="inlineStr">
@@ -8483,7 +8483,7 @@
     <row r="111" ht="130" customHeight="1">
       <c r="A111" s="2" t="inlineStr">
         <is>
-          <t>AU-5 b,AU-5 a</t>
+          <t>AU-5 a,AU-5 b</t>
         </is>
       </c>
       <c r="B111" s="2" t="inlineStr">
@@ -9033,7 +9033,7 @@
     <row r="119" ht="130" customHeight="1">
       <c r="A119" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,AU-12 a,AU-12 c,MA-4 (1) (a)</t>
+          <t>AU-12 a,AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1)</t>
         </is>
       </c>
       <c r="B119" s="2" t="inlineStr">
@@ -9405,7 +9405,7 @@
     <row r="124" ht="130" customHeight="1">
       <c r="A124" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,AU-12 a,AU-12 c,MA-4 (1) (a)</t>
+          <t>AU-12 a,AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1)</t>
         </is>
       </c>
       <c r="B124" s="2" t="inlineStr">
@@ -9668,7 +9668,7 @@
     <row r="128" ht="130" customHeight="1">
       <c r="A128" s="2" t="inlineStr">
         <is>
-          <t>CM-7 a,CM-6 b,IA-5 (1) (c)</t>
+          <t>CM-7 a,IA-5 (1) (c),CM-6 b</t>
         </is>
       </c>
       <c r="B128" s="2" t="inlineStr">
@@ -10246,7 +10246,7 @@
     <row r="136" ht="130" customHeight="1">
       <c r="A136" s="2" t="inlineStr">
         <is>
-          <t>AC-11 b,AC-11 (1)</t>
+          <t>AC-11 (1),AC-11 b</t>
         </is>
       </c>
       <c r="B136" s="2" t="inlineStr">
@@ -10471,7 +10471,7 @@
     <row r="139" ht="130" customHeight="1">
       <c r="A139" s="2" t="inlineStr">
         <is>
-          <t>SI-6 b,SI-6 d,CM-3 (5)</t>
+          <t>SI-6 d,SI-6 b,CM-3 (5)</t>
         </is>
       </c>
       <c r="B139" s="2" t="inlineStr">
@@ -11125,7 +11125,7 @@
     <row r="148" ht="130" customHeight="1">
       <c r="A148" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,AU-12 a,AU-12 c,MA-4 (1) (a),AU-14 (1)</t>
+          <t>AU-12 a,AU-14 (1),AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1)</t>
         </is>
       </c>
       <c r="B148" s="2" t="inlineStr">
@@ -11694,7 +11694,7 @@
     <row r="157" ht="130" customHeight="1">
       <c r="A157" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,AU-12 a,AU-12 c,MA-4 (1) (a)</t>
+          <t>AU-12 a,AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1)</t>
         </is>
       </c>
       <c r="B157" s="2" t="inlineStr">
@@ -11830,7 +11830,7 @@
     <row r="159" ht="130" customHeight="1">
       <c r="A159" s="2" t="inlineStr">
         <is>
-          <t>SC-8,AC-17 (2)</t>
+          <t>AC-17 (2),SC-8</t>
         </is>
       </c>
       <c r="B159" s="2" t="inlineStr">
@@ -13205,7 +13205,7 @@
     <row r="181" ht="130" customHeight="1">
       <c r="A181" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,SC-3</t>
+          <t>SC-3,CM-6 b</t>
         </is>
       </c>
       <c r="B181" s="2" t="inlineStr">

--- a/srg_mapping/srg-mapping-rhel9.xlsx
+++ b/srg_mapping/srg-mapping-rhel9.xlsx
@@ -541,7 +541,7 @@
     <row r="2" ht="130" customHeight="1">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>AU-4 (1),AU-4</t>
+          <t>AU-4,AU-4 (1)</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -625,7 +625,7 @@
     <row r="3" ht="130" customHeight="1">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>SC-5,SC-5 (2),CM-6 b</t>
+          <t>SC-5,CM-6 b,SC-5 (2)</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
@@ -724,7 +724,7 @@
     <row r="4" ht="130" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>AC-6 (9),AC-6 (8),AU-12 (3),AU-7 a,CM-5 (1),AU-7 b,AU-8 b</t>
+          <t>AU-7 a,AC-6 (8),AU-7 b,AU-12 (3),CM-5 (1),AC-6 (9),AU-8 b</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
@@ -804,7 +804,7 @@
     <row r="5" ht="130" customHeight="1">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>AC-17 (1),AC-17 (9),CM-7 b,CM-6 b</t>
+          <t>CM-7 b,AC-17 (9),AC-17 (1),CM-6 b</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
@@ -1175,7 +1175,7 @@
     <row r="10" ht="130" customHeight="1">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>CM-7 (5) (b),CM-7 (2)</t>
+          <t>CM-7 (2),CM-7 (5) (b)</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
@@ -1712,7 +1712,7 @@
     <row r="17" ht="130" customHeight="1">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>AU-12 a,AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1)</t>
+          <t>AU-12 c,AU-3 (1),MA-4 (1) (a),AU-3,AU-12 a</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
@@ -1843,7 +1843,7 @@
     <row r="19" ht="130" customHeight="1">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>IA-5 (1) (b),IA-5 (1) (a),CM-6 b</t>
+          <t>IA-5 (1) (a),IA-5 (1) (b),CM-6 b</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
@@ -2074,7 +2074,7 @@
     <row r="22" ht="130" customHeight="1">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>AU-12 a,AU-14 (1),AU-3,AU-7 (1),AU-7 a,MA-4 (1) (a),AU-6 (4),CM-6 b,CM-5 (1),AU-3 (1)</t>
+          <t>AU-7 a,AU-3 (1),CM-6 b,AU-6 (4),CM-5 (1),AU-7 (1),MA-4 (1) (a),AU-14 (1),AU-3,AU-12 a</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
@@ -2311,7 +2311,7 @@
     <row r="25" ht="130" customHeight="1">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>AU-12 a,AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1)</t>
+          <t>AU-12 c,AU-3 (1),MA-4 (1) (a),AU-3,AU-12 a</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
@@ -2585,7 +2585,7 @@
     <row r="29" ht="130" customHeight="1">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>SC-8 (1),SC-8 (2),SC-8</t>
+          <t>SC-8,SC-8 (1),SC-8 (2)</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
@@ -2714,7 +2714,7 @@
     <row r="31" ht="130" customHeight="1">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>AU-12 a,AU-3,MA-4 (1) (a),AC-2 (4),AU-12 c,AU-3 (1)</t>
+          <t>AU-12 c,AU-3 (1),AC-2 (4),MA-4 (1) (a),AU-3,AU-12 a</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
@@ -3210,7 +3210,7 @@
     <row r="38" ht="130" customHeight="1">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>SI-11 b,AU-9</t>
+          <t>AU-9,SI-11 b</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
@@ -3485,7 +3485,7 @@
     <row r="42" ht="130" customHeight="1">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>SC-28 (1),SC-28</t>
+          <t>SC-28,SC-28 (1)</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
@@ -3719,7 +3719,7 @@
     <row r="45" ht="130" customHeight="1">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>AC-8 c 1, AC-8 c 2, AC-8 c 3,AC-8 b,AC-8 a</t>
+          <t>AC-8 c 1, AC-8 c 2, AC-8 c 3,AC-8 a,AC-8 b</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
@@ -4066,7 +4066,7 @@
     <row r="50" ht="130" customHeight="1">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,IA-2 (5)</t>
+          <t>IA-2 (5),CM-6 b</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
@@ -4282,7 +4282,7 @@
     <row r="53" ht="130" customHeight="1">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (6),SC-13</t>
+          <t>SC-13,MA-4 (6)</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
@@ -4423,7 +4423,7 @@
     <row r="55" ht="130" customHeight="1">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>AC-17 (2),SC-8</t>
+          <t>SC-8,AC-17 (2)</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
@@ -4498,7 +4498,7 @@
     <row r="56" ht="130" customHeight="1">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
@@ -4997,7 +4997,7 @@
     <row r="63" ht="130" customHeight="1">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>AU-5 a,AU-5 (1)</t>
+          <t>AU-5 (1),AU-5 a</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
@@ -5296,7 +5296,7 @@
     <row r="67" ht="130" customHeight="1">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>AU-12 a,AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1)</t>
+          <t>AU-12 c,AU-3 (1),MA-4 (1) (a),AU-3,AU-12 a</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
@@ -5426,7 +5426,7 @@
     <row r="69" ht="130" customHeight="1">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>AU-12 a,AU-12 (3),AU-12 c,AU-7 a,CM-6 b,CM-5 (1),AU-7 b,AU-8 b</t>
+          <t>AU-12 c,AU-7 a,CM-6 b,AU-12 (3),AU-7 b,CM-5 (1),AU-8 b,AU-12 a</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
@@ -5983,7 +5983,7 @@
     <row r="77" ht="130" customHeight="1">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>AU-12 a,AU-3,MA-4 (1) (a),AC-2 (4),AU-12 c,AU-3 (1)</t>
+          <t>AU-12 c,AU-3 (1),AC-2 (4),MA-4 (1) (a),AU-3,AU-12 a</t>
         </is>
       </c>
       <c r="B77" s="2" t="inlineStr">
@@ -6231,7 +6231,7 @@
     <row r="80" ht="130" customHeight="1">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (2),IA-2 (3),IA-2 (1),IA-2 (4)</t>
+          <t>IA-2 (2),IA-2 (1),IA-2 (3),IA-2 (4)</t>
         </is>
       </c>
       <c r="B80" s="2" t="inlineStr">
@@ -6655,7 +6655,7 @@
     <row r="86" ht="130" customHeight="1">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>AU-12 a,AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1)</t>
+          <t>AU-12 c,AU-3 (1),MA-4 (1) (a),AU-3,AU-12 a</t>
         </is>
       </c>
       <c r="B86" s="2" t="inlineStr">
@@ -6809,7 +6809,7 @@
     <row r="88" ht="130" customHeight="1">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>CM-5 (1),AC-2 (4),AC-6 (9),AU-12 c</t>
+          <t>AU-12 c,CM-5 (1),AC-6 (9),AC-2 (4)</t>
         </is>
       </c>
       <c r="B88" s="2" t="inlineStr">
@@ -6876,7 +6876,7 @@
     <row r="89" ht="130" customHeight="1">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (2),IA-2,IA-2 (3),IA-2 (5),IA-2 (4)</t>
+          <t>IA-2 (5),IA-2 (3),IA-2 (4),IA-2,IA-2 (2)</t>
         </is>
       </c>
       <c r="B89" s="2" t="inlineStr">
@@ -7426,7 +7426,7 @@
     <row r="96" ht="130" customHeight="1">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>SC-8 (1),SC-8,AC-18 (1)</t>
+          <t>SC-8,SC-8 (1),AC-18 (1)</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
@@ -7506,7 +7506,7 @@
     <row r="97" ht="130" customHeight="1">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>AU-8 (1) (a),AU-8 b,AU-8 (1) (b)</t>
+          <t>AU-8 (1) (b),AU-8 b,AU-8 (1) (a)</t>
         </is>
       </c>
       <c r="B97" s="2" t="inlineStr">
@@ -7889,7 +7889,7 @@
     <row r="102" ht="130" customHeight="1">
       <c r="A102" s="2" t="inlineStr">
         <is>
-          <t>AU-12 a,AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1)</t>
+          <t>AU-12 c,AU-3 (1),MA-4 (1) (a),AU-3,AU-12 a</t>
         </is>
       </c>
       <c r="B102" s="2" t="inlineStr">
@@ -8483,7 +8483,7 @@
     <row r="111" ht="130" customHeight="1">
       <c r="A111" s="2" t="inlineStr">
         <is>
-          <t>AU-5 a,AU-5 b</t>
+          <t>AU-5 b,AU-5 a</t>
         </is>
       </c>
       <c r="B111" s="2" t="inlineStr">
@@ -9033,7 +9033,7 @@
     <row r="119" ht="130" customHeight="1">
       <c r="A119" s="2" t="inlineStr">
         <is>
-          <t>AU-12 a,AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1)</t>
+          <t>AU-12 c,AU-3 (1),MA-4 (1) (a),AU-3,AU-12 a</t>
         </is>
       </c>
       <c r="B119" s="2" t="inlineStr">
@@ -9331,7 +9331,7 @@
     <row r="123" ht="130" customHeight="1">
       <c r="A123" s="2" t="inlineStr">
         <is>
-          <t>CM-7 a,CM-7 b</t>
+          <t>CM-7 b,CM-7 a</t>
         </is>
       </c>
       <c r="B123" s="2" t="inlineStr">
@@ -9405,7 +9405,7 @@
     <row r="124" ht="130" customHeight="1">
       <c r="A124" s="2" t="inlineStr">
         <is>
-          <t>AU-12 a,AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1)</t>
+          <t>AU-12 c,AU-3 (1),MA-4 (1) (a),AU-3,AU-12 a</t>
         </is>
       </c>
       <c r="B124" s="2" t="inlineStr">
@@ -9479,7 +9479,7 @@
     <row r="125" ht="130" customHeight="1">
       <c r="A125" s="2" t="inlineStr">
         <is>
-          <t>CM-7 a,AC-18 (1)</t>
+          <t>AC-18 (1),CM-7 a</t>
         </is>
       </c>
       <c r="B125" s="2" t="inlineStr">
@@ -9668,7 +9668,7 @@
     <row r="128" ht="130" customHeight="1">
       <c r="A128" s="2" t="inlineStr">
         <is>
-          <t>CM-7 a,IA-5 (1) (c),CM-6 b</t>
+          <t>CM-7 a,CM-6 b,IA-5 (1) (c)</t>
         </is>
       </c>
       <c r="B128" s="2" t="inlineStr">
@@ -11125,7 +11125,7 @@
     <row r="148" ht="130" customHeight="1">
       <c r="A148" s="2" t="inlineStr">
         <is>
-          <t>AU-12 a,AU-14 (1),AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1)</t>
+          <t>AU-12 c,AU-3 (1),MA-4 (1) (a),AU-14 (1),AU-3,AU-12 a</t>
         </is>
       </c>
       <c r="B148" s="2" t="inlineStr">
@@ -11694,7 +11694,7 @@
     <row r="157" ht="130" customHeight="1">
       <c r="A157" s="2" t="inlineStr">
         <is>
-          <t>AU-12 a,AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1)</t>
+          <t>AU-12 c,AU-3 (1),MA-4 (1) (a),AU-3,AU-12 a</t>
         </is>
       </c>
       <c r="B157" s="2" t="inlineStr">
@@ -11830,7 +11830,7 @@
     <row r="159" ht="130" customHeight="1">
       <c r="A159" s="2" t="inlineStr">
         <is>
-          <t>AC-17 (2),SC-8</t>
+          <t>SC-8,AC-17 (2)</t>
         </is>
       </c>
       <c r="B159" s="2" t="inlineStr">
@@ -12825,7 +12825,7 @@
     <row r="175" ht="130" customHeight="1">
       <c r="A175" s="2" t="inlineStr">
         <is>
-          <t>CM-7 a,SI-16</t>
+          <t>SI-16,CM-7 a</t>
         </is>
       </c>
       <c r="B175" s="2" t="inlineStr">

--- a/srg_mapping/srg-mapping-rhel9.xlsx
+++ b/srg_mapping/srg-mapping-rhel9.xlsx
@@ -784,7 +784,7 @@
     <row r="5" ht="130" customHeight="1">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>SC-5 (2),SC-5,CM-6 b</t>
+          <t>CM-6 b,SC-5,SC-5 (2)</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
@@ -883,7 +883,7 @@
     <row r="6" ht="130" customHeight="1">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>AU-8 b,AU-12 (3),AU-7 a,CM-5 (1),AC-6 (9),AC-6 (8),AU-7 b</t>
+          <t>AU-7 a,AU-12 (3),AU-8 b,AC-6 (8),CM-5 (1),AC-6 (9),AU-7 b</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
@@ -963,7 +963,7 @@
     <row r="7" ht="130" customHeight="1">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>AU-8 b,AU-12 (3),AU-7 a,CM-5 (1),CM-6 b,AU-12 a,AU-7 b,AU-12 c</t>
+          <t>CM-6 b,AU-7 a,AU-12 (3),AU-8 b,AU-12 c,CM-5 (1),AU-7 b,AU-12 a</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
@@ -1037,7 +1037,7 @@
     <row r="8" ht="130" customHeight="1">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>AC-17 (9),AC-17 (1),CM-7 b,CM-6 b</t>
+          <t>CM-6 b,AC-17 (1),AC-17 (9),CM-7 b</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
@@ -3286,7 +3286,7 @@
     <row r="38" ht="130" customHeight="1">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>AC-7 b,AC-7 a</t>
+          <t>AC-7 a,AC-7 b</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
@@ -3370,7 +3370,7 @@
     <row r="39" ht="130" customHeight="1">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>AC-7 b,AC-7 a</t>
+          <t>AC-7 a,AC-7 b</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
@@ -3455,7 +3455,7 @@
     <row r="40" ht="130" customHeight="1">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>AC-7 b,AC-7 a</t>
+          <t>AC-7 a,AC-7 b</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
@@ -3527,7 +3527,7 @@
     <row r="41" ht="130" customHeight="1">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>AC-7 b,AC-7 a</t>
+          <t>AC-7 a,AC-7 b</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
@@ -3832,7 +3832,7 @@
     <row r="45" ht="130" customHeight="1">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>IA-8,IA-2,AU-3 (1)</t>
+          <t>IA-8,AU-3 (1),IA-2</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
@@ -3910,7 +3910,7 @@
     <row r="46" ht="130" customHeight="1">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-3,MA-4 (1) (a),AU-12 c</t>
+          <t>MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
@@ -3985,7 +3985,7 @@
     <row r="47" ht="130" customHeight="1">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-3,MA-4 (1) (a),AU-12 c</t>
+          <t>MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
@@ -4060,7 +4060,7 @@
     <row r="48" ht="130" customHeight="1">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-3,MA-4 (1) (a),AU-12 c</t>
+          <t>MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
@@ -4135,7 +4135,7 @@
     <row r="49" ht="130" customHeight="1">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-3,MA-4 (1) (a),AU-12 c</t>
+          <t>MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
@@ -4210,7 +4210,7 @@
     <row r="50" ht="130" customHeight="1">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-3,MA-4 (1) (a),AU-12 c</t>
+          <t>MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
@@ -4285,7 +4285,7 @@
     <row r="51" ht="130" customHeight="1">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-3,MA-4 (1) (a),AU-12 c</t>
+          <t>MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
@@ -4360,7 +4360,7 @@
     <row r="52" ht="130" customHeight="1">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-3,MA-4 (1) (a),AU-12 c</t>
+          <t>MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
@@ -4435,7 +4435,7 @@
     <row r="53" ht="130" customHeight="1">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-3,MA-4 (1) (a),AU-12 c</t>
+          <t>MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
@@ -4510,7 +4510,7 @@
     <row r="54" ht="130" customHeight="1">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-3,MA-4 (1) (a),AU-12 c</t>
+          <t>MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
@@ -4585,7 +4585,7 @@
     <row r="55" ht="130" customHeight="1">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-3,MA-4 (1) (a),AU-12 c</t>
+          <t>MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
@@ -4660,7 +4660,7 @@
     <row r="56" ht="130" customHeight="1">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-3,MA-4 (1) (a),AU-12 c</t>
+          <t>MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
@@ -4735,7 +4735,7 @@
     <row r="57" ht="130" customHeight="1">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-3,MA-4 (1) (a),AU-12 c</t>
+          <t>MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
@@ -4810,7 +4810,7 @@
     <row r="58" ht="130" customHeight="1">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-3,MA-4 (1) (a),AU-12 c</t>
+          <t>MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
@@ -4885,7 +4885,7 @@
     <row r="59" ht="130" customHeight="1">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-3,MA-4 (1) (a),AU-12 c</t>
+          <t>MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
@@ -4965,7 +4965,7 @@
     <row r="60" ht="130" customHeight="1">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-3,MA-4 (1) (a),AU-12 c</t>
+          <t>MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
@@ -5048,7 +5048,7 @@
     <row r="61" ht="130" customHeight="1">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-3,MA-4 (1) (a),AU-12 c</t>
+          <t>MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
@@ -5128,7 +5128,7 @@
     <row r="62" ht="130" customHeight="1">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-3,MA-4 (1) (a),AU-12 c</t>
+          <t>MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
@@ -5208,7 +5208,7 @@
     <row r="63" ht="130" customHeight="1">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-3,MA-4 (1) (a),AU-12 c</t>
+          <t>MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
@@ -5288,7 +5288,7 @@
     <row r="64" ht="130" customHeight="1">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-3,MA-4 (1) (a),AU-12 c</t>
+          <t>MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
@@ -5368,7 +5368,7 @@
     <row r="65" ht="130" customHeight="1">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-3,MA-4 (1) (a),AU-12 c</t>
+          <t>MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
@@ -5442,7 +5442,7 @@
     <row r="66" ht="130" customHeight="1">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-3,MA-4 (1) (a),AU-12 c</t>
+          <t>MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
@@ -5516,7 +5516,7 @@
     <row r="67" ht="130" customHeight="1">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-3,MA-4 (1) (a),AU-12 c</t>
+          <t>MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
@@ -5590,7 +5590,7 @@
     <row r="68" ht="130" customHeight="1">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-3,MA-4 (1) (a),AU-12 c</t>
+          <t>MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
@@ -5664,7 +5664,7 @@
     <row r="69" ht="130" customHeight="1">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-3,MA-4 (1) (a),AU-12 c</t>
+          <t>MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
@@ -5738,7 +5738,7 @@
     <row r="70" ht="130" customHeight="1">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-3,MA-4 (1) (a),AU-12 c</t>
+          <t>MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
@@ -5811,7 +5811,7 @@
     <row r="71" ht="130" customHeight="1">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-3,MA-4 (1) (a),AU-12 c</t>
+          <t>MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B71" s="2" t="inlineStr">
@@ -5884,7 +5884,7 @@
     <row r="72" ht="130" customHeight="1">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-3,MA-4 (1) (a),AU-12 c</t>
+          <t>MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
@@ -5957,7 +5957,7 @@
     <row r="73" ht="130" customHeight="1">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-3,MA-4 (1) (a),AU-12 c</t>
+          <t>MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B73" s="2" t="inlineStr">
@@ -6030,7 +6030,7 @@
     <row r="74" ht="130" customHeight="1">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-3,MA-4 (1) (a),AU-12 c</t>
+          <t>MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B74" s="2" t="inlineStr">
@@ -6103,7 +6103,7 @@
     <row r="75" ht="130" customHeight="1">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-3,MA-4 (1) (a),AU-12 c</t>
+          <t>MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B75" s="2" t="inlineStr">
@@ -6176,7 +6176,7 @@
     <row r="76" ht="130" customHeight="1">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-3,MA-4 (1) (a),AU-12 c</t>
+          <t>MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B76" s="2" t="inlineStr">
@@ -6250,7 +6250,7 @@
     <row r="77" ht="130" customHeight="1">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-3,MA-4 (1) (a),AU-12 c</t>
+          <t>MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B77" s="2" t="inlineStr">
@@ -6324,7 +6324,7 @@
     <row r="78" ht="130" customHeight="1">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-3,MA-4 (1) (a),AU-12 c</t>
+          <t>MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B78" s="2" t="inlineStr">
@@ -6398,7 +6398,7 @@
     <row r="79" ht="130" customHeight="1">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-3,MA-4 (1) (a),AU-12 c</t>
+          <t>MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B79" s="2" t="inlineStr">
@@ -6469,7 +6469,7 @@
     <row r="80" ht="130" customHeight="1">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-3,MA-4 (1) (a),AU-12 c</t>
+          <t>MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B80" s="2" t="inlineStr">
@@ -6549,7 +6549,7 @@
     <row r="81" ht="130" customHeight="1">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-3,MA-4 (1) (a),AU-12 c</t>
+          <t>MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B81" s="2" t="inlineStr">
@@ -6629,7 +6629,7 @@
     <row r="82" ht="130" customHeight="1">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-3,MA-4 (1) (a),AU-12 c</t>
+          <t>MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B82" s="2" t="inlineStr">
@@ -6709,7 +6709,7 @@
     <row r="83" ht="130" customHeight="1">
       <c r="A83" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-3,MA-4 (1) (a),AU-12 c</t>
+          <t>MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B83" s="2" t="inlineStr">
@@ -6789,7 +6789,7 @@
     <row r="84" ht="130" customHeight="1">
       <c r="A84" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-3,MA-4 (1) (a),AU-12 c</t>
+          <t>MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B84" s="2" t="inlineStr">
@@ -6869,7 +6869,7 @@
     <row r="85" ht="130" customHeight="1">
       <c r="A85" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-3 (1)</t>
+          <t>MA-4 (1) (a),AU-3 (1),AU-3</t>
         </is>
       </c>
       <c r="B85" s="2" t="inlineStr">
@@ -6949,7 +6949,7 @@
     <row r="86" ht="130" customHeight="1">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-3,MA-4 (1) (a),AU-12 c</t>
+          <t>MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B86" s="2" t="inlineStr">
@@ -7029,7 +7029,7 @@
     <row r="87" ht="130" customHeight="1">
       <c r="A87" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-3,MA-4 (1) (a),AU-12 c</t>
+          <t>MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B87" s="2" t="inlineStr">
@@ -7109,7 +7109,7 @@
     <row r="88" ht="130" customHeight="1">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-3,MA-4 (1) (a),AU-12 c</t>
+          <t>MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B88" s="2" t="inlineStr">
@@ -7189,7 +7189,7 @@
     <row r="89" ht="130" customHeight="1">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-3,MA-4 (1) (a),AU-12 c</t>
+          <t>MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B89" s="2" t="inlineStr">
@@ -7269,7 +7269,7 @@
     <row r="90" ht="130" customHeight="1">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-3,MA-4 (1) (a),AU-12 c</t>
+          <t>MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B90" s="2" t="inlineStr">
@@ -7349,7 +7349,7 @@
     <row r="91" ht="130" customHeight="1">
       <c r="A91" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,MA-4 (1) (a),AU-3 (1)</t>
         </is>
       </c>
       <c r="B91" s="2" t="inlineStr">
@@ -7425,7 +7425,7 @@
     <row r="92" ht="130" customHeight="1">
       <c r="A92" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-3,MA-4 (1) (a),AU-12 c</t>
+          <t>MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B92" s="2" t="inlineStr">
@@ -7502,7 +7502,7 @@
     <row r="93" ht="130" customHeight="1">
       <c r="A93" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-3,MA-4 (1) (a),AU-12 c</t>
+          <t>MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B93" s="2" t="inlineStr">
@@ -7582,7 +7582,7 @@
     <row r="94" ht="130" customHeight="1">
       <c r="A94" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-3,MA-4 (1) (a),AU-12 c</t>
+          <t>MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B94" s="2" t="inlineStr">
@@ -7662,7 +7662,7 @@
     <row r="95" ht="130" customHeight="1">
       <c r="A95" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-3,MA-4 (1) (a),AU-12 c</t>
+          <t>MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B95" s="2" t="inlineStr">
@@ -7742,7 +7742,7 @@
     <row r="96" ht="130" customHeight="1">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-3,MA-4 (1) (a),AU-12 c</t>
+          <t>MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
@@ -7822,7 +7822,7 @@
     <row r="97" ht="130" customHeight="1">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1)</t>
+          <t>AU-12 c,MA-4 (1) (a),AU-3 (1),AU-3</t>
         </is>
       </c>
       <c r="B97" s="2" t="inlineStr">
@@ -7902,7 +7902,7 @@
     <row r="98" ht="130" customHeight="1">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-3,MA-4 (1) (a),AU-12 c</t>
+          <t>MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B98" s="2" t="inlineStr">
@@ -7982,7 +7982,7 @@
     <row r="99" ht="130" customHeight="1">
       <c r="A99" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-3,MA-4 (1) (a),AU-12 c</t>
+          <t>MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B99" s="2" t="inlineStr">
@@ -8062,7 +8062,7 @@
     <row r="100" ht="130" customHeight="1">
       <c r="A100" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-3,MA-4 (1) (a),AU-12 c</t>
+          <t>MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B100" s="2" t="inlineStr">
@@ -8142,7 +8142,7 @@
     <row r="101" ht="130" customHeight="1">
       <c r="A101" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-3,MA-4 (1) (a),AU-12 c</t>
+          <t>MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B101" s="2" t="inlineStr">
@@ -8222,7 +8222,7 @@
     <row r="102" ht="130" customHeight="1">
       <c r="A102" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-3,MA-4 (1) (a),AU-12 c</t>
+          <t>MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B102" s="2" t="inlineStr">
@@ -8295,7 +8295,7 @@
     <row r="103" ht="130" customHeight="1">
       <c r="A103" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AC-2 (4),AU-12 a,AU-3,MA-4 (1) (a),AU-12 c</t>
+          <t>AC-2 (4),MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B103" s="2" t="inlineStr">
@@ -8376,7 +8376,7 @@
     <row r="104" ht="130" customHeight="1">
       <c r="A104" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AC-2 (4),AU-12 a,AU-3,MA-4 (1) (a),AU-12 c</t>
+          <t>AC-2 (4),MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B104" s="2" t="inlineStr">
@@ -8457,7 +8457,7 @@
     <row r="105" ht="130" customHeight="1">
       <c r="A105" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AC-2 (4),AU-12 a,AU-3,MA-4 (1) (a),AU-12 c</t>
+          <t>AC-2 (4),MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B105" s="2" t="inlineStr">
@@ -8528,7 +8528,7 @@
     <row r="106" ht="130" customHeight="1">
       <c r="A106" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AC-2 (4),AU-3,MA-4 (1) (a),AU-12 c</t>
+          <t>AC-2 (4),MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1)</t>
         </is>
       </c>
       <c r="B106" s="2" t="inlineStr">
@@ -8603,7 +8603,7 @@
     <row r="107" ht="130" customHeight="1">
       <c r="A107" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AC-2 (4),AU-12 a,AU-3,MA-4 (1) (a),AU-12 c</t>
+          <t>AC-2 (4),MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B107" s="2" t="inlineStr">
@@ -8685,7 +8685,7 @@
     <row r="108" ht="130" customHeight="1">
       <c r="A108" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AC-2 (4),AU-12 a,AU-3,MA-4 (1) (a),AU-12 c</t>
+          <t>AC-2 (4),MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B108" s="2" t="inlineStr">
@@ -8767,7 +8767,7 @@
     <row r="109" ht="130" customHeight="1">
       <c r="A109" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AC-2 (4),AU-12 a,AU-3,MA-4 (1) (a),AU-12 c</t>
+          <t>AC-2 (4),MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B109" s="2" t="inlineStr">
@@ -8849,7 +8849,7 @@
     <row r="110" ht="130" customHeight="1">
       <c r="A110" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AC-2 (4),AU-12 a,AU-3,MA-4 (1) (a),AU-12 c</t>
+          <t>AC-2 (4),MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B110" s="2" t="inlineStr">
@@ -8931,7 +8931,7 @@
     <row r="111" ht="130" customHeight="1">
       <c r="A111" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AC-2 (4),AU-12 a,AU-3,MA-4 (1) (a),AU-12 c</t>
+          <t>AC-2 (4),MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B111" s="2" t="inlineStr">
@@ -9013,7 +9013,7 @@
     <row r="112" ht="130" customHeight="1">
       <c r="A112" s="2" t="inlineStr">
         <is>
-          <t>AU-14 (1),AU-3 (1),AU-12 a,AU-3,MA-4 (1) (a),AU-12 c</t>
+          <t>AU-14 (1),MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B112" s="2" t="inlineStr">
@@ -9263,7 +9263,7 @@
     <row r="115" ht="130" customHeight="1">
       <c r="A115" s="2" t="inlineStr">
         <is>
-          <t>AC-11 b,AC-6 (10)</t>
+          <t>AC-6 (10),AC-11 b</t>
         </is>
       </c>
       <c r="B115" s="2" t="inlineStr">
@@ -9707,7 +9707,7 @@
     <row r="120" ht="130" customHeight="1">
       <c r="A120" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-12 a</t>
+          <t>AU-12 c,MA-4 (1) (a),AU-12 a,AU-3</t>
         </is>
       </c>
       <c r="B120" s="2" t="inlineStr">
@@ -9778,7 +9778,7 @@
     <row r="121" ht="130" customHeight="1">
       <c r="A121" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-12 a</t>
+          <t>AU-12 c,MA-4 (1) (a),AU-12 a,AU-3</t>
         </is>
       </c>
       <c r="B121" s="2" t="inlineStr">
@@ -9849,7 +9849,7 @@
     <row r="122" ht="130" customHeight="1">
       <c r="A122" s="2" t="inlineStr">
         <is>
-          <t>AU-9,AU-12 c</t>
+          <t>AU-12 c,AU-9</t>
         </is>
       </c>
       <c r="B122" s="2" t="inlineStr">
@@ -10222,7 +10222,7 @@
     <row r="127" ht="130" customHeight="1">
       <c r="A127" s="2" t="inlineStr">
         <is>
-          <t>AC-2 (4),AC-6 (9),CM-5 (1),AU-12 c</t>
+          <t>AU-12 c,AC-2 (4),CM-5 (1),AC-6 (9)</t>
         </is>
       </c>
       <c r="B127" s="2" t="inlineStr">
@@ -10345,7 +10345,7 @@
     <row r="129" ht="130" customHeight="1">
       <c r="A129" s="2" t="inlineStr">
         <is>
-          <t>IA-5 (1) (b),IA-5 (1) (a),CM-6 b</t>
+          <t>CM-6 b,IA-5 (1) (b),IA-5 (1) (a)</t>
         </is>
       </c>
       <c r="B129" s="2" t="inlineStr">
@@ -10665,7 +10665,7 @@
     <row r="133" ht="130" customHeight="1">
       <c r="A133" s="2" t="inlineStr">
         <is>
-          <t>MA-4 c,SC-8,AC-17 (2),SC-13</t>
+          <t>SC-8,MA-4 c,SC-13,AC-17 (2)</t>
         </is>
       </c>
       <c r="B133" s="2" t="inlineStr">
@@ -10747,7 +10747,7 @@
     <row r="134" ht="130" customHeight="1">
       <c r="A134" s="2" t="inlineStr">
         <is>
-          <t>AC-12,MA-4 (7),SC-10,MA-4 e</t>
+          <t>MA-4 (7),SC-10,AC-12,MA-4 e</t>
         </is>
       </c>
       <c r="B134" s="2" t="inlineStr">
@@ -10822,7 +10822,7 @@
     <row r="135" ht="130" customHeight="1">
       <c r="A135" s="2" t="inlineStr">
         <is>
-          <t>AC-12,SC-10</t>
+          <t>SC-10,AC-12</t>
         </is>
       </c>
       <c r="B135" s="2" t="inlineStr">
@@ -10901,7 +10901,7 @@
     <row r="136" ht="130" customHeight="1">
       <c r="A136" s="2" t="inlineStr">
         <is>
-          <t>AC-12,SC-10</t>
+          <t>SC-10,AC-12</t>
         </is>
       </c>
       <c r="B136" s="2" t="inlineStr">
@@ -11054,7 +11054,7 @@
     <row r="138" ht="130" customHeight="1">
       <c r="A138" s="2" t="inlineStr">
         <is>
-          <t>AU-14 (1),AU-6 (4),AU-3 (1),AU-7 a,CM-5 (1),CM-6 b,AU-12 a,AU-3,AU-7 (1),MA-4 (1) (a)</t>
+          <t>CM-6 b,AU-7 a,AU-6 (4),AU-14 (1),MA-4 (1) (a),AU-3,AU-7 (1),AU-3 (1),CM-5 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B138" s="2" t="inlineStr">
@@ -11304,7 +11304,7 @@
     <row r="141" ht="130" customHeight="1">
       <c r="A141" s="2" t="inlineStr">
         <is>
-          <t>AU-9 (3),AU-9</t>
+          <t>AU-9,AU-9 (3)</t>
         </is>
       </c>
       <c r="B141" s="2" t="inlineStr">
@@ -11380,7 +11380,7 @@
     <row r="142" ht="130" customHeight="1">
       <c r="A142" s="2" t="inlineStr">
         <is>
-          <t>AU-9 (3),AU-9</t>
+          <t>AU-9,AU-9 (3)</t>
         </is>
       </c>
       <c r="B142" s="2" t="inlineStr">
@@ -11456,7 +11456,7 @@
     <row r="143" ht="130" customHeight="1">
       <c r="A143" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B143" s="2" t="inlineStr">
@@ -11525,7 +11525,7 @@
     <row r="144" ht="130" customHeight="1">
       <c r="A144" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B144" s="2" t="inlineStr">
@@ -11594,7 +11594,7 @@
     <row r="145" ht="130" customHeight="1">
       <c r="A145" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B145" s="2" t="inlineStr">
@@ -11664,7 +11664,7 @@
     <row r="146" ht="130" customHeight="1">
       <c r="A146" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B146" s="2" t="inlineStr">
@@ -11733,7 +11733,7 @@
     <row r="147" ht="130" customHeight="1">
       <c r="A147" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B147" s="2" t="inlineStr">
@@ -11802,7 +11802,7 @@
     <row r="148" ht="130" customHeight="1">
       <c r="A148" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B148" s="2" t="inlineStr">
@@ -11872,7 +11872,7 @@
     <row r="149" ht="130" customHeight="1">
       <c r="A149" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B149" s="2" t="inlineStr">
@@ -11941,7 +11941,7 @@
     <row r="150" ht="130" customHeight="1">
       <c r="A150" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B150" s="2" t="inlineStr">
@@ -12010,7 +12010,7 @@
     <row r="151" ht="130" customHeight="1">
       <c r="A151" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B151" s="2" t="inlineStr">
@@ -12080,7 +12080,7 @@
     <row r="152" ht="130" customHeight="1">
       <c r="A152" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B152" s="2" t="inlineStr">
@@ -12149,7 +12149,7 @@
     <row r="153" ht="130" customHeight="1">
       <c r="A153" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B153" s="2" t="inlineStr">
@@ -12218,7 +12218,7 @@
     <row r="154" ht="130" customHeight="1">
       <c r="A154" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B154" s="2" t="inlineStr">
@@ -12287,7 +12287,7 @@
     <row r="155" ht="130" customHeight="1">
       <c r="A155" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B155" s="2" t="inlineStr">
@@ -13125,7 +13125,7 @@
     <row r="166" ht="130" customHeight="1">
       <c r="A166" s="2" t="inlineStr">
         <is>
-          <t>SC-8,SC-8 (2),SC-8 (1)</t>
+          <t>SC-8,SC-8 (1),SC-8 (2)</t>
         </is>
       </c>
       <c r="B166" s="2" t="inlineStr">
@@ -13507,7 +13507,7 @@
     <row r="171" ht="130" customHeight="1">
       <c r="A171" s="2" t="inlineStr">
         <is>
-          <t>AC-2 (4),AC-6 (9),AU-12 c</t>
+          <t>AU-12 c,AC-2 (4),AC-6 (9)</t>
         </is>
       </c>
       <c r="B171" s="2" t="inlineStr">
@@ -14333,7 +14333,7 @@
     <row r="181" ht="130" customHeight="1">
       <c r="A181" s="2" t="inlineStr">
         <is>
-          <t>AC-17 (1),CM-7 b,CM-6 b</t>
+          <t>CM-6 b,AC-17 (1),CM-7 b</t>
         </is>
       </c>
       <c r="B181" s="2" t="inlineStr">
@@ -14412,7 +14412,7 @@
     <row r="182" ht="130" customHeight="1">
       <c r="A182" s="2" t="inlineStr">
         <is>
-          <t>SI-11 b,AU-9</t>
+          <t>AU-9,SI-11 b</t>
         </is>
       </c>
       <c r="B182" s="2" t="inlineStr">
@@ -14484,7 +14484,7 @@
     <row r="183" ht="130" customHeight="1">
       <c r="A183" s="2" t="inlineStr">
         <is>
-          <t>SI-11 b,AU-9</t>
+          <t>AU-9,SI-11 b</t>
         </is>
       </c>
       <c r="B183" s="2" t="inlineStr">
@@ -14556,7 +14556,7 @@
     <row r="184" ht="130" customHeight="1">
       <c r="A184" s="2" t="inlineStr">
         <is>
-          <t>SI-11 b,AU-9</t>
+          <t>AU-9,SI-11 b</t>
         </is>
       </c>
       <c r="B184" s="2" t="inlineStr">
@@ -14630,7 +14630,7 @@
     <row r="185" ht="130" customHeight="1">
       <c r="A185" s="2" t="inlineStr">
         <is>
-          <t>SI-11 b,AU-9</t>
+          <t>AU-9,SI-11 b</t>
         </is>
       </c>
       <c r="B185" s="2" t="inlineStr">
@@ -14704,7 +14704,7 @@
     <row r="186" ht="130" customHeight="1">
       <c r="A186" s="2" t="inlineStr">
         <is>
-          <t>SI-11 b,AU-9</t>
+          <t>AU-9,SI-11 b</t>
         </is>
       </c>
       <c r="B186" s="2" t="inlineStr">
@@ -14778,7 +14778,7 @@
     <row r="187" ht="130" customHeight="1">
       <c r="A187" s="2" t="inlineStr">
         <is>
-          <t>SI-11 b,AU-9</t>
+          <t>AU-9,SI-11 b</t>
         </is>
       </c>
       <c r="B187" s="2" t="inlineStr">
@@ -15299,7 +15299,7 @@
     <row r="194" ht="130" customHeight="1">
       <c r="A194" s="2" t="inlineStr">
         <is>
-          <t>AU-3,CM-6 b</t>
+          <t>CM-6 b,AU-3</t>
         </is>
       </c>
       <c r="B194" s="2" t="inlineStr">
@@ -15733,7 +15733,7 @@
     <row r="200" ht="130" customHeight="1">
       <c r="A200" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-4 (1)</t>
+          <t>AU-4 (1),AU-3</t>
         </is>
       </c>
       <c r="B200" s="2" t="inlineStr">
@@ -16642,7 +16642,7 @@
     <row r="212" ht="130" customHeight="1">
       <c r="A212" s="2" t="inlineStr">
         <is>
-          <t>AC-8 c 1, AC-8 c 2, AC-8 c 3,AC-8 a</t>
+          <t>AC-8 a,AC-8 c 1, AC-8 c 2, AC-8 c 3</t>
         </is>
       </c>
       <c r="B212" s="2" t="inlineStr">
@@ -16744,7 +16744,7 @@
     <row r="213" ht="130" customHeight="1">
       <c r="A213" s="2" t="inlineStr">
         <is>
-          <t>AC-8 c 1, AC-8 c 2, AC-8 c 3,AC-8 a</t>
+          <t>AC-8 a,AC-8 c 1, AC-8 c 2, AC-8 c 3</t>
         </is>
       </c>
       <c r="B213" s="2" t="inlineStr">
@@ -16854,7 +16854,7 @@
     <row r="214" ht="130" customHeight="1">
       <c r="A214" s="2" t="inlineStr">
         <is>
-          <t>AC-8 c 1, AC-8 c 2, AC-8 c 3,AC-8 a</t>
+          <t>AC-8 a,AC-8 c 1, AC-8 c 2, AC-8 c 3</t>
         </is>
       </c>
       <c r="B214" s="2" t="inlineStr">
@@ -16965,7 +16965,7 @@
     <row r="215" ht="130" customHeight="1">
       <c r="A215" s="2" t="inlineStr">
         <is>
-          <t>AC-8 c 1, AC-8 c 2, AC-8 c 3,AC-8 a</t>
+          <t>AC-8 a,AC-8 c 1, AC-8 c 2, AC-8 c 3</t>
         </is>
       </c>
       <c r="B215" s="2" t="inlineStr">
@@ -17453,7 +17453,7 @@
     <row r="221" ht="130" customHeight="1">
       <c r="A221" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (2),IA-2 (4),IA-2 (5),IA-2 (3),IA-2</t>
+          <t>IA-2 (5),IA-2 (2),IA-2 (4),IA-2,IA-2 (3)</t>
         </is>
       </c>
       <c r="B221" s="2" t="inlineStr">
@@ -17538,7 +17538,7 @@
     <row r="222" ht="130" customHeight="1">
       <c r="A222" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (2),IA-2 (4),IA-2 (5),IA-2 (3),IA-2</t>
+          <t>IA-2 (5),IA-2 (2),IA-2 (4),IA-2,IA-2 (3)</t>
         </is>
       </c>
       <c r="B222" s="2" t="inlineStr">
@@ -17623,7 +17623,7 @@
     <row r="223" ht="130" customHeight="1">
       <c r="A223" s="2" t="inlineStr">
         <is>
-          <t>SC-8 (1),SC-8,AC-18 (1)</t>
+          <t>SC-8,SC-8 (1),AC-18 (1)</t>
         </is>
       </c>
       <c r="B223" s="2" t="inlineStr">
@@ -17873,7 +17873,7 @@
     <row r="226" ht="130" customHeight="1">
       <c r="A226" s="2" t="inlineStr">
         <is>
-          <t>IA-7,CM-6 b</t>
+          <t>CM-6 b,IA-7</t>
         </is>
       </c>
       <c r="B226" s="2" t="inlineStr">
@@ -17949,7 +17949,7 @@
     <row r="227" ht="130" customHeight="1">
       <c r="A227" s="2" t="inlineStr">
         <is>
-          <t>IA-7,CM-6 b</t>
+          <t>CM-6 b,IA-7</t>
         </is>
       </c>
       <c r="B227" s="2" t="inlineStr">
@@ -18034,7 +18034,7 @@
     <row r="228" ht="130" customHeight="1">
       <c r="A228" s="2" t="inlineStr">
         <is>
-          <t>IA-7,CM-6 b</t>
+          <t>CM-6 b,IA-7</t>
         </is>
       </c>
       <c r="B228" s="2" t="inlineStr">
@@ -18191,7 +18191,7 @@
     <row r="230" ht="130" customHeight="1">
       <c r="A230" s="2" t="inlineStr">
         <is>
-          <t>IA-7,CM-7 a</t>
+          <t>CM-7 a,IA-7</t>
         </is>
       </c>
       <c r="B230" s="2" t="inlineStr">
@@ -18354,7 +18354,7 @@
     <row r="232" ht="130" customHeight="1">
       <c r="A232" s="2" t="inlineStr">
         <is>
-          <t>AC-17 (2),MA-4 (6)</t>
+          <t>MA-4 (6),AC-17 (2)</t>
         </is>
       </c>
       <c r="B232" s="2" t="inlineStr">
@@ -19026,7 +19026,7 @@
     <row r="241" ht="130" customHeight="1">
       <c r="A241" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B241" s="2" t="inlineStr">
@@ -19097,7 +19097,7 @@
     <row r="242" ht="130" customHeight="1">
       <c r="A242" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B242" s="2" t="inlineStr">
@@ -19259,7 +19259,7 @@
     <row r="244" ht="130" customHeight="1">
       <c r="A244" s="2" t="inlineStr">
         <is>
-          <t>SI-16,SC-2,CM-6 b</t>
+          <t>SC-2,SI-16,CM-6 b</t>
         </is>
       </c>
       <c r="B244" s="2" t="inlineStr">
@@ -20333,7 +20333,7 @@
     <row r="258" ht="130" customHeight="1">
       <c r="A258" s="2" t="inlineStr">
         <is>
-          <t>IA-3,CM-6 b</t>
+          <t>CM-6 b,IA-3</t>
         </is>
       </c>
       <c r="B258" s="2" t="inlineStr">
@@ -20408,7 +20408,7 @@
     <row r="259" ht="130" customHeight="1">
       <c r="A259" s="2" t="inlineStr">
         <is>
-          <t>IA-3,CM-6 b</t>
+          <t>CM-6 b,IA-3</t>
         </is>
       </c>
       <c r="B259" s="2" t="inlineStr">
@@ -20496,7 +20496,7 @@
     <row r="260" ht="130" customHeight="1">
       <c r="A260" s="2" t="inlineStr">
         <is>
-          <t>IA-3,CM-6 b</t>
+          <t>CM-6 b,IA-3</t>
         </is>
       </c>
       <c r="B260" s="2" t="inlineStr">
@@ -20573,7 +20573,7 @@
     <row r="261" ht="130" customHeight="1">
       <c r="A261" s="2" t="inlineStr">
         <is>
-          <t>IA-3,CM-6 b</t>
+          <t>CM-6 b,IA-3</t>
         </is>
       </c>
       <c r="B261" s="2" t="inlineStr">
@@ -21171,7 +21171,7 @@
     <row r="269" ht="130" customHeight="1">
       <c r="A269" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (2),CM-6 b</t>
+          <t>CM-6 b,IA-2 (2)</t>
         </is>
       </c>
       <c r="B269" s="2" t="inlineStr">
@@ -21258,7 +21258,7 @@
     <row r="270" ht="130" customHeight="1">
       <c r="A270" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (2),IA-2 (1),IA-2 (3),IA-2 (4)</t>
+          <t>IA-2 (2),IA-2 (3),IA-2 (1),IA-2 (4)</t>
         </is>
       </c>
       <c r="B270" s="2" t="inlineStr">
@@ -21427,7 +21427,7 @@
     <row r="272" ht="130" customHeight="1">
       <c r="A272" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B272" s="2" t="inlineStr">
@@ -21645,7 +21645,7 @@
     <row r="275" ht="130" customHeight="1">
       <c r="A275" s="2" t="inlineStr">
         <is>
-          <t>SC-4,CM-6 b</t>
+          <t>CM-6 b,SC-4</t>
         </is>
       </c>
       <c r="B275" s="2" t="inlineStr">
@@ -23544,7 +23544,7 @@
     <row r="299" ht="130" customHeight="1">
       <c r="A299" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (12),IA-2 (1),IA-2 (11)</t>
+          <t>IA-2 (12),IA-2 (11),IA-2 (1)</t>
         </is>
       </c>
       <c r="B299" s="2" t="inlineStr">
@@ -24366,7 +24366,7 @@
     <row r="309" ht="130" customHeight="1">
       <c r="A309" s="2" t="inlineStr">
         <is>
-          <t>AU-8 (1) (a),AU-8 (1) (b),AU-8 b</t>
+          <t>AU-8 (1) (a),AU-8 b,AU-8 (1) (b)</t>
         </is>
       </c>
       <c r="B309" s="2" t="inlineStr">
@@ -26934,7 +26934,7 @@
     <row r="342" ht="130" customHeight="1">
       <c r="A342" s="2" t="inlineStr">
         <is>
-          <t>CM-7 b,CM-7 a</t>
+          <t>CM-7 a,CM-7 b</t>
         </is>
       </c>
       <c r="B342" s="2" t="inlineStr">
@@ -27008,7 +27008,7 @@
     <row r="343" ht="130" customHeight="1">
       <c r="A343" s="2" t="inlineStr">
         <is>
-          <t>CM-7 b,CM-7 a</t>
+          <t>CM-7 a,CM-7 b</t>
         </is>
       </c>
       <c r="B343" s="2" t="inlineStr">
@@ -27168,7 +27168,7 @@
     <row r="345" ht="130" customHeight="1">
       <c r="A345" s="2" t="inlineStr">
         <is>
-          <t>AC-18 (1),CM-7 a</t>
+          <t>CM-7 a,AC-18 (1)</t>
         </is>
       </c>
       <c r="B345" s="2" t="inlineStr">
@@ -27245,7 +27245,7 @@
     <row r="346" ht="130" customHeight="1">
       <c r="A346" s="2" t="inlineStr">
         <is>
-          <t>IA-5 (1) (c),CM-6 b,CM-7 a</t>
+          <t>IA-5 (1) (c),CM-7 a,CM-6 b</t>
         </is>
       </c>
       <c r="B346" s="2" t="inlineStr">
@@ -28810,7 +28810,7 @@
     <row r="366" ht="130" customHeight="1">
       <c r="A366" s="2" t="inlineStr">
         <is>
-          <t>SI-16,CM-7 a</t>
+          <t>CM-7 a,SI-16</t>
         </is>
       </c>
       <c r="B366" s="2" t="inlineStr">
@@ -29350,7 +29350,7 @@
     <row r="373" ht="130" customHeight="1">
       <c r="A373" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,CM-7 a</t>
+          <t>CM-7 a,CM-6 b</t>
         </is>
       </c>
       <c r="B373" s="2" t="inlineStr">
@@ -29421,7 +29421,7 @@
     <row r="374" ht="130" customHeight="1">
       <c r="A374" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,CM-7 a</t>
+          <t>CM-7 a,CM-6 b</t>
         </is>
       </c>
       <c r="B374" s="2" t="inlineStr">
@@ -29493,7 +29493,7 @@
     <row r="375" ht="130" customHeight="1">
       <c r="A375" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,CM-7 a</t>
+          <t>CM-7 a,CM-6 b</t>
         </is>
       </c>
       <c r="B375" s="2" t="inlineStr">
@@ -30253,7 +30253,7 @@
     <row r="384" ht="130" customHeight="1">
       <c r="A384" s="2" t="inlineStr">
         <is>
-          <t>AC-17 (2),CM-6 b</t>
+          <t>CM-6 b,AC-17 (2)</t>
         </is>
       </c>
       <c r="B384" s="2" t="inlineStr">
@@ -30701,7 +30701,7 @@
     <row r="390" ht="130" customHeight="1">
       <c r="A390" s="2" t="inlineStr">
         <is>
-          <t>IA-5 (1) (a),CM-6 b</t>
+          <t>CM-6 b,IA-5 (1) (a)</t>
         </is>
       </c>
       <c r="B390" s="2" t="inlineStr">
@@ -31267,7 +31267,7 @@
     <row r="397" ht="130" customHeight="1">
       <c r="A397" s="2" t="inlineStr">
         <is>
-          <t>SI-16,CM-6 b</t>
+          <t>CM-6 b,SI-16</t>
         </is>
       </c>
       <c r="B397" s="2" t="inlineStr">
@@ -31508,7 +31508,7 @@
     <row r="400" ht="130" customHeight="1">
       <c r="A400" s="2" t="inlineStr">
         <is>
-          <t>SC-3,CM-6 b</t>
+          <t>CM-6 b,SC-3</t>
         </is>
       </c>
       <c r="B400" s="2" t="inlineStr">
@@ -31599,7 +31599,7 @@
     <row r="401" ht="130" customHeight="1">
       <c r="A401" s="2" t="inlineStr">
         <is>
-          <t>SC-3,CM-6 b</t>
+          <t>CM-6 b,SC-3</t>
         </is>
       </c>
       <c r="B401" s="2" t="inlineStr">
@@ -31693,7 +31693,7 @@
     <row r="402" ht="130" customHeight="1">
       <c r="A402" s="2" t="inlineStr">
         <is>
-          <t>SC-3,CM-6 b</t>
+          <t>CM-6 b,SC-3</t>
         </is>
       </c>
       <c r="B402" s="2" t="inlineStr">

--- a/srg_mapping/srg-mapping-rhel9.xlsx
+++ b/srg_mapping/srg-mapping-rhel9.xlsx
@@ -708,7 +708,7 @@
     <row r="4" ht="130" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,AU-4</t>
+          <t>AU-4,CM-6 b</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
@@ -784,7 +784,7 @@
     <row r="5" ht="130" customHeight="1">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,SC-5,SC-5 (2)</t>
+          <t>SC-5,SC-5 (2),CM-6 b</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
@@ -883,7 +883,7 @@
     <row r="6" ht="130" customHeight="1">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>AU-7 a,AU-12 (3),AU-8 b,AC-6 (8),CM-5 (1),AC-6 (9),AU-7 b</t>
+          <t>AU-7 a,AC-6 (8),AU-12 (3),CM-5 (1),AU-8 b,AU-7 b,AC-6 (9)</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
@@ -963,7 +963,7 @@
     <row r="7" ht="130" customHeight="1">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,AU-7 a,AU-12 (3),AU-8 b,AU-12 c,CM-5 (1),AU-7 b,AU-12 a</t>
+          <t>CM-5 (1),AU-7 a,AU-12 (3),AU-12 a,AU-8 b,AU-7 b,AU-12 c,CM-6 b</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
@@ -1037,7 +1037,7 @@
     <row r="8" ht="130" customHeight="1">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,AC-17 (1),AC-17 (9),CM-7 b</t>
+          <t>AC-17 (1),AC-17 (9),CM-7 b,CM-6 b</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
@@ -1257,7 +1257,7 @@
     <row r="11" ht="130" customHeight="1">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (12),IA-2 (11)</t>
+          <t>IA-2 (11),IA-2 (12)</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
@@ -1334,7 +1334,7 @@
     <row r="12" ht="130" customHeight="1">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (12),IA-2 (11)</t>
+          <t>IA-2 (11),IA-2 (12)</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
@@ -1484,7 +1484,7 @@
     <row r="14" ht="130" customHeight="1">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>CM-7 (2),CM-7 (5) (b)</t>
+          <t>CM-7 (5) (b),CM-7 (2)</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
@@ -1560,7 +1560,7 @@
     <row r="15" ht="130" customHeight="1">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>CM-7 (2),CM-7 (5) (b)</t>
+          <t>CM-7 (5) (b),CM-7 (2)</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
@@ -3832,7 +3832,7 @@
     <row r="45" ht="130" customHeight="1">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>IA-8,AU-3 (1),IA-2</t>
+          <t>IA-2,AU-3 (1),IA-8</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
@@ -3910,7 +3910,7 @@
     <row r="46" ht="130" customHeight="1">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
+          <t>AU-3,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
@@ -3985,7 +3985,7 @@
     <row r="47" ht="130" customHeight="1">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
+          <t>AU-3,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
@@ -4060,7 +4060,7 @@
     <row r="48" ht="130" customHeight="1">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
+          <t>AU-3,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
@@ -4135,7 +4135,7 @@
     <row r="49" ht="130" customHeight="1">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
+          <t>AU-3,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
@@ -4210,7 +4210,7 @@
     <row r="50" ht="130" customHeight="1">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
+          <t>AU-3,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
@@ -4285,7 +4285,7 @@
     <row r="51" ht="130" customHeight="1">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
+          <t>AU-3,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
@@ -4360,7 +4360,7 @@
     <row r="52" ht="130" customHeight="1">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
+          <t>AU-3,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
@@ -4435,7 +4435,7 @@
     <row r="53" ht="130" customHeight="1">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
+          <t>AU-3,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
@@ -4510,7 +4510,7 @@
     <row r="54" ht="130" customHeight="1">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
+          <t>AU-3,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
@@ -4585,7 +4585,7 @@
     <row r="55" ht="130" customHeight="1">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
+          <t>AU-3,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
@@ -4660,7 +4660,7 @@
     <row r="56" ht="130" customHeight="1">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
+          <t>AU-3,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
@@ -4735,7 +4735,7 @@
     <row r="57" ht="130" customHeight="1">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
+          <t>AU-3,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
@@ -4810,7 +4810,7 @@
     <row r="58" ht="130" customHeight="1">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
+          <t>AU-3,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
@@ -4885,7 +4885,7 @@
     <row r="59" ht="130" customHeight="1">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
+          <t>AU-3,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
@@ -4965,7 +4965,7 @@
     <row r="60" ht="130" customHeight="1">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
+          <t>AU-3,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
@@ -5048,7 +5048,7 @@
     <row r="61" ht="130" customHeight="1">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
+          <t>AU-3,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
@@ -5128,7 +5128,7 @@
     <row r="62" ht="130" customHeight="1">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
+          <t>AU-3,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
@@ -5208,7 +5208,7 @@
     <row r="63" ht="130" customHeight="1">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
+          <t>AU-3,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
@@ -5288,7 +5288,7 @@
     <row r="64" ht="130" customHeight="1">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
+          <t>AU-3,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
@@ -5368,7 +5368,7 @@
     <row r="65" ht="130" customHeight="1">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
+          <t>AU-3,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
@@ -5442,7 +5442,7 @@
     <row r="66" ht="130" customHeight="1">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
+          <t>AU-3,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
@@ -5516,7 +5516,7 @@
     <row r="67" ht="130" customHeight="1">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
+          <t>AU-3,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
@@ -5590,7 +5590,7 @@
     <row r="68" ht="130" customHeight="1">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
+          <t>AU-3,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
@@ -5664,7 +5664,7 @@
     <row r="69" ht="130" customHeight="1">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
+          <t>AU-3,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
@@ -5738,7 +5738,7 @@
     <row r="70" ht="130" customHeight="1">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
+          <t>AU-3,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
@@ -5811,7 +5811,7 @@
     <row r="71" ht="130" customHeight="1">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
+          <t>AU-3,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B71" s="2" t="inlineStr">
@@ -5884,7 +5884,7 @@
     <row r="72" ht="130" customHeight="1">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
+          <t>AU-3,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
@@ -5957,7 +5957,7 @@
     <row r="73" ht="130" customHeight="1">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
+          <t>AU-3,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B73" s="2" t="inlineStr">
@@ -6030,7 +6030,7 @@
     <row r="74" ht="130" customHeight="1">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
+          <t>AU-3,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B74" s="2" t="inlineStr">
@@ -6103,7 +6103,7 @@
     <row r="75" ht="130" customHeight="1">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
+          <t>AU-3,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B75" s="2" t="inlineStr">
@@ -6176,7 +6176,7 @@
     <row r="76" ht="130" customHeight="1">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
+          <t>AU-3,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B76" s="2" t="inlineStr">
@@ -6250,7 +6250,7 @@
     <row r="77" ht="130" customHeight="1">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
+          <t>AU-3,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B77" s="2" t="inlineStr">
@@ -6324,7 +6324,7 @@
     <row r="78" ht="130" customHeight="1">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
+          <t>AU-3,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B78" s="2" t="inlineStr">
@@ -6398,7 +6398,7 @@
     <row r="79" ht="130" customHeight="1">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
+          <t>AU-3,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B79" s="2" t="inlineStr">
@@ -6469,7 +6469,7 @@
     <row r="80" ht="130" customHeight="1">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
+          <t>AU-3,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B80" s="2" t="inlineStr">
@@ -6549,7 +6549,7 @@
     <row r="81" ht="130" customHeight="1">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
+          <t>AU-3,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B81" s="2" t="inlineStr">
@@ -6629,7 +6629,7 @@
     <row r="82" ht="130" customHeight="1">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
+          <t>AU-3,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B82" s="2" t="inlineStr">
@@ -6709,7 +6709,7 @@
     <row r="83" ht="130" customHeight="1">
       <c r="A83" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
+          <t>AU-3,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B83" s="2" t="inlineStr">
@@ -6789,7 +6789,7 @@
     <row r="84" ht="130" customHeight="1">
       <c r="A84" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
+          <t>AU-3,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B84" s="2" t="inlineStr">
@@ -6869,7 +6869,7 @@
     <row r="85" ht="130" customHeight="1">
       <c r="A85" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3 (1),AU-3</t>
+          <t>AU-3,AU-3 (1),MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B85" s="2" t="inlineStr">
@@ -6949,7 +6949,7 @@
     <row r="86" ht="130" customHeight="1">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
+          <t>AU-3,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B86" s="2" t="inlineStr">
@@ -7029,7 +7029,7 @@
     <row r="87" ht="130" customHeight="1">
       <c r="A87" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
+          <t>AU-3,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B87" s="2" t="inlineStr">
@@ -7109,7 +7109,7 @@
     <row r="88" ht="130" customHeight="1">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
+          <t>AU-3,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B88" s="2" t="inlineStr">
@@ -7189,7 +7189,7 @@
     <row r="89" ht="130" customHeight="1">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
+          <t>AU-3,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B89" s="2" t="inlineStr">
@@ -7269,7 +7269,7 @@
     <row r="90" ht="130" customHeight="1">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
+          <t>AU-3,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B90" s="2" t="inlineStr">
@@ -7349,7 +7349,7 @@
     <row r="91" ht="130" customHeight="1">
       <c r="A91" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,MA-4 (1) (a),AU-3 (1)</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B91" s="2" t="inlineStr">
@@ -7425,7 +7425,7 @@
     <row r="92" ht="130" customHeight="1">
       <c r="A92" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
+          <t>AU-3,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B92" s="2" t="inlineStr">
@@ -7502,7 +7502,7 @@
     <row r="93" ht="130" customHeight="1">
       <c r="A93" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
+          <t>AU-3,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B93" s="2" t="inlineStr">
@@ -7582,7 +7582,7 @@
     <row r="94" ht="130" customHeight="1">
       <c r="A94" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
+          <t>AU-3,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B94" s="2" t="inlineStr">
@@ -7662,7 +7662,7 @@
     <row r="95" ht="130" customHeight="1">
       <c r="A95" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
+          <t>AU-3,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B95" s="2" t="inlineStr">
@@ -7742,7 +7742,7 @@
     <row r="96" ht="130" customHeight="1">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
+          <t>AU-3,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
@@ -7822,7 +7822,7 @@
     <row r="97" ht="130" customHeight="1">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,MA-4 (1) (a),AU-3 (1),AU-3</t>
+          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B97" s="2" t="inlineStr">
@@ -7902,7 +7902,7 @@
     <row r="98" ht="130" customHeight="1">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
+          <t>AU-3,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B98" s="2" t="inlineStr">
@@ -7982,7 +7982,7 @@
     <row r="99" ht="130" customHeight="1">
       <c r="A99" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
+          <t>AU-3,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B99" s="2" t="inlineStr">
@@ -8062,7 +8062,7 @@
     <row r="100" ht="130" customHeight="1">
       <c r="A100" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
+          <t>AU-3,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B100" s="2" t="inlineStr">
@@ -8142,7 +8142,7 @@
     <row r="101" ht="130" customHeight="1">
       <c r="A101" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
+          <t>AU-3,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B101" s="2" t="inlineStr">
@@ -8222,7 +8222,7 @@
     <row r="102" ht="130" customHeight="1">
       <c r="A102" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
+          <t>AU-3,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B102" s="2" t="inlineStr">
@@ -8295,7 +8295,7 @@
     <row r="103" ht="130" customHeight="1">
       <c r="A103" s="2" t="inlineStr">
         <is>
-          <t>AC-2 (4),MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
+          <t>AU-3,AU-12 a,AC-2 (4),AU-3 (1),MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B103" s="2" t="inlineStr">
@@ -8376,7 +8376,7 @@
     <row r="104" ht="130" customHeight="1">
       <c r="A104" s="2" t="inlineStr">
         <is>
-          <t>AC-2 (4),MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
+          <t>AU-3,AU-12 a,AC-2 (4),AU-3 (1),MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B104" s="2" t="inlineStr">
@@ -8457,7 +8457,7 @@
     <row r="105" ht="130" customHeight="1">
       <c r="A105" s="2" t="inlineStr">
         <is>
-          <t>AC-2 (4),MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
+          <t>AU-3,AU-12 a,AC-2 (4),AU-3 (1),MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B105" s="2" t="inlineStr">
@@ -8528,7 +8528,7 @@
     <row r="106" ht="130" customHeight="1">
       <c r="A106" s="2" t="inlineStr">
         <is>
-          <t>AC-2 (4),MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1)</t>
+          <t>AU-3,AC-2 (4),AU-3 (1),MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B106" s="2" t="inlineStr">
@@ -8603,7 +8603,7 @@
     <row r="107" ht="130" customHeight="1">
       <c r="A107" s="2" t="inlineStr">
         <is>
-          <t>AC-2 (4),MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
+          <t>AU-3,AU-12 a,AC-2 (4),AU-3 (1),MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B107" s="2" t="inlineStr">
@@ -8685,7 +8685,7 @@
     <row r="108" ht="130" customHeight="1">
       <c r="A108" s="2" t="inlineStr">
         <is>
-          <t>AC-2 (4),MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
+          <t>AU-3,AU-12 a,AC-2 (4),AU-3 (1),MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B108" s="2" t="inlineStr">
@@ -8767,7 +8767,7 @@
     <row r="109" ht="130" customHeight="1">
       <c r="A109" s="2" t="inlineStr">
         <is>
-          <t>AC-2 (4),MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
+          <t>AU-3,AU-12 a,AC-2 (4),AU-3 (1),MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B109" s="2" t="inlineStr">
@@ -8849,7 +8849,7 @@
     <row r="110" ht="130" customHeight="1">
       <c r="A110" s="2" t="inlineStr">
         <is>
-          <t>AC-2 (4),MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
+          <t>AU-3,AU-12 a,AC-2 (4),AU-3 (1),MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B110" s="2" t="inlineStr">
@@ -8931,7 +8931,7 @@
     <row r="111" ht="130" customHeight="1">
       <c r="A111" s="2" t="inlineStr">
         <is>
-          <t>AC-2 (4),MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
+          <t>AU-3,AU-12 a,AC-2 (4),AU-3 (1),MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B111" s="2" t="inlineStr">
@@ -9013,7 +9013,7 @@
     <row r="112" ht="130" customHeight="1">
       <c r="A112" s="2" t="inlineStr">
         <is>
-          <t>AU-14 (1),MA-4 (1) (a),AU-3,AU-12 c,AU-3 (1),AU-12 a</t>
+          <t>AU-3,AU-12 a,AU-3 (1),AU-14 (1),MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B112" s="2" t="inlineStr">
@@ -9096,7 +9096,7 @@
     <row r="113" ht="130" customHeight="1">
       <c r="A113" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,AC-6 (10)</t>
+          <t>AC-6 (10),CM-6 b</t>
         </is>
       </c>
       <c r="B113" s="2" t="inlineStr">
@@ -9177,7 +9177,7 @@
     <row r="114" ht="130" customHeight="1">
       <c r="A114" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,AC-6 (10)</t>
+          <t>AC-6 (10),CM-6 b</t>
         </is>
       </c>
       <c r="B114" s="2" t="inlineStr">
@@ -9263,7 +9263,7 @@
     <row r="115" ht="130" customHeight="1">
       <c r="A115" s="2" t="inlineStr">
         <is>
-          <t>AC-6 (10),AC-11 b</t>
+          <t>AC-11 b,AC-6 (10)</t>
         </is>
       </c>
       <c r="B115" s="2" t="inlineStr">
@@ -9341,7 +9341,7 @@
     <row r="116" ht="130" customHeight="1">
       <c r="A116" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,AC-6 (10)</t>
+          <t>AC-6 (10),CM-6 b</t>
         </is>
       </c>
       <c r="B116" s="2" t="inlineStr">
@@ -9707,7 +9707,7 @@
     <row r="120" ht="130" customHeight="1">
       <c r="A120" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,MA-4 (1) (a),AU-12 a,AU-3</t>
+          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-12 a</t>
         </is>
       </c>
       <c r="B120" s="2" t="inlineStr">
@@ -9778,7 +9778,7 @@
     <row r="121" ht="130" customHeight="1">
       <c r="A121" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,MA-4 (1) (a),AU-12 a,AU-3</t>
+          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-12 a</t>
         </is>
       </c>
       <c r="B121" s="2" t="inlineStr">
@@ -9849,7 +9849,7 @@
     <row r="122" ht="130" customHeight="1">
       <c r="A122" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-9</t>
+          <t>AU-9,AU-12 c</t>
         </is>
       </c>
       <c r="B122" s="2" t="inlineStr">
@@ -10222,7 +10222,7 @@
     <row r="127" ht="130" customHeight="1">
       <c r="A127" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AC-2 (4),CM-5 (1),AC-6 (9)</t>
+          <t>AC-6 (9),CM-5 (1),AU-12 c,AC-2 (4)</t>
         </is>
       </c>
       <c r="B127" s="2" t="inlineStr">
@@ -10345,7 +10345,7 @@
     <row r="129" ht="130" customHeight="1">
       <c r="A129" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,IA-5 (1) (b),IA-5 (1) (a)</t>
+          <t>IA-5 (1) (b),IA-5 (1) (a),CM-6 b</t>
         </is>
       </c>
       <c r="B129" s="2" t="inlineStr">
@@ -10665,7 +10665,7 @@
     <row r="133" ht="130" customHeight="1">
       <c r="A133" s="2" t="inlineStr">
         <is>
-          <t>SC-8,MA-4 c,SC-13,AC-17 (2)</t>
+          <t>MA-4 c,SC-13,SC-8,AC-17 (2)</t>
         </is>
       </c>
       <c r="B133" s="2" t="inlineStr">
@@ -10747,7 +10747,7 @@
     <row r="134" ht="130" customHeight="1">
       <c r="A134" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (7),SC-10,AC-12,MA-4 e</t>
+          <t>AC-12,MA-4 (7),SC-10,MA-4 e</t>
         </is>
       </c>
       <c r="B134" s="2" t="inlineStr">
@@ -10822,7 +10822,7 @@
     <row r="135" ht="130" customHeight="1">
       <c r="A135" s="2" t="inlineStr">
         <is>
-          <t>SC-10,AC-12</t>
+          <t>AC-12,SC-10</t>
         </is>
       </c>
       <c r="B135" s="2" t="inlineStr">
@@ -10901,7 +10901,7 @@
     <row r="136" ht="130" customHeight="1">
       <c r="A136" s="2" t="inlineStr">
         <is>
-          <t>SC-10,AC-12</t>
+          <t>AC-12,SC-10</t>
         </is>
       </c>
       <c r="B136" s="2" t="inlineStr">
@@ -10977,7 +10977,7 @@
     <row r="137" ht="130" customHeight="1">
       <c r="A137" s="2" t="inlineStr">
         <is>
-          <t>SC-10,AC-11 a</t>
+          <t>AC-11 a,SC-10</t>
         </is>
       </c>
       <c r="B137" s="2" t="inlineStr">
@@ -11054,7 +11054,7 @@
     <row r="138" ht="130" customHeight="1">
       <c r="A138" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,AU-7 a,AU-6 (4),AU-14 (1),MA-4 (1) (a),AU-3,AU-7 (1),AU-3 (1),CM-5 (1),AU-12 a</t>
+          <t>AU-3,AU-7 a,CM-5 (1),AU-12 a,AU-3 (1),AU-14 (1),MA-4 (1) (a),AU-7 (1),AU-6 (4),CM-6 b</t>
         </is>
       </c>
       <c r="B138" s="2" t="inlineStr">
@@ -11456,7 +11456,7 @@
     <row r="143" ht="130" customHeight="1">
       <c r="A143" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B143" s="2" t="inlineStr">
@@ -11525,7 +11525,7 @@
     <row r="144" ht="130" customHeight="1">
       <c r="A144" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B144" s="2" t="inlineStr">
@@ -11594,7 +11594,7 @@
     <row r="145" ht="130" customHeight="1">
       <c r="A145" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B145" s="2" t="inlineStr">
@@ -11664,7 +11664,7 @@
     <row r="146" ht="130" customHeight="1">
       <c r="A146" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B146" s="2" t="inlineStr">
@@ -11733,7 +11733,7 @@
     <row r="147" ht="130" customHeight="1">
       <c r="A147" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B147" s="2" t="inlineStr">
@@ -11802,7 +11802,7 @@
     <row r="148" ht="130" customHeight="1">
       <c r="A148" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B148" s="2" t="inlineStr">
@@ -11872,7 +11872,7 @@
     <row r="149" ht="130" customHeight="1">
       <c r="A149" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B149" s="2" t="inlineStr">
@@ -11941,7 +11941,7 @@
     <row r="150" ht="130" customHeight="1">
       <c r="A150" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B150" s="2" t="inlineStr">
@@ -12010,7 +12010,7 @@
     <row r="151" ht="130" customHeight="1">
       <c r="A151" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B151" s="2" t="inlineStr">
@@ -12080,7 +12080,7 @@
     <row r="152" ht="130" customHeight="1">
       <c r="A152" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B152" s="2" t="inlineStr">
@@ -12149,7 +12149,7 @@
     <row r="153" ht="130" customHeight="1">
       <c r="A153" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B153" s="2" t="inlineStr">
@@ -12218,7 +12218,7 @@
     <row r="154" ht="130" customHeight="1">
       <c r="A154" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B154" s="2" t="inlineStr">
@@ -12287,7 +12287,7 @@
     <row r="155" ht="130" customHeight="1">
       <c r="A155" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B155" s="2" t="inlineStr">
@@ -13125,7 +13125,7 @@
     <row r="166" ht="130" customHeight="1">
       <c r="A166" s="2" t="inlineStr">
         <is>
-          <t>SC-8,SC-8 (1),SC-8 (2)</t>
+          <t>SC-8 (1),SC-8 (2),SC-8</t>
         </is>
       </c>
       <c r="B166" s="2" t="inlineStr">
@@ -13357,7 +13357,7 @@
     <row r="169" ht="130" customHeight="1">
       <c r="A169" s="2" t="inlineStr">
         <is>
-          <t>SC-8,SC-8 (2)</t>
+          <t>SC-8 (2),SC-8</t>
         </is>
       </c>
       <c r="B169" s="2" t="inlineStr">
@@ -13507,7 +13507,7 @@
     <row r="171" ht="130" customHeight="1">
       <c r="A171" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AC-2 (4),AC-6 (9)</t>
+          <t>AC-6 (9),AU-12 c,AC-2 (4)</t>
         </is>
       </c>
       <c r="B171" s="2" t="inlineStr">
@@ -13721,7 +13721,7 @@
     <row r="173" ht="130" customHeight="1">
       <c r="A173" s="2" t="inlineStr">
         <is>
-          <t>AC-11 b,AC-11 a</t>
+          <t>AC-11 a,AC-11 b</t>
         </is>
       </c>
       <c r="B173" s="2" t="inlineStr">
@@ -14262,7 +14262,7 @@
     <row r="180" ht="130" customHeight="1">
       <c r="A180" s="2" t="inlineStr">
         <is>
-          <t>AU-6 (4),CM-6 b,AU-4 (1)</t>
+          <t>AU-6 (4),AU-4 (1),CM-6 b</t>
         </is>
       </c>
       <c r="B180" s="2" t="inlineStr">
@@ -14333,7 +14333,7 @@
     <row r="181" ht="130" customHeight="1">
       <c r="A181" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,AC-17 (1),CM-7 b</t>
+          <t>AC-17 (1),CM-7 b,CM-6 b</t>
         </is>
       </c>
       <c r="B181" s="2" t="inlineStr">
@@ -15299,7 +15299,7 @@
     <row r="194" ht="130" customHeight="1">
       <c r="A194" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,AU-3</t>
+          <t>AU-3,CM-6 b</t>
         </is>
       </c>
       <c r="B194" s="2" t="inlineStr">
@@ -15733,7 +15733,7 @@
     <row r="200" ht="130" customHeight="1">
       <c r="A200" s="2" t="inlineStr">
         <is>
-          <t>AU-4 (1),AU-3</t>
+          <t>AU-3,AU-4 (1)</t>
         </is>
       </c>
       <c r="B200" s="2" t="inlineStr">
@@ -16248,7 +16248,7 @@
     <row r="207" ht="130" customHeight="1">
       <c r="A207" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,AU-4 (1)</t>
+          <t>AU-4 (1),CM-6 b</t>
         </is>
       </c>
       <c r="B207" s="2" t="inlineStr">
@@ -17453,7 +17453,7 @@
     <row r="221" ht="130" customHeight="1">
       <c r="A221" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (5),IA-2 (2),IA-2 (4),IA-2,IA-2 (3)</t>
+          <t>IA-2 (5),IA-2 (3),IA-2 (4),IA-2 (2),IA-2</t>
         </is>
       </c>
       <c r="B221" s="2" t="inlineStr">
@@ -17538,7 +17538,7 @@
     <row r="222" ht="130" customHeight="1">
       <c r="A222" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (5),IA-2 (2),IA-2 (4),IA-2,IA-2 (3)</t>
+          <t>IA-2 (5),IA-2 (3),IA-2 (4),IA-2 (2),IA-2</t>
         </is>
       </c>
       <c r="B222" s="2" t="inlineStr">
@@ -17623,7 +17623,7 @@
     <row r="223" ht="130" customHeight="1">
       <c r="A223" s="2" t="inlineStr">
         <is>
-          <t>SC-8,SC-8 (1),AC-18 (1)</t>
+          <t>SC-8 (1),SC-8,AC-18 (1)</t>
         </is>
       </c>
       <c r="B223" s="2" t="inlineStr">
@@ -17790,7 +17790,7 @@
     <row r="225" ht="130" customHeight="1">
       <c r="A225" s="2" t="inlineStr">
         <is>
-          <t>IA-5 (1) (c),IA-7</t>
+          <t>IA-7,IA-5 (1) (c)</t>
         </is>
       </c>
       <c r="B225" s="2" t="inlineStr">
@@ -17873,7 +17873,7 @@
     <row r="226" ht="130" customHeight="1">
       <c r="A226" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,IA-7</t>
+          <t>IA-7,CM-6 b</t>
         </is>
       </c>
       <c r="B226" s="2" t="inlineStr">
@@ -17949,7 +17949,7 @@
     <row r="227" ht="130" customHeight="1">
       <c r="A227" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,IA-7</t>
+          <t>IA-7,CM-6 b</t>
         </is>
       </c>
       <c r="B227" s="2" t="inlineStr">
@@ -18034,7 +18034,7 @@
     <row r="228" ht="130" customHeight="1">
       <c r="A228" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,IA-7</t>
+          <t>IA-7,CM-6 b</t>
         </is>
       </c>
       <c r="B228" s="2" t="inlineStr">
@@ -18191,7 +18191,7 @@
     <row r="230" ht="130" customHeight="1">
       <c r="A230" s="2" t="inlineStr">
         <is>
-          <t>CM-7 a,IA-7</t>
+          <t>IA-7,CM-7 a</t>
         </is>
       </c>
       <c r="B230" s="2" t="inlineStr">
@@ -18270,7 +18270,7 @@
     <row r="231" ht="130" customHeight="1">
       <c r="A231" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (6),SC-13</t>
+          <t>SC-13,MA-4 (6)</t>
         </is>
       </c>
       <c r="B231" s="2" t="inlineStr">
@@ -18354,7 +18354,7 @@
     <row r="232" ht="130" customHeight="1">
       <c r="A232" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (6),AC-17 (2)</t>
+          <t>AC-17 (2),MA-4 (6)</t>
         </is>
       </c>
       <c r="B232" s="2" t="inlineStr">
@@ -18429,7 +18429,7 @@
     <row r="233" ht="130" customHeight="1">
       <c r="A233" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (6),SC-13</t>
+          <t>SC-13,MA-4 (6)</t>
         </is>
       </c>
       <c r="B233" s="2" t="inlineStr">
@@ -19026,7 +19026,7 @@
     <row r="241" ht="130" customHeight="1">
       <c r="A241" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B241" s="2" t="inlineStr">
@@ -19097,7 +19097,7 @@
     <row r="242" ht="130" customHeight="1">
       <c r="A242" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B242" s="2" t="inlineStr">
@@ -19259,7 +19259,7 @@
     <row r="244" ht="130" customHeight="1">
       <c r="A244" s="2" t="inlineStr">
         <is>
-          <t>SC-2,SI-16,CM-6 b</t>
+          <t>SI-16,CM-6 b,SC-2</t>
         </is>
       </c>
       <c r="B244" s="2" t="inlineStr">
@@ -21171,7 +21171,7 @@
     <row r="269" ht="130" customHeight="1">
       <c r="A269" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,IA-2 (2)</t>
+          <t>IA-2 (2),CM-6 b</t>
         </is>
       </c>
       <c r="B269" s="2" t="inlineStr">
@@ -21258,7 +21258,7 @@
     <row r="270" ht="130" customHeight="1">
       <c r="A270" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (2),IA-2 (3),IA-2 (1),IA-2 (4)</t>
+          <t>IA-2 (4),IA-2 (1),IA-2 (3),IA-2 (2)</t>
         </is>
       </c>
       <c r="B270" s="2" t="inlineStr">
@@ -21427,7 +21427,7 @@
     <row r="272" ht="130" customHeight="1">
       <c r="A272" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B272" s="2" t="inlineStr">
@@ -21645,7 +21645,7 @@
     <row r="275" ht="130" customHeight="1">
       <c r="A275" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,SC-4</t>
+          <t>SC-4,CM-6 b</t>
         </is>
       </c>
       <c r="B275" s="2" t="inlineStr">
@@ -21726,7 +21726,7 @@
     <row r="276" ht="130" customHeight="1">
       <c r="A276" s="2" t="inlineStr">
         <is>
-          <t>SC-2,SC-4</t>
+          <t>SC-4,SC-2</t>
         </is>
       </c>
       <c r="B276" s="2" t="inlineStr">
@@ -21814,7 +21814,7 @@
     <row r="277" ht="130" customHeight="1">
       <c r="A277" s="2" t="inlineStr">
         <is>
-          <t>SC-2,SC-4</t>
+          <t>SC-4,SC-2</t>
         </is>
       </c>
       <c r="B277" s="2" t="inlineStr">
@@ -22052,7 +22052,7 @@
     <row r="280" ht="130" customHeight="1">
       <c r="A280" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,AU-12 a</t>
+          <t>AU-12 a,CM-6 b</t>
         </is>
       </c>
       <c r="B280" s="2" t="inlineStr">
@@ -23375,7 +23375,7 @@
     <row r="297" ht="130" customHeight="1">
       <c r="A297" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (12),IA-2 (11)</t>
+          <t>IA-2 (11),IA-2 (12)</t>
         </is>
       </c>
       <c r="B297" s="2" t="inlineStr">
@@ -23544,7 +23544,7 @@
     <row r="299" ht="130" customHeight="1">
       <c r="A299" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (12),IA-2 (11),IA-2 (1)</t>
+          <t>IA-2 (11),IA-2 (1),IA-2 (12)</t>
         </is>
       </c>
       <c r="B299" s="2" t="inlineStr">
@@ -24366,7 +24366,7 @@
     <row r="309" ht="130" customHeight="1">
       <c r="A309" s="2" t="inlineStr">
         <is>
-          <t>AU-8 (1) (a),AU-8 b,AU-8 (1) (b)</t>
+          <t>AU-8 b,AU-8 (1) (b),AU-8 (1) (a)</t>
         </is>
       </c>
       <c r="B309" s="2" t="inlineStr">
@@ -25783,7 +25783,7 @@
     <row r="327" ht="130" customHeight="1">
       <c r="A327" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,CM-5 (1)</t>
+          <t>CM-5 (1),AU-12 c</t>
         </is>
       </c>
       <c r="B327" s="2" t="inlineStr">
@@ -26859,7 +26859,7 @@
     <row r="341" ht="130" customHeight="1">
       <c r="A341" s="2" t="inlineStr">
         <is>
-          <t>IA-3,CM-7 b</t>
+          <t>CM-7 b,IA-3</t>
         </is>
       </c>
       <c r="B341" s="2" t="inlineStr">
@@ -27168,7 +27168,7 @@
     <row r="345" ht="130" customHeight="1">
       <c r="A345" s="2" t="inlineStr">
         <is>
-          <t>CM-7 a,AC-18 (1)</t>
+          <t>AC-18 (1),CM-7 a</t>
         </is>
       </c>
       <c r="B345" s="2" t="inlineStr">
@@ -27245,7 +27245,7 @@
     <row r="346" ht="130" customHeight="1">
       <c r="A346" s="2" t="inlineStr">
         <is>
-          <t>IA-5 (1) (c),CM-7 a,CM-6 b</t>
+          <t>CM-7 a,IA-5 (1) (c),CM-6 b</t>
         </is>
       </c>
       <c r="B346" s="2" t="inlineStr">
@@ -28090,7 +28090,7 @@
     <row r="357" ht="130" customHeight="1">
       <c r="A357" s="2" t="inlineStr">
         <is>
-          <t>AC-11 (1),AC-11 b</t>
+          <t>AC-11 b,AC-11 (1)</t>
         </is>
       </c>
       <c r="B357" s="2" t="inlineStr">
@@ -28339,7 +28339,7 @@
     <row r="360" ht="130" customHeight="1">
       <c r="A360" s="2" t="inlineStr">
         <is>
-          <t>SI-6 d,SI-6 b,CM-3 (5)</t>
+          <t>SI-6 b,SI-6 d,CM-3 (5)</t>
         </is>
       </c>
       <c r="B360" s="2" t="inlineStr">
@@ -28430,7 +28430,7 @@
     <row r="361" ht="130" customHeight="1">
       <c r="A361" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,CM-7 a</t>
+          <t>CM-7 a,CM-6 b</t>
         </is>
       </c>
       <c r="B361" s="2" t="inlineStr">
@@ -28810,7 +28810,7 @@
     <row r="366" ht="130" customHeight="1">
       <c r="A366" s="2" t="inlineStr">
         <is>
-          <t>CM-7 a,SI-16</t>
+          <t>SI-16,CM-7 a</t>
         </is>
       </c>
       <c r="B366" s="2" t="inlineStr">
@@ -30253,7 +30253,7 @@
     <row r="384" ht="130" customHeight="1">
       <c r="A384" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,AC-17 (2)</t>
+          <t>AC-17 (2),CM-6 b</t>
         </is>
       </c>
       <c r="B384" s="2" t="inlineStr">
@@ -30701,7 +30701,7 @@
     <row r="390" ht="130" customHeight="1">
       <c r="A390" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,IA-5 (1) (a)</t>
+          <t>IA-5 (1) (a),CM-6 b</t>
         </is>
       </c>
       <c r="B390" s="2" t="inlineStr">
@@ -31267,7 +31267,7 @@
     <row r="397" ht="130" customHeight="1">
       <c r="A397" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,SI-16</t>
+          <t>SI-16,CM-6 b</t>
         </is>
       </c>
       <c r="B397" s="2" t="inlineStr">
@@ -31508,7 +31508,7 @@
     <row r="400" ht="130" customHeight="1">
       <c r="A400" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,SC-3</t>
+          <t>SC-3,CM-6 b</t>
         </is>
       </c>
       <c r="B400" s="2" t="inlineStr">
@@ -31599,7 +31599,7 @@
     <row r="401" ht="130" customHeight="1">
       <c r="A401" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,SC-3</t>
+          <t>SC-3,CM-6 b</t>
         </is>
       </c>
       <c r="B401" s="2" t="inlineStr">
@@ -31693,7 +31693,7 @@
     <row r="402" ht="130" customHeight="1">
       <c r="A402" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,SC-3</t>
+          <t>SC-3,CM-6 b</t>
         </is>
       </c>
       <c r="B402" s="2" t="inlineStr">
@@ -35253,7 +35253,7 @@
     <row r="449" ht="130" customHeight="1">
       <c r="A449" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,CM-5 (1)</t>
+          <t>CM-5 (1),CM-6 b</t>
         </is>
       </c>
       <c r="B449" s="2" t="inlineStr">
@@ -35326,7 +35326,7 @@
     <row r="450" ht="130" customHeight="1">
       <c r="A450" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,CM-5 (1)</t>
+          <t>CM-5 (1),CM-6 b</t>
         </is>
       </c>
       <c r="B450" s="2" t="inlineStr">
@@ -41137,7 +41137,7 @@
     <row r="523" ht="130" customHeight="1">
       <c r="A523" s="2" t="inlineStr">
         <is>
-          <t>SC-2,CM-6 b</t>
+          <t>CM-6 b,SC-2</t>
         </is>
       </c>
       <c r="B523" s="2" t="inlineStr">
@@ -41224,7 +41224,7 @@
     <row r="524" ht="130" customHeight="1">
       <c r="A524" s="2" t="inlineStr">
         <is>
-          <t>SC-2,CM-6 b</t>
+          <t>CM-6 b,SC-2</t>
         </is>
       </c>
       <c r="B524" s="2" t="inlineStr">
@@ -42456,7 +42456,7 @@
     <row r="540" ht="130" customHeight="1">
       <c r="A540" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,SI-2 (2)</t>
+          <t>SI-2 (2),CM-6 b</t>
         </is>
       </c>
       <c r="B540" s="2" t="inlineStr">
@@ -43103,7 +43103,7 @@
     <row r="549" ht="130" customHeight="1">
       <c r="A549" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,SI-2 (2)</t>
+          <t>SI-2 (2),CM-6 b</t>
         </is>
       </c>
       <c r="B549" s="2" t="inlineStr">
@@ -43535,12 +43535,18 @@
         <is>
           <t>To check how many characters are required in a password, run the following command:
  $ grep minlen /etc/security/pwquality.conf 
-Your output should contain  minlen =  
+Your output should contain  minlen = 15 
 If minlen is not found, or not equal to or greater than the required value then this is a finding.</t>
         </is>
       </c>
       <c r="L554" s="2" t="n"/>
-      <c r="M554" s="2" t="inlineStr"/>
+      <c r="M554" s="2" t="inlineStr">
+        <is>
+          <t>Configure Red Hat Enterprise Linux 9 to enforce a minimum 15-character password length.
+Add the following line to "/etc/security/pwquality.conf" (or modify the line to have the required value):
+minlen = 15</t>
+        </is>
+      </c>
       <c r="N554" s="2" t="inlineStr">
         <is>
           <t>CAT II</t>
@@ -43615,7 +43621,13 @@
         </is>
       </c>
       <c r="L555" s="2" t="n"/>
-      <c r="M555" s="2" t="inlineStr"/>
+      <c r="M555" s="2" t="inlineStr">
+        <is>
+          <t>Configure Red Hat Enterprise Linux 9 to enforce a minimum 15-character password length for new user accounts.
+Add, or modify the following line in the "/etc/login.defs" file:
+PASS_MIN_LEN 15</t>
+        </is>
+      </c>
       <c r="N555" s="2" t="inlineStr">
         <is>
           <t>CAT II</t>

--- a/srg_mapping/srg-mapping-rhel9.xlsx
+++ b/srg_mapping/srg-mapping-rhel9.xlsx
@@ -708,7 +708,7 @@
     <row r="4" ht="130" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>AU-4,CM-6 b</t>
+          <t>CM-6 b,AU-4</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
@@ -784,7 +784,7 @@
     <row r="5" ht="130" customHeight="1">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>SC-5,SC-5 (2),CM-6 b</t>
+          <t>CM-6 b,SC-5,SC-5 (2)</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
@@ -883,7 +883,7 @@
     <row r="6" ht="130" customHeight="1">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>AU-7 a,AC-6 (8),AU-12 (3),CM-5 (1),AU-8 b,AU-7 b,AC-6 (9)</t>
+          <t>AU-7 a,CM-5 (1),AU-8 b,AC-6 (8),AC-6 (9),AU-7 b,AU-12 (3)</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
@@ -963,7 +963,7 @@
     <row r="7" ht="130" customHeight="1">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>CM-5 (1),AU-7 a,AU-12 (3),AU-12 a,AU-8 b,AU-7 b,AU-12 c,CM-6 b</t>
+          <t>AU-7 a,CM-5 (1),AU-8 b,AU-12 c,CM-6 b,AU-7 b,AU-12 (3),AU-12 a</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
@@ -1037,7 +1037,7 @@
     <row r="8" ht="130" customHeight="1">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>AC-17 (1),AC-17 (9),CM-7 b,CM-6 b</t>
+          <t>CM-6 b,AC-17 (9),CM-7 b,AC-17 (1)</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
@@ -1257,7 +1257,7 @@
     <row r="11" ht="130" customHeight="1">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (11),IA-2 (12)</t>
+          <t>IA-2 (12),IA-2 (11)</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
@@ -1334,7 +1334,7 @@
     <row r="12" ht="130" customHeight="1">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (11),IA-2 (12)</t>
+          <t>IA-2 (12),IA-2 (11)</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
@@ -1484,7 +1484,7 @@
     <row r="14" ht="130" customHeight="1">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>CM-7 (5) (b),CM-7 (2)</t>
+          <t>CM-7 (2),CM-7 (5) (b)</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
@@ -1560,7 +1560,7 @@
     <row r="15" ht="130" customHeight="1">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>CM-7 (5) (b),CM-7 (2)</t>
+          <t>CM-7 (2),CM-7 (5) (b)</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
@@ -1714,7 +1714,7 @@
     <row r="17" ht="130" customHeight="1">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>CM-7 (2),CM-6 b</t>
+          <t>CM-6 b,CM-7 (2)</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
@@ -2084,7 +2084,7 @@
     <row r="22" ht="130" customHeight="1">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>CM-7 (2),CM-6 b</t>
+          <t>CM-6 b,CM-7 (2)</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
@@ -2158,7 +2158,7 @@
     <row r="23" ht="130" customHeight="1">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>CM-7 (2),CM-6 b</t>
+          <t>CM-6 b,CM-7 (2)</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
@@ -3286,7 +3286,7 @@
     <row r="38" ht="130" customHeight="1">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>AC-7 a,AC-7 b</t>
+          <t>AC-7 b,AC-7 a</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
@@ -3370,7 +3370,7 @@
     <row r="39" ht="130" customHeight="1">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>AC-7 a,AC-7 b</t>
+          <t>AC-7 b,AC-7 a</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
@@ -3455,7 +3455,7 @@
     <row r="40" ht="130" customHeight="1">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>AC-7 a,AC-7 b</t>
+          <t>AC-7 b,AC-7 a</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
@@ -3527,7 +3527,7 @@
     <row r="41" ht="130" customHeight="1">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>AC-7 a,AC-7 b</t>
+          <t>AC-7 b,AC-7 a</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
@@ -3832,7 +3832,7 @@
     <row r="45" ht="130" customHeight="1">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>IA-2,AU-3 (1),IA-8</t>
+          <t>IA-8,IA-2,AU-3 (1)</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
@@ -3910,7 +3910,7 @@
     <row r="46" ht="130" customHeight="1">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
@@ -3985,7 +3985,7 @@
     <row r="47" ht="130" customHeight="1">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
@@ -4060,7 +4060,7 @@
     <row r="48" ht="130" customHeight="1">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
@@ -4135,7 +4135,7 @@
     <row r="49" ht="130" customHeight="1">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
@@ -4210,7 +4210,7 @@
     <row r="50" ht="130" customHeight="1">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
@@ -4285,7 +4285,7 @@
     <row r="51" ht="130" customHeight="1">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
@@ -4360,7 +4360,7 @@
     <row r="52" ht="130" customHeight="1">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
@@ -4435,7 +4435,7 @@
     <row r="53" ht="130" customHeight="1">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
@@ -4510,7 +4510,7 @@
     <row r="54" ht="130" customHeight="1">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
@@ -4585,7 +4585,7 @@
     <row r="55" ht="130" customHeight="1">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
@@ -4660,7 +4660,7 @@
     <row r="56" ht="130" customHeight="1">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
@@ -4735,7 +4735,7 @@
     <row r="57" ht="130" customHeight="1">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
@@ -4810,7 +4810,7 @@
     <row r="58" ht="130" customHeight="1">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
@@ -4885,7 +4885,7 @@
     <row r="59" ht="130" customHeight="1">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
@@ -4965,7 +4965,7 @@
     <row r="60" ht="130" customHeight="1">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
@@ -5048,7 +5048,7 @@
     <row r="61" ht="130" customHeight="1">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
@@ -5128,7 +5128,7 @@
     <row r="62" ht="130" customHeight="1">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
@@ -5208,7 +5208,7 @@
     <row r="63" ht="130" customHeight="1">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
@@ -5288,7 +5288,7 @@
     <row r="64" ht="130" customHeight="1">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
@@ -5368,7 +5368,7 @@
     <row r="65" ht="130" customHeight="1">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
@@ -5442,7 +5442,7 @@
     <row r="66" ht="130" customHeight="1">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
@@ -5516,7 +5516,7 @@
     <row r="67" ht="130" customHeight="1">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
@@ -5590,7 +5590,7 @@
     <row r="68" ht="130" customHeight="1">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
@@ -5664,7 +5664,7 @@
     <row r="69" ht="130" customHeight="1">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
@@ -5738,7 +5738,7 @@
     <row r="70" ht="130" customHeight="1">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
@@ -5811,7 +5811,7 @@
     <row r="71" ht="130" customHeight="1">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
         </is>
       </c>
       <c r="B71" s="2" t="inlineStr">
@@ -5884,7 +5884,7 @@
     <row r="72" ht="130" customHeight="1">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
@@ -5957,7 +5957,7 @@
     <row r="73" ht="130" customHeight="1">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
         </is>
       </c>
       <c r="B73" s="2" t="inlineStr">
@@ -6030,7 +6030,7 @@
     <row r="74" ht="130" customHeight="1">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
         </is>
       </c>
       <c r="B74" s="2" t="inlineStr">
@@ -6103,7 +6103,7 @@
     <row r="75" ht="130" customHeight="1">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
         </is>
       </c>
       <c r="B75" s="2" t="inlineStr">
@@ -6176,7 +6176,7 @@
     <row r="76" ht="130" customHeight="1">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
         </is>
       </c>
       <c r="B76" s="2" t="inlineStr">
@@ -6250,7 +6250,7 @@
     <row r="77" ht="130" customHeight="1">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
         </is>
       </c>
       <c r="B77" s="2" t="inlineStr">
@@ -6324,7 +6324,7 @@
     <row r="78" ht="130" customHeight="1">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
         </is>
       </c>
       <c r="B78" s="2" t="inlineStr">
@@ -6398,7 +6398,7 @@
     <row r="79" ht="130" customHeight="1">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
         </is>
       </c>
       <c r="B79" s="2" t="inlineStr">
@@ -6469,7 +6469,7 @@
     <row r="80" ht="130" customHeight="1">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
         </is>
       </c>
       <c r="B80" s="2" t="inlineStr">
@@ -6549,7 +6549,7 @@
     <row r="81" ht="130" customHeight="1">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
         </is>
       </c>
       <c r="B81" s="2" t="inlineStr">
@@ -6629,7 +6629,7 @@
     <row r="82" ht="130" customHeight="1">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
         </is>
       </c>
       <c r="B82" s="2" t="inlineStr">
@@ -6709,7 +6709,7 @@
     <row r="83" ht="130" customHeight="1">
       <c r="A83" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
         </is>
       </c>
       <c r="B83" s="2" t="inlineStr">
@@ -6789,7 +6789,7 @@
     <row r="84" ht="130" customHeight="1">
       <c r="A84" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
         </is>
       </c>
       <c r="B84" s="2" t="inlineStr">
@@ -6869,7 +6869,7 @@
     <row r="85" ht="130" customHeight="1">
       <c r="A85" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-3 (1),MA-4 (1) (a)</t>
+          <t>AU-3,MA-4 (1) (a),AU-3 (1)</t>
         </is>
       </c>
       <c r="B85" s="2" t="inlineStr">
@@ -6949,7 +6949,7 @@
     <row r="86" ht="130" customHeight="1">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
         </is>
       </c>
       <c r="B86" s="2" t="inlineStr">
@@ -7029,7 +7029,7 @@
     <row r="87" ht="130" customHeight="1">
       <c r="A87" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
         </is>
       </c>
       <c r="B87" s="2" t="inlineStr">
@@ -7109,7 +7109,7 @@
     <row r="88" ht="130" customHeight="1">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
         </is>
       </c>
       <c r="B88" s="2" t="inlineStr">
@@ -7189,7 +7189,7 @@
     <row r="89" ht="130" customHeight="1">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
         </is>
       </c>
       <c r="B89" s="2" t="inlineStr">
@@ -7269,7 +7269,7 @@
     <row r="90" ht="130" customHeight="1">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
         </is>
       </c>
       <c r="B90" s="2" t="inlineStr">
@@ -7349,7 +7349,7 @@
     <row r="91" ht="130" customHeight="1">
       <c r="A91" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),MA-4 (1) (a),AU-12 c</t>
+          <t>MA-4 (1) (a),AU-12 c,AU-3 (1)</t>
         </is>
       </c>
       <c r="B91" s="2" t="inlineStr">
@@ -7425,7 +7425,7 @@
     <row r="92" ht="130" customHeight="1">
       <c r="A92" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
         </is>
       </c>
       <c r="B92" s="2" t="inlineStr">
@@ -7502,7 +7502,7 @@
     <row r="93" ht="130" customHeight="1">
       <c r="A93" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
         </is>
       </c>
       <c r="B93" s="2" t="inlineStr">
@@ -7582,7 +7582,7 @@
     <row r="94" ht="130" customHeight="1">
       <c r="A94" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
         </is>
       </c>
       <c r="B94" s="2" t="inlineStr">
@@ -7662,7 +7662,7 @@
     <row r="95" ht="130" customHeight="1">
       <c r="A95" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
         </is>
       </c>
       <c r="B95" s="2" t="inlineStr">
@@ -7742,7 +7742,7 @@
     <row r="96" ht="130" customHeight="1">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
@@ -7822,7 +7822,7 @@
     <row r="97" ht="130" customHeight="1">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c</t>
+          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1)</t>
         </is>
       </c>
       <c r="B97" s="2" t="inlineStr">
@@ -7902,7 +7902,7 @@
     <row r="98" ht="130" customHeight="1">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
         </is>
       </c>
       <c r="B98" s="2" t="inlineStr">
@@ -7982,7 +7982,7 @@
     <row r="99" ht="130" customHeight="1">
       <c r="A99" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
         </is>
       </c>
       <c r="B99" s="2" t="inlineStr">
@@ -8062,7 +8062,7 @@
     <row r="100" ht="130" customHeight="1">
       <c r="A100" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
         </is>
       </c>
       <c r="B100" s="2" t="inlineStr">
@@ -8142,7 +8142,7 @@
     <row r="101" ht="130" customHeight="1">
       <c r="A101" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
         </is>
       </c>
       <c r="B101" s="2" t="inlineStr">
@@ -8222,7 +8222,7 @@
     <row r="102" ht="130" customHeight="1">
       <c r="A102" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AU-3 (1),MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
         </is>
       </c>
       <c r="B102" s="2" t="inlineStr">
@@ -8295,7 +8295,7 @@
     <row r="103" ht="130" customHeight="1">
       <c r="A103" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AC-2 (4),AU-3 (1),MA-4 (1) (a),AU-12 c</t>
+          <t>AC-2 (4),AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
         </is>
       </c>
       <c r="B103" s="2" t="inlineStr">
@@ -8376,7 +8376,7 @@
     <row r="104" ht="130" customHeight="1">
       <c r="A104" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AC-2 (4),AU-3 (1),MA-4 (1) (a),AU-12 c</t>
+          <t>AC-2 (4),AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
         </is>
       </c>
       <c r="B104" s="2" t="inlineStr">
@@ -8457,7 +8457,7 @@
     <row r="105" ht="130" customHeight="1">
       <c r="A105" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AC-2 (4),AU-3 (1),MA-4 (1) (a),AU-12 c</t>
+          <t>AC-2 (4),AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
         </is>
       </c>
       <c r="B105" s="2" t="inlineStr">
@@ -8528,7 +8528,7 @@
     <row r="106" ht="130" customHeight="1">
       <c r="A106" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AC-2 (4),AU-3 (1),MA-4 (1) (a),AU-12 c</t>
+          <t>AC-2 (4),AU-12 c,AU-3,MA-4 (1) (a),AU-3 (1)</t>
         </is>
       </c>
       <c r="B106" s="2" t="inlineStr">
@@ -8603,7 +8603,7 @@
     <row r="107" ht="130" customHeight="1">
       <c r="A107" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AC-2 (4),AU-3 (1),MA-4 (1) (a),AU-12 c</t>
+          <t>AC-2 (4),AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
         </is>
       </c>
       <c r="B107" s="2" t="inlineStr">
@@ -8685,7 +8685,7 @@
     <row r="108" ht="130" customHeight="1">
       <c r="A108" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AC-2 (4),AU-3 (1),MA-4 (1) (a),AU-12 c</t>
+          <t>AC-2 (4),AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
         </is>
       </c>
       <c r="B108" s="2" t="inlineStr">
@@ -8767,7 +8767,7 @@
     <row r="109" ht="130" customHeight="1">
       <c r="A109" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AC-2 (4),AU-3 (1),MA-4 (1) (a),AU-12 c</t>
+          <t>AC-2 (4),AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
         </is>
       </c>
       <c r="B109" s="2" t="inlineStr">
@@ -8849,7 +8849,7 @@
     <row r="110" ht="130" customHeight="1">
       <c r="A110" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AC-2 (4),AU-3 (1),MA-4 (1) (a),AU-12 c</t>
+          <t>AC-2 (4),AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
         </is>
       </c>
       <c r="B110" s="2" t="inlineStr">
@@ -8931,7 +8931,7 @@
     <row r="111" ht="130" customHeight="1">
       <c r="A111" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AC-2 (4),AU-3 (1),MA-4 (1) (a),AU-12 c</t>
+          <t>AC-2 (4),AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
         </is>
       </c>
       <c r="B111" s="2" t="inlineStr">
@@ -9013,7 +9013,7 @@
     <row r="112" ht="130" customHeight="1">
       <c r="A112" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AU-3 (1),AU-14 (1),MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,AU-3,AU-3 (1),AU-14 (1),MA-4 (1) (a),AU-12 a</t>
         </is>
       </c>
       <c r="B112" s="2" t="inlineStr">
@@ -9096,7 +9096,7 @@
     <row r="113" ht="130" customHeight="1">
       <c r="A113" s="2" t="inlineStr">
         <is>
-          <t>AC-6 (10),CM-6 b</t>
+          <t>CM-6 b,AC-6 (10)</t>
         </is>
       </c>
       <c r="B113" s="2" t="inlineStr">
@@ -9177,7 +9177,7 @@
     <row r="114" ht="130" customHeight="1">
       <c r="A114" s="2" t="inlineStr">
         <is>
-          <t>AC-6 (10),CM-6 b</t>
+          <t>CM-6 b,AC-6 (10)</t>
         </is>
       </c>
       <c r="B114" s="2" t="inlineStr">
@@ -9341,7 +9341,7 @@
     <row r="116" ht="130" customHeight="1">
       <c r="A116" s="2" t="inlineStr">
         <is>
-          <t>AC-6 (10),CM-6 b</t>
+          <t>CM-6 b,AC-6 (10)</t>
         </is>
       </c>
       <c r="B116" s="2" t="inlineStr">
@@ -10222,7 +10222,7 @@
     <row r="127" ht="130" customHeight="1">
       <c r="A127" s="2" t="inlineStr">
         <is>
-          <t>AC-6 (9),CM-5 (1),AU-12 c,AC-2 (4)</t>
+          <t>CM-5 (1),AC-6 (9),AC-2 (4),AU-12 c</t>
         </is>
       </c>
       <c r="B127" s="2" t="inlineStr">
@@ -10345,7 +10345,7 @@
     <row r="129" ht="130" customHeight="1">
       <c r="A129" s="2" t="inlineStr">
         <is>
-          <t>IA-5 (1) (b),IA-5 (1) (a),CM-6 b</t>
+          <t>CM-6 b,IA-5 (1) (a),IA-5 (1) (b)</t>
         </is>
       </c>
       <c r="B129" s="2" t="inlineStr">
@@ -10665,7 +10665,7 @@
     <row r="133" ht="130" customHeight="1">
       <c r="A133" s="2" t="inlineStr">
         <is>
-          <t>MA-4 c,SC-13,SC-8,AC-17 (2)</t>
+          <t>SC-8,AC-17 (2),MA-4 c,SC-13</t>
         </is>
       </c>
       <c r="B133" s="2" t="inlineStr">
@@ -10747,7 +10747,7 @@
     <row r="134" ht="130" customHeight="1">
       <c r="A134" s="2" t="inlineStr">
         <is>
-          <t>AC-12,MA-4 (7),SC-10,MA-4 e</t>
+          <t>SC-10,MA-4 (7),MA-4 e,AC-12</t>
         </is>
       </c>
       <c r="B134" s="2" t="inlineStr">
@@ -10822,7 +10822,7 @@
     <row r="135" ht="130" customHeight="1">
       <c r="A135" s="2" t="inlineStr">
         <is>
-          <t>AC-12,SC-10</t>
+          <t>SC-10,AC-12</t>
         </is>
       </c>
       <c r="B135" s="2" t="inlineStr">
@@ -10901,7 +10901,7 @@
     <row r="136" ht="130" customHeight="1">
       <c r="A136" s="2" t="inlineStr">
         <is>
-          <t>AC-12,SC-10</t>
+          <t>SC-10,AC-12</t>
         </is>
       </c>
       <c r="B136" s="2" t="inlineStr">
@@ -10977,7 +10977,7 @@
     <row r="137" ht="130" customHeight="1">
       <c r="A137" s="2" t="inlineStr">
         <is>
-          <t>AC-11 a,SC-10</t>
+          <t>SC-10,AC-11 a</t>
         </is>
       </c>
       <c r="B137" s="2" t="inlineStr">
@@ -11054,7 +11054,7 @@
     <row r="138" ht="130" customHeight="1">
       <c r="A138" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-7 a,CM-5 (1),AU-12 a,AU-3 (1),AU-14 (1),MA-4 (1) (a),AU-7 (1),AU-6 (4),CM-6 b</t>
+          <t>AU-7 a,CM-5 (1),AU-12 a,AU-3,CM-6 b,AU-14 (1),MA-4 (1) (a),AU-6 (4),AU-7 (1),AU-3 (1)</t>
         </is>
       </c>
       <c r="B138" s="2" t="inlineStr">
@@ -11304,7 +11304,7 @@
     <row r="141" ht="130" customHeight="1">
       <c r="A141" s="2" t="inlineStr">
         <is>
-          <t>AU-9,AU-9 (3)</t>
+          <t>AU-9 (3),AU-9</t>
         </is>
       </c>
       <c r="B141" s="2" t="inlineStr">
@@ -11380,7 +11380,7 @@
     <row r="142" ht="130" customHeight="1">
       <c r="A142" s="2" t="inlineStr">
         <is>
-          <t>AU-9,AU-9 (3)</t>
+          <t>AU-9 (3),AU-9</t>
         </is>
       </c>
       <c r="B142" s="2" t="inlineStr">
@@ -13125,7 +13125,7 @@
     <row r="166" ht="130" customHeight="1">
       <c r="A166" s="2" t="inlineStr">
         <is>
-          <t>SC-8 (1),SC-8 (2),SC-8</t>
+          <t>SC-8,SC-8 (1),SC-8 (2)</t>
         </is>
       </c>
       <c r="B166" s="2" t="inlineStr">
@@ -13357,7 +13357,7 @@
     <row r="169" ht="130" customHeight="1">
       <c r="A169" s="2" t="inlineStr">
         <is>
-          <t>SC-8 (2),SC-8</t>
+          <t>SC-8,SC-8 (2)</t>
         </is>
       </c>
       <c r="B169" s="2" t="inlineStr">
@@ -13507,56 +13507,3484 @@
     <row r="171" ht="130" customHeight="1">
       <c r="A171" s="2" t="inlineStr">
         <is>
-          <t>AC-6 (9),AU-12 c,AC-2 (4)</t>
+          <t>CM-6 b</t>
         </is>
       </c>
       <c r="B171" s="2" t="inlineStr">
         <is>
-          <t>CCI-001405</t>
+          <t>CCI-000366</t>
         </is>
       </c>
       <c r="C171" s="2" t="inlineStr">
         <is>
+          <t>SRG-OS-000480-GPOS-00226</t>
+        </is>
+      </c>
+      <c r="D171" s="2" t="inlineStr">
+        <is>
+          <t>CCE-83635-3</t>
+        </is>
+      </c>
+      <c r="E171" s="2" t="inlineStr">
+        <is>
+          <t>The operating system must enforce a delay of at least 4 seconds between logon prompts following a failed logon attempt.</t>
+        </is>
+      </c>
+      <c r="F171" s="2" t="inlineStr">
+        <is>
+          <t>Red Hat Enterprise Linux 9 must enforce a delay of at least 4 seconds between logon prompts following a failed logon attempt.</t>
+        </is>
+      </c>
+      <c r="G171" s="2" t="inlineStr">
+        <is>
+          <t>Limiting the number of logon attempts over a certain time interval reduces the chances that an unauthorized user may gain access to an account.</t>
+        </is>
+      </c>
+      <c r="H171" s="2" t="inlineStr">
+        <is>
+          <t>Increasing the time between a failed authentication attempt and re-prompting to
+enter credentials helps to slow a single-threaded brute force attack.</t>
+        </is>
+      </c>
+      <c r="I171" s="2" t="inlineStr">
+        <is>
+          <t>Applicable - Configurable</t>
+        </is>
+      </c>
+      <c r="J171" s="2" t="inlineStr">
+        <is>
+          <t>Verify the operating system enforces a delay of at least 4 seconds between logon prompts following a failed logon attempt. If it does not, this is a finding.</t>
+        </is>
+      </c>
+      <c r="K171" s="2" t="inlineStr">
+        <is>
+          <t>Verify the  FAIL_DELAY  setting is configured correctly in the  /etc/login.defs  file by
+running the following command:
+ $ sudo grep -i "FAIL_DELAY" /etc/login.defs 
+All output must show the value of  FAIL_DELAY  set as shown in the below:
+ $ sudo grep -i "FAIL_DELAY" /etc/login.defs
+FAIL_DELAY  
+If the above command returns no output, or FAIL_DELAY is configured less than the expected value then this is a finding.</t>
+        </is>
+      </c>
+      <c r="L171" s="2" t="n"/>
+      <c r="M171" s="2" t="inlineStr"/>
+      <c r="N171" s="2" t="inlineStr">
+        <is>
+          <t>CAT II</t>
+        </is>
+      </c>
+      <c r="O171" s="2" t="n"/>
+      <c r="P171" s="2" t="n"/>
+      <c r="Q171" s="2" t="n"/>
+    </row>
+    <row r="172" ht="130" customHeight="1">
+      <c r="A172" s="2" t="inlineStr">
+        <is>
+          <t>AC-11 a,AC-11 b</t>
+        </is>
+      </c>
+      <c r="B172" s="2" t="inlineStr">
+        <is>
+          <t>CCI-000058,CCI-000056</t>
+        </is>
+      </c>
+      <c r="C172" s="2" t="inlineStr">
+        <is>
+          <t>SRG-OS-000030-GPOS-00011,SRG-OS-000028-GPOS-00009</t>
+        </is>
+      </c>
+      <c r="D172" s="2" t="inlineStr">
+        <is>
+          <t>CCE-83599-1</t>
+        </is>
+      </c>
+      <c r="E172" s="2" t="inlineStr">
+        <is>
+          <t>The operating system must provide the capability for users to directly initiate a session lock for all connection types.</t>
+        </is>
+      </c>
+      <c r="F172" s="2" t="inlineStr">
+        <is>
+          <t>Red Hat Enterprise Linux 9 must provide the capability for users to directly initiate a session lock for all connection types.</t>
+        </is>
+      </c>
+      <c r="G172" s="2" t="inlineStr">
+        <is>
+          <t>A session lock is a temporary action taken when a user stops work and moves away from the immediate physical vicinity of the information system but does not want to log out because of the temporary nature of the absence.
+The session lock is implemented at the point where session activity can be determined. Rather than be forced to wait for a period of time to expire before the user session can be locked, operating systems need to provide users with the ability to manually invoke a session lock so users may secure their session should the need arise for them to temporarily vacate the immediate physical vicinity.</t>
+        </is>
+      </c>
+      <c r="H172" s="2" t="inlineStr">
+        <is>
+          <t>A session time-out lock is a temporary action taken when a user stops work and moves away from the immediate
+physical vicinity of the information system but does not logout because of the temporary nature of the absence.
+Rather than relying on the user to manually lock their operation system session prior to vacating the vicinity,
+operating systems need to be able to identify when a user's session has idled and take action to initiate the
+session lock.
+The  tmux  package allows for a session lock to be implemented and configured.</t>
+        </is>
+      </c>
+      <c r="I172" s="2" t="inlineStr">
+        <is>
+          <t>Applicable - Configurable</t>
+        </is>
+      </c>
+      <c r="J172" s="2" t="inlineStr">
+        <is>
+          <t>Verify the operating system provides the capability for users to directly initiate a session lock for all connection types. If it does not, this is a finding.</t>
+        </is>
+      </c>
+      <c r="K172" s="2" t="inlineStr">
+        <is>
+          <t>Run the following command to determine if the  tmux  package is installed:  $ rpm -q tmux 
+If the package is not installed then this is a finding.</t>
+        </is>
+      </c>
+      <c r="L172" s="2" t="n"/>
+      <c r="M172" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The  tmux  package can be installed with the following command:   $ sudo dnf install tmux </t>
+        </is>
+      </c>
+      <c r="N172" s="2" t="inlineStr">
+        <is>
+          <t>CAT II</t>
+        </is>
+      </c>
+      <c r="O172" s="2" t="n"/>
+      <c r="P172" s="2" t="n"/>
+      <c r="Q172" s="2" t="n"/>
+    </row>
+    <row r="173" ht="130" customHeight="1">
+      <c r="A173" s="2" t="inlineStr">
+        <is>
+          <t>AC-11 a,AC-11 b</t>
+        </is>
+      </c>
+      <c r="B173" s="2" t="inlineStr">
+        <is>
+          <t>CCI-000056</t>
+        </is>
+      </c>
+      <c r="C173" s="2" t="inlineStr">
+        <is>
+          <t>SRG-OS-000028-GPOS-00009,SRG-OS-000030-GPOS-00011</t>
+        </is>
+      </c>
+      <c r="D173" s="2" t="inlineStr">
+        <is>
+          <t>CCE-86452-0</t>
+        </is>
+      </c>
+      <c r="E173" s="2" t="inlineStr">
+        <is>
+          <t>The operating system must provide the capability for users to directly initiate a session lock for all connection types.</t>
+        </is>
+      </c>
+      <c r="F173" s="2" t="inlineStr">
+        <is>
+          <t>Red Hat Enterprise Linux 9 must provide the capability for users to directly initiate a session lock for all connection types.</t>
+        </is>
+      </c>
+      <c r="G173" s="2" t="inlineStr">
+        <is>
+          <t>A session lock is a temporary action taken when a user stops work and moves away from the immediate physical vicinity of the information system but does not want to log out because of the temporary nature of the absence.
+The session lock is implemented at the point where session activity can be determined. Rather than be forced to wait for a period of time to expire before the user session can be locked, operating systems need to provide users with the ability to manually invoke a session lock so users may secure their session should the need arise for them to temporarily vacate the immediate physical vicinity.</t>
+        </is>
+      </c>
+      <c r="H173" s="2" t="inlineStr">
+        <is>
+          <t>Locking the screen automatically when removing the smartcard can
+prevent undesired access to system.</t>
+        </is>
+      </c>
+      <c r="I173" s="2" t="inlineStr">
+        <is>
+          <t>Applicable - Configurable</t>
+        </is>
+      </c>
+      <c r="J173" s="2" t="inlineStr">
+        <is>
+          <t>Verify the operating system provides the capability for users to directly initiate a session lock for all connection types. If it does not, this is a finding.</t>
+        </is>
+      </c>
+      <c r="K173" s="2" t="inlineStr">
+        <is>
+          <t>To ensure screen locking on smartcard removal is enabled, run the following command:
+ $ grep removal-action /etc/dconf/db/local.d/* 
+The output should be  'lock-screen' .
+To ensure that users cannot disable screen locking on smartcard removal, run the following:
+ $ grep removal-action /etc/dconf/db/local.d/locks/* 
+If properly configured, the output should be  /org/gnome/settings-daemon/peripherals/smartcard/removal-action 
+If removal-action has not been configured then this is a finding.</t>
+        </is>
+      </c>
+      <c r="L173" s="2" t="n"/>
+      <c r="M173" s="2" t="inlineStr">
+        <is>
+          <t>The dconf settings can be edited in the /etc/dconf/db/* location.
+  Edit or add the org/gnome/settings-daemon/peripherals/smartcard section of the database file and add or update the following lines:
+  removal-action='lock-screen'
+  Update the system databases:
+  $ sudo dconf update</t>
+        </is>
+      </c>
+      <c r="N173" s="2" t="inlineStr">
+        <is>
+          <t>CAT II</t>
+        </is>
+      </c>
+      <c r="O173" s="2" t="n"/>
+      <c r="P173" s="2" t="n"/>
+      <c r="Q173" s="2" t="n"/>
+    </row>
+    <row r="174" ht="130" customHeight="1">
+      <c r="A174" s="2" t="inlineStr">
+        <is>
+          <t>AC-11 a,AC-11 b</t>
+        </is>
+      </c>
+      <c r="B174" s="2" t="inlineStr">
+        <is>
+          <t>CCI-000056,CCI-000058,CCI-000060</t>
+        </is>
+      </c>
+      <c r="C174" s="2" t="inlineStr">
+        <is>
+          <t>SRG-OS-000028-GPOS-00009,SRG-OS-000030-GPOS-00011</t>
+        </is>
+      </c>
+      <c r="D174" s="2" t="inlineStr">
+        <is>
+          <t>CCE-89302-4</t>
+        </is>
+      </c>
+      <c r="E174" s="2" t="inlineStr">
+        <is>
+          <t>The operating system must provide the capability for users to directly initiate a session lock for all connection types.</t>
+        </is>
+      </c>
+      <c r="F174" s="2" t="inlineStr">
+        <is>
+          <t>Red Hat Enterprise Linux 9 must provide the capability for users to directly initiate a session lock for all connection types.</t>
+        </is>
+      </c>
+      <c r="G174" s="2" t="inlineStr">
+        <is>
+          <t>A session lock is a temporary action taken when a user stops work and moves away from the immediate physical vicinity of the information system but does not want to log out because of the temporary nature of the absence.
+The session lock is implemented at the point where session activity can be determined. Rather than be forced to wait for a period of time to expire before the user session can be locked, operating systems need to provide users with the ability to manually invoke a session lock so users may secure their session should the need arise for them to temporarily vacate the immediate physical vicinity.</t>
+        </is>
+      </c>
+      <c r="H174" s="2" t="inlineStr">
+        <is>
+          <t>A session lock is a temporary action taken when a user stops work and moves away from the immediate physical vicinity
+of the information system but does not want to logout because of the temporary nature of the absense.</t>
+        </is>
+      </c>
+      <c r="I174" s="2" t="inlineStr">
+        <is>
+          <t>Applicable - Configurable</t>
+        </is>
+      </c>
+      <c r="J174" s="2" t="inlineStr">
+        <is>
+          <t>Verify the operating system provides the capability for users to directly initiate a session lock for all connection types. If it does not, this is a finding.</t>
+        </is>
+      </c>
+      <c r="K174" s="2" t="inlineStr">
+        <is>
+          <t>To check the status of the idle screen lock activation, run the following command:
+ $ gsettings get org.gnome.desktop.screensaver lock-enabled 
+If properly configured, the output should be  true .
+To ensure that users cannot change how long until the the screensaver locks, run the following:
+ $ grep lock-enabled /etc/dconf/db/local.d/locks/* 
+If properly configured, the output for  lock-enabled  should be  /org/gnome/desktop/screensaver/lock-enabled 
+If screensaver locking is not enabled and/or has not been set or configured correctly then this is a finding.</t>
+        </is>
+      </c>
+      <c r="L174" s="2" t="n"/>
+      <c r="M174" s="2" t="inlineStr">
+        <is>
+          <t>The dconf settings can be edited in the /etc/dconf/db/* location.
+Edit or add the /org/gnome/desktop/screensaver/lock-enabled section of the database file and add or update the following lines:
+lock-enabled=true
+Update the system databases:
+$ sudo dconf update</t>
+        </is>
+      </c>
+      <c r="N174" s="2" t="inlineStr">
+        <is>
+          <t>CAT II</t>
+        </is>
+      </c>
+      <c r="O174" s="2" t="n"/>
+      <c r="P174" s="2" t="n"/>
+      <c r="Q174" s="2" t="n"/>
+    </row>
+    <row r="175" ht="130" customHeight="1">
+      <c r="A175" s="2" t="inlineStr">
+        <is>
+          <t>IA-5 (1) (e)</t>
+        </is>
+      </c>
+      <c r="B175" s="2" t="inlineStr">
+        <is>
+          <t>CCI-000200</t>
+        </is>
+      </c>
+      <c r="C175" s="2" t="inlineStr">
+        <is>
+          <t>SRG-OS-000077-GPOS-00045</t>
+        </is>
+      </c>
+      <c r="D175" s="2" t="inlineStr">
+        <is>
+          <t>CCE-86354-8</t>
+        </is>
+      </c>
+      <c r="E175" s="2" t="inlineStr">
+        <is>
+          <t>The operating system must prohibit password reuse for a minimum of five generations.</t>
+        </is>
+      </c>
+      <c r="F175" s="2" t="inlineStr">
+        <is>
+          <t>Red Hat Enterprise Linux 9 must prohibit password reuse for a minimum of five generations.</t>
+        </is>
+      </c>
+      <c r="G175" s="2" t="inlineStr">
+        <is>
+          <t>Password complexity, or strength, is a measure of the effectiveness of a password in resisting attempts at guessing and brute-force attacks. If the information system or application allows the user to consecutively reuse their password when that password has exceeded its defined lifetime, the end result is a password that is not changed as per policy requirements.</t>
+        </is>
+      </c>
+      <c r="H175" s="2" t="inlineStr">
+        <is>
+          <t>Preventing re-use of previous passwords helps ensure that a compromised password is not re-used by a user.</t>
+        </is>
+      </c>
+      <c r="I175" s="2" t="inlineStr">
+        <is>
+          <t>Applicable - Configurable</t>
+        </is>
+      </c>
+      <c r="J175" s="2" t="inlineStr">
+        <is>
+          <t>Verify the operating system prohibits password reuse for a minimum of five generations. If it does not, this is a finding.</t>
+        </is>
+      </c>
+      <c r="K175" s="2" t="inlineStr">
+        <is>
+          <t>Check that the operating system prohibits the reuse of a password for
+a minimum of    generations with the following command:
+ # grep pam_pwhistory.so /etc/pam.d/password-auth
+password  pam_pwhistory.so remember= use_authtok 
+If the command does not return a result, or the returned line is commented
+out, has a second column value different from   , does not contain
+"remember" value, or the value is less than
+  , this is a finding.
+If the value of remember is not set equal to or greater than  then this is a finding.</t>
+        </is>
+      </c>
+      <c r="L175" s="2" t="n"/>
+      <c r="M175" s="2" t="inlineStr"/>
+      <c r="N175" s="2" t="inlineStr">
+        <is>
+          <t>CAT II</t>
+        </is>
+      </c>
+      <c r="O175" s="2" t="n"/>
+      <c r="P175" s="2" t="n"/>
+      <c r="Q175" s="2" t="n"/>
+    </row>
+    <row r="176" ht="130" customHeight="1">
+      <c r="A176" s="2" t="inlineStr">
+        <is>
+          <t>IA-5 (1) (e)</t>
+        </is>
+      </c>
+      <c r="B176" s="2" t="inlineStr">
+        <is>
+          <t>CCI-000200</t>
+        </is>
+      </c>
+      <c r="C176" s="2" t="inlineStr">
+        <is>
+          <t>SRG-OS-000077-GPOS-00045</t>
+        </is>
+      </c>
+      <c r="D176" s="2" t="inlineStr">
+        <is>
+          <t>CCE-89176-2</t>
+        </is>
+      </c>
+      <c r="E176" s="2" t="inlineStr">
+        <is>
+          <t>The operating system must prohibit password reuse for a minimum of five generations.</t>
+        </is>
+      </c>
+      <c r="F176" s="2" t="inlineStr">
+        <is>
+          <t>Red Hat Enterprise Linux 9 must prohibit password reuse for a minimum of five generations.</t>
+        </is>
+      </c>
+      <c r="G176" s="2" t="inlineStr">
+        <is>
+          <t>Password complexity, or strength, is a measure of the effectiveness of a password in resisting attempts at guessing and brute-force attacks. If the information system or application allows the user to consecutively reuse their password when that password has exceeded its defined lifetime, the end result is a password that is not changed as per policy requirements.</t>
+        </is>
+      </c>
+      <c r="H176" s="2" t="inlineStr">
+        <is>
+          <t>Preventing re-use of previous passwords helps ensure that a compromised password is not re-used by a user.</t>
+        </is>
+      </c>
+      <c r="I176" s="2" t="inlineStr">
+        <is>
+          <t>Applicable - Configurable</t>
+        </is>
+      </c>
+      <c r="J176" s="2" t="inlineStr">
+        <is>
+          <t>Verify the operating system prohibits password reuse for a minimum of five generations. If it does not, this is a finding.</t>
+        </is>
+      </c>
+      <c r="K176" s="2" t="inlineStr">
+        <is>
+          <t>Check that the operating system prohibits the reuse of a password for
+a minimum of    generations with the following command:
+ # grep pam_pwhistory.so /etc/pam.d/system-auth
+password  pam_pwhistory.so remember= use_authtok 
+If the command does not return a result, or the returned line is commented
+out, has a second column value different from   , does not contain
+"remember" value, or the value is less than
+  , this is a finding.
+If the value of remember is not set equal to or greater than  then this is a finding.</t>
+        </is>
+      </c>
+      <c r="L176" s="2" t="n"/>
+      <c r="M176" s="2" t="inlineStr"/>
+      <c r="N176" s="2" t="inlineStr">
+        <is>
+          <t>CAT II</t>
+        </is>
+      </c>
+      <c r="O176" s="2" t="n"/>
+      <c r="P176" s="2" t="n"/>
+      <c r="Q176" s="2" t="n"/>
+    </row>
+    <row r="177" ht="130" customHeight="1">
+      <c r="A177" s="2" t="inlineStr">
+        <is>
+          <t>IA-5 (1) (e)</t>
+        </is>
+      </c>
+      <c r="B177" s="2" t="inlineStr">
+        <is>
+          <t>CCI-000200</t>
+        </is>
+      </c>
+      <c r="C177" s="2" t="inlineStr">
+        <is>
+          <t>SRG-OS-000077-GPOS-00045</t>
+        </is>
+      </c>
+      <c r="D177" s="2" t="inlineStr">
+        <is>
+          <t>CCE-83584-3</t>
+        </is>
+      </c>
+      <c r="E177" s="2" t="inlineStr">
+        <is>
+          <t>The operating system must prohibit password reuse for a minimum of five generations.</t>
+        </is>
+      </c>
+      <c r="F177" s="2" t="inlineStr">
+        <is>
+          <t>Red Hat Enterprise Linux 9 must prohibit password reuse for a minimum of five generations.</t>
+        </is>
+      </c>
+      <c r="G177" s="2" t="inlineStr">
+        <is>
+          <t>Password complexity, or strength, is a measure of the effectiveness of a password in resisting attempts at guessing and brute-force attacks. If the information system or application allows the user to consecutively reuse their password when that password has exceeded its defined lifetime, the end result is a password that is not changed as per policy requirements.</t>
+        </is>
+      </c>
+      <c r="H177" s="2" t="inlineStr">
+        <is>
+          <t>Preventing re-use of previous passwords helps ensure that a compromised password is not re-used by a user.</t>
+        </is>
+      </c>
+      <c r="I177" s="2" t="inlineStr">
+        <is>
+          <t>Applicable - Configurable</t>
+        </is>
+      </c>
+      <c r="J177" s="2" t="inlineStr">
+        <is>
+          <t>Verify the operating system prohibits password reuse for a minimum of five generations. If it does not, this is a finding.</t>
+        </is>
+      </c>
+      <c r="K177" s="2" t="inlineStr">
+        <is>
+          <t>To verify the password reuse setting is compliant, run the following command:
+ $ grep remember /etc/pam.d/system-auth 
+The output should show the following at the end of the line:
+ remember= 
+If the value of remember is not set equal to or greater than the expected setting then this is a finding.</t>
+        </is>
+      </c>
+      <c r="L177" s="2" t="n"/>
+      <c r="M177" s="2" t="inlineStr"/>
+      <c r="N177" s="2" t="inlineStr">
+        <is>
+          <t>CAT II</t>
+        </is>
+      </c>
+      <c r="O177" s="2" t="n"/>
+      <c r="P177" s="2" t="n"/>
+      <c r="Q177" s="2" t="n"/>
+    </row>
+    <row r="178" ht="130" customHeight="1">
+      <c r="A178" s="2" t="inlineStr">
+        <is>
+          <t>AU-6 (4)</t>
+        </is>
+      </c>
+      <c r="B178" s="2" t="inlineStr">
+        <is>
+          <t>CCI-000154</t>
+        </is>
+      </c>
+      <c r="C178" s="2" t="inlineStr">
+        <is>
+          <t>SRG-OS-000051-GPOS-00024</t>
+        </is>
+      </c>
+      <c r="D178" s="2" t="inlineStr">
+        <is>
+          <t>CCE-83704-7</t>
+        </is>
+      </c>
+      <c r="E178" s="2" t="inlineStr">
+        <is>
+          <t>The operating system must provide the capability to centrally review and analyze audit records from multiple components within the system.</t>
+        </is>
+      </c>
+      <c r="F178" s="2" t="inlineStr">
+        <is>
+          <t>Red Hat Enterprise Linux 9 must provide the capability to centrally review and analyze audit records from multiple components within the system.</t>
+        </is>
+      </c>
+      <c r="G178" s="2" t="inlineStr">
+        <is>
+          <t>Successful incident response and auditing relies on timely, accurate system information and analysis in order to allow the organization to identify and respond to potential incidents in a proficient manner. If the operating system does not provide the ability to centrally review the operating system logs, forensic analysis is negatively impacted.
+Segregation of logging data to multiple disparate computer systems is counterproductive and makes log analysis and log event alarming difficult to implement and manage, particularly when the system has multiple logging components writing to different locations or systems.
+To support the centralized capability, the operating system must be able to provide the information in a format that can be extracted and used, allowing the application performing the centralization of the log records to meet this requirement.</t>
+        </is>
+      </c>
+      <c r="H178" s="2" t="inlineStr">
+        <is>
+          <t>If option  freq  isn't set to  50 , the flush to disk
+may happen after higher number of records, increasing the danger
+of audit loss.</t>
+        </is>
+      </c>
+      <c r="I178" s="2" t="inlineStr">
+        <is>
+          <t>Applicable - Configurable</t>
+        </is>
+      </c>
+      <c r="J178" s="2" t="inlineStr">
+        <is>
+          <t>Verify the operating system provides the capability to centrally review and analyze audit records from multiple components within the system. If it does not, this is a finding.</t>
+        </is>
+      </c>
+      <c r="K178" s="2" t="inlineStr">
+        <is>
+          <t>To verify that Audit Daemon is configured to flush to disk after
+every 50 records, run the following command:
+ $ sudo grep freq /etc/audit/auditd.conf 
+The output should return the following:
+ freq = 50 
+If freq isn't set to 50 then this is a finding.</t>
+        </is>
+      </c>
+      <c r="L178" s="2" t="n"/>
+      <c r="M178" s="2" t="inlineStr"/>
+      <c r="N178" s="2" t="inlineStr">
+        <is>
+          <t>CAT II</t>
+        </is>
+      </c>
+      <c r="O178" s="2" t="n"/>
+      <c r="P178" s="2" t="n"/>
+      <c r="Q178" s="2" t="n"/>
+    </row>
+    <row r="179" ht="130" customHeight="1">
+      <c r="A179" s="2" t="inlineStr">
+        <is>
+          <t>CM-6 b,AU-6 (4),AU-4 (1)</t>
+        </is>
+      </c>
+      <c r="B179" s="2" t="inlineStr">
+        <is>
+          <t>CCI-001311,CCI-001312,CCI-000366</t>
+        </is>
+      </c>
+      <c r="C179" s="2" t="inlineStr">
+        <is>
+          <t>SRG-OS-000479-GPOS-00224,SRG-OS-000051-GPOS-00024,SRG-OS-000480-GPOS-00227</t>
+        </is>
+      </c>
+      <c r="D179" s="2" t="inlineStr">
+        <is>
+          <t>CCE-84063-7</t>
+        </is>
+      </c>
+      <c r="E179" s="2" t="inlineStr">
+        <is>
+          <t>The operating system must provide the capability to centrally review and analyze audit records from multiple components within the system.</t>
+        </is>
+      </c>
+      <c r="F179" s="2" t="inlineStr">
+        <is>
+          <t>Red Hat Enterprise Linux 9 must provide the capability to centrally review and analyze audit records from multiple components within the system.</t>
+        </is>
+      </c>
+      <c r="G179" s="2" t="inlineStr">
+        <is>
+          <t>Successful incident response and auditing relies on timely, accurate system information and analysis in order to allow the organization to identify and respond to potential incidents in a proficient manner. If the operating system does not provide the ability to centrally review the operating system logs, forensic analysis is negatively impacted.
+Segregation of logging data to multiple disparate computer systems is counterproductive and makes log analysis and log event alarming difficult to implement and manage, particularly when the system has multiple logging components writing to different locations or systems.
+To support the centralized capability, the operating system must be able to provide the information in a format that can be extracted and used, allowing the application performing the centralization of the log records to meet this requirement.</t>
+        </is>
+      </c>
+      <c r="H179" s="2" t="inlineStr">
+        <is>
+          <t>The rsyslog package provides the rsyslog daemon, which provides
+system logging services.</t>
+        </is>
+      </c>
+      <c r="I179" s="2" t="inlineStr">
+        <is>
+          <t>Applicable - Configurable</t>
+        </is>
+      </c>
+      <c r="J179" s="2" t="inlineStr">
+        <is>
+          <t>Verify the operating system provides the capability to centrally review and analyze audit records from multiple components within the system. If it does not, this is a finding.</t>
+        </is>
+      </c>
+      <c r="K179" s="2" t="inlineStr">
+        <is>
+          <t>Run the following command to determine if the  rsyslog  package is installed:  $ rpm -q rsyslog 
+If the package is not installed then this is a finding.</t>
+        </is>
+      </c>
+      <c r="L179" s="2" t="n"/>
+      <c r="M179" s="2" t="inlineStr"/>
+      <c r="N179" s="2" t="inlineStr">
+        <is>
+          <t>CAT II</t>
+        </is>
+      </c>
+      <c r="O179" s="2" t="n"/>
+      <c r="P179" s="2" t="n"/>
+      <c r="Q179" s="2" t="n"/>
+    </row>
+    <row r="180" ht="130" customHeight="1">
+      <c r="A180" s="2" t="inlineStr">
+        <is>
+          <t>CM-6 b,CM-7 b,AC-17 (1)</t>
+        </is>
+      </c>
+      <c r="B180" s="2" t="inlineStr">
+        <is>
+          <t>CCI-000366,CCI-000382,CCI-002314</t>
+        </is>
+      </c>
+      <c r="C180" s="2" t="inlineStr">
+        <is>
+          <t>SRG-OS-000096-GPOS-00050,SRG-OS-000297-GPOS-00115,SRG-OS-000480-GPOS-00227,SRG-OS-000480-GPOS-00231,SRG-OS-000480-GPOS-00232</t>
+        </is>
+      </c>
+      <c r="D180" s="2" t="inlineStr">
+        <is>
+          <t>CCE-90833-5</t>
+        </is>
+      </c>
+      <c r="E180" s="2" t="inlineStr">
+        <is>
+          <t>The operating system must enable an application firewall, if available.</t>
+        </is>
+      </c>
+      <c r="F180" s="2" t="inlineStr">
+        <is>
+          <t>Red Hat Enterprise Linux 9 must enable an application firewall, if available.</t>
+        </is>
+      </c>
+      <c r="G180" s="2" t="inlineStr">
+        <is>
+          <t>Firewalls protect computers from network attacks by blocking or limiting access to open network ports. Application firewalls limit which applications are allowed to communicate over the network.</t>
+        </is>
+      </c>
+      <c r="H180" s="2" t="inlineStr">
+        <is>
+          <t>Access control methods provide the ability to enhance system security posture
+by restricting services and known good IP addresses and address ranges. This
+prevents connections from unknown hosts and protocols.</t>
+        </is>
+      </c>
+      <c r="I180" s="2" t="inlineStr">
+        <is>
+          <t>Applicable - Configurable</t>
+        </is>
+      </c>
+      <c r="J180" s="2" t="inlineStr">
+        <is>
+          <t>Verify the operating system enabled an application firewall, if available. If it does not, this is a finding. If the operating system does not support an application firewall, this may be downgraded to a CAT III finding.</t>
+        </is>
+      </c>
+      <c r="K180" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Run the following command to determine the current status of the
+ firewalld  service:
+ $ systemctl is-active firewalld 
+If the service is running, it should return the following:  active 
+If the service is not enabled then this is a finding.</t>
+        </is>
+      </c>
+      <c r="L180" s="2" t="n"/>
+      <c r="M180" s="2" t="inlineStr">
+        <is>
+          <t>To enable the firewalld service run the following command:
+$ systemctl enable --now firewalld</t>
+        </is>
+      </c>
+      <c r="N180" s="2" t="inlineStr">
+        <is>
+          <t>CAT II</t>
+        </is>
+      </c>
+      <c r="O180" s="2" t="n"/>
+      <c r="P180" s="2" t="n"/>
+      <c r="Q180" s="2" t="n"/>
+    </row>
+    <row r="181" ht="130" customHeight="1">
+      <c r="A181" s="2" t="inlineStr">
+        <is>
+          <t>SI-11 b,AU-9</t>
+        </is>
+      </c>
+      <c r="B181" s="2" t="inlineStr">
+        <is>
+          <t>CCI-000162,CCI-000163,CCI-000164,CCI-001314</t>
+        </is>
+      </c>
+      <c r="C181" s="2" t="inlineStr">
+        <is>
+          <t>SRG-OS-000057-GPOS-00027,SRG-OS-000058-GPOS-00028,SRG-OS-000059-GPOS-00029,SRG-OS-000206-GPOS-00084</t>
+        </is>
+      </c>
+      <c r="D181" s="2" t="inlineStr">
+        <is>
+          <t>CCE-90516-6</t>
+        </is>
+      </c>
+      <c r="E181" s="2" t="inlineStr">
+        <is>
+          <t>The operating system must reveal error messages only to authorized users.</t>
+        </is>
+      </c>
+      <c r="F181" s="2" t="inlineStr">
+        <is>
+          <t>Red Hat Enterprise Linux 9 must reveal error messages only to authorized users.</t>
+        </is>
+      </c>
+      <c r="G181" s="2" t="inlineStr">
+        <is>
+          <t>Only authorized personnel should be aware of errors and the details of the errors. Error messages are an indicator of an organization's operational state or can identify the operating system or platform. Additionally, Personally Identifiable Information (PII) and operational information must not be revealed through error messages to unauthorized personnel or their designated representatives.
+The structure and content of error messages must be carefully considered by the organization and development team. The extent to which the information system is able to identify and handle error conditions is guided by organizational policy and operational requirements.</t>
+        </is>
+      </c>
+      <c r="H181" s="2" t="inlineStr">
+        <is>
+          <t>Unauthorized disclosure of audit records can reveal system and configuration data to
+attackers, thus compromising its confidentiality.</t>
+        </is>
+      </c>
+      <c r="I181" s="2" t="inlineStr">
+        <is>
+          <t>Applicable - Configurable</t>
+        </is>
+      </c>
+      <c r="J181" s="2" t="inlineStr">
+        <is>
+          <t>Verify the operating system reveals error messages only to authorized users. If it does not, this is a finding.</t>
+        </is>
+      </c>
+      <c r="K181" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+To properly set the group owner of  /var/log/audit , run the command:
+ $ sudo chgrp root /var/log/audit 
+If  then this is a finding.</t>
+        </is>
+      </c>
+      <c r="L181" s="2" t="n"/>
+      <c r="M181" s="2" t="inlineStr"/>
+      <c r="N181" s="2" t="inlineStr">
+        <is>
+          <t>CAT II</t>
+        </is>
+      </c>
+      <c r="O181" s="2" t="n"/>
+      <c r="P181" s="2" t="n"/>
+      <c r="Q181" s="2" t="n"/>
+    </row>
+    <row r="182" ht="130" customHeight="1">
+      <c r="A182" s="2" t="inlineStr">
+        <is>
+          <t>SI-11 b,AU-9</t>
+        </is>
+      </c>
+      <c r="B182" s="2" t="inlineStr">
+        <is>
+          <t>CCI-000162,CCI-000163,CCI-000164,CCI-001314</t>
+        </is>
+      </c>
+      <c r="C182" s="2" t="inlineStr">
+        <is>
+          <t>SRG-OS-000057-GPOS-00027,SRG-OS-000058-GPOS-00028,SRG-OS-000059-GPOS-00029,SRG-OS-000206-GPOS-00084</t>
+        </is>
+      </c>
+      <c r="D182" s="2" t="inlineStr">
+        <is>
+          <t>CCE-85869-6</t>
+        </is>
+      </c>
+      <c r="E182" s="2" t="inlineStr">
+        <is>
+          <t>The operating system must reveal error messages only to authorized users.</t>
+        </is>
+      </c>
+      <c r="F182" s="2" t="inlineStr">
+        <is>
+          <t>Red Hat Enterprise Linux 9 must reveal error messages only to authorized users.</t>
+        </is>
+      </c>
+      <c r="G182" s="2" t="inlineStr">
+        <is>
+          <t>Only authorized personnel should be aware of errors and the details of the errors. Error messages are an indicator of an organization's operational state or can identify the operating system or platform. Additionally, Personally Identifiable Information (PII) and operational information must not be revealed through error messages to unauthorized personnel or their designated representatives.
+The structure and content of error messages must be carefully considered by the organization and development team. The extent to which the information system is able to identify and handle error conditions is guided by organizational policy and operational requirements.</t>
+        </is>
+      </c>
+      <c r="H182" s="2" t="inlineStr">
+        <is>
+          <t>Unauthorized disclosure of audit records can reveal system and configuration data to
+attackers, thus compromising its confidentiality.</t>
+        </is>
+      </c>
+      <c r="I182" s="2" t="inlineStr">
+        <is>
+          <t>Applicable - Configurable</t>
+        </is>
+      </c>
+      <c r="J182" s="2" t="inlineStr">
+        <is>
+          <t>Verify the operating system reveals error messages only to authorized users. If it does not, this is a finding.</t>
+        </is>
+      </c>
+      <c r="K182" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+To properly set the owner of  /var/log/audit , run the command:
+ $ sudo chown root /var/log/audit  
+If  then this is a finding.</t>
+        </is>
+      </c>
+      <c r="L182" s="2" t="n"/>
+      <c r="M182" s="2" t="inlineStr"/>
+      <c r="N182" s="2" t="inlineStr">
+        <is>
+          <t>CAT II</t>
+        </is>
+      </c>
+      <c r="O182" s="2" t="n"/>
+      <c r="P182" s="2" t="n"/>
+      <c r="Q182" s="2" t="n"/>
+    </row>
+    <row r="183" ht="130" customHeight="1">
+      <c r="A183" s="2" t="inlineStr">
+        <is>
+          <t>SI-11 b,AU-9</t>
+        </is>
+      </c>
+      <c r="B183" s="2" t="inlineStr">
+        <is>
+          <t>CCI-000162,CCI-000163,CCI-000164,CCI-001314</t>
+        </is>
+      </c>
+      <c r="C183" s="2" t="inlineStr">
+        <is>
+          <t>SRG-OS-000057-GPOS-00027,SRG-OS-000058-GPOS-00028,SRG-OS-000059-GPOS-00029,SRG-OS-000206-GPOS-00084</t>
+        </is>
+      </c>
+      <c r="D183" s="2" t="inlineStr">
+        <is>
+          <t>CCE-89603-5</t>
+        </is>
+      </c>
+      <c r="E183" s="2" t="inlineStr">
+        <is>
+          <t>The operating system must reveal error messages only to authorized users.</t>
+        </is>
+      </c>
+      <c r="F183" s="2" t="inlineStr">
+        <is>
+          <t>Red Hat Enterprise Linux 9 must reveal error messages only to authorized users.</t>
+        </is>
+      </c>
+      <c r="G183" s="2" t="inlineStr">
+        <is>
+          <t>Only authorized personnel should be aware of errors and the details of the errors. Error messages are an indicator of an organization's operational state or can identify the operating system or platform. Additionally, Personally Identifiable Information (PII) and operational information must not be revealed through error messages to unauthorized personnel or their designated representatives.
+The structure and content of error messages must be carefully considered by the organization and development team. The extent to which the information system is able to identify and handle error conditions is guided by organizational policy and operational requirements.</t>
+        </is>
+      </c>
+      <c r="H183" s="2" t="inlineStr">
+        <is>
+          <t>Unauthorized disclosure of audit records can reveal system and configuration data to
+attackers, thus compromising its confidentiality.</t>
+        </is>
+      </c>
+      <c r="I183" s="2" t="inlineStr">
+        <is>
+          <t>Applicable - Configurable</t>
+        </is>
+      </c>
+      <c r="J183" s="2" t="inlineStr">
+        <is>
+          <t>Verify the operating system reveals error messages only to authorized users. If it does not, this is a finding.</t>
+        </is>
+      </c>
+      <c r="K183" s="2" t="inlineStr">
+        <is>
+          <t>Run the following commands to check who owns the system audit logs:
+ $ sudo grep -iw ^log_file /etc/audit/auditd.conf 
+ log_file = /var/log/audit/audit.log 
+ $ sudo stat -c "%n %G"  log_file  
+Audit logs must be owned by group root or adm.
+If  then this is a finding.</t>
+        </is>
+      </c>
+      <c r="L183" s="2" t="n"/>
+      <c r="M183" s="2" t="inlineStr"/>
+      <c r="N183" s="2" t="inlineStr">
+        <is>
+          <t>CAT II</t>
+        </is>
+      </c>
+      <c r="O183" s="2" t="n"/>
+      <c r="P183" s="2" t="n"/>
+      <c r="Q183" s="2" t="n"/>
+    </row>
+    <row r="184" ht="130" customHeight="1">
+      <c r="A184" s="2" t="inlineStr">
+        <is>
+          <t>SI-11 b,AU-9</t>
+        </is>
+      </c>
+      <c r="B184" s="2" t="inlineStr">
+        <is>
+          <t>CCI-000162,CCI-000163,CCI-000164,CCI-001314</t>
+        </is>
+      </c>
+      <c r="C184" s="2" t="inlineStr">
+        <is>
+          <t>SRG-OS-000057-GPOS-00027,SRG-OS-000058-GPOS-00028,SRG-OS-000059-GPOS-00029,SRG-OS-000206-GPOS-00084</t>
+        </is>
+      </c>
+      <c r="D184" s="2" t="inlineStr">
+        <is>
+          <t>CCE-83726-0</t>
+        </is>
+      </c>
+      <c r="E184" s="2" t="inlineStr">
+        <is>
+          <t>The operating system must reveal error messages only to authorized users.</t>
+        </is>
+      </c>
+      <c r="F184" s="2" t="inlineStr">
+        <is>
+          <t>Red Hat Enterprise Linux 9 must reveal error messages only to authorized users.</t>
+        </is>
+      </c>
+      <c r="G184" s="2" t="inlineStr">
+        <is>
+          <t>Only authorized personnel should be aware of errors and the details of the errors. Error messages are an indicator of an organization's operational state or can identify the operating system or platform. Additionally, Personally Identifiable Information (PII) and operational information must not be revealed through error messages to unauthorized personnel or their designated representatives.
+The structure and content of error messages must be carefully considered by the organization and development team. The extent to which the information system is able to identify and handle error conditions is guided by organizational policy and operational requirements.</t>
+        </is>
+      </c>
+      <c r="H184" s="2" t="inlineStr">
+        <is>
+          <t>Unauthorized disclosure of audit records can reveal system and configuration data to
+attackers, thus compromising its confidentiality.</t>
+        </is>
+      </c>
+      <c r="I184" s="2" t="inlineStr">
+        <is>
+          <t>Applicable - Configurable</t>
+        </is>
+      </c>
+      <c r="J184" s="2" t="inlineStr">
+        <is>
+          <t>Verify the operating system reveals error messages only to authorized users. If it does not, this is a finding.</t>
+        </is>
+      </c>
+      <c r="K184" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+To properly set the owner of  /var/log/audit , run the command:
+ $ sudo chown root /var/log/audit  
+To properly set the owner of  /var/log/audit/* , run the command:
+ $ sudo chown root /var/log/audit/*  
+If  then this is a finding.</t>
+        </is>
+      </c>
+      <c r="L184" s="2" t="n"/>
+      <c r="M184" s="2" t="inlineStr"/>
+      <c r="N184" s="2" t="inlineStr">
+        <is>
+          <t>CAT II</t>
+        </is>
+      </c>
+      <c r="O184" s="2" t="n"/>
+      <c r="P184" s="2" t="n"/>
+      <c r="Q184" s="2" t="n"/>
+    </row>
+    <row r="185" ht="130" customHeight="1">
+      <c r="A185" s="2" t="inlineStr">
+        <is>
+          <t>SI-11 b,AU-9</t>
+        </is>
+      </c>
+      <c r="B185" s="2" t="inlineStr">
+        <is>
+          <t>CCI-000162,CCI-000163,CCI-000164,CCI-001314</t>
+        </is>
+      </c>
+      <c r="C185" s="2" t="inlineStr">
+        <is>
+          <t>SRG-OS-000057-GPOS-00027,SRG-OS-000058-GPOS-00028,SRG-OS-000059-GPOS-00029,SRG-OS-000206-GPOS-00084</t>
+        </is>
+      </c>
+      <c r="D185" s="2" t="inlineStr">
+        <is>
+          <t>CCE-89952-6</t>
+        </is>
+      </c>
+      <c r="E185" s="2" t="inlineStr">
+        <is>
+          <t>The operating system must reveal error messages only to authorized users.</t>
+        </is>
+      </c>
+      <c r="F185" s="2" t="inlineStr">
+        <is>
+          <t>Red Hat Enterprise Linux 9 must reveal error messages only to authorized users.</t>
+        </is>
+      </c>
+      <c r="G185" s="2" t="inlineStr">
+        <is>
+          <t>Only authorized personnel should be aware of errors and the details of the errors. Error messages are an indicator of an organization's operational state or can identify the operating system or platform. Additionally, Personally Identifiable Information (PII) and operational information must not be revealed through error messages to unauthorized personnel or their designated representatives.
+The structure and content of error messages must be carefully considered by the organization and development team. The extent to which the information system is able to identify and handle error conditions is guided by organizational policy and operational requirements.</t>
+        </is>
+      </c>
+      <c r="H185" s="2" t="inlineStr">
+        <is>
+          <t>Unauthorized disclosure of audit records can reveal system and configuration data to
+attackers, thus compromising its confidentiality.</t>
+        </is>
+      </c>
+      <c r="I185" s="2" t="inlineStr">
+        <is>
+          <t>Applicable - Configurable</t>
+        </is>
+      </c>
+      <c r="J185" s="2" t="inlineStr">
+        <is>
+          <t>Verify the operating system reveals error messages only to authorized users. If it does not, this is a finding.</t>
+        </is>
+      </c>
+      <c r="K185" s="2" t="inlineStr">
+        <is>
+          <t>Run the following commands to check who owns the system audit logs:
+ $ sudo grep -iw log_file /etc/audit/auditd.conf 
+ log_file = /var/log/audit/audit.log 
+ sudo stat -c "%n %U" /var/log/audit/* 
+Audit logs must be owned by user root.
+If  then this is a finding.</t>
+        </is>
+      </c>
+      <c r="L185" s="2" t="n"/>
+      <c r="M185" s="2" t="inlineStr"/>
+      <c r="N185" s="2" t="inlineStr">
+        <is>
+          <t>CAT II</t>
+        </is>
+      </c>
+      <c r="O185" s="2" t="n"/>
+      <c r="P185" s="2" t="n"/>
+      <c r="Q185" s="2" t="n"/>
+    </row>
+    <row r="186" ht="130" customHeight="1">
+      <c r="A186" s="2" t="inlineStr">
+        <is>
+          <t>SI-11 b,AU-9</t>
+        </is>
+      </c>
+      <c r="B186" s="2" t="inlineStr">
+        <is>
+          <t>CCI-000162,CCI-000163,CCI-000164,CCI-001314</t>
+        </is>
+      </c>
+      <c r="C186" s="2" t="inlineStr">
+        <is>
+          <t>SRG-OS-000057-GPOS-00027,SRG-OS-000058-GPOS-00028,SRG-OS-000059-GPOS-00029,SRG-OS-000206-GPOS-00084</t>
+        </is>
+      </c>
+      <c r="D186" s="2" t="inlineStr">
+        <is>
+          <t>CCE-83720-3</t>
+        </is>
+      </c>
+      <c r="E186" s="2" t="inlineStr">
+        <is>
+          <t>The operating system must reveal error messages only to authorized users.</t>
+        </is>
+      </c>
+      <c r="F186" s="2" t="inlineStr">
+        <is>
+          <t>Red Hat Enterprise Linux 9 must reveal error messages only to authorized users.</t>
+        </is>
+      </c>
+      <c r="G186" s="2" t="inlineStr">
+        <is>
+          <t>Only authorized personnel should be aware of errors and the details of the errors. Error messages are an indicator of an organization's operational state or can identify the operating system or platform. Additionally, Personally Identifiable Information (PII) and operational information must not be revealed through error messages to unauthorized personnel or their designated representatives.
+The structure and content of error messages must be carefully considered by the organization and development team. The extent to which the information system is able to identify and handle error conditions is guided by organizational policy and operational requirements.</t>
+        </is>
+      </c>
+      <c r="H186" s="2" t="inlineStr">
+        <is>
+          <t>If users can write to audit logs, audit trails can be modified or destroyed.</t>
+        </is>
+      </c>
+      <c r="I186" s="2" t="inlineStr">
+        <is>
+          <t>Applicable - Configurable</t>
+        </is>
+      </c>
+      <c r="J186" s="2" t="inlineStr">
+        <is>
+          <t>Verify the operating system reveals error messages only to authorized users. If it does not, this is a finding.</t>
+        </is>
+      </c>
+      <c r="K186" s="2" t="inlineStr">
+        <is>
+          <t>Run the following command to check the mode of the system audit logs:
+ $ sudo grep -iw log_file /etc/audit/auditd.conf 
+ log_file=/var/log/audit/audit.log 
+ $ sudo stat -c "%n %a" /var/log/audit/* 
+ $ sudo ls -l /var/log/audit 
+Audit logs must be mode 0640 or less permissive.
+If any are more permissive then this is a finding.</t>
+        </is>
+      </c>
+      <c r="L186" s="2" t="n"/>
+      <c r="M186" s="2" t="inlineStr"/>
+      <c r="N186" s="2" t="inlineStr">
+        <is>
+          <t>CAT II</t>
+        </is>
+      </c>
+      <c r="O186" s="2" t="n"/>
+      <c r="P186" s="2" t="n"/>
+      <c r="Q186" s="2" t="n"/>
+    </row>
+    <row r="187" ht="130" customHeight="1">
+      <c r="A187" s="2" t="inlineStr">
+        <is>
+          <t>SI-11 b</t>
+        </is>
+      </c>
+      <c r="B187" s="2" t="inlineStr">
+        <is>
+          <t>CCI-001314</t>
+        </is>
+      </c>
+      <c r="C187" s="2" t="inlineStr">
+        <is>
+          <t>SRG-OS-000206-GPOS-00084</t>
+        </is>
+      </c>
+      <c r="D187" s="2" t="inlineStr">
+        <is>
+          <t>CCE-83912-6</t>
+        </is>
+      </c>
+      <c r="E187" s="2" t="inlineStr">
+        <is>
+          <t>The operating system must reveal error messages only to authorized users.</t>
+        </is>
+      </c>
+      <c r="F187" s="2" t="inlineStr">
+        <is>
+          <t>Red Hat Enterprise Linux 9 must reveal error messages only to authorized users.</t>
+        </is>
+      </c>
+      <c r="G187" s="2" t="inlineStr">
+        <is>
+          <t>Only authorized personnel should be aware of errors and the details of the errors. Error messages are an indicator of an organization's operational state or can identify the operating system or platform. Additionally, Personally Identifiable Information (PII) and operational information must not be revealed through error messages to unauthorized personnel or their designated representatives.
+The structure and content of error messages must be carefully considered by the organization and development team. The extent to which the information system is able to identify and handle error conditions is guided by organizational policy and operational requirements.</t>
+        </is>
+      </c>
+      <c r="H187" s="2" t="inlineStr">
+        <is>
+          <t>The  /var/log  directory contains files with logs of error
+messages in the system and should only be accessed by authorized
+personnel.</t>
+        </is>
+      </c>
+      <c r="I187" s="2" t="inlineStr">
+        <is>
+          <t>Applicable - Configurable</t>
+        </is>
+      </c>
+      <c r="J187" s="2" t="inlineStr">
+        <is>
+          <t>Verify the operating system reveals error messages only to authorized users. If it does not, this is a finding.</t>
+        </is>
+      </c>
+      <c r="K187" s="2" t="inlineStr">
+        <is>
+          <t>To check the group ownership of  /var/log ,
+run the command:
+ $ ls -lL /var/log 
+If properly configured, the output should indicate the following group-owner:
+ root 
+If /var/log has group owner root then this is a finding.</t>
+        </is>
+      </c>
+      <c r="L187" s="2" t="n"/>
+      <c r="M187" s="2" t="inlineStr"/>
+      <c r="N187" s="2" t="inlineStr">
+        <is>
+          <t>CAT II</t>
+        </is>
+      </c>
+      <c r="O187" s="2" t="n"/>
+      <c r="P187" s="2" t="n"/>
+      <c r="Q187" s="2" t="n"/>
+    </row>
+    <row r="188" ht="130" customHeight="1">
+      <c r="A188" s="2" t="inlineStr">
+        <is>
+          <t>SI-11 b</t>
+        </is>
+      </c>
+      <c r="B188" s="2" t="inlineStr">
+        <is>
+          <t>CCI-001314</t>
+        </is>
+      </c>
+      <c r="C188" s="2" t="inlineStr">
+        <is>
+          <t>SRG-OS-000206-GPOS-00084</t>
+        </is>
+      </c>
+      <c r="D188" s="2" t="inlineStr">
+        <is>
+          <t>CCE-83916-7</t>
+        </is>
+      </c>
+      <c r="E188" s="2" t="inlineStr">
+        <is>
+          <t>The operating system must reveal error messages only to authorized users.</t>
+        </is>
+      </c>
+      <c r="F188" s="2" t="inlineStr">
+        <is>
+          <t>Red Hat Enterprise Linux 9 must reveal error messages only to authorized users.</t>
+        </is>
+      </c>
+      <c r="G188" s="2" t="inlineStr">
+        <is>
+          <t>Only authorized personnel should be aware of errors and the details of the errors. Error messages are an indicator of an organization's operational state or can identify the operating system or platform. Additionally, Personally Identifiable Information (PII) and operational information must not be revealed through error messages to unauthorized personnel or their designated representatives.
+The structure and content of error messages must be carefully considered by the organization and development team. The extent to which the information system is able to identify and handle error conditions is guided by organizational policy and operational requirements.</t>
+        </is>
+      </c>
+      <c r="H188" s="2" t="inlineStr">
+        <is>
+          <t>The  /var/log/messages  file contains logs of error messages in
+the system and should only be accessed by authorized personnel.</t>
+        </is>
+      </c>
+      <c r="I188" s="2" t="inlineStr">
+        <is>
+          <t>Applicable - Configurable</t>
+        </is>
+      </c>
+      <c r="J188" s="2" t="inlineStr">
+        <is>
+          <t>Verify the operating system reveals error messages only to authorized users. If it does not, this is a finding.</t>
+        </is>
+      </c>
+      <c r="K188" s="2" t="inlineStr">
+        <is>
+          <t>To check the group ownership of  /var/log/messages ,
+run the command:
+ $ ls -lL /var/log/messages 
+If properly configured, the output should indicate the following group-owner:
+ root 
+If /var/log/messages has group owner root then this is a finding.</t>
+        </is>
+      </c>
+      <c r="L188" s="2" t="n"/>
+      <c r="M188" s="2" t="inlineStr"/>
+      <c r="N188" s="2" t="inlineStr">
+        <is>
+          <t>CAT II</t>
+        </is>
+      </c>
+      <c r="O188" s="2" t="n"/>
+      <c r="P188" s="2" t="n"/>
+      <c r="Q188" s="2" t="n"/>
+    </row>
+    <row r="189" ht="130" customHeight="1">
+      <c r="A189" s="2" t="inlineStr">
+        <is>
+          <t>SI-11 b</t>
+        </is>
+      </c>
+      <c r="B189" s="2" t="inlineStr">
+        <is>
+          <t>CCI-001314</t>
+        </is>
+      </c>
+      <c r="C189" s="2" t="inlineStr">
+        <is>
+          <t>SRG-OS-000206-GPOS-00084</t>
+        </is>
+      </c>
+      <c r="D189" s="2" t="inlineStr">
+        <is>
+          <t>CCE-83914-2</t>
+        </is>
+      </c>
+      <c r="E189" s="2" t="inlineStr">
+        <is>
+          <t>The operating system must reveal error messages only to authorized users.</t>
+        </is>
+      </c>
+      <c r="F189" s="2" t="inlineStr">
+        <is>
+          <t>Red Hat Enterprise Linux 9 must reveal error messages only to authorized users.</t>
+        </is>
+      </c>
+      <c r="G189" s="2" t="inlineStr">
+        <is>
+          <t>Only authorized personnel should be aware of errors and the details of the errors. Error messages are an indicator of an organization's operational state or can identify the operating system or platform. Additionally, Personally Identifiable Information (PII) and operational information must not be revealed through error messages to unauthorized personnel or their designated representatives.
+The structure and content of error messages must be carefully considered by the organization and development team. The extent to which the information system is able to identify and handle error conditions is guided by organizational policy and operational requirements.</t>
+        </is>
+      </c>
+      <c r="H189" s="2" t="inlineStr">
+        <is>
+          <t>The  /var/log  directory contains files with logs of error
+messages in the system and should only be accessed by authorized
+personnel.</t>
+        </is>
+      </c>
+      <c r="I189" s="2" t="inlineStr">
+        <is>
+          <t>Applicable - Configurable</t>
+        </is>
+      </c>
+      <c r="J189" s="2" t="inlineStr">
+        <is>
+          <t>Verify the operating system reveals error messages only to authorized users. If it does not, this is a finding.</t>
+        </is>
+      </c>
+      <c r="K189" s="2" t="inlineStr">
+        <is>
+          <t>To check the ownership of  /var/log ,
+run the command:
+ $ ls -lL /var/log 
+If properly configured, the output should indicate the following owner:
+ root 
+If /var/log has owner root then this is a finding.</t>
+        </is>
+      </c>
+      <c r="L189" s="2" t="n"/>
+      <c r="M189" s="2" t="inlineStr"/>
+      <c r="N189" s="2" t="inlineStr">
+        <is>
+          <t>CAT II</t>
+        </is>
+      </c>
+      <c r="O189" s="2" t="n"/>
+      <c r="P189" s="2" t="n"/>
+      <c r="Q189" s="2" t="n"/>
+    </row>
+    <row r="190" ht="130" customHeight="1">
+      <c r="A190" s="2" t="inlineStr">
+        <is>
+          <t>SI-11 b</t>
+        </is>
+      </c>
+      <c r="B190" s="2" t="inlineStr">
+        <is>
+          <t>CCI-001314</t>
+        </is>
+      </c>
+      <c r="C190" s="2" t="inlineStr">
+        <is>
+          <t>SRG-OS-000206-GPOS-00084</t>
+        </is>
+      </c>
+      <c r="D190" s="2" t="inlineStr">
+        <is>
+          <t>CCE-83915-9</t>
+        </is>
+      </c>
+      <c r="E190" s="2" t="inlineStr">
+        <is>
+          <t>The operating system must reveal error messages only to authorized users.</t>
+        </is>
+      </c>
+      <c r="F190" s="2" t="inlineStr">
+        <is>
+          <t>Red Hat Enterprise Linux 9 must reveal error messages only to authorized users.</t>
+        </is>
+      </c>
+      <c r="G190" s="2" t="inlineStr">
+        <is>
+          <t>Only authorized personnel should be aware of errors and the details of the errors. Error messages are an indicator of an organization's operational state or can identify the operating system or platform. Additionally, Personally Identifiable Information (PII) and operational information must not be revealed through error messages to unauthorized personnel or their designated representatives.
+The structure and content of error messages must be carefully considered by the organization and development team. The extent to which the information system is able to identify and handle error conditions is guided by organizational policy and operational requirements.</t>
+        </is>
+      </c>
+      <c r="H190" s="2" t="inlineStr">
+        <is>
+          <t>The  /var/log/messages  file contains logs of error messages in
+the system and should only be accessed by authorized personnel.</t>
+        </is>
+      </c>
+      <c r="I190" s="2" t="inlineStr">
+        <is>
+          <t>Applicable - Configurable</t>
+        </is>
+      </c>
+      <c r="J190" s="2" t="inlineStr">
+        <is>
+          <t>Verify the operating system reveals error messages only to authorized users. If it does not, this is a finding.</t>
+        </is>
+      </c>
+      <c r="K190" s="2" t="inlineStr">
+        <is>
+          <t>To check the ownership of  /var/log/messages ,
+run the command:
+ $ ls -lL /var/log/messages 
+If properly configured, the output should indicate the following owner:
+ root 
+If /var/log/messages has owner root then this is a finding.</t>
+        </is>
+      </c>
+      <c r="L190" s="2" t="n"/>
+      <c r="M190" s="2" t="inlineStr"/>
+      <c r="N190" s="2" t="inlineStr">
+        <is>
+          <t>CAT II</t>
+        </is>
+      </c>
+      <c r="O190" s="2" t="n"/>
+      <c r="P190" s="2" t="n"/>
+      <c r="Q190" s="2" t="n"/>
+    </row>
+    <row r="191" ht="130" customHeight="1">
+      <c r="A191" s="2" t="inlineStr">
+        <is>
+          <t>SI-11 b</t>
+        </is>
+      </c>
+      <c r="B191" s="2" t="inlineStr">
+        <is>
+          <t>CCI-001314</t>
+        </is>
+      </c>
+      <c r="C191" s="2" t="inlineStr">
+        <is>
+          <t>SRG-OS-000206-GPOS-00084</t>
+        </is>
+      </c>
+      <c r="D191" s="2" t="inlineStr">
+        <is>
+          <t>CCE-83917-5</t>
+        </is>
+      </c>
+      <c r="E191" s="2" t="inlineStr">
+        <is>
+          <t>The operating system must reveal error messages only to authorized users.</t>
+        </is>
+      </c>
+      <c r="F191" s="2" t="inlineStr">
+        <is>
+          <t>Red Hat Enterprise Linux 9 must reveal error messages only to authorized users.</t>
+        </is>
+      </c>
+      <c r="G191" s="2" t="inlineStr">
+        <is>
+          <t>Only authorized personnel should be aware of errors and the details of the errors. Error messages are an indicator of an organization's operational state or can identify the operating system or platform. Additionally, Personally Identifiable Information (PII) and operational information must not be revealed through error messages to unauthorized personnel or their designated representatives.
+The structure and content of error messages must be carefully considered by the organization and development team. The extent to which the information system is able to identify and handle error conditions is guided by organizational policy and operational requirements.</t>
+        </is>
+      </c>
+      <c r="H191" s="2" t="inlineStr">
+        <is>
+          <t>The  /var/log  directory contains files with logs of error
+messages in the system and should only be accessed by authorized
+personnel.</t>
+        </is>
+      </c>
+      <c r="I191" s="2" t="inlineStr">
+        <is>
+          <t>Applicable - Configurable</t>
+        </is>
+      </c>
+      <c r="J191" s="2" t="inlineStr">
+        <is>
+          <t>Verify the operating system reveals error messages only to authorized users. If it does not, this is a finding.</t>
+        </is>
+      </c>
+      <c r="K191" s="2" t="inlineStr">
+        <is>
+          <t>To check the permissions of  /var/log ,
+run the command:
+ $ ls -l /var/log 
+If properly configured, the output should indicate the following permissions:
+ drwxr-xr-x 
+If /var/log has unix mode drwxr-xr-x then this is a finding.</t>
+        </is>
+      </c>
+      <c r="L191" s="2" t="n"/>
+      <c r="M191" s="2" t="inlineStr"/>
+      <c r="N191" s="2" t="inlineStr">
+        <is>
+          <t>CAT II</t>
+        </is>
+      </c>
+      <c r="O191" s="2" t="n"/>
+      <c r="P191" s="2" t="n"/>
+      <c r="Q191" s="2" t="n"/>
+    </row>
+    <row r="192" ht="130" customHeight="1">
+      <c r="A192" s="2" t="inlineStr">
+        <is>
+          <t>SI-11 b</t>
+        </is>
+      </c>
+      <c r="B192" s="2" t="inlineStr">
+        <is>
+          <t>CCI-001314</t>
+        </is>
+      </c>
+      <c r="C192" s="2" t="inlineStr">
+        <is>
+          <t>SRG-OS-000206-GPOS-00084</t>
+        </is>
+      </c>
+      <c r="D192" s="2" t="inlineStr">
+        <is>
+          <t>CCE-83913-4</t>
+        </is>
+      </c>
+      <c r="E192" s="2" t="inlineStr">
+        <is>
+          <t>The operating system must reveal error messages only to authorized users.</t>
+        </is>
+      </c>
+      <c r="F192" s="2" t="inlineStr">
+        <is>
+          <t>Red Hat Enterprise Linux 9 must reveal error messages only to authorized users.</t>
+        </is>
+      </c>
+      <c r="G192" s="2" t="inlineStr">
+        <is>
+          <t>Only authorized personnel should be aware of errors and the details of the errors. Error messages are an indicator of an organization's operational state or can identify the operating system or platform. Additionally, Personally Identifiable Information (PII) and operational information must not be revealed through error messages to unauthorized personnel or their designated representatives.
+The structure and content of error messages must be carefully considered by the organization and development team. The extent to which the information system is able to identify and handle error conditions is guided by organizational policy and operational requirements.</t>
+        </is>
+      </c>
+      <c r="H192" s="2" t="inlineStr">
+        <is>
+          <t>The  /var/log/messages  file contains logs of error messages in
+the system and should only be accessed by authorized personnel.</t>
+        </is>
+      </c>
+      <c r="I192" s="2" t="inlineStr">
+        <is>
+          <t>Applicable - Configurable</t>
+        </is>
+      </c>
+      <c r="J192" s="2" t="inlineStr">
+        <is>
+          <t>Verify the operating system reveals error messages only to authorized users. If it does not, this is a finding.</t>
+        </is>
+      </c>
+      <c r="K192" s="2" t="inlineStr">
+        <is>
+          <t>To check the permissions of  /var/log/messages ,
+run the command:
+ $ ls -l /var/log/messages 
+If properly configured, the output should indicate the following permissions:
+ -rw-r----- 
+If /var/log/messages has unix mode -rw-r----- then this is a finding.</t>
+        </is>
+      </c>
+      <c r="L192" s="2" t="n"/>
+      <c r="M192" s="2" t="inlineStr"/>
+      <c r="N192" s="2" t="inlineStr">
+        <is>
+          <t>CAT II</t>
+        </is>
+      </c>
+      <c r="O192" s="2" t="n"/>
+      <c r="P192" s="2" t="n"/>
+      <c r="Q192" s="2" t="n"/>
+    </row>
+    <row r="193" ht="130" customHeight="1">
+      <c r="A193" s="2" t="inlineStr">
+        <is>
+          <t>AU-3,CM-6 b</t>
+        </is>
+      </c>
+      <c r="B193" s="2" t="inlineStr">
+        <is>
+          <t>CCI-000366</t>
+        </is>
+      </c>
+      <c r="C193" s="2" t="inlineStr">
+        <is>
+          <t>SRG-OS-000255-GPOS-00096,SRG-OS-000480-GPOS-00227</t>
+        </is>
+      </c>
+      <c r="D193" s="2" t="inlineStr">
+        <is>
+          <t>CCE-83696-5</t>
+        </is>
+      </c>
+      <c r="E193" s="2" t="inlineStr">
+        <is>
+          <t>The operating system must produce audit records containing information to establish the identity of any individual or process associated with the event.</t>
+        </is>
+      </c>
+      <c r="F193" s="2" t="inlineStr">
+        <is>
+          <t>Red Hat Enterprise Linux 9 must produce audit records containing information to establish the identity of any individual or process associated with the event.</t>
+        </is>
+      </c>
+      <c r="G193" s="2" t="inlineStr">
+        <is>
+          <t>Without information that establishes the identity of the subjects (i.e., users or processes acting on behalf of users) associated with the events, security personnel cannot determine responsibility for the potentially harmful event.</t>
+        </is>
+      </c>
+      <c r="H193" s="2" t="inlineStr">
+        <is>
+          <t>If option  log_format  isn't set to  ENRICHED , the
+audit records will be stored in a format exactly as the kernel sends them.</t>
+        </is>
+      </c>
+      <c r="I193" s="2" t="inlineStr">
+        <is>
+          <t>Applicable - Configurable</t>
+        </is>
+      </c>
+      <c r="J193" s="2" t="inlineStr">
+        <is>
+          <t>Verify the operating system produces audit records containing information to establish the identity of any individual or process associated with the event. If it does not, this is a finding.</t>
+        </is>
+      </c>
+      <c r="K193" s="2" t="inlineStr">
+        <is>
+          <t>To verify that Audit Daemon is configured to resolve all uid, gid, syscall,
+architecture, and socket address information before writing the event to disk,
+run the following command:
+ $ sudo grep log_format /etc/audit/auditd.conf 
+The output should return the following:
+ log_format = ENRICHED 
+If log_format isn't set to ENRICHED then this is a finding.</t>
+        </is>
+      </c>
+      <c r="L193" s="2" t="n"/>
+      <c r="M193" s="2" t="inlineStr"/>
+      <c r="N193" s="2" t="inlineStr">
+        <is>
+          <t>CAT II</t>
+        </is>
+      </c>
+      <c r="O193" s="2" t="n"/>
+      <c r="P193" s="2" t="n"/>
+      <c r="Q193" s="2" t="n"/>
+    </row>
+    <row r="194" ht="130" customHeight="1">
+      <c r="A194" s="2" t="inlineStr">
+        <is>
+          <t>AU-4 (1)</t>
+        </is>
+      </c>
+      <c r="B194" s="2" t="inlineStr">
+        <is>
+          <t>CCI-001851</t>
+        </is>
+      </c>
+      <c r="C194" s="2" t="inlineStr">
+        <is>
+          <t>SRG-OS-000342-GPOS-00133,SRG-OS-000479-GPOS-00224</t>
+        </is>
+      </c>
+      <c r="D194" s="2" t="inlineStr"/>
+      <c r="E194" s="2" t="inlineStr">
+        <is>
+          <t>The operating system must off-load audit records onto a different system or media from the system being audited.</t>
+        </is>
+      </c>
+      <c r="F194" s="2" t="inlineStr">
+        <is>
+          <t>Red Hat Enterprise Linux 9 must off-load audit records onto a different system or media from the system being audited.</t>
+        </is>
+      </c>
+      <c r="G194" s="2" t="inlineStr">
+        <is>
+          <t>Information stored in one location is vulnerable to accidental or incidental deletion or alteration.
+Off-loading is a common process in information systems with limited audit storage capacity.</t>
+        </is>
+      </c>
+      <c r="H194" s="2" t="inlineStr">
+        <is>
+          <t>Information stored in one location is vulnerable to accidental or incidental
+deletion or alteration.Off-loading is a common process in information systems
+with limited audit storage capacity.</t>
+        </is>
+      </c>
+      <c r="I194" s="2" t="inlineStr">
+        <is>
+          <t>Applicable - Configurable</t>
+        </is>
+      </c>
+      <c r="J194" s="2" t="inlineStr">
+        <is>
+          <t>Verify the operating system off-loads audit records onto a different system or media from the system being audited. If it does not, this is a finding.</t>
+        </is>
+      </c>
+      <c r="K194" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+To verify the audispd plugin off-loads audit records onto a different system or
+media from the system being audited, run the following command:
+ $ sudo grep -i remote_server /etc/audisp/audisp-remote.conf 
+The output should return something similar to
+ remote_server =    
+If audispd is not sending logs to a remote system then this is a finding.</t>
+        </is>
+      </c>
+      <c r="L194" s="2" t="n"/>
+      <c r="M194" s="2" t="inlineStr"/>
+      <c r="N194" s="2" t="inlineStr">
+        <is>
+          <t>CAT II</t>
+        </is>
+      </c>
+      <c r="O194" s="2" t="n"/>
+      <c r="P194" s="2" t="n"/>
+      <c r="Q194" s="2" t="n"/>
+    </row>
+    <row r="195" ht="130" customHeight="1">
+      <c r="A195" s="2" t="inlineStr">
+        <is>
+          <t>AU-4 (1)</t>
+        </is>
+      </c>
+      <c r="B195" s="2" t="inlineStr">
+        <is>
+          <t>CCI-001851</t>
+        </is>
+      </c>
+      <c r="C195" s="2" t="inlineStr">
+        <is>
+          <t>SRG-OS-000342-GPOS-00133,SRG-OS-000479-GPOS-00224</t>
+        </is>
+      </c>
+      <c r="D195" s="2" t="inlineStr"/>
+      <c r="E195" s="2" t="inlineStr">
+        <is>
+          <t>The operating system must off-load audit records onto a different system or media from the system being audited.</t>
+        </is>
+      </c>
+      <c r="F195" s="2" t="inlineStr">
+        <is>
+          <t>Red Hat Enterprise Linux 9 must off-load audit records onto a different system or media from the system being audited.</t>
+        </is>
+      </c>
+      <c r="G195" s="2" t="inlineStr">
+        <is>
+          <t>Information stored in one location is vulnerable to accidental or incidental deletion or alteration.
+Off-loading is a common process in information systems with limited audit storage capacity.</t>
+        </is>
+      </c>
+      <c r="H195" s="2" t="inlineStr">
+        <is>
+          <t>Taking appropriate action in case of a filled audit storage volume will
+minimize the possibility of losing audit records.</t>
+        </is>
+      </c>
+      <c r="I195" s="2" t="inlineStr">
+        <is>
+          <t>Applicable - Configurable</t>
+        </is>
+      </c>
+      <c r="J195" s="2" t="inlineStr">
+        <is>
+          <t>Verify the operating system off-loads audit records onto a different system or media from the system being audited. If it does not, this is a finding.</t>
+        </is>
+      </c>
+      <c r="K195" s="2" t="inlineStr">
+        <is>
+          <t>Inspect  /etc/audisp/audisp-remote.conf  and locate the following line to
+determine if the system is configured to either send to syslog, switch to single user mode,
+or halt when the disk is full:
+ grep -i disk_full_action /etc/audisp/audisp-remote.conf 
+The output should return something similar to:
+ disk_full_action = single 
+Acceptable values also include  syslog  and
+ halt .
+If the system is not configured to switch to single user mode for corrective action then this is a finding.</t>
+        </is>
+      </c>
+      <c r="L195" s="2" t="n"/>
+      <c r="M195" s="2" t="inlineStr"/>
+      <c r="N195" s="2" t="inlineStr">
+        <is>
+          <t>CAT II</t>
+        </is>
+      </c>
+      <c r="O195" s="2" t="n"/>
+      <c r="P195" s="2" t="n"/>
+      <c r="Q195" s="2" t="n"/>
+    </row>
+    <row r="196" ht="130" customHeight="1">
+      <c r="A196" s="2" t="inlineStr">
+        <is>
+          <t>AU-4 (1)</t>
+        </is>
+      </c>
+      <c r="B196" s="2" t="inlineStr">
+        <is>
+          <t>CCI-001851</t>
+        </is>
+      </c>
+      <c r="C196" s="2" t="inlineStr">
+        <is>
+          <t>SRG-OS-000342-GPOS-00133,SRG-OS-000479-GPOS-00224</t>
+        </is>
+      </c>
+      <c r="D196" s="2" t="inlineStr"/>
+      <c r="E196" s="2" t="inlineStr">
+        <is>
+          <t>The operating system must off-load audit records onto a different system or media from the system being audited.</t>
+        </is>
+      </c>
+      <c r="F196" s="2" t="inlineStr">
+        <is>
+          <t>Red Hat Enterprise Linux 9 must off-load audit records onto a different system or media from the system being audited.</t>
+        </is>
+      </c>
+      <c r="G196" s="2" t="inlineStr">
+        <is>
+          <t>Information stored in one location is vulnerable to accidental or incidental deletion or alteration.
+Off-loading is a common process in information systems with limited audit storage capacity.</t>
+        </is>
+      </c>
+      <c r="H196" s="2" t="inlineStr">
+        <is>
+          <t>Information stored in one location is vulnerable to accidental or incidental deletion
+or alteration. Off-loading is a common process in information systems with limited
+audit storage capacity.</t>
+        </is>
+      </c>
+      <c r="I196" s="2" t="inlineStr">
+        <is>
+          <t>Applicable - Configurable</t>
+        </is>
+      </c>
+      <c r="J196" s="2" t="inlineStr">
+        <is>
+          <t>Verify the operating system off-loads audit records onto a different system or media from the system being audited. If it does not, this is a finding.</t>
+        </is>
+      </c>
+      <c r="K196" s="2" t="inlineStr">
+        <is>
+          <t>To verify the audispd plugin encrypts audit records off-loaded onto a different
+system or media from the system being audited, run the following command:
+ $ sudo grep -i enable_krb5 /etc/audisp/audisp-remote.conf 
+The output should return the following:
+ enable_krb5 = yes 
+If audispd is not encrypting audit records when sent over the network then this is a finding.</t>
+        </is>
+      </c>
+      <c r="L196" s="2" t="n"/>
+      <c r="M196" s="2" t="inlineStr"/>
+      <c r="N196" s="2" t="inlineStr">
+        <is>
+          <t>CAT II</t>
+        </is>
+      </c>
+      <c r="O196" s="2" t="n"/>
+      <c r="P196" s="2" t="n"/>
+      <c r="Q196" s="2" t="n"/>
+    </row>
+    <row r="197" ht="130" customHeight="1">
+      <c r="A197" s="2" t="inlineStr">
+        <is>
+          <t>AU-4 (1)</t>
+        </is>
+      </c>
+      <c r="B197" s="2" t="inlineStr">
+        <is>
+          <t>CCI-001851</t>
+        </is>
+      </c>
+      <c r="C197" s="2" t="inlineStr">
+        <is>
+          <t>SRG-OS-000342-GPOS-00133,SRG-OS-000479-GPOS-00224</t>
+        </is>
+      </c>
+      <c r="D197" s="2" t="inlineStr"/>
+      <c r="E197" s="2" t="inlineStr">
+        <is>
+          <t>The operating system must off-load audit records onto a different system or media from the system being audited.</t>
+        </is>
+      </c>
+      <c r="F197" s="2" t="inlineStr">
+        <is>
+          <t>Red Hat Enterprise Linux 9 must off-load audit records onto a different system or media from the system being audited.</t>
+        </is>
+      </c>
+      <c r="G197" s="2" t="inlineStr">
+        <is>
+          <t>Information stored in one location is vulnerable to accidental or incidental deletion or alteration.
+Off-loading is a common process in information systems with limited audit storage capacity.</t>
+        </is>
+      </c>
+      <c r="H197" s="2" t="inlineStr">
+        <is>
+          <t>Taking appropriate action when there is an error sending audit records to a
+remote system will minimize the possibility of losing audit records.</t>
+        </is>
+      </c>
+      <c r="I197" s="2" t="inlineStr">
+        <is>
+          <t>Applicable - Configurable</t>
+        </is>
+      </c>
+      <c r="J197" s="2" t="inlineStr">
+        <is>
+          <t>Verify the operating system off-loads audit records onto a different system or media from the system being audited. If it does not, this is a finding.</t>
+        </is>
+      </c>
+      <c r="K197" s="2" t="inlineStr">
+        <is>
+          <t>Inspect  /etc/audisp/audisp-remote.conf  and locate the following line to
+determine if the system is configured to perform a correct action according to the policy:
+ grep -i network_failure_action /etc/audisp/audisp-remote.conf 
+The output should return:
+ network_failure_action =  
+If the system is not configured to switch to single user mode for corrective action then this is a finding.</t>
+        </is>
+      </c>
+      <c r="L197" s="2" t="n"/>
+      <c r="M197" s="2" t="inlineStr"/>
+      <c r="N197" s="2" t="inlineStr">
+        <is>
+          <t>CAT II</t>
+        </is>
+      </c>
+      <c r="O197" s="2" t="n"/>
+      <c r="P197" s="2" t="n"/>
+      <c r="Q197" s="2" t="n"/>
+    </row>
+    <row r="198" ht="130" customHeight="1">
+      <c r="A198" s="2" t="inlineStr">
+        <is>
+          <t>AU-4 (1)</t>
+        </is>
+      </c>
+      <c r="B198" s="2" t="inlineStr">
+        <is>
+          <t>CCI-000136</t>
+        </is>
+      </c>
+      <c r="C198" s="2" t="inlineStr">
+        <is>
+          <t>SRG-OS-000479-GPOS-00224,SRG-OS-000342-GPOS-00133</t>
+        </is>
+      </c>
+      <c r="D198" s="2" t="inlineStr">
+        <is>
+          <t>CCE-83695-7</t>
+        </is>
+      </c>
+      <c r="E198" s="2" t="inlineStr">
+        <is>
+          <t>The operating system must off-load audit records onto a different system or media from the system being audited.</t>
+        </is>
+      </c>
+      <c r="F198" s="2" t="inlineStr">
+        <is>
+          <t>Red Hat Enterprise Linux 9 must off-load audit records onto a different system or media from the system being audited.</t>
+        </is>
+      </c>
+      <c r="G198" s="2" t="inlineStr">
+        <is>
+          <t>Information stored in one location is vulnerable to accidental or incidental deletion or alteration.
+Off-loading is a common process in information systems with limited audit storage capacity.</t>
+        </is>
+      </c>
+      <c r="H198" s="2" t="inlineStr">
+        <is>
+          <t>The auditd service does not include the ability to send audit
+records to a centralized server for management directly. It does, however,
+include a plug-in for audit event multiplexor (audispd) to pass audit records
+to the local syslog server</t>
+        </is>
+      </c>
+      <c r="I198" s="2" t="inlineStr">
+        <is>
+          <t>Applicable - Configurable</t>
+        </is>
+      </c>
+      <c r="J198" s="2" t="inlineStr">
+        <is>
+          <t>Verify the operating system off-loads audit records onto a different system or media from the system being audited. If it does not, this is a finding.</t>
+        </is>
+      </c>
+      <c r="K198" s="2" t="inlineStr">
+        <is>
+          <t>To verify the audispd's syslog plugin is active, run the following command:
+ $ sudo grep active /etc/audit/plugins.d/syslog.conf 
+If the plugin is active, the output will show  yes .
+If it is not activated then this is a finding.</t>
+        </is>
+      </c>
+      <c r="L198" s="2" t="n"/>
+      <c r="M198" s="2" t="inlineStr"/>
+      <c r="N198" s="2" t="inlineStr">
+        <is>
+          <t>CAT II</t>
+        </is>
+      </c>
+      <c r="O198" s="2" t="n"/>
+      <c r="P198" s="2" t="n"/>
+      <c r="Q198" s="2" t="n"/>
+    </row>
+    <row r="199" ht="130" customHeight="1">
+      <c r="A199" s="2" t="inlineStr">
+        <is>
+          <t>AU-3,AU-4 (1)</t>
+        </is>
+      </c>
+      <c r="B199" s="2" t="inlineStr">
+        <is>
+          <t>CCI-001851</t>
+        </is>
+      </c>
+      <c r="C199" s="2" t="inlineStr">
+        <is>
+          <t>SRG-OS-000039-GPOS-00017,SRG-OS-000342-GPOS-00133,SRG-OS-000479-GPOS-00224</t>
+        </is>
+      </c>
+      <c r="D199" s="2" t="inlineStr">
+        <is>
+          <t>CCE-83686-6</t>
+        </is>
+      </c>
+      <c r="E199" s="2" t="inlineStr">
+        <is>
+          <t>The operating system must off-load audit records onto a different system or media from the system being audited.</t>
+        </is>
+      </c>
+      <c r="F199" s="2" t="inlineStr">
+        <is>
+          <t>Red Hat Enterprise Linux 9 must off-load audit records onto a different system or media from the system being audited.</t>
+        </is>
+      </c>
+      <c r="G199" s="2" t="inlineStr">
+        <is>
+          <t>Information stored in one location is vulnerable to accidental or incidental deletion or alteration.
+Off-loading is a common process in information systems with limited audit storage capacity.</t>
+        </is>
+      </c>
+      <c r="H199" s="2" t="inlineStr">
+        <is>
+          <t>If option  name_format  is left at its default value of
+ none , audit events from different computers may be hard
+to distinguish.</t>
+        </is>
+      </c>
+      <c r="I199" s="2" t="inlineStr">
+        <is>
+          <t>Applicable - Configurable</t>
+        </is>
+      </c>
+      <c r="J199" s="2" t="inlineStr">
+        <is>
+          <t>Verify the operating system off-loads audit records onto a different system or media from the system being audited. If it does not, this is a finding.</t>
+        </is>
+      </c>
+      <c r="K199" s="2" t="inlineStr">
+        <is>
+          <t>To verify that Audit Daemon is configured to record the hostname
+in audit events, run the following command:
+ $ sudo grep name_format /etc/audit/auditd.conf 
+The output should return the following:
+ name_format = hostname 
+If name_format isn't set to hostname then this is a finding.</t>
+        </is>
+      </c>
+      <c r="L199" s="2" t="n"/>
+      <c r="M199" s="2" t="inlineStr">
+        <is>
+          <t>Edit the file "/etc/audit/auditd.conf" and add or edit the following line:
+name_format=hostname</t>
+        </is>
+      </c>
+      <c r="N199" s="2" t="inlineStr">
+        <is>
+          <t>CAT II</t>
+        </is>
+      </c>
+      <c r="O199" s="2" t="n"/>
+      <c r="P199" s="2" t="n"/>
+      <c r="Q199" s="2" t="n"/>
+    </row>
+    <row r="200" ht="130" customHeight="1">
+      <c r="A200" s="2" t="inlineStr">
+        <is>
+          <t>AU-4 (1)</t>
+        </is>
+      </c>
+      <c r="B200" s="2" t="inlineStr">
+        <is>
+          <t>CCI-001851</t>
+        </is>
+      </c>
+      <c r="C200" s="2" t="inlineStr">
+        <is>
+          <t>SRG-OS-000342-GPOS-00133,SRG-OS-000479-GPOS-00224</t>
+        </is>
+      </c>
+      <c r="D200" s="2" t="inlineStr">
+        <is>
+          <t>CCE-87901-5</t>
+        </is>
+      </c>
+      <c r="E200" s="2" t="inlineStr">
+        <is>
+          <t>The operating system must off-load audit records onto a different system or media from the system being audited.</t>
+        </is>
+      </c>
+      <c r="F200" s="2" t="inlineStr">
+        <is>
+          <t>Red Hat Enterprise Linux 9 must off-load audit records onto a different system or media from the system being audited.</t>
+        </is>
+      </c>
+      <c r="G200" s="2" t="inlineStr">
+        <is>
+          <t>Information stored in one location is vulnerable to accidental or incidental deletion or alteration.
+Off-loading is a common process in information systems with limited audit storage capacity.</t>
+        </is>
+      </c>
+      <c r="H200" s="2" t="inlineStr">
+        <is>
+          <t>The audit system should have an action setup in the event the internal event queue becomes full
+so that no data is lost.</t>
+        </is>
+      </c>
+      <c r="I200" s="2" t="inlineStr">
+        <is>
+          <t>Applicable - Configurable</t>
+        </is>
+      </c>
+      <c r="J200" s="2" t="inlineStr">
+        <is>
+          <t>Verify the operating system off-loads audit records onto a different system or media from the system being audited. If it does not, this is a finding.</t>
+        </is>
+      </c>
+      <c r="K200" s="2" t="inlineStr">
+        <is>
+          <t>Verify the audit system is configured to take an appropriate action when the internal event queue is full:
+ $ sudo grep -i overflow_action /etc/audit/auditd.conf 
+The output should contain be like  overflow_action = syslog 
+If the value of the "overflow_action" option is not set to  syslog , 
+ single ,  halt  or the line is commented out, ask the System Administrator
+to indicate how the audit logs are off-loaded to a different system or media. 
+If auditd overflow action is not setup correctly then this is a finding.</t>
+        </is>
+      </c>
+      <c r="L200" s="2" t="n"/>
+      <c r="M200" s="2" t="inlineStr"/>
+      <c r="N200" s="2" t="inlineStr">
+        <is>
+          <t>CAT II</t>
+        </is>
+      </c>
+      <c r="O200" s="2" t="n"/>
+      <c r="P200" s="2" t="n"/>
+      <c r="Q200" s="2" t="n"/>
+    </row>
+    <row r="201" ht="130" customHeight="1">
+      <c r="A201" s="2" t="inlineStr">
+        <is>
+          <t>AU-4 (1)</t>
+        </is>
+      </c>
+      <c r="B201" s="2" t="inlineStr">
+        <is>
+          <t>CCI-001851</t>
+        </is>
+      </c>
+      <c r="C201" s="2" t="inlineStr">
+        <is>
+          <t>SRG-OS-000342-GPOS-00133</t>
+        </is>
+      </c>
+      <c r="D201" s="2" t="inlineStr">
+        <is>
+          <t>CCE-83648-6</t>
+        </is>
+      </c>
+      <c r="E201" s="2" t="inlineStr">
+        <is>
+          <t>The operating system must off-load audit records onto a different system or media from the system being audited.</t>
+        </is>
+      </c>
+      <c r="F201" s="2" t="inlineStr">
+        <is>
+          <t>Red Hat Enterprise Linux 9 must off-load audit records onto a different system or media from the system being audited.</t>
+        </is>
+      </c>
+      <c r="G201" s="2" t="inlineStr">
+        <is>
+          <t>Information stored in one location is vulnerable to accidental or incidental deletion or alteration.
+Off-loading is a common process in information systems with limited audit storage capacity.</t>
+        </is>
+      </c>
+      <c r="H201" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> audispd-plugins  provides plugins for the real-time interface to the
+audit subsystem,  audispd . These plugins can do things like relay events
+to remote machines or analyze events for suspicious behavior.</t>
+        </is>
+      </c>
+      <c r="I201" s="2" t="inlineStr">
+        <is>
+          <t>Applicable - Configurable</t>
+        </is>
+      </c>
+      <c r="J201" s="2" t="inlineStr">
+        <is>
+          <t>Verify the operating system off-loads audit records onto a different system or media from the system being audited. If it does not, this is a finding.</t>
+        </is>
+      </c>
+      <c r="K201" s="2" t="inlineStr">
+        <is>
+          <t>Run the following command to determine if the  audispd-plugins  package is installed:  $ rpm -q audispd-plugins 
+If the package is not installed then this is a finding.</t>
+        </is>
+      </c>
+      <c r="L201" s="2" t="n"/>
+      <c r="M201" s="2" t="inlineStr"/>
+      <c r="N201" s="2" t="inlineStr">
+        <is>
+          <t>CAT II</t>
+        </is>
+      </c>
+      <c r="O201" s="2" t="n"/>
+      <c r="P201" s="2" t="n"/>
+      <c r="Q201" s="2" t="n"/>
+    </row>
+    <row r="202" ht="130" customHeight="1">
+      <c r="A202" s="2" t="inlineStr">
+        <is>
+          <t>AU-4 (1)</t>
+        </is>
+      </c>
+      <c r="B202" s="2" t="inlineStr">
+        <is>
+          <t>CCI-001851</t>
+        </is>
+      </c>
+      <c r="C202" s="2" t="inlineStr">
+        <is>
+          <t>SRG-OS-000342-GPOS-00133</t>
+        </is>
+      </c>
+      <c r="D202" s="2" t="inlineStr"/>
+      <c r="E202" s="2" t="inlineStr">
+        <is>
+          <t>The operating system must off-load audit records onto a different system or media from the system being audited.</t>
+        </is>
+      </c>
+      <c r="F202" s="2" t="inlineStr">
+        <is>
+          <t>Red Hat Enterprise Linux 9 must off-load audit records onto a different system or media from the system being audited.</t>
+        </is>
+      </c>
+      <c r="G202" s="2" t="inlineStr">
+        <is>
+          <t>Information stored in one location is vulnerable to accidental or incidental deletion or alteration.
+Off-loading is a common process in information systems with limited audit storage capacity.</t>
+        </is>
+      </c>
+      <c r="H202" s="2" t="inlineStr">
+        <is>
+          <t>Information stored in one location is vulnerable to accidental or incidental deletion or alteration. Off-loading is a common process in information systems with limited audit storage capacity.</t>
+        </is>
+      </c>
+      <c r="I202" s="2" t="inlineStr">
+        <is>
+          <t>Applicable - Configurable</t>
+        </is>
+      </c>
+      <c r="J202" s="2" t="inlineStr">
+        <is>
+          <t>Verify the operating system off-loads audit records onto a different system or media from the system being audited. If it does not, this is a finding.</t>
+        </is>
+      </c>
+      <c r="K202" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+If the package is not installed then this is a finding.</t>
+        </is>
+      </c>
+      <c r="L202" s="2" t="n"/>
+      <c r="M202" s="2" t="inlineStr"/>
+      <c r="N202" s="2" t="inlineStr">
+        <is>
+          <t>CAT II</t>
+        </is>
+      </c>
+      <c r="O202" s="2" t="n"/>
+      <c r="P202" s="2" t="n"/>
+      <c r="Q202" s="2" t="n"/>
+    </row>
+    <row r="203" ht="130" customHeight="1">
+      <c r="A203" s="2" t="inlineStr">
+        <is>
+          <t>AU-4 (1)</t>
+        </is>
+      </c>
+      <c r="B203" s="2" t="inlineStr">
+        <is>
+          <t>CCI-001851</t>
+        </is>
+      </c>
+      <c r="C203" s="2" t="inlineStr">
+        <is>
+          <t>SRG-OS-000342-GPOS-00133,SRG-OS-000479-GPOS-00224</t>
+        </is>
+      </c>
+      <c r="D203" s="2" t="inlineStr">
+        <is>
+          <t>CCE-86871-1</t>
+        </is>
+      </c>
+      <c r="E203" s="2" t="inlineStr">
+        <is>
+          <t>The operating system must off-load audit records onto a different system or media from the system being audited.</t>
+        </is>
+      </c>
+      <c r="F203" s="2" t="inlineStr">
+        <is>
+          <t>Red Hat Enterprise Linux 9 must off-load audit records onto a different system or media from the system being audited.</t>
+        </is>
+      </c>
+      <c r="G203" s="2" t="inlineStr">
+        <is>
+          <t>Information stored in one location is vulnerable to accidental or incidental deletion or alteration.
+Off-loading is a common process in information systems with limited audit storage capacity.</t>
+        </is>
+      </c>
+      <c r="H203" s="2" t="inlineStr">
+        <is>
+          <t>The audit records generated by Rsyslog contain valuable information regarding system
+configuration, user authentication, and other such information. Audit records should be
+protected from unauthorized access.</t>
+        </is>
+      </c>
+      <c r="I203" s="2" t="inlineStr">
+        <is>
+          <t>Applicable - Configurable</t>
+        </is>
+      </c>
+      <c r="J203" s="2" t="inlineStr">
+        <is>
+          <t>Verify the operating system off-loads audit records onto a different system or media from the system being audited. If it does not, this is a finding.</t>
+        </is>
+      </c>
+      <c r="K203" s="2" t="inlineStr">
+        <is>
+          <t>Verify the operating system authenticates the remote logging server for off-loading audit logs with the following command:
+ $ sudo grep -i '$ActionSendStreamDriverAuthMode' /etc/rsyslog.conf /etc/rsyslog.d/*.conf 
+The output should be
+ $/etc/rsyslog.conf:$ActionSendStreamDriverAuthMode x509/name 
+If $ActionSendStreamDriverAuthMode in /etc/rsyslog.conf is not set to x509/name then this is a finding.</t>
+        </is>
+      </c>
+      <c r="L203" s="2" t="n"/>
+      <c r="M203" s="2" t="inlineStr"/>
+      <c r="N203" s="2" t="inlineStr">
+        <is>
+          <t>CAT II</t>
+        </is>
+      </c>
+      <c r="O203" s="2" t="n"/>
+      <c r="P203" s="2" t="n"/>
+      <c r="Q203" s="2" t="n"/>
+    </row>
+    <row r="204" ht="130" customHeight="1">
+      <c r="A204" s="2" t="inlineStr">
+        <is>
+          <t>AU-4 (1)</t>
+        </is>
+      </c>
+      <c r="B204" s="2" t="inlineStr">
+        <is>
+          <t>CCI-001851</t>
+        </is>
+      </c>
+      <c r="C204" s="2" t="inlineStr">
+        <is>
+          <t>SRG-OS-000342-GPOS-00133,SRG-OS-000479-GPOS-00224</t>
+        </is>
+      </c>
+      <c r="D204" s="2" t="inlineStr">
+        <is>
+          <t>CCE-90191-8</t>
+        </is>
+      </c>
+      <c r="E204" s="2" t="inlineStr">
+        <is>
+          <t>The operating system must off-load audit records onto a different system or media from the system being audited.</t>
+        </is>
+      </c>
+      <c r="F204" s="2" t="inlineStr">
+        <is>
+          <t>Red Hat Enterprise Linux 9 must off-load audit records onto a different system or media from the system being audited.</t>
+        </is>
+      </c>
+      <c r="G204" s="2" t="inlineStr">
+        <is>
+          <t>Information stored in one location is vulnerable to accidental or incidental deletion or alteration.
+Off-loading is a common process in information systems with limited audit storage capacity.</t>
+        </is>
+      </c>
+      <c r="H204" s="2" t="inlineStr">
+        <is>
+          <t>The audit records generated by Rsyslog contain valuable information regarding system
+configuration, user authentication, and other such information. Audit records should be
+protected from unauthorized access.</t>
+        </is>
+      </c>
+      <c r="I204" s="2" t="inlineStr">
+        <is>
+          <t>Applicable - Configurable</t>
+        </is>
+      </c>
+      <c r="J204" s="2" t="inlineStr">
+        <is>
+          <t>Verify the operating system off-loads audit records onto a different system or media from the system being audited. If it does not, this is a finding.</t>
+        </is>
+      </c>
+      <c r="K204" s="2" t="inlineStr">
+        <is>
+          <t>Verify the operating system encrypts audit records off-loaded onto a different system
+or media from the system being audited with the following commands:
+ $ sudo grep -i '$ActionSendStreamDriverMode' /etc/rsyslog.conf /etc/rsyslog.d/*.conf 
+The output should be
+ /etc/rsyslog.conf:$ActionSendStreamDriverMode 1 
+If rsyslogd ActionSendStreamDriverMode not set to 1 then this is a finding.</t>
+        </is>
+      </c>
+      <c r="L204" s="2" t="n"/>
+      <c r="M204" s="2" t="inlineStr"/>
+      <c r="N204" s="2" t="inlineStr">
+        <is>
+          <t>CAT II</t>
+        </is>
+      </c>
+      <c r="O204" s="2" t="n"/>
+      <c r="P204" s="2" t="n"/>
+      <c r="Q204" s="2" t="n"/>
+    </row>
+    <row r="205" ht="130" customHeight="1">
+      <c r="A205" s="2" t="inlineStr">
+        <is>
+          <t>AU-4 (1)</t>
+        </is>
+      </c>
+      <c r="B205" s="2" t="inlineStr">
+        <is>
+          <t>CCI-001851</t>
+        </is>
+      </c>
+      <c r="C205" s="2" t="inlineStr">
+        <is>
+          <t>SRG-OS-000342-GPOS-00133,SRG-OS-000479-GPOS-00224</t>
+        </is>
+      </c>
+      <c r="D205" s="2" t="inlineStr">
+        <is>
+          <t>CCE-86782-0</t>
+        </is>
+      </c>
+      <c r="E205" s="2" t="inlineStr">
+        <is>
+          <t>The operating system must off-load audit records onto a different system or media from the system being audited.</t>
+        </is>
+      </c>
+      <c r="F205" s="2" t="inlineStr">
+        <is>
+          <t>Red Hat Enterprise Linux 9 must off-load audit records onto a different system or media from the system being audited.</t>
+        </is>
+      </c>
+      <c r="G205" s="2" t="inlineStr">
+        <is>
+          <t>Information stored in one location is vulnerable to accidental or incidental deletion or alteration.
+Off-loading is a common process in information systems with limited audit storage capacity.</t>
+        </is>
+      </c>
+      <c r="H205" s="2" t="inlineStr">
+        <is>
+          <t>The audit records generated by Rsyslog contain valuable information regarding system
+configuration, user authentication, and other such information. Audit records should be
+protected from unauthorized access.</t>
+        </is>
+      </c>
+      <c r="I205" s="2" t="inlineStr">
+        <is>
+          <t>Applicable - Configurable</t>
+        </is>
+      </c>
+      <c r="J205" s="2" t="inlineStr">
+        <is>
+          <t>Verify the operating system off-loads audit records onto a different system or media from the system being audited. If it does not, this is a finding.</t>
+        </is>
+      </c>
+      <c r="K205" s="2" t="inlineStr">
+        <is>
+          <t>Verify the operating system encrypts audit records off-loaded onto a different system
+or media from the system being audited with the following commands:
+ $ sudo grep -i '$DefaultNetstreamDriver' /etc/rsyslog.conf /etc/rsyslog.d/*.conf 
+The output should be
+ /etc/rsyslog.conf:$DefaultNetstreamDriver gtls 
+If rsyslogd DefaultNetstreamDriver not set to gtls then this is a finding.</t>
+        </is>
+      </c>
+      <c r="L205" s="2" t="n"/>
+      <c r="M205" s="2" t="inlineStr"/>
+      <c r="N205" s="2" t="inlineStr">
+        <is>
+          <t>CAT II</t>
+        </is>
+      </c>
+      <c r="O205" s="2" t="n"/>
+      <c r="P205" s="2" t="n"/>
+      <c r="Q205" s="2" t="n"/>
+    </row>
+    <row r="206" ht="130" customHeight="1">
+      <c r="A206" s="2" t="inlineStr">
+        <is>
+          <t>CM-6 b,AU-4 (1)</t>
+        </is>
+      </c>
+      <c r="B206" s="2" t="inlineStr">
+        <is>
+          <t>CCI-000366,CCI-001348,CCI-000136,CCI-001851</t>
+        </is>
+      </c>
+      <c r="C206" s="2" t="inlineStr">
+        <is>
+          <t>SRG-OS-000479-GPOS-00224,SRG-OS-000480-GPOS-00227,SRG-OS-000342-GPOS-00133</t>
+        </is>
+      </c>
+      <c r="D206" s="2" t="inlineStr">
+        <is>
+          <t>CCE-83990-2</t>
+        </is>
+      </c>
+      <c r="E206" s="2" t="inlineStr">
+        <is>
+          <t>The operating system must off-load audit records onto a different system or media from the system being audited.</t>
+        </is>
+      </c>
+      <c r="F206" s="2" t="inlineStr">
+        <is>
+          <t>Red Hat Enterprise Linux 9 must off-load audit records onto a different system or media from the system being audited.</t>
+        </is>
+      </c>
+      <c r="G206" s="2" t="inlineStr">
+        <is>
+          <t>Information stored in one location is vulnerable to accidental or incidental deletion or alteration.
+Off-loading is a common process in information systems with limited audit storage capacity.</t>
+        </is>
+      </c>
+      <c r="H206" s="2" t="inlineStr">
+        <is>
+          <t>A log server (loghost) receives syslog messages from one or more
+systems. This data can be used as an additional log source in the event a
+system is compromised and its local logs are suspect. Forwarding log messages
+to a remote loghost also provides system administrators with a centralized
+place to view the status of multiple hosts within the enterprise.</t>
+        </is>
+      </c>
+      <c r="I206" s="2" t="inlineStr">
+        <is>
+          <t>Applicable - Configurable</t>
+        </is>
+      </c>
+      <c r="J206" s="2" t="inlineStr">
+        <is>
+          <t>Verify the operating system off-loads audit records onto a different system or media from the system being audited. If it does not, this is a finding.</t>
+        </is>
+      </c>
+      <c r="K206" s="2" t="inlineStr">
+        <is>
+          <t>To ensure logs are sent to a remote host, examine the file
+ /etc/rsyslog.conf .
+If using UDP, a line similar to the following should be present:
+  *.* @   
+If using TCP, a line similar to the following should be present:
+  *.* @@   
+If using RELP, a line similar to the following should be present:
+  *.* :omrelp:   
+If none of these are present then this is a finding.</t>
+        </is>
+      </c>
+      <c r="L206" s="2" t="n"/>
+      <c r="M206" s="2" t="inlineStr"/>
+      <c r="N206" s="2" t="inlineStr">
+        <is>
+          <t>CAT II</t>
+        </is>
+      </c>
+      <c r="O206" s="2" t="n"/>
+      <c r="P206" s="2" t="n"/>
+      <c r="Q206" s="2" t="n"/>
+    </row>
+    <row r="207" ht="130" customHeight="1">
+      <c r="A207" s="2" t="inlineStr">
+        <is>
+          <t>SC-28,SC-28 (1)</t>
+        </is>
+      </c>
+      <c r="B207" s="2" t="inlineStr">
+        <is>
+          <t>CCI-001199,CCI-002475,CCI-002476</t>
+        </is>
+      </c>
+      <c r="C207" s="2" t="inlineStr">
+        <is>
+          <t>SRG-OS-000405-GPOS-00184,SRG-OS-000185-GPOS-00079,SRG-OS-000404-GPOS-00183</t>
+        </is>
+      </c>
+      <c r="D207" s="2" t="inlineStr">
+        <is>
+          <t>CCE-90849-1</t>
+        </is>
+      </c>
+      <c r="E207" s="2" t="inlineStr">
+        <is>
+          <t>The operating system must implement cryptographic mechanisms to prevent unauthorized modification of all information at rest on all operating system components.</t>
+        </is>
+      </c>
+      <c r="F207" s="2" t="inlineStr">
+        <is>
+          <t>Red Hat Enterprise Linux 9 must implement cryptographic mechanisms to prevent unauthorized modification of all information at rest on all operating system components.</t>
+        </is>
+      </c>
+      <c r="G207" s="2" t="inlineStr">
+        <is>
+          <t>Operating systems handling data requiring "data at rest" protections must employ cryptographic mechanisms to prevent unauthorized disclosure and modification of the information at rest.
+Selection of a cryptographic mechanism is based on the need to protect the integrity of organizational information. The strength of the mechanism is commensurate with the security category and/or classification of the information. Organizations have the flexibility to either encrypt all information on storage devices (i.e., full disk encryption) or encrypt specific data structures (e.g., files, records, or fields).</t>
+        </is>
+      </c>
+      <c r="H207" s="2" t="inlineStr">
+        <is>
+          <t>The risk of a system's physical compromise, particularly mobile systems such as
+laptops, places its data at risk of compromise.  Encrypting this data mitigates
+the risk of its loss if the system is lost.</t>
+        </is>
+      </c>
+      <c r="I207" s="2" t="inlineStr">
+        <is>
+          <t>Applicable - Configurable</t>
+        </is>
+      </c>
+      <c r="J207" s="2" t="inlineStr">
+        <is>
+          <t>Verify the operating system implements cryptographic mechanisms to prevent unauthorized modification of all information at rest on all operating system components. If it does not, this is a finding.</t>
+        </is>
+      </c>
+      <c r="K207" s="2" t="inlineStr">
+        <is>
+          <t>Check the system partitions to determine if they are encrypted with the following command:
+ blkid 
+Output will be similar to:
+ /dev/sda1: UUID=" ab12c3de-4f56-789a-8f33-3850cc8ce3a2
+" TYPE="crypto_LUKS"
+/dev/sda2: UUID=" bc98d7ef-6g54-321h-1d24-9870de2ge1a2
+" TYPE="crypto_LUKS" 
+The boot partition and pseudo-file systems, such as /proc, /sys, and tmpfs,
+are not required to use disk encryption and are not a finding.
+If partitions do not have a type of crypto_LUKS then this is a finding.</t>
+        </is>
+      </c>
+      <c r="L207" s="2" t="n"/>
+      <c r="M207" s="2" t="inlineStr">
+        <is>
+          <t>Configure Red Hat Enterprise Linux 9 to prevent unauthorized modification of all information at rest by using disk encryption.
+Encrypting a partition in an already installed system is more difficult, because existing partitions will need to be resized and changed.
+To encrypt an entire partition, dedicate a partition for encryption in the partition layout.</t>
+        </is>
+      </c>
+      <c r="N207" s="2" t="inlineStr">
+        <is>
+          <t>CAT II</t>
+        </is>
+      </c>
+      <c r="O207" s="2" t="n"/>
+      <c r="P207" s="2" t="n"/>
+      <c r="Q207" s="2" t="n"/>
+    </row>
+    <row r="208" ht="130" customHeight="1">
+      <c r="A208" s="2" t="inlineStr">
+        <is>
+          <t>AC-10</t>
+        </is>
+      </c>
+      <c r="B208" s="2" t="inlineStr">
+        <is>
+          <t>CCI-000054</t>
+        </is>
+      </c>
+      <c r="C208" s="2" t="inlineStr">
+        <is>
+          <t>SRG-OS-000027-GPOS-00008</t>
+        </is>
+      </c>
+      <c r="D208" s="2" t="inlineStr">
+        <is>
+          <t>CCE-83641-1</t>
+        </is>
+      </c>
+      <c r="E208" s="2" t="inlineStr">
+        <is>
+          <t>The operating system must limit the number of concurrent sessions to ten for all accounts and/or account types.</t>
+        </is>
+      </c>
+      <c r="F208" s="2" t="inlineStr">
+        <is>
+          <t>Red Hat Enterprise Linux 9 must limit the number of concurrent sessions to ten for all accounts and/or account types.</t>
+        </is>
+      </c>
+      <c r="G208" s="2" t="inlineStr">
+        <is>
+          <t>Operating system management includes the ability to control the number of users and user sessions that utilize an operating system. Limiting the number of allowed users and sessions per user is helpful in reducing the risks related to DoS attacks.
+This requirement addresses concurrent sessions for information system accounts and does not address concurrent sessions by single users via multiple system accounts. The maximum number of concurrent sessions should be defined based upon mission needs and the operational environment for each system.</t>
+        </is>
+      </c>
+      <c r="H208" s="2" t="inlineStr">
+        <is>
+          <t>Limiting simultaneous user logins can insulate the system from denial of service
+problems caused by excessive logins. Automated login processes operating improperly or
+maliciously may result in an exceptional number of simultaneous login sessions.</t>
+        </is>
+      </c>
+      <c r="I208" s="2" t="inlineStr">
+        <is>
+          <t>Applicable - Configurable</t>
+        </is>
+      </c>
+      <c r="J208" s="2" t="inlineStr">
+        <is>
+          <t>Verify the operating system limits the number of concurrent sessions to ten for all accounts and/or account types. If it does not, this is a finding.</t>
+        </is>
+      </c>
+      <c r="K208" s="2" t="inlineStr">
+        <is>
+          <t>Run the following command to ensure the  maxlogins  value is
+configured for all users on the system:
+ # grep "maxlogins" /etc/security/limits.conf /etc/security/limits.d/*.conf 
+You should receive output similar to the following:
+ *\t\thard\tmaxlogins\t10 
+If maxlogins is not equal to or less than the expected value then this is a finding.</t>
+        </is>
+      </c>
+      <c r="L208" s="2" t="n"/>
+      <c r="M208" s="2" t="inlineStr">
+        <is>
+          <t>Configure the operating system to limit the number of concurrent sessions to "10" for all accounts and/or account types.
+Add the following line to the top of the /etc/security/limits.conf or in a ".conf" file defined in /etc/security/limits.d/ :
+* hard maxlogins 10</t>
+        </is>
+      </c>
+      <c r="N208" s="2" t="inlineStr">
+        <is>
+          <t>CAT II</t>
+        </is>
+      </c>
+      <c r="O208" s="2" t="n"/>
+      <c r="P208" s="2" t="n"/>
+      <c r="Q208" s="2" t="n"/>
+    </row>
+    <row r="209" ht="130" customHeight="1">
+      <c r="A209" s="2" t="inlineStr">
+        <is>
+          <t>IA-11</t>
+        </is>
+      </c>
+      <c r="B209" s="2" t="inlineStr">
+        <is>
+          <t>CCI-002038</t>
+        </is>
+      </c>
+      <c r="C209" s="2" t="inlineStr">
+        <is>
+          <t>SRG-OS-000373-GPOS-00156,SRG-OS-000373-GPOS-00157,SRG-OS-000373-GPOS-00158</t>
+        </is>
+      </c>
+      <c r="D209" s="2" t="inlineStr">
+        <is>
+          <t>CCE-83544-7</t>
+        </is>
+      </c>
+      <c r="E209" s="2" t="inlineStr">
+        <is>
+          <t>The operating system must require users to re-authenticate when changing authenticators.</t>
+        </is>
+      </c>
+      <c r="F209" s="2" t="inlineStr">
+        <is>
+          <t>Red Hat Enterprise Linux 9 must require users to re-authenticate when changing authenticators.</t>
+        </is>
+      </c>
+      <c r="G209" s="2" t="inlineStr">
+        <is>
+          <t>Without re-authentication, users may access resources or perform tasks for which they do not have authorization. 
+When operating systems provide the capability to change user authenticators, it is critical the user re-authenticate.</t>
+        </is>
+      </c>
+      <c r="H209" s="2" t="inlineStr">
+        <is>
+          <t>Without re-authentication, users may access resources or perform tasks for which they
+do not have authorization.
+When operating systems provide the capability to escalate a functional capability, it
+is critical that the user re-authenticate.</t>
+        </is>
+      </c>
+      <c r="I209" s="2" t="inlineStr">
+        <is>
+          <t>Applicable - Configurable</t>
+        </is>
+      </c>
+      <c r="J209" s="2" t="inlineStr">
+        <is>
+          <t>Verify the operating system requires users to re-authenticate when changing authenticators. If it does not, this is a finding.</t>
+        </is>
+      </c>
+      <c r="K209" s="2" t="inlineStr">
+        <is>
+          <t>To determine if  !authenticate  has not been configured for sudo, run the following command:
+ $ sudo grep -r \!authenticate /etc/sudoers /etc/sudoers.d/ 
+The command should return no output.
+If !authenticate is enabled in sudo then this is a finding.</t>
+        </is>
+      </c>
+      <c r="L209" s="2" t="n"/>
+      <c r="M209" s="2" t="inlineStr"/>
+      <c r="N209" s="2" t="inlineStr">
+        <is>
+          <t>CAT II</t>
+        </is>
+      </c>
+      <c r="O209" s="2" t="n"/>
+      <c r="P209" s="2" t="n"/>
+      <c r="Q209" s="2" t="n"/>
+    </row>
+    <row r="210" ht="130" customHeight="1">
+      <c r="A210" s="2" t="inlineStr">
+        <is>
+          <t>IA-11</t>
+        </is>
+      </c>
+      <c r="B210" s="2" t="inlineStr">
+        <is>
+          <t>CCI-002038</t>
+        </is>
+      </c>
+      <c r="C210" s="2" t="inlineStr">
+        <is>
+          <t>SRG-OS-000373-GPOS-00156,SRG-OS-000373-GPOS-00157,SRG-OS-000373-GPOS-00158</t>
+        </is>
+      </c>
+      <c r="D210" s="2" t="inlineStr">
+        <is>
+          <t>CCE-83536-3</t>
+        </is>
+      </c>
+      <c r="E210" s="2" t="inlineStr">
+        <is>
+          <t>The operating system must require users to re-authenticate when changing authenticators.</t>
+        </is>
+      </c>
+      <c r="F210" s="2" t="inlineStr">
+        <is>
+          <t>Red Hat Enterprise Linux 9 must require users to re-authenticate when changing authenticators.</t>
+        </is>
+      </c>
+      <c r="G210" s="2" t="inlineStr">
+        <is>
+          <t>Without re-authentication, users may access resources or perform tasks for which they do not have authorization. 
+When operating systems provide the capability to change user authenticators, it is critical the user re-authenticate.</t>
+        </is>
+      </c>
+      <c r="H210" s="2" t="inlineStr">
+        <is>
+          <t>Without re-authentication, users may access resources or perform tasks for which they
+do not have authorization.
+When operating systems provide the capability to escalate a functional capability, it
+is critical that the user re-authenticate.</t>
+        </is>
+      </c>
+      <c r="I210" s="2" t="inlineStr">
+        <is>
+          <t>Applicable - Configurable</t>
+        </is>
+      </c>
+      <c r="J210" s="2" t="inlineStr">
+        <is>
+          <t>Verify the operating system requires users to re-authenticate when changing authenticators. If it does not, this is a finding.</t>
+        </is>
+      </c>
+      <c r="K210" s="2" t="inlineStr">
+        <is>
+          <t>To determine if  NOPASSWD  has been configured for sudo, run the following command:
+ $ sudo grep -ri nopasswd /etc/sudoers /etc/sudoers.d/ 
+The command should return no output.
+If nopasswd is enabled in sudo then this is a finding.</t>
+        </is>
+      </c>
+      <c r="L210" s="2" t="n"/>
+      <c r="M210" s="2" t="inlineStr"/>
+      <c r="N210" s="2" t="inlineStr">
+        <is>
+          <t>CAT II</t>
+        </is>
+      </c>
+      <c r="O210" s="2" t="n"/>
+      <c r="P210" s="2" t="n"/>
+      <c r="Q210" s="2" t="n"/>
+    </row>
+    <row r="211" ht="130" customHeight="1">
+      <c r="A211" s="2" t="inlineStr">
+        <is>
+          <t>AC-8 a,AC-8 c 1, AC-8 c 2, AC-8 c 3</t>
+        </is>
+      </c>
+      <c r="B211" s="2" t="inlineStr">
+        <is>
+          <t>CCI-000048,CCI-000050,CCI-001384,CCI-001385,CCI-001386,CCI-001387,CCI-001388</t>
+        </is>
+      </c>
+      <c r="C211" s="2" t="inlineStr">
+        <is>
+          <t>SRG-OS-000023-GPOS-00006,SRG-OS-000228-GPOS-00088</t>
+        </is>
+      </c>
+      <c r="D211" s="2" t="inlineStr">
+        <is>
+          <t>CCE-90807-9</t>
+        </is>
+      </c>
+      <c r="E211" s="2" t="inlineStr">
+        <is>
+          <t>Any publically accessible connection to the operating system must display the Standard Mandatory DoD Notice and Consent Banner before granting access to the system.</t>
+        </is>
+      </c>
+      <c r="F211" s="2" t="inlineStr">
+        <is>
+          <t>Any publically accessible connection to Red Hat Enterprise Linux 9 must display the Standard Mandatory DoD Notice and Consent Banner before granting access to the system.</t>
+        </is>
+      </c>
+      <c r="G211" s="2" t="inlineStr">
+        <is>
+          <t>Display of a standardized and approved use notification before granting access to the publicly accessible operating system ensures privacy and security notification verbiage used is consistent with applicable federal laws, Executive Orders, directives, policies, regulations, standards, and guidance.
+System use notifications are required only for access via logon interfaces with human users and are not required when such human interfaces do not exist.
+The banner must be formatted in accordance with applicable DoD policy. Use the following verbiage for operating systems that can accommodate banners of 1300 characters:
+"You are accessing a U.S. Government (USG) Information System (IS) that is provided for USG-authorized use only.
+By using this IS (which includes any device attached to this IS), you consent to the following conditions:
+-The USG routinely intercepts and monitors communications on this IS for purposes including, but not limited to, penetration testing, COMSEC monitoring, network operations and defense, personnel misconduct (PM), law enforcement (LE), and counterintelligence (CI) investigations.
+-At any time, the USG may inspect and seize data stored on this IS.
+-Communications using, or data stored on, this IS are not private, are subject to routine monitoring, interception, and search, and may be disclosed or used for any USG-authorized purpose.
+-This IS includes security measures (e.g., authentication and access controls) to protect USG interests--not for your personal benefit or privacy.
+-Notwithstanding the above, using this IS does not constitute consent to PM, LE or CI investigative searching or monitoring of the content of privileged communications, or work product, related to personal representation or services by attorneys, psychotherapists, or clergy, and their assistants. Such communications and work product are private and confidential. See User Agreement for details."
+Use the following verbiage for operating systems that have severe limitations on the number of characters that can be displayed in the banner:
+"I've readconsent to terms in IS user agreem't."</t>
+        </is>
+      </c>
+      <c r="H211" s="2" t="inlineStr">
+        <is>
+          <t>The warning message reinforces policy awareness during the logon process and
+facilitates possible legal action against attackers. Alternatively, systems
+whose ownership should not be obvious should ensure usage of a banner that does
+not provide easy attribution.</t>
+        </is>
+      </c>
+      <c r="I211" s="2" t="inlineStr">
+        <is>
+          <t>Applicable - Configurable</t>
+        </is>
+      </c>
+      <c r="J211" s="2" t="inlineStr">
+        <is>
+          <t>Verify any publically accessible connection to the operating system displays the Standard Mandatory DoD Notice and Consent Banner before granting access to the system. 
+The banner must be formatted in accordance with applicable DoD policy. Use the following verbiage for operating systems that can accommodate banners of 1300 characters:
+"You are accessing a U.S. Government (USG) Information System (IS) that is provided for USG-authorized use only.
+By using this IS (which includes any device attached to this IS), you consent to the following conditions:
+-The USG routinely intercepts and monitors communications on this IS for purposes including, but not limited to, penetration testing, COMSEC monitoring, network operations and defense, personnel misconduct (PM), law enforcement (LE), and counterintelligence (CI) investigations.
+-At any time, the USG may inspect and seize data stored on this IS.
+-Communications using, or data stored on, this IS are not private, are subject to routine monitoring, interception, and search, and may be disclosed or used for any USG-authorized purpose.
+-This IS includes security measures (e.g., authentication and access controls) to protect USG interests--not for your personal benefit or privacy.
+-Notwithstanding the above, using this IS does not constitute consent to PM, LE or CI investigative searching or monitoring of the content of privileged communications, or work product, related to personal representation or services by attorneys, psychotherapists, or clergy, and their assistants. Such communications and work product are private and confidential. See User Agreement for details."
+Use the following verbiage for operating systems that have severe limitations on the number of characters that can be displayed in the banner:
+"I've read &amp; consent to terms in IS user agreem't."
+If it does not, this is a finding.</t>
+        </is>
+      </c>
+      <c r="K211" s="2" t="inlineStr">
+        <is>
+          <t>To determine how the SSH daemon's  Banner  option is set, run the following command:
+ $ sudo grep -i Banner /etc/ssh/sshd_config.d/00-complianceascode-hardening.conf 
+If a line indicating  /etc/issue  is returned, then the required value is set.
+If the required value is not set then this is a finding.</t>
+        </is>
+      </c>
+      <c r="L211" s="2" t="n"/>
+      <c r="M211" s="2" t="inlineStr">
+        <is>
+          <t>Configure Red Hat Enterprise Linux 9 to display the Standard Mandatory DoD Notice and Consent Banner before granting access to the system via the ssh.
+Edit the ""/etc/ssh/sshd_config"" file to uncomment the banner keyword and configure it to point to a file that will contain the logon banner (this file may be named differently or be in a different location if using a version of SSH that is provided by a third-party vendor).
+An example configuration line is:
+Banner /etc/issue</t>
+        </is>
+      </c>
+      <c r="N211" s="2" t="inlineStr">
+        <is>
+          <t>CAT II</t>
+        </is>
+      </c>
+      <c r="O211" s="2" t="n"/>
+      <c r="P211" s="2" t="n"/>
+      <c r="Q211" s="2" t="n"/>
+    </row>
+    <row r="212" ht="130" customHeight="1">
+      <c r="A212" s="2" t="inlineStr">
+        <is>
+          <t>AC-8 a,AC-8 c 1, AC-8 c 2, AC-8 c 3</t>
+        </is>
+      </c>
+      <c r="B212" s="2" t="inlineStr">
+        <is>
+          <t>CCI-000048,CCI-000050</t>
+        </is>
+      </c>
+      <c r="C212" s="2" t="inlineStr">
+        <is>
+          <t>SRG-OS-000023-GPOS-00006,SRG-OS-000228-GPOS-00088</t>
+        </is>
+      </c>
+      <c r="D212" s="2" t="inlineStr">
+        <is>
+          <t>CCE-83557-9</t>
+        </is>
+      </c>
+      <c r="E212" s="2" t="inlineStr">
+        <is>
+          <t>Any publically accessible connection to the operating system must display the Standard Mandatory DoD Notice and Consent Banner before granting access to the system.</t>
+        </is>
+      </c>
+      <c r="F212" s="2" t="inlineStr">
+        <is>
+          <t>Any publically accessible connection to Red Hat Enterprise Linux 9 must display the Standard Mandatory DoD Notice and Consent Banner before granting access to the system.</t>
+        </is>
+      </c>
+      <c r="G212" s="2" t="inlineStr">
+        <is>
+          <t>Display of a standardized and approved use notification before granting access to the publicly accessible operating system ensures privacy and security notification verbiage used is consistent with applicable federal laws, Executive Orders, directives, policies, regulations, standards, and guidance.
+System use notifications are required only for access via logon interfaces with human users and are not required when such human interfaces do not exist.
+The banner must be formatted in accordance with applicable DoD policy. Use the following verbiage for operating systems that can accommodate banners of 1300 characters:
+"You are accessing a U.S. Government (USG) Information System (IS) that is provided for USG-authorized use only.
+By using this IS (which includes any device attached to this IS), you consent to the following conditions:
+-The USG routinely intercepts and monitors communications on this IS for purposes including, but not limited to, penetration testing, COMSEC monitoring, network operations and defense, personnel misconduct (PM), law enforcement (LE), and counterintelligence (CI) investigations.
+-At any time, the USG may inspect and seize data stored on this IS.
+-Communications using, or data stored on, this IS are not private, are subject to routine monitoring, interception, and search, and may be disclosed or used for any USG-authorized purpose.
+-This IS includes security measures (e.g., authentication and access controls) to protect USG interests--not for your personal benefit or privacy.
+-Notwithstanding the above, using this IS does not constitute consent to PM, LE or CI investigative searching or monitoring of the content of privileged communications, or work product, related to personal representation or services by attorneys, psychotherapists, or clergy, and their assistants. Such communications and work product are private and confidential. See User Agreement for details."
+Use the following verbiage for operating systems that have severe limitations on the number of characters that can be displayed in the banner:
+"I've readconsent to terms in IS user agreem't."</t>
+        </is>
+      </c>
+      <c r="H212" s="2" t="inlineStr">
+        <is>
+          <t>Display of a standardized and approved use notification before granting
+access to the operating system ensures privacy and security notification
+verbiage used is consistent with applicable federal laws, Executive Orders,
+directives, policies, regulations, standards, and guidance.
+System use notifications are required only for access via login interfaces
+with human users and are not required when such human interfaces do not
+exist.</t>
+        </is>
+      </c>
+      <c r="I212" s="2" t="inlineStr">
+        <is>
+          <t>Applicable - Configurable</t>
+        </is>
+      </c>
+      <c r="J212" s="2" t="inlineStr">
+        <is>
+          <t>Verify any publically accessible connection to the operating system displays the Standard Mandatory DoD Notice and Consent Banner before granting access to the system. 
+The banner must be formatted in accordance with applicable DoD policy. Use the following verbiage for operating systems that can accommodate banners of 1300 characters:
+"You are accessing a U.S. Government (USG) Information System (IS) that is provided for USG-authorized use only.
+By using this IS (which includes any device attached to this IS), you consent to the following conditions:
+-The USG routinely intercepts and monitors communications on this IS for purposes including, but not limited to, penetration testing, COMSEC monitoring, network operations and defense, personnel misconduct (PM), law enforcement (LE), and counterintelligence (CI) investigations.
+-At any time, the USG may inspect and seize data stored on this IS.
+-Communications using, or data stored on, this IS are not private, are subject to routine monitoring, interception, and search, and may be disclosed or used for any USG-authorized purpose.
+-This IS includes security measures (e.g., authentication and access controls) to protect USG interests--not for your personal benefit or privacy.
+-Notwithstanding the above, using this IS does not constitute consent to PM, LE or CI investigative searching or monitoring of the content of privileged communications, or work product, related to personal representation or services by attorneys, psychotherapists, or clergy, and their assistants. Such communications and work product are private and confidential. See User Agreement for details."
+Use the following verbiage for operating systems that have severe limitations on the number of characters that can be displayed in the banner:
+"I've read &amp; consent to terms in IS user agreem't."
+If it does not, this is a finding.</t>
+        </is>
+      </c>
+      <c r="K212" s="2" t="inlineStr">
+        <is>
+          <t>To check if the system login banner is compliant,
+run the following command:
+ $ cat /etc/issue 
+If it does not display the required banner then this is a finding.</t>
+        </is>
+      </c>
+      <c r="L212" s="2" t="n"/>
+      <c r="M212" s="2" t="inlineStr">
+        <is>
+          <t>Configure Red Hat Enterprise Linux 9 to display the Standard Mandatory DoD Notice and Consent Banner before granting access to the system via command line logon.
+Edit the "/etc/issue" file to replace the default text with the Standard Mandatory DoD Notice and Consent Banner. The DoD-required text is:
+"You are accessing a U.S. Government (USG) Information System (IS) that is provided for USG-authorized use only.
+By using this IS (which includes any device attached to this IS), you consent to the following conditions:
+-The USG routinely intercepts and monitors communications on this IS for purposes including, but not limited to, penetration testing, COMSEC monitoring, network operations and defense, personnel misconduct (PM), law enforcement (LE), and counterintelligence (CI) investigations.
+-At any time, the USG may inspect and seize data stored on this IS.
+-Communications using, or data stored on, this IS are not private, are subject to routine monitoring, interception, and search, and may be disclosed or used for any USG-authorized purpose.
+-This IS includes security measures (e.g., authentication and access controls) to protect USG interests -- not for your personal benefit or privacy.
+-Notwithstanding the above, using this IS does not constitute consent to PM, LE or CI investigative searching or monitoring of the content of privileged communications, or work product, related to personal representation or services by attorneys, psychotherapists, or clergy, and their assistants. Such communications and work product are private and confidential. See User Agreement for details."</t>
+        </is>
+      </c>
+      <c r="N212" s="2" t="inlineStr">
+        <is>
+          <t>CAT II</t>
+        </is>
+      </c>
+      <c r="O212" s="2" t="n"/>
+      <c r="P212" s="2" t="n"/>
+      <c r="Q212" s="2" t="n"/>
+    </row>
+    <row r="213" ht="130" customHeight="1">
+      <c r="A213" s="2" t="inlineStr">
+        <is>
+          <t>AC-8 a,AC-8 c 1, AC-8 c 2, AC-8 c 3</t>
+        </is>
+      </c>
+      <c r="B213" s="2" t="inlineStr">
+        <is>
+          <t>CCI-000048,CCI-000050,CCI-001384,CCI-001385,CCI-001386,CCI-001387,CCI-001388</t>
+        </is>
+      </c>
+      <c r="C213" s="2" t="inlineStr">
+        <is>
+          <t>SRG-OS-000023-GPOS-00006,SRG-OS-000228-GPOS-00088</t>
+        </is>
+      </c>
+      <c r="D213" s="2" t="inlineStr">
+        <is>
+          <t>CCE-87599-7</t>
+        </is>
+      </c>
+      <c r="E213" s="2" t="inlineStr">
+        <is>
+          <t>Any publically accessible connection to the operating system must display the Standard Mandatory DoD Notice and Consent Banner before granting access to the system.</t>
+        </is>
+      </c>
+      <c r="F213" s="2" t="inlineStr">
+        <is>
+          <t>Any publically accessible connection to Red Hat Enterprise Linux 9 must display the Standard Mandatory DoD Notice and Consent Banner before granting access to the system.</t>
+        </is>
+      </c>
+      <c r="G213" s="2" t="inlineStr">
+        <is>
+          <t>Display of a standardized and approved use notification before granting access to the publicly accessible operating system ensures privacy and security notification verbiage used is consistent with applicable federal laws, Executive Orders, directives, policies, regulations, standards, and guidance.
+System use notifications are required only for access via logon interfaces with human users and are not required when such human interfaces do not exist.
+The banner must be formatted in accordance with applicable DoD policy. Use the following verbiage for operating systems that can accommodate banners of 1300 characters:
+"You are accessing a U.S. Government (USG) Information System (IS) that is provided for USG-authorized use only.
+By using this IS (which includes any device attached to this IS), you consent to the following conditions:
+-The USG routinely intercepts and monitors communications on this IS for purposes including, but not limited to, penetration testing, COMSEC monitoring, network operations and defense, personnel misconduct (PM), law enforcement (LE), and counterintelligence (CI) investigations.
+-At any time, the USG may inspect and seize data stored on this IS.
+-Communications using, or data stored on, this IS are not private, are subject to routine monitoring, interception, and search, and may be disclosed or used for any USG-authorized purpose.
+-This IS includes security measures (e.g., authentication and access controls) to protect USG interests--not for your personal benefit or privacy.
+-Notwithstanding the above, using this IS does not constitute consent to PM, LE or CI investigative searching or monitoring of the content of privileged communications, or work product, related to personal representation or services by attorneys, psychotherapists, or clergy, and their assistants. Such communications and work product are private and confidential. See User Agreement for details."
+Use the following verbiage for operating systems that have severe limitations on the number of characters that can be displayed in the banner:
+"I've readconsent to terms in IS user agreem't."</t>
+        </is>
+      </c>
+      <c r="H213" s="2" t="inlineStr">
+        <is>
+          <t>Display of a standardized and approved use notification before granting access to the operating system
+ensures privacy and security notification verbiage used is consistent with applicable federal laws,
+Executive Orders, directives, policies, regulations, standards, and guidance.
+For U.S. Government systems, system use notifications are required only for access via login interfaces
+with human users and are not required when such human interfaces do not exist.</t>
+        </is>
+      </c>
+      <c r="I213" s="2" t="inlineStr">
+        <is>
+          <t>Applicable - Configurable</t>
+        </is>
+      </c>
+      <c r="J213" s="2" t="inlineStr">
+        <is>
+          <t>Verify any publically accessible connection to the operating system displays the Standard Mandatory DoD Notice and Consent Banner before granting access to the system. 
+The banner must be formatted in accordance with applicable DoD policy. Use the following verbiage for operating systems that can accommodate banners of 1300 characters:
+"You are accessing a U.S. Government (USG) Information System (IS) that is provided for USG-authorized use only.
+By using this IS (which includes any device attached to this IS), you consent to the following conditions:
+-The USG routinely intercepts and monitors communications on this IS for purposes including, but not limited to, penetration testing, COMSEC monitoring, network operations and defense, personnel misconduct (PM), law enforcement (LE), and counterintelligence (CI) investigations.
+-At any time, the USG may inspect and seize data stored on this IS.
+-Communications using, or data stored on, this IS are not private, are subject to routine monitoring, interception, and search, and may be disclosed or used for any USG-authorized purpose.
+-This IS includes security measures (e.g., authentication and access controls) to protect USG interests--not for your personal benefit or privacy.
+-Notwithstanding the above, using this IS does not constitute consent to PM, LE or CI investigative searching or monitoring of the content of privileged communications, or work product, related to personal representation or services by attorneys, psychotherapists, or clergy, and their assistants. Such communications and work product are private and confidential. See User Agreement for details."
+Use the following verbiage for operating systems that have severe limitations on the number of characters that can be displayed in the banner:
+"I've read &amp; consent to terms in IS user agreem't."
+If it does not, this is a finding.</t>
+        </is>
+      </c>
+      <c r="K213" s="2" t="inlineStr">
+        <is>
+          <t>To ensure a login warning banner is enabled, run the following:
+ $ grep banner-message-enable /etc/dconf/db/distro.d/* 
+If properly configured, the output should be  true .
+To ensure a login warning banner is locked and cannot be changed by a user, run the following:
+ $ grep banner-message-enable /etc/dconf/db/distro.d/locks/* 
+If properly configured, the output should be  /org/gnome/login-screen/banner-message-enable .
+If it is not then this is a finding.</t>
+        </is>
+      </c>
+      <c r="L213" s="2" t="n"/>
+      <c r="M213" s="2" t="inlineStr">
+        <is>
+          <t>Configure Red Hat Enterprise Linux 9 to display the Standard Mandatory DoD Notice and Consent Banner before granting access to the system.
+Note: If the system does not have a graphical user interface installed, this requirement is Not Applicable.
+Create a database to contain the system-wide graphical user logon settings (if it does not already exist) with the following command:
+$ sudo touch /etc/dconf/db/local.d/01-banner-message
+Add the following lines to the [org/gnome/login-screen] section of the "/etc/dconf/db/local.d/01-banner-message":
+[org/gnome/login-screen]
+banner-message-enable=true
+Run the following command to update the database:
+$ sudo dconf update</t>
+        </is>
+      </c>
+      <c r="N213" s="2" t="inlineStr">
+        <is>
+          <t>CAT II</t>
+        </is>
+      </c>
+      <c r="O213" s="2" t="n"/>
+      <c r="P213" s="2" t="n"/>
+      <c r="Q213" s="2" t="n"/>
+    </row>
+    <row r="214" ht="130" customHeight="1">
+      <c r="A214" s="2" t="inlineStr">
+        <is>
+          <t>AC-8 a,AC-8 c 1, AC-8 c 2, AC-8 c 3</t>
+        </is>
+      </c>
+      <c r="B214" s="2" t="inlineStr">
+        <is>
+          <t>CCI-000048</t>
+        </is>
+      </c>
+      <c r="C214" s="2" t="inlineStr">
+        <is>
+          <t>SRG-OS-000023-GPOS-00006,SRG-OS-000228-GPOS-00088</t>
+        </is>
+      </c>
+      <c r="D214" s="2" t="inlineStr">
+        <is>
+          <t>CCE-86529-5</t>
+        </is>
+      </c>
+      <c r="E214" s="2" t="inlineStr">
+        <is>
+          <t>Any publically accessible connection to the operating system must display the Standard Mandatory DoD Notice and Consent Banner before granting access to the system.</t>
+        </is>
+      </c>
+      <c r="F214" s="2" t="inlineStr">
+        <is>
+          <t>Any publically accessible connection to Red Hat Enterprise Linux 9 must display the Standard Mandatory DoD Notice and Consent Banner before granting access to the system.</t>
+        </is>
+      </c>
+      <c r="G214" s="2" t="inlineStr">
+        <is>
+          <t>Display of a standardized and approved use notification before granting access to the publicly accessible operating system ensures privacy and security notification verbiage used is consistent with applicable federal laws, Executive Orders, directives, policies, regulations, standards, and guidance.
+System use notifications are required only for access via logon interfaces with human users and are not required when such human interfaces do not exist.
+The banner must be formatted in accordance with applicable DoD policy. Use the following verbiage for operating systems that can accommodate banners of 1300 characters:
+"You are accessing a U.S. Government (USG) Information System (IS) that is provided for USG-authorized use only.
+By using this IS (which includes any device attached to this IS), you consent to the following conditions:
+-The USG routinely intercepts and monitors communications on this IS for purposes including, but not limited to, penetration testing, COMSEC monitoring, network operations and defense, personnel misconduct (PM), law enforcement (LE), and counterintelligence (CI) investigations.
+-At any time, the USG may inspect and seize data stored on this IS.
+-Communications using, or data stored on, this IS are not private, are subject to routine monitoring, interception, and search, and may be disclosed or used for any USG-authorized purpose.
+-This IS includes security measures (e.g., authentication and access controls) to protect USG interests--not for your personal benefit or privacy.
+-Notwithstanding the above, using this IS does not constitute consent to PM, LE or CI investigative searching or monitoring of the content of privileged communications, or work product, related to personal representation or services by attorneys, psychotherapists, or clergy, and their assistants. Such communications and work product are private and confidential. See User Agreement for details."
+Use the following verbiage for operating systems that have severe limitations on the number of characters that can be displayed in the banner:
+"I've readconsent to terms in IS user agreem't."</t>
+        </is>
+      </c>
+      <c r="H214" s="2" t="inlineStr">
+        <is>
+          <t>An appropriate warning message reinforces policy awareness during the logon
+process and facilitates possible legal action against attackers.</t>
+        </is>
+      </c>
+      <c r="I214" s="2" t="inlineStr">
+        <is>
+          <t>Applicable - Configurable</t>
+        </is>
+      </c>
+      <c r="J214" s="2" t="inlineStr">
+        <is>
+          <t>Verify any publically accessible connection to the operating system displays the Standard Mandatory DoD Notice and Consent Banner before granting access to the system. 
+The banner must be formatted in accordance with applicable DoD policy. Use the following verbiage for operating systems that can accommodate banners of 1300 characters:
+"You are accessing a U.S. Government (USG) Information System (IS) that is provided for USG-authorized use only.
+By using this IS (which includes any device attached to this IS), you consent to the following conditions:
+-The USG routinely intercepts and monitors communications on this IS for purposes including, but not limited to, penetration testing, COMSEC monitoring, network operations and defense, personnel misconduct (PM), law enforcement (LE), and counterintelligence (CI) investigations.
+-At any time, the USG may inspect and seize data stored on this IS.
+-Communications using, or data stored on, this IS are not private, are subject to routine monitoring, interception, and search, and may be disclosed or used for any USG-authorized purpose.
+-This IS includes security measures (e.g., authentication and access controls) to protect USG interests--not for your personal benefit or privacy.
+-Notwithstanding the above, using this IS does not constitute consent to PM, LE or CI investigative searching or monitoring of the content of privileged communications, or work product, related to personal representation or services by attorneys, psychotherapists, or clergy, and their assistants. Such communications and work product are private and confidential. See User Agreement for details."
+Use the following verbiage for operating systems that have severe limitations on the number of characters that can be displayed in the banner:
+"I've read &amp; consent to terms in IS user agreem't."
+If it does not, this is a finding.</t>
+        </is>
+      </c>
+      <c r="K214" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+To ensure the login warning banner text is properly set, run the following:
+ $ grep banner-message-text /etc/dconf/db/distro.d/* 
+If properly configured, the proper banner text will appear.
+To ensure the login warning banner text is locked and cannot be changed by a user, run the following:
+ $ grep banner-message-text /etc/dconf/db/distro.d/locks/* 
+If properly configured, the output should be  /org/gnome/login-screen/banner-message-text .
+If it does not then this is a finding.</t>
+        </is>
+      </c>
+      <c r="L214" s="2" t="n"/>
+      <c r="M214" s="2" t="inlineStr">
+        <is>
+          <t>Configure Red Hat Enterprise Linux 9 to display the Standard Mandatory DoD Notice and Consent Banner before granting access to the system.
+Note: If the system does not have a graphical user interface installed, this requirement is Not Applicable.
+Create a database to contain the system-wide graphical user logon settings (if it does not already exist) with the following command:
+$ sudo touch /etc/dconf/db/local.d/01-banner-message
+Add the following lines to the [org/gnome/login-screen] section of the "/etc/dconf/db/local.d/01-banner-message":
+banner-message-text='You are accessing a U.S. Government (USG) Information System (IS) that is provided for USG-authorized use only.\nBy using this IS (which includes any device attached to this IS), you consent to the following conditions:\n-The USG routinely intercepts and monitors communications on this IS for purposes including, but not limited to, penetration testing, COMSEC monitoring, network operations and defense, personnel misconduct (PM), law enforcement (LE), and counterintelligence (CI) investigations.\n-At any time, the USG may inspect and seize data stored on this IS.\n-Communications using, or data stored on, this IS are not private, are subject to routine monitoring, interception, and search, and may be disclosed or used for any USG-authorized purpose.\n-This IS includes security measures (e.g., authentication and access controls) to protect USG interests--not for your personal benefit or privacy.\n-Notwithstanding the above, using this IS does not constitute consent to PM, LE or CI investigative searching or monitoring of the content of privileged communications, or work product, related to personal representation or services by attorneys, psychotherapists, or clergy, and their assistants. Such communications and work product are private and confidential. See User Agreement for details. '
+Note: The "\n" characters are for formatting only. They will not be displayed on the graphical interface.
+Run the following command to update the database:
+$ sudo dconf update</t>
+        </is>
+      </c>
+      <c r="N214" s="2" t="inlineStr">
+        <is>
+          <t>CAT II</t>
+        </is>
+      </c>
+      <c r="O214" s="2" t="n"/>
+      <c r="P214" s="2" t="n"/>
+      <c r="Q214" s="2" t="n"/>
+    </row>
+    <row r="215" ht="130" customHeight="1">
+      <c r="A215" s="2" t="inlineStr">
+        <is>
+          <t>AC-6 (9),AC-2 (4),AU-12 c</t>
+        </is>
+      </c>
+      <c r="B215" s="2" t="inlineStr">
+        <is>
+          <t>CCI-002132</t>
+        </is>
+      </c>
+      <c r="C215" s="2" t="inlineStr">
+        <is>
           <t>SRG-OS-000004-GPOS-00004,SRG-OS-000241-GPOS-00091,SRG-OS-000476-GPOS-00221,SRG-OS-000327-GPOS-00127,SRG-OS-000475-GPOS-00220,SRG-OS-000239-GPOS-00089,SRG-OS-000274-GPOS-00104,SRG-OS-000275-GPOS-00105,SRG-OS-000303-GPOS-00120,SRG-OS-000304-GPOS-00121</t>
         </is>
       </c>
-      <c r="D171" s="2" t="inlineStr">
+      <c r="D215" s="2" t="inlineStr">
         <is>
           <t>CCE-83655-1</t>
         </is>
       </c>
-      <c r="E171" s="2" t="inlineStr">
-        <is>
-          <t>The operating system must audit all account removal actions.</t>
-        </is>
-      </c>
-      <c r="F171" s="2" t="inlineStr">
-        <is>
-          <t>Red Hat Enterprise Linux 9 must audit all account removal actions.</t>
-        </is>
-      </c>
-      <c r="G171" s="2" t="inlineStr">
-        <is>
-          <t>When operating system accounts are removed, user accessibility is affected. Accounts are utilized for identifying individual users or for identifying the operating system processes themselves. In order to detect and respond to events affecting user accessibility and system processing, operating systems must audit account removal actions and, as required, notify the appropriate individuals so they can investigate the event. Such a capability greatly reduces the risk that operating system accessibility will be negatively affected for extended periods of time and provides logging that can be used for forensic purposes.
+      <c r="E215" s="2" t="inlineStr">
+        <is>
+          <t>The operating system must notify system administrators and ISSOs of account enabling actions.</t>
+        </is>
+      </c>
+      <c r="F215" s="2" t="inlineStr">
+        <is>
+          <t>Red Hat Enterprise Linux 9 must notify system administrators and ISSOs of account enabling actions.</t>
+        </is>
+      </c>
+      <c r="G215" s="2" t="inlineStr">
+        <is>
+          <t>Once an attacker establishes access to a system, the attacker often attempts to create a persistent method of reestablishing access.  One way to accomplish this is for the attacker to enable an existing disabled account.  Sending notification of account enabling actions to the system administrator and ISSO is one method for mitigating this risk.  Such a capability greatly reduces the risk that operating system accessibility will be negatively affected for extended periods of time and also provides logging that can be used for forensic purposes.
+In order to detect and respond to events that affect user accessibility and application processing, operating systems must audit account enabling actions and, as required, notify the appropriate individuals so they can investigate the event.
 To address access requirements, many operating systems can be integrated with enterprise-level authentication/access/auditing mechanisms that meet or exceed access control policy requirements.</t>
         </is>
       </c>
-      <c r="H171" s="2" t="inlineStr">
+      <c r="H215" s="2" t="inlineStr">
         <is>
           <t>Auditing of events listed in the description provides data for monitoring and investigation of potentially malicious events e.g. tampering with  Audit  logs, malicious access to files storing information about system users and groups etc.</t>
         </is>
       </c>
-      <c r="I171" s="2" t="inlineStr">
-        <is>
-          <t>Applicable - Configurable</t>
-        </is>
-      </c>
-      <c r="J171" s="2" t="inlineStr">
-        <is>
-          <t>Verify the operating system automatically audits account removal actions. If it does not, this is a finding.</t>
-        </is>
-      </c>
-      <c r="K171" s="2" t="inlineStr">
+      <c r="I215" s="2" t="inlineStr">
+        <is>
+          <t>Applicable - Configurable</t>
+        </is>
+      </c>
+      <c r="J215" s="2" t="inlineStr">
+        <is>
+          <t>Verify the operating system notifies the System Administrator and Information System Security Officer(s) when accounts are created, or enabled when previously disabled. If it does not, this is a finding.</t>
+        </is>
+      </c>
+      <c r="K215" s="2" t="inlineStr">
         <is>
           <t>To verify that the  Audit  is correctly configured according to recommended rules, check the content of the file with the following command:
  cat /etc/audit/rules.d/30-ospp-v42.rules 
@@ -13633,3435 +17061,8 @@
 If the file does not exist or the content differs then this is a finding.</t>
         </is>
       </c>
-      <c r="L171" s="2" t="n"/>
-      <c r="M171" s="2" t="inlineStr"/>
-      <c r="N171" s="2" t="inlineStr">
-        <is>
-          <t>CAT II</t>
-        </is>
-      </c>
-      <c r="O171" s="2" t="n"/>
-      <c r="P171" s="2" t="n"/>
-      <c r="Q171" s="2" t="n"/>
-    </row>
-    <row r="172" ht="130" customHeight="1">
-      <c r="A172" s="2" t="inlineStr">
-        <is>
-          <t>CM-6 b</t>
-        </is>
-      </c>
-      <c r="B172" s="2" t="inlineStr">
-        <is>
-          <t>CCI-000366</t>
-        </is>
-      </c>
-      <c r="C172" s="2" t="inlineStr">
-        <is>
-          <t>SRG-OS-000480-GPOS-00226</t>
-        </is>
-      </c>
-      <c r="D172" s="2" t="inlineStr">
-        <is>
-          <t>CCE-83635-3</t>
-        </is>
-      </c>
-      <c r="E172" s="2" t="inlineStr">
-        <is>
-          <t>The operating system must enforce a delay of at least 4 seconds between logon prompts following a failed logon attempt.</t>
-        </is>
-      </c>
-      <c r="F172" s="2" t="inlineStr">
-        <is>
-          <t>Red Hat Enterprise Linux 9 must enforce a delay of at least 4 seconds between logon prompts following a failed logon attempt.</t>
-        </is>
-      </c>
-      <c r="G172" s="2" t="inlineStr">
-        <is>
-          <t>Limiting the number of logon attempts over a certain time interval reduces the chances that an unauthorized user may gain access to an account.</t>
-        </is>
-      </c>
-      <c r="H172" s="2" t="inlineStr">
-        <is>
-          <t>Increasing the time between a failed authentication attempt and re-prompting to
-enter credentials helps to slow a single-threaded brute force attack.</t>
-        </is>
-      </c>
-      <c r="I172" s="2" t="inlineStr">
-        <is>
-          <t>Applicable - Configurable</t>
-        </is>
-      </c>
-      <c r="J172" s="2" t="inlineStr">
-        <is>
-          <t>Verify the operating system enforces a delay of at least 4 seconds between logon prompts following a failed logon attempt. If it does not, this is a finding.</t>
-        </is>
-      </c>
-      <c r="K172" s="2" t="inlineStr">
-        <is>
-          <t>Verify the  FAIL_DELAY  setting is configured correctly in the  /etc/login.defs  file by
-running the following command:
- $ sudo grep -i "FAIL_DELAY" /etc/login.defs 
-All output must show the value of  FAIL_DELAY  set as shown in the below:
- $ sudo grep -i "FAIL_DELAY" /etc/login.defs
-FAIL_DELAY  
-If the above command returns no output, or FAIL_DELAY is configured less than the expected value then this is a finding.</t>
-        </is>
-      </c>
-      <c r="L172" s="2" t="n"/>
-      <c r="M172" s="2" t="inlineStr"/>
-      <c r="N172" s="2" t="inlineStr">
-        <is>
-          <t>CAT II</t>
-        </is>
-      </c>
-      <c r="O172" s="2" t="n"/>
-      <c r="P172" s="2" t="n"/>
-      <c r="Q172" s="2" t="n"/>
-    </row>
-    <row r="173" ht="130" customHeight="1">
-      <c r="A173" s="2" t="inlineStr">
-        <is>
-          <t>AC-11 a,AC-11 b</t>
-        </is>
-      </c>
-      <c r="B173" s="2" t="inlineStr">
-        <is>
-          <t>CCI-000058,CCI-000056</t>
-        </is>
-      </c>
-      <c r="C173" s="2" t="inlineStr">
-        <is>
-          <t>SRG-OS-000030-GPOS-00011,SRG-OS-000028-GPOS-00009</t>
-        </is>
-      </c>
-      <c r="D173" s="2" t="inlineStr">
-        <is>
-          <t>CCE-83599-1</t>
-        </is>
-      </c>
-      <c r="E173" s="2" t="inlineStr">
-        <is>
-          <t>The operating system must provide the capability for users to directly initiate a session lock for all connection types.</t>
-        </is>
-      </c>
-      <c r="F173" s="2" t="inlineStr">
-        <is>
-          <t>Red Hat Enterprise Linux 9 must provide the capability for users to directly initiate a session lock for all connection types.</t>
-        </is>
-      </c>
-      <c r="G173" s="2" t="inlineStr">
-        <is>
-          <t>A session lock is a temporary action taken when a user stops work and moves away from the immediate physical vicinity of the information system but does not want to log out because of the temporary nature of the absence.
-The session lock is implemented at the point where session activity can be determined. Rather than be forced to wait for a period of time to expire before the user session can be locked, operating systems need to provide users with the ability to manually invoke a session lock so users may secure their session should the need arise for them to temporarily vacate the immediate physical vicinity.</t>
-        </is>
-      </c>
-      <c r="H173" s="2" t="inlineStr">
-        <is>
-          <t>A session time-out lock is a temporary action taken when a user stops work and moves away from the immediate
-physical vicinity of the information system but does not logout because of the temporary nature of the absence.
-Rather than relying on the user to manually lock their operation system session prior to vacating the vicinity,
-operating systems need to be able to identify when a user's session has idled and take action to initiate the
-session lock.
-The  tmux  package allows for a session lock to be implemented and configured.</t>
-        </is>
-      </c>
-      <c r="I173" s="2" t="inlineStr">
-        <is>
-          <t>Applicable - Configurable</t>
-        </is>
-      </c>
-      <c r="J173" s="2" t="inlineStr">
-        <is>
-          <t>Verify the operating system provides the capability for users to directly initiate a session lock for all connection types. If it does not, this is a finding.</t>
-        </is>
-      </c>
-      <c r="K173" s="2" t="inlineStr">
-        <is>
-          <t>Run the following command to determine if the  tmux  package is installed:  $ rpm -q tmux 
-If the package is not installed then this is a finding.</t>
-        </is>
-      </c>
-      <c r="L173" s="2" t="n"/>
-      <c r="M173" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The  tmux  package can be installed with the following command:   $ sudo dnf install tmux </t>
-        </is>
-      </c>
-      <c r="N173" s="2" t="inlineStr">
-        <is>
-          <t>CAT II</t>
-        </is>
-      </c>
-      <c r="O173" s="2" t="n"/>
-      <c r="P173" s="2" t="n"/>
-      <c r="Q173" s="2" t="n"/>
-    </row>
-    <row r="174" ht="130" customHeight="1">
-      <c r="A174" s="2" t="inlineStr">
-        <is>
-          <t>AC-11 b,AC-11 a</t>
-        </is>
-      </c>
-      <c r="B174" s="2" t="inlineStr">
-        <is>
-          <t>CCI-000056</t>
-        </is>
-      </c>
-      <c r="C174" s="2" t="inlineStr">
-        <is>
-          <t>SRG-OS-000028-GPOS-00009,SRG-OS-000030-GPOS-00011</t>
-        </is>
-      </c>
-      <c r="D174" s="2" t="inlineStr">
-        <is>
-          <t>CCE-86452-0</t>
-        </is>
-      </c>
-      <c r="E174" s="2" t="inlineStr">
-        <is>
-          <t>The operating system must provide the capability for users to directly initiate a session lock for all connection types.</t>
-        </is>
-      </c>
-      <c r="F174" s="2" t="inlineStr">
-        <is>
-          <t>Red Hat Enterprise Linux 9 must provide the capability for users to directly initiate a session lock for all connection types.</t>
-        </is>
-      </c>
-      <c r="G174" s="2" t="inlineStr">
-        <is>
-          <t>A session lock is a temporary action taken when a user stops work and moves away from the immediate physical vicinity of the information system but does not want to log out because of the temporary nature of the absence.
-The session lock is implemented at the point where session activity can be determined. Rather than be forced to wait for a period of time to expire before the user session can be locked, operating systems need to provide users with the ability to manually invoke a session lock so users may secure their session should the need arise for them to temporarily vacate the immediate physical vicinity.</t>
-        </is>
-      </c>
-      <c r="H174" s="2" t="inlineStr">
-        <is>
-          <t>Locking the screen automatically when removing the smartcard can
-prevent undesired access to system.</t>
-        </is>
-      </c>
-      <c r="I174" s="2" t="inlineStr">
-        <is>
-          <t>Applicable - Configurable</t>
-        </is>
-      </c>
-      <c r="J174" s="2" t="inlineStr">
-        <is>
-          <t>Verify the operating system provides the capability for users to directly initiate a session lock for all connection types. If it does not, this is a finding.</t>
-        </is>
-      </c>
-      <c r="K174" s="2" t="inlineStr">
-        <is>
-          <t>To ensure screen locking on smartcard removal is enabled, run the following command:
- $ grep removal-action /etc/dconf/db/local.d/* 
-The output should be  'lock-screen' .
-To ensure that users cannot disable screen locking on smartcard removal, run the following:
- $ grep removal-action /etc/dconf/db/local.d/locks/* 
-If properly configured, the output should be  /org/gnome/settings-daemon/peripherals/smartcard/removal-action 
-If removal-action has not been configured then this is a finding.</t>
-        </is>
-      </c>
-      <c r="L174" s="2" t="n"/>
-      <c r="M174" s="2" t="inlineStr">
-        <is>
-          <t>The dconf settings can be edited in the /etc/dconf/db/* location.
-  Edit or add the org/gnome/settings-daemon/peripherals/smartcard section of the database file and add or update the following lines:
-  removal-action='lock-screen'
-  Update the system databases:
-  $ sudo dconf update</t>
-        </is>
-      </c>
-      <c r="N174" s="2" t="inlineStr">
-        <is>
-          <t>CAT II</t>
-        </is>
-      </c>
-      <c r="O174" s="2" t="n"/>
-      <c r="P174" s="2" t="n"/>
-      <c r="Q174" s="2" t="n"/>
-    </row>
-    <row r="175" ht="130" customHeight="1">
-      <c r="A175" s="2" t="inlineStr">
-        <is>
-          <t>AC-11 b,AC-11 a</t>
-        </is>
-      </c>
-      <c r="B175" s="2" t="inlineStr">
-        <is>
-          <t>CCI-000056,CCI-000058,CCI-000060</t>
-        </is>
-      </c>
-      <c r="C175" s="2" t="inlineStr">
-        <is>
-          <t>SRG-OS-000028-GPOS-00009,SRG-OS-000030-GPOS-00011</t>
-        </is>
-      </c>
-      <c r="D175" s="2" t="inlineStr">
-        <is>
-          <t>CCE-89302-4</t>
-        </is>
-      </c>
-      <c r="E175" s="2" t="inlineStr">
-        <is>
-          <t>The operating system must provide the capability for users to directly initiate a session lock for all connection types.</t>
-        </is>
-      </c>
-      <c r="F175" s="2" t="inlineStr">
-        <is>
-          <t>Red Hat Enterprise Linux 9 must provide the capability for users to directly initiate a session lock for all connection types.</t>
-        </is>
-      </c>
-      <c r="G175" s="2" t="inlineStr">
-        <is>
-          <t>A session lock is a temporary action taken when a user stops work and moves away from the immediate physical vicinity of the information system but does not want to log out because of the temporary nature of the absence.
-The session lock is implemented at the point where session activity can be determined. Rather than be forced to wait for a period of time to expire before the user session can be locked, operating systems need to provide users with the ability to manually invoke a session lock so users may secure their session should the need arise for them to temporarily vacate the immediate physical vicinity.</t>
-        </is>
-      </c>
-      <c r="H175" s="2" t="inlineStr">
-        <is>
-          <t>A session lock is a temporary action taken when a user stops work and moves away from the immediate physical vicinity
-of the information system but does not want to logout because of the temporary nature of the absense.</t>
-        </is>
-      </c>
-      <c r="I175" s="2" t="inlineStr">
-        <is>
-          <t>Applicable - Configurable</t>
-        </is>
-      </c>
-      <c r="J175" s="2" t="inlineStr">
-        <is>
-          <t>Verify the operating system provides the capability for users to directly initiate a session lock for all connection types. If it does not, this is a finding.</t>
-        </is>
-      </c>
-      <c r="K175" s="2" t="inlineStr">
-        <is>
-          <t>To check the status of the idle screen lock activation, run the following command:
- $ gsettings get org.gnome.desktop.screensaver lock-enabled 
-If properly configured, the output should be  true .
-To ensure that users cannot change how long until the the screensaver locks, run the following:
- $ grep lock-enabled /etc/dconf/db/local.d/locks/* 
-If properly configured, the output for  lock-enabled  should be  /org/gnome/desktop/screensaver/lock-enabled 
-If screensaver locking is not enabled and/or has not been set or configured correctly then this is a finding.</t>
-        </is>
-      </c>
-      <c r="L175" s="2" t="n"/>
-      <c r="M175" s="2" t="inlineStr">
-        <is>
-          <t>The dconf settings can be edited in the /etc/dconf/db/* location.
-Edit or add the /org/gnome/desktop/screensaver/lock-enabled section of the database file and add or update the following lines:
-lock-enabled=true
-Update the system databases:
-$ sudo dconf update</t>
-        </is>
-      </c>
-      <c r="N175" s="2" t="inlineStr">
-        <is>
-          <t>CAT II</t>
-        </is>
-      </c>
-      <c r="O175" s="2" t="n"/>
-      <c r="P175" s="2" t="n"/>
-      <c r="Q175" s="2" t="n"/>
-    </row>
-    <row r="176" ht="130" customHeight="1">
-      <c r="A176" s="2" t="inlineStr">
-        <is>
-          <t>IA-5 (1) (e)</t>
-        </is>
-      </c>
-      <c r="B176" s="2" t="inlineStr">
-        <is>
-          <t>CCI-000200</t>
-        </is>
-      </c>
-      <c r="C176" s="2" t="inlineStr">
-        <is>
-          <t>SRG-OS-000077-GPOS-00045</t>
-        </is>
-      </c>
-      <c r="D176" s="2" t="inlineStr">
-        <is>
-          <t>CCE-86354-8</t>
-        </is>
-      </c>
-      <c r="E176" s="2" t="inlineStr">
-        <is>
-          <t>The operating system must prohibit password reuse for a minimum of five generations.</t>
-        </is>
-      </c>
-      <c r="F176" s="2" t="inlineStr">
-        <is>
-          <t>Red Hat Enterprise Linux 9 must prohibit password reuse for a minimum of five generations.</t>
-        </is>
-      </c>
-      <c r="G176" s="2" t="inlineStr">
-        <is>
-          <t>Password complexity, or strength, is a measure of the effectiveness of a password in resisting attempts at guessing and brute-force attacks. If the information system or application allows the user to consecutively reuse their password when that password has exceeded its defined lifetime, the end result is a password that is not changed as per policy requirements.</t>
-        </is>
-      </c>
-      <c r="H176" s="2" t="inlineStr">
-        <is>
-          <t>Preventing re-use of previous passwords helps ensure that a compromised password is not re-used by a user.</t>
-        </is>
-      </c>
-      <c r="I176" s="2" t="inlineStr">
-        <is>
-          <t>Applicable - Configurable</t>
-        </is>
-      </c>
-      <c r="J176" s="2" t="inlineStr">
-        <is>
-          <t>Verify the operating system prohibits password reuse for a minimum of five generations. If it does not, this is a finding.</t>
-        </is>
-      </c>
-      <c r="K176" s="2" t="inlineStr">
-        <is>
-          <t>Check that the operating system prohibits the reuse of a password for
-a minimum of    generations with the following command:
- # grep pam_pwhistory.so /etc/pam.d/password-auth
-password  pam_pwhistory.so remember= use_authtok 
-If the command does not return a result, or the returned line is commented
-out, has a second column value different from   , does not contain
-"remember" value, or the value is less than
-  , this is a finding.
-If the value of remember is not set equal to or greater than  then this is a finding.</t>
-        </is>
-      </c>
-      <c r="L176" s="2" t="n"/>
-      <c r="M176" s="2" t="inlineStr"/>
-      <c r="N176" s="2" t="inlineStr">
-        <is>
-          <t>CAT II</t>
-        </is>
-      </c>
-      <c r="O176" s="2" t="n"/>
-      <c r="P176" s="2" t="n"/>
-      <c r="Q176" s="2" t="n"/>
-    </row>
-    <row r="177" ht="130" customHeight="1">
-      <c r="A177" s="2" t="inlineStr">
-        <is>
-          <t>IA-5 (1) (e)</t>
-        </is>
-      </c>
-      <c r="B177" s="2" t="inlineStr">
-        <is>
-          <t>CCI-000200</t>
-        </is>
-      </c>
-      <c r="C177" s="2" t="inlineStr">
-        <is>
-          <t>SRG-OS-000077-GPOS-00045</t>
-        </is>
-      </c>
-      <c r="D177" s="2" t="inlineStr">
-        <is>
-          <t>CCE-89176-2</t>
-        </is>
-      </c>
-      <c r="E177" s="2" t="inlineStr">
-        <is>
-          <t>The operating system must prohibit password reuse for a minimum of five generations.</t>
-        </is>
-      </c>
-      <c r="F177" s="2" t="inlineStr">
-        <is>
-          <t>Red Hat Enterprise Linux 9 must prohibit password reuse for a minimum of five generations.</t>
-        </is>
-      </c>
-      <c r="G177" s="2" t="inlineStr">
-        <is>
-          <t>Password complexity, or strength, is a measure of the effectiveness of a password in resisting attempts at guessing and brute-force attacks. If the information system or application allows the user to consecutively reuse their password when that password has exceeded its defined lifetime, the end result is a password that is not changed as per policy requirements.</t>
-        </is>
-      </c>
-      <c r="H177" s="2" t="inlineStr">
-        <is>
-          <t>Preventing re-use of previous passwords helps ensure that a compromised password is not re-used by a user.</t>
-        </is>
-      </c>
-      <c r="I177" s="2" t="inlineStr">
-        <is>
-          <t>Applicable - Configurable</t>
-        </is>
-      </c>
-      <c r="J177" s="2" t="inlineStr">
-        <is>
-          <t>Verify the operating system prohibits password reuse for a minimum of five generations. If it does not, this is a finding.</t>
-        </is>
-      </c>
-      <c r="K177" s="2" t="inlineStr">
-        <is>
-          <t>Check that the operating system prohibits the reuse of a password for
-a minimum of    generations with the following command:
- # grep pam_pwhistory.so /etc/pam.d/system-auth
-password  pam_pwhistory.so remember= use_authtok 
-If the command does not return a result, or the returned line is commented
-out, has a second column value different from   , does not contain
-"remember" value, or the value is less than
-  , this is a finding.
-If the value of remember is not set equal to or greater than  then this is a finding.</t>
-        </is>
-      </c>
-      <c r="L177" s="2" t="n"/>
-      <c r="M177" s="2" t="inlineStr"/>
-      <c r="N177" s="2" t="inlineStr">
-        <is>
-          <t>CAT II</t>
-        </is>
-      </c>
-      <c r="O177" s="2" t="n"/>
-      <c r="P177" s="2" t="n"/>
-      <c r="Q177" s="2" t="n"/>
-    </row>
-    <row r="178" ht="130" customHeight="1">
-      <c r="A178" s="2" t="inlineStr">
-        <is>
-          <t>IA-5 (1) (e)</t>
-        </is>
-      </c>
-      <c r="B178" s="2" t="inlineStr">
-        <is>
-          <t>CCI-000200</t>
-        </is>
-      </c>
-      <c r="C178" s="2" t="inlineStr">
-        <is>
-          <t>SRG-OS-000077-GPOS-00045</t>
-        </is>
-      </c>
-      <c r="D178" s="2" t="inlineStr">
-        <is>
-          <t>CCE-83584-3</t>
-        </is>
-      </c>
-      <c r="E178" s="2" t="inlineStr">
-        <is>
-          <t>The operating system must prohibit password reuse for a minimum of five generations.</t>
-        </is>
-      </c>
-      <c r="F178" s="2" t="inlineStr">
-        <is>
-          <t>Red Hat Enterprise Linux 9 must prohibit password reuse for a minimum of five generations.</t>
-        </is>
-      </c>
-      <c r="G178" s="2" t="inlineStr">
-        <is>
-          <t>Password complexity, or strength, is a measure of the effectiveness of a password in resisting attempts at guessing and brute-force attacks. If the information system or application allows the user to consecutively reuse their password when that password has exceeded its defined lifetime, the end result is a password that is not changed as per policy requirements.</t>
-        </is>
-      </c>
-      <c r="H178" s="2" t="inlineStr">
-        <is>
-          <t>Preventing re-use of previous passwords helps ensure that a compromised password is not re-used by a user.</t>
-        </is>
-      </c>
-      <c r="I178" s="2" t="inlineStr">
-        <is>
-          <t>Applicable - Configurable</t>
-        </is>
-      </c>
-      <c r="J178" s="2" t="inlineStr">
-        <is>
-          <t>Verify the operating system prohibits password reuse for a minimum of five generations. If it does not, this is a finding.</t>
-        </is>
-      </c>
-      <c r="K178" s="2" t="inlineStr">
-        <is>
-          <t>To verify the password reuse setting is compliant, run the following command:
- $ grep remember /etc/pam.d/system-auth 
-The output should show the following at the end of the line:
- remember= 
-If the value of remember is not set equal to or greater than the expected setting then this is a finding.</t>
-        </is>
-      </c>
-      <c r="L178" s="2" t="n"/>
-      <c r="M178" s="2" t="inlineStr"/>
-      <c r="N178" s="2" t="inlineStr">
-        <is>
-          <t>CAT II</t>
-        </is>
-      </c>
-      <c r="O178" s="2" t="n"/>
-      <c r="P178" s="2" t="n"/>
-      <c r="Q178" s="2" t="n"/>
-    </row>
-    <row r="179" ht="130" customHeight="1">
-      <c r="A179" s="2" t="inlineStr">
-        <is>
-          <t>AU-6 (4)</t>
-        </is>
-      </c>
-      <c r="B179" s="2" t="inlineStr">
-        <is>
-          <t>CCI-000154</t>
-        </is>
-      </c>
-      <c r="C179" s="2" t="inlineStr">
-        <is>
-          <t>SRG-OS-000051-GPOS-00024</t>
-        </is>
-      </c>
-      <c r="D179" s="2" t="inlineStr">
-        <is>
-          <t>CCE-83704-7</t>
-        </is>
-      </c>
-      <c r="E179" s="2" t="inlineStr">
-        <is>
-          <t>The operating system must provide the capability to centrally review and analyze audit records from multiple components within the system.</t>
-        </is>
-      </c>
-      <c r="F179" s="2" t="inlineStr">
-        <is>
-          <t>Red Hat Enterprise Linux 9 must provide the capability to centrally review and analyze audit records from multiple components within the system.</t>
-        </is>
-      </c>
-      <c r="G179" s="2" t="inlineStr">
-        <is>
-          <t>Successful incident response and auditing relies on timely, accurate system information and analysis in order to allow the organization to identify and respond to potential incidents in a proficient manner. If the operating system does not provide the ability to centrally review the operating system logs, forensic analysis is negatively impacted.
-Segregation of logging data to multiple disparate computer systems is counterproductive and makes log analysis and log event alarming difficult to implement and manage, particularly when the system has multiple logging components writing to different locations or systems.
-To support the centralized capability, the operating system must be able to provide the information in a format that can be extracted and used, allowing the application performing the centralization of the log records to meet this requirement.</t>
-        </is>
-      </c>
-      <c r="H179" s="2" t="inlineStr">
-        <is>
-          <t>If option  freq  isn't set to  50 , the flush to disk
-may happen after higher number of records, increasing the danger
-of audit loss.</t>
-        </is>
-      </c>
-      <c r="I179" s="2" t="inlineStr">
-        <is>
-          <t>Applicable - Configurable</t>
-        </is>
-      </c>
-      <c r="J179" s="2" t="inlineStr">
-        <is>
-          <t>Verify the operating system provides the capability to centrally review and analyze audit records from multiple components within the system. If it does not, this is a finding.</t>
-        </is>
-      </c>
-      <c r="K179" s="2" t="inlineStr">
-        <is>
-          <t>To verify that Audit Daemon is configured to flush to disk after
-every 50 records, run the following command:
- $ sudo grep freq /etc/audit/auditd.conf 
-The output should return the following:
- freq = 50 
-If freq isn't set to 50 then this is a finding.</t>
-        </is>
-      </c>
-      <c r="L179" s="2" t="n"/>
-      <c r="M179" s="2" t="inlineStr"/>
-      <c r="N179" s="2" t="inlineStr">
-        <is>
-          <t>CAT II</t>
-        </is>
-      </c>
-      <c r="O179" s="2" t="n"/>
-      <c r="P179" s="2" t="n"/>
-      <c r="Q179" s="2" t="n"/>
-    </row>
-    <row r="180" ht="130" customHeight="1">
-      <c r="A180" s="2" t="inlineStr">
-        <is>
-          <t>AU-6 (4),AU-4 (1),CM-6 b</t>
-        </is>
-      </c>
-      <c r="B180" s="2" t="inlineStr">
-        <is>
-          <t>CCI-001311,CCI-001312,CCI-000366</t>
-        </is>
-      </c>
-      <c r="C180" s="2" t="inlineStr">
-        <is>
-          <t>SRG-OS-000479-GPOS-00224,SRG-OS-000051-GPOS-00024,SRG-OS-000480-GPOS-00227</t>
-        </is>
-      </c>
-      <c r="D180" s="2" t="inlineStr">
-        <is>
-          <t>CCE-84063-7</t>
-        </is>
-      </c>
-      <c r="E180" s="2" t="inlineStr">
-        <is>
-          <t>The operating system must provide the capability to centrally review and analyze audit records from multiple components within the system.</t>
-        </is>
-      </c>
-      <c r="F180" s="2" t="inlineStr">
-        <is>
-          <t>Red Hat Enterprise Linux 9 must provide the capability to centrally review and analyze audit records from multiple components within the system.</t>
-        </is>
-      </c>
-      <c r="G180" s="2" t="inlineStr">
-        <is>
-          <t>Successful incident response and auditing relies on timely, accurate system information and analysis in order to allow the organization to identify and respond to potential incidents in a proficient manner. If the operating system does not provide the ability to centrally review the operating system logs, forensic analysis is negatively impacted.
-Segregation of logging data to multiple disparate computer systems is counterproductive and makes log analysis and log event alarming difficult to implement and manage, particularly when the system has multiple logging components writing to different locations or systems.
-To support the centralized capability, the operating system must be able to provide the information in a format that can be extracted and used, allowing the application performing the centralization of the log records to meet this requirement.</t>
-        </is>
-      </c>
-      <c r="H180" s="2" t="inlineStr">
-        <is>
-          <t>The rsyslog package provides the rsyslog daemon, which provides
-system logging services.</t>
-        </is>
-      </c>
-      <c r="I180" s="2" t="inlineStr">
-        <is>
-          <t>Applicable - Configurable</t>
-        </is>
-      </c>
-      <c r="J180" s="2" t="inlineStr">
-        <is>
-          <t>Verify the operating system provides the capability to centrally review and analyze audit records from multiple components within the system. If it does not, this is a finding.</t>
-        </is>
-      </c>
-      <c r="K180" s="2" t="inlineStr">
-        <is>
-          <t>Run the following command to determine if the  rsyslog  package is installed:  $ rpm -q rsyslog 
-If the package is not installed then this is a finding.</t>
-        </is>
-      </c>
-      <c r="L180" s="2" t="n"/>
-      <c r="M180" s="2" t="inlineStr"/>
-      <c r="N180" s="2" t="inlineStr">
-        <is>
-          <t>CAT II</t>
-        </is>
-      </c>
-      <c r="O180" s="2" t="n"/>
-      <c r="P180" s="2" t="n"/>
-      <c r="Q180" s="2" t="n"/>
-    </row>
-    <row r="181" ht="130" customHeight="1">
-      <c r="A181" s="2" t="inlineStr">
-        <is>
-          <t>AC-17 (1),CM-7 b,CM-6 b</t>
-        </is>
-      </c>
-      <c r="B181" s="2" t="inlineStr">
-        <is>
-          <t>CCI-000366,CCI-000382,CCI-002314</t>
-        </is>
-      </c>
-      <c r="C181" s="2" t="inlineStr">
-        <is>
-          <t>SRG-OS-000096-GPOS-00050,SRG-OS-000297-GPOS-00115,SRG-OS-000480-GPOS-00227,SRG-OS-000480-GPOS-00231,SRG-OS-000480-GPOS-00232</t>
-        </is>
-      </c>
-      <c r="D181" s="2" t="inlineStr">
-        <is>
-          <t>CCE-90833-5</t>
-        </is>
-      </c>
-      <c r="E181" s="2" t="inlineStr">
-        <is>
-          <t>The operating system must enable an application firewall, if available.</t>
-        </is>
-      </c>
-      <c r="F181" s="2" t="inlineStr">
-        <is>
-          <t>Red Hat Enterprise Linux 9 must enable an application firewall, if available.</t>
-        </is>
-      </c>
-      <c r="G181" s="2" t="inlineStr">
-        <is>
-          <t>Firewalls protect computers from network attacks by blocking or limiting access to open network ports. Application firewalls limit which applications are allowed to communicate over the network.</t>
-        </is>
-      </c>
-      <c r="H181" s="2" t="inlineStr">
-        <is>
-          <t>Access control methods provide the ability to enhance system security posture
-by restricting services and known good IP addresses and address ranges. This
-prevents connections from unknown hosts and protocols.</t>
-        </is>
-      </c>
-      <c r="I181" s="2" t="inlineStr">
-        <is>
-          <t>Applicable - Configurable</t>
-        </is>
-      </c>
-      <c r="J181" s="2" t="inlineStr">
-        <is>
-          <t>Verify the operating system enabled an application firewall, if available. If it does not, this is a finding. If the operating system does not support an application firewall, this may be downgraded to a CAT III finding.</t>
-        </is>
-      </c>
-      <c r="K181" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Run the following command to determine the current status of the
- firewalld  service:
- $ systemctl is-active firewalld 
-If the service is running, it should return the following:  active 
-If the service is not enabled then this is a finding.</t>
-        </is>
-      </c>
-      <c r="L181" s="2" t="n"/>
-      <c r="M181" s="2" t="inlineStr">
-        <is>
-          <t>To enable the firewalld service run the following command:
-$ systemctl enable --now firewalld</t>
-        </is>
-      </c>
-      <c r="N181" s="2" t="inlineStr">
-        <is>
-          <t>CAT II</t>
-        </is>
-      </c>
-      <c r="O181" s="2" t="n"/>
-      <c r="P181" s="2" t="n"/>
-      <c r="Q181" s="2" t="n"/>
-    </row>
-    <row r="182" ht="130" customHeight="1">
-      <c r="A182" s="2" t="inlineStr">
-        <is>
-          <t>AU-9,SI-11 b</t>
-        </is>
-      </c>
-      <c r="B182" s="2" t="inlineStr">
-        <is>
-          <t>CCI-000162,CCI-000163,CCI-000164,CCI-001314</t>
-        </is>
-      </c>
-      <c r="C182" s="2" t="inlineStr">
-        <is>
-          <t>SRG-OS-000057-GPOS-00027,SRG-OS-000058-GPOS-00028,SRG-OS-000059-GPOS-00029,SRG-OS-000206-GPOS-00084</t>
-        </is>
-      </c>
-      <c r="D182" s="2" t="inlineStr">
-        <is>
-          <t>CCE-90516-6</t>
-        </is>
-      </c>
-      <c r="E182" s="2" t="inlineStr">
-        <is>
-          <t>The operating system must reveal error messages only to authorized users.</t>
-        </is>
-      </c>
-      <c r="F182" s="2" t="inlineStr">
-        <is>
-          <t>Red Hat Enterprise Linux 9 must reveal error messages only to authorized users.</t>
-        </is>
-      </c>
-      <c r="G182" s="2" t="inlineStr">
-        <is>
-          <t>Only authorized personnel should be aware of errors and the details of the errors. Error messages are an indicator of an organization's operational state or can identify the operating system or platform. Additionally, Personally Identifiable Information (PII) and operational information must not be revealed through error messages to unauthorized personnel or their designated representatives.
-The structure and content of error messages must be carefully considered by the organization and development team. The extent to which the information system is able to identify and handle error conditions is guided by organizational policy and operational requirements.</t>
-        </is>
-      </c>
-      <c r="H182" s="2" t="inlineStr">
-        <is>
-          <t>Unauthorized disclosure of audit records can reveal system and configuration data to
-attackers, thus compromising its confidentiality.</t>
-        </is>
-      </c>
-      <c r="I182" s="2" t="inlineStr">
-        <is>
-          <t>Applicable - Configurable</t>
-        </is>
-      </c>
-      <c r="J182" s="2" t="inlineStr">
-        <is>
-          <t>Verify the operating system reveals error messages only to authorized users. If it does not, this is a finding.</t>
-        </is>
-      </c>
-      <c r="K182" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-To properly set the group owner of  /var/log/audit , run the command:
- $ sudo chgrp root /var/log/audit 
-If  then this is a finding.</t>
-        </is>
-      </c>
-      <c r="L182" s="2" t="n"/>
-      <c r="M182" s="2" t="inlineStr"/>
-      <c r="N182" s="2" t="inlineStr">
-        <is>
-          <t>CAT II</t>
-        </is>
-      </c>
-      <c r="O182" s="2" t="n"/>
-      <c r="P182" s="2" t="n"/>
-      <c r="Q182" s="2" t="n"/>
-    </row>
-    <row r="183" ht="130" customHeight="1">
-      <c r="A183" s="2" t="inlineStr">
-        <is>
-          <t>AU-9,SI-11 b</t>
-        </is>
-      </c>
-      <c r="B183" s="2" t="inlineStr">
-        <is>
-          <t>CCI-000162,CCI-000163,CCI-000164,CCI-001314</t>
-        </is>
-      </c>
-      <c r="C183" s="2" t="inlineStr">
-        <is>
-          <t>SRG-OS-000057-GPOS-00027,SRG-OS-000058-GPOS-00028,SRG-OS-000059-GPOS-00029,SRG-OS-000206-GPOS-00084</t>
-        </is>
-      </c>
-      <c r="D183" s="2" t="inlineStr">
-        <is>
-          <t>CCE-85869-6</t>
-        </is>
-      </c>
-      <c r="E183" s="2" t="inlineStr">
-        <is>
-          <t>The operating system must reveal error messages only to authorized users.</t>
-        </is>
-      </c>
-      <c r="F183" s="2" t="inlineStr">
-        <is>
-          <t>Red Hat Enterprise Linux 9 must reveal error messages only to authorized users.</t>
-        </is>
-      </c>
-      <c r="G183" s="2" t="inlineStr">
-        <is>
-          <t>Only authorized personnel should be aware of errors and the details of the errors. Error messages are an indicator of an organization's operational state or can identify the operating system or platform. Additionally, Personally Identifiable Information (PII) and operational information must not be revealed through error messages to unauthorized personnel or their designated representatives.
-The structure and content of error messages must be carefully considered by the organization and development team. The extent to which the information system is able to identify and handle error conditions is guided by organizational policy and operational requirements.</t>
-        </is>
-      </c>
-      <c r="H183" s="2" t="inlineStr">
-        <is>
-          <t>Unauthorized disclosure of audit records can reveal system and configuration data to
-attackers, thus compromising its confidentiality.</t>
-        </is>
-      </c>
-      <c r="I183" s="2" t="inlineStr">
-        <is>
-          <t>Applicable - Configurable</t>
-        </is>
-      </c>
-      <c r="J183" s="2" t="inlineStr">
-        <is>
-          <t>Verify the operating system reveals error messages only to authorized users. If it does not, this is a finding.</t>
-        </is>
-      </c>
-      <c r="K183" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-To properly set the owner of  /var/log/audit , run the command:
- $ sudo chown root /var/log/audit  
-If  then this is a finding.</t>
-        </is>
-      </c>
-      <c r="L183" s="2" t="n"/>
-      <c r="M183" s="2" t="inlineStr"/>
-      <c r="N183" s="2" t="inlineStr">
-        <is>
-          <t>CAT II</t>
-        </is>
-      </c>
-      <c r="O183" s="2" t="n"/>
-      <c r="P183" s="2" t="n"/>
-      <c r="Q183" s="2" t="n"/>
-    </row>
-    <row r="184" ht="130" customHeight="1">
-      <c r="A184" s="2" t="inlineStr">
-        <is>
-          <t>AU-9,SI-11 b</t>
-        </is>
-      </c>
-      <c r="B184" s="2" t="inlineStr">
-        <is>
-          <t>CCI-000162,CCI-000163,CCI-000164,CCI-001314</t>
-        </is>
-      </c>
-      <c r="C184" s="2" t="inlineStr">
-        <is>
-          <t>SRG-OS-000057-GPOS-00027,SRG-OS-000058-GPOS-00028,SRG-OS-000059-GPOS-00029,SRG-OS-000206-GPOS-00084</t>
-        </is>
-      </c>
-      <c r="D184" s="2" t="inlineStr">
-        <is>
-          <t>CCE-89603-5</t>
-        </is>
-      </c>
-      <c r="E184" s="2" t="inlineStr">
-        <is>
-          <t>The operating system must reveal error messages only to authorized users.</t>
-        </is>
-      </c>
-      <c r="F184" s="2" t="inlineStr">
-        <is>
-          <t>Red Hat Enterprise Linux 9 must reveal error messages only to authorized users.</t>
-        </is>
-      </c>
-      <c r="G184" s="2" t="inlineStr">
-        <is>
-          <t>Only authorized personnel should be aware of errors and the details of the errors. Error messages are an indicator of an organization's operational state or can identify the operating system or platform. Additionally, Personally Identifiable Information (PII) and operational information must not be revealed through error messages to unauthorized personnel or their designated representatives.
-The structure and content of error messages must be carefully considered by the organization and development team. The extent to which the information system is able to identify and handle error conditions is guided by organizational policy and operational requirements.</t>
-        </is>
-      </c>
-      <c r="H184" s="2" t="inlineStr">
-        <is>
-          <t>Unauthorized disclosure of audit records can reveal system and configuration data to
-attackers, thus compromising its confidentiality.</t>
-        </is>
-      </c>
-      <c r="I184" s="2" t="inlineStr">
-        <is>
-          <t>Applicable - Configurable</t>
-        </is>
-      </c>
-      <c r="J184" s="2" t="inlineStr">
-        <is>
-          <t>Verify the operating system reveals error messages only to authorized users. If it does not, this is a finding.</t>
-        </is>
-      </c>
-      <c r="K184" s="2" t="inlineStr">
-        <is>
-          <t>Run the following commands to check who owns the system audit logs:
- $ sudo grep -iw ^log_file /etc/audit/auditd.conf 
- log_file = /var/log/audit/audit.log 
- $ sudo stat -c "%n %G"  log_file  
-Audit logs must be owned by group root or adm.
-If  then this is a finding.</t>
-        </is>
-      </c>
-      <c r="L184" s="2" t="n"/>
-      <c r="M184" s="2" t="inlineStr"/>
-      <c r="N184" s="2" t="inlineStr">
-        <is>
-          <t>CAT II</t>
-        </is>
-      </c>
-      <c r="O184" s="2" t="n"/>
-      <c r="P184" s="2" t="n"/>
-      <c r="Q184" s="2" t="n"/>
-    </row>
-    <row r="185" ht="130" customHeight="1">
-      <c r="A185" s="2" t="inlineStr">
-        <is>
-          <t>AU-9,SI-11 b</t>
-        </is>
-      </c>
-      <c r="B185" s="2" t="inlineStr">
-        <is>
-          <t>CCI-000162,CCI-000163,CCI-000164,CCI-001314</t>
-        </is>
-      </c>
-      <c r="C185" s="2" t="inlineStr">
-        <is>
-          <t>SRG-OS-000057-GPOS-00027,SRG-OS-000058-GPOS-00028,SRG-OS-000059-GPOS-00029,SRG-OS-000206-GPOS-00084</t>
-        </is>
-      </c>
-      <c r="D185" s="2" t="inlineStr">
-        <is>
-          <t>CCE-83726-0</t>
-        </is>
-      </c>
-      <c r="E185" s="2" t="inlineStr">
-        <is>
-          <t>The operating system must reveal error messages only to authorized users.</t>
-        </is>
-      </c>
-      <c r="F185" s="2" t="inlineStr">
-        <is>
-          <t>Red Hat Enterprise Linux 9 must reveal error messages only to authorized users.</t>
-        </is>
-      </c>
-      <c r="G185" s="2" t="inlineStr">
-        <is>
-          <t>Only authorized personnel should be aware of errors and the details of the errors. Error messages are an indicator of an organization's operational state or can identify the operating system or platform. Additionally, Personally Identifiable Information (PII) and operational information must not be revealed through error messages to unauthorized personnel or their designated representatives.
-The structure and content of error messages must be carefully considered by the organization and development team. The extent to which the information system is able to identify and handle error conditions is guided by organizational policy and operational requirements.</t>
-        </is>
-      </c>
-      <c r="H185" s="2" t="inlineStr">
-        <is>
-          <t>Unauthorized disclosure of audit records can reveal system and configuration data to
-attackers, thus compromising its confidentiality.</t>
-        </is>
-      </c>
-      <c r="I185" s="2" t="inlineStr">
-        <is>
-          <t>Applicable - Configurable</t>
-        </is>
-      </c>
-      <c r="J185" s="2" t="inlineStr">
-        <is>
-          <t>Verify the operating system reveals error messages only to authorized users. If it does not, this is a finding.</t>
-        </is>
-      </c>
-      <c r="K185" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-To properly set the owner of  /var/log/audit , run the command:
- $ sudo chown root /var/log/audit  
-To properly set the owner of  /var/log/audit/* , run the command:
- $ sudo chown root /var/log/audit/*  
-If  then this is a finding.</t>
-        </is>
-      </c>
-      <c r="L185" s="2" t="n"/>
-      <c r="M185" s="2" t="inlineStr"/>
-      <c r="N185" s="2" t="inlineStr">
-        <is>
-          <t>CAT II</t>
-        </is>
-      </c>
-      <c r="O185" s="2" t="n"/>
-      <c r="P185" s="2" t="n"/>
-      <c r="Q185" s="2" t="n"/>
-    </row>
-    <row r="186" ht="130" customHeight="1">
-      <c r="A186" s="2" t="inlineStr">
-        <is>
-          <t>AU-9,SI-11 b</t>
-        </is>
-      </c>
-      <c r="B186" s="2" t="inlineStr">
-        <is>
-          <t>CCI-000162,CCI-000163,CCI-000164,CCI-001314</t>
-        </is>
-      </c>
-      <c r="C186" s="2" t="inlineStr">
-        <is>
-          <t>SRG-OS-000057-GPOS-00027,SRG-OS-000058-GPOS-00028,SRG-OS-000059-GPOS-00029,SRG-OS-000206-GPOS-00084</t>
-        </is>
-      </c>
-      <c r="D186" s="2" t="inlineStr">
-        <is>
-          <t>CCE-89952-6</t>
-        </is>
-      </c>
-      <c r="E186" s="2" t="inlineStr">
-        <is>
-          <t>The operating system must reveal error messages only to authorized users.</t>
-        </is>
-      </c>
-      <c r="F186" s="2" t="inlineStr">
-        <is>
-          <t>Red Hat Enterprise Linux 9 must reveal error messages only to authorized users.</t>
-        </is>
-      </c>
-      <c r="G186" s="2" t="inlineStr">
-        <is>
-          <t>Only authorized personnel should be aware of errors and the details of the errors. Error messages are an indicator of an organization's operational state or can identify the operating system or platform. Additionally, Personally Identifiable Information (PII) and operational information must not be revealed through error messages to unauthorized personnel or their designated representatives.
-The structure and content of error messages must be carefully considered by the organization and development team. The extent to which the information system is able to identify and handle error conditions is guided by organizational policy and operational requirements.</t>
-        </is>
-      </c>
-      <c r="H186" s="2" t="inlineStr">
-        <is>
-          <t>Unauthorized disclosure of audit records can reveal system and configuration data to
-attackers, thus compromising its confidentiality.</t>
-        </is>
-      </c>
-      <c r="I186" s="2" t="inlineStr">
-        <is>
-          <t>Applicable - Configurable</t>
-        </is>
-      </c>
-      <c r="J186" s="2" t="inlineStr">
-        <is>
-          <t>Verify the operating system reveals error messages only to authorized users. If it does not, this is a finding.</t>
-        </is>
-      </c>
-      <c r="K186" s="2" t="inlineStr">
-        <is>
-          <t>Run the following commands to check who owns the system audit logs:
- $ sudo grep -iw log_file /etc/audit/auditd.conf 
- log_file = /var/log/audit/audit.log 
- sudo stat -c "%n %U" /var/log/audit/* 
-Audit logs must be owned by user root.
-If  then this is a finding.</t>
-        </is>
-      </c>
-      <c r="L186" s="2" t="n"/>
-      <c r="M186" s="2" t="inlineStr"/>
-      <c r="N186" s="2" t="inlineStr">
-        <is>
-          <t>CAT II</t>
-        </is>
-      </c>
-      <c r="O186" s="2" t="n"/>
-      <c r="P186" s="2" t="n"/>
-      <c r="Q186" s="2" t="n"/>
-    </row>
-    <row r="187" ht="130" customHeight="1">
-      <c r="A187" s="2" t="inlineStr">
-        <is>
-          <t>AU-9,SI-11 b</t>
-        </is>
-      </c>
-      <c r="B187" s="2" t="inlineStr">
-        <is>
-          <t>CCI-000162,CCI-000163,CCI-000164,CCI-001314</t>
-        </is>
-      </c>
-      <c r="C187" s="2" t="inlineStr">
-        <is>
-          <t>SRG-OS-000057-GPOS-00027,SRG-OS-000058-GPOS-00028,SRG-OS-000059-GPOS-00029,SRG-OS-000206-GPOS-00084</t>
-        </is>
-      </c>
-      <c r="D187" s="2" t="inlineStr">
-        <is>
-          <t>CCE-83720-3</t>
-        </is>
-      </c>
-      <c r="E187" s="2" t="inlineStr">
-        <is>
-          <t>The operating system must reveal error messages only to authorized users.</t>
-        </is>
-      </c>
-      <c r="F187" s="2" t="inlineStr">
-        <is>
-          <t>Red Hat Enterprise Linux 9 must reveal error messages only to authorized users.</t>
-        </is>
-      </c>
-      <c r="G187" s="2" t="inlineStr">
-        <is>
-          <t>Only authorized personnel should be aware of errors and the details of the errors. Error messages are an indicator of an organization's operational state or can identify the operating system or platform. Additionally, Personally Identifiable Information (PII) and operational information must not be revealed through error messages to unauthorized personnel or their designated representatives.
-The structure and content of error messages must be carefully considered by the organization and development team. The extent to which the information system is able to identify and handle error conditions is guided by organizational policy and operational requirements.</t>
-        </is>
-      </c>
-      <c r="H187" s="2" t="inlineStr">
-        <is>
-          <t>If users can write to audit logs, audit trails can be modified or destroyed.</t>
-        </is>
-      </c>
-      <c r="I187" s="2" t="inlineStr">
-        <is>
-          <t>Applicable - Configurable</t>
-        </is>
-      </c>
-      <c r="J187" s="2" t="inlineStr">
-        <is>
-          <t>Verify the operating system reveals error messages only to authorized users. If it does not, this is a finding.</t>
-        </is>
-      </c>
-      <c r="K187" s="2" t="inlineStr">
-        <is>
-          <t>Run the following command to check the mode of the system audit logs:
- $ sudo grep -iw log_file /etc/audit/auditd.conf 
- log_file=/var/log/audit/audit.log 
- $ sudo stat -c "%n %a" /var/log/audit/* 
- $ sudo ls -l /var/log/audit 
-Audit logs must be mode 0640 or less permissive.
-If any are more permissive then this is a finding.</t>
-        </is>
-      </c>
-      <c r="L187" s="2" t="n"/>
-      <c r="M187" s="2" t="inlineStr"/>
-      <c r="N187" s="2" t="inlineStr">
-        <is>
-          <t>CAT II</t>
-        </is>
-      </c>
-      <c r="O187" s="2" t="n"/>
-      <c r="P187" s="2" t="n"/>
-      <c r="Q187" s="2" t="n"/>
-    </row>
-    <row r="188" ht="130" customHeight="1">
-      <c r="A188" s="2" t="inlineStr">
-        <is>
-          <t>SI-11 b</t>
-        </is>
-      </c>
-      <c r="B188" s="2" t="inlineStr">
-        <is>
-          <t>CCI-001314</t>
-        </is>
-      </c>
-      <c r="C188" s="2" t="inlineStr">
-        <is>
-          <t>SRG-OS-000206-GPOS-00084</t>
-        </is>
-      </c>
-      <c r="D188" s="2" t="inlineStr">
-        <is>
-          <t>CCE-83912-6</t>
-        </is>
-      </c>
-      <c r="E188" s="2" t="inlineStr">
-        <is>
-          <t>The operating system must reveal error messages only to authorized users.</t>
-        </is>
-      </c>
-      <c r="F188" s="2" t="inlineStr">
-        <is>
-          <t>Red Hat Enterprise Linux 9 must reveal error messages only to authorized users.</t>
-        </is>
-      </c>
-      <c r="G188" s="2" t="inlineStr">
-        <is>
-          <t>Only authorized personnel should be aware of errors and the details of the errors. Error messages are an indicator of an organization's operational state or can identify the operating system or platform. Additionally, Personally Identifiable Information (PII) and operational information must not be revealed through error messages to unauthorized personnel or their designated representatives.
-The structure and content of error messages must be carefully considered by the organization and development team. The extent to which the information system is able to identify and handle error conditions is guided by organizational policy and operational requirements.</t>
-        </is>
-      </c>
-      <c r="H188" s="2" t="inlineStr">
-        <is>
-          <t>The  /var/log  directory contains files with logs of error
-messages in the system and should only be accessed by authorized
-personnel.</t>
-        </is>
-      </c>
-      <c r="I188" s="2" t="inlineStr">
-        <is>
-          <t>Applicable - Configurable</t>
-        </is>
-      </c>
-      <c r="J188" s="2" t="inlineStr">
-        <is>
-          <t>Verify the operating system reveals error messages only to authorized users. If it does not, this is a finding.</t>
-        </is>
-      </c>
-      <c r="K188" s="2" t="inlineStr">
-        <is>
-          <t>To check the group ownership of  /var/log ,
-run the command:
- $ ls -lL /var/log 
-If properly configured, the output should indicate the following group-owner:
- root 
-If /var/log has group owner root then this is a finding.</t>
-        </is>
-      </c>
-      <c r="L188" s="2" t="n"/>
-      <c r="M188" s="2" t="inlineStr"/>
-      <c r="N188" s="2" t="inlineStr">
-        <is>
-          <t>CAT II</t>
-        </is>
-      </c>
-      <c r="O188" s="2" t="n"/>
-      <c r="P188" s="2" t="n"/>
-      <c r="Q188" s="2" t="n"/>
-    </row>
-    <row r="189" ht="130" customHeight="1">
-      <c r="A189" s="2" t="inlineStr">
-        <is>
-          <t>SI-11 b</t>
-        </is>
-      </c>
-      <c r="B189" s="2" t="inlineStr">
-        <is>
-          <t>CCI-001314</t>
-        </is>
-      </c>
-      <c r="C189" s="2" t="inlineStr">
-        <is>
-          <t>SRG-OS-000206-GPOS-00084</t>
-        </is>
-      </c>
-      <c r="D189" s="2" t="inlineStr">
-        <is>
-          <t>CCE-83916-7</t>
-        </is>
-      </c>
-      <c r="E189" s="2" t="inlineStr">
-        <is>
-          <t>The operating system must reveal error messages only to authorized users.</t>
-        </is>
-      </c>
-      <c r="F189" s="2" t="inlineStr">
-        <is>
-          <t>Red Hat Enterprise Linux 9 must reveal error messages only to authorized users.</t>
-        </is>
-      </c>
-      <c r="G189" s="2" t="inlineStr">
-        <is>
-          <t>Only authorized personnel should be aware of errors and the details of the errors. Error messages are an indicator of an organization's operational state or can identify the operating system or platform. Additionally, Personally Identifiable Information (PII) and operational information must not be revealed through error messages to unauthorized personnel or their designated representatives.
-The structure and content of error messages must be carefully considered by the organization and development team. The extent to which the information system is able to identify and handle error conditions is guided by organizational policy and operational requirements.</t>
-        </is>
-      </c>
-      <c r="H189" s="2" t="inlineStr">
-        <is>
-          <t>The  /var/log/messages  file contains logs of error messages in
-the system and should only be accessed by authorized personnel.</t>
-        </is>
-      </c>
-      <c r="I189" s="2" t="inlineStr">
-        <is>
-          <t>Applicable - Configurable</t>
-        </is>
-      </c>
-      <c r="J189" s="2" t="inlineStr">
-        <is>
-          <t>Verify the operating system reveals error messages only to authorized users. If it does not, this is a finding.</t>
-        </is>
-      </c>
-      <c r="K189" s="2" t="inlineStr">
-        <is>
-          <t>To check the group ownership of  /var/log/messages ,
-run the command:
- $ ls -lL /var/log/messages 
-If properly configured, the output should indicate the following group-owner:
- root 
-If /var/log/messages has group owner root then this is a finding.</t>
-        </is>
-      </c>
-      <c r="L189" s="2" t="n"/>
-      <c r="M189" s="2" t="inlineStr"/>
-      <c r="N189" s="2" t="inlineStr">
-        <is>
-          <t>CAT II</t>
-        </is>
-      </c>
-      <c r="O189" s="2" t="n"/>
-      <c r="P189" s="2" t="n"/>
-      <c r="Q189" s="2" t="n"/>
-    </row>
-    <row r="190" ht="130" customHeight="1">
-      <c r="A190" s="2" t="inlineStr">
-        <is>
-          <t>SI-11 b</t>
-        </is>
-      </c>
-      <c r="B190" s="2" t="inlineStr">
-        <is>
-          <t>CCI-001314</t>
-        </is>
-      </c>
-      <c r="C190" s="2" t="inlineStr">
-        <is>
-          <t>SRG-OS-000206-GPOS-00084</t>
-        </is>
-      </c>
-      <c r="D190" s="2" t="inlineStr">
-        <is>
-          <t>CCE-83914-2</t>
-        </is>
-      </c>
-      <c r="E190" s="2" t="inlineStr">
-        <is>
-          <t>The operating system must reveal error messages only to authorized users.</t>
-        </is>
-      </c>
-      <c r="F190" s="2" t="inlineStr">
-        <is>
-          <t>Red Hat Enterprise Linux 9 must reveal error messages only to authorized users.</t>
-        </is>
-      </c>
-      <c r="G190" s="2" t="inlineStr">
-        <is>
-          <t>Only authorized personnel should be aware of errors and the details of the errors. Error messages are an indicator of an organization's operational state or can identify the operating system or platform. Additionally, Personally Identifiable Information (PII) and operational information must not be revealed through error messages to unauthorized personnel or their designated representatives.
-The structure and content of error messages must be carefully considered by the organization and development team. The extent to which the information system is able to identify and handle error conditions is guided by organizational policy and operational requirements.</t>
-        </is>
-      </c>
-      <c r="H190" s="2" t="inlineStr">
-        <is>
-          <t>The  /var/log  directory contains files with logs of error
-messages in the system and should only be accessed by authorized
-personnel.</t>
-        </is>
-      </c>
-      <c r="I190" s="2" t="inlineStr">
-        <is>
-          <t>Applicable - Configurable</t>
-        </is>
-      </c>
-      <c r="J190" s="2" t="inlineStr">
-        <is>
-          <t>Verify the operating system reveals error messages only to authorized users. If it does not, this is a finding.</t>
-        </is>
-      </c>
-      <c r="K190" s="2" t="inlineStr">
-        <is>
-          <t>To check the ownership of  /var/log ,
-run the command:
- $ ls -lL /var/log 
-If properly configured, the output should indicate the following owner:
- root 
-If /var/log has owner root then this is a finding.</t>
-        </is>
-      </c>
-      <c r="L190" s="2" t="n"/>
-      <c r="M190" s="2" t="inlineStr"/>
-      <c r="N190" s="2" t="inlineStr">
-        <is>
-          <t>CAT II</t>
-        </is>
-      </c>
-      <c r="O190" s="2" t="n"/>
-      <c r="P190" s="2" t="n"/>
-      <c r="Q190" s="2" t="n"/>
-    </row>
-    <row r="191" ht="130" customHeight="1">
-      <c r="A191" s="2" t="inlineStr">
-        <is>
-          <t>SI-11 b</t>
-        </is>
-      </c>
-      <c r="B191" s="2" t="inlineStr">
-        <is>
-          <t>CCI-001314</t>
-        </is>
-      </c>
-      <c r="C191" s="2" t="inlineStr">
-        <is>
-          <t>SRG-OS-000206-GPOS-00084</t>
-        </is>
-      </c>
-      <c r="D191" s="2" t="inlineStr">
-        <is>
-          <t>CCE-83915-9</t>
-        </is>
-      </c>
-      <c r="E191" s="2" t="inlineStr">
-        <is>
-          <t>The operating system must reveal error messages only to authorized users.</t>
-        </is>
-      </c>
-      <c r="F191" s="2" t="inlineStr">
-        <is>
-          <t>Red Hat Enterprise Linux 9 must reveal error messages only to authorized users.</t>
-        </is>
-      </c>
-      <c r="G191" s="2" t="inlineStr">
-        <is>
-          <t>Only authorized personnel should be aware of errors and the details of the errors. Error messages are an indicator of an organization's operational state or can identify the operating system or platform. Additionally, Personally Identifiable Information (PII) and operational information must not be revealed through error messages to unauthorized personnel or their designated representatives.
-The structure and content of error messages must be carefully considered by the organization and development team. The extent to which the information system is able to identify and handle error conditions is guided by organizational policy and operational requirements.</t>
-        </is>
-      </c>
-      <c r="H191" s="2" t="inlineStr">
-        <is>
-          <t>The  /var/log/messages  file contains logs of error messages in
-the system and should only be accessed by authorized personnel.</t>
-        </is>
-      </c>
-      <c r="I191" s="2" t="inlineStr">
-        <is>
-          <t>Applicable - Configurable</t>
-        </is>
-      </c>
-      <c r="J191" s="2" t="inlineStr">
-        <is>
-          <t>Verify the operating system reveals error messages only to authorized users. If it does not, this is a finding.</t>
-        </is>
-      </c>
-      <c r="K191" s="2" t="inlineStr">
-        <is>
-          <t>To check the ownership of  /var/log/messages ,
-run the command:
- $ ls -lL /var/log/messages 
-If properly configured, the output should indicate the following owner:
- root 
-If /var/log/messages has owner root then this is a finding.</t>
-        </is>
-      </c>
-      <c r="L191" s="2" t="n"/>
-      <c r="M191" s="2" t="inlineStr"/>
-      <c r="N191" s="2" t="inlineStr">
-        <is>
-          <t>CAT II</t>
-        </is>
-      </c>
-      <c r="O191" s="2" t="n"/>
-      <c r="P191" s="2" t="n"/>
-      <c r="Q191" s="2" t="n"/>
-    </row>
-    <row r="192" ht="130" customHeight="1">
-      <c r="A192" s="2" t="inlineStr">
-        <is>
-          <t>SI-11 b</t>
-        </is>
-      </c>
-      <c r="B192" s="2" t="inlineStr">
-        <is>
-          <t>CCI-001314</t>
-        </is>
-      </c>
-      <c r="C192" s="2" t="inlineStr">
-        <is>
-          <t>SRG-OS-000206-GPOS-00084</t>
-        </is>
-      </c>
-      <c r="D192" s="2" t="inlineStr">
-        <is>
-          <t>CCE-83917-5</t>
-        </is>
-      </c>
-      <c r="E192" s="2" t="inlineStr">
-        <is>
-          <t>The operating system must reveal error messages only to authorized users.</t>
-        </is>
-      </c>
-      <c r="F192" s="2" t="inlineStr">
-        <is>
-          <t>Red Hat Enterprise Linux 9 must reveal error messages only to authorized users.</t>
-        </is>
-      </c>
-      <c r="G192" s="2" t="inlineStr">
-        <is>
-          <t>Only authorized personnel should be aware of errors and the details of the errors. Error messages are an indicator of an organization's operational state or can identify the operating system or platform. Additionally, Personally Identifiable Information (PII) and operational information must not be revealed through error messages to unauthorized personnel or their designated representatives.
-The structure and content of error messages must be carefully considered by the organization and development team. The extent to which the information system is able to identify and handle error conditions is guided by organizational policy and operational requirements.</t>
-        </is>
-      </c>
-      <c r="H192" s="2" t="inlineStr">
-        <is>
-          <t>The  /var/log  directory contains files with logs of error
-messages in the system and should only be accessed by authorized
-personnel.</t>
-        </is>
-      </c>
-      <c r="I192" s="2" t="inlineStr">
-        <is>
-          <t>Applicable - Configurable</t>
-        </is>
-      </c>
-      <c r="J192" s="2" t="inlineStr">
-        <is>
-          <t>Verify the operating system reveals error messages only to authorized users. If it does not, this is a finding.</t>
-        </is>
-      </c>
-      <c r="K192" s="2" t="inlineStr">
-        <is>
-          <t>To check the permissions of  /var/log ,
-run the command:
- $ ls -l /var/log 
-If properly configured, the output should indicate the following permissions:
- drwxr-xr-x 
-If /var/log has unix mode drwxr-xr-x then this is a finding.</t>
-        </is>
-      </c>
-      <c r="L192" s="2" t="n"/>
-      <c r="M192" s="2" t="inlineStr"/>
-      <c r="N192" s="2" t="inlineStr">
-        <is>
-          <t>CAT II</t>
-        </is>
-      </c>
-      <c r="O192" s="2" t="n"/>
-      <c r="P192" s="2" t="n"/>
-      <c r="Q192" s="2" t="n"/>
-    </row>
-    <row r="193" ht="130" customHeight="1">
-      <c r="A193" s="2" t="inlineStr">
-        <is>
-          <t>SI-11 b</t>
-        </is>
-      </c>
-      <c r="B193" s="2" t="inlineStr">
-        <is>
-          <t>CCI-001314</t>
-        </is>
-      </c>
-      <c r="C193" s="2" t="inlineStr">
-        <is>
-          <t>SRG-OS-000206-GPOS-00084</t>
-        </is>
-      </c>
-      <c r="D193" s="2" t="inlineStr">
-        <is>
-          <t>CCE-83913-4</t>
-        </is>
-      </c>
-      <c r="E193" s="2" t="inlineStr">
-        <is>
-          <t>The operating system must reveal error messages only to authorized users.</t>
-        </is>
-      </c>
-      <c r="F193" s="2" t="inlineStr">
-        <is>
-          <t>Red Hat Enterprise Linux 9 must reveal error messages only to authorized users.</t>
-        </is>
-      </c>
-      <c r="G193" s="2" t="inlineStr">
-        <is>
-          <t>Only authorized personnel should be aware of errors and the details of the errors. Error messages are an indicator of an organization's operational state or can identify the operating system or platform. Additionally, Personally Identifiable Information (PII) and operational information must not be revealed through error messages to unauthorized personnel or their designated representatives.
-The structure and content of error messages must be carefully considered by the organization and development team. The extent to which the information system is able to identify and handle error conditions is guided by organizational policy and operational requirements.</t>
-        </is>
-      </c>
-      <c r="H193" s="2" t="inlineStr">
-        <is>
-          <t>The  /var/log/messages  file contains logs of error messages in
-the system and should only be accessed by authorized personnel.</t>
-        </is>
-      </c>
-      <c r="I193" s="2" t="inlineStr">
-        <is>
-          <t>Applicable - Configurable</t>
-        </is>
-      </c>
-      <c r="J193" s="2" t="inlineStr">
-        <is>
-          <t>Verify the operating system reveals error messages only to authorized users. If it does not, this is a finding.</t>
-        </is>
-      </c>
-      <c r="K193" s="2" t="inlineStr">
-        <is>
-          <t>To check the permissions of  /var/log/messages ,
-run the command:
- $ ls -l /var/log/messages 
-If properly configured, the output should indicate the following permissions:
- -rw-r----- 
-If /var/log/messages has unix mode -rw-r----- then this is a finding.</t>
-        </is>
-      </c>
-      <c r="L193" s="2" t="n"/>
-      <c r="M193" s="2" t="inlineStr"/>
-      <c r="N193" s="2" t="inlineStr">
-        <is>
-          <t>CAT II</t>
-        </is>
-      </c>
-      <c r="O193" s="2" t="n"/>
-      <c r="P193" s="2" t="n"/>
-      <c r="Q193" s="2" t="n"/>
-    </row>
-    <row r="194" ht="130" customHeight="1">
-      <c r="A194" s="2" t="inlineStr">
-        <is>
-          <t>AU-3,CM-6 b</t>
-        </is>
-      </c>
-      <c r="B194" s="2" t="inlineStr">
-        <is>
-          <t>CCI-000366</t>
-        </is>
-      </c>
-      <c r="C194" s="2" t="inlineStr">
-        <is>
-          <t>SRG-OS-000255-GPOS-00096,SRG-OS-000480-GPOS-00227</t>
-        </is>
-      </c>
-      <c r="D194" s="2" t="inlineStr">
-        <is>
-          <t>CCE-83696-5</t>
-        </is>
-      </c>
-      <c r="E194" s="2" t="inlineStr">
-        <is>
-          <t>The operating system must produce audit records containing information to establish the identity of any individual or process associated with the event.</t>
-        </is>
-      </c>
-      <c r="F194" s="2" t="inlineStr">
-        <is>
-          <t>Red Hat Enterprise Linux 9 must produce audit records containing information to establish the identity of any individual or process associated with the event.</t>
-        </is>
-      </c>
-      <c r="G194" s="2" t="inlineStr">
-        <is>
-          <t>Without information that establishes the identity of the subjects (i.e., users or processes acting on behalf of users) associated with the events, security personnel cannot determine responsibility for the potentially harmful event.</t>
-        </is>
-      </c>
-      <c r="H194" s="2" t="inlineStr">
-        <is>
-          <t>If option  log_format  isn't set to  ENRICHED , the
-audit records will be stored in a format exactly as the kernel sends them.</t>
-        </is>
-      </c>
-      <c r="I194" s="2" t="inlineStr">
-        <is>
-          <t>Applicable - Configurable</t>
-        </is>
-      </c>
-      <c r="J194" s="2" t="inlineStr">
-        <is>
-          <t>Verify the operating system produces audit records containing information to establish the identity of any individual or process associated with the event. If it does not, this is a finding.</t>
-        </is>
-      </c>
-      <c r="K194" s="2" t="inlineStr">
-        <is>
-          <t>To verify that Audit Daemon is configured to resolve all uid, gid, syscall,
-architecture, and socket address information before writing the event to disk,
-run the following command:
- $ sudo grep log_format /etc/audit/auditd.conf 
-The output should return the following:
- log_format = ENRICHED 
-If log_format isn't set to ENRICHED then this is a finding.</t>
-        </is>
-      </c>
-      <c r="L194" s="2" t="n"/>
-      <c r="M194" s="2" t="inlineStr"/>
-      <c r="N194" s="2" t="inlineStr">
-        <is>
-          <t>CAT II</t>
-        </is>
-      </c>
-      <c r="O194" s="2" t="n"/>
-      <c r="P194" s="2" t="n"/>
-      <c r="Q194" s="2" t="n"/>
-    </row>
-    <row r="195" ht="130" customHeight="1">
-      <c r="A195" s="2" t="inlineStr">
-        <is>
-          <t>AU-4 (1)</t>
-        </is>
-      </c>
-      <c r="B195" s="2" t="inlineStr">
-        <is>
-          <t>CCI-001851</t>
-        </is>
-      </c>
-      <c r="C195" s="2" t="inlineStr">
-        <is>
-          <t>SRG-OS-000342-GPOS-00133,SRG-OS-000479-GPOS-00224</t>
-        </is>
-      </c>
-      <c r="D195" s="2" t="inlineStr"/>
-      <c r="E195" s="2" t="inlineStr">
-        <is>
-          <t>The operating system must off-load audit records onto a different system or media from the system being audited.</t>
-        </is>
-      </c>
-      <c r="F195" s="2" t="inlineStr">
-        <is>
-          <t>Red Hat Enterprise Linux 9 must off-load audit records onto a different system or media from the system being audited.</t>
-        </is>
-      </c>
-      <c r="G195" s="2" t="inlineStr">
-        <is>
-          <t>Information stored in one location is vulnerable to accidental or incidental deletion or alteration.
-Off-loading is a common process in information systems with limited audit storage capacity.</t>
-        </is>
-      </c>
-      <c r="H195" s="2" t="inlineStr">
-        <is>
-          <t>Information stored in one location is vulnerable to accidental or incidental
-deletion or alteration.Off-loading is a common process in information systems
-with limited audit storage capacity.</t>
-        </is>
-      </c>
-      <c r="I195" s="2" t="inlineStr">
-        <is>
-          <t>Applicable - Configurable</t>
-        </is>
-      </c>
-      <c r="J195" s="2" t="inlineStr">
-        <is>
-          <t>Verify the operating system off-loads audit records onto a different system or media from the system being audited. If it does not, this is a finding.</t>
-        </is>
-      </c>
-      <c r="K195" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-To verify the audispd plugin off-loads audit records onto a different system or
-media from the system being audited, run the following command:
- $ sudo grep -i remote_server /etc/audisp/audisp-remote.conf 
-The output should return something similar to
- remote_server =    
-If audispd is not sending logs to a remote system then this is a finding.</t>
-        </is>
-      </c>
-      <c r="L195" s="2" t="n"/>
-      <c r="M195" s="2" t="inlineStr"/>
-      <c r="N195" s="2" t="inlineStr">
-        <is>
-          <t>CAT II</t>
-        </is>
-      </c>
-      <c r="O195" s="2" t="n"/>
-      <c r="P195" s="2" t="n"/>
-      <c r="Q195" s="2" t="n"/>
-    </row>
-    <row r="196" ht="130" customHeight="1">
-      <c r="A196" s="2" t="inlineStr">
-        <is>
-          <t>AU-4 (1)</t>
-        </is>
-      </c>
-      <c r="B196" s="2" t="inlineStr">
-        <is>
-          <t>CCI-001851</t>
-        </is>
-      </c>
-      <c r="C196" s="2" t="inlineStr">
-        <is>
-          <t>SRG-OS-000342-GPOS-00133,SRG-OS-000479-GPOS-00224</t>
-        </is>
-      </c>
-      <c r="D196" s="2" t="inlineStr"/>
-      <c r="E196" s="2" t="inlineStr">
-        <is>
-          <t>The operating system must off-load audit records onto a different system or media from the system being audited.</t>
-        </is>
-      </c>
-      <c r="F196" s="2" t="inlineStr">
-        <is>
-          <t>Red Hat Enterprise Linux 9 must off-load audit records onto a different system or media from the system being audited.</t>
-        </is>
-      </c>
-      <c r="G196" s="2" t="inlineStr">
-        <is>
-          <t>Information stored in one location is vulnerable to accidental or incidental deletion or alteration.
-Off-loading is a common process in information systems with limited audit storage capacity.</t>
-        </is>
-      </c>
-      <c r="H196" s="2" t="inlineStr">
-        <is>
-          <t>Taking appropriate action in case of a filled audit storage volume will
-minimize the possibility of losing audit records.</t>
-        </is>
-      </c>
-      <c r="I196" s="2" t="inlineStr">
-        <is>
-          <t>Applicable - Configurable</t>
-        </is>
-      </c>
-      <c r="J196" s="2" t="inlineStr">
-        <is>
-          <t>Verify the operating system off-loads audit records onto a different system or media from the system being audited. If it does not, this is a finding.</t>
-        </is>
-      </c>
-      <c r="K196" s="2" t="inlineStr">
-        <is>
-          <t>Inspect  /etc/audisp/audisp-remote.conf  and locate the following line to
-determine if the system is configured to either send to syslog, switch to single user mode,
-or halt when the disk is full:
- grep -i disk_full_action /etc/audisp/audisp-remote.conf 
-The output should return something similar to:
- disk_full_action = single 
-Acceptable values also include  syslog  and
- halt .
-If the system is not configured to switch to single user mode for corrective action then this is a finding.</t>
-        </is>
-      </c>
-      <c r="L196" s="2" t="n"/>
-      <c r="M196" s="2" t="inlineStr"/>
-      <c r="N196" s="2" t="inlineStr">
-        <is>
-          <t>CAT II</t>
-        </is>
-      </c>
-      <c r="O196" s="2" t="n"/>
-      <c r="P196" s="2" t="n"/>
-      <c r="Q196" s="2" t="n"/>
-    </row>
-    <row r="197" ht="130" customHeight="1">
-      <c r="A197" s="2" t="inlineStr">
-        <is>
-          <t>AU-4 (1)</t>
-        </is>
-      </c>
-      <c r="B197" s="2" t="inlineStr">
-        <is>
-          <t>CCI-001851</t>
-        </is>
-      </c>
-      <c r="C197" s="2" t="inlineStr">
-        <is>
-          <t>SRG-OS-000342-GPOS-00133,SRG-OS-000479-GPOS-00224</t>
-        </is>
-      </c>
-      <c r="D197" s="2" t="inlineStr"/>
-      <c r="E197" s="2" t="inlineStr">
-        <is>
-          <t>The operating system must off-load audit records onto a different system or media from the system being audited.</t>
-        </is>
-      </c>
-      <c r="F197" s="2" t="inlineStr">
-        <is>
-          <t>Red Hat Enterprise Linux 9 must off-load audit records onto a different system or media from the system being audited.</t>
-        </is>
-      </c>
-      <c r="G197" s="2" t="inlineStr">
-        <is>
-          <t>Information stored in one location is vulnerable to accidental or incidental deletion or alteration.
-Off-loading is a common process in information systems with limited audit storage capacity.</t>
-        </is>
-      </c>
-      <c r="H197" s="2" t="inlineStr">
-        <is>
-          <t>Information stored in one location is vulnerable to accidental or incidental deletion
-or alteration. Off-loading is a common process in information systems with limited
-audit storage capacity.</t>
-        </is>
-      </c>
-      <c r="I197" s="2" t="inlineStr">
-        <is>
-          <t>Applicable - Configurable</t>
-        </is>
-      </c>
-      <c r="J197" s="2" t="inlineStr">
-        <is>
-          <t>Verify the operating system off-loads audit records onto a different system or media from the system being audited. If it does not, this is a finding.</t>
-        </is>
-      </c>
-      <c r="K197" s="2" t="inlineStr">
-        <is>
-          <t>To verify the audispd plugin encrypts audit records off-loaded onto a different
-system or media from the system being audited, run the following command:
- $ sudo grep -i enable_krb5 /etc/audisp/audisp-remote.conf 
-The output should return the following:
- enable_krb5 = yes 
-If audispd is not encrypting audit records when sent over the network then this is a finding.</t>
-        </is>
-      </c>
-      <c r="L197" s="2" t="n"/>
-      <c r="M197" s="2" t="inlineStr"/>
-      <c r="N197" s="2" t="inlineStr">
-        <is>
-          <t>CAT II</t>
-        </is>
-      </c>
-      <c r="O197" s="2" t="n"/>
-      <c r="P197" s="2" t="n"/>
-      <c r="Q197" s="2" t="n"/>
-    </row>
-    <row r="198" ht="130" customHeight="1">
-      <c r="A198" s="2" t="inlineStr">
-        <is>
-          <t>AU-4 (1)</t>
-        </is>
-      </c>
-      <c r="B198" s="2" t="inlineStr">
-        <is>
-          <t>CCI-001851</t>
-        </is>
-      </c>
-      <c r="C198" s="2" t="inlineStr">
-        <is>
-          <t>SRG-OS-000342-GPOS-00133,SRG-OS-000479-GPOS-00224</t>
-        </is>
-      </c>
-      <c r="D198" s="2" t="inlineStr"/>
-      <c r="E198" s="2" t="inlineStr">
-        <is>
-          <t>The operating system must off-load audit records onto a different system or media from the system being audited.</t>
-        </is>
-      </c>
-      <c r="F198" s="2" t="inlineStr">
-        <is>
-          <t>Red Hat Enterprise Linux 9 must off-load audit records onto a different system or media from the system being audited.</t>
-        </is>
-      </c>
-      <c r="G198" s="2" t="inlineStr">
-        <is>
-          <t>Information stored in one location is vulnerable to accidental or incidental deletion or alteration.
-Off-loading is a common process in information systems with limited audit storage capacity.</t>
-        </is>
-      </c>
-      <c r="H198" s="2" t="inlineStr">
-        <is>
-          <t>Taking appropriate action when there is an error sending audit records to a
-remote system will minimize the possibility of losing audit records.</t>
-        </is>
-      </c>
-      <c r="I198" s="2" t="inlineStr">
-        <is>
-          <t>Applicable - Configurable</t>
-        </is>
-      </c>
-      <c r="J198" s="2" t="inlineStr">
-        <is>
-          <t>Verify the operating system off-loads audit records onto a different system or media from the system being audited. If it does not, this is a finding.</t>
-        </is>
-      </c>
-      <c r="K198" s="2" t="inlineStr">
-        <is>
-          <t>Inspect  /etc/audisp/audisp-remote.conf  and locate the following line to
-determine if the system is configured to perform a correct action according to the policy:
- grep -i network_failure_action /etc/audisp/audisp-remote.conf 
-The output should return:
- network_failure_action =  
-If the system is not configured to switch to single user mode for corrective action then this is a finding.</t>
-        </is>
-      </c>
-      <c r="L198" s="2" t="n"/>
-      <c r="M198" s="2" t="inlineStr"/>
-      <c r="N198" s="2" t="inlineStr">
-        <is>
-          <t>CAT II</t>
-        </is>
-      </c>
-      <c r="O198" s="2" t="n"/>
-      <c r="P198" s="2" t="n"/>
-      <c r="Q198" s="2" t="n"/>
-    </row>
-    <row r="199" ht="130" customHeight="1">
-      <c r="A199" s="2" t="inlineStr">
-        <is>
-          <t>AU-4 (1)</t>
-        </is>
-      </c>
-      <c r="B199" s="2" t="inlineStr">
-        <is>
-          <t>CCI-000136</t>
-        </is>
-      </c>
-      <c r="C199" s="2" t="inlineStr">
-        <is>
-          <t>SRG-OS-000479-GPOS-00224,SRG-OS-000342-GPOS-00133</t>
-        </is>
-      </c>
-      <c r="D199" s="2" t="inlineStr">
-        <is>
-          <t>CCE-83695-7</t>
-        </is>
-      </c>
-      <c r="E199" s="2" t="inlineStr">
-        <is>
-          <t>The operating system must off-load audit records onto a different system or media from the system being audited.</t>
-        </is>
-      </c>
-      <c r="F199" s="2" t="inlineStr">
-        <is>
-          <t>Red Hat Enterprise Linux 9 must off-load audit records onto a different system or media from the system being audited.</t>
-        </is>
-      </c>
-      <c r="G199" s="2" t="inlineStr">
-        <is>
-          <t>Information stored in one location is vulnerable to accidental or incidental deletion or alteration.
-Off-loading is a common process in information systems with limited audit storage capacity.</t>
-        </is>
-      </c>
-      <c r="H199" s="2" t="inlineStr">
-        <is>
-          <t>The auditd service does not include the ability to send audit
-records to a centralized server for management directly. It does, however,
-include a plug-in for audit event multiplexor (audispd) to pass audit records
-to the local syslog server</t>
-        </is>
-      </c>
-      <c r="I199" s="2" t="inlineStr">
-        <is>
-          <t>Applicable - Configurable</t>
-        </is>
-      </c>
-      <c r="J199" s="2" t="inlineStr">
-        <is>
-          <t>Verify the operating system off-loads audit records onto a different system or media from the system being audited. If it does not, this is a finding.</t>
-        </is>
-      </c>
-      <c r="K199" s="2" t="inlineStr">
-        <is>
-          <t>To verify the audispd's syslog plugin is active, run the following command:
- $ sudo grep active /etc/audit/plugins.d/syslog.conf 
-If the plugin is active, the output will show  yes .
-If it is not activated then this is a finding.</t>
-        </is>
-      </c>
-      <c r="L199" s="2" t="n"/>
-      <c r="M199" s="2" t="inlineStr"/>
-      <c r="N199" s="2" t="inlineStr">
-        <is>
-          <t>CAT II</t>
-        </is>
-      </c>
-      <c r="O199" s="2" t="n"/>
-      <c r="P199" s="2" t="n"/>
-      <c r="Q199" s="2" t="n"/>
-    </row>
-    <row r="200" ht="130" customHeight="1">
-      <c r="A200" s="2" t="inlineStr">
-        <is>
-          <t>AU-3,AU-4 (1)</t>
-        </is>
-      </c>
-      <c r="B200" s="2" t="inlineStr">
-        <is>
-          <t>CCI-001851</t>
-        </is>
-      </c>
-      <c r="C200" s="2" t="inlineStr">
-        <is>
-          <t>SRG-OS-000039-GPOS-00017,SRG-OS-000342-GPOS-00133,SRG-OS-000479-GPOS-00224</t>
-        </is>
-      </c>
-      <c r="D200" s="2" t="inlineStr">
-        <is>
-          <t>CCE-83686-6</t>
-        </is>
-      </c>
-      <c r="E200" s="2" t="inlineStr">
-        <is>
-          <t>The operating system must off-load audit records onto a different system or media from the system being audited.</t>
-        </is>
-      </c>
-      <c r="F200" s="2" t="inlineStr">
-        <is>
-          <t>Red Hat Enterprise Linux 9 must off-load audit records onto a different system or media from the system being audited.</t>
-        </is>
-      </c>
-      <c r="G200" s="2" t="inlineStr">
-        <is>
-          <t>Information stored in one location is vulnerable to accidental or incidental deletion or alteration.
-Off-loading is a common process in information systems with limited audit storage capacity.</t>
-        </is>
-      </c>
-      <c r="H200" s="2" t="inlineStr">
-        <is>
-          <t>If option  name_format  is left at its default value of
- none , audit events from different computers may be hard
-to distinguish.</t>
-        </is>
-      </c>
-      <c r="I200" s="2" t="inlineStr">
-        <is>
-          <t>Applicable - Configurable</t>
-        </is>
-      </c>
-      <c r="J200" s="2" t="inlineStr">
-        <is>
-          <t>Verify the operating system off-loads audit records onto a different system or media from the system being audited. If it does not, this is a finding.</t>
-        </is>
-      </c>
-      <c r="K200" s="2" t="inlineStr">
-        <is>
-          <t>To verify that Audit Daemon is configured to record the hostname
-in audit events, run the following command:
- $ sudo grep name_format /etc/audit/auditd.conf 
-The output should return the following:
- name_format = hostname 
-If name_format isn't set to hostname then this is a finding.</t>
-        </is>
-      </c>
-      <c r="L200" s="2" t="n"/>
-      <c r="M200" s="2" t="inlineStr">
-        <is>
-          <t>Edit the file "/etc/audit/auditd.conf" and add or edit the following line:
-name_format=hostname</t>
-        </is>
-      </c>
-      <c r="N200" s="2" t="inlineStr">
-        <is>
-          <t>CAT II</t>
-        </is>
-      </c>
-      <c r="O200" s="2" t="n"/>
-      <c r="P200" s="2" t="n"/>
-      <c r="Q200" s="2" t="n"/>
-    </row>
-    <row r="201" ht="130" customHeight="1">
-      <c r="A201" s="2" t="inlineStr">
-        <is>
-          <t>AU-4 (1)</t>
-        </is>
-      </c>
-      <c r="B201" s="2" t="inlineStr">
-        <is>
-          <t>CCI-001851</t>
-        </is>
-      </c>
-      <c r="C201" s="2" t="inlineStr">
-        <is>
-          <t>SRG-OS-000342-GPOS-00133,SRG-OS-000479-GPOS-00224</t>
-        </is>
-      </c>
-      <c r="D201" s="2" t="inlineStr">
-        <is>
-          <t>CCE-87901-5</t>
-        </is>
-      </c>
-      <c r="E201" s="2" t="inlineStr">
-        <is>
-          <t>The operating system must off-load audit records onto a different system or media from the system being audited.</t>
-        </is>
-      </c>
-      <c r="F201" s="2" t="inlineStr">
-        <is>
-          <t>Red Hat Enterprise Linux 9 must off-load audit records onto a different system or media from the system being audited.</t>
-        </is>
-      </c>
-      <c r="G201" s="2" t="inlineStr">
-        <is>
-          <t>Information stored in one location is vulnerable to accidental or incidental deletion or alteration.
-Off-loading is a common process in information systems with limited audit storage capacity.</t>
-        </is>
-      </c>
-      <c r="H201" s="2" t="inlineStr">
-        <is>
-          <t>The audit system should have an action setup in the event the internal event queue becomes full
-so that no data is lost.</t>
-        </is>
-      </c>
-      <c r="I201" s="2" t="inlineStr">
-        <is>
-          <t>Applicable - Configurable</t>
-        </is>
-      </c>
-      <c r="J201" s="2" t="inlineStr">
-        <is>
-          <t>Verify the operating system off-loads audit records onto a different system or media from the system being audited. If it does not, this is a finding.</t>
-        </is>
-      </c>
-      <c r="K201" s="2" t="inlineStr">
-        <is>
-          <t>Verify the audit system is configured to take an appropriate action when the internal event queue is full:
- $ sudo grep -i overflow_action /etc/audit/auditd.conf 
-The output should contain be like  overflow_action = syslog 
-If the value of the "overflow_action" option is not set to  syslog , 
- single ,  halt  or the line is commented out, ask the System Administrator
-to indicate how the audit logs are off-loaded to a different system or media. 
-If auditd overflow action is not setup correctly then this is a finding.</t>
-        </is>
-      </c>
-      <c r="L201" s="2" t="n"/>
-      <c r="M201" s="2" t="inlineStr"/>
-      <c r="N201" s="2" t="inlineStr">
-        <is>
-          <t>CAT II</t>
-        </is>
-      </c>
-      <c r="O201" s="2" t="n"/>
-      <c r="P201" s="2" t="n"/>
-      <c r="Q201" s="2" t="n"/>
-    </row>
-    <row r="202" ht="130" customHeight="1">
-      <c r="A202" s="2" t="inlineStr">
-        <is>
-          <t>AU-4 (1)</t>
-        </is>
-      </c>
-      <c r="B202" s="2" t="inlineStr">
-        <is>
-          <t>CCI-001851</t>
-        </is>
-      </c>
-      <c r="C202" s="2" t="inlineStr">
-        <is>
-          <t>SRG-OS-000342-GPOS-00133</t>
-        </is>
-      </c>
-      <c r="D202" s="2" t="inlineStr">
-        <is>
-          <t>CCE-83648-6</t>
-        </is>
-      </c>
-      <c r="E202" s="2" t="inlineStr">
-        <is>
-          <t>The operating system must off-load audit records onto a different system or media from the system being audited.</t>
-        </is>
-      </c>
-      <c r="F202" s="2" t="inlineStr">
-        <is>
-          <t>Red Hat Enterprise Linux 9 must off-load audit records onto a different system or media from the system being audited.</t>
-        </is>
-      </c>
-      <c r="G202" s="2" t="inlineStr">
-        <is>
-          <t>Information stored in one location is vulnerable to accidental or incidental deletion or alteration.
-Off-loading is a common process in information systems with limited audit storage capacity.</t>
-        </is>
-      </c>
-      <c r="H202" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> audispd-plugins  provides plugins for the real-time interface to the
-audit subsystem,  audispd . These plugins can do things like relay events
-to remote machines or analyze events for suspicious behavior.</t>
-        </is>
-      </c>
-      <c r="I202" s="2" t="inlineStr">
-        <is>
-          <t>Applicable - Configurable</t>
-        </is>
-      </c>
-      <c r="J202" s="2" t="inlineStr">
-        <is>
-          <t>Verify the operating system off-loads audit records onto a different system or media from the system being audited. If it does not, this is a finding.</t>
-        </is>
-      </c>
-      <c r="K202" s="2" t="inlineStr">
-        <is>
-          <t>Run the following command to determine if the  audispd-plugins  package is installed:  $ rpm -q audispd-plugins 
-If the package is not installed then this is a finding.</t>
-        </is>
-      </c>
-      <c r="L202" s="2" t="n"/>
-      <c r="M202" s="2" t="inlineStr"/>
-      <c r="N202" s="2" t="inlineStr">
-        <is>
-          <t>CAT II</t>
-        </is>
-      </c>
-      <c r="O202" s="2" t="n"/>
-      <c r="P202" s="2" t="n"/>
-      <c r="Q202" s="2" t="n"/>
-    </row>
-    <row r="203" ht="130" customHeight="1">
-      <c r="A203" s="2" t="inlineStr">
-        <is>
-          <t>AU-4 (1)</t>
-        </is>
-      </c>
-      <c r="B203" s="2" t="inlineStr">
-        <is>
-          <t>CCI-001851</t>
-        </is>
-      </c>
-      <c r="C203" s="2" t="inlineStr">
-        <is>
-          <t>SRG-OS-000342-GPOS-00133</t>
-        </is>
-      </c>
-      <c r="D203" s="2" t="inlineStr"/>
-      <c r="E203" s="2" t="inlineStr">
-        <is>
-          <t>The operating system must off-load audit records onto a different system or media from the system being audited.</t>
-        </is>
-      </c>
-      <c r="F203" s="2" t="inlineStr">
-        <is>
-          <t>Red Hat Enterprise Linux 9 must off-load audit records onto a different system or media from the system being audited.</t>
-        </is>
-      </c>
-      <c r="G203" s="2" t="inlineStr">
-        <is>
-          <t>Information stored in one location is vulnerable to accidental or incidental deletion or alteration.
-Off-loading is a common process in information systems with limited audit storage capacity.</t>
-        </is>
-      </c>
-      <c r="H203" s="2" t="inlineStr">
-        <is>
-          <t>Information stored in one location is vulnerable to accidental or incidental deletion or alteration. Off-loading is a common process in information systems with limited audit storage capacity.</t>
-        </is>
-      </c>
-      <c r="I203" s="2" t="inlineStr">
-        <is>
-          <t>Applicable - Configurable</t>
-        </is>
-      </c>
-      <c r="J203" s="2" t="inlineStr">
-        <is>
-          <t>Verify the operating system off-loads audit records onto a different system or media from the system being audited. If it does not, this is a finding.</t>
-        </is>
-      </c>
-      <c r="K203" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-If the package is not installed then this is a finding.</t>
-        </is>
-      </c>
-      <c r="L203" s="2" t="n"/>
-      <c r="M203" s="2" t="inlineStr"/>
-      <c r="N203" s="2" t="inlineStr">
-        <is>
-          <t>CAT II</t>
-        </is>
-      </c>
-      <c r="O203" s="2" t="n"/>
-      <c r="P203" s="2" t="n"/>
-      <c r="Q203" s="2" t="n"/>
-    </row>
-    <row r="204" ht="130" customHeight="1">
-      <c r="A204" s="2" t="inlineStr">
-        <is>
-          <t>AU-4 (1)</t>
-        </is>
-      </c>
-      <c r="B204" s="2" t="inlineStr">
-        <is>
-          <t>CCI-001851</t>
-        </is>
-      </c>
-      <c r="C204" s="2" t="inlineStr">
-        <is>
-          <t>SRG-OS-000342-GPOS-00133,SRG-OS-000479-GPOS-00224</t>
-        </is>
-      </c>
-      <c r="D204" s="2" t="inlineStr">
-        <is>
-          <t>CCE-86871-1</t>
-        </is>
-      </c>
-      <c r="E204" s="2" t="inlineStr">
-        <is>
-          <t>The operating system must off-load audit records onto a different system or media from the system being audited.</t>
-        </is>
-      </c>
-      <c r="F204" s="2" t="inlineStr">
-        <is>
-          <t>Red Hat Enterprise Linux 9 must off-load audit records onto a different system or media from the system being audited.</t>
-        </is>
-      </c>
-      <c r="G204" s="2" t="inlineStr">
-        <is>
-          <t>Information stored in one location is vulnerable to accidental or incidental deletion or alteration.
-Off-loading is a common process in information systems with limited audit storage capacity.</t>
-        </is>
-      </c>
-      <c r="H204" s="2" t="inlineStr">
-        <is>
-          <t>The audit records generated by Rsyslog contain valuable information regarding system
-configuration, user authentication, and other such information. Audit records should be
-protected from unauthorized access.</t>
-        </is>
-      </c>
-      <c r="I204" s="2" t="inlineStr">
-        <is>
-          <t>Applicable - Configurable</t>
-        </is>
-      </c>
-      <c r="J204" s="2" t="inlineStr">
-        <is>
-          <t>Verify the operating system off-loads audit records onto a different system or media from the system being audited. If it does not, this is a finding.</t>
-        </is>
-      </c>
-      <c r="K204" s="2" t="inlineStr">
-        <is>
-          <t>Verify the operating system authenticates the remote logging server for off-loading audit logs with the following command:
- $ sudo grep -i '$ActionSendStreamDriverAuthMode' /etc/rsyslog.conf /etc/rsyslog.d/*.conf 
-The output should be
- $/etc/rsyslog.conf:$ActionSendStreamDriverAuthMode x509/name 
-If $ActionSendStreamDriverAuthMode in /etc/rsyslog.conf is not set to x509/name then this is a finding.</t>
-        </is>
-      </c>
-      <c r="L204" s="2" t="n"/>
-      <c r="M204" s="2" t="inlineStr"/>
-      <c r="N204" s="2" t="inlineStr">
-        <is>
-          <t>CAT II</t>
-        </is>
-      </c>
-      <c r="O204" s="2" t="n"/>
-      <c r="P204" s="2" t="n"/>
-      <c r="Q204" s="2" t="n"/>
-    </row>
-    <row r="205" ht="130" customHeight="1">
-      <c r="A205" s="2" t="inlineStr">
-        <is>
-          <t>AU-4 (1)</t>
-        </is>
-      </c>
-      <c r="B205" s="2" t="inlineStr">
-        <is>
-          <t>CCI-001851</t>
-        </is>
-      </c>
-      <c r="C205" s="2" t="inlineStr">
-        <is>
-          <t>SRG-OS-000342-GPOS-00133,SRG-OS-000479-GPOS-00224</t>
-        </is>
-      </c>
-      <c r="D205" s="2" t="inlineStr">
-        <is>
-          <t>CCE-90191-8</t>
-        </is>
-      </c>
-      <c r="E205" s="2" t="inlineStr">
-        <is>
-          <t>The operating system must off-load audit records onto a different system or media from the system being audited.</t>
-        </is>
-      </c>
-      <c r="F205" s="2" t="inlineStr">
-        <is>
-          <t>Red Hat Enterprise Linux 9 must off-load audit records onto a different system or media from the system being audited.</t>
-        </is>
-      </c>
-      <c r="G205" s="2" t="inlineStr">
-        <is>
-          <t>Information stored in one location is vulnerable to accidental or incidental deletion or alteration.
-Off-loading is a common process in information systems with limited audit storage capacity.</t>
-        </is>
-      </c>
-      <c r="H205" s="2" t="inlineStr">
-        <is>
-          <t>The audit records generated by Rsyslog contain valuable information regarding system
-configuration, user authentication, and other such information. Audit records should be
-protected from unauthorized access.</t>
-        </is>
-      </c>
-      <c r="I205" s="2" t="inlineStr">
-        <is>
-          <t>Applicable - Configurable</t>
-        </is>
-      </c>
-      <c r="J205" s="2" t="inlineStr">
-        <is>
-          <t>Verify the operating system off-loads audit records onto a different system or media from the system being audited. If it does not, this is a finding.</t>
-        </is>
-      </c>
-      <c r="K205" s="2" t="inlineStr">
-        <is>
-          <t>Verify the operating system encrypts audit records off-loaded onto a different system
-or media from the system being audited with the following commands:
- $ sudo grep -i '$ActionSendStreamDriverMode' /etc/rsyslog.conf /etc/rsyslog.d/*.conf 
-The output should be
- /etc/rsyslog.conf:$ActionSendStreamDriverMode 1 
-If rsyslogd ActionSendStreamDriverMode not set to 1 then this is a finding.</t>
-        </is>
-      </c>
-      <c r="L205" s="2" t="n"/>
-      <c r="M205" s="2" t="inlineStr"/>
-      <c r="N205" s="2" t="inlineStr">
-        <is>
-          <t>CAT II</t>
-        </is>
-      </c>
-      <c r="O205" s="2" t="n"/>
-      <c r="P205" s="2" t="n"/>
-      <c r="Q205" s="2" t="n"/>
-    </row>
-    <row r="206" ht="130" customHeight="1">
-      <c r="A206" s="2" t="inlineStr">
-        <is>
-          <t>AU-4 (1)</t>
-        </is>
-      </c>
-      <c r="B206" s="2" t="inlineStr">
-        <is>
-          <t>CCI-001851</t>
-        </is>
-      </c>
-      <c r="C206" s="2" t="inlineStr">
-        <is>
-          <t>SRG-OS-000342-GPOS-00133,SRG-OS-000479-GPOS-00224</t>
-        </is>
-      </c>
-      <c r="D206" s="2" t="inlineStr">
-        <is>
-          <t>CCE-86782-0</t>
-        </is>
-      </c>
-      <c r="E206" s="2" t="inlineStr">
-        <is>
-          <t>The operating system must off-load audit records onto a different system or media from the system being audited.</t>
-        </is>
-      </c>
-      <c r="F206" s="2" t="inlineStr">
-        <is>
-          <t>Red Hat Enterprise Linux 9 must off-load audit records onto a different system or media from the system being audited.</t>
-        </is>
-      </c>
-      <c r="G206" s="2" t="inlineStr">
-        <is>
-          <t>Information stored in one location is vulnerable to accidental or incidental deletion or alteration.
-Off-loading is a common process in information systems with limited audit storage capacity.</t>
-        </is>
-      </c>
-      <c r="H206" s="2" t="inlineStr">
-        <is>
-          <t>The audit records generated by Rsyslog contain valuable information regarding system
-configuration, user authentication, and other such information. Audit records should be
-protected from unauthorized access.</t>
-        </is>
-      </c>
-      <c r="I206" s="2" t="inlineStr">
-        <is>
-          <t>Applicable - Configurable</t>
-        </is>
-      </c>
-      <c r="J206" s="2" t="inlineStr">
-        <is>
-          <t>Verify the operating system off-loads audit records onto a different system or media from the system being audited. If it does not, this is a finding.</t>
-        </is>
-      </c>
-      <c r="K206" s="2" t="inlineStr">
-        <is>
-          <t>Verify the operating system encrypts audit records off-loaded onto a different system
-or media from the system being audited with the following commands:
- $ sudo grep -i '$DefaultNetstreamDriver' /etc/rsyslog.conf /etc/rsyslog.d/*.conf 
-The output should be
- /etc/rsyslog.conf:$DefaultNetstreamDriver gtls 
-If rsyslogd DefaultNetstreamDriver not set to gtls then this is a finding.</t>
-        </is>
-      </c>
-      <c r="L206" s="2" t="n"/>
-      <c r="M206" s="2" t="inlineStr"/>
-      <c r="N206" s="2" t="inlineStr">
-        <is>
-          <t>CAT II</t>
-        </is>
-      </c>
-      <c r="O206" s="2" t="n"/>
-      <c r="P206" s="2" t="n"/>
-      <c r="Q206" s="2" t="n"/>
-    </row>
-    <row r="207" ht="130" customHeight="1">
-      <c r="A207" s="2" t="inlineStr">
-        <is>
-          <t>AU-4 (1),CM-6 b</t>
-        </is>
-      </c>
-      <c r="B207" s="2" t="inlineStr">
-        <is>
-          <t>CCI-000366,CCI-001348,CCI-000136,CCI-001851</t>
-        </is>
-      </c>
-      <c r="C207" s="2" t="inlineStr">
-        <is>
-          <t>SRG-OS-000479-GPOS-00224,SRG-OS-000480-GPOS-00227,SRG-OS-000342-GPOS-00133</t>
-        </is>
-      </c>
-      <c r="D207" s="2" t="inlineStr">
-        <is>
-          <t>CCE-83990-2</t>
-        </is>
-      </c>
-      <c r="E207" s="2" t="inlineStr">
-        <is>
-          <t>The operating system must off-load audit records onto a different system or media from the system being audited.</t>
-        </is>
-      </c>
-      <c r="F207" s="2" t="inlineStr">
-        <is>
-          <t>Red Hat Enterprise Linux 9 must off-load audit records onto a different system or media from the system being audited.</t>
-        </is>
-      </c>
-      <c r="G207" s="2" t="inlineStr">
-        <is>
-          <t>Information stored in one location is vulnerable to accidental or incidental deletion or alteration.
-Off-loading is a common process in information systems with limited audit storage capacity.</t>
-        </is>
-      </c>
-      <c r="H207" s="2" t="inlineStr">
-        <is>
-          <t>A log server (loghost) receives syslog messages from one or more
-systems. This data can be used as an additional log source in the event a
-system is compromised and its local logs are suspect. Forwarding log messages
-to a remote loghost also provides system administrators with a centralized
-place to view the status of multiple hosts within the enterprise.</t>
-        </is>
-      </c>
-      <c r="I207" s="2" t="inlineStr">
-        <is>
-          <t>Applicable - Configurable</t>
-        </is>
-      </c>
-      <c r="J207" s="2" t="inlineStr">
-        <is>
-          <t>Verify the operating system off-loads audit records onto a different system or media from the system being audited. If it does not, this is a finding.</t>
-        </is>
-      </c>
-      <c r="K207" s="2" t="inlineStr">
-        <is>
-          <t>To ensure logs are sent to a remote host, examine the file
- /etc/rsyslog.conf .
-If using UDP, a line similar to the following should be present:
-  *.* @   
-If using TCP, a line similar to the following should be present:
-  *.* @@   
-If using RELP, a line similar to the following should be present:
-  *.* :omrelp:   
-If none of these are present then this is a finding.</t>
-        </is>
-      </c>
-      <c r="L207" s="2" t="n"/>
-      <c r="M207" s="2" t="inlineStr"/>
-      <c r="N207" s="2" t="inlineStr">
-        <is>
-          <t>CAT II</t>
-        </is>
-      </c>
-      <c r="O207" s="2" t="n"/>
-      <c r="P207" s="2" t="n"/>
-      <c r="Q207" s="2" t="n"/>
-    </row>
-    <row r="208" ht="130" customHeight="1">
-      <c r="A208" s="2" t="inlineStr">
-        <is>
-          <t>SC-28 (1),SC-28</t>
-        </is>
-      </c>
-      <c r="B208" s="2" t="inlineStr">
-        <is>
-          <t>CCI-001199,CCI-002475,CCI-002476</t>
-        </is>
-      </c>
-      <c r="C208" s="2" t="inlineStr">
-        <is>
-          <t>SRG-OS-000405-GPOS-00184,SRG-OS-000185-GPOS-00079,SRG-OS-000404-GPOS-00183</t>
-        </is>
-      </c>
-      <c r="D208" s="2" t="inlineStr">
-        <is>
-          <t>CCE-90849-1</t>
-        </is>
-      </c>
-      <c r="E208" s="2" t="inlineStr">
-        <is>
-          <t>The operating system must implement cryptographic mechanisms to prevent unauthorized modification of all information at rest on all operating system components.</t>
-        </is>
-      </c>
-      <c r="F208" s="2" t="inlineStr">
-        <is>
-          <t>Red Hat Enterprise Linux 9 must implement cryptographic mechanisms to prevent unauthorized modification of all information at rest on all operating system components.</t>
-        </is>
-      </c>
-      <c r="G208" s="2" t="inlineStr">
-        <is>
-          <t>Operating systems handling data requiring "data at rest" protections must employ cryptographic mechanisms to prevent unauthorized disclosure and modification of the information at rest.
-Selection of a cryptographic mechanism is based on the need to protect the integrity of organizational information. The strength of the mechanism is commensurate with the security category and/or classification of the information. Organizations have the flexibility to either encrypt all information on storage devices (i.e., full disk encryption) or encrypt specific data structures (e.g., files, records, or fields).</t>
-        </is>
-      </c>
-      <c r="H208" s="2" t="inlineStr">
-        <is>
-          <t>The risk of a system's physical compromise, particularly mobile systems such as
-laptops, places its data at risk of compromise.  Encrypting this data mitigates
-the risk of its loss if the system is lost.</t>
-        </is>
-      </c>
-      <c r="I208" s="2" t="inlineStr">
-        <is>
-          <t>Applicable - Configurable</t>
-        </is>
-      </c>
-      <c r="J208" s="2" t="inlineStr">
-        <is>
-          <t>Verify the operating system implements cryptographic mechanisms to prevent unauthorized modification of all information at rest on all operating system components. If it does not, this is a finding.</t>
-        </is>
-      </c>
-      <c r="K208" s="2" t="inlineStr">
-        <is>
-          <t>Check the system partitions to determine if they are encrypted with the following command:
- blkid 
-Output will be similar to:
- /dev/sda1: UUID=" ab12c3de-4f56-789a-8f33-3850cc8ce3a2
-" TYPE="crypto_LUKS"
-/dev/sda2: UUID=" bc98d7ef-6g54-321h-1d24-9870de2ge1a2
-" TYPE="crypto_LUKS" 
-The boot partition and pseudo-file systems, such as /proc, /sys, and tmpfs,
-are not required to use disk encryption and are not a finding.
-If partitions do not have a type of crypto_LUKS then this is a finding.</t>
-        </is>
-      </c>
-      <c r="L208" s="2" t="n"/>
-      <c r="M208" s="2" t="inlineStr">
-        <is>
-          <t>Configure Red Hat Enterprise Linux 9 to prevent unauthorized modification of all information at rest by using disk encryption.
-Encrypting a partition in an already installed system is more difficult, because existing partitions will need to be resized and changed.
-To encrypt an entire partition, dedicate a partition for encryption in the partition layout.</t>
-        </is>
-      </c>
-      <c r="N208" s="2" t="inlineStr">
-        <is>
-          <t>CAT II</t>
-        </is>
-      </c>
-      <c r="O208" s="2" t="n"/>
-      <c r="P208" s="2" t="n"/>
-      <c r="Q208" s="2" t="n"/>
-    </row>
-    <row r="209" ht="130" customHeight="1">
-      <c r="A209" s="2" t="inlineStr">
-        <is>
-          <t>AC-10</t>
-        </is>
-      </c>
-      <c r="B209" s="2" t="inlineStr">
-        <is>
-          <t>CCI-000054</t>
-        </is>
-      </c>
-      <c r="C209" s="2" t="inlineStr">
-        <is>
-          <t>SRG-OS-000027-GPOS-00008</t>
-        </is>
-      </c>
-      <c r="D209" s="2" t="inlineStr">
-        <is>
-          <t>CCE-83641-1</t>
-        </is>
-      </c>
-      <c r="E209" s="2" t="inlineStr">
-        <is>
-          <t>The operating system must limit the number of concurrent sessions to ten for all accounts and/or account types.</t>
-        </is>
-      </c>
-      <c r="F209" s="2" t="inlineStr">
-        <is>
-          <t>Red Hat Enterprise Linux 9 must limit the number of concurrent sessions to ten for all accounts and/or account types.</t>
-        </is>
-      </c>
-      <c r="G209" s="2" t="inlineStr">
-        <is>
-          <t>Operating system management includes the ability to control the number of users and user sessions that utilize an operating system. Limiting the number of allowed users and sessions per user is helpful in reducing the risks related to DoS attacks.
-This requirement addresses concurrent sessions for information system accounts and does not address concurrent sessions by single users via multiple system accounts. The maximum number of concurrent sessions should be defined based upon mission needs and the operational environment for each system.</t>
-        </is>
-      </c>
-      <c r="H209" s="2" t="inlineStr">
-        <is>
-          <t>Limiting simultaneous user logins can insulate the system from denial of service
-problems caused by excessive logins. Automated login processes operating improperly or
-maliciously may result in an exceptional number of simultaneous login sessions.</t>
-        </is>
-      </c>
-      <c r="I209" s="2" t="inlineStr">
-        <is>
-          <t>Applicable - Configurable</t>
-        </is>
-      </c>
-      <c r="J209" s="2" t="inlineStr">
-        <is>
-          <t>Verify the operating system limits the number of concurrent sessions to ten for all accounts and/or account types. If it does not, this is a finding.</t>
-        </is>
-      </c>
-      <c r="K209" s="2" t="inlineStr">
-        <is>
-          <t>Run the following command to ensure the  maxlogins  value is
-configured for all users on the system:
- # grep "maxlogins" /etc/security/limits.conf /etc/security/limits.d/*.conf 
-You should receive output similar to the following:
- *\t\thard\tmaxlogins\t10 
-If maxlogins is not equal to or less than the expected value then this is a finding.</t>
-        </is>
-      </c>
-      <c r="L209" s="2" t="n"/>
-      <c r="M209" s="2" t="inlineStr">
-        <is>
-          <t>Configure the operating system to limit the number of concurrent sessions to "10" for all accounts and/or account types.
-Add the following line to the top of the /etc/security/limits.conf or in a ".conf" file defined in /etc/security/limits.d/ :
-* hard maxlogins 10</t>
-        </is>
-      </c>
-      <c r="N209" s="2" t="inlineStr">
-        <is>
-          <t>CAT II</t>
-        </is>
-      </c>
-      <c r="O209" s="2" t="n"/>
-      <c r="P209" s="2" t="n"/>
-      <c r="Q209" s="2" t="n"/>
-    </row>
-    <row r="210" ht="130" customHeight="1">
-      <c r="A210" s="2" t="inlineStr">
-        <is>
-          <t>IA-11</t>
-        </is>
-      </c>
-      <c r="B210" s="2" t="inlineStr">
-        <is>
-          <t>CCI-002038</t>
-        </is>
-      </c>
-      <c r="C210" s="2" t="inlineStr">
-        <is>
-          <t>SRG-OS-000373-GPOS-00156,SRG-OS-000373-GPOS-00157,SRG-OS-000373-GPOS-00158</t>
-        </is>
-      </c>
-      <c r="D210" s="2" t="inlineStr">
-        <is>
-          <t>CCE-83544-7</t>
-        </is>
-      </c>
-      <c r="E210" s="2" t="inlineStr">
-        <is>
-          <t>The operating system must require users to re-authenticate when changing authenticators.</t>
-        </is>
-      </c>
-      <c r="F210" s="2" t="inlineStr">
-        <is>
-          <t>Red Hat Enterprise Linux 9 must require users to re-authenticate when changing authenticators.</t>
-        </is>
-      </c>
-      <c r="G210" s="2" t="inlineStr">
-        <is>
-          <t>Without re-authentication, users may access resources or perform tasks for which they do not have authorization. 
-When operating systems provide the capability to change user authenticators, it is critical the user re-authenticate.</t>
-        </is>
-      </c>
-      <c r="H210" s="2" t="inlineStr">
-        <is>
-          <t>Without re-authentication, users may access resources or perform tasks for which they
-do not have authorization.
-When operating systems provide the capability to escalate a functional capability, it
-is critical that the user re-authenticate.</t>
-        </is>
-      </c>
-      <c r="I210" s="2" t="inlineStr">
-        <is>
-          <t>Applicable - Configurable</t>
-        </is>
-      </c>
-      <c r="J210" s="2" t="inlineStr">
-        <is>
-          <t>Verify the operating system requires users to re-authenticate when changing authenticators. If it does not, this is a finding.</t>
-        </is>
-      </c>
-      <c r="K210" s="2" t="inlineStr">
-        <is>
-          <t>To determine if  !authenticate  has not been configured for sudo, run the following command:
- $ sudo grep -r \!authenticate /etc/sudoers /etc/sudoers.d/ 
-The command should return no output.
-If !authenticate is enabled in sudo then this is a finding.</t>
-        </is>
-      </c>
-      <c r="L210" s="2" t="n"/>
-      <c r="M210" s="2" t="inlineStr"/>
-      <c r="N210" s="2" t="inlineStr">
-        <is>
-          <t>CAT II</t>
-        </is>
-      </c>
-      <c r="O210" s="2" t="n"/>
-      <c r="P210" s="2" t="n"/>
-      <c r="Q210" s="2" t="n"/>
-    </row>
-    <row r="211" ht="130" customHeight="1">
-      <c r="A211" s="2" t="inlineStr">
-        <is>
-          <t>IA-11</t>
-        </is>
-      </c>
-      <c r="B211" s="2" t="inlineStr">
-        <is>
-          <t>CCI-002038</t>
-        </is>
-      </c>
-      <c r="C211" s="2" t="inlineStr">
-        <is>
-          <t>SRG-OS-000373-GPOS-00156,SRG-OS-000373-GPOS-00157,SRG-OS-000373-GPOS-00158</t>
-        </is>
-      </c>
-      <c r="D211" s="2" t="inlineStr">
-        <is>
-          <t>CCE-83536-3</t>
-        </is>
-      </c>
-      <c r="E211" s="2" t="inlineStr">
-        <is>
-          <t>The operating system must require users to re-authenticate when changing authenticators.</t>
-        </is>
-      </c>
-      <c r="F211" s="2" t="inlineStr">
-        <is>
-          <t>Red Hat Enterprise Linux 9 must require users to re-authenticate when changing authenticators.</t>
-        </is>
-      </c>
-      <c r="G211" s="2" t="inlineStr">
-        <is>
-          <t>Without re-authentication, users may access resources or perform tasks for which they do not have authorization. 
-When operating systems provide the capability to change user authenticators, it is critical the user re-authenticate.</t>
-        </is>
-      </c>
-      <c r="H211" s="2" t="inlineStr">
-        <is>
-          <t>Without re-authentication, users may access resources or perform tasks for which they
-do not have authorization.
-When operating systems provide the capability to escalate a functional capability, it
-is critical that the user re-authenticate.</t>
-        </is>
-      </c>
-      <c r="I211" s="2" t="inlineStr">
-        <is>
-          <t>Applicable - Configurable</t>
-        </is>
-      </c>
-      <c r="J211" s="2" t="inlineStr">
-        <is>
-          <t>Verify the operating system requires users to re-authenticate when changing authenticators. If it does not, this is a finding.</t>
-        </is>
-      </c>
-      <c r="K211" s="2" t="inlineStr">
-        <is>
-          <t>To determine if  NOPASSWD  has been configured for sudo, run the following command:
- $ sudo grep -ri nopasswd /etc/sudoers /etc/sudoers.d/ 
-The command should return no output.
-If nopasswd is enabled in sudo then this is a finding.</t>
-        </is>
-      </c>
-      <c r="L211" s="2" t="n"/>
-      <c r="M211" s="2" t="inlineStr"/>
-      <c r="N211" s="2" t="inlineStr">
-        <is>
-          <t>CAT II</t>
-        </is>
-      </c>
-      <c r="O211" s="2" t="n"/>
-      <c r="P211" s="2" t="n"/>
-      <c r="Q211" s="2" t="n"/>
-    </row>
-    <row r="212" ht="130" customHeight="1">
-      <c r="A212" s="2" t="inlineStr">
-        <is>
-          <t>AC-8 a,AC-8 c 1, AC-8 c 2, AC-8 c 3</t>
-        </is>
-      </c>
-      <c r="B212" s="2" t="inlineStr">
-        <is>
-          <t>CCI-000048,CCI-000050,CCI-001384,CCI-001385,CCI-001386,CCI-001387,CCI-001388</t>
-        </is>
-      </c>
-      <c r="C212" s="2" t="inlineStr">
-        <is>
-          <t>SRG-OS-000023-GPOS-00006,SRG-OS-000228-GPOS-00088</t>
-        </is>
-      </c>
-      <c r="D212" s="2" t="inlineStr">
-        <is>
-          <t>CCE-90807-9</t>
-        </is>
-      </c>
-      <c r="E212" s="2" t="inlineStr">
-        <is>
-          <t>Any publically accessible connection to the operating system must display the Standard Mandatory DoD Notice and Consent Banner before granting access to the system.</t>
-        </is>
-      </c>
-      <c r="F212" s="2" t="inlineStr">
-        <is>
-          <t>Any publically accessible connection to Red Hat Enterprise Linux 9 must display the Standard Mandatory DoD Notice and Consent Banner before granting access to the system.</t>
-        </is>
-      </c>
-      <c r="G212" s="2" t="inlineStr">
-        <is>
-          <t>Display of a standardized and approved use notification before granting access to the publicly accessible operating system ensures privacy and security notification verbiage used is consistent with applicable federal laws, Executive Orders, directives, policies, regulations, standards, and guidance.
-System use notifications are required only for access via logon interfaces with human users and are not required when such human interfaces do not exist.
-The banner must be formatted in accordance with applicable DoD policy. Use the following verbiage for operating systems that can accommodate banners of 1300 characters:
-"You are accessing a U.S. Government (USG) Information System (IS) that is provided for USG-authorized use only.
-By using this IS (which includes any device attached to this IS), you consent to the following conditions:
--The USG routinely intercepts and monitors communications on this IS for purposes including, but not limited to, penetration testing, COMSEC monitoring, network operations and defense, personnel misconduct (PM), law enforcement (LE), and counterintelligence (CI) investigations.
--At any time, the USG may inspect and seize data stored on this IS.
--Communications using, or data stored on, this IS are not private, are subject to routine monitoring, interception, and search, and may be disclosed or used for any USG-authorized purpose.
--This IS includes security measures (e.g., authentication and access controls) to protect USG interests--not for your personal benefit or privacy.
--Notwithstanding the above, using this IS does not constitute consent to PM, LE or CI investigative searching or monitoring of the content of privileged communications, or work product, related to personal representation or services by attorneys, psychotherapists, or clergy, and their assistants. Such communications and work product are private and confidential. See User Agreement for details."
-Use the following verbiage for operating systems that have severe limitations on the number of characters that can be displayed in the banner:
-"I've readconsent to terms in IS user agreem't."</t>
-        </is>
-      </c>
-      <c r="H212" s="2" t="inlineStr">
-        <is>
-          <t>The warning message reinforces policy awareness during the logon process and
-facilitates possible legal action against attackers. Alternatively, systems
-whose ownership should not be obvious should ensure usage of a banner that does
-not provide easy attribution.</t>
-        </is>
-      </c>
-      <c r="I212" s="2" t="inlineStr">
-        <is>
-          <t>Applicable - Configurable</t>
-        </is>
-      </c>
-      <c r="J212" s="2" t="inlineStr">
-        <is>
-          <t>Verify any publically accessible connection to the operating system displays the Standard Mandatory DoD Notice and Consent Banner before granting access to the system. 
-The banner must be formatted in accordance with applicable DoD policy. Use the following verbiage for operating systems that can accommodate banners of 1300 characters:
-"You are accessing a U.S. Government (USG) Information System (IS) that is provided for USG-authorized use only.
-By using this IS (which includes any device attached to this IS), you consent to the following conditions:
--The USG routinely intercepts and monitors communications on this IS for purposes including, but not limited to, penetration testing, COMSEC monitoring, network operations and defense, personnel misconduct (PM), law enforcement (LE), and counterintelligence (CI) investigations.
--At any time, the USG may inspect and seize data stored on this IS.
--Communications using, or data stored on, this IS are not private, are subject to routine monitoring, interception, and search, and may be disclosed or used for any USG-authorized purpose.
--This IS includes security measures (e.g., authentication and access controls) to protect USG interests--not for your personal benefit or privacy.
--Notwithstanding the above, using this IS does not constitute consent to PM, LE or CI investigative searching or monitoring of the content of privileged communications, or work product, related to personal representation or services by attorneys, psychotherapists, or clergy, and their assistants. Such communications and work product are private and confidential. See User Agreement for details."
-Use the following verbiage for operating systems that have severe limitations on the number of characters that can be displayed in the banner:
-"I've read &amp; consent to terms in IS user agreem't."
-If it does not, this is a finding.</t>
-        </is>
-      </c>
-      <c r="K212" s="2" t="inlineStr">
-        <is>
-          <t>To determine how the SSH daemon's  Banner  option is set, run the following command:
- $ sudo grep -i Banner /etc/ssh/sshd_config.d/00-complianceascode-hardening.conf 
-If a line indicating  /etc/issue  is returned, then the required value is set.
-If the required value is not set then this is a finding.</t>
-        </is>
-      </c>
-      <c r="L212" s="2" t="n"/>
-      <c r="M212" s="2" t="inlineStr">
-        <is>
-          <t>Configure Red Hat Enterprise Linux 9 to display the Standard Mandatory DoD Notice and Consent Banner before granting access to the system via the ssh.
-Edit the ""/etc/ssh/sshd_config"" file to uncomment the banner keyword and configure it to point to a file that will contain the logon banner (this file may be named differently or be in a different location if using a version of SSH that is provided by a third-party vendor).
-An example configuration line is:
-Banner /etc/issue</t>
-        </is>
-      </c>
-      <c r="N212" s="2" t="inlineStr">
-        <is>
-          <t>CAT II</t>
-        </is>
-      </c>
-      <c r="O212" s="2" t="n"/>
-      <c r="P212" s="2" t="n"/>
-      <c r="Q212" s="2" t="n"/>
-    </row>
-    <row r="213" ht="130" customHeight="1">
-      <c r="A213" s="2" t="inlineStr">
-        <is>
-          <t>AC-8 a,AC-8 c 1, AC-8 c 2, AC-8 c 3</t>
-        </is>
-      </c>
-      <c r="B213" s="2" t="inlineStr">
-        <is>
-          <t>CCI-000048,CCI-000050</t>
-        </is>
-      </c>
-      <c r="C213" s="2" t="inlineStr">
-        <is>
-          <t>SRG-OS-000023-GPOS-00006,SRG-OS-000228-GPOS-00088</t>
-        </is>
-      </c>
-      <c r="D213" s="2" t="inlineStr">
-        <is>
-          <t>CCE-83557-9</t>
-        </is>
-      </c>
-      <c r="E213" s="2" t="inlineStr">
-        <is>
-          <t>Any publically accessible connection to the operating system must display the Standard Mandatory DoD Notice and Consent Banner before granting access to the system.</t>
-        </is>
-      </c>
-      <c r="F213" s="2" t="inlineStr">
-        <is>
-          <t>Any publically accessible connection to Red Hat Enterprise Linux 9 must display the Standard Mandatory DoD Notice and Consent Banner before granting access to the system.</t>
-        </is>
-      </c>
-      <c r="G213" s="2" t="inlineStr">
-        <is>
-          <t>Display of a standardized and approved use notification before granting access to the publicly accessible operating system ensures privacy and security notification verbiage used is consistent with applicable federal laws, Executive Orders, directives, policies, regulations, standards, and guidance.
-System use notifications are required only for access via logon interfaces with human users and are not required when such human interfaces do not exist.
-The banner must be formatted in accordance with applicable DoD policy. Use the following verbiage for operating systems that can accommodate banners of 1300 characters:
-"You are accessing a U.S. Government (USG) Information System (IS) that is provided for USG-authorized use only.
-By using this IS (which includes any device attached to this IS), you consent to the following conditions:
--The USG routinely intercepts and monitors communications on this IS for purposes including, but not limited to, penetration testing, COMSEC monitoring, network operations and defense, personnel misconduct (PM), law enforcement (LE), and counterintelligence (CI) investigations.
--At any time, the USG may inspect and seize data stored on this IS.
--Communications using, or data stored on, this IS are not private, are subject to routine monitoring, interception, and search, and may be disclosed or used for any USG-authorized purpose.
--This IS includes security measures (e.g., authentication and access controls) to protect USG interests--not for your personal benefit or privacy.
--Notwithstanding the above, using this IS does not constitute consent to PM, LE or CI investigative searching or monitoring of the content of privileged communications, or work product, related to personal representation or services by attorneys, psychotherapists, or clergy, and their assistants. Such communications and work product are private and confidential. See User Agreement for details."
-Use the following verbiage for operating systems that have severe limitations on the number of characters that can be displayed in the banner:
-"I've readconsent to terms in IS user agreem't."</t>
-        </is>
-      </c>
-      <c r="H213" s="2" t="inlineStr">
-        <is>
-          <t>Display of a standardized and approved use notification before granting
-access to the operating system ensures privacy and security notification
-verbiage used is consistent with applicable federal laws, Executive Orders,
-directives, policies, regulations, standards, and guidance.
-System use notifications are required only for access via login interfaces
-with human users and are not required when such human interfaces do not
-exist.</t>
-        </is>
-      </c>
-      <c r="I213" s="2" t="inlineStr">
-        <is>
-          <t>Applicable - Configurable</t>
-        </is>
-      </c>
-      <c r="J213" s="2" t="inlineStr">
-        <is>
-          <t>Verify any publically accessible connection to the operating system displays the Standard Mandatory DoD Notice and Consent Banner before granting access to the system. 
-The banner must be formatted in accordance with applicable DoD policy. Use the following verbiage for operating systems that can accommodate banners of 1300 characters:
-"You are accessing a U.S. Government (USG) Information System (IS) that is provided for USG-authorized use only.
-By using this IS (which includes any device attached to this IS), you consent to the following conditions:
--The USG routinely intercepts and monitors communications on this IS for purposes including, but not limited to, penetration testing, COMSEC monitoring, network operations and defense, personnel misconduct (PM), law enforcement (LE), and counterintelligence (CI) investigations.
--At any time, the USG may inspect and seize data stored on this IS.
--Communications using, or data stored on, this IS are not private, are subject to routine monitoring, interception, and search, and may be disclosed or used for any USG-authorized purpose.
--This IS includes security measures (e.g., authentication and access controls) to protect USG interests--not for your personal benefit or privacy.
--Notwithstanding the above, using this IS does not constitute consent to PM, LE or CI investigative searching or monitoring of the content of privileged communications, or work product, related to personal representation or services by attorneys, psychotherapists, or clergy, and their assistants. Such communications and work product are private and confidential. See User Agreement for details."
-Use the following verbiage for operating systems that have severe limitations on the number of characters that can be displayed in the banner:
-"I've read &amp; consent to terms in IS user agreem't."
-If it does not, this is a finding.</t>
-        </is>
-      </c>
-      <c r="K213" s="2" t="inlineStr">
-        <is>
-          <t>To check if the system login banner is compliant,
-run the following command:
- $ cat /etc/issue 
-If it does not display the required banner then this is a finding.</t>
-        </is>
-      </c>
-      <c r="L213" s="2" t="n"/>
-      <c r="M213" s="2" t="inlineStr">
-        <is>
-          <t>Configure Red Hat Enterprise Linux 9 to display the Standard Mandatory DoD Notice and Consent Banner before granting access to the system via command line logon.
-Edit the "/etc/issue" file to replace the default text with the Standard Mandatory DoD Notice and Consent Banner. The DoD-required text is:
-"You are accessing a U.S. Government (USG) Information System (IS) that is provided for USG-authorized use only.
-By using this IS (which includes any device attached to this IS), you consent to the following conditions:
--The USG routinely intercepts and monitors communications on this IS for purposes including, but not limited to, penetration testing, COMSEC monitoring, network operations and defense, personnel misconduct (PM), law enforcement (LE), and counterintelligence (CI) investigations.
--At any time, the USG may inspect and seize data stored on this IS.
--Communications using, or data stored on, this IS are not private, are subject to routine monitoring, interception, and search, and may be disclosed or used for any USG-authorized purpose.
--This IS includes security measures (e.g., authentication and access controls) to protect USG interests -- not for your personal benefit or privacy.
--Notwithstanding the above, using this IS does not constitute consent to PM, LE or CI investigative searching or monitoring of the content of privileged communications, or work product, related to personal representation or services by attorneys, psychotherapists, or clergy, and their assistants. Such communications and work product are private and confidential. See User Agreement for details."</t>
-        </is>
-      </c>
-      <c r="N213" s="2" t="inlineStr">
-        <is>
-          <t>CAT II</t>
-        </is>
-      </c>
-      <c r="O213" s="2" t="n"/>
-      <c r="P213" s="2" t="n"/>
-      <c r="Q213" s="2" t="n"/>
-    </row>
-    <row r="214" ht="130" customHeight="1">
-      <c r="A214" s="2" t="inlineStr">
-        <is>
-          <t>AC-8 a,AC-8 c 1, AC-8 c 2, AC-8 c 3</t>
-        </is>
-      </c>
-      <c r="B214" s="2" t="inlineStr">
-        <is>
-          <t>CCI-000048,CCI-000050,CCI-001384,CCI-001385,CCI-001386,CCI-001387,CCI-001388</t>
-        </is>
-      </c>
-      <c r="C214" s="2" t="inlineStr">
-        <is>
-          <t>SRG-OS-000023-GPOS-00006,SRG-OS-000228-GPOS-00088</t>
-        </is>
-      </c>
-      <c r="D214" s="2" t="inlineStr">
-        <is>
-          <t>CCE-87599-7</t>
-        </is>
-      </c>
-      <c r="E214" s="2" t="inlineStr">
-        <is>
-          <t>Any publically accessible connection to the operating system must display the Standard Mandatory DoD Notice and Consent Banner before granting access to the system.</t>
-        </is>
-      </c>
-      <c r="F214" s="2" t="inlineStr">
-        <is>
-          <t>Any publically accessible connection to Red Hat Enterprise Linux 9 must display the Standard Mandatory DoD Notice and Consent Banner before granting access to the system.</t>
-        </is>
-      </c>
-      <c r="G214" s="2" t="inlineStr">
-        <is>
-          <t>Display of a standardized and approved use notification before granting access to the publicly accessible operating system ensures privacy and security notification verbiage used is consistent with applicable federal laws, Executive Orders, directives, policies, regulations, standards, and guidance.
-System use notifications are required only for access via logon interfaces with human users and are not required when such human interfaces do not exist.
-The banner must be formatted in accordance with applicable DoD policy. Use the following verbiage for operating systems that can accommodate banners of 1300 characters:
-"You are accessing a U.S. Government (USG) Information System (IS) that is provided for USG-authorized use only.
-By using this IS (which includes any device attached to this IS), you consent to the following conditions:
--The USG routinely intercepts and monitors communications on this IS for purposes including, but not limited to, penetration testing, COMSEC monitoring, network operations and defense, personnel misconduct (PM), law enforcement (LE), and counterintelligence (CI) investigations.
--At any time, the USG may inspect and seize data stored on this IS.
--Communications using, or data stored on, this IS are not private, are subject to routine monitoring, interception, and search, and may be disclosed or used for any USG-authorized purpose.
--This IS includes security measures (e.g., authentication and access controls) to protect USG interests--not for your personal benefit or privacy.
--Notwithstanding the above, using this IS does not constitute consent to PM, LE or CI investigative searching or monitoring of the content of privileged communications, or work product, related to personal representation or services by attorneys, psychotherapists, or clergy, and their assistants. Such communications and work product are private and confidential. See User Agreement for details."
-Use the following verbiage for operating systems that have severe limitations on the number of characters that can be displayed in the banner:
-"I've readconsent to terms in IS user agreem't."</t>
-        </is>
-      </c>
-      <c r="H214" s="2" t="inlineStr">
-        <is>
-          <t>Display of a standardized and approved use notification before granting access to the operating system
-ensures privacy and security notification verbiage used is consistent with applicable federal laws,
-Executive Orders, directives, policies, regulations, standards, and guidance.
-For U.S. Government systems, system use notifications are required only for access via login interfaces
-with human users and are not required when such human interfaces do not exist.</t>
-        </is>
-      </c>
-      <c r="I214" s="2" t="inlineStr">
-        <is>
-          <t>Applicable - Configurable</t>
-        </is>
-      </c>
-      <c r="J214" s="2" t="inlineStr">
-        <is>
-          <t>Verify any publically accessible connection to the operating system displays the Standard Mandatory DoD Notice and Consent Banner before granting access to the system. 
-The banner must be formatted in accordance with applicable DoD policy. Use the following verbiage for operating systems that can accommodate banners of 1300 characters:
-"You are accessing a U.S. Government (USG) Information System (IS) that is provided for USG-authorized use only.
-By using this IS (which includes any device attached to this IS), you consent to the following conditions:
--The USG routinely intercepts and monitors communications on this IS for purposes including, but not limited to, penetration testing, COMSEC monitoring, network operations and defense, personnel misconduct (PM), law enforcement (LE), and counterintelligence (CI) investigations.
--At any time, the USG may inspect and seize data stored on this IS.
--Communications using, or data stored on, this IS are not private, are subject to routine monitoring, interception, and search, and may be disclosed or used for any USG-authorized purpose.
--This IS includes security measures (e.g., authentication and access controls) to protect USG interests--not for your personal benefit or privacy.
--Notwithstanding the above, using this IS does not constitute consent to PM, LE or CI investigative searching or monitoring of the content of privileged communications, or work product, related to personal representation or services by attorneys, psychotherapists, or clergy, and their assistants. Such communications and work product are private and confidential. See User Agreement for details."
-Use the following verbiage for operating systems that have severe limitations on the number of characters that can be displayed in the banner:
-"I've read &amp; consent to terms in IS user agreem't."
-If it does not, this is a finding.</t>
-        </is>
-      </c>
-      <c r="K214" s="2" t="inlineStr">
-        <is>
-          <t>To ensure a login warning banner is enabled, run the following:
- $ grep banner-message-enable /etc/dconf/db/distro.d/* 
-If properly configured, the output should be  true .
-To ensure a login warning banner is locked and cannot be changed by a user, run the following:
- $ grep banner-message-enable /etc/dconf/db/distro.d/locks/* 
-If properly configured, the output should be  /org/gnome/login-screen/banner-message-enable .
-If it is not then this is a finding.</t>
-        </is>
-      </c>
-      <c r="L214" s="2" t="n"/>
-      <c r="M214" s="2" t="inlineStr">
-        <is>
-          <t>Configure Red Hat Enterprise Linux 9 to display the Standard Mandatory DoD Notice and Consent Banner before granting access to the system.
-Note: If the system does not have a graphical user interface installed, this requirement is Not Applicable.
-Create a database to contain the system-wide graphical user logon settings (if it does not already exist) with the following command:
-$ sudo touch /etc/dconf/db/local.d/01-banner-message
-Add the following lines to the [org/gnome/login-screen] section of the "/etc/dconf/db/local.d/01-banner-message":
-[org/gnome/login-screen]
-banner-message-enable=true
-Run the following command to update the database:
-$ sudo dconf update</t>
-        </is>
-      </c>
-      <c r="N214" s="2" t="inlineStr">
-        <is>
-          <t>CAT II</t>
-        </is>
-      </c>
-      <c r="O214" s="2" t="n"/>
-      <c r="P214" s="2" t="n"/>
-      <c r="Q214" s="2" t="n"/>
-    </row>
-    <row r="215" ht="130" customHeight="1">
-      <c r="A215" s="2" t="inlineStr">
-        <is>
-          <t>AC-8 a,AC-8 c 1, AC-8 c 2, AC-8 c 3</t>
-        </is>
-      </c>
-      <c r="B215" s="2" t="inlineStr">
-        <is>
-          <t>CCI-000048</t>
-        </is>
-      </c>
-      <c r="C215" s="2" t="inlineStr">
-        <is>
-          <t>SRG-OS-000023-GPOS-00006,SRG-OS-000228-GPOS-00088</t>
-        </is>
-      </c>
-      <c r="D215" s="2" t="inlineStr">
-        <is>
-          <t>CCE-86529-5</t>
-        </is>
-      </c>
-      <c r="E215" s="2" t="inlineStr">
-        <is>
-          <t>Any publically accessible connection to the operating system must display the Standard Mandatory DoD Notice and Consent Banner before granting access to the system.</t>
-        </is>
-      </c>
-      <c r="F215" s="2" t="inlineStr">
-        <is>
-          <t>Any publically accessible connection to Red Hat Enterprise Linux 9 must display the Standard Mandatory DoD Notice and Consent Banner before granting access to the system.</t>
-        </is>
-      </c>
-      <c r="G215" s="2" t="inlineStr">
-        <is>
-          <t>Display of a standardized and approved use notification before granting access to the publicly accessible operating system ensures privacy and security notification verbiage used is consistent with applicable federal laws, Executive Orders, directives, policies, regulations, standards, and guidance.
-System use notifications are required only for access via logon interfaces with human users and are not required when such human interfaces do not exist.
-The banner must be formatted in accordance with applicable DoD policy. Use the following verbiage for operating systems that can accommodate banners of 1300 characters:
-"You are accessing a U.S. Government (USG) Information System (IS) that is provided for USG-authorized use only.
-By using this IS (which includes any device attached to this IS), you consent to the following conditions:
--The USG routinely intercepts and monitors communications on this IS for purposes including, but not limited to, penetration testing, COMSEC monitoring, network operations and defense, personnel misconduct (PM), law enforcement (LE), and counterintelligence (CI) investigations.
--At any time, the USG may inspect and seize data stored on this IS.
--Communications using, or data stored on, this IS are not private, are subject to routine monitoring, interception, and search, and may be disclosed or used for any USG-authorized purpose.
--This IS includes security measures (e.g., authentication and access controls) to protect USG interests--not for your personal benefit or privacy.
--Notwithstanding the above, using this IS does not constitute consent to PM, LE or CI investigative searching or monitoring of the content of privileged communications, or work product, related to personal representation or services by attorneys, psychotherapists, or clergy, and their assistants. Such communications and work product are private and confidential. See User Agreement for details."
-Use the following verbiage for operating systems that have severe limitations on the number of characters that can be displayed in the banner:
-"I've readconsent to terms in IS user agreem't."</t>
-        </is>
-      </c>
-      <c r="H215" s="2" t="inlineStr">
-        <is>
-          <t>An appropriate warning message reinforces policy awareness during the logon
-process and facilitates possible legal action against attackers.</t>
-        </is>
-      </c>
-      <c r="I215" s="2" t="inlineStr">
-        <is>
-          <t>Applicable - Configurable</t>
-        </is>
-      </c>
-      <c r="J215" s="2" t="inlineStr">
-        <is>
-          <t>Verify any publically accessible connection to the operating system displays the Standard Mandatory DoD Notice and Consent Banner before granting access to the system. 
-The banner must be formatted in accordance with applicable DoD policy. Use the following verbiage for operating systems that can accommodate banners of 1300 characters:
-"You are accessing a U.S. Government (USG) Information System (IS) that is provided for USG-authorized use only.
-By using this IS (which includes any device attached to this IS), you consent to the following conditions:
--The USG routinely intercepts and monitors communications on this IS for purposes including, but not limited to, penetration testing, COMSEC monitoring, network operations and defense, personnel misconduct (PM), law enforcement (LE), and counterintelligence (CI) investigations.
--At any time, the USG may inspect and seize data stored on this IS.
--Communications using, or data stored on, this IS are not private, are subject to routine monitoring, interception, and search, and may be disclosed or used for any USG-authorized purpose.
--This IS includes security measures (e.g., authentication and access controls) to protect USG interests--not for your personal benefit or privacy.
--Notwithstanding the above, using this IS does not constitute consent to PM, LE or CI investigative searching or monitoring of the content of privileged communications, or work product, related to personal representation or services by attorneys, psychotherapists, or clergy, and their assistants. Such communications and work product are private and confidential. See User Agreement for details."
-Use the following verbiage for operating systems that have severe limitations on the number of characters that can be displayed in the banner:
-"I've read &amp; consent to terms in IS user agreem't."
-If it does not, this is a finding.</t>
-        </is>
-      </c>
-      <c r="K215" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-To ensure the login warning banner text is properly set, run the following:
- $ grep banner-message-text /etc/dconf/db/distro.d/* 
-If properly configured, the proper banner text will appear.
-To ensure the login warning banner text is locked and cannot be changed by a user, run the following:
- $ grep banner-message-text /etc/dconf/db/distro.d/locks/* 
-If properly configured, the output should be  /org/gnome/login-screen/banner-message-text .
-If it does not then this is a finding.</t>
-        </is>
-      </c>
       <c r="L215" s="2" t="n"/>
-      <c r="M215" s="2" t="inlineStr">
-        <is>
-          <t>Configure Red Hat Enterprise Linux 9 to display the Standard Mandatory DoD Notice and Consent Banner before granting access to the system.
-Note: If the system does not have a graphical user interface installed, this requirement is Not Applicable.
-Create a database to contain the system-wide graphical user logon settings (if it does not already exist) with the following command:
-$ sudo touch /etc/dconf/db/local.d/01-banner-message
-Add the following lines to the [org/gnome/login-screen] section of the "/etc/dconf/db/local.d/01-banner-message":
-banner-message-text='You are accessing a U.S. Government (USG) Information System (IS) that is provided for USG-authorized use only.\nBy using this IS (which includes any device attached to this IS), you consent to the following conditions:\n-The USG routinely intercepts and monitors communications on this IS for purposes including, but not limited to, penetration testing, COMSEC monitoring, network operations and defense, personnel misconduct (PM), law enforcement (LE), and counterintelligence (CI) investigations.\n-At any time, the USG may inspect and seize data stored on this IS.\n-Communications using, or data stored on, this IS are not private, are subject to routine monitoring, interception, and search, and may be disclosed or used for any USG-authorized purpose.\n-This IS includes security measures (e.g., authentication and access controls) to protect USG interests--not for your personal benefit or privacy.\n-Notwithstanding the above, using this IS does not constitute consent to PM, LE or CI investigative searching or monitoring of the content of privileged communications, or work product, related to personal representation or services by attorneys, psychotherapists, or clergy, and their assistants. Such communications and work product are private and confidential. See User Agreement for details. '
-Note: The "\n" characters are for formatting only. They will not be displayed on the graphical interface.
-Run the following command to update the database:
-$ sudo dconf update</t>
-        </is>
-      </c>
+      <c r="M215" s="2" t="inlineStr"/>
       <c r="N215" s="2" t="inlineStr">
         <is>
           <t>CAT II</t>
@@ -17375,7 +17376,7 @@
     <row r="220" ht="130" customHeight="1">
       <c r="A220" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (5),CM-6 b</t>
+          <t>CM-6 b,IA-2 (5)</t>
         </is>
       </c>
       <c r="B220" s="2" t="inlineStr">
@@ -17453,7 +17454,7 @@
     <row r="221" ht="130" customHeight="1">
       <c r="A221" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (5),IA-2 (3),IA-2 (4),IA-2 (2),IA-2</t>
+          <t>IA-2 (4),IA-2 (2),IA-2,IA-2 (5),IA-2 (3)</t>
         </is>
       </c>
       <c r="B221" s="2" t="inlineStr">
@@ -17538,7 +17539,7 @@
     <row r="222" ht="130" customHeight="1">
       <c r="A222" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (5),IA-2 (3),IA-2 (4),IA-2 (2),IA-2</t>
+          <t>IA-2 (4),IA-2 (2),IA-2,IA-2 (5),IA-2 (3)</t>
         </is>
       </c>
       <c r="B222" s="2" t="inlineStr">
@@ -17873,7 +17874,7 @@
     <row r="226" ht="130" customHeight="1">
       <c r="A226" s="2" t="inlineStr">
         <is>
-          <t>IA-7,CM-6 b</t>
+          <t>CM-6 b,IA-7</t>
         </is>
       </c>
       <c r="B226" s="2" t="inlineStr">
@@ -17949,7 +17950,7 @@
     <row r="227" ht="130" customHeight="1">
       <c r="A227" s="2" t="inlineStr">
         <is>
-          <t>IA-7,CM-6 b</t>
+          <t>CM-6 b,IA-7</t>
         </is>
       </c>
       <c r="B227" s="2" t="inlineStr">
@@ -18034,7 +18035,7 @@
     <row r="228" ht="130" customHeight="1">
       <c r="A228" s="2" t="inlineStr">
         <is>
-          <t>IA-7,CM-6 b</t>
+          <t>CM-6 b,IA-7</t>
         </is>
       </c>
       <c r="B228" s="2" t="inlineStr">
@@ -18191,7 +18192,7 @@
     <row r="230" ht="130" customHeight="1">
       <c r="A230" s="2" t="inlineStr">
         <is>
-          <t>IA-7,CM-7 a</t>
+          <t>CM-7 a,IA-7</t>
         </is>
       </c>
       <c r="B230" s="2" t="inlineStr">
@@ -19259,7 +19260,7 @@
     <row r="244" ht="130" customHeight="1">
       <c r="A244" s="2" t="inlineStr">
         <is>
-          <t>SI-16,CM-6 b,SC-2</t>
+          <t>CM-6 b,SI-16,SC-2</t>
         </is>
       </c>
       <c r="B244" s="2" t="inlineStr">
@@ -21171,7 +21172,7 @@
     <row r="269" ht="130" customHeight="1">
       <c r="A269" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (2),CM-6 b</t>
+          <t>CM-6 b,IA-2 (2)</t>
         </is>
       </c>
       <c r="B269" s="2" t="inlineStr">
@@ -21258,7 +21259,7 @@
     <row r="270" ht="130" customHeight="1">
       <c r="A270" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (4),IA-2 (1),IA-2 (3),IA-2 (2)</t>
+          <t>IA-2 (3),IA-2 (2),IA-2 (1),IA-2 (4)</t>
         </is>
       </c>
       <c r="B270" s="2" t="inlineStr">
@@ -21645,7 +21646,7 @@
     <row r="275" ht="130" customHeight="1">
       <c r="A275" s="2" t="inlineStr">
         <is>
-          <t>SC-4,CM-6 b</t>
+          <t>CM-6 b,SC-4</t>
         </is>
       </c>
       <c r="B275" s="2" t="inlineStr">
@@ -21726,7 +21727,7 @@
     <row r="276" ht="130" customHeight="1">
       <c r="A276" s="2" t="inlineStr">
         <is>
-          <t>SC-4,SC-2</t>
+          <t>SC-2,SC-4</t>
         </is>
       </c>
       <c r="B276" s="2" t="inlineStr">
@@ -21814,7 +21815,7 @@
     <row r="277" ht="130" customHeight="1">
       <c r="A277" s="2" t="inlineStr">
         <is>
-          <t>SC-4,SC-2</t>
+          <t>SC-2,SC-4</t>
         </is>
       </c>
       <c r="B277" s="2" t="inlineStr">
@@ -22052,7 +22053,7 @@
     <row r="280" ht="130" customHeight="1">
       <c r="A280" s="2" t="inlineStr">
         <is>
-          <t>AU-12 a,CM-6 b</t>
+          <t>CM-6 b,AU-12 a</t>
         </is>
       </c>
       <c r="B280" s="2" t="inlineStr">
@@ -22275,7 +22276,7 @@
     <row r="283" ht="130" customHeight="1">
       <c r="A283" s="2" t="inlineStr">
         <is>
-          <t>CM-5 (3),CM-6 b</t>
+          <t>CM-6 b,CM-5 (3)</t>
         </is>
       </c>
       <c r="B283" s="2" t="inlineStr">
@@ -23375,7 +23376,7 @@
     <row r="297" ht="130" customHeight="1">
       <c r="A297" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (11),IA-2 (12)</t>
+          <t>IA-2 (12),IA-2 (11)</t>
         </is>
       </c>
       <c r="B297" s="2" t="inlineStr">
@@ -23455,7 +23456,7 @@
     <row r="298" ht="130" customHeight="1">
       <c r="A298" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (11),IA-2 (1)</t>
+          <t>IA-2 (1),IA-2 (11)</t>
         </is>
       </c>
       <c r="B298" s="2" t="inlineStr">
@@ -23544,7 +23545,7 @@
     <row r="299" ht="130" customHeight="1">
       <c r="A299" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (11),IA-2 (1),IA-2 (12)</t>
+          <t>IA-2 (12),IA-2 (1),IA-2 (11)</t>
         </is>
       </c>
       <c r="B299" s="2" t="inlineStr">
@@ -24366,7 +24367,7 @@
     <row r="309" ht="130" customHeight="1">
       <c r="A309" s="2" t="inlineStr">
         <is>
-          <t>AU-8 b,AU-8 (1) (b),AU-8 (1) (a)</t>
+          <t>AU-8 (1) (a),AU-8 b,AU-8 (1) (b)</t>
         </is>
       </c>
       <c r="B309" s="2" t="inlineStr">
@@ -25319,7 +25320,7 @@
     <row r="321" ht="130" customHeight="1">
       <c r="A321" s="2" t="inlineStr">
         <is>
-          <t>IA-11,AC-3 (4)</t>
+          <t>AC-3 (4),IA-11</t>
         </is>
       </c>
       <c r="B321" s="2" t="inlineStr">
@@ -27082,7 +27083,7 @@
     <row r="344" ht="130" customHeight="1">
       <c r="A344" s="2" t="inlineStr">
         <is>
-          <t>AC-17 (1),CM-7 b</t>
+          <t>CM-7 b,AC-17 (1)</t>
         </is>
       </c>
       <c r="B344" s="2" t="inlineStr">
@@ -27168,7 +27169,7 @@
     <row r="345" ht="130" customHeight="1">
       <c r="A345" s="2" t="inlineStr">
         <is>
-          <t>AC-18 (1),CM-7 a</t>
+          <t>CM-7 a,AC-18 (1)</t>
         </is>
       </c>
       <c r="B345" s="2" t="inlineStr">
@@ -27245,7 +27246,7 @@
     <row r="346" ht="130" customHeight="1">
       <c r="A346" s="2" t="inlineStr">
         <is>
-          <t>CM-7 a,IA-5 (1) (c),CM-6 b</t>
+          <t>CM-7 a,CM-6 b,IA-5 (1) (c)</t>
         </is>
       </c>
       <c r="B346" s="2" t="inlineStr">
@@ -28339,7 +28340,7 @@
     <row r="360" ht="130" customHeight="1">
       <c r="A360" s="2" t="inlineStr">
         <is>
-          <t>SI-6 b,SI-6 d,CM-3 (5)</t>
+          <t>CM-3 (5),SI-6 b,SI-6 d</t>
         </is>
       </c>
       <c r="B360" s="2" t="inlineStr">
@@ -28430,7 +28431,7 @@
     <row r="361" ht="130" customHeight="1">
       <c r="A361" s="2" t="inlineStr">
         <is>
-          <t>CM-7 a,CM-6 b</t>
+          <t>CM-6 b,CM-7 a</t>
         </is>
       </c>
       <c r="B361" s="2" t="inlineStr">
@@ -28810,7 +28811,7 @@
     <row r="366" ht="130" customHeight="1">
       <c r="A366" s="2" t="inlineStr">
         <is>
-          <t>SI-16,CM-7 a</t>
+          <t>CM-7 a,SI-16</t>
         </is>
       </c>
       <c r="B366" s="2" t="inlineStr">
@@ -30253,7 +30254,7 @@
     <row r="384" ht="130" customHeight="1">
       <c r="A384" s="2" t="inlineStr">
         <is>
-          <t>AC-17 (2),CM-6 b</t>
+          <t>CM-6 b,AC-17 (2)</t>
         </is>
       </c>
       <c r="B384" s="2" t="inlineStr">
@@ -30701,7 +30702,7 @@
     <row r="390" ht="130" customHeight="1">
       <c r="A390" s="2" t="inlineStr">
         <is>
-          <t>IA-5 (1) (a),CM-6 b</t>
+          <t>CM-6 b,IA-5 (1) (a)</t>
         </is>
       </c>
       <c r="B390" s="2" t="inlineStr">
@@ -31183,7 +31184,7 @@
     <row r="396" ht="130" customHeight="1">
       <c r="A396" s="2" t="inlineStr">
         <is>
-          <t>SI-6 d,CM-3 (5)</t>
+          <t>CM-3 (5),SI-6 d</t>
         </is>
       </c>
       <c r="B396" s="2" t="inlineStr">
@@ -31267,7 +31268,7 @@
     <row r="397" ht="130" customHeight="1">
       <c r="A397" s="2" t="inlineStr">
         <is>
-          <t>SI-16,CM-6 b</t>
+          <t>CM-6 b,SI-16</t>
         </is>
       </c>
       <c r="B397" s="2" t="inlineStr">
@@ -31508,7 +31509,7 @@
     <row r="400" ht="130" customHeight="1">
       <c r="A400" s="2" t="inlineStr">
         <is>
-          <t>SC-3,CM-6 b</t>
+          <t>CM-6 b,SC-3</t>
         </is>
       </c>
       <c r="B400" s="2" t="inlineStr">
@@ -31599,7 +31600,7 @@
     <row r="401" ht="130" customHeight="1">
       <c r="A401" s="2" t="inlineStr">
         <is>
-          <t>SC-3,CM-6 b</t>
+          <t>CM-6 b,SC-3</t>
         </is>
       </c>
       <c r="B401" s="2" t="inlineStr">
@@ -31693,7 +31694,7 @@
     <row r="402" ht="130" customHeight="1">
       <c r="A402" s="2" t="inlineStr">
         <is>
-          <t>SC-3,CM-6 b</t>
+          <t>CM-6 b,SC-3</t>
         </is>
       </c>
       <c r="B402" s="2" t="inlineStr">
@@ -35103,7 +35104,7 @@
     <row r="447" ht="130" customHeight="1">
       <c r="A447" s="2" t="inlineStr">
         <is>
-          <t>IA-5 (1) (c),CM-6 b</t>
+          <t>CM-6 b,IA-5 (1) (c)</t>
         </is>
       </c>
       <c r="B447" s="2" t="inlineStr">
@@ -35253,7 +35254,7 @@
     <row r="449" ht="130" customHeight="1">
       <c r="A449" s="2" t="inlineStr">
         <is>
-          <t>CM-5 (1),CM-6 b</t>
+          <t>CM-6 b,CM-5 (1)</t>
         </is>
       </c>
       <c r="B449" s="2" t="inlineStr">
@@ -35326,7 +35327,7 @@
     <row r="450" ht="130" customHeight="1">
       <c r="A450" s="2" t="inlineStr">
         <is>
-          <t>CM-5 (1),CM-6 b</t>
+          <t>CM-6 b,CM-5 (1)</t>
         </is>
       </c>
       <c r="B450" s="2" t="inlineStr">
@@ -42456,7 +42457,7 @@
     <row r="540" ht="130" customHeight="1">
       <c r="A540" s="2" t="inlineStr">
         <is>
-          <t>SI-2 (2),CM-6 b</t>
+          <t>CM-6 b,SI-2 (2)</t>
         </is>
       </c>
       <c r="B540" s="2" t="inlineStr">
@@ -43103,7 +43104,7 @@
     <row r="549" ht="130" customHeight="1">
       <c r="A549" s="2" t="inlineStr">
         <is>
-          <t>SI-2 (2),CM-6 b</t>
+          <t>CM-6 b,SI-2 (2)</t>
         </is>
       </c>
       <c r="B549" s="2" t="inlineStr">
@@ -43711,7 +43712,7 @@
     <row r="557" ht="130" customHeight="1">
       <c r="A557" s="2" t="inlineStr">
         <is>
-          <t>SI-6 a,CM-3 (5)</t>
+          <t>CM-3 (5),SI-6 a</t>
         </is>
       </c>
       <c r="B557" s="2" t="inlineStr">

--- a/srg_mapping/srg-mapping-rhel9.xlsx
+++ b/srg_mapping/srg-mapping-rhel9.xlsx
@@ -541,7 +541,7 @@
     <row r="2" ht="130" customHeight="1">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>AU-4,AU-4 (1)</t>
+          <t>AU-4 (1),AU-4</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -784,7 +784,7 @@
     <row r="5" ht="130" customHeight="1">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,SC-5,SC-5 (2)</t>
+          <t>SC-5 (2),SC-5,CM-6 b</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
@@ -883,7 +883,7 @@
     <row r="6" ht="130" customHeight="1">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>AU-7 a,CM-5 (1),AU-8 b,AC-6 (8),AC-6 (9),AU-7 b,AU-12 (3)</t>
+          <t>AC-6 (8),AU-7 a,AU-7 b,CM-5 (1),AU-8 b,AU-12 (3),AC-6 (9)</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
@@ -963,7 +963,7 @@
     <row r="7" ht="130" customHeight="1">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>AU-7 a,CM-5 (1),AU-8 b,AU-12 c,CM-6 b,AU-7 b,AU-12 (3),AU-12 a</t>
+          <t>AU-12 c,AU-12 a,AU-7 a,AU-7 b,CM-5 (1),AU-8 b,AU-12 (3),CM-6 b</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
@@ -1037,7 +1037,7 @@
     <row r="8" ht="130" customHeight="1">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,AC-17 (9),CM-7 b,AC-17 (1)</t>
+          <t>AC-17 (9),AC-17 (1),CM-6 b,CM-7 b</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
@@ -1714,7 +1714,7 @@
     <row r="17" ht="130" customHeight="1">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,CM-7 (2)</t>
+          <t>CM-7 (2),CM-6 b</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
@@ -2084,7 +2084,7 @@
     <row r="22" ht="130" customHeight="1">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,CM-7 (2)</t>
+          <t>CM-7 (2),CM-6 b</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
@@ -2158,7 +2158,7 @@
     <row r="23" ht="130" customHeight="1">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,CM-7 (2)</t>
+          <t>CM-7 (2),CM-6 b</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
@@ -3286,7 +3286,7 @@
     <row r="38" ht="130" customHeight="1">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>AC-7 b,AC-7 a</t>
+          <t>AC-7 a,AC-7 b</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
@@ -3370,7 +3370,7 @@
     <row r="39" ht="130" customHeight="1">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>AC-7 b,AC-7 a</t>
+          <t>AC-7 a,AC-7 b</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
@@ -3455,7 +3455,7 @@
     <row r="40" ht="130" customHeight="1">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>AC-7 b,AC-7 a</t>
+          <t>AC-7 a,AC-7 b</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
@@ -3527,7 +3527,7 @@
     <row r="41" ht="130" customHeight="1">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>AC-7 b,AC-7 a</t>
+          <t>AC-7 a,AC-7 b</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
@@ -3832,7 +3832,7 @@
     <row r="45" ht="130" customHeight="1">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>IA-8,IA-2,AU-3 (1)</t>
+          <t>AU-3 (1),IA-2,IA-8</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
@@ -3910,7 +3910,7 @@
     <row r="46" ht="130" customHeight="1">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
+          <t>AU-12 a,AU-3 (1),AU-3,MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
@@ -3985,7 +3985,7 @@
     <row r="47" ht="130" customHeight="1">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
+          <t>AU-12 a,AU-3 (1),AU-3,MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
@@ -4060,7 +4060,7 @@
     <row r="48" ht="130" customHeight="1">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
+          <t>AU-12 a,AU-3 (1),AU-3,MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
@@ -4135,7 +4135,7 @@
     <row r="49" ht="130" customHeight="1">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
+          <t>AU-12 a,AU-3 (1),AU-3,MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
@@ -4210,7 +4210,7 @@
     <row r="50" ht="130" customHeight="1">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
+          <t>AU-12 a,AU-3 (1),AU-3,MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
@@ -4285,7 +4285,7 @@
     <row r="51" ht="130" customHeight="1">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
+          <t>AU-12 a,AU-3 (1),AU-3,MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
@@ -4360,7 +4360,7 @@
     <row r="52" ht="130" customHeight="1">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
+          <t>AU-12 a,AU-3 (1),AU-3,MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
@@ -4435,7 +4435,7 @@
     <row r="53" ht="130" customHeight="1">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
+          <t>AU-12 a,AU-3 (1),AU-3,MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
@@ -4510,7 +4510,7 @@
     <row r="54" ht="130" customHeight="1">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
+          <t>AU-12 a,AU-3 (1),AU-3,MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
@@ -4585,7 +4585,7 @@
     <row r="55" ht="130" customHeight="1">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
+          <t>AU-12 a,AU-3 (1),AU-3,MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
@@ -4660,7 +4660,7 @@
     <row r="56" ht="130" customHeight="1">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
+          <t>AU-12 a,AU-3 (1),AU-3,MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
@@ -4735,7 +4735,7 @@
     <row r="57" ht="130" customHeight="1">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
+          <t>AU-12 a,AU-3 (1),AU-3,MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
@@ -4810,7 +4810,7 @@
     <row r="58" ht="130" customHeight="1">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
+          <t>AU-12 a,AU-3 (1),AU-3,MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
@@ -4885,7 +4885,7 @@
     <row r="59" ht="130" customHeight="1">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
+          <t>AU-12 a,AU-3 (1),AU-3,MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
@@ -4965,7 +4965,7 @@
     <row r="60" ht="130" customHeight="1">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
+          <t>AU-12 a,AU-3 (1),AU-3,MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
@@ -5048,7 +5048,7 @@
     <row r="61" ht="130" customHeight="1">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
+          <t>AU-12 a,AU-3 (1),AU-3,MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
@@ -5128,7 +5128,7 @@
     <row r="62" ht="130" customHeight="1">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
+          <t>AU-12 a,AU-3 (1),AU-3,MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
@@ -5208,7 +5208,7 @@
     <row r="63" ht="130" customHeight="1">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
+          <t>AU-12 a,AU-3 (1),AU-3,MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
@@ -5288,7 +5288,7 @@
     <row r="64" ht="130" customHeight="1">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
+          <t>AU-12 a,AU-3 (1),AU-3,MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
@@ -5368,7 +5368,7 @@
     <row r="65" ht="130" customHeight="1">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
+          <t>AU-12 a,AU-3 (1),AU-3,MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
@@ -5442,7 +5442,7 @@
     <row r="66" ht="130" customHeight="1">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
+          <t>AU-12 a,AU-3 (1),AU-3,MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
@@ -5516,7 +5516,7 @@
     <row r="67" ht="130" customHeight="1">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
+          <t>AU-12 a,AU-3 (1),AU-3,MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
@@ -5590,7 +5590,7 @@
     <row r="68" ht="130" customHeight="1">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
+          <t>AU-12 a,AU-3 (1),AU-3,MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
@@ -5664,7 +5664,7 @@
     <row r="69" ht="130" customHeight="1">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
+          <t>AU-12 a,AU-3 (1),AU-3,MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
@@ -5738,7 +5738,7 @@
     <row r="70" ht="130" customHeight="1">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
+          <t>AU-12 a,AU-3 (1),AU-3,MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
@@ -5811,7 +5811,7 @@
     <row r="71" ht="130" customHeight="1">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
+          <t>AU-12 a,AU-3 (1),AU-3,MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B71" s="2" t="inlineStr">
@@ -5884,7 +5884,7 @@
     <row r="72" ht="130" customHeight="1">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
+          <t>AU-12 a,AU-3 (1),AU-3,MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
@@ -5957,7 +5957,7 @@
     <row r="73" ht="130" customHeight="1">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
+          <t>AU-12 a,AU-3 (1),AU-3,MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B73" s="2" t="inlineStr">
@@ -6030,7 +6030,7 @@
     <row r="74" ht="130" customHeight="1">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
+          <t>AU-12 a,AU-3 (1),AU-3,MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B74" s="2" t="inlineStr">
@@ -6103,7 +6103,7 @@
     <row r="75" ht="130" customHeight="1">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
+          <t>AU-12 a,AU-3 (1),AU-3,MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B75" s="2" t="inlineStr">
@@ -6176,7 +6176,7 @@
     <row r="76" ht="130" customHeight="1">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
+          <t>AU-12 a,AU-3 (1),AU-3,MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B76" s="2" t="inlineStr">
@@ -6250,7 +6250,7 @@
     <row r="77" ht="130" customHeight="1">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
+          <t>AU-12 a,AU-3 (1),AU-3,MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B77" s="2" t="inlineStr">
@@ -6324,7 +6324,7 @@
     <row r="78" ht="130" customHeight="1">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
+          <t>AU-12 a,AU-3 (1),AU-3,MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B78" s="2" t="inlineStr">
@@ -6398,7 +6398,7 @@
     <row r="79" ht="130" customHeight="1">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
+          <t>AU-12 a,AU-3 (1),AU-3,MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B79" s="2" t="inlineStr">
@@ -6469,7 +6469,7 @@
     <row r="80" ht="130" customHeight="1">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
+          <t>AU-12 a,AU-3 (1),AU-3,MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B80" s="2" t="inlineStr">
@@ -6549,7 +6549,7 @@
     <row r="81" ht="130" customHeight="1">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
+          <t>AU-12 a,AU-3 (1),AU-3,MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B81" s="2" t="inlineStr">
@@ -6629,7 +6629,7 @@
     <row r="82" ht="130" customHeight="1">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
+          <t>AU-12 a,AU-3 (1),AU-3,MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B82" s="2" t="inlineStr">
@@ -6709,7 +6709,7 @@
     <row r="83" ht="130" customHeight="1">
       <c r="A83" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
+          <t>AU-12 a,AU-3 (1),AU-3,MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B83" s="2" t="inlineStr">
@@ -6789,7 +6789,7 @@
     <row r="84" ht="130" customHeight="1">
       <c r="A84" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
+          <t>AU-12 a,AU-3 (1),AU-3,MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B84" s="2" t="inlineStr">
@@ -6869,7 +6869,7 @@
     <row r="85" ht="130" customHeight="1">
       <c r="A85" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-3 (1)</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-3</t>
         </is>
       </c>
       <c r="B85" s="2" t="inlineStr">
@@ -6949,7 +6949,7 @@
     <row r="86" ht="130" customHeight="1">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
+          <t>AU-12 a,AU-3 (1),AU-3,MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B86" s="2" t="inlineStr">
@@ -7029,7 +7029,7 @@
     <row r="87" ht="130" customHeight="1">
       <c r="A87" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
+          <t>AU-12 a,AU-3 (1),AU-3,MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B87" s="2" t="inlineStr">
@@ -7109,7 +7109,7 @@
     <row r="88" ht="130" customHeight="1">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
+          <t>AU-12 a,AU-3 (1),AU-3,MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B88" s="2" t="inlineStr">
@@ -7189,7 +7189,7 @@
     <row r="89" ht="130" customHeight="1">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
+          <t>AU-12 a,AU-3 (1),AU-3,MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B89" s="2" t="inlineStr">
@@ -7269,7 +7269,7 @@
     <row r="90" ht="130" customHeight="1">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
+          <t>AU-12 a,AU-3 (1),AU-3,MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B90" s="2" t="inlineStr">
@@ -7349,7 +7349,7 @@
     <row r="91" ht="130" customHeight="1">
       <c r="A91" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c,AU-3 (1)</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B91" s="2" t="inlineStr">
@@ -7425,7 +7425,7 @@
     <row r="92" ht="130" customHeight="1">
       <c r="A92" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
+          <t>AU-12 a,AU-3 (1),AU-3,MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B92" s="2" t="inlineStr">
@@ -7502,7 +7502,7 @@
     <row r="93" ht="130" customHeight="1">
       <c r="A93" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
+          <t>AU-12 a,AU-3 (1),AU-3,MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B93" s="2" t="inlineStr">
@@ -7582,7 +7582,7 @@
     <row r="94" ht="130" customHeight="1">
       <c r="A94" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
+          <t>AU-12 a,AU-3 (1),AU-3,MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B94" s="2" t="inlineStr">
@@ -7662,7 +7662,7 @@
     <row r="95" ht="130" customHeight="1">
       <c r="A95" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
+          <t>AU-12 a,AU-3 (1),AU-3,MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B95" s="2" t="inlineStr">
@@ -7742,7 +7742,7 @@
     <row r="96" ht="130" customHeight="1">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
+          <t>AU-12 a,AU-3 (1),AU-3,MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
@@ -7822,7 +7822,7 @@
     <row r="97" ht="130" customHeight="1">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1)</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-12 c,AU-3</t>
         </is>
       </c>
       <c r="B97" s="2" t="inlineStr">
@@ -7902,7 +7902,7 @@
     <row r="98" ht="130" customHeight="1">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
+          <t>AU-12 a,AU-3 (1),AU-3,MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B98" s="2" t="inlineStr">
@@ -7982,7 +7982,7 @@
     <row r="99" ht="130" customHeight="1">
       <c r="A99" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
+          <t>AU-12 a,AU-3 (1),AU-3,MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B99" s="2" t="inlineStr">
@@ -8062,7 +8062,7 @@
     <row r="100" ht="130" customHeight="1">
       <c r="A100" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
+          <t>AU-12 a,AU-3 (1),AU-3,MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B100" s="2" t="inlineStr">
@@ -8142,7 +8142,7 @@
     <row r="101" ht="130" customHeight="1">
       <c r="A101" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
+          <t>AU-12 a,AU-3 (1),AU-3,MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B101" s="2" t="inlineStr">
@@ -8222,7 +8222,7 @@
     <row r="102" ht="130" customHeight="1">
       <c r="A102" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
+          <t>AU-12 a,AU-3 (1),AU-3,MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B102" s="2" t="inlineStr">
@@ -8295,7 +8295,7 @@
     <row r="103" ht="130" customHeight="1">
       <c r="A103" s="2" t="inlineStr">
         <is>
-          <t>AC-2 (4),AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
+          <t>AC-2 (4),AU-12 a,AU-3 (1),AU-3,MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B103" s="2" t="inlineStr">
@@ -8376,7 +8376,7 @@
     <row r="104" ht="130" customHeight="1">
       <c r="A104" s="2" t="inlineStr">
         <is>
-          <t>AC-2 (4),AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
+          <t>AC-2 (4),AU-12 a,AU-3 (1),AU-3,MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B104" s="2" t="inlineStr">
@@ -8457,7 +8457,7 @@
     <row r="105" ht="130" customHeight="1">
       <c r="A105" s="2" t="inlineStr">
         <is>
-          <t>AC-2 (4),AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
+          <t>AC-2 (4),AU-12 a,AU-3 (1),AU-3,MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B105" s="2" t="inlineStr">
@@ -8528,7 +8528,7 @@
     <row r="106" ht="130" customHeight="1">
       <c r="A106" s="2" t="inlineStr">
         <is>
-          <t>AC-2 (4),AU-12 c,AU-3,MA-4 (1) (a),AU-3 (1)</t>
+          <t>AC-2 (4),AU-3 (1),AU-3,MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B106" s="2" t="inlineStr">
@@ -8603,7 +8603,7 @@
     <row r="107" ht="130" customHeight="1">
       <c r="A107" s="2" t="inlineStr">
         <is>
-          <t>AC-2 (4),AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
+          <t>AC-2 (4),AU-12 a,AU-3 (1),AU-3,MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B107" s="2" t="inlineStr">
@@ -8685,7 +8685,7 @@
     <row r="108" ht="130" customHeight="1">
       <c r="A108" s="2" t="inlineStr">
         <is>
-          <t>AC-2 (4),AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
+          <t>AC-2 (4),AU-12 a,AU-3 (1),AU-3,MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B108" s="2" t="inlineStr">
@@ -8767,7 +8767,7 @@
     <row r="109" ht="130" customHeight="1">
       <c r="A109" s="2" t="inlineStr">
         <is>
-          <t>AC-2 (4),AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
+          <t>AC-2 (4),AU-12 a,AU-3 (1),AU-3,MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B109" s="2" t="inlineStr">
@@ -8849,7 +8849,7 @@
     <row r="110" ht="130" customHeight="1">
       <c r="A110" s="2" t="inlineStr">
         <is>
-          <t>AC-2 (4),AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
+          <t>AC-2 (4),AU-12 a,AU-3 (1),AU-3,MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B110" s="2" t="inlineStr">
@@ -8931,7 +8931,7 @@
     <row r="111" ht="130" customHeight="1">
       <c r="A111" s="2" t="inlineStr">
         <is>
-          <t>AC-2 (4),AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
+          <t>AC-2 (4),AU-12 a,AU-3 (1),AU-3,MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B111" s="2" t="inlineStr">
@@ -9013,7 +9013,7 @@
     <row r="112" ht="130" customHeight="1">
       <c r="A112" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-3,AU-3 (1),AU-14 (1),MA-4 (1) (a),AU-12 a</t>
+          <t>AU-12 a,AU-3 (1),AU-3,MA-4 (1) (a),AU-14 (1),AU-12 c</t>
         </is>
       </c>
       <c r="B112" s="2" t="inlineStr">
@@ -9096,7 +9096,7 @@
     <row r="113" ht="130" customHeight="1">
       <c r="A113" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,AC-6 (10)</t>
+          <t>AC-6 (10),CM-6 b</t>
         </is>
       </c>
       <c r="B113" s="2" t="inlineStr">
@@ -9177,7 +9177,7 @@
     <row r="114" ht="130" customHeight="1">
       <c r="A114" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,AC-6 (10)</t>
+          <t>AC-6 (10),CM-6 b</t>
         </is>
       </c>
       <c r="B114" s="2" t="inlineStr">
@@ -9341,7 +9341,7 @@
     <row r="116" ht="130" customHeight="1">
       <c r="A116" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,AC-6 (10)</t>
+          <t>AC-6 (10),CM-6 b</t>
         </is>
       </c>
       <c r="B116" s="2" t="inlineStr">
@@ -9707,7 +9707,7 @@
     <row r="120" ht="130" customHeight="1">
       <c r="A120" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-12 a</t>
+          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a</t>
         </is>
       </c>
       <c r="B120" s="2" t="inlineStr">
@@ -9778,7 +9778,7 @@
     <row r="121" ht="130" customHeight="1">
       <c r="A121" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-12 a</t>
+          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a</t>
         </is>
       </c>
       <c r="B121" s="2" t="inlineStr">
@@ -9849,7 +9849,7 @@
     <row r="122" ht="130" customHeight="1">
       <c r="A122" s="2" t="inlineStr">
         <is>
-          <t>AU-9,AU-12 c</t>
+          <t>AU-12 c,AU-9</t>
         </is>
       </c>
       <c r="B122" s="2" t="inlineStr">
@@ -10222,7 +10222,7 @@
     <row r="127" ht="130" customHeight="1">
       <c r="A127" s="2" t="inlineStr">
         <is>
-          <t>CM-5 (1),AC-6 (9),AC-2 (4),AU-12 c</t>
+          <t>CM-5 (1),AC-2 (4),AU-12 c,AC-6 (9)</t>
         </is>
       </c>
       <c r="B127" s="2" t="inlineStr">
@@ -10345,7 +10345,7 @@
     <row r="129" ht="130" customHeight="1">
       <c r="A129" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,IA-5 (1) (a),IA-5 (1) (b)</t>
+          <t>IA-5 (1) (a),CM-6 b,IA-5 (1) (b)</t>
         </is>
       </c>
       <c r="B129" s="2" t="inlineStr">
@@ -10665,7 +10665,7 @@
     <row r="133" ht="130" customHeight="1">
       <c r="A133" s="2" t="inlineStr">
         <is>
-          <t>SC-8,AC-17 (2),MA-4 c,SC-13</t>
+          <t>SC-13,AC-17 (2),SC-8,MA-4 c</t>
         </is>
       </c>
       <c r="B133" s="2" t="inlineStr">
@@ -10747,7 +10747,7 @@
     <row r="134" ht="130" customHeight="1">
       <c r="A134" s="2" t="inlineStr">
         <is>
-          <t>SC-10,MA-4 (7),MA-4 e,AC-12</t>
+          <t>MA-4 (7),MA-4 e,SC-10,AC-12</t>
         </is>
       </c>
       <c r="B134" s="2" t="inlineStr">
@@ -10977,7 +10977,7 @@
     <row r="137" ht="130" customHeight="1">
       <c r="A137" s="2" t="inlineStr">
         <is>
-          <t>SC-10,AC-11 a</t>
+          <t>AC-11 a,SC-10</t>
         </is>
       </c>
       <c r="B137" s="2" t="inlineStr">
@@ -11054,7 +11054,7 @@
     <row r="138" ht="130" customHeight="1">
       <c r="A138" s="2" t="inlineStr">
         <is>
-          <t>AU-7 a,CM-5 (1),AU-12 a,AU-3,CM-6 b,AU-14 (1),MA-4 (1) (a),AU-6 (4),AU-7 (1),AU-3 (1)</t>
+          <t>MA-4 (1) (a),AU-6 (4),AU-7 (1),AU-12 a,AU-3 (1),AU-7 a,AU-3,CM-5 (1),AU-14 (1),CM-6 b</t>
         </is>
       </c>
       <c r="B138" s="2" t="inlineStr">
@@ -13125,7 +13125,7 @@
     <row r="166" ht="130" customHeight="1">
       <c r="A166" s="2" t="inlineStr">
         <is>
-          <t>SC-8,SC-8 (1),SC-8 (2)</t>
+          <t>SC-8 (2),SC-8,SC-8 (1)</t>
         </is>
       </c>
       <c r="B166" s="2" t="inlineStr">
@@ -13278,7 +13278,7 @@
     <row r="168" ht="130" customHeight="1">
       <c r="A168" s="2" t="inlineStr">
         <is>
-          <t>SC-8,AC-17 (2)</t>
+          <t>AC-17 (2),SC-8</t>
         </is>
       </c>
       <c r="B168" s="2" t="inlineStr">
@@ -13357,7 +13357,7 @@
     <row r="169" ht="130" customHeight="1">
       <c r="A169" s="2" t="inlineStr">
         <is>
-          <t>SC-8,SC-8 (2)</t>
+          <t>SC-8 (2),SC-8</t>
         </is>
       </c>
       <c r="B169" s="2" t="inlineStr">
@@ -13432,7 +13432,7 @@
     <row r="170" ht="130" customHeight="1">
       <c r="A170" s="2" t="inlineStr">
         <is>
-          <t>SC-8,AC-17 (2)</t>
+          <t>AC-17 (2),SC-8</t>
         </is>
       </c>
       <c r="B170" s="2" t="inlineStr">
@@ -13581,7 +13581,7 @@
     <row r="172" ht="130" customHeight="1">
       <c r="A172" s="2" t="inlineStr">
         <is>
-          <t>AC-11 a,AC-11 b</t>
+          <t>AC-11 b,AC-11 a</t>
         </is>
       </c>
       <c r="B172" s="2" t="inlineStr">
@@ -13659,7 +13659,7 @@
     <row r="173" ht="130" customHeight="1">
       <c r="A173" s="2" t="inlineStr">
         <is>
-          <t>AC-11 a,AC-11 b</t>
+          <t>AC-11 b,AC-11 a</t>
         </is>
       </c>
       <c r="B173" s="2" t="inlineStr">
@@ -13742,7 +13742,7 @@
     <row r="174" ht="130" customHeight="1">
       <c r="A174" s="2" t="inlineStr">
         <is>
-          <t>AC-11 a,AC-11 b</t>
+          <t>AC-11 b,AC-11 a</t>
         </is>
       </c>
       <c r="B174" s="2" t="inlineStr">
@@ -14122,7 +14122,7 @@
     <row r="179" ht="130" customHeight="1">
       <c r="A179" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,AU-6 (4),AU-4 (1)</t>
+          <t>AU-6 (4),AU-4 (1),CM-6 b</t>
         </is>
       </c>
       <c r="B179" s="2" t="inlineStr">
@@ -14193,7 +14193,7 @@
     <row r="180" ht="130" customHeight="1">
       <c r="A180" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,CM-7 b,AC-17 (1)</t>
+          <t>AC-17 (1),CM-6 b,CM-7 b</t>
         </is>
       </c>
       <c r="B180" s="2" t="inlineStr">
@@ -15593,7 +15593,7 @@
     <row r="199" ht="130" customHeight="1">
       <c r="A199" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-4 (1)</t>
+          <t>AU-4 (1),AU-3</t>
         </is>
       </c>
       <c r="B199" s="2" t="inlineStr">
@@ -16108,7 +16108,7 @@
     <row r="206" ht="130" customHeight="1">
       <c r="A206" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,AU-4 (1)</t>
+          <t>AU-4 (1),CM-6 b</t>
         </is>
       </c>
       <c r="B206" s="2" t="inlineStr">
@@ -16188,7 +16188,7 @@
     <row r="207" ht="130" customHeight="1">
       <c r="A207" s="2" t="inlineStr">
         <is>
-          <t>SC-28,SC-28 (1)</t>
+          <t>SC-28 (1),SC-28</t>
         </is>
       </c>
       <c r="B207" s="2" t="inlineStr">
@@ -16502,7 +16502,7 @@
     <row r="211" ht="130" customHeight="1">
       <c r="A211" s="2" t="inlineStr">
         <is>
-          <t>AC-8 a,AC-8 c 1, AC-8 c 2, AC-8 c 3</t>
+          <t>AC-8 c 1, AC-8 c 2, AC-8 c 3,AC-8 a</t>
         </is>
       </c>
       <c r="B211" s="2" t="inlineStr">
@@ -16604,7 +16604,7 @@
     <row r="212" ht="130" customHeight="1">
       <c r="A212" s="2" t="inlineStr">
         <is>
-          <t>AC-8 a,AC-8 c 1, AC-8 c 2, AC-8 c 3</t>
+          <t>AC-8 c 1, AC-8 c 2, AC-8 c 3,AC-8 a</t>
         </is>
       </c>
       <c r="B212" s="2" t="inlineStr">
@@ -16714,7 +16714,7 @@
     <row r="213" ht="130" customHeight="1">
       <c r="A213" s="2" t="inlineStr">
         <is>
-          <t>AC-8 a,AC-8 c 1, AC-8 c 2, AC-8 c 3</t>
+          <t>AC-8 c 1, AC-8 c 2, AC-8 c 3,AC-8 a</t>
         </is>
       </c>
       <c r="B213" s="2" t="inlineStr">
@@ -16825,7 +16825,7 @@
     <row r="214" ht="130" customHeight="1">
       <c r="A214" s="2" t="inlineStr">
         <is>
-          <t>AC-8 a,AC-8 c 1, AC-8 c 2, AC-8 c 3</t>
+          <t>AC-8 c 1, AC-8 c 2, AC-8 c 3,AC-8 a</t>
         </is>
       </c>
       <c r="B214" s="2" t="inlineStr">
@@ -16934,7 +16934,7 @@
     <row r="215" ht="130" customHeight="1">
       <c r="A215" s="2" t="inlineStr">
         <is>
-          <t>AC-6 (9),AC-2 (4),AU-12 c</t>
+          <t>AC-2 (4),AU-12 c,AC-6 (9)</t>
         </is>
       </c>
       <c r="B215" s="2" t="inlineStr">
@@ -17376,7 +17376,7 @@
     <row r="220" ht="130" customHeight="1">
       <c r="A220" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,IA-2 (5)</t>
+          <t>IA-2 (5),CM-6 b</t>
         </is>
       </c>
       <c r="B220" s="2" t="inlineStr">
@@ -17454,7 +17454,7 @@
     <row r="221" ht="130" customHeight="1">
       <c r="A221" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (4),IA-2 (2),IA-2,IA-2 (5),IA-2 (3)</t>
+          <t>IA-2 (2),IA-2 (3),IA-2,IA-2 (5),IA-2 (4)</t>
         </is>
       </c>
       <c r="B221" s="2" t="inlineStr">
@@ -17539,7 +17539,7 @@
     <row r="222" ht="130" customHeight="1">
       <c r="A222" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (4),IA-2 (2),IA-2,IA-2 (5),IA-2 (3)</t>
+          <t>IA-2 (2),IA-2 (3),IA-2,IA-2 (5),IA-2 (4)</t>
         </is>
       </c>
       <c r="B222" s="2" t="inlineStr">
@@ -17624,7 +17624,7 @@
     <row r="223" ht="130" customHeight="1">
       <c r="A223" s="2" t="inlineStr">
         <is>
-          <t>SC-8 (1),SC-8,AC-18 (1)</t>
+          <t>AC-18 (1),SC-8,SC-8 (1)</t>
         </is>
       </c>
       <c r="B223" s="2" t="inlineStr">
@@ -17791,7 +17791,7 @@
     <row r="225" ht="130" customHeight="1">
       <c r="A225" s="2" t="inlineStr">
         <is>
-          <t>IA-7,IA-5 (1) (c)</t>
+          <t>IA-5 (1) (c),IA-7</t>
         </is>
       </c>
       <c r="B225" s="2" t="inlineStr">
@@ -17874,7 +17874,7 @@
     <row r="226" ht="130" customHeight="1">
       <c r="A226" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,IA-7</t>
+          <t>IA-7,CM-6 b</t>
         </is>
       </c>
       <c r="B226" s="2" t="inlineStr">
@@ -17950,7 +17950,7 @@
     <row r="227" ht="130" customHeight="1">
       <c r="A227" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,IA-7</t>
+          <t>IA-7,CM-6 b</t>
         </is>
       </c>
       <c r="B227" s="2" t="inlineStr">
@@ -18035,7 +18035,7 @@
     <row r="228" ht="130" customHeight="1">
       <c r="A228" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,IA-7</t>
+          <t>IA-7,CM-6 b</t>
         </is>
       </c>
       <c r="B228" s="2" t="inlineStr">
@@ -19260,7 +19260,7 @@
     <row r="244" ht="130" customHeight="1">
       <c r="A244" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,SI-16,SC-2</t>
+          <t>SC-2,SI-16,CM-6 b</t>
         </is>
       </c>
       <c r="B244" s="2" t="inlineStr">
@@ -19420,7 +19420,7 @@
     <row r="246" ht="130" customHeight="1">
       <c r="A246" s="2" t="inlineStr">
         <is>
-          <t>SI-16,SC-3</t>
+          <t>SC-3,SI-16</t>
         </is>
       </c>
       <c r="B246" s="2" t="inlineStr">
@@ -20334,7 +20334,7 @@
     <row r="258" ht="130" customHeight="1">
       <c r="A258" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,IA-3</t>
+          <t>IA-3,CM-6 b</t>
         </is>
       </c>
       <c r="B258" s="2" t="inlineStr">
@@ -20409,7 +20409,7 @@
     <row r="259" ht="130" customHeight="1">
       <c r="A259" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,IA-3</t>
+          <t>IA-3,CM-6 b</t>
         </is>
       </c>
       <c r="B259" s="2" t="inlineStr">
@@ -20497,7 +20497,7 @@
     <row r="260" ht="130" customHeight="1">
       <c r="A260" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,IA-3</t>
+          <t>IA-3,CM-6 b</t>
         </is>
       </c>
       <c r="B260" s="2" t="inlineStr">
@@ -20574,7 +20574,7 @@
     <row r="261" ht="130" customHeight="1">
       <c r="A261" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,IA-3</t>
+          <t>IA-3,CM-6 b</t>
         </is>
       </c>
       <c r="B261" s="2" t="inlineStr">
@@ -21172,7 +21172,7 @@
     <row r="269" ht="130" customHeight="1">
       <c r="A269" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,IA-2 (2)</t>
+          <t>IA-2 (2),CM-6 b</t>
         </is>
       </c>
       <c r="B269" s="2" t="inlineStr">
@@ -21259,7 +21259,7 @@
     <row r="270" ht="130" customHeight="1">
       <c r="A270" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (3),IA-2 (2),IA-2 (1),IA-2 (4)</t>
+          <t>IA-2 (2),IA-2 (3),IA-2 (1),IA-2 (4)</t>
         </is>
       </c>
       <c r="B270" s="2" t="inlineStr">
@@ -21646,7 +21646,7 @@
     <row r="275" ht="130" customHeight="1">
       <c r="A275" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,SC-4</t>
+          <t>SC-4,CM-6 b</t>
         </is>
       </c>
       <c r="B275" s="2" t="inlineStr">
@@ -22276,7 +22276,7 @@
     <row r="283" ht="130" customHeight="1">
       <c r="A283" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,CM-5 (3)</t>
+          <t>CM-5 (3),CM-6 b</t>
         </is>
       </c>
       <c r="B283" s="2" t="inlineStr">
@@ -23456,7 +23456,7 @@
     <row r="298" ht="130" customHeight="1">
       <c r="A298" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (1),IA-2 (11)</t>
+          <t>IA-2 (11),IA-2 (1)</t>
         </is>
       </c>
       <c r="B298" s="2" t="inlineStr">
@@ -23545,7 +23545,7 @@
     <row r="299" ht="130" customHeight="1">
       <c r="A299" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (12),IA-2 (1),IA-2 (11)</t>
+          <t>IA-2 (12),IA-2 (11),IA-2 (1)</t>
         </is>
       </c>
       <c r="B299" s="2" t="inlineStr">
@@ -24367,7 +24367,7 @@
     <row r="309" ht="130" customHeight="1">
       <c r="A309" s="2" t="inlineStr">
         <is>
-          <t>AU-8 (1) (a),AU-8 b,AU-8 (1) (b)</t>
+          <t>AU-8 (1) (b),AU-8 (1) (a),AU-8 b</t>
         </is>
       </c>
       <c r="B309" s="2" t="inlineStr">
@@ -25941,7 +25941,7 @@
     <row r="329" ht="130" customHeight="1">
       <c r="A329" s="2" t="inlineStr">
         <is>
-          <t>AU-5 b,AU-5 a</t>
+          <t>AU-5 a,AU-5 b</t>
         </is>
       </c>
       <c r="B329" s="2" t="inlineStr">
@@ -26860,7 +26860,7 @@
     <row r="341" ht="130" customHeight="1">
       <c r="A341" s="2" t="inlineStr">
         <is>
-          <t>CM-7 b,IA-3</t>
+          <t>IA-3,CM-7 b</t>
         </is>
       </c>
       <c r="B341" s="2" t="inlineStr">
@@ -27083,7 +27083,7 @@
     <row r="344" ht="130" customHeight="1">
       <c r="A344" s="2" t="inlineStr">
         <is>
-          <t>CM-7 b,AC-17 (1)</t>
+          <t>AC-17 (1),CM-7 b</t>
         </is>
       </c>
       <c r="B344" s="2" t="inlineStr">
@@ -27169,7 +27169,7 @@
     <row r="345" ht="130" customHeight="1">
       <c r="A345" s="2" t="inlineStr">
         <is>
-          <t>CM-7 a,AC-18 (1)</t>
+          <t>AC-18 (1),CM-7 a</t>
         </is>
       </c>
       <c r="B345" s="2" t="inlineStr">
@@ -27246,7 +27246,7 @@
     <row r="346" ht="130" customHeight="1">
       <c r="A346" s="2" t="inlineStr">
         <is>
-          <t>CM-7 a,CM-6 b,IA-5 (1) (c)</t>
+          <t>IA-5 (1) (c),CM-7 a,CM-6 b</t>
         </is>
       </c>
       <c r="B346" s="2" t="inlineStr">
@@ -28091,7 +28091,7 @@
     <row r="357" ht="130" customHeight="1">
       <c r="A357" s="2" t="inlineStr">
         <is>
-          <t>AC-11 b,AC-11 (1)</t>
+          <t>AC-11 (1),AC-11 b</t>
         </is>
       </c>
       <c r="B357" s="2" t="inlineStr">
@@ -28340,7 +28340,7 @@
     <row r="360" ht="130" customHeight="1">
       <c r="A360" s="2" t="inlineStr">
         <is>
-          <t>CM-3 (5),SI-6 b,SI-6 d</t>
+          <t>SI-6 b,SI-6 d,CM-3 (5)</t>
         </is>
       </c>
       <c r="B360" s="2" t="inlineStr">
@@ -28431,7 +28431,7 @@
     <row r="361" ht="130" customHeight="1">
       <c r="A361" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,CM-7 a</t>
+          <t>CM-7 a,CM-6 b</t>
         </is>
       </c>
       <c r="B361" s="2" t="inlineStr">
@@ -30254,7 +30254,7 @@
     <row r="384" ht="130" customHeight="1">
       <c r="A384" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,AC-17 (2)</t>
+          <t>AC-17 (2),CM-6 b</t>
         </is>
       </c>
       <c r="B384" s="2" t="inlineStr">
@@ -30563,7 +30563,7 @@
     <row r="388" ht="130" customHeight="1">
       <c r="A388" s="2" t="inlineStr">
         <is>
-          <t>SI-6 a,SC-3</t>
+          <t>SC-3,SI-6 a</t>
         </is>
       </c>
       <c r="B388" s="2" t="inlineStr">
@@ -30702,7 +30702,7 @@
     <row r="390" ht="130" customHeight="1">
       <c r="A390" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,IA-5 (1) (a)</t>
+          <t>IA-5 (1) (a),CM-6 b</t>
         </is>
       </c>
       <c r="B390" s="2" t="inlineStr">
@@ -31184,7 +31184,7 @@
     <row r="396" ht="130" customHeight="1">
       <c r="A396" s="2" t="inlineStr">
         <is>
-          <t>CM-3 (5),SI-6 d</t>
+          <t>SI-6 d,CM-3 (5)</t>
         </is>
       </c>
       <c r="B396" s="2" t="inlineStr">
@@ -31268,7 +31268,7 @@
     <row r="397" ht="130" customHeight="1">
       <c r="A397" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,SI-16</t>
+          <t>SI-16,CM-6 b</t>
         </is>
       </c>
       <c r="B397" s="2" t="inlineStr">
@@ -31509,7 +31509,7 @@
     <row r="400" ht="130" customHeight="1">
       <c r="A400" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,SC-3</t>
+          <t>SC-3,CM-6 b</t>
         </is>
       </c>
       <c r="B400" s="2" t="inlineStr">
@@ -31600,7 +31600,7 @@
     <row r="401" ht="130" customHeight="1">
       <c r="A401" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,SC-3</t>
+          <t>SC-3,CM-6 b</t>
         </is>
       </c>
       <c r="B401" s="2" t="inlineStr">
@@ -31694,7 +31694,7 @@
     <row r="402" ht="130" customHeight="1">
       <c r="A402" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,SC-3</t>
+          <t>SC-3,CM-6 b</t>
         </is>
       </c>
       <c r="B402" s="2" t="inlineStr">
@@ -35104,7 +35104,7 @@
     <row r="447" ht="130" customHeight="1">
       <c r="A447" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,IA-5 (1) (c)</t>
+          <t>IA-5 (1) (c),CM-6 b</t>
         </is>
       </c>
       <c r="B447" s="2" t="inlineStr">
@@ -35254,7 +35254,7 @@
     <row r="449" ht="130" customHeight="1">
       <c r="A449" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,CM-5 (1)</t>
+          <t>CM-5 (1),CM-6 b</t>
         </is>
       </c>
       <c r="B449" s="2" t="inlineStr">
@@ -35327,7 +35327,7 @@
     <row r="450" ht="130" customHeight="1">
       <c r="A450" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,CM-5 (1)</t>
+          <t>CM-5 (1),CM-6 b</t>
         </is>
       </c>
       <c r="B450" s="2" t="inlineStr">
@@ -41138,7 +41138,7 @@
     <row r="523" ht="130" customHeight="1">
       <c r="A523" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,SC-2</t>
+          <t>SC-2,CM-6 b</t>
         </is>
       </c>
       <c r="B523" s="2" t="inlineStr">
@@ -41225,7 +41225,7 @@
     <row r="524" ht="130" customHeight="1">
       <c r="A524" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,SC-2</t>
+          <t>SC-2,CM-6 b</t>
         </is>
       </c>
       <c r="B524" s="2" t="inlineStr">
@@ -42457,7 +42457,7 @@
     <row r="540" ht="130" customHeight="1">
       <c r="A540" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,SI-2 (2)</t>
+          <t>SI-2 (2),CM-6 b</t>
         </is>
       </c>
       <c r="B540" s="2" t="inlineStr">
@@ -43104,7 +43104,7 @@
     <row r="549" ht="130" customHeight="1">
       <c r="A549" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,SI-2 (2)</t>
+          <t>SI-2 (2),CM-6 b</t>
         </is>
       </c>
       <c r="B549" s="2" t="inlineStr">
@@ -43712,7 +43712,7 @@
     <row r="557" ht="130" customHeight="1">
       <c r="A557" s="2" t="inlineStr">
         <is>
-          <t>CM-3 (5),SI-6 a</t>
+          <t>SI-6 a,CM-3 (5)</t>
         </is>
       </c>
       <c r="B557" s="2" t="inlineStr">

--- a/srg_mapping/srg-mapping-rhel9.xlsx
+++ b/srg_mapping/srg-mapping-rhel9.xlsx
@@ -625,7 +625,7 @@
     <row r="3" ht="130" customHeight="1">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>AU-14 (1),AU-4</t>
+          <t>AU-4,AU-14 (1)</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
@@ -708,7 +708,7 @@
     <row r="4" ht="130" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>AU-4,CM-6 b</t>
+          <t>CM-6 b,AU-4</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
@@ -784,7 +784,7 @@
     <row r="5" ht="130" customHeight="1">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>SC-5,SC-5 (2),CM-6 b</t>
+          <t>CM-6 b,SC-5 (2),SC-5</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
@@ -883,7 +883,7 @@
     <row r="6" ht="130" customHeight="1">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>AC-6 (8),AU-12 (3),CM-5 (1),AC-6 (9),AU-7 b,AU-8 b,AU-7 a</t>
+          <t>CM-5 (1),AC-6 (8),AU-8 b,AU-7 b,AU-7 a,AU-12 (3),AC-6 (9)</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
@@ -893,7 +893,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>SRG-OS-000326-GPOS-00126,SRG-OS-000327-GPOS-00127,SRG-OS-000337-GPOS-00129,SRG-OS-000348-GPOS-00136,SRG-OS-000349-GPOS-00137,SRG-OS-000350-GPOS-00138,SRG-OS-000351-GPOS-00139,SRG-OS-000352-GPOS-00140,SRG-OS-000353-GPOS-00141,SRG-OS-000354-GPOS-00142,SRG-OS-000358-GPOS-00145,SRG-OS-000359-GPOS-00146,SRG-OS-000365-GPOS-00152</t>
+          <t>SRG-OS-000326-GPOS-00126,SRG-OS-000327-GPOS-00127,SRG-OS-000337-GPOS-00129,SRG-OS-000348-GPOS-00136,SRG-OS-000349-GPOS-00137,SRG-OS-000350-GPOS-00138,SRG-OS-000351-GPOS-00139,SRG-OS-000352-GPOS-00140,SRG-OS-000353-GPOS-00141,SRG-OS-000354-GPOS-00142,SRG-OS-000358-GPOS-00145,SRG-OS-000365-GPOS-00152</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -963,7 +963,7 @@
     <row r="7" ht="130" customHeight="1">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>AU-12 (3),CM-5 (1),CM-6 b,AU-7 b,AU-12 c,AU-8 b,AU-12 a,AU-7 a</t>
+          <t>CM-6 b,AU-12 c,CM-5 (1),AU-8 b,AU-7 b,AU-7 a,AU-12 (3),AU-12 a</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
@@ -1015,7 +1015,7 @@
       <c r="K7" s="2" t="inlineStr">
         <is>
           <t>Run the following command to determine if the  audit  package is installed:  $ rpm -q audit 
-If the package is not installed then this is a finding.</t>
+If the audit package is not installed then this is a finding.</t>
         </is>
       </c>
       <c r="L7" s="2" t="n"/>
@@ -1496,7 +1496,7 @@
     <row r="14" ht="130" customHeight="1">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>CM-7 (2),CM-7 (5) (b)</t>
+          <t>CM-7 (5) (b),CM-7 (2)</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
@@ -1572,7 +1572,7 @@
     <row r="15" ht="130" customHeight="1">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>CM-7 (2),CM-7 (5) (b)</t>
+          <t>CM-7 (5) (b),CM-7 (2)</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
@@ -1726,7 +1726,7 @@
     <row r="17" ht="130" customHeight="1">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>CM-7 (2),CM-6 b</t>
+          <t>CM-6 b,CM-7 (2)</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
@@ -2096,7 +2096,7 @@
     <row r="22" ht="130" customHeight="1">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>CM-7 (2),CM-6 b</t>
+          <t>CM-6 b,CM-7 (2)</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
@@ -2170,7 +2170,7 @@
     <row r="23" ht="130" customHeight="1">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>CM-7 (2),CM-6 b</t>
+          <t>CM-6 b,CM-7 (2)</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
@@ -3298,7 +3298,7 @@
     <row r="38" ht="130" customHeight="1">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>AC-7 a,AC-7 b</t>
+          <t>AC-7 b,AC-7 a</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
@@ -3382,7 +3382,7 @@
     <row r="39" ht="130" customHeight="1">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>AC-7 a,AC-7 b</t>
+          <t>AC-7 b,AC-7 a</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
@@ -3467,7 +3467,7 @@
     <row r="40" ht="130" customHeight="1">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>AC-7 a,AC-7 b</t>
+          <t>AC-7 b,AC-7 a</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
@@ -3539,7 +3539,7 @@
     <row r="41" ht="130" customHeight="1">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>AC-7 a,AC-7 b</t>
+          <t>AC-7 b,AC-7 a</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
@@ -3844,7 +3844,7 @@
     <row r="45" ht="130" customHeight="1">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>IA-2,AU-3 (1),IA-8</t>
+          <t>AU-3 (1),IA-2,IA-8</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
@@ -3922,7 +3922,7 @@
     <row r="46" ht="130" customHeight="1">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1),AU-12 a</t>
+          <t>AU-3,AU-12 c,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
@@ -3997,7 +3997,7 @@
     <row r="47" ht="130" customHeight="1">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1),AU-12 a</t>
+          <t>AU-3,AU-12 c,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
@@ -4072,7 +4072,7 @@
     <row r="48" ht="130" customHeight="1">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1),AU-12 a</t>
+          <t>AU-3,AU-12 c,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
@@ -4147,7 +4147,7 @@
     <row r="49" ht="130" customHeight="1">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1),AU-12 a</t>
+          <t>AU-3,AU-12 c,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
@@ -4222,7 +4222,7 @@
     <row r="50" ht="130" customHeight="1">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1),AU-12 a</t>
+          <t>AU-3,AU-12 c,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
@@ -4297,7 +4297,7 @@
     <row r="51" ht="130" customHeight="1">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1),AU-12 a</t>
+          <t>AU-3,AU-12 c,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
@@ -4372,7 +4372,7 @@
     <row r="52" ht="130" customHeight="1">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1),AU-12 a</t>
+          <t>AU-3,AU-12 c,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
@@ -4447,7 +4447,7 @@
     <row r="53" ht="130" customHeight="1">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1),AU-12 a</t>
+          <t>AU-3,AU-12 c,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
@@ -4522,7 +4522,7 @@
     <row r="54" ht="130" customHeight="1">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1),AU-12 a</t>
+          <t>AU-3,AU-12 c,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
@@ -4597,7 +4597,7 @@
     <row r="55" ht="130" customHeight="1">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1),AU-12 a</t>
+          <t>AU-3,AU-12 c,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
@@ -4672,7 +4672,7 @@
     <row r="56" ht="130" customHeight="1">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1),AU-12 a</t>
+          <t>AU-3,AU-12 c,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
@@ -4747,7 +4747,7 @@
     <row r="57" ht="130" customHeight="1">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1),AU-12 a</t>
+          <t>AU-3,AU-12 c,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
@@ -4822,7 +4822,7 @@
     <row r="58" ht="130" customHeight="1">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1),AU-12 a</t>
+          <t>AU-3,AU-12 c,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
@@ -4897,7 +4897,7 @@
     <row r="59" ht="130" customHeight="1">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1),AU-12 a</t>
+          <t>AU-3,AU-12 c,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
@@ -4977,7 +4977,7 @@
     <row r="60" ht="130" customHeight="1">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1),AU-12 a</t>
+          <t>AU-3,AU-12 c,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
@@ -5060,7 +5060,7 @@
     <row r="61" ht="130" customHeight="1">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1),AU-12 a</t>
+          <t>AU-3,AU-12 c,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
@@ -5140,7 +5140,7 @@
     <row r="62" ht="130" customHeight="1">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1),AU-12 a</t>
+          <t>AU-3,AU-12 c,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
@@ -5220,7 +5220,7 @@
     <row r="63" ht="130" customHeight="1">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1),AU-12 a</t>
+          <t>AU-3,AU-12 c,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
@@ -5300,7 +5300,7 @@
     <row r="64" ht="130" customHeight="1">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1),AU-12 a</t>
+          <t>AU-3,AU-12 c,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
@@ -5380,7 +5380,7 @@
     <row r="65" ht="130" customHeight="1">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1),AU-12 a</t>
+          <t>AU-3,AU-12 c,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
@@ -5454,7 +5454,7 @@
     <row r="66" ht="130" customHeight="1">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1),AU-12 a</t>
+          <t>AU-3,AU-12 c,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
@@ -5528,7 +5528,7 @@
     <row r="67" ht="130" customHeight="1">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1),AU-12 a</t>
+          <t>AU-3,AU-12 c,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
@@ -5602,7 +5602,7 @@
     <row r="68" ht="130" customHeight="1">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1),AU-12 a</t>
+          <t>AU-3,AU-12 c,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
@@ -5676,7 +5676,7 @@
     <row r="69" ht="130" customHeight="1">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1),AU-12 a</t>
+          <t>AU-3,AU-12 c,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
@@ -5750,7 +5750,7 @@
     <row r="70" ht="130" customHeight="1">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1),AU-12 a</t>
+          <t>AU-3,AU-12 c,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
@@ -5823,7 +5823,7 @@
     <row r="71" ht="130" customHeight="1">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1),AU-12 a</t>
+          <t>AU-3,AU-12 c,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
         </is>
       </c>
       <c r="B71" s="2" t="inlineStr">
@@ -5896,7 +5896,7 @@
     <row r="72" ht="130" customHeight="1">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1),AU-12 a</t>
+          <t>AU-3,AU-12 c,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
@@ -5969,7 +5969,7 @@
     <row r="73" ht="130" customHeight="1">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1),AU-12 a</t>
+          <t>AU-3,AU-12 c,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
         </is>
       </c>
       <c r="B73" s="2" t="inlineStr">
@@ -6042,7 +6042,7 @@
     <row r="74" ht="130" customHeight="1">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1),AU-12 a</t>
+          <t>AU-3,AU-12 c,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
         </is>
       </c>
       <c r="B74" s="2" t="inlineStr">
@@ -6115,7 +6115,7 @@
     <row r="75" ht="130" customHeight="1">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1),AU-12 a</t>
+          <t>AU-3,AU-12 c,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
         </is>
       </c>
       <c r="B75" s="2" t="inlineStr">
@@ -6188,7 +6188,7 @@
     <row r="76" ht="130" customHeight="1">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1),AU-12 a</t>
+          <t>AU-3,AU-12 c,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
         </is>
       </c>
       <c r="B76" s="2" t="inlineStr">
@@ -6262,7 +6262,7 @@
     <row r="77" ht="130" customHeight="1">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1),AU-12 a</t>
+          <t>AU-3,AU-12 c,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
         </is>
       </c>
       <c r="B77" s="2" t="inlineStr">
@@ -6336,7 +6336,7 @@
     <row r="78" ht="130" customHeight="1">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1),AU-12 a</t>
+          <t>AU-3,AU-12 c,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
         </is>
       </c>
       <c r="B78" s="2" t="inlineStr">
@@ -6410,7 +6410,7 @@
     <row r="79" ht="130" customHeight="1">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1),AU-12 a</t>
+          <t>AU-3,AU-12 c,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
         </is>
       </c>
       <c r="B79" s="2" t="inlineStr">
@@ -6468,7 +6468,14 @@
         </is>
       </c>
       <c r="L79" s="2" t="n"/>
-      <c r="M79" s="2" t="inlineStr"/>
+      <c r="M79" s="2" t="inlineStr">
+        <is>
+          <t>Configure Red Hat Enterprise Linux 9 to generate audit records for all account creations, modifications, disabling, and termination events that affect  /var/log/lastlog .
+Add or update the following file system rule to  /etc/audit/rules.d/audit.rules :
+-w /var/log/lastlog -p wa -k logins
+The audit daemon must be restarted for the changes to take effect.</t>
+        </is>
+      </c>
       <c r="N79" s="2" t="inlineStr">
         <is>
           <t>CAT II</t>
@@ -6481,7 +6488,7 @@
     <row r="80" ht="130" customHeight="1">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1),AU-12 a</t>
+          <t>AU-3,AU-12 c,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
         </is>
       </c>
       <c r="B80" s="2" t="inlineStr">
@@ -6561,7 +6568,7 @@
     <row r="81" ht="130" customHeight="1">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1),AU-12 a</t>
+          <t>AU-3,AU-12 c,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
         </is>
       </c>
       <c r="B81" s="2" t="inlineStr">
@@ -6641,7 +6648,7 @@
     <row r="82" ht="130" customHeight="1">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1),AU-12 a</t>
+          <t>AU-3,AU-12 c,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
         </is>
       </c>
       <c r="B82" s="2" t="inlineStr">
@@ -6721,7 +6728,7 @@
     <row r="83" ht="130" customHeight="1">
       <c r="A83" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1),AU-12 a</t>
+          <t>AU-3,AU-12 c,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
         </is>
       </c>
       <c r="B83" s="2" t="inlineStr">
@@ -6801,7 +6808,7 @@
     <row r="84" ht="130" customHeight="1">
       <c r="A84" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1),AU-12 a</t>
+          <t>AU-3,AU-12 c,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
         </is>
       </c>
       <c r="B84" s="2" t="inlineStr">
@@ -6881,7 +6888,7 @@
     <row r="85" ht="130" customHeight="1">
       <c r="A85" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3,AU-3 (1)</t>
+          <t>AU-3 (1),AU-3,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B85" s="2" t="inlineStr">
@@ -6961,7 +6968,7 @@
     <row r="86" ht="130" customHeight="1">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1),AU-12 a</t>
+          <t>AU-3,AU-12 c,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
         </is>
       </c>
       <c r="B86" s="2" t="inlineStr">
@@ -7041,7 +7048,7 @@
     <row r="87" ht="130" customHeight="1">
       <c r="A87" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1),AU-12 a</t>
+          <t>AU-3,AU-12 c,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
         </is>
       </c>
       <c r="B87" s="2" t="inlineStr">
@@ -7121,7 +7128,7 @@
     <row r="88" ht="130" customHeight="1">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1),AU-12 a</t>
+          <t>AU-3,AU-12 c,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
         </is>
       </c>
       <c r="B88" s="2" t="inlineStr">
@@ -7201,7 +7208,7 @@
     <row r="89" ht="130" customHeight="1">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1),AU-12 a</t>
+          <t>AU-3,AU-12 c,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
         </is>
       </c>
       <c r="B89" s="2" t="inlineStr">
@@ -7281,7 +7288,7 @@
     <row r="90" ht="130" customHeight="1">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1),AU-12 a</t>
+          <t>AU-3,AU-12 c,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
         </is>
       </c>
       <c r="B90" s="2" t="inlineStr">
@@ -7361,7 +7368,7 @@
     <row r="91" ht="130" customHeight="1">
       <c r="A91" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,MA-4 (1) (a),AU-3 (1)</t>
+          <t>AU-3 (1),AU-12 c,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B91" s="2" t="inlineStr">
@@ -7437,7 +7444,7 @@
     <row r="92" ht="130" customHeight="1">
       <c r="A92" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1),AU-12 a</t>
+          <t>AU-3,AU-12 c,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
         </is>
       </c>
       <c r="B92" s="2" t="inlineStr">
@@ -7514,7 +7521,7 @@
     <row r="93" ht="130" customHeight="1">
       <c r="A93" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1),AU-12 a</t>
+          <t>AU-3,AU-12 c,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
         </is>
       </c>
       <c r="B93" s="2" t="inlineStr">
@@ -7594,7 +7601,7 @@
     <row r="94" ht="130" customHeight="1">
       <c r="A94" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1),AU-12 a</t>
+          <t>AU-3,AU-12 c,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
         </is>
       </c>
       <c r="B94" s="2" t="inlineStr">
@@ -7674,7 +7681,7 @@
     <row r="95" ht="130" customHeight="1">
       <c r="A95" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1),AU-12 a</t>
+          <t>AU-3,AU-12 c,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
         </is>
       </c>
       <c r="B95" s="2" t="inlineStr">
@@ -7754,7 +7761,7 @@
     <row r="96" ht="130" customHeight="1">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1),AU-12 a</t>
+          <t>AU-3,AU-12 c,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
@@ -7834,7 +7841,7 @@
     <row r="97" ht="130" customHeight="1">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,MA-4 (1) (a),AU-3,AU-3 (1)</t>
+          <t>AU-3 (1),AU-12 c,AU-3,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B97" s="2" t="inlineStr">
@@ -7914,7 +7921,7 @@
     <row r="98" ht="130" customHeight="1">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1),AU-12 a</t>
+          <t>AU-3,AU-12 c,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
         </is>
       </c>
       <c r="B98" s="2" t="inlineStr">
@@ -7994,7 +8001,7 @@
     <row r="99" ht="130" customHeight="1">
       <c r="A99" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1),AU-12 a</t>
+          <t>AU-3,AU-12 c,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
         </is>
       </c>
       <c r="B99" s="2" t="inlineStr">
@@ -8074,7 +8081,7 @@
     <row r="100" ht="130" customHeight="1">
       <c r="A100" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1),AU-12 a</t>
+          <t>AU-3,AU-12 c,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
         </is>
       </c>
       <c r="B100" s="2" t="inlineStr">
@@ -8154,7 +8161,7 @@
     <row r="101" ht="130" customHeight="1">
       <c r="A101" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1),AU-12 a</t>
+          <t>AU-3,AU-12 c,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
         </is>
       </c>
       <c r="B101" s="2" t="inlineStr">
@@ -8234,7 +8241,7 @@
     <row r="102" ht="130" customHeight="1">
       <c r="A102" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1),AU-12 a</t>
+          <t>AU-3,AU-12 c,AU-3 (1),MA-4 (1) (a),AU-12 a</t>
         </is>
       </c>
       <c r="B102" s="2" t="inlineStr">
@@ -8307,7 +8314,7 @@
     <row r="103" ht="130" customHeight="1">
       <c r="A103" s="2" t="inlineStr">
         <is>
-          <t>AU-12 a,AU-3,MA-4 (1) (a),AU-3 (1),AU-12 c,AC-2 (4)</t>
+          <t>AU-3,AU-12 c,AU-3 (1),MA-4 (1) (a),AC-2 (4),AU-12 a</t>
         </is>
       </c>
       <c r="B103" s="2" t="inlineStr">
@@ -8388,7 +8395,7 @@
     <row r="104" ht="130" customHeight="1">
       <c r="A104" s="2" t="inlineStr">
         <is>
-          <t>AU-12 a,AU-3,MA-4 (1) (a),AU-3 (1),AU-12 c,AC-2 (4)</t>
+          <t>AU-3,AU-12 c,AU-3 (1),MA-4 (1) (a),AC-2 (4),AU-12 a</t>
         </is>
       </c>
       <c r="B104" s="2" t="inlineStr">
@@ -8469,7 +8476,7 @@
     <row r="105" ht="130" customHeight="1">
       <c r="A105" s="2" t="inlineStr">
         <is>
-          <t>AU-12 a,AU-3,MA-4 (1) (a),AU-3 (1),AU-12 c,AC-2 (4)</t>
+          <t>AU-3,AU-12 c,AU-3 (1),MA-4 (1) (a),AC-2 (4),AU-12 a</t>
         </is>
       </c>
       <c r="B105" s="2" t="inlineStr">
@@ -8540,7 +8547,7 @@
     <row r="106" ht="130" customHeight="1">
       <c r="A106" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1),AC-2 (4)</t>
+          <t>AU-3,AU-12 c,AU-3 (1),MA-4 (1) (a),AC-2 (4)</t>
         </is>
       </c>
       <c r="B106" s="2" t="inlineStr">
@@ -8615,7 +8622,7 @@
     <row r="107" ht="130" customHeight="1">
       <c r="A107" s="2" t="inlineStr">
         <is>
-          <t>AU-12 a,AU-3,MA-4 (1) (a),AU-3 (1),AU-12 c,AC-2 (4)</t>
+          <t>AU-3,AU-12 c,AU-3 (1),MA-4 (1) (a),AC-2 (4),AU-12 a</t>
         </is>
       </c>
       <c r="B107" s="2" t="inlineStr">
@@ -8697,7 +8704,7 @@
     <row r="108" ht="130" customHeight="1">
       <c r="A108" s="2" t="inlineStr">
         <is>
-          <t>AU-12 a,AU-3,MA-4 (1) (a),AU-3 (1),AU-12 c,AC-2 (4)</t>
+          <t>AU-3,AU-12 c,AU-3 (1),MA-4 (1) (a),AC-2 (4),AU-12 a</t>
         </is>
       </c>
       <c r="B108" s="2" t="inlineStr">
@@ -8779,7 +8786,7 @@
     <row r="109" ht="130" customHeight="1">
       <c r="A109" s="2" t="inlineStr">
         <is>
-          <t>AU-12 a,AU-3,MA-4 (1) (a),AU-3 (1),AU-12 c,AC-2 (4)</t>
+          <t>AU-3,AU-12 c,AU-3 (1),MA-4 (1) (a),AC-2 (4),AU-12 a</t>
         </is>
       </c>
       <c r="B109" s="2" t="inlineStr">
@@ -8861,7 +8868,7 @@
     <row r="110" ht="130" customHeight="1">
       <c r="A110" s="2" t="inlineStr">
         <is>
-          <t>AU-12 a,AU-3,MA-4 (1) (a),AU-3 (1),AU-12 c,AC-2 (4)</t>
+          <t>AU-3,AU-12 c,AU-3 (1),MA-4 (1) (a),AC-2 (4),AU-12 a</t>
         </is>
       </c>
       <c r="B110" s="2" t="inlineStr">
@@ -8943,7 +8950,7 @@
     <row r="111" ht="130" customHeight="1">
       <c r="A111" s="2" t="inlineStr">
         <is>
-          <t>AU-12 a,AU-3,MA-4 (1) (a),AU-3 (1),AU-12 c,AC-2 (4)</t>
+          <t>AU-3,AU-12 c,AU-3 (1),MA-4 (1) (a),AC-2 (4),AU-12 a</t>
         </is>
       </c>
       <c r="B111" s="2" t="inlineStr">
@@ -9025,7 +9032,7 @@
     <row r="112" ht="130" customHeight="1">
       <c r="A112" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-14 (1),AU-12 c,AU-3 (1),AU-12 a</t>
+          <t>AU-3,AU-12 c,AU-3 (1),MA-4 (1) (a),AU-14 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B112" s="2" t="inlineStr">
@@ -9095,7 +9102,16 @@
         </is>
       </c>
       <c r="L112" s="2" t="n"/>
-      <c r="M112" s="2" t="inlineStr"/>
+      <c r="M112" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">To ensure that  audit=1  is added as a kernel command line
+argument to newly installed kernels, add  audit=1  to the
+default Grub2 command line for Linux operating systems.  Modify the line within
+ /etc/default/grub  as shown below:
+ GRUB_CMDLINE_LINUX="... audit=1 ..." 
+Run the following command to update command line for already installed kernels: # grubby --update-kernel=ALL --args="audit=1" </t>
+        </is>
+      </c>
       <c r="N112" s="2" t="inlineStr">
         <is>
           <t>CAT II</t>
@@ -9108,7 +9124,7 @@
     <row r="113" ht="130" customHeight="1">
       <c r="A113" s="2" t="inlineStr">
         <is>
-          <t>AC-6 (10),CM-6 b</t>
+          <t>CM-6 b,AC-6 (10)</t>
         </is>
       </c>
       <c r="B113" s="2" t="inlineStr">
@@ -9189,7 +9205,7 @@
     <row r="114" ht="130" customHeight="1">
       <c r="A114" s="2" t="inlineStr">
         <is>
-          <t>AC-6 (10),CM-6 b</t>
+          <t>CM-6 b,AC-6 (10)</t>
         </is>
       </c>
       <c r="B114" s="2" t="inlineStr">
@@ -9275,7 +9291,7 @@
     <row r="115" ht="130" customHeight="1">
       <c r="A115" s="2" t="inlineStr">
         <is>
-          <t>AC-6 (10),AC-11 b</t>
+          <t>AC-11 b,AC-6 (10)</t>
         </is>
       </c>
       <c r="B115" s="2" t="inlineStr">
@@ -9353,7 +9369,7 @@
     <row r="116" ht="130" customHeight="1">
       <c r="A116" s="2" t="inlineStr">
         <is>
-          <t>AC-6 (10),CM-6 b</t>
+          <t>CM-6 b,AC-6 (10)</t>
         </is>
       </c>
       <c r="B116" s="2" t="inlineStr">
@@ -9719,7 +9735,7 @@
     <row r="120" ht="130" customHeight="1">
       <c r="A120" s="2" t="inlineStr">
         <is>
-          <t>AU-12 a,AU-3,AU-12 c,MA-4 (1) (a)</t>
+          <t>AU-12 c,AU-3,MA-4 (1) (a),AU-12 a</t>
         </is>
       </c>
       <c r="B120" s="2" t="inlineStr">
@@ -9790,7 +9806,7 @@
     <row r="121" ht="130" customHeight="1">
       <c r="A121" s="2" t="inlineStr">
         <is>
-          <t>AU-12 a,AU-3,AU-12 c,MA-4 (1) (a)</t>
+          <t>AU-12 c,AU-3,MA-4 (1) (a),AU-12 a</t>
         </is>
       </c>
       <c r="B121" s="2" t="inlineStr">
@@ -10234,7 +10250,7 @@
     <row r="127" ht="130" customHeight="1">
       <c r="A127" s="2" t="inlineStr">
         <is>
-          <t>AC-2 (4),AC-6 (9),CM-5 (1),AU-12 c</t>
+          <t>CM-5 (1),AU-12 c,AC-2 (4),AC-6 (9)</t>
         </is>
       </c>
       <c r="B127" s="2" t="inlineStr">
@@ -10677,7 +10693,7 @@
     <row r="133" ht="130" customHeight="1">
       <c r="A133" s="2" t="inlineStr">
         <is>
-          <t>SC-8,SC-13,AC-17 (2),MA-4 c</t>
+          <t>SC-8,AC-17 (2),MA-4 c,SC-13</t>
         </is>
       </c>
       <c r="B133" s="2" t="inlineStr">
@@ -10759,7 +10775,7 @@
     <row r="134" ht="130" customHeight="1">
       <c r="A134" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (7),MA-4 e,SC-10,AC-12</t>
+          <t>MA-4 (7),MA-4 e,AC-12,SC-10</t>
         </is>
       </c>
       <c r="B134" s="2" t="inlineStr">
@@ -11066,7 +11082,7 @@
     <row r="138" ht="130" customHeight="1">
       <c r="A138" s="2" t="inlineStr">
         <is>
-          <t>CM-5 (1),CM-6 b,AU-3,AU-6 (4),MA-4 (1) (a),AU-14 (1),AU-3 (1),AU-12 a,AU-7 a,AU-7 (1)</t>
+          <t>AU-3,AU-6 (4),AU-7 (1),CM-6 b,AU-14 (1),AU-3 (1),CM-5 (1),MA-4 (1) (a),AU-7 a,AU-12 a</t>
         </is>
       </c>
       <c r="B138" s="2" t="inlineStr">
@@ -11316,7 +11332,7 @@
     <row r="141" ht="130" customHeight="1">
       <c r="A141" s="2" t="inlineStr">
         <is>
-          <t>AU-9,AU-9 (3)</t>
+          <t>AU-9 (3),AU-9</t>
         </is>
       </c>
       <c r="B141" s="2" t="inlineStr">
@@ -11392,7 +11408,7 @@
     <row r="142" ht="130" customHeight="1">
       <c r="A142" s="2" t="inlineStr">
         <is>
-          <t>AU-9,AU-9 (3)</t>
+          <t>AU-9 (3),AU-9</t>
         </is>
       </c>
       <c r="B142" s="2" t="inlineStr">
@@ -11468,7 +11484,7 @@
     <row r="143" ht="130" customHeight="1">
       <c r="A143" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B143" s="2" t="inlineStr">
@@ -11537,7 +11553,7 @@
     <row r="144" ht="130" customHeight="1">
       <c r="A144" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B144" s="2" t="inlineStr">
@@ -11606,7 +11622,7 @@
     <row r="145" ht="130" customHeight="1">
       <c r="A145" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B145" s="2" t="inlineStr">
@@ -11676,7 +11692,7 @@
     <row r="146" ht="130" customHeight="1">
       <c r="A146" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B146" s="2" t="inlineStr">
@@ -11745,7 +11761,7 @@
     <row r="147" ht="130" customHeight="1">
       <c r="A147" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B147" s="2" t="inlineStr">
@@ -11814,7 +11830,7 @@
     <row r="148" ht="130" customHeight="1">
       <c r="A148" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B148" s="2" t="inlineStr">
@@ -11884,7 +11900,7 @@
     <row r="149" ht="130" customHeight="1">
       <c r="A149" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B149" s="2" t="inlineStr">
@@ -11953,7 +11969,7 @@
     <row r="150" ht="130" customHeight="1">
       <c r="A150" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B150" s="2" t="inlineStr">
@@ -12022,7 +12038,7 @@
     <row r="151" ht="130" customHeight="1">
       <c r="A151" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B151" s="2" t="inlineStr">
@@ -12092,7 +12108,7 @@
     <row r="152" ht="130" customHeight="1">
       <c r="A152" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B152" s="2" t="inlineStr">
@@ -12161,7 +12177,7 @@
     <row r="153" ht="130" customHeight="1">
       <c r="A153" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B153" s="2" t="inlineStr">
@@ -12230,7 +12246,7 @@
     <row r="154" ht="130" customHeight="1">
       <c r="A154" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B154" s="2" t="inlineStr">
@@ -12299,7 +12315,7 @@
     <row r="155" ht="130" customHeight="1">
       <c r="A155" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B155" s="2" t="inlineStr">
@@ -13137,7 +13153,7 @@
     <row r="166" ht="130" customHeight="1">
       <c r="A166" s="2" t="inlineStr">
         <is>
-          <t>SC-8,SC-8 (2),SC-8 (1)</t>
+          <t>SC-8,SC-8 (1),SC-8 (2)</t>
         </is>
       </c>
       <c r="B166" s="2" t="inlineStr">
@@ -14134,7 +14150,7 @@
     <row r="179" ht="130" customHeight="1">
       <c r="A179" s="2" t="inlineStr">
         <is>
-          <t>AU-6 (4),AU-4 (1),CM-6 b</t>
+          <t>CM-6 b,AU-4 (1),AU-6 (4)</t>
         </is>
       </c>
       <c r="B179" s="2" t="inlineStr">
@@ -14205,7 +14221,7 @@
     <row r="180" ht="130" customHeight="1">
       <c r="A180" s="2" t="inlineStr">
         <is>
-          <t>CM-7 b,CM-6 b,AC-17 (9),AC-17 (1)</t>
+          <t>AC-17 (1),CM-7 b,CM-6 b,AC-17 (9)</t>
         </is>
       </c>
       <c r="B180" s="2" t="inlineStr">
@@ -14282,7 +14298,7 @@
     <row r="181" ht="130" customHeight="1">
       <c r="A181" s="2" t="inlineStr">
         <is>
-          <t>CM-7 b,CM-6 b,AC-17 (1)</t>
+          <t>AC-17 (1),CM-7 b,CM-6 b</t>
         </is>
       </c>
       <c r="B181" s="2" t="inlineStr">
@@ -14361,7 +14377,7 @@
     <row r="182" ht="130" customHeight="1">
       <c r="A182" s="2" t="inlineStr">
         <is>
-          <t>SI-11 b,AU-9</t>
+          <t>AU-9,SI-11 b</t>
         </is>
       </c>
       <c r="B182" s="2" t="inlineStr">
@@ -14433,7 +14449,7 @@
     <row r="183" ht="130" customHeight="1">
       <c r="A183" s="2" t="inlineStr">
         <is>
-          <t>SI-11 b,AU-9</t>
+          <t>AU-9,SI-11 b</t>
         </is>
       </c>
       <c r="B183" s="2" t="inlineStr">
@@ -14505,7 +14521,7 @@
     <row r="184" ht="130" customHeight="1">
       <c r="A184" s="2" t="inlineStr">
         <is>
-          <t>SI-11 b,AU-9</t>
+          <t>AU-9,SI-11 b</t>
         </is>
       </c>
       <c r="B184" s="2" t="inlineStr">
@@ -14579,7 +14595,7 @@
     <row r="185" ht="130" customHeight="1">
       <c r="A185" s="2" t="inlineStr">
         <is>
-          <t>SI-11 b,AU-9</t>
+          <t>AU-9,SI-11 b</t>
         </is>
       </c>
       <c r="B185" s="2" t="inlineStr">
@@ -14653,7 +14669,7 @@
     <row r="186" ht="130" customHeight="1">
       <c r="A186" s="2" t="inlineStr">
         <is>
-          <t>SI-11 b,AU-9</t>
+          <t>AU-9,SI-11 b</t>
         </is>
       </c>
       <c r="B186" s="2" t="inlineStr">
@@ -14727,7 +14743,7 @@
     <row r="187" ht="130" customHeight="1">
       <c r="A187" s="2" t="inlineStr">
         <is>
-          <t>SI-11 b,AU-9</t>
+          <t>AU-9,SI-11 b</t>
         </is>
       </c>
       <c r="B187" s="2" t="inlineStr">
@@ -15248,7 +15264,7 @@
     <row r="194" ht="130" customHeight="1">
       <c r="A194" s="2" t="inlineStr">
         <is>
-          <t>AU-3,CM-6 b</t>
+          <t>CM-6 b,AU-3</t>
         </is>
       </c>
       <c r="B194" s="2" t="inlineStr">
@@ -16197,7 +16213,7 @@
     <row r="207" ht="130" customHeight="1">
       <c r="A207" s="2" t="inlineStr">
         <is>
-          <t>AU-4 (1),CM-6 b</t>
+          <t>CM-6 b,AU-4 (1)</t>
         </is>
       </c>
       <c r="B207" s="2" t="inlineStr">
@@ -17023,7 +17039,7 @@
     <row r="216" ht="130" customHeight="1">
       <c r="A216" s="2" t="inlineStr">
         <is>
-          <t>AC-2 (4),AC-6 (9),AU-12 c</t>
+          <t>AU-12 c,AC-2 (4),AC-6 (9)</t>
         </is>
       </c>
       <c r="B216" s="2" t="inlineStr">
@@ -17465,7 +17481,7 @@
     <row r="221" ht="130" customHeight="1">
       <c r="A221" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (5),CM-6 b</t>
+          <t>CM-6 b,IA-2 (5)</t>
         </is>
       </c>
       <c r="B221" s="2" t="inlineStr">
@@ -17543,7 +17559,7 @@
     <row r="222" ht="130" customHeight="1">
       <c r="A222" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (4),IA-2,IA-2 (3),IA-2 (2),IA-2 (5)</t>
+          <t>IA-2 (5),IA-2,IA-2 (4),IA-2 (2),IA-2 (3)</t>
         </is>
       </c>
       <c r="B222" s="2" t="inlineStr">
@@ -17628,7 +17644,7 @@
     <row r="223" ht="130" customHeight="1">
       <c r="A223" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (4),IA-2,IA-2 (3),IA-2 (2),IA-2 (5)</t>
+          <t>IA-2 (5),IA-2,IA-2 (4),IA-2 (2),IA-2 (3)</t>
         </is>
       </c>
       <c r="B223" s="2" t="inlineStr">
@@ -17713,7 +17729,7 @@
     <row r="224" ht="130" customHeight="1">
       <c r="A224" s="2" t="inlineStr">
         <is>
-          <t>AC-18 (1),SC-8,SC-8 (1)</t>
+          <t>AC-18 (1),SC-8 (1),SC-8</t>
         </is>
       </c>
       <c r="B224" s="2" t="inlineStr">
@@ -17963,7 +17979,7 @@
     <row r="227" ht="130" customHeight="1">
       <c r="A227" s="2" t="inlineStr">
         <is>
-          <t>IA-7,CM-6 b</t>
+          <t>CM-6 b,IA-7</t>
         </is>
       </c>
       <c r="B227" s="2" t="inlineStr">
@@ -18039,7 +18055,7 @@
     <row r="228" ht="130" customHeight="1">
       <c r="A228" s="2" t="inlineStr">
         <is>
-          <t>IA-7,CM-6 b</t>
+          <t>CM-6 b,IA-7</t>
         </is>
       </c>
       <c r="B228" s="2" t="inlineStr">
@@ -18124,7 +18140,7 @@
     <row r="229" ht="130" customHeight="1">
       <c r="A229" s="2" t="inlineStr">
         <is>
-          <t>IA-7,CM-6 b</t>
+          <t>CM-6 b,IA-7</t>
         </is>
       </c>
       <c r="B229" s="2" t="inlineStr">
@@ -18360,7 +18376,7 @@
     <row r="232" ht="130" customHeight="1">
       <c r="A232" s="2" t="inlineStr">
         <is>
-          <t>SC-13,MA-4 (6)</t>
+          <t>MA-4 (6),SC-13</t>
         </is>
       </c>
       <c r="B232" s="2" t="inlineStr">
@@ -18444,7 +18460,7 @@
     <row r="233" ht="130" customHeight="1">
       <c r="A233" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (6),AC-17 (2)</t>
+          <t>AC-17 (2),MA-4 (6)</t>
         </is>
       </c>
       <c r="B233" s="2" t="inlineStr">
@@ -18519,7 +18535,7 @@
     <row r="234" ht="130" customHeight="1">
       <c r="A234" s="2" t="inlineStr">
         <is>
-          <t>SC-13,MA-4 (6)</t>
+          <t>MA-4 (6),SC-13</t>
         </is>
       </c>
       <c r="B234" s="2" t="inlineStr">
@@ -19116,7 +19132,7 @@
     <row r="242" ht="130" customHeight="1">
       <c r="A242" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B242" s="2" t="inlineStr">
@@ -19170,11 +19186,18 @@
         <is>
           <t>To verify that auditing is configured for system administrator actions, run the following command:
  $ sudo auditctl -l | grep "watch=/var/run/faillock\|-w /var/run/faillock" 
-If there is not output then this is a finding.</t>
+If there is no output then this is a finding.</t>
         </is>
       </c>
       <c r="L242" s="2" t="n"/>
-      <c r="M242" s="2" t="inlineStr"/>
+      <c r="M242" s="2" t="inlineStr">
+        <is>
+          <t>Configure Red Hat Enterprise Linux 9 to generate audit records for all account creations, modifications, disabling, and termination events that affect  /var/run/faillock .
+Add or update the following file system rule to  /etc/audit/rules.d/audit.rules :
+-w /var/run/faillock -p wa -k logins
+The audit daemon must be restarted for the changes to take effect.</t>
+        </is>
+      </c>
       <c r="N242" s="2" t="inlineStr">
         <is>
           <t>CAT II</t>
@@ -19187,7 +19210,7 @@
     <row r="243" ht="130" customHeight="1">
       <c r="A243" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B243" s="2" t="inlineStr">
@@ -19245,7 +19268,14 @@
         </is>
       </c>
       <c r="L243" s="2" t="n"/>
-      <c r="M243" s="2" t="inlineStr"/>
+      <c r="M243" s="2" t="inlineStr">
+        <is>
+          <t>Configure Red Hat Enterprise Linux 9 to generate audit records for all account creations, modifications, disabling, and termination events that affect  /var/log/tallylog .
+Add or update the following file system rule to  /etc/audit/rules.d/audit.rules :
+-w /var/log/tallylog -p wa -k logins
+The audit daemon must be restarted for the changes to take effect.</t>
+        </is>
+      </c>
       <c r="N243" s="2" t="inlineStr">
         <is>
           <t>CAT II</t>
@@ -19349,7 +19379,7 @@
     <row r="245" ht="130" customHeight="1">
       <c r="A245" s="2" t="inlineStr">
         <is>
-          <t>SC-2,SI-16,CM-6 b</t>
+          <t>CM-6 b,SI-16,SC-2</t>
         </is>
       </c>
       <c r="B245" s="2" t="inlineStr">
@@ -21348,7 +21378,7 @@
     <row r="271" ht="130" customHeight="1">
       <c r="A271" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (4),IA-2 (2),IA-2 (3),IA-2 (1)</t>
+          <t>IA-2 (2),IA-2 (3),IA-2 (1),IA-2 (4)</t>
         </is>
       </c>
       <c r="B271" s="2" t="inlineStr">
@@ -21517,7 +21547,7 @@
     <row r="273" ht="130" customHeight="1">
       <c r="A273" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B273" s="2" t="inlineStr">
@@ -21735,7 +21765,7 @@
     <row r="276" ht="130" customHeight="1">
       <c r="A276" s="2" t="inlineStr">
         <is>
-          <t>SC-4,CM-6 b</t>
+          <t>CM-6 b,SC-4</t>
         </is>
       </c>
       <c r="B276" s="2" t="inlineStr">
@@ -21816,7 +21846,7 @@
     <row r="277" ht="130" customHeight="1">
       <c r="A277" s="2" t="inlineStr">
         <is>
-          <t>SC-2,SC-4</t>
+          <t>SC-4,SC-2</t>
         </is>
       </c>
       <c r="B277" s="2" t="inlineStr">
@@ -21904,7 +21934,7 @@
     <row r="278" ht="130" customHeight="1">
       <c r="A278" s="2" t="inlineStr">
         <is>
-          <t>SC-2,SC-4</t>
+          <t>SC-4,SC-2</t>
         </is>
       </c>
       <c r="B278" s="2" t="inlineStr">
@@ -22142,7 +22172,7 @@
     <row r="281" ht="130" customHeight="1">
       <c r="A281" s="2" t="inlineStr">
         <is>
-          <t>AU-12 a,CM-6 b</t>
+          <t>CM-6 b,AU-12 a</t>
         </is>
       </c>
       <c r="B281" s="2" t="inlineStr">
@@ -22365,7 +22395,7 @@
     <row r="284" ht="130" customHeight="1">
       <c r="A284" s="2" t="inlineStr">
         <is>
-          <t>CM-5 (3),CM-6 b</t>
+          <t>CM-6 b,CM-5 (3)</t>
         </is>
       </c>
       <c r="B284" s="2" t="inlineStr">
@@ -24456,7 +24486,7 @@
     <row r="310" ht="130" customHeight="1">
       <c r="A310" s="2" t="inlineStr">
         <is>
-          <t>AU-8 b,AU-8 (1) (a),AU-8 (1) (b)</t>
+          <t>AU-8 (1) (b),AU-8 (1) (a),AU-8 b</t>
         </is>
       </c>
       <c r="B310" s="2" t="inlineStr">
@@ -26949,7 +26979,7 @@
     <row r="342" ht="130" customHeight="1">
       <c r="A342" s="2" t="inlineStr">
         <is>
-          <t>CM-7 b,IA-3</t>
+          <t>IA-3,CM-7 b</t>
         </is>
       </c>
       <c r="B342" s="2" t="inlineStr">
@@ -27172,7 +27202,7 @@
     <row r="345" ht="130" customHeight="1">
       <c r="A345" s="2" t="inlineStr">
         <is>
-          <t>CM-7 b,AC-17 (1)</t>
+          <t>AC-17 (1),CM-7 b</t>
         </is>
       </c>
       <c r="B345" s="2" t="inlineStr">
@@ -27335,7 +27365,7 @@
     <row r="347" ht="130" customHeight="1">
       <c r="A347" s="2" t="inlineStr">
         <is>
-          <t>IA-5 (1) (c),CM-7 a,CM-6 b</t>
+          <t>CM-6 b,IA-5 (1) (c),CM-7 a</t>
         </is>
       </c>
       <c r="B347" s="2" t="inlineStr">
@@ -28180,7 +28210,7 @@
     <row r="358" ht="130" customHeight="1">
       <c r="A358" s="2" t="inlineStr">
         <is>
-          <t>AC-11 b,AC-11 (1)</t>
+          <t>AC-11 (1),AC-11 b</t>
         </is>
       </c>
       <c r="B358" s="2" t="inlineStr">
@@ -28429,7 +28459,7 @@
     <row r="361" ht="130" customHeight="1">
       <c r="A361" s="2" t="inlineStr">
         <is>
-          <t>CM-3 (5),SI-6 d,SI-6 b</t>
+          <t>CM-3 (5),SI-6 b,SI-6 d</t>
         </is>
       </c>
       <c r="B361" s="2" t="inlineStr">
@@ -28497,7 +28527,7 @@
 The output should return something similar to the following:
  05 4 * * * root  --check 
 NOTE: The usage of special cron times, such as @daily or @weekly, is acceptable.
-If AIDE is not configured to periodicly scan then this is a finding.</t>
+If AIDE is not configured to scan periodically then this is a finding.</t>
         </is>
       </c>
       <c r="L361" s="2" t="n"/>
@@ -28520,7 +28550,7 @@
     <row r="362" ht="130" customHeight="1">
       <c r="A362" s="2" t="inlineStr">
         <is>
-          <t>CM-7 a,CM-6 b</t>
+          <t>CM-6 b,CM-7 a</t>
         </is>
       </c>
       <c r="B362" s="2" t="inlineStr">
@@ -28971,7 +29001,16 @@
         </is>
       </c>
       <c r="L367" s="2" t="n"/>
-      <c r="M367" s="2" t="inlineStr"/>
+      <c r="M367" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">To ensure that  pti=on  is added as a kernel command line
+argument to newly installed kernels, add  pti=on  to the
+default Grub2 command line for Linux operating systems.  Modify the line within
+ /etc/default/grub  as shown below:
+ GRUB_CMDLINE_LINUX="... pti=on ..." 
+Run the following command to update command line for already installed kernels: # grubby --update-kernel=ALL --args="pti=on" </t>
+        </is>
+      </c>
       <c r="N367" s="2" t="inlineStr">
         <is>
           <t>CAT II</t>
@@ -29440,7 +29479,7 @@
     <row r="374" ht="130" customHeight="1">
       <c r="A374" s="2" t="inlineStr">
         <is>
-          <t>CM-7 a,CM-6 b</t>
+          <t>CM-6 b,CM-7 a</t>
         </is>
       </c>
       <c r="B374" s="2" t="inlineStr">
@@ -29511,7 +29550,7 @@
     <row r="375" ht="130" customHeight="1">
       <c r="A375" s="2" t="inlineStr">
         <is>
-          <t>CM-7 a,CM-6 b</t>
+          <t>CM-6 b,CM-7 a</t>
         </is>
       </c>
       <c r="B375" s="2" t="inlineStr">
@@ -29583,7 +29622,7 @@
     <row r="376" ht="130" customHeight="1">
       <c r="A376" s="2" t="inlineStr">
         <is>
-          <t>CM-7 a,CM-6 b</t>
+          <t>CM-6 b,CM-7 a</t>
         </is>
       </c>
       <c r="B376" s="2" t="inlineStr">
@@ -30343,7 +30382,7 @@
     <row r="385" ht="130" customHeight="1">
       <c r="A385" s="2" t="inlineStr">
         <is>
-          <t>AC-17 (2),CM-6 b</t>
+          <t>CM-6 b,AC-17 (2)</t>
         </is>
       </c>
       <c r="B385" s="2" t="inlineStr">
@@ -30791,7 +30830,7 @@
     <row r="391" ht="130" customHeight="1">
       <c r="A391" s="2" t="inlineStr">
         <is>
-          <t>IA-5 (1) (a),CM-6 b</t>
+          <t>CM-6 b,IA-5 (1) (a)</t>
         </is>
       </c>
       <c r="B391" s="2" t="inlineStr">
@@ -31357,7 +31396,7 @@
     <row r="398" ht="130" customHeight="1">
       <c r="A398" s="2" t="inlineStr">
         <is>
-          <t>SI-16,CM-6 b</t>
+          <t>CM-6 b,SI-16</t>
         </is>
       </c>
       <c r="B398" s="2" t="inlineStr">
@@ -31435,7 +31474,14 @@
         </is>
       </c>
       <c r="L398" s="2" t="n"/>
-      <c r="M398" s="2" t="inlineStr"/>
+      <c r="M398" s="2" t="inlineStr">
+        <is>
+          <t>Add or edit the following line in a system configuration file in the "/etc/sysctl.d/" directory:
+kernel.randomize_va_space = 2
+Load settings from all system configuration files with the following command:
+$ sudo sysctl --system</t>
+        </is>
+      </c>
       <c r="N398" s="2" t="inlineStr">
         <is>
           <t>CAT II</t>
@@ -31473,7 +31519,7 @@
       </c>
       <c r="F399" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must, for networked systems, compare internal information system clocks at least every 24 hours with a server which is synchronized to one of the redundant United States Naval Observatory (USNO) time servers, or a time server designat</t>
+          <t>Red Hat Enterprise Linux 9 must, for networked systems, compare internal information system clocks at least every 24 hours with a server which is synchronized to one of the redundant United States Naval Observatory (USNO) time servers, or a time server designated for the appropriate DoD network (NIPRNet/SIPRNet), and/or the Global Positioning System (GPS).</t>
         </is>
       </c>
       <c r="G399" s="2" t="inlineStr">
@@ -31598,7 +31644,7 @@
     <row r="401" ht="130" customHeight="1">
       <c r="A401" s="2" t="inlineStr">
         <is>
-          <t>SC-3,CM-6 b</t>
+          <t>CM-6 b,SC-3</t>
         </is>
       </c>
       <c r="B401" s="2" t="inlineStr">
@@ -31689,7 +31735,7 @@
     <row r="402" ht="130" customHeight="1">
       <c r="A402" s="2" t="inlineStr">
         <is>
-          <t>SC-3,CM-6 b</t>
+          <t>CM-6 b,SC-3</t>
         </is>
       </c>
       <c r="B402" s="2" t="inlineStr">
@@ -31783,7 +31829,7 @@
     <row r="403" ht="130" customHeight="1">
       <c r="A403" s="2" t="inlineStr">
         <is>
-          <t>SC-3,CM-6 b</t>
+          <t>CM-6 b,SC-3</t>
         </is>
       </c>
       <c r="B403" s="2" t="inlineStr">
@@ -35193,7 +35239,7 @@
     <row r="448" ht="130" customHeight="1">
       <c r="A448" s="2" t="inlineStr">
         <is>
-          <t>IA-5 (1) (c),CM-6 b</t>
+          <t>CM-6 b,IA-5 (1) (c)</t>
         </is>
       </c>
       <c r="B448" s="2" t="inlineStr">
@@ -35343,7 +35389,7 @@
     <row r="450" ht="130" customHeight="1">
       <c r="A450" s="2" t="inlineStr">
         <is>
-          <t>CM-5 (1),CM-6 b</t>
+          <t>CM-6 b,CM-5 (1)</t>
         </is>
       </c>
       <c r="B450" s="2" t="inlineStr">
@@ -35416,7 +35462,7 @@
     <row r="451" ht="130" customHeight="1">
       <c r="A451" s="2" t="inlineStr">
         <is>
-          <t>CM-5 (1),CM-6 b</t>
+          <t>CM-6 b,CM-5 (1)</t>
         </is>
       </c>
       <c r="B451" s="2" t="inlineStr">
@@ -41227,7 +41273,7 @@
     <row r="524" ht="130" customHeight="1">
       <c r="A524" s="2" t="inlineStr">
         <is>
-          <t>SC-2,CM-6 b</t>
+          <t>CM-6 b,SC-2</t>
         </is>
       </c>
       <c r="B524" s="2" t="inlineStr">
@@ -41314,7 +41360,7 @@
     <row r="525" ht="130" customHeight="1">
       <c r="A525" s="2" t="inlineStr">
         <is>
-          <t>SC-2,CM-6 b</t>
+          <t>CM-6 b,SC-2</t>
         </is>
       </c>
       <c r="B525" s="2" t="inlineStr">
@@ -42546,7 +42592,7 @@
     <row r="541" ht="130" customHeight="1">
       <c r="A541" s="2" t="inlineStr">
         <is>
-          <t>SI-2 (2),CM-6 b</t>
+          <t>CM-6 b,SI-2 (2)</t>
         </is>
       </c>
       <c r="B541" s="2" t="inlineStr">
@@ -43193,7 +43239,7 @@
     <row r="550" ht="130" customHeight="1">
       <c r="A550" s="2" t="inlineStr">
         <is>
-          <t>SI-2 (2),CM-6 b</t>
+          <t>CM-6 b,SI-2 (2)</t>
         </is>
       </c>
       <c r="B550" s="2" t="inlineStr">
@@ -43801,7 +43847,7 @@
     <row r="558" ht="130" customHeight="1">
       <c r="A558" s="2" t="inlineStr">
         <is>
-          <t>SI-6 a,CM-3 (5)</t>
+          <t>CM-3 (5),SI-6 a</t>
         </is>
       </c>
       <c r="B558" s="2" t="inlineStr">

--- a/srg_mapping/srg-mapping-rhel9.xlsx
+++ b/srg_mapping/srg-mapping-rhel9.xlsx
@@ -541,7 +541,7 @@
     <row r="2" ht="130" customHeight="1">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>AU-4 (1),AU-4</t>
+          <t>AU-4,AU-4 (1)</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -625,7 +625,7 @@
     <row r="3" ht="130" customHeight="1">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>AU-14 (1),AU-4</t>
+          <t>AU-4,AU-14 (1)</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
@@ -784,7 +784,7 @@
     <row r="5" ht="130" customHeight="1">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>SC-5,SC-5 (2),CM-6 b</t>
+          <t>SC-5 (2),SC-5,CM-6 b</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
@@ -883,7 +883,7 @@
     <row r="6" ht="130" customHeight="1">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>AU-8 b,AU-7 b,CM-5 (1),AU-12 (3),AU-12 a,AU-7 a,CM-6 b,AU-12 c</t>
+          <t>AU-7 b,AU-7 a,AU-12 a,AU-8 b,CM-6 b,AU-12 (3),AU-12 c,CM-5 (1)</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
@@ -957,7 +957,7 @@
     <row r="7" ht="130" customHeight="1">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>CM-5 (1),AU-3 (1),AU-7 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-14 (1),AU-7 a,CM-6 b,AU-6 (4)</t>
+          <t>AU-7 (1),AU-7 a,AU-12 a,CM-6 b,AU-6 (4),AU-3,MA-4 (1) (a),AU-3 (1),CM-5 (1),AU-14 (1)</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
@@ -3772,7 +3772,7 @@
     <row r="44" ht="130" customHeight="1">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>IA-2,AU-3 (1),IA-8</t>
+          <t>IA-8,IA-2,AU-3 (1)</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
@@ -3850,7 +3850,7 @@
     <row r="45" ht="130" customHeight="1">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-3,MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 a,AU-3,AU-12 c,MA-4 (1) (a),AU-3 (1)</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
@@ -3925,7 +3925,7 @@
     <row r="46" ht="130" customHeight="1">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-3,MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 a,AU-3,AU-12 c,MA-4 (1) (a),AU-3 (1)</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
@@ -4000,7 +4000,7 @@
     <row r="47" ht="130" customHeight="1">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-3,MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 a,AU-3,AU-12 c,MA-4 (1) (a),AU-3 (1)</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
@@ -4075,7 +4075,7 @@
     <row r="48" ht="130" customHeight="1">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-3,MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 a,AU-3,AU-12 c,MA-4 (1) (a),AU-3 (1)</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
@@ -4150,7 +4150,7 @@
     <row r="49" ht="130" customHeight="1">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-3,MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 a,AU-3,AU-12 c,MA-4 (1) (a),AU-3 (1)</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
@@ -4225,7 +4225,7 @@
     <row r="50" ht="130" customHeight="1">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-3,MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 a,AU-3,AU-12 c,MA-4 (1) (a),AU-3 (1)</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
@@ -4300,7 +4300,7 @@
     <row r="51" ht="130" customHeight="1">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-3,MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 a,AU-3,AU-12 c,MA-4 (1) (a),AU-3 (1)</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
@@ -4375,7 +4375,7 @@
     <row r="52" ht="130" customHeight="1">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-3,MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 a,AU-3,AU-12 c,MA-4 (1) (a),AU-3 (1)</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
@@ -4450,7 +4450,7 @@
     <row r="53" ht="130" customHeight="1">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-3,MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 a,AU-3,AU-12 c,MA-4 (1) (a),AU-3 (1)</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
@@ -4525,7 +4525,7 @@
     <row r="54" ht="130" customHeight="1">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-3,MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 a,AU-3,AU-12 c,MA-4 (1) (a),AU-3 (1)</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
@@ -4600,7 +4600,7 @@
     <row r="55" ht="130" customHeight="1">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-3,MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 a,AU-3,AU-12 c,MA-4 (1) (a),AU-3 (1)</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
@@ -4675,7 +4675,7 @@
     <row r="56" ht="130" customHeight="1">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-3,MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 a,AU-3,AU-12 c,MA-4 (1) (a),AU-3 (1)</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
@@ -4750,7 +4750,7 @@
     <row r="57" ht="130" customHeight="1">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-3,MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 a,AU-3,AU-12 c,MA-4 (1) (a),AU-3 (1)</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
@@ -4825,7 +4825,7 @@
     <row r="58" ht="130" customHeight="1">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-3,MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 a,AU-3,AU-12 c,MA-4 (1) (a),AU-3 (1)</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
@@ -4905,7 +4905,7 @@
     <row r="59" ht="130" customHeight="1">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-3,MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 a,AU-3,AU-12 c,MA-4 (1) (a),AU-3 (1)</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
@@ -4988,7 +4988,7 @@
     <row r="60" ht="130" customHeight="1">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-3,MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 a,AU-3,AU-12 c,MA-4 (1) (a),AU-3 (1)</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
@@ -5068,7 +5068,7 @@
     <row r="61" ht="130" customHeight="1">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-3,MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 a,AU-3,AU-12 c,MA-4 (1) (a),AU-3 (1)</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
@@ -5148,7 +5148,7 @@
     <row r="62" ht="130" customHeight="1">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-3,MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 a,AU-3,AU-12 c,MA-4 (1) (a),AU-3 (1)</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
@@ -5228,7 +5228,7 @@
     <row r="63" ht="130" customHeight="1">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-3,MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 a,AU-3,AU-12 c,MA-4 (1) (a),AU-3 (1)</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
@@ -5308,7 +5308,7 @@
     <row r="64" ht="130" customHeight="1">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-3,MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 a,AU-3,AU-12 c,MA-4 (1) (a),AU-3 (1)</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
@@ -5382,7 +5382,7 @@
     <row r="65" ht="130" customHeight="1">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-3,MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 a,AU-3,AU-12 c,MA-4 (1) (a),AU-3 (1)</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
@@ -5456,7 +5456,7 @@
     <row r="66" ht="130" customHeight="1">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-3,MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 a,AU-3,AU-12 c,MA-4 (1) (a),AU-3 (1)</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
@@ -5530,7 +5530,7 @@
     <row r="67" ht="130" customHeight="1">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-3,MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 a,AU-3,AU-12 c,MA-4 (1) (a),AU-3 (1)</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
@@ -5604,7 +5604,7 @@
     <row r="68" ht="130" customHeight="1">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-3,MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 a,AU-3,AU-12 c,MA-4 (1) (a),AU-3 (1)</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
@@ -5678,7 +5678,7 @@
     <row r="69" ht="130" customHeight="1">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-3,MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 a,AU-3,AU-12 c,MA-4 (1) (a),AU-3 (1)</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
@@ -5751,7 +5751,7 @@
     <row r="70" ht="130" customHeight="1">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-3,MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 a,AU-3,AU-12 c,MA-4 (1) (a),AU-3 (1)</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
@@ -5824,7 +5824,7 @@
     <row r="71" ht="130" customHeight="1">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-3,MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 a,AU-3,AU-12 c,MA-4 (1) (a),AU-3 (1)</t>
         </is>
       </c>
       <c r="B71" s="2" t="inlineStr">
@@ -5897,7 +5897,7 @@
     <row r="72" ht="130" customHeight="1">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-3,MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 a,AU-3,AU-12 c,MA-4 (1) (a),AU-3 (1)</t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
@@ -5970,7 +5970,7 @@
     <row r="73" ht="130" customHeight="1">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-3,MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 a,AU-3,AU-12 c,MA-4 (1) (a),AU-3 (1)</t>
         </is>
       </c>
       <c r="B73" s="2" t="inlineStr">
@@ -6043,7 +6043,7 @@
     <row r="74" ht="130" customHeight="1">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-3,MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 a,AU-3,AU-12 c,MA-4 (1) (a),AU-3 (1)</t>
         </is>
       </c>
       <c r="B74" s="2" t="inlineStr">
@@ -6116,7 +6116,7 @@
     <row r="75" ht="130" customHeight="1">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-3,MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 a,AU-3,AU-12 c,MA-4 (1) (a),AU-3 (1)</t>
         </is>
       </c>
       <c r="B75" s="2" t="inlineStr">
@@ -6190,7 +6190,7 @@
     <row r="76" ht="130" customHeight="1">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-3,MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 a,AU-3,AU-12 c,MA-4 (1) (a),AU-3 (1)</t>
         </is>
       </c>
       <c r="B76" s="2" t="inlineStr">
@@ -6264,7 +6264,7 @@
     <row r="77" ht="130" customHeight="1">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-3,MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 a,AU-3,AU-12 c,MA-4 (1) (a),AU-3 (1)</t>
         </is>
       </c>
       <c r="B77" s="2" t="inlineStr">
@@ -6338,7 +6338,7 @@
     <row r="78" ht="130" customHeight="1">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-3,MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 a,AU-3,AU-12 c,MA-4 (1) (a),AU-3 (1)</t>
         </is>
       </c>
       <c r="B78" s="2" t="inlineStr">
@@ -6416,7 +6416,7 @@
     <row r="79" ht="130" customHeight="1">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-3,MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 a,AU-3,AU-12 c,MA-4 (1) (a),AU-3 (1)</t>
         </is>
       </c>
       <c r="B79" s="2" t="inlineStr">
@@ -6496,7 +6496,7 @@
     <row r="80" ht="130" customHeight="1">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-3,MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 a,AU-3,AU-12 c,MA-4 (1) (a),AU-3 (1)</t>
         </is>
       </c>
       <c r="B80" s="2" t="inlineStr">
@@ -6576,7 +6576,7 @@
     <row r="81" ht="130" customHeight="1">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-3,MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 a,AU-3,AU-12 c,MA-4 (1) (a),AU-3 (1)</t>
         </is>
       </c>
       <c r="B81" s="2" t="inlineStr">
@@ -6656,7 +6656,7 @@
     <row r="82" ht="130" customHeight="1">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-3,MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 a,AU-3,AU-12 c,MA-4 (1) (a),AU-3 (1)</t>
         </is>
       </c>
       <c r="B82" s="2" t="inlineStr">
@@ -6736,7 +6736,7 @@
     <row r="83" ht="130" customHeight="1">
       <c r="A83" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-3,MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 a,AU-3,AU-12 c,MA-4 (1) (a),AU-3 (1)</t>
         </is>
       </c>
       <c r="B83" s="2" t="inlineStr">
@@ -6816,7 +6816,7 @@
     <row r="84" ht="130" customHeight="1">
       <c r="A84" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3 (1),AU-3</t>
+          <t>AU-3,AU-3 (1),MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B84" s="2" t="inlineStr">
@@ -6896,7 +6896,7 @@
     <row r="85" ht="130" customHeight="1">
       <c r="A85" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-3,MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 a,AU-3,AU-12 c,MA-4 (1) (a),AU-3 (1)</t>
         </is>
       </c>
       <c r="B85" s="2" t="inlineStr">
@@ -6976,7 +6976,7 @@
     <row r="86" ht="130" customHeight="1">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-3,MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 a,AU-3,AU-12 c,MA-4 (1) (a),AU-3 (1)</t>
         </is>
       </c>
       <c r="B86" s="2" t="inlineStr">
@@ -7056,7 +7056,7 @@
     <row r="87" ht="130" customHeight="1">
       <c r="A87" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-3,MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 a,AU-3,AU-12 c,MA-4 (1) (a),AU-3 (1)</t>
         </is>
       </c>
       <c r="B87" s="2" t="inlineStr">
@@ -7136,7 +7136,7 @@
     <row r="88" ht="130" customHeight="1">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-3,MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 a,AU-3,AU-12 c,MA-4 (1) (a),AU-3 (1)</t>
         </is>
       </c>
       <c r="B88" s="2" t="inlineStr">
@@ -7216,7 +7216,7 @@
     <row r="89" ht="130" customHeight="1">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-3,MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 a,AU-3,AU-12 c,MA-4 (1) (a),AU-3 (1)</t>
         </is>
       </c>
       <c r="B89" s="2" t="inlineStr">
@@ -7296,7 +7296,7 @@
     <row r="90" ht="130" customHeight="1">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c,AU-3 (1)</t>
+          <t>MA-4 (1) (a),AU-3 (1),AU-12 c</t>
         </is>
       </c>
       <c r="B90" s="2" t="inlineStr">
@@ -7372,7 +7372,7 @@
     <row r="91" ht="130" customHeight="1">
       <c r="A91" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-3,MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 a,AU-3,AU-12 c,MA-4 (1) (a),AU-3 (1)</t>
         </is>
       </c>
       <c r="B91" s="2" t="inlineStr">
@@ -7449,7 +7449,7 @@
     <row r="92" ht="130" customHeight="1">
       <c r="A92" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-3,MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 a,AU-3,AU-12 c,MA-4 (1) (a),AU-3 (1)</t>
         </is>
       </c>
       <c r="B92" s="2" t="inlineStr">
@@ -7529,7 +7529,7 @@
     <row r="93" ht="130" customHeight="1">
       <c r="A93" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-3,MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 a,AU-3,AU-12 c,MA-4 (1) (a),AU-3 (1)</t>
         </is>
       </c>
       <c r="B93" s="2" t="inlineStr">
@@ -7609,7 +7609,7 @@
     <row r="94" ht="130" customHeight="1">
       <c r="A94" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-3,MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 a,AU-3,AU-12 c,MA-4 (1) (a),AU-3 (1)</t>
         </is>
       </c>
       <c r="B94" s="2" t="inlineStr">
@@ -7689,7 +7689,7 @@
     <row r="95" ht="130" customHeight="1">
       <c r="A95" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-3,MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 a,AU-3,AU-12 c,MA-4 (1) (a),AU-3 (1)</t>
         </is>
       </c>
       <c r="B95" s="2" t="inlineStr">
@@ -7769,7 +7769,7 @@
     <row r="96" ht="130" customHeight="1">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c,AU-3 (1),AU-3</t>
+          <t>AU-3,AU-3 (1),AU-12 c,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
@@ -7849,7 +7849,7 @@
     <row r="97" ht="130" customHeight="1">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-3,MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 a,AU-3,AU-12 c,MA-4 (1) (a),AU-3 (1)</t>
         </is>
       </c>
       <c r="B97" s="2" t="inlineStr">
@@ -7929,7 +7929,7 @@
     <row r="98" ht="130" customHeight="1">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-3,MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 a,AU-3,AU-12 c,MA-4 (1) (a),AU-3 (1)</t>
         </is>
       </c>
       <c r="B98" s="2" t="inlineStr">
@@ -8009,7 +8009,7 @@
     <row r="99" ht="130" customHeight="1">
       <c r="A99" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-3,MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 a,AU-3,AU-12 c,MA-4 (1) (a),AU-3 (1)</t>
         </is>
       </c>
       <c r="B99" s="2" t="inlineStr">
@@ -8089,7 +8089,7 @@
     <row r="100" ht="130" customHeight="1">
       <c r="A100" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-3,MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 a,AU-3,AU-12 c,MA-4 (1) (a),AU-3 (1)</t>
         </is>
       </c>
       <c r="B100" s="2" t="inlineStr">
@@ -8169,7 +8169,7 @@
     <row r="101" ht="130" customHeight="1">
       <c r="A101" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-3,MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 a,AU-3,AU-12 c,MA-4 (1) (a),AU-3 (1)</t>
         </is>
       </c>
       <c r="B101" s="2" t="inlineStr">
@@ -8242,7 +8242,7 @@
     <row r="102" ht="130" customHeight="1">
       <c r="A102" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-3,MA-4 (1) (a),AC-2 (4),AU-12 c</t>
+          <t>AU-12 a,AC-2 (4),AU-3,AU-12 c,MA-4 (1) (a),AU-3 (1)</t>
         </is>
       </c>
       <c r="B102" s="2" t="inlineStr">
@@ -8323,7 +8323,7 @@
     <row r="103" ht="130" customHeight="1">
       <c r="A103" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-3,MA-4 (1) (a),AC-2 (4),AU-12 c</t>
+          <t>AU-12 a,AC-2 (4),AU-3,AU-12 c,MA-4 (1) (a),AU-3 (1)</t>
         </is>
       </c>
       <c r="B103" s="2" t="inlineStr">
@@ -8404,7 +8404,7 @@
     <row r="104" ht="130" customHeight="1">
       <c r="A104" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-3,MA-4 (1) (a),AC-2 (4),AU-12 c</t>
+          <t>AU-12 a,AC-2 (4),AU-3,AU-12 c,MA-4 (1) (a),AU-3 (1)</t>
         </is>
       </c>
       <c r="B104" s="2" t="inlineStr">
@@ -8475,7 +8475,7 @@
     <row r="105" ht="130" customHeight="1">
       <c r="A105" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,MA-4 (1) (a),AC-2 (4),AU-12 c</t>
+          <t>AC-2 (4),AU-3,AU-12 c,MA-4 (1) (a),AU-3 (1)</t>
         </is>
       </c>
       <c r="B105" s="2" t="inlineStr">
@@ -8550,7 +8550,7 @@
     <row r="106" ht="130" customHeight="1">
       <c r="A106" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-3,MA-4 (1) (a),AC-2 (4),AU-12 c</t>
+          <t>AU-12 a,AC-2 (4),AU-3,AU-12 c,MA-4 (1) (a),AU-3 (1)</t>
         </is>
       </c>
       <c r="B106" s="2" t="inlineStr">
@@ -8632,7 +8632,7 @@
     <row r="107" ht="130" customHeight="1">
       <c r="A107" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-3,MA-4 (1) (a),AC-2 (4),AU-12 c</t>
+          <t>AU-12 a,AC-2 (4),AU-3,AU-12 c,MA-4 (1) (a),AU-3 (1)</t>
         </is>
       </c>
       <c r="B107" s="2" t="inlineStr">
@@ -8714,7 +8714,7 @@
     <row r="108" ht="130" customHeight="1">
       <c r="A108" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-3,MA-4 (1) (a),AC-2 (4),AU-12 c</t>
+          <t>AU-12 a,AC-2 (4),AU-3,AU-12 c,MA-4 (1) (a),AU-3 (1)</t>
         </is>
       </c>
       <c r="B108" s="2" t="inlineStr">
@@ -8796,7 +8796,7 @@
     <row r="109" ht="130" customHeight="1">
       <c r="A109" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-3,MA-4 (1) (a),AC-2 (4),AU-12 c</t>
+          <t>AU-12 a,AC-2 (4),AU-3,AU-12 c,MA-4 (1) (a),AU-3 (1)</t>
         </is>
       </c>
       <c r="B109" s="2" t="inlineStr">
@@ -8878,7 +8878,7 @@
     <row r="110" ht="130" customHeight="1">
       <c r="A110" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-3,MA-4 (1) (a),AC-2 (4),AU-12 c</t>
+          <t>AU-12 a,AC-2 (4),AU-3,AU-12 c,MA-4 (1) (a),AU-3 (1)</t>
         </is>
       </c>
       <c r="B110" s="2" t="inlineStr">
@@ -8960,7 +8960,7 @@
     <row r="111" ht="130" customHeight="1">
       <c r="A111" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-3,MA-4 (1) (a),AU-14 (1),AU-12 c</t>
+          <t>AU-12 a,AU-3,AU-12 c,MA-4 (1) (a),AU-3 (1),AU-14 (1)</t>
         </is>
       </c>
       <c r="B111" s="2" t="inlineStr">
@@ -9052,7 +9052,7 @@
     <row r="112" ht="130" customHeight="1">
       <c r="A112" s="2" t="inlineStr">
         <is>
-          <t>AC-6 (10),CM-6 b</t>
+          <t>CM-6 b,AC-6 (10)</t>
         </is>
       </c>
       <c r="B112" s="2" t="inlineStr">
@@ -9133,7 +9133,7 @@
     <row r="113" ht="130" customHeight="1">
       <c r="A113" s="2" t="inlineStr">
         <is>
-          <t>AC-6 (10),CM-6 b</t>
+          <t>CM-6 b,AC-6 (10)</t>
         </is>
       </c>
       <c r="B113" s="2" t="inlineStr">
@@ -9219,7 +9219,7 @@
     <row r="114" ht="130" customHeight="1">
       <c r="A114" s="2" t="inlineStr">
         <is>
-          <t>AC-6 (10),AC-11 b</t>
+          <t>AC-11 b,AC-6 (10)</t>
         </is>
       </c>
       <c r="B114" s="2" t="inlineStr">
@@ -9297,7 +9297,7 @@
     <row r="115" ht="130" customHeight="1">
       <c r="A115" s="2" t="inlineStr">
         <is>
-          <t>AC-6 (10),CM-6 b</t>
+          <t>CM-6 b,AC-6 (10)</t>
         </is>
       </c>
       <c r="B115" s="2" t="inlineStr">
@@ -9663,7 +9663,7 @@
     <row r="119" ht="130" customHeight="1">
       <c r="A119" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c,AU-12 a,AU-3</t>
+          <t>AU-3,AU-12 a,AU-12 c,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B119" s="2" t="inlineStr">
@@ -9734,7 +9734,7 @@
     <row r="120" ht="130" customHeight="1">
       <c r="A120" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c,AU-12 a,AU-3</t>
+          <t>AU-3,AU-12 a,AU-12 c,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B120" s="2" t="inlineStr">
@@ -10262,7 +10262,7 @@
     <row r="127" ht="130" customHeight="1">
       <c r="A127" s="2" t="inlineStr">
         <is>
-          <t>MA-4 c,SC-8,SC-13,AC-17 (2)</t>
+          <t>MA-4 c,SC-8,AC-17 (2),SC-13</t>
         </is>
       </c>
       <c r="B127" s="2" t="inlineStr">
@@ -10344,7 +10344,7 @@
     <row r="128" ht="130" customHeight="1">
       <c r="A128" s="2" t="inlineStr">
         <is>
-          <t>AC-12,MA-4 (7),MA-4 e,SC-10</t>
+          <t>MA-4 (7),AC-12,MA-4 e,SC-10</t>
         </is>
       </c>
       <c r="B128" s="2" t="inlineStr">
@@ -12013,7 +12013,7 @@
     <row r="151" ht="130" customHeight="1">
       <c r="A151" s="2" t="inlineStr">
         <is>
-          <t>SC-8 (1),SC-8,SC-8 (2)</t>
+          <t>SC-8 (2),SC-8,SC-8 (1)</t>
         </is>
       </c>
       <c r="B151" s="2" t="inlineStr">
@@ -12090,7 +12090,7 @@
     <row r="152" ht="130" customHeight="1">
       <c r="A152" s="2" t="inlineStr">
         <is>
-          <t>SC-8 (1),SC-8,SC-8 (2)</t>
+          <t>SC-8 (2),SC-8,SC-8 (1)</t>
         </is>
       </c>
       <c r="B152" s="2" t="inlineStr">
@@ -12255,7 +12255,7 @@
     <row r="154" ht="130" customHeight="1">
       <c r="A154" s="2" t="inlineStr">
         <is>
-          <t>SC-8,SC-8 (2)</t>
+          <t>SC-8 (2),SC-8</t>
         </is>
       </c>
       <c r="B154" s="2" t="inlineStr">
@@ -13027,7 +13027,7 @@
     <row r="164" ht="130" customHeight="1">
       <c r="A164" s="2" t="inlineStr">
         <is>
-          <t>AU-4 (1),AU-6 (4),CM-6 b</t>
+          <t>AU-6 (4),CM-6 b,AU-4 (1)</t>
         </is>
       </c>
       <c r="B164" s="2" t="inlineStr">
@@ -13098,7 +13098,7 @@
     <row r="165" ht="130" customHeight="1">
       <c r="A165" s="2" t="inlineStr">
         <is>
-          <t>CM-7 b,AC-17 (9),AC-17 (1),CM-6 b</t>
+          <t>AC-17 (1),AC-17 (9),CM-6 b,CM-7 b</t>
         </is>
       </c>
       <c r="B165" s="2" t="inlineStr">
@@ -13175,7 +13175,7 @@
     <row r="166" ht="130" customHeight="1">
       <c r="A166" s="2" t="inlineStr">
         <is>
-          <t>CM-7 b,AC-17 (1),CM-6 b</t>
+          <t>AC-17 (1),CM-6 b,CM-7 b</t>
         </is>
       </c>
       <c r="B166" s="2" t="inlineStr">
@@ -14160,7 +14160,7 @@
     <row r="178" ht="130" customHeight="1">
       <c r="A178" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,AU-3</t>
+          <t>AU-3,CM-6 b</t>
         </is>
       </c>
       <c r="B178" s="2" t="inlineStr">
@@ -14594,7 +14594,7 @@
     <row r="184" ht="130" customHeight="1">
       <c r="A184" s="2" t="inlineStr">
         <is>
-          <t>AU-4 (1),AU-3</t>
+          <t>AU-3,AU-4 (1)</t>
         </is>
       </c>
       <c r="B184" s="2" t="inlineStr">
@@ -15109,7 +15109,7 @@
     <row r="191" ht="130" customHeight="1">
       <c r="A191" s="2" t="inlineStr">
         <is>
-          <t>AU-4 (1),CM-6 b</t>
+          <t>CM-6 b,AU-4 (1)</t>
         </is>
       </c>
       <c r="B191" s="2" t="inlineStr">
@@ -15515,7 +15515,7 @@
     <row r="196" ht="130" customHeight="1">
       <c r="A196" s="2" t="inlineStr">
         <is>
-          <t>AC-8 a,AC-8 c 1, AC-8 c 2, AC-8 c 3</t>
+          <t>AC-8 c 1, AC-8 c 2, AC-8 c 3,AC-8 a</t>
         </is>
       </c>
       <c r="B196" s="2" t="inlineStr">
@@ -15617,7 +15617,7 @@
     <row r="197" ht="130" customHeight="1">
       <c r="A197" s="2" t="inlineStr">
         <is>
-          <t>AC-8 a,AC-8 c 1, AC-8 c 2, AC-8 c 3</t>
+          <t>AC-8 c 1, AC-8 c 2, AC-8 c 3,AC-8 a</t>
         </is>
       </c>
       <c r="B197" s="2" t="inlineStr">
@@ -15727,7 +15727,7 @@
     <row r="198" ht="130" customHeight="1">
       <c r="A198" s="2" t="inlineStr">
         <is>
-          <t>AC-8 a,AC-8 c 1, AC-8 c 2, AC-8 c 3</t>
+          <t>AC-8 c 1, AC-8 c 2, AC-8 c 3,AC-8 a</t>
         </is>
       </c>
       <c r="B198" s="2" t="inlineStr">
@@ -15838,7 +15838,7 @@
     <row r="199" ht="130" customHeight="1">
       <c r="A199" s="2" t="inlineStr">
         <is>
-          <t>AC-8 a,AC-8 c 1, AC-8 c 2, AC-8 c 3</t>
+          <t>AC-8 c 1, AC-8 c 2, AC-8 c 3,AC-8 a</t>
         </is>
       </c>
       <c r="B199" s="2" t="inlineStr">
@@ -15947,7 +15947,7 @@
     <row r="200" ht="130" customHeight="1">
       <c r="A200" s="2" t="inlineStr">
         <is>
-          <t>AC-2 (4),AU-12 c,AC-6 (9)</t>
+          <t>AC-6 (9),AU-12 c,AC-2 (4)</t>
         </is>
       </c>
       <c r="B200" s="2" t="inlineStr">
@@ -16389,7 +16389,7 @@
     <row r="205" ht="130" customHeight="1">
       <c r="A205" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (5),CM-6 b</t>
+          <t>CM-6 b,IA-2 (5)</t>
         </is>
       </c>
       <c r="B205" s="2" t="inlineStr">
@@ -16467,7 +16467,7 @@
     <row r="206" ht="130" customHeight="1">
       <c r="A206" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (3),IA-2 (4),IA-2 (5),IA-2 (2),IA-2</t>
+          <t>IA-2 (3),IA-2,IA-2 (4),IA-2 (5),IA-2 (2)</t>
         </is>
       </c>
       <c r="B206" s="2" t="inlineStr">
@@ -16552,7 +16552,7 @@
     <row r="207" ht="130" customHeight="1">
       <c r="A207" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (3),IA-2 (4),IA-2 (5),IA-2 (2),IA-2</t>
+          <t>IA-2 (3),IA-2,IA-2 (4),IA-2 (5),IA-2 (2)</t>
         </is>
       </c>
       <c r="B207" s="2" t="inlineStr">
@@ -16637,7 +16637,7 @@
     <row r="208" ht="130" customHeight="1">
       <c r="A208" s="2" t="inlineStr">
         <is>
-          <t>SC-8 (1),SC-8,AC-18 (1)</t>
+          <t>AC-18 (1),SC-8,SC-8 (1)</t>
         </is>
       </c>
       <c r="B208" s="2" t="inlineStr">
@@ -16804,7 +16804,7 @@
     <row r="210" ht="130" customHeight="1">
       <c r="A210" s="2" t="inlineStr">
         <is>
-          <t>IA-7,IA-5 (1) (c)</t>
+          <t>IA-5 (1) (c),IA-7</t>
         </is>
       </c>
       <c r="B210" s="2" t="inlineStr">
@@ -17284,7 +17284,7 @@
     <row r="216" ht="130" customHeight="1">
       <c r="A216" s="2" t="inlineStr">
         <is>
-          <t>SC-13,MA-4 (6)</t>
+          <t>MA-4 (6),SC-13</t>
         </is>
       </c>
       <c r="B216" s="2" t="inlineStr">
@@ -17368,7 +17368,7 @@
     <row r="217" ht="130" customHeight="1">
       <c r="A217" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (6),AC-17 (2)</t>
+          <t>AC-17 (2),MA-4 (6)</t>
         </is>
       </c>
       <c r="B217" s="2" t="inlineStr">
@@ -17443,7 +17443,7 @@
     <row r="218" ht="130" customHeight="1">
       <c r="A218" s="2" t="inlineStr">
         <is>
-          <t>SC-13,MA-4 (6)</t>
+          <t>MA-4 (6),SC-13</t>
         </is>
       </c>
       <c r="B218" s="2" t="inlineStr">
@@ -18287,7 +18287,7 @@
     <row r="229" ht="130" customHeight="1">
       <c r="A229" s="2" t="inlineStr">
         <is>
-          <t>SI-16,SC-2,CM-6 b</t>
+          <t>SC-2,SI-16,CM-6 b</t>
         </is>
       </c>
       <c r="B229" s="2" t="inlineStr">
@@ -18447,7 +18447,7 @@
     <row r="231" ht="130" customHeight="1">
       <c r="A231" s="2" t="inlineStr">
         <is>
-          <t>SC-3,SI-16</t>
+          <t>SI-16,SC-3</t>
         </is>
       </c>
       <c r="B231" s="2" t="inlineStr">
@@ -20199,7 +20199,7 @@
     <row r="254" ht="130" customHeight="1">
       <c r="A254" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,IA-2 (2)</t>
+          <t>IA-2 (2),CM-6 b</t>
         </is>
       </c>
       <c r="B254" s="2" t="inlineStr">
@@ -20286,7 +20286,7 @@
     <row r="255" ht="130" customHeight="1">
       <c r="A255" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (3),IA-2 (1),IA-2 (4),IA-2 (2)</t>
+          <t>IA-2 (3),IA-2 (4),IA-2 (1),IA-2 (2)</t>
         </is>
       </c>
       <c r="B255" s="2" t="inlineStr">
@@ -20754,7 +20754,7 @@
     <row r="261" ht="130" customHeight="1">
       <c r="A261" s="2" t="inlineStr">
         <is>
-          <t>SC-4,SC-2</t>
+          <t>SC-2,SC-4</t>
         </is>
       </c>
       <c r="B261" s="2" t="inlineStr">
@@ -20842,7 +20842,7 @@
     <row r="262" ht="130" customHeight="1">
       <c r="A262" s="2" t="inlineStr">
         <is>
-          <t>SC-4,SC-2</t>
+          <t>SC-2,SC-4</t>
         </is>
       </c>
       <c r="B262" s="2" t="inlineStr">
@@ -21907,7 +21907,7 @@
     <row r="275" ht="130" customHeight="1">
       <c r="A275" s="2" t="inlineStr">
         <is>
-          <t>AU-8 b,AU-7 b,CM-5 (1),AU-12 (3),AC-6 (8),AU-7 a,AC-6 (9)</t>
+          <t>AU-7 b,AU-7 a,AU-8 b,AC-6 (9),AU-12 (3),AC-6 (8),CM-5 (1)</t>
         </is>
       </c>
       <c r="B275" s="2" t="inlineStr">
@@ -23597,7 +23597,7 @@
     <row r="296" ht="130" customHeight="1">
       <c r="A296" s="2" t="inlineStr">
         <is>
-          <t>AU-8 (1) (a),AU-8 b,AU-8 (1) (b)</t>
+          <t>AU-8 (1) (b),AU-8 (1) (a),AU-8 b</t>
         </is>
       </c>
       <c r="B296" s="2" t="inlineStr">
@@ -25004,7 +25004,7 @@
     <row r="314" ht="130" customHeight="1">
       <c r="A314" s="2" t="inlineStr">
         <is>
-          <t>AU-5 a,AU-5 b</t>
+          <t>AU-5 b,AU-5 a</t>
         </is>
       </c>
       <c r="B314" s="2" t="inlineStr">
@@ -25923,7 +25923,7 @@
     <row r="326" ht="130" customHeight="1">
       <c r="A326" s="2" t="inlineStr">
         <is>
-          <t>CM-7 b,IA-3</t>
+          <t>IA-3,CM-7 b</t>
         </is>
       </c>
       <c r="B326" s="2" t="inlineStr">
@@ -25998,7 +25998,7 @@
     <row r="327" ht="130" customHeight="1">
       <c r="A327" s="2" t="inlineStr">
         <is>
-          <t>CM-7 b,CM-7 a</t>
+          <t>CM-7 a,CM-7 b</t>
         </is>
       </c>
       <c r="B327" s="2" t="inlineStr">
@@ -26072,7 +26072,7 @@
     <row r="328" ht="130" customHeight="1">
       <c r="A328" s="2" t="inlineStr">
         <is>
-          <t>CM-7 b,CM-7 a</t>
+          <t>CM-7 a,CM-7 b</t>
         </is>
       </c>
       <c r="B328" s="2" t="inlineStr">
@@ -26146,7 +26146,7 @@
     <row r="329" ht="130" customHeight="1">
       <c r="A329" s="2" t="inlineStr">
         <is>
-          <t>CM-7 b,AC-17 (1)</t>
+          <t>AC-17 (1),CM-7 b</t>
         </is>
       </c>
       <c r="B329" s="2" t="inlineStr">
@@ -27403,7 +27403,7 @@
     <row r="345" ht="130" customHeight="1">
       <c r="A345" s="2" t="inlineStr">
         <is>
-          <t>SI-6 d,SI-6 b,CM-3 (5)</t>
+          <t>SI-6 b,SI-6 d,CM-3 (5)</t>
         </is>
       </c>
       <c r="B345" s="2" t="inlineStr">
@@ -27874,7 +27874,7 @@
     <row r="351" ht="130" customHeight="1">
       <c r="A351" s="2" t="inlineStr">
         <is>
-          <t>SI-16,CM-7 a</t>
+          <t>CM-7 a,SI-16</t>
         </is>
       </c>
       <c r="B351" s="2" t="inlineStr">
@@ -29635,7 +29635,7 @@
     <row r="373" ht="130" customHeight="1">
       <c r="A373" s="2" t="inlineStr">
         <is>
-          <t>SC-3,SI-6 a</t>
+          <t>SI-6 a,SC-3</t>
         </is>
       </c>
       <c r="B373" s="2" t="inlineStr">

--- a/srg_mapping/srg-mapping-rhel9.xlsx
+++ b/srg_mapping/srg-mapping-rhel9.xlsx
@@ -541,7 +541,7 @@
     <row r="2" ht="130" customHeight="1">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>AC-7 a,AC-7 b</t>
+          <t>AC-7 b,AC-7 a</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -625,7 +625,7 @@
     <row r="3" ht="130" customHeight="1">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>AC-7 a,AC-7 b</t>
+          <t>AC-7 b,AC-7 a</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="4" ht="130" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>AC-7 a,AC-7 b</t>
+          <t>AC-7 b,AC-7 a</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
@@ -782,7 +782,7 @@
     <row r="5" ht="130" customHeight="1">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>AC-7 a,AC-7 b</t>
+          <t>AC-7 b,AC-7 a</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
@@ -964,7 +964,7 @@
     <row r="7" ht="130" customHeight="1">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>AU-5 a,AU-5 b</t>
+          <t>AU-5 b,AU-5 a</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
@@ -1446,7 +1446,7 @@
     <row r="13" ht="130" customHeight="1">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>AU-7 (1),AU-3,MA-4 (1) (a),AU-7 a,AU-6 (4),CM-6 b,AU-14 (1),CM-5 (1),AU-3 (1),AU-12 a</t>
+          <t>AU-7 (1),AU-7 a,CM-6 b,MA-4 (1) (a),AU-14 (1),AU-6 (4),AU-3,AU-12 a,CM-5 (1),AU-3 (1)</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
@@ -1761,7 +1761,7 @@
     <row r="17" ht="130" customHeight="1">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>CM-7 (2),CM-6 b</t>
+          <t>CM-6 b,CM-7 (2)</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
@@ -2131,7 +2131,7 @@
     <row r="22" ht="130" customHeight="1">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>CM-7 (2),CM-6 b</t>
+          <t>CM-6 b,CM-7 (2)</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
@@ -2205,7 +2205,7 @@
     <row r="23" ht="130" customHeight="1">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>CM-7 (2),CM-6 b</t>
+          <t>CM-6 b,CM-7 (2)</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
@@ -3249,7 +3249,7 @@
     <row r="37" ht="130" customHeight="1">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-14 (1),AU-3 (1),AU-12 a,AU-12 c</t>
+          <t>MA-4 (1) (a),AU-12 c,AU-14 (1),AU-3,AU-12 a,AU-3 (1)</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
@@ -3782,7 +3782,7 @@
     <row r="44" ht="130" customHeight="1">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>AU-4 (1),AU-3</t>
+          <t>AU-3,AU-4 (1)</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
@@ -4161,7 +4161,7 @@
     <row r="49" ht="130" customHeight="1">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>AU-4 (1),CM-6 b,AU-6 (4)</t>
+          <t>CM-6 b,AU-6 (4),AU-4 (1)</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
@@ -4231,7 +4231,7 @@
     <row r="50" ht="130" customHeight="1">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>AU-4 (1),CM-6 b</t>
+          <t>CM-6 b,AU-4 (1)</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
@@ -4311,7 +4311,7 @@
     <row r="51" ht="130" customHeight="1">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>AU-8 (1) (b),AU-8 (1) (a),AU-8 b</t>
+          <t>AU-8 (1) (b),AU-8 b,AU-8 (1) (a)</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
@@ -4466,7 +4466,7 @@
     <row r="53" ht="130" customHeight="1">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (12),IA-2 (11)</t>
+          <t>IA-2 (11),IA-2 (12)</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
@@ -4552,7 +4552,7 @@
     <row r="54" ht="130" customHeight="1">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (12),IA-2 (1),IA-2 (11)</t>
+          <t>IA-2 (11),IA-2 (1),IA-2 (12)</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
@@ -4636,7 +4636,7 @@
     <row r="55" ht="130" customHeight="1">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>SI-6 b,SI-6 d,CM-3 (5)</t>
+          <t>CM-3 (5),SI-6 b,SI-6 d</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
@@ -4728,7 +4728,7 @@
     <row r="56" ht="130" customHeight="1">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>SI-6 d,CM-3 (5)</t>
+          <t>CM-3 (5),SI-6 d</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
@@ -4812,7 +4812,7 @@
     <row r="57" ht="130" customHeight="1">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-3 (1),AU-12 a,AU-12 c</t>
+          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1)</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
@@ -4887,7 +4887,7 @@
     <row r="58" ht="130" customHeight="1">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-3 (1),AU-12 a,AU-12 c</t>
+          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1)</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
@@ -4962,7 +4962,7 @@
     <row r="59" ht="130" customHeight="1">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-3 (1),AU-12 a,AU-12 c</t>
+          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1)</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
@@ -5037,7 +5037,7 @@
     <row r="60" ht="130" customHeight="1">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-3 (1),AU-12 a,AU-12 c</t>
+          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1)</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
@@ -5112,7 +5112,7 @@
     <row r="61" ht="130" customHeight="1">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-3 (1),AU-12 a,AU-12 c</t>
+          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1)</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
@@ -5187,7 +5187,7 @@
     <row r="62" ht="130" customHeight="1">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-3 (1),AU-12 a,AU-12 c</t>
+          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1)</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
@@ -5262,7 +5262,7 @@
     <row r="63" ht="130" customHeight="1">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-3 (1),AU-12 a,AU-12 c</t>
+          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1)</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
@@ -5337,7 +5337,7 @@
     <row r="64" ht="130" customHeight="1">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-3 (1),AU-12 a,AU-12 c</t>
+          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1)</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
@@ -5412,7 +5412,7 @@
     <row r="65" ht="130" customHeight="1">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-3 (1),AU-12 a,AU-12 c</t>
+          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1)</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
@@ -5487,7 +5487,7 @@
     <row r="66" ht="130" customHeight="1">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>AU-7 b,AU-12 (3),AU-7 a,CM-6 b,CM-5 (1),AU-12 a,AU-12 c,AU-8 b</t>
+          <t>AU-7 a,CM-6 b,AU-12 c,AU-7 b,AU-8 b,AU-12 a,CM-5 (1),AU-12 (3)</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
@@ -5561,7 +5561,7 @@
     <row r="67" ht="130" customHeight="1">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>AC-2 (4),AU-3,MA-4 (1) (a),AU-3 (1),AU-12 a,AU-12 c</t>
+          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1),AC-2 (4)</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
@@ -5642,7 +5642,7 @@
     <row r="68" ht="130" customHeight="1">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>AC-2 (4),AU-3,MA-4 (1) (a),AU-3 (1),AU-12 a,AU-12 c</t>
+          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1),AC-2 (4)</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
@@ -5723,7 +5723,7 @@
     <row r="69" ht="130" customHeight="1">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>AC-2 (4),AU-3,MA-4 (1) (a),AU-3 (1),AU-12 a,AU-12 c</t>
+          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1),AC-2 (4)</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
@@ -5805,7 +5805,7 @@
     <row r="70" ht="130" customHeight="1">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>AC-2 (4),AU-3,MA-4 (1) (a),AU-3 (1),AU-12 a,AU-12 c</t>
+          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1),AC-2 (4)</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
@@ -5887,7 +5887,7 @@
     <row r="71" ht="130" customHeight="1">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>AC-2 (4),AU-3,MA-4 (1) (a),AU-3 (1),AU-12 a,AU-12 c</t>
+          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1),AC-2 (4)</t>
         </is>
       </c>
       <c r="B71" s="2" t="inlineStr">
@@ -5969,7 +5969,7 @@
     <row r="72" ht="130" customHeight="1">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>AC-2 (4),AU-3,MA-4 (1) (a),AU-3 (1),AU-12 a,AU-12 c</t>
+          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1),AC-2 (4)</t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
@@ -6051,7 +6051,7 @@
     <row r="73" ht="130" customHeight="1">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>AC-2 (4),AU-3,MA-4 (1) (a),AU-3 (1),AU-12 a,AU-12 c</t>
+          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1),AC-2 (4)</t>
         </is>
       </c>
       <c r="B73" s="2" t="inlineStr">
@@ -6133,7 +6133,7 @@
     <row r="74" ht="130" customHeight="1">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>SI-6 a,CM-3 (5)</t>
+          <t>CM-3 (5),SI-6 a</t>
         </is>
       </c>
       <c r="B74" s="2" t="inlineStr">
@@ -7171,7 +7171,7 @@
     <row r="87" ht="130" customHeight="1">
       <c r="A87" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-3 (1),AU-12 a,AU-12 c</t>
+          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1)</t>
         </is>
       </c>
       <c r="B87" s="2" t="inlineStr">
@@ -7245,7 +7245,7 @@
     <row r="88" ht="130" customHeight="1">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-3 (1),AU-12 a,AU-12 c</t>
+          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1)</t>
         </is>
       </c>
       <c r="B88" s="2" t="inlineStr">
@@ -7319,7 +7319,7 @@
     <row r="89" ht="130" customHeight="1">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-3 (1),AU-12 a,AU-12 c</t>
+          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1)</t>
         </is>
       </c>
       <c r="B89" s="2" t="inlineStr">
@@ -7393,7 +7393,7 @@
     <row r="90" ht="130" customHeight="1">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-3 (1),AU-12 a,AU-12 c</t>
+          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1)</t>
         </is>
       </c>
       <c r="B90" s="2" t="inlineStr">
@@ -7969,7 +7969,7 @@
     <row r="97" ht="130" customHeight="1">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-3 (1),AU-12 a,AU-12 c</t>
+          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1)</t>
         </is>
       </c>
       <c r="B97" s="2" t="inlineStr">
@@ -8044,7 +8044,7 @@
     <row r="98" ht="130" customHeight="1">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-3 (1),AU-12 a,AU-12 c</t>
+          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1)</t>
         </is>
       </c>
       <c r="B98" s="2" t="inlineStr">
@@ -8119,7 +8119,7 @@
     <row r="99" ht="130" customHeight="1">
       <c r="A99" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-3 (1),AU-12 a,AU-12 c</t>
+          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1)</t>
         </is>
       </c>
       <c r="B99" s="2" t="inlineStr">
@@ -8194,7 +8194,7 @@
     <row r="100" ht="130" customHeight="1">
       <c r="A100" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-3 (1),AU-12 a,AU-12 c</t>
+          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1)</t>
         </is>
       </c>
       <c r="B100" s="2" t="inlineStr">
@@ -8274,7 +8274,7 @@
     <row r="101" ht="130" customHeight="1">
       <c r="A101" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-3 (1),AU-12 a,AU-12 c</t>
+          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1)</t>
         </is>
       </c>
       <c r="B101" s="2" t="inlineStr">
@@ -8348,7 +8348,7 @@
     <row r="102" ht="130" customHeight="1">
       <c r="A102" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-3 (1),AU-12 a,AU-12 c</t>
+          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1)</t>
         </is>
       </c>
       <c r="B102" s="2" t="inlineStr">
@@ -8422,7 +8422,7 @@
     <row r="103" ht="130" customHeight="1">
       <c r="A103" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-3 (1),AU-12 a,AU-12 c</t>
+          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1)</t>
         </is>
       </c>
       <c r="B103" s="2" t="inlineStr">
@@ -8496,7 +8496,7 @@
     <row r="104" ht="130" customHeight="1">
       <c r="A104" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-3 (1),AU-12 a,AU-12 c</t>
+          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1)</t>
         </is>
       </c>
       <c r="B104" s="2" t="inlineStr">
@@ -8570,7 +8570,7 @@
     <row r="105" ht="130" customHeight="1">
       <c r="A105" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-3 (1),AU-12 a,AU-12 c</t>
+          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1)</t>
         </is>
       </c>
       <c r="B105" s="2" t="inlineStr">
@@ -8644,7 +8644,7 @@
     <row r="106" ht="130" customHeight="1">
       <c r="A106" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-3 (1),AU-12 a,AU-12 c</t>
+          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1)</t>
         </is>
       </c>
       <c r="B106" s="2" t="inlineStr">
@@ -8724,7 +8724,7 @@
     <row r="107" ht="130" customHeight="1">
       <c r="A107" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-3 (1),AU-12 a,AU-12 c</t>
+          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1)</t>
         </is>
       </c>
       <c r="B107" s="2" t="inlineStr">
@@ -8804,7 +8804,7 @@
     <row r="108" ht="130" customHeight="1">
       <c r="A108" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-3 (1),AU-12 a,AU-12 c</t>
+          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1)</t>
         </is>
       </c>
       <c r="B108" s="2" t="inlineStr">
@@ -8884,7 +8884,7 @@
     <row r="109" ht="130" customHeight="1">
       <c r="A109" s="2" t="inlineStr">
         <is>
-          <t>AC-11 (1),AC-11 b</t>
+          <t>AC-11 b,AC-11 (1)</t>
         </is>
       </c>
       <c r="B109" s="2" t="inlineStr">
@@ -9134,7 +9134,7 @@
     <row r="112" ht="130" customHeight="1">
       <c r="A112" s="2" t="inlineStr">
         <is>
-          <t>AC-11 b,AC-11 a</t>
+          <t>AC-11 a,AC-11 b</t>
         </is>
       </c>
       <c r="B112" s="2" t="inlineStr">
@@ -9213,7 +9213,7 @@
     <row r="113" ht="130" customHeight="1">
       <c r="A113" s="2" t="inlineStr">
         <is>
-          <t>AC-11 b,AC-11 a</t>
+          <t>AC-11 a,AC-11 b</t>
         </is>
       </c>
       <c r="B113" s="2" t="inlineStr">
@@ -9297,7 +9297,7 @@
     <row r="114" ht="130" customHeight="1">
       <c r="A114" s="2" t="inlineStr">
         <is>
-          <t>AC-11 b,AC-11 a</t>
+          <t>AC-11 a,AC-11 b</t>
         </is>
       </c>
       <c r="B114" s="2" t="inlineStr">
@@ -9553,7 +9553,7 @@
     <row r="117" ht="130" customHeight="1">
       <c r="A117" s="2" t="inlineStr">
         <is>
-          <t>AC-17 (2),MA-4 c,SC-13,SC-8</t>
+          <t>MA-4 c,AC-17 (2),SC-8,SC-13</t>
         </is>
       </c>
       <c r="B117" s="2" t="inlineStr">
@@ -9635,7 +9635,7 @@
     <row r="118" ht="130" customHeight="1">
       <c r="A118" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B118" s="2" t="inlineStr">
@@ -9713,7 +9713,7 @@
     <row r="119" ht="130" customHeight="1">
       <c r="A119" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-3 (1),AU-12 a,AU-12 c</t>
+          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1)</t>
         </is>
       </c>
       <c r="B119" s="2" t="inlineStr">
@@ -9791,7 +9791,7 @@
     <row r="120" ht="130" customHeight="1">
       <c r="A120" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B120" s="2" t="inlineStr">
@@ -9869,7 +9869,7 @@
     <row r="121" ht="130" customHeight="1">
       <c r="A121" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-3 (1),AU-12 a,AU-12 c</t>
+          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1)</t>
         </is>
       </c>
       <c r="B121" s="2" t="inlineStr">
@@ -9949,7 +9949,7 @@
     <row r="122" ht="130" customHeight="1">
       <c r="A122" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B122" s="2" t="inlineStr">
@@ -10018,7 +10018,7 @@
     <row r="123" ht="130" customHeight="1">
       <c r="A123" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B123" s="2" t="inlineStr">
@@ -10087,7 +10087,7 @@
     <row r="124" ht="130" customHeight="1">
       <c r="A124" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B124" s="2" t="inlineStr">
@@ -10156,7 +10156,7 @@
     <row r="125" ht="130" customHeight="1">
       <c r="A125" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B125" s="2" t="inlineStr">
@@ -10225,7 +10225,7 @@
     <row r="126" ht="130" customHeight="1">
       <c r="A126" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-3 (1),AU-12 a,AU-12 c</t>
+          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1)</t>
         </is>
       </c>
       <c r="B126" s="2" t="inlineStr">
@@ -10305,7 +10305,7 @@
     <row r="127" ht="130" customHeight="1">
       <c r="A127" s="2" t="inlineStr">
         <is>
-          <t>SC-28,SC-28 (1)</t>
+          <t>SC-28 (1),SC-28</t>
         </is>
       </c>
       <c r="B127" s="2" t="inlineStr">
@@ -11605,7 +11605,7 @@
     <row r="143" ht="130" customHeight="1">
       <c r="A143" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B143" s="2" t="inlineStr">
@@ -11685,7 +11685,7 @@
     <row r="144" ht="130" customHeight="1">
       <c r="A144" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-3 (1),AU-12 a,AU-12 c</t>
+          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1)</t>
         </is>
       </c>
       <c r="B144" s="2" t="inlineStr">
@@ -11765,7 +11765,7 @@
     <row r="145" ht="130" customHeight="1">
       <c r="A145" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-3 (1),AU-12 a,AU-12 c</t>
+          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1)</t>
         </is>
       </c>
       <c r="B145" s="2" t="inlineStr">
@@ -11845,7 +11845,7 @@
     <row r="146" ht="130" customHeight="1">
       <c r="A146" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-3 (1),AU-12 a,AU-12 c</t>
+          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1)</t>
         </is>
       </c>
       <c r="B146" s="2" t="inlineStr">
@@ -12157,7 +12157,7 @@
     <row r="150" ht="130" customHeight="1">
       <c r="A150" s="2" t="inlineStr">
         <is>
-          <t>IA-5 (1) (c),IA-7</t>
+          <t>IA-7,IA-5 (1) (c)</t>
         </is>
       </c>
       <c r="B150" s="2" t="inlineStr">
@@ -12941,7 +12941,7 @@
     <row r="160" ht="130" customHeight="1">
       <c r="A160" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-3 (1),AU-12 a,AU-12 c</t>
+          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1)</t>
         </is>
       </c>
       <c r="B160" s="2" t="inlineStr">
@@ -13018,7 +13018,7 @@
     <row r="161" ht="130" customHeight="1">
       <c r="A161" s="2" t="inlineStr">
         <is>
-          <t>AU-12 a,AU-12 c,AU-3,MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a</t>
         </is>
       </c>
       <c r="B161" s="2" t="inlineStr">
@@ -13091,7 +13091,7 @@
     <row r="162" ht="130" customHeight="1">
       <c r="A162" s="2" t="inlineStr">
         <is>
-          <t>AU-12 a,AU-12 c,AU-3,MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a</t>
         </is>
       </c>
       <c r="B162" s="2" t="inlineStr">
@@ -13164,7 +13164,7 @@
     <row r="163" ht="130" customHeight="1">
       <c r="A163" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-3 (1),AU-12 a,AU-12 c</t>
+          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1)</t>
         </is>
       </c>
       <c r="B163" s="2" t="inlineStr">
@@ -13249,7 +13249,7 @@
     <row r="164" ht="130" customHeight="1">
       <c r="A164" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-3 (1),AU-12 a,AU-12 c</t>
+          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1)</t>
         </is>
       </c>
       <c r="B164" s="2" t="inlineStr">
@@ -13324,7 +13324,7 @@
     <row r="165" ht="130" customHeight="1">
       <c r="A165" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-3 (1),AU-12 a,AU-12 c</t>
+          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1)</t>
         </is>
       </c>
       <c r="B165" s="2" t="inlineStr">
@@ -13399,7 +13399,7 @@
     <row r="166" ht="130" customHeight="1">
       <c r="A166" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-3 (1),AU-12 a,AU-12 c</t>
+          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1)</t>
         </is>
       </c>
       <c r="B166" s="2" t="inlineStr">
@@ -13474,7 +13474,7 @@
     <row r="167" ht="130" customHeight="1">
       <c r="A167" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-3 (1),AU-12 a,AU-12 c</t>
+          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1)</t>
         </is>
       </c>
       <c r="B167" s="2" t="inlineStr">
@@ -13549,7 +13549,7 @@
     <row r="168" ht="130" customHeight="1">
       <c r="A168" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B168" s="2" t="inlineStr">
@@ -13620,7 +13620,7 @@
     <row r="169" ht="130" customHeight="1">
       <c r="A169" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B169" s="2" t="inlineStr">
@@ -13691,7 +13691,7 @@
     <row r="170" ht="130" customHeight="1">
       <c r="A170" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B170" s="2" t="inlineStr">
@@ -13763,7 +13763,7 @@
     <row r="171" ht="130" customHeight="1">
       <c r="A171" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B171" s="2" t="inlineStr">
@@ -13834,7 +13834,7 @@
     <row r="172" ht="130" customHeight="1">
       <c r="A172" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B172" s="2" t="inlineStr">
@@ -13905,7 +13905,7 @@
     <row r="173" ht="130" customHeight="1">
       <c r="A173" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B173" s="2" t="inlineStr">
@@ -13977,7 +13977,7 @@
     <row r="174" ht="130" customHeight="1">
       <c r="A174" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-3 (1),AU-12 a,AU-12 c</t>
+          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1)</t>
         </is>
       </c>
       <c r="B174" s="2" t="inlineStr">
@@ -14052,7 +14052,7 @@
     <row r="175" ht="130" customHeight="1">
       <c r="A175" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B175" s="2" t="inlineStr">
@@ -14123,7 +14123,7 @@
     <row r="176" ht="130" customHeight="1">
       <c r="A176" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B176" s="2" t="inlineStr">
@@ -14194,7 +14194,7 @@
     <row r="177" ht="130" customHeight="1">
       <c r="A177" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B177" s="2" t="inlineStr">
@@ -14266,7 +14266,7 @@
     <row r="178" ht="130" customHeight="1">
       <c r="A178" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-3 (1),AU-12 a,AU-12 c</t>
+          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1)</t>
         </is>
       </c>
       <c r="B178" s="2" t="inlineStr">
@@ -14341,7 +14341,7 @@
     <row r="179" ht="130" customHeight="1">
       <c r="A179" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-3 (1),AU-12 a,AU-12 c</t>
+          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1)</t>
         </is>
       </c>
       <c r="B179" s="2" t="inlineStr">
@@ -14423,7 +14423,7 @@
     <row r="180" ht="130" customHeight="1">
       <c r="A180" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-3 (1),AU-12 a,AU-12 c</t>
+          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1)</t>
         </is>
       </c>
       <c r="B180" s="2" t="inlineStr">
@@ -14505,7 +14505,7 @@
     <row r="181" ht="130" customHeight="1">
       <c r="A181" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-3 (1),AU-12 a,AU-12 c</t>
+          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1)</t>
         </is>
       </c>
       <c r="B181" s="2" t="inlineStr">
@@ -14587,7 +14587,7 @@
     <row r="182" ht="130" customHeight="1">
       <c r="A182" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-3 (1),AU-3</t>
         </is>
       </c>
       <c r="B182" s="2" t="inlineStr">
@@ -14669,7 +14669,7 @@
     <row r="183" ht="130" customHeight="1">
       <c r="A183" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-3 (1),AU-12 a,AU-12 c</t>
+          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1)</t>
         </is>
       </c>
       <c r="B183" s="2" t="inlineStr">
@@ -14751,7 +14751,7 @@
     <row r="184" ht="130" customHeight="1">
       <c r="A184" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-3 (1),AU-12 a,AU-12 c</t>
+          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1)</t>
         </is>
       </c>
       <c r="B184" s="2" t="inlineStr">
@@ -14833,7 +14833,7 @@
     <row r="185" ht="130" customHeight="1">
       <c r="A185" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-3 (1),AU-12 a,AU-12 c</t>
+          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1)</t>
         </is>
       </c>
       <c r="B185" s="2" t="inlineStr">
@@ -14915,7 +14915,7 @@
     <row r="186" ht="130" customHeight="1">
       <c r="A186" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-3 (1),AU-12 a,AU-12 c</t>
+          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1)</t>
         </is>
       </c>
       <c r="B186" s="2" t="inlineStr">
@@ -14997,7 +14997,7 @@
     <row r="187" ht="130" customHeight="1">
       <c r="A187" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-3 (1),AU-12 a,AU-12 c</t>
+          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1)</t>
         </is>
       </c>
       <c r="B187" s="2" t="inlineStr">
@@ -15079,7 +15079,7 @@
     <row r="188" ht="130" customHeight="1">
       <c r="A188" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-3 (1),MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-3 (1),AU-12 c</t>
         </is>
       </c>
       <c r="B188" s="2" t="inlineStr">
@@ -15157,7 +15157,7 @@
     <row r="189" ht="130" customHeight="1">
       <c r="A189" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-3 (1),AU-12 a,AU-12 c</t>
+          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1)</t>
         </is>
       </c>
       <c r="B189" s="2" t="inlineStr">
@@ -15236,7 +15236,7 @@
     <row r="190" ht="130" customHeight="1">
       <c r="A190" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-3 (1),AU-12 a,AU-12 c</t>
+          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1)</t>
         </is>
       </c>
       <c r="B190" s="2" t="inlineStr">
@@ -15318,7 +15318,7 @@
     <row r="191" ht="130" customHeight="1">
       <c r="A191" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-3 (1),AU-12 a,AU-12 c</t>
+          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1)</t>
         </is>
       </c>
       <c r="B191" s="2" t="inlineStr">
@@ -15400,7 +15400,7 @@
     <row r="192" ht="130" customHeight="1">
       <c r="A192" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-3 (1),AU-3,MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-3 (1),AU-3,AU-12 c</t>
         </is>
       </c>
       <c r="B192" s="2" t="inlineStr">
@@ -15482,7 +15482,7 @@
     <row r="193" ht="130" customHeight="1">
       <c r="A193" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-3 (1),AU-12 a,AU-12 c</t>
+          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1)</t>
         </is>
       </c>
       <c r="B193" s="2" t="inlineStr">
@@ -15564,7 +15564,7 @@
     <row r="194" ht="130" customHeight="1">
       <c r="A194" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-3 (1),AU-12 a,AU-12 c</t>
+          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1)</t>
         </is>
       </c>
       <c r="B194" s="2" t="inlineStr">
@@ -15646,7 +15646,7 @@
     <row r="195" ht="130" customHeight="1">
       <c r="A195" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-3 (1),AU-12 a,AU-12 c</t>
+          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1)</t>
         </is>
       </c>
       <c r="B195" s="2" t="inlineStr">
@@ -15728,7 +15728,7 @@
     <row r="196" ht="130" customHeight="1">
       <c r="A196" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-3 (1),AU-12 a,AU-12 c</t>
+          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1)</t>
         </is>
       </c>
       <c r="B196" s="2" t="inlineStr">
@@ -15803,7 +15803,7 @@
     <row r="197" ht="130" customHeight="1">
       <c r="A197" s="2" t="inlineStr">
         <is>
-          <t>AC-2 (4),AU-3,MA-4 (1) (a),AU-3 (1),AU-12 a,AU-12 c</t>
+          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1),AC-2 (4)</t>
         </is>
       </c>
       <c r="B197" s="2" t="inlineStr">
@@ -15876,7 +15876,7 @@
     <row r="198" ht="130" customHeight="1">
       <c r="A198" s="2" t="inlineStr">
         <is>
-          <t>AC-2 (4),AU-3,MA-4 (1) (a),AU-3 (1),AU-12 c</t>
+          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-3 (1),AC-2 (4)</t>
         </is>
       </c>
       <c r="B198" s="2" t="inlineStr">
@@ -15953,7 +15953,7 @@
     <row r="199" ht="130" customHeight="1">
       <c r="A199" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (3),IA-2 (1),IA-2 (4),IA-2 (2)</t>
+          <t>IA-2 (1),IA-2 (4),IA-2 (3),IA-2 (2)</t>
         </is>
       </c>
       <c r="B199" s="2" t="inlineStr">
@@ -16040,7 +16040,7 @@
     <row r="200" ht="130" customHeight="1">
       <c r="A200" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (3),IA-2 (4),IA-2,IA-2 (2),IA-2 (5)</t>
+          <t>IA-2 (5),IA-2 (4),IA-2 (3),IA-2 (2),IA-2</t>
         </is>
       </c>
       <c r="B200" s="2" t="inlineStr">
@@ -16129,7 +16129,7 @@
     <row r="201" ht="130" customHeight="1">
       <c r="A201" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (3),IA-2 (4),IA-2,IA-2 (2),IA-2 (5)</t>
+          <t>IA-2 (5),IA-2 (4),IA-2 (3),IA-2 (2),IA-2</t>
         </is>
       </c>
       <c r="B201" s="2" t="inlineStr">
@@ -16274,12 +16274,18 @@
  $ sudo grep -i "FAIL_DELAY" /etc/login.defs 
 All output must show the value of "FAIL_DELAY" set as shown in the below:
  $ sudo grep -i "FAIL_DELAY" /etc/login.defs
-FAIL_DELAY  
+FAIL_DELAY 4 
 If the above command returns no output, or FAIL_DELAY is configured less than the expected value then this is a finding.</t>
         </is>
       </c>
       <c r="L202" s="2" t="n"/>
-      <c r="M202" s="2" t="inlineStr"/>
+      <c r="M202" s="2" t="inlineStr">
+        <is>
+          <t>Configure the Red Hat Enterprise Linux 9 to enforce a delay of at least 4 seconds between logon prompts following a failed console logon attempt.
+Modify the "/etc/login.defs" file to set the "FAIL_DELAY" parameter to 4 or greater:
+FAIL_DELAY 4</t>
+        </is>
+      </c>
       <c r="N202" s="2" t="inlineStr">
         <is>
           <t>CAT II</t>
@@ -16809,7 +16815,7 @@
     <row r="210" ht="130" customHeight="1">
       <c r="A210" s="2" t="inlineStr">
         <is>
-          <t>SC-8 (2),SC-8,SC-8 (1)</t>
+          <t>SC-8 (1),SC-8 (2),SC-8</t>
         </is>
       </c>
       <c r="B210" s="2" t="inlineStr">
@@ -16886,7 +16892,7 @@
     <row r="211" ht="130" customHeight="1">
       <c r="A211" s="2" t="inlineStr">
         <is>
-          <t>SC-8 (2),SC-8,SC-8 (1)</t>
+          <t>SC-8 (1),SC-8 (2),SC-8</t>
         </is>
       </c>
       <c r="B211" s="2" t="inlineStr">
@@ -16972,7 +16978,7 @@
     <row r="212" ht="130" customHeight="1">
       <c r="A212" s="2" t="inlineStr">
         <is>
-          <t>SC-8,SC-8 (1),AC-18 (1)</t>
+          <t>SC-8 (1),AC-18 (1),SC-8</t>
         </is>
       </c>
       <c r="B212" s="2" t="inlineStr">
@@ -17132,7 +17138,7 @@
     <row r="214" ht="130" customHeight="1">
       <c r="A214" s="2" t="inlineStr">
         <is>
-          <t>SC-10,AC-11 a</t>
+          <t>AC-11 a,SC-10</t>
         </is>
       </c>
       <c r="B214" s="2" t="inlineStr">
@@ -17986,7 +17992,7 @@
     <row r="225" ht="130" customHeight="1">
       <c r="A225" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,SC-5,SC-5 (2)</t>
+          <t>CM-6 b,SC-5 (2),SC-5</t>
         </is>
       </c>
       <c r="B225" s="2" t="inlineStr">
@@ -18166,7 +18172,7 @@
     <row r="227" ht="130" customHeight="1">
       <c r="A227" s="2" t="inlineStr">
         <is>
-          <t>SI-16,CM-7 a</t>
+          <t>CM-7 a,SI-16</t>
         </is>
       </c>
       <c r="B227" s="2" t="inlineStr">
@@ -18258,7 +18264,7 @@
     <row r="228" ht="130" customHeight="1">
       <c r="A228" s="2" t="inlineStr">
         <is>
-          <t>SI-16,CM-6 b</t>
+          <t>CM-6 b,SI-16</t>
         </is>
       </c>
       <c r="B228" s="2" t="inlineStr">
@@ -18356,7 +18362,7 @@
     <row r="229" ht="130" customHeight="1">
       <c r="A229" s="2" t="inlineStr">
         <is>
-          <t>IA-2,IA-8,AU-3 (1)</t>
+          <t>IA-8,AU-3 (1),IA-2</t>
         </is>
       </c>
       <c r="B229" s="2" t="inlineStr">
@@ -19330,7 +19336,7 @@
     <row r="241" ht="130" customHeight="1">
       <c r="A241" s="2" t="inlineStr">
         <is>
-          <t>SI-16,CM-6 b,SC-2</t>
+          <t>CM-6 b,SI-16,SC-2</t>
         </is>
       </c>
       <c r="B241" s="2" t="inlineStr">
@@ -19490,7 +19496,7 @@
     <row r="243" ht="130" customHeight="1">
       <c r="A243" s="2" t="inlineStr">
         <is>
-          <t>SI-16,SC-3</t>
+          <t>SC-3,SI-16</t>
         </is>
       </c>
       <c r="B243" s="2" t="inlineStr">
@@ -20188,7 +20194,7 @@
     <row r="252" ht="130" customHeight="1">
       <c r="A252" s="2" t="inlineStr">
         <is>
-          <t>IA-5 (1) (a),CM-6 b,IA-5 (1) (b)</t>
+          <t>CM-6 b,IA-5 (1) (a),IA-5 (1) (b)</t>
         </is>
       </c>
       <c r="B252" s="2" t="inlineStr">
@@ -21012,7 +21018,7 @@
     <row r="262" ht="130" customHeight="1">
       <c r="A262" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (1),IA-2 (11)</t>
+          <t>IA-2 (11),IA-2 (1)</t>
         </is>
       </c>
       <c r="B262" s="2" t="inlineStr">
@@ -21101,7 +21107,7 @@
     <row r="263" ht="130" customHeight="1">
       <c r="A263" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (12),IA-2 (11)</t>
+          <t>IA-2 (11),IA-2 (12)</t>
         </is>
       </c>
       <c r="B263" s="2" t="inlineStr">
@@ -21426,7 +21432,7 @@
     <row r="267" ht="130" customHeight="1">
       <c r="A267" s="2" t="inlineStr">
         <is>
-          <t>SI-6 a,SC-3</t>
+          <t>SC-3,SI-6 a</t>
         </is>
       </c>
       <c r="B267" s="2" t="inlineStr">
@@ -21508,7 +21514,7 @@
     <row r="268" ht="130" customHeight="1">
       <c r="A268" s="2" t="inlineStr">
         <is>
-          <t>AC-6 (9),AU-7 b,AU-12 (3),AU-7 a,CM-5 (1),AC-6 (8),AU-8 b</t>
+          <t>AC-6 (8),AU-7 a,AC-6 (9),AU-7 b,AU-8 b,CM-5 (1),AU-12 (3)</t>
         </is>
       </c>
       <c r="B268" s="2" t="inlineStr">
@@ -22700,7 +22706,7 @@
     <row r="283" ht="130" customHeight="1">
       <c r="A283" s="2" t="inlineStr">
         <is>
-          <t>IA-5 (1) (a),CM-6 b</t>
+          <t>CM-6 b,IA-5 (1) (a)</t>
         </is>
       </c>
       <c r="B283" s="2" t="inlineStr">
@@ -23002,7 +23008,7 @@
     <row r="287" ht="130" customHeight="1">
       <c r="A287" s="2" t="inlineStr">
         <is>
-          <t>CM-7 b,CM-7 a</t>
+          <t>CM-7 a,CM-7 b</t>
         </is>
       </c>
       <c r="B287" s="2" t="inlineStr">
@@ -23076,7 +23082,7 @@
     <row r="288" ht="130" customHeight="1">
       <c r="A288" s="2" t="inlineStr">
         <is>
-          <t>CM-7 b,CM-7 a</t>
+          <t>CM-7 a,CM-7 b</t>
         </is>
       </c>
       <c r="B288" s="2" t="inlineStr">
@@ -30967,7 +30973,7 @@
     <row r="392" ht="130" customHeight="1">
       <c r="A392" s="2" t="inlineStr">
         <is>
-          <t>CM-7 b,CM-6 b,AC-17 (1),AC-17 (9)</t>
+          <t>CM-6 b,AC-17 (9),CM-7 b,AC-17 (1)</t>
         </is>
       </c>
       <c r="B392" s="2" t="inlineStr">
@@ -31045,7 +31051,7 @@
     <row r="393" ht="130" customHeight="1">
       <c r="A393" s="2" t="inlineStr">
         <is>
-          <t>CM-7 b,CM-6 b,AC-17 (1)</t>
+          <t>CM-6 b,CM-7 b,AC-17 (1)</t>
         </is>
       </c>
       <c r="B393" s="2" t="inlineStr">
@@ -35361,7 +35367,7 @@
     <row r="445" ht="130" customHeight="1">
       <c r="A445" s="2" t="inlineStr">
         <is>
-          <t>AU-4,CM-6 b</t>
+          <t>CM-6 b,AU-4</t>
         </is>
       </c>
       <c r="B445" s="2" t="inlineStr">
@@ -37058,7 +37064,7 @@
     <row r="468" ht="130" customHeight="1">
       <c r="A468" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (7),MA-4 e,AC-12,SC-10</t>
+          <t>AC-12,SC-10,MA-4 (7),MA-4 e</t>
         </is>
       </c>
       <c r="B468" s="2" t="inlineStr">
@@ -37288,7 +37294,7 @@
     <row r="471" ht="130" customHeight="1">
       <c r="A471" s="2" t="inlineStr">
         <is>
-          <t>SC-8,AC-17 (2)</t>
+          <t>AC-17 (2),SC-8</t>
         </is>
       </c>
       <c r="B471" s="2" t="inlineStr">
@@ -39890,7 +39896,7 @@
     <row r="505" ht="130" customHeight="1">
       <c r="A505" s="2" t="inlineStr">
         <is>
-          <t>AU-4 (1),AU-4</t>
+          <t>AU-4,AU-4 (1)</t>
         </is>
       </c>
       <c r="B505" s="2" t="inlineStr">

--- a/srg_mapping/srg-mapping-rhel9.xlsx
+++ b/srg_mapping/srg-mapping-rhel9.xlsx
@@ -541,7 +541,7 @@
     <row r="2" ht="130" customHeight="1">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>AC-7 b,AC-7 a</t>
+          <t>AC-7 a,AC-7 b</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -625,7 +625,7 @@
     <row r="3" ht="130" customHeight="1">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>AC-7 b,AC-7 a</t>
+          <t>AC-7 a,AC-7 b</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="4" ht="130" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>AC-7 b,AC-7 a</t>
+          <t>AC-7 a,AC-7 b</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
@@ -782,7 +782,7 @@
     <row r="5" ht="130" customHeight="1">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>AC-7 b,AC-7 a</t>
+          <t>AC-7 a,AC-7 b</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
@@ -964,7 +964,7 @@
     <row r="7" ht="130" customHeight="1">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>AU-5 b,AU-5 a</t>
+          <t>AU-5 a,AU-5 b</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
@@ -1446,7 +1446,7 @@
     <row r="13" ht="130" customHeight="1">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>AU-7 (1),AU-7 a,CM-6 b,MA-4 (1) (a),AU-14 (1),AU-6 (4),AU-3,AU-12 a,CM-5 (1),AU-3 (1)</t>
+          <t>CM-5 (1),AU-3,AU-7 (1),AU-3 (1),CM-6 b,AU-6 (4),MA-4 (1) (a),AU-7 a,AU-12 a,AU-14 (1)</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
@@ -1531,7 +1531,7 @@
     <row r="14" ht="130" customHeight="1">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>CM-7 (2),CM-7 (5) (b)</t>
+          <t>CM-7 (5) (b),CM-7 (2)</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
@@ -1607,7 +1607,7 @@
     <row r="15" ht="130" customHeight="1">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>CM-7 (2),CM-7 (5) (b)</t>
+          <t>CM-7 (5) (b),CM-7 (2)</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
@@ -3249,7 +3249,7 @@
     <row r="37" ht="130" customHeight="1">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c,AU-14 (1),AU-3,AU-12 a,AU-3 (1)</t>
+          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a,AU-14 (1)</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
@@ -3782,7 +3782,7 @@
     <row r="44" ht="130" customHeight="1">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-4 (1)</t>
+          <t>AU-4 (1),AU-3</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
@@ -4161,7 +4161,7 @@
     <row r="49" ht="130" customHeight="1">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,AU-6 (4),AU-4 (1)</t>
+          <t>AU-4 (1),AU-6 (4),CM-6 b</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
@@ -4231,7 +4231,7 @@
     <row r="50" ht="130" customHeight="1">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,AU-4 (1)</t>
+          <t>AU-4 (1),CM-6 b</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
@@ -4311,7 +4311,7 @@
     <row r="51" ht="130" customHeight="1">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>AU-8 (1) (b),AU-8 b,AU-8 (1) (a)</t>
+          <t>AU-8 (1) (a),AU-8 b,AU-8 (1) (b)</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
@@ -4552,7 +4552,7 @@
     <row r="54" ht="130" customHeight="1">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (11),IA-2 (1),IA-2 (12)</t>
+          <t>IA-2 (11),IA-2 (12),IA-2 (1)</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
@@ -4636,7 +4636,7 @@
     <row r="55" ht="130" customHeight="1">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>CM-3 (5),SI-6 b,SI-6 d</t>
+          <t>SI-6 d,SI-6 b,CM-3 (5)</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
@@ -4728,7 +4728,7 @@
     <row r="56" ht="130" customHeight="1">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>CM-3 (5),SI-6 d</t>
+          <t>SI-6 d,CM-3 (5)</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
@@ -4812,7 +4812,7 @@
     <row r="57" ht="130" customHeight="1">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1)</t>
+          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
@@ -4887,7 +4887,7 @@
     <row r="58" ht="130" customHeight="1">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1)</t>
+          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
@@ -4962,7 +4962,7 @@
     <row r="59" ht="130" customHeight="1">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1)</t>
+          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
@@ -5037,7 +5037,7 @@
     <row r="60" ht="130" customHeight="1">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1)</t>
+          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
@@ -5112,7 +5112,7 @@
     <row r="61" ht="130" customHeight="1">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1)</t>
+          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
@@ -5187,7 +5187,7 @@
     <row r="62" ht="130" customHeight="1">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1)</t>
+          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
@@ -5262,7 +5262,7 @@
     <row r="63" ht="130" customHeight="1">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1)</t>
+          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
@@ -5337,7 +5337,7 @@
     <row r="64" ht="130" customHeight="1">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1)</t>
+          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
@@ -5412,7 +5412,7 @@
     <row r="65" ht="130" customHeight="1">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1)</t>
+          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
@@ -5487,7 +5487,7 @@
     <row r="66" ht="130" customHeight="1">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>AU-7 a,CM-6 b,AU-12 c,AU-7 b,AU-8 b,AU-12 a,CM-5 (1),AU-12 (3)</t>
+          <t>CM-5 (1),AU-12 (3),CM-6 b,AU-12 c,AU-7 a,AU-7 b,AU-12 a,AU-8 b</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
@@ -5561,7 +5561,7 @@
     <row r="67" ht="130" customHeight="1">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1),AC-2 (4)</t>
+          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a,AC-2 (4)</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
@@ -5642,7 +5642,7 @@
     <row r="68" ht="130" customHeight="1">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1),AC-2 (4)</t>
+          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a,AC-2 (4)</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
@@ -5723,7 +5723,7 @@
     <row r="69" ht="130" customHeight="1">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1),AC-2 (4)</t>
+          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a,AC-2 (4)</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
@@ -5805,7 +5805,7 @@
     <row r="70" ht="130" customHeight="1">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1),AC-2 (4)</t>
+          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a,AC-2 (4)</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
@@ -5887,7 +5887,7 @@
     <row r="71" ht="130" customHeight="1">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1),AC-2 (4)</t>
+          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a,AC-2 (4)</t>
         </is>
       </c>
       <c r="B71" s="2" t="inlineStr">
@@ -5969,7 +5969,7 @@
     <row r="72" ht="130" customHeight="1">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1),AC-2 (4)</t>
+          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a,AC-2 (4)</t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
@@ -6051,7 +6051,7 @@
     <row r="73" ht="130" customHeight="1">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1),AC-2 (4)</t>
+          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a,AC-2 (4)</t>
         </is>
       </c>
       <c r="B73" s="2" t="inlineStr">
@@ -6207,7 +6207,7 @@
     <row r="75" ht="130" customHeight="1">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>AU-9,SI-11 b</t>
+          <t>SI-11 b,AU-9</t>
         </is>
       </c>
       <c r="B75" s="2" t="inlineStr">
@@ -6290,7 +6290,7 @@
     <row r="76" ht="130" customHeight="1">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>AU-9,SI-11 b</t>
+          <t>SI-11 b,AU-9</t>
         </is>
       </c>
       <c r="B76" s="2" t="inlineStr">
@@ -6368,7 +6368,7 @@
     <row r="77" ht="130" customHeight="1">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>AU-9,SI-11 b</t>
+          <t>SI-11 b,AU-9</t>
         </is>
       </c>
       <c r="B77" s="2" t="inlineStr">
@@ -6459,7 +6459,7 @@
     <row r="78" ht="130" customHeight="1">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>AU-9,SI-11 b</t>
+          <t>SI-11 b,AU-9</t>
         </is>
       </c>
       <c r="B78" s="2" t="inlineStr">
@@ -6541,7 +6541,7 @@
     <row r="79" ht="130" customHeight="1">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>AU-9,SI-11 b</t>
+          <t>SI-11 b,AU-9</t>
         </is>
       </c>
       <c r="B79" s="2" t="inlineStr">
@@ -7171,7 +7171,7 @@
     <row r="87" ht="130" customHeight="1">
       <c r="A87" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1)</t>
+          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a</t>
         </is>
       </c>
       <c r="B87" s="2" t="inlineStr">
@@ -7245,7 +7245,7 @@
     <row r="88" ht="130" customHeight="1">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1)</t>
+          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a</t>
         </is>
       </c>
       <c r="B88" s="2" t="inlineStr">
@@ -7319,7 +7319,7 @@
     <row r="89" ht="130" customHeight="1">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1)</t>
+          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a</t>
         </is>
       </c>
       <c r="B89" s="2" t="inlineStr">
@@ -7393,7 +7393,7 @@
     <row r="90" ht="130" customHeight="1">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1)</t>
+          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a</t>
         </is>
       </c>
       <c r="B90" s="2" t="inlineStr">
@@ -7558,7 +7558,7 @@
     <row r="92" ht="130" customHeight="1">
       <c r="A92" s="2" t="inlineStr">
         <is>
-          <t>AC-17 (2),MA-4 (6)</t>
+          <t>MA-4 (6),AC-17 (2)</t>
         </is>
       </c>
       <c r="B92" s="2" t="inlineStr">
@@ -7817,7 +7817,7 @@
     <row r="95" ht="130" customHeight="1">
       <c r="A95" s="2" t="inlineStr">
         <is>
-          <t>AU-9,AU-9 (3)</t>
+          <t>AU-9 (3),AU-9</t>
         </is>
       </c>
       <c r="B95" s="2" t="inlineStr">
@@ -7893,7 +7893,7 @@
     <row r="96" ht="130" customHeight="1">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>AU-9,AU-9 (3)</t>
+          <t>AU-9 (3),AU-9</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
@@ -7969,7 +7969,7 @@
     <row r="97" ht="130" customHeight="1">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1)</t>
+          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a</t>
         </is>
       </c>
       <c r="B97" s="2" t="inlineStr">
@@ -8044,7 +8044,7 @@
     <row r="98" ht="130" customHeight="1">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1)</t>
+          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a</t>
         </is>
       </c>
       <c r="B98" s="2" t="inlineStr">
@@ -8119,7 +8119,7 @@
     <row r="99" ht="130" customHeight="1">
       <c r="A99" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1)</t>
+          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a</t>
         </is>
       </c>
       <c r="B99" s="2" t="inlineStr">
@@ -8194,7 +8194,7 @@
     <row r="100" ht="130" customHeight="1">
       <c r="A100" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1)</t>
+          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a</t>
         </is>
       </c>
       <c r="B100" s="2" t="inlineStr">
@@ -8274,7 +8274,7 @@
     <row r="101" ht="130" customHeight="1">
       <c r="A101" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1)</t>
+          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a</t>
         </is>
       </c>
       <c r="B101" s="2" t="inlineStr">
@@ -8348,7 +8348,7 @@
     <row r="102" ht="130" customHeight="1">
       <c r="A102" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1)</t>
+          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a</t>
         </is>
       </c>
       <c r="B102" s="2" t="inlineStr">
@@ -8422,7 +8422,7 @@
     <row r="103" ht="130" customHeight="1">
       <c r="A103" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1)</t>
+          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a</t>
         </is>
       </c>
       <c r="B103" s="2" t="inlineStr">
@@ -8496,7 +8496,7 @@
     <row r="104" ht="130" customHeight="1">
       <c r="A104" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1)</t>
+          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a</t>
         </is>
       </c>
       <c r="B104" s="2" t="inlineStr">
@@ -8570,7 +8570,7 @@
     <row r="105" ht="130" customHeight="1">
       <c r="A105" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1)</t>
+          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a</t>
         </is>
       </c>
       <c r="B105" s="2" t="inlineStr">
@@ -8644,7 +8644,7 @@
     <row r="106" ht="130" customHeight="1">
       <c r="A106" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1)</t>
+          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a</t>
         </is>
       </c>
       <c r="B106" s="2" t="inlineStr">
@@ -8724,7 +8724,7 @@
     <row r="107" ht="130" customHeight="1">
       <c r="A107" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1)</t>
+          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a</t>
         </is>
       </c>
       <c r="B107" s="2" t="inlineStr">
@@ -8804,7 +8804,7 @@
     <row r="108" ht="130" customHeight="1">
       <c r="A108" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1)</t>
+          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a</t>
         </is>
       </c>
       <c r="B108" s="2" t="inlineStr">
@@ -9134,7 +9134,7 @@
     <row r="112" ht="130" customHeight="1">
       <c r="A112" s="2" t="inlineStr">
         <is>
-          <t>AC-11 a,AC-11 b</t>
+          <t>AC-11 b,AC-11 a</t>
         </is>
       </c>
       <c r="B112" s="2" t="inlineStr">
@@ -9213,7 +9213,7 @@
     <row r="113" ht="130" customHeight="1">
       <c r="A113" s="2" t="inlineStr">
         <is>
-          <t>AC-11 a,AC-11 b</t>
+          <t>AC-11 b,AC-11 a</t>
         </is>
       </c>
       <c r="B113" s="2" t="inlineStr">
@@ -9297,7 +9297,7 @@
     <row r="114" ht="130" customHeight="1">
       <c r="A114" s="2" t="inlineStr">
         <is>
-          <t>AC-11 a,AC-11 b</t>
+          <t>AC-11 b,AC-11 a</t>
         </is>
       </c>
       <c r="B114" s="2" t="inlineStr">
@@ -9553,7 +9553,7 @@
     <row r="117" ht="130" customHeight="1">
       <c r="A117" s="2" t="inlineStr">
         <is>
-          <t>MA-4 c,AC-17 (2),SC-8,SC-13</t>
+          <t>MA-4 c,SC-13,SC-8,AC-17 (2)</t>
         </is>
       </c>
       <c r="B117" s="2" t="inlineStr">
@@ -9713,7 +9713,7 @@
     <row r="119" ht="130" customHeight="1">
       <c r="A119" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1)</t>
+          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a</t>
         </is>
       </c>
       <c r="B119" s="2" t="inlineStr">
@@ -9869,7 +9869,7 @@
     <row r="121" ht="130" customHeight="1">
       <c r="A121" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1)</t>
+          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a</t>
         </is>
       </c>
       <c r="B121" s="2" t="inlineStr">
@@ -10225,7 +10225,7 @@
     <row r="126" ht="130" customHeight="1">
       <c r="A126" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1)</t>
+          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a</t>
         </is>
       </c>
       <c r="B126" s="2" t="inlineStr">
@@ -10305,7 +10305,7 @@
     <row r="127" ht="130" customHeight="1">
       <c r="A127" s="2" t="inlineStr">
         <is>
-          <t>SC-28 (1),SC-28</t>
+          <t>SC-28,SC-28 (1)</t>
         </is>
       </c>
       <c r="B127" s="2" t="inlineStr">
@@ -11685,7 +11685,7 @@
     <row r="144" ht="130" customHeight="1">
       <c r="A144" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1)</t>
+          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a</t>
         </is>
       </c>
       <c r="B144" s="2" t="inlineStr">
@@ -11765,7 +11765,7 @@
     <row r="145" ht="130" customHeight="1">
       <c r="A145" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1)</t>
+          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a</t>
         </is>
       </c>
       <c r="B145" s="2" t="inlineStr">
@@ -11845,7 +11845,7 @@
     <row r="146" ht="130" customHeight="1">
       <c r="A146" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1)</t>
+          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a</t>
         </is>
       </c>
       <c r="B146" s="2" t="inlineStr">
@@ -12157,7 +12157,7 @@
     <row r="150" ht="130" customHeight="1">
       <c r="A150" s="2" t="inlineStr">
         <is>
-          <t>IA-7,IA-5 (1) (c)</t>
+          <t>IA-5 (1) (c),IA-7</t>
         </is>
       </c>
       <c r="B150" s="2" t="inlineStr">
@@ -12941,7 +12941,7 @@
     <row r="160" ht="130" customHeight="1">
       <c r="A160" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1)</t>
+          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a</t>
         </is>
       </c>
       <c r="B160" s="2" t="inlineStr">
@@ -13018,7 +13018,7 @@
     <row r="161" ht="130" customHeight="1">
       <c r="A161" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a</t>
+          <t>AU-12 c,AU-3,MA-4 (1) (a),AU-12 a</t>
         </is>
       </c>
       <c r="B161" s="2" t="inlineStr">
@@ -13091,7 +13091,7 @@
     <row r="162" ht="130" customHeight="1">
       <c r="A162" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a</t>
+          <t>AU-12 c,AU-3,MA-4 (1) (a),AU-12 a</t>
         </is>
       </c>
       <c r="B162" s="2" t="inlineStr">
@@ -13164,7 +13164,7 @@
     <row r="163" ht="130" customHeight="1">
       <c r="A163" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1)</t>
+          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a</t>
         </is>
       </c>
       <c r="B163" s="2" t="inlineStr">
@@ -13249,7 +13249,7 @@
     <row r="164" ht="130" customHeight="1">
       <c r="A164" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1)</t>
+          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a</t>
         </is>
       </c>
       <c r="B164" s="2" t="inlineStr">
@@ -13324,7 +13324,7 @@
     <row r="165" ht="130" customHeight="1">
       <c r="A165" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1)</t>
+          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a</t>
         </is>
       </c>
       <c r="B165" s="2" t="inlineStr">
@@ -13399,7 +13399,7 @@
     <row r="166" ht="130" customHeight="1">
       <c r="A166" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1)</t>
+          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a</t>
         </is>
       </c>
       <c r="B166" s="2" t="inlineStr">
@@ -13474,7 +13474,7 @@
     <row r="167" ht="130" customHeight="1">
       <c r="A167" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1)</t>
+          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a</t>
         </is>
       </c>
       <c r="B167" s="2" t="inlineStr">
@@ -13977,7 +13977,7 @@
     <row r="174" ht="130" customHeight="1">
       <c r="A174" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1)</t>
+          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a</t>
         </is>
       </c>
       <c r="B174" s="2" t="inlineStr">
@@ -14266,7 +14266,7 @@
     <row r="178" ht="130" customHeight="1">
       <c r="A178" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1)</t>
+          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a</t>
         </is>
       </c>
       <c r="B178" s="2" t="inlineStr">
@@ -14341,7 +14341,7 @@
     <row r="179" ht="130" customHeight="1">
       <c r="A179" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1)</t>
+          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a</t>
         </is>
       </c>
       <c r="B179" s="2" t="inlineStr">
@@ -14423,7 +14423,7 @@
     <row r="180" ht="130" customHeight="1">
       <c r="A180" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1)</t>
+          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a</t>
         </is>
       </c>
       <c r="B180" s="2" t="inlineStr">
@@ -14505,7 +14505,7 @@
     <row r="181" ht="130" customHeight="1">
       <c r="A181" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1)</t>
+          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a</t>
         </is>
       </c>
       <c r="B181" s="2" t="inlineStr">
@@ -14587,7 +14587,7 @@
     <row r="182" ht="130" customHeight="1">
       <c r="A182" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3 (1),AU-3</t>
+          <t>AU-3 (1),AU-3,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B182" s="2" t="inlineStr">
@@ -14669,7 +14669,7 @@
     <row r="183" ht="130" customHeight="1">
       <c r="A183" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1)</t>
+          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a</t>
         </is>
       </c>
       <c r="B183" s="2" t="inlineStr">
@@ -14751,7 +14751,7 @@
     <row r="184" ht="130" customHeight="1">
       <c r="A184" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1)</t>
+          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a</t>
         </is>
       </c>
       <c r="B184" s="2" t="inlineStr">
@@ -14833,7 +14833,7 @@
     <row r="185" ht="130" customHeight="1">
       <c r="A185" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1)</t>
+          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a</t>
         </is>
       </c>
       <c r="B185" s="2" t="inlineStr">
@@ -14915,7 +14915,7 @@
     <row r="186" ht="130" customHeight="1">
       <c r="A186" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1)</t>
+          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a</t>
         </is>
       </c>
       <c r="B186" s="2" t="inlineStr">
@@ -14997,7 +14997,7 @@
     <row r="187" ht="130" customHeight="1">
       <c r="A187" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1)</t>
+          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a</t>
         </is>
       </c>
       <c r="B187" s="2" t="inlineStr">
@@ -15079,7 +15079,7 @@
     <row r="188" ht="130" customHeight="1">
       <c r="A188" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3 (1),AU-12 c</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B188" s="2" t="inlineStr">
@@ -15157,7 +15157,7 @@
     <row r="189" ht="130" customHeight="1">
       <c r="A189" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1)</t>
+          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a</t>
         </is>
       </c>
       <c r="B189" s="2" t="inlineStr">
@@ -15236,7 +15236,7 @@
     <row r="190" ht="130" customHeight="1">
       <c r="A190" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1)</t>
+          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a</t>
         </is>
       </c>
       <c r="B190" s="2" t="inlineStr">
@@ -15318,7 +15318,7 @@
     <row r="191" ht="130" customHeight="1">
       <c r="A191" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1)</t>
+          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a</t>
         </is>
       </c>
       <c r="B191" s="2" t="inlineStr">
@@ -15400,7 +15400,7 @@
     <row r="192" ht="130" customHeight="1">
       <c r="A192" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3 (1),AU-3,AU-12 c</t>
+          <t>AU-3 (1),AU-12 c,AU-3,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B192" s="2" t="inlineStr">
@@ -15482,7 +15482,7 @@
     <row r="193" ht="130" customHeight="1">
       <c r="A193" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1)</t>
+          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a</t>
         </is>
       </c>
       <c r="B193" s="2" t="inlineStr">
@@ -15564,7 +15564,7 @@
     <row r="194" ht="130" customHeight="1">
       <c r="A194" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1)</t>
+          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a</t>
         </is>
       </c>
       <c r="B194" s="2" t="inlineStr">
@@ -15646,7 +15646,7 @@
     <row r="195" ht="130" customHeight="1">
       <c r="A195" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1)</t>
+          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a</t>
         </is>
       </c>
       <c r="B195" s="2" t="inlineStr">
@@ -15728,7 +15728,7 @@
     <row r="196" ht="130" customHeight="1">
       <c r="A196" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1)</t>
+          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a</t>
         </is>
       </c>
       <c r="B196" s="2" t="inlineStr">
@@ -15803,7 +15803,7 @@
     <row r="197" ht="130" customHeight="1">
       <c r="A197" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a,AU-3 (1),AC-2 (4)</t>
+          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a,AC-2 (4)</t>
         </is>
       </c>
       <c r="B197" s="2" t="inlineStr">
@@ -15876,7 +15876,7 @@
     <row r="198" ht="130" customHeight="1">
       <c r="A198" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-3 (1),AC-2 (4)</t>
+          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AC-2 (4)</t>
         </is>
       </c>
       <c r="B198" s="2" t="inlineStr">
@@ -15953,7 +15953,7 @@
     <row r="199" ht="130" customHeight="1">
       <c r="A199" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (1),IA-2 (4),IA-2 (3),IA-2 (2)</t>
+          <t>IA-2 (2),IA-2 (4),IA-2 (3),IA-2 (1)</t>
         </is>
       </c>
       <c r="B199" s="2" t="inlineStr">
@@ -16040,7 +16040,7 @@
     <row r="200" ht="130" customHeight="1">
       <c r="A200" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (5),IA-2 (4),IA-2 (3),IA-2 (2),IA-2</t>
+          <t>IA-2 (3),IA-2 (4),IA-2 (5),IA-2 (2),IA-2</t>
         </is>
       </c>
       <c r="B200" s="2" t="inlineStr">
@@ -16129,7 +16129,7 @@
     <row r="201" ht="130" customHeight="1">
       <c r="A201" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (5),IA-2 (4),IA-2 (3),IA-2 (2),IA-2</t>
+          <t>IA-2 (3),IA-2 (4),IA-2 (5),IA-2 (2),IA-2</t>
         </is>
       </c>
       <c r="B201" s="2" t="inlineStr">
@@ -16815,7 +16815,7 @@
     <row r="210" ht="130" customHeight="1">
       <c r="A210" s="2" t="inlineStr">
         <is>
-          <t>SC-8 (1),SC-8 (2),SC-8</t>
+          <t>SC-8,SC-8 (1),SC-8 (2)</t>
         </is>
       </c>
       <c r="B210" s="2" t="inlineStr">
@@ -16892,7 +16892,7 @@
     <row r="211" ht="130" customHeight="1">
       <c r="A211" s="2" t="inlineStr">
         <is>
-          <t>SC-8 (1),SC-8 (2),SC-8</t>
+          <t>SC-8,SC-8 (1),SC-8 (2)</t>
         </is>
       </c>
       <c r="B211" s="2" t="inlineStr">
@@ -16978,7 +16978,7 @@
     <row r="212" ht="130" customHeight="1">
       <c r="A212" s="2" t="inlineStr">
         <is>
-          <t>SC-8 (1),AC-18 (1),SC-8</t>
+          <t>SC-8,SC-8 (1),AC-18 (1)</t>
         </is>
       </c>
       <c r="B212" s="2" t="inlineStr">
@@ -17138,7 +17138,7 @@
     <row r="214" ht="130" customHeight="1">
       <c r="A214" s="2" t="inlineStr">
         <is>
-          <t>AC-11 a,SC-10</t>
+          <t>SC-10,AC-11 a</t>
         </is>
       </c>
       <c r="B214" s="2" t="inlineStr">
@@ -17746,7 +17746,7 @@
     <row r="222" ht="130" customHeight="1">
       <c r="A222" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,CM-7 a,IA-5 (1) (c)</t>
+          <t>IA-5 (1) (c),CM-6 b,CM-7 a</t>
         </is>
       </c>
       <c r="B222" s="2" t="inlineStr">
@@ -17992,7 +17992,7 @@
     <row r="225" ht="130" customHeight="1">
       <c r="A225" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,SC-5 (2),SC-5</t>
+          <t>SC-5 (2),CM-6 b,SC-5</t>
         </is>
       </c>
       <c r="B225" s="2" t="inlineStr">
@@ -19336,7 +19336,7 @@
     <row r="241" ht="130" customHeight="1">
       <c r="A241" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,SI-16,SC-2</t>
+          <t>CM-6 b,SC-2,SI-16</t>
         </is>
       </c>
       <c r="B241" s="2" t="inlineStr">
@@ -20254,7 +20254,7 @@
           <t>To verify if root user is required to use complex passwords, run the following command:
  $ grep enforce_for_root /etc/security/pwquality.conf 
 The output should return "enforce_for_root" uncommented.
-If enforce_for_root is not uncommented or configured correctly then this is a finding.</t>
+If enforce_for_root is commented or not configured correctly then this is a finding.</t>
         </is>
       </c>
       <c r="L252" s="2" t="n"/>
@@ -21514,7 +21514,7 @@
     <row r="268" ht="130" customHeight="1">
       <c r="A268" s="2" t="inlineStr">
         <is>
-          <t>AC-6 (8),AU-7 a,AC-6 (9),AU-7 b,AU-8 b,CM-5 (1),AU-12 (3)</t>
+          <t>CM-5 (1),AC-6 (9),AU-12 (3),AU-7 b,AU-7 a,AU-8 b,AC-6 (8)</t>
         </is>
       </c>
       <c r="B268" s="2" t="inlineStr">
@@ -21594,7 +21594,7 @@
     <row r="269" ht="130" customHeight="1">
       <c r="A269" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,IA-2 (5)</t>
+          <t>IA-2 (5),CM-6 b</t>
         </is>
       </c>
       <c r="B269" s="2" t="inlineStr">
@@ -22108,7 +22108,7 @@
     <row r="276" ht="130" customHeight="1">
       <c r="A276" s="2" t="inlineStr">
         <is>
-          <t>AU-9,AU-12 c</t>
+          <t>AU-12 c,AU-9</t>
         </is>
       </c>
       <c r="B276" s="2" t="inlineStr">
@@ -22860,7 +22860,7 @@
     <row r="285" ht="130" customHeight="1">
       <c r="A285" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,CM-7 a</t>
+          <t>CM-7 a,CM-6 b</t>
         </is>
       </c>
       <c r="B285" s="2" t="inlineStr">
@@ -23844,7 +23844,7 @@
     <row r="298" ht="130" customHeight="1">
       <c r="A298" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,CM-7 a</t>
+          <t>CM-7 a,CM-6 b</t>
         </is>
       </c>
       <c r="B298" s="2" t="inlineStr">
@@ -23915,7 +23915,7 @@
     <row r="299" ht="130" customHeight="1">
       <c r="A299" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,CM-7 a</t>
+          <t>CM-7 a,CM-6 b</t>
         </is>
       </c>
       <c r="B299" s="2" t="inlineStr">
@@ -23987,7 +23987,7 @@
     <row r="300" ht="130" customHeight="1">
       <c r="A300" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,CM-7 a</t>
+          <t>CM-7 a,CM-6 b</t>
         </is>
       </c>
       <c r="B300" s="2" t="inlineStr">
@@ -24145,7 +24145,7 @@
     <row r="302" ht="130" customHeight="1">
       <c r="A302" s="2" t="inlineStr">
         <is>
-          <t>AC-2 (4),AU-12 c,AC-6 (9)</t>
+          <t>AC-6 (9),AC-2 (4),AU-12 c</t>
         </is>
       </c>
       <c r="B302" s="2" t="inlineStr">
@@ -24362,7 +24362,7 @@
     <row r="304" ht="130" customHeight="1">
       <c r="A304" s="2" t="inlineStr">
         <is>
-          <t>AU-5 a,AU-5 (1)</t>
+          <t>AU-5 (1),AU-5 a</t>
         </is>
       </c>
       <c r="B304" s="2" t="inlineStr">
@@ -27724,7 +27724,7 @@
     <row r="349" ht="130" customHeight="1">
       <c r="A349" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,IA-5 (1) (c)</t>
+          <t>IA-5 (1) (c),CM-6 b</t>
         </is>
       </c>
       <c r="B349" s="2" t="inlineStr">
@@ -27874,7 +27874,7 @@
     <row r="351" ht="130" customHeight="1">
       <c r="A351" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,IA-2 (2)</t>
+          <t>IA-2 (2),CM-6 b</t>
         </is>
       </c>
       <c r="B351" s="2" t="inlineStr">
@@ -27954,7 +27954,7 @@
     <row r="352" ht="130" customHeight="1">
       <c r="A352" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,CM-5 (1)</t>
+          <t>CM-5 (1),CM-6 b</t>
         </is>
       </c>
       <c r="B352" s="2" t="inlineStr">
@@ -28027,7 +28027,7 @@
     <row r="353" ht="130" customHeight="1">
       <c r="A353" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,CM-5 (1)</t>
+          <t>CM-5 (1),CM-6 b</t>
         </is>
       </c>
       <c r="B353" s="2" t="inlineStr">
@@ -30579,7 +30579,7 @@
     <row r="387" ht="130" customHeight="1">
       <c r="A387" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,SC-3</t>
+          <t>SC-3,CM-6 b</t>
         </is>
       </c>
       <c r="B387" s="2" t="inlineStr">
@@ -30973,7 +30973,7 @@
     <row r="392" ht="130" customHeight="1">
       <c r="A392" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,AC-17 (9),CM-7 b,AC-17 (1)</t>
+          <t>CM-6 b,CM-7 b,AC-17 (9),AC-17 (1)</t>
         </is>
       </c>
       <c r="B392" s="2" t="inlineStr">
@@ -33550,7 +33550,7 @@
     <row r="422" ht="130" customHeight="1">
       <c r="A422" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,IA-3</t>
+          <t>IA-3,CM-6 b</t>
         </is>
       </c>
       <c r="B422" s="2" t="inlineStr">
@@ -33625,7 +33625,7 @@
     <row r="423" ht="130" customHeight="1">
       <c r="A423" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,IA-3</t>
+          <t>IA-3,CM-6 b</t>
         </is>
       </c>
       <c r="B423" s="2" t="inlineStr">
@@ -34312,7 +34312,7 @@
     <row r="432" ht="130" customHeight="1">
       <c r="A432" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,SC-3</t>
+          <t>SC-3,CM-6 b</t>
         </is>
       </c>
       <c r="B432" s="2" t="inlineStr">
@@ -34915,7 +34915,7 @@
     <row r="439" ht="130" customHeight="1">
       <c r="A439" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,SC-3</t>
+          <t>SC-3,CM-6 b</t>
         </is>
       </c>
       <c r="B439" s="2" t="inlineStr">
@@ -35367,7 +35367,7 @@
     <row r="445" ht="130" customHeight="1">
       <c r="A445" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,AU-4</t>
+          <t>AU-4,CM-6 b</t>
         </is>
       </c>
       <c r="B445" s="2" t="inlineStr">
@@ -35667,7 +35667,7 @@
     <row r="449" ht="130" customHeight="1">
       <c r="A449" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,IA-3</t>
+          <t>IA-3,CM-6 b</t>
         </is>
       </c>
       <c r="B449" s="2" t="inlineStr">
@@ -35744,7 +35744,7 @@
     <row r="450" ht="130" customHeight="1">
       <c r="A450" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,IA-3</t>
+          <t>IA-3,CM-6 b</t>
         </is>
       </c>
       <c r="B450" s="2" t="inlineStr">
@@ -36126,7 +36126,7 @@
     <row r="455" ht="130" customHeight="1">
       <c r="A455" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,SI-2 (2)</t>
+          <t>SI-2 (2),CM-6 b</t>
         </is>
       </c>
       <c r="B455" s="2" t="inlineStr">
@@ -36773,7 +36773,7 @@
     <row r="464" ht="130" customHeight="1">
       <c r="A464" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,SI-2 (2)</t>
+          <t>SI-2 (2),CM-6 b</t>
         </is>
       </c>
       <c r="B464" s="2" t="inlineStr">
@@ -37064,7 +37064,7 @@
     <row r="468" ht="130" customHeight="1">
       <c r="A468" s="2" t="inlineStr">
         <is>
-          <t>AC-12,SC-10,MA-4 (7),MA-4 e</t>
+          <t>MA-4 (7),SC-10,AC-12,MA-4 e</t>
         </is>
       </c>
       <c r="B468" s="2" t="inlineStr">
@@ -37139,7 +37139,7 @@
     <row r="469" ht="130" customHeight="1">
       <c r="A469" s="2" t="inlineStr">
         <is>
-          <t>AC-12,SC-10</t>
+          <t>SC-10,AC-12</t>
         </is>
       </c>
       <c r="B469" s="2" t="inlineStr">
@@ -37218,7 +37218,7 @@
     <row r="470" ht="130" customHeight="1">
       <c r="A470" s="2" t="inlineStr">
         <is>
-          <t>AC-12,SC-10</t>
+          <t>SC-10,AC-12</t>
         </is>
       </c>
       <c r="B470" s="2" t="inlineStr">
@@ -37294,7 +37294,7 @@
     <row r="471" ht="130" customHeight="1">
       <c r="A471" s="2" t="inlineStr">
         <is>
-          <t>AC-17 (2),SC-8</t>
+          <t>SC-8,AC-17 (2)</t>
         </is>
       </c>
       <c r="B471" s="2" t="inlineStr">
@@ -38589,7 +38589,7 @@
     <row r="488" ht="130" customHeight="1">
       <c r="A488" s="2" t="inlineStr">
         <is>
-          <t>CM-7 b,IA-3</t>
+          <t>IA-3,CM-7 b</t>
         </is>
       </c>
       <c r="B488" s="2" t="inlineStr">
@@ -40135,7 +40135,7 @@
     <row r="508" ht="130" customHeight="1">
       <c r="A508" s="2" t="inlineStr">
         <is>
-          <t>AC-8 c 1, AC-8 c 2, AC-8 c 3,AC-8 a</t>
+          <t>AC-8 a,AC-8 c 1, AC-8 c 2, AC-8 c 3</t>
         </is>
       </c>
       <c r="B508" s="2" t="inlineStr">
@@ -40237,7 +40237,7 @@
     <row r="509" ht="130" customHeight="1">
       <c r="A509" s="2" t="inlineStr">
         <is>
-          <t>AC-8 c 1, AC-8 c 2, AC-8 c 3,AC-8 a</t>
+          <t>AC-8 a,AC-8 c 1, AC-8 c 2, AC-8 c 3</t>
         </is>
       </c>
       <c r="B509" s="2" t="inlineStr">
@@ -40347,7 +40347,7 @@
     <row r="510" ht="130" customHeight="1">
       <c r="A510" s="2" t="inlineStr">
         <is>
-          <t>AC-8 c 1, AC-8 c 2, AC-8 c 3,AC-8 a</t>
+          <t>AC-8 a,AC-8 c 1, AC-8 c 2, AC-8 c 3</t>
         </is>
       </c>
       <c r="B510" s="2" t="inlineStr">
@@ -40458,7 +40458,7 @@
     <row r="511" ht="130" customHeight="1">
       <c r="A511" s="2" t="inlineStr">
         <is>
-          <t>AC-8 c 1, AC-8 c 2, AC-8 c 3,AC-8 a</t>
+          <t>AC-8 a,AC-8 c 1, AC-8 c 2, AC-8 c 3</t>
         </is>
       </c>
       <c r="B511" s="2" t="inlineStr">
@@ -40930,7 +40930,7 @@
 attacks.
 Password complexity is one factor of several that determines how long it takes
 to crack a password. The more complex the password, the greater the number of
-possble combinations that need to be tested before the password is compromised.
+possible combinations that need to be tested before the password is compromised.
 Requiring a minimum number of special characters makes password guessing attacks
 more difficult by ensuring a larger search space.</t>
         </is>
@@ -40949,14 +40949,21 @@
         <is>
           <t>To check how many special characters are required in a password, run the following command:
  $ grep ocredit /etc/security/pwquality.conf 
-The "ocredit" parameter (as a negative number) will indicate how many special characters are required.
+The "ocredit" parameter (as a negative number) will indicate how many special
+characters are required.
 The DoD and FISMA require at least one special character in a password.
 This would appear as "ocredit = -1".
-If ocredit is not found or not equal to or less than the required value then this is a finding.</t>
+If value of "ocredit" is a positive number or is commented out then this is a finding.</t>
         </is>
       </c>
       <c r="L516" s="2" t="n"/>
-      <c r="M516" s="2" t="inlineStr"/>
+      <c r="M516" s="2" t="inlineStr">
+        <is>
+          <t>Add or modify the "ocredit" option line in /etc/security/pwquality.conf to have the required
+value, like in the following example:
+ocredit = 1</t>
+        </is>
+      </c>
       <c r="N516" s="2" t="inlineStr">
         <is>
           <t>CAT II</t>
@@ -41161,7 +41168,7 @@
     <row r="520" ht="130" customHeight="1">
       <c r="A520" s="2" t="inlineStr">
         <is>
-          <t>SC-8 (2),SC-8</t>
+          <t>SC-8,SC-8 (2)</t>
         </is>
       </c>
       <c r="B520" s="2" t="inlineStr">
@@ -42274,7 +42281,7 @@
     <row r="534" ht="130" customHeight="1">
       <c r="A534" s="2" t="inlineStr">
         <is>
-          <t>AC-17 (2),SC-8</t>
+          <t>SC-8,AC-17 (2)</t>
         </is>
       </c>
       <c r="B534" s="2" t="inlineStr">

--- a/srg_mapping/srg-mapping-rhel9.xlsx
+++ b/srg_mapping/srg-mapping-rhel9.xlsx
@@ -541,7 +541,7 @@
     <row r="2" ht="130" customHeight="1">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>AC-7 a,AC-7 b</t>
+          <t>AC-7 b,AC-7 a</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -625,7 +625,7 @@
     <row r="3" ht="130" customHeight="1">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>AC-7 a,AC-7 b</t>
+          <t>AC-7 b,AC-7 a</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="4" ht="130" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>AC-7 a,AC-7 b</t>
+          <t>AC-7 b,AC-7 a</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
@@ -782,7 +782,7 @@
     <row r="5" ht="130" customHeight="1">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>AC-7 a,AC-7 b</t>
+          <t>AC-7 b,AC-7 a</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
@@ -964,7 +964,7 @@
     <row r="7" ht="130" customHeight="1">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>AU-5 a,AU-5 b</t>
+          <t>AU-5 b,AU-5 a</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
@@ -1446,7 +1446,7 @@
     <row r="13" ht="130" customHeight="1">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>CM-5 (1),AU-3,AU-7 (1),AU-3 (1),CM-6 b,AU-6 (4),MA-4 (1) (a),AU-7 a,AU-12 a,AU-14 (1)</t>
+          <t>CM-5 (1),CM-6 b,AU-7 (1),MA-4 (1) (a),AU-12 a,AU-3,AU-6 (4),AU-14 (1),AU-3 (1),AU-7 a</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
@@ -3249,7 +3249,7 @@
     <row r="37" ht="130" customHeight="1">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a,AU-14 (1)</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-14 (1),AU-3 (1)</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
@@ -3340,7 +3340,7 @@
     <row r="38" ht="130" customHeight="1">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>AU-4,AU-14 (1)</t>
+          <t>AU-14 (1),AU-4</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
@@ -4161,7 +4161,7 @@
     <row r="49" ht="130" customHeight="1">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>AU-4 (1),AU-6 (4),CM-6 b</t>
+          <t>AU-6 (4),AU-4 (1),CM-6 b</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
@@ -4311,7 +4311,7 @@
     <row r="51" ht="130" customHeight="1">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>AU-8 (1) (a),AU-8 b,AU-8 (1) (b)</t>
+          <t>AU-8 b,AU-8 (1) (b),AU-8 (1) (a)</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
@@ -4552,7 +4552,7 @@
     <row r="54" ht="130" customHeight="1">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (11),IA-2 (12),IA-2 (1)</t>
+          <t>IA-2 (11),IA-2 (1),IA-2 (12)</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
@@ -4636,7 +4636,7 @@
     <row r="55" ht="130" customHeight="1">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>SI-6 d,SI-6 b,CM-3 (5)</t>
+          <t>SI-6 d,CM-3 (5),SI-6 b</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
@@ -4812,7 +4812,7 @@
     <row r="57" ht="130" customHeight="1">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
@@ -4887,7 +4887,7 @@
     <row r="58" ht="130" customHeight="1">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
@@ -4962,7 +4962,7 @@
     <row r="59" ht="130" customHeight="1">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
@@ -5037,7 +5037,7 @@
     <row r="60" ht="130" customHeight="1">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
@@ -5112,7 +5112,7 @@
     <row r="61" ht="130" customHeight="1">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
@@ -5187,7 +5187,7 @@
     <row r="62" ht="130" customHeight="1">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
@@ -5262,7 +5262,7 @@
     <row r="63" ht="130" customHeight="1">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
@@ -5337,7 +5337,7 @@
     <row r="64" ht="130" customHeight="1">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
@@ -5412,7 +5412,7 @@
     <row r="65" ht="130" customHeight="1">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
@@ -5487,7 +5487,7 @@
     <row r="66" ht="130" customHeight="1">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>CM-5 (1),AU-12 (3),CM-6 b,AU-12 c,AU-7 a,AU-7 b,AU-12 a,AU-8 b</t>
+          <t>AU-8 b,CM-5 (1),CM-6 b,AU-12 (3),AU-7 b,AU-12 c,AU-12 a,AU-7 a</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
@@ -5561,7 +5561,7 @@
     <row r="67" ht="130" customHeight="1">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a,AC-2 (4)</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1),AC-2 (4)</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
@@ -5642,7 +5642,7 @@
     <row r="68" ht="130" customHeight="1">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a,AC-2 (4)</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1),AC-2 (4)</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
@@ -5723,7 +5723,7 @@
     <row r="69" ht="130" customHeight="1">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a,AC-2 (4)</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1),AC-2 (4)</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
@@ -5805,7 +5805,7 @@
     <row r="70" ht="130" customHeight="1">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a,AC-2 (4)</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1),AC-2 (4)</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
@@ -5887,7 +5887,7 @@
     <row r="71" ht="130" customHeight="1">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a,AC-2 (4)</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1),AC-2 (4)</t>
         </is>
       </c>
       <c r="B71" s="2" t="inlineStr">
@@ -5969,7 +5969,7 @@
     <row r="72" ht="130" customHeight="1">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a,AC-2 (4)</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1),AC-2 (4)</t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
@@ -6051,7 +6051,7 @@
     <row r="73" ht="130" customHeight="1">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a,AC-2 (4)</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1),AC-2 (4)</t>
         </is>
       </c>
       <c r="B73" s="2" t="inlineStr">
@@ -6133,7 +6133,7 @@
     <row r="74" ht="130" customHeight="1">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>CM-3 (5),SI-6 a</t>
+          <t>SI-6 a,CM-3 (5)</t>
         </is>
       </c>
       <c r="B74" s="2" t="inlineStr">
@@ -6207,7 +6207,7 @@
     <row r="75" ht="130" customHeight="1">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>SI-11 b,AU-9</t>
+          <t>AU-9,SI-11 b</t>
         </is>
       </c>
       <c r="B75" s="2" t="inlineStr">
@@ -6290,7 +6290,7 @@
     <row r="76" ht="130" customHeight="1">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>SI-11 b,AU-9</t>
+          <t>AU-9,SI-11 b</t>
         </is>
       </c>
       <c r="B76" s="2" t="inlineStr">
@@ -6368,7 +6368,7 @@
     <row r="77" ht="130" customHeight="1">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>SI-11 b,AU-9</t>
+          <t>AU-9,SI-11 b</t>
         </is>
       </c>
       <c r="B77" s="2" t="inlineStr">
@@ -6459,7 +6459,7 @@
     <row r="78" ht="130" customHeight="1">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>SI-11 b,AU-9</t>
+          <t>AU-9,SI-11 b</t>
         </is>
       </c>
       <c r="B78" s="2" t="inlineStr">
@@ -6541,7 +6541,7 @@
     <row r="79" ht="130" customHeight="1">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>SI-11 b,AU-9</t>
+          <t>AU-9,SI-11 b</t>
         </is>
       </c>
       <c r="B79" s="2" t="inlineStr">
@@ -7171,7 +7171,7 @@
     <row r="87" ht="130" customHeight="1">
       <c r="A87" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B87" s="2" t="inlineStr">
@@ -7245,7 +7245,7 @@
     <row r="88" ht="130" customHeight="1">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B88" s="2" t="inlineStr">
@@ -7319,7 +7319,7 @@
     <row r="89" ht="130" customHeight="1">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B89" s="2" t="inlineStr">
@@ -7393,7 +7393,7 @@
     <row r="90" ht="130" customHeight="1">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B90" s="2" t="inlineStr">
@@ -7817,7 +7817,7 @@
     <row r="95" ht="130" customHeight="1">
       <c r="A95" s="2" t="inlineStr">
         <is>
-          <t>AU-9 (3),AU-9</t>
+          <t>AU-9,AU-9 (3)</t>
         </is>
       </c>
       <c r="B95" s="2" t="inlineStr">
@@ -7893,7 +7893,7 @@
     <row r="96" ht="130" customHeight="1">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>AU-9 (3),AU-9</t>
+          <t>AU-9,AU-9 (3)</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
@@ -7969,7 +7969,7 @@
     <row r="97" ht="130" customHeight="1">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B97" s="2" t="inlineStr">
@@ -8044,7 +8044,7 @@
     <row r="98" ht="130" customHeight="1">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B98" s="2" t="inlineStr">
@@ -8119,7 +8119,7 @@
     <row r="99" ht="130" customHeight="1">
       <c r="A99" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B99" s="2" t="inlineStr">
@@ -8194,7 +8194,7 @@
     <row r="100" ht="130" customHeight="1">
       <c r="A100" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B100" s="2" t="inlineStr">
@@ -8274,7 +8274,7 @@
     <row r="101" ht="130" customHeight="1">
       <c r="A101" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B101" s="2" t="inlineStr">
@@ -8348,7 +8348,7 @@
     <row r="102" ht="130" customHeight="1">
       <c r="A102" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B102" s="2" t="inlineStr">
@@ -8422,7 +8422,7 @@
     <row r="103" ht="130" customHeight="1">
       <c r="A103" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B103" s="2" t="inlineStr">
@@ -8496,7 +8496,7 @@
     <row r="104" ht="130" customHeight="1">
       <c r="A104" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B104" s="2" t="inlineStr">
@@ -8570,7 +8570,7 @@
     <row r="105" ht="130" customHeight="1">
       <c r="A105" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B105" s="2" t="inlineStr">
@@ -8644,7 +8644,7 @@
     <row r="106" ht="130" customHeight="1">
       <c r="A106" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B106" s="2" t="inlineStr">
@@ -8724,7 +8724,7 @@
     <row r="107" ht="130" customHeight="1">
       <c r="A107" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B107" s="2" t="inlineStr">
@@ -8804,7 +8804,7 @@
     <row r="108" ht="130" customHeight="1">
       <c r="A108" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B108" s="2" t="inlineStr">
@@ -9055,7 +9055,7 @@
     <row r="111" ht="130" customHeight="1">
       <c r="A111" s="2" t="inlineStr">
         <is>
-          <t>AC-11 b,AC-6 (10)</t>
+          <t>AC-6 (10),AC-11 b</t>
         </is>
       </c>
       <c r="B111" s="2" t="inlineStr">
@@ -9134,7 +9134,7 @@
     <row r="112" ht="130" customHeight="1">
       <c r="A112" s="2" t="inlineStr">
         <is>
-          <t>AC-11 b,AC-11 a</t>
+          <t>AC-11 a,AC-11 b</t>
         </is>
       </c>
       <c r="B112" s="2" t="inlineStr">
@@ -9713,7 +9713,7 @@
     <row r="119" ht="130" customHeight="1">
       <c r="A119" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B119" s="2" t="inlineStr">
@@ -9869,7 +9869,7 @@
     <row r="121" ht="130" customHeight="1">
       <c r="A121" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B121" s="2" t="inlineStr">
@@ -10225,7 +10225,7 @@
     <row r="126" ht="130" customHeight="1">
       <c r="A126" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B126" s="2" t="inlineStr">
@@ -10305,7 +10305,7 @@
     <row r="127" ht="130" customHeight="1">
       <c r="A127" s="2" t="inlineStr">
         <is>
-          <t>SC-28,SC-28 (1)</t>
+          <t>SC-28 (1),SC-28</t>
         </is>
       </c>
       <c r="B127" s="2" t="inlineStr">
@@ -11072,7 +11072,7 @@
     <row r="137" ht="130" customHeight="1">
       <c r="A137" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,AC-6 (10)</t>
+          <t>AC-6 (10),CM-6 b</t>
         </is>
       </c>
       <c r="B137" s="2" t="inlineStr">
@@ -11153,7 +11153,7 @@
     <row r="138" ht="130" customHeight="1">
       <c r="A138" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,AC-6 (10)</t>
+          <t>AC-6 (10),CM-6 b</t>
         </is>
       </c>
       <c r="B138" s="2" t="inlineStr">
@@ -11239,7 +11239,7 @@
     <row r="139" ht="130" customHeight="1">
       <c r="A139" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,AC-6 (10)</t>
+          <t>AC-6 (10),CM-6 b</t>
         </is>
       </c>
       <c r="B139" s="2" t="inlineStr">
@@ -11685,7 +11685,7 @@
     <row r="144" ht="130" customHeight="1">
       <c r="A144" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B144" s="2" t="inlineStr">
@@ -11765,7 +11765,7 @@
     <row r="145" ht="130" customHeight="1">
       <c r="A145" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B145" s="2" t="inlineStr">
@@ -11845,7 +11845,7 @@
     <row r="146" ht="130" customHeight="1">
       <c r="A146" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B146" s="2" t="inlineStr">
@@ -12941,7 +12941,7 @@
     <row r="160" ht="130" customHeight="1">
       <c r="A160" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B160" s="2" t="inlineStr">
@@ -13018,7 +13018,7 @@
     <row r="161" ht="130" customHeight="1">
       <c r="A161" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-3,MA-4 (1) (a),AU-12 a</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
         </is>
       </c>
       <c r="B161" s="2" t="inlineStr">
@@ -13091,7 +13091,7 @@
     <row r="162" ht="130" customHeight="1">
       <c r="A162" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-3,MA-4 (1) (a),AU-12 a</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
         </is>
       </c>
       <c r="B162" s="2" t="inlineStr">
@@ -13164,7 +13164,7 @@
     <row r="163" ht="130" customHeight="1">
       <c r="A163" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B163" s="2" t="inlineStr">
@@ -13249,7 +13249,7 @@
     <row r="164" ht="130" customHeight="1">
       <c r="A164" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B164" s="2" t="inlineStr">
@@ -13324,7 +13324,7 @@
     <row r="165" ht="130" customHeight="1">
       <c r="A165" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B165" s="2" t="inlineStr">
@@ -13399,7 +13399,7 @@
     <row r="166" ht="130" customHeight="1">
       <c r="A166" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B166" s="2" t="inlineStr">
@@ -13474,7 +13474,7 @@
     <row r="167" ht="130" customHeight="1">
       <c r="A167" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B167" s="2" t="inlineStr">
@@ -13977,7 +13977,7 @@
     <row r="174" ht="130" customHeight="1">
       <c r="A174" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B174" s="2" t="inlineStr">
@@ -14266,7 +14266,7 @@
     <row r="178" ht="130" customHeight="1">
       <c r="A178" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B178" s="2" t="inlineStr">
@@ -14341,7 +14341,7 @@
     <row r="179" ht="130" customHeight="1">
       <c r="A179" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B179" s="2" t="inlineStr">
@@ -14423,7 +14423,7 @@
     <row r="180" ht="130" customHeight="1">
       <c r="A180" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B180" s="2" t="inlineStr">
@@ -14505,7 +14505,7 @@
     <row r="181" ht="130" customHeight="1">
       <c r="A181" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B181" s="2" t="inlineStr">
@@ -14587,7 +14587,7 @@
     <row r="182" ht="130" customHeight="1">
       <c r="A182" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-3 (1),AU-3</t>
         </is>
       </c>
       <c r="B182" s="2" t="inlineStr">
@@ -14669,7 +14669,7 @@
     <row r="183" ht="130" customHeight="1">
       <c r="A183" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B183" s="2" t="inlineStr">
@@ -14751,7 +14751,7 @@
     <row r="184" ht="130" customHeight="1">
       <c r="A184" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B184" s="2" t="inlineStr">
@@ -14833,7 +14833,7 @@
     <row r="185" ht="130" customHeight="1">
       <c r="A185" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B185" s="2" t="inlineStr">
@@ -14915,7 +14915,7 @@
     <row r="186" ht="130" customHeight="1">
       <c r="A186" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B186" s="2" t="inlineStr">
@@ -14997,7 +14997,7 @@
     <row r="187" ht="130" customHeight="1">
       <c r="A187" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B187" s="2" t="inlineStr">
@@ -15079,7 +15079,7 @@
     <row r="188" ht="130" customHeight="1">
       <c r="A188" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),MA-4 (1) (a),AU-12 c</t>
+          <t>MA-4 (1) (a),AU-12 c,AU-3 (1)</t>
         </is>
       </c>
       <c r="B188" s="2" t="inlineStr">
@@ -15157,7 +15157,7 @@
     <row r="189" ht="130" customHeight="1">
       <c r="A189" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B189" s="2" t="inlineStr">
@@ -15236,7 +15236,7 @@
     <row r="190" ht="130" customHeight="1">
       <c r="A190" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B190" s="2" t="inlineStr">
@@ -15318,7 +15318,7 @@
     <row r="191" ht="130" customHeight="1">
       <c r="A191" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B191" s="2" t="inlineStr">
@@ -15400,7 +15400,7 @@
     <row r="192" ht="130" customHeight="1">
       <c r="A192" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 c,AU-3,MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 c,AU-3 (1),AU-3</t>
         </is>
       </c>
       <c r="B192" s="2" t="inlineStr">
@@ -15482,7 +15482,7 @@
     <row r="193" ht="130" customHeight="1">
       <c r="A193" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B193" s="2" t="inlineStr">
@@ -15564,7 +15564,7 @@
     <row r="194" ht="130" customHeight="1">
       <c r="A194" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B194" s="2" t="inlineStr">
@@ -15646,7 +15646,7 @@
     <row r="195" ht="130" customHeight="1">
       <c r="A195" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B195" s="2" t="inlineStr">
@@ -15728,7 +15728,7 @@
     <row r="196" ht="130" customHeight="1">
       <c r="A196" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B196" s="2" t="inlineStr">
@@ -15803,7 +15803,7 @@
     <row r="197" ht="130" customHeight="1">
       <c r="A197" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AU-12 a,AC-2 (4)</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1),AC-2 (4)</t>
         </is>
       </c>
       <c r="B197" s="2" t="inlineStr">
@@ -15876,7 +15876,7 @@
     <row r="198" ht="130" customHeight="1">
       <c r="A198" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-3 (1),MA-4 (1) (a),AU-12 c,AC-2 (4)</t>
+          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-3 (1),AC-2 (4)</t>
         </is>
       </c>
       <c r="B198" s="2" t="inlineStr">
@@ -15953,7 +15953,7 @@
     <row r="199" ht="130" customHeight="1">
       <c r="A199" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (2),IA-2 (4),IA-2 (3),IA-2 (1)</t>
+          <t>IA-2 (3),IA-2 (4),IA-2 (1),IA-2 (2)</t>
         </is>
       </c>
       <c r="B199" s="2" t="inlineStr">
@@ -16040,7 +16040,7 @@
     <row r="200" ht="130" customHeight="1">
       <c r="A200" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (3),IA-2 (4),IA-2 (5),IA-2 (2),IA-2</t>
+          <t>IA-2 (3),IA-2,IA-2 (5),IA-2 (2),IA-2 (4)</t>
         </is>
       </c>
       <c r="B200" s="2" t="inlineStr">
@@ -16129,7 +16129,7 @@
     <row r="201" ht="130" customHeight="1">
       <c r="A201" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (3),IA-2 (4),IA-2 (5),IA-2 (2),IA-2</t>
+          <t>IA-2 (3),IA-2,IA-2 (5),IA-2 (2),IA-2 (4)</t>
         </is>
       </c>
       <c r="B201" s="2" t="inlineStr">
@@ -16373,7 +16373,7 @@
     <row r="204" ht="130" customHeight="1">
       <c r="A204" s="2" t="inlineStr">
         <is>
-          <t>IA-11,AC-3 (4)</t>
+          <t>AC-3 (4),IA-11</t>
         </is>
       </c>
       <c r="B204" s="2" t="inlineStr">
@@ -16815,7 +16815,7 @@
     <row r="210" ht="130" customHeight="1">
       <c r="A210" s="2" t="inlineStr">
         <is>
-          <t>SC-8,SC-8 (1),SC-8 (2)</t>
+          <t>SC-8 (2),SC-8,SC-8 (1)</t>
         </is>
       </c>
       <c r="B210" s="2" t="inlineStr">
@@ -16892,7 +16892,7 @@
     <row r="211" ht="130" customHeight="1">
       <c r="A211" s="2" t="inlineStr">
         <is>
-          <t>SC-8,SC-8 (1),SC-8 (2)</t>
+          <t>SC-8 (2),SC-8,SC-8 (1)</t>
         </is>
       </c>
       <c r="B211" s="2" t="inlineStr">
@@ -16978,7 +16978,7 @@
     <row r="212" ht="130" customHeight="1">
       <c r="A212" s="2" t="inlineStr">
         <is>
-          <t>SC-8,SC-8 (1),AC-18 (1)</t>
+          <t>AC-18 (1),SC-8,SC-8 (1)</t>
         </is>
       </c>
       <c r="B212" s="2" t="inlineStr">
@@ -17906,7 +17906,7 @@
     <row r="224" ht="130" customHeight="1">
       <c r="A224" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,AU-12 a</t>
+          <t>AU-12 a,CM-6 b</t>
         </is>
       </c>
       <c r="B224" s="2" t="inlineStr">
@@ -17992,7 +17992,7 @@
     <row r="225" ht="130" customHeight="1">
       <c r="A225" s="2" t="inlineStr">
         <is>
-          <t>SC-5 (2),CM-6 b,SC-5</t>
+          <t>SC-5,CM-6 b,SC-5 (2)</t>
         </is>
       </c>
       <c r="B225" s="2" t="inlineStr">
@@ -18362,7 +18362,7 @@
     <row r="229" ht="130" customHeight="1">
       <c r="A229" s="2" t="inlineStr">
         <is>
-          <t>IA-8,AU-3 (1),IA-2</t>
+          <t>IA-2,AU-3 (1),IA-8</t>
         </is>
       </c>
       <c r="B229" s="2" t="inlineStr">
@@ -19336,7 +19336,7 @@
     <row r="241" ht="130" customHeight="1">
       <c r="A241" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,SC-2,SI-16</t>
+          <t>SC-2,CM-6 b,SI-16</t>
         </is>
       </c>
       <c r="B241" s="2" t="inlineStr">
@@ -19658,7 +19658,7 @@
     <row r="245" ht="130" customHeight="1">
       <c r="A245" s="2" t="inlineStr">
         <is>
-          <t>CM-7 a,AC-18 (1)</t>
+          <t>AC-18 (1),CM-7 a</t>
         </is>
       </c>
       <c r="B245" s="2" t="inlineStr">
@@ -19865,16 +19865,20 @@
         <is>
           <t>Verify the "umask" setting is configured correctly in the "/etc/bashrc" file by
 running the following command:
- # grep "umask" /etc/bashrc 
+ $ sudo grep "umask" /etc/bashrc 
 All output must show the value of "umask" set as shown below:
- # grep "umask" /etc/bashrc
-umask 
-umask  
-If the above command returns no output, or if the umask is configured incorrectly then this is a finding.</t>
+ umask 077 
+If the above command returns no output, or the umask is configured incorrectly then this is a finding.</t>
         </is>
       </c>
       <c r="L247" s="2" t="n"/>
-      <c r="M247" s="2" t="inlineStr"/>
+      <c r="M247" s="2" t="inlineStr">
+        <is>
+          <t>Configure the Red Hat Enterprise Linux 9 to define default permissions for all authenticated users in such a way that the user can only read and modify their own files.
+Add or edit the lines for the "umask" parameter in the "/etc/bashrc" files to "077":
+umask 077</t>
+        </is>
+      </c>
       <c r="N247" s="2" t="inlineStr">
         <is>
           <t>CAT II</t>
@@ -19941,15 +19945,20 @@
         <is>
           <t>Verify the "umask" setting is configured correctly in the "/etc/csh.cshrc" file by
 running the following command:
- # grep "umask" /etc/csh.cshrc 
+ $ sudo grep "umask" /etc/csh.cshrc 
 All output must show the value of "umask" set as shown in the below:
- # grep "umask" /etc/csh.cshrc
-umask  
-If the above command returns no output, or if the umask is configured incorrectly then this is a finding.</t>
+ umask 077 
+If the above command returns no output, or the umask is configured incorrectly then this is a finding.</t>
         </is>
       </c>
       <c r="L248" s="2" t="n"/>
-      <c r="M248" s="2" t="inlineStr"/>
+      <c r="M248" s="2" t="inlineStr">
+        <is>
+          <t>Configure the Red Hat Enterprise Linux 9 to define default permissions for all authenticated users in such a way that the user can only read and modify their own files.
+Add or edit the lines for the "umask" parameter in the "/etc/csh.cshrc" files to "077":
+umask 077</t>
+        </is>
+      </c>
       <c r="N248" s="2" t="inlineStr">
         <is>
           <t>CAT II</t>
@@ -20016,15 +20025,20 @@
         <is>
           <t>Verify the "UMASK" setting is configured correctly in the "/etc/login.defs" file by
 running the following command:
- # grep -i "UMASK" /etc/login.defs 
-All output must show the value of "umask" set as shown in the below:
- # grep -i "UMASK" /etc/login.defs
-umask  
-If the above command returns no output, or if the umask is configured incorrectly then this is a finding.</t>
+ $ sudo grep "UMASK" /etc/login.defs 
+All output must show the value of "UMASK" set as shown in the below:
+ UMASK 077 
+If the above command returns no output, or the umask is configured incorrectly then this is a finding.</t>
         </is>
       </c>
       <c r="L249" s="2" t="n"/>
-      <c r="M249" s="2" t="inlineStr"/>
+      <c r="M249" s="2" t="inlineStr">
+        <is>
+          <t>Configure the Red Hat Enterprise Linux 9 to define default permissions for all authenticated users in such a way that the user can only read and modify their own files.
+Add or edit the lines for the "UMASK" parameter in the "/etc/login.defs" files to "077":
+UMASK 077</t>
+        </is>
+      </c>
       <c r="N249" s="2" t="inlineStr">
         <is>
           <t>CAT II</t>
@@ -20091,15 +20105,20 @@
         <is>
           <t>Verify the "umask" setting is configured correctly in the "/etc/profile" file by
 running the following command:
- # grep "umask" /etc/profile 
+ $ sudo grep "umask" /etc/profile 
 All output must show the value of "umask" set as shown in the below:
- # grep "umask" /etc/profile
-umask  
-If the above command returns no output, or if the umask is configured incorrectly then this is a finding.</t>
+ umask 077 
+If the above command returns no output, or the umask is configured incorrectly then this is a finding.</t>
         </is>
       </c>
       <c r="L250" s="2" t="n"/>
-      <c r="M250" s="2" t="inlineStr"/>
+      <c r="M250" s="2" t="inlineStr">
+        <is>
+          <t>Configure the Red Hat Enterprise Linux 9 to define default permissions for all authenticated users in such a way that the user can only read and modify their own files.
+Add or edit the lines for the "umask" parameter in the "/etc/profile" files to "077":
+umask 077</t>
+        </is>
+      </c>
       <c r="N250" s="2" t="inlineStr">
         <is>
           <t>CAT II</t>
@@ -20194,7 +20213,7 @@
     <row r="252" ht="130" customHeight="1">
       <c r="A252" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,IA-5 (1) (a),IA-5 (1) (b)</t>
+          <t>IA-5 (1) (a),CM-6 b,IA-5 (1) (b)</t>
         </is>
       </c>
       <c r="B252" s="2" t="inlineStr">
@@ -20843,7 +20862,7 @@
     <row r="260" ht="130" customHeight="1">
       <c r="A260" s="2" t="inlineStr">
         <is>
-          <t>SC-4,SC-2</t>
+          <t>SC-2,SC-4</t>
         </is>
       </c>
       <c r="B260" s="2" t="inlineStr">
@@ -20931,7 +20950,7 @@
     <row r="261" ht="130" customHeight="1">
       <c r="A261" s="2" t="inlineStr">
         <is>
-          <t>SC-4,SC-2</t>
+          <t>SC-2,SC-4</t>
         </is>
       </c>
       <c r="B261" s="2" t="inlineStr">
@@ -21432,7 +21451,7 @@
     <row r="267" ht="130" customHeight="1">
       <c r="A267" s="2" t="inlineStr">
         <is>
-          <t>SC-3,SI-6 a</t>
+          <t>SI-6 a,SC-3</t>
         </is>
       </c>
       <c r="B267" s="2" t="inlineStr">
@@ -21514,7 +21533,7 @@
     <row r="268" ht="130" customHeight="1">
       <c r="A268" s="2" t="inlineStr">
         <is>
-          <t>CM-5 (1),AC-6 (9),AU-12 (3),AU-7 b,AU-7 a,AU-8 b,AC-6 (8)</t>
+          <t>AC-6 (8),AU-8 b,AC-6 (9),CM-5 (1),AU-12 (3),AU-7 b,AU-7 a</t>
         </is>
       </c>
       <c r="B268" s="2" t="inlineStr">
@@ -22181,7 +22200,7 @@
     <row r="277" ht="130" customHeight="1">
       <c r="A277" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,CM-5 (3)</t>
+          <t>CM-5 (3),CM-6 b</t>
         </is>
       </c>
       <c r="B277" s="2" t="inlineStr">
@@ -22706,7 +22725,7 @@
     <row r="283" ht="130" customHeight="1">
       <c r="A283" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,IA-5 (1) (a)</t>
+          <t>IA-5 (1) (a),CM-6 b</t>
         </is>
       </c>
       <c r="B283" s="2" t="inlineStr">
@@ -22860,7 +22879,7 @@
     <row r="285" ht="130" customHeight="1">
       <c r="A285" s="2" t="inlineStr">
         <is>
-          <t>CM-7 a,CM-6 b</t>
+          <t>CM-6 b,CM-7 a</t>
         </is>
       </c>
       <c r="B285" s="2" t="inlineStr">
@@ -23008,7 +23027,7 @@
     <row r="287" ht="130" customHeight="1">
       <c r="A287" s="2" t="inlineStr">
         <is>
-          <t>CM-7 a,CM-7 b</t>
+          <t>CM-7 b,CM-7 a</t>
         </is>
       </c>
       <c r="B287" s="2" t="inlineStr">
@@ -23082,7 +23101,7 @@
     <row r="288" ht="130" customHeight="1">
       <c r="A288" s="2" t="inlineStr">
         <is>
-          <t>CM-7 a,CM-7 b</t>
+          <t>CM-7 b,CM-7 a</t>
         </is>
       </c>
       <c r="B288" s="2" t="inlineStr">
@@ -23844,7 +23863,7 @@
     <row r="298" ht="130" customHeight="1">
       <c r="A298" s="2" t="inlineStr">
         <is>
-          <t>CM-7 a,CM-6 b</t>
+          <t>CM-6 b,CM-7 a</t>
         </is>
       </c>
       <c r="B298" s="2" t="inlineStr">
@@ -23915,7 +23934,7 @@
     <row r="299" ht="130" customHeight="1">
       <c r="A299" s="2" t="inlineStr">
         <is>
-          <t>CM-7 a,CM-6 b</t>
+          <t>CM-6 b,CM-7 a</t>
         </is>
       </c>
       <c r="B299" s="2" t="inlineStr">
@@ -23987,7 +24006,7 @@
     <row r="300" ht="130" customHeight="1">
       <c r="A300" s="2" t="inlineStr">
         <is>
-          <t>CM-7 a,CM-6 b</t>
+          <t>CM-6 b,CM-7 a</t>
         </is>
       </c>
       <c r="B300" s="2" t="inlineStr">
@@ -24145,7 +24164,7 @@
     <row r="302" ht="130" customHeight="1">
       <c r="A302" s="2" t="inlineStr">
         <is>
-          <t>AC-6 (9),AC-2 (4),AU-12 c</t>
+          <t>AU-12 c,AC-2 (4),AC-6 (9)</t>
         </is>
       </c>
       <c r="B302" s="2" t="inlineStr">
@@ -27874,7 +27893,7 @@
     <row r="351" ht="130" customHeight="1">
       <c r="A351" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (2),CM-6 b</t>
+          <t>CM-6 b,IA-2 (2)</t>
         </is>
       </c>
       <c r="B351" s="2" t="inlineStr">
@@ -30973,7 +30992,7 @@
     <row r="392" ht="130" customHeight="1">
       <c r="A392" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,CM-7 b,AC-17 (9),AC-17 (1)</t>
+          <t>CM-7 b,CM-6 b,AC-17 (1),AC-17 (9)</t>
         </is>
       </c>
       <c r="B392" s="2" t="inlineStr">
@@ -31051,7 +31070,7 @@
     <row r="393" ht="130" customHeight="1">
       <c r="A393" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,CM-7 b,AC-17 (1)</t>
+          <t>CM-7 b,CM-6 b,AC-17 (1)</t>
         </is>
       </c>
       <c r="B393" s="2" t="inlineStr">
@@ -34493,7 +34512,7 @@
     <row r="434" ht="130" customHeight="1">
       <c r="A434" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,SC-2</t>
+          <t>SC-2,CM-6 b</t>
         </is>
       </c>
       <c r="B434" s="2" t="inlineStr">
@@ -34580,7 +34599,7 @@
     <row r="435" ht="130" customHeight="1">
       <c r="A435" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,SC-2</t>
+          <t>SC-2,CM-6 b</t>
         </is>
       </c>
       <c r="B435" s="2" t="inlineStr">
@@ -35367,7 +35386,7 @@
     <row r="445" ht="130" customHeight="1">
       <c r="A445" s="2" t="inlineStr">
         <is>
-          <t>AU-4,CM-6 b</t>
+          <t>CM-6 b,AU-4</t>
         </is>
       </c>
       <c r="B445" s="2" t="inlineStr">
@@ -36126,7 +36145,7 @@
     <row r="455" ht="130" customHeight="1">
       <c r="A455" s="2" t="inlineStr">
         <is>
-          <t>SI-2 (2),CM-6 b</t>
+          <t>CM-6 b,SI-2 (2)</t>
         </is>
       </c>
       <c r="B455" s="2" t="inlineStr">
@@ -37064,7 +37083,7 @@
     <row r="468" ht="130" customHeight="1">
       <c r="A468" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (7),SC-10,AC-12,MA-4 e</t>
+          <t>AC-12,SC-10,MA-4 (7),MA-4 e</t>
         </is>
       </c>
       <c r="B468" s="2" t="inlineStr">
@@ -37294,7 +37313,7 @@
     <row r="471" ht="130" customHeight="1">
       <c r="A471" s="2" t="inlineStr">
         <is>
-          <t>SC-8,AC-17 (2)</t>
+          <t>SC-8,SC-8 (1),AC-17 (2)</t>
         </is>
       </c>
       <c r="B471" s="2" t="inlineStr">
@@ -37304,7 +37323,7 @@
       </c>
       <c r="C471" s="2" t="inlineStr">
         <is>
-          <t>SRG-OS-000423-GPOS-00187,SRG-OS-000033-GPOS-00014</t>
+          <t>SRG-OS-000423-GPOS-00187,SRG-OS-000033-GPOS-00014,SRG-OS-000424-GPOS-00188</t>
         </is>
       </c>
       <c r="D471" s="2" t="inlineStr">
@@ -37353,14 +37372,21 @@
 properly, output should be  /etc/ssh/ssh_config.d/02-rekey-limit.conf:
 RekeyLimit 
   Check also the
-main configuration file with the following command:  sudo grep
+main configuration file with the following command:  $ sudo grep
 RekeyLimit /etc/ssh/ssh_config  The command should not return any
 output.
 If it is commented out or is not set then this is a finding.</t>
         </is>
       </c>
       <c r="L471" s="2" t="n"/>
-      <c r="M471" s="2" t="inlineStr"/>
+      <c r="M471" s="2" t="inlineStr">
+        <is>
+          <t>Configure Red Hat Enterprise Linux 9 to force a frequent session key renegotiation for SSH connections to the server by adding or modifying the following line in the "/etc/ssh/sshd_config" file:
+RekeyLimit  
+Restart the SSH daemon for the settings to take effect.
+$ sudo systemctl restart sshd.service</t>
+        </is>
+      </c>
       <c r="N471" s="2" t="inlineStr">
         <is>
           <t>CAT II</t>
@@ -39896,7 +39922,7 @@
     <row r="505" ht="130" customHeight="1">
       <c r="A505" s="2" t="inlineStr">
         <is>
-          <t>AU-4,AU-4 (1)</t>
+          <t>AU-4 (1),AU-4</t>
         </is>
       </c>
       <c r="B505" s="2" t="inlineStr">
@@ -40135,7 +40161,7 @@
     <row r="508" ht="130" customHeight="1">
       <c r="A508" s="2" t="inlineStr">
         <is>
-          <t>AC-8 a,AC-8 c 1, AC-8 c 2, AC-8 c 3</t>
+          <t>AC-8 c 1, AC-8 c 2, AC-8 c 3,AC-8 a</t>
         </is>
       </c>
       <c r="B508" s="2" t="inlineStr">
@@ -40237,7 +40263,7 @@
     <row r="509" ht="130" customHeight="1">
       <c r="A509" s="2" t="inlineStr">
         <is>
-          <t>AC-8 a,AC-8 c 1, AC-8 c 2, AC-8 c 3</t>
+          <t>AC-8 c 1, AC-8 c 2, AC-8 c 3,AC-8 a</t>
         </is>
       </c>
       <c r="B509" s="2" t="inlineStr">
@@ -40347,7 +40373,7 @@
     <row r="510" ht="130" customHeight="1">
       <c r="A510" s="2" t="inlineStr">
         <is>
-          <t>AC-8 a,AC-8 c 1, AC-8 c 2, AC-8 c 3</t>
+          <t>AC-8 c 1, AC-8 c 2, AC-8 c 3,AC-8 a</t>
         </is>
       </c>
       <c r="B510" s="2" t="inlineStr">
@@ -40458,7 +40484,7 @@
     <row r="511" ht="130" customHeight="1">
       <c r="A511" s="2" t="inlineStr">
         <is>
-          <t>AC-8 a,AC-8 c 1, AC-8 c 2, AC-8 c 3</t>
+          <t>AC-8 c 1, AC-8 c 2, AC-8 c 3,AC-8 a</t>
         </is>
       </c>
       <c r="B511" s="2" t="inlineStr">
@@ -41168,7 +41194,7 @@
     <row r="520" ht="130" customHeight="1">
       <c r="A520" s="2" t="inlineStr">
         <is>
-          <t>SC-8,SC-8 (2)</t>
+          <t>SC-8 (2),SC-8</t>
         </is>
       </c>
       <c r="B520" s="2" t="inlineStr">
@@ -42336,14 +42362,20 @@
       <c r="K534" s="2" t="inlineStr">
         <is>
           <t>To verify if GnuTLS uses defined DoD-approved TLS Crypto Policy, run:
- $ grep
+ $ sudo grep
 '+VERS-ALL:-VERS-DTLS0.9:-VERS-SSL3.0:-VERS-TLS1.0:-VERS-TLS1.1:-VERS-DTLS1.0'
 /etc/crypto-policies/back-ends/gnutls.config  and verify that a match exists.
 If cryptographic policy for gnutls is not configured or is configured incorrectly then this is a finding.</t>
         </is>
       </c>
       <c r="L534" s="2" t="n"/>
-      <c r="M534" s="2" t="inlineStr"/>
+      <c r="M534" s="2" t="inlineStr">
+        <is>
+          <t>Configure the Red Hat Enterprise Linux 9 GnuTLS library to use only DoD-approved encryption by adding the following line to "/etc/crypto-policies/back-ends/gnutls.config":
++VERS-ALL:-VERS-DTLS0.9:-VERS-SSL3.0:-VERS-TLS1.0:-VERS-TLS1.1:-VERS-DTLS1.0
+A reboot is required for the changes to take effect.</t>
+        </is>
+      </c>
       <c r="N534" s="2" t="inlineStr">
         <is>
           <t>CAT II</t>

--- a/srg_mapping/srg-mapping-rhel9.xlsx
+++ b/srg_mapping/srg-mapping-rhel9.xlsx
@@ -550,7 +550,7 @@
     <row r="2" ht="130" customHeight="1">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>AC-7 b,AC-7 a</t>
+          <t>AC-7 a,AC-7 b</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -634,7 +634,7 @@
     <row r="3" ht="130" customHeight="1">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>AC-7 b,AC-7 a</t>
+          <t>AC-7 a,AC-7 b</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
@@ -719,7 +719,7 @@
     <row r="4" ht="130" customHeight="1">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>AC-7 b,AC-7 a</t>
+          <t>AC-7 a,AC-7 b</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -791,7 +791,7 @@
     <row r="5" ht="130" customHeight="1">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>AC-7 b,AC-7 a</t>
+          <t>AC-7 a,AC-7 b</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
@@ -1455,7 +1455,7 @@
     <row r="13" ht="130" customHeight="1">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-7 (1),AU-3,AU-12 a,AU-7 a,CM-6 b,AU-6 (4),MA-4 (1) (a),AU-14 (1),CM-5 (1)</t>
+          <t>AU-3 (1),AU-7 (1),AU-7 a,CM-5 (1),AU-12 a,AU-6 (4),CM-6 b,MA-4 (1) (a),AU-3,AU-14 (1)</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
@@ -1540,7 +1540,7 @@
     <row r="14" ht="130" customHeight="1">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>CM-7 (5) (b),CM-7 (2)</t>
+          <t>CM-7 (2),CM-7 (5) (b)</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
@@ -1616,7 +1616,7 @@
     <row r="15" ht="130" customHeight="1">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>CM-7 (5) (b),CM-7 (2)</t>
+          <t>CM-7 (2),CM-7 (5) (b)</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
@@ -3258,7 +3258,7 @@
     <row r="37" ht="130" customHeight="1">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,AU-12 a,MA-4 (1) (a),AU-14 (1),AU-12 c</t>
+          <t>AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3,AU-14 (1)</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
@@ -3349,7 +3349,7 @@
     <row r="38" ht="130" customHeight="1">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>AU-14 (1),AU-4</t>
+          <t>AU-4,AU-14 (1)</t>
         </is>
       </c>
       <c r="B38" s="3" t="inlineStr">
@@ -4170,7 +4170,7 @@
     <row r="49" ht="130" customHeight="1">
       <c r="A49" s="3" t="inlineStr">
         <is>
-          <t>AU-4 (1),CM-6 b,AU-6 (4)</t>
+          <t>AU-6 (4),AU-4 (1),CM-6 b</t>
         </is>
       </c>
       <c r="B49" s="3" t="inlineStr">
@@ -4320,7 +4320,7 @@
     <row r="51" ht="130" customHeight="1">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>AU-8 b,AU-8 (1) (b),AU-8 (1) (a)</t>
+          <t>AU-8 b,AU-8 (1) (a),AU-8 (1) (b)</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
@@ -4645,7 +4645,7 @@
     <row r="55" ht="130" customHeight="1">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>SI-6 d,CM-3 (5),SI-6 b</t>
+          <t>SI-6 b,SI-6 d,CM-3 (5)</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
@@ -4821,7 +4821,7 @@
     <row r="57" ht="130" customHeight="1">
       <c r="A57" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,AU-12 a,MA-4 (1) (a),AU-12 c</t>
+          <t>AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
         </is>
       </c>
       <c r="B57" s="3" t="inlineStr">
@@ -4896,7 +4896,7 @@
     <row r="58" ht="130" customHeight="1">
       <c r="A58" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,AU-12 a,MA-4 (1) (a),AU-12 c</t>
+          <t>AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
         </is>
       </c>
       <c r="B58" s="3" t="inlineStr">
@@ -4971,7 +4971,7 @@
     <row r="59" ht="130" customHeight="1">
       <c r="A59" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,AU-12 a,MA-4 (1) (a),AU-12 c</t>
+          <t>AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
         </is>
       </c>
       <c r="B59" s="3" t="inlineStr">
@@ -5046,7 +5046,7 @@
     <row r="60" ht="130" customHeight="1">
       <c r="A60" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,AU-12 a,MA-4 (1) (a),AU-12 c</t>
+          <t>AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
         </is>
       </c>
       <c r="B60" s="3" t="inlineStr">
@@ -5121,7 +5121,7 @@
     <row r="61" ht="130" customHeight="1">
       <c r="A61" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,AU-12 a,MA-4 (1) (a),AU-12 c</t>
+          <t>AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
         </is>
       </c>
       <c r="B61" s="3" t="inlineStr">
@@ -5196,7 +5196,7 @@
     <row r="62" ht="130" customHeight="1">
       <c r="A62" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,AU-12 a,MA-4 (1) (a),AU-12 c</t>
+          <t>AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
         </is>
       </c>
       <c r="B62" s="3" t="inlineStr">
@@ -5271,7 +5271,7 @@
     <row r="63" ht="130" customHeight="1">
       <c r="A63" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,AU-12 a,MA-4 (1) (a),AU-12 c</t>
+          <t>AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
         </is>
       </c>
       <c r="B63" s="3" t="inlineStr">
@@ -5346,7 +5346,7 @@
     <row r="64" ht="130" customHeight="1">
       <c r="A64" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,AU-12 a,MA-4 (1) (a),AU-12 c</t>
+          <t>AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
         </is>
       </c>
       <c r="B64" s="3" t="inlineStr">
@@ -5421,7 +5421,7 @@
     <row r="65" ht="130" customHeight="1">
       <c r="A65" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,AU-12 a,MA-4 (1) (a),AU-12 c</t>
+          <t>AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
         </is>
       </c>
       <c r="B65" s="3" t="inlineStr">
@@ -5496,7 +5496,7 @@
     <row r="66" ht="130" customHeight="1">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>AU-12 a,AU-7 a,CM-6 b,AU-12 (3),AU-12 c,AU-7 b,AU-8 b,CM-5 (1)</t>
+          <t>AU-7 a,CM-5 (1),AU-8 b,AU-12 a,AU-12 (3),AU-7 b,CM-6 b,AU-12 c</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
@@ -5570,7 +5570,7 @@
     <row r="67" ht="130" customHeight="1">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,AU-12 a,AC-2 (4),MA-4 (1) (a),AU-12 c</t>
+          <t>AC-2 (4),AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
@@ -5651,7 +5651,7 @@
     <row r="68" ht="130" customHeight="1">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,AU-12 a,AC-2 (4),MA-4 (1) (a),AU-12 c</t>
+          <t>AC-2 (4),AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
@@ -5732,7 +5732,7 @@
     <row r="69" ht="130" customHeight="1">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,AU-12 a,AC-2 (4),MA-4 (1) (a),AU-12 c</t>
+          <t>AC-2 (4),AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
@@ -5814,7 +5814,7 @@
     <row r="70" ht="130" customHeight="1">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,AU-12 a,AC-2 (4),MA-4 (1) (a),AU-12 c</t>
+          <t>AC-2 (4),AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
@@ -5896,7 +5896,7 @@
     <row r="71" ht="130" customHeight="1">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,AU-12 a,AC-2 (4),MA-4 (1) (a),AU-12 c</t>
+          <t>AC-2 (4),AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
         </is>
       </c>
       <c r="B71" s="2" t="inlineStr">
@@ -5978,7 +5978,7 @@
     <row r="72" ht="130" customHeight="1">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,AU-12 a,AC-2 (4),MA-4 (1) (a),AU-12 c</t>
+          <t>AC-2 (4),AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
@@ -6060,7 +6060,7 @@
     <row r="73" ht="130" customHeight="1">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,AU-12 a,AC-2 (4),MA-4 (1) (a),AU-12 c</t>
+          <t>AC-2 (4),AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
         </is>
       </c>
       <c r="B73" s="2" t="inlineStr">
@@ -6142,7 +6142,7 @@
     <row r="74" ht="130" customHeight="1">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>CM-3 (5),SI-6 a</t>
+          <t>SI-6 a,CM-3 (5)</t>
         </is>
       </c>
       <c r="B74" s="2" t="inlineStr">
@@ -6216,7 +6216,7 @@
     <row r="75" ht="130" customHeight="1">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>AU-9,SI-11 b</t>
+          <t>SI-11 b,AU-9</t>
         </is>
       </c>
       <c r="B75" s="2" t="inlineStr">
@@ -6299,7 +6299,7 @@
     <row r="76" ht="130" customHeight="1">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>AU-9,SI-11 b</t>
+          <t>SI-11 b,AU-9</t>
         </is>
       </c>
       <c r="B76" s="2" t="inlineStr">
@@ -6377,7 +6377,7 @@
     <row r="77" ht="130" customHeight="1">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>AU-9,SI-11 b</t>
+          <t>SI-11 b,AU-9</t>
         </is>
       </c>
       <c r="B77" s="2" t="inlineStr">
@@ -6468,7 +6468,7 @@
     <row r="78" ht="130" customHeight="1">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>AU-9,SI-11 b</t>
+          <t>SI-11 b,AU-9</t>
         </is>
       </c>
       <c r="B78" s="2" t="inlineStr">
@@ -6550,7 +6550,7 @@
     <row r="79" ht="130" customHeight="1">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>AU-9,SI-11 b</t>
+          <t>SI-11 b,AU-9</t>
         </is>
       </c>
       <c r="B79" s="2" t="inlineStr">
@@ -7180,7 +7180,7 @@
     <row r="87" ht="130" customHeight="1">
       <c r="A87" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,AU-12 a,MA-4 (1) (a),AU-12 c</t>
+          <t>AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
         </is>
       </c>
       <c r="B87" s="3" t="inlineStr">
@@ -7254,7 +7254,7 @@
     <row r="88" ht="130" customHeight="1">
       <c r="A88" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,AU-12 a,MA-4 (1) (a),AU-12 c</t>
+          <t>AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
         </is>
       </c>
       <c r="B88" s="3" t="inlineStr">
@@ -7328,7 +7328,7 @@
     <row r="89" ht="130" customHeight="1">
       <c r="A89" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,AU-12 a,MA-4 (1) (a),AU-12 c</t>
+          <t>AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
         </is>
       </c>
       <c r="B89" s="3" t="inlineStr">
@@ -7402,7 +7402,7 @@
     <row r="90" ht="130" customHeight="1">
       <c r="A90" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,AU-12 a,MA-4 (1) (a),AU-12 c</t>
+          <t>AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
         </is>
       </c>
       <c r="B90" s="3" t="inlineStr">
@@ -7482,7 +7482,7 @@
     <row r="91" ht="130" customHeight="1">
       <c r="A91" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (6),SC-13</t>
+          <t>SC-13,MA-4 (6)</t>
         </is>
       </c>
       <c r="B91" s="3" t="inlineStr">
@@ -7643,7 +7643,7 @@
     <row r="93" ht="130" customHeight="1">
       <c r="A93" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (6),SC-13</t>
+          <t>SC-13,MA-4 (6)</t>
         </is>
       </c>
       <c r="B93" s="3" t="inlineStr">
@@ -7826,7 +7826,7 @@
     <row r="95" ht="130" customHeight="1">
       <c r="A95" s="3" t="inlineStr">
         <is>
-          <t>AU-9,AU-9 (3)</t>
+          <t>AU-9 (3),AU-9</t>
         </is>
       </c>
       <c r="B95" s="3" t="inlineStr">
@@ -7902,7 +7902,7 @@
     <row r="96" ht="130" customHeight="1">
       <c r="A96" s="3" t="inlineStr">
         <is>
-          <t>AU-9,AU-9 (3)</t>
+          <t>AU-9 (3),AU-9</t>
         </is>
       </c>
       <c r="B96" s="3" t="inlineStr">
@@ -7978,7 +7978,7 @@
     <row r="97" ht="130" customHeight="1">
       <c r="A97" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,AU-12 a,MA-4 (1) (a),AU-12 c</t>
+          <t>AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
         </is>
       </c>
       <c r="B97" s="3" t="inlineStr">
@@ -8053,7 +8053,7 @@
     <row r="98" ht="130" customHeight="1">
       <c r="A98" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,AU-12 a,MA-4 (1) (a),AU-12 c</t>
+          <t>AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
         </is>
       </c>
       <c r="B98" s="3" t="inlineStr">
@@ -8128,7 +8128,7 @@
     <row r="99" ht="130" customHeight="1">
       <c r="A99" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,AU-12 a,MA-4 (1) (a),AU-12 c</t>
+          <t>AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
         </is>
       </c>
       <c r="B99" s="3" t="inlineStr">
@@ -8203,7 +8203,7 @@
     <row r="100" ht="130" customHeight="1">
       <c r="A100" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,AU-12 a,MA-4 (1) (a),AU-12 c</t>
+          <t>AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
         </is>
       </c>
       <c r="B100" s="3" t="inlineStr">
@@ -8283,7 +8283,7 @@
     <row r="101" ht="130" customHeight="1">
       <c r="A101" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,AU-12 a,MA-4 (1) (a),AU-12 c</t>
+          <t>AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
         </is>
       </c>
       <c r="B101" s="3" t="inlineStr">
@@ -8357,7 +8357,7 @@
     <row r="102" ht="130" customHeight="1">
       <c r="A102" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,AU-12 a,MA-4 (1) (a),AU-12 c</t>
+          <t>AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
         </is>
       </c>
       <c r="B102" s="3" t="inlineStr">
@@ -8431,7 +8431,7 @@
     <row r="103" ht="130" customHeight="1">
       <c r="A103" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,AU-12 a,MA-4 (1) (a),AU-12 c</t>
+          <t>AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
         </is>
       </c>
       <c r="B103" s="3" t="inlineStr">
@@ -8505,7 +8505,7 @@
     <row r="104" ht="130" customHeight="1">
       <c r="A104" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,AU-12 a,MA-4 (1) (a),AU-12 c</t>
+          <t>AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
         </is>
       </c>
       <c r="B104" s="3" t="inlineStr">
@@ -8579,7 +8579,7 @@
     <row r="105" ht="130" customHeight="1">
       <c r="A105" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,AU-12 a,MA-4 (1) (a),AU-12 c</t>
+          <t>AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
         </is>
       </c>
       <c r="B105" s="3" t="inlineStr">
@@ -8653,7 +8653,7 @@
     <row r="106" ht="130" customHeight="1">
       <c r="A106" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,AU-12 a,MA-4 (1) (a),AU-12 c</t>
+          <t>AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
         </is>
       </c>
       <c r="B106" s="3" t="inlineStr">
@@ -8733,7 +8733,7 @@
     <row r="107" ht="130" customHeight="1">
       <c r="A107" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,AU-12 a,MA-4 (1) (a),AU-12 c</t>
+          <t>AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
         </is>
       </c>
       <c r="B107" s="3" t="inlineStr">
@@ -8813,7 +8813,7 @@
     <row r="108" ht="130" customHeight="1">
       <c r="A108" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,AU-12 a,MA-4 (1) (a),AU-12 c</t>
+          <t>AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
         </is>
       </c>
       <c r="B108" s="3" t="inlineStr">
@@ -9562,7 +9562,7 @@
     <row r="117" ht="130" customHeight="1">
       <c r="A117" s="2" t="inlineStr">
         <is>
-          <t>SC-8,AC-17 (2),SC-13,MA-4 c</t>
+          <t>SC-13,AC-17 (2),MA-4 c,SC-8</t>
         </is>
       </c>
       <c r="B117" s="2" t="inlineStr">
@@ -9644,7 +9644,7 @@
     <row r="118" ht="130" customHeight="1">
       <c r="A118" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B118" s="2" t="inlineStr">
@@ -9722,7 +9722,7 @@
     <row r="119" ht="130" customHeight="1">
       <c r="A119" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,AU-12 a,MA-4 (1) (a),AU-12 c</t>
+          <t>AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
         </is>
       </c>
       <c r="B119" s="2" t="inlineStr">
@@ -9800,7 +9800,7 @@
     <row r="120" ht="130" customHeight="1">
       <c r="A120" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B120" s="2" t="inlineStr">
@@ -9878,7 +9878,7 @@
     <row r="121" ht="130" customHeight="1">
       <c r="A121" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,AU-12 a,MA-4 (1) (a),AU-12 c</t>
+          <t>AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
         </is>
       </c>
       <c r="B121" s="3" t="inlineStr">
@@ -9958,7 +9958,7 @@
     <row r="122" ht="130" customHeight="1">
       <c r="A122" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B122" s="3" t="inlineStr">
@@ -10027,7 +10027,7 @@
     <row r="123" ht="130" customHeight="1">
       <c r="A123" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B123" s="3" t="inlineStr">
@@ -10096,7 +10096,7 @@
     <row r="124" ht="130" customHeight="1">
       <c r="A124" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B124" s="3" t="inlineStr">
@@ -10165,7 +10165,7 @@
     <row r="125" ht="130" customHeight="1">
       <c r="A125" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B125" s="3" t="inlineStr">
@@ -10234,7 +10234,7 @@
     <row r="126" ht="130" customHeight="1">
       <c r="A126" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,AU-12 a,MA-4 (1) (a),AU-12 c</t>
+          <t>AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
         </is>
       </c>
       <c r="B126" s="3" t="inlineStr">
@@ -10314,7 +10314,7 @@
     <row r="127" ht="130" customHeight="1">
       <c r="A127" s="2" t="inlineStr">
         <is>
-          <t>SC-28 (1),SC-28</t>
+          <t>SC-28,SC-28 (1)</t>
         </is>
       </c>
       <c r="B127" s="2" t="inlineStr">
@@ -11081,7 +11081,7 @@
     <row r="137" ht="130" customHeight="1">
       <c r="A137" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,AC-6 (10)</t>
+          <t>AC-6 (10),CM-6 b</t>
         </is>
       </c>
       <c r="B137" s="2" t="inlineStr">
@@ -11162,7 +11162,7 @@
     <row r="138" ht="130" customHeight="1">
       <c r="A138" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,AC-6 (10)</t>
+          <t>AC-6 (10),CM-6 b</t>
         </is>
       </c>
       <c r="B138" s="2" t="inlineStr">
@@ -11248,7 +11248,7 @@
     <row r="139" ht="130" customHeight="1">
       <c r="A139" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,AC-6 (10)</t>
+          <t>AC-6 (10),CM-6 b</t>
         </is>
       </c>
       <c r="B139" s="2" t="inlineStr">
@@ -11614,7 +11614,7 @@
     <row r="143" ht="130" customHeight="1">
       <c r="A143" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B143" s="3" t="inlineStr">
@@ -11694,7 +11694,7 @@
     <row r="144" ht="130" customHeight="1">
       <c r="A144" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,AU-12 a,MA-4 (1) (a),AU-12 c</t>
+          <t>AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
         </is>
       </c>
       <c r="B144" s="3" t="inlineStr">
@@ -11774,7 +11774,7 @@
     <row r="145" ht="130" customHeight="1">
       <c r="A145" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,AU-12 a,MA-4 (1) (a),AU-12 c</t>
+          <t>AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
         </is>
       </c>
       <c r="B145" s="3" t="inlineStr">
@@ -11854,7 +11854,7 @@
     <row r="146" ht="130" customHeight="1">
       <c r="A146" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,AU-12 a,MA-4 (1) (a),AU-12 c</t>
+          <t>AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
         </is>
       </c>
       <c r="B146" s="3" t="inlineStr">
@@ -12166,7 +12166,7 @@
     <row r="150" ht="130" customHeight="1">
       <c r="A150" s="2" t="inlineStr">
         <is>
-          <t>IA-7,IA-5 (1) (c)</t>
+          <t>IA-5 (1) (c),IA-7</t>
         </is>
       </c>
       <c r="B150" s="2" t="inlineStr">
@@ -12553,7 +12553,7 @@
     <row r="155" ht="130" customHeight="1">
       <c r="A155" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,IA-7</t>
+          <t>IA-7,CM-6 b</t>
         </is>
       </c>
       <c r="B155" s="2" t="inlineStr">
@@ -12629,7 +12629,7 @@
     <row r="156" ht="130" customHeight="1">
       <c r="A156" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,IA-7</t>
+          <t>IA-7,CM-6 b</t>
         </is>
       </c>
       <c r="B156" s="2" t="inlineStr">
@@ -12714,7 +12714,7 @@
     <row r="157" ht="130" customHeight="1">
       <c r="A157" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,IA-7</t>
+          <t>IA-7,CM-6 b</t>
         </is>
       </c>
       <c r="B157" s="2" t="inlineStr">
@@ -12950,7 +12950,7 @@
     <row r="160" ht="130" customHeight="1">
       <c r="A160" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,AU-12 a,MA-4 (1) (a),AU-12 c</t>
+          <t>AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
         </is>
       </c>
       <c r="B160" s="3" t="inlineStr">
@@ -13027,7 +13027,7 @@
     <row r="161" ht="130" customHeight="1">
       <c r="A161" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3,AU-12 a,AU-12 c</t>
+          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3</t>
         </is>
       </c>
       <c r="B161" s="3" t="inlineStr">
@@ -13100,7 +13100,7 @@
     <row r="162" ht="130" customHeight="1">
       <c r="A162" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3,AU-12 a,AU-12 c</t>
+          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3</t>
         </is>
       </c>
       <c r="B162" s="3" t="inlineStr">
@@ -13173,7 +13173,7 @@
     <row r="163" ht="130" customHeight="1">
       <c r="A163" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,AU-12 a,MA-4 (1) (a),AU-12 c</t>
+          <t>AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
         </is>
       </c>
       <c r="B163" s="3" t="inlineStr">
@@ -13258,7 +13258,7 @@
     <row r="164" ht="130" customHeight="1">
       <c r="A164" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,AU-12 a,MA-4 (1) (a),AU-12 c</t>
+          <t>AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
         </is>
       </c>
       <c r="B164" s="3" t="inlineStr">
@@ -13333,7 +13333,7 @@
     <row r="165" ht="130" customHeight="1">
       <c r="A165" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,AU-12 a,MA-4 (1) (a),AU-12 c</t>
+          <t>AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
         </is>
       </c>
       <c r="B165" s="3" t="inlineStr">
@@ -13408,7 +13408,7 @@
     <row r="166" ht="130" customHeight="1">
       <c r="A166" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,AU-12 a,MA-4 (1) (a),AU-12 c</t>
+          <t>AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
         </is>
       </c>
       <c r="B166" s="3" t="inlineStr">
@@ -13483,7 +13483,7 @@
     <row r="167" ht="130" customHeight="1">
       <c r="A167" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,AU-12 a,MA-4 (1) (a),AU-12 c</t>
+          <t>AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
         </is>
       </c>
       <c r="B167" s="3" t="inlineStr">
@@ -13558,7 +13558,7 @@
     <row r="168" ht="130" customHeight="1">
       <c r="A168" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B168" s="3" t="inlineStr">
@@ -13629,7 +13629,7 @@
     <row r="169" ht="130" customHeight="1">
       <c r="A169" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B169" s="3" t="inlineStr">
@@ -13700,7 +13700,7 @@
     <row r="170" ht="130" customHeight="1">
       <c r="A170" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B170" s="3" t="inlineStr">
@@ -13772,7 +13772,7 @@
     <row r="171" ht="130" customHeight="1">
       <c r="A171" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B171" s="3" t="inlineStr">
@@ -13843,7 +13843,7 @@
     <row r="172" ht="130" customHeight="1">
       <c r="A172" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B172" s="3" t="inlineStr">
@@ -13914,7 +13914,7 @@
     <row r="173" ht="130" customHeight="1">
       <c r="A173" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B173" s="3" t="inlineStr">
@@ -13986,7 +13986,7 @@
     <row r="174" ht="130" customHeight="1">
       <c r="A174" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,AU-12 a,MA-4 (1) (a),AU-12 c</t>
+          <t>AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
         </is>
       </c>
       <c r="B174" s="3" t="inlineStr">
@@ -14061,7 +14061,7 @@
     <row r="175" ht="130" customHeight="1">
       <c r="A175" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B175" s="3" t="inlineStr">
@@ -14132,7 +14132,7 @@
     <row r="176" ht="130" customHeight="1">
       <c r="A176" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B176" s="3" t="inlineStr">
@@ -14203,7 +14203,7 @@
     <row r="177" ht="130" customHeight="1">
       <c r="A177" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B177" s="3" t="inlineStr">
@@ -14275,7 +14275,7 @@
     <row r="178" ht="130" customHeight="1">
       <c r="A178" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,AU-12 a,MA-4 (1) (a),AU-12 c</t>
+          <t>AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
         </is>
       </c>
       <c r="B178" s="3" t="inlineStr">
@@ -14350,7 +14350,7 @@
     <row r="179" ht="130" customHeight="1">
       <c r="A179" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,AU-12 a,MA-4 (1) (a),AU-12 c</t>
+          <t>AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
         </is>
       </c>
       <c r="B179" s="3" t="inlineStr">
@@ -14432,7 +14432,7 @@
     <row r="180" ht="130" customHeight="1">
       <c r="A180" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,AU-12 a,MA-4 (1) (a),AU-12 c</t>
+          <t>AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
         </is>
       </c>
       <c r="B180" s="3" t="inlineStr">
@@ -14514,7 +14514,7 @@
     <row r="181" ht="130" customHeight="1">
       <c r="A181" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,AU-12 a,MA-4 (1) (a),AU-12 c</t>
+          <t>AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
         </is>
       </c>
       <c r="B181" s="3" t="inlineStr">
@@ -14596,7 +14596,7 @@
     <row r="182" ht="130" customHeight="1">
       <c r="A182" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),MA-4 (1) (a),AU-3</t>
+          <t>MA-4 (1) (a),AU-3 (1),AU-3</t>
         </is>
       </c>
       <c r="B182" s="3" t="inlineStr">
@@ -14678,7 +14678,7 @@
     <row r="183" ht="130" customHeight="1">
       <c r="A183" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,AU-12 a,MA-4 (1) (a),AU-12 c</t>
+          <t>AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
         </is>
       </c>
       <c r="B183" s="3" t="inlineStr">
@@ -14760,7 +14760,7 @@
     <row r="184" ht="130" customHeight="1">
       <c r="A184" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,AU-12 a,MA-4 (1) (a),AU-12 c</t>
+          <t>AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
         </is>
       </c>
       <c r="B184" s="3" t="inlineStr">
@@ -14842,7 +14842,7 @@
     <row r="185" ht="130" customHeight="1">
       <c r="A185" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,AU-12 a,MA-4 (1) (a),AU-12 c</t>
+          <t>AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
         </is>
       </c>
       <c r="B185" s="3" t="inlineStr">
@@ -14924,7 +14924,7 @@
     <row r="186" ht="130" customHeight="1">
       <c r="A186" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,AU-12 a,MA-4 (1) (a),AU-12 c</t>
+          <t>AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
         </is>
       </c>
       <c r="B186" s="3" t="inlineStr">
@@ -15006,7 +15006,7 @@
     <row r="187" ht="130" customHeight="1">
       <c r="A187" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,AU-12 a,MA-4 (1) (a),AU-12 c</t>
+          <t>AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
         </is>
       </c>
       <c r="B187" s="3" t="inlineStr">
@@ -15088,7 +15088,7 @@
     <row r="188" ht="130" customHeight="1">
       <c r="A188" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,MA-4 (1) (a),AU-3 (1)</t>
         </is>
       </c>
       <c r="B188" s="3" t="inlineStr">
@@ -15166,7 +15166,7 @@
     <row r="189" ht="130" customHeight="1">
       <c r="A189" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,AU-12 a,MA-4 (1) (a),AU-12 c</t>
+          <t>AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
         </is>
       </c>
       <c r="B189" s="3" t="inlineStr">
@@ -15245,7 +15245,7 @@
     <row r="190" ht="130" customHeight="1">
       <c r="A190" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,AU-12 a,MA-4 (1) (a),AU-12 c</t>
+          <t>AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
         </is>
       </c>
       <c r="B190" s="3" t="inlineStr">
@@ -15327,7 +15327,7 @@
     <row r="191" ht="130" customHeight="1">
       <c r="A191" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,AU-12 a,MA-4 (1) (a),AU-12 c</t>
+          <t>AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
         </is>
       </c>
       <c r="B191" s="3" t="inlineStr">
@@ -15409,7 +15409,7 @@
     <row r="192" ht="130" customHeight="1">
       <c r="A192" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),MA-4 (1) (a),AU-3,AU-12 c</t>
+          <t>AU-12 c,MA-4 (1) (a),AU-3 (1),AU-3</t>
         </is>
       </c>
       <c r="B192" s="3" t="inlineStr">
@@ -15491,7 +15491,7 @@
     <row r="193" ht="130" customHeight="1">
       <c r="A193" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,AU-12 a,MA-4 (1) (a),AU-12 c</t>
+          <t>AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
         </is>
       </c>
       <c r="B193" s="3" t="inlineStr">
@@ -15573,7 +15573,7 @@
     <row r="194" ht="130" customHeight="1">
       <c r="A194" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,AU-12 a,MA-4 (1) (a),AU-12 c</t>
+          <t>AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
         </is>
       </c>
       <c r="B194" s="3" t="inlineStr">
@@ -15655,7 +15655,7 @@
     <row r="195" ht="130" customHeight="1">
       <c r="A195" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,AU-12 a,MA-4 (1) (a),AU-12 c</t>
+          <t>AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
         </is>
       </c>
       <c r="B195" s="3" t="inlineStr">
@@ -15737,7 +15737,7 @@
     <row r="196" ht="130" customHeight="1">
       <c r="A196" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,AU-12 a,MA-4 (1) (a),AU-12 c</t>
+          <t>AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
         </is>
       </c>
       <c r="B196" s="3" t="inlineStr">
@@ -15812,7 +15812,7 @@
     <row r="197" ht="130" customHeight="1">
       <c r="A197" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,AU-12 a,AC-2 (4),MA-4 (1) (a),AU-12 c</t>
+          <t>AC-2 (4),AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
         </is>
       </c>
       <c r="B197" s="3" t="inlineStr">
@@ -15885,7 +15885,7 @@
     <row r="198" ht="130" customHeight="1">
       <c r="A198" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,AC-2 (4),MA-4 (1) (a),AU-12 c</t>
+          <t>AC-2 (4),AU-3 (1),AU-12 c,MA-4 (1) (a),AU-3</t>
         </is>
       </c>
       <c r="B198" s="3" t="inlineStr">
@@ -15962,7 +15962,7 @@
     <row r="199" ht="130" customHeight="1">
       <c r="A199" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (1),IA-2 (4),IA-2 (3),IA-2 (2)</t>
+          <t>IA-2 (1),IA-2 (2),IA-2 (4),IA-2 (3)</t>
         </is>
       </c>
       <c r="B199" s="2" t="inlineStr">
@@ -16049,7 +16049,7 @@
     <row r="200" ht="130" customHeight="1">
       <c r="A200" s="2" t="inlineStr">
         <is>
-          <t>IA-2,IA-2 (4),IA-2 (5),IA-2 (3),IA-2 (2)</t>
+          <t>IA-2 (3),IA-2 (5),IA-2 (2),IA-2 (4),IA-2</t>
         </is>
       </c>
       <c r="B200" s="2" t="inlineStr">
@@ -16138,7 +16138,7 @@
     <row r="201" ht="130" customHeight="1">
       <c r="A201" s="2" t="inlineStr">
         <is>
-          <t>IA-2,IA-2 (4),IA-2 (5),IA-2 (3),IA-2 (2)</t>
+          <t>IA-2 (3),IA-2 (5),IA-2 (2),IA-2 (4),IA-2</t>
         </is>
       </c>
       <c r="B201" s="2" t="inlineStr">
@@ -16382,7 +16382,7 @@
     <row r="204" ht="130" customHeight="1">
       <c r="A204" s="3" t="inlineStr">
         <is>
-          <t>AC-3 (4),IA-11</t>
+          <t>IA-11,AC-3 (4)</t>
         </is>
       </c>
       <c r="B204" s="3" t="inlineStr">
@@ -16824,7 +16824,7 @@
     <row r="210" ht="130" customHeight="1">
       <c r="A210" s="2" t="inlineStr">
         <is>
-          <t>SC-8 (2),SC-8,SC-8 (1)</t>
+          <t>SC-8 (2),SC-8 (1),SC-8</t>
         </is>
       </c>
       <c r="B210" s="2" t="inlineStr">
@@ -16901,7 +16901,7 @@
     <row r="211" ht="130" customHeight="1">
       <c r="A211" s="2" t="inlineStr">
         <is>
-          <t>SC-8 (2),SC-8,SC-8 (1)</t>
+          <t>SC-8 (2),SC-8 (1),SC-8</t>
         </is>
       </c>
       <c r="B211" s="2" t="inlineStr">
@@ -16987,7 +16987,7 @@
     <row r="212" ht="130" customHeight="1">
       <c r="A212" s="2" t="inlineStr">
         <is>
-          <t>SC-8,AC-18 (1),SC-8 (1)</t>
+          <t>AC-18 (1),SC-8 (1),SC-8</t>
         </is>
       </c>
       <c r="B212" s="2" t="inlineStr">
@@ -17755,7 +17755,7 @@
     <row r="222" ht="130" customHeight="1">
       <c r="A222" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,CM-7 a,IA-5 (1) (c)</t>
+          <t>CM-7 a,IA-5 (1) (c),CM-6 b</t>
         </is>
       </c>
       <c r="B222" s="2" t="inlineStr">
@@ -17915,7 +17915,7 @@
     <row r="224" ht="130" customHeight="1">
       <c r="A224" s="3" t="inlineStr">
         <is>
-          <t>CM-6 b,AU-12 a</t>
+          <t>AU-12 a,CM-6 b</t>
         </is>
       </c>
       <c r="B224" s="3" t="inlineStr">
@@ -18001,7 +18001,7 @@
     <row r="225" ht="130" customHeight="1">
       <c r="A225" s="2" t="inlineStr">
         <is>
-          <t>SC-5 (2),CM-6 b,SC-5</t>
+          <t>SC-5,SC-5 (2),CM-6 b</t>
         </is>
       </c>
       <c r="B225" s="2" t="inlineStr">
@@ -18371,7 +18371,7 @@
     <row r="229" ht="130" customHeight="1">
       <c r="A229" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),IA-2,IA-8</t>
+          <t>AU-3 (1),IA-8,IA-2</t>
         </is>
       </c>
       <c r="B229" s="2" t="inlineStr">
@@ -19345,7 +19345,7 @@
     <row r="241" ht="130" customHeight="1">
       <c r="A241" s="3" t="inlineStr">
         <is>
-          <t>CM-6 b,SC-2,SI-16</t>
+          <t>SC-2,CM-6 b,SI-16</t>
         </is>
       </c>
       <c r="B241" s="3" t="inlineStr">
@@ -20222,7 +20222,7 @@
     <row r="252" ht="130" customHeight="1">
       <c r="A252" s="2" t="inlineStr">
         <is>
-          <t>IA-5 (1) (b),IA-5 (1) (a),CM-6 b</t>
+          <t>IA-5 (1) (a),CM-6 b,IA-5 (1) (b)</t>
         </is>
       </c>
       <c r="B252" s="2" t="inlineStr">
@@ -20790,7 +20790,7 @@
     <row r="259" ht="130" customHeight="1">
       <c r="A259" s="2" t="inlineStr">
         <is>
-          <t>SC-4,CM-6 b</t>
+          <t>CM-6 b,SC-4</t>
         </is>
       </c>
       <c r="B259" s="2" t="inlineStr">
@@ -20871,7 +20871,7 @@
     <row r="260" ht="130" customHeight="1">
       <c r="A260" s="3" t="inlineStr">
         <is>
-          <t>SC-4,SC-2</t>
+          <t>SC-2,SC-4</t>
         </is>
       </c>
       <c r="B260" s="3" t="inlineStr">
@@ -20959,7 +20959,7 @@
     <row r="261" ht="130" customHeight="1">
       <c r="A261" s="3" t="inlineStr">
         <is>
-          <t>SC-4,SC-2</t>
+          <t>SC-2,SC-4</t>
         </is>
       </c>
       <c r="B261" s="3" t="inlineStr">
@@ -22136,7 +22136,7 @@
     <row r="276" ht="130" customHeight="1">
       <c r="A276" s="3" t="inlineStr">
         <is>
-          <t>AU-9,AU-12 c</t>
+          <t>AU-12 c,AU-9</t>
         </is>
       </c>
       <c r="B276" s="3" t="inlineStr">
@@ -22209,7 +22209,7 @@
     <row r="277" ht="130" customHeight="1">
       <c r="A277" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,CM-5 (3)</t>
+          <t>CM-5 (3),CM-6 b</t>
         </is>
       </c>
       <c r="B277" s="2" t="inlineStr">
@@ -22894,7 +22894,7 @@
     <row r="285" ht="130" customHeight="1">
       <c r="A285" s="3" t="inlineStr">
         <is>
-          <t>CM-6 b,CM-7 a</t>
+          <t>CM-7 a,CM-6 b</t>
         </is>
       </c>
       <c r="B285" s="3" t="inlineStr">
@@ -23042,7 +23042,7 @@
     <row r="287" ht="130" customHeight="1">
       <c r="A287" s="3" t="inlineStr">
         <is>
-          <t>CM-7 b,CM-7 a</t>
+          <t>CM-7 a,CM-7 b</t>
         </is>
       </c>
       <c r="B287" s="3" t="inlineStr">
@@ -23116,7 +23116,7 @@
     <row r="288" ht="130" customHeight="1">
       <c r="A288" s="3" t="inlineStr">
         <is>
-          <t>CM-7 b,CM-7 a</t>
+          <t>CM-7 a,CM-7 b</t>
         </is>
       </c>
       <c r="B288" s="3" t="inlineStr">
@@ -24179,7 +24179,7 @@
     <row r="302" ht="130" customHeight="1">
       <c r="A302" s="3" t="inlineStr">
         <is>
-          <t>AC-2 (4),AC-6 (9),AU-12 c</t>
+          <t>AC-2 (4),AU-12 c,AC-6 (9)</t>
         </is>
       </c>
       <c r="B302" s="3" t="inlineStr">
@@ -24396,7 +24396,7 @@
     <row r="304" ht="130" customHeight="1">
       <c r="A304" s="3" t="inlineStr">
         <is>
-          <t>AU-5 a,AU-5 (1)</t>
+          <t>AU-5 (1),AU-5 a</t>
         </is>
       </c>
       <c r="B304" s="3" t="inlineStr">
@@ -27758,7 +27758,7 @@
     <row r="349" ht="130" customHeight="1">
       <c r="A349" s="3" t="inlineStr">
         <is>
-          <t>CM-6 b,IA-5 (1) (c)</t>
+          <t>IA-5 (1) (c),CM-6 b</t>
         </is>
       </c>
       <c r="B349" s="3" t="inlineStr">
@@ -27908,7 +27908,7 @@
     <row r="351" ht="130" customHeight="1">
       <c r="A351" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,IA-2 (2)</t>
+          <t>IA-2 (2),CM-6 b</t>
         </is>
       </c>
       <c r="B351" s="2" t="inlineStr">
@@ -30369,7 +30369,7 @@
     <row r="384" ht="130" customHeight="1">
       <c r="A384" s="3" t="inlineStr">
         <is>
-          <t>AU-3,CM-6 b</t>
+          <t>CM-6 b,AU-3</t>
         </is>
       </c>
       <c r="B384" s="3" t="inlineStr">
@@ -30613,7 +30613,7 @@
     <row r="387" ht="130" customHeight="1">
       <c r="A387" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,SC-3</t>
+          <t>SC-3,CM-6 b</t>
         </is>
       </c>
       <c r="B387" s="2" t="inlineStr">
@@ -31007,7 +31007,7 @@
     <row r="392" ht="130" customHeight="1">
       <c r="A392" s="2" t="inlineStr">
         <is>
-          <t>AC-17 (9),CM-7 b,CM-6 b,AC-17 (1)</t>
+          <t>AC-17 (9),AC-17 (1),CM-7 b,CM-6 b</t>
         </is>
       </c>
       <c r="B392" s="2" t="inlineStr">
@@ -31085,7 +31085,7 @@
     <row r="393" ht="130" customHeight="1">
       <c r="A393" s="2" t="inlineStr">
         <is>
-          <t>CM-7 b,CM-6 b,AC-17 (1)</t>
+          <t>AC-17 (1),CM-7 b,CM-6 b</t>
         </is>
       </c>
       <c r="B393" s="2" t="inlineStr">
@@ -34346,7 +34346,7 @@
     <row r="432" ht="130" customHeight="1">
       <c r="A432" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,SC-3</t>
+          <t>SC-3,CM-6 b</t>
         </is>
       </c>
       <c r="B432" s="2" t="inlineStr">
@@ -34527,7 +34527,7 @@
     <row r="434" ht="130" customHeight="1">
       <c r="A434" s="3" t="inlineStr">
         <is>
-          <t>CM-6 b,SC-2</t>
+          <t>SC-2,CM-6 b</t>
         </is>
       </c>
       <c r="B434" s="3" t="inlineStr">
@@ -34614,7 +34614,7 @@
     <row r="435" ht="130" customHeight="1">
       <c r="A435" s="3" t="inlineStr">
         <is>
-          <t>CM-6 b,SC-2</t>
+          <t>SC-2,CM-6 b</t>
         </is>
       </c>
       <c r="B435" s="3" t="inlineStr">
@@ -34949,7 +34949,7 @@
     <row r="439" ht="130" customHeight="1">
       <c r="A439" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,SC-3</t>
+          <t>SC-3,CM-6 b</t>
         </is>
       </c>
       <c r="B439" s="2" t="inlineStr">
@@ -35401,7 +35401,7 @@
     <row r="445" ht="130" customHeight="1">
       <c r="A445" s="3" t="inlineStr">
         <is>
-          <t>AU-4,CM-6 b</t>
+          <t>CM-6 b,AU-4</t>
         </is>
       </c>
       <c r="B445" s="3" t="inlineStr">
@@ -37098,7 +37098,7 @@
     <row r="468" ht="130" customHeight="1">
       <c r="A468" s="3" t="inlineStr">
         <is>
-          <t>AC-12,SC-10,MA-4 (7),MA-4 e</t>
+          <t>SC-10,MA-4 (7),MA-4 e,AC-12</t>
         </is>
       </c>
       <c r="B468" s="3" t="inlineStr">
@@ -37328,7 +37328,7 @@
     <row r="471" ht="130" customHeight="1">
       <c r="A471" s="2" t="inlineStr">
         <is>
-          <t>SC-8,AC-17 (2),SC-8 (1)</t>
+          <t>AC-17 (2),SC-8 (1),SC-8</t>
         </is>
       </c>
       <c r="B471" s="2" t="inlineStr">
@@ -38920,7 +38920,7 @@
     <row r="492" ht="130" customHeight="1">
       <c r="A492" s="3" t="inlineStr">
         <is>
-          <t>CM-7 b,AC-17 (1)</t>
+          <t>AC-17 (1),CM-7 b</t>
         </is>
       </c>
       <c r="B492" s="3" t="inlineStr">
@@ -41215,7 +41215,7 @@
     <row r="520" ht="130" customHeight="1">
       <c r="A520" s="2" t="inlineStr">
         <is>
-          <t>SC-8,SC-8 (2)</t>
+          <t>SC-8 (2),SC-8</t>
         </is>
       </c>
       <c r="B520" s="2" t="inlineStr">
@@ -42405,7 +42405,7 @@
     <row r="535" ht="130" customHeight="1">
       <c r="A535" s="2" t="inlineStr">
         <is>
-          <t>SC-8,AC-17 (2)</t>
+          <t>AC-17 (2),SC-8</t>
         </is>
       </c>
       <c r="B535" s="2" t="inlineStr">

--- a/srg_mapping/srg-mapping-rhel9.xlsx
+++ b/srg_mapping/srg-mapping-rhel9.xlsx
@@ -973,7 +973,7 @@
     <row r="7" ht="130" customHeight="1">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>AU-5 a,AU-5 b</t>
+          <t>AU-5 b,AU-5 a</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
@@ -1455,7 +1455,7 @@
     <row r="13" ht="130" customHeight="1">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-7 (1),AU-7 a,CM-5 (1),AU-12 a,AU-6 (4),CM-6 b,MA-4 (1) (a),AU-3,AU-14 (1)</t>
+          <t>AU-14 (1),AU-7 a,AU-3 (1),CM-5 (1),MA-4 (1) (a),AU-12 a,AU-3,AU-7 (1),AU-6 (4),CM-6 b</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
@@ -1540,7 +1540,7 @@
     <row r="14" ht="130" customHeight="1">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>CM-7 (2),CM-7 (5) (b)</t>
+          <t>CM-7 (5) (b),CM-7 (2)</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
@@ -1616,7 +1616,7 @@
     <row r="15" ht="130" customHeight="1">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>CM-7 (2),CM-7 (5) (b)</t>
+          <t>CM-7 (5) (b),CM-7 (2)</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
@@ -3258,7 +3258,7 @@
     <row r="37" ht="130" customHeight="1">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3,AU-14 (1)</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-14 (1)</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
@@ -3349,7 +3349,7 @@
     <row r="38" ht="130" customHeight="1">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>AU-4,AU-14 (1)</t>
+          <t>AU-14 (1),AU-4</t>
         </is>
       </c>
       <c r="B38" s="3" t="inlineStr">
@@ -4170,7 +4170,7 @@
     <row r="49" ht="130" customHeight="1">
       <c r="A49" s="3" t="inlineStr">
         <is>
-          <t>AU-6 (4),AU-4 (1),CM-6 b</t>
+          <t>AU-6 (4),CM-6 b,AU-4 (1)</t>
         </is>
       </c>
       <c r="B49" s="3" t="inlineStr">
@@ -4240,7 +4240,7 @@
     <row r="50" ht="130" customHeight="1">
       <c r="A50" s="3" t="inlineStr">
         <is>
-          <t>AU-4 (1),CM-6 b</t>
+          <t>CM-6 b,AU-4 (1)</t>
         </is>
       </c>
       <c r="B50" s="3" t="inlineStr">
@@ -4561,7 +4561,7 @@
     <row r="54" ht="130" customHeight="1">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (1),IA-2 (12),IA-2 (11)</t>
+          <t>IA-2 (12),IA-2 (1),IA-2 (11)</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
@@ -4645,7 +4645,7 @@
     <row r="55" ht="130" customHeight="1">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>SI-6 b,SI-6 d,CM-3 (5)</t>
+          <t>SI-6 d,SI-6 b,CM-3 (5)</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
@@ -4821,7 +4821,7 @@
     <row r="57" ht="130" customHeight="1">
       <c r="A57" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
         </is>
       </c>
       <c r="B57" s="3" t="inlineStr">
@@ -4896,7 +4896,7 @@
     <row r="58" ht="130" customHeight="1">
       <c r="A58" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
         </is>
       </c>
       <c r="B58" s="3" t="inlineStr">
@@ -4971,7 +4971,7 @@
     <row r="59" ht="130" customHeight="1">
       <c r="A59" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
         </is>
       </c>
       <c r="B59" s="3" t="inlineStr">
@@ -5046,7 +5046,7 @@
     <row r="60" ht="130" customHeight="1">
       <c r="A60" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
         </is>
       </c>
       <c r="B60" s="3" t="inlineStr">
@@ -5121,7 +5121,7 @@
     <row r="61" ht="130" customHeight="1">
       <c r="A61" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
         </is>
       </c>
       <c r="B61" s="3" t="inlineStr">
@@ -5196,7 +5196,7 @@
     <row r="62" ht="130" customHeight="1">
       <c r="A62" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
         </is>
       </c>
       <c r="B62" s="3" t="inlineStr">
@@ -5271,7 +5271,7 @@
     <row r="63" ht="130" customHeight="1">
       <c r="A63" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
         </is>
       </c>
       <c r="B63" s="3" t="inlineStr">
@@ -5346,7 +5346,7 @@
     <row r="64" ht="130" customHeight="1">
       <c r="A64" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
         </is>
       </c>
       <c r="B64" s="3" t="inlineStr">
@@ -5421,7 +5421,7 @@
     <row r="65" ht="130" customHeight="1">
       <c r="A65" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
         </is>
       </c>
       <c r="B65" s="3" t="inlineStr">
@@ -5496,7 +5496,7 @@
     <row r="66" ht="130" customHeight="1">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>AU-7 a,CM-5 (1),AU-8 b,AU-12 a,AU-12 (3),AU-7 b,CM-6 b,AU-12 c</t>
+          <t>AU-7 b,AU-7 a,CM-5 (1),AU-12 a,AU-12 c,AU-8 b,AU-12 (3),CM-6 b</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
@@ -5570,7 +5570,7 @@
     <row r="67" ht="130" customHeight="1">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>AC-2 (4),AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
+          <t>AU-3 (1),AC-2 (4),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
@@ -5651,7 +5651,7 @@
     <row r="68" ht="130" customHeight="1">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>AC-2 (4),AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
+          <t>AU-3 (1),AC-2 (4),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
@@ -5732,7 +5732,7 @@
     <row r="69" ht="130" customHeight="1">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>AC-2 (4),AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
+          <t>AU-3 (1),AC-2 (4),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
@@ -5814,7 +5814,7 @@
     <row r="70" ht="130" customHeight="1">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>AC-2 (4),AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
+          <t>AU-3 (1),AC-2 (4),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
@@ -5896,7 +5896,7 @@
     <row r="71" ht="130" customHeight="1">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>AC-2 (4),AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
+          <t>AU-3 (1),AC-2 (4),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
         </is>
       </c>
       <c r="B71" s="2" t="inlineStr">
@@ -5978,7 +5978,7 @@
     <row r="72" ht="130" customHeight="1">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>AC-2 (4),AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
+          <t>AU-3 (1),AC-2 (4),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
@@ -6060,7 +6060,7 @@
     <row r="73" ht="130" customHeight="1">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>AC-2 (4),AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
+          <t>AU-3 (1),AC-2 (4),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
         </is>
       </c>
       <c r="B73" s="2" t="inlineStr">
@@ -6216,7 +6216,7 @@
     <row r="75" ht="130" customHeight="1">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>SI-11 b,AU-9</t>
+          <t>AU-9,SI-11 b</t>
         </is>
       </c>
       <c r="B75" s="2" t="inlineStr">
@@ -6299,7 +6299,7 @@
     <row r="76" ht="130" customHeight="1">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>SI-11 b,AU-9</t>
+          <t>AU-9,SI-11 b</t>
         </is>
       </c>
       <c r="B76" s="2" t="inlineStr">
@@ -6377,7 +6377,7 @@
     <row r="77" ht="130" customHeight="1">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>SI-11 b,AU-9</t>
+          <t>AU-9,SI-11 b</t>
         </is>
       </c>
       <c r="B77" s="2" t="inlineStr">
@@ -6468,7 +6468,7 @@
     <row r="78" ht="130" customHeight="1">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>SI-11 b,AU-9</t>
+          <t>AU-9,SI-11 b</t>
         </is>
       </c>
       <c r="B78" s="2" t="inlineStr">
@@ -6550,7 +6550,7 @@
     <row r="79" ht="130" customHeight="1">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>SI-11 b,AU-9</t>
+          <t>AU-9,SI-11 b</t>
         </is>
       </c>
       <c r="B79" s="2" t="inlineStr">
@@ -7180,7 +7180,7 @@
     <row r="87" ht="130" customHeight="1">
       <c r="A87" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
         </is>
       </c>
       <c r="B87" s="3" t="inlineStr">
@@ -7254,7 +7254,7 @@
     <row r="88" ht="130" customHeight="1">
       <c r="A88" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
         </is>
       </c>
       <c r="B88" s="3" t="inlineStr">
@@ -7328,7 +7328,7 @@
     <row r="89" ht="130" customHeight="1">
       <c r="A89" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
         </is>
       </c>
       <c r="B89" s="3" t="inlineStr">
@@ -7402,7 +7402,7 @@
     <row r="90" ht="130" customHeight="1">
       <c r="A90" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
         </is>
       </c>
       <c r="B90" s="3" t="inlineStr">
@@ -7482,7 +7482,7 @@
     <row r="91" ht="130" customHeight="1">
       <c r="A91" s="3" t="inlineStr">
         <is>
-          <t>SC-13,MA-4 (6)</t>
+          <t>MA-4 (6),SC-13</t>
         </is>
       </c>
       <c r="B91" s="3" t="inlineStr">
@@ -7643,7 +7643,7 @@
     <row r="93" ht="130" customHeight="1">
       <c r="A93" s="3" t="inlineStr">
         <is>
-          <t>SC-13,MA-4 (6)</t>
+          <t>MA-4 (6),SC-13</t>
         </is>
       </c>
       <c r="B93" s="3" t="inlineStr">
@@ -7826,7 +7826,7 @@
     <row r="95" ht="130" customHeight="1">
       <c r="A95" s="3" t="inlineStr">
         <is>
-          <t>AU-9 (3),AU-9</t>
+          <t>AU-9,AU-9 (3)</t>
         </is>
       </c>
       <c r="B95" s="3" t="inlineStr">
@@ -7902,7 +7902,7 @@
     <row r="96" ht="130" customHeight="1">
       <c r="A96" s="3" t="inlineStr">
         <is>
-          <t>AU-9 (3),AU-9</t>
+          <t>AU-9,AU-9 (3)</t>
         </is>
       </c>
       <c r="B96" s="3" t="inlineStr">
@@ -7978,7 +7978,7 @@
     <row r="97" ht="130" customHeight="1">
       <c r="A97" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
         </is>
       </c>
       <c r="B97" s="3" t="inlineStr">
@@ -8053,7 +8053,7 @@
     <row r="98" ht="130" customHeight="1">
       <c r="A98" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
         </is>
       </c>
       <c r="B98" s="3" t="inlineStr">
@@ -8128,7 +8128,7 @@
     <row r="99" ht="130" customHeight="1">
       <c r="A99" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
         </is>
       </c>
       <c r="B99" s="3" t="inlineStr">
@@ -8203,7 +8203,7 @@
     <row r="100" ht="130" customHeight="1">
       <c r="A100" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
         </is>
       </c>
       <c r="B100" s="3" t="inlineStr">
@@ -8283,7 +8283,7 @@
     <row r="101" ht="130" customHeight="1">
       <c r="A101" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
         </is>
       </c>
       <c r="B101" s="3" t="inlineStr">
@@ -8357,7 +8357,7 @@
     <row r="102" ht="130" customHeight="1">
       <c r="A102" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
         </is>
       </c>
       <c r="B102" s="3" t="inlineStr">
@@ -8431,7 +8431,7 @@
     <row r="103" ht="130" customHeight="1">
       <c r="A103" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
         </is>
       </c>
       <c r="B103" s="3" t="inlineStr">
@@ -8505,7 +8505,7 @@
     <row r="104" ht="130" customHeight="1">
       <c r="A104" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
         </is>
       </c>
       <c r="B104" s="3" t="inlineStr">
@@ -8579,7 +8579,7 @@
     <row r="105" ht="130" customHeight="1">
       <c r="A105" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
         </is>
       </c>
       <c r="B105" s="3" t="inlineStr">
@@ -8653,7 +8653,7 @@
     <row r="106" ht="130" customHeight="1">
       <c r="A106" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
         </is>
       </c>
       <c r="B106" s="3" t="inlineStr">
@@ -8733,7 +8733,7 @@
     <row r="107" ht="130" customHeight="1">
       <c r="A107" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
         </is>
       </c>
       <c r="B107" s="3" t="inlineStr">
@@ -8813,7 +8813,7 @@
     <row r="108" ht="130" customHeight="1">
       <c r="A108" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
         </is>
       </c>
       <c r="B108" s="3" t="inlineStr">
@@ -8893,7 +8893,7 @@
     <row r="109" ht="130" customHeight="1">
       <c r="A109" s="2" t="inlineStr">
         <is>
-          <t>AC-11 b,AC-11 (1)</t>
+          <t>AC-11 (1),AC-11 b</t>
         </is>
       </c>
       <c r="B109" s="2" t="inlineStr">
@@ -9064,7 +9064,7 @@
     <row r="111" ht="130" customHeight="1">
       <c r="A111" s="2" t="inlineStr">
         <is>
-          <t>AC-11 b,AC-6 (10)</t>
+          <t>AC-6 (10),AC-11 b</t>
         </is>
       </c>
       <c r="B111" s="2" t="inlineStr">
@@ -9143,7 +9143,7 @@
     <row r="112" ht="130" customHeight="1">
       <c r="A112" s="2" t="inlineStr">
         <is>
-          <t>AC-11 b,AC-11 a</t>
+          <t>AC-11 a,AC-11 b</t>
         </is>
       </c>
       <c r="B112" s="2" t="inlineStr">
@@ -9222,7 +9222,7 @@
     <row r="113" ht="130" customHeight="1">
       <c r="A113" s="2" t="inlineStr">
         <is>
-          <t>AC-11 b,AC-11 a</t>
+          <t>AC-11 a,AC-11 b</t>
         </is>
       </c>
       <c r="B113" s="2" t="inlineStr">
@@ -9306,7 +9306,7 @@
     <row r="114" ht="130" customHeight="1">
       <c r="A114" s="2" t="inlineStr">
         <is>
-          <t>AC-11 b,AC-11 a</t>
+          <t>AC-11 a,AC-11 b</t>
         </is>
       </c>
       <c r="B114" s="2" t="inlineStr">
@@ -9562,7 +9562,7 @@
     <row r="117" ht="130" customHeight="1">
       <c r="A117" s="2" t="inlineStr">
         <is>
-          <t>SC-13,AC-17 (2),MA-4 c,SC-8</t>
+          <t>SC-8,MA-4 c,AC-17 (2),SC-13</t>
         </is>
       </c>
       <c r="B117" s="2" t="inlineStr">
@@ -9722,7 +9722,7 @@
     <row r="119" ht="130" customHeight="1">
       <c r="A119" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
         </is>
       </c>
       <c r="B119" s="2" t="inlineStr">
@@ -9878,7 +9878,7 @@
     <row r="121" ht="130" customHeight="1">
       <c r="A121" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
         </is>
       </c>
       <c r="B121" s="3" t="inlineStr">
@@ -10234,7 +10234,7 @@
     <row r="126" ht="130" customHeight="1">
       <c r="A126" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
         </is>
       </c>
       <c r="B126" s="3" t="inlineStr">
@@ -10314,7 +10314,7 @@
     <row r="127" ht="130" customHeight="1">
       <c r="A127" s="2" t="inlineStr">
         <is>
-          <t>SC-28,SC-28 (1)</t>
+          <t>SC-28 (1),SC-28</t>
         </is>
       </c>
       <c r="B127" s="2" t="inlineStr">
@@ -11694,7 +11694,7 @@
     <row r="144" ht="130" customHeight="1">
       <c r="A144" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
         </is>
       </c>
       <c r="B144" s="3" t="inlineStr">
@@ -11774,7 +11774,7 @@
     <row r="145" ht="130" customHeight="1">
       <c r="A145" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
         </is>
       </c>
       <c r="B145" s="3" t="inlineStr">
@@ -11854,7 +11854,7 @@
     <row r="146" ht="130" customHeight="1">
       <c r="A146" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
         </is>
       </c>
       <c r="B146" s="3" t="inlineStr">
@@ -12553,7 +12553,7 @@
     <row r="155" ht="130" customHeight="1">
       <c r="A155" s="2" t="inlineStr">
         <is>
-          <t>IA-7,CM-6 b</t>
+          <t>CM-6 b,IA-7</t>
         </is>
       </c>
       <c r="B155" s="2" t="inlineStr">
@@ -12629,7 +12629,7 @@
     <row r="156" ht="130" customHeight="1">
       <c r="A156" s="2" t="inlineStr">
         <is>
-          <t>IA-7,CM-6 b</t>
+          <t>CM-6 b,IA-7</t>
         </is>
       </c>
       <c r="B156" s="2" t="inlineStr">
@@ -12714,7 +12714,7 @@
     <row r="157" ht="130" customHeight="1">
       <c r="A157" s="2" t="inlineStr">
         <is>
-          <t>IA-7,CM-6 b</t>
+          <t>CM-6 b,IA-7</t>
         </is>
       </c>
       <c r="B157" s="2" t="inlineStr">
@@ -12950,7 +12950,7 @@
     <row r="160" ht="130" customHeight="1">
       <c r="A160" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
         </is>
       </c>
       <c r="B160" s="3" t="inlineStr">
@@ -13027,7 +13027,7 @@
     <row r="161" ht="130" customHeight="1">
       <c r="A161" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3</t>
+          <t>AU-12 a,AU-12 c,AU-3,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B161" s="3" t="inlineStr">
@@ -13100,7 +13100,7 @@
     <row r="162" ht="130" customHeight="1">
       <c r="A162" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3</t>
+          <t>AU-12 a,AU-12 c,AU-3,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B162" s="3" t="inlineStr">
@@ -13173,7 +13173,7 @@
     <row r="163" ht="130" customHeight="1">
       <c r="A163" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
         </is>
       </c>
       <c r="B163" s="3" t="inlineStr">
@@ -13258,7 +13258,7 @@
     <row r="164" ht="130" customHeight="1">
       <c r="A164" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
         </is>
       </c>
       <c r="B164" s="3" t="inlineStr">
@@ -13333,7 +13333,7 @@
     <row r="165" ht="130" customHeight="1">
       <c r="A165" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
         </is>
       </c>
       <c r="B165" s="3" t="inlineStr">
@@ -13408,7 +13408,7 @@
     <row r="166" ht="130" customHeight="1">
       <c r="A166" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
         </is>
       </c>
       <c r="B166" s="3" t="inlineStr">
@@ -13483,7 +13483,7 @@
     <row r="167" ht="130" customHeight="1">
       <c r="A167" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
         </is>
       </c>
       <c r="B167" s="3" t="inlineStr">
@@ -13986,7 +13986,7 @@
     <row r="174" ht="130" customHeight="1">
       <c r="A174" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
         </is>
       </c>
       <c r="B174" s="3" t="inlineStr">
@@ -14275,7 +14275,7 @@
     <row r="178" ht="130" customHeight="1">
       <c r="A178" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
         </is>
       </c>
       <c r="B178" s="3" t="inlineStr">
@@ -14350,7 +14350,7 @@
     <row r="179" ht="130" customHeight="1">
       <c r="A179" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
         </is>
       </c>
       <c r="B179" s="3" t="inlineStr">
@@ -14432,7 +14432,7 @@
     <row r="180" ht="130" customHeight="1">
       <c r="A180" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
         </is>
       </c>
       <c r="B180" s="3" t="inlineStr">
@@ -14514,7 +14514,7 @@
     <row r="181" ht="130" customHeight="1">
       <c r="A181" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
         </is>
       </c>
       <c r="B181" s="3" t="inlineStr">
@@ -14596,7 +14596,7 @@
     <row r="182" ht="130" customHeight="1">
       <c r="A182" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3 (1),AU-3</t>
+          <t>AU-3 (1),AU-3,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B182" s="3" t="inlineStr">
@@ -14678,7 +14678,7 @@
     <row r="183" ht="130" customHeight="1">
       <c r="A183" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
         </is>
       </c>
       <c r="B183" s="3" t="inlineStr">
@@ -14760,7 +14760,7 @@
     <row r="184" ht="130" customHeight="1">
       <c r="A184" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
         </is>
       </c>
       <c r="B184" s="3" t="inlineStr">
@@ -14842,7 +14842,7 @@
     <row r="185" ht="130" customHeight="1">
       <c r="A185" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
         </is>
       </c>
       <c r="B185" s="3" t="inlineStr">
@@ -14924,7 +14924,7 @@
     <row r="186" ht="130" customHeight="1">
       <c r="A186" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
         </is>
       </c>
       <c r="B186" s="3" t="inlineStr">
@@ -15006,7 +15006,7 @@
     <row r="187" ht="130" customHeight="1">
       <c r="A187" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
         </is>
       </c>
       <c r="B187" s="3" t="inlineStr">
@@ -15088,7 +15088,7 @@
     <row r="188" ht="130" customHeight="1">
       <c r="A188" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,MA-4 (1) (a),AU-3 (1)</t>
+          <t>AU-12 c,AU-3 (1),MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B188" s="3" t="inlineStr">
@@ -15166,7 +15166,7 @@
     <row r="189" ht="130" customHeight="1">
       <c r="A189" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
         </is>
       </c>
       <c r="B189" s="3" t="inlineStr">
@@ -15245,7 +15245,7 @@
     <row r="190" ht="130" customHeight="1">
       <c r="A190" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
         </is>
       </c>
       <c r="B190" s="3" t="inlineStr">
@@ -15327,7 +15327,7 @@
     <row r="191" ht="130" customHeight="1">
       <c r="A191" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
         </is>
       </c>
       <c r="B191" s="3" t="inlineStr">
@@ -15409,7 +15409,7 @@
     <row r="192" ht="130" customHeight="1">
       <c r="A192" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,MA-4 (1) (a),AU-3 (1),AU-3</t>
+          <t>AU-12 c,AU-3 (1),AU-3,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B192" s="3" t="inlineStr">
@@ -15491,7 +15491,7 @@
     <row r="193" ht="130" customHeight="1">
       <c r="A193" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
         </is>
       </c>
       <c r="B193" s="3" t="inlineStr">
@@ -15573,7 +15573,7 @@
     <row r="194" ht="130" customHeight="1">
       <c r="A194" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
         </is>
       </c>
       <c r="B194" s="3" t="inlineStr">
@@ -15655,7 +15655,7 @@
     <row r="195" ht="130" customHeight="1">
       <c r="A195" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
         </is>
       </c>
       <c r="B195" s="3" t="inlineStr">
@@ -15737,7 +15737,7 @@
     <row r="196" ht="130" customHeight="1">
       <c r="A196" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
         </is>
       </c>
       <c r="B196" s="3" t="inlineStr">
@@ -15812,7 +15812,7 @@
     <row r="197" ht="130" customHeight="1">
       <c r="A197" s="3" t="inlineStr">
         <is>
-          <t>AC-2 (4),AU-3 (1),AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
+          <t>AU-3 (1),AC-2 (4),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
         </is>
       </c>
       <c r="B197" s="3" t="inlineStr">
@@ -15885,7 +15885,7 @@
     <row r="198" ht="130" customHeight="1">
       <c r="A198" s="3" t="inlineStr">
         <is>
-          <t>AC-2 (4),AU-3 (1),AU-12 c,MA-4 (1) (a),AU-3</t>
+          <t>AU-3 (1),AC-2 (4),MA-4 (1) (a),AU-12 c,AU-3</t>
         </is>
       </c>
       <c r="B198" s="3" t="inlineStr">
@@ -15962,7 +15962,7 @@
     <row r="199" ht="130" customHeight="1">
       <c r="A199" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (1),IA-2 (2),IA-2 (4),IA-2 (3)</t>
+          <t>IA-2 (3),IA-2 (4),IA-2 (2),IA-2 (1)</t>
         </is>
       </c>
       <c r="B199" s="2" t="inlineStr">
@@ -16049,7 +16049,7 @@
     <row r="200" ht="130" customHeight="1">
       <c r="A200" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (3),IA-2 (5),IA-2 (2),IA-2 (4),IA-2</t>
+          <t>IA-2 (3),IA-2 (2),IA-2,IA-2 (4),IA-2 (5)</t>
         </is>
       </c>
       <c r="B200" s="2" t="inlineStr">
@@ -16138,7 +16138,7 @@
     <row r="201" ht="130" customHeight="1">
       <c r="A201" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (3),IA-2 (5),IA-2 (2),IA-2 (4),IA-2</t>
+          <t>IA-2 (3),IA-2 (2),IA-2,IA-2 (4),IA-2 (5)</t>
         </is>
       </c>
       <c r="B201" s="2" t="inlineStr">
@@ -16382,7 +16382,7 @@
     <row r="204" ht="130" customHeight="1">
       <c r="A204" s="3" t="inlineStr">
         <is>
-          <t>IA-11,AC-3 (4)</t>
+          <t>AC-3 (4),IA-11</t>
         </is>
       </c>
       <c r="B204" s="3" t="inlineStr">
@@ -16824,7 +16824,7 @@
     <row r="210" ht="130" customHeight="1">
       <c r="A210" s="2" t="inlineStr">
         <is>
-          <t>SC-8 (2),SC-8 (1),SC-8</t>
+          <t>SC-8 (2),SC-8,SC-8 (1)</t>
         </is>
       </c>
       <c r="B210" s="2" t="inlineStr">
@@ -16901,7 +16901,7 @@
     <row r="211" ht="130" customHeight="1">
       <c r="A211" s="2" t="inlineStr">
         <is>
-          <t>SC-8 (2),SC-8 (1),SC-8</t>
+          <t>SC-8 (2),SC-8,SC-8 (1)</t>
         </is>
       </c>
       <c r="B211" s="2" t="inlineStr">
@@ -16987,7 +16987,7 @@
     <row r="212" ht="130" customHeight="1">
       <c r="A212" s="2" t="inlineStr">
         <is>
-          <t>AC-18 (1),SC-8 (1),SC-8</t>
+          <t>AC-18 (1),SC-8,SC-8 (1)</t>
         </is>
       </c>
       <c r="B212" s="2" t="inlineStr">
@@ -17147,7 +17147,7 @@
     <row r="214" ht="130" customHeight="1">
       <c r="A214" s="3" t="inlineStr">
         <is>
-          <t>SC-10,AC-11 a</t>
+          <t>AC-11 a,SC-10</t>
         </is>
       </c>
       <c r="B214" s="3" t="inlineStr">
@@ -17755,7 +17755,7 @@
     <row r="222" ht="130" customHeight="1">
       <c r="A222" s="2" t="inlineStr">
         <is>
-          <t>CM-7 a,IA-5 (1) (c),CM-6 b</t>
+          <t>CM-6 b,IA-5 (1) (c),CM-7 a</t>
         </is>
       </c>
       <c r="B222" s="2" t="inlineStr">
@@ -18001,7 +18001,7 @@
     <row r="225" ht="130" customHeight="1">
       <c r="A225" s="2" t="inlineStr">
         <is>
-          <t>SC-5,SC-5 (2),CM-6 b</t>
+          <t>SC-5,CM-6 b,SC-5 (2)</t>
         </is>
       </c>
       <c r="B225" s="2" t="inlineStr">
@@ -18371,7 +18371,7 @@
     <row r="229" ht="130" customHeight="1">
       <c r="A229" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),IA-8,IA-2</t>
+          <t>IA-2,AU-3 (1),IA-8</t>
         </is>
       </c>
       <c r="B229" s="2" t="inlineStr">
@@ -20222,7 +20222,7 @@
     <row r="252" ht="130" customHeight="1">
       <c r="A252" s="2" t="inlineStr">
         <is>
-          <t>IA-5 (1) (a),CM-6 b,IA-5 (1) (b)</t>
+          <t>CM-6 b,IA-5 (1) (a),IA-5 (1) (b)</t>
         </is>
       </c>
       <c r="B252" s="2" t="inlineStr">
@@ -21622,7 +21622,7 @@
     <row r="269" ht="130" customHeight="1">
       <c r="A269" s="3" t="inlineStr">
         <is>
-          <t>IA-2 (5),CM-6 b</t>
+          <t>CM-6 b,IA-2 (5)</t>
         </is>
       </c>
       <c r="B269" s="3" t="inlineStr">
@@ -22136,7 +22136,7 @@
     <row r="276" ht="130" customHeight="1">
       <c r="A276" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-9</t>
+          <t>AU-9,AU-12 c</t>
         </is>
       </c>
       <c r="B276" s="3" t="inlineStr">
@@ -24179,7 +24179,7 @@
     <row r="302" ht="130" customHeight="1">
       <c r="A302" s="3" t="inlineStr">
         <is>
-          <t>AC-2 (4),AU-12 c,AC-6 (9)</t>
+          <t>AU-12 c,AC-6 (9),AC-2 (4)</t>
         </is>
       </c>
       <c r="B302" s="3" t="inlineStr">
@@ -27908,7 +27908,7 @@
     <row r="351" ht="130" customHeight="1">
       <c r="A351" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (2),CM-6 b</t>
+          <t>CM-6 b,IA-2 (2)</t>
         </is>
       </c>
       <c r="B351" s="2" t="inlineStr">
@@ -27988,7 +27988,7 @@
     <row r="352" ht="130" customHeight="1">
       <c r="A352" s="3" t="inlineStr">
         <is>
-          <t>CM-5 (1),CM-6 b</t>
+          <t>CM-6 b,CM-5 (1)</t>
         </is>
       </c>
       <c r="B352" s="3" t="inlineStr">
@@ -28061,7 +28061,7 @@
     <row r="353" ht="130" customHeight="1">
       <c r="A353" s="3" t="inlineStr">
         <is>
-          <t>CM-5 (1),CM-6 b</t>
+          <t>CM-6 b,CM-5 (1)</t>
         </is>
       </c>
       <c r="B353" s="3" t="inlineStr">
@@ -28641,7 +28641,7 @@
     <row r="361" ht="130" customHeight="1">
       <c r="A361" s="3" t="inlineStr">
         <is>
-          <t>AC-17 (2),CM-6 b</t>
+          <t>CM-6 b,AC-17 (2)</t>
         </is>
       </c>
       <c r="B361" s="3" t="inlineStr">
@@ -31007,7 +31007,7 @@
     <row r="392" ht="130" customHeight="1">
       <c r="A392" s="2" t="inlineStr">
         <is>
-          <t>AC-17 (9),AC-17 (1),CM-7 b,CM-6 b</t>
+          <t>AC-17 (9),CM-7 b,AC-17 (1),CM-6 b</t>
         </is>
       </c>
       <c r="B392" s="2" t="inlineStr">
@@ -31085,7 +31085,7 @@
     <row r="393" ht="130" customHeight="1">
       <c r="A393" s="2" t="inlineStr">
         <is>
-          <t>AC-17 (1),CM-7 b,CM-6 b</t>
+          <t>CM-6 b,CM-7 b,AC-17 (1)</t>
         </is>
       </c>
       <c r="B393" s="2" t="inlineStr">
@@ -33584,7 +33584,7 @@
     <row r="422" ht="130" customHeight="1">
       <c r="A422" s="3" t="inlineStr">
         <is>
-          <t>CM-6 b,IA-3</t>
+          <t>IA-3,CM-6 b</t>
         </is>
       </c>
       <c r="B422" s="3" t="inlineStr">
@@ -33659,7 +33659,7 @@
     <row r="423" ht="130" customHeight="1">
       <c r="A423" s="3" t="inlineStr">
         <is>
-          <t>CM-6 b,IA-3</t>
+          <t>IA-3,CM-6 b</t>
         </is>
       </c>
       <c r="B423" s="3" t="inlineStr">
@@ -35701,7 +35701,7 @@
     <row r="449" ht="130" customHeight="1">
       <c r="A449" s="3" t="inlineStr">
         <is>
-          <t>CM-6 b,IA-3</t>
+          <t>IA-3,CM-6 b</t>
         </is>
       </c>
       <c r="B449" s="3" t="inlineStr">
@@ -35778,7 +35778,7 @@
     <row r="450" ht="130" customHeight="1">
       <c r="A450" s="3" t="inlineStr">
         <is>
-          <t>CM-6 b,IA-3</t>
+          <t>IA-3,CM-6 b</t>
         </is>
       </c>
       <c r="B450" s="3" t="inlineStr">
@@ -36160,7 +36160,7 @@
     <row r="455" ht="130" customHeight="1">
       <c r="A455" s="3" t="inlineStr">
         <is>
-          <t>SI-2 (2),CM-6 b</t>
+          <t>CM-6 b,SI-2 (2)</t>
         </is>
       </c>
       <c r="B455" s="3" t="inlineStr">
@@ -36807,7 +36807,7 @@
     <row r="464" ht="130" customHeight="1">
       <c r="A464" s="3" t="inlineStr">
         <is>
-          <t>SI-2 (2),CM-6 b</t>
+          <t>CM-6 b,SI-2 (2)</t>
         </is>
       </c>
       <c r="B464" s="3" t="inlineStr">
@@ -37098,7 +37098,7 @@
     <row r="468" ht="130" customHeight="1">
       <c r="A468" s="3" t="inlineStr">
         <is>
-          <t>SC-10,MA-4 (7),MA-4 e,AC-12</t>
+          <t>MA-4 (7),MA-4 e,SC-10,AC-12</t>
         </is>
       </c>
       <c r="B468" s="3" t="inlineStr">
@@ -37173,7 +37173,7 @@
     <row r="469" ht="130" customHeight="1">
       <c r="A469" s="3" t="inlineStr">
         <is>
-          <t>SC-10,AC-12</t>
+          <t>AC-12,SC-10</t>
         </is>
       </c>
       <c r="B469" s="3" t="inlineStr">
@@ -37252,7 +37252,7 @@
     <row r="470" ht="130" customHeight="1">
       <c r="A470" s="3" t="inlineStr">
         <is>
-          <t>SC-10,AC-12</t>
+          <t>AC-12,SC-10</t>
         </is>
       </c>
       <c r="B470" s="3" t="inlineStr">
@@ -37328,7 +37328,7 @@
     <row r="471" ht="130" customHeight="1">
       <c r="A471" s="2" t="inlineStr">
         <is>
-          <t>AC-17 (2),SC-8 (1),SC-8</t>
+          <t>SC-8,SC-8 (1),AC-17 (2)</t>
         </is>
       </c>
       <c r="B471" s="2" t="inlineStr">
@@ -38630,7 +38630,7 @@
     <row r="488" ht="130" customHeight="1">
       <c r="A488" s="3" t="inlineStr">
         <is>
-          <t>CM-7 b,IA-3</t>
+          <t>IA-3,CM-7 b</t>
         </is>
       </c>
       <c r="B488" s="3" t="inlineStr">
@@ -38920,7 +38920,7 @@
     <row r="492" ht="130" customHeight="1">
       <c r="A492" s="3" t="inlineStr">
         <is>
-          <t>AC-17 (1),CM-7 b</t>
+          <t>CM-7 b,AC-17 (1)</t>
         </is>
       </c>
       <c r="B492" s="3" t="inlineStr">
@@ -39937,7 +39937,7 @@
     <row r="505" ht="130" customHeight="1">
       <c r="A505" s="3" t="inlineStr">
         <is>
-          <t>AU-4 (1),AU-4</t>
+          <t>AU-4,AU-4 (1)</t>
         </is>
       </c>
       <c r="B505" s="3" t="inlineStr">
@@ -40182,7 +40182,7 @@
     <row r="508" ht="130" customHeight="1">
       <c r="A508" s="2" t="inlineStr">
         <is>
-          <t>AC-8 c 1, AC-8 c 2, AC-8 c 3,AC-8 a</t>
+          <t>AC-8 a,AC-8 c 1, AC-8 c 2, AC-8 c 3</t>
         </is>
       </c>
       <c r="B508" s="2" t="inlineStr">
@@ -40284,7 +40284,7 @@
     <row r="509" ht="130" customHeight="1">
       <c r="A509" s="2" t="inlineStr">
         <is>
-          <t>AC-8 c 1, AC-8 c 2, AC-8 c 3,AC-8 a</t>
+          <t>AC-8 a,AC-8 c 1, AC-8 c 2, AC-8 c 3</t>
         </is>
       </c>
       <c r="B509" s="2" t="inlineStr">
@@ -40394,7 +40394,7 @@
     <row r="510" ht="130" customHeight="1">
       <c r="A510" s="2" t="inlineStr">
         <is>
-          <t>AC-8 c 1, AC-8 c 2, AC-8 c 3,AC-8 a</t>
+          <t>AC-8 a,AC-8 c 1, AC-8 c 2, AC-8 c 3</t>
         </is>
       </c>
       <c r="B510" s="2" t="inlineStr">
@@ -40505,7 +40505,7 @@
     <row r="511" ht="130" customHeight="1">
       <c r="A511" s="2" t="inlineStr">
         <is>
-          <t>AC-8 c 1, AC-8 c 2, AC-8 c 3,AC-8 a</t>
+          <t>AC-8 a,AC-8 c 1, AC-8 c 2, AC-8 c 3</t>
         </is>
       </c>
       <c r="B511" s="2" t="inlineStr">
@@ -41215,7 +41215,7 @@
     <row r="520" ht="130" customHeight="1">
       <c r="A520" s="2" t="inlineStr">
         <is>
-          <t>SC-8 (2),SC-8</t>
+          <t>SC-8,SC-8 (2)</t>
         </is>
       </c>
       <c r="B520" s="2" t="inlineStr">
@@ -42405,7 +42405,7 @@
     <row r="535" ht="130" customHeight="1">
       <c r="A535" s="2" t="inlineStr">
         <is>
-          <t>AC-17 (2),SC-8</t>
+          <t>SC-8,AC-17 (2)</t>
         </is>
       </c>
       <c r="B535" s="2" t="inlineStr">

--- a/srg_mapping/srg-mapping-rhel9.xlsx
+++ b/srg_mapping/srg-mapping-rhel9.xlsx
@@ -973,7 +973,7 @@
     <row r="7" ht="130" customHeight="1">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>AU-5 b,AU-5 a</t>
+          <t>AU-5 a,AU-5 b</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
@@ -1455,7 +1455,7 @@
     <row r="13" ht="130" customHeight="1">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>AU-14 (1),AU-7 a,AU-3 (1),CM-5 (1),MA-4 (1) (a),AU-12 a,AU-3,AU-7 (1),AU-6 (4),CM-6 b</t>
+          <t>CM-6 b,AU-3,AU-7 (1),AU-14 (1),AU-6 (4),AU-3 (1),AU-12 a,CM-5 (1),MA-4 (1) (a),AU-7 a</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
@@ -1540,7 +1540,7 @@
     <row r="14" ht="130" customHeight="1">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>CM-7 (5) (b),CM-7 (2)</t>
+          <t>CM-7 (2),CM-7 (5) (b)</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
@@ -1616,7 +1616,7 @@
     <row r="15" ht="130" customHeight="1">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>CM-7 (5) (b),CM-7 (2)</t>
+          <t>CM-7 (2),CM-7 (5) (b)</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
@@ -1770,7 +1770,7 @@
     <row r="17" ht="130" customHeight="1">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>CM-7 (2),CM-6 b</t>
+          <t>CM-6 b,CM-7 (2)</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
@@ -2140,7 +2140,7 @@
     <row r="22" ht="130" customHeight="1">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>CM-7 (2),CM-6 b</t>
+          <t>CM-6 b,CM-7 (2)</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
@@ -2214,7 +2214,7 @@
     <row r="23" ht="130" customHeight="1">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>CM-7 (2),CM-6 b</t>
+          <t>CM-6 b,CM-7 (2)</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
@@ -3258,7 +3258,7 @@
     <row r="37" ht="130" customHeight="1">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-14 (1)</t>
+          <t>AU-12 c,AU-3,AU-14 (1),AU-3 (1),AU-12 a,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
@@ -3349,7 +3349,7 @@
     <row r="38" ht="130" customHeight="1">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>AU-14 (1),AU-4</t>
+          <t>AU-4,AU-14 (1)</t>
         </is>
       </c>
       <c r="B38" s="3" t="inlineStr">
@@ -3791,7 +3791,7 @@
     <row r="44" ht="130" customHeight="1">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>AU-4 (1),AU-3</t>
+          <t>AU-3,AU-4 (1)</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
@@ -4170,7 +4170,7 @@
     <row r="49" ht="130" customHeight="1">
       <c r="A49" s="3" t="inlineStr">
         <is>
-          <t>AU-6 (4),CM-6 b,AU-4 (1)</t>
+          <t>CM-6 b,AU-6 (4),AU-4 (1)</t>
         </is>
       </c>
       <c r="B49" s="3" t="inlineStr">
@@ -4320,7 +4320,7 @@
     <row r="51" ht="130" customHeight="1">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>AU-8 b,AU-8 (1) (a),AU-8 (1) (b)</t>
+          <t>AU-8 (1) (a),AU-8 (1) (b),AU-8 b</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
@@ -4645,7 +4645,7 @@
     <row r="55" ht="130" customHeight="1">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>SI-6 d,SI-6 b,CM-3 (5)</t>
+          <t>SI-6 b,CM-3 (5),SI-6 d</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
@@ -4737,7 +4737,7 @@
     <row r="56" ht="130" customHeight="1">
       <c r="A56" s="3" t="inlineStr">
         <is>
-          <t>SI-6 d,CM-3 (5)</t>
+          <t>CM-3 (5),SI-6 d</t>
         </is>
       </c>
       <c r="B56" s="3" t="inlineStr">
@@ -4821,7 +4821,7 @@
     <row r="57" ht="130" customHeight="1">
       <c r="A57" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
+          <t>AU-12 c,AU-3,AU-3 (1),AU-12 a,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B57" s="3" t="inlineStr">
@@ -4896,7 +4896,7 @@
     <row r="58" ht="130" customHeight="1">
       <c r="A58" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
+          <t>AU-12 c,AU-3,AU-3 (1),AU-12 a,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B58" s="3" t="inlineStr">
@@ -4971,7 +4971,7 @@
     <row r="59" ht="130" customHeight="1">
       <c r="A59" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
+          <t>AU-12 c,AU-3,AU-3 (1),AU-12 a,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B59" s="3" t="inlineStr">
@@ -5046,7 +5046,7 @@
     <row r="60" ht="130" customHeight="1">
       <c r="A60" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
+          <t>AU-12 c,AU-3,AU-3 (1),AU-12 a,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B60" s="3" t="inlineStr">
@@ -5121,7 +5121,7 @@
     <row r="61" ht="130" customHeight="1">
       <c r="A61" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
+          <t>AU-12 c,AU-3,AU-3 (1),AU-12 a,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B61" s="3" t="inlineStr">
@@ -5196,7 +5196,7 @@
     <row r="62" ht="130" customHeight="1">
       <c r="A62" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
+          <t>AU-12 c,AU-3,AU-3 (1),AU-12 a,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B62" s="3" t="inlineStr">
@@ -5271,7 +5271,7 @@
     <row r="63" ht="130" customHeight="1">
       <c r="A63" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
+          <t>AU-12 c,AU-3,AU-3 (1),AU-12 a,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B63" s="3" t="inlineStr">
@@ -5346,7 +5346,7 @@
     <row r="64" ht="130" customHeight="1">
       <c r="A64" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
+          <t>AU-12 c,AU-3,AU-3 (1),AU-12 a,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B64" s="3" t="inlineStr">
@@ -5421,7 +5421,7 @@
     <row r="65" ht="130" customHeight="1">
       <c r="A65" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
+          <t>AU-12 c,AU-3,AU-3 (1),AU-12 a,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B65" s="3" t="inlineStr">
@@ -5496,7 +5496,7 @@
     <row r="66" ht="130" customHeight="1">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>AU-7 b,AU-7 a,CM-5 (1),AU-12 a,AU-12 c,AU-8 b,AU-12 (3),CM-6 b</t>
+          <t>CM-6 b,AU-12 c,AU-7 b,AU-12 (3),AU-12 a,CM-5 (1),AU-8 b,AU-7 a</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
@@ -5570,7 +5570,7 @@
     <row r="67" ht="130" customHeight="1">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AC-2 (4),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
+          <t>AU-3,AU-12 c,AU-3 (1),AC-2 (4),AU-12 a,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
@@ -5651,7 +5651,7 @@
     <row r="68" ht="130" customHeight="1">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AC-2 (4),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
+          <t>AU-3,AU-12 c,AU-3 (1),AC-2 (4),AU-12 a,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
@@ -5732,7 +5732,7 @@
     <row r="69" ht="130" customHeight="1">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AC-2 (4),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
+          <t>AU-3,AU-12 c,AU-3 (1),AC-2 (4),AU-12 a,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
@@ -5814,7 +5814,7 @@
     <row r="70" ht="130" customHeight="1">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AC-2 (4),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
+          <t>AU-3,AU-12 c,AU-3 (1),AC-2 (4),AU-12 a,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
@@ -5896,7 +5896,7 @@
     <row r="71" ht="130" customHeight="1">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AC-2 (4),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
+          <t>AU-3,AU-12 c,AU-3 (1),AC-2 (4),AU-12 a,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B71" s="2" t="inlineStr">
@@ -5978,7 +5978,7 @@
     <row r="72" ht="130" customHeight="1">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AC-2 (4),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
+          <t>AU-3,AU-12 c,AU-3 (1),AC-2 (4),AU-12 a,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
@@ -6060,7 +6060,7 @@
     <row r="73" ht="130" customHeight="1">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AC-2 (4),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
+          <t>AU-3,AU-12 c,AU-3 (1),AC-2 (4),AU-12 a,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B73" s="2" t="inlineStr">
@@ -6142,7 +6142,7 @@
     <row r="74" ht="130" customHeight="1">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>SI-6 a,CM-3 (5)</t>
+          <t>CM-3 (5),SI-6 a</t>
         </is>
       </c>
       <c r="B74" s="2" t="inlineStr">
@@ -6216,7 +6216,7 @@
     <row r="75" ht="130" customHeight="1">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>AU-9,SI-11 b</t>
+          <t>SI-11 b,AU-9</t>
         </is>
       </c>
       <c r="B75" s="2" t="inlineStr">
@@ -6299,7 +6299,7 @@
     <row r="76" ht="130" customHeight="1">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>AU-9,SI-11 b</t>
+          <t>SI-11 b,AU-9</t>
         </is>
       </c>
       <c r="B76" s="2" t="inlineStr">
@@ -6377,7 +6377,7 @@
     <row r="77" ht="130" customHeight="1">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>AU-9,SI-11 b</t>
+          <t>SI-11 b,AU-9</t>
         </is>
       </c>
       <c r="B77" s="2" t="inlineStr">
@@ -6468,7 +6468,7 @@
     <row r="78" ht="130" customHeight="1">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>AU-9,SI-11 b</t>
+          <t>SI-11 b,AU-9</t>
         </is>
       </c>
       <c r="B78" s="2" t="inlineStr">
@@ -6550,7 +6550,7 @@
     <row r="79" ht="130" customHeight="1">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>AU-9,SI-11 b</t>
+          <t>SI-11 b,AU-9</t>
         </is>
       </c>
       <c r="B79" s="2" t="inlineStr">
@@ -7180,7 +7180,7 @@
     <row r="87" ht="130" customHeight="1">
       <c r="A87" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
+          <t>AU-12 c,AU-3,AU-3 (1),AU-12 a,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B87" s="3" t="inlineStr">
@@ -7254,7 +7254,7 @@
     <row r="88" ht="130" customHeight="1">
       <c r="A88" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
+          <t>AU-12 c,AU-3,AU-3 (1),AU-12 a,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B88" s="3" t="inlineStr">
@@ -7328,7 +7328,7 @@
     <row r="89" ht="130" customHeight="1">
       <c r="A89" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
+          <t>AU-12 c,AU-3,AU-3 (1),AU-12 a,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B89" s="3" t="inlineStr">
@@ -7402,7 +7402,7 @@
     <row r="90" ht="130" customHeight="1">
       <c r="A90" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
+          <t>AU-12 c,AU-3,AU-3 (1),AU-12 a,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B90" s="3" t="inlineStr">
@@ -7567,7 +7567,7 @@
     <row r="92" ht="130" customHeight="1">
       <c r="A92" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (6),AC-17 (2)</t>
+          <t>AC-17 (2),MA-4 (6)</t>
         </is>
       </c>
       <c r="B92" s="3" t="inlineStr">
@@ -7978,7 +7978,7 @@
     <row r="97" ht="130" customHeight="1">
       <c r="A97" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
+          <t>AU-12 c,AU-3,AU-3 (1),AU-12 a,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B97" s="3" t="inlineStr">
@@ -8053,7 +8053,7 @@
     <row r="98" ht="130" customHeight="1">
       <c r="A98" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
+          <t>AU-12 c,AU-3,AU-3 (1),AU-12 a,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B98" s="3" t="inlineStr">
@@ -8128,7 +8128,7 @@
     <row r="99" ht="130" customHeight="1">
       <c r="A99" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
+          <t>AU-12 c,AU-3,AU-3 (1),AU-12 a,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B99" s="3" t="inlineStr">
@@ -8203,7 +8203,7 @@
     <row r="100" ht="130" customHeight="1">
       <c r="A100" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
+          <t>AU-12 c,AU-3,AU-3 (1),AU-12 a,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B100" s="3" t="inlineStr">
@@ -8281,60 +8281,60 @@
       <c r="Q100" s="3" t="n"/>
     </row>
     <row r="101" ht="130" customHeight="1">
-      <c r="A101" s="3" t="inlineStr">
-        <is>
-          <t>AU-3 (1),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
-        </is>
-      </c>
-      <c r="B101" s="3" t="inlineStr">
+      <c r="A101" s="2" t="inlineStr">
+        <is>
+          <t>AU-12 c,AU-3,AU-3 (1),AU-12 a,MA-4 (1) (a)</t>
+        </is>
+      </c>
+      <c r="B101" s="2" t="inlineStr">
         <is>
           <t>CCI-000169,CCI-000172,CCI-000366,CCI-002884</t>
         </is>
       </c>
-      <c r="C101" s="3" t="inlineStr">
+      <c r="C101" s="2" t="inlineStr">
         <is>
           <t>SRG-OS-000037-GPOS-00015,SRG-OS-000042-GPOS-00020,SRG-OS-000062-GPOS-00031,SRG-OS-000392-GPOS-00172,SRG-OS-000462-GPOS-00206,SRG-OS-000471-GPOS-00215,SRG-OS-000466-GPOS-00210,SRG-OS-000467-GPOS-00211,SRG-OS-000468-GPOS-00212</t>
         </is>
       </c>
-      <c r="D101" s="3" t="inlineStr">
+      <c r="D101" s="2" t="inlineStr">
         <is>
           <t>CCE-83754-2</t>
         </is>
       </c>
-      <c r="E101" s="3" t="inlineStr">
+      <c r="E101" s="2" t="inlineStr">
         <is>
           <t>The operating system must generate audit records when successful/unsuccessful attempts to delete privileges occur.</t>
         </is>
       </c>
-      <c r="F101" s="3" t="inlineStr">
+      <c r="F101" s="2" t="inlineStr">
         <is>
           <t>Red Hat Enterprise Linux 9 must generate audit records when successful/unsuccessful attempts to delete privileges occur.</t>
         </is>
       </c>
-      <c r="G101" s="3" t="inlineStr">
+      <c r="G101" s="2" t="inlineStr">
         <is>
           <t>Without generating audit records that are specific to the security and mission needs of the organization, it would be difficult to establish, correlate, and investigate the events relating to an incident or identify those responsible for one.
 Audit records can be generated from various components within the information system (e.g., module or policy filter).</t>
         </is>
       </c>
-      <c r="H101" s="3" t="inlineStr">
+      <c r="H101" s="2" t="inlineStr">
         <is>
           <t>Auditing file deletions will create an audit trail for files that are removed
 from the system. The audit trail could aid in system troubleshooting, as well as, detecting
 malicious processes that attempt to delete log files to conceal their presence.</t>
         </is>
       </c>
-      <c r="I101" s="3" t="inlineStr">
-        <is>
-          <t>Applicable - Configurable</t>
-        </is>
-      </c>
-      <c r="J101" s="3" t="inlineStr">
+      <c r="I101" s="2" t="inlineStr">
+        <is>
+          <t>Applicable - Configurable</t>
+        </is>
+      </c>
+      <c r="J101" s="2" t="inlineStr">
         <is>
           <t>Verify the operating system generates audit records when successful/unsuccessful attempts to delete privileges occur. If it does not, this is a finding.</t>
         </is>
       </c>
-      <c r="K101" s="3" t="inlineStr">
+      <c r="K101" s="2" t="inlineStr">
         <is>
           <t>To determine if the system is configured to audit calls to the
  rename  system call, run the following command:
@@ -8343,72 +8343,80 @@
 If no line is returned, then this is a finding.</t>
         </is>
       </c>
-      <c r="L101" s="3" t="n"/>
-      <c r="M101" s="3" t="inlineStr"/>
-      <c r="N101" s="3" t="inlineStr">
-        <is>
-          <t>CAT II</t>
-        </is>
-      </c>
-      <c r="O101" s="3" t="n"/>
-      <c r="P101" s="3" t="n"/>
-      <c r="Q101" s="3" t="n"/>
+      <c r="L101" s="2" t="n"/>
+      <c r="M101" s="2" t="inlineStr">
+        <is>
+          <t>Configure the audit system to generate an audit event for any successful/unsuccessful use of the "rename" command by adding or updating the following rules in the "/etc/audit/rules.d/audit.rules" file:
+ -a always,exit -F arch=b32 -S rename -F auid&gt;=1000 -F auid!=unset -k delete
+ -a always,exit -F arch=b64 -S rename -F auid&gt;=1000 -F auid!=unset -k delete
+ It's allowed to group this system call within the same line as "rename", "unlink", "rmdir", "renameat", and "unlinkat".
+ The audit daemon must be restarted for the changes to take effect.</t>
+        </is>
+      </c>
+      <c r="N101" s="2" t="inlineStr">
+        <is>
+          <t>CAT II</t>
+        </is>
+      </c>
+      <c r="O101" s="2" t="n"/>
+      <c r="P101" s="2" t="n"/>
+      <c r="Q101" s="2" t="n"/>
     </row>
     <row r="102" ht="130" customHeight="1">
-      <c r="A102" s="3" t="inlineStr">
-        <is>
-          <t>AU-3 (1),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
-        </is>
-      </c>
-      <c r="B102" s="3" t="inlineStr">
+      <c r="A102" s="2" t="inlineStr">
+        <is>
+          <t>AU-12 c,AU-3,AU-3 (1),AU-12 a,MA-4 (1) (a)</t>
+        </is>
+      </c>
+      <c r="B102" s="2" t="inlineStr">
         <is>
           <t>CCI-000169,CCI-000172,CCI-000366,CCI-002884</t>
         </is>
       </c>
-      <c r="C102" s="3" t="inlineStr">
+      <c r="C102" s="2" t="inlineStr">
         <is>
           <t>SRG-OS-000037-GPOS-00015,SRG-OS-000042-GPOS-00020,SRG-OS-000062-GPOS-00031,SRG-OS-000392-GPOS-00172,SRG-OS-000462-GPOS-00206,SRG-OS-000471-GPOS-00215,SRG-OS-000466-GPOS-00210,SRG-OS-000467-GPOS-00211,SRG-OS-000468-GPOS-00212</t>
         </is>
       </c>
-      <c r="D102" s="3" t="inlineStr">
+      <c r="D102" s="2" t="inlineStr">
         <is>
           <t>CCE-83756-7</t>
         </is>
       </c>
-      <c r="E102" s="3" t="inlineStr">
+      <c r="E102" s="2" t="inlineStr">
         <is>
           <t>The operating system must generate audit records when successful/unsuccessful attempts to delete privileges occur.</t>
         </is>
       </c>
-      <c r="F102" s="3" t="inlineStr">
+      <c r="F102" s="2" t="inlineStr">
         <is>
           <t>Red Hat Enterprise Linux 9 must generate audit records when successful/unsuccessful attempts to delete privileges occur.</t>
         </is>
       </c>
-      <c r="G102" s="3" t="inlineStr">
+      <c r="G102" s="2" t="inlineStr">
         <is>
           <t>Without generating audit records that are specific to the security and mission needs of the organization, it would be difficult to establish, correlate, and investigate the events relating to an incident or identify those responsible for one.
 Audit records can be generated from various components within the information system (e.g., module or policy filter).</t>
         </is>
       </c>
-      <c r="H102" s="3" t="inlineStr">
+      <c r="H102" s="2" t="inlineStr">
         <is>
           <t>Auditing file deletions will create an audit trail for files that are removed
 from the system. The audit trail could aid in system troubleshooting, as well as, detecting
 malicious processes that attempt to delete log files to conceal their presence.</t>
         </is>
       </c>
-      <c r="I102" s="3" t="inlineStr">
-        <is>
-          <t>Applicable - Configurable</t>
-        </is>
-      </c>
-      <c r="J102" s="3" t="inlineStr">
+      <c r="I102" s="2" t="inlineStr">
+        <is>
+          <t>Applicable - Configurable</t>
+        </is>
+      </c>
+      <c r="J102" s="2" t="inlineStr">
         <is>
           <t>Verify the operating system generates audit records when successful/unsuccessful attempts to delete privileges occur. If it does not, this is a finding.</t>
         </is>
       </c>
-      <c r="K102" s="3" t="inlineStr">
+      <c r="K102" s="2" t="inlineStr">
         <is>
           <t>To determine if the system is configured to audit calls to the
  renameat  system call, run the following command:
@@ -8417,72 +8425,80 @@
 If no line is returned, then this is a finding.</t>
         </is>
       </c>
-      <c r="L102" s="3" t="n"/>
-      <c r="M102" s="3" t="inlineStr"/>
-      <c r="N102" s="3" t="inlineStr">
-        <is>
-          <t>CAT II</t>
-        </is>
-      </c>
-      <c r="O102" s="3" t="n"/>
-      <c r="P102" s="3" t="n"/>
-      <c r="Q102" s="3" t="n"/>
+      <c r="L102" s="2" t="n"/>
+      <c r="M102" s="2" t="inlineStr">
+        <is>
+          <t>Configure the audit system to generate an audit event for any successful/unsuccessful use of the "renameat" command by adding or updating the following rules in the "/etc/audit/rules.d/audit.rules" file:
+-a always,exit -F arch=b32 -S renameat -F auid&gt;=1000 -F auid!=unset -k delete
+-a always,exit -F arch=b64 -S renameat -F auid&gt;=1000 -F auid!=unset -k delete
+It's allowed to group this system call within the same line as "rename", "unlink", "rmdir", "renameat", and "unlinkat".
+The audit daemon must be restarted for the changes to take effect.</t>
+        </is>
+      </c>
+      <c r="N102" s="2" t="inlineStr">
+        <is>
+          <t>CAT II</t>
+        </is>
+      </c>
+      <c r="O102" s="2" t="n"/>
+      <c r="P102" s="2" t="n"/>
+      <c r="Q102" s="2" t="n"/>
     </row>
     <row r="103" ht="130" customHeight="1">
-      <c r="A103" s="3" t="inlineStr">
-        <is>
-          <t>AU-3 (1),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
-        </is>
-      </c>
-      <c r="B103" s="3" t="inlineStr">
+      <c r="A103" s="2" t="inlineStr">
+        <is>
+          <t>AU-12 c,AU-3,AU-3 (1),AU-12 a,MA-4 (1) (a)</t>
+        </is>
+      </c>
+      <c r="B103" s="2" t="inlineStr">
         <is>
           <t>CCI-000169,CCI-000172,CCI-000366,CCI-002884</t>
         </is>
       </c>
-      <c r="C103" s="3" t="inlineStr">
+      <c r="C103" s="2" t="inlineStr">
         <is>
           <t>SRG-OS-000037-GPOS-00015,SRG-OS-000042-GPOS-00020,SRG-OS-000062-GPOS-00031,SRG-OS-000392-GPOS-00172,SRG-OS-000462-GPOS-00206,SRG-OS-000471-GPOS-00215,SRG-OS-000466-GPOS-00210,SRG-OS-000467-GPOS-00211,SRG-OS-000468-GPOS-00212</t>
         </is>
       </c>
-      <c r="D103" s="3" t="inlineStr">
+      <c r="D103" s="2" t="inlineStr">
         <is>
           <t>CCE-83758-3</t>
         </is>
       </c>
-      <c r="E103" s="3" t="inlineStr">
+      <c r="E103" s="2" t="inlineStr">
         <is>
           <t>The operating system must generate audit records when successful/unsuccessful attempts to delete privileges occur.</t>
         </is>
       </c>
-      <c r="F103" s="3" t="inlineStr">
+      <c r="F103" s="2" t="inlineStr">
         <is>
           <t>Red Hat Enterprise Linux 9 must generate audit records when successful/unsuccessful attempts to delete privileges occur.</t>
         </is>
       </c>
-      <c r="G103" s="3" t="inlineStr">
+      <c r="G103" s="2" t="inlineStr">
         <is>
           <t>Without generating audit records that are specific to the security and mission needs of the organization, it would be difficult to establish, correlate, and investigate the events relating to an incident or identify those responsible for one.
 Audit records can be generated from various components within the information system (e.g., module or policy filter).</t>
         </is>
       </c>
-      <c r="H103" s="3" t="inlineStr">
+      <c r="H103" s="2" t="inlineStr">
         <is>
           <t>Auditing file deletions will create an audit trail for files that are removed
 from the system. The audit trail could aid in system troubleshooting, as well as, detecting
 malicious processes that attempt to delete log files to conceal their presence.</t>
         </is>
       </c>
-      <c r="I103" s="3" t="inlineStr">
-        <is>
-          <t>Applicable - Configurable</t>
-        </is>
-      </c>
-      <c r="J103" s="3" t="inlineStr">
+      <c r="I103" s="2" t="inlineStr">
+        <is>
+          <t>Applicable - Configurable</t>
+        </is>
+      </c>
+      <c r="J103" s="2" t="inlineStr">
         <is>
           <t>Verify the operating system generates audit records when successful/unsuccessful attempts to delete privileges occur. If it does not, this is a finding.</t>
         </is>
       </c>
-      <c r="K103" s="3" t="inlineStr">
+      <c r="K103" s="2" t="inlineStr">
         <is>
           <t>To determine if the system is configured to audit calls to the
  rmdir  system call, run the following command:
@@ -8491,72 +8507,80 @@
 If no line is returned, then this is a finding.</t>
         </is>
       </c>
-      <c r="L103" s="3" t="n"/>
-      <c r="M103" s="3" t="inlineStr"/>
-      <c r="N103" s="3" t="inlineStr">
-        <is>
-          <t>CAT II</t>
-        </is>
-      </c>
-      <c r="O103" s="3" t="n"/>
-      <c r="P103" s="3" t="n"/>
-      <c r="Q103" s="3" t="n"/>
+      <c r="L103" s="2" t="n"/>
+      <c r="M103" s="2" t="inlineStr">
+        <is>
+          <t>Configure the audit system to generate an audit event for any successful/unsuccessful use of the "rmdir" command by adding or updating the following rules in the "/etc/audit/rules.d/audit.rules" file:
+-a always,exit -F arch=b32 -S rmdir -F auid&gt;=1000 -F auid!=unset -k delete
+-a always,exit -F arch=b64 -S rmdir -F auid&gt;=1000 -F auid!=unset -k delete
+It's allowed to group this system call within the same line as "rename", "unlink", "rmdir", "renameat", and "unlinkat".
+The audit daemon must be restarted for the changes to take effect.</t>
+        </is>
+      </c>
+      <c r="N103" s="2" t="inlineStr">
+        <is>
+          <t>CAT II</t>
+        </is>
+      </c>
+      <c r="O103" s="2" t="n"/>
+      <c r="P103" s="2" t="n"/>
+      <c r="Q103" s="2" t="n"/>
     </row>
     <row r="104" ht="130" customHeight="1">
-      <c r="A104" s="3" t="inlineStr">
-        <is>
-          <t>AU-3 (1),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
-        </is>
-      </c>
-      <c r="B104" s="3" t="inlineStr">
+      <c r="A104" s="2" t="inlineStr">
+        <is>
+          <t>AU-12 c,AU-3,AU-3 (1),AU-12 a,MA-4 (1) (a)</t>
+        </is>
+      </c>
+      <c r="B104" s="2" t="inlineStr">
         <is>
           <t>CCI-000169,CCI-000172,CCI-000366,CCI-002884</t>
         </is>
       </c>
-      <c r="C104" s="3" t="inlineStr">
+      <c r="C104" s="2" t="inlineStr">
         <is>
           <t>SRG-OS-000037-GPOS-00015,SRG-OS-000042-GPOS-00020,SRG-OS-000062-GPOS-00031,SRG-OS-000392-GPOS-00172,SRG-OS-000462-GPOS-00206,SRG-OS-000471-GPOS-00215,SRG-OS-000466-GPOS-00210,SRG-OS-000467-GPOS-00211,SRG-OS-000468-GPOS-00212</t>
         </is>
       </c>
-      <c r="D104" s="3" t="inlineStr">
+      <c r="D104" s="2" t="inlineStr">
         <is>
           <t>CCE-83757-5</t>
         </is>
       </c>
-      <c r="E104" s="3" t="inlineStr">
+      <c r="E104" s="2" t="inlineStr">
         <is>
           <t>The operating system must generate audit records when successful/unsuccessful attempts to delete privileges occur.</t>
         </is>
       </c>
-      <c r="F104" s="3" t="inlineStr">
+      <c r="F104" s="2" t="inlineStr">
         <is>
           <t>Red Hat Enterprise Linux 9 must generate audit records when successful/unsuccessful attempts to delete privileges occur.</t>
         </is>
       </c>
-      <c r="G104" s="3" t="inlineStr">
+      <c r="G104" s="2" t="inlineStr">
         <is>
           <t>Without generating audit records that are specific to the security and mission needs of the organization, it would be difficult to establish, correlate, and investigate the events relating to an incident or identify those responsible for one.
 Audit records can be generated from various components within the information system (e.g., module or policy filter).</t>
         </is>
       </c>
-      <c r="H104" s="3" t="inlineStr">
+      <c r="H104" s="2" t="inlineStr">
         <is>
           <t>Auditing file deletions will create an audit trail for files that are removed
 from the system. The audit trail could aid in system troubleshooting, as well as, detecting
 malicious processes that attempt to delete log files to conceal their presence.</t>
         </is>
       </c>
-      <c r="I104" s="3" t="inlineStr">
-        <is>
-          <t>Applicable - Configurable</t>
-        </is>
-      </c>
-      <c r="J104" s="3" t="inlineStr">
+      <c r="I104" s="2" t="inlineStr">
+        <is>
+          <t>Applicable - Configurable</t>
+        </is>
+      </c>
+      <c r="J104" s="2" t="inlineStr">
         <is>
           <t>Verify the operating system generates audit records when successful/unsuccessful attempts to delete privileges occur. If it does not, this is a finding.</t>
         </is>
       </c>
-      <c r="K104" s="3" t="inlineStr">
+      <c r="K104" s="2" t="inlineStr">
         <is>
           <t>To determine if the system is configured to audit calls to the
  unlink  system call, run the following command:
@@ -8565,72 +8589,80 @@
 If no line is returned, then this is a finding.</t>
         </is>
       </c>
-      <c r="L104" s="3" t="n"/>
-      <c r="M104" s="3" t="inlineStr"/>
-      <c r="N104" s="3" t="inlineStr">
-        <is>
-          <t>CAT II</t>
-        </is>
-      </c>
-      <c r="O104" s="3" t="n"/>
-      <c r="P104" s="3" t="n"/>
-      <c r="Q104" s="3" t="n"/>
+      <c r="L104" s="2" t="n"/>
+      <c r="M104" s="2" t="inlineStr">
+        <is>
+          <t>Configure the audit system to generate an audit event for any successful/unsuccessful use of the "unlink" command by adding or updating the following rules in the "/etc/audit/rules.d/audit.rules" file:
+-a always,exit -F arch=b32 -S unlink -F auid&gt;=1000 -F auid!=unset -k delete
+-a always,exit -F arch=b64 -S unlink -F auid&gt;=1000 -F auid!=unset -k delete
+It's allowed to group this system call within the same line as "rename", "unlink", "rmdir", "renameat", and "unlinkat".
+The audit daemon must be restarted for the changes to take effect.</t>
+        </is>
+      </c>
+      <c r="N104" s="2" t="inlineStr">
+        <is>
+          <t>CAT II</t>
+        </is>
+      </c>
+      <c r="O104" s="2" t="n"/>
+      <c r="P104" s="2" t="n"/>
+      <c r="Q104" s="2" t="n"/>
     </row>
     <row r="105" ht="130" customHeight="1">
-      <c r="A105" s="3" t="inlineStr">
-        <is>
-          <t>AU-3 (1),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
-        </is>
-      </c>
-      <c r="B105" s="3" t="inlineStr">
+      <c r="A105" s="2" t="inlineStr">
+        <is>
+          <t>AU-12 c,AU-3,AU-3 (1),AU-12 a,MA-4 (1) (a)</t>
+        </is>
+      </c>
+      <c r="B105" s="2" t="inlineStr">
         <is>
           <t>CCI-000169,CCI-000172,CCI-000366,CCI-002884</t>
         </is>
       </c>
-      <c r="C105" s="3" t="inlineStr">
+      <c r="C105" s="2" t="inlineStr">
         <is>
           <t>SRG-OS-000037-GPOS-00015,SRG-OS-000042-GPOS-00020,SRG-OS-000062-GPOS-00031,SRG-OS-000392-GPOS-00172,SRG-OS-000462-GPOS-00206,SRG-OS-000471-GPOS-00215,SRG-OS-000466-GPOS-00210,SRG-OS-000467-GPOS-00211,SRG-OS-000468-GPOS-00212</t>
         </is>
       </c>
-      <c r="D105" s="3" t="inlineStr">
+      <c r="D105" s="2" t="inlineStr">
         <is>
           <t>CCE-83755-9</t>
         </is>
       </c>
-      <c r="E105" s="3" t="inlineStr">
+      <c r="E105" s="2" t="inlineStr">
         <is>
           <t>The operating system must generate audit records when successful/unsuccessful attempts to delete privileges occur.</t>
         </is>
       </c>
-      <c r="F105" s="3" t="inlineStr">
+      <c r="F105" s="2" t="inlineStr">
         <is>
           <t>Red Hat Enterprise Linux 9 must generate audit records when successful/unsuccessful attempts to delete privileges occur.</t>
         </is>
       </c>
-      <c r="G105" s="3" t="inlineStr">
+      <c r="G105" s="2" t="inlineStr">
         <is>
           <t>Without generating audit records that are specific to the security and mission needs of the organization, it would be difficult to establish, correlate, and investigate the events relating to an incident or identify those responsible for one.
 Audit records can be generated from various components within the information system (e.g., module or policy filter).</t>
         </is>
       </c>
-      <c r="H105" s="3" t="inlineStr">
+      <c r="H105" s="2" t="inlineStr">
         <is>
           <t>Auditing file deletions will create an audit trail for files that are removed
 from the system. The audit trail could aid in system troubleshooting, as well as, detecting
 malicious processes that attempt to delete log files to conceal their presence.</t>
         </is>
       </c>
-      <c r="I105" s="3" t="inlineStr">
-        <is>
-          <t>Applicable - Configurable</t>
-        </is>
-      </c>
-      <c r="J105" s="3" t="inlineStr">
+      <c r="I105" s="2" t="inlineStr">
+        <is>
+          <t>Applicable - Configurable</t>
+        </is>
+      </c>
+      <c r="J105" s="2" t="inlineStr">
         <is>
           <t>Verify the operating system generates audit records when successful/unsuccessful attempts to delete privileges occur. If it does not, this is a finding.</t>
         </is>
       </c>
-      <c r="K105" s="3" t="inlineStr">
+      <c r="K105" s="2" t="inlineStr">
         <is>
           <t>To determine if the system is configured to audit calls to the
  unlinkat  system call, run the following command:
@@ -8639,21 +8671,29 @@
 If no line is returned, then this is a finding.</t>
         </is>
       </c>
-      <c r="L105" s="3" t="n"/>
-      <c r="M105" s="3" t="inlineStr"/>
-      <c r="N105" s="3" t="inlineStr">
-        <is>
-          <t>CAT II</t>
-        </is>
-      </c>
-      <c r="O105" s="3" t="n"/>
-      <c r="P105" s="3" t="n"/>
-      <c r="Q105" s="3" t="n"/>
+      <c r="L105" s="2" t="n"/>
+      <c r="M105" s="2" t="inlineStr">
+        <is>
+          <t>Configure the audit system to generate an audit event for any successful/unsuccessful use of the "unlinkat" command by adding or updating the following rules in the "/etc/audit/rules.d/audit.rules" file:
+-a always,exit -F arch=b32 -S unlinkat -F auid&gt;=1000 -F auid!=unset -k delete
+-a always,exit -F arch=b64 -S unlinkat -F auid&gt;=1000 -F auid!=unset -k delete
+It's allowed to group this system call within the same line as "rename", "unlink", "rmdir", "renameat", and "unlinkat".
+The audit daemon must be restarted for the changes to take effect.</t>
+        </is>
+      </c>
+      <c r="N105" s="2" t="inlineStr">
+        <is>
+          <t>CAT II</t>
+        </is>
+      </c>
+      <c r="O105" s="2" t="n"/>
+      <c r="P105" s="2" t="n"/>
+      <c r="Q105" s="2" t="n"/>
     </row>
     <row r="106" ht="130" customHeight="1">
       <c r="A106" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
+          <t>AU-12 c,AU-3,AU-3 (1),AU-12 a,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B106" s="3" t="inlineStr">
@@ -8733,7 +8773,7 @@
     <row r="107" ht="130" customHeight="1">
       <c r="A107" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
+          <t>AU-12 c,AU-3,AU-3 (1),AU-12 a,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B107" s="3" t="inlineStr">
@@ -8813,7 +8853,7 @@
     <row r="108" ht="130" customHeight="1">
       <c r="A108" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
+          <t>AU-12 c,AU-3,AU-3 (1),AU-12 a,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B108" s="3" t="inlineStr">
@@ -9562,7 +9602,7 @@
     <row r="117" ht="130" customHeight="1">
       <c r="A117" s="2" t="inlineStr">
         <is>
-          <t>SC-8,MA-4 c,AC-17 (2),SC-13</t>
+          <t>AC-17 (2),SC-13,SC-8,MA-4 c</t>
         </is>
       </c>
       <c r="B117" s="2" t="inlineStr">
@@ -9722,7 +9762,7 @@
     <row r="119" ht="130" customHeight="1">
       <c r="A119" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
+          <t>AU-12 c,AU-3,AU-3 (1),AU-12 a,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B119" s="2" t="inlineStr">
@@ -9878,7 +9918,7 @@
     <row r="121" ht="130" customHeight="1">
       <c r="A121" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
+          <t>AU-12 c,AU-3,AU-3 (1),AU-12 a,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B121" s="3" t="inlineStr">
@@ -10234,7 +10274,7 @@
     <row r="126" ht="130" customHeight="1">
       <c r="A126" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
+          <t>AU-12 c,AU-3,AU-3 (1),AU-12 a,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B126" s="3" t="inlineStr">
@@ -10314,7 +10354,7 @@
     <row r="127" ht="130" customHeight="1">
       <c r="A127" s="2" t="inlineStr">
         <is>
-          <t>SC-28 (1),SC-28</t>
+          <t>SC-28,SC-28 (1)</t>
         </is>
       </c>
       <c r="B127" s="2" t="inlineStr">
@@ -11081,7 +11121,7 @@
     <row r="137" ht="130" customHeight="1">
       <c r="A137" s="2" t="inlineStr">
         <is>
-          <t>AC-6 (10),CM-6 b</t>
+          <t>CM-6 b,AC-6 (10)</t>
         </is>
       </c>
       <c r="B137" s="2" t="inlineStr">
@@ -11162,7 +11202,7 @@
     <row r="138" ht="130" customHeight="1">
       <c r="A138" s="2" t="inlineStr">
         <is>
-          <t>AC-6 (10),CM-6 b</t>
+          <t>CM-6 b,AC-6 (10)</t>
         </is>
       </c>
       <c r="B138" s="2" t="inlineStr">
@@ -11248,7 +11288,7 @@
     <row r="139" ht="130" customHeight="1">
       <c r="A139" s="2" t="inlineStr">
         <is>
-          <t>AC-6 (10),CM-6 b</t>
+          <t>CM-6 b,AC-6 (10)</t>
         </is>
       </c>
       <c r="B139" s="2" t="inlineStr">
@@ -11694,7 +11734,7 @@
     <row r="144" ht="130" customHeight="1">
       <c r="A144" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
+          <t>AU-12 c,AU-3,AU-3 (1),AU-12 a,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B144" s="3" t="inlineStr">
@@ -11774,7 +11814,7 @@
     <row r="145" ht="130" customHeight="1">
       <c r="A145" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
+          <t>AU-12 c,AU-3,AU-3 (1),AU-12 a,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B145" s="3" t="inlineStr">
@@ -11854,7 +11894,7 @@
     <row r="146" ht="130" customHeight="1">
       <c r="A146" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
+          <t>AU-12 c,AU-3,AU-3 (1),AU-12 a,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B146" s="3" t="inlineStr">
@@ -12950,7 +12990,7 @@
     <row r="160" ht="130" customHeight="1">
       <c r="A160" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
+          <t>AU-12 c,AU-3,AU-3 (1),AU-12 a,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B160" s="3" t="inlineStr">
@@ -13027,7 +13067,7 @@
     <row r="161" ht="130" customHeight="1">
       <c r="A161" s="3" t="inlineStr">
         <is>
-          <t>AU-12 a,AU-12 c,AU-3,MA-4 (1) (a)</t>
+          <t>AU-12 c,AU-3,AU-12 a,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B161" s="3" t="inlineStr">
@@ -13100,7 +13140,7 @@
     <row r="162" ht="130" customHeight="1">
       <c r="A162" s="3" t="inlineStr">
         <is>
-          <t>AU-12 a,AU-12 c,AU-3,MA-4 (1) (a)</t>
+          <t>AU-12 c,AU-3,AU-12 a,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B162" s="3" t="inlineStr">
@@ -13173,7 +13213,7 @@
     <row r="163" ht="130" customHeight="1">
       <c r="A163" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
+          <t>AU-12 c,AU-3,AU-3 (1),AU-12 a,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B163" s="3" t="inlineStr">
@@ -13258,7 +13298,7 @@
     <row r="164" ht="130" customHeight="1">
       <c r="A164" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
+          <t>AU-12 c,AU-3,AU-3 (1),AU-12 a,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B164" s="3" t="inlineStr">
@@ -13333,7 +13373,7 @@
     <row r="165" ht="130" customHeight="1">
       <c r="A165" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
+          <t>AU-12 c,AU-3,AU-3 (1),AU-12 a,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B165" s="3" t="inlineStr">
@@ -13408,7 +13448,7 @@
     <row r="166" ht="130" customHeight="1">
       <c r="A166" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
+          <t>AU-12 c,AU-3,AU-3 (1),AU-12 a,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B166" s="3" t="inlineStr">
@@ -13483,7 +13523,7 @@
     <row r="167" ht="130" customHeight="1">
       <c r="A167" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
+          <t>AU-12 c,AU-3,AU-3 (1),AU-12 a,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B167" s="3" t="inlineStr">
@@ -13986,7 +14026,7 @@
     <row r="174" ht="130" customHeight="1">
       <c r="A174" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
+          <t>AU-12 c,AU-3,AU-3 (1),AU-12 a,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B174" s="3" t="inlineStr">
@@ -14275,7 +14315,7 @@
     <row r="178" ht="130" customHeight="1">
       <c r="A178" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
+          <t>AU-12 c,AU-3,AU-3 (1),AU-12 a,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B178" s="3" t="inlineStr">
@@ -14350,7 +14390,7 @@
     <row r="179" ht="130" customHeight="1">
       <c r="A179" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
+          <t>AU-12 c,AU-3,AU-3 (1),AU-12 a,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B179" s="3" t="inlineStr">
@@ -14432,7 +14472,7 @@
     <row r="180" ht="130" customHeight="1">
       <c r="A180" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
+          <t>AU-12 c,AU-3,AU-3 (1),AU-12 a,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B180" s="3" t="inlineStr">
@@ -14514,7 +14554,7 @@
     <row r="181" ht="130" customHeight="1">
       <c r="A181" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
+          <t>AU-12 c,AU-3,AU-3 (1),AU-12 a,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B181" s="3" t="inlineStr">
@@ -14596,7 +14636,7 @@
     <row r="182" ht="130" customHeight="1">
       <c r="A182" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,MA-4 (1) (a)</t>
+          <t>AU-3,AU-3 (1),MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B182" s="3" t="inlineStr">
@@ -14678,7 +14718,7 @@
     <row r="183" ht="130" customHeight="1">
       <c r="A183" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
+          <t>AU-12 c,AU-3,AU-3 (1),AU-12 a,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B183" s="3" t="inlineStr">
@@ -14760,7 +14800,7 @@
     <row r="184" ht="130" customHeight="1">
       <c r="A184" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
+          <t>AU-12 c,AU-3,AU-3 (1),AU-12 a,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B184" s="3" t="inlineStr">
@@ -14842,7 +14882,7 @@
     <row r="185" ht="130" customHeight="1">
       <c r="A185" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
+          <t>AU-12 c,AU-3,AU-3 (1),AU-12 a,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B185" s="3" t="inlineStr">
@@ -14924,7 +14964,7 @@
     <row r="186" ht="130" customHeight="1">
       <c r="A186" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
+          <t>AU-12 c,AU-3,AU-3 (1),AU-12 a,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B186" s="3" t="inlineStr">
@@ -15006,7 +15046,7 @@
     <row r="187" ht="130" customHeight="1">
       <c r="A187" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
+          <t>AU-12 c,AU-3,AU-3 (1),AU-12 a,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B187" s="3" t="inlineStr">
@@ -15166,7 +15206,7 @@
     <row r="189" ht="130" customHeight="1">
       <c r="A189" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
+          <t>AU-12 c,AU-3,AU-3 (1),AU-12 a,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B189" s="3" t="inlineStr">
@@ -15245,7 +15285,7 @@
     <row r="190" ht="130" customHeight="1">
       <c r="A190" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
+          <t>AU-12 c,AU-3,AU-3 (1),AU-12 a,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B190" s="3" t="inlineStr">
@@ -15327,7 +15367,7 @@
     <row r="191" ht="130" customHeight="1">
       <c r="A191" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
+          <t>AU-12 c,AU-3,AU-3 (1),AU-12 a,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B191" s="3" t="inlineStr">
@@ -15409,7 +15449,7 @@
     <row r="192" ht="130" customHeight="1">
       <c r="A192" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-3 (1),AU-3,MA-4 (1) (a)</t>
+          <t>AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B192" s="3" t="inlineStr">
@@ -15491,7 +15531,7 @@
     <row r="193" ht="130" customHeight="1">
       <c r="A193" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
+          <t>AU-12 c,AU-3,AU-3 (1),AU-12 a,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B193" s="3" t="inlineStr">
@@ -15573,7 +15613,7 @@
     <row r="194" ht="130" customHeight="1">
       <c r="A194" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
+          <t>AU-3,AU-12 c,AU-3 (1),AU-12 a,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B194" s="3" t="inlineStr">
@@ -15655,7 +15695,7 @@
     <row r="195" ht="130" customHeight="1">
       <c r="A195" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
+          <t>AU-12 c,AU-3,AU-3 (1),AU-12 a,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B195" s="3" t="inlineStr">
@@ -15737,7 +15777,7 @@
     <row r="196" ht="130" customHeight="1">
       <c r="A196" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
+          <t>AU-12 c,AU-3,AU-3 (1),AU-12 a,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B196" s="3" t="inlineStr">
@@ -15812,7 +15852,7 @@
     <row r="197" ht="130" customHeight="1">
       <c r="A197" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AC-2 (4),MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
+          <t>AU-3,AU-12 c,AU-3 (1),AC-2 (4),AU-12 a,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B197" s="3" t="inlineStr">
@@ -15885,7 +15925,7 @@
     <row r="198" ht="130" customHeight="1">
       <c r="A198" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AC-2 (4),MA-4 (1) (a),AU-12 c,AU-3</t>
+          <t>AU-12 c,AU-3,AU-3 (1),AC-2 (4),MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B198" s="3" t="inlineStr">
@@ -15962,7 +16002,7 @@
     <row r="199" ht="130" customHeight="1">
       <c r="A199" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (3),IA-2 (4),IA-2 (2),IA-2 (1)</t>
+          <t>IA-2 (3),IA-2 (4),IA-2 (1),IA-2 (2)</t>
         </is>
       </c>
       <c r="B199" s="2" t="inlineStr">
@@ -16049,7 +16089,7 @@
     <row r="200" ht="130" customHeight="1">
       <c r="A200" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (3),IA-2 (2),IA-2,IA-2 (4),IA-2 (5)</t>
+          <t>IA-2 (3),IA-2 (4),IA-2 (5),IA-2,IA-2 (2)</t>
         </is>
       </c>
       <c r="B200" s="2" t="inlineStr">
@@ -16138,7 +16178,7 @@
     <row r="201" ht="130" customHeight="1">
       <c r="A201" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (3),IA-2 (2),IA-2,IA-2 (4),IA-2 (5)</t>
+          <t>IA-2 (3),IA-2 (4),IA-2 (5),IA-2,IA-2 (2)</t>
         </is>
       </c>
       <c r="B201" s="2" t="inlineStr">
@@ -16382,7 +16422,7 @@
     <row r="204" ht="130" customHeight="1">
       <c r="A204" s="3" t="inlineStr">
         <is>
-          <t>AC-3 (4),IA-11</t>
+          <t>IA-11,AC-3 (4)</t>
         </is>
       </c>
       <c r="B204" s="3" t="inlineStr">
@@ -16824,7 +16864,7 @@
     <row r="210" ht="130" customHeight="1">
       <c r="A210" s="2" t="inlineStr">
         <is>
-          <t>SC-8 (2),SC-8,SC-8 (1)</t>
+          <t>SC-8 (1),SC-8 (2),SC-8</t>
         </is>
       </c>
       <c r="B210" s="2" t="inlineStr">
@@ -16901,7 +16941,7 @@
     <row r="211" ht="130" customHeight="1">
       <c r="A211" s="2" t="inlineStr">
         <is>
-          <t>SC-8 (2),SC-8,SC-8 (1)</t>
+          <t>SC-8 (1),SC-8 (2),SC-8</t>
         </is>
       </c>
       <c r="B211" s="2" t="inlineStr">
@@ -16987,7 +17027,7 @@
     <row r="212" ht="130" customHeight="1">
       <c r="A212" s="2" t="inlineStr">
         <is>
-          <t>AC-18 (1),SC-8,SC-8 (1)</t>
+          <t>AC-18 (1),SC-8 (1),SC-8</t>
         </is>
       </c>
       <c r="B212" s="2" t="inlineStr">
@@ -17147,7 +17187,7 @@
     <row r="214" ht="130" customHeight="1">
       <c r="A214" s="3" t="inlineStr">
         <is>
-          <t>AC-11 a,SC-10</t>
+          <t>SC-10,AC-11 a</t>
         </is>
       </c>
       <c r="B214" s="3" t="inlineStr">
@@ -17755,7 +17795,7 @@
     <row r="222" ht="130" customHeight="1">
       <c r="A222" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,IA-5 (1) (c),CM-7 a</t>
+          <t>CM-7 a,CM-6 b,IA-5 (1) (c)</t>
         </is>
       </c>
       <c r="B222" s="2" t="inlineStr">
@@ -17915,7 +17955,7 @@
     <row r="224" ht="130" customHeight="1">
       <c r="A224" s="3" t="inlineStr">
         <is>
-          <t>AU-12 a,CM-6 b</t>
+          <t>CM-6 b,AU-12 a</t>
         </is>
       </c>
       <c r="B224" s="3" t="inlineStr">
@@ -18001,7 +18041,7 @@
     <row r="225" ht="130" customHeight="1">
       <c r="A225" s="2" t="inlineStr">
         <is>
-          <t>SC-5,CM-6 b,SC-5 (2)</t>
+          <t>CM-6 b,SC-5,SC-5 (2)</t>
         </is>
       </c>
       <c r="B225" s="2" t="inlineStr">
@@ -18371,7 +18411,7 @@
     <row r="229" ht="130" customHeight="1">
       <c r="A229" s="2" t="inlineStr">
         <is>
-          <t>IA-2,AU-3 (1),IA-8</t>
+          <t>IA-2,IA-8,AU-3 (1)</t>
         </is>
       </c>
       <c r="B229" s="2" t="inlineStr">
@@ -19667,7 +19707,7 @@
     <row r="245" ht="130" customHeight="1">
       <c r="A245" s="3" t="inlineStr">
         <is>
-          <t>AC-18 (1),CM-7 a</t>
+          <t>CM-7 a,AC-18 (1)</t>
         </is>
       </c>
       <c r="B245" s="3" t="inlineStr">
@@ -20222,7 +20262,7 @@
     <row r="252" ht="130" customHeight="1">
       <c r="A252" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,IA-5 (1) (a),IA-5 (1) (b)</t>
+          <t>IA-5 (1) (a),CM-6 b,IA-5 (1) (b)</t>
         </is>
       </c>
       <c r="B252" s="2" t="inlineStr">
@@ -21460,7 +21500,7 @@
     <row r="267" ht="130" customHeight="1">
       <c r="A267" s="2" t="inlineStr">
         <is>
-          <t>SI-6 a,SC-3</t>
+          <t>SC-3,SI-6 a</t>
         </is>
       </c>
       <c r="B267" s="2" t="inlineStr">
@@ -21542,7 +21582,7 @@
     <row r="268" ht="130" customHeight="1">
       <c r="A268" s="3" t="inlineStr">
         <is>
-          <t>AC-6 (8),AC-6 (9)</t>
+          <t>AC-6 (9),AC-6 (8)</t>
         </is>
       </c>
       <c r="B268" s="3" t="inlineStr">
@@ -22136,7 +22176,7 @@
     <row r="276" ht="130" customHeight="1">
       <c r="A276" s="3" t="inlineStr">
         <is>
-          <t>AU-9,AU-12 c</t>
+          <t>AU-12 c,AU-9</t>
         </is>
       </c>
       <c r="B276" s="3" t="inlineStr">
@@ -22209,7 +22249,7 @@
     <row r="277" ht="130" customHeight="1">
       <c r="A277" s="2" t="inlineStr">
         <is>
-          <t>CM-5 (3),CM-6 b</t>
+          <t>CM-6 b,CM-5 (3)</t>
         </is>
       </c>
       <c r="B277" s="2" t="inlineStr">
@@ -22894,7 +22934,7 @@
     <row r="285" ht="130" customHeight="1">
       <c r="A285" s="3" t="inlineStr">
         <is>
-          <t>CM-7 a,CM-6 b</t>
+          <t>CM-6 b,CM-7 a</t>
         </is>
       </c>
       <c r="B285" s="3" t="inlineStr">
@@ -24179,7 +24219,7 @@
     <row r="302" ht="130" customHeight="1">
       <c r="A302" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AC-6 (9),AC-2 (4)</t>
+          <t>AC-2 (4),AC-6 (9),AU-12 c</t>
         </is>
       </c>
       <c r="B302" s="3" t="inlineStr">
@@ -24396,7 +24436,7 @@
     <row r="304" ht="130" customHeight="1">
       <c r="A304" s="3" t="inlineStr">
         <is>
-          <t>AU-5 (1),AU-5 a</t>
+          <t>AU-5 a,AU-5 (1)</t>
         </is>
       </c>
       <c r="B304" s="3" t="inlineStr">
@@ -27758,7 +27798,7 @@
     <row r="349" ht="130" customHeight="1">
       <c r="A349" s="3" t="inlineStr">
         <is>
-          <t>IA-5 (1) (c),CM-6 b</t>
+          <t>CM-6 b,IA-5 (1) (c)</t>
         </is>
       </c>
       <c r="B349" s="3" t="inlineStr">
@@ -30613,7 +30653,7 @@
     <row r="387" ht="130" customHeight="1">
       <c r="A387" s="2" t="inlineStr">
         <is>
-          <t>SC-3,CM-6 b</t>
+          <t>CM-6 b,SC-3</t>
         </is>
       </c>
       <c r="B387" s="2" t="inlineStr">
@@ -31007,7 +31047,7 @@
     <row r="392" ht="130" customHeight="1">
       <c r="A392" s="2" t="inlineStr">
         <is>
-          <t>AC-17 (9),CM-7 b,AC-17 (1),CM-6 b</t>
+          <t>CM-6 b,CM-7 b,AC-17 (9),AC-17 (1)</t>
         </is>
       </c>
       <c r="B392" s="2" t="inlineStr">
@@ -33584,7 +33624,7 @@
     <row r="422" ht="130" customHeight="1">
       <c r="A422" s="3" t="inlineStr">
         <is>
-          <t>IA-3,CM-6 b</t>
+          <t>CM-6 b,IA-3</t>
         </is>
       </c>
       <c r="B422" s="3" t="inlineStr">
@@ -33659,7 +33699,7 @@
     <row r="423" ht="130" customHeight="1">
       <c r="A423" s="3" t="inlineStr">
         <is>
-          <t>IA-3,CM-6 b</t>
+          <t>CM-6 b,IA-3</t>
         </is>
       </c>
       <c r="B423" s="3" t="inlineStr">
@@ -34346,7 +34386,7 @@
     <row r="432" ht="130" customHeight="1">
       <c r="A432" s="2" t="inlineStr">
         <is>
-          <t>SC-3,CM-6 b</t>
+          <t>CM-6 b,SC-3</t>
         </is>
       </c>
       <c r="B432" s="2" t="inlineStr">
@@ -34949,7 +34989,7 @@
     <row r="439" ht="130" customHeight="1">
       <c r="A439" s="2" t="inlineStr">
         <is>
-          <t>SC-3,CM-6 b</t>
+          <t>CM-6 b,SC-3</t>
         </is>
       </c>
       <c r="B439" s="2" t="inlineStr">
@@ -35701,7 +35741,7 @@
     <row r="449" ht="130" customHeight="1">
       <c r="A449" s="3" t="inlineStr">
         <is>
-          <t>IA-3,CM-6 b</t>
+          <t>CM-6 b,IA-3</t>
         </is>
       </c>
       <c r="B449" s="3" t="inlineStr">
@@ -35778,7 +35818,7 @@
     <row r="450" ht="130" customHeight="1">
       <c r="A450" s="3" t="inlineStr">
         <is>
-          <t>IA-3,CM-6 b</t>
+          <t>CM-6 b,IA-3</t>
         </is>
       </c>
       <c r="B450" s="3" t="inlineStr">
@@ -37328,7 +37368,7 @@
     <row r="471" ht="130" customHeight="1">
       <c r="A471" s="2" t="inlineStr">
         <is>
-          <t>SC-8,SC-8 (1),AC-17 (2)</t>
+          <t>AC-17 (2),SC-8 (1),SC-8</t>
         </is>
       </c>
       <c r="B471" s="2" t="inlineStr">
@@ -38630,7 +38670,7 @@
     <row r="488" ht="130" customHeight="1">
       <c r="A488" s="3" t="inlineStr">
         <is>
-          <t>IA-3,CM-7 b</t>
+          <t>CM-7 b,IA-3</t>
         </is>
       </c>
       <c r="B488" s="3" t="inlineStr">
@@ -41215,7 +41255,7 @@
     <row r="520" ht="130" customHeight="1">
       <c r="A520" s="2" t="inlineStr">
         <is>
-          <t>SC-8,SC-8 (2)</t>
+          <t>SC-8 (2),SC-8</t>
         </is>
       </c>
       <c r="B520" s="2" t="inlineStr">
@@ -42405,7 +42445,7 @@
     <row r="535" ht="130" customHeight="1">
       <c r="A535" s="2" t="inlineStr">
         <is>
-          <t>SC-8,AC-17 (2)</t>
+          <t>AC-17 (2),SC-8</t>
         </is>
       </c>
       <c r="B535" s="2" t="inlineStr">

--- a/srg_mapping/srg-mapping-rhel9.xlsx
+++ b/srg_mapping/srg-mapping-rhel9.xlsx
@@ -1455,7 +1455,7 @@
     <row r="13" ht="130" customHeight="1">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,AU-3,AU-7 (1),AU-14 (1),AU-6 (4),AU-3 (1),AU-12 a,CM-5 (1),MA-4 (1) (a),AU-7 a</t>
+          <t>CM-5 (1),AU-3,AU-6 (4),AU-3 (1),CM-6 b,AU-7 (1),AU-12 a,MA-4 (1) (a),AU-7 a,AU-14 (1)</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
@@ -1770,7 +1770,7 @@
     <row r="17" ht="130" customHeight="1">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>CM-6 b,CM-7 (2)</t>
+          <t>CM-7 (2),CM-6 b</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
@@ -2140,7 +2140,7 @@
     <row r="22" ht="130" customHeight="1">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>CM-6 b,CM-7 (2)</t>
+          <t>CM-7 (2),CM-6 b</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
@@ -2214,7 +2214,7 @@
     <row r="23" ht="130" customHeight="1">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>CM-6 b,CM-7 (2)</t>
+          <t>CM-7 (2),CM-6 b</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
@@ -3258,7 +3258,7 @@
     <row r="37" ht="130" customHeight="1">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-3,AU-14 (1),AU-3 (1),AU-12 a,MA-4 (1) (a)</t>
+          <t>AU-3,AU-3 (1),AU-12 c,AU-12 a,MA-4 (1) (a),AU-14 (1)</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
@@ -3349,7 +3349,7 @@
     <row r="38" ht="130" customHeight="1">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>AU-4,AU-14 (1)</t>
+          <t>AU-14 (1),AU-4</t>
         </is>
       </c>
       <c r="B38" s="3" t="inlineStr">
@@ -4170,7 +4170,7 @@
     <row r="49" ht="130" customHeight="1">
       <c r="A49" s="3" t="inlineStr">
         <is>
-          <t>CM-6 b,AU-6 (4),AU-4 (1)</t>
+          <t>AU-4 (1),CM-6 b,AU-6 (4)</t>
         </is>
       </c>
       <c r="B49" s="3" t="inlineStr">
@@ -4240,7 +4240,7 @@
     <row r="50" ht="130" customHeight="1">
       <c r="A50" s="3" t="inlineStr">
         <is>
-          <t>CM-6 b,AU-4 (1)</t>
+          <t>AU-4 (1),CM-6 b</t>
         </is>
       </c>
       <c r="B50" s="3" t="inlineStr">
@@ -4320,7 +4320,7 @@
     <row r="51" ht="130" customHeight="1">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>AU-8 (1) (a),AU-8 (1) (b),AU-8 b</t>
+          <t>AU-8 b,AU-8 (1) (a),AU-8 (1) (b)</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
@@ -4645,7 +4645,7 @@
     <row r="55" ht="130" customHeight="1">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>SI-6 b,CM-3 (5),SI-6 d</t>
+          <t>SI-6 b,SI-6 d,CM-3 (5)</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
@@ -4737,7 +4737,7 @@
     <row r="56" ht="130" customHeight="1">
       <c r="A56" s="3" t="inlineStr">
         <is>
-          <t>CM-3 (5),SI-6 d</t>
+          <t>SI-6 d,CM-3 (5)</t>
         </is>
       </c>
       <c r="B56" s="3" t="inlineStr">
@@ -4821,7 +4821,7 @@
     <row r="57" ht="130" customHeight="1">
       <c r="A57" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-3,AU-3 (1),AU-12 a,MA-4 (1) (a)</t>
+          <t>AU-3,AU-3 (1),AU-12 c,AU-12 a,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B57" s="3" t="inlineStr">
@@ -4896,7 +4896,7 @@
     <row r="58" ht="130" customHeight="1">
       <c r="A58" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-3,AU-3 (1),AU-12 a,MA-4 (1) (a)</t>
+          <t>AU-3,AU-3 (1),AU-12 c,AU-12 a,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B58" s="3" t="inlineStr">
@@ -4971,7 +4971,7 @@
     <row r="59" ht="130" customHeight="1">
       <c r="A59" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-3,AU-3 (1),AU-12 a,MA-4 (1) (a)</t>
+          <t>AU-3,AU-3 (1),AU-12 c,AU-12 a,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B59" s="3" t="inlineStr">
@@ -5046,7 +5046,7 @@
     <row r="60" ht="130" customHeight="1">
       <c r="A60" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-3,AU-3 (1),AU-12 a,MA-4 (1) (a)</t>
+          <t>AU-3,AU-3 (1),AU-12 c,AU-12 a,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B60" s="3" t="inlineStr">
@@ -5121,7 +5121,7 @@
     <row r="61" ht="130" customHeight="1">
       <c r="A61" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-3,AU-3 (1),AU-12 a,MA-4 (1) (a)</t>
+          <t>AU-3,AU-3 (1),AU-12 c,AU-12 a,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B61" s="3" t="inlineStr">
@@ -5196,7 +5196,7 @@
     <row r="62" ht="130" customHeight="1">
       <c r="A62" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-3,AU-3 (1),AU-12 a,MA-4 (1) (a)</t>
+          <t>AU-3,AU-3 (1),AU-12 c,AU-12 a,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B62" s="3" t="inlineStr">
@@ -5271,7 +5271,7 @@
     <row r="63" ht="130" customHeight="1">
       <c r="A63" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-3,AU-3 (1),AU-12 a,MA-4 (1) (a)</t>
+          <t>AU-3,AU-3 (1),AU-12 c,AU-12 a,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B63" s="3" t="inlineStr">
@@ -5346,7 +5346,7 @@
     <row r="64" ht="130" customHeight="1">
       <c r="A64" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-3,AU-3 (1),AU-12 a,MA-4 (1) (a)</t>
+          <t>AU-3,AU-3 (1),AU-12 c,AU-12 a,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B64" s="3" t="inlineStr">
@@ -5421,7 +5421,7 @@
     <row r="65" ht="130" customHeight="1">
       <c r="A65" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-3,AU-3 (1),AU-12 a,MA-4 (1) (a)</t>
+          <t>AU-3,AU-3 (1),AU-12 c,AU-12 a,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B65" s="3" t="inlineStr">
@@ -5496,7 +5496,7 @@
     <row r="66" ht="130" customHeight="1">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,AU-12 c,AU-7 b,AU-12 (3),AU-12 a,CM-5 (1),AU-8 b,AU-7 a</t>
+          <t>CM-5 (1),AU-12 (3),AU-12 c,AU-8 b,AU-12 a,AU-7 a,CM-6 b,AU-7 b</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
@@ -5570,7 +5570,7 @@
     <row r="67" ht="130" customHeight="1">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 c,AU-3 (1),AC-2 (4),AU-12 a,MA-4 (1) (a)</t>
+          <t>AU-3,AC-2 (4),AU-3 (1),AU-12 c,AU-12 a,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
@@ -5651,7 +5651,7 @@
     <row r="68" ht="130" customHeight="1">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 c,AU-3 (1),AC-2 (4),AU-12 a,MA-4 (1) (a)</t>
+          <t>AU-3,AC-2 (4),AU-3 (1),AU-12 c,AU-12 a,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
@@ -5732,7 +5732,7 @@
     <row r="69" ht="130" customHeight="1">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 c,AU-3 (1),AC-2 (4),AU-12 a,MA-4 (1) (a)</t>
+          <t>AU-3,AC-2 (4),AU-3 (1),AU-12 c,AU-12 a,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
@@ -5814,7 +5814,7 @@
     <row r="70" ht="130" customHeight="1">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 c,AU-3 (1),AC-2 (4),AU-12 a,MA-4 (1) (a)</t>
+          <t>AU-3,AC-2 (4),AU-3 (1),AU-12 c,AU-12 a,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
@@ -5896,7 +5896,7 @@
     <row r="71" ht="130" customHeight="1">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 c,AU-3 (1),AC-2 (4),AU-12 a,MA-4 (1) (a)</t>
+          <t>AU-3,AC-2 (4),AU-3 (1),AU-12 c,AU-12 a,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B71" s="2" t="inlineStr">
@@ -5978,7 +5978,7 @@
     <row r="72" ht="130" customHeight="1">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 c,AU-3 (1),AC-2 (4),AU-12 a,MA-4 (1) (a)</t>
+          <t>AU-3,AC-2 (4),AU-3 (1),AU-12 c,AU-12 a,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
@@ -6060,7 +6060,7 @@
     <row r="73" ht="130" customHeight="1">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 c,AU-3 (1),AC-2 (4),AU-12 a,MA-4 (1) (a)</t>
+          <t>AU-3,AC-2 (4),AU-3 (1),AU-12 c,AU-12 a,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B73" s="2" t="inlineStr">
@@ -6142,7 +6142,7 @@
     <row r="74" ht="130" customHeight="1">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>CM-3 (5),SI-6 a</t>
+          <t>SI-6 a,CM-3 (5)</t>
         </is>
       </c>
       <c r="B74" s="2" t="inlineStr">
@@ -7180,7 +7180,7 @@
     <row r="87" ht="130" customHeight="1">
       <c r="A87" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-3,AU-3 (1),AU-12 a,MA-4 (1) (a)</t>
+          <t>AU-3,AU-3 (1),AU-12 c,AU-12 a,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B87" s="3" t="inlineStr">
@@ -7254,7 +7254,7 @@
     <row r="88" ht="130" customHeight="1">
       <c r="A88" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-3,AU-3 (1),AU-12 a,MA-4 (1) (a)</t>
+          <t>AU-3,AU-3 (1),AU-12 c,AU-12 a,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B88" s="3" t="inlineStr">
@@ -7328,7 +7328,7 @@
     <row r="89" ht="130" customHeight="1">
       <c r="A89" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-3,AU-3 (1),AU-12 a,MA-4 (1) (a)</t>
+          <t>AU-3,AU-3 (1),AU-12 c,AU-12 a,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B89" s="3" t="inlineStr">
@@ -7402,7 +7402,7 @@
     <row r="90" ht="130" customHeight="1">
       <c r="A90" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-3,AU-3 (1),AU-12 a,MA-4 (1) (a)</t>
+          <t>AU-3,AU-3 (1),AU-12 c,AU-12 a,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B90" s="3" t="inlineStr">
@@ -7482,7 +7482,7 @@
     <row r="91" ht="130" customHeight="1">
       <c r="A91" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (6),SC-13</t>
+          <t>SC-13,MA-4 (6)</t>
         </is>
       </c>
       <c r="B91" s="3" t="inlineStr">
@@ -7643,7 +7643,7 @@
     <row r="93" ht="130" customHeight="1">
       <c r="A93" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (6),SC-13</t>
+          <t>SC-13,MA-4 (6)</t>
         </is>
       </c>
       <c r="B93" s="3" t="inlineStr">
@@ -7826,7 +7826,7 @@
     <row r="95" ht="130" customHeight="1">
       <c r="A95" s="3" t="inlineStr">
         <is>
-          <t>AU-9,AU-9 (3)</t>
+          <t>AU-9 (3),AU-9</t>
         </is>
       </c>
       <c r="B95" s="3" t="inlineStr">
@@ -7902,7 +7902,7 @@
     <row r="96" ht="130" customHeight="1">
       <c r="A96" s="3" t="inlineStr">
         <is>
-          <t>AU-9,AU-9 (3)</t>
+          <t>AU-9 (3),AU-9</t>
         </is>
       </c>
       <c r="B96" s="3" t="inlineStr">
@@ -7978,7 +7978,7 @@
     <row r="97" ht="130" customHeight="1">
       <c r="A97" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-3,AU-3 (1),AU-12 a,MA-4 (1) (a)</t>
+          <t>AU-3,AU-3 (1),AU-12 c,AU-12 a,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B97" s="3" t="inlineStr">
@@ -8053,7 +8053,7 @@
     <row r="98" ht="130" customHeight="1">
       <c r="A98" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-3,AU-3 (1),AU-12 a,MA-4 (1) (a)</t>
+          <t>AU-3,AU-3 (1),AU-12 c,AU-12 a,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B98" s="3" t="inlineStr">
@@ -8128,7 +8128,7 @@
     <row r="99" ht="130" customHeight="1">
       <c r="A99" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-3,AU-3 (1),AU-12 a,MA-4 (1) (a)</t>
+          <t>AU-3,AU-3 (1),AU-12 c,AU-12 a,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B99" s="3" t="inlineStr">
@@ -8203,7 +8203,7 @@
     <row r="100" ht="130" customHeight="1">
       <c r="A100" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-3,AU-3 (1),AU-12 a,MA-4 (1) (a)</t>
+          <t>AU-3,AU-3 (1),AU-12 c,AU-12 a,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B100" s="3" t="inlineStr">
@@ -8283,7 +8283,7 @@
     <row r="101" ht="130" customHeight="1">
       <c r="A101" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-3,AU-3 (1),AU-12 a,MA-4 (1) (a)</t>
+          <t>AU-3,AU-3 (1),AU-12 c,AU-12 a,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B101" s="2" t="inlineStr">
@@ -8365,7 +8365,7 @@
     <row r="102" ht="130" customHeight="1">
       <c r="A102" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-3,AU-3 (1),AU-12 a,MA-4 (1) (a)</t>
+          <t>AU-3,AU-3 (1),AU-12 c,AU-12 a,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B102" s="2" t="inlineStr">
@@ -8447,7 +8447,7 @@
     <row r="103" ht="130" customHeight="1">
       <c r="A103" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-3,AU-3 (1),AU-12 a,MA-4 (1) (a)</t>
+          <t>AU-3,AU-3 (1),AU-12 c,AU-12 a,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B103" s="2" t="inlineStr">
@@ -8529,7 +8529,7 @@
     <row r="104" ht="130" customHeight="1">
       <c r="A104" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-3,AU-3 (1),AU-12 a,MA-4 (1) (a)</t>
+          <t>AU-3,AU-3 (1),AU-12 c,AU-12 a,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B104" s="2" t="inlineStr">
@@ -8611,7 +8611,7 @@
     <row r="105" ht="130" customHeight="1">
       <c r="A105" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-3,AU-3 (1),AU-12 a,MA-4 (1) (a)</t>
+          <t>AU-3,AU-3 (1),AU-12 c,AU-12 a,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B105" s="2" t="inlineStr">
@@ -8693,7 +8693,7 @@
     <row r="106" ht="130" customHeight="1">
       <c r="A106" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-3,AU-3 (1),AU-12 a,MA-4 (1) (a)</t>
+          <t>AU-3,AU-3 (1),AU-12 c,AU-12 a,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B106" s="3" t="inlineStr">
@@ -8773,7 +8773,7 @@
     <row r="107" ht="130" customHeight="1">
       <c r="A107" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-3,AU-3 (1),AU-12 a,MA-4 (1) (a)</t>
+          <t>AU-3,AU-3 (1),AU-12 c,AU-12 a,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B107" s="3" t="inlineStr">
@@ -8853,7 +8853,7 @@
     <row r="108" ht="130" customHeight="1">
       <c r="A108" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-3,AU-3 (1),AU-12 a,MA-4 (1) (a)</t>
+          <t>AU-3,AU-3 (1),AU-12 c,AU-12 a,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B108" s="3" t="inlineStr">
@@ -9104,7 +9104,7 @@
     <row r="111" ht="130" customHeight="1">
       <c r="A111" s="2" t="inlineStr">
         <is>
-          <t>AC-6 (10),AC-11 b</t>
+          <t>AC-11 b,AC-6 (10)</t>
         </is>
       </c>
       <c r="B111" s="2" t="inlineStr">
@@ -9602,7 +9602,7 @@
     <row r="117" ht="130" customHeight="1">
       <c r="A117" s="2" t="inlineStr">
         <is>
-          <t>AC-17 (2),SC-13,SC-8,MA-4 c</t>
+          <t>SC-13,AC-17 (2),SC-8,MA-4 c</t>
         </is>
       </c>
       <c r="B117" s="2" t="inlineStr">
@@ -9684,7 +9684,7 @@
     <row r="118" ht="130" customHeight="1">
       <c r="A118" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B118" s="2" t="inlineStr">
@@ -9762,7 +9762,7 @@
     <row r="119" ht="130" customHeight="1">
       <c r="A119" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-3,AU-3 (1),AU-12 a,MA-4 (1) (a)</t>
+          <t>AU-3,AU-3 (1),AU-12 c,AU-12 a,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B119" s="2" t="inlineStr">
@@ -9840,7 +9840,7 @@
     <row r="120" ht="130" customHeight="1">
       <c r="A120" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B120" s="2" t="inlineStr">
@@ -9918,7 +9918,7 @@
     <row r="121" ht="130" customHeight="1">
       <c r="A121" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-3,AU-3 (1),AU-12 a,MA-4 (1) (a)</t>
+          <t>AU-3,AU-3 (1),AU-12 c,AU-12 a,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B121" s="3" t="inlineStr">
@@ -10274,7 +10274,7 @@
     <row r="126" ht="130" customHeight="1">
       <c r="A126" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-3,AU-3 (1),AU-12 a,MA-4 (1) (a)</t>
+          <t>AU-3,AU-3 (1),AU-12 c,AU-12 a,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B126" s="3" t="inlineStr">
@@ -11654,7 +11654,7 @@
     <row r="143" ht="130" customHeight="1">
       <c r="A143" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B143" s="3" t="inlineStr">
@@ -11734,7 +11734,7 @@
     <row r="144" ht="130" customHeight="1">
       <c r="A144" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-3,AU-3 (1),AU-12 a,MA-4 (1) (a)</t>
+          <t>AU-3,AU-3 (1),AU-12 c,AU-12 a,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B144" s="3" t="inlineStr">
@@ -11814,7 +11814,7 @@
     <row r="145" ht="130" customHeight="1">
       <c r="A145" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-3,AU-3 (1),AU-12 a,MA-4 (1) (a)</t>
+          <t>AU-3,AU-3 (1),AU-12 c,AU-12 a,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B145" s="3" t="inlineStr">
@@ -11894,7 +11894,7 @@
     <row r="146" ht="130" customHeight="1">
       <c r="A146" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-3,AU-3 (1),AU-12 a,MA-4 (1) (a)</t>
+          <t>AU-3,AU-3 (1),AU-12 c,AU-12 a,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B146" s="3" t="inlineStr">
@@ -12206,7 +12206,7 @@
     <row r="150" ht="130" customHeight="1">
       <c r="A150" s="2" t="inlineStr">
         <is>
-          <t>IA-5 (1) (c),IA-7</t>
+          <t>IA-7,IA-5 (1) (c)</t>
         </is>
       </c>
       <c r="B150" s="2" t="inlineStr">
@@ -12593,7 +12593,7 @@
     <row r="155" ht="130" customHeight="1">
       <c r="A155" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,IA-7</t>
+          <t>IA-7,CM-6 b</t>
         </is>
       </c>
       <c r="B155" s="2" t="inlineStr">
@@ -12669,7 +12669,7 @@
     <row r="156" ht="130" customHeight="1">
       <c r="A156" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,IA-7</t>
+          <t>IA-7,CM-6 b</t>
         </is>
       </c>
       <c r="B156" s="2" t="inlineStr">
@@ -12754,7 +12754,7 @@
     <row r="157" ht="130" customHeight="1">
       <c r="A157" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,IA-7</t>
+          <t>IA-7,CM-6 b</t>
         </is>
       </c>
       <c r="B157" s="2" t="inlineStr">
@@ -12990,7 +12990,7 @@
     <row r="160" ht="130" customHeight="1">
       <c r="A160" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-3,AU-3 (1),AU-12 a,MA-4 (1) (a)</t>
+          <t>AU-3,AU-3 (1),AU-12 c,AU-12 a,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B160" s="3" t="inlineStr">
@@ -13067,7 +13067,7 @@
     <row r="161" ht="130" customHeight="1">
       <c r="A161" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-3,AU-12 a,MA-4 (1) (a)</t>
+          <t>AU-12 a,AU-3,AU-12 c,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B161" s="3" t="inlineStr">
@@ -13140,7 +13140,7 @@
     <row r="162" ht="130" customHeight="1">
       <c r="A162" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-3,AU-12 a,MA-4 (1) (a)</t>
+          <t>AU-12 a,AU-3,AU-12 c,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B162" s="3" t="inlineStr">
@@ -13213,7 +13213,7 @@
     <row r="163" ht="130" customHeight="1">
       <c r="A163" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-3,AU-3 (1),AU-12 a,MA-4 (1) (a)</t>
+          <t>AU-3,AU-3 (1),AU-12 c,AU-12 a,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B163" s="3" t="inlineStr">
@@ -13298,7 +13298,7 @@
     <row r="164" ht="130" customHeight="1">
       <c r="A164" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-3,AU-3 (1),AU-12 a,MA-4 (1) (a)</t>
+          <t>AU-3,AU-3 (1),AU-12 c,AU-12 a,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B164" s="3" t="inlineStr">
@@ -13373,7 +13373,7 @@
     <row r="165" ht="130" customHeight="1">
       <c r="A165" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-3,AU-3 (1),AU-12 a,MA-4 (1) (a)</t>
+          <t>AU-3,AU-3 (1),AU-12 c,AU-12 a,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B165" s="3" t="inlineStr">
@@ -13448,7 +13448,7 @@
     <row r="166" ht="130" customHeight="1">
       <c r="A166" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-3,AU-3 (1),AU-12 a,MA-4 (1) (a)</t>
+          <t>AU-3,AU-3 (1),AU-12 c,AU-12 a,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B166" s="3" t="inlineStr">
@@ -13523,7 +13523,7 @@
     <row r="167" ht="130" customHeight="1">
       <c r="A167" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-3,AU-3 (1),AU-12 a,MA-4 (1) (a)</t>
+          <t>AU-3,AU-3 (1),AU-12 c,AU-12 a,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B167" s="3" t="inlineStr">
@@ -14026,7 +14026,7 @@
     <row r="174" ht="130" customHeight="1">
       <c r="A174" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-3,AU-3 (1),AU-12 a,MA-4 (1) (a)</t>
+          <t>AU-3,AU-3 (1),AU-12 c,AU-12 a,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B174" s="3" t="inlineStr">
@@ -14315,7 +14315,7 @@
     <row r="178" ht="130" customHeight="1">
       <c r="A178" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-3,AU-3 (1),AU-12 a,MA-4 (1) (a)</t>
+          <t>AU-3,AU-3 (1),AU-12 c,AU-12 a,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B178" s="3" t="inlineStr">
@@ -14390,7 +14390,7 @@
     <row r="179" ht="130" customHeight="1">
       <c r="A179" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-3,AU-3 (1),AU-12 a,MA-4 (1) (a)</t>
+          <t>AU-3,AU-3 (1),AU-12 c,AU-12 a,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B179" s="3" t="inlineStr">
@@ -14472,7 +14472,7 @@
     <row r="180" ht="130" customHeight="1">
       <c r="A180" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-3,AU-3 (1),AU-12 a,MA-4 (1) (a)</t>
+          <t>AU-3,AU-3 (1),AU-12 c,AU-12 a,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B180" s="3" t="inlineStr">
@@ -14554,7 +14554,7 @@
     <row r="181" ht="130" customHeight="1">
       <c r="A181" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-3,AU-3 (1),AU-12 a,MA-4 (1) (a)</t>
+          <t>AU-3,AU-3 (1),AU-12 c,AU-12 a,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B181" s="3" t="inlineStr">
@@ -14636,7 +14636,7 @@
     <row r="182" ht="130" customHeight="1">
       <c r="A182" s="3" t="inlineStr">
         <is>
-          <t>AU-3,AU-3 (1),MA-4 (1) (a)</t>
+          <t>AU-3,MA-4 (1) (a),AU-3 (1)</t>
         </is>
       </c>
       <c r="B182" s="3" t="inlineStr">
@@ -14718,7 +14718,7 @@
     <row r="183" ht="130" customHeight="1">
       <c r="A183" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-3,AU-3 (1),AU-12 a,MA-4 (1) (a)</t>
+          <t>AU-3,AU-3 (1),AU-12 c,AU-12 a,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B183" s="3" t="inlineStr">
@@ -14800,7 +14800,7 @@
     <row r="184" ht="130" customHeight="1">
       <c r="A184" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-3,AU-3 (1),AU-12 a,MA-4 (1) (a)</t>
+          <t>AU-3,AU-3 (1),AU-12 c,AU-12 a,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B184" s="3" t="inlineStr">
@@ -14882,7 +14882,7 @@
     <row r="185" ht="130" customHeight="1">
       <c r="A185" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-3,AU-3 (1),AU-12 a,MA-4 (1) (a)</t>
+          <t>AU-3,AU-3 (1),AU-12 c,AU-12 a,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B185" s="3" t="inlineStr">
@@ -14964,7 +14964,7 @@
     <row r="186" ht="130" customHeight="1">
       <c r="A186" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-3,AU-3 (1),AU-12 a,MA-4 (1) (a)</t>
+          <t>AU-3,AU-3 (1),AU-12 c,AU-12 a,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B186" s="3" t="inlineStr">
@@ -15046,7 +15046,7 @@
     <row r="187" ht="130" customHeight="1">
       <c r="A187" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-3,AU-3 (1),AU-12 a,MA-4 (1) (a)</t>
+          <t>AU-3,AU-3 (1),AU-12 c,AU-12 a,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B187" s="3" t="inlineStr">
@@ -15128,7 +15128,7 @@
     <row r="188" ht="130" customHeight="1">
       <c r="A188" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-3 (1),MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 c,AU-3 (1)</t>
         </is>
       </c>
       <c r="B188" s="3" t="inlineStr">
@@ -15206,7 +15206,7 @@
     <row r="189" ht="130" customHeight="1">
       <c r="A189" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-3,AU-3 (1),AU-12 a,MA-4 (1) (a)</t>
+          <t>AU-3,AU-3 (1),AU-12 c,AU-12 a,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B189" s="3" t="inlineStr">
@@ -15285,7 +15285,7 @@
     <row r="190" ht="130" customHeight="1">
       <c r="A190" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-3,AU-3 (1),AU-12 a,MA-4 (1) (a)</t>
+          <t>AU-3,AU-3 (1),AU-12 c,AU-12 a,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B190" s="3" t="inlineStr">
@@ -15367,7 +15367,7 @@
     <row r="191" ht="130" customHeight="1">
       <c r="A191" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-3,AU-3 (1),AU-12 a,MA-4 (1) (a)</t>
+          <t>AU-3,AU-3 (1),AU-12 c,AU-12 a,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B191" s="3" t="inlineStr">
@@ -15449,7 +15449,7 @@
     <row r="192" ht="130" customHeight="1">
       <c r="A192" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-3,AU-3 (1),MA-4 (1) (a)</t>
+          <t>AU-3,AU-12 c,MA-4 (1) (a),AU-3 (1)</t>
         </is>
       </c>
       <c r="B192" s="3" t="inlineStr">
@@ -15531,7 +15531,7 @@
     <row r="193" ht="130" customHeight="1">
       <c r="A193" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-3,AU-3 (1),AU-12 a,MA-4 (1) (a)</t>
+          <t>AU-3,AU-3 (1),AU-12 c,AU-12 a,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B193" s="3" t="inlineStr">
@@ -15613,7 +15613,7 @@
     <row r="194" ht="130" customHeight="1">
       <c r="A194" s="3" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 c,AU-3 (1),AU-12 a,MA-4 (1) (a)</t>
+          <t>AU-3,AU-3 (1),AU-12 c,AU-12 a,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B194" s="3" t="inlineStr">
@@ -15695,7 +15695,7 @@
     <row r="195" ht="130" customHeight="1">
       <c r="A195" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-3,AU-3 (1),AU-12 a,MA-4 (1) (a)</t>
+          <t>AU-3,AU-3 (1),AU-12 c,AU-12 a,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B195" s="3" t="inlineStr">
@@ -15777,7 +15777,7 @@
     <row r="196" ht="130" customHeight="1">
       <c r="A196" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-3,AU-3 (1),AU-12 a,MA-4 (1) (a)</t>
+          <t>AU-3,AU-3 (1),AU-12 c,AU-12 a,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B196" s="3" t="inlineStr">
@@ -15852,7 +15852,7 @@
     <row r="197" ht="130" customHeight="1">
       <c r="A197" s="3" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 c,AU-3 (1),AC-2 (4),AU-12 a,MA-4 (1) (a)</t>
+          <t>AU-3,AC-2 (4),AU-3 (1),AU-12 c,AU-12 a,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B197" s="3" t="inlineStr">
@@ -15925,7 +15925,7 @@
     <row r="198" ht="130" customHeight="1">
       <c r="A198" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-3,AU-3 (1),AC-2 (4),MA-4 (1) (a)</t>
+          <t>AU-3,AC-2 (4),AU-3 (1),AU-12 c,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B198" s="3" t="inlineStr">
@@ -16002,7 +16002,7 @@
     <row r="199" ht="130" customHeight="1">
       <c r="A199" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (3),IA-2 (4),IA-2 (1),IA-2 (2)</t>
+          <t>IA-2 (4),IA-2 (3),IA-2 (1),IA-2 (2)</t>
         </is>
       </c>
       <c r="B199" s="2" t="inlineStr">
@@ -16089,7 +16089,7 @@
     <row r="200" ht="130" customHeight="1">
       <c r="A200" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (3),IA-2 (4),IA-2 (5),IA-2,IA-2 (2)</t>
+          <t>IA-2 (4),IA-2 (5),IA-2 (3),IA-2,IA-2 (2)</t>
         </is>
       </c>
       <c r="B200" s="2" t="inlineStr">
@@ -16178,7 +16178,7 @@
     <row r="201" ht="130" customHeight="1">
       <c r="A201" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (3),IA-2 (4),IA-2 (5),IA-2,IA-2 (2)</t>
+          <t>IA-2 (4),IA-2 (5),IA-2 (3),IA-2,IA-2 (2)</t>
         </is>
       </c>
       <c r="B201" s="2" t="inlineStr">
@@ -16422,7 +16422,7 @@
     <row r="204" ht="130" customHeight="1">
       <c r="A204" s="3" t="inlineStr">
         <is>
-          <t>IA-11,AC-3 (4)</t>
+          <t>AC-3 (4),IA-11</t>
         </is>
       </c>
       <c r="B204" s="3" t="inlineStr">
@@ -16864,7 +16864,7 @@
     <row r="210" ht="130" customHeight="1">
       <c r="A210" s="2" t="inlineStr">
         <is>
-          <t>SC-8 (1),SC-8 (2),SC-8</t>
+          <t>SC-8 (2),SC-8,SC-8 (1)</t>
         </is>
       </c>
       <c r="B210" s="2" t="inlineStr">
@@ -16941,7 +16941,7 @@
     <row r="211" ht="130" customHeight="1">
       <c r="A211" s="2" t="inlineStr">
         <is>
-          <t>SC-8 (1),SC-8 (2),SC-8</t>
+          <t>SC-8 (2),SC-8,SC-8 (1)</t>
         </is>
       </c>
       <c r="B211" s="2" t="inlineStr">
@@ -17027,7 +17027,7 @@
     <row r="212" ht="130" customHeight="1">
       <c r="A212" s="2" t="inlineStr">
         <is>
-          <t>AC-18 (1),SC-8 (1),SC-8</t>
+          <t>SC-8,AC-18 (1),SC-8 (1)</t>
         </is>
       </c>
       <c r="B212" s="2" t="inlineStr">
@@ -17955,7 +17955,7 @@
     <row r="224" ht="130" customHeight="1">
       <c r="A224" s="3" t="inlineStr">
         <is>
-          <t>CM-6 b,AU-12 a</t>
+          <t>AU-12 a,CM-6 b</t>
         </is>
       </c>
       <c r="B224" s="3" t="inlineStr">
@@ -18221,7 +18221,7 @@
     <row r="227" ht="130" customHeight="1">
       <c r="A227" s="2" t="inlineStr">
         <is>
-          <t>CM-7 a,SI-16</t>
+          <t>SI-16,CM-7 a</t>
         </is>
       </c>
       <c r="B227" s="2" t="inlineStr">
@@ -18313,7 +18313,7 @@
     <row r="228" ht="130" customHeight="1">
       <c r="A228" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,SI-16</t>
+          <t>SI-16,CM-6 b</t>
         </is>
       </c>
       <c r="B228" s="2" t="inlineStr">
@@ -18411,7 +18411,7 @@
     <row r="229" ht="130" customHeight="1">
       <c r="A229" s="2" t="inlineStr">
         <is>
-          <t>IA-2,IA-8,AU-3 (1)</t>
+          <t>IA-8,IA-2,AU-3 (1)</t>
         </is>
       </c>
       <c r="B229" s="2" t="inlineStr">
@@ -19385,7 +19385,7 @@
     <row r="241" ht="130" customHeight="1">
       <c r="A241" s="3" t="inlineStr">
         <is>
-          <t>SC-2,CM-6 b,SI-16</t>
+          <t>SI-16,CM-6 b,SC-2</t>
         </is>
       </c>
       <c r="B241" s="3" t="inlineStr">
@@ -19545,7 +19545,7 @@
     <row r="243" ht="130" customHeight="1">
       <c r="A243" s="2" t="inlineStr">
         <is>
-          <t>SC-3,SI-16</t>
+          <t>SI-16,SC-3</t>
         </is>
       </c>
       <c r="B243" s="2" t="inlineStr">
@@ -20911,7 +20911,7 @@
     <row r="260" ht="130" customHeight="1">
       <c r="A260" s="3" t="inlineStr">
         <is>
-          <t>SC-2,SC-4</t>
+          <t>SC-4,SC-2</t>
         </is>
       </c>
       <c r="B260" s="3" t="inlineStr">
@@ -20999,7 +20999,7 @@
     <row r="261" ht="130" customHeight="1">
       <c r="A261" s="3" t="inlineStr">
         <is>
-          <t>SC-2,SC-4</t>
+          <t>SC-4,SC-2</t>
         </is>
       </c>
       <c r="B261" s="3" t="inlineStr">
@@ -21500,7 +21500,7 @@
     <row r="267" ht="130" customHeight="1">
       <c r="A267" s="2" t="inlineStr">
         <is>
-          <t>SC-3,SI-6 a</t>
+          <t>SI-6 a,SC-3</t>
         </is>
       </c>
       <c r="B267" s="2" t="inlineStr">
@@ -21662,7 +21662,7 @@
     <row r="269" ht="130" customHeight="1">
       <c r="A269" s="3" t="inlineStr">
         <is>
-          <t>CM-6 b,IA-2 (5)</t>
+          <t>IA-2 (5),CM-6 b</t>
         </is>
       </c>
       <c r="B269" s="3" t="inlineStr">
@@ -22934,7 +22934,7 @@
     <row r="285" ht="130" customHeight="1">
       <c r="A285" s="3" t="inlineStr">
         <is>
-          <t>CM-6 b,CM-7 a</t>
+          <t>CM-7 a,CM-6 b</t>
         </is>
       </c>
       <c r="B285" s="3" t="inlineStr">
@@ -24219,7 +24219,7 @@
     <row r="302" ht="130" customHeight="1">
       <c r="A302" s="3" t="inlineStr">
         <is>
-          <t>AC-2 (4),AC-6 (9),AU-12 c</t>
+          <t>AU-12 c,AC-2 (4),AC-6 (9)</t>
         </is>
       </c>
       <c r="B302" s="3" t="inlineStr">
@@ -28681,7 +28681,7 @@
     <row r="361" ht="130" customHeight="1">
       <c r="A361" s="3" t="inlineStr">
         <is>
-          <t>CM-6 b,AC-17 (2)</t>
+          <t>AC-17 (2),CM-6 b</t>
         </is>
       </c>
       <c r="B361" s="3" t="inlineStr">
@@ -30409,7 +30409,7 @@
     <row r="384" ht="130" customHeight="1">
       <c r="A384" s="3" t="inlineStr">
         <is>
-          <t>CM-6 b,AU-3</t>
+          <t>AU-3,CM-6 b</t>
         </is>
       </c>
       <c r="B384" s="3" t="inlineStr">
@@ -30653,7 +30653,7 @@
     <row r="387" ht="130" customHeight="1">
       <c r="A387" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,SC-3</t>
+          <t>SC-3,CM-6 b</t>
         </is>
       </c>
       <c r="B387" s="2" t="inlineStr">
@@ -31047,7 +31047,7 @@
     <row r="392" ht="130" customHeight="1">
       <c r="A392" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,CM-7 b,AC-17 (9),AC-17 (1)</t>
+          <t>AC-17 (1),CM-7 b,CM-6 b,AC-17 (9)</t>
         </is>
       </c>
       <c r="B392" s="2" t="inlineStr">
@@ -31125,7 +31125,7 @@
     <row r="393" ht="130" customHeight="1">
       <c r="A393" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,CM-7 b,AC-17 (1)</t>
+          <t>AC-17 (1),CM-7 b,CM-6 b</t>
         </is>
       </c>
       <c r="B393" s="2" t="inlineStr">
@@ -33624,7 +33624,7 @@
     <row r="422" ht="130" customHeight="1">
       <c r="A422" s="3" t="inlineStr">
         <is>
-          <t>CM-6 b,IA-3</t>
+          <t>IA-3,CM-6 b</t>
         </is>
       </c>
       <c r="B422" s="3" t="inlineStr">
@@ -33699,7 +33699,7 @@
     <row r="423" ht="130" customHeight="1">
       <c r="A423" s="3" t="inlineStr">
         <is>
-          <t>CM-6 b,IA-3</t>
+          <t>IA-3,CM-6 b</t>
         </is>
       </c>
       <c r="B423" s="3" t="inlineStr">
@@ -34386,7 +34386,7 @@
     <row r="432" ht="130" customHeight="1">
       <c r="A432" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,SC-3</t>
+          <t>SC-3,CM-6 b</t>
         </is>
       </c>
       <c r="B432" s="2" t="inlineStr">
@@ -34567,7 +34567,7 @@
     <row r="434" ht="130" customHeight="1">
       <c r="A434" s="3" t="inlineStr">
         <is>
-          <t>SC-2,CM-6 b</t>
+          <t>CM-6 b,SC-2</t>
         </is>
       </c>
       <c r="B434" s="3" t="inlineStr">
@@ -34654,7 +34654,7 @@
     <row r="435" ht="130" customHeight="1">
       <c r="A435" s="3" t="inlineStr">
         <is>
-          <t>SC-2,CM-6 b</t>
+          <t>CM-6 b,SC-2</t>
         </is>
       </c>
       <c r="B435" s="3" t="inlineStr">
@@ -34989,7 +34989,7 @@
     <row r="439" ht="130" customHeight="1">
       <c r="A439" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,SC-3</t>
+          <t>SC-3,CM-6 b</t>
         </is>
       </c>
       <c r="B439" s="2" t="inlineStr">
@@ -35741,7 +35741,7 @@
     <row r="449" ht="130" customHeight="1">
       <c r="A449" s="3" t="inlineStr">
         <is>
-          <t>CM-6 b,IA-3</t>
+          <t>IA-3,CM-6 b</t>
         </is>
       </c>
       <c r="B449" s="3" t="inlineStr">
@@ -35818,7 +35818,7 @@
     <row r="450" ht="130" customHeight="1">
       <c r="A450" s="3" t="inlineStr">
         <is>
-          <t>CM-6 b,IA-3</t>
+          <t>IA-3,CM-6 b</t>
         </is>
       </c>
       <c r="B450" s="3" t="inlineStr">
@@ -37138,7 +37138,7 @@
     <row r="468" ht="130" customHeight="1">
       <c r="A468" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (7),MA-4 e,SC-10,AC-12</t>
+          <t>MA-4 (7),SC-10,AC-12,MA-4 e</t>
         </is>
       </c>
       <c r="B468" s="3" t="inlineStr">
@@ -37213,7 +37213,7 @@
     <row r="469" ht="130" customHeight="1">
       <c r="A469" s="3" t="inlineStr">
         <is>
-          <t>AC-12,SC-10</t>
+          <t>SC-10,AC-12</t>
         </is>
       </c>
       <c r="B469" s="3" t="inlineStr">
@@ -37292,7 +37292,7 @@
     <row r="470" ht="130" customHeight="1">
       <c r="A470" s="3" t="inlineStr">
         <is>
-          <t>AC-12,SC-10</t>
+          <t>SC-10,AC-12</t>
         </is>
       </c>
       <c r="B470" s="3" t="inlineStr">
@@ -37368,7 +37368,7 @@
     <row r="471" ht="130" customHeight="1">
       <c r="A471" s="2" t="inlineStr">
         <is>
-          <t>AC-17 (2),SC-8 (1),SC-8</t>
+          <t>AC-17 (2),SC-8,SC-8 (1)</t>
         </is>
       </c>
       <c r="B471" s="2" t="inlineStr">
@@ -38670,7 +38670,7 @@
     <row r="488" ht="130" customHeight="1">
       <c r="A488" s="3" t="inlineStr">
         <is>
-          <t>CM-7 b,IA-3</t>
+          <t>IA-3,CM-7 b</t>
         </is>
       </c>
       <c r="B488" s="3" t="inlineStr">
@@ -38960,7 +38960,7 @@
     <row r="492" ht="130" customHeight="1">
       <c r="A492" s="3" t="inlineStr">
         <is>
-          <t>CM-7 b,AC-17 (1)</t>
+          <t>AC-17 (1),CM-7 b</t>
         </is>
       </c>
       <c r="B492" s="3" t="inlineStr">
@@ -39977,7 +39977,7 @@
     <row r="505" ht="130" customHeight="1">
       <c r="A505" s="3" t="inlineStr">
         <is>
-          <t>AU-4,AU-4 (1)</t>
+          <t>AU-4 (1),AU-4</t>
         </is>
       </c>
       <c r="B505" s="3" t="inlineStr">
@@ -40222,7 +40222,7 @@
     <row r="508" ht="130" customHeight="1">
       <c r="A508" s="2" t="inlineStr">
         <is>
-          <t>AC-8 a,AC-8 c 1, AC-8 c 2, AC-8 c 3</t>
+          <t>AC-8 c 1, AC-8 c 2, AC-8 c 3,AC-8 a</t>
         </is>
       </c>
       <c r="B508" s="2" t="inlineStr">
@@ -40324,7 +40324,7 @@
     <row r="509" ht="130" customHeight="1">
       <c r="A509" s="2" t="inlineStr">
         <is>
-          <t>AC-8 a,AC-8 c 1, AC-8 c 2, AC-8 c 3</t>
+          <t>AC-8 c 1, AC-8 c 2, AC-8 c 3,AC-8 a</t>
         </is>
       </c>
       <c r="B509" s="2" t="inlineStr">
@@ -40434,7 +40434,7 @@
     <row r="510" ht="130" customHeight="1">
       <c r="A510" s="2" t="inlineStr">
         <is>
-          <t>AC-8 a,AC-8 c 1, AC-8 c 2, AC-8 c 3</t>
+          <t>AC-8 c 1, AC-8 c 2, AC-8 c 3,AC-8 a</t>
         </is>
       </c>
       <c r="B510" s="2" t="inlineStr">
@@ -40545,7 +40545,7 @@
     <row r="511" ht="130" customHeight="1">
       <c r="A511" s="2" t="inlineStr">
         <is>
-          <t>AC-8 a,AC-8 c 1, AC-8 c 2, AC-8 c 3</t>
+          <t>AC-8 c 1, AC-8 c 2, AC-8 c 3,AC-8 a</t>
         </is>
       </c>
       <c r="B511" s="2" t="inlineStr">

--- a/srg_mapping/srg-mapping-rhel9.xlsx
+++ b/srg_mapping/srg-mapping-rhel9.xlsx
@@ -550,7 +550,7 @@
     <row r="2" ht="130" customHeight="1">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>AC-7 b,AC-7 a</t>
+          <t>AC-7 a,AC-7 b</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -634,7 +634,7 @@
     <row r="3" ht="130" customHeight="1">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>AC-7 b,AC-7 a</t>
+          <t>AC-7 a,AC-7 b</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
@@ -719,7 +719,7 @@
     <row r="4" ht="130" customHeight="1">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>AC-7 b,AC-7 a</t>
+          <t>AC-7 a,AC-7 b</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -791,7 +791,7 @@
     <row r="5" ht="130" customHeight="1">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>AC-7 b,AC-7 a</t>
+          <t>AC-7 a,AC-7 b</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
@@ -1455,7 +1455,7 @@
     <row r="13" ht="130" customHeight="1">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,CM-6 b,AU-6 (4),AU-7 a,AU-14 (1),CM-5 (1),AU-7 (1),AU-3 (1),MA-4 (1) (a)</t>
+          <t>AU-6 (4),CM-6 b,AU-7 a,AU-7 (1),AU-3,AU-14 (1),CM-5 (1),MA-4 (1) (a),AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
@@ -1770,7 +1770,7 @@
     <row r="17" ht="130" customHeight="1">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>CM-7 (2),CM-6 b</t>
+          <t>CM-6 b,CM-7 (2)</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
@@ -2140,7 +2140,7 @@
     <row r="22" ht="130" customHeight="1">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>CM-7 (2),CM-6 b</t>
+          <t>CM-6 b,CM-7 (2)</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
@@ -2214,7 +2214,7 @@
     <row r="23" ht="130" customHeight="1">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>CM-7 (2),CM-6 b</t>
+          <t>CM-6 b,CM-7 (2)</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
@@ -3258,7 +3258,7 @@
     <row r="37" ht="130" customHeight="1">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AU-14 (1),AU-12 c,AU-3 (1),MA-4 (1) (a)</t>
+          <t>AU-3,AU-14 (1),MA-4 (1) (a),AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
@@ -3438,7 +3438,7 @@
     <row r="39" ht="130" customHeight="1">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-4 (1)</t>
+          <t>AU-4 (1),AU-3</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
@@ -3832,7 +3832,7 @@
     <row r="44" ht="130" customHeight="1">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>AU-6 (4),AU-4 (1),CM-6 b</t>
+          <t>AU-6 (4),CM-6 b,AU-4 (1)</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
@@ -3908,7 +3908,7 @@
     <row r="45" ht="130" customHeight="1">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>AU-4 (1),CM-6 b</t>
+          <t>CM-6 b,AU-4 (1)</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
@@ -3993,7 +3993,7 @@
     <row r="46" ht="130" customHeight="1">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>AU-8 b,AU-8 (1) (a),AU-8 (1) (b)</t>
+          <t>AU-8 (1) (a),AU-8 b,AU-8 (1) (b)</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
@@ -4234,7 +4234,7 @@
     <row r="49" ht="130" customHeight="1">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (1),IA-2 (12),IA-2 (11)</t>
+          <t>IA-2 (11),IA-2 (1),IA-2 (12)</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
@@ -4318,7 +4318,7 @@
     <row r="50" ht="130" customHeight="1">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>SI-6 b,SI-6 d,CM-3 (5)</t>
+          <t>SI-6 d,CM-3 (5),SI-6 b</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
@@ -4494,7 +4494,7 @@
     <row r="52" ht="130" customHeight="1">
       <c r="A52" s="3" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AU-12 c,AU-3 (1),MA-4 (1) (a)</t>
+          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B52" s="3" t="inlineStr">
@@ -4569,7 +4569,7 @@
     <row r="53" ht="130" customHeight="1">
       <c r="A53" s="3" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AU-12 c,AU-3 (1),MA-4 (1) (a)</t>
+          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B53" s="3" t="inlineStr">
@@ -4644,7 +4644,7 @@
     <row r="54" ht="130" customHeight="1">
       <c r="A54" s="3" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AU-12 c,AU-3 (1),MA-4 (1) (a)</t>
+          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B54" s="3" t="inlineStr">
@@ -4719,7 +4719,7 @@
     <row r="55" ht="130" customHeight="1">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AU-12 c,AU-3 (1),MA-4 (1) (a)</t>
+          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B55" s="3" t="inlineStr">
@@ -4794,7 +4794,7 @@
     <row r="56" ht="130" customHeight="1">
       <c r="A56" s="3" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AU-12 c,AU-3 (1),MA-4 (1) (a)</t>
+          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B56" s="3" t="inlineStr">
@@ -4869,7 +4869,7 @@
     <row r="57" ht="130" customHeight="1">
       <c r="A57" s="3" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AU-12 c,AU-3 (1),MA-4 (1) (a)</t>
+          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B57" s="3" t="inlineStr">
@@ -4944,7 +4944,7 @@
     <row r="58" ht="130" customHeight="1">
       <c r="A58" s="3" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AU-12 c,AU-3 (1),MA-4 (1) (a)</t>
+          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B58" s="3" t="inlineStr">
@@ -5019,7 +5019,7 @@
     <row r="59" ht="130" customHeight="1">
       <c r="A59" s="3" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AU-12 c,AU-3 (1),MA-4 (1) (a)</t>
+          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B59" s="3" t="inlineStr">
@@ -5094,7 +5094,7 @@
     <row r="60" ht="130" customHeight="1">
       <c r="A60" s="3" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AU-12 c,AU-3 (1),MA-4 (1) (a)</t>
+          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B60" s="3" t="inlineStr">
@@ -5169,7 +5169,7 @@
     <row r="61" ht="130" customHeight="1">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>AU-12 (3),AU-12 a,CM-6 b,AU-7 a,CM-5 (1),AU-12 c,AU-8 b,AU-7 b</t>
+          <t>AU-12 (3),CM-6 b,CM-5 (1),AU-12 c,AU-8 b,AU-7 b,AU-7 a,AU-12 a</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
@@ -5243,7 +5243,7 @@
     <row r="62" ht="130" customHeight="1">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AC-2 (4),AU-12 c,AU-3 (1),MA-4 (1) (a)</t>
+          <t>AU-3,MA-4 (1) (a),AC-2 (4),AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
@@ -5324,7 +5324,7 @@
     <row r="63" ht="130" customHeight="1">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AC-2 (4),AU-12 c,AU-3 (1),MA-4 (1) (a)</t>
+          <t>AU-3,MA-4 (1) (a),AC-2 (4),AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
@@ -5405,7 +5405,7 @@
     <row r="64" ht="130" customHeight="1">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AC-2 (4),AU-12 c,AU-3 (1),MA-4 (1) (a)</t>
+          <t>AU-3,MA-4 (1) (a),AC-2 (4),AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
@@ -5487,7 +5487,7 @@
     <row r="65" ht="130" customHeight="1">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AC-2 (4),AU-12 c,AU-3 (1),MA-4 (1) (a)</t>
+          <t>AU-3,MA-4 (1) (a),AC-2 (4),AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
@@ -5569,7 +5569,7 @@
     <row r="66" ht="130" customHeight="1">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AC-2 (4),AU-12 c,AU-3 (1),MA-4 (1) (a)</t>
+          <t>AU-3,MA-4 (1) (a),AC-2 (4),AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
@@ -5651,7 +5651,7 @@
     <row r="67" ht="130" customHeight="1">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AC-2 (4),AU-12 c,AU-3 (1),MA-4 (1) (a)</t>
+          <t>AU-3,MA-4 (1) (a),AC-2 (4),AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
@@ -5733,7 +5733,7 @@
     <row r="68" ht="130" customHeight="1">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AC-2 (4),AU-12 c,AU-3 (1),MA-4 (1) (a)</t>
+          <t>AU-3,MA-4 (1) (a),AC-2 (4),AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
@@ -6853,7 +6853,7 @@
     <row r="82" ht="130" customHeight="1">
       <c r="A82" s="3" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AU-12 c,AU-3 (1),MA-4 (1) (a)</t>
+          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B82" s="3" t="inlineStr">
@@ -6927,7 +6927,7 @@
     <row r="83" ht="130" customHeight="1">
       <c r="A83" s="3" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AU-12 c,AU-3 (1),MA-4 (1) (a)</t>
+          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B83" s="3" t="inlineStr">
@@ -7001,7 +7001,7 @@
     <row r="84" ht="130" customHeight="1">
       <c r="A84" s="3" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AU-12 c,AU-3 (1),MA-4 (1) (a)</t>
+          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B84" s="3" t="inlineStr">
@@ -7075,7 +7075,7 @@
     <row r="85" ht="130" customHeight="1">
       <c r="A85" s="3" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AU-12 c,AU-3 (1),MA-4 (1) (a)</t>
+          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B85" s="3" t="inlineStr">
@@ -7651,7 +7651,7 @@
     <row r="92" ht="130" customHeight="1">
       <c r="A92" s="3" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AU-12 c,AU-3 (1),MA-4 (1) (a)</t>
+          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B92" s="3" t="inlineStr">
@@ -7726,7 +7726,7 @@
     <row r="93" ht="130" customHeight="1">
       <c r="A93" s="3" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AU-12 c,AU-3 (1),MA-4 (1) (a)</t>
+          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B93" s="3" t="inlineStr">
@@ -7801,7 +7801,7 @@
     <row r="94" ht="130" customHeight="1">
       <c r="A94" s="3" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AU-12 c,AU-3 (1),MA-4 (1) (a)</t>
+          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B94" s="3" t="inlineStr">
@@ -7876,7 +7876,7 @@
     <row r="95" ht="130" customHeight="1">
       <c r="A95" s="3" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AU-12 c,AU-3 (1),MA-4 (1) (a)</t>
+          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B95" s="3" t="inlineStr">
@@ -7956,7 +7956,7 @@
     <row r="96" ht="130" customHeight="1">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AU-12 c,AU-3 (1),MA-4 (1) (a)</t>
+          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
@@ -8038,7 +8038,7 @@
     <row r="97" ht="130" customHeight="1">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AU-12 c,AU-3 (1),MA-4 (1) (a)</t>
+          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B97" s="2" t="inlineStr">
@@ -8120,7 +8120,7 @@
     <row r="98" ht="130" customHeight="1">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AU-12 c,AU-3 (1),MA-4 (1) (a)</t>
+          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B98" s="2" t="inlineStr">
@@ -8202,7 +8202,7 @@
     <row r="99" ht="130" customHeight="1">
       <c r="A99" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AU-12 c,AU-3 (1),MA-4 (1) (a)</t>
+          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B99" s="2" t="inlineStr">
@@ -8284,7 +8284,7 @@
     <row r="100" ht="130" customHeight="1">
       <c r="A100" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AU-12 c,AU-3 (1),MA-4 (1) (a)</t>
+          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B100" s="2" t="inlineStr">
@@ -8366,7 +8366,7 @@
     <row r="101" ht="130" customHeight="1">
       <c r="A101" s="3" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AU-12 c,AU-3 (1),MA-4 (1) (a)</t>
+          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B101" s="3" t="inlineStr">
@@ -8446,7 +8446,7 @@
     <row r="102" ht="130" customHeight="1">
       <c r="A102" s="3" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AU-12 c,AU-3 (1),MA-4 (1) (a)</t>
+          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B102" s="3" t="inlineStr">
@@ -8526,7 +8526,7 @@
     <row r="103" ht="130" customHeight="1">
       <c r="A103" s="3" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AU-12 c,AU-3 (1),MA-4 (1) (a)</t>
+          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B103" s="3" t="inlineStr">
@@ -8606,7 +8606,7 @@
     <row r="104" ht="130" customHeight="1">
       <c r="A104" s="2" t="inlineStr">
         <is>
-          <t>AC-11 b,AC-11 (1)</t>
+          <t>AC-11 (1),AC-11 b</t>
         </is>
       </c>
       <c r="B104" s="2" t="inlineStr">
@@ -8777,7 +8777,7 @@
     <row r="106" ht="130" customHeight="1">
       <c r="A106" s="2" t="inlineStr">
         <is>
-          <t>AC-11 b,AC-6 (10)</t>
+          <t>AC-6 (10),AC-11 b</t>
         </is>
       </c>
       <c r="B106" s="2" t="inlineStr">
@@ -8856,7 +8856,7 @@
     <row r="107" ht="130" customHeight="1">
       <c r="A107" s="2" t="inlineStr">
         <is>
-          <t>AC-11 b,AC-11 a</t>
+          <t>AC-11 a,AC-11 b</t>
         </is>
       </c>
       <c r="B107" s="2" t="inlineStr">
@@ -8935,7 +8935,7 @@
     <row r="108" ht="130" customHeight="1">
       <c r="A108" s="2" t="inlineStr">
         <is>
-          <t>AC-11 b,AC-11 a</t>
+          <t>AC-11 a,AC-11 b</t>
         </is>
       </c>
       <c r="B108" s="2" t="inlineStr">
@@ -9022,7 +9022,7 @@
     <row r="109" ht="130" customHeight="1">
       <c r="A109" s="2" t="inlineStr">
         <is>
-          <t>AC-11 b,AC-11 a</t>
+          <t>AC-11 a,AC-11 b</t>
         </is>
       </c>
       <c r="B109" s="2" t="inlineStr">
@@ -9109,7 +9109,7 @@
     <row r="110" ht="130" customHeight="1">
       <c r="A110" s="3" t="inlineStr">
         <is>
-          <t>AC-11 b,AC-11 a</t>
+          <t>AC-11 a,AC-11 b</t>
         </is>
       </c>
       <c r="B110" s="3" t="inlineStr">
@@ -9354,7 +9354,7 @@
     <row r="113" ht="130" customHeight="1">
       <c r="A113" s="2" t="inlineStr">
         <is>
-          <t>AC-17 (2),SC-8,MA-4 c,SC-13</t>
+          <t>MA-4 c,SC-8,AC-17 (2),SC-13</t>
         </is>
       </c>
       <c r="B113" s="2" t="inlineStr">
@@ -9514,7 +9514,7 @@
     <row r="115" ht="130" customHeight="1">
       <c r="A115" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AU-12 c,AU-3 (1),MA-4 (1) (a)</t>
+          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B115" s="2" t="inlineStr">
@@ -9670,7 +9670,7 @@
     <row r="117" ht="130" customHeight="1">
       <c r="A117" s="3" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AU-12 c,AU-3 (1),MA-4 (1) (a)</t>
+          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B117" s="3" t="inlineStr">
@@ -10026,7 +10026,7 @@
     <row r="122" ht="130" customHeight="1">
       <c r="A122" s="3" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AU-12 c,AU-3 (1),MA-4 (1) (a)</t>
+          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B122" s="3" t="inlineStr">
@@ -10106,7 +10106,7 @@
     <row r="123" ht="130" customHeight="1">
       <c r="A123" s="2" t="inlineStr">
         <is>
-          <t>SC-28 (1),SC-28</t>
+          <t>SC-28,SC-28 (1)</t>
         </is>
       </c>
       <c r="B123" s="2" t="inlineStr">
@@ -10873,7 +10873,7 @@
     <row r="133" ht="130" customHeight="1">
       <c r="A133" s="2" t="inlineStr">
         <is>
-          <t>AC-6 (10),CM-6 b</t>
+          <t>CM-6 b,AC-6 (10)</t>
         </is>
       </c>
       <c r="B133" s="2" t="inlineStr">
@@ -10954,7 +10954,7 @@
     <row r="134" ht="130" customHeight="1">
       <c r="A134" s="2" t="inlineStr">
         <is>
-          <t>AC-6 (10),CM-6 b</t>
+          <t>CM-6 b,AC-6 (10)</t>
         </is>
       </c>
       <c r="B134" s="2" t="inlineStr">
@@ -11040,7 +11040,7 @@
     <row r="135" ht="130" customHeight="1">
       <c r="A135" s="2" t="inlineStr">
         <is>
-          <t>AC-6 (10),CM-6 b</t>
+          <t>CM-6 b,AC-6 (10)</t>
         </is>
       </c>
       <c r="B135" s="2" t="inlineStr">
@@ -11486,7 +11486,7 @@
     <row r="140" ht="130" customHeight="1">
       <c r="A140" s="3" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AU-12 c,AU-3 (1),MA-4 (1) (a)</t>
+          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B140" s="3" t="inlineStr">
@@ -11566,7 +11566,7 @@
     <row r="141" ht="130" customHeight="1">
       <c r="A141" s="3" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AU-12 c,AU-3 (1),MA-4 (1) (a)</t>
+          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B141" s="3" t="inlineStr">
@@ -11646,7 +11646,7 @@
     <row r="142" ht="130" customHeight="1">
       <c r="A142" s="3" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AU-12 c,AU-3 (1),MA-4 (1) (a)</t>
+          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B142" s="3" t="inlineStr">
@@ -12268,7 +12268,7 @@
     <row r="150" ht="130" customHeight="1">
       <c r="A150" s="2" t="inlineStr">
         <is>
-          <t>AC-11 a,AC-11 (1)</t>
+          <t>AC-11 (1),AC-11 a</t>
         </is>
       </c>
       <c r="B150" s="2" t="inlineStr">
@@ -12826,7 +12826,7 @@
     <row r="157" ht="130" customHeight="1">
       <c r="A157" s="3" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AU-12 c,AU-3 (1),MA-4 (1) (a)</t>
+          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B157" s="3" t="inlineStr">
@@ -12903,7 +12903,7 @@
     <row r="158" ht="130" customHeight="1">
       <c r="A158" s="3" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 c,AU-12 a,MA-4 (1) (a)</t>
+          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3</t>
         </is>
       </c>
       <c r="B158" s="3" t="inlineStr">
@@ -12976,7 +12976,7 @@
     <row r="159" ht="130" customHeight="1">
       <c r="A159" s="3" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 c,AU-12 a,MA-4 (1) (a)</t>
+          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3</t>
         </is>
       </c>
       <c r="B159" s="3" t="inlineStr">
@@ -13049,7 +13049,7 @@
     <row r="160" ht="130" customHeight="1">
       <c r="A160" s="3" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AU-12 c,AU-3 (1),MA-4 (1) (a)</t>
+          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B160" s="3" t="inlineStr">
@@ -13134,7 +13134,7 @@
     <row r="161" ht="130" customHeight="1">
       <c r="A161" s="3" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AU-12 c,AU-3 (1),MA-4 (1) (a)</t>
+          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B161" s="3" t="inlineStr">
@@ -13209,7 +13209,7 @@
     <row r="162" ht="130" customHeight="1">
       <c r="A162" s="3" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AU-12 c,AU-3 (1),MA-4 (1) (a)</t>
+          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B162" s="3" t="inlineStr">
@@ -13284,7 +13284,7 @@
     <row r="163" ht="130" customHeight="1">
       <c r="A163" s="3" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AU-12 c,AU-3 (1),MA-4 (1) (a)</t>
+          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B163" s="3" t="inlineStr">
@@ -13359,7 +13359,7 @@
     <row r="164" ht="130" customHeight="1">
       <c r="A164" s="3" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AU-12 c,AU-3 (1),MA-4 (1) (a)</t>
+          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B164" s="3" t="inlineStr">
@@ -13862,7 +13862,7 @@
     <row r="171" ht="130" customHeight="1">
       <c r="A171" s="3" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AU-12 c,AU-3 (1),MA-4 (1) (a)</t>
+          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B171" s="3" t="inlineStr">
@@ -14151,7 +14151,7 @@
     <row r="175" ht="130" customHeight="1">
       <c r="A175" s="3" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AU-12 c,AU-3 (1),MA-4 (1) (a)</t>
+          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B175" s="3" t="inlineStr">
@@ -14226,7 +14226,7 @@
     <row r="176" ht="130" customHeight="1">
       <c r="A176" s="3" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AU-12 c,AU-3 (1),MA-4 (1) (a)</t>
+          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B176" s="3" t="inlineStr">
@@ -14308,7 +14308,7 @@
     <row r="177" ht="130" customHeight="1">
       <c r="A177" s="3" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AU-12 c,AU-3 (1),MA-4 (1) (a)</t>
+          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B177" s="3" t="inlineStr">
@@ -14390,7 +14390,7 @@
     <row r="178" ht="130" customHeight="1">
       <c r="A178" s="3" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AU-12 c,AU-3 (1),MA-4 (1) (a)</t>
+          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B178" s="3" t="inlineStr">
@@ -14472,7 +14472,7 @@
     <row r="179" ht="130" customHeight="1">
       <c r="A179" s="3" t="inlineStr">
         <is>
-          <t>AU-3,AU-3 (1),MA-4 (1) (a)</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-3</t>
         </is>
       </c>
       <c r="B179" s="3" t="inlineStr">
@@ -14554,7 +14554,7 @@
     <row r="180" ht="130" customHeight="1">
       <c r="A180" s="3" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AU-12 c,AU-3 (1),MA-4 (1) (a)</t>
+          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B180" s="3" t="inlineStr">
@@ -14636,7 +14636,7 @@
     <row r="181" ht="130" customHeight="1">
       <c r="A181" s="3" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AU-12 c,AU-3 (1),MA-4 (1) (a)</t>
+          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B181" s="3" t="inlineStr">
@@ -14718,7 +14718,7 @@
     <row r="182" ht="130" customHeight="1">
       <c r="A182" s="3" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AU-12 c,AU-3 (1),MA-4 (1) (a)</t>
+          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B182" s="3" t="inlineStr">
@@ -14800,7 +14800,7 @@
     <row r="183" ht="130" customHeight="1">
       <c r="A183" s="3" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AU-12 c,AU-3 (1),MA-4 (1) (a)</t>
+          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B183" s="3" t="inlineStr">
@@ -14882,7 +14882,7 @@
     <row r="184" ht="130" customHeight="1">
       <c r="A184" s="3" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AU-12 c,AU-3 (1),MA-4 (1) (a)</t>
+          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B184" s="3" t="inlineStr">
@@ -15042,7 +15042,7 @@
     <row r="186" ht="130" customHeight="1">
       <c r="A186" s="3" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AU-12 c,AU-3 (1),MA-4 (1) (a)</t>
+          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B186" s="3" t="inlineStr">
@@ -15121,7 +15121,7 @@
     <row r="187" ht="130" customHeight="1">
       <c r="A187" s="3" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AU-12 c,AU-3 (1),MA-4 (1) (a)</t>
+          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B187" s="3" t="inlineStr">
@@ -15203,7 +15203,7 @@
     <row r="188" ht="130" customHeight="1">
       <c r="A188" s="3" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AU-12 c,AU-3 (1),MA-4 (1) (a)</t>
+          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B188" s="3" t="inlineStr">
@@ -15285,7 +15285,7 @@
     <row r="189" ht="130" customHeight="1">
       <c r="A189" s="3" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 c,AU-3 (1),MA-4 (1) (a)</t>
+          <t>AU-12 c,AU-3 (1),MA-4 (1) (a),AU-3</t>
         </is>
       </c>
       <c r="B189" s="3" t="inlineStr">
@@ -15367,7 +15367,7 @@
     <row r="190" ht="130" customHeight="1">
       <c r="A190" s="3" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AU-12 c,AU-3 (1),MA-4 (1) (a)</t>
+          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B190" s="3" t="inlineStr">
@@ -15449,7 +15449,7 @@
     <row r="191" ht="130" customHeight="1">
       <c r="A191" s="3" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AU-12 c,AU-3 (1),MA-4 (1) (a)</t>
+          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B191" s="3" t="inlineStr">
@@ -15531,7 +15531,7 @@
     <row r="192" ht="130" customHeight="1">
       <c r="A192" s="3" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AU-12 c,AU-3 (1),MA-4 (1) (a)</t>
+          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B192" s="3" t="inlineStr">
@@ -15613,7 +15613,7 @@
     <row r="193" ht="130" customHeight="1">
       <c r="A193" s="3" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AU-12 c,AU-3 (1),MA-4 (1) (a)</t>
+          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B193" s="3" t="inlineStr">
@@ -15688,7 +15688,7 @@
     <row r="194" ht="130" customHeight="1">
       <c r="A194" s="3" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AC-2 (4),AU-12 c,AU-3 (1),MA-4 (1) (a)</t>
+          <t>AU-3,MA-4 (1) (a),AC-2 (4),AU-12 c,AU-3 (1),AU-12 a</t>
         </is>
       </c>
       <c r="B194" s="3" t="inlineStr">
@@ -15761,7 +15761,7 @@
     <row r="195" ht="130" customHeight="1">
       <c r="A195" s="3" t="inlineStr">
         <is>
-          <t>AU-3,AC-2 (4),AU-12 c,AU-3 (1),MA-4 (1) (a)</t>
+          <t>AU-3,MA-4 (1) (a),AC-2 (4),AU-12 c,AU-3 (1)</t>
         </is>
       </c>
       <c r="B195" s="3" t="inlineStr">
@@ -15838,7 +15838,7 @@
     <row r="196" ht="130" customHeight="1">
       <c r="A196" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (3),IA-2 (1),IA-2 (4),IA-2 (2)</t>
+          <t>IA-2 (4),IA-2 (3),IA-2 (1),IA-2 (2)</t>
         </is>
       </c>
       <c r="B196" s="2" t="inlineStr">
@@ -15925,7 +15925,7 @@
     <row r="197" ht="130" customHeight="1">
       <c r="A197" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (3),IA-2 (5),IA-2,IA-2 (4),IA-2 (2)</t>
+          <t>IA-2 (3),IA-2 (2),IA-2,IA-2 (4),IA-2 (5)</t>
         </is>
       </c>
       <c r="B197" s="2" t="inlineStr">
@@ -16014,7 +16014,7 @@
     <row r="198" ht="130" customHeight="1">
       <c r="A198" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (3),IA-2 (5),IA-2,IA-2 (4),IA-2 (2)</t>
+          <t>IA-2 (3),IA-2 (2),IA-2,IA-2 (4),IA-2 (5)</t>
         </is>
       </c>
       <c r="B198" s="2" t="inlineStr">
@@ -16258,7 +16258,7 @@
     <row r="201" ht="130" customHeight="1">
       <c r="A201" s="2" t="inlineStr">
         <is>
-          <t>AC-3 (4),IA-11</t>
+          <t>IA-11,AC-3 (4)</t>
         </is>
       </c>
       <c r="B201" s="2" t="inlineStr">
@@ -16638,7 +16638,7 @@
     <row r="206" ht="130" customHeight="1">
       <c r="A206" s="2" t="inlineStr">
         <is>
-          <t>SC-8 (1),SC-8,SC-8 (2)</t>
+          <t>SC-8,SC-8 (2),SC-8 (1)</t>
         </is>
       </c>
       <c r="B206" s="2" t="inlineStr">
@@ -16715,7 +16715,7 @@
     <row r="207" ht="130" customHeight="1">
       <c r="A207" s="2" t="inlineStr">
         <is>
-          <t>SC-8 (1),SC-8,SC-8 (2)</t>
+          <t>SC-8,SC-8 (2),SC-8 (1)</t>
         </is>
       </c>
       <c r="B207" s="2" t="inlineStr">
@@ -16801,7 +16801,7 @@
     <row r="208" ht="130" customHeight="1">
       <c r="A208" s="2" t="inlineStr">
         <is>
-          <t>SC-8 (1),SC-8,AC-18 (1)</t>
+          <t>SC-8,SC-8 (1),AC-18 (1)</t>
         </is>
       </c>
       <c r="B208" s="2" t="inlineStr">
@@ -16887,7 +16887,7 @@
     <row r="209" ht="130" customHeight="1">
       <c r="A209" s="2" t="inlineStr">
         <is>
-          <t>AC-11 a,AC-11 (1)</t>
+          <t>AC-11 (1),AC-11 a</t>
         </is>
       </c>
       <c r="B209" s="2" t="inlineStr">
@@ -16976,7 +16976,7 @@
     <row r="210" ht="130" customHeight="1">
       <c r="A210" s="2" t="inlineStr">
         <is>
-          <t>AC-11 a,AC-11 (1)</t>
+          <t>AC-11 (1),AC-11 a</t>
         </is>
       </c>
       <c r="B210" s="2" t="inlineStr">
@@ -17389,7 +17389,7 @@
     <row r="215" ht="130" customHeight="1">
       <c r="A215" s="3" t="inlineStr">
         <is>
-          <t>AU-12 a,CM-6 b</t>
+          <t>CM-6 b,AU-12 a</t>
         </is>
       </c>
       <c r="B215" s="3" t="inlineStr">
@@ -17475,7 +17475,7 @@
     <row r="216" ht="130" customHeight="1">
       <c r="A216" s="2" t="inlineStr">
         <is>
-          <t>SC-5,SC-5 (2),CM-6 b</t>
+          <t>SC-5 (2),CM-6 b,SC-5</t>
         </is>
       </c>
       <c r="B216" s="2" t="inlineStr">
@@ -17655,7 +17655,7 @@
     <row r="218" ht="130" customHeight="1">
       <c r="A218" s="2" t="inlineStr">
         <is>
-          <t>SI-16,CM-7 a</t>
+          <t>CM-7 a,SI-16</t>
         </is>
       </c>
       <c r="B218" s="2" t="inlineStr">
@@ -17747,7 +17747,7 @@
     <row r="219" ht="130" customHeight="1">
       <c r="A219" s="2" t="inlineStr">
         <is>
-          <t>SI-16,CM-6 b</t>
+          <t>CM-6 b,SI-16</t>
         </is>
       </c>
       <c r="B219" s="2" t="inlineStr">
@@ -20300,7 +20300,7 @@
     <row r="250" ht="130" customHeight="1">
       <c r="A250" s="2" t="inlineStr">
         <is>
-          <t>SC-4,CM-6 b</t>
+          <t>CM-6 b,SC-4</t>
         </is>
       </c>
       <c r="B250" s="2" t="inlineStr">
@@ -20970,7 +20970,7 @@
     <row r="258" ht="130" customHeight="1">
       <c r="A258" s="2" t="inlineStr">
         <is>
-          <t>SC-3,SI-6 a</t>
+          <t>SI-6 a,SC-3</t>
         </is>
       </c>
       <c r="B258" s="2" t="inlineStr">
@@ -21132,7 +21132,7 @@
     <row r="260" ht="130" customHeight="1">
       <c r="A260" s="3" t="inlineStr">
         <is>
-          <t>IA-2 (5),CM-6 b</t>
+          <t>CM-6 b,IA-2 (5)</t>
         </is>
       </c>
       <c r="B260" s="3" t="inlineStr">
@@ -21646,7 +21646,7 @@
     <row r="267" ht="130" customHeight="1">
       <c r="A267" s="3" t="inlineStr">
         <is>
-          <t>AU-9,AU-12 c</t>
+          <t>AU-12 c,AU-9</t>
         </is>
       </c>
       <c r="B267" s="3" t="inlineStr">
@@ -23701,7 +23701,7 @@
     <row r="293" ht="130" customHeight="1">
       <c r="A293" s="3" t="inlineStr">
         <is>
-          <t>AC-6 (9),AC-2 (4),AU-12 c</t>
+          <t>AU-12 c,AC-6 (9),AC-2 (4)</t>
         </is>
       </c>
       <c r="B293" s="3" t="inlineStr">
@@ -23918,7 +23918,7 @@
     <row r="295" ht="130" customHeight="1">
       <c r="A295" s="3" t="inlineStr">
         <is>
-          <t>AU-5 a,AU-5 (1)</t>
+          <t>AU-5 (1),AU-5 a</t>
         </is>
       </c>
       <c r="B295" s="3" t="inlineStr">
@@ -29899,7 +29899,7 @@
     <row r="375" ht="130" customHeight="1">
       <c r="A375" s="3" t="inlineStr">
         <is>
-          <t>AU-3,CM-6 b</t>
+          <t>CM-6 b,AU-3</t>
         </is>
       </c>
       <c r="B375" s="3" t="inlineStr">
@@ -30537,7 +30537,7 @@
     <row r="383" ht="130" customHeight="1">
       <c r="A383" s="2" t="inlineStr">
         <is>
-          <t>AC-17 (9),CM-7 b,CM-6 b,AC-17 (1)</t>
+          <t>CM-7 b,AC-17 (9),CM-6 b,AC-17 (1)</t>
         </is>
       </c>
       <c r="B383" s="2" t="inlineStr">
@@ -35733,7 +35733,7 @@
     <row r="446" ht="130" customHeight="1">
       <c r="A446" s="3" t="inlineStr">
         <is>
-          <t>SI-2 (2),CM-6 b</t>
+          <t>CM-6 b,SI-2 (2)</t>
         </is>
       </c>
       <c r="B446" s="3" t="inlineStr">
@@ -36380,7 +36380,7 @@
     <row r="455" ht="130" customHeight="1">
       <c r="A455" s="3" t="inlineStr">
         <is>
-          <t>SI-2 (2),CM-6 b</t>
+          <t>CM-6 b,SI-2 (2)</t>
         </is>
       </c>
       <c r="B455" s="3" t="inlineStr">
@@ -36671,7 +36671,7 @@
     <row r="459" ht="130" customHeight="1">
       <c r="A459" s="3" t="inlineStr">
         <is>
-          <t>AC-12,SC-10,MA-4 (7),MA-4 e</t>
+          <t>AC-12,MA-4 e,SC-10,MA-4 (7)</t>
         </is>
       </c>
       <c r="B459" s="3" t="inlineStr">
@@ -36978,7 +36978,7 @@
     <row r="463" ht="130" customHeight="1">
       <c r="A463" s="2" t="inlineStr">
         <is>
-          <t>AC-17 (2),SC-8 (1),SC-8</t>
+          <t>SC-8,SC-8 (1),AC-17 (2)</t>
         </is>
       </c>
       <c r="B463" s="2" t="inlineStr">
@@ -39722,7 +39722,7 @@
     <row r="498" ht="130" customHeight="1">
       <c r="A498" s="2" t="inlineStr">
         <is>
-          <t>AU-4 (1),AU-4</t>
+          <t>AU-4,AU-4 (1)</t>
         </is>
       </c>
       <c r="B498" s="2" t="inlineStr">
@@ -41367,7 +41367,7 @@
     <row r="518" ht="130" customHeight="1">
       <c r="A518" s="2" t="inlineStr">
         <is>
-          <t>SC-8 (2),SC-8</t>
+          <t>SC-8,SC-8 (2)</t>
         </is>
       </c>
       <c r="B518" s="2" t="inlineStr">
@@ -42557,7 +42557,7 @@
     <row r="533" ht="130" customHeight="1">
       <c r="A533" s="2" t="inlineStr">
         <is>
-          <t>AC-17 (2),SC-8</t>
+          <t>SC-8,AC-17 (2)</t>
         </is>
       </c>
       <c r="B533" s="2" t="inlineStr">

--- a/srg_mapping/srg-mapping-rhel9.xlsx
+++ b/srg_mapping/srg-mapping-rhel9.xlsx
@@ -550,7 +550,7 @@
     <row r="2" ht="130" customHeight="1">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>AC-7 b,AC-7 a</t>
+          <t>AC-7 a,AC-7 b</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -634,7 +634,7 @@
     <row r="3" ht="130" customHeight="1">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>AC-7 b,AC-7 a</t>
+          <t>AC-7 a,AC-7 b</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
@@ -719,7 +719,7 @@
     <row r="4" ht="130" customHeight="1">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>AC-7 b,AC-7 a</t>
+          <t>AC-7 a,AC-7 b</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -791,7 +791,7 @@
     <row r="5" ht="130" customHeight="1">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>AC-7 b,AC-7 a</t>
+          <t>AC-7 a,AC-7 b</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
@@ -1455,7 +1455,7 @@
     <row r="13" ht="130" customHeight="1">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>AU-6 (4),AU-12 a,CM-6 b,AU-3 (1),AU-7 (1),AU-3,AU-7 a,AU-14 (1),MA-4 (1) (a),CM-5 (1)</t>
+          <t>AU-7 (1),AU-14 (1),AU-3 (1),CM-5 (1),CM-6 b,AU-3,AU-6 (4),MA-4 (1) (a),AU-12 a,AU-7 a</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
@@ -1770,7 +1770,7 @@
     <row r="17" ht="130" customHeight="1">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>CM-6 b,CM-7 (2)</t>
+          <t>CM-7 (2),CM-6 b</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
@@ -2140,7 +2140,7 @@
     <row r="22" ht="130" customHeight="1">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>CM-6 b,CM-7 (2)</t>
+          <t>CM-7 (2),CM-6 b</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
@@ -2214,7 +2214,7 @@
     <row r="23" ht="130" customHeight="1">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>CM-6 b,CM-7 (2)</t>
+          <t>CM-7 (2),CM-6 b</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
@@ -3258,7 +3258,7 @@
     <row r="37" ht="130" customHeight="1">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>AU-12 a,AU-3 (1),AU-12 c,AU-3,AU-14 (1),MA-4 (1) (a)</t>
+          <t>AU-14 (1),AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
@@ -3438,7 +3438,7 @@
     <row r="39" ht="130" customHeight="1">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-4 (1)</t>
+          <t>AU-4 (1),AU-3</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
@@ -3832,7 +3832,7 @@
     <row r="44" ht="130" customHeight="1">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>AU-6 (4),CM-6 b,AU-4 (1)</t>
+          <t>AU-4 (1),CM-6 b,AU-6 (4)</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
@@ -3908,7 +3908,7 @@
     <row r="45" ht="130" customHeight="1">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,AU-4 (1)</t>
+          <t>AU-4 (1),CM-6 b</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
@@ -3993,7 +3993,7 @@
     <row r="46" ht="130" customHeight="1">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>AU-8 (1) (b),AU-8 b,AU-8 (1) (a)</t>
+          <t>AU-8 b,AU-8 (1) (b),AU-8 (1) (a)</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
@@ -4234,7 +4234,7 @@
     <row r="49" ht="130" customHeight="1">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (12),IA-2 (11),IA-2 (1)</t>
+          <t>IA-2 (1),IA-2 (11),IA-2 (12)</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
@@ -4318,7 +4318,7 @@
     <row r="50" ht="130" customHeight="1">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>SI-6 d,CM-3 (5),SI-6 b</t>
+          <t>SI-6 b,SI-6 d,CM-3 (5)</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
@@ -4494,7 +4494,7 @@
     <row r="52" ht="130" customHeight="1">
       <c r="A52" s="3" t="inlineStr">
         <is>
-          <t>AU-12 a,AU-3 (1),AU-12 c,AU-3,MA-4 (1) (a)</t>
+          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B52" s="3" t="inlineStr">
@@ -4569,7 +4569,7 @@
     <row r="53" ht="130" customHeight="1">
       <c r="A53" s="3" t="inlineStr">
         <is>
-          <t>AU-12 a,AU-3 (1),AU-12 c,AU-3,MA-4 (1) (a)</t>
+          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B53" s="3" t="inlineStr">
@@ -4644,7 +4644,7 @@
     <row r="54" ht="130" customHeight="1">
       <c r="A54" s="3" t="inlineStr">
         <is>
-          <t>AU-12 a,AU-3 (1),AU-12 c,AU-3,MA-4 (1) (a)</t>
+          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B54" s="3" t="inlineStr">
@@ -4719,7 +4719,7 @@
     <row r="55" ht="130" customHeight="1">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>AU-12 a,AU-3 (1),AU-12 c,AU-3,MA-4 (1) (a)</t>
+          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B55" s="3" t="inlineStr">
@@ -4794,7 +4794,7 @@
     <row r="56" ht="130" customHeight="1">
       <c r="A56" s="3" t="inlineStr">
         <is>
-          <t>AU-12 a,AU-3 (1),AU-12 c,AU-3,MA-4 (1) (a)</t>
+          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B56" s="3" t="inlineStr">
@@ -4869,7 +4869,7 @@
     <row r="57" ht="130" customHeight="1">
       <c r="A57" s="3" t="inlineStr">
         <is>
-          <t>AU-12 a,AU-3 (1),AU-12 c,AU-3,MA-4 (1) (a)</t>
+          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B57" s="3" t="inlineStr">
@@ -4944,7 +4944,7 @@
     <row r="58" ht="130" customHeight="1">
       <c r="A58" s="3" t="inlineStr">
         <is>
-          <t>AU-12 a,AU-3 (1),AU-12 c,AU-3,MA-4 (1) (a)</t>
+          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B58" s="3" t="inlineStr">
@@ -5019,7 +5019,7 @@
     <row r="59" ht="130" customHeight="1">
       <c r="A59" s="3" t="inlineStr">
         <is>
-          <t>AU-12 a,AU-3 (1),AU-12 c,AU-3,MA-4 (1) (a)</t>
+          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B59" s="3" t="inlineStr">
@@ -5094,7 +5094,7 @@
     <row r="60" ht="130" customHeight="1">
       <c r="A60" s="3" t="inlineStr">
         <is>
-          <t>AU-12 a,AU-3 (1),AU-12 c,AU-3,MA-4 (1) (a)</t>
+          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B60" s="3" t="inlineStr">
@@ -5169,7 +5169,7 @@
     <row r="61" ht="130" customHeight="1">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>AU-12 a,AU-7 b,CM-6 b,AU-12 (3),AU-8 b,AU-12 c,AU-7 a,CM-5 (1)</t>
+          <t>AU-8 b,AU-12 (3),CM-5 (1),AU-7 b,CM-6 b,AU-12 a,AU-7 a,AU-12 c</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
@@ -5243,7 +5243,7 @@
     <row r="62" ht="130" customHeight="1">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>AU-12 a,AC-2 (4),AU-3 (1),AU-12 c,AU-3,MA-4 (1) (a)</t>
+          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c,AC-2 (4)</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
@@ -5324,7 +5324,7 @@
     <row r="63" ht="130" customHeight="1">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>AU-12 a,AC-2 (4),AU-3 (1),AU-12 c,AU-3,MA-4 (1) (a)</t>
+          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c,AC-2 (4)</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
@@ -5405,7 +5405,7 @@
     <row r="64" ht="130" customHeight="1">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>AU-12 a,AC-2 (4),AU-3 (1),AU-12 c,AU-3,MA-4 (1) (a)</t>
+          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c,AC-2 (4)</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
@@ -5487,7 +5487,7 @@
     <row r="65" ht="130" customHeight="1">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>AU-12 a,AC-2 (4),AU-3 (1),AU-12 c,AU-3,MA-4 (1) (a)</t>
+          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c,AC-2 (4)</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
@@ -5569,7 +5569,7 @@
     <row r="66" ht="130" customHeight="1">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>AU-12 a,AC-2 (4),AU-3 (1),AU-12 c,AU-3,MA-4 (1) (a)</t>
+          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c,AC-2 (4)</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
@@ -5651,7 +5651,7 @@
     <row r="67" ht="130" customHeight="1">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>AU-12 a,AC-2 (4),AU-3 (1),AU-12 c,AU-3,MA-4 (1) (a)</t>
+          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c,AC-2 (4)</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
@@ -5733,7 +5733,7 @@
     <row r="68" ht="130" customHeight="1">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>AU-12 a,AC-2 (4),AU-3 (1),AU-12 c,AU-3,MA-4 (1) (a)</t>
+          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c,AC-2 (4)</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
@@ -6853,7 +6853,7 @@
     <row r="82" ht="130" customHeight="1">
       <c r="A82" s="3" t="inlineStr">
         <is>
-          <t>AU-12 a,AU-3 (1),AU-12 c,AU-3,MA-4 (1) (a)</t>
+          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B82" s="3" t="inlineStr">
@@ -6927,7 +6927,7 @@
     <row r="83" ht="130" customHeight="1">
       <c r="A83" s="3" t="inlineStr">
         <is>
-          <t>AU-12 a,AU-3 (1),AU-12 c,AU-3,MA-4 (1) (a)</t>
+          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B83" s="3" t="inlineStr">
@@ -7001,7 +7001,7 @@
     <row r="84" ht="130" customHeight="1">
       <c r="A84" s="3" t="inlineStr">
         <is>
-          <t>AU-12 a,AU-3 (1),AU-12 c,AU-3,MA-4 (1) (a)</t>
+          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B84" s="3" t="inlineStr">
@@ -7075,7 +7075,7 @@
     <row r="85" ht="130" customHeight="1">
       <c r="A85" s="3" t="inlineStr">
         <is>
-          <t>AU-12 a,AU-3 (1),AU-12 c,AU-3,MA-4 (1) (a)</t>
+          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B85" s="3" t="inlineStr">
@@ -7155,7 +7155,7 @@
     <row r="86" ht="130" customHeight="1">
       <c r="A86" s="3" t="inlineStr">
         <is>
-          <t>SC-13,MA-4 (6)</t>
+          <t>MA-4 (6),SC-13</t>
         </is>
       </c>
       <c r="B86" s="3" t="inlineStr">
@@ -7240,7 +7240,7 @@
     <row r="87" ht="130" customHeight="1">
       <c r="A87" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (6),AC-17 (2)</t>
+          <t>AC-17 (2),MA-4 (6)</t>
         </is>
       </c>
       <c r="B87" s="3" t="inlineStr">
@@ -7316,7 +7316,7 @@
     <row r="88" ht="130" customHeight="1">
       <c r="A88" s="3" t="inlineStr">
         <is>
-          <t>SC-13,MA-4 (6)</t>
+          <t>MA-4 (6),SC-13</t>
         </is>
       </c>
       <c r="B88" s="3" t="inlineStr">
@@ -7651,7 +7651,7 @@
     <row r="92" ht="130" customHeight="1">
       <c r="A92" s="3" t="inlineStr">
         <is>
-          <t>AU-12 a,AU-3 (1),AU-12 c,AU-3,MA-4 (1) (a)</t>
+          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B92" s="3" t="inlineStr">
@@ -7726,7 +7726,7 @@
     <row r="93" ht="130" customHeight="1">
       <c r="A93" s="3" t="inlineStr">
         <is>
-          <t>AU-12 a,AU-3 (1),AU-12 c,AU-3,MA-4 (1) (a)</t>
+          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B93" s="3" t="inlineStr">
@@ -7801,7 +7801,7 @@
     <row r="94" ht="130" customHeight="1">
       <c r="A94" s="3" t="inlineStr">
         <is>
-          <t>AU-12 a,AU-3 (1),AU-12 c,AU-3,MA-4 (1) (a)</t>
+          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B94" s="3" t="inlineStr">
@@ -7876,7 +7876,7 @@
     <row r="95" ht="130" customHeight="1">
       <c r="A95" s="3" t="inlineStr">
         <is>
-          <t>AU-12 a,AU-3 (1),AU-12 c,AU-3,MA-4 (1) (a)</t>
+          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B95" s="3" t="inlineStr">
@@ -7956,7 +7956,7 @@
     <row r="96" ht="130" customHeight="1">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>AU-12 a,AU-3 (1),AU-12 c,AU-3,MA-4 (1) (a)</t>
+          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
@@ -8038,7 +8038,7 @@
     <row r="97" ht="130" customHeight="1">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>AU-12 a,AU-3 (1),AU-12 c,AU-3,MA-4 (1) (a)</t>
+          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B97" s="2" t="inlineStr">
@@ -8120,7 +8120,7 @@
     <row r="98" ht="130" customHeight="1">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>AU-12 a,AU-3 (1),AU-12 c,AU-3,MA-4 (1) (a)</t>
+          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B98" s="2" t="inlineStr">
@@ -8202,7 +8202,7 @@
     <row r="99" ht="130" customHeight="1">
       <c r="A99" s="2" t="inlineStr">
         <is>
-          <t>AU-12 a,AU-3 (1),AU-12 c,AU-3,MA-4 (1) (a)</t>
+          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B99" s="2" t="inlineStr">
@@ -8284,7 +8284,7 @@
     <row r="100" ht="130" customHeight="1">
       <c r="A100" s="2" t="inlineStr">
         <is>
-          <t>AU-12 a,AU-3 (1),AU-12 c,AU-3,MA-4 (1) (a)</t>
+          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B100" s="2" t="inlineStr">
@@ -8366,7 +8366,7 @@
     <row r="101" ht="130" customHeight="1">
       <c r="A101" s="3" t="inlineStr">
         <is>
-          <t>AU-12 a,AU-3 (1),AU-12 c,AU-3,MA-4 (1) (a)</t>
+          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B101" s="3" t="inlineStr">
@@ -8446,7 +8446,7 @@
     <row r="102" ht="130" customHeight="1">
       <c r="A102" s="3" t="inlineStr">
         <is>
-          <t>AU-12 a,AU-3 (1),AU-12 c,AU-3,MA-4 (1) (a)</t>
+          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B102" s="3" t="inlineStr">
@@ -8526,7 +8526,7 @@
     <row r="103" ht="130" customHeight="1">
       <c r="A103" s="3" t="inlineStr">
         <is>
-          <t>AU-12 a,AU-3 (1),AU-12 c,AU-3,MA-4 (1) (a)</t>
+          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B103" s="3" t="inlineStr">
@@ -8606,7 +8606,7 @@
     <row r="104" ht="130" customHeight="1">
       <c r="A104" s="2" t="inlineStr">
         <is>
-          <t>AC-11 (1),AC-11 b</t>
+          <t>AC-11 b,AC-11 (1)</t>
         </is>
       </c>
       <c r="B104" s="2" t="inlineStr">
@@ -8856,7 +8856,7 @@
     <row r="107" ht="130" customHeight="1">
       <c r="A107" s="2" t="inlineStr">
         <is>
-          <t>AC-11 a,AC-11 b</t>
+          <t>AC-11 b,AC-11 a</t>
         </is>
       </c>
       <c r="B107" s="2" t="inlineStr">
@@ -8935,7 +8935,7 @@
     <row r="108" ht="130" customHeight="1">
       <c r="A108" s="2" t="inlineStr">
         <is>
-          <t>AC-11 a,AC-11 b</t>
+          <t>AC-11 b,AC-11 a</t>
         </is>
       </c>
       <c r="B108" s="2" t="inlineStr">
@@ -9022,7 +9022,7 @@
     <row r="109" ht="130" customHeight="1">
       <c r="A109" s="2" t="inlineStr">
         <is>
-          <t>AC-11 a,AC-11 b</t>
+          <t>AC-11 b,AC-11 a</t>
         </is>
       </c>
       <c r="B109" s="2" t="inlineStr">
@@ -9109,7 +9109,7 @@
     <row r="110" ht="130" customHeight="1">
       <c r="A110" s="3" t="inlineStr">
         <is>
-          <t>AC-11 a,AC-11 b</t>
+          <t>AC-11 b,AC-11 a</t>
         </is>
       </c>
       <c r="B110" s="3" t="inlineStr">
@@ -9354,7 +9354,7 @@
     <row r="113" ht="130" customHeight="1">
       <c r="A113" s="2" t="inlineStr">
         <is>
-          <t>SC-8,SC-13,MA-4 c,AC-17 (2)</t>
+          <t>SC-13,AC-17 (2),SC-8,MA-4 c</t>
         </is>
       </c>
       <c r="B113" s="2" t="inlineStr">
@@ -9436,7 +9436,7 @@
     <row r="114" ht="130" customHeight="1">
       <c r="A114" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B114" s="2" t="inlineStr">
@@ -9514,7 +9514,7 @@
     <row r="115" ht="130" customHeight="1">
       <c r="A115" s="2" t="inlineStr">
         <is>
-          <t>AU-12 a,AU-3 (1),AU-12 c,AU-3,MA-4 (1) (a)</t>
+          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B115" s="2" t="inlineStr">
@@ -9592,7 +9592,7 @@
     <row r="116" ht="130" customHeight="1">
       <c r="A116" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B116" s="2" t="inlineStr">
@@ -9670,7 +9670,7 @@
     <row r="117" ht="130" customHeight="1">
       <c r="A117" s="3" t="inlineStr">
         <is>
-          <t>AU-12 a,AU-3 (1),AU-12 c,AU-3,MA-4 (1) (a)</t>
+          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B117" s="3" t="inlineStr">
@@ -9750,7 +9750,7 @@
     <row r="118" ht="130" customHeight="1">
       <c r="A118" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B118" s="3" t="inlineStr">
@@ -9819,7 +9819,7 @@
     <row r="119" ht="130" customHeight="1">
       <c r="A119" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B119" s="3" t="inlineStr">
@@ -9888,7 +9888,7 @@
     <row r="120" ht="130" customHeight="1">
       <c r="A120" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B120" s="3" t="inlineStr">
@@ -9957,7 +9957,7 @@
     <row r="121" ht="130" customHeight="1">
       <c r="A121" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B121" s="3" t="inlineStr">
@@ -10026,7 +10026,7 @@
     <row r="122" ht="130" customHeight="1">
       <c r="A122" s="3" t="inlineStr">
         <is>
-          <t>AU-12 a,AU-3 (1),AU-12 c,AU-3,MA-4 (1) (a)</t>
+          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B122" s="3" t="inlineStr">
@@ -10106,7 +10106,7 @@
     <row r="123" ht="130" customHeight="1">
       <c r="A123" s="2" t="inlineStr">
         <is>
-          <t>SC-28,SC-28 (1)</t>
+          <t>SC-28 (1),SC-28</t>
         </is>
       </c>
       <c r="B123" s="2" t="inlineStr">
@@ -11133,7 +11133,7 @@
     <row r="136" ht="130" customHeight="1">
       <c r="A136" s="2" t="inlineStr">
         <is>
-          <t>AC-3 (4),AC-6 (10)</t>
+          <t>AC-6 (10),AC-3 (4)</t>
         </is>
       </c>
       <c r="B136" s="2" t="inlineStr">
@@ -11230,7 +11230,7 @@
     <row r="137" ht="130" customHeight="1">
       <c r="A137" s="2" t="inlineStr">
         <is>
-          <t>AC-3 (4),AC-6 (10)</t>
+          <t>AC-6 (10),AC-3 (4)</t>
         </is>
       </c>
       <c r="B137" s="2" t="inlineStr">
@@ -11406,7 +11406,7 @@
     <row r="139" ht="130" customHeight="1">
       <c r="A139" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B139" s="3" t="inlineStr">
@@ -11486,7 +11486,7 @@
     <row r="140" ht="130" customHeight="1">
       <c r="A140" s="3" t="inlineStr">
         <is>
-          <t>AU-12 a,AU-3 (1),AU-12 c,AU-3,MA-4 (1) (a)</t>
+          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B140" s="3" t="inlineStr">
@@ -11566,7 +11566,7 @@
     <row r="141" ht="130" customHeight="1">
       <c r="A141" s="3" t="inlineStr">
         <is>
-          <t>AU-12 a,AU-3 (1),AU-12 c,AU-3,MA-4 (1) (a)</t>
+          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B141" s="3" t="inlineStr">
@@ -11646,7 +11646,7 @@
     <row r="142" ht="130" customHeight="1">
       <c r="A142" s="3" t="inlineStr">
         <is>
-          <t>AU-12 a,AU-3 (1),AU-12 c,AU-3,MA-4 (1) (a)</t>
+          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B142" s="3" t="inlineStr">
@@ -11958,7 +11958,7 @@
     <row r="146" ht="130" customHeight="1">
       <c r="A146" s="2" t="inlineStr">
         <is>
-          <t>IA-7,IA-5 (1) (c)</t>
+          <t>IA-5 (1) (c),IA-7</t>
         </is>
       </c>
       <c r="B146" s="2" t="inlineStr">
@@ -12268,7 +12268,7 @@
     <row r="150" ht="130" customHeight="1">
       <c r="A150" s="2" t="inlineStr">
         <is>
-          <t>AC-11 a,AC-11 (1)</t>
+          <t>AC-11 (1),AC-11 a</t>
         </is>
       </c>
       <c r="B150" s="2" t="inlineStr">
@@ -12429,7 +12429,7 @@
     <row r="152" ht="130" customHeight="1">
       <c r="A152" s="2" t="inlineStr">
         <is>
-          <t>IA-7,CM-6 b</t>
+          <t>CM-6 b,IA-7</t>
         </is>
       </c>
       <c r="B152" s="2" t="inlineStr">
@@ -12505,7 +12505,7 @@
     <row r="153" ht="130" customHeight="1">
       <c r="A153" s="2" t="inlineStr">
         <is>
-          <t>IA-7,CM-6 b</t>
+          <t>CM-6 b,IA-7</t>
         </is>
       </c>
       <c r="B153" s="2" t="inlineStr">
@@ -12590,7 +12590,7 @@
     <row r="154" ht="130" customHeight="1">
       <c r="A154" s="2" t="inlineStr">
         <is>
-          <t>IA-7,CM-6 b</t>
+          <t>CM-6 b,IA-7</t>
         </is>
       </c>
       <c r="B154" s="2" t="inlineStr">
@@ -12747,7 +12747,7 @@
     <row r="156" ht="130" customHeight="1">
       <c r="A156" s="2" t="inlineStr">
         <is>
-          <t>IA-7,CM-7 a</t>
+          <t>CM-7 a,IA-7</t>
         </is>
       </c>
       <c r="B156" s="2" t="inlineStr">
@@ -12826,7 +12826,7 @@
     <row r="157" ht="130" customHeight="1">
       <c r="A157" s="3" t="inlineStr">
         <is>
-          <t>AU-12 a,AU-3 (1),AU-12 c,AU-3,MA-4 (1) (a)</t>
+          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B157" s="3" t="inlineStr">
@@ -12903,7 +12903,7 @@
     <row r="158" ht="130" customHeight="1">
       <c r="A158" s="3" t="inlineStr">
         <is>
-          <t>AU-12 a,AU-12 c,AU-3,MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
         </is>
       </c>
       <c r="B158" s="3" t="inlineStr">
@@ -12976,7 +12976,7 @@
     <row r="159" ht="130" customHeight="1">
       <c r="A159" s="3" t="inlineStr">
         <is>
-          <t>AU-12 a,AU-12 c,AU-3,MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
         </is>
       </c>
       <c r="B159" s="3" t="inlineStr">
@@ -13049,7 +13049,7 @@
     <row r="160" ht="130" customHeight="1">
       <c r="A160" s="3" t="inlineStr">
         <is>
-          <t>AU-12 a,AU-3 (1),AU-12 c,AU-3,MA-4 (1) (a)</t>
+          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B160" s="3" t="inlineStr">
@@ -13134,7 +13134,7 @@
     <row r="161" ht="130" customHeight="1">
       <c r="A161" s="3" t="inlineStr">
         <is>
-          <t>AU-12 a,AU-3 (1),AU-12 c,AU-3,MA-4 (1) (a)</t>
+          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B161" s="3" t="inlineStr">
@@ -13209,7 +13209,7 @@
     <row r="162" ht="130" customHeight="1">
       <c r="A162" s="3" t="inlineStr">
         <is>
-          <t>AU-12 a,AU-3 (1),AU-12 c,AU-3,MA-4 (1) (a)</t>
+          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B162" s="3" t="inlineStr">
@@ -13284,7 +13284,7 @@
     <row r="163" ht="130" customHeight="1">
       <c r="A163" s="3" t="inlineStr">
         <is>
-          <t>AU-12 a,AU-3 (1),AU-12 c,AU-3,MA-4 (1) (a)</t>
+          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B163" s="3" t="inlineStr">
@@ -13359,7 +13359,7 @@
     <row r="164" ht="130" customHeight="1">
       <c r="A164" s="3" t="inlineStr">
         <is>
-          <t>AU-12 a,AU-3 (1),AU-12 c,AU-3,MA-4 (1) (a)</t>
+          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B164" s="3" t="inlineStr">
@@ -13434,7 +13434,7 @@
     <row r="165" ht="130" customHeight="1">
       <c r="A165" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B165" s="3" t="inlineStr">
@@ -13505,7 +13505,7 @@
     <row r="166" ht="130" customHeight="1">
       <c r="A166" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B166" s="3" t="inlineStr">
@@ -13576,7 +13576,7 @@
     <row r="167" ht="130" customHeight="1">
       <c r="A167" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B167" s="3" t="inlineStr">
@@ -13648,7 +13648,7 @@
     <row r="168" ht="130" customHeight="1">
       <c r="A168" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B168" s="3" t="inlineStr">
@@ -13719,7 +13719,7 @@
     <row r="169" ht="130" customHeight="1">
       <c r="A169" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B169" s="3" t="inlineStr">
@@ -13790,7 +13790,7 @@
     <row r="170" ht="130" customHeight="1">
       <c r="A170" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B170" s="3" t="inlineStr">
@@ -13862,7 +13862,7 @@
     <row r="171" ht="130" customHeight="1">
       <c r="A171" s="3" t="inlineStr">
         <is>
-          <t>AU-12 a,AU-3 (1),AU-12 c,AU-3,MA-4 (1) (a)</t>
+          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B171" s="3" t="inlineStr">
@@ -13937,7 +13937,7 @@
     <row r="172" ht="130" customHeight="1">
       <c r="A172" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B172" s="3" t="inlineStr">
@@ -14008,7 +14008,7 @@
     <row r="173" ht="130" customHeight="1">
       <c r="A173" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B173" s="3" t="inlineStr">
@@ -14079,7 +14079,7 @@
     <row r="174" ht="130" customHeight="1">
       <c r="A174" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B174" s="3" t="inlineStr">
@@ -14151,7 +14151,7 @@
     <row r="175" ht="130" customHeight="1">
       <c r="A175" s="3" t="inlineStr">
         <is>
-          <t>AU-12 a,AU-3 (1),AU-12 c,AU-3,MA-4 (1) (a)</t>
+          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B175" s="3" t="inlineStr">
@@ -14226,7 +14226,7 @@
     <row r="176" ht="130" customHeight="1">
       <c r="A176" s="3" t="inlineStr">
         <is>
-          <t>AU-12 a,AU-3 (1),AU-12 c,AU-3,MA-4 (1) (a)</t>
+          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B176" s="3" t="inlineStr">
@@ -14308,7 +14308,7 @@
     <row r="177" ht="130" customHeight="1">
       <c r="A177" s="3" t="inlineStr">
         <is>
-          <t>AU-12 a,AU-3 (1),AU-12 c,AU-3,MA-4 (1) (a)</t>
+          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B177" s="3" t="inlineStr">
@@ -14390,7 +14390,7 @@
     <row r="178" ht="130" customHeight="1">
       <c r="A178" s="3" t="inlineStr">
         <is>
-          <t>AU-12 a,AU-3 (1),AU-12 c,AU-3,MA-4 (1) (a)</t>
+          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B178" s="3" t="inlineStr">
@@ -14554,7 +14554,7 @@
     <row r="180" ht="130" customHeight="1">
       <c r="A180" s="3" t="inlineStr">
         <is>
-          <t>AU-12 a,AU-3 (1),AU-12 c,AU-3,MA-4 (1) (a)</t>
+          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B180" s="3" t="inlineStr">
@@ -14636,7 +14636,7 @@
     <row r="181" ht="130" customHeight="1">
       <c r="A181" s="3" t="inlineStr">
         <is>
-          <t>AU-12 a,AU-3 (1),AU-12 c,AU-3,MA-4 (1) (a)</t>
+          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B181" s="3" t="inlineStr">
@@ -14718,7 +14718,7 @@
     <row r="182" ht="130" customHeight="1">
       <c r="A182" s="3" t="inlineStr">
         <is>
-          <t>AU-12 a,AU-3 (1),AU-12 c,AU-3,MA-4 (1) (a)</t>
+          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B182" s="3" t="inlineStr">
@@ -14800,7 +14800,7 @@
     <row r="183" ht="130" customHeight="1">
       <c r="A183" s="3" t="inlineStr">
         <is>
-          <t>AU-12 a,AU-3 (1),AU-12 c,AU-3,MA-4 (1) (a)</t>
+          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B183" s="3" t="inlineStr">
@@ -14882,7 +14882,7 @@
     <row r="184" ht="130" customHeight="1">
       <c r="A184" s="3" t="inlineStr">
         <is>
-          <t>AU-12 a,AU-3 (1),AU-12 c,AU-3,MA-4 (1) (a)</t>
+          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B184" s="3" t="inlineStr">
@@ -14964,7 +14964,7 @@
     <row r="185" ht="130" customHeight="1">
       <c r="A185" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-3 (1),MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 c,AU-3 (1)</t>
         </is>
       </c>
       <c r="B185" s="3" t="inlineStr">
@@ -15042,7 +15042,7 @@
     <row r="186" ht="130" customHeight="1">
       <c r="A186" s="3" t="inlineStr">
         <is>
-          <t>AU-12 a,AU-3 (1),AU-12 c,AU-3,MA-4 (1) (a)</t>
+          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B186" s="3" t="inlineStr">
@@ -15121,7 +15121,7 @@
     <row r="187" ht="130" customHeight="1">
       <c r="A187" s="3" t="inlineStr">
         <is>
-          <t>AU-12 a,AU-3 (1),AU-12 c,AU-3,MA-4 (1) (a)</t>
+          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B187" s="3" t="inlineStr">
@@ -15203,7 +15203,7 @@
     <row r="188" ht="130" customHeight="1">
       <c r="A188" s="3" t="inlineStr">
         <is>
-          <t>AU-12 a,AU-3 (1),AU-12 c,AU-3,MA-4 (1) (a)</t>
+          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B188" s="3" t="inlineStr">
@@ -15285,7 +15285,7 @@
     <row r="189" ht="130" customHeight="1">
       <c r="A189" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,MA-4 (1) (a),AU-3,AU-3 (1)</t>
+          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B189" s="3" t="inlineStr">
@@ -15367,7 +15367,7 @@
     <row r="190" ht="130" customHeight="1">
       <c r="A190" s="3" t="inlineStr">
         <is>
-          <t>AU-12 a,AU-3 (1),AU-12 c,AU-3,MA-4 (1) (a)</t>
+          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B190" s="3" t="inlineStr">
@@ -15449,7 +15449,7 @@
     <row r="191" ht="130" customHeight="1">
       <c r="A191" s="3" t="inlineStr">
         <is>
-          <t>AU-12 a,AU-3 (1),AU-12 c,AU-3,MA-4 (1) (a)</t>
+          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B191" s="3" t="inlineStr">
@@ -15531,7 +15531,7 @@
     <row r="192" ht="130" customHeight="1">
       <c r="A192" s="3" t="inlineStr">
         <is>
-          <t>AU-12 a,AU-3 (1),AU-12 c,AU-3,MA-4 (1) (a)</t>
+          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B192" s="3" t="inlineStr">
@@ -15613,7 +15613,7 @@
     <row r="193" ht="130" customHeight="1">
       <c r="A193" s="3" t="inlineStr">
         <is>
-          <t>AU-12 a,AU-3 (1),AU-12 c,AU-3,MA-4 (1) (a)</t>
+          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B193" s="3" t="inlineStr">
@@ -15688,7 +15688,7 @@
     <row r="194" ht="130" customHeight="1">
       <c r="A194" s="3" t="inlineStr">
         <is>
-          <t>AU-12 a,AC-2 (4),AU-3 (1),AU-12 c,AU-3,MA-4 (1) (a)</t>
+          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c,AC-2 (4)</t>
         </is>
       </c>
       <c r="B194" s="3" t="inlineStr">
@@ -15761,7 +15761,7 @@
     <row r="195" ht="130" customHeight="1">
       <c r="A195" s="3" t="inlineStr">
         <is>
-          <t>AC-2 (4),AU-3 (1),AU-12 c,AU-3,MA-4 (1) (a)</t>
+          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 c,AC-2 (4)</t>
         </is>
       </c>
       <c r="B195" s="3" t="inlineStr">
@@ -15838,7 +15838,7 @@
     <row r="196" ht="130" customHeight="1">
       <c r="A196" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (4),IA-2 (2),IA-2 (3),IA-2 (1)</t>
+          <t>IA-2 (4),IA-2 (1),IA-2 (3),IA-2 (2)</t>
         </is>
       </c>
       <c r="B196" s="2" t="inlineStr">
@@ -15925,7 +15925,7 @@
     <row r="197" ht="130" customHeight="1">
       <c r="A197" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (2),IA-2 (3),IA-2,IA-2 (5),IA-2 (4)</t>
+          <t>IA-2 (5),IA-2 (2),IA-2,IA-2 (4),IA-2 (3)</t>
         </is>
       </c>
       <c r="B197" s="2" t="inlineStr">
@@ -16014,7 +16014,7 @@
     <row r="198" ht="130" customHeight="1">
       <c r="A198" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (2),IA-2 (3),IA-2,IA-2 (5),IA-2 (4)</t>
+          <t>IA-2 (5),IA-2 (2),IA-2,IA-2 (4),IA-2 (3)</t>
         </is>
       </c>
       <c r="B198" s="2" t="inlineStr">
@@ -16258,7 +16258,7 @@
     <row r="201" ht="130" customHeight="1">
       <c r="A201" s="2" t="inlineStr">
         <is>
-          <t>IA-11,AC-3 (4)</t>
+          <t>AC-3 (4),IA-11</t>
         </is>
       </c>
       <c r="B201" s="2" t="inlineStr">
@@ -16638,7 +16638,7 @@
     <row r="206" ht="130" customHeight="1">
       <c r="A206" s="2" t="inlineStr">
         <is>
-          <t>SC-8 (2),SC-8,SC-8 (1)</t>
+          <t>SC-8,SC-8 (2),SC-8 (1)</t>
         </is>
       </c>
       <c r="B206" s="2" t="inlineStr">
@@ -16715,7 +16715,7 @@
     <row r="207" ht="130" customHeight="1">
       <c r="A207" s="2" t="inlineStr">
         <is>
-          <t>SC-8 (2),SC-8,SC-8 (1)</t>
+          <t>SC-8,SC-8 (2),SC-8 (1)</t>
         </is>
       </c>
       <c r="B207" s="2" t="inlineStr">
@@ -16801,7 +16801,7 @@
     <row r="208" ht="130" customHeight="1">
       <c r="A208" s="2" t="inlineStr">
         <is>
-          <t>SC-8,AC-18 (1),SC-8 (1)</t>
+          <t>AC-18 (1),SC-8,SC-8 (1)</t>
         </is>
       </c>
       <c r="B208" s="2" t="inlineStr">
@@ -16887,7 +16887,7 @@
     <row r="209" ht="130" customHeight="1">
       <c r="A209" s="2" t="inlineStr">
         <is>
-          <t>AC-11 a,AC-11 (1)</t>
+          <t>AC-11 (1),AC-11 a</t>
         </is>
       </c>
       <c r="B209" s="2" t="inlineStr">
@@ -16976,7 +16976,7 @@
     <row r="210" ht="130" customHeight="1">
       <c r="A210" s="2" t="inlineStr">
         <is>
-          <t>AC-11 a,AC-11 (1)</t>
+          <t>AC-11 (1),AC-11 a</t>
         </is>
       </c>
       <c r="B210" s="2" t="inlineStr">
@@ -17229,7 +17229,7 @@
     <row r="213" ht="130" customHeight="1">
       <c r="A213" s="2" t="inlineStr">
         <is>
-          <t>CM-7 a,CM-6 b,IA-5 (1) (c)</t>
+          <t>IA-5 (1) (c),CM-7 a,CM-6 b</t>
         </is>
       </c>
       <c r="B213" s="2" t="inlineStr">
@@ -17389,7 +17389,7 @@
     <row r="215" ht="130" customHeight="1">
       <c r="A215" s="3" t="inlineStr">
         <is>
-          <t>CM-6 b,AU-12 a</t>
+          <t>AU-12 a,CM-6 b</t>
         </is>
       </c>
       <c r="B215" s="3" t="inlineStr">
@@ -17475,7 +17475,7 @@
     <row r="216" ht="130" customHeight="1">
       <c r="A216" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,SC-5,SC-5 (2)</t>
+          <t>SC-5 (2),CM-6 b,SC-5</t>
         </is>
       </c>
       <c r="B216" s="2" t="inlineStr">
@@ -17655,7 +17655,7 @@
     <row r="218" ht="130" customHeight="1">
       <c r="A218" s="2" t="inlineStr">
         <is>
-          <t>SI-16,CM-7 a</t>
+          <t>CM-7 a,SI-16</t>
         </is>
       </c>
       <c r="B218" s="2" t="inlineStr">
@@ -17747,7 +17747,7 @@
     <row r="219" ht="130" customHeight="1">
       <c r="A219" s="2" t="inlineStr">
         <is>
-          <t>SI-16,CM-6 b</t>
+          <t>CM-6 b,SI-16</t>
         </is>
       </c>
       <c r="B219" s="2" t="inlineStr">
@@ -17845,7 +17845,7 @@
     <row r="220" ht="130" customHeight="1">
       <c r="A220" s="2" t="inlineStr">
         <is>
-          <t>IA-2,AU-3 (1),IA-8</t>
+          <t>IA-8,IA-2,AU-3 (1)</t>
         </is>
       </c>
       <c r="B220" s="2" t="inlineStr">
@@ -18824,7 +18824,7 @@
     <row r="232" ht="130" customHeight="1">
       <c r="A232" s="2" t="inlineStr">
         <is>
-          <t>SI-16,CM-6 b,SC-2</t>
+          <t>CM-6 b,SI-16,SC-2</t>
         </is>
       </c>
       <c r="B232" s="2" t="inlineStr">
@@ -19170,7 +19170,7 @@
     <row r="236" ht="130" customHeight="1">
       <c r="A236" s="2" t="inlineStr">
         <is>
-          <t>CM-7 a,AC-18 (1)</t>
+          <t>AC-18 (1),CM-7 a</t>
         </is>
       </c>
       <c r="B236" s="2" t="inlineStr">
@@ -19732,7 +19732,7 @@
     <row r="243" ht="130" customHeight="1">
       <c r="A243" s="2" t="inlineStr">
         <is>
-          <t>IA-5 (1) (b),IA-5 (1) (a),CM-6 b</t>
+          <t>CM-6 b,IA-5 (1) (b),IA-5 (1) (a)</t>
         </is>
       </c>
       <c r="B243" s="2" t="inlineStr">
@@ -20300,7 +20300,7 @@
     <row r="250" ht="130" customHeight="1">
       <c r="A250" s="2" t="inlineStr">
         <is>
-          <t>SC-4,CM-6 b</t>
+          <t>CM-6 b,SC-4</t>
         </is>
       </c>
       <c r="B250" s="2" t="inlineStr">
@@ -20556,7 +20556,7 @@
     <row r="253" ht="130" customHeight="1">
       <c r="A253" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (11),IA-2 (1)</t>
+          <t>IA-2 (1),IA-2 (11)</t>
         </is>
       </c>
       <c r="B253" s="2" t="inlineStr">
@@ -21052,7 +21052,7 @@
     <row r="259" ht="130" customHeight="1">
       <c r="A259" s="3" t="inlineStr">
         <is>
-          <t>AC-6 (8),AC-6 (9)</t>
+          <t>AC-6 (9),AC-6 (8)</t>
         </is>
       </c>
       <c r="B259" s="3" t="inlineStr">
@@ -21132,7 +21132,7 @@
     <row r="260" ht="130" customHeight="1">
       <c r="A260" s="3" t="inlineStr">
         <is>
-          <t>IA-2 (5),CM-6 b</t>
+          <t>CM-6 b,IA-2 (5)</t>
         </is>
       </c>
       <c r="B260" s="3" t="inlineStr">
@@ -21681,7 +21681,7 @@
     <row r="267" ht="130" customHeight="1">
       <c r="A267" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,CM-5 (3)</t>
+          <t>CM-5 (3),CM-6 b</t>
         </is>
       </c>
       <c r="B267" s="2" t="inlineStr">
@@ -22286,45 +22286,45 @@
       <c r="Q273" s="2" t="n"/>
     </row>
     <row r="274" ht="130" customHeight="1">
-      <c r="A274" s="3" t="inlineStr">
+      <c r="A274" s="2" t="inlineStr">
         <is>
           <t>IA-5 (1) (a)</t>
         </is>
       </c>
-      <c r="B274" s="3" t="inlineStr">
+      <c r="B274" s="2" t="inlineStr">
         <is>
           <t>CCI-000192</t>
         </is>
       </c>
-      <c r="C274" s="3" t="inlineStr">
+      <c r="C274" s="2" t="inlineStr">
         <is>
           <t>SRG-OS-000069-GPOS-00037</t>
         </is>
       </c>
-      <c r="D274" s="3" t="inlineStr">
+      <c r="D274" s="2" t="inlineStr">
         <is>
           <t>CCE-83568-6</t>
         </is>
       </c>
-      <c r="E274" s="3" t="inlineStr">
+      <c r="E274" s="2" t="inlineStr">
         <is>
           <t>The operating system must enforce password complexity by requiring that at least one upper-case character be used.</t>
         </is>
       </c>
-      <c r="F274" s="3" t="inlineStr">
+      <c r="F274" s="2" t="inlineStr">
         <is>
           <t>Red Hat Enterprise Linux 9 must enforce password complexity by requiring that at least one upper-case character be used.</t>
         </is>
       </c>
-      <c r="G274" s="3" t="inlineStr">
+      <c r="G274" s="2" t="inlineStr">
         <is>
           <t>Use of a complex password helps to increase the time and resources required to compromise the password. Password complexity, or strength, is a measure of the effectiveness of a password in resisting attempts at guessing and brute-force attacks.
 Password complexity is one factor of several that determines how long it takes to crack a password. The more complex the password, the greater the number of possible combinations that need to be tested before the password is compromised.</t>
         </is>
       </c>
-      <c r="H274" s="3" t="inlineStr">
-        <is>
-          <t>Use of a complex password helps to increase the time and resources reuiqred to compromise the password.
+      <c r="H274" s="2" t="inlineStr">
+        <is>
+          <t>Use of a complex password helps to increase the time and resources required to compromise the password.
 Password complexity, or strength, is a measure of the effectiveness of a password in resisting attempts
 at guessing and brute-force attacks.
 Password complexity is one factor of several that determines how long it takes to crack a password. The more
@@ -22332,41 +22332,46 @@
 the password is compromised.</t>
         </is>
       </c>
-      <c r="I274" s="3" t="inlineStr">
-        <is>
-          <t>Applicable - Configurable</t>
-        </is>
-      </c>
-      <c r="J274" s="3" t="inlineStr">
+      <c r="I274" s="2" t="inlineStr">
+        <is>
+          <t>Applicable - Configurable</t>
+        </is>
+      </c>
+      <c r="J274" s="2" t="inlineStr">
         <is>
           <t>Verify the operating system enforces password complexity by requiring that at least one upper-case character be used. If it does not, this is a finding.</t>
         </is>
       </c>
-      <c r="K274" s="3" t="inlineStr">
+      <c r="K274" s="2" t="inlineStr">
         <is>
           <t>To check how many uppercase characters are required in a password, run the following command:
  $ grep ucredit /etc/security/pwquality.conf 
 The "ucredit" parameter (as a negative number) will indicate how many uppercase characters are required.
-The DoD and FISMA require at least one uppercase character in a password.
 This would appear as "ucredit = -1".
-If ucredit is not found or not set less than or equal to the required value, then this is a finding.</t>
-        </is>
-      </c>
-      <c r="L274" s="3" t="n"/>
-      <c r="M274" s="3" t="inlineStr"/>
-      <c r="N274" s="3" t="inlineStr">
-        <is>
-          <t>CAT II</t>
-        </is>
-      </c>
-      <c r="O274" s="3" t="n"/>
-      <c r="P274" s="3" t="n"/>
-      <c r="Q274" s="3" t="n"/>
+If ucredit is not found or not set to the required value, then this is a finding.</t>
+        </is>
+      </c>
+      <c r="L274" s="2" t="n"/>
+      <c r="M274" s="2" t="inlineStr">
+        <is>
+          <t>Configure Red Hat Enterprise Linux 9 to enforce password complexity by requiring that at least one upper-case character be used by setting the "ucredit" option.
+Add the following line to /etc/security/pwquality.conf (or modify the line to have the required value):
+ucredit = -1</t>
+        </is>
+      </c>
+      <c r="N274" s="2" t="inlineStr">
+        <is>
+          <t>CAT II</t>
+        </is>
+      </c>
+      <c r="O274" s="2" t="n"/>
+      <c r="P274" s="2" t="n"/>
+      <c r="Q274" s="2" t="n"/>
     </row>
     <row r="275" ht="130" customHeight="1">
       <c r="A275" s="3" t="inlineStr">
         <is>
-          <t>CM-7 a,CM-6 b</t>
+          <t>CM-6 b,CM-7 a</t>
         </is>
       </c>
       <c r="B275" s="3" t="inlineStr">
@@ -23362,7 +23367,7 @@
     <row r="288" ht="130" customHeight="1">
       <c r="A288" s="3" t="inlineStr">
         <is>
-          <t>CM-7 a,CM-6 b</t>
+          <t>CM-6 b,CM-7 a</t>
         </is>
       </c>
       <c r="B288" s="3" t="inlineStr">
@@ -23433,7 +23438,7 @@
     <row r="289" ht="130" customHeight="1">
       <c r="A289" s="3" t="inlineStr">
         <is>
-          <t>CM-7 a,CM-6 b</t>
+          <t>CM-6 b,CM-7 a</t>
         </is>
       </c>
       <c r="B289" s="3" t="inlineStr">
@@ -23505,7 +23510,7 @@
     <row r="290" ht="130" customHeight="1">
       <c r="A290" s="3" t="inlineStr">
         <is>
-          <t>CM-7 a,CM-6 b</t>
+          <t>CM-6 b,CM-7 a</t>
         </is>
       </c>
       <c r="B290" s="3" t="inlineStr">
@@ -23663,7 +23668,7 @@
     <row r="292" ht="130" customHeight="1">
       <c r="A292" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AC-2 (4),AC-6 (9)</t>
+          <t>AU-12 c,AC-6 (9),AC-2 (4)</t>
         </is>
       </c>
       <c r="B292" s="3" t="inlineStr">
@@ -23880,7 +23885,7 @@
     <row r="294" ht="130" customHeight="1">
       <c r="A294" s="3" t="inlineStr">
         <is>
-          <t>AU-5 (1),AU-5 a</t>
+          <t>AU-5 a,AU-5 (1)</t>
         </is>
       </c>
       <c r="B294" s="3" t="inlineStr">
@@ -27242,7 +27247,7 @@
     <row r="339" ht="130" customHeight="1">
       <c r="A339" s="3" t="inlineStr">
         <is>
-          <t>CM-6 b,IA-5 (1) (c)</t>
+          <t>IA-5 (1) (c),CM-6 b</t>
         </is>
       </c>
       <c r="B339" s="3" t="inlineStr">
@@ -30507,7 +30512,7 @@
     <row r="382" ht="130" customHeight="1">
       <c r="A382" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,AC-17 (1),CM-7 b,AC-17 (9)</t>
+          <t>CM-6 b,AC-17 (1),AC-17 (9),CM-7 b</t>
         </is>
       </c>
       <c r="B382" s="2" t="inlineStr">
@@ -30585,7 +30590,7 @@
     <row r="383" ht="130" customHeight="1">
       <c r="A383" s="2" t="inlineStr">
         <is>
-          <t>AC-17 (1),CM-7 b,CM-6 b</t>
+          <t>CM-6 b,AC-17 (1),CM-7 b</t>
         </is>
       </c>
       <c r="B383" s="2" t="inlineStr">
@@ -34914,7 +34919,7 @@
     <row r="435" ht="130" customHeight="1">
       <c r="A435" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,AU-4</t>
+          <t>AU-4,CM-6 b</t>
         </is>
       </c>
       <c r="B435" s="2" t="inlineStr">
@@ -35703,7 +35708,7 @@
     <row r="445" ht="130" customHeight="1">
       <c r="A445" s="3" t="inlineStr">
         <is>
-          <t>CM-6 b,SI-2 (2)</t>
+          <t>SI-2 (2),CM-6 b</t>
         </is>
       </c>
       <c r="B445" s="3" t="inlineStr">
@@ -36350,7 +36355,7 @@
     <row r="454" ht="130" customHeight="1">
       <c r="A454" s="3" t="inlineStr">
         <is>
-          <t>CM-6 b,SI-2 (2)</t>
+          <t>SI-2 (2),CM-6 b</t>
         </is>
       </c>
       <c r="B454" s="3" t="inlineStr">
@@ -36641,7 +36646,7 @@
     <row r="458" ht="130" customHeight="1">
       <c r="A458" s="3" t="inlineStr">
         <is>
-          <t>AC-12,MA-4 e,SC-10,MA-4 (7)</t>
+          <t>SC-10,MA-4 (7),AC-12,MA-4 e</t>
         </is>
       </c>
       <c r="B458" s="3" t="inlineStr">
@@ -36716,7 +36721,7 @@
     <row r="459" ht="130" customHeight="1">
       <c r="A459" s="3" t="inlineStr">
         <is>
-          <t>AC-12,SC-10</t>
+          <t>SC-10,AC-12</t>
         </is>
       </c>
       <c r="B459" s="3" t="inlineStr">
@@ -36795,7 +36800,7 @@
     <row r="460" ht="130" customHeight="1">
       <c r="A460" s="3" t="inlineStr">
         <is>
-          <t>AC-12,SC-10</t>
+          <t>SC-10,AC-12</t>
         </is>
       </c>
       <c r="B460" s="3" t="inlineStr">
@@ -36871,7 +36876,7 @@
     <row r="461" ht="130" customHeight="1">
       <c r="A461" s="3" t="inlineStr">
         <is>
-          <t>AC-11 a,SC-10</t>
+          <t>SC-10,AC-11 a</t>
         </is>
       </c>
       <c r="B461" s="3" t="inlineStr">
@@ -36948,7 +36953,7 @@
     <row r="462" ht="130" customHeight="1">
       <c r="A462" s="2" t="inlineStr">
         <is>
-          <t>SC-8 (1),SC-8,AC-17 (2)</t>
+          <t>SC-8,AC-17 (2),SC-8 (1)</t>
         </is>
       </c>
       <c r="B462" s="2" t="inlineStr">
@@ -37746,7 +37751,7 @@
       </c>
       <c r="F472" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must display the Standard Mandatory DoD Notice and Consent Banner until users acknowledge the usage conditions and take explicit actions to log on for further access.</t>
+          <t>Red Hat Enterprise Linux 9 must display the Standard Mandatory DoD Notice and Consent Banner until users acknowledge the usage conditions and take explicit actions to log on for further access via CLI and Graphical access.</t>
         </is>
       </c>
       <c r="G472" s="3" t="inlineStr">
@@ -37783,7 +37788,7 @@
       <c r="P472" s="3" t="n"/>
       <c r="Q472" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 does not have configuration options to meet this requirement.</t>
+          <t>Red Hat Enterprise Linux 9 does not natively support a method of presenting an interactive acknowledgement of the login banner.</t>
         </is>
       </c>
     </row>
@@ -39949,7 +39954,7 @@
     <row r="500" ht="130" customHeight="1">
       <c r="A500" s="2" t="inlineStr">
         <is>
-          <t>AC-8 a,AC-8 c 1, AC-8 c 2, AC-8 c 3</t>
+          <t>AC-8 c 1, AC-8 c 2, AC-8 c 3,AC-8 a</t>
         </is>
       </c>
       <c r="B500" s="2" t="inlineStr">
@@ -40051,7 +40056,7 @@
     <row r="501" ht="130" customHeight="1">
       <c r="A501" s="2" t="inlineStr">
         <is>
-          <t>AC-8 a,AC-8 c 1, AC-8 c 2, AC-8 c 3</t>
+          <t>AC-8 c 1, AC-8 c 2, AC-8 c 3,AC-8 a</t>
         </is>
       </c>
       <c r="B501" s="2" t="inlineStr">
@@ -40161,7 +40166,7 @@
     <row r="502" ht="130" customHeight="1">
       <c r="A502" s="2" t="inlineStr">
         <is>
-          <t>AC-8 a,AC-8 c 1, AC-8 c 2, AC-8 c 3</t>
+          <t>AC-8 c 1, AC-8 c 2, AC-8 c 3,AC-8 a</t>
         </is>
       </c>
       <c r="B502" s="2" t="inlineStr">
@@ -40272,7 +40277,7 @@
     <row r="503" ht="130" customHeight="1">
       <c r="A503" s="2" t="inlineStr">
         <is>
-          <t>AC-8 a,AC-8 c 1, AC-8 c 2, AC-8 c 3</t>
+          <t>AC-8 c 1, AC-8 c 2, AC-8 c 3,AC-8 a</t>
         </is>
       </c>
       <c r="B503" s="2" t="inlineStr">
@@ -41418,7 +41423,7 @@
     <row r="518" ht="130" customHeight="1">
       <c r="A518" s="2" t="inlineStr">
         <is>
-          <t>SC-8 (2),SC-8</t>
+          <t>SC-8,SC-8 (2)</t>
         </is>
       </c>
       <c r="B518" s="2" t="inlineStr">

--- a/srg_mapping/srg-mapping-rhel9.xlsx
+++ b/srg_mapping/srg-mapping-rhel9.xlsx
@@ -973,7 +973,7 @@
     <row r="7" ht="130" customHeight="1">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>AU-5 b,AU-5 a</t>
+          <t>AU-5 a,AU-5 b</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
@@ -1455,7 +1455,7 @@
     <row r="13" ht="130" customHeight="1">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>AU-7 (1),AU-14 (1),AU-3 (1),CM-5 (1),CM-6 b,AU-3,AU-6 (4),MA-4 (1) (a),AU-12 a,AU-7 a</t>
+          <t>AU-7 a,CM-6 b,AU-12 a,MA-4 (1) (a),AU-3,AU-14 (1),CM-5 (1),AU-3 (1),AU-7 (1),AU-6 (4)</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
@@ -1540,7 +1540,7 @@
     <row r="14" ht="130" customHeight="1">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>CM-7 (5) (b),CM-7 (2)</t>
+          <t>CM-7 (2),CM-7 (5) (b)</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
@@ -1616,7 +1616,7 @@
     <row r="15" ht="130" customHeight="1">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>CM-7 (5) (b),CM-7 (2)</t>
+          <t>CM-7 (2),CM-7 (5) (b)</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
@@ -1770,7 +1770,7 @@
     <row r="17" ht="130" customHeight="1">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>CM-7 (2),CM-6 b</t>
+          <t>CM-6 b,CM-7 (2)</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
@@ -2140,7 +2140,7 @@
     <row r="22" ht="130" customHeight="1">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>CM-7 (2),CM-6 b</t>
+          <t>CM-6 b,CM-7 (2)</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
@@ -2214,7 +2214,7 @@
     <row r="23" ht="130" customHeight="1">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>CM-7 (2),CM-6 b</t>
+          <t>CM-6 b,CM-7 (2)</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
@@ -3258,7 +3258,7 @@
     <row r="37" ht="130" customHeight="1">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>AU-14 (1),AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c</t>
+          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-14 (1),AU-3 (1)</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
@@ -3349,7 +3349,7 @@
     <row r="38" ht="130" customHeight="1">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>AU-4,AU-14 (1)</t>
+          <t>AU-14 (1),AU-4</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
@@ -3832,7 +3832,7 @@
     <row r="44" ht="130" customHeight="1">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>AU-4 (1),CM-6 b,AU-6 (4)</t>
+          <t>CM-6 b,AU-6 (4),AU-4 (1)</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
@@ -3908,7 +3908,7 @@
     <row r="45" ht="130" customHeight="1">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>AU-4 (1),CM-6 b</t>
+          <t>CM-6 b,AU-4 (1)</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
@@ -3993,7 +3993,7 @@
     <row r="46" ht="130" customHeight="1">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>AU-8 b,AU-8 (1) (b),AU-8 (1) (a)</t>
+          <t>AU-8 b,AU-8 (1) (a),AU-8 (1) (b)</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
@@ -4148,7 +4148,7 @@
     <row r="48" ht="130" customHeight="1">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (12),IA-2 (11)</t>
+          <t>IA-2 (11),IA-2 (12)</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
@@ -4234,7 +4234,7 @@
     <row r="49" ht="130" customHeight="1">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (1),IA-2 (11),IA-2 (12)</t>
+          <t>IA-2 (11),IA-2 (12),IA-2 (1)</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
@@ -4494,7 +4494,7 @@
     <row r="52" ht="130" customHeight="1">
       <c r="A52" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c</t>
+          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B52" s="3" t="inlineStr">
@@ -4569,7 +4569,7 @@
     <row r="53" ht="130" customHeight="1">
       <c r="A53" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c</t>
+          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B53" s="3" t="inlineStr">
@@ -4644,7 +4644,7 @@
     <row r="54" ht="130" customHeight="1">
       <c r="A54" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c</t>
+          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B54" s="3" t="inlineStr">
@@ -4719,7 +4719,7 @@
     <row r="55" ht="130" customHeight="1">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c</t>
+          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B55" s="3" t="inlineStr">
@@ -4794,7 +4794,7 @@
     <row r="56" ht="130" customHeight="1">
       <c r="A56" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c</t>
+          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B56" s="3" t="inlineStr">
@@ -4869,7 +4869,7 @@
     <row r="57" ht="130" customHeight="1">
       <c r="A57" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c</t>
+          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B57" s="3" t="inlineStr">
@@ -4944,7 +4944,7 @@
     <row r="58" ht="130" customHeight="1">
       <c r="A58" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c</t>
+          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B58" s="3" t="inlineStr">
@@ -5019,7 +5019,7 @@
     <row r="59" ht="130" customHeight="1">
       <c r="A59" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c</t>
+          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B59" s="3" t="inlineStr">
@@ -5094,7 +5094,7 @@
     <row r="60" ht="130" customHeight="1">
       <c r="A60" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c</t>
+          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B60" s="3" t="inlineStr">
@@ -5169,7 +5169,7 @@
     <row r="61" ht="130" customHeight="1">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>AU-8 b,AU-12 (3),CM-5 (1),AU-7 b,CM-6 b,AU-12 a,AU-7 a,AU-12 c</t>
+          <t>AU-7 b,AU-7 a,AU-12 c,CM-6 b,AU-12 a,CM-5 (1),AU-8 b,AU-12 (3)</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
@@ -5243,7 +5243,7 @@
     <row r="62" ht="130" customHeight="1">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c,AC-2 (4)</t>
+          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1),AC-2 (4)</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
@@ -5324,7 +5324,7 @@
     <row r="63" ht="130" customHeight="1">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c,AC-2 (4)</t>
+          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1),AC-2 (4)</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
@@ -5405,7 +5405,7 @@
     <row r="64" ht="130" customHeight="1">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c,AC-2 (4)</t>
+          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1),AC-2 (4)</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
@@ -5487,7 +5487,7 @@
     <row r="65" ht="130" customHeight="1">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c,AC-2 (4)</t>
+          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1),AC-2 (4)</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
@@ -5569,7 +5569,7 @@
     <row r="66" ht="130" customHeight="1">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c,AC-2 (4)</t>
+          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1),AC-2 (4)</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
@@ -5651,7 +5651,7 @@
     <row r="67" ht="130" customHeight="1">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c,AC-2 (4)</t>
+          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1),AC-2 (4)</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
@@ -5733,7 +5733,7 @@
     <row r="68" ht="130" customHeight="1">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c,AC-2 (4)</t>
+          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1),AC-2 (4)</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
@@ -5815,7 +5815,7 @@
     <row r="69" ht="130" customHeight="1">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>SI-6 a,CM-3 (5)</t>
+          <t>CM-3 (5),SI-6 a</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
@@ -5889,7 +5889,7 @@
     <row r="70" ht="130" customHeight="1">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>SI-11 b,AU-9</t>
+          <t>AU-9,SI-11 b</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
@@ -5972,7 +5972,7 @@
     <row r="71" ht="130" customHeight="1">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>SI-11 b,AU-9</t>
+          <t>AU-9,SI-11 b</t>
         </is>
       </c>
       <c r="B71" s="2" t="inlineStr">
@@ -6050,7 +6050,7 @@
     <row r="72" ht="130" customHeight="1">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>SI-11 b,AU-9</t>
+          <t>AU-9,SI-11 b</t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
@@ -6141,7 +6141,7 @@
     <row r="73" ht="130" customHeight="1">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>SI-11 b,AU-9</t>
+          <t>AU-9,SI-11 b</t>
         </is>
       </c>
       <c r="B73" s="2" t="inlineStr">
@@ -6223,7 +6223,7 @@
     <row r="74" ht="130" customHeight="1">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>SI-11 b,AU-9</t>
+          <t>AU-9,SI-11 b</t>
         </is>
       </c>
       <c r="B74" s="2" t="inlineStr">
@@ -6853,7 +6853,7 @@
     <row r="82" ht="130" customHeight="1">
       <c r="A82" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c</t>
+          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B82" s="3" t="inlineStr">
@@ -6927,7 +6927,7 @@
     <row r="83" ht="130" customHeight="1">
       <c r="A83" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c</t>
+          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B83" s="3" t="inlineStr">
@@ -7001,7 +7001,7 @@
     <row r="84" ht="130" customHeight="1">
       <c r="A84" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c</t>
+          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B84" s="3" t="inlineStr">
@@ -7075,7 +7075,7 @@
     <row r="85" ht="130" customHeight="1">
       <c r="A85" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c</t>
+          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B85" s="3" t="inlineStr">
@@ -7240,7 +7240,7 @@
     <row r="87" ht="130" customHeight="1">
       <c r="A87" s="3" t="inlineStr">
         <is>
-          <t>AC-17 (2),MA-4 (6)</t>
+          <t>MA-4 (6),AC-17 (2)</t>
         </is>
       </c>
       <c r="B87" s="3" t="inlineStr">
@@ -7651,7 +7651,7 @@
     <row r="92" ht="130" customHeight="1">
       <c r="A92" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c</t>
+          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B92" s="3" t="inlineStr">
@@ -7726,7 +7726,7 @@
     <row r="93" ht="130" customHeight="1">
       <c r="A93" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c</t>
+          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B93" s="3" t="inlineStr">
@@ -7801,7 +7801,7 @@
     <row r="94" ht="130" customHeight="1">
       <c r="A94" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c</t>
+          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B94" s="3" t="inlineStr">
@@ -7876,7 +7876,7 @@
     <row r="95" ht="130" customHeight="1">
       <c r="A95" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c</t>
+          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B95" s="3" t="inlineStr">
@@ -7956,7 +7956,7 @@
     <row r="96" ht="130" customHeight="1">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c</t>
+          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
@@ -8038,7 +8038,7 @@
     <row r="97" ht="130" customHeight="1">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c</t>
+          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B97" s="2" t="inlineStr">
@@ -8120,7 +8120,7 @@
     <row r="98" ht="130" customHeight="1">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c</t>
+          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B98" s="2" t="inlineStr">
@@ -8202,7 +8202,7 @@
     <row r="99" ht="130" customHeight="1">
       <c r="A99" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c</t>
+          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B99" s="2" t="inlineStr">
@@ -8284,7 +8284,7 @@
     <row r="100" ht="130" customHeight="1">
       <c r="A100" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c</t>
+          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B100" s="2" t="inlineStr">
@@ -8366,7 +8366,7 @@
     <row r="101" ht="130" customHeight="1">
       <c r="A101" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c</t>
+          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B101" s="3" t="inlineStr">
@@ -8446,7 +8446,7 @@
     <row r="102" ht="130" customHeight="1">
       <c r="A102" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c</t>
+          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B102" s="3" t="inlineStr">
@@ -8526,7 +8526,7 @@
     <row r="103" ht="130" customHeight="1">
       <c r="A103" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c</t>
+          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B103" s="3" t="inlineStr">
@@ -8777,7 +8777,7 @@
     <row r="106" ht="130" customHeight="1">
       <c r="A106" s="2" t="inlineStr">
         <is>
-          <t>AC-11 b,AC-6 (10)</t>
+          <t>AC-6 (10),AC-11 b</t>
         </is>
       </c>
       <c r="B106" s="2" t="inlineStr">
@@ -9354,7 +9354,7 @@
     <row r="113" ht="130" customHeight="1">
       <c r="A113" s="2" t="inlineStr">
         <is>
-          <t>SC-13,AC-17 (2),SC-8,MA-4 c</t>
+          <t>SC-13,MA-4 c,AC-17 (2),SC-8</t>
         </is>
       </c>
       <c r="B113" s="2" t="inlineStr">
@@ -9436,7 +9436,7 @@
     <row r="114" ht="130" customHeight="1">
       <c r="A114" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B114" s="2" t="inlineStr">
@@ -9514,7 +9514,7 @@
     <row r="115" ht="130" customHeight="1">
       <c r="A115" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c</t>
+          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B115" s="2" t="inlineStr">
@@ -9592,7 +9592,7 @@
     <row r="116" ht="130" customHeight="1">
       <c r="A116" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B116" s="2" t="inlineStr">
@@ -9670,7 +9670,7 @@
     <row r="117" ht="130" customHeight="1">
       <c r="A117" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c</t>
+          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B117" s="3" t="inlineStr">
@@ -9750,7 +9750,7 @@
     <row r="118" ht="130" customHeight="1">
       <c r="A118" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B118" s="3" t="inlineStr">
@@ -9819,7 +9819,7 @@
     <row r="119" ht="130" customHeight="1">
       <c r="A119" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B119" s="3" t="inlineStr">
@@ -9888,7 +9888,7 @@
     <row r="120" ht="130" customHeight="1">
       <c r="A120" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B120" s="3" t="inlineStr">
@@ -9957,7 +9957,7 @@
     <row r="121" ht="130" customHeight="1">
       <c r="A121" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B121" s="3" t="inlineStr">
@@ -10026,7 +10026,7 @@
     <row r="122" ht="130" customHeight="1">
       <c r="A122" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c</t>
+          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B122" s="3" t="inlineStr">
@@ -10873,7 +10873,7 @@
     <row r="133" ht="130" customHeight="1">
       <c r="A133" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,AC-6 (10)</t>
+          <t>AC-6 (10),CM-6 b</t>
         </is>
       </c>
       <c r="B133" s="2" t="inlineStr">
@@ -10954,7 +10954,7 @@
     <row r="134" ht="130" customHeight="1">
       <c r="A134" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,AC-6 (10)</t>
+          <t>AC-6 (10),CM-6 b</t>
         </is>
       </c>
       <c r="B134" s="2" t="inlineStr">
@@ -11040,7 +11040,7 @@
     <row r="135" ht="130" customHeight="1">
       <c r="A135" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,AC-6 (10)</t>
+          <t>AC-6 (10),CM-6 b</t>
         </is>
       </c>
       <c r="B135" s="2" t="inlineStr">
@@ -11406,7 +11406,7 @@
     <row r="139" ht="130" customHeight="1">
       <c r="A139" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B139" s="3" t="inlineStr">
@@ -11486,7 +11486,7 @@
     <row r="140" ht="130" customHeight="1">
       <c r="A140" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c</t>
+          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B140" s="3" t="inlineStr">
@@ -11566,7 +11566,7 @@
     <row r="141" ht="130" customHeight="1">
       <c r="A141" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c</t>
+          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B141" s="3" t="inlineStr">
@@ -11646,7 +11646,7 @@
     <row r="142" ht="130" customHeight="1">
       <c r="A142" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c</t>
+          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B142" s="3" t="inlineStr">
@@ -11958,7 +11958,7 @@
     <row r="146" ht="130" customHeight="1">
       <c r="A146" s="2" t="inlineStr">
         <is>
-          <t>IA-5 (1) (c),IA-7</t>
+          <t>IA-7,IA-5 (1) (c)</t>
         </is>
       </c>
       <c r="B146" s="2" t="inlineStr">
@@ -12268,7 +12268,7 @@
     <row r="150" ht="130" customHeight="1">
       <c r="A150" s="2" t="inlineStr">
         <is>
-          <t>AC-11 (1),AC-11 a</t>
+          <t>AC-11 a,AC-11 (1)</t>
         </is>
       </c>
       <c r="B150" s="2" t="inlineStr">
@@ -12826,7 +12826,7 @@
     <row r="157" ht="130" customHeight="1">
       <c r="A157" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c</t>
+          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B157" s="3" t="inlineStr">
@@ -12903,7 +12903,7 @@
     <row r="158" ht="130" customHeight="1">
       <c r="A158" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
+          <t>AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
         </is>
       </c>
       <c r="B158" s="3" t="inlineStr">
@@ -12976,7 +12976,7 @@
     <row r="159" ht="130" customHeight="1">
       <c r="A159" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3</t>
+          <t>AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
         </is>
       </c>
       <c r="B159" s="3" t="inlineStr">
@@ -13049,7 +13049,7 @@
     <row r="160" ht="130" customHeight="1">
       <c r="A160" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c</t>
+          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B160" s="3" t="inlineStr">
@@ -13134,7 +13134,7 @@
     <row r="161" ht="130" customHeight="1">
       <c r="A161" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c</t>
+          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B161" s="3" t="inlineStr">
@@ -13209,7 +13209,7 @@
     <row r="162" ht="130" customHeight="1">
       <c r="A162" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c</t>
+          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B162" s="3" t="inlineStr">
@@ -13284,7 +13284,7 @@
     <row r="163" ht="130" customHeight="1">
       <c r="A163" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c</t>
+          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B163" s="3" t="inlineStr">
@@ -13359,7 +13359,7 @@
     <row r="164" ht="130" customHeight="1">
       <c r="A164" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c</t>
+          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B164" s="3" t="inlineStr">
@@ -13434,7 +13434,7 @@
     <row r="165" ht="130" customHeight="1">
       <c r="A165" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B165" s="3" t="inlineStr">
@@ -13505,7 +13505,7 @@
     <row r="166" ht="130" customHeight="1">
       <c r="A166" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B166" s="3" t="inlineStr">
@@ -13576,7 +13576,7 @@
     <row r="167" ht="130" customHeight="1">
       <c r="A167" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B167" s="3" t="inlineStr">
@@ -13648,7 +13648,7 @@
     <row r="168" ht="130" customHeight="1">
       <c r="A168" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B168" s="3" t="inlineStr">
@@ -13719,7 +13719,7 @@
     <row r="169" ht="130" customHeight="1">
       <c r="A169" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B169" s="3" t="inlineStr">
@@ -13790,7 +13790,7 @@
     <row r="170" ht="130" customHeight="1">
       <c r="A170" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B170" s="3" t="inlineStr">
@@ -13862,7 +13862,7 @@
     <row r="171" ht="130" customHeight="1">
       <c r="A171" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c</t>
+          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B171" s="3" t="inlineStr">
@@ -13937,7 +13937,7 @@
     <row r="172" ht="130" customHeight="1">
       <c r="A172" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B172" s="3" t="inlineStr">
@@ -14008,7 +14008,7 @@
     <row r="173" ht="130" customHeight="1">
       <c r="A173" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B173" s="3" t="inlineStr">
@@ -14079,7 +14079,7 @@
     <row r="174" ht="130" customHeight="1">
       <c r="A174" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B174" s="3" t="inlineStr">
@@ -14151,7 +14151,7 @@
     <row r="175" ht="130" customHeight="1">
       <c r="A175" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c</t>
+          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B175" s="3" t="inlineStr">
@@ -14226,7 +14226,7 @@
     <row r="176" ht="130" customHeight="1">
       <c r="A176" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c</t>
+          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B176" s="3" t="inlineStr">
@@ -14308,7 +14308,7 @@
     <row r="177" ht="130" customHeight="1">
       <c r="A177" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c</t>
+          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B177" s="3" t="inlineStr">
@@ -14390,7 +14390,7 @@
     <row r="178" ht="130" customHeight="1">
       <c r="A178" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c</t>
+          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B178" s="3" t="inlineStr">
@@ -14472,7 +14472,7 @@
     <row r="179" ht="130" customHeight="1">
       <c r="A179" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3,AU-3 (1)</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-3</t>
         </is>
       </c>
       <c r="B179" s="3" t="inlineStr">
@@ -14554,7 +14554,7 @@
     <row r="180" ht="130" customHeight="1">
       <c r="A180" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c</t>
+          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B180" s="3" t="inlineStr">
@@ -14636,7 +14636,7 @@
     <row r="181" ht="130" customHeight="1">
       <c r="A181" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c</t>
+          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B181" s="3" t="inlineStr">
@@ -14718,7 +14718,7 @@
     <row r="182" ht="130" customHeight="1">
       <c r="A182" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c</t>
+          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B182" s="3" t="inlineStr">
@@ -14800,7 +14800,7 @@
     <row r="183" ht="130" customHeight="1">
       <c r="A183" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c</t>
+          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B183" s="3" t="inlineStr">
@@ -14882,7 +14882,7 @@
     <row r="184" ht="130" customHeight="1">
       <c r="A184" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c</t>
+          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B184" s="3" t="inlineStr">
@@ -14964,7 +14964,7 @@
     <row r="185" ht="130" customHeight="1">
       <c r="A185" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c,AU-3 (1)</t>
+          <t>AU-3 (1),AU-12 c,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B185" s="3" t="inlineStr">
@@ -15042,7 +15042,7 @@
     <row r="186" ht="130" customHeight="1">
       <c r="A186" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c</t>
+          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B186" s="3" t="inlineStr">
@@ -15121,7 +15121,7 @@
     <row r="187" ht="130" customHeight="1">
       <c r="A187" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c</t>
+          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B187" s="3" t="inlineStr">
@@ -15203,7 +15203,7 @@
     <row r="188" ht="130" customHeight="1">
       <c r="A188" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c</t>
+          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B188" s="3" t="inlineStr">
@@ -15285,7 +15285,7 @@
     <row r="189" ht="130" customHeight="1">
       <c r="A189" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-3 (1)</t>
+          <t>AU-3 (1),AU-12 c,MA-4 (1) (a),AU-3</t>
         </is>
       </c>
       <c r="B189" s="3" t="inlineStr">
@@ -15367,7 +15367,7 @@
     <row r="190" ht="130" customHeight="1">
       <c r="A190" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c</t>
+          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B190" s="3" t="inlineStr">
@@ -15449,7 +15449,7 @@
     <row r="191" ht="130" customHeight="1">
       <c r="A191" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c</t>
+          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B191" s="3" t="inlineStr">
@@ -15531,7 +15531,7 @@
     <row r="192" ht="130" customHeight="1">
       <c r="A192" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c</t>
+          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B192" s="3" t="inlineStr">
@@ -15613,7 +15613,7 @@
     <row r="193" ht="130" customHeight="1">
       <c r="A193" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c</t>
+          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B193" s="3" t="inlineStr">
@@ -15688,7 +15688,7 @@
     <row r="194" ht="130" customHeight="1">
       <c r="A194" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 a,AU-12 c,AC-2 (4)</t>
+          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1),AC-2 (4)</t>
         </is>
       </c>
       <c r="B194" s="3" t="inlineStr">
@@ -15761,7 +15761,7 @@
     <row r="195" ht="130" customHeight="1">
       <c r="A195" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-3,MA-4 (1) (a),AU-12 c,AC-2 (4)</t>
+          <t>AU-12 c,MA-4 (1) (a),AU-3,AU-3 (1),AC-2 (4)</t>
         </is>
       </c>
       <c r="B195" s="3" t="inlineStr">
@@ -15838,7 +15838,7 @@
     <row r="196" ht="130" customHeight="1">
       <c r="A196" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (4),IA-2 (1),IA-2 (3),IA-2 (2)</t>
+          <t>IA-2 (4),IA-2 (2),IA-2 (3),IA-2 (1)</t>
         </is>
       </c>
       <c r="B196" s="2" t="inlineStr">
@@ -15925,7 +15925,7 @@
     <row r="197" ht="130" customHeight="1">
       <c r="A197" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (5),IA-2 (2),IA-2,IA-2 (4),IA-2 (3)</t>
+          <t>IA-2,IA-2 (4),IA-2 (5),IA-2 (3),IA-2 (2)</t>
         </is>
       </c>
       <c r="B197" s="2" t="inlineStr">
@@ -16014,7 +16014,7 @@
     <row r="198" ht="130" customHeight="1">
       <c r="A198" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (5),IA-2 (2),IA-2,IA-2 (4),IA-2 (3)</t>
+          <t>IA-2,IA-2 (4),IA-2 (5),IA-2 (3),IA-2 (2)</t>
         </is>
       </c>
       <c r="B198" s="2" t="inlineStr">
@@ -16258,7 +16258,7 @@
     <row r="201" ht="130" customHeight="1">
       <c r="A201" s="2" t="inlineStr">
         <is>
-          <t>AC-3 (4),IA-11</t>
+          <t>IA-11,AC-3 (4)</t>
         </is>
       </c>
       <c r="B201" s="2" t="inlineStr">
@@ -16638,7 +16638,7 @@
     <row r="206" ht="130" customHeight="1">
       <c r="A206" s="2" t="inlineStr">
         <is>
-          <t>SC-8,SC-8 (2),SC-8 (1)</t>
+          <t>SC-8 (2),SC-8,SC-8 (1)</t>
         </is>
       </c>
       <c r="B206" s="2" t="inlineStr">
@@ -16715,7 +16715,7 @@
     <row r="207" ht="130" customHeight="1">
       <c r="A207" s="2" t="inlineStr">
         <is>
-          <t>SC-8,SC-8 (2),SC-8 (1)</t>
+          <t>SC-8 (2),SC-8,SC-8 (1)</t>
         </is>
       </c>
       <c r="B207" s="2" t="inlineStr">
@@ -16801,7 +16801,7 @@
     <row r="208" ht="130" customHeight="1">
       <c r="A208" s="2" t="inlineStr">
         <is>
-          <t>AC-18 (1),SC-8,SC-8 (1)</t>
+          <t>SC-8,AC-18 (1),SC-8 (1)</t>
         </is>
       </c>
       <c r="B208" s="2" t="inlineStr">
@@ -16887,7 +16887,7 @@
     <row r="209" ht="130" customHeight="1">
       <c r="A209" s="2" t="inlineStr">
         <is>
-          <t>AC-11 (1),AC-11 a</t>
+          <t>AC-11 a,AC-11 (1)</t>
         </is>
       </c>
       <c r="B209" s="2" t="inlineStr">
@@ -16976,7 +16976,7 @@
     <row r="210" ht="130" customHeight="1">
       <c r="A210" s="2" t="inlineStr">
         <is>
-          <t>AC-11 (1),AC-11 a</t>
+          <t>AC-11 a,AC-11 (1)</t>
         </is>
       </c>
       <c r="B210" s="2" t="inlineStr">
@@ -17229,7 +17229,7 @@
     <row r="213" ht="130" customHeight="1">
       <c r="A213" s="2" t="inlineStr">
         <is>
-          <t>IA-5 (1) (c),CM-7 a,CM-6 b</t>
+          <t>CM-7 a,CM-6 b,IA-5 (1) (c)</t>
         </is>
       </c>
       <c r="B213" s="2" t="inlineStr">
@@ -17475,7 +17475,7 @@
     <row r="216" ht="130" customHeight="1">
       <c r="A216" s="2" t="inlineStr">
         <is>
-          <t>SC-5 (2),CM-6 b,SC-5</t>
+          <t>CM-6 b,SC-5 (2),SC-5</t>
         </is>
       </c>
       <c r="B216" s="2" t="inlineStr">
@@ -17845,7 +17845,7 @@
     <row r="220" ht="130" customHeight="1">
       <c r="A220" s="2" t="inlineStr">
         <is>
-          <t>IA-8,IA-2,AU-3 (1)</t>
+          <t>IA-2,AU-3 (1),IA-8</t>
         </is>
       </c>
       <c r="B220" s="2" t="inlineStr">
@@ -19170,7 +19170,7 @@
     <row r="236" ht="130" customHeight="1">
       <c r="A236" s="2" t="inlineStr">
         <is>
-          <t>AC-18 (1),CM-7 a</t>
+          <t>CM-7 a,AC-18 (1)</t>
         </is>
       </c>
       <c r="B236" s="2" t="inlineStr">
@@ -19732,7 +19732,7 @@
     <row r="243" ht="130" customHeight="1">
       <c r="A243" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,IA-5 (1) (b),IA-5 (1) (a)</t>
+          <t>IA-5 (1) (a),CM-6 b,IA-5 (1) (b)</t>
         </is>
       </c>
       <c r="B243" s="2" t="inlineStr">
@@ -20556,7 +20556,7 @@
     <row r="253" ht="130" customHeight="1">
       <c r="A253" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (1),IA-2 (11)</t>
+          <t>IA-2 (11),IA-2 (1)</t>
         </is>
       </c>
       <c r="B253" s="2" t="inlineStr">
@@ -20643,37 +20643,37 @@
       <c r="Q253" s="2" t="n"/>
     </row>
     <row r="254" ht="130" customHeight="1">
-      <c r="A254" s="3" t="inlineStr">
-        <is>
-          <t>IA-2 (12),IA-2 (11)</t>
-        </is>
-      </c>
-      <c r="B254" s="3" t="inlineStr">
+      <c r="A254" s="2" t="inlineStr">
+        <is>
+          <t>IA-2 (11),IA-2 (12)</t>
+        </is>
+      </c>
+      <c r="B254" s="2" t="inlineStr">
         <is>
           <t>CCI-001954,CCI-001953</t>
         </is>
       </c>
-      <c r="C254" s="3" t="inlineStr">
+      <c r="C254" s="2" t="inlineStr">
         <is>
           <t>SRG-OS-000375-GPOS-00160,SRG-OS-000376-GPOS-00161</t>
         </is>
       </c>
-      <c r="D254" s="3" t="inlineStr">
+      <c r="D254" s="2" t="inlineStr">
         <is>
           <t>CCE-83595-9</t>
         </is>
       </c>
-      <c r="E254" s="3" t="inlineStr">
+      <c r="E254" s="2" t="inlineStr">
         <is>
           <t>The operating system must implement multifactor authentication for remote access to privileged accounts in such a way that one of the factors is provided by a device separate from the system gaining access.</t>
         </is>
       </c>
-      <c r="F254" s="3" t="inlineStr">
+      <c r="F254" s="2" t="inlineStr">
         <is>
           <t>Red Hat Enterprise Linux 9 must implement multifactor authentication for remote access to privileged accounts in such a way that one of the factors is provided by a device separate from the system gaining access.</t>
         </is>
       </c>
-      <c r="G254" s="3" t="inlineStr">
+      <c r="G254" s="2" t="inlineStr">
         <is>
           <t>Using an authentication device, such as a CAC or token that is separate from the information system, ensures that even if the information system is compromised, that compromise will not affect credentials stored on the authentication device.
 Multifactor solutions that require devices separate from information systems gaining access include, for example, hardware tokens providing time-based or challenge-response authenticators and smart cards such as the U.S. Government Personal Identity Verification card and the DoD Common Access Card.
@@ -20683,7 +20683,7 @@
 Requires further clarification from NIST.</t>
         </is>
       </c>
-      <c r="H254" s="3" t="inlineStr">
+      <c r="H254" s="2" t="inlineStr">
         <is>
           <t>Using an authentication device, such as a CAC or token that is separate from
 the information system, ensures that even if the information system is
@@ -20696,32 +20696,38 @@
 Access Card.</t>
         </is>
       </c>
-      <c r="I254" s="3" t="inlineStr">
-        <is>
-          <t>Applicable - Configurable</t>
-        </is>
-      </c>
-      <c r="J254" s="3" t="inlineStr">
+      <c r="I254" s="2" t="inlineStr">
+        <is>
+          <t>Applicable - Configurable</t>
+        </is>
+      </c>
+      <c r="J254" s="2" t="inlineStr">
         <is>
           <t>Verify the operating system implements multifactor authentication for remote access to privileged accounts in such a way that one of the factors is provided by a device separate from the system gaining access. If it does not, this is a finding.</t>
         </is>
       </c>
-      <c r="K254" s="3" t="inlineStr">
+      <c r="K254" s="2" t="inlineStr">
         <is>
           <t>Run the following command to determine if the  opensc  package is installed:  $ rpm -q opensc 
 If the package is not installed, then this is a finding.</t>
         </is>
       </c>
-      <c r="L254" s="3" t="n"/>
-      <c r="M254" s="3" t="inlineStr"/>
-      <c r="N254" s="3" t="inlineStr">
-        <is>
-          <t>CAT II</t>
-        </is>
-      </c>
-      <c r="O254" s="3" t="n"/>
-      <c r="P254" s="3" t="n"/>
-      <c r="Q254" s="3" t="n"/>
+      <c r="L254" s="2" t="n"/>
+      <c r="M254" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+The  opensc  package can be installed with the following command:
+$ sudo dnf install opensc </t>
+        </is>
+      </c>
+      <c r="N254" s="2" t="inlineStr">
+        <is>
+          <t>CAT II</t>
+        </is>
+      </c>
+      <c r="O254" s="2" t="n"/>
+      <c r="P254" s="2" t="n"/>
+      <c r="Q254" s="2" t="n"/>
     </row>
     <row r="255" ht="130" customHeight="1">
       <c r="A255" s="3" t="inlineStr">
@@ -20970,7 +20976,7 @@
     <row r="258" ht="130" customHeight="1">
       <c r="A258" s="2" t="inlineStr">
         <is>
-          <t>SI-6 a,SC-3</t>
+          <t>SC-3,SI-6 a</t>
         </is>
       </c>
       <c r="B258" s="2" t="inlineStr">
@@ -21052,7 +21058,7 @@
     <row r="259" ht="130" customHeight="1">
       <c r="A259" s="3" t="inlineStr">
         <is>
-          <t>AC-6 (9),AC-6 (8)</t>
+          <t>AC-6 (8),AC-6 (9)</t>
         </is>
       </c>
       <c r="B259" s="3" t="inlineStr">
@@ -21598,7 +21604,7 @@
     <row r="266" ht="130" customHeight="1">
       <c r="A266" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-9</t>
+          <t>AU-9,AU-12 c</t>
         </is>
       </c>
       <c r="B266" s="2" t="inlineStr">
@@ -22371,7 +22377,7 @@
     <row r="275" ht="130" customHeight="1">
       <c r="A275" s="3" t="inlineStr">
         <is>
-          <t>CM-6 b,CM-7 a</t>
+          <t>CM-7 a,CM-6 b</t>
         </is>
       </c>
       <c r="B275" s="3" t="inlineStr">
@@ -22519,7 +22525,7 @@
     <row r="277" ht="130" customHeight="1">
       <c r="A277" s="2" t="inlineStr">
         <is>
-          <t>CM-7 a,CM-7 b</t>
+          <t>CM-7 b,CM-7 a</t>
         </is>
       </c>
       <c r="B277" s="2" t="inlineStr">
@@ -22599,7 +22605,7 @@
     <row r="278" ht="130" customHeight="1">
       <c r="A278" s="2" t="inlineStr">
         <is>
-          <t>CM-7 a,CM-7 b</t>
+          <t>CM-7 b,CM-7 a</t>
         </is>
       </c>
       <c r="B278" s="2" t="inlineStr">
@@ -23367,7 +23373,7 @@
     <row r="288" ht="130" customHeight="1">
       <c r="A288" s="3" t="inlineStr">
         <is>
-          <t>CM-6 b,CM-7 a</t>
+          <t>CM-7 a,CM-6 b</t>
         </is>
       </c>
       <c r="B288" s="3" t="inlineStr">
@@ -23438,7 +23444,7 @@
     <row r="289" ht="130" customHeight="1">
       <c r="A289" s="3" t="inlineStr">
         <is>
-          <t>CM-6 b,CM-7 a</t>
+          <t>CM-7 a,CM-6 b</t>
         </is>
       </c>
       <c r="B289" s="3" t="inlineStr">
@@ -23510,7 +23516,7 @@
     <row r="290" ht="130" customHeight="1">
       <c r="A290" s="3" t="inlineStr">
         <is>
-          <t>CM-6 b,CM-7 a</t>
+          <t>CM-7 a,CM-6 b</t>
         </is>
       </c>
       <c r="B290" s="3" t="inlineStr">
@@ -27247,7 +27253,7 @@
     <row r="339" ht="130" customHeight="1">
       <c r="A339" s="3" t="inlineStr">
         <is>
-          <t>IA-5 (1) (c),CM-6 b</t>
+          <t>CM-6 b,IA-5 (1) (c)</t>
         </is>
       </c>
       <c r="B339" s="3" t="inlineStr">
@@ -27478,7 +27484,7 @@
     <row r="342" ht="130" customHeight="1">
       <c r="A342" s="3" t="inlineStr">
         <is>
-          <t>CM-6 b,CM-5 (1)</t>
+          <t>CM-5 (1),CM-6 b</t>
         </is>
       </c>
       <c r="B342" s="3" t="inlineStr">
@@ -27552,7 +27558,7 @@
     <row r="343" ht="130" customHeight="1">
       <c r="A343" s="3" t="inlineStr">
         <is>
-          <t>CM-6 b,CM-5 (1)</t>
+          <t>CM-5 (1),CM-6 b</t>
         </is>
       </c>
       <c r="B343" s="3" t="inlineStr">
@@ -30512,7 +30518,7 @@
     <row r="382" ht="130" customHeight="1">
       <c r="A382" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,AC-17 (1),AC-17 (9),CM-7 b</t>
+          <t>CM-7 b,AC-17 (1),CM-6 b,AC-17 (9)</t>
         </is>
       </c>
       <c r="B382" s="2" t="inlineStr">
@@ -30590,7 +30596,7 @@
     <row r="383" ht="130" customHeight="1">
       <c r="A383" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,AC-17 (1),CM-7 b</t>
+          <t>CM-7 b,AC-17 (1),CM-6 b</t>
         </is>
       </c>
       <c r="B383" s="2" t="inlineStr">
@@ -33089,7 +33095,7 @@
     <row r="412" ht="130" customHeight="1">
       <c r="A412" s="2" t="inlineStr">
         <is>
-          <t>IA-3,CM-6 b</t>
+          <t>CM-6 b,IA-3</t>
         </is>
       </c>
       <c r="B412" s="2" t="inlineStr">
@@ -33171,7 +33177,7 @@
     <row r="413" ht="130" customHeight="1">
       <c r="A413" s="2" t="inlineStr">
         <is>
-          <t>IA-3,CM-6 b</t>
+          <t>CM-6 b,IA-3</t>
         </is>
       </c>
       <c r="B413" s="2" t="inlineStr">
@@ -35223,7 +35229,7 @@
     <row r="439" ht="130" customHeight="1">
       <c r="A439" s="2" t="inlineStr">
         <is>
-          <t>IA-3,CM-6 b</t>
+          <t>CM-6 b,IA-3</t>
         </is>
       </c>
       <c r="B439" s="2" t="inlineStr">
@@ -35313,7 +35319,7 @@
     <row r="440" ht="130" customHeight="1">
       <c r="A440" s="2" t="inlineStr">
         <is>
-          <t>IA-3,CM-6 b</t>
+          <t>CM-6 b,IA-3</t>
         </is>
       </c>
       <c r="B440" s="2" t="inlineStr">
@@ -36646,7 +36652,7 @@
     <row r="458" ht="130" customHeight="1">
       <c r="A458" s="3" t="inlineStr">
         <is>
-          <t>SC-10,MA-4 (7),AC-12,MA-4 e</t>
+          <t>AC-12,SC-10,MA-4 (7),MA-4 e</t>
         </is>
       </c>
       <c r="B458" s="3" t="inlineStr">
@@ -36721,7 +36727,7 @@
     <row r="459" ht="130" customHeight="1">
       <c r="A459" s="3" t="inlineStr">
         <is>
-          <t>SC-10,AC-12</t>
+          <t>AC-12,SC-10</t>
         </is>
       </c>
       <c r="B459" s="3" t="inlineStr">
@@ -36800,7 +36806,7 @@
     <row r="460" ht="130" customHeight="1">
       <c r="A460" s="3" t="inlineStr">
         <is>
-          <t>SC-10,AC-12</t>
+          <t>AC-12,SC-10</t>
         </is>
       </c>
       <c r="B460" s="3" t="inlineStr">
@@ -36876,7 +36882,7 @@
     <row r="461" ht="130" customHeight="1">
       <c r="A461" s="3" t="inlineStr">
         <is>
-          <t>SC-10,AC-11 a</t>
+          <t>AC-11 a,SC-10</t>
         </is>
       </c>
       <c r="B461" s="3" t="inlineStr">
@@ -36953,7 +36959,7 @@
     <row r="462" ht="130" customHeight="1">
       <c r="A462" s="2" t="inlineStr">
         <is>
-          <t>SC-8,AC-17 (2),SC-8 (1)</t>
+          <t>SC-8,SC-8 (1),AC-17 (2)</t>
         </is>
       </c>
       <c r="B462" s="2" t="inlineStr">
@@ -38261,7 +38267,7 @@
     <row r="479" ht="130" customHeight="1">
       <c r="A479" s="2" t="inlineStr">
         <is>
-          <t>IA-3,CM-7 b</t>
+          <t>CM-7 b,IA-3</t>
         </is>
       </c>
       <c r="B479" s="2" t="inlineStr">
@@ -38580,7 +38586,7 @@
     <row r="483" ht="130" customHeight="1">
       <c r="A483" s="2" t="inlineStr">
         <is>
-          <t>AC-17 (1),CM-7 b</t>
+          <t>CM-7 b,AC-17 (1)</t>
         </is>
       </c>
       <c r="B483" s="2" t="inlineStr">
@@ -41423,7 +41429,7 @@
     <row r="518" ht="130" customHeight="1">
       <c r="A518" s="2" t="inlineStr">
         <is>
-          <t>SC-8,SC-8 (2)</t>
+          <t>SC-8 (2),SC-8</t>
         </is>
       </c>
       <c r="B518" s="2" t="inlineStr">

--- a/srg_mapping/srg-mapping-rhel9.xlsx
+++ b/srg_mapping/srg-mapping-rhel9.xlsx
@@ -973,7 +973,7 @@
     <row r="7" ht="130" customHeight="1">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>AU-5 a,AU-5 b</t>
+          <t>AU-5 b,AU-5 a</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
@@ -1455,7 +1455,7 @@
     <row r="13" ht="130" customHeight="1">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>AU-7 a,CM-6 b,AU-12 a,MA-4 (1) (a),AU-3,AU-14 (1),CM-5 (1),AU-3 (1),AU-7 (1),AU-6 (4)</t>
+          <t>AU-12 a,AU-6 (4),AU-7 a,AU-14 (1),MA-4 (1) (a),AU-3,AU-3 (1),CM-6 b,AU-7 (1),CM-5 (1)</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
@@ -1540,7 +1540,7 @@
     <row r="14" ht="130" customHeight="1">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>CM-7 (2),CM-7 (5) (b)</t>
+          <t>CM-7 (5) (b),CM-7 (2)</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
@@ -1616,7 +1616,7 @@
     <row r="15" ht="130" customHeight="1">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>CM-7 (2),CM-7 (5) (b)</t>
+          <t>CM-7 (5) (b),CM-7 (2)</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
@@ -3258,7 +3258,7 @@
     <row r="37" ht="130" customHeight="1">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-14 (1),AU-3 (1)</t>
+          <t>AU-12 c,AU-12 a,AU-14 (1),AU-3,AU-3 (1),MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
@@ -3438,7 +3438,7 @@
     <row r="39" ht="130" customHeight="1">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>AU-4 (1),AU-3</t>
+          <t>AU-3,AU-4 (1)</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
@@ -3503,7 +3503,7 @@
       <c r="M39" s="2" t="inlineStr">
         <is>
           <t>Edit the file "/etc/audit/auditd.conf" and add or edit the following line:
-name_format=hostname</t>
+name_format = hostname</t>
         </is>
       </c>
       <c r="N39" s="2" t="inlineStr">
@@ -3832,7 +3832,7 @@
     <row r="44" ht="130" customHeight="1">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,AU-6 (4),AU-4 (1)</t>
+          <t>AU-6 (4),CM-6 b,AU-4 (1)</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
@@ -3993,7 +3993,7 @@
     <row r="46" ht="130" customHeight="1">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>AU-8 b,AU-8 (1) (a),AU-8 (1) (b)</t>
+          <t>AU-8 (1) (a),AU-8 (1) (b),AU-8 b</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
@@ -4234,7 +4234,7 @@
     <row r="49" ht="130" customHeight="1">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (11),IA-2 (12),IA-2 (1)</t>
+          <t>IA-2 (1),IA-2 (11),IA-2 (12)</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
@@ -4318,7 +4318,7 @@
     <row r="50" ht="130" customHeight="1">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>SI-6 b,SI-6 d,CM-3 (5)</t>
+          <t>CM-3 (5),SI-6 b,SI-6 d</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
@@ -4410,7 +4410,7 @@
     <row r="51" ht="130" customHeight="1">
       <c r="A51" s="3" t="inlineStr">
         <is>
-          <t>SI-6 d,CM-3 (5)</t>
+          <t>CM-3 (5),SI-6 d</t>
         </is>
       </c>
       <c r="B51" s="3" t="inlineStr">
@@ -4494,7 +4494,7 @@
     <row r="52" ht="130" customHeight="1">
       <c r="A52" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1)</t>
+          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B52" s="3" t="inlineStr">
@@ -4569,7 +4569,7 @@
     <row r="53" ht="130" customHeight="1">
       <c r="A53" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1)</t>
+          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B53" s="3" t="inlineStr">
@@ -4644,7 +4644,7 @@
     <row r="54" ht="130" customHeight="1">
       <c r="A54" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1)</t>
+          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B54" s="3" t="inlineStr">
@@ -4719,7 +4719,7 @@
     <row r="55" ht="130" customHeight="1">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1)</t>
+          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B55" s="3" t="inlineStr">
@@ -4794,7 +4794,7 @@
     <row r="56" ht="130" customHeight="1">
       <c r="A56" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1)</t>
+          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B56" s="3" t="inlineStr">
@@ -4869,7 +4869,7 @@
     <row r="57" ht="130" customHeight="1">
       <c r="A57" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1)</t>
+          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B57" s="3" t="inlineStr">
@@ -4944,7 +4944,7 @@
     <row r="58" ht="130" customHeight="1">
       <c r="A58" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1)</t>
+          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B58" s="3" t="inlineStr">
@@ -5019,7 +5019,7 @@
     <row r="59" ht="130" customHeight="1">
       <c r="A59" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1)</t>
+          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B59" s="3" t="inlineStr">
@@ -5094,7 +5094,7 @@
     <row r="60" ht="130" customHeight="1">
       <c r="A60" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1)</t>
+          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B60" s="3" t="inlineStr">
@@ -5169,7 +5169,7 @@
     <row r="61" ht="130" customHeight="1">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>AU-7 b,AU-7 a,AU-12 c,CM-6 b,AU-12 a,CM-5 (1),AU-8 b,AU-12 (3)</t>
+          <t>AU-12 c,AU-12 a,AU-7 a,AU-7 b,AU-8 b,CM-6 b,CM-5 (1),AU-12 (3)</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
@@ -5243,7 +5243,7 @@
     <row r="62" ht="130" customHeight="1">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1),AC-2 (4)</t>
+          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),AC-2 (4),MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
@@ -5324,7 +5324,7 @@
     <row r="63" ht="130" customHeight="1">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1),AC-2 (4)</t>
+          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),AC-2 (4),MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
@@ -5405,7 +5405,7 @@
     <row r="64" ht="130" customHeight="1">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1),AC-2 (4)</t>
+          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),AC-2 (4),MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
@@ -5487,7 +5487,7 @@
     <row r="65" ht="130" customHeight="1">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1),AC-2 (4)</t>
+          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),AC-2 (4),MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
@@ -5569,7 +5569,7 @@
     <row r="66" ht="130" customHeight="1">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1),AC-2 (4)</t>
+          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),AC-2 (4),MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
@@ -5651,7 +5651,7 @@
     <row r="67" ht="130" customHeight="1">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1),AC-2 (4)</t>
+          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),AC-2 (4),MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
@@ -5733,7 +5733,7 @@
     <row r="68" ht="130" customHeight="1">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1),AC-2 (4)</t>
+          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),AC-2 (4),MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
@@ -5889,7 +5889,7 @@
     <row r="70" ht="130" customHeight="1">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>AU-9,SI-11 b</t>
+          <t>SI-11 b,AU-9</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
@@ -5972,7 +5972,7 @@
     <row r="71" ht="130" customHeight="1">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>AU-9,SI-11 b</t>
+          <t>SI-11 b,AU-9</t>
         </is>
       </c>
       <c r="B71" s="2" t="inlineStr">
@@ -6050,7 +6050,7 @@
     <row r="72" ht="130" customHeight="1">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>AU-9,SI-11 b</t>
+          <t>SI-11 b,AU-9</t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
@@ -6141,7 +6141,7 @@
     <row r="73" ht="130" customHeight="1">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>AU-9,SI-11 b</t>
+          <t>SI-11 b,AU-9</t>
         </is>
       </c>
       <c r="B73" s="2" t="inlineStr">
@@ -6223,7 +6223,7 @@
     <row r="74" ht="130" customHeight="1">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>AU-9,SI-11 b</t>
+          <t>SI-11 b,AU-9</t>
         </is>
       </c>
       <c r="B74" s="2" t="inlineStr">
@@ -6853,7 +6853,7 @@
     <row r="82" ht="130" customHeight="1">
       <c r="A82" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1)</t>
+          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B82" s="3" t="inlineStr">
@@ -6927,7 +6927,7 @@
     <row r="83" ht="130" customHeight="1">
       <c r="A83" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1)</t>
+          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B83" s="3" t="inlineStr">
@@ -7001,7 +7001,7 @@
     <row r="84" ht="130" customHeight="1">
       <c r="A84" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1)</t>
+          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B84" s="3" t="inlineStr">
@@ -7075,7 +7075,7 @@
     <row r="85" ht="130" customHeight="1">
       <c r="A85" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1)</t>
+          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B85" s="3" t="inlineStr">
@@ -7155,7 +7155,7 @@
     <row r="86" ht="130" customHeight="1">
       <c r="A86" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (6),SC-13</t>
+          <t>SC-13,MA-4 (6)</t>
         </is>
       </c>
       <c r="B86" s="3" t="inlineStr">
@@ -7240,7 +7240,7 @@
     <row r="87" ht="130" customHeight="1">
       <c r="A87" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (6),AC-17 (2)</t>
+          <t>AC-17 (2),MA-4 (6)</t>
         </is>
       </c>
       <c r="B87" s="3" t="inlineStr">
@@ -7316,7 +7316,7 @@
     <row r="88" ht="130" customHeight="1">
       <c r="A88" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (6),SC-13</t>
+          <t>SC-13,MA-4 (6)</t>
         </is>
       </c>
       <c r="B88" s="3" t="inlineStr">
@@ -7651,7 +7651,7 @@
     <row r="92" ht="130" customHeight="1">
       <c r="A92" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1)</t>
+          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B92" s="3" t="inlineStr">
@@ -7726,7 +7726,7 @@
     <row r="93" ht="130" customHeight="1">
       <c r="A93" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1)</t>
+          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B93" s="3" t="inlineStr">
@@ -7801,7 +7801,7 @@
     <row r="94" ht="130" customHeight="1">
       <c r="A94" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1)</t>
+          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B94" s="3" t="inlineStr">
@@ -7876,7 +7876,7 @@
     <row r="95" ht="130" customHeight="1">
       <c r="A95" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1)</t>
+          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B95" s="3" t="inlineStr">
@@ -7956,7 +7956,7 @@
     <row r="96" ht="130" customHeight="1">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1)</t>
+          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
@@ -8038,7 +8038,7 @@
     <row r="97" ht="130" customHeight="1">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1)</t>
+          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B97" s="2" t="inlineStr">
@@ -8120,7 +8120,7 @@
     <row r="98" ht="130" customHeight="1">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1)</t>
+          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B98" s="2" t="inlineStr">
@@ -8202,7 +8202,7 @@
     <row r="99" ht="130" customHeight="1">
       <c r="A99" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1)</t>
+          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B99" s="2" t="inlineStr">
@@ -8284,7 +8284,7 @@
     <row r="100" ht="130" customHeight="1">
       <c r="A100" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1)</t>
+          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B100" s="2" t="inlineStr">
@@ -8366,7 +8366,7 @@
     <row r="101" ht="130" customHeight="1">
       <c r="A101" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1)</t>
+          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B101" s="3" t="inlineStr">
@@ -8446,7 +8446,7 @@
     <row r="102" ht="130" customHeight="1">
       <c r="A102" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1)</t>
+          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B102" s="3" t="inlineStr">
@@ -8526,7 +8526,7 @@
     <row r="103" ht="130" customHeight="1">
       <c r="A103" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1)</t>
+          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B103" s="3" t="inlineStr">
@@ -8606,7 +8606,7 @@
     <row r="104" ht="130" customHeight="1">
       <c r="A104" s="2" t="inlineStr">
         <is>
-          <t>AC-11 b,AC-11 (1)</t>
+          <t>AC-11 (1),AC-11 b</t>
         </is>
       </c>
       <c r="B104" s="2" t="inlineStr">
@@ -8856,7 +8856,7 @@
     <row r="107" ht="130" customHeight="1">
       <c r="A107" s="2" t="inlineStr">
         <is>
-          <t>AC-11 b,AC-11 a</t>
+          <t>AC-11 a,AC-11 b</t>
         </is>
       </c>
       <c r="B107" s="2" t="inlineStr">
@@ -8935,7 +8935,7 @@
     <row r="108" ht="130" customHeight="1">
       <c r="A108" s="2" t="inlineStr">
         <is>
-          <t>AC-11 b,AC-11 a</t>
+          <t>AC-11 a,AC-11 b</t>
         </is>
       </c>
       <c r="B108" s="2" t="inlineStr">
@@ -9022,7 +9022,7 @@
     <row r="109" ht="130" customHeight="1">
       <c r="A109" s="2" t="inlineStr">
         <is>
-          <t>AC-11 b,AC-11 a</t>
+          <t>AC-11 a,AC-11 b</t>
         </is>
       </c>
       <c r="B109" s="2" t="inlineStr">
@@ -9109,7 +9109,7 @@
     <row r="110" ht="130" customHeight="1">
       <c r="A110" s="3" t="inlineStr">
         <is>
-          <t>AC-11 b,AC-11 a</t>
+          <t>AC-11 a,AC-11 b</t>
         </is>
       </c>
       <c r="B110" s="3" t="inlineStr">
@@ -9354,7 +9354,7 @@
     <row r="113" ht="130" customHeight="1">
       <c r="A113" s="2" t="inlineStr">
         <is>
-          <t>SC-13,MA-4 c,AC-17 (2),SC-8</t>
+          <t>AC-17 (2),MA-4 c,SC-13,SC-8</t>
         </is>
       </c>
       <c r="B113" s="2" t="inlineStr">
@@ -9514,7 +9514,7 @@
     <row r="115" ht="130" customHeight="1">
       <c r="A115" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1)</t>
+          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B115" s="2" t="inlineStr">
@@ -9670,7 +9670,7 @@
     <row r="117" ht="130" customHeight="1">
       <c r="A117" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1)</t>
+          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B117" s="3" t="inlineStr">
@@ -10026,7 +10026,7 @@
     <row r="122" ht="130" customHeight="1">
       <c r="A122" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1)</t>
+          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B122" s="3" t="inlineStr">
@@ -10873,7 +10873,7 @@
     <row r="133" ht="130" customHeight="1">
       <c r="A133" s="2" t="inlineStr">
         <is>
-          <t>AC-6 (10),CM-6 b</t>
+          <t>CM-6 b,AC-6 (10)</t>
         </is>
       </c>
       <c r="B133" s="2" t="inlineStr">
@@ -10954,7 +10954,7 @@
     <row r="134" ht="130" customHeight="1">
       <c r="A134" s="2" t="inlineStr">
         <is>
-          <t>AC-6 (10),CM-6 b</t>
+          <t>CM-6 b,AC-6 (10)</t>
         </is>
       </c>
       <c r="B134" s="2" t="inlineStr">
@@ -11040,7 +11040,7 @@
     <row r="135" ht="130" customHeight="1">
       <c r="A135" s="2" t="inlineStr">
         <is>
-          <t>AC-6 (10),CM-6 b</t>
+          <t>CM-6 b,AC-6 (10)</t>
         </is>
       </c>
       <c r="B135" s="2" t="inlineStr">
@@ -11133,7 +11133,7 @@
     <row r="136" ht="130" customHeight="1">
       <c r="A136" s="2" t="inlineStr">
         <is>
-          <t>AC-6 (10),AC-3 (4)</t>
+          <t>AC-3 (4),AC-6 (10)</t>
         </is>
       </c>
       <c r="B136" s="2" t="inlineStr">
@@ -11230,7 +11230,7 @@
     <row r="137" ht="130" customHeight="1">
       <c r="A137" s="2" t="inlineStr">
         <is>
-          <t>AC-6 (10),AC-3 (4)</t>
+          <t>AC-3 (4),AC-6 (10)</t>
         </is>
       </c>
       <c r="B137" s="2" t="inlineStr">
@@ -11486,7 +11486,7 @@
     <row r="140" ht="130" customHeight="1">
       <c r="A140" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1)</t>
+          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B140" s="3" t="inlineStr">
@@ -11566,7 +11566,7 @@
     <row r="141" ht="130" customHeight="1">
       <c r="A141" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1)</t>
+          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B141" s="3" t="inlineStr">
@@ -11646,7 +11646,7 @@
     <row r="142" ht="130" customHeight="1">
       <c r="A142" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1)</t>
+          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B142" s="3" t="inlineStr">
@@ -12268,7 +12268,7 @@
     <row r="150" ht="130" customHeight="1">
       <c r="A150" s="2" t="inlineStr">
         <is>
-          <t>AC-11 a,AC-11 (1)</t>
+          <t>AC-11 (1),AC-11 a</t>
         </is>
       </c>
       <c r="B150" s="2" t="inlineStr">
@@ -12747,7 +12747,7 @@
     <row r="156" ht="130" customHeight="1">
       <c r="A156" s="2" t="inlineStr">
         <is>
-          <t>CM-7 a,IA-7</t>
+          <t>IA-7,CM-7 a</t>
         </is>
       </c>
       <c r="B156" s="2" t="inlineStr">
@@ -12826,7 +12826,7 @@
     <row r="157" ht="130" customHeight="1">
       <c r="A157" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1)</t>
+          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B157" s="3" t="inlineStr">
@@ -12903,7 +12903,7 @@
     <row r="158" ht="130" customHeight="1">
       <c r="A158" s="3" t="inlineStr">
         <is>
-          <t>AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
+          <t>AU-12 c,MA-4 (1) (a),AU-3,AU-12 a</t>
         </is>
       </c>
       <c r="B158" s="3" t="inlineStr">
@@ -12976,7 +12976,7 @@
     <row r="159" ht="130" customHeight="1">
       <c r="A159" s="3" t="inlineStr">
         <is>
-          <t>AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
+          <t>AU-12 c,MA-4 (1) (a),AU-3,AU-12 a</t>
         </is>
       </c>
       <c r="B159" s="3" t="inlineStr">
@@ -13049,7 +13049,7 @@
     <row r="160" ht="130" customHeight="1">
       <c r="A160" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1)</t>
+          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B160" s="3" t="inlineStr">
@@ -13134,7 +13134,7 @@
     <row r="161" ht="130" customHeight="1">
       <c r="A161" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1)</t>
+          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B161" s="3" t="inlineStr">
@@ -13209,7 +13209,7 @@
     <row r="162" ht="130" customHeight="1">
       <c r="A162" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1)</t>
+          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B162" s="3" t="inlineStr">
@@ -13284,7 +13284,7 @@
     <row r="163" ht="130" customHeight="1">
       <c r="A163" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1)</t>
+          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B163" s="3" t="inlineStr">
@@ -13359,7 +13359,7 @@
     <row r="164" ht="130" customHeight="1">
       <c r="A164" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1)</t>
+          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B164" s="3" t="inlineStr">
@@ -13862,7 +13862,7 @@
     <row r="171" ht="130" customHeight="1">
       <c r="A171" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1)</t>
+          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B171" s="3" t="inlineStr">
@@ -14151,7 +14151,7 @@
     <row r="175" ht="130" customHeight="1">
       <c r="A175" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1)</t>
+          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B175" s="3" t="inlineStr">
@@ -14226,7 +14226,7 @@
     <row r="176" ht="130" customHeight="1">
       <c r="A176" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1)</t>
+          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B176" s="3" t="inlineStr">
@@ -14308,7 +14308,7 @@
     <row r="177" ht="130" customHeight="1">
       <c r="A177" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1)</t>
+          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B177" s="3" t="inlineStr">
@@ -14390,7 +14390,7 @@
     <row r="178" ht="130" customHeight="1">
       <c r="A178" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1)</t>
+          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B178" s="3" t="inlineStr">
@@ -14472,7 +14472,7 @@
     <row r="179" ht="130" customHeight="1">
       <c r="A179" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),MA-4 (1) (a),AU-3</t>
+          <t>MA-4 (1) (a),AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B179" s="3" t="inlineStr">
@@ -14554,7 +14554,7 @@
     <row r="180" ht="130" customHeight="1">
       <c r="A180" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1)</t>
+          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B180" s="3" t="inlineStr">
@@ -14636,7 +14636,7 @@
     <row r="181" ht="130" customHeight="1">
       <c r="A181" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1)</t>
+          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B181" s="3" t="inlineStr">
@@ -14718,7 +14718,7 @@
     <row r="182" ht="130" customHeight="1">
       <c r="A182" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1)</t>
+          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B182" s="3" t="inlineStr">
@@ -14800,7 +14800,7 @@
     <row r="183" ht="130" customHeight="1">
       <c r="A183" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1)</t>
+          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B183" s="3" t="inlineStr">
@@ -14882,7 +14882,7 @@
     <row r="184" ht="130" customHeight="1">
       <c r="A184" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1)</t>
+          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B184" s="3" t="inlineStr">
@@ -14964,7 +14964,7 @@
     <row r="185" ht="130" customHeight="1">
       <c r="A185" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 c,MA-4 (1) (a)</t>
+          <t>AU-12 c,MA-4 (1) (a),AU-3 (1)</t>
         </is>
       </c>
       <c r="B185" s="3" t="inlineStr">
@@ -15042,7 +15042,7 @@
     <row r="186" ht="130" customHeight="1">
       <c r="A186" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1)</t>
+          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B186" s="3" t="inlineStr">
@@ -15121,7 +15121,7 @@
     <row r="187" ht="130" customHeight="1">
       <c r="A187" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1)</t>
+          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B187" s="3" t="inlineStr">
@@ -15203,7 +15203,7 @@
     <row r="188" ht="130" customHeight="1">
       <c r="A188" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1)</t>
+          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B188" s="3" t="inlineStr">
@@ -15285,7 +15285,7 @@
     <row r="189" ht="130" customHeight="1">
       <c r="A189" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 c,MA-4 (1) (a),AU-3</t>
+          <t>AU-12 c,MA-4 (1) (a),AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B189" s="3" t="inlineStr">
@@ -15367,7 +15367,7 @@
     <row r="190" ht="130" customHeight="1">
       <c r="A190" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1)</t>
+          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B190" s="3" t="inlineStr">
@@ -15449,7 +15449,7 @@
     <row r="191" ht="130" customHeight="1">
       <c r="A191" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1)</t>
+          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B191" s="3" t="inlineStr">
@@ -15531,7 +15531,7 @@
     <row r="192" ht="130" customHeight="1">
       <c r="A192" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1)</t>
+          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B192" s="3" t="inlineStr">
@@ -15613,7 +15613,7 @@
     <row r="193" ht="130" customHeight="1">
       <c r="A193" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1)</t>
+          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B193" s="3" t="inlineStr">
@@ -15688,7 +15688,7 @@
     <row r="194" ht="130" customHeight="1">
       <c r="A194" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,MA-4 (1) (a),AU-3,AU-3 (1),AC-2 (4)</t>
+          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),AC-2 (4),MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B194" s="3" t="inlineStr">
@@ -15761,7 +15761,7 @@
     <row r="195" ht="130" customHeight="1">
       <c r="A195" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,MA-4 (1) (a),AU-3,AU-3 (1),AC-2 (4)</t>
+          <t>AU-12 c,AU-3,AU-3 (1),AC-2 (4),MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B195" s="3" t="inlineStr">
@@ -15838,7 +15838,7 @@
     <row r="196" ht="130" customHeight="1">
       <c r="A196" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (4),IA-2 (2),IA-2 (3),IA-2 (1)</t>
+          <t>IA-2 (4),IA-2 (1),IA-2 (2),IA-2 (3)</t>
         </is>
       </c>
       <c r="B196" s="2" t="inlineStr">
@@ -15925,7 +15925,7 @@
     <row r="197" ht="130" customHeight="1">
       <c r="A197" s="2" t="inlineStr">
         <is>
-          <t>IA-2,IA-2 (4),IA-2 (5),IA-2 (3),IA-2 (2)</t>
+          <t>IA-2 (3),IA-2,IA-2 (5),IA-2 (2),IA-2 (4)</t>
         </is>
       </c>
       <c r="B197" s="2" t="inlineStr">
@@ -16014,7 +16014,7 @@
     <row r="198" ht="130" customHeight="1">
       <c r="A198" s="2" t="inlineStr">
         <is>
-          <t>IA-2,IA-2 (4),IA-2 (5),IA-2 (3),IA-2 (2)</t>
+          <t>IA-2 (3),IA-2,IA-2 (5),IA-2 (2),IA-2 (4)</t>
         </is>
       </c>
       <c r="B198" s="2" t="inlineStr">
@@ -16258,7 +16258,7 @@
     <row r="201" ht="130" customHeight="1">
       <c r="A201" s="2" t="inlineStr">
         <is>
-          <t>IA-11,AC-3 (4)</t>
+          <t>AC-3 (4),IA-11</t>
         </is>
       </c>
       <c r="B201" s="2" t="inlineStr">
@@ -16638,7 +16638,7 @@
     <row r="206" ht="130" customHeight="1">
       <c r="A206" s="2" t="inlineStr">
         <is>
-          <t>SC-8 (2),SC-8,SC-8 (1)</t>
+          <t>SC-8 (1),SC-8 (2),SC-8</t>
         </is>
       </c>
       <c r="B206" s="2" t="inlineStr">
@@ -16715,7 +16715,7 @@
     <row r="207" ht="130" customHeight="1">
       <c r="A207" s="2" t="inlineStr">
         <is>
-          <t>SC-8 (2),SC-8,SC-8 (1)</t>
+          <t>SC-8 (1),SC-8 (2),SC-8</t>
         </is>
       </c>
       <c r="B207" s="2" t="inlineStr">
@@ -16801,7 +16801,7 @@
     <row r="208" ht="130" customHeight="1">
       <c r="A208" s="2" t="inlineStr">
         <is>
-          <t>SC-8,AC-18 (1),SC-8 (1)</t>
+          <t>SC-8 (1),SC-8,AC-18 (1)</t>
         </is>
       </c>
       <c r="B208" s="2" t="inlineStr">
@@ -16887,7 +16887,7 @@
     <row r="209" ht="130" customHeight="1">
       <c r="A209" s="2" t="inlineStr">
         <is>
-          <t>AC-11 a,AC-11 (1)</t>
+          <t>AC-11 (1),AC-11 a</t>
         </is>
       </c>
       <c r="B209" s="2" t="inlineStr">
@@ -16976,7 +16976,7 @@
     <row r="210" ht="130" customHeight="1">
       <c r="A210" s="2" t="inlineStr">
         <is>
-          <t>AC-11 a,AC-11 (1)</t>
+          <t>AC-11 (1),AC-11 a</t>
         </is>
       </c>
       <c r="B210" s="2" t="inlineStr">
@@ -17229,7 +17229,7 @@
     <row r="213" ht="130" customHeight="1">
       <c r="A213" s="2" t="inlineStr">
         <is>
-          <t>CM-7 a,CM-6 b,IA-5 (1) (c)</t>
+          <t>CM-6 b,IA-5 (1) (c),CM-7 a</t>
         </is>
       </c>
       <c r="B213" s="2" t="inlineStr">
@@ -17387,37 +17387,37 @@
       <c r="Q214" s="3" t="n"/>
     </row>
     <row r="215" ht="130" customHeight="1">
-      <c r="A215" s="3" t="inlineStr">
-        <is>
-          <t>AU-12 a,CM-6 b</t>
-        </is>
-      </c>
-      <c r="B215" s="3" t="inlineStr">
+      <c r="A215" s="2" t="inlineStr">
+        <is>
+          <t>CM-6 b,AU-12 a</t>
+        </is>
+      </c>
+      <c r="B215" s="2" t="inlineStr">
         <is>
           <t>CCI-000366</t>
         </is>
       </c>
-      <c r="C215" s="3" t="inlineStr">
+      <c r="C215" s="2" t="inlineStr">
         <is>
           <t>SRG-OS-000062-GPOS-00031,SRG-OS-000480-GPOS-00227</t>
         </is>
       </c>
-      <c r="D215" s="3" t="inlineStr">
+      <c r="D215" s="2" t="inlineStr">
         <is>
           <t>CCE-83682-5</t>
         </is>
       </c>
-      <c r="E215" s="3" t="inlineStr">
+      <c r="E215" s="2" t="inlineStr">
         <is>
           <t>The operating system must provide audit record generation capability for DoD-defined auditable events for all operating system components.</t>
         </is>
       </c>
-      <c r="F215" s="3" t="inlineStr">
+      <c r="F215" s="2" t="inlineStr">
         <is>
           <t>Red Hat Enterprise Linux 9 must provide audit record generation capability for DoD-defined auditable events for all operating system components.</t>
         </is>
       </c>
-      <c r="G215" s="3" t="inlineStr">
+      <c r="G215" s="2" t="inlineStr">
         <is>
           <t>Without the capability to generate audit records, it would be difficult to establish, correlate, and investigate the events relating to an incident or identify those responsible for one.
 Audit records can be generated from various components within the information system (e.g., module or policy filter).
@@ -17429,18 +17429,18 @@
 4) All kernel module load, unload, and restart actions.</t>
         </is>
       </c>
-      <c r="H215" s="3" t="inlineStr">
+      <c r="H215" s="2" t="inlineStr">
         <is>
           <t>If option "local_events" isn't set to "yes" only events from
 network will be aggregated.</t>
         </is>
       </c>
-      <c r="I215" s="3" t="inlineStr">
-        <is>
-          <t>Applicable - Configurable</t>
-        </is>
-      </c>
-      <c r="J215" s="3" t="inlineStr">
+      <c r="I215" s="2" t="inlineStr">
+        <is>
+          <t>Applicable - Configurable</t>
+        </is>
+      </c>
+      <c r="J215" s="2" t="inlineStr">
         <is>
           <t>Verify the operating system provides audit record generation capability for DoD-defined auditable events for all operating system components. 
 DoD has defined the list of events for which the operating system will provide an audit record generation capability as the following: 
@@ -17451,7 +17451,7 @@
 If it does not, this is a finding.</t>
         </is>
       </c>
-      <c r="K215" s="3" t="inlineStr">
+      <c r="K215" s="2" t="inlineStr">
         <is>
           <t>To verify that Audit Daemon is configured to include local events, run the
 following command:
@@ -17461,21 +17461,26 @@
 If local_events isn't set to yes, then this is a finding.</t>
         </is>
       </c>
-      <c r="L215" s="3" t="n"/>
-      <c r="M215" s="3" t="inlineStr"/>
-      <c r="N215" s="3" t="inlineStr">
-        <is>
-          <t>CAT II</t>
-        </is>
-      </c>
-      <c r="O215" s="3" t="n"/>
-      <c r="P215" s="3" t="n"/>
-      <c r="Q215" s="3" t="n"/>
+      <c r="L215" s="2" t="n"/>
+      <c r="M215" s="2" t="inlineStr">
+        <is>
+          <t>Edit the file "/etc/audit/auditd.conf" and add or edit the following line:
+local_events = yes</t>
+        </is>
+      </c>
+      <c r="N215" s="2" t="inlineStr">
+        <is>
+          <t>CAT II</t>
+        </is>
+      </c>
+      <c r="O215" s="2" t="n"/>
+      <c r="P215" s="2" t="n"/>
+      <c r="Q215" s="2" t="n"/>
     </row>
     <row r="216" ht="130" customHeight="1">
       <c r="A216" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,SC-5 (2),SC-5</t>
+          <t>CM-6 b,SC-5,SC-5 (2)</t>
         </is>
       </c>
       <c r="B216" s="2" t="inlineStr">
@@ -17655,7 +17660,7 @@
     <row r="218" ht="130" customHeight="1">
       <c r="A218" s="2" t="inlineStr">
         <is>
-          <t>CM-7 a,SI-16</t>
+          <t>SI-16,CM-7 a</t>
         </is>
       </c>
       <c r="B218" s="2" t="inlineStr">
@@ -17747,7 +17752,7 @@
     <row r="219" ht="130" customHeight="1">
       <c r="A219" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,SI-16</t>
+          <t>SI-16,CM-6 b</t>
         </is>
       </c>
       <c r="B219" s="2" t="inlineStr">
@@ -17845,7 +17850,7 @@
     <row r="220" ht="130" customHeight="1">
       <c r="A220" s="2" t="inlineStr">
         <is>
-          <t>IA-2,AU-3 (1),IA-8</t>
+          <t>IA-8,IA-2,AU-3 (1)</t>
         </is>
       </c>
       <c r="B220" s="2" t="inlineStr">
@@ -18824,7 +18829,7 @@
     <row r="232" ht="130" customHeight="1">
       <c r="A232" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,SI-16,SC-2</t>
+          <t>SI-16,SC-2,CM-6 b</t>
         </is>
       </c>
       <c r="B232" s="2" t="inlineStr">
@@ -19170,7 +19175,7 @@
     <row r="236" ht="130" customHeight="1">
       <c r="A236" s="2" t="inlineStr">
         <is>
-          <t>CM-7 a,AC-18 (1)</t>
+          <t>AC-18 (1),CM-7 a</t>
         </is>
       </c>
       <c r="B236" s="2" t="inlineStr">
@@ -19252,61 +19257,61 @@
       <c r="Q236" s="2" t="n"/>
     </row>
     <row r="237" ht="130" customHeight="1">
-      <c r="A237" s="3" t="inlineStr">
+      <c r="A237" s="2" t="inlineStr">
         <is>
           <t>AU-6 (4)</t>
         </is>
       </c>
-      <c r="B237" s="3" t="inlineStr">
+      <c r="B237" s="2" t="inlineStr">
         <is>
           <t>CCI-000154</t>
         </is>
       </c>
-      <c r="C237" s="3" t="inlineStr">
+      <c r="C237" s="2" t="inlineStr">
         <is>
           <t>SRG-OS-000051-GPOS-00024</t>
         </is>
       </c>
-      <c r="D237" s="3" t="inlineStr">
+      <c r="D237" s="2" t="inlineStr">
         <is>
           <t>CCE-83704-7</t>
         </is>
       </c>
-      <c r="E237" s="3" t="inlineStr">
+      <c r="E237" s="2" t="inlineStr">
         <is>
           <t>The operating system must provide the capability to centrally review and analyze audit records from multiple components within the system.</t>
         </is>
       </c>
-      <c r="F237" s="3" t="inlineStr">
+      <c r="F237" s="2" t="inlineStr">
         <is>
           <t>Red Hat Enterprise Linux 9 must provide the capability to centrally review and analyze audit records from multiple components within the system.</t>
         </is>
       </c>
-      <c r="G237" s="3" t="inlineStr">
+      <c r="G237" s="2" t="inlineStr">
         <is>
           <t>Successful incident response and auditing relies on timely, accurate system information and analysis in order to allow the organization to identify and respond to potential incidents in a proficient manner. If the operating system does not provide the ability to centrally review the operating system logs, forensic analysis is negatively impacted.
 Segregation of logging data to multiple disparate computer systems is counterproductive and makes log analysis and log event alarming difficult to implement and manage, particularly when the system has multiple logging components writing to different locations or systems.
 To support the centralized capability, the operating system must be able to provide the information in a format that can be extracted and used, allowing the application performing the centralization of the log records to meet this requirement.</t>
         </is>
       </c>
-      <c r="H237" s="3" t="inlineStr">
+      <c r="H237" s="2" t="inlineStr">
         <is>
           <t>If option "freq" isn't set to "50", the flush to disk
 may happen after higher number of records, increasing the danger
 of audit loss.</t>
         </is>
       </c>
-      <c r="I237" s="3" t="inlineStr">
-        <is>
-          <t>Applicable - Configurable</t>
-        </is>
-      </c>
-      <c r="J237" s="3" t="inlineStr">
+      <c r="I237" s="2" t="inlineStr">
+        <is>
+          <t>Applicable - Configurable</t>
+        </is>
+      </c>
+      <c r="J237" s="2" t="inlineStr">
         <is>
           <t>Verify the operating system provides the capability to centrally review and analyze audit records from multiple components within the system. If it does not, this is a finding.</t>
         </is>
       </c>
-      <c r="K237" s="3" t="inlineStr">
+      <c r="K237" s="2" t="inlineStr">
         <is>
           <t>To verify that Audit Daemon is configured to flush to disk after
 every 50 records, run the following command:
@@ -19316,16 +19321,21 @@
 If freq isn't set to 50, then this is a finding.</t>
         </is>
       </c>
-      <c r="L237" s="3" t="n"/>
-      <c r="M237" s="3" t="inlineStr"/>
-      <c r="N237" s="3" t="inlineStr">
-        <is>
-          <t>CAT II</t>
-        </is>
-      </c>
-      <c r="O237" s="3" t="n"/>
-      <c r="P237" s="3" t="n"/>
-      <c r="Q237" s="3" t="n"/>
+      <c r="L237" s="2" t="n"/>
+      <c r="M237" s="2" t="inlineStr">
+        <is>
+          <t>Edit the file "/etc/audit/auditd.conf" and add or edit the following line:
+freq = 50</t>
+        </is>
+      </c>
+      <c r="N237" s="2" t="inlineStr">
+        <is>
+          <t>CAT II</t>
+        </is>
+      </c>
+      <c r="O237" s="2" t="n"/>
+      <c r="P237" s="2" t="n"/>
+      <c r="Q237" s="2" t="n"/>
     </row>
     <row r="238" ht="130" customHeight="1">
       <c r="A238" s="2" t="inlineStr">
@@ -20556,7 +20566,7 @@
     <row r="253" ht="130" customHeight="1">
       <c r="A253" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (11),IA-2 (1)</t>
+          <t>IA-2 (1),IA-2 (11)</t>
         </is>
       </c>
       <c r="B253" s="2" t="inlineStr">
@@ -21604,7 +21614,7 @@
     <row r="266" ht="130" customHeight="1">
       <c r="A266" s="2" t="inlineStr">
         <is>
-          <t>AU-9,AU-12 c</t>
+          <t>AU-12 c,AU-9</t>
         </is>
       </c>
       <c r="B266" s="2" t="inlineStr">
@@ -21687,7 +21697,7 @@
     <row r="267" ht="130" customHeight="1">
       <c r="A267" s="2" t="inlineStr">
         <is>
-          <t>CM-5 (3),CM-6 b</t>
+          <t>CM-6 b,CM-5 (3)</t>
         </is>
       </c>
       <c r="B267" s="2" t="inlineStr">
@@ -22377,7 +22387,7 @@
     <row r="275" ht="130" customHeight="1">
       <c r="A275" s="3" t="inlineStr">
         <is>
-          <t>CM-7 a,CM-6 b</t>
+          <t>CM-6 b,CM-7 a</t>
         </is>
       </c>
       <c r="B275" s="3" t="inlineStr">
@@ -22525,7 +22535,7 @@
     <row r="277" ht="130" customHeight="1">
       <c r="A277" s="2" t="inlineStr">
         <is>
-          <t>CM-7 b,CM-7 a</t>
+          <t>CM-7 a,CM-7 b</t>
         </is>
       </c>
       <c r="B277" s="2" t="inlineStr">
@@ -22605,7 +22615,7 @@
     <row r="278" ht="130" customHeight="1">
       <c r="A278" s="2" t="inlineStr">
         <is>
-          <t>CM-7 b,CM-7 a</t>
+          <t>CM-7 a,CM-7 b</t>
         </is>
       </c>
       <c r="B278" s="2" t="inlineStr">
@@ -23373,7 +23383,7 @@
     <row r="288" ht="130" customHeight="1">
       <c r="A288" s="3" t="inlineStr">
         <is>
-          <t>CM-7 a,CM-6 b</t>
+          <t>CM-6 b,CM-7 a</t>
         </is>
       </c>
       <c r="B288" s="3" t="inlineStr">
@@ -23444,7 +23454,7 @@
     <row r="289" ht="130" customHeight="1">
       <c r="A289" s="3" t="inlineStr">
         <is>
-          <t>CM-7 a,CM-6 b</t>
+          <t>CM-6 b,CM-7 a</t>
         </is>
       </c>
       <c r="B289" s="3" t="inlineStr">
@@ -23516,7 +23526,7 @@
     <row r="290" ht="130" customHeight="1">
       <c r="A290" s="3" t="inlineStr">
         <is>
-          <t>CM-7 a,CM-6 b</t>
+          <t>CM-6 b,CM-7 a</t>
         </is>
       </c>
       <c r="B290" s="3" t="inlineStr">
@@ -23674,7 +23684,7 @@
     <row r="292" ht="130" customHeight="1">
       <c r="A292" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AC-6 (9),AC-2 (4)</t>
+          <t>AU-12 c,AC-2 (4),AC-6 (9)</t>
         </is>
       </c>
       <c r="B292" s="3" t="inlineStr">
@@ -23891,7 +23901,7 @@
     <row r="294" ht="130" customHeight="1">
       <c r="A294" s="3" t="inlineStr">
         <is>
-          <t>AU-5 a,AU-5 (1)</t>
+          <t>AU-5 (1),AU-5 a</t>
         </is>
       </c>
       <c r="B294" s="3" t="inlineStr">
@@ -27484,7 +27494,7 @@
     <row r="342" ht="130" customHeight="1">
       <c r="A342" s="3" t="inlineStr">
         <is>
-          <t>CM-5 (1),CM-6 b</t>
+          <t>CM-6 b,CM-5 (1)</t>
         </is>
       </c>
       <c r="B342" s="3" t="inlineStr">
@@ -27558,7 +27568,7 @@
     <row r="343" ht="130" customHeight="1">
       <c r="A343" s="3" t="inlineStr">
         <is>
-          <t>CM-5 (1),CM-6 b</t>
+          <t>CM-6 b,CM-5 (1)</t>
         </is>
       </c>
       <c r="B343" s="3" t="inlineStr">
@@ -28143,7 +28153,7 @@
     <row r="351" ht="130" customHeight="1">
       <c r="A351" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,AC-17 (2)</t>
+          <t>AC-17 (2),CM-6 b</t>
         </is>
       </c>
       <c r="B351" s="2" t="inlineStr">
@@ -29878,59 +29888,59 @@
       <c r="Q373" s="3" t="n"/>
     </row>
     <row r="374" ht="130" customHeight="1">
-      <c r="A374" s="3" t="inlineStr">
+      <c r="A374" s="2" t="inlineStr">
         <is>
           <t>CM-6 b,AU-3</t>
         </is>
       </c>
-      <c r="B374" s="3" t="inlineStr">
+      <c r="B374" s="2" t="inlineStr">
         <is>
           <t>CCI-000366</t>
         </is>
       </c>
-      <c r="C374" s="3" t="inlineStr">
+      <c r="C374" s="2" t="inlineStr">
         <is>
           <t>SRG-OS-000255-GPOS-00096,SRG-OS-000480-GPOS-00227</t>
         </is>
       </c>
-      <c r="D374" s="3" t="inlineStr">
+      <c r="D374" s="2" t="inlineStr">
         <is>
           <t>CCE-83696-5</t>
         </is>
       </c>
-      <c r="E374" s="3" t="inlineStr">
+      <c r="E374" s="2" t="inlineStr">
         <is>
           <t>The operating system must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
         </is>
       </c>
-      <c r="F374" s="3" t="inlineStr">
+      <c r="F374" s="2" t="inlineStr">
         <is>
           <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
         </is>
       </c>
-      <c r="G374" s="3" t="inlineStr">
+      <c r="G374" s="2" t="inlineStr">
         <is>
           <t>Configuring the operating system to implement organization-wide security implementation guides and security checklists ensures compliance with federal standards and establishes a common security baseline across DoD that reflects the most restrictive security posture consistent with operational requirements.
 Configuration settings are the set of parameters that can be changed in hardware, software, or firmware components of the system that affect the security posture and/or functionality of the system. Security-related parameters are those parameters impacting the security state of the system, including the parameters required to satisfy other security control requirements. Security-related parameters include, for example: registry settings; account, file, directory permission settings; and settings for functions, ports, protocols, services, and remote connections.</t>
         </is>
       </c>
-      <c r="H374" s="3" t="inlineStr">
+      <c r="H374" s="2" t="inlineStr">
         <is>
           <t>If option "log_format" isn't set to "ENRICHED", the
 audit records will be stored in a format exactly as the kernel sends them.</t>
         </is>
       </c>
-      <c r="I374" s="3" t="inlineStr">
-        <is>
-          <t>Applicable - Configurable</t>
-        </is>
-      </c>
-      <c r="J374" s="3" t="inlineStr">
+      <c r="I374" s="2" t="inlineStr">
+        <is>
+          <t>Applicable - Configurable</t>
+        </is>
+      </c>
+      <c r="J374" s="2" t="inlineStr">
         <is>
           <t>Verify the operating system is configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs. If it is not, this is a finding.</t>
         </is>
       </c>
-      <c r="K374" s="3" t="inlineStr">
+      <c r="K374" s="2" t="inlineStr">
         <is>
           <t>To verify that Audit Daemon is configured to resolve all uid, gid, syscall,
 architecture, and socket address information before writing the event to disk,
@@ -29941,71 +29951,76 @@
 If log_format isn't set to ENRICHED, then this is a finding.</t>
         </is>
       </c>
-      <c r="L374" s="3" t="n"/>
-      <c r="M374" s="3" t="inlineStr"/>
-      <c r="N374" s="3" t="inlineStr">
-        <is>
-          <t>CAT II</t>
-        </is>
-      </c>
-      <c r="O374" s="3" t="n"/>
-      <c r="P374" s="3" t="n"/>
-      <c r="Q374" s="3" t="n"/>
+      <c r="L374" s="2" t="n"/>
+      <c r="M374" s="2" t="inlineStr">
+        <is>
+          <t>Edit the file "/etc/audit/auditd.conf" and add or edit the following line:
+log_format = ENRICHED</t>
+        </is>
+      </c>
+      <c r="N374" s="2" t="inlineStr">
+        <is>
+          <t>CAT II</t>
+        </is>
+      </c>
+      <c r="O374" s="2" t="n"/>
+      <c r="P374" s="2" t="n"/>
+      <c r="Q374" s="2" t="n"/>
     </row>
     <row r="375" ht="130" customHeight="1">
-      <c r="A375" s="3" t="inlineStr">
+      <c r="A375" s="2" t="inlineStr">
         <is>
           <t>CM-6 b</t>
         </is>
       </c>
-      <c r="B375" s="3" t="inlineStr">
+      <c r="B375" s="2" t="inlineStr">
         <is>
           <t>CCI-000366</t>
         </is>
       </c>
-      <c r="C375" s="3" t="inlineStr">
+      <c r="C375" s="2" t="inlineStr">
         <is>
           <t>SRG-OS-000480-GPOS-00227</t>
         </is>
       </c>
-      <c r="D375" s="3" t="inlineStr">
+      <c r="D375" s="2" t="inlineStr">
         <is>
           <t>CCE-83705-4</t>
         </is>
       </c>
-      <c r="E375" s="3" t="inlineStr">
+      <c r="E375" s="2" t="inlineStr">
         <is>
           <t>The operating system must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
         </is>
       </c>
-      <c r="F375" s="3" t="inlineStr">
+      <c r="F375" s="2" t="inlineStr">
         <is>
           <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
         </is>
       </c>
-      <c r="G375" s="3" t="inlineStr">
+      <c r="G375" s="2" t="inlineStr">
         <is>
           <t>Configuring the operating system to implement organization-wide security implementation guides and security checklists ensures compliance with federal standards and establishes a common security baseline across DoD that reflects the most restrictive security posture consistent with operational requirements.
 Configuration settings are the set of parameters that can be changed in hardware, software, or firmware components of the system that affect the security posture and/or functionality of the system. Security-related parameters are those parameters impacting the security state of the system, including the parameters required to satisfy other security control requirements. Security-related parameters include, for example: registry settings; account, file, directory permission settings; and settings for functions, ports, protocols, services, and remote connections.</t>
         </is>
       </c>
-      <c r="H375" s="3" t="inlineStr">
+      <c r="H375" s="2" t="inlineStr">
         <is>
           <t>If "write_logs" isn't set to "yes", the Audit logs will
 not be written to the disk.</t>
         </is>
       </c>
-      <c r="I375" s="3" t="inlineStr">
-        <is>
-          <t>Applicable - Configurable</t>
-        </is>
-      </c>
-      <c r="J375" s="3" t="inlineStr">
+      <c r="I375" s="2" t="inlineStr">
+        <is>
+          <t>Applicable - Configurable</t>
+        </is>
+      </c>
+      <c r="J375" s="2" t="inlineStr">
         <is>
           <t>Verify the operating system is configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs. If it is not, this is a finding.</t>
         </is>
       </c>
-      <c r="K375" s="3" t="inlineStr">
+      <c r="K375" s="2" t="inlineStr">
         <is>
           <t>To verify that Audit Daemon is configured to write logs to the disk, run the
 following command:
@@ -30015,16 +30030,21 @@
 If write_logs isn't set to yes, then this is a finding.</t>
         </is>
       </c>
-      <c r="L375" s="3" t="n"/>
-      <c r="M375" s="3" t="inlineStr"/>
-      <c r="N375" s="3" t="inlineStr">
-        <is>
-          <t>CAT II</t>
-        </is>
-      </c>
-      <c r="O375" s="3" t="n"/>
-      <c r="P375" s="3" t="n"/>
-      <c r="Q375" s="3" t="n"/>
+      <c r="L375" s="2" t="n"/>
+      <c r="M375" s="2" t="inlineStr">
+        <is>
+          <t>Edit the file "/etc/audit/auditd.conf" and add or edit the following line:
+write_logs = yes</t>
+        </is>
+      </c>
+      <c r="N375" s="2" t="inlineStr">
+        <is>
+          <t>CAT II</t>
+        </is>
+      </c>
+      <c r="O375" s="2" t="n"/>
+      <c r="P375" s="2" t="n"/>
+      <c r="Q375" s="2" t="n"/>
     </row>
     <row r="376" ht="130" customHeight="1">
       <c r="A376" s="3" t="inlineStr">
@@ -30518,7 +30538,7 @@
     <row r="382" ht="130" customHeight="1">
       <c r="A382" s="2" t="inlineStr">
         <is>
-          <t>CM-7 b,AC-17 (1),CM-6 b,AC-17 (9)</t>
+          <t>CM-6 b,AC-17 (9),AC-17 (1),CM-7 b</t>
         </is>
       </c>
       <c r="B382" s="2" t="inlineStr">
@@ -30596,7 +30616,7 @@
     <row r="383" ht="130" customHeight="1">
       <c r="A383" s="2" t="inlineStr">
         <is>
-          <t>CM-7 b,AC-17 (1),CM-6 b</t>
+          <t>CM-6 b,AC-17 (1),CM-7 b</t>
         </is>
       </c>
       <c r="B383" s="2" t="inlineStr">
@@ -34925,7 +34945,7 @@
     <row r="435" ht="130" customHeight="1">
       <c r="A435" s="2" t="inlineStr">
         <is>
-          <t>AU-4,CM-6 b</t>
+          <t>CM-6 b,AU-4</t>
         </is>
       </c>
       <c r="B435" s="2" t="inlineStr">
@@ -35714,7 +35734,7 @@
     <row r="445" ht="130" customHeight="1">
       <c r="A445" s="3" t="inlineStr">
         <is>
-          <t>SI-2 (2),CM-6 b</t>
+          <t>CM-6 b,SI-2 (2)</t>
         </is>
       </c>
       <c r="B445" s="3" t="inlineStr">
@@ -36361,7 +36381,7 @@
     <row r="454" ht="130" customHeight="1">
       <c r="A454" s="3" t="inlineStr">
         <is>
-          <t>SI-2 (2),CM-6 b</t>
+          <t>CM-6 b,SI-2 (2)</t>
         </is>
       </c>
       <c r="B454" s="3" t="inlineStr">
@@ -36652,7 +36672,7 @@
     <row r="458" ht="130" customHeight="1">
       <c r="A458" s="3" t="inlineStr">
         <is>
-          <t>AC-12,SC-10,MA-4 (7),MA-4 e</t>
+          <t>MA-4 e,MA-4 (7),SC-10,AC-12</t>
         </is>
       </c>
       <c r="B458" s="3" t="inlineStr">
@@ -36727,7 +36747,7 @@
     <row r="459" ht="130" customHeight="1">
       <c r="A459" s="3" t="inlineStr">
         <is>
-          <t>AC-12,SC-10</t>
+          <t>SC-10,AC-12</t>
         </is>
       </c>
       <c r="B459" s="3" t="inlineStr">
@@ -36806,7 +36826,7 @@
     <row r="460" ht="130" customHeight="1">
       <c r="A460" s="3" t="inlineStr">
         <is>
-          <t>AC-12,SC-10</t>
+          <t>SC-10,AC-12</t>
         </is>
       </c>
       <c r="B460" s="3" t="inlineStr">
@@ -36959,7 +36979,7 @@
     <row r="462" ht="130" customHeight="1">
       <c r="A462" s="2" t="inlineStr">
         <is>
-          <t>SC-8,SC-8 (1),AC-17 (2)</t>
+          <t>AC-17 (2),SC-8,SC-8 (1)</t>
         </is>
       </c>
       <c r="B462" s="2" t="inlineStr">
@@ -38267,7 +38287,7 @@
     <row r="479" ht="130" customHeight="1">
       <c r="A479" s="2" t="inlineStr">
         <is>
-          <t>CM-7 b,IA-3</t>
+          <t>IA-3,CM-7 b</t>
         </is>
       </c>
       <c r="B479" s="2" t="inlineStr">
@@ -38586,7 +38606,7 @@
     <row r="483" ht="130" customHeight="1">
       <c r="A483" s="2" t="inlineStr">
         <is>
-          <t>CM-7 b,AC-17 (1)</t>
+          <t>AC-17 (1),CM-7 b</t>
         </is>
       </c>
       <c r="B483" s="2" t="inlineStr">
@@ -42619,7 +42639,7 @@
     <row r="533" ht="130" customHeight="1">
       <c r="A533" s="2" t="inlineStr">
         <is>
-          <t>SC-8,AC-17 (2)</t>
+          <t>AC-17 (2),SC-8</t>
         </is>
       </c>
       <c r="B533" s="2" t="inlineStr">

--- a/srg_mapping/srg-mapping-rhel9.xlsx
+++ b/srg_mapping/srg-mapping-rhel9.xlsx
@@ -971,37 +971,37 @@
       <c r="Q6" s="2" t="n"/>
     </row>
     <row r="7" ht="130" customHeight="1">
-      <c r="A7" s="3" t="inlineStr">
-        <is>
-          <t>AU-5 b,AU-5 a</t>
-        </is>
-      </c>
-      <c r="B7" s="3" t="inlineStr">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>AU-5 a,AU-5 b</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
         <is>
           <t>CCI-000139,CCI-000140</t>
         </is>
       </c>
-      <c r="C7" s="3" t="inlineStr">
+      <c r="C7" s="2" t="inlineStr">
         <is>
           <t>SRG-OS-000046-GPOS-00022,SRG-OS-000047-GPOS-00023</t>
         </is>
       </c>
-      <c r="D7" s="3" t="inlineStr">
+      <c r="D7" s="2" t="inlineStr">
         <is>
           <t>CCE-83709-6</t>
         </is>
       </c>
-      <c r="E7" s="3" t="inlineStr">
+      <c r="E7" s="2" t="inlineStr">
         <is>
           <t>The operating system must shut down by default upon audit failure (unless availability is an overriding concern).</t>
         </is>
       </c>
-      <c r="F7" s="3" t="inlineStr">
+      <c r="F7" s="2" t="inlineStr">
         <is>
           <t>Red Hat Enterprise Linux 9 must shut down by default upon audit failure (unless availability is an overriding concern).</t>
         </is>
       </c>
-      <c r="G7" s="3" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr">
         <is>
           <t>It is critical that when the operating system is at risk of failing to process audit logs as required, it takes action to mitigate the failure. Audit processing failures include: software/hardware errors; failures in the audit capturing mechanisms; and audit storage capacity being reached or exceeded. Responses to audit failure depend upon the nature of the failure mode.
 When availability is an overriding concern, other approved actions in response to an audit failure are as follows: 
@@ -1009,7 +1009,7 @@
 2) If audit records are sent to a centralized collection server and communication with this server is lost or the server fails, the operating system must queue audit records locally until communication is restored or until the audit records are retrieved manually. Upon restoration of the connection to the centralized collection server, action should be taken to synchronize the local audit data with the collection server.</t>
         </is>
       </c>
-      <c r="H7" s="3" t="inlineStr">
+      <c r="H7" s="2" t="inlineStr">
         <is>
           <t>It is critical for the appropriate personnel to be aware if a system
 is at risk of failing to process audit logs as required. Without this
@@ -1020,17 +1020,17 @@
 exceeded.</t>
         </is>
       </c>
-      <c r="I7" s="3" t="inlineStr">
-        <is>
-          <t>Applicable - Configurable</t>
-        </is>
-      </c>
-      <c r="J7" s="3" t="inlineStr">
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>Applicable - Configurable</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
         <is>
           <t>Verify the operating system shuts down by default upon audit failure (unless availability is an overriding concern). If it does not, this is a finding.</t>
         </is>
       </c>
-      <c r="K7" s="3" t="inlineStr">
+      <c r="K7" s="2" t="inlineStr">
         <is>
           <t>To verify that the system will shutdown when "auditd" fails,
 run the following command:
@@ -1040,16 +1040,28 @@
 If the system is not configured to shutdown on auditd failures, then this is a finding.</t>
         </is>
       </c>
-      <c r="L7" s="3" t="n"/>
-      <c r="M7" s="3" t="inlineStr"/>
-      <c r="N7" s="3" t="inlineStr">
-        <is>
-          <t>CAT II</t>
-        </is>
-      </c>
-      <c r="O7" s="3" t="n"/>
-      <c r="P7" s="3" t="n"/>
-      <c r="Q7" s="3" t="n"/>
+      <c r="L7" s="2" t="n"/>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>Configure Red Hat Enterprise Linux 9 to shutdown when auditing failures occur.
+If the auditd daemon is configured to use the augenrules program to read
+audit rules during daemon startup (the default), add the following line to
+the bottom of "/etc/audit/rules.d/immutable.rules":
+-f 2
+If the auditd daemon is configured to use the auditctl utility to read
+audit rules during daemon startup, add the following line to the
+bottom of the /etc/audit/audit.rules file:
+-f 2</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>CAT II</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="n"/>
+      <c r="P7" s="2" t="n"/>
+      <c r="Q7" s="2" t="n"/>
     </row>
     <row r="8" ht="130" customHeight="1">
       <c r="A8" s="3" t="inlineStr">
@@ -1427,11 +1439,11 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>For every temporary and emergency account, run the following command
+          <t>For every temporary account, run the following command
 to obtain its account aging and expiration information:
  $ sudo chage -l  USER  
 Verify each of these accounts has an expiration date set as documented.
-If any temporary or emergency accounts have no expiration date set or do not expire within a documented time frame, then this is a finding.</t>
+If any temporary accounts have no expiration date set or do not expire within a documented time frame, then this is a finding.</t>
         </is>
       </c>
       <c r="L12" s="2" t="n"/>
@@ -1455,7 +1467,7 @@
     <row r="13" ht="130" customHeight="1">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>AU-12 a,AU-6 (4),AU-7 a,AU-14 (1),MA-4 (1) (a),AU-3,AU-3 (1),CM-6 b,AU-7 (1),CM-5 (1)</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-7 a,CM-6 b,AU-7 (1),AU-6 (4),AU-3,AU-3 (1),AU-14 (1),CM-5 (1)</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
@@ -3258,7 +3270,7 @@
     <row r="37" ht="130" customHeight="1">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,AU-14 (1),AU-3,AU-3 (1),MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-14 (1),AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
@@ -3349,7 +3361,7 @@
     <row r="38" ht="130" customHeight="1">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>AU-14 (1),AU-4</t>
+          <t>AU-4,AU-14 (1)</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
@@ -3832,7 +3844,7 @@
     <row r="44" ht="130" customHeight="1">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>AU-6 (4),CM-6 b,AU-4 (1)</t>
+          <t>CM-6 b,AU-4 (1),AU-6 (4)</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
@@ -4148,7 +4160,7 @@
     <row r="48" ht="130" customHeight="1">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (11),IA-2 (12)</t>
+          <t>IA-2 (12),IA-2 (11)</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
@@ -4234,7 +4246,7 @@
     <row r="49" ht="130" customHeight="1">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (1),IA-2 (11),IA-2 (12)</t>
+          <t>IA-2 (1),IA-2 (12),IA-2 (11)</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
@@ -4318,7 +4330,7 @@
     <row r="50" ht="130" customHeight="1">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>CM-3 (5),SI-6 b,SI-6 d</t>
+          <t>SI-6 d,SI-6 b,CM-3 (5)</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
@@ -4410,7 +4422,7 @@
     <row r="51" ht="130" customHeight="1">
       <c r="A51" s="3" t="inlineStr">
         <is>
-          <t>CM-3 (5),SI-6 d</t>
+          <t>SI-6 d,CM-3 (5)</t>
         </is>
       </c>
       <c r="B51" s="3" t="inlineStr">
@@ -4494,7 +4506,7 @@
     <row r="52" ht="130" customHeight="1">
       <c r="A52" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B52" s="3" t="inlineStr">
@@ -4569,7 +4581,7 @@
     <row r="53" ht="130" customHeight="1">
       <c r="A53" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B53" s="3" t="inlineStr">
@@ -4644,7 +4656,7 @@
     <row r="54" ht="130" customHeight="1">
       <c r="A54" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B54" s="3" t="inlineStr">
@@ -4719,7 +4731,7 @@
     <row r="55" ht="130" customHeight="1">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B55" s="3" t="inlineStr">
@@ -4794,7 +4806,7 @@
     <row r="56" ht="130" customHeight="1">
       <c r="A56" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B56" s="3" t="inlineStr">
@@ -4869,7 +4881,7 @@
     <row r="57" ht="130" customHeight="1">
       <c r="A57" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B57" s="3" t="inlineStr">
@@ -4944,7 +4956,7 @@
     <row r="58" ht="130" customHeight="1">
       <c r="A58" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B58" s="3" t="inlineStr">
@@ -5019,7 +5031,7 @@
     <row r="59" ht="130" customHeight="1">
       <c r="A59" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B59" s="3" t="inlineStr">
@@ -5094,7 +5106,7 @@
     <row r="60" ht="130" customHeight="1">
       <c r="A60" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B60" s="3" t="inlineStr">
@@ -5169,7 +5181,7 @@
     <row r="61" ht="130" customHeight="1">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,AU-7 a,AU-7 b,AU-8 b,CM-6 b,CM-5 (1),AU-12 (3)</t>
+          <t>AU-7 a,AU-12 c,AU-12 (3),AU-8 b,CM-6 b,AU-7 b,AU-12 a,CM-5 (1)</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
@@ -5243,7 +5255,7 @@
     <row r="62" ht="130" customHeight="1">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),AC-2 (4),MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 a,AC-2 (4),AU-12 c,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
@@ -5324,7 +5336,7 @@
     <row r="63" ht="130" customHeight="1">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),AC-2 (4),MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 a,AC-2 (4),AU-12 c,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
@@ -5405,7 +5417,7 @@
     <row r="64" ht="130" customHeight="1">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),AC-2 (4),MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 a,AC-2 (4),AU-12 c,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
@@ -5487,7 +5499,7 @@
     <row r="65" ht="130" customHeight="1">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),AC-2 (4),MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 a,AC-2 (4),AU-12 c,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
@@ -5569,7 +5581,7 @@
     <row r="66" ht="130" customHeight="1">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),AC-2 (4),MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 a,AC-2 (4),AU-12 c,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
@@ -5651,7 +5663,7 @@
     <row r="67" ht="130" customHeight="1">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),AC-2 (4),MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 a,AC-2 (4),AU-12 c,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
@@ -5733,7 +5745,7 @@
     <row r="68" ht="130" customHeight="1">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),AC-2 (4),MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 a,AC-2 (4),AU-12 c,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
@@ -5815,7 +5827,7 @@
     <row r="69" ht="130" customHeight="1">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>CM-3 (5),SI-6 a</t>
+          <t>SI-6 a,CM-3 (5)</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
@@ -6853,7 +6865,7 @@
     <row r="82" ht="130" customHeight="1">
       <c r="A82" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B82" s="3" t="inlineStr">
@@ -6927,7 +6939,7 @@
     <row r="83" ht="130" customHeight="1">
       <c r="A83" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B83" s="3" t="inlineStr">
@@ -7001,7 +7013,7 @@
     <row r="84" ht="130" customHeight="1">
       <c r="A84" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B84" s="3" t="inlineStr">
@@ -7075,7 +7087,7 @@
     <row r="85" ht="130" customHeight="1">
       <c r="A85" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B85" s="3" t="inlineStr">
@@ -7651,7 +7663,7 @@
     <row r="92" ht="130" customHeight="1">
       <c r="A92" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B92" s="3" t="inlineStr">
@@ -7726,7 +7738,7 @@
     <row r="93" ht="130" customHeight="1">
       <c r="A93" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B93" s="3" t="inlineStr">
@@ -7801,7 +7813,7 @@
     <row r="94" ht="130" customHeight="1">
       <c r="A94" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B94" s="3" t="inlineStr">
@@ -7876,7 +7888,7 @@
     <row r="95" ht="130" customHeight="1">
       <c r="A95" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B95" s="3" t="inlineStr">
@@ -7956,7 +7968,7 @@
     <row r="96" ht="130" customHeight="1">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
@@ -8038,7 +8050,7 @@
     <row r="97" ht="130" customHeight="1">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B97" s="2" t="inlineStr">
@@ -8120,7 +8132,7 @@
     <row r="98" ht="130" customHeight="1">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B98" s="2" t="inlineStr">
@@ -8202,7 +8214,7 @@
     <row r="99" ht="130" customHeight="1">
       <c r="A99" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B99" s="2" t="inlineStr">
@@ -8284,7 +8296,7 @@
     <row r="100" ht="130" customHeight="1">
       <c r="A100" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B100" s="2" t="inlineStr">
@@ -8366,7 +8378,7 @@
     <row r="101" ht="130" customHeight="1">
       <c r="A101" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B101" s="3" t="inlineStr">
@@ -8446,7 +8458,7 @@
     <row r="102" ht="130" customHeight="1">
       <c r="A102" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B102" s="3" t="inlineStr">
@@ -8526,7 +8538,7 @@
     <row r="103" ht="130" customHeight="1">
       <c r="A103" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B103" s="3" t="inlineStr">
@@ -8606,7 +8618,7 @@
     <row r="104" ht="130" customHeight="1">
       <c r="A104" s="2" t="inlineStr">
         <is>
-          <t>AC-11 (1),AC-11 b</t>
+          <t>AC-11 b,AC-11 (1)</t>
         </is>
       </c>
       <c r="B104" s="2" t="inlineStr">
@@ -8777,7 +8789,7 @@
     <row r="106" ht="130" customHeight="1">
       <c r="A106" s="2" t="inlineStr">
         <is>
-          <t>AC-6 (10),AC-11 b</t>
+          <t>AC-11 b,AC-6 (10)</t>
         </is>
       </c>
       <c r="B106" s="2" t="inlineStr">
@@ -8856,7 +8868,7 @@
     <row r="107" ht="130" customHeight="1">
       <c r="A107" s="2" t="inlineStr">
         <is>
-          <t>AC-11 a,AC-11 b</t>
+          <t>AC-11 b,AC-11 a</t>
         </is>
       </c>
       <c r="B107" s="2" t="inlineStr">
@@ -8935,7 +8947,7 @@
     <row r="108" ht="130" customHeight="1">
       <c r="A108" s="2" t="inlineStr">
         <is>
-          <t>AC-11 a,AC-11 b</t>
+          <t>AC-11 b,AC-11 a</t>
         </is>
       </c>
       <c r="B108" s="2" t="inlineStr">
@@ -9022,7 +9034,7 @@
     <row r="109" ht="130" customHeight="1">
       <c r="A109" s="2" t="inlineStr">
         <is>
-          <t>AC-11 a,AC-11 b</t>
+          <t>AC-11 b,AC-11 a</t>
         </is>
       </c>
       <c r="B109" s="2" t="inlineStr">
@@ -9109,7 +9121,7 @@
     <row r="110" ht="130" customHeight="1">
       <c r="A110" s="3" t="inlineStr">
         <is>
-          <t>AC-11 a,AC-11 b</t>
+          <t>AC-11 b,AC-11 a</t>
         </is>
       </c>
       <c r="B110" s="3" t="inlineStr">
@@ -9354,7 +9366,7 @@
     <row r="113" ht="130" customHeight="1">
       <c r="A113" s="2" t="inlineStr">
         <is>
-          <t>AC-17 (2),MA-4 c,SC-13,SC-8</t>
+          <t>AC-17 (2),SC-13,MA-4 c,SC-8</t>
         </is>
       </c>
       <c r="B113" s="2" t="inlineStr">
@@ -9436,7 +9448,7 @@
     <row r="114" ht="130" customHeight="1">
       <c r="A114" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B114" s="2" t="inlineStr">
@@ -9514,7 +9526,7 @@
     <row r="115" ht="130" customHeight="1">
       <c r="A115" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B115" s="2" t="inlineStr">
@@ -9592,7 +9604,7 @@
     <row r="116" ht="130" customHeight="1">
       <c r="A116" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B116" s="2" t="inlineStr">
@@ -9670,7 +9682,7 @@
     <row r="117" ht="130" customHeight="1">
       <c r="A117" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B117" s="3" t="inlineStr">
@@ -9750,7 +9762,7 @@
     <row r="118" ht="130" customHeight="1">
       <c r="A118" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B118" s="3" t="inlineStr">
@@ -9819,7 +9831,7 @@
     <row r="119" ht="130" customHeight="1">
       <c r="A119" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B119" s="3" t="inlineStr">
@@ -9888,7 +9900,7 @@
     <row r="120" ht="130" customHeight="1">
       <c r="A120" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B120" s="3" t="inlineStr">
@@ -9957,7 +9969,7 @@
     <row r="121" ht="130" customHeight="1">
       <c r="A121" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B121" s="3" t="inlineStr">
@@ -10026,7 +10038,7 @@
     <row r="122" ht="130" customHeight="1">
       <c r="A122" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B122" s="3" t="inlineStr">
@@ -10106,7 +10118,7 @@
     <row r="123" ht="130" customHeight="1">
       <c r="A123" s="2" t="inlineStr">
         <is>
-          <t>SC-28 (1),SC-28</t>
+          <t>SC-28,SC-28 (1)</t>
         </is>
       </c>
       <c r="B123" s="2" t="inlineStr">
@@ -10223,7 +10235,14 @@
 Techniques used to address this include protocols using nonces (e.g., numbers generated for a specific one-time use) or challenges (e.g., TLS, WS_Security). Additional techniques include time-synchronous or challenge-response one-time authenticators.</t>
         </is>
       </c>
-      <c r="H124" s="2" t="inlineStr"/>
+      <c r="H124" s="2" t="inlineStr">
+        <is>
+          <t>A replay attack may enable an unauthorized user to gain access to Red Hat Enterprise Linux 9. Authentication sessions between the authenticator and Red Hat Enterprise Linux 9 validating the user credentials must not be vulnerable to a replay attack.
+An authentication process resists replay attacks if it is impractical to achieve a successful authentication by recording and replaying a previous authentication message.
+A privileged account is any information system account with authorizations of a privileged user.
+Techniques used to address this include protocols using nonces (e.g., numbers generated for a specific one-time use) or challenges (e.g., TLS, WS_Security). Additional techniques include time-synchronous or challenge-response one-time authenticators.</t>
+        </is>
+      </c>
       <c r="I124" s="2" t="inlineStr">
         <is>
           <t>Applicable - Inherently Met</t>
@@ -10873,7 +10892,7 @@
     <row r="133" ht="130" customHeight="1">
       <c r="A133" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,AC-6 (10)</t>
+          <t>AC-6 (10),CM-6 b</t>
         </is>
       </c>
       <c r="B133" s="2" t="inlineStr">
@@ -10954,7 +10973,7 @@
     <row r="134" ht="130" customHeight="1">
       <c r="A134" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,AC-6 (10)</t>
+          <t>AC-6 (10),CM-6 b</t>
         </is>
       </c>
       <c r="B134" s="2" t="inlineStr">
@@ -11040,7 +11059,7 @@
     <row r="135" ht="130" customHeight="1">
       <c r="A135" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,AC-6 (10)</t>
+          <t>AC-6 (10),CM-6 b</t>
         </is>
       </c>
       <c r="B135" s="2" t="inlineStr">
@@ -11133,7 +11152,7 @@
     <row r="136" ht="130" customHeight="1">
       <c r="A136" s="2" t="inlineStr">
         <is>
-          <t>AC-3 (4),AC-6 (10)</t>
+          <t>AC-6 (10),AC-3 (4)</t>
         </is>
       </c>
       <c r="B136" s="2" t="inlineStr">
@@ -11230,7 +11249,7 @@
     <row r="137" ht="130" customHeight="1">
       <c r="A137" s="2" t="inlineStr">
         <is>
-          <t>AC-3 (4),AC-6 (10)</t>
+          <t>AC-6 (10),AC-3 (4)</t>
         </is>
       </c>
       <c r="B137" s="2" t="inlineStr">
@@ -11406,7 +11425,7 @@
     <row r="139" ht="130" customHeight="1">
       <c r="A139" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B139" s="3" t="inlineStr">
@@ -11486,7 +11505,7 @@
     <row r="140" ht="130" customHeight="1">
       <c r="A140" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B140" s="3" t="inlineStr">
@@ -11566,7 +11585,7 @@
     <row r="141" ht="130" customHeight="1">
       <c r="A141" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B141" s="3" t="inlineStr">
@@ -11646,7 +11665,7 @@
     <row r="142" ht="130" customHeight="1">
       <c r="A142" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B142" s="3" t="inlineStr">
@@ -11958,7 +11977,7 @@
     <row r="146" ht="130" customHeight="1">
       <c r="A146" s="2" t="inlineStr">
         <is>
-          <t>IA-7,IA-5 (1) (c)</t>
+          <t>IA-5 (1) (c),IA-7</t>
         </is>
       </c>
       <c r="B146" s="2" t="inlineStr">
@@ -12268,7 +12287,7 @@
     <row r="150" ht="130" customHeight="1">
       <c r="A150" s="2" t="inlineStr">
         <is>
-          <t>AC-11 (1),AC-11 a</t>
+          <t>AC-11 a,AC-11 (1)</t>
         </is>
       </c>
       <c r="B150" s="2" t="inlineStr">
@@ -12429,7 +12448,7 @@
     <row r="152" ht="130" customHeight="1">
       <c r="A152" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,IA-7</t>
+          <t>IA-7,CM-6 b</t>
         </is>
       </c>
       <c r="B152" s="2" t="inlineStr">
@@ -12505,7 +12524,7 @@
     <row r="153" ht="130" customHeight="1">
       <c r="A153" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,IA-7</t>
+          <t>IA-7,CM-6 b</t>
         </is>
       </c>
       <c r="B153" s="2" t="inlineStr">
@@ -12590,7 +12609,7 @@
     <row r="154" ht="130" customHeight="1">
       <c r="A154" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,IA-7</t>
+          <t>IA-7,CM-6 b</t>
         </is>
       </c>
       <c r="B154" s="2" t="inlineStr">
@@ -12826,7 +12845,7 @@
     <row r="157" ht="130" customHeight="1">
       <c r="A157" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B157" s="3" t="inlineStr">
@@ -12903,7 +12922,7 @@
     <row r="158" ht="130" customHeight="1">
       <c r="A158" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,MA-4 (1) (a),AU-3,AU-12 a</t>
+          <t>AU-3,AU-12 a,AU-12 c,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B158" s="3" t="inlineStr">
@@ -12976,7 +12995,7 @@
     <row r="159" ht="130" customHeight="1">
       <c r="A159" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,MA-4 (1) (a),AU-3,AU-12 a</t>
+          <t>AU-3,AU-12 a,AU-12 c,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B159" s="3" t="inlineStr">
@@ -13049,7 +13068,7 @@
     <row r="160" ht="130" customHeight="1">
       <c r="A160" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B160" s="3" t="inlineStr">
@@ -13134,7 +13153,7 @@
     <row r="161" ht="130" customHeight="1">
       <c r="A161" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B161" s="3" t="inlineStr">
@@ -13209,7 +13228,7 @@
     <row r="162" ht="130" customHeight="1">
       <c r="A162" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B162" s="3" t="inlineStr">
@@ -13284,7 +13303,7 @@
     <row r="163" ht="130" customHeight="1">
       <c r="A163" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B163" s="3" t="inlineStr">
@@ -13359,7 +13378,7 @@
     <row r="164" ht="130" customHeight="1">
       <c r="A164" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B164" s="3" t="inlineStr">
@@ -13434,7 +13453,7 @@
     <row r="165" ht="130" customHeight="1">
       <c r="A165" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B165" s="3" t="inlineStr">
@@ -13505,7 +13524,7 @@
     <row r="166" ht="130" customHeight="1">
       <c r="A166" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B166" s="3" t="inlineStr">
@@ -13576,7 +13595,7 @@
     <row r="167" ht="130" customHeight="1">
       <c r="A167" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B167" s="3" t="inlineStr">
@@ -13648,7 +13667,7 @@
     <row r="168" ht="130" customHeight="1">
       <c r="A168" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B168" s="3" t="inlineStr">
@@ -13719,7 +13738,7 @@
     <row r="169" ht="130" customHeight="1">
       <c r="A169" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B169" s="3" t="inlineStr">
@@ -13790,7 +13809,7 @@
     <row r="170" ht="130" customHeight="1">
       <c r="A170" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B170" s="3" t="inlineStr">
@@ -13862,7 +13881,7 @@
     <row r="171" ht="130" customHeight="1">
       <c r="A171" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B171" s="3" t="inlineStr">
@@ -13937,7 +13956,7 @@
     <row r="172" ht="130" customHeight="1">
       <c r="A172" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B172" s="3" t="inlineStr">
@@ -14008,7 +14027,7 @@
     <row r="173" ht="130" customHeight="1">
       <c r="A173" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B173" s="3" t="inlineStr">
@@ -14079,7 +14098,7 @@
     <row r="174" ht="130" customHeight="1">
       <c r="A174" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B174" s="3" t="inlineStr">
@@ -14151,7 +14170,7 @@
     <row r="175" ht="130" customHeight="1">
       <c r="A175" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B175" s="3" t="inlineStr">
@@ -14226,7 +14245,7 @@
     <row r="176" ht="130" customHeight="1">
       <c r="A176" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B176" s="3" t="inlineStr">
@@ -14308,7 +14327,7 @@
     <row r="177" ht="130" customHeight="1">
       <c r="A177" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B177" s="3" t="inlineStr">
@@ -14390,7 +14409,7 @@
     <row r="178" ht="130" customHeight="1">
       <c r="A178" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B178" s="3" t="inlineStr">
@@ -14472,7 +14491,7 @@
     <row r="179" ht="130" customHeight="1">
       <c r="A179" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3,AU-3 (1)</t>
+          <t>AU-3,AU-3 (1),MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B179" s="3" t="inlineStr">
@@ -14554,7 +14573,7 @@
     <row r="180" ht="130" customHeight="1">
       <c r="A180" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B180" s="3" t="inlineStr">
@@ -14636,7 +14655,7 @@
     <row r="181" ht="130" customHeight="1">
       <c r="A181" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B181" s="3" t="inlineStr">
@@ -14718,7 +14737,7 @@
     <row r="182" ht="130" customHeight="1">
       <c r="A182" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B182" s="3" t="inlineStr">
@@ -14800,7 +14819,7 @@
     <row r="183" ht="130" customHeight="1">
       <c r="A183" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B183" s="3" t="inlineStr">
@@ -14882,7 +14901,7 @@
     <row r="184" ht="130" customHeight="1">
       <c r="A184" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B184" s="3" t="inlineStr">
@@ -14964,7 +14983,7 @@
     <row r="185" ht="130" customHeight="1">
       <c r="A185" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,MA-4 (1) (a),AU-3 (1)</t>
+          <t>MA-4 (1) (a),AU-3 (1),AU-12 c</t>
         </is>
       </c>
       <c r="B185" s="3" t="inlineStr">
@@ -15042,7 +15061,7 @@
     <row r="186" ht="130" customHeight="1">
       <c r="A186" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B186" s="3" t="inlineStr">
@@ -15121,7 +15140,7 @@
     <row r="187" ht="130" customHeight="1">
       <c r="A187" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B187" s="3" t="inlineStr">
@@ -15203,7 +15222,7 @@
     <row r="188" ht="130" customHeight="1">
       <c r="A188" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B188" s="3" t="inlineStr">
@@ -15285,7 +15304,7 @@
     <row r="189" ht="130" customHeight="1">
       <c r="A189" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,MA-4 (1) (a),AU-3,AU-3 (1)</t>
+          <t>AU-3,AU-3 (1),AU-12 c,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B189" s="3" t="inlineStr">
@@ -15367,7 +15386,7 @@
     <row r="190" ht="130" customHeight="1">
       <c r="A190" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B190" s="3" t="inlineStr">
@@ -15449,7 +15468,7 @@
     <row r="191" ht="130" customHeight="1">
       <c r="A191" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B191" s="3" t="inlineStr">
@@ -15531,7 +15550,7 @@
     <row r="192" ht="130" customHeight="1">
       <c r="A192" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B192" s="3" t="inlineStr">
@@ -15613,7 +15632,7 @@
     <row r="193" ht="130" customHeight="1">
       <c r="A193" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B193" s="3" t="inlineStr">
@@ -15688,7 +15707,7 @@
     <row r="194" ht="130" customHeight="1">
       <c r="A194" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-12 a,AU-3,AU-3 (1),AC-2 (4),MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AU-12 a,AC-2 (4),AU-12 c,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B194" s="3" t="inlineStr">
@@ -15761,7 +15780,7 @@
     <row r="195" ht="130" customHeight="1">
       <c r="A195" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-3,AU-3 (1),AC-2 (4),MA-4 (1) (a)</t>
+          <t>MA-4 (1) (a),AC-2 (4),AU-12 c,AU-3,AU-3 (1)</t>
         </is>
       </c>
       <c r="B195" s="3" t="inlineStr">
@@ -15838,7 +15857,7 @@
     <row r="196" ht="130" customHeight="1">
       <c r="A196" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (4),IA-2 (1),IA-2 (2),IA-2 (3)</t>
+          <t>IA-2 (4),IA-2 (3),IA-2 (1),IA-2 (2)</t>
         </is>
       </c>
       <c r="B196" s="2" t="inlineStr">
@@ -15925,7 +15944,7 @@
     <row r="197" ht="130" customHeight="1">
       <c r="A197" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (3),IA-2,IA-2 (5),IA-2 (2),IA-2 (4)</t>
+          <t>IA-2 (5),IA-2 (2),IA-2 (3),IA-2,IA-2 (4)</t>
         </is>
       </c>
       <c r="B197" s="2" t="inlineStr">
@@ -16014,7 +16033,7 @@
     <row r="198" ht="130" customHeight="1">
       <c r="A198" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (3),IA-2,IA-2 (5),IA-2 (2),IA-2 (4)</t>
+          <t>IA-2 (5),IA-2 (2),IA-2 (3),IA-2,IA-2 (4)</t>
         </is>
       </c>
       <c r="B198" s="2" t="inlineStr">
@@ -16258,7 +16277,7 @@
     <row r="201" ht="130" customHeight="1">
       <c r="A201" s="2" t="inlineStr">
         <is>
-          <t>AC-3 (4),IA-11</t>
+          <t>IA-11,AC-3 (4)</t>
         </is>
       </c>
       <c r="B201" s="2" t="inlineStr">
@@ -16638,7 +16657,7 @@
     <row r="206" ht="130" customHeight="1">
       <c r="A206" s="2" t="inlineStr">
         <is>
-          <t>SC-8 (1),SC-8 (2),SC-8</t>
+          <t>SC-8 (2),SC-8 (1),SC-8</t>
         </is>
       </c>
       <c r="B206" s="2" t="inlineStr">
@@ -16715,7 +16734,7 @@
     <row r="207" ht="130" customHeight="1">
       <c r="A207" s="2" t="inlineStr">
         <is>
-          <t>SC-8 (1),SC-8 (2),SC-8</t>
+          <t>SC-8 (2),SC-8 (1),SC-8</t>
         </is>
       </c>
       <c r="B207" s="2" t="inlineStr">
@@ -16801,7 +16820,7 @@
     <row r="208" ht="130" customHeight="1">
       <c r="A208" s="2" t="inlineStr">
         <is>
-          <t>SC-8 (1),SC-8,AC-18 (1)</t>
+          <t>AC-18 (1),SC-8 (1),SC-8</t>
         </is>
       </c>
       <c r="B208" s="2" t="inlineStr">
@@ -16887,7 +16906,7 @@
     <row r="209" ht="130" customHeight="1">
       <c r="A209" s="2" t="inlineStr">
         <is>
-          <t>AC-11 (1),AC-11 a</t>
+          <t>AC-11 a,AC-11 (1)</t>
         </is>
       </c>
       <c r="B209" s="2" t="inlineStr">
@@ -16976,7 +16995,7 @@
     <row r="210" ht="130" customHeight="1">
       <c r="A210" s="2" t="inlineStr">
         <is>
-          <t>AC-11 (1),AC-11 a</t>
+          <t>AC-11 a,AC-11 (1)</t>
         </is>
       </c>
       <c r="B210" s="2" t="inlineStr">
@@ -17229,7 +17248,7 @@
     <row r="213" ht="130" customHeight="1">
       <c r="A213" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,IA-5 (1) (c),CM-7 a</t>
+          <t>IA-5 (1) (c),CM-7 a,CM-6 b</t>
         </is>
       </c>
       <c r="B213" s="2" t="inlineStr">
@@ -17389,7 +17408,7 @@
     <row r="215" ht="130" customHeight="1">
       <c r="A215" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,AU-12 a</t>
+          <t>AU-12 a,CM-6 b</t>
         </is>
       </c>
       <c r="B215" s="2" t="inlineStr">
@@ -17480,7 +17499,7 @@
     <row r="216" ht="130" customHeight="1">
       <c r="A216" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,SC-5,SC-5 (2)</t>
+          <t>SC-5,CM-6 b,SC-5 (2)</t>
         </is>
       </c>
       <c r="B216" s="2" t="inlineStr">
@@ -17850,7 +17869,7 @@
     <row r="220" ht="130" customHeight="1">
       <c r="A220" s="2" t="inlineStr">
         <is>
-          <t>IA-8,IA-2,AU-3 (1)</t>
+          <t>IA-8,AU-3 (1),IA-2</t>
         </is>
       </c>
       <c r="B220" s="2" t="inlineStr">
@@ -18829,7 +18848,7 @@
     <row r="232" ht="130" customHeight="1">
       <c r="A232" s="2" t="inlineStr">
         <is>
-          <t>SI-16,SC-2,CM-6 b</t>
+          <t>SC-2,SI-16,CM-6 b</t>
         </is>
       </c>
       <c r="B232" s="2" t="inlineStr">
@@ -19742,7 +19761,7 @@
     <row r="243" ht="130" customHeight="1">
       <c r="A243" s="2" t="inlineStr">
         <is>
-          <t>IA-5 (1) (a),CM-6 b,IA-5 (1) (b)</t>
+          <t>CM-6 b,IA-5 (1) (a),IA-5 (1) (b)</t>
         </is>
       </c>
       <c r="B243" s="2" t="inlineStr">
@@ -20310,7 +20329,7 @@
     <row r="250" ht="130" customHeight="1">
       <c r="A250" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,SC-4</t>
+          <t>SC-4,CM-6 b</t>
         </is>
       </c>
       <c r="B250" s="2" t="inlineStr">
@@ -20655,7 +20674,7 @@
     <row r="254" ht="130" customHeight="1">
       <c r="A254" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (11),IA-2 (12)</t>
+          <t>IA-2 (12),IA-2 (11)</t>
         </is>
       </c>
       <c r="B254" s="2" t="inlineStr">
@@ -21148,7 +21167,7 @@
     <row r="260" ht="130" customHeight="1">
       <c r="A260" s="3" t="inlineStr">
         <is>
-          <t>CM-6 b,IA-2 (5)</t>
+          <t>IA-2 (5),CM-6 b</t>
         </is>
       </c>
       <c r="B260" s="3" t="inlineStr">
@@ -21697,7 +21716,7 @@
     <row r="267" ht="130" customHeight="1">
       <c r="A267" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,CM-5 (3)</t>
+          <t>CM-5 (3),CM-6 b</t>
         </is>
       </c>
       <c r="B267" s="2" t="inlineStr">
@@ -22387,7 +22406,7 @@
     <row r="275" ht="130" customHeight="1">
       <c r="A275" s="3" t="inlineStr">
         <is>
-          <t>CM-6 b,CM-7 a</t>
+          <t>CM-7 a,CM-6 b</t>
         </is>
       </c>
       <c r="B275" s="3" t="inlineStr">
@@ -22535,7 +22554,7 @@
     <row r="277" ht="130" customHeight="1">
       <c r="A277" s="2" t="inlineStr">
         <is>
-          <t>CM-7 a,CM-7 b</t>
+          <t>CM-7 b,CM-7 a</t>
         </is>
       </c>
       <c r="B277" s="2" t="inlineStr">
@@ -22615,7 +22634,7 @@
     <row r="278" ht="130" customHeight="1">
       <c r="A278" s="2" t="inlineStr">
         <is>
-          <t>CM-7 a,CM-7 b</t>
+          <t>CM-7 b,CM-7 a</t>
         </is>
       </c>
       <c r="B278" s="2" t="inlineStr">
@@ -23684,7 +23703,7 @@
     <row r="292" ht="130" customHeight="1">
       <c r="A292" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AC-2 (4),AC-6 (9)</t>
+          <t>AC-6 (9),AC-2 (4),AU-12 c</t>
         </is>
       </c>
       <c r="B292" s="3" t="inlineStr">
@@ -23823,136 +23842,144 @@
       <c r="Q292" s="3" t="n"/>
     </row>
     <row r="293" ht="130" customHeight="1">
-      <c r="A293" s="3" t="inlineStr">
+      <c r="A293" s="2" t="inlineStr">
         <is>
           <t>AU-5 a</t>
         </is>
       </c>
-      <c r="B293" s="3" t="inlineStr">
+      <c r="B293" s="2" t="inlineStr">
         <is>
           <t>CCI-000139,CCI-000366</t>
         </is>
       </c>
-      <c r="C293" s="3" t="inlineStr">
+      <c r="C293" s="2" t="inlineStr">
         <is>
           <t>SRG-OS-000046-GPOS-00022</t>
         </is>
       </c>
-      <c r="D293" s="3" t="inlineStr">
+      <c r="D293" s="2" t="inlineStr">
         <is>
           <t>CCE-90826-9</t>
         </is>
       </c>
-      <c r="E293" s="3" t="inlineStr">
+      <c r="E293" s="2" t="inlineStr">
         <is>
           <t>The operating system must alert the ISSO and SA (at a minimum) in the event of an audit processing failure.</t>
         </is>
       </c>
-      <c r="F293" s="3" t="inlineStr">
+      <c r="F293" s="2" t="inlineStr">
         <is>
           <t>Red Hat Enterprise Linux 9 must alert the ISSO and SA (at a minimum) in the event of an audit processing failure.</t>
         </is>
       </c>
-      <c r="G293" s="3" t="inlineStr">
+      <c r="G293" s="2" t="inlineStr">
         <is>
           <t>It is critical for the appropriate personnel to be aware if a system is at risk of failing to process audit logs as required. Without this notification, the security personnel may be unaware of an impending failure of the audit capability, and system operation may be adversely affected.
 Audit processing failures include software/hardware errors, failures in the audit capturing mechanisms, and audit storage capacity being reached or exceeded.
 This requirement applies to each audit data storage repository (i.e., distinct information system component where audit records are stored), the centralized audit storage capacity of organizations (i.e., all audit data storage repositories combined), or both.</t>
         </is>
       </c>
-      <c r="H293" s="3" t="inlineStr">
+      <c r="H293" s="2" t="inlineStr">
         <is>
           <t>A number of system services utilize email messages sent to the root user to
 notify system administrators of active or impending issues.  These messages must
 be forwarded to at least one monitored email address.</t>
         </is>
       </c>
-      <c r="I293" s="3" t="inlineStr">
-        <is>
-          <t>Applicable - Configurable</t>
-        </is>
-      </c>
-      <c r="J293" s="3" t="inlineStr">
+      <c r="I293" s="2" t="inlineStr">
+        <is>
+          <t>Applicable - Configurable</t>
+        </is>
+      </c>
+      <c r="J293" s="2" t="inlineStr">
         <is>
           <t>Verify the operating system alerts the ISSO and SA (at a minimum) in the event of an audit processing failure. If it does not, this is a finding.</t>
         </is>
       </c>
-      <c r="K293" s="3" t="inlineStr">
+      <c r="K293" s="2" t="inlineStr">
         <is>
           <t>Find the list of alias maps used by the Postfix mail server:
  $ sudo postconf alias_maps 
 Query the Postfix alias maps for an alias for the  root  user:
  $ sudo postmap -q root hash:/etc/aliases 
 The output should return an alias.
-If it is not, then this is a finding.</t>
-        </is>
-      </c>
-      <c r="L293" s="3" t="n"/>
-      <c r="M293" s="3" t="inlineStr"/>
-      <c r="N293" s="3" t="inlineStr">
-        <is>
-          <t>CAT II</t>
-        </is>
-      </c>
-      <c r="O293" s="3" t="n"/>
-      <c r="P293" s="3" t="n"/>
-      <c r="Q293" s="3" t="n"/>
+If the alias is not set, then this is a finding.</t>
+        </is>
+      </c>
+      <c r="L293" s="2" t="n"/>
+      <c r="M293" s="2" t="inlineStr">
+        <is>
+          <t>Configure a valid email address as an alias for the root account.
+Append the following line to "/etc/aliases":
+root: system.administrator@mail.mil
+Then, run the following command:
+$ sudo newaliases</t>
+        </is>
+      </c>
+      <c r="N293" s="2" t="inlineStr">
+        <is>
+          <t>CAT II</t>
+        </is>
+      </c>
+      <c r="O293" s="2" t="n"/>
+      <c r="P293" s="2" t="n"/>
+      <c r="Q293" s="2" t="n"/>
     </row>
     <row r="294" ht="130" customHeight="1">
-      <c r="A294" s="3" t="inlineStr">
-        <is>
-          <t>AU-5 (1),AU-5 a</t>
-        </is>
-      </c>
-      <c r="B294" s="3" t="inlineStr">
+      <c r="A294" s="2" t="inlineStr">
+        <is>
+          <t>AU-5 a,AU-5 (1)</t>
+        </is>
+      </c>
+      <c r="B294" s="2" t="inlineStr">
         <is>
           <t>CCI-000139,CCI-001855</t>
         </is>
       </c>
-      <c r="C294" s="3" t="inlineStr">
+      <c r="C294" s="2" t="inlineStr">
         <is>
           <t>SRG-OS-000046-GPOS-00022,SRG-OS-000343-GPOS-00134</t>
         </is>
       </c>
-      <c r="D294" s="3" t="inlineStr">
+      <c r="D294" s="2" t="inlineStr">
         <is>
           <t>CCE-83698-1</t>
         </is>
       </c>
-      <c r="E294" s="3" t="inlineStr">
+      <c r="E294" s="2" t="inlineStr">
         <is>
           <t>The operating system must alert the ISSO and SA (at a minimum) in the event of an audit processing failure.</t>
         </is>
       </c>
-      <c r="F294" s="3" t="inlineStr">
+      <c r="F294" s="2" t="inlineStr">
         <is>
           <t>Red Hat Enterprise Linux 9 must alert the ISSO and SA (at a minimum) in the event of an audit processing failure.</t>
         </is>
       </c>
-      <c r="G294" s="3" t="inlineStr">
+      <c r="G294" s="2" t="inlineStr">
         <is>
           <t>It is critical for the appropriate personnel to be aware if a system is at risk of failing to process audit logs as required. Without this notification, the security personnel may be unaware of an impending failure of the audit capability, and system operation may be adversely affected.
 Audit processing failures include software/hardware errors, failures in the audit capturing mechanisms, and audit storage capacity being reached or exceeded.
 This requirement applies to each audit data storage repository (i.e., distinct information system component where audit records are stored), the centralized audit storage capacity of organizations (i.e., all audit data storage repositories combined), or both.</t>
         </is>
       </c>
-      <c r="H294" s="3" t="inlineStr">
+      <c r="H294" s="2" t="inlineStr">
         <is>
           <t>Email sent to the root account is typically aliased to the
 administrators of the system, who can take appropriate action.</t>
         </is>
       </c>
-      <c r="I294" s="3" t="inlineStr">
-        <is>
-          <t>Applicable - Configurable</t>
-        </is>
-      </c>
-      <c r="J294" s="3" t="inlineStr">
+      <c r="I294" s="2" t="inlineStr">
+        <is>
+          <t>Applicable - Configurable</t>
+        </is>
+      </c>
+      <c r="J294" s="2" t="inlineStr">
         <is>
           <t>Verify the operating system alerts the ISSO and SA (at a minimum) in the event of an audit processing failure. If it does not, this is a finding.</t>
         </is>
       </c>
-      <c r="K294" s="3" t="inlineStr">
+      <c r="K294" s="2" t="inlineStr">
         <is>
           <t>Inspect "/etc/audit/auditd.conf" and locate the following line to
 determine if the system is configured to send email to an
@@ -23961,16 +23988,22 @@
 If auditd is not configured to send emails per identified actions, then this is a finding.</t>
         </is>
       </c>
-      <c r="L294" s="3" t="n"/>
-      <c r="M294" s="3" t="inlineStr"/>
-      <c r="N294" s="3" t="inlineStr">
-        <is>
-          <t>CAT II</t>
-        </is>
-      </c>
-      <c r="O294" s="3" t="n"/>
-      <c r="P294" s="3" t="n"/>
-      <c r="Q294" s="3" t="n"/>
+      <c r="L294" s="2" t="n"/>
+      <c r="M294" s="2" t="inlineStr">
+        <is>
+          <t>Configure "auditd" service to notify the SA and ISSO in the event of an audit processing failure.
+Edit the following line in "/etc/audit/auditd.conf" to ensure that administrators are notified via email for those situations:
+action_mail_acct = root</t>
+        </is>
+      </c>
+      <c r="N294" s="2" t="inlineStr">
+        <is>
+          <t>CAT II</t>
+        </is>
+      </c>
+      <c r="O294" s="2" t="n"/>
+      <c r="P294" s="2" t="n"/>
+      <c r="Q294" s="2" t="n"/>
     </row>
     <row r="295" ht="130" customHeight="1">
       <c r="A295" s="3" t="inlineStr">
@@ -27263,7 +27296,7 @@
     <row r="339" ht="130" customHeight="1">
       <c r="A339" s="3" t="inlineStr">
         <is>
-          <t>CM-6 b,IA-5 (1) (c)</t>
+          <t>IA-5 (1) (c),CM-6 b</t>
         </is>
       </c>
       <c r="B339" s="3" t="inlineStr">
@@ -29890,7 +29923,7 @@
     <row r="374" ht="130" customHeight="1">
       <c r="A374" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,AU-3</t>
+          <t>AU-3,CM-6 b</t>
         </is>
       </c>
       <c r="B374" s="2" t="inlineStr">
@@ -30144,7 +30177,7 @@
     <row r="377" ht="130" customHeight="1">
       <c r="A377" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,SC-3</t>
+          <t>SC-3,CM-6 b</t>
         </is>
       </c>
       <c r="B377" s="2" t="inlineStr">
@@ -30538,7 +30571,7 @@
     <row r="382" ht="130" customHeight="1">
       <c r="A382" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,AC-17 (9),AC-17 (1),CM-7 b</t>
+          <t>CM-6 b,CM-7 b,AC-17 (1),AC-17 (9)</t>
         </is>
       </c>
       <c r="B382" s="2" t="inlineStr">
@@ -30616,7 +30649,7 @@
     <row r="383" ht="130" customHeight="1">
       <c r="A383" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,AC-17 (1),CM-7 b</t>
+          <t>CM-6 b,CM-7 b,AC-17 (1)</t>
         </is>
       </c>
       <c r="B383" s="2" t="inlineStr">
@@ -33115,7 +33148,7 @@
     <row r="412" ht="130" customHeight="1">
       <c r="A412" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,IA-3</t>
+          <t>IA-3,CM-6 b</t>
         </is>
       </c>
       <c r="B412" s="2" t="inlineStr">
@@ -33197,7 +33230,7 @@
     <row r="413" ht="130" customHeight="1">
       <c r="A413" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,IA-3</t>
+          <t>IA-3,CM-6 b</t>
         </is>
       </c>
       <c r="B413" s="2" t="inlineStr">
@@ -33890,7 +33923,7 @@
     <row r="422" ht="130" customHeight="1">
       <c r="A422" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,SC-3</t>
+          <t>SC-3,CM-6 b</t>
         </is>
       </c>
       <c r="B422" s="2" t="inlineStr">
@@ -34071,7 +34104,7 @@
     <row r="424" ht="130" customHeight="1">
       <c r="A424" s="3" t="inlineStr">
         <is>
-          <t>CM-6 b,SC-2</t>
+          <t>SC-2,CM-6 b</t>
         </is>
       </c>
       <c r="B424" s="3" t="inlineStr">
@@ -34158,7 +34191,7 @@
     <row r="425" ht="130" customHeight="1">
       <c r="A425" s="3" t="inlineStr">
         <is>
-          <t>CM-6 b,SC-2</t>
+          <t>SC-2,CM-6 b</t>
         </is>
       </c>
       <c r="B425" s="3" t="inlineStr">
@@ -34493,7 +34526,7 @@
     <row r="429" ht="130" customHeight="1">
       <c r="A429" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,SC-3</t>
+          <t>SC-3,CM-6 b</t>
         </is>
       </c>
       <c r="B429" s="2" t="inlineStr">
@@ -35249,7 +35282,7 @@
     <row r="439" ht="130" customHeight="1">
       <c r="A439" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,IA-3</t>
+          <t>IA-3,CM-6 b</t>
         </is>
       </c>
       <c r="B439" s="2" t="inlineStr">
@@ -35339,7 +35372,7 @@
     <row r="440" ht="130" customHeight="1">
       <c r="A440" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,IA-3</t>
+          <t>IA-3,CM-6 b</t>
         </is>
       </c>
       <c r="B440" s="2" t="inlineStr">
@@ -36672,7 +36705,7 @@
     <row r="458" ht="130" customHeight="1">
       <c r="A458" s="3" t="inlineStr">
         <is>
-          <t>MA-4 e,MA-4 (7),SC-10,AC-12</t>
+          <t>MA-4 e,MA-4 (7),AC-12,SC-10</t>
         </is>
       </c>
       <c r="B458" s="3" t="inlineStr">
@@ -36747,7 +36780,7 @@
     <row r="459" ht="130" customHeight="1">
       <c r="A459" s="3" t="inlineStr">
         <is>
-          <t>SC-10,AC-12</t>
+          <t>AC-12,SC-10</t>
         </is>
       </c>
       <c r="B459" s="3" t="inlineStr">
@@ -36826,7 +36859,7 @@
     <row r="460" ht="130" customHeight="1">
       <c r="A460" s="3" t="inlineStr">
         <is>
-          <t>SC-10,AC-12</t>
+          <t>AC-12,SC-10</t>
         </is>
       </c>
       <c r="B460" s="3" t="inlineStr">
@@ -36979,7 +37012,7 @@
     <row r="462" ht="130" customHeight="1">
       <c r="A462" s="2" t="inlineStr">
         <is>
-          <t>AC-17 (2),SC-8,SC-8 (1)</t>
+          <t>AC-17 (2),SC-8 (1),SC-8</t>
         </is>
       </c>
       <c r="B462" s="2" t="inlineStr">
@@ -38606,7 +38639,7 @@
     <row r="483" ht="130" customHeight="1">
       <c r="A483" s="2" t="inlineStr">
         <is>
-          <t>AC-17 (1),CM-7 b</t>
+          <t>CM-7 b,AC-17 (1)</t>
         </is>
       </c>
       <c r="B483" s="2" t="inlineStr">
@@ -39729,7 +39762,7 @@
     <row r="497" ht="130" customHeight="1">
       <c r="A497" s="2" t="inlineStr">
         <is>
-          <t>AU-4,AU-4 (1)</t>
+          <t>AU-4 (1),AU-4</t>
         </is>
       </c>
       <c r="B497" s="2" t="inlineStr">

--- a/srg_mapping/srg-mapping-rhel9.xlsx
+++ b/srg_mapping/srg-mapping-rhel9.xlsx
@@ -575,7 +575,7 @@
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must enforce the limit of three consecutive invalid logon attempts by a user during a 15-minute time period.</t>
+          <t>Red Hat Enterprise Linux 9 Must Enforce The Limit Of Three Consecutive Invalid Logon Attempts By A User During A 15-Minute Time Period.</t>
         </is>
       </c>
       <c r="G2" s="2" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must enforce the limit of three consecutive invalid logon attempts by a user during a 15-minute time period.</t>
+          <t>Red Hat Enterprise Linux 9 Must Enforce The Limit Of Three Consecutive Invalid Logon Attempts By A User During A 15-Minute Time Period.</t>
         </is>
       </c>
       <c r="G3" s="2" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="F4" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must enforce the limit of three consecutive invalid logon attempts by a user during a 15-minute time period.</t>
+          <t>Red Hat Enterprise Linux 9 Must Enforce The Limit Of Three Consecutive Invalid Logon Attempts By A User During A 15-Minute Time Period.</t>
         </is>
       </c>
       <c r="G4" s="3" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must enforce the limit of three consecutive invalid logon attempts by a user during a 15-minute time period.</t>
+          <t>Red Hat Enterprise Linux 9 Must Enforce The Limit Of Three Consecutive Invalid Logon Attempts By A User During A 15-Minute Time Period.</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -998,7 +998,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must shut down by default upon audit failure (unless availability is an overriding concern).</t>
+          <t>Red Hat Enterprise Linux 9 Must Shut Down By Default Upon Audit Failure (Unless Availability Is An Overriding Concern).</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F8" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must shut down by default upon audit failure (unless availability is an overriding concern).</t>
+          <t>Red Hat Enterprise Linux 9 Must Shut Down By Default Upon Audit Failure (Unless Availability Is An Overriding Concern).</t>
         </is>
       </c>
       <c r="G8" s="3" t="inlineStr">
@@ -1167,7 +1167,7 @@
       </c>
       <c r="F9" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must shut down by default upon audit failure (unless availability is an overriding concern).</t>
+          <t>Red Hat Enterprise Linux 9 Must Shut Down By Default Upon Audit Failure (Unless Availability Is An Overriding Concern).</t>
         </is>
       </c>
       <c r="G9" s="3" t="inlineStr">
@@ -1243,7 +1243,7 @@
       </c>
       <c r="F10" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must shut down by default upon audit failure (unless availability is an overriding concern).</t>
+          <t>Red Hat Enterprise Linux 9 Must Shut Down By Default Upon Audit Failure (Unless Availability Is An Overriding Concern).</t>
         </is>
       </c>
       <c r="G10" s="3" t="inlineStr">
@@ -1322,7 +1322,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must automatically remove or disable emergency accounts after the crisis is resolved or 72 hours.</t>
+          <t>Red Hat Enterprise Linux 9 must automatically remove or disable emergency user accounts after 72 hours.</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1408,7 +1408,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must automatically remove or disable emergency accounts after the crisis is resolved or 72 hours.</t>
+          <t>Red Hat Enterprise Linux 9 Must Automatically Remove Or Disable Emergency Accounts After The Crisis Is Resolved Or 72 Hours.</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1467,7 +1467,7 @@
     <row r="13" ht="130" customHeight="1">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 a,AU-7 a,CM-6 b,AU-7 (1),AU-6 (4),AU-3,AU-3 (1),AU-14 (1),CM-5 (1)</t>
+          <t>AU-7 b,AU-7 a,AU-7 (1),AU-6 (4),AU-14 (1),AU-8 b,CM-5 (1),MA-4 (1) (a),AU-12 (3),AU-3,AU-3 (1),AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
@@ -1477,7 +1477,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>SRG-OS-000037-GPOS-00015,SRG-OS-000038-GPOS-00016,SRG-OS-000039-GPOS-00017,SRG-OS-000040-GPOS-00018,SRG-OS-000041-GPOS-00019,SRG-OS-000042-GPOS-00021,SRG-OS-000051-GPOS-00024,SRG-OS-000054-GPOS-00025,SRG-OS-000122-GPOS-00063,SRG-OS-000254-GPOS-00095,SRG-OS-000255-GPOS-00096,SRG-OS-000365-GPOS-00152,SRG-OS-000392-GPOS-00172,SRG-OS-000480-GPOS-00227,SRG-OS-000062-GPOS-00031,SRG-OS-000349-GPOS-00137</t>
+          <t>SRG-OS-000062-GPOS-00031,SRG-OS-000037-GPOS-00015,SRG-OS-000038-GPOS-00016,SRG-OS-000039-GPOS-00017,SRG-OS-000040-GPOS-00018,SRG-OS-000041-GPOS-00019,SRG-OS-000042-GPOS-00021,SRG-OS-000051-GPOS-00024,SRG-OS-000054-GPOS-00025,SRG-OS-000122-GPOS-00063,SRG-OS-000254-GPOS-00095,SRG-OS-000255-GPOS-00096,SRG-OS-000337-GPOS-00129,SRG-OS-000348-GPOS-00136,SRG-OS-000349-GPOS-00137,SRG-OS-000350-GPOS-00138,SRG-OS-000351-GPOS-00139,SRG-OS-000352-GPOS-00140,SRG-OS-000353-GPOS-00141,SRG-OS-000354-GPOS-00142,SRG-OS-000358-GPOS-00145,SRG-OS-000365-GPOS-00152,SRG-OS-000392-GPOS-00172,SRG-OS-000475-GPOS-00220</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -1492,7 +1492,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must provide the capability to filter audit records for events of interest based upon all audit fields within audit records.</t>
+          <t>Red Hat Enterprise Linux 9 Must Provide The Capability To Filter Audit Records For Events Of Interest Based Upon All Audit Fields Within Audit Records.</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1552,7 +1552,7 @@
     <row r="14" ht="130" customHeight="1">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>CM-7 (5) (b),CM-7 (2)</t>
+          <t>CM-7 (2),CM-7 (5) (b)</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
@@ -1577,7 +1577,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must prevent program execution in accordance with local policies regarding software program usage and restrictions and/or rules authorizing the terms and conditions of software program usage.</t>
+          <t>Red Hat Enterprise Linux 9 Must Prevent Program Execution In Accordance With Local Policies Regarding Software Program Usage And Restrictions And/Or Rules Authorizing The Terms And Conditions Of Software Program Usage.</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1628,7 +1628,7 @@
     <row r="15" ht="130" customHeight="1">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>CM-7 (5) (b),CM-7 (2)</t>
+          <t>CM-7 (2),CM-7 (5) (b)</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
@@ -1653,7 +1653,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must prevent program execution in accordance with local policies regarding software program usage and restrictions and/or rules authorizing the terms and conditions of software program usage.</t>
+          <t>Red Hat Enterprise Linux 9 Must Prevent Program Execution In Accordance With Local Policies Regarding Software Program Usage And Restrictions And/Or Rules Authorizing The Terms And Conditions Of Software Program Usage.</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1733,7 +1733,7 @@
       </c>
       <c r="F16" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must prevent program execution in accordance with local policies regarding software program usage and restrictions and/or rules authorizing the terms and conditions of software program usage.</t>
+          <t>Red Hat Enterprise Linux 9 Must Prevent Program Execution In Accordance With Local Policies Regarding Software Program Usage And Restrictions And/Or Rules Authorizing The Terms And Conditions Of Software Program Usage.</t>
         </is>
       </c>
       <c r="G16" s="3" t="inlineStr">
@@ -1807,7 +1807,7 @@
       </c>
       <c r="F17" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must prevent program execution in accordance with local policies regarding software program usage and restrictions and/or rules authorizing the terms and conditions of software program usage.</t>
+          <t>Red Hat Enterprise Linux 9 Must Prevent Program Execution In Accordance With Local Policies Regarding Software Program Usage And Restrictions And/Or Rules Authorizing The Terms And Conditions Of Software Program Usage.</t>
         </is>
       </c>
       <c r="G17" s="3" t="inlineStr">
@@ -1881,7 +1881,7 @@
       </c>
       <c r="F18" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must prevent program execution in accordance with local policies regarding software program usage and restrictions and/or rules authorizing the terms and conditions of software program usage.</t>
+          <t>Red Hat Enterprise Linux 9 Must Prevent Program Execution In Accordance With Local Policies Regarding Software Program Usage And Restrictions And/Or Rules Authorizing The Terms And Conditions Of Software Program Usage.</t>
         </is>
       </c>
       <c r="G18" s="3" t="inlineStr">
@@ -1955,7 +1955,7 @@
       </c>
       <c r="F19" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must prevent program execution in accordance with local policies regarding software program usage and restrictions and/or rules authorizing the terms and conditions of software program usage.</t>
+          <t>Red Hat Enterprise Linux 9 Must Prevent Program Execution In Accordance With Local Policies Regarding Software Program Usage And Restrictions And/Or Rules Authorizing The Terms And Conditions Of Software Program Usage.</t>
         </is>
       </c>
       <c r="G19" s="3" t="inlineStr">
@@ -2029,7 +2029,7 @@
       </c>
       <c r="F20" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must prevent program execution in accordance with local policies regarding software program usage and restrictions and/or rules authorizing the terms and conditions of software program usage.</t>
+          <t>Red Hat Enterprise Linux 9 Must Prevent Program Execution In Accordance With Local Policies Regarding Software Program Usage And Restrictions And/Or Rules Authorizing The Terms And Conditions Of Software Program Usage.</t>
         </is>
       </c>
       <c r="G20" s="3" t="inlineStr">
@@ -2103,7 +2103,7 @@
       </c>
       <c r="F21" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must prevent program execution in accordance with local policies regarding software program usage and restrictions and/or rules authorizing the terms and conditions of software program usage.</t>
+          <t>Red Hat Enterprise Linux 9 Must Prevent Program Execution In Accordance With Local Policies Regarding Software Program Usage And Restrictions And/Or Rules Authorizing The Terms And Conditions Of Software Program Usage.</t>
         </is>
       </c>
       <c r="G21" s="3" t="inlineStr">
@@ -2177,7 +2177,7 @@
       </c>
       <c r="F22" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must prevent program execution in accordance with local policies regarding software program usage and restrictions and/or rules authorizing the terms and conditions of software program usage.</t>
+          <t>Red Hat Enterprise Linux 9 Must Prevent Program Execution In Accordance With Local Policies Regarding Software Program Usage And Restrictions And/Or Rules Authorizing The Terms And Conditions Of Software Program Usage.</t>
         </is>
       </c>
       <c r="G22" s="3" t="inlineStr">
@@ -2251,7 +2251,7 @@
       </c>
       <c r="F23" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must prevent program execution in accordance with local policies regarding software program usage and restrictions and/or rules authorizing the terms and conditions of software program usage.</t>
+          <t>Red Hat Enterprise Linux 9 Must Prevent Program Execution In Accordance With Local Policies Regarding Software Program Usage And Restrictions And/Or Rules Authorizing The Terms And Conditions Of Software Program Usage.</t>
         </is>
       </c>
       <c r="G23" s="3" t="inlineStr">
@@ -2327,7 +2327,7 @@
       </c>
       <c r="F24" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must prevent program execution in accordance with local policies regarding software program usage and restrictions and/or rules authorizing the terms and conditions of software program usage.</t>
+          <t>Red Hat Enterprise Linux 9 Must Prevent Program Execution In Accordance With Local Policies Regarding Software Program Usage And Restrictions And/Or Rules Authorizing The Terms And Conditions Of Software Program Usage.</t>
         </is>
       </c>
       <c r="G24" s="3" t="inlineStr">
@@ -2401,7 +2401,7 @@
       </c>
       <c r="F25" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must prevent program execution in accordance with local policies regarding software program usage and restrictions and/or rules authorizing the terms and conditions of software program usage.</t>
+          <t>Red Hat Enterprise Linux 9 Must Prevent Program Execution In Accordance With Local Policies Regarding Software Program Usage And Restrictions And/Or Rules Authorizing The Terms And Conditions Of Software Program Usage.</t>
         </is>
       </c>
       <c r="G25" s="3" t="inlineStr">
@@ -2476,7 +2476,7 @@
       </c>
       <c r="F26" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must prevent program execution in accordance with local policies regarding software program usage and restrictions and/or rules authorizing the terms and conditions of software program usage.</t>
+          <t>Red Hat Enterprise Linux 9 Must Prevent Program Execution In Accordance With Local Policies Regarding Software Program Usage And Restrictions And/Or Rules Authorizing The Terms And Conditions Of Software Program Usage.</t>
         </is>
       </c>
       <c r="G26" s="3" t="inlineStr">
@@ -2550,7 +2550,7 @@
       </c>
       <c r="F27" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must prevent program execution in accordance with local policies regarding software program usage and restrictions and/or rules authorizing the terms and conditions of software program usage.</t>
+          <t>Red Hat Enterprise Linux 9 Must Prevent Program Execution In Accordance With Local Policies Regarding Software Program Usage And Restrictions And/Or Rules Authorizing The Terms And Conditions Of Software Program Usage.</t>
         </is>
       </c>
       <c r="G27" s="3" t="inlineStr">
@@ -2624,7 +2624,7 @@
       </c>
       <c r="F28" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must prevent program execution in accordance with local policies regarding software program usage and restrictions and/or rules authorizing the terms and conditions of software program usage.</t>
+          <t>Red Hat Enterprise Linux 9 Must Prevent Program Execution In Accordance With Local Policies Regarding Software Program Usage And Restrictions And/Or Rules Authorizing The Terms And Conditions Of Software Program Usage.</t>
         </is>
       </c>
       <c r="G28" s="3" t="inlineStr">
@@ -2699,7 +2699,7 @@
       </c>
       <c r="F29" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must prevent program execution in accordance with local policies regarding software program usage and restrictions and/or rules authorizing the terms and conditions of software program usage.</t>
+          <t>Red Hat Enterprise Linux 9 Must Prevent Program Execution In Accordance With Local Policies Regarding Software Program Usage And Restrictions And/Or Rules Authorizing The Terms And Conditions Of Software Program Usage.</t>
         </is>
       </c>
       <c r="G29" s="3" t="inlineStr">
@@ -2774,7 +2774,7 @@
       </c>
       <c r="F30" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must prevent program execution in accordance with local policies regarding software program usage and restrictions and/or rules authorizing the terms and conditions of software program usage.</t>
+          <t>Red Hat Enterprise Linux 9 Must Prevent Program Execution In Accordance With Local Policies Regarding Software Program Usage And Restrictions And/Or Rules Authorizing The Terms And Conditions Of Software Program Usage.</t>
         </is>
       </c>
       <c r="G30" s="3" t="inlineStr">
@@ -2848,7 +2848,7 @@
       </c>
       <c r="F31" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must prevent program execution in accordance with local policies regarding software program usage and restrictions and/or rules authorizing the terms and conditions of software program usage.</t>
+          <t>Red Hat Enterprise Linux 9 Must Prevent Program Execution In Accordance With Local Policies Regarding Software Program Usage And Restrictions And/Or Rules Authorizing The Terms And Conditions Of Software Program Usage.</t>
         </is>
       </c>
       <c r="G31" s="3" t="inlineStr">
@@ -2923,7 +2923,7 @@
       </c>
       <c r="F32" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must prevent program execution in accordance with local policies regarding software program usage and restrictions and/or rules authorizing the terms and conditions of software program usage.</t>
+          <t>Red Hat Enterprise Linux 9 Must Prevent Program Execution In Accordance With Local Policies Regarding Software Program Usage And Restrictions And/Or Rules Authorizing The Terms And Conditions Of Software Program Usage.</t>
         </is>
       </c>
       <c r="G32" s="3" t="inlineStr">
@@ -2998,7 +2998,7 @@
       </c>
       <c r="F33" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must prevent program execution in accordance with local policies regarding software program usage and restrictions and/or rules authorizing the terms and conditions of software program usage.</t>
+          <t>Red Hat Enterprise Linux 9 Must Prevent Program Execution In Accordance With Local Policies Regarding Software Program Usage And Restrictions And/Or Rules Authorizing The Terms And Conditions Of Software Program Usage.</t>
         </is>
       </c>
       <c r="G33" s="3" t="inlineStr">
@@ -3072,7 +3072,7 @@
       </c>
       <c r="F34" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must prevent program execution in accordance with local policies regarding software program usage and restrictions and/or rules authorizing the terms and conditions of software program usage.</t>
+          <t>Red Hat Enterprise Linux 9 Must Prevent Program Execution In Accordance With Local Policies Regarding Software Program Usage And Restrictions And/Or Rules Authorizing The Terms And Conditions Of Software Program Usage.</t>
         </is>
       </c>
       <c r="G34" s="3" t="inlineStr">
@@ -3146,7 +3146,7 @@
       </c>
       <c r="F35" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must prevent program execution in accordance with local policies regarding software program usage and restrictions and/or rules authorizing the terms and conditions of software program usage.</t>
+          <t>Red Hat Enterprise Linux 9 Must Prevent Program Execution In Accordance With Local Policies Regarding Software Program Usage And Restrictions And/Or Rules Authorizing The Terms And Conditions Of Software Program Usage.</t>
         </is>
       </c>
       <c r="G35" s="3" t="inlineStr">
@@ -3221,7 +3221,7 @@
       </c>
       <c r="F36" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must prevent program execution in accordance with local policies regarding software program usage and restrictions and/or rules authorizing the terms and conditions of software program usage.</t>
+          <t>Red Hat Enterprise Linux 9 Must Prevent Program Execution In Accordance With Local Policies Regarding Software Program Usage And Restrictions And/Or Rules Authorizing The Terms And Conditions Of Software Program Usage.</t>
         </is>
       </c>
       <c r="G36" s="3" t="inlineStr">
@@ -3270,7 +3270,7 @@
     <row r="37" ht="130" customHeight="1">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-14 (1),AU-3,AU-3 (1)</t>
+          <t>AU-14 (1),MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
@@ -3295,7 +3295,7 @@
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must initiate session audits at system start-up.</t>
+          <t>Red Hat Enterprise Linux 9 Must Initiate Session Audits At System Start-Up.</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
@@ -3343,7 +3343,7 @@
         <is>
           <t xml:space="preserve">To ensure that "audit=1" is added as a kernel command line
 argument to newly installed kernels, add "audit=1" to the
-default Grub2 command line for Linux operating systems.  Modify the line within
+default Grub2 command line for Linux operating systems. Modify the line within
 "/etc/default/grub" as shown below:
  GRUB_CMDLINE_LINUX="... audit=1 ..." 
 Run the following command to update command line for already installed kernels: # grubby --update-kernel=ALL --args="audit=1" </t>
@@ -3386,7 +3386,7 @@
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must initiate session audits at system start-up.</t>
+          <t>Red Hat Enterprise Linux 9 Must Initiate Session Audits At System Start-Up.</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
@@ -3432,10 +3432,9 @@
       <c r="L38" s="2" t="n"/>
       <c r="M38" s="2" t="inlineStr">
         <is>
-          <t>Configure Red Hat Enterprise Linux 9 to allocate sufficient audit_backlog_limit to capture processes that start prior to the audit daemon with the following command:
-$ sudo grubby --update-kernel=ALL --args="audit_backlog_limit=8192"
-Add or modify the following line in "/etc/default/grub" to ensure the configuration survives kernel updates:
-GRUB_CMDLINE_LINUX="audit_backlog_limit=8192"</t>
+          <t xml:space="preserve">
+Run the following command:
+$ sudo grubby --update-kernel=ALL --args=audit_backlog_limit=8192</t>
         </is>
       </c>
       <c r="N38" s="2" t="inlineStr">
@@ -3450,58 +3449,131 @@
     <row r="39" ht="130" customHeight="1">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>AU-3,AU-4 (1)</t>
+          <t>AU-7 b,AU-7 a,AU-7 (1),AU-6 (4),AU-14 (1),AU-8 b,CM-5 (1),MA-4 (1) (a),AU-12 (3),AU-3,AU-3 (1),AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
+          <t>CCI-000172,CCI-001814,CCI-001875,CCI-001877,CCI-001878,CCI-001879,CCI-001880,CCI-001881,CCI-001882,CCI-001889,CCI-001914,CCI-000169</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>SRG-OS-000062-GPOS-00031,SRG-OS-000037-GPOS-00015,SRG-OS-000038-GPOS-00016,SRG-OS-000039-GPOS-00017,SRG-OS-000040-GPOS-00018,SRG-OS-000041-GPOS-00019,SRG-OS-000042-GPOS-00021,SRG-OS-000051-GPOS-00024,SRG-OS-000054-GPOS-00025,SRG-OS-000122-GPOS-00063,SRG-OS-000254-GPOS-00095,SRG-OS-000255-GPOS-00096,SRG-OS-000337-GPOS-00129,SRG-OS-000348-GPOS-00136,SRG-OS-000349-GPOS-00137,SRG-OS-000350-GPOS-00138,SRG-OS-000351-GPOS-00139,SRG-OS-000352-GPOS-00140,SRG-OS-000353-GPOS-00141,SRG-OS-000354-GPOS-00142,SRG-OS-000358-GPOS-00145,SRG-OS-000365-GPOS-00152,SRG-OS-000392-GPOS-00172,SRG-OS-000475-GPOS-00220</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>CCE-83649-4</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>The operating system must initiate session audits at system start-up.</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>Red Hat Enterprise Linux 9 Must Initiate Session Audits At System Start-Up.</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>If auditing is enabled late in the start-up process, the actions of some start-up processes may not be audited. Some audit systems also maintain state information only available if auditing is enabled before a given process is created.</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>The auditd service is an access monitoring and accounting daemon, watching system calls to audit any access, in comparison with potential local access control policy such as SELinux policy.</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>Applicable - Configurable</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>Verify the operating system initiates session audits at system start-up. If it does not, this is a finding.</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="inlineStr">
+        <is>
+          <t>Run the following command to determine if the  audit  package is installed:  $ rpm -q audit 
+If the audit package is not installed, then this is a finding.</t>
+        </is>
+      </c>
+      <c r="L39" s="2" t="n"/>
+      <c r="M39" s="2" t="inlineStr">
+        <is>
+          <t>Install the audit service (if the audit service is not already installed) with the following command:
+$ sudo dnf install audit</t>
+        </is>
+      </c>
+      <c r="N39" s="2" t="inlineStr">
+        <is>
+          <t>CAT II</t>
+        </is>
+      </c>
+      <c r="O39" s="2" t="n"/>
+      <c r="P39" s="2" t="n"/>
+      <c r="Q39" s="2" t="n"/>
+    </row>
+    <row r="40" ht="130" customHeight="1">
+      <c r="A40" s="2" t="inlineStr">
+        <is>
+          <t>AU-4 (1),AU-3</t>
+        </is>
+      </c>
+      <c r="B40" s="2" t="inlineStr">
+        <is>
           <t>CCI-001851</t>
         </is>
       </c>
-      <c r="C39" s="2" t="inlineStr">
+      <c r="C40" s="2" t="inlineStr">
         <is>
           <t>SRG-OS-000039-GPOS-00017,SRG-OS-000342-GPOS-00133,SRG-OS-000479-GPOS-00224</t>
         </is>
       </c>
-      <c r="D39" s="2" t="inlineStr">
+      <c r="D40" s="2" t="inlineStr">
         <is>
           <t>CCE-83686-6</t>
         </is>
       </c>
-      <c r="E39" s="2" t="inlineStr">
+      <c r="E40" s="2" t="inlineStr">
         <is>
           <t>The operating system must, at a minimum, off-load audit data from interconnected systems in real time and off-load audit data from standalone systems weekly.</t>
         </is>
       </c>
-      <c r="F39" s="2" t="inlineStr">
-        <is>
-          <t>Red Hat Enterprise Linux 9 must, at a minimum, off-load audit data from interconnected systems in real time and off-load audit data from standalone systems weekly.</t>
-        </is>
-      </c>
-      <c r="G39" s="2" t="inlineStr">
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>Red Hat Enterprise Linux 9 Must, At A Minimum, Off-Load Audit Data From Interconnected Systems In Real Time And Off-Load Audit Data From Standalone Systems Weekly.</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="inlineStr">
         <is>
           <t>Information stored in one location is vulnerable to accidental or incidental deletion or alteration.
 Off-loading is a common process in information systems with limited audit storage capacity.</t>
         </is>
       </c>
-      <c r="H39" s="2" t="inlineStr">
+      <c r="H40" s="2" t="inlineStr">
         <is>
           <t>If option "name_format" is left at its default value of
 "none", audit events from different computers may be hard
 to distinguish.</t>
         </is>
       </c>
-      <c r="I39" s="2" t="inlineStr">
-        <is>
-          <t>Applicable - Configurable</t>
-        </is>
-      </c>
-      <c r="J39" s="2" t="inlineStr">
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>Applicable - Configurable</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
         <is>
           <t>Verify the operating system, at a minimum, off-loads interconnected systems in real time and off-loads standalone systems weekly. If it does not, this is a finding.</t>
         </is>
       </c>
-      <c r="K39" s="2" t="inlineStr">
+      <c r="K40" s="2" t="inlineStr">
         <is>
           <t>To verify that Audit Daemon is configured to record the hostname
 in audit events, run the following command:
@@ -3511,76 +3583,76 @@
 If name_format isn't set to hostname, then this is a finding.</t>
         </is>
       </c>
-      <c r="L39" s="2" t="n"/>
-      <c r="M39" s="2" t="inlineStr">
+      <c r="L40" s="2" t="n"/>
+      <c r="M40" s="2" t="inlineStr">
         <is>
           <t>Edit the file "/etc/audit/auditd.conf" and add or edit the following line:
 name_format = hostname</t>
         </is>
       </c>
-      <c r="N39" s="2" t="inlineStr">
-        <is>
-          <t>CAT II</t>
-        </is>
-      </c>
-      <c r="O39" s="2" t="n"/>
-      <c r="P39" s="2" t="n"/>
-      <c r="Q39" s="2" t="n"/>
-    </row>
-    <row r="40" ht="130" customHeight="1">
-      <c r="A40" s="3" t="inlineStr">
+      <c r="N40" s="2" t="inlineStr">
+        <is>
+          <t>CAT II</t>
+        </is>
+      </c>
+      <c r="O40" s="2" t="n"/>
+      <c r="P40" s="2" t="n"/>
+      <c r="Q40" s="2" t="n"/>
+    </row>
+    <row r="41" ht="130" customHeight="1">
+      <c r="A41" s="3" t="inlineStr">
         <is>
           <t>AU-4 (1)</t>
         </is>
       </c>
-      <c r="B40" s="3" t="inlineStr">
+      <c r="B41" s="3" t="inlineStr">
         <is>
           <t>CCI-001851</t>
         </is>
       </c>
-      <c r="C40" s="3" t="inlineStr">
+      <c r="C41" s="3" t="inlineStr">
         <is>
           <t>SRG-OS-000342-GPOS-00133,SRG-OS-000479-GPOS-00224</t>
         </is>
       </c>
-      <c r="D40" s="3" t="inlineStr">
+      <c r="D41" s="3" t="inlineStr">
         <is>
           <t>CCE-87901-5</t>
         </is>
       </c>
-      <c r="E40" s="3" t="inlineStr">
+      <c r="E41" s="3" t="inlineStr">
         <is>
           <t>The operating system must, at a minimum, off-load audit data from interconnected systems in real time and off-load audit data from standalone systems weekly.</t>
         </is>
       </c>
-      <c r="F40" s="3" t="inlineStr">
-        <is>
-          <t>Red Hat Enterprise Linux 9 must, at a minimum, off-load audit data from interconnected systems in real time and off-load audit data from standalone systems weekly.</t>
-        </is>
-      </c>
-      <c r="G40" s="3" t="inlineStr">
+      <c r="F41" s="3" t="inlineStr">
+        <is>
+          <t>Red Hat Enterprise Linux 9 Must, At A Minimum, Off-Load Audit Data From Interconnected Systems In Real Time And Off-Load Audit Data From Standalone Systems Weekly.</t>
+        </is>
+      </c>
+      <c r="G41" s="3" t="inlineStr">
         <is>
           <t>Information stored in one location is vulnerable to accidental or incidental deletion or alteration.
 Off-loading is a common process in information systems with limited audit storage capacity.</t>
         </is>
       </c>
-      <c r="H40" s="3" t="inlineStr">
+      <c r="H41" s="3" t="inlineStr">
         <is>
           <t>The audit system should have an action setup in the event the internal event queue becomes full
 so that no data is lost.</t>
         </is>
       </c>
-      <c r="I40" s="3" t="inlineStr">
-        <is>
-          <t>Applicable - Configurable</t>
-        </is>
-      </c>
-      <c r="J40" s="3" t="inlineStr">
+      <c r="I41" s="3" t="inlineStr">
+        <is>
+          <t>Applicable - Configurable</t>
+        </is>
+      </c>
+      <c r="J41" s="3" t="inlineStr">
         <is>
           <t>Verify the operating system, at a minimum, off-loads interconnected systems in real time and off-loads standalone systems weekly. If it does not, this is a finding.</t>
         </is>
       </c>
-      <c r="K40" s="3" t="inlineStr">
+      <c r="K41" s="3" t="inlineStr">
         <is>
           <t>Verify the audit system is configured to take an appropriate action when the internal event queue is full:
  $ sudo grep -i overflow_action /etc/audit/auditd.conf 
@@ -3591,72 +3663,72 @@
 If auditd overflow action is not setup correctly, then this is a finding.</t>
         </is>
       </c>
-      <c r="L40" s="3" t="n"/>
-      <c r="M40" s="3" t="inlineStr"/>
-      <c r="N40" s="3" t="inlineStr">
-        <is>
-          <t>CAT II</t>
-        </is>
-      </c>
-      <c r="O40" s="3" t="n"/>
-      <c r="P40" s="3" t="n"/>
-      <c r="Q40" s="3" t="n"/>
-    </row>
-    <row r="41" ht="130" customHeight="1">
-      <c r="A41" s="2" t="inlineStr">
+      <c r="L41" s="3" t="n"/>
+      <c r="M41" s="3" t="inlineStr"/>
+      <c r="N41" s="3" t="inlineStr">
+        <is>
+          <t>CAT II</t>
+        </is>
+      </c>
+      <c r="O41" s="3" t="n"/>
+      <c r="P41" s="3" t="n"/>
+      <c r="Q41" s="3" t="n"/>
+    </row>
+    <row r="42" ht="130" customHeight="1">
+      <c r="A42" s="2" t="inlineStr">
         <is>
           <t>AU-4 (1)</t>
         </is>
       </c>
-      <c r="B41" s="2" t="inlineStr">
+      <c r="B42" s="2" t="inlineStr">
         <is>
           <t>CCI-001851</t>
         </is>
       </c>
-      <c r="C41" s="2" t="inlineStr">
+      <c r="C42" s="2" t="inlineStr">
         <is>
           <t>SRG-OS-000342-GPOS-00133,SRG-OS-000479-GPOS-00224</t>
         </is>
       </c>
-      <c r="D41" s="2" t="inlineStr">
+      <c r="D42" s="2" t="inlineStr">
         <is>
           <t>CCE-86871-1</t>
         </is>
       </c>
-      <c r="E41" s="2" t="inlineStr">
+      <c r="E42" s="2" t="inlineStr">
         <is>
           <t>The operating system must, at a minimum, off-load audit data from interconnected systems in real time and off-load audit data from standalone systems weekly.</t>
         </is>
       </c>
-      <c r="F41" s="2" t="inlineStr">
-        <is>
-          <t>Red Hat Enterprise Linux 9 must, at a minimum, off-load audit data from interconnected systems in real time and off-load audit data from standalone systems weekly.</t>
-        </is>
-      </c>
-      <c r="G41" s="2" t="inlineStr">
+      <c r="F42" s="2" t="inlineStr">
+        <is>
+          <t>Red Hat Enterprise Linux 9 Must, At A Minimum, Off-Load Audit Data From Interconnected Systems In Real Time And Off-Load Audit Data From Standalone Systems Weekly.</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="inlineStr">
         <is>
           <t>Information stored in one location is vulnerable to accidental or incidental deletion or alteration.
 Off-loading is a common process in information systems with limited audit storage capacity.</t>
         </is>
       </c>
-      <c r="H41" s="2" t="inlineStr">
+      <c r="H42" s="2" t="inlineStr">
         <is>
           <t>The audit records generated by Rsyslog contain valuable information regarding system
 configuration, user authentication, and other such information. Audit records should be
 protected from unauthorized access.</t>
         </is>
       </c>
-      <c r="I41" s="2" t="inlineStr">
-        <is>
-          <t>Applicable - Configurable</t>
-        </is>
-      </c>
-      <c r="J41" s="2" t="inlineStr">
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>Applicable - Configurable</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
         <is>
           <t>Verify the operating system, at a minimum, off-loads interconnected systems in real time and off-loads standalone systems weekly. If it does not, this is a finding.</t>
         </is>
       </c>
-      <c r="K41" s="2" t="inlineStr">
+      <c r="K42" s="2" t="inlineStr">
         <is>
           <t>Verify the operating system authenticates the remote logging server for off-loading audit logs with the following command:
  $ sudo grep -i '$ActionSendStreamDriverAuthMode' /etc/rsyslog.conf /etc/rsyslog.d/*.conf 
@@ -3665,77 +3737,77 @@
 If $ActionSendStreamDriverAuthMode in /etc/rsyslog.conf is not set to x509/name, then this is a finding.</t>
         </is>
       </c>
-      <c r="L41" s="2" t="n"/>
-      <c r="M41" s="2" t="inlineStr">
+      <c r="L42" s="2" t="n"/>
+      <c r="M42" s="2" t="inlineStr">
         <is>
           <t>Configure Red Hat Enterprise Linux 9 to authenticate the remote logging server for off-loading audit logs by setting the following option in "/etc/rsyslog.conf" or "/etc/rsyslog.d/[customfile].conf":
 $ActionSendStreamDriverAuthMode x509/name</t>
         </is>
       </c>
-      <c r="N41" s="2" t="inlineStr">
-        <is>
-          <t>CAT II</t>
-        </is>
-      </c>
-      <c r="O41" s="2" t="n"/>
-      <c r="P41" s="2" t="n"/>
-      <c r="Q41" s="2" t="n"/>
-    </row>
-    <row r="42" ht="130" customHeight="1">
-      <c r="A42" s="2" t="inlineStr">
+      <c r="N42" s="2" t="inlineStr">
+        <is>
+          <t>CAT II</t>
+        </is>
+      </c>
+      <c r="O42" s="2" t="n"/>
+      <c r="P42" s="2" t="n"/>
+      <c r="Q42" s="2" t="n"/>
+    </row>
+    <row r="43" ht="130" customHeight="1">
+      <c r="A43" s="2" t="inlineStr">
         <is>
           <t>AU-4 (1)</t>
         </is>
       </c>
-      <c r="B42" s="2" t="inlineStr">
+      <c r="B43" s="2" t="inlineStr">
         <is>
           <t>CCI-001851</t>
         </is>
       </c>
-      <c r="C42" s="2" t="inlineStr">
+      <c r="C43" s="2" t="inlineStr">
         <is>
           <t>SRG-OS-000342-GPOS-00133,SRG-OS-000479-GPOS-00224</t>
         </is>
       </c>
-      <c r="D42" s="2" t="inlineStr">
+      <c r="D43" s="2" t="inlineStr">
         <is>
           <t>CCE-90191-8</t>
         </is>
       </c>
-      <c r="E42" s="2" t="inlineStr">
+      <c r="E43" s="2" t="inlineStr">
         <is>
           <t>The operating system must, at a minimum, off-load audit data from interconnected systems in real time and off-load audit data from standalone systems weekly.</t>
         </is>
       </c>
-      <c r="F42" s="2" t="inlineStr">
-        <is>
-          <t>Red Hat Enterprise Linux 9 must, at a minimum, off-load audit data from interconnected systems in real time and off-load audit data from standalone systems weekly.</t>
-        </is>
-      </c>
-      <c r="G42" s="2" t="inlineStr">
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>Red Hat Enterprise Linux 9 Must, At A Minimum, Off-Load Audit Data From Interconnected Systems In Real Time And Off-Load Audit Data From Standalone Systems Weekly.</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="inlineStr">
         <is>
           <t>Information stored in one location is vulnerable to accidental or incidental deletion or alteration.
 Off-loading is a common process in information systems with limited audit storage capacity.</t>
         </is>
       </c>
-      <c r="H42" s="2" t="inlineStr">
+      <c r="H43" s="2" t="inlineStr">
         <is>
           <t>The audit records generated by Rsyslog contain valuable information regarding system
 configuration, user authentication, and other such information. Audit records should be
 protected from unauthorized access.</t>
         </is>
       </c>
-      <c r="I42" s="2" t="inlineStr">
-        <is>
-          <t>Applicable - Configurable</t>
-        </is>
-      </c>
-      <c r="J42" s="2" t="inlineStr">
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>Applicable - Configurable</t>
+        </is>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
         <is>
           <t>Verify the operating system, at a minimum, off-loads interconnected systems in real time and off-loads standalone systems weekly. If it does not, this is a finding.</t>
         </is>
       </c>
-      <c r="K42" s="2" t="inlineStr">
+      <c r="K43" s="2" t="inlineStr">
         <is>
           <t>Verify the operating system encrypts audit records off-loaded onto a different system
 or media from the system being audited with the following commands:
@@ -3745,77 +3817,77 @@
 If rsyslogd ActionSendStreamDriverMode not set to 1, then this is a finding.</t>
         </is>
       </c>
-      <c r="L42" s="2" t="n"/>
-      <c r="M42" s="2" t="inlineStr">
+      <c r="L43" s="2" t="n"/>
+      <c r="M43" s="2" t="inlineStr">
         <is>
           <t>Configure the operating system to encrypt off-loaded audit records by setting the following options in "/etc/rsyslog.conf" or "/etc/rsyslog.d/[customfile].conf":
 $ActionSendStreamDriverMode 1</t>
         </is>
       </c>
-      <c r="N42" s="2" t="inlineStr">
-        <is>
-          <t>CAT II</t>
-        </is>
-      </c>
-      <c r="O42" s="2" t="n"/>
-      <c r="P42" s="2" t="n"/>
-      <c r="Q42" s="2" t="n"/>
-    </row>
-    <row r="43" ht="130" customHeight="1">
-      <c r="A43" s="2" t="inlineStr">
+      <c r="N43" s="2" t="inlineStr">
+        <is>
+          <t>CAT II</t>
+        </is>
+      </c>
+      <c r="O43" s="2" t="n"/>
+      <c r="P43" s="2" t="n"/>
+      <c r="Q43" s="2" t="n"/>
+    </row>
+    <row r="44" ht="130" customHeight="1">
+      <c r="A44" s="2" t="inlineStr">
         <is>
           <t>AU-4 (1)</t>
         </is>
       </c>
-      <c r="B43" s="2" t="inlineStr">
+      <c r="B44" s="2" t="inlineStr">
         <is>
           <t>CCI-001851</t>
         </is>
       </c>
-      <c r="C43" s="2" t="inlineStr">
+      <c r="C44" s="2" t="inlineStr">
         <is>
           <t>SRG-OS-000342-GPOS-00133,SRG-OS-000479-GPOS-00224</t>
         </is>
       </c>
-      <c r="D43" s="2" t="inlineStr">
+      <c r="D44" s="2" t="inlineStr">
         <is>
           <t>CCE-86782-0</t>
         </is>
       </c>
-      <c r="E43" s="2" t="inlineStr">
+      <c r="E44" s="2" t="inlineStr">
         <is>
           <t>The operating system must, at a minimum, off-load audit data from interconnected systems in real time and off-load audit data from standalone systems weekly.</t>
         </is>
       </c>
-      <c r="F43" s="2" t="inlineStr">
-        <is>
-          <t>Red Hat Enterprise Linux 9 must, at a minimum, off-load audit data from interconnected systems in real time and off-load audit data from standalone systems weekly.</t>
-        </is>
-      </c>
-      <c r="G43" s="2" t="inlineStr">
+      <c r="F44" s="2" t="inlineStr">
+        <is>
+          <t>Red Hat Enterprise Linux 9 Must, At A Minimum, Off-Load Audit Data From Interconnected Systems In Real Time And Off-Load Audit Data From Standalone Systems Weekly.</t>
+        </is>
+      </c>
+      <c r="G44" s="2" t="inlineStr">
         <is>
           <t>Information stored in one location is vulnerable to accidental or incidental deletion or alteration.
 Off-loading is a common process in information systems with limited audit storage capacity.</t>
         </is>
       </c>
-      <c r="H43" s="2" t="inlineStr">
+      <c r="H44" s="2" t="inlineStr">
         <is>
           <t>The audit records generated by Rsyslog contain valuable information regarding system
 configuration, user authentication, and other such information. Audit records should be
 protected from unauthorized access.</t>
         </is>
       </c>
-      <c r="I43" s="2" t="inlineStr">
-        <is>
-          <t>Applicable - Configurable</t>
-        </is>
-      </c>
-      <c r="J43" s="2" t="inlineStr">
+      <c r="I44" s="2" t="inlineStr">
+        <is>
+          <t>Applicable - Configurable</t>
+        </is>
+      </c>
+      <c r="J44" s="2" t="inlineStr">
         <is>
           <t>Verify the operating system, at a minimum, off-loads interconnected systems in real time and off-loads standalone systems weekly. If it does not, this is a finding.</t>
         </is>
       </c>
-      <c r="K43" s="2" t="inlineStr">
+      <c r="K44" s="2" t="inlineStr">
         <is>
           <t>Verify the operating system encrypts audit records off-loaded onto a different system
 or media from the system being audited with the following commands:
@@ -3825,136 +3897,136 @@
 If rsyslogd DefaultNetstreamDriver not set to gtls, then this is a finding.</t>
         </is>
       </c>
-      <c r="L43" s="2" t="n"/>
-      <c r="M43" s="2" t="inlineStr">
+      <c r="L44" s="2" t="n"/>
+      <c r="M44" s="2" t="inlineStr">
         <is>
           <t>Configure the operating system to encrypt off-loaded audit records by setting the following options in "/etc/rsyslog.conf" or "/etc/rsyslog.d/[customfile].conf":
 $DefaultNetstreamDriver gtls</t>
         </is>
       </c>
-      <c r="N43" s="2" t="inlineStr">
-        <is>
-          <t>CAT II</t>
-        </is>
-      </c>
-      <c r="O43" s="2" t="n"/>
-      <c r="P43" s="2" t="n"/>
-      <c r="Q43" s="2" t="n"/>
-    </row>
-    <row r="44" ht="130" customHeight="1">
-      <c r="A44" s="2" t="inlineStr">
-        <is>
-          <t>CM-6 b,AU-4 (1),AU-6 (4)</t>
-        </is>
-      </c>
-      <c r="B44" s="2" t="inlineStr">
+      <c r="N44" s="2" t="inlineStr">
+        <is>
+          <t>CAT II</t>
+        </is>
+      </c>
+      <c r="O44" s="2" t="n"/>
+      <c r="P44" s="2" t="n"/>
+      <c r="Q44" s="2" t="n"/>
+    </row>
+    <row r="45" ht="130" customHeight="1">
+      <c r="A45" s="2" t="inlineStr">
+        <is>
+          <t>AU-4 (1),CM-6 b,AU-6 (4)</t>
+        </is>
+      </c>
+      <c r="B45" s="2" t="inlineStr">
         <is>
           <t>CCI-001311,CCI-001312,CCI-000366</t>
         </is>
       </c>
-      <c r="C44" s="2" t="inlineStr">
+      <c r="C45" s="2" t="inlineStr">
         <is>
           <t>SRG-OS-000479-GPOS-00224,SRG-OS-000051-GPOS-00024,SRG-OS-000480-GPOS-00227</t>
         </is>
       </c>
-      <c r="D44" s="2" t="inlineStr">
+      <c r="D45" s="2" t="inlineStr">
         <is>
           <t>CCE-84063-7</t>
         </is>
       </c>
-      <c r="E44" s="2" t="inlineStr">
+      <c r="E45" s="2" t="inlineStr">
         <is>
           <t>The operating system must, at a minimum, off-load audit data from interconnected systems in real time and off-load audit data from standalone systems weekly.</t>
         </is>
       </c>
-      <c r="F44" s="2" t="inlineStr">
-        <is>
-          <t>Red Hat Enterprise Linux 9 must, at a minimum, off-load audit data from interconnected systems in real time and off-load audit data from standalone systems weekly.</t>
-        </is>
-      </c>
-      <c r="G44" s="2" t="inlineStr">
+      <c r="F45" s="2" t="inlineStr">
+        <is>
+          <t>Red Hat Enterprise Linux 9 Must, At A Minimum, Off-Load Audit Data From Interconnected Systems In Real Time And Off-Load Audit Data From Standalone Systems Weekly.</t>
+        </is>
+      </c>
+      <c r="G45" s="2" t="inlineStr">
         <is>
           <t>Information stored in one location is vulnerable to accidental or incidental deletion or alteration.
 Off-loading is a common process in information systems with limited audit storage capacity.</t>
         </is>
       </c>
-      <c r="H44" s="2" t="inlineStr">
+      <c r="H45" s="2" t="inlineStr">
         <is>
           <t>The rsyslog package provides the rsyslog daemon, which provides
 system logging services.</t>
         </is>
       </c>
-      <c r="I44" s="2" t="inlineStr">
-        <is>
-          <t>Applicable - Configurable</t>
-        </is>
-      </c>
-      <c r="J44" s="2" t="inlineStr">
+      <c r="I45" s="2" t="inlineStr">
+        <is>
+          <t>Applicable - Configurable</t>
+        </is>
+      </c>
+      <c r="J45" s="2" t="inlineStr">
         <is>
           <t>Verify the operating system, at a minimum, off-loads interconnected systems in real time and off-loads standalone systems weekly. If it does not, this is a finding.</t>
         </is>
       </c>
-      <c r="K44" s="2" t="inlineStr">
+      <c r="K45" s="2" t="inlineStr">
         <is>
           <t>Run the following command to determine if the  rsyslog  package is installed:  $ rpm -q rsyslog 
 If the package is not installed, then this is a finding.</t>
         </is>
       </c>
-      <c r="L44" s="2" t="n"/>
-      <c r="M44" s="2" t="inlineStr">
+      <c r="L45" s="2" t="n"/>
+      <c r="M45" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Configure Red Hat Enterprise Linux 9 to offload audit logs by installing the required packages with the following command:
 The  rsyslog  package can be installed with the following command:
 $ sudo dnf install rsyslog </t>
         </is>
       </c>
-      <c r="N44" s="2" t="inlineStr">
-        <is>
-          <t>CAT II</t>
-        </is>
-      </c>
-      <c r="O44" s="2" t="n"/>
-      <c r="P44" s="2" t="n"/>
-      <c r="Q44" s="2" t="n"/>
-    </row>
-    <row r="45" ht="130" customHeight="1">
-      <c r="A45" s="2" t="inlineStr">
-        <is>
-          <t>CM-6 b,AU-4 (1)</t>
-        </is>
-      </c>
-      <c r="B45" s="2" t="inlineStr">
+      <c r="N45" s="2" t="inlineStr">
+        <is>
+          <t>CAT II</t>
+        </is>
+      </c>
+      <c r="O45" s="2" t="n"/>
+      <c r="P45" s="2" t="n"/>
+      <c r="Q45" s="2" t="n"/>
+    </row>
+    <row r="46" ht="130" customHeight="1">
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>AU-4 (1),CM-6 b</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="inlineStr">
         <is>
           <t>CCI-000366,CCI-001348,CCI-000136,CCI-001851</t>
         </is>
       </c>
-      <c r="C45" s="2" t="inlineStr">
+      <c r="C46" s="2" t="inlineStr">
         <is>
           <t>SRG-OS-000479-GPOS-00224,SRG-OS-000480-GPOS-00227,SRG-OS-000342-GPOS-00133</t>
         </is>
       </c>
-      <c r="D45" s="2" t="inlineStr">
+      <c r="D46" s="2" t="inlineStr">
         <is>
           <t>CCE-83990-2</t>
         </is>
       </c>
-      <c r="E45" s="2" t="inlineStr">
+      <c r="E46" s="2" t="inlineStr">
         <is>
           <t>The operating system must, at a minimum, off-load audit data from interconnected systems in real time and off-load audit data from standalone systems weekly.</t>
         </is>
       </c>
-      <c r="F45" s="2" t="inlineStr">
-        <is>
-          <t>Red Hat Enterprise Linux 9 must, at a minimum, off-load audit data from interconnected systems in real time and off-load audit data from standalone systems weekly.</t>
-        </is>
-      </c>
-      <c r="G45" s="2" t="inlineStr">
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>Red Hat Enterprise Linux 9 Must, At A Minimum, Off-Load Audit Data From Interconnected Systems In Real Time And Off-Load Audit Data From Standalone Systems Weekly.</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="inlineStr">
         <is>
           <t>Information stored in one location is vulnerable to accidental or incidental deletion or alteration.
 Off-loading is a common process in information systems with limited audit storage capacity.</t>
         </is>
       </c>
-      <c r="H45" s="2" t="inlineStr">
+      <c r="H46" s="2" t="inlineStr">
         <is>
           <t>A log server (loghost) receives syslog messages from one or more
 systems. This data can be used as an additional log source in the event a
@@ -3963,17 +4035,17 @@
 place to view the status of multiple hosts within the enterprise.</t>
         </is>
       </c>
-      <c r="I45" s="2" t="inlineStr">
-        <is>
-          <t>Applicable - Configurable</t>
-        </is>
-      </c>
-      <c r="J45" s="2" t="inlineStr">
+      <c r="I46" s="2" t="inlineStr">
+        <is>
+          <t>Applicable - Configurable</t>
+        </is>
+      </c>
+      <c r="J46" s="2" t="inlineStr">
         <is>
           <t>Verify the operating system, at a minimum, off-loads interconnected systems in real time and off-loads standalone systems weekly. If it does not, this is a finding.</t>
         </is>
       </c>
-      <c r="K45" s="2" t="inlineStr">
+      <c r="K46" s="2" t="inlineStr">
         <is>
           <t>To ensure logs are sent to a remote host, examine the file
 "/etc/rsyslog.conf".
@@ -3986,61 +4058,61 @@
 If no evidence that the audit logs are being off-loaded to another system or media, then this is a finding.</t>
         </is>
       </c>
-      <c r="L45" s="2" t="n"/>
-      <c r="M45" s="2" t="inlineStr">
+      <c r="L46" s="2" t="n"/>
+      <c r="M46" s="2" t="inlineStr">
         <is>
           <t>Configure Red Hat Enterprise Linux 9 to off-load audit records onto a different system or media from the system being audited by specifying the remote logging server in "/etc/rsyslog.conf"" or "/etc/rsyslog.d/[customfile].conf" with the name or IP address of the log aggregation server.
 *.* @@[remoteloggingserver]:[port]"</t>
         </is>
       </c>
-      <c r="N45" s="2" t="inlineStr">
-        <is>
-          <t>CAT II</t>
-        </is>
-      </c>
-      <c r="O45" s="2" t="n"/>
-      <c r="P45" s="2" t="n"/>
-      <c r="Q45" s="2" t="n"/>
-    </row>
-    <row r="46" ht="130" customHeight="1">
-      <c r="A46" s="2" t="inlineStr">
-        <is>
-          <t>AU-8 (1) (a),AU-8 (1) (b),AU-8 b</t>
-        </is>
-      </c>
-      <c r="B46" s="2" t="inlineStr">
+      <c r="N46" s="2" t="inlineStr">
+        <is>
+          <t>CAT II</t>
+        </is>
+      </c>
+      <c r="O46" s="2" t="n"/>
+      <c r="P46" s="2" t="n"/>
+      <c r="Q46" s="2" t="n"/>
+    </row>
+    <row r="47" ht="130" customHeight="1">
+      <c r="A47" s="2" t="inlineStr">
+        <is>
+          <t>AU-8 (1) (a),AU-8 b,AU-8 (1) (b)</t>
+        </is>
+      </c>
+      <c r="B47" s="2" t="inlineStr">
         <is>
           <t>CCI-001891,CCI-002046</t>
         </is>
       </c>
-      <c r="C46" s="2" t="inlineStr">
+      <c r="C47" s="2" t="inlineStr">
         <is>
           <t>SRG-OS-000355-GPOS-00143,SRG-OS-000356-GPOS-00144,SRG-OS-000359-GPOS-00146</t>
         </is>
       </c>
-      <c r="D46" s="2" t="inlineStr">
+      <c r="D47" s="2" t="inlineStr">
         <is>
           <t>CCE-88648-1</t>
         </is>
       </c>
-      <c r="E46" s="2" t="inlineStr">
+      <c r="E47" s="2" t="inlineStr">
         <is>
           <t>The operating system must, for networked systems, compare internal information system clocks at least every 24 hours with a server which is synchronized to one of the redundant United States Naval Observatory (USNO) time servers, or a time server designated for the appropriate DoD network (NIPRNet/SIPRNet), and/or the Global Positioning System (GPS).</t>
         </is>
       </c>
-      <c r="F46" s="2" t="inlineStr">
-        <is>
-          <t>Red Hat Enterprise Linux 9 must, for networked systems, compare internal information system clocks at least every 24 hours with a server which is synchronized to one of the redundant United States Naval Observatory (USNO) time servers, or a time server designated for the appropriate DoD network (NIPRNet/SIPRNet), and/or the Global Positioning System (GPS).</t>
-        </is>
-      </c>
-      <c r="G46" s="2" t="inlineStr">
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>Red Hat Enterprise Linux 9 Must, For Networked Systems, Compare Internal Information System Clocks At Least Every 24 Hours With A Server Which Is Synchronized To One Of The Redundant United States Naval Observatory (Usno) Time Servers, Or A Time Server Designated For The Appropriate Dod Network (Niprnet/Siprnet), And/Or The Global Positioning System (Gps).</t>
+        </is>
+      </c>
+      <c r="G47" s="2" t="inlineStr">
         <is>
           <t>Inaccurate time stamps make it more difficult to correlate events and can lead to an inaccurate analysis. Determining the correct time a particular event occurred on a system is critical when conducting forensic analysis and investigating system events. Sources outside the configured acceptable allowance (drift) may be inaccurate.
 Synchronizing internal information system clocks provides uniformity of time stamps for information systems with multiple system clocks and systems connected over a network.
 Organizations should consider endpoints that may not have regular access to the authoritative time server (e.g., mobile, teleworking, and tactical endpoints).</t>
         </is>
       </c>
-      <c r="H46" s="2" t="inlineStr">
+      <c r="H47" s="2" t="inlineStr">
         <is>
           <t>Inaccurate time stamps make it more difficult to correlate
 events and can lead to an inaccurate analysis. Determining the correct
@@ -4049,17 +4121,17 @@
 configured acceptable allowance (drift) may be inaccurate.</t>
         </is>
       </c>
-      <c r="I46" s="2" t="inlineStr">
-        <is>
-          <t>Applicable - Configurable</t>
-        </is>
-      </c>
-      <c r="J46" s="2" t="inlineStr">
+      <c r="I47" s="2" t="inlineStr">
+        <is>
+          <t>Applicable - Configurable</t>
+        </is>
+      </c>
+      <c r="J47" s="2" t="inlineStr">
         <is>
           <t>Verify the operating system, for networked systems, compares internal information system clocks at least every 24 hours with a server which is synchronized to one of the redundant United States Naval Observatory (USNO) time servers, or a time server designated for the appropriate DoD network (NIPRNet/SIPRNet), and/or the Global Positioning System (GPS). If it does not, this is a finding.</t>
         </is>
       </c>
-      <c r="K46" s="2" t="inlineStr">
+      <c r="K47" s="2" t="inlineStr">
         <is>
           <t>Verify Red Hat Enterprise Linux 9 is securely comparing internal information system clocks at a regular interval with an NTP server with the following commands:
 To verify that "maxpoll" has been set properly, perform the following:
@@ -4069,148 +4141,148 @@
 If maxpoll does not exist or maxpoll has not been set to the expected value of 10, then this is a finding.</t>
         </is>
       </c>
-      <c r="L46" s="2" t="n"/>
-      <c r="M46" s="2" t="inlineStr">
+      <c r="L47" s="2" t="n"/>
+      <c r="M47" s="2" t="inlineStr">
         <is>
           <t>Configure Red Hat Enterprise Linux 9 to securely compare internal information system clocks at a regular interval with an NTP server by adding/modifying the following line in the /etc/chrony.conf file.
 server [ntp.server.name] iburst maxpoll 10</t>
         </is>
       </c>
-      <c r="N46" s="2" t="inlineStr">
-        <is>
-          <t>CAT II</t>
-        </is>
-      </c>
-      <c r="O46" s="2" t="n"/>
-      <c r="P46" s="2" t="n"/>
-      <c r="Q46" s="2" t="n"/>
-    </row>
-    <row r="47" ht="130" customHeight="1">
-      <c r="A47" s="3" t="inlineStr">
+      <c r="N47" s="2" t="inlineStr">
+        <is>
+          <t>CAT II</t>
+        </is>
+      </c>
+      <c r="O47" s="2" t="n"/>
+      <c r="P47" s="2" t="n"/>
+      <c r="Q47" s="2" t="n"/>
+    </row>
+    <row r="48" ht="130" customHeight="1">
+      <c r="A48" s="3" t="inlineStr">
         <is>
           <t>AU-8 (1) (a)</t>
         </is>
       </c>
-      <c r="B47" s="3" t="inlineStr">
+      <c r="B48" s="3" t="inlineStr">
         <is>
           <t>CCI-001891</t>
         </is>
       </c>
-      <c r="C47" s="3" t="inlineStr">
+      <c r="C48" s="3" t="inlineStr">
         <is>
           <t>SRG-OS-000355-GPOS-00143</t>
         </is>
       </c>
-      <c r="D47" s="3" t="inlineStr">
+      <c r="D48" s="3" t="inlineStr">
         <is>
           <t>CCE-84215-3</t>
         </is>
       </c>
-      <c r="E47" s="3" t="inlineStr">
+      <c r="E48" s="3" t="inlineStr">
         <is>
           <t>The operating system must, for networked systems, compare internal information system clocks at least every 24 hours with a server which is synchronized to one of the redundant United States Naval Observatory (USNO) time servers, or a time server designated for the appropriate DoD network (NIPRNet/SIPRNet), and/or the Global Positioning System (GPS).</t>
         </is>
       </c>
-      <c r="F47" s="3" t="inlineStr">
-        <is>
-          <t>Red Hat Enterprise Linux 9 must, for networked systems, compare internal information system clocks at least every 24 hours with a server which is synchronized to one of the redundant United States Naval Observatory (USNO) time servers, or a time server designated for the appropriate DoD network (NIPRNet/SIPRNet), and/or the Global Positioning System (GPS).</t>
-        </is>
-      </c>
-      <c r="G47" s="3" t="inlineStr">
+      <c r="F48" s="3" t="inlineStr">
+        <is>
+          <t>Red Hat Enterprise Linux 9 Must, For Networked Systems, Compare Internal Information System Clocks At Least Every 24 Hours With A Server Which Is Synchronized To One Of The Redundant United States Naval Observatory (Usno) Time Servers, Or A Time Server Designated For The Appropriate Dod Network (Niprnet/Siprnet), And/Or The Global Positioning System (Gps).</t>
+        </is>
+      </c>
+      <c r="G48" s="3" t="inlineStr">
         <is>
           <t>Inaccurate time stamps make it more difficult to correlate events and can lead to an inaccurate analysis. Determining the correct time a particular event occurred on a system is critical when conducting forensic analysis and investigating system events. Sources outside the configured acceptable allowance (drift) may be inaccurate.
 Synchronizing internal information system clocks provides uniformity of time stamps for information systems with multiple system clocks and systems connected over a network.
 Organizations should consider endpoints that may not have regular access to the authoritative time server (e.g., mobile, teleworking, and tactical endpoints).</t>
         </is>
       </c>
-      <c r="H47" s="3" t="inlineStr">
+      <c r="H48" s="3" t="inlineStr">
         <is>
           <t>Time synchronization is important to support time sensitive security mechanisms like
 Kerberos and also ensures log files have consistent time records across the enterprise,
 which aids in forensic investigations.</t>
         </is>
       </c>
-      <c r="I47" s="3" t="inlineStr">
-        <is>
-          <t>Applicable - Configurable</t>
-        </is>
-      </c>
-      <c r="J47" s="3" t="inlineStr">
+      <c r="I48" s="3" t="inlineStr">
+        <is>
+          <t>Applicable - Configurable</t>
+        </is>
+      </c>
+      <c r="J48" s="3" t="inlineStr">
         <is>
           <t>Verify the operating system, for networked systems, compares internal information system clocks at least every 24 hours with a server which is synchronized to one of the redundant United States Naval Observatory (USNO) time servers, or a time server designated for the appropriate DoD network (NIPRNet/SIPRNet), and/or the Global Positioning System (GPS). If it does not, this is a finding.</t>
         </is>
       </c>
-      <c r="K47" s="3" t="inlineStr">
+      <c r="K48" s="3" t="inlineStr">
         <is>
           <t>Run the following command to determine if the  chrony  package is installed:  $ rpm -q chrony 
 If the package is not installed, then this is a finding.</t>
         </is>
       </c>
-      <c r="L47" s="3" t="n"/>
-      <c r="M47" s="3" t="inlineStr"/>
-      <c r="N47" s="3" t="inlineStr">
-        <is>
-          <t>CAT II</t>
-        </is>
-      </c>
-      <c r="O47" s="3" t="n"/>
-      <c r="P47" s="3" t="n"/>
-      <c r="Q47" s="3" t="n"/>
-    </row>
-    <row r="48" ht="130" customHeight="1">
-      <c r="A48" s="2" t="inlineStr">
+      <c r="L48" s="3" t="n"/>
+      <c r="M48" s="3" t="inlineStr"/>
+      <c r="N48" s="3" t="inlineStr">
+        <is>
+          <t>CAT II</t>
+        </is>
+      </c>
+      <c r="O48" s="3" t="n"/>
+      <c r="P48" s="3" t="n"/>
+      <c r="Q48" s="3" t="n"/>
+    </row>
+    <row r="49" ht="130" customHeight="1">
+      <c r="A49" s="2" t="inlineStr">
         <is>
           <t>IA-2 (12),IA-2 (11)</t>
         </is>
       </c>
-      <c r="B48" s="2" t="inlineStr">
+      <c r="B49" s="2" t="inlineStr">
         <is>
           <t>CCI-001948</t>
         </is>
       </c>
-      <c r="C48" s="2" t="inlineStr">
+      <c r="C49" s="2" t="inlineStr">
         <is>
           <t>SRG-OS-000375-GPOS-00160,SRG-OS-000377-GPOS-00162</t>
         </is>
       </c>
-      <c r="D48" s="2" t="inlineStr">
+      <c r="D49" s="2" t="inlineStr">
         <is>
           <t>CCE-87088-1</t>
         </is>
       </c>
-      <c r="E48" s="2" t="inlineStr">
+      <c r="E49" s="2" t="inlineStr">
         <is>
           <t>The operating system must electronically verify Personal Identity Verification (PIV) credentials.</t>
         </is>
       </c>
-      <c r="F48" s="2" t="inlineStr">
-        <is>
-          <t>Red Hat Enterprise Linux 9 must electronically verify Personal Identity Verification (PIV) credentials.</t>
-        </is>
-      </c>
-      <c r="G48" s="2" t="inlineStr">
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>Red Hat Enterprise Linux 9 Must Electronically Verify Personal Identity Verification (Piv) Credentials.</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="inlineStr">
         <is>
           <t>The use of PIV credentials facilitates standardization and reduces the risk of unauthorized access.
 DoD has mandated the use of the CAC to support identity management and personal authentication for systems covered under Homeland Security Presidential Directive (HSPD) 12, as well as making the CAC a primary component of layered protection for national security systems.</t>
         </is>
       </c>
-      <c r="H48" s="2" t="inlineStr">
+      <c r="H49" s="2" t="inlineStr">
         <is>
           <t>Ensuring that multifactor solutions certificates are checked via Online Certificate Status Protocol (OCSP)
 ensures the security of the system.</t>
         </is>
       </c>
-      <c r="I48" s="2" t="inlineStr">
-        <is>
-          <t>Applicable - Configurable</t>
-        </is>
-      </c>
-      <c r="J48" s="2" t="inlineStr">
+      <c r="I49" s="2" t="inlineStr">
+        <is>
+          <t>Applicable - Configurable</t>
+        </is>
+      </c>
+      <c r="J49" s="2" t="inlineStr">
         <is>
           <t>Verify the operating system electronically verifies Personal Identity Verification (PIV) credentials. If it does not, this is a finding.</t>
         </is>
       </c>
-      <c r="K48" s="2" t="inlineStr">
+      <c r="K49" s="2" t="inlineStr">
         <is>
           <t>Check to see if Online Certificate Status Protocol (OCSP)
 is enabled and using the proper digest value on the system with the following command:
@@ -4220,8 +4292,8 @@
 If certificate_verification in sssd is not configured, then this is a finding.</t>
         </is>
       </c>
-      <c r="L48" s="2" t="n"/>
-      <c r="M48" s="2" t="inlineStr">
+      <c r="L49" s="2" t="n"/>
+      <c r="M49" s="2" t="inlineStr">
         <is>
           <t>Configure the operating system to implement certificate status checking for multifactor authentication.
 Review the "/etc/sssd/conf.d/certificate_verification.conf" file to determine if the system is configured to prevent OCSP or certificate verification.
@@ -4234,53 +4306,53 @@
 $ sudo systemctl restart sssd.service</t>
         </is>
       </c>
-      <c r="N48" s="2" t="inlineStr">
-        <is>
-          <t>CAT II</t>
-        </is>
-      </c>
-      <c r="O48" s="2" t="n"/>
-      <c r="P48" s="2" t="n"/>
-      <c r="Q48" s="2" t="n"/>
-    </row>
-    <row r="49" ht="130" customHeight="1">
-      <c r="A49" s="2" t="inlineStr">
-        <is>
-          <t>IA-2 (1),IA-2 (12),IA-2 (11)</t>
-        </is>
-      </c>
-      <c r="B49" s="2" t="inlineStr">
+      <c r="N49" s="2" t="inlineStr">
+        <is>
+          <t>CAT II</t>
+        </is>
+      </c>
+      <c r="O49" s="2" t="n"/>
+      <c r="P49" s="2" t="n"/>
+      <c r="Q49" s="2" t="n"/>
+    </row>
+    <row r="50" ht="130" customHeight="1">
+      <c r="A50" s="2" t="inlineStr">
+        <is>
+          <t>IA-2 (12),IA-2 (11),IA-2 (1)</t>
+        </is>
+      </c>
+      <c r="B50" s="2" t="inlineStr">
         <is>
           <t>CCI-000765,CCI-001948,CCI-001953,CCI-001954</t>
         </is>
       </c>
-      <c r="C49" s="2" t="inlineStr">
+      <c r="C50" s="2" t="inlineStr">
         <is>
           <t>SRG-OS-000105-GPOS-00052,SRG-OS-000375-GPOS-00160,SRG-OS-000375-GPOS-00161,SRG-OS-000377-GPOS-00162</t>
         </is>
       </c>
-      <c r="D49" s="2" t="inlineStr">
+      <c r="D50" s="2" t="inlineStr">
         <is>
           <t>CCE-83596-7</t>
         </is>
       </c>
-      <c r="E49" s="2" t="inlineStr">
+      <c r="E50" s="2" t="inlineStr">
         <is>
           <t>The operating system must electronically verify Personal Identity Verification (PIV) credentials.</t>
         </is>
       </c>
-      <c r="F49" s="2" t="inlineStr">
-        <is>
-          <t>Red Hat Enterprise Linux 9 must electronically verify Personal Identity Verification (PIV) credentials.</t>
-        </is>
-      </c>
-      <c r="G49" s="2" t="inlineStr">
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>Red Hat Enterprise Linux 9 Must Electronically Verify Personal Identity Verification (Piv) Credentials.</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="inlineStr">
         <is>
           <t>The use of PIV credentials facilitates standardization and reduces the risk of unauthorized access.
 DoD has mandated the use of the CAC to support identity management and personal authentication for systems covered under Homeland Security Presidential Directive (HSPD) 12, as well as making the CAC a primary component of layered protection for national security systems.</t>
         </is>
       </c>
-      <c r="H49" s="2" t="inlineStr">
+      <c r="H50" s="2" t="inlineStr">
         <is>
           <t>Using an authentication device, such as a CAC or token that is separate from
 the information system, ensures that even if the information system is
@@ -4293,17 +4365,17 @@
 Access Card.</t>
         </is>
       </c>
-      <c r="I49" s="2" t="inlineStr">
-        <is>
-          <t>Applicable - Configurable</t>
-        </is>
-      </c>
-      <c r="J49" s="2" t="inlineStr">
+      <c r="I50" s="2" t="inlineStr">
+        <is>
+          <t>Applicable - Configurable</t>
+        </is>
+      </c>
+      <c r="J50" s="2" t="inlineStr">
         <is>
           <t>Verify the operating system electronically verifies Personal Identity Verification (PIV) credentials. If it does not, this is a finding.</t>
         </is>
       </c>
-      <c r="K49" s="2" t="inlineStr">
+      <c r="K50" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 'Run the following command to determine if the  openssl-pkcs11  package is installed:
@@ -4311,54 +4383,54 @@
 If smartcard software is not installed, then this is a finding.</t>
         </is>
       </c>
-      <c r="L49" s="2" t="n"/>
-      <c r="M49" s="2" t="inlineStr">
+      <c r="L50" s="2" t="n"/>
+      <c r="M50" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">The  openssl-pkcs11  package can be installed with the following command:
 $ sudo dnf install openssl-pkcs11 </t>
         </is>
       </c>
-      <c r="N49" s="2" t="inlineStr">
-        <is>
-          <t>CAT II</t>
-        </is>
-      </c>
-      <c r="O49" s="2" t="n"/>
-      <c r="P49" s="2" t="n"/>
-      <c r="Q49" s="2" t="n"/>
-    </row>
-    <row r="50" ht="130" customHeight="1">
-      <c r="A50" s="2" t="inlineStr">
-        <is>
-          <t>SI-6 d,SI-6 b,CM-3 (5)</t>
-        </is>
-      </c>
-      <c r="B50" s="2" t="inlineStr">
+      <c r="N50" s="2" t="inlineStr">
+        <is>
+          <t>CAT II</t>
+        </is>
+      </c>
+      <c r="O50" s="2" t="n"/>
+      <c r="P50" s="2" t="n"/>
+      <c r="Q50" s="2" t="n"/>
+    </row>
+    <row r="51" ht="130" customHeight="1">
+      <c r="A51" s="2" t="inlineStr">
+        <is>
+          <t>SI-6 b,SI-6 d,CM-3 (5)</t>
+        </is>
+      </c>
+      <c r="B51" s="2" t="inlineStr">
         <is>
           <t>CCI-001744,CCI-002699,CCI-002702</t>
         </is>
       </c>
-      <c r="C50" s="2" t="inlineStr">
+      <c r="C51" s="2" t="inlineStr">
         <is>
           <t>SRG-OS-000363-GPOS-00150,SRG-OS-000446-GPOS-00200,SRG-OS-000447-GPOS-00201</t>
         </is>
       </c>
-      <c r="D50" s="2" t="inlineStr">
+      <c r="D51" s="2" t="inlineStr">
         <is>
           <t>CCE-83437-4</t>
         </is>
       </c>
-      <c r="E50" s="2" t="inlineStr">
+      <c r="E51" s="2" t="inlineStr">
         <is>
           <t>The operating system must shut down the information system, restart the information system, and/or notify the system administrator when anomalies in the operation of any security functions are discovered.</t>
         </is>
       </c>
-      <c r="F50" s="2" t="inlineStr">
-        <is>
-          <t>Red Hat Enterprise Linux 9 must shut down the information system, restart the information system, and/or notify the system administrator when anomalies in the operation of any security functions are discovered.</t>
-        </is>
-      </c>
-      <c r="G50" s="2" t="inlineStr">
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>Red Hat Enterprise Linux 9 Must Shut Down The Information System, Restart The Information System, And/Or Notify The System Administrator When Anomalies In The Operation Of Any Security Functions Are Discovered.</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="inlineStr">
         <is>
           <t>If anomalies are not acted upon, security functions may fail to secure the system. 
 Security function is defined as the hardware, software, and/or firmware of the information system responsible for enforcing the system security policy and supporting the isolation of code and data on which the protection is based. Security functionality includes, but is not limited to, establishing system accounts, configuring access authorizations (i.e., permissions, privileges), setting events to be audited, and setting intrusion detection parameters.
@@ -4366,7 +4438,7 @@
 This capability must take into account operational requirements for availability for selecting an appropriate response. The organization may choose to shut down or restart the information system upon security function anomaly detection.</t>
         </is>
       </c>
-      <c r="H50" s="2" t="inlineStr">
+      <c r="H51" s="2" t="inlineStr">
         <is>
           <t>By default, AIDE does not install itself for periodic execution. Periodically
 running AIDE is necessary to reveal unexpected changes in installed files.
@@ -4381,17 +4453,17 @@
 monitoring system trap when there is an unauthorized modification of a configuration item.</t>
         </is>
       </c>
-      <c r="I50" s="2" t="inlineStr">
-        <is>
-          <t>Applicable - Configurable</t>
-        </is>
-      </c>
-      <c r="J50" s="2" t="inlineStr">
+      <c r="I51" s="2" t="inlineStr">
+        <is>
+          <t>Applicable - Configurable</t>
+        </is>
+      </c>
+      <c r="J51" s="2" t="inlineStr">
         <is>
           <t>Verify the operating system shuts down the information system, restarts the information system, and/or notifies the system administrator when anomalies in the operation of any security functions are discovered. If it does not, this is a finding.</t>
         </is>
       </c>
-      <c r="K50" s="2" t="inlineStr">
+      <c r="K51" s="2" t="inlineStr">
         <is>
           <t>Verify the operating system routinely checks the baseline configuration for unauthorized changes.
 To determine that periodic AIDE execution has been scheduled, run the following command:
@@ -4402,55 +4474,55 @@
 If AIDE is not configured to scan periodically, then this is a finding.</t>
         </is>
       </c>
-      <c r="L50" s="2" t="n"/>
-      <c r="M50" s="2" t="inlineStr">
+      <c r="L51" s="2" t="n"/>
+      <c r="M51" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Configure the file integrity to run at least weekly.
 Edit "/etc/crontab" and add or edit the following line:
  05 4 * * * root  --check </t>
         </is>
       </c>
-      <c r="N50" s="2" t="inlineStr">
-        <is>
-          <t>CAT II</t>
-        </is>
-      </c>
-      <c r="O50" s="2" t="n"/>
-      <c r="P50" s="2" t="n"/>
-      <c r="Q50" s="2" t="n"/>
-    </row>
-    <row r="51" ht="130" customHeight="1">
-      <c r="A51" s="3" t="inlineStr">
+      <c r="N51" s="2" t="inlineStr">
+        <is>
+          <t>CAT II</t>
+        </is>
+      </c>
+      <c r="O51" s="2" t="n"/>
+      <c r="P51" s="2" t="n"/>
+      <c r="Q51" s="2" t="n"/>
+    </row>
+    <row r="52" ht="130" customHeight="1">
+      <c r="A52" s="3" t="inlineStr">
         <is>
           <t>SI-6 d,CM-3 (5)</t>
         </is>
       </c>
-      <c r="B51" s="3" t="inlineStr">
+      <c r="B52" s="3" t="inlineStr">
         <is>
           <t>CCI-001744,CCI-002702</t>
         </is>
       </c>
-      <c r="C51" s="3" t="inlineStr">
+      <c r="C52" s="3" t="inlineStr">
         <is>
           <t>SRG-OS-000363-GPOS-00150,SRG-OS-000447-GPOS-00201</t>
         </is>
       </c>
-      <c r="D51" s="3" t="inlineStr">
+      <c r="D52" s="3" t="inlineStr">
         <is>
           <t>CCE-90844-2</t>
         </is>
       </c>
-      <c r="E51" s="3" t="inlineStr">
+      <c r="E52" s="3" t="inlineStr">
         <is>
           <t>The operating system must shut down the information system, restart the information system, and/or notify the system administrator when anomalies in the operation of any security functions are discovered.</t>
         </is>
       </c>
-      <c r="F51" s="3" t="inlineStr">
-        <is>
-          <t>Red Hat Enterprise Linux 9 must shut down the information system, restart the information system, and/or notify the system administrator when anomalies in the operation of any security functions are discovered.</t>
-        </is>
-      </c>
-      <c r="G51" s="3" t="inlineStr">
+      <c r="F52" s="3" t="inlineStr">
+        <is>
+          <t>Red Hat Enterprise Linux 9 Must Shut Down The Information System, Restart The Information System, And/Or Notify The System Administrator When Anomalies In The Operation Of Any Security Functions Are Discovered.</t>
+        </is>
+      </c>
+      <c r="G52" s="3" t="inlineStr">
         <is>
           <t>If anomalies are not acted upon, security functions may fail to secure the system. 
 Security function is defined as the hardware, software, and/or firmware of the information system responsible for enforcing the system security policy and supporting the isolation of code and data on which the protection is based. Security functionality includes, but is not limited to, establishing system accounts, configuring access authorizations (i.e., permissions, privileges), setting events to be audited, and setting intrusion detection parameters.
@@ -4458,7 +4530,7 @@
 This capability must take into account operational requirements for availability for selecting an appropriate response. The organization may choose to shut down or restart the information system upon security function anomaly detection.</t>
         </is>
       </c>
-      <c r="H51" s="3" t="inlineStr">
+      <c r="H52" s="3" t="inlineStr">
         <is>
           <t>Unauthorized changes to the baseline configuration could make the system vulnerable
 to various attacks or allow unauthorized access to the operating system. Changes to
@@ -4471,17 +4543,17 @@
 monitoring system trap when there is an unauthorized modification of a configuration item.</t>
         </is>
       </c>
-      <c r="I51" s="3" t="inlineStr">
-        <is>
-          <t>Applicable - Configurable</t>
-        </is>
-      </c>
-      <c r="J51" s="3" t="inlineStr">
+      <c r="I52" s="3" t="inlineStr">
+        <is>
+          <t>Applicable - Configurable</t>
+        </is>
+      </c>
+      <c r="J52" s="3" t="inlineStr">
         <is>
           <t>Verify the operating system shuts down the information system, restarts the information system, and/or notifies the system administrator when anomalies in the operation of any security functions are discovered. If it does not, this is a finding.</t>
         </is>
       </c>
-      <c r="K51" s="3" t="inlineStr">
+      <c r="K52" s="3" t="inlineStr">
         <is>
           <t>To determine that periodic AIDE execution has been scheduled, run the following command:
  $ grep aide /etc/crontab 
@@ -4492,55 +4564,55 @@
 If AIDE has not been configured or has not been configured to notify personnel of scan details, then this is a finding.</t>
         </is>
       </c>
-      <c r="L51" s="3" t="n"/>
-      <c r="M51" s="3" t="inlineStr"/>
-      <c r="N51" s="3" t="inlineStr">
-        <is>
-          <t>CAT II</t>
-        </is>
-      </c>
-      <c r="O51" s="3" t="n"/>
-      <c r="P51" s="3" t="n"/>
-      <c r="Q51" s="3" t="n"/>
-    </row>
-    <row r="52" ht="130" customHeight="1">
-      <c r="A52" s="3" t="inlineStr">
-        <is>
-          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
-        </is>
-      </c>
-      <c r="B52" s="3" t="inlineStr">
+      <c r="L52" s="3" t="n"/>
+      <c r="M52" s="3" t="inlineStr"/>
+      <c r="N52" s="3" t="inlineStr">
+        <is>
+          <t>CAT II</t>
+        </is>
+      </c>
+      <c r="O52" s="3" t="n"/>
+      <c r="P52" s="3" t="n"/>
+      <c r="Q52" s="3" t="n"/>
+    </row>
+    <row r="53" ht="130" customHeight="1">
+      <c r="A53" s="3" t="inlineStr">
+        <is>
+          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c</t>
+        </is>
+      </c>
+      <c r="B53" s="3" t="inlineStr">
         <is>
           <t>CCI-000126,CCI-000130,CCI-000169,CCI-000172,CCI-002884</t>
         </is>
       </c>
-      <c r="C52" s="3" t="inlineStr">
+      <c r="C53" s="3" t="inlineStr">
         <is>
           <t>SRG-OS-000037-GPOS-00015,SRG-OS-000042-GPOS-00020,SRG-OS-000062-GPOS-00031,SRG-OS-000392-GPOS-00172,SRG-OS-000462-GPOS-00206,SRG-OS-000471-GPOS-00215,SRG-OS-000064-GPOS-00033,SRG-OS-000466-GPOS-00210,SRG-OS-000458-GPOS-00203,SRG-OS-000474-GPOS-00219</t>
         </is>
       </c>
-      <c r="D52" s="3" t="inlineStr">
+      <c r="D53" s="3" t="inlineStr">
         <is>
           <t>CCE-83812-8</t>
         </is>
       </c>
-      <c r="E52" s="3" t="inlineStr">
+      <c r="E53" s="3" t="inlineStr">
         <is>
           <t>The operating system must generate audit records when successful/unsuccessful accesses to objects occur.</t>
         </is>
       </c>
-      <c r="F52" s="3" t="inlineStr">
-        <is>
-          <t>Red Hat Enterprise Linux 9 must generate audit records when successful/unsuccessful accesses to objects occur.</t>
-        </is>
-      </c>
-      <c r="G52" s="3" t="inlineStr">
+      <c r="F53" s="3" t="inlineStr">
+        <is>
+          <t>Red Hat Enterprise Linux 9 Must Generate Audit Records When Successful/Unsuccessful Accesses To Objects Occur.</t>
+        </is>
+      </c>
+      <c r="G53" s="3" t="inlineStr">
         <is>
           <t>Without generating audit records that are specific to the security and mission needs of the organization, it would be difficult to establish, correlate, and investigate the events relating to an incident or identify those responsible for one.
 Audit records can be generated from various components within the information system (e.g., module or policy filter).</t>
         </is>
       </c>
-      <c r="H52" s="3" t="inlineStr">
+      <c r="H53" s="3" t="inlineStr">
         <is>
           <t>The changing of file permissions could indicate that a user is attempting to
 gain access to information that would otherwise be disallowed. Auditing DAC modifications
@@ -4548,17 +4620,17 @@
 unauthorized users.</t>
         </is>
       </c>
-      <c r="I52" s="3" t="inlineStr">
-        <is>
-          <t>Applicable - Configurable</t>
-        </is>
-      </c>
-      <c r="J52" s="3" t="inlineStr">
+      <c r="I53" s="3" t="inlineStr">
+        <is>
+          <t>Applicable - Configurable</t>
+        </is>
+      </c>
+      <c r="J53" s="3" t="inlineStr">
         <is>
           <t>Verify the operating system generates audit records when successful/unsuccessful accesses to objects occur. If it does not, this is a finding.</t>
         </is>
       </c>
-      <c r="K52" s="3" t="inlineStr">
+      <c r="K53" s="3" t="inlineStr">
         <is>
           <t>To determine if the system is configured to audit calls to the
  chown  system call, run the following command:
@@ -4567,55 +4639,55 @@
 If no line is returned, then this is a finding.</t>
         </is>
       </c>
-      <c r="L52" s="3" t="n"/>
-      <c r="M52" s="3" t="inlineStr"/>
-      <c r="N52" s="3" t="inlineStr">
-        <is>
-          <t>CAT II</t>
-        </is>
-      </c>
-      <c r="O52" s="3" t="n"/>
-      <c r="P52" s="3" t="n"/>
-      <c r="Q52" s="3" t="n"/>
-    </row>
-    <row r="53" ht="130" customHeight="1">
-      <c r="A53" s="3" t="inlineStr">
-        <is>
-          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
-        </is>
-      </c>
-      <c r="B53" s="3" t="inlineStr">
+      <c r="L53" s="3" t="n"/>
+      <c r="M53" s="3" t="inlineStr"/>
+      <c r="N53" s="3" t="inlineStr">
+        <is>
+          <t>CAT II</t>
+        </is>
+      </c>
+      <c r="O53" s="3" t="n"/>
+      <c r="P53" s="3" t="n"/>
+      <c r="Q53" s="3" t="n"/>
+    </row>
+    <row r="54" ht="130" customHeight="1">
+      <c r="A54" s="3" t="inlineStr">
+        <is>
+          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c</t>
+        </is>
+      </c>
+      <c r="B54" s="3" t="inlineStr">
         <is>
           <t>CCI-000126,CCI-000130,CCI-000169,CCI-000172,CCI-002884</t>
         </is>
       </c>
-      <c r="C53" s="3" t="inlineStr">
+      <c r="C54" s="3" t="inlineStr">
         <is>
           <t>SRG-OS-000037-GPOS-00015,SRG-OS-000042-GPOS-00020,SRG-OS-000062-GPOS-00031,SRG-OS-000392-GPOS-00172,SRG-OS-000462-GPOS-00206,SRG-OS-000471-GPOS-00215,SRG-OS-000064-GPOS-00033,SRG-OS-000466-GPOS-00210,SRG-OS-000458-GPOS-00203,SRG-OS-000474-GPOS-00219</t>
         </is>
       </c>
-      <c r="D53" s="3" t="inlineStr">
+      <c r="D54" s="3" t="inlineStr">
         <is>
           <t>CCE-83829-2</t>
         </is>
       </c>
-      <c r="E53" s="3" t="inlineStr">
+      <c r="E54" s="3" t="inlineStr">
         <is>
           <t>The operating system must generate audit records when successful/unsuccessful accesses to objects occur.</t>
         </is>
       </c>
-      <c r="F53" s="3" t="inlineStr">
-        <is>
-          <t>Red Hat Enterprise Linux 9 must generate audit records when successful/unsuccessful accesses to objects occur.</t>
-        </is>
-      </c>
-      <c r="G53" s="3" t="inlineStr">
+      <c r="F54" s="3" t="inlineStr">
+        <is>
+          <t>Red Hat Enterprise Linux 9 Must Generate Audit Records When Successful/Unsuccessful Accesses To Objects Occur.</t>
+        </is>
+      </c>
+      <c r="G54" s="3" t="inlineStr">
         <is>
           <t>Without generating audit records that are specific to the security and mission needs of the organization, it would be difficult to establish, correlate, and investigate the events relating to an incident or identify those responsible for one.
 Audit records can be generated from various components within the information system (e.g., module or policy filter).</t>
         </is>
       </c>
-      <c r="H53" s="3" t="inlineStr">
+      <c r="H54" s="3" t="inlineStr">
         <is>
           <t>The changing of file permissions could indicate that a user is attempting to
 gain access to information that would otherwise be disallowed. Auditing DAC modifications
@@ -4623,17 +4695,17 @@
 unauthorized users.</t>
         </is>
       </c>
-      <c r="I53" s="3" t="inlineStr">
-        <is>
-          <t>Applicable - Configurable</t>
-        </is>
-      </c>
-      <c r="J53" s="3" t="inlineStr">
+      <c r="I54" s="3" t="inlineStr">
+        <is>
+          <t>Applicable - Configurable</t>
+        </is>
+      </c>
+      <c r="J54" s="3" t="inlineStr">
         <is>
           <t>Verify the operating system generates audit records when successful/unsuccessful accesses to objects occur. If it does not, this is a finding.</t>
         </is>
       </c>
-      <c r="K53" s="3" t="inlineStr">
+      <c r="K54" s="3" t="inlineStr">
         <is>
           <t>To determine if the system is configured to audit calls to the
  fchown  system call, run the following command:
@@ -4642,55 +4714,55 @@
 If no line is returned, then this is a finding.</t>
         </is>
       </c>
-      <c r="L53" s="3" t="n"/>
-      <c r="M53" s="3" t="inlineStr"/>
-      <c r="N53" s="3" t="inlineStr">
-        <is>
-          <t>CAT II</t>
-        </is>
-      </c>
-      <c r="O53" s="3" t="n"/>
-      <c r="P53" s="3" t="n"/>
-      <c r="Q53" s="3" t="n"/>
-    </row>
-    <row r="54" ht="130" customHeight="1">
-      <c r="A54" s="3" t="inlineStr">
-        <is>
-          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
-        </is>
-      </c>
-      <c r="B54" s="3" t="inlineStr">
+      <c r="L54" s="3" t="n"/>
+      <c r="M54" s="3" t="inlineStr"/>
+      <c r="N54" s="3" t="inlineStr">
+        <is>
+          <t>CAT II</t>
+        </is>
+      </c>
+      <c r="O54" s="3" t="n"/>
+      <c r="P54" s="3" t="n"/>
+      <c r="Q54" s="3" t="n"/>
+    </row>
+    <row r="55" ht="130" customHeight="1">
+      <c r="A55" s="3" t="inlineStr">
+        <is>
+          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c</t>
+        </is>
+      </c>
+      <c r="B55" s="3" t="inlineStr">
         <is>
           <t>CCI-000126,CCI-000130,CCI-000169,CCI-000172,CCI-002884</t>
         </is>
       </c>
-      <c r="C54" s="3" t="inlineStr">
+      <c r="C55" s="3" t="inlineStr">
         <is>
           <t>SRG-OS-000037-GPOS-00015,SRG-OS-000042-GPOS-00020,SRG-OS-000062-GPOS-00031,SRG-OS-000392-GPOS-00172,SRG-OS-000462-GPOS-00206,SRG-OS-000471-GPOS-00215,SRG-OS-000064-GPOS-00033,SRG-OS-000466-GPOS-00210,SRG-OS-000458-GPOS-00203,SRG-OS-000474-GPOS-00219</t>
         </is>
       </c>
-      <c r="D54" s="3" t="inlineStr">
+      <c r="D55" s="3" t="inlineStr">
         <is>
           <t>CCE-83831-8</t>
         </is>
       </c>
-      <c r="E54" s="3" t="inlineStr">
+      <c r="E55" s="3" t="inlineStr">
         <is>
           <t>The operating system must generate audit records when successful/unsuccessful accesses to objects occur.</t>
         </is>
       </c>
-      <c r="F54" s="3" t="inlineStr">
-        <is>
-          <t>Red Hat Enterprise Linux 9 must generate audit records when successful/unsuccessful accesses to objects occur.</t>
-        </is>
-      </c>
-      <c r="G54" s="3" t="inlineStr">
+      <c r="F55" s="3" t="inlineStr">
+        <is>
+          <t>Red Hat Enterprise Linux 9 Must Generate Audit Records When Successful/Unsuccessful Accesses To Objects Occur.</t>
+        </is>
+      </c>
+      <c r="G55" s="3" t="inlineStr">
         <is>
           <t>Without generating audit records that are specific to the security and mission needs of the organization, it would be difficult to establish, correlate, and investigate the events relating to an incident or identify those responsible for one.
 Audit records can be generated from various components within the information system (e.g., module or policy filter).</t>
         </is>
       </c>
-      <c r="H54" s="3" t="inlineStr">
+      <c r="H55" s="3" t="inlineStr">
         <is>
           <t>The changing of file permissions could indicate that a user is attempting to
 gain access to information that would otherwise be disallowed. Auditing DAC modifications
@@ -4698,17 +4770,17 @@
 unauthorized users.</t>
         </is>
       </c>
-      <c r="I54" s="3" t="inlineStr">
-        <is>
-          <t>Applicable - Configurable</t>
-        </is>
-      </c>
-      <c r="J54" s="3" t="inlineStr">
+      <c r="I55" s="3" t="inlineStr">
+        <is>
+          <t>Applicable - Configurable</t>
+        </is>
+      </c>
+      <c r="J55" s="3" t="inlineStr">
         <is>
           <t>Verify the operating system generates audit records when successful/unsuccessful accesses to objects occur. If it does not, this is a finding.</t>
         </is>
       </c>
-      <c r="K54" s="3" t="inlineStr">
+      <c r="K55" s="3" t="inlineStr">
         <is>
           <t>To determine if the system is configured to audit calls to the
  fchownat  system call, run the following command:
@@ -4717,55 +4789,55 @@
 If no line is returned, then this is a finding.</t>
         </is>
       </c>
-      <c r="L54" s="3" t="n"/>
-      <c r="M54" s="3" t="inlineStr"/>
-      <c r="N54" s="3" t="inlineStr">
-        <is>
-          <t>CAT II</t>
-        </is>
-      </c>
-      <c r="O54" s="3" t="n"/>
-      <c r="P54" s="3" t="n"/>
-      <c r="Q54" s="3" t="n"/>
-    </row>
-    <row r="55" ht="130" customHeight="1">
-      <c r="A55" s="3" t="inlineStr">
-        <is>
-          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
-        </is>
-      </c>
-      <c r="B55" s="3" t="inlineStr">
+      <c r="L55" s="3" t="n"/>
+      <c r="M55" s="3" t="inlineStr"/>
+      <c r="N55" s="3" t="inlineStr">
+        <is>
+          <t>CAT II</t>
+        </is>
+      </c>
+      <c r="O55" s="3" t="n"/>
+      <c r="P55" s="3" t="n"/>
+      <c r="Q55" s="3" t="n"/>
+    </row>
+    <row r="56" ht="130" customHeight="1">
+      <c r="A56" s="3" t="inlineStr">
+        <is>
+          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c</t>
+        </is>
+      </c>
+      <c r="B56" s="3" t="inlineStr">
         <is>
           <t>CCI-000130,CCI-000169,CCI-000172,CCI-002884</t>
         </is>
       </c>
-      <c r="C55" s="3" t="inlineStr">
+      <c r="C56" s="3" t="inlineStr">
         <is>
           <t>SRG-OS-000037-GPOS-00015,SRG-OS-000042-GPOS-00020,SRG-OS-000062-GPOS-00031,SRG-OS-000392-GPOS-00172,SRG-OS-000458-GPOS-00203,SRG-OS-000462-GPOS-00206,SRG-OS-000463-GPOS-00207,SRG-OS-000471-GPOS-00215,SRG-OS-000474-GPOS-00219,SRG-OS-000466-GPOS-00210,SRG-OS-000064-GPOS-00033</t>
         </is>
       </c>
-      <c r="D55" s="3" t="inlineStr">
+      <c r="D56" s="3" t="inlineStr">
         <is>
           <t>CCE-83821-9</t>
         </is>
       </c>
-      <c r="E55" s="3" t="inlineStr">
+      <c r="E56" s="3" t="inlineStr">
         <is>
           <t>The operating system must generate audit records when successful/unsuccessful accesses to objects occur.</t>
         </is>
       </c>
-      <c r="F55" s="3" t="inlineStr">
-        <is>
-          <t>Red Hat Enterprise Linux 9 must generate audit records when successful/unsuccessful accesses to objects occur.</t>
-        </is>
-      </c>
-      <c r="G55" s="3" t="inlineStr">
+      <c r="F56" s="3" t="inlineStr">
+        <is>
+          <t>Red Hat Enterprise Linux 9 Must Generate Audit Records When Successful/Unsuccessful Accesses To Objects Occur.</t>
+        </is>
+      </c>
+      <c r="G56" s="3" t="inlineStr">
         <is>
           <t>Without generating audit records that are specific to the security and mission needs of the organization, it would be difficult to establish, correlate, and investigate the events relating to an incident or identify those responsible for one.
 Audit records can be generated from various components within the information system (e.g., module or policy filter).</t>
         </is>
       </c>
-      <c r="H55" s="3" t="inlineStr">
+      <c r="H56" s="3" t="inlineStr">
         <is>
           <t>The changing of file permissions could indicate that a user is attempting to
 gain access to information that would otherwise be disallowed. Auditing DAC modifications
@@ -4773,17 +4845,17 @@
 unauthorized users.</t>
         </is>
       </c>
-      <c r="I55" s="3" t="inlineStr">
-        <is>
-          <t>Applicable - Configurable</t>
-        </is>
-      </c>
-      <c r="J55" s="3" t="inlineStr">
+      <c r="I56" s="3" t="inlineStr">
+        <is>
+          <t>Applicable - Configurable</t>
+        </is>
+      </c>
+      <c r="J56" s="3" t="inlineStr">
         <is>
           <t>Verify the operating system generates audit records when successful/unsuccessful accesses to objects occur. If it does not, this is a finding.</t>
         </is>
       </c>
-      <c r="K55" s="3" t="inlineStr">
+      <c r="K56" s="3" t="inlineStr">
         <is>
           <t>To determine if the system is configured to audit calls to the
  fremovexattr  system call, run the following command:
@@ -4792,55 +4864,55 @@
 If no line is returned, then this is a finding.</t>
         </is>
       </c>
-      <c r="L55" s="3" t="n"/>
-      <c r="M55" s="3" t="inlineStr"/>
-      <c r="N55" s="3" t="inlineStr">
-        <is>
-          <t>CAT II</t>
-        </is>
-      </c>
-      <c r="O55" s="3" t="n"/>
-      <c r="P55" s="3" t="n"/>
-      <c r="Q55" s="3" t="n"/>
-    </row>
-    <row r="56" ht="130" customHeight="1">
-      <c r="A56" s="3" t="inlineStr">
-        <is>
-          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
-        </is>
-      </c>
-      <c r="B56" s="3" t="inlineStr">
+      <c r="L56" s="3" t="n"/>
+      <c r="M56" s="3" t="inlineStr"/>
+      <c r="N56" s="3" t="inlineStr">
+        <is>
+          <t>CAT II</t>
+        </is>
+      </c>
+      <c r="O56" s="3" t="n"/>
+      <c r="P56" s="3" t="n"/>
+      <c r="Q56" s="3" t="n"/>
+    </row>
+    <row r="57" ht="130" customHeight="1">
+      <c r="A57" s="3" t="inlineStr">
+        <is>
+          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c</t>
+        </is>
+      </c>
+      <c r="B57" s="3" t="inlineStr">
         <is>
           <t>CCI-000126,CCI-000130,CCI-000169,CCI-000172,CCI-002884</t>
         </is>
       </c>
-      <c r="C56" s="3" t="inlineStr">
+      <c r="C57" s="3" t="inlineStr">
         <is>
           <t>SRG-OS-000037-GPOS-00015,SRG-OS-000042-GPOS-00020,SRG-OS-000062-GPOS-00031,SRG-OS-000392-GPOS-00172,SRG-OS-000458-GPOS-00203,SRG-OS-000462-GPOS-00206,SRG-OS-000463-GPOS-00207,SRG-OS-000468-GPOS-00212,SRG-OS-000471-GPOS-00215,SRG-OS-000474-GPOS-00219,SRG-OS-000064-GPOS-00033</t>
         </is>
       </c>
-      <c r="D56" s="3" t="inlineStr">
+      <c r="D57" s="3" t="inlineStr">
         <is>
           <t>CCE-83817-7</t>
         </is>
       </c>
-      <c r="E56" s="3" t="inlineStr">
+      <c r="E57" s="3" t="inlineStr">
         <is>
           <t>The operating system must generate audit records when successful/unsuccessful accesses to objects occur.</t>
         </is>
       </c>
-      <c r="F56" s="3" t="inlineStr">
-        <is>
-          <t>Red Hat Enterprise Linux 9 must generate audit records when successful/unsuccessful accesses to objects occur.</t>
-        </is>
-      </c>
-      <c r="G56" s="3" t="inlineStr">
+      <c r="F57" s="3" t="inlineStr">
+        <is>
+          <t>Red Hat Enterprise Linux 9 Must Generate Audit Records When Successful/Unsuccessful Accesses To Objects Occur.</t>
+        </is>
+      </c>
+      <c r="G57" s="3" t="inlineStr">
         <is>
           <t>Without generating audit records that are specific to the security and mission needs of the organization, it would be difficult to establish, correlate, and investigate the events relating to an incident or identify those responsible for one.
 Audit records can be generated from various components within the information system (e.g., module or policy filter).</t>
         </is>
       </c>
-      <c r="H56" s="3" t="inlineStr">
+      <c r="H57" s="3" t="inlineStr">
         <is>
           <t>The changing of file permissions could indicate that a user is attempting to
 gain access to information that would otherwise be disallowed. Auditing DAC modifications
@@ -4848,17 +4920,17 @@
 unauthorized users.</t>
         </is>
       </c>
-      <c r="I56" s="3" t="inlineStr">
-        <is>
-          <t>Applicable - Configurable</t>
-        </is>
-      </c>
-      <c r="J56" s="3" t="inlineStr">
+      <c r="I57" s="3" t="inlineStr">
+        <is>
+          <t>Applicable - Configurable</t>
+        </is>
+      </c>
+      <c r="J57" s="3" t="inlineStr">
         <is>
           <t>Verify the operating system generates audit records when successful/unsuccessful accesses to objects occur. If it does not, this is a finding.</t>
         </is>
       </c>
-      <c r="K56" s="3" t="inlineStr">
+      <c r="K57" s="3" t="inlineStr">
         <is>
           <t>To determine if the system is configured to audit calls to the
  fsetxattr  system call, run the following command:
@@ -4867,55 +4939,55 @@
 If no line is returned, then this is a finding.</t>
         </is>
       </c>
-      <c r="L56" s="3" t="n"/>
-      <c r="M56" s="3" t="inlineStr"/>
-      <c r="N56" s="3" t="inlineStr">
-        <is>
-          <t>CAT II</t>
-        </is>
-      </c>
-      <c r="O56" s="3" t="n"/>
-      <c r="P56" s="3" t="n"/>
-      <c r="Q56" s="3" t="n"/>
-    </row>
-    <row r="57" ht="130" customHeight="1">
-      <c r="A57" s="3" t="inlineStr">
-        <is>
-          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
-        </is>
-      </c>
-      <c r="B57" s="3" t="inlineStr">
+      <c r="L57" s="3" t="n"/>
+      <c r="M57" s="3" t="inlineStr"/>
+      <c r="N57" s="3" t="inlineStr">
+        <is>
+          <t>CAT II</t>
+        </is>
+      </c>
+      <c r="O57" s="3" t="n"/>
+      <c r="P57" s="3" t="n"/>
+      <c r="Q57" s="3" t="n"/>
+    </row>
+    <row r="58" ht="130" customHeight="1">
+      <c r="A58" s="3" t="inlineStr">
+        <is>
+          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c</t>
+        </is>
+      </c>
+      <c r="B58" s="3" t="inlineStr">
         <is>
           <t>CCI-000126,CCI-000130,CCI-000169,CCI-000172,CCI-002884</t>
         </is>
       </c>
-      <c r="C57" s="3" t="inlineStr">
+      <c r="C58" s="3" t="inlineStr">
         <is>
           <t>SRG-OS-000037-GPOS-00015,SRG-OS-000042-GPOS-00020,SRG-OS-000062-GPOS-00031,SRG-OS-000392-GPOS-00172,SRG-OS-000462-GPOS-00206,SRG-OS-000471-GPOS-00215,SRG-OS-000064-GPOS-00033,SRG-OS-000466-GPOS-00210,SRG-OS-000458-GPOS-00203,SRG-OS-000474-GPOS-00219</t>
         </is>
       </c>
-      <c r="D57" s="3" t="inlineStr">
+      <c r="D58" s="3" t="inlineStr">
         <is>
           <t>CCE-83833-4</t>
         </is>
       </c>
-      <c r="E57" s="3" t="inlineStr">
+      <c r="E58" s="3" t="inlineStr">
         <is>
           <t>The operating system must generate audit records when successful/unsuccessful accesses to objects occur.</t>
         </is>
       </c>
-      <c r="F57" s="3" t="inlineStr">
-        <is>
-          <t>Red Hat Enterprise Linux 9 must generate audit records when successful/unsuccessful accesses to objects occur.</t>
-        </is>
-      </c>
-      <c r="G57" s="3" t="inlineStr">
+      <c r="F58" s="3" t="inlineStr">
+        <is>
+          <t>Red Hat Enterprise Linux 9 Must Generate Audit Records When Successful/Unsuccessful Accesses To Objects Occur.</t>
+        </is>
+      </c>
+      <c r="G58" s="3" t="inlineStr">
         <is>
           <t>Without generating audit records that are specific to the security and mission needs of the organization, it would be difficult to establish, correlate, and investigate the events relating to an incident or identify those responsible for one.
 Audit records can be generated from various components within the information system (e.g., module or policy filter).</t>
         </is>
       </c>
-      <c r="H57" s="3" t="inlineStr">
+      <c r="H58" s="3" t="inlineStr">
         <is>
           <t>The changing of file permissions could indicate that a user is attempting to
 gain access to information that would otherwise be disallowed. Auditing DAC modifications
@@ -4923,17 +4995,17 @@
 unauthorized users.</t>
         </is>
       </c>
-      <c r="I57" s="3" t="inlineStr">
-        <is>
-          <t>Applicable - Configurable</t>
-        </is>
-      </c>
-      <c r="J57" s="3" t="inlineStr">
+      <c r="I58" s="3" t="inlineStr">
+        <is>
+          <t>Applicable - Configurable</t>
+        </is>
+      </c>
+      <c r="J58" s="3" t="inlineStr">
         <is>
           <t>Verify the operating system generates audit records when successful/unsuccessful accesses to objects occur. If it does not, this is a finding.</t>
         </is>
       </c>
-      <c r="K57" s="3" t="inlineStr">
+      <c r="K58" s="3" t="inlineStr">
         <is>
           <t>To determine if the system is configured to audit calls to the
  lchown  system call, run the following command:
@@ -4942,55 +5014,55 @@
 If no line is returned, then this is a finding.</t>
         </is>
       </c>
-      <c r="L57" s="3" t="n"/>
-      <c r="M57" s="3" t="inlineStr"/>
-      <c r="N57" s="3" t="inlineStr">
-        <is>
-          <t>CAT II</t>
-        </is>
-      </c>
-      <c r="O57" s="3" t="n"/>
-      <c r="P57" s="3" t="n"/>
-      <c r="Q57" s="3" t="n"/>
-    </row>
-    <row r="58" ht="130" customHeight="1">
-      <c r="A58" s="3" t="inlineStr">
-        <is>
-          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
-        </is>
-      </c>
-      <c r="B58" s="3" t="inlineStr">
+      <c r="L58" s="3" t="n"/>
+      <c r="M58" s="3" t="inlineStr"/>
+      <c r="N58" s="3" t="inlineStr">
+        <is>
+          <t>CAT II</t>
+        </is>
+      </c>
+      <c r="O58" s="3" t="n"/>
+      <c r="P58" s="3" t="n"/>
+      <c r="Q58" s="3" t="n"/>
+    </row>
+    <row r="59" ht="130" customHeight="1">
+      <c r="A59" s="3" t="inlineStr">
+        <is>
+          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c</t>
+        </is>
+      </c>
+      <c r="B59" s="3" t="inlineStr">
         <is>
           <t>CCI-000130,CCI-000169,CCI-000172,CCI-002884</t>
         </is>
       </c>
-      <c r="C58" s="3" t="inlineStr">
+      <c r="C59" s="3" t="inlineStr">
         <is>
           <t>SRG-OS-000037-GPOS-00015,SRG-OS-000042-GPOS-00020,SRG-OS-000062-GPOS-00031,SRG-OS-000392-GPOS-00172,SRG-OS-000458-GPOS-00203,SRG-OS-000462-GPOS-00206,SRG-OS-000463-GPOS-00207,SRG-OS-000468-GPOS-00212,SRG-OS-000471-GPOS-00215,SRG-OS-000474-GPOS-00219,SRG-OS-000466-GPOS-00210,SRG-OS-000064-GPOS-00033</t>
         </is>
       </c>
-      <c r="D58" s="3" t="inlineStr">
+      <c r="D59" s="3" t="inlineStr">
         <is>
           <t>CCE-83814-4</t>
         </is>
       </c>
-      <c r="E58" s="3" t="inlineStr">
+      <c r="E59" s="3" t="inlineStr">
         <is>
           <t>The operating system must generate audit records when successful/unsuccessful accesses to objects occur.</t>
         </is>
       </c>
-      <c r="F58" s="3" t="inlineStr">
-        <is>
-          <t>Red Hat Enterprise Linux 9 must generate audit records when successful/unsuccessful accesses to objects occur.</t>
-        </is>
-      </c>
-      <c r="G58" s="3" t="inlineStr">
+      <c r="F59" s="3" t="inlineStr">
+        <is>
+          <t>Red Hat Enterprise Linux 9 Must Generate Audit Records When Successful/Unsuccessful Accesses To Objects Occur.</t>
+        </is>
+      </c>
+      <c r="G59" s="3" t="inlineStr">
         <is>
           <t>Without generating audit records that are specific to the security and mission needs of the organization, it would be difficult to establish, correlate, and investigate the events relating to an incident or identify those responsible for one.
 Audit records can be generated from various components within the information system (e.g., module or policy filter).</t>
         </is>
       </c>
-      <c r="H58" s="3" t="inlineStr">
+      <c r="H59" s="3" t="inlineStr">
         <is>
           <t>The changing of file permissions could indicate that a user is attempting to
 gain access to information that would otherwise be disallowed. Auditing DAC modifications
@@ -4998,17 +5070,17 @@
 unauthorized users.</t>
         </is>
       </c>
-      <c r="I58" s="3" t="inlineStr">
-        <is>
-          <t>Applicable - Configurable</t>
-        </is>
-      </c>
-      <c r="J58" s="3" t="inlineStr">
+      <c r="I59" s="3" t="inlineStr">
+        <is>
+          <t>Applicable - Configurable</t>
+        </is>
+      </c>
+      <c r="J59" s="3" t="inlineStr">
         <is>
           <t>Verify the operating system generates audit records when successful/unsuccessful accesses to objects occur. If it does not, this is a finding.</t>
         </is>
       </c>
-      <c r="K58" s="3" t="inlineStr">
+      <c r="K59" s="3" t="inlineStr">
         <is>
           <t>To determine if the system is configured to audit calls to the
  lremovexattr  system call, run the following command:
@@ -5017,55 +5089,55 @@
 If no line is returned, then this is a finding.</t>
         </is>
       </c>
-      <c r="L58" s="3" t="n"/>
-      <c r="M58" s="3" t="inlineStr"/>
-      <c r="N58" s="3" t="inlineStr">
-        <is>
-          <t>CAT II</t>
-        </is>
-      </c>
-      <c r="O58" s="3" t="n"/>
-      <c r="P58" s="3" t="n"/>
-      <c r="Q58" s="3" t="n"/>
-    </row>
-    <row r="59" ht="130" customHeight="1">
-      <c r="A59" s="3" t="inlineStr">
-        <is>
-          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
-        </is>
-      </c>
-      <c r="B59" s="3" t="inlineStr">
+      <c r="L59" s="3" t="n"/>
+      <c r="M59" s="3" t="inlineStr"/>
+      <c r="N59" s="3" t="inlineStr">
+        <is>
+          <t>CAT II</t>
+        </is>
+      </c>
+      <c r="O59" s="3" t="n"/>
+      <c r="P59" s="3" t="n"/>
+      <c r="Q59" s="3" t="n"/>
+    </row>
+    <row r="60" ht="130" customHeight="1">
+      <c r="A60" s="3" t="inlineStr">
+        <is>
+          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c</t>
+        </is>
+      </c>
+      <c r="B60" s="3" t="inlineStr">
         <is>
           <t>CCI-000126,CCI-000130,CCI-000169,CCI-000172,CCI-002884</t>
         </is>
       </c>
-      <c r="C59" s="3" t="inlineStr">
+      <c r="C60" s="3" t="inlineStr">
         <is>
           <t>SRG-OS-000037-GPOS-00015,SRG-OS-000042-GPOS-00020,SRG-OS-000062-GPOS-00031,SRG-OS-000392-GPOS-00172,SRG-OS-000458-GPOS-00203,SRG-OS-000462-GPOS-00206,SRG-OS-000463-GPOS-00207,SRG-OS-000468-GPOS-00212,SRG-OS-000471-GPOS-00215,SRG-OS-000474-GPOS-00219,SRG-OS-000064-GPOS-00033</t>
         </is>
       </c>
-      <c r="D59" s="3" t="inlineStr">
+      <c r="D60" s="3" t="inlineStr">
         <is>
           <t>CCE-83808-6</t>
         </is>
       </c>
-      <c r="E59" s="3" t="inlineStr">
+      <c r="E60" s="3" t="inlineStr">
         <is>
           <t>The operating system must generate audit records when successful/unsuccessful accesses to objects occur.</t>
         </is>
       </c>
-      <c r="F59" s="3" t="inlineStr">
-        <is>
-          <t>Red Hat Enterprise Linux 9 must generate audit records when successful/unsuccessful accesses to objects occur.</t>
-        </is>
-      </c>
-      <c r="G59" s="3" t="inlineStr">
+      <c r="F60" s="3" t="inlineStr">
+        <is>
+          <t>Red Hat Enterprise Linux 9 Must Generate Audit Records When Successful/Unsuccessful Accesses To Objects Occur.</t>
+        </is>
+      </c>
+      <c r="G60" s="3" t="inlineStr">
         <is>
           <t>Without generating audit records that are specific to the security and mission needs of the organization, it would be difficult to establish, correlate, and investigate the events relating to an incident or identify those responsible for one.
 Audit records can be generated from various components within the information system (e.g., module or policy filter).</t>
         </is>
       </c>
-      <c r="H59" s="3" t="inlineStr">
+      <c r="H60" s="3" t="inlineStr">
         <is>
           <t>The changing of file permissions could indicate that a user is attempting to
 gain access to information that would otherwise be disallowed. Auditing DAC modifications
@@ -5073,17 +5145,17 @@
 unauthorized users.</t>
         </is>
       </c>
-      <c r="I59" s="3" t="inlineStr">
-        <is>
-          <t>Applicable - Configurable</t>
-        </is>
-      </c>
-      <c r="J59" s="3" t="inlineStr">
+      <c r="I60" s="3" t="inlineStr">
+        <is>
+          <t>Applicable - Configurable</t>
+        </is>
+      </c>
+      <c r="J60" s="3" t="inlineStr">
         <is>
           <t>Verify the operating system generates audit records when successful/unsuccessful accesses to objects occur. If it does not, this is a finding.</t>
         </is>
       </c>
-      <c r="K59" s="3" t="inlineStr">
+      <c r="K60" s="3" t="inlineStr">
         <is>
           <t>To determine if the system is configured to audit calls to the
  lsetxattr  system call, run the following command:
@@ -5092,55 +5164,55 @@
 If no line is returned, then this is a finding.</t>
         </is>
       </c>
-      <c r="L59" s="3" t="n"/>
-      <c r="M59" s="3" t="inlineStr"/>
-      <c r="N59" s="3" t="inlineStr">
-        <is>
-          <t>CAT II</t>
-        </is>
-      </c>
-      <c r="O59" s="3" t="n"/>
-      <c r="P59" s="3" t="n"/>
-      <c r="Q59" s="3" t="n"/>
-    </row>
-    <row r="60" ht="130" customHeight="1">
-      <c r="A60" s="3" t="inlineStr">
-        <is>
-          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
-        </is>
-      </c>
-      <c r="B60" s="3" t="inlineStr">
+      <c r="L60" s="3" t="n"/>
+      <c r="M60" s="3" t="inlineStr"/>
+      <c r="N60" s="3" t="inlineStr">
+        <is>
+          <t>CAT II</t>
+        </is>
+      </c>
+      <c r="O60" s="3" t="n"/>
+      <c r="P60" s="3" t="n"/>
+      <c r="Q60" s="3" t="n"/>
+    </row>
+    <row r="61" ht="130" customHeight="1">
+      <c r="A61" s="3" t="inlineStr">
+        <is>
+          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c</t>
+        </is>
+      </c>
+      <c r="B61" s="3" t="inlineStr">
         <is>
           <t>CCI-000130,CCI-000169,CCI-000172,CCI-002884</t>
         </is>
       </c>
-      <c r="C60" s="3" t="inlineStr">
+      <c r="C61" s="3" t="inlineStr">
         <is>
           <t>SRG-OS-000037-GPOS-00015,SRG-OS-000042-GPOS-00020,SRG-OS-000062-GPOS-00031,SRG-OS-000392-GPOS-00172,SRG-OS-000458-GPOS-00203,SRG-OS-000462-GPOS-00206,SRG-OS-000463-GPOS-00207,SRG-OS-000468-GPOS-00212,SRG-OS-000471-GPOS-00215,SRG-OS-000474-GPOS-00219,SRG-OS-000466-GPOS-00210,SRG-OS-000064-GPOS-00033</t>
         </is>
       </c>
-      <c r="D60" s="3" t="inlineStr">
+      <c r="D61" s="3" t="inlineStr">
         <is>
           <t>CCE-83807-8</t>
         </is>
       </c>
-      <c r="E60" s="3" t="inlineStr">
+      <c r="E61" s="3" t="inlineStr">
         <is>
           <t>The operating system must generate audit records when successful/unsuccessful accesses to objects occur.</t>
         </is>
       </c>
-      <c r="F60" s="3" t="inlineStr">
-        <is>
-          <t>Red Hat Enterprise Linux 9 must generate audit records when successful/unsuccessful accesses to objects occur.</t>
-        </is>
-      </c>
-      <c r="G60" s="3" t="inlineStr">
+      <c r="F61" s="3" t="inlineStr">
+        <is>
+          <t>Red Hat Enterprise Linux 9 Must Generate Audit Records When Successful/Unsuccessful Accesses To Objects Occur.</t>
+        </is>
+      </c>
+      <c r="G61" s="3" t="inlineStr">
         <is>
           <t>Without generating audit records that are specific to the security and mission needs of the organization, it would be difficult to establish, correlate, and investigate the events relating to an incident or identify those responsible for one.
 Audit records can be generated from various components within the information system (e.g., module or policy filter).</t>
         </is>
       </c>
-      <c r="H60" s="3" t="inlineStr">
+      <c r="H61" s="3" t="inlineStr">
         <is>
           <t>The changing of file permissions could indicate that a user is attempting to
 gain access to information that would otherwise be disallowed. Auditing DAC modifications
@@ -5148,17 +5220,17 @@
 unauthorized users.</t>
         </is>
       </c>
-      <c r="I60" s="3" t="inlineStr">
-        <is>
-          <t>Applicable - Configurable</t>
-        </is>
-      </c>
-      <c r="J60" s="3" t="inlineStr">
+      <c r="I61" s="3" t="inlineStr">
+        <is>
+          <t>Applicable - Configurable</t>
+        </is>
+      </c>
+      <c r="J61" s="3" t="inlineStr">
         <is>
           <t>Verify the operating system generates audit records when successful/unsuccessful accesses to objects occur. If it does not, this is a finding.</t>
         </is>
       </c>
-      <c r="K60" s="3" t="inlineStr">
+      <c r="K61" s="3" t="inlineStr">
         <is>
           <t>To determine if the system is configured to audit calls to the
  removexattr  system call, run the following command:
@@ -5167,95 +5239,21 @@
 If no line is returned, then this is a finding.</t>
         </is>
       </c>
-      <c r="L60" s="3" t="n"/>
-      <c r="M60" s="3" t="inlineStr"/>
-      <c r="N60" s="3" t="inlineStr">
-        <is>
-          <t>CAT II</t>
-        </is>
-      </c>
-      <c r="O60" s="3" t="n"/>
-      <c r="P60" s="3" t="n"/>
-      <c r="Q60" s="3" t="n"/>
-    </row>
-    <row r="61" ht="130" customHeight="1">
-      <c r="A61" s="2" t="inlineStr">
-        <is>
-          <t>AU-7 a,AU-12 c,AU-12 (3),AU-8 b,CM-6 b,AU-7 b,AU-12 a,CM-5 (1)</t>
-        </is>
-      </c>
-      <c r="B61" s="2" t="inlineStr">
-        <is>
-          <t>CCI-000172,CCI-001814,CCI-001875,CCI-001877,CCI-001878,CCI-001879,CCI-001880,CCI-001881,CCI-001882,CCI-001889,CCI-001914,CCI-000169</t>
-        </is>
-      </c>
-      <c r="C61" s="2" t="inlineStr">
-        <is>
-          <t>SRG-OS-000122-GPOS-00063,SRG-OS-000337-GPOS-00129,SRG-OS-000348-GPOS-00136,SRG-OS-000349-GPOS-00137,SRG-OS-000350-GPOS-00138,SRG-OS-000351-GPOS-00139,SRG-OS-000352-GPOS-00140,SRG-OS-000353-GPOS-00141,SRG-OS-000354-GPOS-00142,SRG-OS-000358-GPOS-00145,SRG-OS-000359-GPOS-00146,SRG-OS-000365-GPOS-00152,SRG-OS-000474-GPOS-00219,SRG-OS-000475-GPOS-00220,SRG-OS-000480-GPOS-00227,SRG-OS-000062-GPOS-00031</t>
-        </is>
-      </c>
-      <c r="D61" s="2" t="inlineStr">
-        <is>
-          <t>CCE-83649-4</t>
-        </is>
-      </c>
-      <c r="E61" s="2" t="inlineStr">
-        <is>
-          <t>The operating system must generate audit records when successful/unsuccessful accesses to objects occur.</t>
-        </is>
-      </c>
-      <c r="F61" s="2" t="inlineStr">
-        <is>
-          <t>Red Hat Enterprise Linux 9 must generate audit records when successful/unsuccessful accesses to objects occur.</t>
-        </is>
-      </c>
-      <c r="G61" s="2" t="inlineStr">
-        <is>
-          <t>Without generating audit records that are specific to the security and mission needs of the organization, it would be difficult to establish, correlate, and investigate the events relating to an incident or identify those responsible for one.
-Audit records can be generated from various components within the information system (e.g., module or policy filter).</t>
-        </is>
-      </c>
-      <c r="H61" s="2" t="inlineStr">
-        <is>
-          <t>The auditd service is an access monitoring and accounting daemon, watching system calls to audit any access, in comparison with potential local access control policy such as SELinux policy.</t>
-        </is>
-      </c>
-      <c r="I61" s="2" t="inlineStr">
-        <is>
-          <t>Applicable - Configurable</t>
-        </is>
-      </c>
-      <c r="J61" s="2" t="inlineStr">
-        <is>
-          <t>Verify the operating system generates audit records when successful/unsuccessful accesses to objects occur. If it does not, this is a finding.</t>
-        </is>
-      </c>
-      <c r="K61" s="2" t="inlineStr">
-        <is>
-          <t>Run the following command to determine if the  audit  package is installed:  $ rpm -q audit 
-If the audit package is not installed, then this is a finding.</t>
-        </is>
-      </c>
-      <c r="L61" s="2" t="n"/>
-      <c r="M61" s="2" t="inlineStr">
-        <is>
-          <t>Install the audit service (if the audit service is not already installed) with the following command:
-$ sudo dnf install audit</t>
-        </is>
-      </c>
-      <c r="N61" s="2" t="inlineStr">
-        <is>
-          <t>CAT II</t>
-        </is>
-      </c>
-      <c r="O61" s="2" t="n"/>
-      <c r="P61" s="2" t="n"/>
-      <c r="Q61" s="2" t="n"/>
+      <c r="L61" s="3" t="n"/>
+      <c r="M61" s="3" t="inlineStr"/>
+      <c r="N61" s="3" t="inlineStr">
+        <is>
+          <t>CAT II</t>
+        </is>
+      </c>
+      <c r="O61" s="3" t="n"/>
+      <c r="P61" s="3" t="n"/>
+      <c r="Q61" s="3" t="n"/>
     </row>
     <row r="62" ht="130" customHeight="1">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 a,AC-2 (4),AU-12 c,AU-3,AU-3 (1)</t>
+          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c,AC-2 (4)</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
@@ -5280,7 +5278,7 @@
       </c>
       <c r="F62" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must audit all account creations.</t>
+          <t>Red Hat Enterprise Linux 9 Must Audit All Account Creations.</t>
         </is>
       </c>
       <c r="G62" s="2" t="inlineStr">
@@ -5336,7 +5334,7 @@
     <row r="63" ht="130" customHeight="1">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 a,AC-2 (4),AU-12 c,AU-3,AU-3 (1)</t>
+          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c,AC-2 (4)</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
@@ -5361,7 +5359,7 @@
       </c>
       <c r="F63" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must audit all account creations.</t>
+          <t>Red Hat Enterprise Linux 9 Must Audit All Account Creations.</t>
         </is>
       </c>
       <c r="G63" s="2" t="inlineStr">
@@ -5417,7 +5415,7 @@
     <row r="64" ht="130" customHeight="1">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 a,AC-2 (4),AU-12 c,AU-3,AU-3 (1)</t>
+          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c,AC-2 (4)</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
@@ -5442,7 +5440,7 @@
       </c>
       <c r="F64" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must audit all account creations.</t>
+          <t>Red Hat Enterprise Linux 9 Must Audit All Account Creations.</t>
         </is>
       </c>
       <c r="G64" s="2" t="inlineStr">
@@ -5499,7 +5497,7 @@
     <row r="65" ht="130" customHeight="1">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 a,AC-2 (4),AU-12 c,AU-3,AU-3 (1)</t>
+          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c,AC-2 (4)</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
@@ -5524,7 +5522,7 @@
       </c>
       <c r="F65" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must audit all account creations.</t>
+          <t>Red Hat Enterprise Linux 9 Must Audit All Account Creations.</t>
         </is>
       </c>
       <c r="G65" s="2" t="inlineStr">
@@ -5581,7 +5579,7 @@
     <row r="66" ht="130" customHeight="1">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 a,AC-2 (4),AU-12 c,AU-3,AU-3 (1)</t>
+          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c,AC-2 (4)</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
@@ -5606,7 +5604,7 @@
       </c>
       <c r="F66" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must audit all account creations.</t>
+          <t>Red Hat Enterprise Linux 9 Must Audit All Account Creations.</t>
         </is>
       </c>
       <c r="G66" s="2" t="inlineStr">
@@ -5663,7 +5661,7 @@
     <row r="67" ht="130" customHeight="1">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 a,AC-2 (4),AU-12 c,AU-3,AU-3 (1)</t>
+          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c,AC-2 (4)</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
@@ -5688,7 +5686,7 @@
       </c>
       <c r="F67" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must audit all account creations.</t>
+          <t>Red Hat Enterprise Linux 9 Must Audit All Account Creations.</t>
         </is>
       </c>
       <c r="G67" s="2" t="inlineStr">
@@ -5745,7 +5743,7 @@
     <row r="68" ht="130" customHeight="1">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 a,AC-2 (4),AU-12 c,AU-3,AU-3 (1)</t>
+          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c,AC-2 (4)</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
@@ -5770,7 +5768,7 @@
       </c>
       <c r="F68" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must audit all account creations.</t>
+          <t>Red Hat Enterprise Linux 9 Must Audit All Account Creations.</t>
         </is>
       </c>
       <c r="G68" s="2" t="inlineStr">
@@ -5852,7 +5850,7 @@
       </c>
       <c r="F69" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must notify designated personnel if baseline configurations are changed in an unauthorized manner.</t>
+          <t>Red Hat Enterprise Linux 9 Must Notify Designated Personnel If Baseline Configurations Are Changed In An Unauthorized Manner.</t>
         </is>
       </c>
       <c r="G69" s="2" t="inlineStr">
@@ -5901,7 +5899,7 @@
     <row r="70" ht="130" customHeight="1">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>SI-11 b,AU-9</t>
+          <t>AU-9,SI-11 b</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
@@ -5926,7 +5924,7 @@
       </c>
       <c r="F70" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must reveal error messages only to authorized users.</t>
+          <t>Red Hat Enterprise Linux 9 Must Reveal Error Messages Only To Authorized Users.</t>
         </is>
       </c>
       <c r="G70" s="2" t="inlineStr">
@@ -5984,7 +5982,7 @@
     <row r="71" ht="130" customHeight="1">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>SI-11 b,AU-9</t>
+          <t>AU-9,SI-11 b</t>
         </is>
       </c>
       <c r="B71" s="2" t="inlineStr">
@@ -6009,7 +6007,7 @@
       </c>
       <c r="F71" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must reveal error messages only to authorized users.</t>
+          <t>Red Hat Enterprise Linux 9 Must Reveal Error Messages Only To Authorized Users.</t>
         </is>
       </c>
       <c r="G71" s="2" t="inlineStr">
@@ -6062,7 +6060,7 @@
     <row r="72" ht="130" customHeight="1">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>SI-11 b,AU-9</t>
+          <t>AU-9,SI-11 b</t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
@@ -6087,7 +6085,7 @@
       </c>
       <c r="F72" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must reveal error messages only to authorized users.</t>
+          <t>Red Hat Enterprise Linux 9 Must Reveal Error Messages Only To Authorized Users.</t>
         </is>
       </c>
       <c r="G72" s="2" t="inlineStr">
@@ -6153,7 +6151,7 @@
     <row r="73" ht="130" customHeight="1">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>SI-11 b,AU-9</t>
+          <t>AU-9,SI-11 b</t>
         </is>
       </c>
       <c r="B73" s="2" t="inlineStr">
@@ -6178,7 +6176,7 @@
       </c>
       <c r="F73" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must reveal error messages only to authorized users.</t>
+          <t>Red Hat Enterprise Linux 9 Must Reveal Error Messages Only To Authorized Users.</t>
         </is>
       </c>
       <c r="G73" s="2" t="inlineStr">
@@ -6235,7 +6233,7 @@
     <row r="74" ht="130" customHeight="1">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>SI-11 b,AU-9</t>
+          <t>AU-9,SI-11 b</t>
         </is>
       </c>
       <c r="B74" s="2" t="inlineStr">
@@ -6260,7 +6258,7 @@
       </c>
       <c r="F74" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must reveal error messages only to authorized users.</t>
+          <t>Red Hat Enterprise Linux 9 Must Reveal Error Messages Only To Authorized Users.</t>
         </is>
       </c>
       <c r="G74" s="2" t="inlineStr">
@@ -6349,7 +6347,7 @@
       </c>
       <c r="F75" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must reveal error messages only to authorized users.</t>
+          <t>Red Hat Enterprise Linux 9 Must Reveal Error Messages Only To Authorized Users.</t>
         </is>
       </c>
       <c r="G75" s="2" t="inlineStr">
@@ -6430,7 +6428,7 @@
       </c>
       <c r="F76" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must reveal error messages only to authorized users.</t>
+          <t>Red Hat Enterprise Linux 9 Must Reveal Error Messages Only To Authorized Users.</t>
         </is>
       </c>
       <c r="G76" s="2" t="inlineStr">
@@ -6510,7 +6508,7 @@
       </c>
       <c r="F77" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must reveal error messages only to authorized users.</t>
+          <t>Red Hat Enterprise Linux 9 Must Reveal Error Messages Only To Authorized Users.</t>
         </is>
       </c>
       <c r="G77" s="2" t="inlineStr">
@@ -6591,7 +6589,7 @@
       </c>
       <c r="F78" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must reveal error messages only to authorized users.</t>
+          <t>Red Hat Enterprise Linux 9 Must Reveal Error Messages Only To Authorized Users.</t>
         </is>
       </c>
       <c r="G78" s="2" t="inlineStr">
@@ -6671,7 +6669,7 @@
       </c>
       <c r="F79" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must reveal error messages only to authorized users.</t>
+          <t>Red Hat Enterprise Linux 9 Must Reveal Error Messages Only To Authorized Users.</t>
         </is>
       </c>
       <c r="G79" s="2" t="inlineStr">
@@ -6752,7 +6750,7 @@
       </c>
       <c r="F80" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must reveal error messages only to authorized users.</t>
+          <t>Red Hat Enterprise Linux 9 Must Reveal Error Messages Only To Authorized Users.</t>
         </is>
       </c>
       <c r="G80" s="2" t="inlineStr">
@@ -6865,7 +6863,7 @@
     <row r="82" ht="130" customHeight="1">
       <c r="A82" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
+          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B82" s="3" t="inlineStr">
@@ -6890,7 +6888,7 @@
       </c>
       <c r="F82" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must generate audit records for all kernel module load, unload, and restart actions, and also for all program initiations.</t>
+          <t>Red Hat Enterprise Linux 9 Must Generate Audit Records For All Kernel Module Load, Unload, And Restart Actions, And Also For All Program Initiations.</t>
         </is>
       </c>
       <c r="G82" s="3" t="inlineStr">
@@ -6939,7 +6937,7 @@
     <row r="83" ht="130" customHeight="1">
       <c r="A83" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
+          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B83" s="3" t="inlineStr">
@@ -6964,7 +6962,7 @@
       </c>
       <c r="F83" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must generate audit records for all kernel module load, unload, and restart actions, and also for all program initiations.</t>
+          <t>Red Hat Enterprise Linux 9 Must Generate Audit Records For All Kernel Module Load, Unload, And Restart Actions, And Also For All Program Initiations.</t>
         </is>
       </c>
       <c r="G83" s="3" t="inlineStr">
@@ -7013,7 +7011,7 @@
     <row r="84" ht="130" customHeight="1">
       <c r="A84" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
+          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B84" s="3" t="inlineStr">
@@ -7038,7 +7036,7 @@
       </c>
       <c r="F84" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must generate audit records for all kernel module load, unload, and restart actions, and also for all program initiations.</t>
+          <t>Red Hat Enterprise Linux 9 Must Generate Audit Records For All Kernel Module Load, Unload, And Restart Actions, And Also For All Program Initiations.</t>
         </is>
       </c>
       <c r="G84" s="3" t="inlineStr">
@@ -7087,7 +7085,7 @@
     <row r="85" ht="130" customHeight="1">
       <c r="A85" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
+          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B85" s="3" t="inlineStr">
@@ -7112,7 +7110,7 @@
       </c>
       <c r="F85" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must generate audit records for all kernel module load, unload, and restart actions, and also for all program initiations.</t>
+          <t>Red Hat Enterprise Linux 9 Must Generate Audit Records For All Kernel Module Load, Unload, And Restart Actions, And Also For All Program Initiations.</t>
         </is>
       </c>
       <c r="G85" s="3" t="inlineStr">
@@ -7192,7 +7190,7 @@
       </c>
       <c r="F86" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must implement cryptographic mechanisms to protect the confidentiality of nonlocal maintenance and diagnostic communications, when used for nonlocal maintenance sessions.</t>
+          <t>Red Hat Enterprise Linux 9 Must Implement Cryptographic Mechanisms To Protect The Confidentiality Of Nonlocal Maintenance And Diagnostic Communications, When Used For Nonlocal Maintenance Sessions.</t>
         </is>
       </c>
       <c r="G86" s="3" t="inlineStr">
@@ -7273,7 +7271,7 @@
       </c>
       <c r="F87" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must implement cryptographic mechanisms to protect the confidentiality of nonlocal maintenance and diagnostic communications, when used for nonlocal maintenance sessions.</t>
+          <t>Red Hat Enterprise Linux 9 Must Implement Cryptographic Mechanisms To Protect The Confidentiality Of Nonlocal Maintenance And Diagnostic Communications, When Used For Nonlocal Maintenance Sessions.</t>
         </is>
       </c>
       <c r="G87" s="3" t="inlineStr">
@@ -7353,7 +7351,7 @@
       </c>
       <c r="F88" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must implement cryptographic mechanisms to protect the confidentiality of nonlocal maintenance and diagnostic communications, when used for nonlocal maintenance sessions.</t>
+          <t>Red Hat Enterprise Linux 9 Must Implement Cryptographic Mechanisms To Protect The Confidentiality Of Nonlocal Maintenance And Diagnostic Communications, When Used For Nonlocal Maintenance Sessions.</t>
         </is>
       </c>
       <c r="G88" s="3" t="inlineStr">
@@ -7426,7 +7424,7 @@
       </c>
       <c r="F89" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must use cryptographic mechanisms to protect the integrity of audit tools.</t>
+          <t>Red Hat Enterprise Linux 9 Must Use Cryptographic Mechanisms To Protect The Integrity Of Audit Tools.</t>
         </is>
       </c>
       <c r="G89" s="2" t="inlineStr">
@@ -7511,7 +7509,7 @@
     <row r="90" ht="130" customHeight="1">
       <c r="A90" s="3" t="inlineStr">
         <is>
-          <t>AU-9 (3),AU-9</t>
+          <t>AU-9,AU-9 (3)</t>
         </is>
       </c>
       <c r="B90" s="3" t="inlineStr">
@@ -7536,7 +7534,7 @@
       </c>
       <c r="F90" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must use cryptographic mechanisms to protect the integrity of audit tools.</t>
+          <t>Red Hat Enterprise Linux 9 Must Use Cryptographic Mechanisms To Protect The Integrity Of Audit Tools.</t>
         </is>
       </c>
       <c r="G90" s="3" t="inlineStr">
@@ -7587,7 +7585,7 @@
     <row r="91" ht="130" customHeight="1">
       <c r="A91" s="3" t="inlineStr">
         <is>
-          <t>AU-9 (3),AU-9</t>
+          <t>AU-9,AU-9 (3)</t>
         </is>
       </c>
       <c r="B91" s="3" t="inlineStr">
@@ -7612,7 +7610,7 @@
       </c>
       <c r="F91" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must use cryptographic mechanisms to protect the integrity of audit tools.</t>
+          <t>Red Hat Enterprise Linux 9 Must Use Cryptographic Mechanisms To Protect The Integrity Of Audit Tools.</t>
         </is>
       </c>
       <c r="G91" s="3" t="inlineStr">
@@ -7663,7 +7661,7 @@
     <row r="92" ht="130" customHeight="1">
       <c r="A92" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
+          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B92" s="3" t="inlineStr">
@@ -7688,7 +7686,7 @@
       </c>
       <c r="F92" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must generate audit records when successful/unsuccessful attempts to delete privileges occur.</t>
+          <t>Red Hat Enterprise Linux 9 Must Generate Audit Records When Successful/Unsuccessful Attempts To Delete Privileges Occur.</t>
         </is>
       </c>
       <c r="G92" s="3" t="inlineStr">
@@ -7738,7 +7736,7 @@
     <row r="93" ht="130" customHeight="1">
       <c r="A93" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
+          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B93" s="3" t="inlineStr">
@@ -7763,7 +7761,7 @@
       </c>
       <c r="F93" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must generate audit records when successful/unsuccessful attempts to delete privileges occur.</t>
+          <t>Red Hat Enterprise Linux 9 Must Generate Audit Records When Successful/Unsuccessful Attempts To Delete Privileges Occur.</t>
         </is>
       </c>
       <c r="G93" s="3" t="inlineStr">
@@ -7813,7 +7811,7 @@
     <row r="94" ht="130" customHeight="1">
       <c r="A94" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
+          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B94" s="3" t="inlineStr">
@@ -7838,7 +7836,7 @@
       </c>
       <c r="F94" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must generate audit records when successful/unsuccessful attempts to delete privileges occur.</t>
+          <t>Red Hat Enterprise Linux 9 Must Generate Audit Records When Successful/Unsuccessful Attempts To Delete Privileges Occur.</t>
         </is>
       </c>
       <c r="G94" s="3" t="inlineStr">
@@ -7888,7 +7886,7 @@
     <row r="95" ht="130" customHeight="1">
       <c r="A95" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
+          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B95" s="3" t="inlineStr">
@@ -7913,7 +7911,7 @@
       </c>
       <c r="F95" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must generate audit records when successful/unsuccessful attempts to delete privileges occur.</t>
+          <t>Red Hat Enterprise Linux 9 Must Generate Audit Records When Successful/Unsuccessful Attempts To Delete Privileges Occur.</t>
         </is>
       </c>
       <c r="G95" s="3" t="inlineStr">
@@ -7968,7 +7966,7 @@
     <row r="96" ht="130" customHeight="1">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
+          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
@@ -7993,7 +7991,7 @@
       </c>
       <c r="F96" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must generate audit records when successful/unsuccessful attempts to delete privileges occur.</t>
+          <t>Red Hat Enterprise Linux 9 Must Generate Audit Records When Successful/Unsuccessful Attempts To Delete Privileges Occur.</t>
         </is>
       </c>
       <c r="G96" s="2" t="inlineStr">
@@ -8050,7 +8048,7 @@
     <row r="97" ht="130" customHeight="1">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
+          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B97" s="2" t="inlineStr">
@@ -8075,7 +8073,7 @@
       </c>
       <c r="F97" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must generate audit records when successful/unsuccessful attempts to delete privileges occur.</t>
+          <t>Red Hat Enterprise Linux 9 Must Generate Audit Records When Successful/Unsuccessful Attempts To Delete Privileges Occur.</t>
         </is>
       </c>
       <c r="G97" s="2" t="inlineStr">
@@ -8132,7 +8130,7 @@
     <row r="98" ht="130" customHeight="1">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
+          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B98" s="2" t="inlineStr">
@@ -8157,7 +8155,7 @@
       </c>
       <c r="F98" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must generate audit records when successful/unsuccessful attempts to delete privileges occur.</t>
+          <t>Red Hat Enterprise Linux 9 Must Generate Audit Records When Successful/Unsuccessful Attempts To Delete Privileges Occur.</t>
         </is>
       </c>
       <c r="G98" s="2" t="inlineStr">
@@ -8214,7 +8212,7 @@
     <row r="99" ht="130" customHeight="1">
       <c r="A99" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
+          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B99" s="2" t="inlineStr">
@@ -8239,7 +8237,7 @@
       </c>
       <c r="F99" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must generate audit records when successful/unsuccessful attempts to delete privileges occur.</t>
+          <t>Red Hat Enterprise Linux 9 Must Generate Audit Records When Successful/Unsuccessful Attempts To Delete Privileges Occur.</t>
         </is>
       </c>
       <c r="G99" s="2" t="inlineStr">
@@ -8296,7 +8294,7 @@
     <row r="100" ht="130" customHeight="1">
       <c r="A100" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
+          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B100" s="2" t="inlineStr">
@@ -8321,7 +8319,7 @@
       </c>
       <c r="F100" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must generate audit records when successful/unsuccessful attempts to delete privileges occur.</t>
+          <t>Red Hat Enterprise Linux 9 Must Generate Audit Records When Successful/Unsuccessful Attempts To Delete Privileges Occur.</t>
         </is>
       </c>
       <c r="G100" s="2" t="inlineStr">
@@ -8378,7 +8376,7 @@
     <row r="101" ht="130" customHeight="1">
       <c r="A101" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
+          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B101" s="3" t="inlineStr">
@@ -8403,7 +8401,7 @@
       </c>
       <c r="F101" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must generate audit records when successful/unsuccessful attempts to delete privileges occur.</t>
+          <t>Red Hat Enterprise Linux 9 Must Generate Audit Records When Successful/Unsuccessful Attempts To Delete Privileges Occur.</t>
         </is>
       </c>
       <c r="G101" s="3" t="inlineStr">
@@ -8458,7 +8456,7 @@
     <row r="102" ht="130" customHeight="1">
       <c r="A102" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
+          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B102" s="3" t="inlineStr">
@@ -8483,7 +8481,7 @@
       </c>
       <c r="F102" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must generate audit records when successful/unsuccessful attempts to delete privileges occur.</t>
+          <t>Red Hat Enterprise Linux 9 Must Generate Audit Records When Successful/Unsuccessful Attempts To Delete Privileges Occur.</t>
         </is>
       </c>
       <c r="G102" s="3" t="inlineStr">
@@ -8538,7 +8536,7 @@
     <row r="103" ht="130" customHeight="1">
       <c r="A103" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
+          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B103" s="3" t="inlineStr">
@@ -8563,7 +8561,7 @@
       </c>
       <c r="F103" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must generate audit records when successful/unsuccessful attempts to delete privileges occur.</t>
+          <t>Red Hat Enterprise Linux 9 Must Generate Audit Records When Successful/Unsuccessful Attempts To Delete Privileges Occur.</t>
         </is>
       </c>
       <c r="G103" s="3" t="inlineStr">
@@ -8643,7 +8641,7 @@
       </c>
       <c r="F104" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must retain a users session lock until that user reestablishes access using established identification and authentication procedures.</t>
+          <t>Red Hat Enterprise Linux 9 Must Retain A Users Session Lock Until That User Reestablishes Access Using Established Identification And Authentication Procedures.</t>
         </is>
       </c>
       <c r="G104" s="2" t="inlineStr">
@@ -8734,7 +8732,7 @@
       </c>
       <c r="F105" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must retain a users session lock until that user reestablishes access using established identification and authentication procedures.</t>
+          <t>Red Hat Enterprise Linux 9 Must Retain A Users Session Lock Until That User Reestablishes Access Using Established Identification And Authentication Procedures.</t>
         </is>
       </c>
       <c r="G105" s="2" t="inlineStr">
@@ -8814,7 +8812,7 @@
       </c>
       <c r="F106" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must retain a users session lock until that user reestablishes access using established identification and authentication procedures.</t>
+          <t>Red Hat Enterprise Linux 9 Must Retain A Users Session Lock Until That User Reestablishes Access Using Established Identification And Authentication Procedures.</t>
         </is>
       </c>
       <c r="G106" s="2" t="inlineStr">
@@ -8868,7 +8866,7 @@
     <row r="107" ht="130" customHeight="1">
       <c r="A107" s="2" t="inlineStr">
         <is>
-          <t>AC-11 b,AC-11 a</t>
+          <t>AC-11 a,AC-11 b</t>
         </is>
       </c>
       <c r="B107" s="2" t="inlineStr">
@@ -8893,7 +8891,7 @@
       </c>
       <c r="F107" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must retain a users session lock until that user reestablishes access using established identification and authentication procedures.</t>
+          <t>Red Hat Enterprise Linux 9 Must Retain A Users Session Lock Until That User Reestablishes Access Using Established Identification And Authentication Procedures.</t>
         </is>
       </c>
       <c r="G107" s="2" t="inlineStr">
@@ -8972,7 +8970,7 @@
       </c>
       <c r="F108" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must retain a users session lock until that user reestablishes access using established identification and authentication procedures.</t>
+          <t>Red Hat Enterprise Linux 9 Must Retain A Users Session Lock Until That User Reestablishes Access Using Established Identification And Authentication Procedures.</t>
         </is>
       </c>
       <c r="G108" s="2" t="inlineStr">
@@ -9059,7 +9057,7 @@
       </c>
       <c r="F109" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must retain a users session lock until that user reestablishes access using established identification and authentication procedures.</t>
+          <t>Red Hat Enterprise Linux 9 Must Retain A Users Session Lock Until That User Reestablishes Access Using Established Identification And Authentication Procedures.</t>
         </is>
       </c>
       <c r="G109" s="2" t="inlineStr">
@@ -9146,7 +9144,7 @@
       </c>
       <c r="F110" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must retain a users session lock until that user reestablishes access using established identification and authentication procedures.</t>
+          <t>Red Hat Enterprise Linux 9 Must Retain A Users Session Lock Until That User Reestablishes Access Using Established Identification And Authentication Procedures.</t>
         </is>
       </c>
       <c r="G110" s="3" t="inlineStr">
@@ -9219,7 +9217,7 @@
       </c>
       <c r="F111" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must map the authenticated identity to the user or group account for PKI-based authentication.</t>
+          <t>Red Hat Enterprise Linux 9 Must Map The Authenticated Identity To The User Or Group Account For Pki-Based Authentication.</t>
         </is>
       </c>
       <c r="G111" s="2" t="inlineStr">
@@ -9305,7 +9303,7 @@
       </c>
       <c r="F112" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must implement NSA-approved cryptography to protect classified information in accordance with applicable federal laws, Executive Orders, directives, policies, regulations, and standards.</t>
+          <t>Red Hat Enterprise Linux 9 Must Implement Nsa-Approved Cryptography To Protect Classified Information In Accordance With Applicable Federal Laws, Executive Orders, Directives, Policies, Regulations, And Standards.</t>
         </is>
       </c>
       <c r="G112" s="2" t="inlineStr">
@@ -9391,7 +9389,7 @@
       </c>
       <c r="F113" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must implement NSA-approved cryptography to protect classified information in accordance with applicable federal laws, Executive Orders, directives, policies, regulations, and standards.</t>
+          <t>Red Hat Enterprise Linux 9 Must Implement Nsa-Approved Cryptography To Protect Classified Information In Accordance With Applicable Federal Laws, Executive Orders, Directives, Policies, Regulations, And Standards.</t>
         </is>
       </c>
       <c r="G113" s="2" t="inlineStr">
@@ -9473,7 +9471,7 @@
       </c>
       <c r="F114" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must generate audit records when concurrent logons to the same account occur from different sources.</t>
+          <t>Red Hat Enterprise Linux 9 Must Generate Audit Records When Concurrent Logons To The Same Account Occur From Different Sources.</t>
         </is>
       </c>
       <c r="G114" s="2" t="inlineStr">
@@ -9526,7 +9524,7 @@
     <row r="115" ht="130" customHeight="1">
       <c r="A115" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
+          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B115" s="2" t="inlineStr">
@@ -9551,7 +9549,7 @@
       </c>
       <c r="F115" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must generate audit records when concurrent logons to the same account occur from different sources.</t>
+          <t>Red Hat Enterprise Linux 9 Must Generate Audit Records When Concurrent Logons To The Same Account Occur From Different Sources.</t>
         </is>
       </c>
       <c r="G115" s="2" t="inlineStr">
@@ -9629,7 +9627,7 @@
       </c>
       <c r="F116" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must generate audit records when concurrent logons to the same account occur from different sources.</t>
+          <t>Red Hat Enterprise Linux 9 Must Generate Audit Records When Concurrent Logons To The Same Account Occur From Different Sources.</t>
         </is>
       </c>
       <c r="G116" s="2" t="inlineStr">
@@ -9682,7 +9680,7 @@
     <row r="117" ht="130" customHeight="1">
       <c r="A117" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
+          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B117" s="3" t="inlineStr">
@@ -9707,7 +9705,7 @@
       </c>
       <c r="F117" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must generate audit records when successful/unsuccessful attempts to delete security objects occur.</t>
+          <t>Red Hat Enterprise Linux 9 Must Generate Audit Records When Successful/Unsuccessful Attempts To Delete Security Objects Occur.</t>
         </is>
       </c>
       <c r="G117" s="3" t="inlineStr">
@@ -9783,7 +9781,7 @@
       </c>
       <c r="F118" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must generate audit records when successful/unsuccessful attempts to delete security objects occur.</t>
+          <t>Red Hat Enterprise Linux 9 Must Generate Audit Records When Successful/Unsuccessful Attempts To Delete Security Objects Occur.</t>
         </is>
       </c>
       <c r="G118" s="3" t="inlineStr">
@@ -9852,7 +9850,7 @@
       </c>
       <c r="F119" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must generate audit records when successful/unsuccessful attempts to delete security objects occur.</t>
+          <t>Red Hat Enterprise Linux 9 Must Generate Audit Records When Successful/Unsuccessful Attempts To Delete Security Objects Occur.</t>
         </is>
       </c>
       <c r="G119" s="3" t="inlineStr">
@@ -9921,7 +9919,7 @@
       </c>
       <c r="F120" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must generate audit records when successful/unsuccessful attempts to delete security objects occur.</t>
+          <t>Red Hat Enterprise Linux 9 Must Generate Audit Records When Successful/Unsuccessful Attempts To Delete Security Objects Occur.</t>
         </is>
       </c>
       <c r="G120" s="3" t="inlineStr">
@@ -9990,7 +9988,7 @@
       </c>
       <c r="F121" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must generate audit records when successful/unsuccessful attempts to delete security objects occur.</t>
+          <t>Red Hat Enterprise Linux 9 Must Generate Audit Records When Successful/Unsuccessful Attempts To Delete Security Objects Occur.</t>
         </is>
       </c>
       <c r="G121" s="3" t="inlineStr">
@@ -10038,7 +10036,7 @@
     <row r="122" ht="130" customHeight="1">
       <c r="A122" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
+          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B122" s="3" t="inlineStr">
@@ -10063,7 +10061,7 @@
       </c>
       <c r="F122" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must generate audit records when successful/unsuccessful attempts to delete security objects occur.</t>
+          <t>Red Hat Enterprise Linux 9 Must Generate Audit Records When Successful/Unsuccessful Attempts To Delete Security Objects Occur.</t>
         </is>
       </c>
       <c r="G122" s="3" t="inlineStr">
@@ -10143,7 +10141,7 @@
       </c>
       <c r="F123" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must protect the confidentiality and integrity of all information at rest.</t>
+          <t>Red Hat Enterprise Linux 9 Must Protect The Confidentiality And Integrity Of All Information At Rest.</t>
         </is>
       </c>
       <c r="G123" s="2" t="inlineStr">
@@ -10312,7 +10310,7 @@
       </c>
       <c r="F125" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must allow only the ISSM (or individuals or roles appointed by the ISSM) to select which auditable events are to be audited.</t>
+          <t>Red Hat Enterprise Linux 9 Must Allow Only The Issm (Or Individuals Or Roles Appointed By The Issm) To Select Which Auditable Events Are To Be Audited.</t>
         </is>
       </c>
       <c r="G125" s="2" t="inlineStr">
@@ -10395,7 +10393,7 @@
       </c>
       <c r="F126" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must allow only the ISSM (or individuals or roles appointed by the ISSM) to select which auditable events are to be audited.</t>
+          <t>Red Hat Enterprise Linux 9 Must Allow Only The Issm (Or Individuals Or Roles Appointed By The Issm) To Select Which Auditable Events Are To Be Audited.</t>
         </is>
       </c>
       <c r="G126" s="2" t="inlineStr">
@@ -10892,7 +10890,7 @@
     <row r="133" ht="130" customHeight="1">
       <c r="A133" s="2" t="inlineStr">
         <is>
-          <t>AC-6 (10),CM-6 b</t>
+          <t>CM-6 b,AC-6 (10)</t>
         </is>
       </c>
       <c r="B133" s="2" t="inlineStr">
@@ -10917,7 +10915,7 @@
       </c>
       <c r="F133" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must prevent non-privileged users from executing privileged functions to include disabling, circumventing, or altering implemented security safeguards/countermeasures.</t>
+          <t>Red Hat Enterprise Linux 9 Must Prevent Non-Privileged Users From Executing Privileged Functions To Include Disabling, Circumventing, Or Altering Implemented Security Safeguards/Countermeasures.</t>
         </is>
       </c>
       <c r="G133" s="2" t="inlineStr">
@@ -10973,7 +10971,7 @@
     <row r="134" ht="130" customHeight="1">
       <c r="A134" s="2" t="inlineStr">
         <is>
-          <t>AC-6 (10),CM-6 b</t>
+          <t>CM-6 b,AC-6 (10)</t>
         </is>
       </c>
       <c r="B134" s="2" t="inlineStr">
@@ -10998,7 +10996,7 @@
       </c>
       <c r="F134" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must prevent non-privileged users from executing privileged functions to include disabling, circumventing, or altering implemented security safeguards/countermeasures.</t>
+          <t>Red Hat Enterprise Linux 9 Must Prevent Non-Privileged Users From Executing Privileged Functions To Include Disabling, Circumventing, Or Altering Implemented Security Safeguards/Countermeasures.</t>
         </is>
       </c>
       <c r="G134" s="2" t="inlineStr">
@@ -11059,7 +11057,7 @@
     <row r="135" ht="130" customHeight="1">
       <c r="A135" s="2" t="inlineStr">
         <is>
-          <t>AC-6 (10),CM-6 b</t>
+          <t>CM-6 b,AC-6 (10)</t>
         </is>
       </c>
       <c r="B135" s="2" t="inlineStr">
@@ -11084,7 +11082,7 @@
       </c>
       <c r="F135" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must prevent non-privileged users from executing privileged functions to include disabling, circumventing, or altering implemented security safeguards/countermeasures.</t>
+          <t>Red Hat Enterprise Linux 9 Must Prevent Non-Privileged Users From Executing Privileged Functions To Include Disabling, Circumventing, Or Altering Implemented Security Safeguards/Countermeasures.</t>
         </is>
       </c>
       <c r="G135" s="2" t="inlineStr">
@@ -11152,7 +11150,7 @@
     <row r="136" ht="130" customHeight="1">
       <c r="A136" s="2" t="inlineStr">
         <is>
-          <t>AC-6 (10),AC-3 (4)</t>
+          <t>AC-3 (4),AC-6 (10)</t>
         </is>
       </c>
       <c r="B136" s="2" t="inlineStr">
@@ -11177,7 +11175,7 @@
       </c>
       <c r="F136" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must prevent non-privileged users from executing privileged functions to include disabling, circumventing, or altering implemented security safeguards/countermeasures.</t>
+          <t>Red Hat Enterprise Linux 9 Must Prevent Non-Privileged Users From Executing Privileged Functions To Include Disabling, Circumventing, Or Altering Implemented Security Safeguards/Countermeasures.</t>
         </is>
       </c>
       <c r="G136" s="2" t="inlineStr">
@@ -11249,7 +11247,7 @@
     <row r="137" ht="130" customHeight="1">
       <c r="A137" s="2" t="inlineStr">
         <is>
-          <t>AC-6 (10),AC-3 (4)</t>
+          <t>AC-3 (4),AC-6 (10)</t>
         </is>
       </c>
       <c r="B137" s="2" t="inlineStr">
@@ -11274,7 +11272,7 @@
       </c>
       <c r="F137" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must prevent non-privileged users from executing privileged functions to include disabling, circumventing, or altering implemented security safeguards/countermeasures.</t>
+          <t>Red Hat Enterprise Linux 9 Must Prevent Non-Privileged Users From Executing Privileged Functions To Include Disabling, Circumventing, Or Altering Implemented Security Safeguards/Countermeasures.</t>
         </is>
       </c>
       <c r="G137" s="2" t="inlineStr">
@@ -11373,7 +11371,7 @@
       </c>
       <c r="F138" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must prevent non-privileged users from executing privileged functions to include disabling, circumventing, or altering implemented security safeguards/countermeasures.</t>
+          <t>Red Hat Enterprise Linux 9 Must Prevent Non-Privileged Users From Executing Privileged Functions To Include Disabling, Circumventing, Or Altering Implemented Security Safeguards/Countermeasures.</t>
         </is>
       </c>
       <c r="G138" s="2" t="inlineStr">
@@ -11450,7 +11448,7 @@
       </c>
       <c r="F139" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must generate audit records when successful/unsuccessful attempts to modify categories of information (e.g., classification levels) occur.</t>
+          <t>Red Hat Enterprise Linux 9 Must Generate Audit Records When Successful/Unsuccessful Attempts To Modify Categories Of Information (E.G., Classification Levels) Occur.</t>
         </is>
       </c>
       <c r="G139" s="3" t="inlineStr">
@@ -11505,7 +11503,7 @@
     <row r="140" ht="130" customHeight="1">
       <c r="A140" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
+          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B140" s="3" t="inlineStr">
@@ -11530,7 +11528,7 @@
       </c>
       <c r="F140" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must generate audit records when successful/unsuccessful attempts to modify categories of information (e.g., classification levels) occur.</t>
+          <t>Red Hat Enterprise Linux 9 Must Generate Audit Records When Successful/Unsuccessful Attempts To Modify Categories Of Information (E.G., Classification Levels) Occur.</t>
         </is>
       </c>
       <c r="G140" s="3" t="inlineStr">
@@ -11585,7 +11583,7 @@
     <row r="141" ht="130" customHeight="1">
       <c r="A141" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
+          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B141" s="3" t="inlineStr">
@@ -11610,7 +11608,7 @@
       </c>
       <c r="F141" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must generate audit records when successful/unsuccessful attempts to modify categories of information (e.g., classification levels) occur.</t>
+          <t>Red Hat Enterprise Linux 9 Must Generate Audit Records When Successful/Unsuccessful Attempts To Modify Categories Of Information (E.G., Classification Levels) Occur.</t>
         </is>
       </c>
       <c r="G141" s="3" t="inlineStr">
@@ -11665,7 +11663,7 @@
     <row r="142" ht="130" customHeight="1">
       <c r="A142" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
+          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B142" s="3" t="inlineStr">
@@ -11690,7 +11688,7 @@
       </c>
       <c r="F142" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must generate audit records when successful/unsuccessful attempts to modify categories of information (e.g., classification levels) occur.</t>
+          <t>Red Hat Enterprise Linux 9 Must Generate Audit Records When Successful/Unsuccessful Attempts To Modify Categories Of Information (E.G., Classification Levels) Occur.</t>
         </is>
       </c>
       <c r="G142" s="3" t="inlineStr">
@@ -11770,7 +11768,7 @@
       </c>
       <c r="F143" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must store only encrypted representations of passwords.</t>
+          <t>Red Hat Enterprise Linux 9 Must Store Only Encrypted Representations Of Passwords.</t>
         </is>
       </c>
       <c r="G143" s="3" t="inlineStr">
@@ -11849,7 +11847,7 @@
       </c>
       <c r="F144" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must store only encrypted representations of passwords.</t>
+          <t>Red Hat Enterprise Linux 9 Must Store Only Encrypted Representations Of Passwords.</t>
         </is>
       </c>
       <c r="G144" s="3" t="inlineStr">
@@ -11921,7 +11919,7 @@
       </c>
       <c r="F145" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must store only encrypted representations of passwords.</t>
+          <t>Red Hat Enterprise Linux 9 Must Store Only Encrypted Representations Of Passwords.</t>
         </is>
       </c>
       <c r="G145" s="3" t="inlineStr">
@@ -12002,7 +12000,7 @@
       </c>
       <c r="F146" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must store only encrypted representations of passwords.</t>
+          <t>Red Hat Enterprise Linux 9 Must Store Only Encrypted Representations Of Passwords.</t>
         </is>
       </c>
       <c r="G146" s="2" t="inlineStr">
@@ -12083,7 +12081,7 @@
       </c>
       <c r="F147" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must store only encrypted representations of passwords.</t>
+          <t>Red Hat Enterprise Linux 9 Must Store Only Encrypted Representations Of Passwords.</t>
         </is>
       </c>
       <c r="G147" s="3" t="inlineStr">
@@ -12154,7 +12152,7 @@
       </c>
       <c r="F148" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must store only encrypted representations of passwords.</t>
+          <t>Red Hat Enterprise Linux 9 Must Store Only Encrypted Representations Of Passwords.</t>
         </is>
       </c>
       <c r="G148" s="3" t="inlineStr">
@@ -12225,7 +12223,7 @@
       </c>
       <c r="F149" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must conceal, via the session lock, information previously visible on the display with a publicly viewable image.</t>
+          <t>Red Hat Enterprise Linux 9 Must Conceal, Via The Session Lock, Information Previously Visible On The Display With A Publicly Viewable Image.</t>
         </is>
       </c>
       <c r="G149" s="2" t="inlineStr">
@@ -12312,7 +12310,7 @@
       </c>
       <c r="F150" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must conceal, via the session lock, information previously visible on the display with a publicly viewable image.</t>
+          <t>Red Hat Enterprise Linux 9 Must Conceal, Via The Session Lock, Information Previously Visible On The Display With A Publicly Viewable Image.</t>
         </is>
       </c>
       <c r="G150" s="2" t="inlineStr">
@@ -12393,7 +12391,7 @@
       </c>
       <c r="F151" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must use mechanisms meeting the requirements of applicable federal laws, Executive orders, directives, policies, regulations, standards, and guidance for authentication to a cryptographic module.</t>
+          <t>Red Hat Enterprise Linux 9 Must Use Mechanisms Meeting The Requirements Of Applicable Federal Laws, Executive Orders, Directives, Policies, Regulations, Standards, And Guidance For Authentication To A Cryptographic Module.</t>
         </is>
       </c>
       <c r="G151" s="2" t="inlineStr">
@@ -12448,7 +12446,7 @@
     <row r="152" ht="130" customHeight="1">
       <c r="A152" s="2" t="inlineStr">
         <is>
-          <t>IA-7,CM-6 b</t>
+          <t>CM-6 b,IA-7</t>
         </is>
       </c>
       <c r="B152" s="2" t="inlineStr">
@@ -12473,7 +12471,7 @@
       </c>
       <c r="F152" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must use mechanisms meeting the requirements of applicable federal laws, Executive orders, directives, policies, regulations, standards, and guidance for authentication to a cryptographic module.</t>
+          <t>Red Hat Enterprise Linux 9 Must Use Mechanisms Meeting The Requirements Of Applicable Federal Laws, Executive Orders, Directives, Policies, Regulations, Standards, And Guidance For Authentication To A Cryptographic Module.</t>
         </is>
       </c>
       <c r="G152" s="2" t="inlineStr">
@@ -12524,7 +12522,7 @@
     <row r="153" ht="130" customHeight="1">
       <c r="A153" s="2" t="inlineStr">
         <is>
-          <t>IA-7,CM-6 b</t>
+          <t>CM-6 b,IA-7</t>
         </is>
       </c>
       <c r="B153" s="2" t="inlineStr">
@@ -12549,7 +12547,7 @@
       </c>
       <c r="F153" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must use mechanisms meeting the requirements of applicable federal laws, Executive orders, directives, policies, regulations, standards, and guidance for authentication to a cryptographic module.</t>
+          <t>Red Hat Enterprise Linux 9 Must Use Mechanisms Meeting The Requirements Of Applicable Federal Laws, Executive Orders, Directives, Policies, Regulations, Standards, And Guidance For Authentication To A Cryptographic Module.</t>
         </is>
       </c>
       <c r="G153" s="2" t="inlineStr">
@@ -12609,7 +12607,7 @@
     <row r="154" ht="130" customHeight="1">
       <c r="A154" s="2" t="inlineStr">
         <is>
-          <t>IA-7,CM-6 b</t>
+          <t>CM-6 b,IA-7</t>
         </is>
       </c>
       <c r="B154" s="2" t="inlineStr">
@@ -12634,7 +12632,7 @@
       </c>
       <c r="F154" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must use mechanisms meeting the requirements of applicable federal laws, Executive orders, directives, policies, regulations, standards, and guidance for authentication to a cryptographic module.</t>
+          <t>Red Hat Enterprise Linux 9 Must Use Mechanisms Meeting The Requirements Of Applicable Federal Laws, Executive Orders, Directives, Policies, Regulations, Standards, And Guidance For Authentication To A Cryptographic Module.</t>
         </is>
       </c>
       <c r="G154" s="2" t="inlineStr">
@@ -12711,7 +12709,7 @@
       </c>
       <c r="F155" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must use mechanisms meeting the requirements of applicable federal laws, Executive orders, directives, policies, regulations, standards, and guidance for authentication to a cryptographic module.</t>
+          <t>Red Hat Enterprise Linux 9 Must Use Mechanisms Meeting The Requirements Of Applicable Federal Laws, Executive Orders, Directives, Policies, Regulations, Standards, And Guidance For Authentication To A Cryptographic Module.</t>
         </is>
       </c>
       <c r="G155" s="2" t="inlineStr">
@@ -12791,7 +12789,7 @@
       </c>
       <c r="F156" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must use mechanisms meeting the requirements of applicable federal laws, Executive orders, directives, policies, regulations, standards, and guidance for authentication to a cryptographic module.</t>
+          <t>Red Hat Enterprise Linux 9 Must Use Mechanisms Meeting The Requirements Of Applicable Federal Laws, Executive Orders, Directives, Policies, Regulations, Standards, And Guidance For Authentication To A Cryptographic Module.</t>
         </is>
       </c>
       <c r="G156" s="2" t="inlineStr">
@@ -12845,7 +12843,7 @@
     <row r="157" ht="130" customHeight="1">
       <c r="A157" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
+          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B157" s="3" t="inlineStr">
@@ -12870,7 +12868,7 @@
       </c>
       <c r="F157" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must audit all activities performed during nonlocal maintenance and diagnostic sessions.</t>
+          <t>Red Hat Enterprise Linux 9 Must Audit All Activities Performed During Nonlocal Maintenance And Diagnostic Sessions.</t>
         </is>
       </c>
       <c r="G157" s="3" t="inlineStr">
@@ -12922,7 +12920,7 @@
     <row r="158" ht="130" customHeight="1">
       <c r="A158" s="3" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AU-12 c,MA-4 (1) (a)</t>
+          <t>AU-12 a,MA-4 (1) (a),AU-3,AU-12 c</t>
         </is>
       </c>
       <c r="B158" s="3" t="inlineStr">
@@ -12943,7 +12941,7 @@
       </c>
       <c r="F158" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must audit all activities performed during nonlocal maintenance and diagnostic sessions.</t>
+          <t>Red Hat Enterprise Linux 9 Must Audit All Activities Performed During Nonlocal Maintenance And Diagnostic Sessions.</t>
         </is>
       </c>
       <c r="G158" s="3" t="inlineStr">
@@ -12995,7 +12993,7 @@
     <row r="159" ht="130" customHeight="1">
       <c r="A159" s="3" t="inlineStr">
         <is>
-          <t>AU-3,AU-12 a,AU-12 c,MA-4 (1) (a)</t>
+          <t>AU-12 a,MA-4 (1) (a),AU-3,AU-12 c</t>
         </is>
       </c>
       <c r="B159" s="3" t="inlineStr">
@@ -13016,7 +13014,7 @@
       </c>
       <c r="F159" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must audit all activities performed during nonlocal maintenance and diagnostic sessions.</t>
+          <t>Red Hat Enterprise Linux 9 Must Audit All Activities Performed During Nonlocal Maintenance And Diagnostic Sessions.</t>
         </is>
       </c>
       <c r="G159" s="3" t="inlineStr">
@@ -13068,7 +13066,7 @@
     <row r="160" ht="130" customHeight="1">
       <c r="A160" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
+          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B160" s="3" t="inlineStr">
@@ -13093,7 +13091,7 @@
       </c>
       <c r="F160" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must audit all activities performed during nonlocal maintenance and diagnostic sessions.</t>
+          <t>Red Hat Enterprise Linux 9 Must Audit All Activities Performed During Nonlocal Maintenance And Diagnostic Sessions.</t>
         </is>
       </c>
       <c r="G160" s="3" t="inlineStr">
@@ -13153,7 +13151,7 @@
     <row r="161" ht="130" customHeight="1">
       <c r="A161" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
+          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B161" s="3" t="inlineStr">
@@ -13178,7 +13176,7 @@
       </c>
       <c r="F161" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must audit all activities performed during nonlocal maintenance and diagnostic sessions.</t>
+          <t>Red Hat Enterprise Linux 9 Must Audit All Activities Performed During Nonlocal Maintenance And Diagnostic Sessions.</t>
         </is>
       </c>
       <c r="G161" s="3" t="inlineStr">
@@ -13228,7 +13226,7 @@
     <row r="162" ht="130" customHeight="1">
       <c r="A162" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
+          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B162" s="3" t="inlineStr">
@@ -13253,7 +13251,7 @@
       </c>
       <c r="F162" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must audit all activities performed during nonlocal maintenance and diagnostic sessions.</t>
+          <t>Red Hat Enterprise Linux 9 Must Audit All Activities Performed During Nonlocal Maintenance And Diagnostic Sessions.</t>
         </is>
       </c>
       <c r="G162" s="3" t="inlineStr">
@@ -13303,7 +13301,7 @@
     <row r="163" ht="130" customHeight="1">
       <c r="A163" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
+          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B163" s="3" t="inlineStr">
@@ -13328,7 +13326,7 @@
       </c>
       <c r="F163" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must audit all activities performed during nonlocal maintenance and diagnostic sessions.</t>
+          <t>Red Hat Enterprise Linux 9 Must Audit All Activities Performed During Nonlocal Maintenance And Diagnostic Sessions.</t>
         </is>
       </c>
       <c r="G163" s="3" t="inlineStr">
@@ -13378,7 +13376,7 @@
     <row r="164" ht="130" customHeight="1">
       <c r="A164" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
+          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B164" s="3" t="inlineStr">
@@ -13403,7 +13401,7 @@
       </c>
       <c r="F164" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must audit all activities performed during nonlocal maintenance and diagnostic sessions.</t>
+          <t>Red Hat Enterprise Linux 9 Must Audit All Activities Performed During Nonlocal Maintenance And Diagnostic Sessions.</t>
         </is>
       </c>
       <c r="G164" s="3" t="inlineStr">
@@ -13474,7 +13472,7 @@
       </c>
       <c r="F165" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must audit all activities performed during nonlocal maintenance and diagnostic sessions.</t>
+          <t>Red Hat Enterprise Linux 9 Must Audit All Activities Performed During Nonlocal Maintenance And Diagnostic Sessions.</t>
         </is>
       </c>
       <c r="G165" s="3" t="inlineStr">
@@ -13545,7 +13543,7 @@
       </c>
       <c r="F166" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must audit all activities performed during nonlocal maintenance and diagnostic sessions.</t>
+          <t>Red Hat Enterprise Linux 9 Must Audit All Activities Performed During Nonlocal Maintenance And Diagnostic Sessions.</t>
         </is>
       </c>
       <c r="G166" s="3" t="inlineStr">
@@ -13616,7 +13614,7 @@
       </c>
       <c r="F167" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must audit all activities performed during nonlocal maintenance and diagnostic sessions.</t>
+          <t>Red Hat Enterprise Linux 9 Must Audit All Activities Performed During Nonlocal Maintenance And Diagnostic Sessions.</t>
         </is>
       </c>
       <c r="G167" s="3" t="inlineStr">
@@ -13688,7 +13686,7 @@
       </c>
       <c r="F168" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must audit all activities performed during nonlocal maintenance and diagnostic sessions.</t>
+          <t>Red Hat Enterprise Linux 9 Must Audit All Activities Performed During Nonlocal Maintenance And Diagnostic Sessions.</t>
         </is>
       </c>
       <c r="G168" s="3" t="inlineStr">
@@ -13759,7 +13757,7 @@
       </c>
       <c r="F169" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must audit all activities performed during nonlocal maintenance and diagnostic sessions.</t>
+          <t>Red Hat Enterprise Linux 9 Must Audit All Activities Performed During Nonlocal Maintenance And Diagnostic Sessions.</t>
         </is>
       </c>
       <c r="G169" s="3" t="inlineStr">
@@ -13830,7 +13828,7 @@
       </c>
       <c r="F170" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must audit all activities performed during nonlocal maintenance and diagnostic sessions.</t>
+          <t>Red Hat Enterprise Linux 9 Must Audit All Activities Performed During Nonlocal Maintenance And Diagnostic Sessions.</t>
         </is>
       </c>
       <c r="G170" s="3" t="inlineStr">
@@ -13881,7 +13879,7 @@
     <row r="171" ht="130" customHeight="1">
       <c r="A171" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
+          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B171" s="3" t="inlineStr">
@@ -13906,7 +13904,7 @@
       </c>
       <c r="F171" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must audit all activities performed during nonlocal maintenance and diagnostic sessions.</t>
+          <t>Red Hat Enterprise Linux 9 Must Audit All Activities Performed During Nonlocal Maintenance And Diagnostic Sessions.</t>
         </is>
       </c>
       <c r="G171" s="3" t="inlineStr">
@@ -13977,7 +13975,7 @@
       </c>
       <c r="F172" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must audit all activities performed during nonlocal maintenance and diagnostic sessions.</t>
+          <t>Red Hat Enterprise Linux 9 Must Audit All Activities Performed During Nonlocal Maintenance And Diagnostic Sessions.</t>
         </is>
       </c>
       <c r="G172" s="3" t="inlineStr">
@@ -14048,7 +14046,7 @@
       </c>
       <c r="F173" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must audit all activities performed during nonlocal maintenance and diagnostic sessions.</t>
+          <t>Red Hat Enterprise Linux 9 Must Audit All Activities Performed During Nonlocal Maintenance And Diagnostic Sessions.</t>
         </is>
       </c>
       <c r="G173" s="3" t="inlineStr">
@@ -14119,7 +14117,7 @@
       </c>
       <c r="F174" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must audit all activities performed during nonlocal maintenance and diagnostic sessions.</t>
+          <t>Red Hat Enterprise Linux 9 Must Audit All Activities Performed During Nonlocal Maintenance And Diagnostic Sessions.</t>
         </is>
       </c>
       <c r="G174" s="3" t="inlineStr">
@@ -14170,7 +14168,7 @@
     <row r="175" ht="130" customHeight="1">
       <c r="A175" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
+          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B175" s="3" t="inlineStr">
@@ -14195,7 +14193,7 @@
       </c>
       <c r="F175" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must audit all activities performed during nonlocal maintenance and diagnostic sessions.</t>
+          <t>Red Hat Enterprise Linux 9 Must Audit All Activities Performed During Nonlocal Maintenance And Diagnostic Sessions.</t>
         </is>
       </c>
       <c r="G175" s="3" t="inlineStr">
@@ -14245,7 +14243,7 @@
     <row r="176" ht="130" customHeight="1">
       <c r="A176" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
+          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B176" s="3" t="inlineStr">
@@ -14270,7 +14268,7 @@
       </c>
       <c r="F176" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must audit all activities performed during nonlocal maintenance and diagnostic sessions.</t>
+          <t>Red Hat Enterprise Linux 9 Must Audit All Activities Performed During Nonlocal Maintenance And Diagnostic Sessions.</t>
         </is>
       </c>
       <c r="G176" s="3" t="inlineStr">
@@ -14327,7 +14325,7 @@
     <row r="177" ht="130" customHeight="1">
       <c r="A177" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
+          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B177" s="3" t="inlineStr">
@@ -14352,7 +14350,7 @@
       </c>
       <c r="F177" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must audit all activities performed during nonlocal maintenance and diagnostic sessions.</t>
+          <t>Red Hat Enterprise Linux 9 Must Audit All Activities Performed During Nonlocal Maintenance And Diagnostic Sessions.</t>
         </is>
       </c>
       <c r="G177" s="3" t="inlineStr">
@@ -14409,7 +14407,7 @@
     <row r="178" ht="130" customHeight="1">
       <c r="A178" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
+          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B178" s="3" t="inlineStr">
@@ -14434,7 +14432,7 @@
       </c>
       <c r="F178" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must audit all activities performed during nonlocal maintenance and diagnostic sessions.</t>
+          <t>Red Hat Enterprise Linux 9 Must Audit All Activities Performed During Nonlocal Maintenance And Diagnostic Sessions.</t>
         </is>
       </c>
       <c r="G178" s="3" t="inlineStr">
@@ -14491,7 +14489,7 @@
     <row r="179" ht="130" customHeight="1">
       <c r="A179" s="3" t="inlineStr">
         <is>
-          <t>AU-3,AU-3 (1),MA-4 (1) (a)</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-3</t>
         </is>
       </c>
       <c r="B179" s="3" t="inlineStr">
@@ -14516,7 +14514,7 @@
       </c>
       <c r="F179" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must audit all activities performed during nonlocal maintenance and diagnostic sessions.</t>
+          <t>Red Hat Enterprise Linux 9 Must Audit All Activities Performed During Nonlocal Maintenance And Diagnostic Sessions.</t>
         </is>
       </c>
       <c r="G179" s="3" t="inlineStr">
@@ -14573,7 +14571,7 @@
     <row r="180" ht="130" customHeight="1">
       <c r="A180" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
+          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B180" s="3" t="inlineStr">
@@ -14598,7 +14596,7 @@
       </c>
       <c r="F180" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must audit all activities performed during nonlocal maintenance and diagnostic sessions.</t>
+          <t>Red Hat Enterprise Linux 9 Must Audit All Activities Performed During Nonlocal Maintenance And Diagnostic Sessions.</t>
         </is>
       </c>
       <c r="G180" s="3" t="inlineStr">
@@ -14655,7 +14653,7 @@
     <row r="181" ht="130" customHeight="1">
       <c r="A181" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
+          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B181" s="3" t="inlineStr">
@@ -14680,7 +14678,7 @@
       </c>
       <c r="F181" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must audit all activities performed during nonlocal maintenance and diagnostic sessions.</t>
+          <t>Red Hat Enterprise Linux 9 Must Audit All Activities Performed During Nonlocal Maintenance And Diagnostic Sessions.</t>
         </is>
       </c>
       <c r="G181" s="3" t="inlineStr">
@@ -14737,7 +14735,7 @@
     <row r="182" ht="130" customHeight="1">
       <c r="A182" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
+          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B182" s="3" t="inlineStr">
@@ -14762,7 +14760,7 @@
       </c>
       <c r="F182" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must audit all activities performed during nonlocal maintenance and diagnostic sessions.</t>
+          <t>Red Hat Enterprise Linux 9 Must Audit All Activities Performed During Nonlocal Maintenance And Diagnostic Sessions.</t>
         </is>
       </c>
       <c r="G182" s="3" t="inlineStr">
@@ -14819,7 +14817,7 @@
     <row r="183" ht="130" customHeight="1">
       <c r="A183" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
+          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B183" s="3" t="inlineStr">
@@ -14844,7 +14842,7 @@
       </c>
       <c r="F183" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must audit all activities performed during nonlocal maintenance and diagnostic sessions.</t>
+          <t>Red Hat Enterprise Linux 9 Must Audit All Activities Performed During Nonlocal Maintenance And Diagnostic Sessions.</t>
         </is>
       </c>
       <c r="G183" s="3" t="inlineStr">
@@ -14901,7 +14899,7 @@
     <row r="184" ht="130" customHeight="1">
       <c r="A184" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
+          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B184" s="3" t="inlineStr">
@@ -14926,7 +14924,7 @@
       </c>
       <c r="F184" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must audit all activities performed during nonlocal maintenance and diagnostic sessions.</t>
+          <t>Red Hat Enterprise Linux 9 Must Audit All Activities Performed During Nonlocal Maintenance And Diagnostic Sessions.</t>
         </is>
       </c>
       <c r="G184" s="3" t="inlineStr">
@@ -14983,7 +14981,7 @@
     <row r="185" ht="130" customHeight="1">
       <c r="A185" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3 (1),AU-12 c</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-12 c</t>
         </is>
       </c>
       <c r="B185" s="3" t="inlineStr">
@@ -15004,7 +15002,7 @@
       </c>
       <c r="F185" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must audit all activities performed during nonlocal maintenance and diagnostic sessions.</t>
+          <t>Red Hat Enterprise Linux 9 Must Audit All Activities Performed During Nonlocal Maintenance And Diagnostic Sessions.</t>
         </is>
       </c>
       <c r="G185" s="3" t="inlineStr">
@@ -15061,7 +15059,7 @@
     <row r="186" ht="130" customHeight="1">
       <c r="A186" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
+          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B186" s="3" t="inlineStr">
@@ -15086,7 +15084,7 @@
       </c>
       <c r="F186" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must audit all activities performed during nonlocal maintenance and diagnostic sessions.</t>
+          <t>Red Hat Enterprise Linux 9 Must Audit All Activities Performed During Nonlocal Maintenance And Diagnostic Sessions.</t>
         </is>
       </c>
       <c r="G186" s="3" t="inlineStr">
@@ -15140,7 +15138,7 @@
     <row r="187" ht="130" customHeight="1">
       <c r="A187" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
+          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B187" s="3" t="inlineStr">
@@ -15165,7 +15163,7 @@
       </c>
       <c r="F187" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must audit all activities performed during nonlocal maintenance and diagnostic sessions.</t>
+          <t>Red Hat Enterprise Linux 9 Must Audit All Activities Performed During Nonlocal Maintenance And Diagnostic Sessions.</t>
         </is>
       </c>
       <c r="G187" s="3" t="inlineStr">
@@ -15222,7 +15220,7 @@
     <row r="188" ht="130" customHeight="1">
       <c r="A188" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
+          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B188" s="3" t="inlineStr">
@@ -15247,7 +15245,7 @@
       </c>
       <c r="F188" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must audit all activities performed during nonlocal maintenance and diagnostic sessions.</t>
+          <t>Red Hat Enterprise Linux 9 Must Audit All Activities Performed During Nonlocal Maintenance And Diagnostic Sessions.</t>
         </is>
       </c>
       <c r="G188" s="3" t="inlineStr">
@@ -15304,7 +15302,7 @@
     <row r="189" ht="130" customHeight="1">
       <c r="A189" s="3" t="inlineStr">
         <is>
-          <t>AU-3,AU-3 (1),AU-12 c,MA-4 (1) (a)</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-3,AU-12 c</t>
         </is>
       </c>
       <c r="B189" s="3" t="inlineStr">
@@ -15329,7 +15327,7 @@
       </c>
       <c r="F189" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must audit all activities performed during nonlocal maintenance and diagnostic sessions.</t>
+          <t>Red Hat Enterprise Linux 9 Must Audit All Activities Performed During Nonlocal Maintenance And Diagnostic Sessions.</t>
         </is>
       </c>
       <c r="G189" s="3" t="inlineStr">
@@ -15386,7 +15384,7 @@
     <row r="190" ht="130" customHeight="1">
       <c r="A190" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
+          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B190" s="3" t="inlineStr">
@@ -15411,7 +15409,7 @@
       </c>
       <c r="F190" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must audit all activities performed during nonlocal maintenance and diagnostic sessions.</t>
+          <t>Red Hat Enterprise Linux 9 Must Audit All Activities Performed During Nonlocal Maintenance And Diagnostic Sessions.</t>
         </is>
       </c>
       <c r="G190" s="3" t="inlineStr">
@@ -15468,7 +15466,7 @@
     <row r="191" ht="130" customHeight="1">
       <c r="A191" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
+          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B191" s="3" t="inlineStr">
@@ -15493,7 +15491,7 @@
       </c>
       <c r="F191" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must audit all activities performed during nonlocal maintenance and diagnostic sessions.</t>
+          <t>Red Hat Enterprise Linux 9 Must Audit All Activities Performed During Nonlocal Maintenance And Diagnostic Sessions.</t>
         </is>
       </c>
       <c r="G191" s="3" t="inlineStr">
@@ -15550,7 +15548,7 @@
     <row r="192" ht="130" customHeight="1">
       <c r="A192" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
+          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B192" s="3" t="inlineStr">
@@ -15575,7 +15573,7 @@
       </c>
       <c r="F192" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must audit all activities performed during nonlocal maintenance and diagnostic sessions.</t>
+          <t>Red Hat Enterprise Linux 9 Must Audit All Activities Performed During Nonlocal Maintenance And Diagnostic Sessions.</t>
         </is>
       </c>
       <c r="G192" s="3" t="inlineStr">
@@ -15632,7 +15630,7 @@
     <row r="193" ht="130" customHeight="1">
       <c r="A193" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 a,AU-12 c,AU-3,AU-3 (1)</t>
+          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B193" s="3" t="inlineStr">
@@ -15657,7 +15655,7 @@
       </c>
       <c r="F193" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must audit all activities performed during nonlocal maintenance and diagnostic sessions.</t>
+          <t>Red Hat Enterprise Linux 9 Must Audit All Activities Performed During Nonlocal Maintenance And Diagnostic Sessions.</t>
         </is>
       </c>
       <c r="G193" s="3" t="inlineStr">
@@ -15707,7 +15705,7 @@
     <row r="194" ht="130" customHeight="1">
       <c r="A194" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 a,AC-2 (4),AU-12 c,AU-3,AU-3 (1)</t>
+          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c,AC-2 (4)</t>
         </is>
       </c>
       <c r="B194" s="3" t="inlineStr">
@@ -15732,7 +15730,7 @@
       </c>
       <c r="F194" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must audit all activities performed during nonlocal maintenance and diagnostic sessions.</t>
+          <t>Red Hat Enterprise Linux 9 Must Audit All Activities Performed During Nonlocal Maintenance And Diagnostic Sessions.</t>
         </is>
       </c>
       <c r="G194" s="3" t="inlineStr">
@@ -15780,7 +15778,7 @@
     <row r="195" ht="130" customHeight="1">
       <c r="A195" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AC-2 (4),AU-12 c,AU-3,AU-3 (1)</t>
+          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 c,AC-2 (4)</t>
         </is>
       </c>
       <c r="B195" s="3" t="inlineStr">
@@ -15805,7 +15803,7 @@
       </c>
       <c r="F195" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must audit all activities performed during nonlocal maintenance and diagnostic sessions.</t>
+          <t>Red Hat Enterprise Linux 9 Must Audit All Activities Performed During Nonlocal Maintenance And Diagnostic Sessions.</t>
         </is>
       </c>
       <c r="G195" s="3" t="inlineStr">
@@ -15857,7 +15855,7 @@
     <row r="196" ht="130" customHeight="1">
       <c r="A196" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (4),IA-2 (3),IA-2 (1),IA-2 (2)</t>
+          <t>IA-2 (4),IA-2 (3),IA-2 (2),IA-2 (1)</t>
         </is>
       </c>
       <c r="B196" s="2" t="inlineStr">
@@ -15878,7 +15876,7 @@
       </c>
       <c r="F196" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must use multifactor authentication for local access to non-privileged accounts.</t>
+          <t>Red Hat Enterprise Linux 9 Must Use Multifactor Authentication For Local Access To Non-Privileged Accounts.</t>
         </is>
       </c>
       <c r="G196" s="2" t="inlineStr">
@@ -15944,7 +15942,7 @@
     <row r="197" ht="130" customHeight="1">
       <c r="A197" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (5),IA-2 (2),IA-2 (3),IA-2,IA-2 (4)</t>
+          <t>IA-2 (2),IA-2 (5),IA-2 (4),IA-2 (3),IA-2</t>
         </is>
       </c>
       <c r="B197" s="2" t="inlineStr">
@@ -15969,7 +15967,7 @@
       </c>
       <c r="F197" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must use multifactor authentication for local access to non-privileged accounts.</t>
+          <t>Red Hat Enterprise Linux 9 Must Use Multifactor Authentication For Local Access To Non-Privileged Accounts.</t>
         </is>
       </c>
       <c r="G197" s="2" t="inlineStr">
@@ -16033,7 +16031,7 @@
     <row r="198" ht="130" customHeight="1">
       <c r="A198" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (5),IA-2 (2),IA-2 (3),IA-2,IA-2 (4)</t>
+          <t>IA-2 (2),IA-2 (5),IA-2 (4),IA-2 (3),IA-2</t>
         </is>
       </c>
       <c r="B198" s="2" t="inlineStr">
@@ -16058,7 +16056,7 @@
       </c>
       <c r="F198" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must use multifactor authentication for local access to non-privileged accounts.</t>
+          <t>Red Hat Enterprise Linux 9 Must Use Multifactor Authentication For Local Access To Non-Privileged Accounts.</t>
         </is>
       </c>
       <c r="G198" s="2" t="inlineStr">
@@ -16147,7 +16145,7 @@
       </c>
       <c r="F199" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must enforce a delay of at least 4 seconds between logon prompts following a failed logon attempt.</t>
+          <t>Red Hat Enterprise Linux 9 Must Enforce A Delay Of At Least 4 Seconds Between Logon Prompts Following A Failed Logon Attempt.</t>
         </is>
       </c>
       <c r="G199" s="2" t="inlineStr">
@@ -16302,7 +16300,7 @@
       </c>
       <c r="F201" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must require users to re-authenticate for privilege escalation.</t>
+          <t>Red Hat Enterprise Linux 9 Must Require Users To Re-Authenticate For Privilege Escalation.</t>
         </is>
       </c>
       <c r="G201" s="2" t="inlineStr">
@@ -16383,7 +16381,7 @@
       </c>
       <c r="F202" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must require users to re-authenticate for privilege escalation.</t>
+          <t>Red Hat Enterprise Linux 9 Must Require Users To Re-Authenticate For Privilege Escalation.</t>
         </is>
       </c>
       <c r="G202" s="2" t="inlineStr">
@@ -16463,7 +16461,7 @@
       </c>
       <c r="F203" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must require users to re-authenticate for privilege escalation.</t>
+          <t>Red Hat Enterprise Linux 9 Must Require Users To Re-Authenticate For Privilege Escalation.</t>
         </is>
       </c>
       <c r="G203" s="2" t="inlineStr">
@@ -16543,7 +16541,7 @@
       </c>
       <c r="F204" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must require users to re-authenticate for privilege escalation.</t>
+          <t>Red Hat Enterprise Linux 9 Must Require Users To Re-Authenticate For Privilege Escalation.</t>
         </is>
       </c>
       <c r="G204" s="2" t="inlineStr">
@@ -16657,7 +16655,7 @@
     <row r="206" ht="130" customHeight="1">
       <c r="A206" s="2" t="inlineStr">
         <is>
-          <t>SC-8 (2),SC-8 (1),SC-8</t>
+          <t>SC-8 (2),SC-8,SC-8 (1)</t>
         </is>
       </c>
       <c r="B206" s="2" t="inlineStr">
@@ -16682,7 +16680,7 @@
       </c>
       <c r="F206" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must maintain the confidentiality and integrity of information during preparation for transmission.</t>
+          <t>Red Hat Enterprise Linux 9 Must Maintain The Confidentiality And Integrity Of Information During Preparation For Transmission.</t>
         </is>
       </c>
       <c r="G206" s="2" t="inlineStr">
@@ -16734,7 +16732,7 @@
     <row r="207" ht="130" customHeight="1">
       <c r="A207" s="2" t="inlineStr">
         <is>
-          <t>SC-8 (2),SC-8 (1),SC-8</t>
+          <t>SC-8 (2),SC-8,SC-8 (1)</t>
         </is>
       </c>
       <c r="B207" s="2" t="inlineStr">
@@ -16759,7 +16757,7 @@
       </c>
       <c r="F207" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must maintain the confidentiality and integrity of information during preparation for transmission.</t>
+          <t>Red Hat Enterprise Linux 9 Must Maintain The Confidentiality And Integrity Of Information During Preparation For Transmission.</t>
         </is>
       </c>
       <c r="G207" s="2" t="inlineStr">
@@ -16820,7 +16818,7 @@
     <row r="208" ht="130" customHeight="1">
       <c r="A208" s="2" t="inlineStr">
         <is>
-          <t>AC-18 (1),SC-8 (1),SC-8</t>
+          <t>AC-18 (1),SC-8,SC-8 (1)</t>
         </is>
       </c>
       <c r="B208" s="2" t="inlineStr">
@@ -16845,7 +16843,7 @@
       </c>
       <c r="F208" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must protect wireless access to and from the system using encryption.</t>
+          <t>Red Hat Enterprise Linux 9 Must Protect Wireless Access To And From The System Using Encryption.</t>
         </is>
       </c>
       <c r="G208" s="2" t="inlineStr">
@@ -16931,7 +16929,7 @@
       </c>
       <c r="F209" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must initiate a session lock after a 15-minute period of inactivity for all connection types.</t>
+          <t>Red Hat Enterprise Linux 9 Must Initiate A Session Lock After A 15-Minute Period Of Inactivity For All Connection Types.</t>
         </is>
       </c>
       <c r="G209" s="2" t="inlineStr">
@@ -17020,7 +17018,7 @@
       </c>
       <c r="F210" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must initiate a session lock after a 15-minute period of inactivity for all connection types.</t>
+          <t>Red Hat Enterprise Linux 9 Must Initiate A Session Lock After A 15-Minute Period Of Inactivity For All Connection Types.</t>
         </is>
       </c>
       <c r="G210" s="2" t="inlineStr">
@@ -17105,7 +17103,7 @@
       </c>
       <c r="F211" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must initiate a session lock after a 15-minute period of inactivity for all connection types.</t>
+          <t>Red Hat Enterprise Linux 9 Must Initiate A Session Lock After A 15-Minute Period Of Inactivity For All Connection Types.</t>
         </is>
       </c>
       <c r="G211" s="2" t="inlineStr">
@@ -17188,7 +17186,7 @@
       </c>
       <c r="F212" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must initiate a session lock after a 15-minute period of inactivity for all connection types.</t>
+          <t>Red Hat Enterprise Linux 9 Must Initiate A Session Lock After A 15-Minute Period Of Inactivity For All Connection Types.</t>
         </is>
       </c>
       <c r="G212" s="2" t="inlineStr">
@@ -17248,7 +17246,7 @@
     <row r="213" ht="130" customHeight="1">
       <c r="A213" s="2" t="inlineStr">
         <is>
-          <t>IA-5 (1) (c),CM-7 a,CM-6 b</t>
+          <t>IA-5 (1) (c),CM-6 b,CM-7 a</t>
         </is>
       </c>
       <c r="B213" s="2" t="inlineStr">
@@ -17273,7 +17271,7 @@
       </c>
       <c r="F213" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must transmit only encrypted representations of passwords.</t>
+          <t>Red Hat Enterprise Linux 9 Must Transmit Only Encrypted Representations Of Passwords.</t>
         </is>
       </c>
       <c r="G213" s="2" t="inlineStr">
@@ -17347,7 +17345,7 @@
       </c>
       <c r="F214" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must provide audit record generation capability for DoD-defined auditable events for all operating system components.</t>
+          <t>Red Hat Enterprise Linux 9 Must Provide Audit Record Generation Capability For Dod-Defined Auditable Events For All Operating System Components.</t>
         </is>
       </c>
       <c r="G214" s="3" t="inlineStr">
@@ -17433,7 +17431,7 @@
       </c>
       <c r="F215" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must provide audit record generation capability for DoD-defined auditable events for all operating system components.</t>
+          <t>Red Hat Enterprise Linux 9 Must Provide Audit Record Generation Capability For Dod-Defined Auditable Events For All Operating System Components.</t>
         </is>
       </c>
       <c r="G215" s="2" t="inlineStr">
@@ -17524,7 +17522,7 @@
       </c>
       <c r="F216" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must manage excess capacity, bandwidth, or other redundancy to limit the effects of information flooding types of Denial of Service (DoS) attacks.</t>
+          <t>Red Hat Enterprise Linux 9 Must Manage Excess Capacity, Bandwidth, Or Other Redundancy To Limit The Effects Of Information Flooding Types Of Denial Of Service (Dos) Attacks.</t>
         </is>
       </c>
       <c r="G216" s="2" t="inlineStr">
@@ -17623,7 +17621,7 @@
       </c>
       <c r="F217" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must remove all software components after updated versions have been installed.</t>
+          <t>Red Hat Enterprise Linux 9 Must Remove All Software Components After Updated Versions Have Been Installed.</t>
         </is>
       </c>
       <c r="G217" s="2" t="inlineStr">
@@ -17704,7 +17702,7 @@
       </c>
       <c r="F218" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must implement address space layout randomization to protect its memory from unauthorized code execution.</t>
+          <t>Red Hat Enterprise Linux 9 Must Implement Address Space Layout Randomization To Protect Its Memory From Unauthorized Code Execution.</t>
         </is>
       </c>
       <c r="G218" s="2" t="inlineStr">
@@ -17753,7 +17751,7 @@
         <is>
           <t xml:space="preserve">To ensure that "pti=on" is added as a kernel command line
 argument to newly installed kernels, add "pti=on" to the
-default Grub2 command line for Linux operating systems.  Modify the line within
+default Grub2 command line for Linux operating systems. Modify the line within
 "/etc/default/grub" as shown below:
  GRUB_CMDLINE_LINUX="... pti=on ..." 
 Run the following command to update command line for already installed kernels: # grubby --update-kernel=ALL --args="pti=on" </t>
@@ -17796,7 +17794,7 @@
       </c>
       <c r="F219" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must implement address space layout randomization to protect its memory from unauthorized code execution.</t>
+          <t>Red Hat Enterprise Linux 9 Must Implement Address Space Layout Randomization To Protect Its Memory From Unauthorized Code Execution.</t>
         </is>
       </c>
       <c r="G219" s="2" t="inlineStr">
@@ -17869,7 +17867,7 @@
     <row r="220" ht="130" customHeight="1">
       <c r="A220" s="2" t="inlineStr">
         <is>
-          <t>IA-8,AU-3 (1),IA-2</t>
+          <t>AU-3 (1),IA-8,IA-2</t>
         </is>
       </c>
       <c r="B220" s="2" t="inlineStr">
@@ -17894,7 +17892,7 @@
       </c>
       <c r="F220" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must uniquely identify and must authenticate organizational users (or processes acting on behalf of organizational users).</t>
+          <t>Red Hat Enterprise Linux 9 Must Uniquely Identify And Must Authenticate Organizational Users (Or Processes Acting On Behalf Of Organizational Users).</t>
         </is>
       </c>
       <c r="G220" s="2" t="inlineStr">
@@ -17970,7 +17968,7 @@
       </c>
       <c r="F221" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must uniquely identify and must authenticate organizational users (or processes acting on behalf of organizational users).</t>
+          <t>Red Hat Enterprise Linux 9 Must Uniquely Identify And Must Authenticate Organizational Users (Or Processes Acting On Behalf Of Organizational Users).</t>
         </is>
       </c>
       <c r="G221" s="2" t="inlineStr">
@@ -18050,7 +18048,7 @@
       </c>
       <c r="F222" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must uniquely identify and must authenticate organizational users (or processes acting on behalf of organizational users).</t>
+          <t>Red Hat Enterprise Linux 9 Must Uniquely Identify And Must Authenticate Organizational Users (Or Processes Acting On Behalf Of Organizational Users).</t>
         </is>
       </c>
       <c r="G222" s="2" t="inlineStr">
@@ -18104,43 +18102,43 @@
       <c r="Q222" s="2" t="n"/>
     </row>
     <row r="223" ht="130" customHeight="1">
-      <c r="A223" s="3" t="inlineStr">
+      <c r="A223" s="2" t="inlineStr">
         <is>
           <t>CM-5 (6)</t>
         </is>
       </c>
-      <c r="B223" s="3" t="inlineStr">
+      <c r="B223" s="2" t="inlineStr">
         <is>
           <t>CCI-001499</t>
         </is>
       </c>
-      <c r="C223" s="3" t="inlineStr">
+      <c r="C223" s="2" t="inlineStr">
         <is>
           <t>SRG-OS-000259-GPOS-00100</t>
         </is>
       </c>
-      <c r="D223" s="3" t="inlineStr">
+      <c r="D223" s="2" t="inlineStr">
         <is>
           <t>CCE-89858-5</t>
         </is>
       </c>
-      <c r="E223" s="3" t="inlineStr">
+      <c r="E223" s="2" t="inlineStr">
         <is>
           <t>The operating system must limit privileges to change software resident within software libraries.</t>
         </is>
       </c>
-      <c r="F223" s="3" t="inlineStr">
-        <is>
-          <t>Red Hat Enterprise Linux 9 must limit privileges to change software resident within software libraries.</t>
-        </is>
-      </c>
-      <c r="G223" s="3" t="inlineStr">
+      <c r="F223" s="2" t="inlineStr">
+        <is>
+          <t>Red Hat Enterprise Linux 9 Must Limit Privileges To Change Software Resident Within Software Libraries.</t>
+        </is>
+      </c>
+      <c r="G223" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> If the operating system were to allow any user to make changes to software libraries, then those changes might be implemented without undergoing the appropriate testing and approvals that are part of a robust change management process.
 This requirement applies to operating systems with software libraries that are accessible and configurable, as in the case of interpreted languages. Software libraries also include privileged programs which execute with escalated privileges. Only qualified and authorized individuals shall be allowed to obtain access to information system components for purposes of initiating changes, including upgrades and modifications.</t>
         </is>
       </c>
-      <c r="H223" s="3" t="inlineStr">
+      <c r="H223" s="2" t="inlineStr">
         <is>
           <t>Files from shared library directories are loaded into the address
 space of processes (including privileged ones) or of the kernel itself at
@@ -18148,78 +18146,79 @@
 the integrity of the system.</t>
         </is>
       </c>
-      <c r="I223" s="3" t="inlineStr">
-        <is>
-          <t>Applicable - Configurable</t>
-        </is>
-      </c>
-      <c r="J223" s="3" t="inlineStr">
+      <c r="I223" s="2" t="inlineStr">
+        <is>
+          <t>Applicable - Configurable</t>
+        </is>
+      </c>
+      <c r="J223" s="2" t="inlineStr">
         <is>
           <t>Verify the operating system limits privileges to change software resident within software libraries. If it does not, this is a finding.</t>
         </is>
       </c>
-      <c r="K223" s="3" t="inlineStr">
-        <is>
-          <t>Shared libraries are stored in the following directories:
- /lib
-/lib64
-/usr/lib
-/usr/lib64 
-For each of these directories, run the following command to find files not
-owned by root:
- $ sudo find -L  $DIR  ! -user root -type d -exec chgrp root {} \; 
-If any of these directories are not group-owned by root, then this is a finding.</t>
-        </is>
-      </c>
-      <c r="L223" s="3" t="n"/>
-      <c r="M223" s="3" t="inlineStr"/>
-      <c r="N223" s="3" t="inlineStr">
-        <is>
-          <t>CAT II</t>
-        </is>
-      </c>
-      <c r="O223" s="3" t="n"/>
-      <c r="P223" s="3" t="n"/>
-      <c r="Q223" s="3" t="n"/>
+      <c r="K223" s="2" t="inlineStr">
+        <is>
+          <t>Verify the system-wide shared library directories are group-owned by "root" with the following command:
+$ sudo find /lib /lib64 /usr/lib /usr/lib64 ! -group root -type d -exec stat -c "%n %G" '{}' \;
+If any system-wide shared library directory is returned and is not group-owned by a required system account, this is a finding.
+If any system-wide shared library directory is returned and is not group-owned by a required system account, then this is a finding.</t>
+        </is>
+      </c>
+      <c r="L223" s="2" t="n"/>
+      <c r="M223" s="2" t="inlineStr">
+        <is>
+          <t>Configure the system-wide shared library directories (/lib, /lib64, /usr/lib and /usr/lib64) to be protected from unauthorized access.
+Run the following command, replacing "[DIRECTORY]" with any library directory not group-owned by "root".
+$ sudo chgrp root [DIRECTORY]</t>
+        </is>
+      </c>
+      <c r="N223" s="2" t="inlineStr">
+        <is>
+          <t>CAT II</t>
+        </is>
+      </c>
+      <c r="O223" s="2" t="n"/>
+      <c r="P223" s="2" t="n"/>
+      <c r="Q223" s="2" t="n"/>
     </row>
     <row r="224" ht="130" customHeight="1">
-      <c r="A224" s="3" t="inlineStr">
+      <c r="A224" s="2" t="inlineStr">
         <is>
           <t>CM-5 (6)</t>
         </is>
       </c>
-      <c r="B224" s="3" t="inlineStr">
+      <c r="B224" s="2" t="inlineStr">
         <is>
           <t>CCI-001499</t>
         </is>
       </c>
-      <c r="C224" s="3" t="inlineStr">
+      <c r="C224" s="2" t="inlineStr">
         <is>
           <t>SRG-OS-000259-GPOS-00100</t>
         </is>
       </c>
-      <c r="D224" s="3" t="inlineStr">
+      <c r="D224" s="2" t="inlineStr">
         <is>
           <t>CCE-89022-8</t>
         </is>
       </c>
-      <c r="E224" s="3" t="inlineStr">
+      <c r="E224" s="2" t="inlineStr">
         <is>
           <t>The operating system must limit privileges to change software resident within software libraries.</t>
         </is>
       </c>
-      <c r="F224" s="3" t="inlineStr">
-        <is>
-          <t>Red Hat Enterprise Linux 9 must limit privileges to change software resident within software libraries.</t>
-        </is>
-      </c>
-      <c r="G224" s="3" t="inlineStr">
+      <c r="F224" s="2" t="inlineStr">
+        <is>
+          <t>Red Hat Enterprise Linux 9 Must Limit Privileges To Change Software Resident Within Software Libraries.</t>
+        </is>
+      </c>
+      <c r="G224" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> If the operating system were to allow any user to make changes to software libraries, then those changes might be implemented without undergoing the appropriate testing and approvals that are part of a robust change management process.
 This requirement applies to operating systems with software libraries that are accessible and configurable, as in the case of interpreted languages. Software libraries also include privileged programs which execute with escalated privileges. Only qualified and authorized individuals shall be allowed to obtain access to information system components for purposes of initiating changes, including upgrades and modifications.</t>
         </is>
       </c>
-      <c r="H224" s="3" t="inlineStr">
+      <c r="H224" s="2" t="inlineStr">
         <is>
           <t>Files from shared library directories are loaded into the address
 space of processes (including privileged ones) or of the kernel itself at
@@ -18227,78 +18226,78 @@
 the integrity of the system.</t>
         </is>
       </c>
-      <c r="I224" s="3" t="inlineStr">
-        <is>
-          <t>Applicable - Configurable</t>
-        </is>
-      </c>
-      <c r="J224" s="3" t="inlineStr">
+      <c r="I224" s="2" t="inlineStr">
+        <is>
+          <t>Applicable - Configurable</t>
+        </is>
+      </c>
+      <c r="J224" s="2" t="inlineStr">
         <is>
           <t>Verify the operating system limits privileges to change software resident within software libraries. If it does not, this is a finding.</t>
         </is>
       </c>
-      <c r="K224" s="3" t="inlineStr">
-        <is>
-          <t>Shared libraries are stored in the following directories:
- /lib
-/lib64
-/usr/lib
-/usr/lib64 
-For each of these directories, run the following command to find files not
-owned by root:
- $ sudo find -L  $DIR  ! -user root -type d -exec chown root {} \; 
-If any of these directories are not owned by root, then this is a finding.</t>
-        </is>
-      </c>
-      <c r="L224" s="3" t="n"/>
-      <c r="M224" s="3" t="inlineStr"/>
-      <c r="N224" s="3" t="inlineStr">
-        <is>
-          <t>CAT II</t>
-        </is>
-      </c>
-      <c r="O224" s="3" t="n"/>
-      <c r="P224" s="3" t="n"/>
-      <c r="Q224" s="3" t="n"/>
+      <c r="K224" s="2" t="inlineStr">
+        <is>
+          <t>Verify the system-wide shared library directories are owned by "root" with the following command:
+$ sudo find /lib /lib64 /usr/lib /usr/lib64 ! -user root -type d -exec stat -c "%n %U" '{}' \;
+If any system-wide shared library directory is not owned by root, then this is a finding.</t>
+        </is>
+      </c>
+      <c r="L224" s="2" t="n"/>
+      <c r="M224" s="2" t="inlineStr">
+        <is>
+          <t>Configure the system-wide shared library directories within (/lib, /lib64, /usr/lib and /usr/lib64) to be protected from unauthorized access.
+Run the following command, replacing "[DIRECTORY]" with any library directory not owned by "root".
+$ sudo chown root [DIRECTORY]</t>
+        </is>
+      </c>
+      <c r="N224" s="2" t="inlineStr">
+        <is>
+          <t>CAT II</t>
+        </is>
+      </c>
+      <c r="O224" s="2" t="n"/>
+      <c r="P224" s="2" t="n"/>
+      <c r="Q224" s="2" t="n"/>
     </row>
     <row r="225" ht="130" customHeight="1">
-      <c r="A225" s="3" t="inlineStr">
+      <c r="A225" s="2" t="inlineStr">
         <is>
           <t>CM-5 (6)</t>
         </is>
       </c>
-      <c r="B225" s="3" t="inlineStr">
+      <c r="B225" s="2" t="inlineStr">
         <is>
           <t>CCI-001499</t>
         </is>
       </c>
-      <c r="C225" s="3" t="inlineStr">
+      <c r="C225" s="2" t="inlineStr">
         <is>
           <t>SRG-OS-000259-GPOS-00100</t>
         </is>
       </c>
-      <c r="D225" s="3" t="inlineStr">
+      <c r="D225" s="2" t="inlineStr">
         <is>
           <t>CCE-89442-8</t>
         </is>
       </c>
-      <c r="E225" s="3" t="inlineStr">
+      <c r="E225" s="2" t="inlineStr">
         <is>
           <t>The operating system must limit privileges to change software resident within software libraries.</t>
         </is>
       </c>
-      <c r="F225" s="3" t="inlineStr">
-        <is>
-          <t>Red Hat Enterprise Linux 9 must limit privileges to change software resident within software libraries.</t>
-        </is>
-      </c>
-      <c r="G225" s="3" t="inlineStr">
+      <c r="F225" s="2" t="inlineStr">
+        <is>
+          <t>Red Hat Enterprise Linux 9 Must Limit Privileges To Change Software Resident Within Software Libraries.</t>
+        </is>
+      </c>
+      <c r="G225" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> If the operating system were to allow any user to make changes to software libraries, then those changes might be implemented without undergoing the appropriate testing and approvals that are part of a robust change management process.
 This requirement applies to operating systems with software libraries that are accessible and configurable, as in the case of interpreted languages. Software libraries also include privileged programs which execute with escalated privileges. Only qualified and authorized individuals shall be allowed to obtain access to information system components for purposes of initiating changes, including upgrades and modifications.</t>
         </is>
       </c>
-      <c r="H225" s="3" t="inlineStr">
+      <c r="H225" s="2" t="inlineStr">
         <is>
           <t>If the operating system allows any user to make changes to software
 libraries, then those changes might be implemented without undergoing the
@@ -18312,398 +18311,389 @@
 of initiating changes, including upgrades and modifications.</t>
         </is>
       </c>
-      <c r="I225" s="3" t="inlineStr">
-        <is>
-          <t>Applicable - Configurable</t>
-        </is>
-      </c>
-      <c r="J225" s="3" t="inlineStr">
+      <c r="I225" s="2" t="inlineStr">
+        <is>
+          <t>Applicable - Configurable</t>
+        </is>
+      </c>
+      <c r="J225" s="2" t="inlineStr">
         <is>
           <t>Verify the operating system limits privileges to change software resident within software libraries. If it does not, this is a finding.</t>
         </is>
       </c>
-      <c r="K225" s="3" t="inlineStr">
-        <is>
-          <t>System commands are stored in the following directories:
- /bin
-/sbin
-/usr/bin
-/usr/sbin
-/usr/local/bin
-/usr/local/sbin 
-For each of these directories, run the following command to find files not
-owned by root group:
- $ sudo find -L  $DIR  ! -group root -type f \; 
-If any of these files are not owned by root group, then this is a finding.</t>
-        </is>
-      </c>
-      <c r="L225" s="3" t="n"/>
-      <c r="M225" s="3" t="inlineStr"/>
-      <c r="N225" s="3" t="inlineStr">
-        <is>
-          <t>CAT II</t>
-        </is>
-      </c>
-      <c r="O225" s="3" t="n"/>
-      <c r="P225" s="3" t="n"/>
-      <c r="Q225" s="3" t="n"/>
+      <c r="K225" s="2" t="inlineStr">
+        <is>
+          <t>Verify the system commands contained in the following directories are group-owned by "root", or a required system account, with the following command:
+$ sudo find -L /bin /sbin /usr/bin /usr/sbin /usr/local/bin /usr/local/sbin ! -group root -exec ls -l {} \;
+If any system commands are returned and is not group-owned by a required system account, then this is a finding.</t>
+        </is>
+      </c>
+      <c r="L225" s="2" t="n"/>
+      <c r="M225" s="2" t="inlineStr">
+        <is>
+          <t>Configure the system commands to be protected from unauthorized access.
+Run the following command, replacing "[FILE]" with any system command file not group-owned by "root" or a required system account.
+$ sudo chgrp root [FILE]</t>
+        </is>
+      </c>
+      <c r="N225" s="2" t="inlineStr">
+        <is>
+          <t>CAT II</t>
+        </is>
+      </c>
+      <c r="O225" s="2" t="n"/>
+      <c r="P225" s="2" t="n"/>
+      <c r="Q225" s="2" t="n"/>
     </row>
     <row r="226" ht="130" customHeight="1">
-      <c r="A226" s="3" t="inlineStr">
+      <c r="A226" s="2" t="inlineStr">
         <is>
           <t>CM-5 (6)</t>
         </is>
       </c>
-      <c r="B226" s="3" t="inlineStr">
+      <c r="B226" s="2" t="inlineStr">
         <is>
           <t>CCI-001499</t>
         </is>
       </c>
-      <c r="C226" s="3" t="inlineStr">
+      <c r="C226" s="2" t="inlineStr">
         <is>
           <t>SRG-OS-000259-GPOS-00100</t>
         </is>
       </c>
-      <c r="D226" s="3" t="inlineStr">
+      <c r="D226" s="2" t="inlineStr">
         <is>
           <t>CCE-83908-4</t>
         </is>
       </c>
-      <c r="E226" s="3" t="inlineStr">
+      <c r="E226" s="2" t="inlineStr">
         <is>
           <t>The operating system must limit privileges to change software resident within software libraries.</t>
         </is>
       </c>
-      <c r="F226" s="3" t="inlineStr">
-        <is>
-          <t>Red Hat Enterprise Linux 9 must limit privileges to change software resident within software libraries.</t>
-        </is>
-      </c>
-      <c r="G226" s="3" t="inlineStr">
+      <c r="F226" s="2" t="inlineStr">
+        <is>
+          <t>Red Hat Enterprise Linux 9 Must Limit Privileges To Change Software Resident Within Software Libraries.</t>
+        </is>
+      </c>
+      <c r="G226" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> If the operating system were to allow any user to make changes to software libraries, then those changes might be implemented without undergoing the appropriate testing and approvals that are part of a robust change management process.
 This requirement applies to operating systems with software libraries that are accessible and configurable, as in the case of interpreted languages. Software libraries also include privileged programs which execute with escalated privileges. Only qualified and authorized individuals shall be allowed to obtain access to information system components for purposes of initiating changes, including upgrades and modifications.</t>
         </is>
       </c>
-      <c r="H226" s="3" t="inlineStr">
+      <c r="H226" s="2" t="inlineStr">
         <is>
           <t>System binaries are executed by privileged users as well as system services,
 and restrictive permissions are necessary to ensure that their
 execution of these programs cannot be co-opted.</t>
         </is>
       </c>
-      <c r="I226" s="3" t="inlineStr">
-        <is>
-          <t>Applicable - Configurable</t>
-        </is>
-      </c>
-      <c r="J226" s="3" t="inlineStr">
+      <c r="I226" s="2" t="inlineStr">
+        <is>
+          <t>Applicable - Configurable</t>
+        </is>
+      </c>
+      <c r="J226" s="2" t="inlineStr">
         <is>
           <t>Verify the operating system limits privileges to change software resident within software libraries. If it does not, this is a finding.</t>
         </is>
       </c>
-      <c r="K226" s="3" t="inlineStr">
-        <is>
-          <t>System executables are stored in the following directories by default:
- /bin
-/sbin
-/usr/bin
-/usr/libexec
-/usr/local/bin
-/usr/local/sbin
-/usr/sbin 
-To find system executables that are not owned by "root",
-run the following command for each directory  DIR  which contains system executables:
- $ sudo find  DIR/  \! -user root 
-If any system executables are found to not be owned by root, then this is a finding.</t>
-        </is>
-      </c>
-      <c r="L226" s="3" t="n"/>
-      <c r="M226" s="3" t="inlineStr"/>
-      <c r="N226" s="3" t="inlineStr">
-        <is>
-          <t>CAT II</t>
-        </is>
-      </c>
-      <c r="O226" s="3" t="n"/>
-      <c r="P226" s="3" t="n"/>
-      <c r="Q226" s="3" t="n"/>
+      <c r="K226" s="2" t="inlineStr">
+        <is>
+          <t>Verify the system commands contained in the following directories are owned by "root" with the following command:
+$ sudo find -L /bin /sbin /usr/bin /usr/sbin /usr/libexec /usr/local/bin /usr/local/sbin ! -user root -exec ls -l {} \;
+If any system commands are found to not be owned by root, then this is a finding.</t>
+        </is>
+      </c>
+      <c r="L226" s="2" t="n"/>
+      <c r="M226" s="2" t="inlineStr">
+        <is>
+          <t>Configure the system commands to be protected from unauthorized access.
+Run the following command, replacing "[FILE]" with any system command file not owned by "root".
+$ sudo chown root [FILE]</t>
+        </is>
+      </c>
+      <c r="N226" s="2" t="inlineStr">
+        <is>
+          <t>CAT II</t>
+        </is>
+      </c>
+      <c r="O226" s="2" t="n"/>
+      <c r="P226" s="2" t="n"/>
+      <c r="Q226" s="2" t="n"/>
     </row>
     <row r="227" ht="130" customHeight="1">
-      <c r="A227" s="3" t="inlineStr">
+      <c r="A227" s="2" t="inlineStr">
         <is>
           <t>CM-5 (6)</t>
         </is>
       </c>
-      <c r="B227" s="3" t="inlineStr">
+      <c r="B227" s="2" t="inlineStr">
         <is>
           <t>CCI-001499</t>
         </is>
       </c>
-      <c r="C227" s="3" t="inlineStr">
+      <c r="C227" s="2" t="inlineStr">
         <is>
           <t>SRG-OS-000259-GPOS-00100</t>
         </is>
       </c>
-      <c r="D227" s="3" t="inlineStr">
+      <c r="D227" s="2" t="inlineStr">
         <is>
           <t>CCE-83907-6</t>
         </is>
       </c>
-      <c r="E227" s="3" t="inlineStr">
+      <c r="E227" s="2" t="inlineStr">
         <is>
           <t>The operating system must limit privileges to change software resident within software libraries.</t>
         </is>
       </c>
-      <c r="F227" s="3" t="inlineStr">
-        <is>
-          <t>Red Hat Enterprise Linux 9 must limit privileges to change software resident within software libraries.</t>
-        </is>
-      </c>
-      <c r="G227" s="3" t="inlineStr">
+      <c r="F227" s="2" t="inlineStr">
+        <is>
+          <t>Red Hat Enterprise Linux 9 Must Limit Privileges To Change Software Resident Within Software Libraries.</t>
+        </is>
+      </c>
+      <c r="G227" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> If the operating system were to allow any user to make changes to software libraries, then those changes might be implemented without undergoing the appropriate testing and approvals that are part of a robust change management process.
 This requirement applies to operating systems with software libraries that are accessible and configurable, as in the case of interpreted languages. Software libraries also include privileged programs which execute with escalated privileges. Only qualified and authorized individuals shall be allowed to obtain access to information system components for purposes of initiating changes, including upgrades and modifications.</t>
         </is>
       </c>
-      <c r="H227" s="3" t="inlineStr">
+      <c r="H227" s="2" t="inlineStr">
         <is>
           <t>Files from shared library directories are loaded into the address
 space of processes (including privileged ones) or of the kernel itself at
 runtime. Proper ownership is necessary to protect the integrity of the system.</t>
         </is>
       </c>
-      <c r="I227" s="3" t="inlineStr">
-        <is>
-          <t>Applicable - Configurable</t>
-        </is>
-      </c>
-      <c r="J227" s="3" t="inlineStr">
+      <c r="I227" s="2" t="inlineStr">
+        <is>
+          <t>Applicable - Configurable</t>
+        </is>
+      </c>
+      <c r="J227" s="2" t="inlineStr">
         <is>
           <t>Verify the operating system limits privileges to change software resident within software libraries. If it does not, this is a finding.</t>
         </is>
       </c>
-      <c r="K227" s="3" t="inlineStr">
-        <is>
-          <t>Shared libraries are stored in the following directories:
- /lib
-/lib64
-/usr/lib
-/usr/lib64 
-For each of these directories, run the following command to find files not
-owned by root:
- $ sudo find -L  $DIR  ! -user root -exec chown root {} \; 
-If any of these files are not owned by root, then this is a finding.</t>
-        </is>
-      </c>
-      <c r="L227" s="3" t="n"/>
-      <c r="M227" s="3" t="inlineStr"/>
-      <c r="N227" s="3" t="inlineStr">
-        <is>
-          <t>CAT II</t>
-        </is>
-      </c>
-      <c r="O227" s="3" t="n"/>
-      <c r="P227" s="3" t="n"/>
-      <c r="Q227" s="3" t="n"/>
+      <c r="K227" s="2" t="inlineStr">
+        <is>
+          <t>Verify the system-wide shared library files are owned by "root" with the following command:
+$ sudo find -L /lib /lib64 /usr/lib /usr/lib64 ! -user root -exec ls -l {} \;
+If any system wide shared library file is not owned by root, then this is a finding.</t>
+        </is>
+      </c>
+      <c r="L227" s="2" t="n"/>
+      <c r="M227" s="2" t="inlineStr">
+        <is>
+          <t>Configure the system-wide shared library files (/lib, /lib64, /usr/lib and /usr/lib64) to be protected from unauthorized access.
+Run the following command, replacing "[FILE]" with any library file not owned by "root".
+$ sudo chown root [FILE]</t>
+        </is>
+      </c>
+      <c r="N227" s="2" t="inlineStr">
+        <is>
+          <t>CAT II</t>
+        </is>
+      </c>
+      <c r="O227" s="2" t="n"/>
+      <c r="P227" s="2" t="n"/>
+      <c r="Q227" s="2" t="n"/>
     </row>
     <row r="228" ht="130" customHeight="1">
-      <c r="A228" s="3" t="inlineStr">
+      <c r="A228" s="2" t="inlineStr">
         <is>
           <t>CM-5 (6)</t>
         </is>
       </c>
-      <c r="B228" s="3" t="inlineStr">
+      <c r="B228" s="2" t="inlineStr">
         <is>
           <t>CCI-001499</t>
         </is>
       </c>
-      <c r="C228" s="3" t="inlineStr">
+      <c r="C228" s="2" t="inlineStr">
         <is>
           <t>SRG-OS-000259-GPOS-00100</t>
         </is>
       </c>
-      <c r="D228" s="3" t="inlineStr">
+      <c r="D228" s="2" t="inlineStr">
         <is>
           <t>CCE-83911-8</t>
         </is>
       </c>
-      <c r="E228" s="3" t="inlineStr">
+      <c r="E228" s="2" t="inlineStr">
         <is>
           <t>The operating system must limit privileges to change software resident within software libraries.</t>
         </is>
       </c>
-      <c r="F228" s="3" t="inlineStr">
-        <is>
-          <t>Red Hat Enterprise Linux 9 must limit privileges to change software resident within software libraries.</t>
-        </is>
-      </c>
-      <c r="G228" s="3" t="inlineStr">
+      <c r="F228" s="2" t="inlineStr">
+        <is>
+          <t>Red Hat Enterprise Linux 9 Must Limit Privileges To Change Software Resident Within Software Libraries.</t>
+        </is>
+      </c>
+      <c r="G228" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> If the operating system were to allow any user to make changes to software libraries, then those changes might be implemented without undergoing the appropriate testing and approvals that are part of a robust change management process.
 This requirement applies to operating systems with software libraries that are accessible and configurable, as in the case of interpreted languages. Software libraries also include privileged programs which execute with escalated privileges. Only qualified and authorized individuals shall be allowed to obtain access to information system components for purposes of initiating changes, including upgrades and modifications.</t>
         </is>
       </c>
-      <c r="H228" s="3" t="inlineStr">
+      <c r="H228" s="2" t="inlineStr">
         <is>
           <t>System binaries are executed by privileged users, as well as system services,
 and restrictive permissions are necessary to ensure execution of these programs
 cannot be co-opted.</t>
         </is>
       </c>
-      <c r="I228" s="3" t="inlineStr">
-        <is>
-          <t>Applicable - Configurable</t>
-        </is>
-      </c>
-      <c r="J228" s="3" t="inlineStr">
+      <c r="I228" s="2" t="inlineStr">
+        <is>
+          <t>Applicable - Configurable</t>
+        </is>
+      </c>
+      <c r="J228" s="2" t="inlineStr">
         <is>
           <t>Verify the operating system limits privileges to change software resident within software libraries. If it does not, this is a finding.</t>
         </is>
       </c>
-      <c r="K228" s="3" t="inlineStr">
-        <is>
-          <t>System executables are stored in the following directories by default:
- /bin
-/sbin
-/usr/bin
-/usr/libexec
-/usr/local/bin
-/usr/local/sbin
-/usr/sbin 
-To find system executables that are group-writable or world-writable,
-run the following command for each directory  DIR  which contains system executables:
- $ sudo find -L  DIR  -perm /022 -type f 
-If any system executables are found to be group or world writable, then this is a finding.</t>
-        </is>
-      </c>
-      <c r="L228" s="3" t="n"/>
-      <c r="M228" s="3" t="inlineStr"/>
-      <c r="N228" s="3" t="inlineStr">
-        <is>
-          <t>CAT II</t>
-        </is>
-      </c>
-      <c r="O228" s="3" t="n"/>
-      <c r="P228" s="3" t="n"/>
-      <c r="Q228" s="3" t="n"/>
+      <c r="K228" s="2" t="inlineStr">
+        <is>
+          <t>Verify the system commands contained in the following directories have mode "755" or less permissive with the following command:
+$ sudo find -L /bin /sbin /usr/bin /usr/sbin /usr/libexec /usr/local/bin /usr/local/sbin -perm /022 -exec ls -l {} \;
+If any system commands are found to be group-writable or world-writable, then this is a finding.</t>
+        </is>
+      </c>
+      <c r="L228" s="2" t="n"/>
+      <c r="M228" s="2" t="inlineStr">
+        <is>
+          <t>Configure the system commands to be protected from unauthorized access.
+Run the following command, replacing "[FILE]" with any system command with a mode more permissive than "755".
+$ sudo chmod 755 [FILE]</t>
+        </is>
+      </c>
+      <c r="N228" s="2" t="inlineStr">
+        <is>
+          <t>CAT II</t>
+        </is>
+      </c>
+      <c r="O228" s="2" t="n"/>
+      <c r="P228" s="2" t="n"/>
+      <c r="Q228" s="2" t="n"/>
     </row>
     <row r="229" ht="130" customHeight="1">
-      <c r="A229" s="3" t="inlineStr">
+      <c r="A229" s="2" t="inlineStr">
         <is>
           <t>CM-5 (6)</t>
         </is>
       </c>
-      <c r="B229" s="3" t="inlineStr">
+      <c r="B229" s="2" t="inlineStr">
         <is>
           <t>CCI-001499</t>
         </is>
       </c>
-      <c r="C229" s="3" t="inlineStr">
+      <c r="C229" s="2" t="inlineStr">
         <is>
           <t>SRG-OS-000259-GPOS-00100</t>
         </is>
       </c>
-      <c r="D229" s="3" t="inlineStr">
+      <c r="D229" s="2" t="inlineStr">
         <is>
           <t>CCE-83909-2</t>
         </is>
       </c>
-      <c r="E229" s="3" t="inlineStr">
+      <c r="E229" s="2" t="inlineStr">
         <is>
           <t>The operating system must limit privileges to change software resident within software libraries.</t>
         </is>
       </c>
-      <c r="F229" s="3" t="inlineStr">
-        <is>
-          <t>Red Hat Enterprise Linux 9 must limit privileges to change software resident within software libraries.</t>
-        </is>
-      </c>
-      <c r="G229" s="3" t="inlineStr">
+      <c r="F229" s="2" t="inlineStr">
+        <is>
+          <t>Red Hat Enterprise Linux 9 Must Limit Privileges To Change Software Resident Within Software Libraries.</t>
+        </is>
+      </c>
+      <c r="G229" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> If the operating system were to allow any user to make changes to software libraries, then those changes might be implemented without undergoing the appropriate testing and approvals that are part of a robust change management process.
 This requirement applies to operating systems with software libraries that are accessible and configurable, as in the case of interpreted languages. Software libraries also include privileged programs which execute with escalated privileges. Only qualified and authorized individuals shall be allowed to obtain access to information system components for purposes of initiating changes, including upgrades and modifications.</t>
         </is>
       </c>
-      <c r="H229" s="3" t="inlineStr">
+      <c r="H229" s="2" t="inlineStr">
         <is>
           <t>Files from shared library directories are loaded into the address
 space of processes (including privileged ones) or of the kernel itself at
 runtime. Restrictive permissions are necessary to protect the integrity of the system.</t>
         </is>
       </c>
-      <c r="I229" s="3" t="inlineStr">
-        <is>
-          <t>Applicable - Configurable</t>
-        </is>
-      </c>
-      <c r="J229" s="3" t="inlineStr">
+      <c r="I229" s="2" t="inlineStr">
+        <is>
+          <t>Applicable - Configurable</t>
+        </is>
+      </c>
+      <c r="J229" s="2" t="inlineStr">
         <is>
           <t>Verify the operating system limits privileges to change software resident within software libraries. If it does not, this is a finding.</t>
         </is>
       </c>
-      <c r="K229" s="3" t="inlineStr">
-        <is>
-          <t>Shared libraries are stored in the following directories:
- /lib
-/lib64
-/usr/lib
-/usr/lib64
-To find shared libraries that are group-writable or world-writable,
-run the following command for each directory  DIR  which contains shared libraries:
- $ sudo find -L  DIR  -perm /022 -type f 
-If any of these files are group-writable or world-writable, then this is a finding.</t>
-        </is>
-      </c>
-      <c r="L229" s="3" t="n"/>
-      <c r="M229" s="3" t="inlineStr"/>
-      <c r="N229" s="3" t="inlineStr">
-        <is>
-          <t>CAT II</t>
-        </is>
-      </c>
-      <c r="O229" s="3" t="n"/>
-      <c r="P229" s="3" t="n"/>
-      <c r="Q229" s="3" t="n"/>
+      <c r="K229" s="2" t="inlineStr">
+        <is>
+          <t>Verify the system-wide shared library files contained in the following directories have mode "755" or less permissive with the following command:
+$ sudo find -L /lib /lib64 /usr/lib /usr/lib64 -perm /022 -type f -exec ls -l {} \;
+If any system-wide shared library file is found to be group-writable or world-writable, then this is a finding.</t>
+        </is>
+      </c>
+      <c r="L229" s="2" t="n"/>
+      <c r="M229" s="2" t="inlineStr">
+        <is>
+          <t>Configure the library files to be protected from unauthorized access. Run the following command, replacing "[FILE]" with any library file with a mode more permissive than 755.
+$ sudo chmod 755 [FILE]</t>
+        </is>
+      </c>
+      <c r="N229" s="2" t="inlineStr">
+        <is>
+          <t>CAT II</t>
+        </is>
+      </c>
+      <c r="O229" s="2" t="n"/>
+      <c r="P229" s="2" t="n"/>
+      <c r="Q229" s="2" t="n"/>
     </row>
     <row r="230" ht="130" customHeight="1">
-      <c r="A230" s="3" t="inlineStr">
+      <c r="A230" s="2" t="inlineStr">
         <is>
           <t>CM-5 (6)</t>
         </is>
       </c>
-      <c r="B230" s="3" t="inlineStr">
+      <c r="B230" s="2" t="inlineStr">
         <is>
           <t>CCI-001499</t>
         </is>
       </c>
-      <c r="C230" s="3" t="inlineStr">
+      <c r="C230" s="2" t="inlineStr">
         <is>
           <t>SRG-OS-000259-GPOS-00100</t>
         </is>
       </c>
-      <c r="D230" s="3" t="inlineStr">
+      <c r="D230" s="2" t="inlineStr">
         <is>
           <t>CCE-87108-7</t>
         </is>
       </c>
-      <c r="E230" s="3" t="inlineStr">
+      <c r="E230" s="2" t="inlineStr">
         <is>
           <t>The operating system must limit privileges to change software resident within software libraries.</t>
         </is>
       </c>
-      <c r="F230" s="3" t="inlineStr">
-        <is>
-          <t>Red Hat Enterprise Linux 9 must limit privileges to change software resident within software libraries.</t>
-        </is>
-      </c>
-      <c r="G230" s="3" t="inlineStr">
+      <c r="F230" s="2" t="inlineStr">
+        <is>
+          <t>Red Hat Enterprise Linux 9 Must Limit Privileges To Change Software Resident Within Software Libraries.</t>
+        </is>
+      </c>
+      <c r="G230" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> If the operating system were to allow any user to make changes to software libraries, then those changes might be implemented without undergoing the appropriate testing and approvals that are part of a robust change management process.
 This requirement applies to operating systems with software libraries that are accessible and configurable, as in the case of interpreted languages. Software libraries also include privileged programs which execute with escalated privileges. Only qualified and authorized individuals shall be allowed to obtain access to information system components for purposes of initiating changes, including upgrades and modifications.</t>
         </is>
       </c>
-      <c r="H230" s="3" t="inlineStr">
+      <c r="H230" s="2" t="inlineStr">
         <is>
           <t>If the operating system were to allow any user to make changes to software libraries,
 then those changes might be implemented without undergoing the appropriate testing and
@@ -18715,39 +18705,39 @@
 for purposes of initiating changes, including upgrades and modifications.</t>
         </is>
       </c>
-      <c r="I230" s="3" t="inlineStr">
-        <is>
-          <t>Applicable - Configurable</t>
-        </is>
-      </c>
-      <c r="J230" s="3" t="inlineStr">
+      <c r="I230" s="2" t="inlineStr">
+        <is>
+          <t>Applicable - Configurable</t>
+        </is>
+      </c>
+      <c r="J230" s="2" t="inlineStr">
         <is>
           <t>Verify the operating system limits privileges to change software resident within software libraries. If it does not, this is a finding.</t>
         </is>
       </c>
-      <c r="K230" s="3" t="inlineStr">
-        <is>
-          <t>System-wide library files are stored in the following directories:
- /lib
-/lib64
-/usr/lib
-/usr/lib64
-To find if system-wide library files stored in these directories are not group-owned by
-root run the following command for each directory  DIR :
- $ sudo find -L  DIR  ! -group root -type f  
-If system wide library files are not group-owned by root, then this is a finding.</t>
-        </is>
-      </c>
-      <c r="L230" s="3" t="n"/>
-      <c r="M230" s="3" t="inlineStr"/>
-      <c r="N230" s="3" t="inlineStr">
-        <is>
-          <t>CAT II</t>
-        </is>
-      </c>
-      <c r="O230" s="3" t="n"/>
-      <c r="P230" s="3" t="n"/>
-      <c r="Q230" s="3" t="n"/>
+      <c r="K230" s="2" t="inlineStr">
+        <is>
+          <t>Verify the system-wide shared library files are group-owned by "root" with the following command:
+$ sudo find -L /lib /lib64 /usr/lib /usr/lib64 ! -group root -exec ls -l {} \;
+If any system wide shared library file is returned and is not group-owned by a required system account, then this is a finding.</t>
+        </is>
+      </c>
+      <c r="L230" s="2" t="n"/>
+      <c r="M230" s="2" t="inlineStr">
+        <is>
+          <t>Configure the system-wide shared library files (/lib, /lib64, /usr/lib and /usr/lib64) to be protected from unauthorized access.
+Run the following command, replacing "[FILE]" with any library file not group-owned by "root".
+$ sudo chgrp root [FILE]</t>
+        </is>
+      </c>
+      <c r="N230" s="2" t="inlineStr">
+        <is>
+          <t>CAT II</t>
+        </is>
+      </c>
+      <c r="O230" s="2" t="n"/>
+      <c r="P230" s="2" t="n"/>
+      <c r="Q230" s="2" t="n"/>
     </row>
     <row r="231" ht="130" customHeight="1">
       <c r="A231" s="2" t="inlineStr">
@@ -18777,7 +18767,7 @@
       </c>
       <c r="F231" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must implement non-executable data to protect its memory from unauthorized code execution.</t>
+          <t>Red Hat Enterprise Linux 9 Must Implement Non-Executable Data To Protect Its Memory From Unauthorized Code Execution.</t>
         </is>
       </c>
       <c r="G231" s="2" t="inlineStr">
@@ -18848,7 +18838,7 @@
     <row r="232" ht="130" customHeight="1">
       <c r="A232" s="2" t="inlineStr">
         <is>
-          <t>SC-2,SI-16,CM-6 b</t>
+          <t>SC-2,CM-6 b,SI-16</t>
         </is>
       </c>
       <c r="B232" s="2" t="inlineStr">
@@ -18873,7 +18863,7 @@
       </c>
       <c r="F232" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must implement non-executable data to protect its memory from unauthorized code execution.</t>
+          <t>Red Hat Enterprise Linux 9 Must Implement Non-Executable Data To Protect Its Memory From Unauthorized Code Execution.</t>
         </is>
       </c>
       <c r="G232" s="2" t="inlineStr">
@@ -18970,7 +18960,7 @@
       </c>
       <c r="F233" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must implement non-executable data to protect its memory from unauthorized code execution.</t>
+          <t>Red Hat Enterprise Linux 9 Must Implement Non-Executable Data To Protect Its Memory From Unauthorized Code Execution.</t>
         </is>
       </c>
       <c r="G233" s="2" t="inlineStr">
@@ -19057,7 +19047,7 @@
       </c>
       <c r="F234" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must implement non-executable data to protect its memory from unauthorized code execution.</t>
+          <t>Red Hat Enterprise Linux 9 Must Implement Non-Executable Data To Protect Its Memory From Unauthorized Code Execution.</t>
         </is>
       </c>
       <c r="G234" s="2" t="inlineStr">
@@ -19107,7 +19097,7 @@
         <is>
           <t xml:space="preserve">To ensure that "slub_debug=P" is added as a kernel command line
 argument to newly installed kernels, add "slub_debug=P" to the
-default Grub2 command line for Linux operating systems.  Modify the line within
+default Grub2 command line for Linux operating systems. Modify the line within
 "/etc/default/grub" as shown below:
  GRUB_CMDLINE_LINUX="... slub_debug=P ..." 
 Run the following command to update command line for already installed kernels: # grubby --update-kernel=ALL --args="slub_debug=P" </t>
@@ -19219,7 +19209,7 @@
       </c>
       <c r="F236" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must protect wireless access to the system using authentication of users and/or devices.</t>
+          <t>Red Hat Enterprise Linux 9 Must Protect Wireless Access To The System Using Authentication Of Users And/Or Devices.</t>
         </is>
       </c>
       <c r="G236" s="2" t="inlineStr">
@@ -19303,7 +19293,7 @@
       </c>
       <c r="F237" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must provide the capability to centrally review and analyze audit records from multiple components within the system.</t>
+          <t>Red Hat Enterprise Linux 9 Must Provide The Capability To Centrally Review And Analyze Audit Records From Multiple Components Within The System.</t>
         </is>
       </c>
       <c r="G237" s="2" t="inlineStr">
@@ -19384,7 +19374,7 @@
       </c>
       <c r="F238" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must define default permissions for all authenticated users in such a way that the user can only read and modify their own files.</t>
+          <t>Red Hat Enterprise Linux 9 Must Define Default Permissions For All Authenticated Users In Such A Way That The User Can Only Read And Modify Their Own Files.</t>
         </is>
       </c>
       <c r="G238" s="2" t="inlineStr">
@@ -19464,7 +19454,7 @@
       </c>
       <c r="F239" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must define default permissions for all authenticated users in such a way that the user can only read and modify their own files.</t>
+          <t>Red Hat Enterprise Linux 9 Must Define Default Permissions For All Authenticated Users In Such A Way That The User Can Only Read And Modify Their Own Files.</t>
         </is>
       </c>
       <c r="G239" s="2" t="inlineStr">
@@ -19544,7 +19534,7 @@
       </c>
       <c r="F240" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must define default permissions for all authenticated users in such a way that the user can only read and modify their own files.</t>
+          <t>Red Hat Enterprise Linux 9 Must Define Default Permissions For All Authenticated Users In Such A Way That The User Can Only Read And Modify Their Own Files.</t>
         </is>
       </c>
       <c r="G240" s="2" t="inlineStr">
@@ -19624,7 +19614,7 @@
       </c>
       <c r="F241" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must define default permissions for all authenticated users in such a way that the user can only read and modify their own files.</t>
+          <t>Red Hat Enterprise Linux 9 Must Define Default Permissions For All Authenticated Users In Such A Way That The User Can Only Read And Modify Their Own Files.</t>
         </is>
       </c>
       <c r="G241" s="2" t="inlineStr">
@@ -19704,7 +19694,7 @@
       </c>
       <c r="F242" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must require the change of at least 50% of the total number of characters when passwords are changed.</t>
+          <t>Red Hat Enterprise Linux 9 Must Require The Change Of At Least 50% Of The Total Number Of Characters When Passwords Are Changed.</t>
         </is>
       </c>
       <c r="G242" s="3" t="inlineStr">
@@ -19761,7 +19751,7 @@
     <row r="243" ht="130" customHeight="1">
       <c r="A243" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,IA-5 (1) (a),IA-5 (1) (b)</t>
+          <t>CM-6 b,IA-5 (1) (b),IA-5 (1) (a)</t>
         </is>
       </c>
       <c r="B243" s="2" t="inlineStr">
@@ -19786,7 +19776,7 @@
       </c>
       <c r="F243" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must require the change of at least 50% of the total number of characters when passwords are changed.</t>
+          <t>Red Hat Enterprise Linux 9 Must Require The Change Of At Least 50% Of The Total Number Of Characters When Passwords Are Changed.</t>
         </is>
       </c>
       <c r="G243" s="2" t="inlineStr">
@@ -19869,7 +19859,7 @@
       </c>
       <c r="F244" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must require the change of at least 50% of the total number of characters when passwords are changed.</t>
+          <t>Red Hat Enterprise Linux 9 Must Require The Change Of At Least 50% Of The Total Number Of Characters When Passwords Are Changed.</t>
         </is>
       </c>
       <c r="G244" s="3" t="inlineStr">
@@ -19946,7 +19936,7 @@
       </c>
       <c r="F245" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must require the change of at least 50% of the total number of characters when passwords are changed.</t>
+          <t>Red Hat Enterprise Linux 9 Must Require The Change Of At Least 50% Of The Total Number Of Characters When Passwords Are Changed.</t>
         </is>
       </c>
       <c r="G245" s="3" t="inlineStr">
@@ -20025,7 +20015,7 @@
       </c>
       <c r="F246" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must require the change of at least 50% of the total number of characters when passwords are changed.</t>
+          <t>Red Hat Enterprise Linux 9 Must Require The Change Of At Least 50% Of The Total Number Of Characters When Passwords Are Changed.</t>
         </is>
       </c>
       <c r="G246" s="3" t="inlineStr">
@@ -20190,7 +20180,7 @@
       </c>
       <c r="F248" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must limit the number of concurrent sessions to ten for all accounts and/or account types.</t>
+          <t>Red Hat Enterprise Linux 9 Must Limit The Number Of Concurrent Sessions To Ten For All Accounts And/Or Account Types.</t>
         </is>
       </c>
       <c r="G248" s="2" t="inlineStr">
@@ -20271,7 +20261,7 @@
       </c>
       <c r="F249" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must prevent unauthorized and unintended information transfer via shared system resources.</t>
+          <t>Red Hat Enterprise Linux 9 Must Prevent Unauthorized And Unintended Information Transfer Via Shared System Resources.</t>
         </is>
       </c>
       <c r="G249" s="2" t="inlineStr">
@@ -20354,7 +20344,7 @@
       </c>
       <c r="F250" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must prevent unauthorized and unintended information transfer via shared system resources.</t>
+          <t>Red Hat Enterprise Linux 9 Must Prevent Unauthorized And Unintended Information Transfer Via Shared System Resources.</t>
         </is>
       </c>
       <c r="G250" s="2" t="inlineStr">
@@ -20410,7 +20400,7 @@
     <row r="251" ht="130" customHeight="1">
       <c r="A251" s="3" t="inlineStr">
         <is>
-          <t>SC-4,SC-2</t>
+          <t>SC-2,SC-4</t>
         </is>
       </c>
       <c r="B251" s="3" t="inlineStr">
@@ -20435,7 +20425,7 @@
       </c>
       <c r="F251" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must prevent unauthorized and unintended information transfer via shared system resources.</t>
+          <t>Red Hat Enterprise Linux 9 Must Prevent Unauthorized And Unintended Information Transfer Via Shared System Resources.</t>
         </is>
       </c>
       <c r="G251" s="3" t="inlineStr">
@@ -20498,7 +20488,7 @@
     <row r="252" ht="130" customHeight="1">
       <c r="A252" s="3" t="inlineStr">
         <is>
-          <t>SC-4,SC-2</t>
+          <t>SC-2,SC-4</t>
         </is>
       </c>
       <c r="B252" s="3" t="inlineStr">
@@ -20523,7 +20513,7 @@
       </c>
       <c r="F252" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must prevent unauthorized and unintended information transfer via shared system resources.</t>
+          <t>Red Hat Enterprise Linux 9 Must Prevent Unauthorized And Unintended Information Transfer Via Shared System Resources.</t>
         </is>
       </c>
       <c r="G252" s="3" t="inlineStr">
@@ -20585,7 +20575,7 @@
     <row r="253" ht="130" customHeight="1">
       <c r="A253" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (1),IA-2 (11)</t>
+          <t>IA-2 (11),IA-2 (1)</t>
         </is>
       </c>
       <c r="B253" s="2" t="inlineStr">
@@ -20610,7 +20600,7 @@
       </c>
       <c r="F253" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must implement multifactor authentication for remote access to privileged accounts in such a way that one of the factors is provided by a device separate from the system gaining access.</t>
+          <t>Red Hat Enterprise Linux 9 Must Implement Multifactor Authentication For Remote Access To Privileged Accounts In Such A Way That One Of The Factors Is Provided By A Device Separate From The System Gaining Access.</t>
         </is>
       </c>
       <c r="G253" s="2" t="inlineStr">
@@ -20699,7 +20689,7 @@
       </c>
       <c r="F254" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must implement multifactor authentication for remote access to privileged accounts in such a way that one of the factors is provided by a device separate from the system gaining access.</t>
+          <t>Red Hat Enterprise Linux 9 Must Implement Multifactor Authentication For Remote Access To Privileged Accounts In Such A Way That One Of The Factors Is Provided By A Device Separate From The System Gaining Access.</t>
         </is>
       </c>
       <c r="G254" s="2" t="inlineStr">
@@ -20786,7 +20776,7 @@
       </c>
       <c r="F255" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must implement multifactor authentication for remote access to privileged accounts in such a way that one of the factors is provided by a device separate from the system gaining access.</t>
+          <t>Red Hat Enterprise Linux 9 Must Implement Multifactor Authentication For Remote Access To Privileged Accounts In Such A Way That One Of The Factors Is Provided By A Device Separate From The System Gaining Access.</t>
         </is>
       </c>
       <c r="G255" s="3" t="inlineStr">
@@ -20860,7 +20850,7 @@
       </c>
       <c r="F256" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must implement multifactor authentication for remote access to privileged accounts in such a way that one of the factors is provided by a device separate from the system gaining access.</t>
+          <t>Red Hat Enterprise Linux 9 Must Implement Multifactor Authentication For Remote Access To Privileged Accounts In Such A Way That One Of The Factors Is Provided By A Device Separate From The System Gaining Access.</t>
         </is>
       </c>
       <c r="G256" s="3" t="inlineStr">
@@ -20945,7 +20935,7 @@
       </c>
       <c r="F257" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must verify correct operation of all security functions.</t>
+          <t>Red Hat Enterprise Linux 9 Must Verify Correct Operation Of All Security Functions.</t>
         </is>
       </c>
       <c r="G257" s="2" t="inlineStr">
@@ -21030,7 +21020,7 @@
       </c>
       <c r="F258" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must verify correct operation of all security functions.</t>
+          <t>Red Hat Enterprise Linux 9 Must Verify Correct Operation Of All Security Functions.</t>
         </is>
       </c>
       <c r="G258" s="2" t="inlineStr">
@@ -21112,7 +21102,7 @@
       </c>
       <c r="F259" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must prevent all software from executing at higher privilege levels than users executing the software.</t>
+          <t>Red Hat Enterprise Linux 9 Must Prevent All Software From Executing At Higher Privilege Levels Than Users Executing The Software.</t>
         </is>
       </c>
       <c r="G259" s="3" t="inlineStr">
@@ -21167,7 +21157,7 @@
     <row r="260" ht="130" customHeight="1">
       <c r="A260" s="3" t="inlineStr">
         <is>
-          <t>IA-2 (5),CM-6 b</t>
+          <t>CM-6 b,IA-2 (5)</t>
         </is>
       </c>
       <c r="B260" s="3" t="inlineStr">
@@ -21192,7 +21182,7 @@
       </c>
       <c r="F260" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9must require individuals to be authenticated with an individual authenticator prior to using a group authenticator.</t>
+          <t>Red Hat Enterprise Linux 9Must Require Individuals To Be Authenticated With An Individual Authenticator Prior To Using A Group Authenticator.</t>
         </is>
       </c>
       <c r="G260" s="3" t="inlineStr">
@@ -21270,7 +21260,7 @@
       </c>
       <c r="F261" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must enforce 24 hours/1 day as the minimum password lifetime.</t>
+          <t>Red Hat Enterprise Linux 9 Must Enforce 24 Hours/1 Day As The Minimum Password Lifetime.</t>
         </is>
       </c>
       <c r="G261" s="2" t="inlineStr">
@@ -21351,7 +21341,7 @@
       </c>
       <c r="F262" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must enforce 24 hours/1 day as the minimum password lifetime.</t>
+          <t>Red Hat Enterprise Linux 9 Must Enforce 24 Hours/1 Day As The Minimum Password Lifetime.</t>
         </is>
       </c>
       <c r="G262" s="2" t="inlineStr">
@@ -21489,7 +21479,7 @@
       </c>
       <c r="F264" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must protect audit information from unauthorized read access.</t>
+          <t>Red Hat Enterprise Linux 9 Must Protect Audit Information From Unauthorized Read Access.</t>
         </is>
       </c>
       <c r="G264" s="2" t="inlineStr">
@@ -21569,7 +21559,7 @@
       </c>
       <c r="F265" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must protect audit information from unauthorized read access.</t>
+          <t>Red Hat Enterprise Linux 9 Must Protect Audit Information From Unauthorized Read Access.</t>
         </is>
       </c>
       <c r="G265" s="2" t="inlineStr">
@@ -21633,7 +21623,7 @@
     <row r="266" ht="130" customHeight="1">
       <c r="A266" s="2" t="inlineStr">
         <is>
-          <t>AU-12 c,AU-9</t>
+          <t>AU-9,AU-12 c</t>
         </is>
       </c>
       <c r="B266" s="2" t="inlineStr">
@@ -21658,7 +21648,7 @@
       </c>
       <c r="F266" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must protect audit information from unauthorized read access.</t>
+          <t>Red Hat Enterprise Linux 9 Must Protect Audit Information From Unauthorized Read Access.</t>
         </is>
       </c>
       <c r="G266" s="2" t="inlineStr">
@@ -21716,7 +21706,7 @@
     <row r="267" ht="130" customHeight="1">
       <c r="A267" s="2" t="inlineStr">
         <is>
-          <t>CM-5 (3),CM-6 b</t>
+          <t>CM-6 b,CM-5 (3)</t>
         </is>
       </c>
       <c r="B267" s="2" t="inlineStr">
@@ -21741,7 +21731,7 @@
       </c>
       <c r="F267" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must prevent the installation of patches, service packs, device drivers, or operating system components without verification they have been digitally signed using a certificate that is recognized and approved by the organization.</t>
+          <t>Red Hat Enterprise Linux 9 Must Prevent The Installation Of Patches, Service Packs, Device Drivers, Or Operating System Components Without Verification They Have Been Digitally Signed Using A Certificate That Is Recognized And Approved By The Organization.</t>
         </is>
       </c>
       <c r="G267" s="2" t="inlineStr">
@@ -21837,7 +21827,7 @@
       </c>
       <c r="F268" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must prevent the installation of patches, service packs, device drivers, or operating system components without verification they have been digitally signed using a certificate that is recognized and approved by the organization.</t>
+          <t>Red Hat Enterprise Linux 9 Must Prevent The Installation Of Patches, Service Packs, Device Drivers, Or Operating System Components Without Verification They Have Been Digitally Signed Using A Certificate That Is Recognized And Approved By The Organization.</t>
         </is>
       </c>
       <c r="G268" s="2" t="inlineStr">
@@ -21920,7 +21910,7 @@
       </c>
       <c r="F269" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must prevent the installation of patches, service packs, device drivers, or operating system components without verification they have been digitally signed using a certificate that is recognized and approved by the organization.</t>
+          <t>Red Hat Enterprise Linux 9 Must Prevent The Installation Of Patches, Service Packs, Device Drivers, Or Operating System Components Without Verification They Have Been Digitally Signed Using A Certificate That Is Recognized And Approved By The Organization.</t>
         </is>
       </c>
       <c r="G269" s="2" t="inlineStr">
@@ -22014,7 +22004,7 @@
       </c>
       <c r="F270" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must prevent the installation of patches, service packs, device drivers, or operating system components without verification they have been digitally signed using a certificate that is recognized and approved by the organization.</t>
+          <t>Red Hat Enterprise Linux 9 Must Prevent The Installation Of Patches, Service Packs, Device Drivers, Or Operating System Components Without Verification They Have Been Digitally Signed Using A Certificate That Is Recognized And Approved By The Organization.</t>
         </is>
       </c>
       <c r="G270" s="2" t="inlineStr">
@@ -22098,7 +22088,7 @@
       </c>
       <c r="F271" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must prevent the installation of patches, service packs, device drivers, or operating system components without verification they have been digitally signed using a certificate that is recognized and approved by the organization.</t>
+          <t>Red Hat Enterprise Linux 9 Must Prevent The Installation Of Patches, Service Packs, Device Drivers, Or Operating System Components Without Verification They Have Been Digitally Signed Using A Certificate That Is Recognized And Approved By The Organization.</t>
         </is>
       </c>
       <c r="G271" s="2" t="inlineStr">
@@ -22184,7 +22174,7 @@
       </c>
       <c r="F272" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must prevent the installation of patches, service packs, device drivers, or operating system components without verification they have been digitally signed using a certificate that is recognized and approved by the organization.</t>
+          <t>Red Hat Enterprise Linux 9 Must Prevent The Installation Of Patches, Service Packs, Device Drivers, Or Operating System Components Without Verification They Have Been Digitally Signed Using A Certificate That Is Recognized And Approved By The Organization.</t>
         </is>
       </c>
       <c r="G272" s="2" t="inlineStr">
@@ -22266,7 +22256,7 @@
       </c>
       <c r="F273" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must enforce password complexity by requiring that at least one upper-case character be used.</t>
+          <t>Red Hat Enterprise Linux 9 Must Enforce Password Complexity By Requiring That At Least One Upper-Case Character Be Used.</t>
         </is>
       </c>
       <c r="G273" s="2" t="inlineStr">
@@ -22348,7 +22338,7 @@
       </c>
       <c r="F274" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must enforce password complexity by requiring that at least one upper-case character be used.</t>
+          <t>Red Hat Enterprise Linux 9 Must Enforce Password Complexity By Requiring That At Least One Upper-Case Character Be Used.</t>
         </is>
       </c>
       <c r="G274" s="2" t="inlineStr">
@@ -22406,7 +22396,7 @@
     <row r="275" ht="130" customHeight="1">
       <c r="A275" s="3" t="inlineStr">
         <is>
-          <t>CM-7 a,CM-6 b</t>
+          <t>CM-6 b,CM-7 a</t>
         </is>
       </c>
       <c r="B275" s="3" t="inlineStr">
@@ -22431,7 +22421,7 @@
       </c>
       <c r="F275" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured to disable non-essential capabilities.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured To Disable Non-Essential Capabilities.</t>
         </is>
       </c>
       <c r="G275" s="3" t="inlineStr">
@@ -22504,7 +22494,7 @@
       </c>
       <c r="F276" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured to disable non-essential capabilities.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured To Disable Non-Essential Capabilities.</t>
         </is>
       </c>
       <c r="G276" s="3" t="inlineStr">
@@ -22579,7 +22569,7 @@
       </c>
       <c r="F277" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured to disable non-essential capabilities.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured To Disable Non-Essential Capabilities.</t>
         </is>
       </c>
       <c r="G277" s="2" t="inlineStr">
@@ -22659,7 +22649,7 @@
       </c>
       <c r="F278" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured to disable non-essential capabilities.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured To Disable Non-Essential Capabilities.</t>
         </is>
       </c>
       <c r="G278" s="2" t="inlineStr">
@@ -22739,7 +22729,7 @@
       </c>
       <c r="F279" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured to disable non-essential capabilities.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured To Disable Non-Essential Capabilities.</t>
         </is>
       </c>
       <c r="G279" s="3" t="inlineStr">
@@ -22814,7 +22804,7 @@
       </c>
       <c r="F280" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured to disable non-essential capabilities.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured To Disable Non-Essential Capabilities.</t>
         </is>
       </c>
       <c r="G280" s="3" t="inlineStr">
@@ -22890,7 +22880,7 @@
       </c>
       <c r="F281" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured to disable non-essential capabilities.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured To Disable Non-Essential Capabilities.</t>
         </is>
       </c>
       <c r="G281" s="3" t="inlineStr">
@@ -22971,7 +22961,7 @@
       </c>
       <c r="F282" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured to disable non-essential capabilities.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured To Disable Non-Essential Capabilities.</t>
         </is>
       </c>
       <c r="G282" s="3" t="inlineStr">
@@ -23047,7 +23037,7 @@
       </c>
       <c r="F283" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured to disable non-essential capabilities.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured To Disable Non-Essential Capabilities.</t>
         </is>
       </c>
       <c r="G283" s="3" t="inlineStr">
@@ -23123,7 +23113,7 @@
       </c>
       <c r="F284" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured to disable non-essential capabilities.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured To Disable Non-Essential Capabilities.</t>
         </is>
       </c>
       <c r="G284" s="3" t="inlineStr">
@@ -23199,7 +23189,7 @@
       </c>
       <c r="F285" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured to disable non-essential capabilities.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured To Disable Non-Essential Capabilities.</t>
         </is>
       </c>
       <c r="G285" s="3" t="inlineStr">
@@ -23275,7 +23265,7 @@
       </c>
       <c r="F286" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured to disable non-essential capabilities.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured To Disable Non-Essential Capabilities.</t>
         </is>
       </c>
       <c r="G286" s="3" t="inlineStr">
@@ -23351,7 +23341,7 @@
       </c>
       <c r="F287" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured to disable non-essential capabilities.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured To Disable Non-Essential Capabilities.</t>
         </is>
       </c>
       <c r="G287" s="3" t="inlineStr">
@@ -23427,7 +23417,7 @@
       </c>
       <c r="F288" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured to disable non-essential capabilities.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured To Disable Non-Essential Capabilities.</t>
         </is>
       </c>
       <c r="G288" s="3" t="inlineStr">
@@ -23498,7 +23488,7 @@
       </c>
       <c r="F289" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured to disable non-essential capabilities.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured To Disable Non-Essential Capabilities.</t>
         </is>
       </c>
       <c r="G289" s="3" t="inlineStr">
@@ -23570,7 +23560,7 @@
       </c>
       <c r="F290" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured to disable non-essential capabilities.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured To Disable Non-Essential Capabilities.</t>
         </is>
       </c>
       <c r="G290" s="3" t="inlineStr">
@@ -23644,7 +23634,7 @@
       </c>
       <c r="F291" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must disable account identifiers (individuals, groups, roles, and devices) after 35 days of inactivity.</t>
+          <t>Red Hat Enterprise Linux 9 Must Disable Account Identifiers (Individuals, Groups, Roles, And Devices) After 35 Days Of Inactivity.</t>
         </is>
       </c>
       <c r="G291" s="2" t="inlineStr">
@@ -23703,7 +23693,7 @@
     <row r="292" ht="130" customHeight="1">
       <c r="A292" s="3" t="inlineStr">
         <is>
-          <t>AC-6 (9),AC-2 (4),AU-12 c</t>
+          <t>AU-12 c,AC-6 (9),AC-2 (4)</t>
         </is>
       </c>
       <c r="B292" s="3" t="inlineStr">
@@ -23728,7 +23718,7 @@
       </c>
       <c r="F292" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must notify system administrators and ISSOs of account enabling actions.</t>
+          <t>Red Hat Enterprise Linux 9 Must Notify System Administrators And Issos Of Account Enabling Actions.</t>
         </is>
       </c>
       <c r="G292" s="3" t="inlineStr">
@@ -23869,7 +23859,7 @@
       </c>
       <c r="F293" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must alert the ISSO and SA (at a minimum) in the event of an audit processing failure.</t>
+          <t>Red Hat Enterprise Linux 9 Must Alert The Isso And Sa (At A Minimum) In The Event Of An Audit Processing Failure.</t>
         </is>
       </c>
       <c r="G293" s="2" t="inlineStr">
@@ -23953,7 +23943,7 @@
       </c>
       <c r="F294" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must alert the ISSO and SA (at a minimum) in the event of an audit processing failure.</t>
+          <t>Red Hat Enterprise Linux 9 Must Alert The Isso And Sa (At A Minimum) In The Event Of An Audit Processing Failure.</t>
         </is>
       </c>
       <c r="G294" s="2" t="inlineStr">
@@ -24033,7 +24023,7 @@
       </c>
       <c r="F295" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must immediately notify the SA and ISSO (at a minimum) when allocated audit record storage volume reaches 75% of the repository maximum audit record storage capacity.</t>
+          <t>Red Hat Enterprise Linux 9 Must Immediately Notify The Sa And Isso (At A Minimum) When Allocated Audit Record Storage Volume Reaches 75% Of The Repository Maximum Audit Record Storage Capacity.</t>
         </is>
       </c>
       <c r="G295" s="3" t="inlineStr">
@@ -24102,7 +24092,7 @@
       </c>
       <c r="F296" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must immediately notify the SA and ISSO (at a minimum) when allocated audit record storage volume reaches 75% of the repository maximum audit record storage capacity.</t>
+          <t>Red Hat Enterprise Linux 9 Must Immediately Notify The Sa And Isso (At A Minimum) When Allocated Audit Record Storage Volume Reaches 75% Of The Repository Maximum Audit Record Storage Capacity.</t>
         </is>
       </c>
       <c r="G296" s="3" t="inlineStr">
@@ -24173,7 +24163,7 @@
       </c>
       <c r="F297" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must immediately notify the SA and ISSO (at a minimum) when allocated audit record storage volume reaches 75% of the repository maximum audit record storage capacity.</t>
+          <t>Red Hat Enterprise Linux 9 Must Immediately Notify The Sa And Isso (At A Minimum) When Allocated Audit Record Storage Volume Reaches 75% Of The Repository Maximum Audit Record Storage Capacity.</t>
         </is>
       </c>
       <c r="G297" s="3" t="inlineStr">
@@ -24247,7 +24237,7 @@
       </c>
       <c r="F298" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must immediately notify the SA and ISSO (at a minimum) when allocated audit record storage volume reaches 75% of the repository maximum audit record storage capacity.</t>
+          <t>Red Hat Enterprise Linux 9 Must Immediately Notify The Sa And Isso (At A Minimum) When Allocated Audit Record Storage Volume Reaches 75% Of The Repository Maximum Audit Record Storage Capacity.</t>
         </is>
       </c>
       <c r="G298" s="3" t="inlineStr">
@@ -24389,7 +24379,7 @@
       </c>
       <c r="F300" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G300" s="3" t="inlineStr">
@@ -24478,7 +24468,7 @@
       </c>
       <c r="F301" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G301" s="3" t="inlineStr">
@@ -24553,7 +24543,7 @@
       </c>
       <c r="F302" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G302" s="3" t="inlineStr">
@@ -24628,7 +24618,7 @@
       </c>
       <c r="F303" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G303" s="3" t="inlineStr">
@@ -24703,7 +24693,7 @@
       </c>
       <c r="F304" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G304" s="3" t="inlineStr">
@@ -24778,7 +24768,7 @@
       </c>
       <c r="F305" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G305" s="3" t="inlineStr">
@@ -24853,7 +24843,7 @@
       </c>
       <c r="F306" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G306" s="3" t="inlineStr">
@@ -24928,7 +24918,7 @@
       </c>
       <c r="F307" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G307" s="3" t="inlineStr">
@@ -25003,7 +24993,7 @@
       </c>
       <c r="F308" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G308" s="3" t="inlineStr">
@@ -25078,7 +25068,7 @@
       </c>
       <c r="F309" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G309" s="3" t="inlineStr">
@@ -25153,7 +25143,7 @@
       </c>
       <c r="F310" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G310" s="3" t="inlineStr">
@@ -25228,7 +25218,7 @@
       </c>
       <c r="F311" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G311" s="3" t="inlineStr">
@@ -25303,7 +25293,7 @@
       </c>
       <c r="F312" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G312" s="3" t="inlineStr">
@@ -25378,7 +25368,7 @@
       </c>
       <c r="F313" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G313" s="3" t="inlineStr">
@@ -25453,7 +25443,7 @@
       </c>
       <c r="F314" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G314" s="3" t="inlineStr">
@@ -25528,7 +25518,7 @@
       </c>
       <c r="F315" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G315" s="3" t="inlineStr">
@@ -25603,7 +25593,7 @@
       </c>
       <c r="F316" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G316" s="3" t="inlineStr">
@@ -25678,7 +25668,7 @@
       </c>
       <c r="F317" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G317" s="3" t="inlineStr">
@@ -25753,7 +25743,7 @@
       </c>
       <c r="F318" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G318" s="3" t="inlineStr">
@@ -25828,7 +25818,7 @@
       </c>
       <c r="F319" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G319" s="3" t="inlineStr">
@@ -25902,7 +25892,7 @@
       </c>
       <c r="F320" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G320" s="3" t="inlineStr">
@@ -25976,7 +25966,7 @@
       </c>
       <c r="F321" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G321" s="3" t="inlineStr">
@@ -26047,7 +26037,7 @@
       </c>
       <c r="F322" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G322" s="3" t="inlineStr">
@@ -26122,7 +26112,7 @@
       </c>
       <c r="F323" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G323" s="3" t="inlineStr">
@@ -26196,7 +26186,7 @@
       </c>
       <c r="F324" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G324" s="3" t="inlineStr">
@@ -26271,7 +26261,7 @@
       </c>
       <c r="F325" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G325" s="3" t="inlineStr">
@@ -26345,7 +26335,7 @@
       </c>
       <c r="F326" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G326" s="3" t="inlineStr">
@@ -26420,7 +26410,7 @@
       </c>
       <c r="F327" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G327" s="3" t="inlineStr">
@@ -26496,7 +26486,7 @@
       </c>
       <c r="F328" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G328" s="3" t="inlineStr">
@@ -26572,7 +26562,7 @@
       </c>
       <c r="F329" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G329" s="3" t="inlineStr">
@@ -26647,7 +26637,7 @@
       </c>
       <c r="F330" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G330" s="3" t="inlineStr">
@@ -26727,7 +26717,7 @@
       </c>
       <c r="F331" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G331" s="3" t="inlineStr">
@@ -26801,7 +26791,7 @@
       </c>
       <c r="F332" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G332" s="3" t="inlineStr">
@@ -26875,7 +26865,7 @@
       </c>
       <c r="F333" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G333" s="3" t="inlineStr">
@@ -26951,7 +26941,7 @@
       </c>
       <c r="F334" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G334" s="3" t="inlineStr">
@@ -27027,7 +27017,7 @@
       </c>
       <c r="F335" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G335" s="3" t="inlineStr">
@@ -27103,7 +27093,7 @@
       </c>
       <c r="F336" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G336" s="3" t="inlineStr">
@@ -27177,7 +27167,7 @@
       </c>
       <c r="F337" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G337" s="3" t="inlineStr">
@@ -27251,7 +27241,7 @@
       </c>
       <c r="F338" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G338" s="3" t="inlineStr">
@@ -27321,7 +27311,7 @@
       </c>
       <c r="F339" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G339" s="3" t="inlineStr">
@@ -27397,7 +27387,7 @@
       </c>
       <c r="F340" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G340" s="3" t="inlineStr">
@@ -27471,7 +27461,7 @@
       </c>
       <c r="F341" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G341" s="2" t="inlineStr">
@@ -27552,7 +27542,7 @@
       </c>
       <c r="F342" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G342" s="3" t="inlineStr">
@@ -27626,7 +27616,7 @@
       </c>
       <c r="F343" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G343" s="3" t="inlineStr">
@@ -27701,7 +27691,7 @@
       </c>
       <c r="F344" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G344" s="3" t="inlineStr">
@@ -27770,7 +27760,7 @@
       </c>
       <c r="F345" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G345" s="3" t="inlineStr">
@@ -27848,7 +27838,7 @@
       </c>
       <c r="F346" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G346" s="3" t="inlineStr">
@@ -27921,7 +27911,7 @@
       </c>
       <c r="F347" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G347" s="3" t="inlineStr">
@@ -27997,7 +27987,7 @@
       </c>
       <c r="F348" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G348" s="3" t="inlineStr">
@@ -28066,7 +28056,7 @@
       </c>
       <c r="F349" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G349" s="3" t="inlineStr">
@@ -28138,7 +28128,7 @@
       </c>
       <c r="F350" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G350" s="3" t="inlineStr">
@@ -28211,7 +28201,7 @@
       </c>
       <c r="F351" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G351" s="2" t="inlineStr">
@@ -28290,7 +28280,7 @@
       </c>
       <c r="F352" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G352" s="3" t="inlineStr">
@@ -28364,7 +28354,7 @@
       </c>
       <c r="F353" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G353" s="3" t="inlineStr">
@@ -28439,7 +28429,7 @@
       </c>
       <c r="F354" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G354" s="3" t="inlineStr">
@@ -28516,7 +28506,7 @@
       </c>
       <c r="F355" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G355" s="3" t="inlineStr">
@@ -28589,7 +28579,7 @@
       </c>
       <c r="F356" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G356" s="3" t="inlineStr">
@@ -28662,7 +28652,7 @@
       </c>
       <c r="F357" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G357" s="3" t="inlineStr">
@@ -28737,7 +28727,7 @@
       </c>
       <c r="F358" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G358" s="3" t="inlineStr">
@@ -28814,7 +28804,7 @@
       </c>
       <c r="F359" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G359" s="3" t="inlineStr">
@@ -28888,7 +28878,7 @@
       </c>
       <c r="F360" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G360" s="3" t="inlineStr">
@@ -28964,7 +28954,7 @@
       </c>
       <c r="F361" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G361" s="3" t="inlineStr">
@@ -29039,7 +29029,7 @@
       </c>
       <c r="F362" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G362" s="3" t="inlineStr">
@@ -29120,7 +29110,7 @@
       </c>
       <c r="F363" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G363" s="3" t="inlineStr">
@@ -29195,7 +29185,7 @@
       </c>
       <c r="F364" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G364" s="3" t="inlineStr">
@@ -29266,7 +29256,7 @@
       </c>
       <c r="F365" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G365" s="3" t="inlineStr">
@@ -29342,7 +29332,7 @@
       </c>
       <c r="F366" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G366" s="3" t="inlineStr">
@@ -29423,7 +29413,7 @@
       </c>
       <c r="F367" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G367" s="3" t="inlineStr">
@@ -29497,7 +29487,7 @@
       </c>
       <c r="F368" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G368" s="3" t="inlineStr">
@@ -29573,7 +29563,7 @@
       </c>
       <c r="F369" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G369" s="3" t="inlineStr">
@@ -29647,7 +29637,7 @@
       </c>
       <c r="F370" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G370" s="3" t="inlineStr">
@@ -29721,7 +29711,7 @@
       </c>
       <c r="F371" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G371" s="3" t="inlineStr">
@@ -29794,7 +29784,7 @@
       </c>
       <c r="F372" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G372" s="3" t="inlineStr">
@@ -29871,7 +29861,7 @@
       </c>
       <c r="F373" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G373" s="3" t="inlineStr">
@@ -29923,7 +29913,7 @@
     <row r="374" ht="130" customHeight="1">
       <c r="A374" s="2" t="inlineStr">
         <is>
-          <t>AU-3,CM-6 b</t>
+          <t>CM-6 b,AU-3</t>
         </is>
       </c>
       <c r="B374" s="2" t="inlineStr">
@@ -29948,7 +29938,7 @@
       </c>
       <c r="F374" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G374" s="2" t="inlineStr">
@@ -30028,7 +30018,7 @@
       </c>
       <c r="F375" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G375" s="2" t="inlineStr">
@@ -30107,7 +30097,7 @@
       </c>
       <c r="F376" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G376" s="3" t="inlineStr">
@@ -30177,7 +30167,7 @@
     <row r="377" ht="130" customHeight="1">
       <c r="A377" s="2" t="inlineStr">
         <is>
-          <t>SC-3,CM-6 b</t>
+          <t>CM-6 b,SC-3</t>
         </is>
       </c>
       <c r="B377" s="2" t="inlineStr">
@@ -30202,7 +30192,7 @@
       </c>
       <c r="F377" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G377" s="2" t="inlineStr">
@@ -30249,7 +30239,7 @@
         <is>
           <t xml:space="preserve">To ensure that "vsyscall=none" is added as a kernel command line
 argument to newly installed kernels, add "vsyscall=none" to the
-default Grub2 command line for Linux operating systems.  Modify the line within
+default Grub2 command line for Linux operating systems. Modify the line within
 "/etc/default/grub" as shown below:
  GRUB_CMDLINE_LINUX="... vsyscall=none ..." 
 Run the following command to update command line for already installed kernels: # grubby --update-kernel=ALL --args="vsyscall=none" </t>
@@ -30292,7 +30282,7 @@
       </c>
       <c r="F378" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G378" s="3" t="inlineStr">
@@ -30367,7 +30357,7 @@
       </c>
       <c r="F379" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G379" s="3" t="inlineStr">
@@ -30446,7 +30436,7 @@
       </c>
       <c r="F380" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G380" s="3" t="inlineStr">
@@ -30522,7 +30512,7 @@
       </c>
       <c r="F381" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G381" s="3" t="inlineStr">
@@ -30571,7 +30561,7 @@
     <row r="382" ht="130" customHeight="1">
       <c r="A382" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,CM-7 b,AC-17 (1),AC-17 (9)</t>
+          <t>CM-6 b,AC-17 (1),CM-7 b,AC-17 (9)</t>
         </is>
       </c>
       <c r="B382" s="2" t="inlineStr">
@@ -30596,7 +30586,7 @@
       </c>
       <c r="F382" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G382" s="2" t="inlineStr">
@@ -30649,7 +30639,7 @@
     <row r="383" ht="130" customHeight="1">
       <c r="A383" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,CM-7 b,AC-17 (1)</t>
+          <t>CM-6 b,AC-17 (1),CM-7 b</t>
         </is>
       </c>
       <c r="B383" s="2" t="inlineStr">
@@ -30674,7 +30664,7 @@
       </c>
       <c r="F383" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G383" s="2" t="inlineStr">
@@ -30754,7 +30744,7 @@
       </c>
       <c r="F384" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G384" s="3" t="inlineStr">
@@ -30829,7 +30819,7 @@
       </c>
       <c r="F385" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G385" s="3" t="inlineStr">
@@ -30900,7 +30890,7 @@
       </c>
       <c r="F386" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G386" s="3" t="inlineStr">
@@ -30986,7 +30976,7 @@
       </c>
       <c r="F387" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G387" s="3" t="inlineStr">
@@ -31072,7 +31062,7 @@
       </c>
       <c r="F388" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G388" s="3" t="inlineStr">
@@ -31164,7 +31154,7 @@
       </c>
       <c r="F389" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G389" s="3" t="inlineStr">
@@ -31253,7 +31243,7 @@
       </c>
       <c r="F390" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G390" s="3" t="inlineStr">
@@ -31339,7 +31329,7 @@
       </c>
       <c r="F391" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G391" s="3" t="inlineStr">
@@ -31425,7 +31415,7 @@
       </c>
       <c r="F392" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G392" s="3" t="inlineStr">
@@ -31517,7 +31507,7 @@
       </c>
       <c r="F393" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G393" s="3" t="inlineStr">
@@ -31608,7 +31598,7 @@
       </c>
       <c r="F394" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G394" s="3" t="inlineStr">
@@ -31700,7 +31690,7 @@
       </c>
       <c r="F395" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G395" s="3" t="inlineStr">
@@ -31789,7 +31779,7 @@
       </c>
       <c r="F396" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G396" s="3" t="inlineStr">
@@ -31879,7 +31869,7 @@
       </c>
       <c r="F397" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G397" s="3" t="inlineStr">
@@ -31967,7 +31957,7 @@
       </c>
       <c r="F398" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G398" s="3" t="inlineStr">
@@ -32058,7 +32048,7 @@
       </c>
       <c r="F399" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G399" s="3" t="inlineStr">
@@ -32150,7 +32140,7 @@
       </c>
       <c r="F400" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G400" s="3" t="inlineStr">
@@ -32239,7 +32229,7 @@
       </c>
       <c r="F401" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G401" s="3" t="inlineStr">
@@ -32329,7 +32319,7 @@
       </c>
       <c r="F402" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G402" s="3" t="inlineStr">
@@ -32417,7 +32407,7 @@
       </c>
       <c r="F403" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G403" s="3" t="inlineStr">
@@ -32506,7 +32496,7 @@
       </c>
       <c r="F404" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G404" s="3" t="inlineStr">
@@ -32593,7 +32583,7 @@
       </c>
       <c r="F405" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G405" s="3" t="inlineStr">
@@ -32682,7 +32672,7 @@
       </c>
       <c r="F406" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G406" s="3" t="inlineStr">
@@ -32771,7 +32761,7 @@
       </c>
       <c r="F407" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G407" s="3" t="inlineStr">
@@ -32861,7 +32851,7 @@
       </c>
       <c r="F408" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G408" s="3" t="inlineStr">
@@ -32935,7 +32925,7 @@
       </c>
       <c r="F409" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G409" s="3" t="inlineStr">
@@ -33012,7 +33002,7 @@
       </c>
       <c r="F410" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G410" s="3" t="inlineStr">
@@ -33092,7 +33082,7 @@
       </c>
       <c r="F411" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G411" s="3" t="inlineStr">
@@ -33148,7 +33138,7 @@
     <row r="412" ht="130" customHeight="1">
       <c r="A412" s="2" t="inlineStr">
         <is>
-          <t>IA-3,CM-6 b</t>
+          <t>CM-6 b,IA-3</t>
         </is>
       </c>
       <c r="B412" s="2" t="inlineStr">
@@ -33173,7 +33163,7 @@
       </c>
       <c r="F412" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G412" s="2" t="inlineStr">
@@ -33230,7 +33220,7 @@
     <row r="413" ht="130" customHeight="1">
       <c r="A413" s="2" t="inlineStr">
         <is>
-          <t>IA-3,CM-6 b</t>
+          <t>CM-6 b,IA-3</t>
         </is>
       </c>
       <c r="B413" s="2" t="inlineStr">
@@ -33255,7 +33245,7 @@
       </c>
       <c r="F413" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G413" s="2" t="inlineStr">
@@ -33349,7 +33339,7 @@
       </c>
       <c r="F414" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G414" s="3" t="inlineStr">
@@ -33423,7 +33413,7 @@
       </c>
       <c r="F415" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G415" s="3" t="inlineStr">
@@ -33495,7 +33485,7 @@
       </c>
       <c r="F416" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G416" s="3" t="inlineStr">
@@ -33568,7 +33558,7 @@
       </c>
       <c r="F417" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G417" s="3" t="inlineStr">
@@ -33639,7 +33629,7 @@
       </c>
       <c r="F418" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G418" s="3" t="inlineStr">
@@ -33719,7 +33709,7 @@
       </c>
       <c r="F419" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G419" s="3" t="inlineStr">
@@ -33797,7 +33787,7 @@
       </c>
       <c r="F420" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G420" s="3" t="inlineStr">
@@ -33871,7 +33861,7 @@
       </c>
       <c r="F421" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G421" s="3" t="inlineStr">
@@ -33923,7 +33913,7 @@
     <row r="422" ht="130" customHeight="1">
       <c r="A422" s="2" t="inlineStr">
         <is>
-          <t>SC-3,CM-6 b</t>
+          <t>CM-6 b,SC-3</t>
         </is>
       </c>
       <c r="B422" s="2" t="inlineStr">
@@ -33948,7 +33938,7 @@
       </c>
       <c r="F422" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G422" s="2" t="inlineStr">
@@ -33998,7 +33988,7 @@
         <is>
           <t xml:space="preserve">To ensure that "page_poison=1" is added as a kernel command line
 argument to newly installed kernels, add "page_poison=1" to the
-default Grub2 command line for Linux operating systems.  Modify the line within
+default Grub2 command line for Linux operating systems. Modify the line within
 "/etc/default/grub" as shown below:
  GRUB_CMDLINE_LINUX="... page_poison=1 ..." 
 Run the following command to update command line for already installed kernels: # grubby --update-kernel=ALL --args="page_poison=1" </t>
@@ -34041,7 +34031,7 @@
       </c>
       <c r="F423" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G423" s="3" t="inlineStr">
@@ -34129,7 +34119,7 @@
       </c>
       <c r="F424" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G424" s="3" t="inlineStr">
@@ -34216,7 +34206,7 @@
       </c>
       <c r="F425" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G425" s="3" t="inlineStr">
@@ -34306,7 +34296,7 @@
       </c>
       <c r="F426" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G426" s="3" t="inlineStr">
@@ -34394,7 +34384,7 @@
       </c>
       <c r="F427" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G427" s="3" t="inlineStr">
@@ -34481,7 +34471,7 @@
       </c>
       <c r="F428" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G428" s="3" t="inlineStr">
@@ -34526,7 +34516,7 @@
     <row r="429" ht="130" customHeight="1">
       <c r="A429" s="2" t="inlineStr">
         <is>
-          <t>SC-3,CM-6 b</t>
+          <t>CM-6 b,SC-3</t>
         </is>
       </c>
       <c r="B429" s="2" t="inlineStr">
@@ -34551,7 +34541,7 @@
       </c>
       <c r="F429" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G429" s="2" t="inlineStr">
@@ -34631,7 +34621,7 @@
       </c>
       <c r="F430" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G430" s="3" t="inlineStr">
@@ -34705,7 +34695,7 @@
       </c>
       <c r="F431" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G431" s="3" t="inlineStr">
@@ -34779,7 +34769,7 @@
       </c>
       <c r="F432" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G432" s="3" t="inlineStr">
@@ -34853,7 +34843,7 @@
       </c>
       <c r="F433" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G433" s="3" t="inlineStr">
@@ -34929,7 +34919,7 @@
       </c>
       <c r="F434" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G434" s="3" t="inlineStr">
@@ -34978,7 +34968,7 @@
     <row r="435" ht="130" customHeight="1">
       <c r="A435" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,AU-4</t>
+          <t>AU-4,CM-6 b</t>
         </is>
       </c>
       <c r="B435" s="2" t="inlineStr">
@@ -35003,7 +34993,7 @@
       </c>
       <c r="F435" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G435" s="2" t="inlineStr">
@@ -35083,7 +35073,7 @@
       </c>
       <c r="F436" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G436" s="3" t="inlineStr">
@@ -35157,7 +35147,7 @@
       </c>
       <c r="F437" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G437" s="3" t="inlineStr">
@@ -35231,7 +35221,7 @@
       </c>
       <c r="F438" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G438" s="3" t="inlineStr">
@@ -35282,7 +35272,7 @@
     <row r="439" ht="130" customHeight="1">
       <c r="A439" s="2" t="inlineStr">
         <is>
-          <t>IA-3,CM-6 b</t>
+          <t>CM-6 b,IA-3</t>
         </is>
       </c>
       <c r="B439" s="2" t="inlineStr">
@@ -35307,7 +35297,7 @@
       </c>
       <c r="F439" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G439" s="2" t="inlineStr">
@@ -35372,7 +35362,7 @@
     <row r="440" ht="130" customHeight="1">
       <c r="A440" s="2" t="inlineStr">
         <is>
-          <t>IA-3,CM-6 b</t>
+          <t>CM-6 b,IA-3</t>
         </is>
       </c>
       <c r="B440" s="2" t="inlineStr">
@@ -35397,7 +35387,7 @@
       </c>
       <c r="F440" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G440" s="2" t="inlineStr">
@@ -35487,7 +35477,7 @@
       </c>
       <c r="F441" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G441" s="3" t="inlineStr">
@@ -35563,7 +35553,7 @@
       </c>
       <c r="F442" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G442" s="3" t="inlineStr">
@@ -35642,7 +35632,7 @@
       </c>
       <c r="F443" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G443" s="3" t="inlineStr">
@@ -35716,7 +35706,7 @@
       </c>
       <c r="F444" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G444" s="3" t="inlineStr">
@@ -35767,7 +35757,7 @@
     <row r="445" ht="130" customHeight="1">
       <c r="A445" s="3" t="inlineStr">
         <is>
-          <t>CM-6 b,SI-2 (2)</t>
+          <t>SI-2 (2),CM-6 b</t>
         </is>
       </c>
       <c r="B445" s="3" t="inlineStr">
@@ -35788,7 +35778,7 @@
       </c>
       <c r="F445" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G445" s="3" t="inlineStr">
@@ -35857,7 +35847,7 @@
       </c>
       <c r="F446" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G446" s="3" t="inlineStr">
@@ -35929,7 +35919,7 @@
       </c>
       <c r="F447" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G447" s="3" t="inlineStr">
@@ -36001,7 +35991,7 @@
       </c>
       <c r="F448" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G448" s="3" t="inlineStr">
@@ -36073,7 +36063,7 @@
       </c>
       <c r="F449" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G449" s="3" t="inlineStr">
@@ -36146,7 +36136,7 @@
       </c>
       <c r="F450" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G450" s="3" t="inlineStr">
@@ -36219,7 +36209,7 @@
       </c>
       <c r="F451" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G451" s="3" t="inlineStr">
@@ -36295,7 +36285,7 @@
       </c>
       <c r="F452" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G452" s="3" t="inlineStr">
@@ -36366,7 +36356,7 @@
       </c>
       <c r="F453" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G453" s="3" t="inlineStr">
@@ -36414,7 +36404,7 @@
     <row r="454" ht="130" customHeight="1">
       <c r="A454" s="3" t="inlineStr">
         <is>
-          <t>CM-6 b,SI-2 (2)</t>
+          <t>SI-2 (2),CM-6 b</t>
         </is>
       </c>
       <c r="B454" s="3" t="inlineStr">
@@ -36439,7 +36429,7 @@
       </c>
       <c r="F454" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G454" s="3" t="inlineStr">
@@ -36510,7 +36500,7 @@
       </c>
       <c r="F455" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G455" s="3" t="inlineStr">
@@ -36580,7 +36570,7 @@
       </c>
       <c r="F456" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G456" s="3" t="inlineStr">
@@ -36657,7 +36647,7 @@
       </c>
       <c r="F457" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured in accordance with the security configuration settings based on DoD security configuration or implementation guidance, including STIGs, NSA configuration guides, CTOs, and DTMs.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured In Accordance With The Security Configuration Settings Based On Dod Security Configuration Or Implementation Guidance, Including Stigs, Nsa Configuration Guides, Ctos, And Dtms.</t>
         </is>
       </c>
       <c r="G457" s="3" t="inlineStr">
@@ -36705,7 +36695,7 @@
     <row r="458" ht="130" customHeight="1">
       <c r="A458" s="3" t="inlineStr">
         <is>
-          <t>MA-4 e,MA-4 (7),AC-12,SC-10</t>
+          <t>SC-10,AC-12,MA-4 e,MA-4 (7)</t>
         </is>
       </c>
       <c r="B458" s="3" t="inlineStr">
@@ -36730,7 +36720,7 @@
       </c>
       <c r="F458" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must terminate all network connections associated with a communications session at the end of the session, or as follows: for in-band management sessions (privileged sessions), the session must be terminated after 10 minutes of inactivity; and for user sessions (non-privileged session), the session must be terminated after 15 minutes of inactivity, except to fulfill documented and validated mission requirements.</t>
+          <t>Red Hat Enterprise Linux 9 Must Terminate All Network Connections Associated With A Communications Session At The End Of The Session, Or As Follows: For In-Band Management Sessions (Privileged Sessions), The Session Must Be Terminated After 10 Minutes Of Inactivity; And For User Sessions (Non-Privileged Session), The Session Must Be Terminated After 15 Minutes Of Inactivity, Except To Fulfill Documented And Validated Mission Requirements.</t>
         </is>
       </c>
       <c r="G458" s="3" t="inlineStr">
@@ -36780,7 +36770,7 @@
     <row r="459" ht="130" customHeight="1">
       <c r="A459" s="3" t="inlineStr">
         <is>
-          <t>AC-12,SC-10</t>
+          <t>SC-10,AC-12</t>
         </is>
       </c>
       <c r="B459" s="3" t="inlineStr">
@@ -36805,7 +36795,7 @@
       </c>
       <c r="F459" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must terminate all network connections associated with a communications session at the end of the session, or as follows: for in-band management sessions (privileged sessions), the session must be terminated after 10 minutes of inactivity; and for user sessions (non-privileged session), the session must be terminated after 15 minutes of inactivity, except to fulfill documented and validated mission requirements.</t>
+          <t>Red Hat Enterprise Linux 9 Must Terminate All Network Connections Associated With A Communications Session At The End Of The Session, Or As Follows: For In-Band Management Sessions (Privileged Sessions), The Session Must Be Terminated After 10 Minutes Of Inactivity; And For User Sessions (Non-Privileged Session), The Session Must Be Terminated After 15 Minutes Of Inactivity, Except To Fulfill Documented And Validated Mission Requirements.</t>
         </is>
       </c>
       <c r="G459" s="3" t="inlineStr">
@@ -36859,7 +36849,7 @@
     <row r="460" ht="130" customHeight="1">
       <c r="A460" s="3" t="inlineStr">
         <is>
-          <t>AC-12,SC-10</t>
+          <t>SC-10,AC-12</t>
         </is>
       </c>
       <c r="B460" s="3" t="inlineStr">
@@ -36884,7 +36874,7 @@
       </c>
       <c r="F460" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must terminate all network connections associated with a communications session at the end of the session, or as follows: for in-band management sessions (privileged sessions), the session must be terminated after 10 minutes of inactivity; and for user sessions (non-privileged session), the session must be terminated after 15 minutes of inactivity, except to fulfill documented and validated mission requirements.</t>
+          <t>Red Hat Enterprise Linux 9 Must Terminate All Network Connections Associated With A Communications Session At The End Of The Session, Or As Follows: For In-Band Management Sessions (Privileged Sessions), The Session Must Be Terminated After 10 Minutes Of Inactivity; And For User Sessions (Non-Privileged Session), The Session Must Be Terminated After 15 Minutes Of Inactivity, Except To Fulfill Documented And Validated Mission Requirements.</t>
         </is>
       </c>
       <c r="G460" s="3" t="inlineStr">
@@ -36960,7 +36950,7 @@
       </c>
       <c r="F461" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must terminate all network connections associated with a communications session at the end of the session, or as follows: for in-band management sessions (privileged sessions), the session must be terminated after 10 minutes of inactivity; and for user sessions (non-privileged session), the session must be terminated after 15 minutes of inactivity, except to fulfill documented and validated mission requirements.</t>
+          <t>Red Hat Enterprise Linux 9 Must Terminate All Network Connections Associated With A Communications Session At The End Of The Session, Or As Follows: For In-Band Management Sessions (Privileged Sessions), The Session Must Be Terminated After 10 Minutes Of Inactivity; And For User Sessions (Non-Privileged Session), The Session Must Be Terminated After 15 Minutes Of Inactivity, Except To Fulfill Documented And Validated Mission Requirements.</t>
         </is>
       </c>
       <c r="G461" s="3" t="inlineStr">
@@ -37012,7 +37002,7 @@
     <row r="462" ht="130" customHeight="1">
       <c r="A462" s="2" t="inlineStr">
         <is>
-          <t>AC-17 (2),SC-8 (1),SC-8</t>
+          <t>AC-17 (2),SC-8,SC-8 (1)</t>
         </is>
       </c>
       <c r="B462" s="2" t="inlineStr">
@@ -37037,7 +37027,7 @@
       </c>
       <c r="F462" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must implement DoD-approved encryption to protect the confidentiality of remote access sessions.</t>
+          <t>Red Hat Enterprise Linux 9 Must Implement Dod-Approved Encryption To Protect The Confidentiality Of Remote Access Sessions.</t>
         </is>
       </c>
       <c r="G462" s="2" t="inlineStr">
@@ -37123,7 +37113,7 @@
       </c>
       <c r="F463" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must implement DoD-approved encryption to protect the confidentiality of remote access sessions.</t>
+          <t>Red Hat Enterprise Linux 9 Must Implement Dod-Approved Encryption To Protect The Confidentiality Of Remote Access Sessions.</t>
         </is>
       </c>
       <c r="G463" s="2" t="inlineStr">
@@ -37289,7 +37279,7 @@
       </c>
       <c r="F465" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must enforce approved authorizations for logical access to information and system resources in accordance with applicable access control policies.</t>
+          <t>Red Hat Enterprise Linux 9 Must Enforce Approved Authorizations For Logical Access To Information And System Resources In Accordance With Applicable Access Control Policies.</t>
         </is>
       </c>
       <c r="G465" s="3" t="inlineStr">
@@ -37364,7 +37354,7 @@
       </c>
       <c r="F466" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must enforce approved authorizations for logical access to information and system resources in accordance with applicable access control policies.</t>
+          <t>Red Hat Enterprise Linux 9 Must Enforce Approved Authorizations For Logical Access To Information And System Resources In Accordance With Applicable Access Control Policies.</t>
         </is>
       </c>
       <c r="G466" s="3" t="inlineStr">
@@ -37439,7 +37429,7 @@
       </c>
       <c r="F467" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must enforce approved authorizations for logical access to information and system resources in accordance with applicable access control policies.</t>
+          <t>Red Hat Enterprise Linux 9 Must Enforce Approved Authorizations For Logical Access To Information And System Resources In Accordance With Applicable Access Control Policies.</t>
         </is>
       </c>
       <c r="G467" s="3" t="inlineStr">
@@ -37515,7 +37505,7 @@
       </c>
       <c r="F468" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must enforce approved authorizations for logical access to information and system resources in accordance with applicable access control policies.</t>
+          <t>Red Hat Enterprise Linux 9 Must Enforce Approved Authorizations For Logical Access To Information And System Resources In Accordance With Applicable Access Control Policies.</t>
         </is>
       </c>
       <c r="G468" s="3" t="inlineStr">
@@ -37599,7 +37589,7 @@
       </c>
       <c r="F469" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must enforce approved authorizations for logical access to information and system resources in accordance with applicable access control policies.</t>
+          <t>Red Hat Enterprise Linux 9 Must Enforce Approved Authorizations For Logical Access To Information And System Resources In Accordance With Applicable Access Control Policies.</t>
         </is>
       </c>
       <c r="G469" s="3" t="inlineStr">
@@ -37675,7 +37665,7 @@
       </c>
       <c r="F470" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must enforce approved authorizations for logical access to information and system resources in accordance with applicable access control policies.</t>
+          <t>Red Hat Enterprise Linux 9 Must Enforce Approved Authorizations For Logical Access To Information And System Resources In Accordance With Applicable Access Control Policies.</t>
         </is>
       </c>
       <c r="G470" s="3" t="inlineStr">
@@ -37879,7 +37869,7 @@
       </c>
       <c r="F473" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must enforce a minimum 15-character password length.</t>
+          <t>Red Hat Enterprise Linux 9 Must Enforce A Minimum 15-Character Password Length.</t>
         </is>
       </c>
       <c r="G473" s="2" t="inlineStr">
@@ -37963,7 +37953,7 @@
       </c>
       <c r="F474" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must enforce a minimum 15-character password length.</t>
+          <t>Red Hat Enterprise Linux 9 Must Enforce A Minimum 15-Character Password Length.</t>
         </is>
       </c>
       <c r="G474" s="2" t="inlineStr">
@@ -38044,7 +38034,7 @@
       </c>
       <c r="F475" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must enforce password complexity by requiring that at least one lower-case character be used.</t>
+          <t>Red Hat Enterprise Linux 9 Must Enforce Password Complexity By Requiring That At Least One Lower-Case Character Be Used.</t>
         </is>
       </c>
       <c r="G475" s="2" t="inlineStr">
@@ -38130,7 +38120,7 @@
       </c>
       <c r="F476" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must authenticate peripherals before establishing a connection.</t>
+          <t>Red Hat Enterprise Linux 9 Must Authenticate Peripherals Before Establishing A Connection.</t>
         </is>
       </c>
       <c r="G476" s="3" t="inlineStr">
@@ -38201,7 +38191,7 @@
       </c>
       <c r="F477" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must authenticate peripherals before establishing a connection.</t>
+          <t>Red Hat Enterprise Linux 9 Must Authenticate Peripherals Before Establishing A Connection.</t>
         </is>
       </c>
       <c r="G477" s="3" t="inlineStr">
@@ -38275,7 +38265,7 @@
       </c>
       <c r="F478" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must authenticate peripherals before establishing a connection.</t>
+          <t>Red Hat Enterprise Linux 9 Must Authenticate Peripherals Before Establishing A Connection.</t>
         </is>
       </c>
       <c r="G478" s="3" t="inlineStr">
@@ -38345,7 +38335,7 @@
       </c>
       <c r="F479" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must authenticate peripherals before establishing a connection.</t>
+          <t>Red Hat Enterprise Linux 9 Must Authenticate Peripherals Before Establishing A Connection.</t>
         </is>
       </c>
       <c r="G479" s="2" t="inlineStr">
@@ -38427,7 +38417,7 @@
       </c>
       <c r="F480" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must uniquely identify peripherals before establishing a connection.</t>
+          <t>Red Hat Enterprise Linux 9 Must Uniquely Identify Peripherals Before Establishing A Connection.</t>
         </is>
       </c>
       <c r="G480" s="2" t="inlineStr">
@@ -38507,7 +38497,7 @@
       </c>
       <c r="F481" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must uniquely identify peripherals before establishing a connection.</t>
+          <t>Red Hat Enterprise Linux 9 Must Uniquely Identify Peripherals Before Establishing A Connection.</t>
         </is>
       </c>
       <c r="G481" s="2" t="inlineStr">
@@ -38584,7 +38574,7 @@
       </c>
       <c r="F482" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must uniquely identify peripherals before establishing a connection.</t>
+          <t>Red Hat Enterprise Linux 9 Must Uniquely Identify Peripherals Before Establishing A Connection.</t>
         </is>
       </c>
       <c r="G482" s="2" t="inlineStr">
@@ -38639,7 +38629,7 @@
     <row r="483" ht="130" customHeight="1">
       <c r="A483" s="2" t="inlineStr">
         <is>
-          <t>CM-7 b,AC-17 (1)</t>
+          <t>AC-17 (1),CM-7 b</t>
         </is>
       </c>
       <c r="B483" s="2" t="inlineStr">
@@ -38664,7 +38654,7 @@
       </c>
       <c r="F483" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must control remote access methods.</t>
+          <t>Red Hat Enterprise Linux 9 Must Control Remote Access Methods.</t>
         </is>
       </c>
       <c r="G483" s="2" t="inlineStr">
@@ -38835,7 +38825,7 @@
       </c>
       <c r="F485" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must prohibit password reuse for a minimum of five generations.</t>
+          <t>Red Hat Enterprise Linux 9 Must Prohibit Password Reuse For A Minimum Of Five Generations.</t>
         </is>
       </c>
       <c r="G485" s="3" t="inlineStr">
@@ -38910,7 +38900,7 @@
       </c>
       <c r="F486" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must prohibit password reuse for a minimum of five generations.</t>
+          <t>Red Hat Enterprise Linux 9 Must Prohibit Password Reuse For A Minimum Of Five Generations.</t>
         </is>
       </c>
       <c r="G486" s="3" t="inlineStr">
@@ -38985,7 +38975,7 @@
       </c>
       <c r="F487" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must prohibit password reuse for a minimum of five generations.</t>
+          <t>Red Hat Enterprise Linux 9 Must Prohibit Password Reuse For A Minimum Of Five Generations.</t>
         </is>
       </c>
       <c r="G487" s="3" t="inlineStr">
@@ -39056,7 +39046,7 @@
       </c>
       <c r="F488" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must protect against or limit the effects of Denial of Service (DoS) attacks by ensuring the operating system is implementing rate-limiting measures on impacted network interfaces.</t>
+          <t>Red Hat Enterprise Linux 9 Must Protect Against Or Limit The Effects Of Denial Of Service (Dos) Attacks By Ensuring The Operating System Is Implementing Rate-Limiting Measures On Impacted Network Interfaces.</t>
         </is>
       </c>
       <c r="G488" s="2" t="inlineStr">
@@ -39454,7 +39444,7 @@
       </c>
       <c r="F493" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must be configured to prohibit or restrict the use of functions, ports, protocols, and/or services, as defined in the PPSM CAL and vulnerability assessments.</t>
+          <t>Red Hat Enterprise Linux 9 Must Be Configured To Prohibit Or Restrict The Use Of Functions, Ports, Protocols, And/Or Services, As Defined In The Ppsm Cal And Vulnerability Assessments.</t>
         </is>
       </c>
       <c r="G493" s="2" t="inlineStr">
@@ -39540,7 +39530,7 @@
       </c>
       <c r="F494" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must monitor remote access methods.</t>
+          <t>Red Hat Enterprise Linux 9 Must Monitor Remote Access Methods.</t>
         </is>
       </c>
       <c r="G494" s="2" t="inlineStr">
@@ -39625,7 +39615,7 @@
       </c>
       <c r="F495" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must monitor remote access methods.</t>
+          <t>Red Hat Enterprise Linux 9 Must Monitor Remote Access Methods.</t>
         </is>
       </c>
       <c r="G495" s="2" t="inlineStr">
@@ -39762,7 +39752,7 @@
     <row r="497" ht="130" customHeight="1">
       <c r="A497" s="2" t="inlineStr">
         <is>
-          <t>AU-4 (1),AU-4</t>
+          <t>AU-4,AU-4 (1)</t>
         </is>
       </c>
       <c r="B497" s="2" t="inlineStr">
@@ -39787,7 +39777,7 @@
       </c>
       <c r="F497" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must allocate audit record storage capacity to store at least one weeks worth of audit records, when audit records are not immediately sent to a central audit record storage facility.</t>
+          <t>Red Hat Enterprise Linux 9 Must Allocate Audit Record Storage Capacity To Store At Least One Weeks Worth Of Audit Records, When Audit Records Are Not Immediately Sent To A Central Audit Record Storage Facility.</t>
         </is>
       </c>
       <c r="G497" s="2" t="inlineStr">
@@ -39877,7 +39867,7 @@
       </c>
       <c r="F498" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must prevent the use of dictionary words for passwords.</t>
+          <t>Red Hat Enterprise Linux 9 Must Prevent The Use Of Dictionary Words For Passwords.</t>
         </is>
       </c>
       <c r="G498" s="2" t="inlineStr">
@@ -39960,7 +39950,7 @@
       </c>
       <c r="F499" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must prohibit the use of cached authenticators after one day.</t>
+          <t>Red Hat Enterprise Linux 9 Must Prohibit The Use Of Cached Authenticators After One Day.</t>
         </is>
       </c>
       <c r="G499" s="2" t="inlineStr">
@@ -40038,7 +40028,7 @@
       </c>
       <c r="F500" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must display the Standard Mandatory DoD Notice and Consent Banner before granting local or remote access to the system.</t>
+          <t>Red Hat Enterprise Linux 9 Must Display The Standard Mandatory Dod Notice And Consent Banner Before Granting Local Or Remote Access To The System.</t>
         </is>
       </c>
       <c r="G500" s="2" t="inlineStr">
@@ -40140,7 +40130,7 @@
       </c>
       <c r="F501" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must display the Standard Mandatory DoD Notice and Consent Banner before granting local or remote access to the system.</t>
+          <t>Red Hat Enterprise Linux 9 Must Display The Standard Mandatory Dod Notice And Consent Banner Before Granting Local Or Remote Access To The System.</t>
         </is>
       </c>
       <c r="G501" s="2" t="inlineStr">
@@ -40250,7 +40240,7 @@
       </c>
       <c r="F502" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must display the Standard Mandatory DoD Notice and Consent Banner before granting local or remote access to the system.</t>
+          <t>Red Hat Enterprise Linux 9 Must Display The Standard Mandatory Dod Notice And Consent Banner Before Granting Local Or Remote Access To The System.</t>
         </is>
       </c>
       <c r="G502" s="2" t="inlineStr">
@@ -40361,7 +40351,7 @@
       </c>
       <c r="F503" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must display the Standard Mandatory DoD Notice and Consent Banner before granting local or remote access to the system.</t>
+          <t>Red Hat Enterprise Linux 9 Must Display The Standard Mandatory Dod Notice And Consent Banner Before Granting Local Or Remote Access To The System.</t>
         </is>
       </c>
       <c r="G503" s="2" t="inlineStr">
@@ -40470,7 +40460,7 @@
       </c>
       <c r="F504" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must not allow an unattended or automatic logon to the system.</t>
+          <t>Red Hat Enterprise Linux 9 Must Not Allow An Unattended Or Automatic Logon To The System.</t>
         </is>
       </c>
       <c r="G504" s="2" t="inlineStr">
@@ -40549,7 +40539,7 @@
       </c>
       <c r="F505" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must not allow an unattended or automatic logon to the system.</t>
+          <t>Red Hat Enterprise Linux 9 Must Not Allow An Unattended Or Automatic Logon To The System.</t>
         </is>
       </c>
       <c r="G505" s="2" t="inlineStr">
@@ -40628,7 +40618,7 @@
       </c>
       <c r="F506" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must not allow an unattended or automatic logon to the system.</t>
+          <t>Red Hat Enterprise Linux 9 Must Not Allow An Unattended Or Automatic Logon To The System.</t>
         </is>
       </c>
       <c r="G506" s="2" t="inlineStr">
@@ -40791,7 +40781,7 @@
       </c>
       <c r="F508" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must protect audit information from unauthorized deletion.</t>
+          <t>Red Hat Enterprise Linux 9 Must Protect Audit Information From Unauthorized Deletion.</t>
         </is>
       </c>
       <c r="G508" s="3" t="inlineStr">
@@ -40866,7 +40856,7 @@
       </c>
       <c r="F509" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must enforce password complexity by requiring that at least one special character be used.</t>
+          <t>Red Hat Enterprise Linux 9 Must Enforce Password Complexity By Requiring That At Least One Special Character Be Used.</t>
         </is>
       </c>
       <c r="G509" s="2" t="inlineStr">
@@ -40951,7 +40941,7 @@
       </c>
       <c r="F510" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must off-load audit records onto a different system or media from the system being audited.</t>
+          <t>Red Hat Enterprise Linux 9 Must Off-Load Audit Records Onto A Different System Or Media From The System Being Audited.</t>
         </is>
       </c>
       <c r="G510" s="3" t="inlineStr">
@@ -41023,7 +41013,7 @@
       </c>
       <c r="F511" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must off-load audit records onto a different system or media from the system being audited.</t>
+          <t>Red Hat Enterprise Linux 9 Must Off-Load Audit Records Onto A Different System Or Media From The System Being Audited.</t>
         </is>
       </c>
       <c r="G511" s="3" t="inlineStr">
@@ -41096,7 +41086,7 @@
       </c>
       <c r="F512" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must off-load audit records onto a different system or media from the system being audited.</t>
+          <t>Red Hat Enterprise Linux 9 Must Off-Load Audit Records Onto A Different System Or Media From The System Being Audited.</t>
         </is>
       </c>
       <c r="G512" s="3" t="inlineStr">
@@ -41167,7 +41157,7 @@
       </c>
       <c r="F513" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must off-load audit records onto a different system or media from the system being audited.</t>
+          <t>Red Hat Enterprise Linux 9 Must Off-Load Audit Records Onto A Different System Or Media From The System Being Audited.</t>
         </is>
       </c>
       <c r="G513" s="3" t="inlineStr">
@@ -41241,7 +41231,7 @@
       </c>
       <c r="F514" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must off-load audit records onto a different system or media from the system being audited.</t>
+          <t>Red Hat Enterprise Linux 9 Must Off-Load Audit Records Onto A Different System Or Media From The System Being Audited.</t>
         </is>
       </c>
       <c r="G514" s="3" t="inlineStr">
@@ -41315,7 +41305,7 @@
       </c>
       <c r="F515" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must off-load audit records onto a different system or media from the system being audited.</t>
+          <t>Red Hat Enterprise Linux 9 Must Off-Load Audit Records Onto A Different System Or Media From The System Being Audited.</t>
         </is>
       </c>
       <c r="G515" s="3" t="inlineStr">
@@ -41382,7 +41372,7 @@
       </c>
       <c r="F516" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must off-load audit records onto a different system or media from the system being audited.</t>
+          <t>Red Hat Enterprise Linux 9 Must Off-Load Audit Records Onto A Different System Or Media From The System Being Audited.</t>
         </is>
       </c>
       <c r="G516" s="3" t="inlineStr">
@@ -41507,7 +41497,7 @@
       </c>
       <c r="F518" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must maintain the confidentiality and integrity of information during reception.</t>
+          <t>Red Hat Enterprise Linux 9 Must Maintain The Confidentiality And Integrity Of Information During Reception.</t>
         </is>
       </c>
       <c r="G518" s="2" t="inlineStr">
@@ -41589,7 +41579,7 @@
       </c>
       <c r="F519" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must enforce a 60-day maximum password lifetime restriction.</t>
+          <t>Red Hat Enterprise Linux 9 Must Enforce A 60-Day Maximum Password Lifetime Restriction.</t>
         </is>
       </c>
       <c r="G519" s="2" t="inlineStr">
@@ -41672,7 +41662,7 @@
       </c>
       <c r="F520" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must enforce a 60-day maximum password lifetime restriction.</t>
+          <t>Red Hat Enterprise Linux 9 Must Enforce A 60-Day Maximum Password Lifetime Restriction.</t>
         </is>
       </c>
       <c r="G520" s="2" t="inlineStr">
@@ -41751,7 +41741,7 @@
       </c>
       <c r="F521" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must protect audit tools from unauthorized access.</t>
+          <t>Red Hat Enterprise Linux 9 Must Protect Audit Tools From Unauthorized Access.</t>
         </is>
       </c>
       <c r="G521" s="2" t="inlineStr">
@@ -41830,7 +41820,7 @@
       </c>
       <c r="F522" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must protect audit tools from unauthorized access.</t>
+          <t>Red Hat Enterprise Linux 9 Must Protect Audit Tools From Unauthorized Access.</t>
         </is>
       </c>
       <c r="G522" s="2" t="inlineStr">
@@ -41916,7 +41906,7 @@
       </c>
       <c r="F523" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must protect audit tools from unauthorized access.</t>
+          <t>Red Hat Enterprise Linux 9 Must Protect Audit Tools From Unauthorized Access.</t>
         </is>
       </c>
       <c r="G523" s="2" t="inlineStr">
@@ -42081,7 +42071,7 @@
       </c>
       <c r="F525" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must enforce password complexity by requiring that at least one numeric character be used.</t>
+          <t>Red Hat Enterprise Linux 9 Must Enforce Password Complexity By Requiring That At Least One Numeric Character Be Used.</t>
         </is>
       </c>
       <c r="G525" s="2" t="inlineStr">
@@ -42697,7 +42687,7 @@
       </c>
       <c r="F533" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must protect the confidentiality and integrity of transmitted information.</t>
+          <t>Red Hat Enterprise Linux 9 Must Protect The Confidentiality And Integrity Of Transmitted Information.</t>
         </is>
       </c>
       <c r="G533" s="2" t="inlineStr">
@@ -42778,7 +42768,7 @@
       </c>
       <c r="F534" s="2" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must employ strong authenticators in the establishment of nonlocal maintenance and diagnostic sessions.</t>
+          <t>Red Hat Enterprise Linux 9 Must Employ Strong Authenticators In The Establishment Of Nonlocal Maintenance And Diagnostic Sessions.</t>
         </is>
       </c>
       <c r="G534" s="2" t="inlineStr">
@@ -42860,7 +42850,7 @@
       </c>
       <c r="F535" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must implement NIST FIPS-validated cryptography for the following: to provision digital signatures, to generate cryptographic hashes, and to protect unclassified information requiring confidentiality and cryptographic protection in accordance with applicable federal laws, Executive Orders, directives, policies, regulations, and standards.</t>
+          <t>Red Hat Enterprise Linux 9 Must Implement Nist Fips-Validated Cryptography For The Following: To Provision Digital Signatures, To Generate Cryptographic Hashes, And To Protect Unclassified Information Requiring Confidentiality And Cryptographic Protection In Accordance With Applicable Federal Laws, Executive Orders, Directives, Policies, Regulations, And Standards.</t>
         </is>
       </c>
       <c r="G535" s="3" t="inlineStr">
@@ -42934,7 +42924,7 @@
       </c>
       <c r="F536" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must implement cryptography to protect the integrity of remote access sessions.</t>
+          <t>Red Hat Enterprise Linux 9 Must Implement Cryptography To Protect The Integrity Of Remote Access Sessions.</t>
         </is>
       </c>
       <c r="G536" s="3" t="inlineStr">
@@ -43009,7 +42999,7 @@
       </c>
       <c r="F537" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must implement cryptography to protect the integrity of remote access sessions.</t>
+          <t>Red Hat Enterprise Linux 9 Must Implement Cryptography To Protect The Integrity Of Remote Access Sessions.</t>
         </is>
       </c>
       <c r="G537" s="3" t="inlineStr">
@@ -43083,7 +43073,7 @@
       </c>
       <c r="F538" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must implement cryptography to protect the integrity of remote access sessions.</t>
+          <t>Red Hat Enterprise Linux 9 Must Implement Cryptography To Protect The Integrity Of Remote Access Sessions.</t>
         </is>
       </c>
       <c r="G538" s="3" t="inlineStr">
@@ -43155,7 +43145,7 @@
       </c>
       <c r="F539" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must implement cryptography to protect the integrity of remote access sessions.</t>
+          <t>Red Hat Enterprise Linux 9 Must Implement Cryptography To Protect The Integrity Of Remote Access Sessions.</t>
         </is>
       </c>
       <c r="G539" s="3" t="inlineStr">
@@ -43232,7 +43222,7 @@
       </c>
       <c r="F540" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must implement cryptography to protect the integrity of remote access sessions.</t>
+          <t>Red Hat Enterprise Linux 9 Must Implement Cryptography To Protect The Integrity Of Remote Access Sessions.</t>
         </is>
       </c>
       <c r="G540" s="3" t="inlineStr">
@@ -43309,7 +43299,7 @@
       </c>
       <c r="F541" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must implement cryptography to protect the integrity of remote access sessions.</t>
+          <t>Red Hat Enterprise Linux 9 Must Implement Cryptography To Protect The Integrity Of Remote Access Sessions.</t>
         </is>
       </c>
       <c r="G541" s="3" t="inlineStr">
@@ -43384,7 +43374,7 @@
       </c>
       <c r="F542" s="3" t="inlineStr">
         <is>
-          <t>Red Hat Enterprise Linux 9 must implement cryptography to protect the integrity of remote access sessions.</t>
+          <t>Red Hat Enterprise Linux 9 Must Implement Cryptography To Protect The Integrity Of Remote Access Sessions.</t>
         </is>
       </c>
       <c r="G542" s="3" t="inlineStr">

--- a/srg_mapping/srg-mapping-rhel9.xlsx
+++ b/srg_mapping/srg-mapping-rhel9.xlsx
@@ -1467,7 +1467,7 @@
     <row r="13" ht="130" customHeight="1">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>AU-7 b,AU-7 a,AU-7 (1),AU-6 (4),AU-14 (1),AU-8 b,CM-5 (1),MA-4 (1) (a),AU-12 (3),AU-3,AU-3 (1),AU-12 a,AU-12 c</t>
+          <t>AU-3 (1),AU-14 (1),AU-6 (4),MA-4 (1) (a),AU-7 (1),AU-3,AU-12 a,AU-7 b,AU-12 c,CM-5 (1),AU-8 b,AU-7 a,AU-12 (3)</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
@@ -1552,7 +1552,7 @@
     <row r="14" ht="130" customHeight="1">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>CM-7 (2),CM-7 (5) (b)</t>
+          <t>CM-7 (5) (b),CM-7 (2)</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
@@ -1628,7 +1628,7 @@
     <row r="15" ht="130" customHeight="1">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>CM-7 (2),CM-7 (5) (b)</t>
+          <t>CM-7 (5) (b),CM-7 (2)</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
@@ -1782,7 +1782,7 @@
     <row r="17" ht="130" customHeight="1">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>CM-6 b,CM-7 (2)</t>
+          <t>CM-7 (2),CM-6 b</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
@@ -2152,7 +2152,7 @@
     <row r="22" ht="130" customHeight="1">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>CM-6 b,CM-7 (2)</t>
+          <t>CM-7 (2),CM-6 b</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
@@ -2226,7 +2226,7 @@
     <row r="23" ht="130" customHeight="1">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>CM-6 b,CM-7 (2)</t>
+          <t>CM-7 (2),CM-6 b</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
@@ -3270,7 +3270,7 @@
     <row r="37" ht="130" customHeight="1">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>AU-14 (1),MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c</t>
+          <t>AU-3 (1),AU-14 (1),MA-4 (1) (a),AU-3,AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
@@ -3361,7 +3361,7 @@
     <row r="38" ht="130" customHeight="1">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>AU-4,AU-14 (1)</t>
+          <t>AU-14 (1),AU-4</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
@@ -3449,7 +3449,7 @@
     <row r="39" ht="130" customHeight="1">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>AU-7 b,AU-7 a,AU-7 (1),AU-6 (4),AU-14 (1),AU-8 b,CM-5 (1),MA-4 (1) (a),AU-12 (3),AU-3,AU-3 (1),AU-12 a,AU-12 c</t>
+          <t>AU-3 (1),AU-14 (1),AU-6 (4),MA-4 (1) (a),AU-7 (1),AU-3,AU-12 a,AU-7 b,AU-12 c,CM-5 (1),AU-8 b,AU-7 a,AU-12 (3)</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
@@ -3916,7 +3916,7 @@
     <row r="45" ht="130" customHeight="1">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>AU-4 (1),CM-6 b,AU-6 (4)</t>
+          <t>AU-4 (1),AU-6 (4),CM-6 b</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
@@ -4077,7 +4077,7 @@
     <row r="47" ht="130" customHeight="1">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>AU-8 (1) (a),AU-8 b,AU-8 (1) (b)</t>
+          <t>AU-8 b,AU-8 (1) (a),AU-8 (1) (b)</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
@@ -4232,7 +4232,7 @@
     <row r="49" ht="130" customHeight="1">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (12),IA-2 (11)</t>
+          <t>IA-2 (11),IA-2 (12)</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
@@ -4318,7 +4318,7 @@
     <row r="50" ht="130" customHeight="1">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (12),IA-2 (11),IA-2 (1)</t>
+          <t>IA-2 (1),IA-2 (11),IA-2 (12)</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
@@ -4402,7 +4402,7 @@
     <row r="51" ht="130" customHeight="1">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>SI-6 b,SI-6 d,CM-3 (5)</t>
+          <t>SI-6 d,CM-3 (5),SI-6 b</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
@@ -4494,7 +4494,7 @@
     <row r="52" ht="130" customHeight="1">
       <c r="A52" s="3" t="inlineStr">
         <is>
-          <t>SI-6 d,CM-3 (5)</t>
+          <t>CM-3 (5),SI-6 d</t>
         </is>
       </c>
       <c r="B52" s="3" t="inlineStr">
@@ -4578,7 +4578,7 @@
     <row r="53" ht="130" customHeight="1">
       <c r="A53" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-3,AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B53" s="3" t="inlineStr">
@@ -4653,7 +4653,7 @@
     <row r="54" ht="130" customHeight="1">
       <c r="A54" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-3,AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B54" s="3" t="inlineStr">
@@ -4728,7 +4728,7 @@
     <row r="55" ht="130" customHeight="1">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-3,AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B55" s="3" t="inlineStr">
@@ -4803,7 +4803,7 @@
     <row r="56" ht="130" customHeight="1">
       <c r="A56" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-3,AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B56" s="3" t="inlineStr">
@@ -4878,7 +4878,7 @@
     <row r="57" ht="130" customHeight="1">
       <c r="A57" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-3,AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B57" s="3" t="inlineStr">
@@ -4953,7 +4953,7 @@
     <row r="58" ht="130" customHeight="1">
       <c r="A58" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-3,AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B58" s="3" t="inlineStr">
@@ -5028,7 +5028,7 @@
     <row r="59" ht="130" customHeight="1">
       <c r="A59" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-3,AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B59" s="3" t="inlineStr">
@@ -5103,7 +5103,7 @@
     <row r="60" ht="130" customHeight="1">
       <c r="A60" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-3,AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B60" s="3" t="inlineStr">
@@ -5178,7 +5178,7 @@
     <row r="61" ht="130" customHeight="1">
       <c r="A61" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-3,AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B61" s="3" t="inlineStr">
@@ -5253,7 +5253,7 @@
     <row r="62" ht="130" customHeight="1">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c,AC-2 (4)</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-3,AU-12 a,AU-12 c,AC-2 (4)</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
@@ -5334,7 +5334,7 @@
     <row r="63" ht="130" customHeight="1">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c,AC-2 (4)</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-3,AU-12 a,AU-12 c,AC-2 (4)</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
@@ -5415,7 +5415,7 @@
     <row r="64" ht="130" customHeight="1">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c,AC-2 (4)</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-3,AU-12 a,AU-12 c,AC-2 (4)</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
@@ -5497,7 +5497,7 @@
     <row r="65" ht="130" customHeight="1">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c,AC-2 (4)</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-3,AU-12 a,AU-12 c,AC-2 (4)</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
@@ -5579,7 +5579,7 @@
     <row r="66" ht="130" customHeight="1">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c,AC-2 (4)</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-3,AU-12 a,AU-12 c,AC-2 (4)</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
@@ -5661,7 +5661,7 @@
     <row r="67" ht="130" customHeight="1">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c,AC-2 (4)</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-3,AU-12 a,AU-12 c,AC-2 (4)</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
@@ -5743,7 +5743,7 @@
     <row r="68" ht="130" customHeight="1">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c,AC-2 (4)</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-3,AU-12 a,AU-12 c,AC-2 (4)</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
@@ -5825,7 +5825,7 @@
     <row r="69" ht="130" customHeight="1">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>SI-6 a,CM-3 (5)</t>
+          <t>CM-3 (5),SI-6 a</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
@@ -5899,7 +5899,7 @@
     <row r="70" ht="130" customHeight="1">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>AU-9,SI-11 b</t>
+          <t>SI-11 b,AU-9</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
@@ -5982,7 +5982,7 @@
     <row r="71" ht="130" customHeight="1">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>AU-9,SI-11 b</t>
+          <t>SI-11 b,AU-9</t>
         </is>
       </c>
       <c r="B71" s="2" t="inlineStr">
@@ -6060,7 +6060,7 @@
     <row r="72" ht="130" customHeight="1">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>AU-9,SI-11 b</t>
+          <t>SI-11 b,AU-9</t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
@@ -6151,7 +6151,7 @@
     <row r="73" ht="130" customHeight="1">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>AU-9,SI-11 b</t>
+          <t>SI-11 b,AU-9</t>
         </is>
       </c>
       <c r="B73" s="2" t="inlineStr">
@@ -6233,7 +6233,7 @@
     <row r="74" ht="130" customHeight="1">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>AU-9,SI-11 b</t>
+          <t>SI-11 b,AU-9</t>
         </is>
       </c>
       <c r="B74" s="2" t="inlineStr">
@@ -6863,7 +6863,7 @@
     <row r="82" ht="130" customHeight="1">
       <c r="A82" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-3,AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B82" s="3" t="inlineStr">
@@ -6937,7 +6937,7 @@
     <row r="83" ht="130" customHeight="1">
       <c r="A83" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-3,AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B83" s="3" t="inlineStr">
@@ -7011,7 +7011,7 @@
     <row r="84" ht="130" customHeight="1">
       <c r="A84" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-3,AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B84" s="3" t="inlineStr">
@@ -7085,7 +7085,7 @@
     <row r="85" ht="130" customHeight="1">
       <c r="A85" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-3,AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B85" s="3" t="inlineStr">
@@ -7509,7 +7509,7 @@
     <row r="90" ht="130" customHeight="1">
       <c r="A90" s="3" t="inlineStr">
         <is>
-          <t>AU-9,AU-9 (3)</t>
+          <t>AU-9 (3),AU-9</t>
         </is>
       </c>
       <c r="B90" s="3" t="inlineStr">
@@ -7585,7 +7585,7 @@
     <row r="91" ht="130" customHeight="1">
       <c r="A91" s="3" t="inlineStr">
         <is>
-          <t>AU-9,AU-9 (3)</t>
+          <t>AU-9 (3),AU-9</t>
         </is>
       </c>
       <c r="B91" s="3" t="inlineStr">
@@ -7661,7 +7661,7 @@
     <row r="92" ht="130" customHeight="1">
       <c r="A92" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-3,AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B92" s="3" t="inlineStr">
@@ -7736,7 +7736,7 @@
     <row r="93" ht="130" customHeight="1">
       <c r="A93" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-3,AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B93" s="3" t="inlineStr">
@@ -7811,7 +7811,7 @@
     <row r="94" ht="130" customHeight="1">
       <c r="A94" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-3,AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B94" s="3" t="inlineStr">
@@ -7886,7 +7886,7 @@
     <row r="95" ht="130" customHeight="1">
       <c r="A95" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-3,AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B95" s="3" t="inlineStr">
@@ -7966,7 +7966,7 @@
     <row r="96" ht="130" customHeight="1">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-3,AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
@@ -8048,7 +8048,7 @@
     <row r="97" ht="130" customHeight="1">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-3,AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B97" s="2" t="inlineStr">
@@ -8130,7 +8130,7 @@
     <row r="98" ht="130" customHeight="1">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-3,AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B98" s="2" t="inlineStr">
@@ -8212,7 +8212,7 @@
     <row r="99" ht="130" customHeight="1">
       <c r="A99" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-3,AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B99" s="2" t="inlineStr">
@@ -8294,7 +8294,7 @@
     <row r="100" ht="130" customHeight="1">
       <c r="A100" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-3,AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B100" s="2" t="inlineStr">
@@ -8376,7 +8376,7 @@
     <row r="101" ht="130" customHeight="1">
       <c r="A101" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-3,AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B101" s="3" t="inlineStr">
@@ -8456,7 +8456,7 @@
     <row r="102" ht="130" customHeight="1">
       <c r="A102" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-3,AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B102" s="3" t="inlineStr">
@@ -8536,7 +8536,7 @@
     <row r="103" ht="130" customHeight="1">
       <c r="A103" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-3,AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B103" s="3" t="inlineStr">
@@ -8866,7 +8866,7 @@
     <row r="107" ht="130" customHeight="1">
       <c r="A107" s="2" t="inlineStr">
         <is>
-          <t>AC-11 a,AC-11 b</t>
+          <t>AC-11 b,AC-11 a</t>
         </is>
       </c>
       <c r="B107" s="2" t="inlineStr">
@@ -9364,7 +9364,7 @@
     <row r="113" ht="130" customHeight="1">
       <c r="A113" s="2" t="inlineStr">
         <is>
-          <t>AC-17 (2),SC-13,MA-4 c,SC-8</t>
+          <t>MA-4 c,SC-8,AC-17 (2),SC-13</t>
         </is>
       </c>
       <c r="B113" s="2" t="inlineStr">
@@ -9524,7 +9524,7 @@
     <row r="115" ht="130" customHeight="1">
       <c r="A115" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-3,AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B115" s="2" t="inlineStr">
@@ -9680,7 +9680,7 @@
     <row r="117" ht="130" customHeight="1">
       <c r="A117" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-3,AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B117" s="3" t="inlineStr">
@@ -10036,7 +10036,7 @@
     <row r="122" ht="130" customHeight="1">
       <c r="A122" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-3,AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B122" s="3" t="inlineStr">
@@ -10116,7 +10116,7 @@
     <row r="123" ht="130" customHeight="1">
       <c r="A123" s="2" t="inlineStr">
         <is>
-          <t>SC-28,SC-28 (1)</t>
+          <t>SC-28 (1),SC-28</t>
         </is>
       </c>
       <c r="B123" s="2" t="inlineStr">
@@ -10890,7 +10890,7 @@
     <row r="133" ht="130" customHeight="1">
       <c r="A133" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,AC-6 (10)</t>
+          <t>AC-6 (10),CM-6 b</t>
         </is>
       </c>
       <c r="B133" s="2" t="inlineStr">
@@ -10971,7 +10971,7 @@
     <row r="134" ht="130" customHeight="1">
       <c r="A134" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,AC-6 (10)</t>
+          <t>AC-6 (10),CM-6 b</t>
         </is>
       </c>
       <c r="B134" s="2" t="inlineStr">
@@ -11057,7 +11057,7 @@
     <row r="135" ht="130" customHeight="1">
       <c r="A135" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,AC-6 (10)</t>
+          <t>AC-6 (10),CM-6 b</t>
         </is>
       </c>
       <c r="B135" s="2" t="inlineStr">
@@ -11503,7 +11503,7 @@
     <row r="140" ht="130" customHeight="1">
       <c r="A140" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-3,AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B140" s="3" t="inlineStr">
@@ -11583,7 +11583,7 @@
     <row r="141" ht="130" customHeight="1">
       <c r="A141" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-3,AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B141" s="3" t="inlineStr">
@@ -11663,7 +11663,7 @@
     <row r="142" ht="130" customHeight="1">
       <c r="A142" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-3,AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B142" s="3" t="inlineStr">
@@ -12285,7 +12285,7 @@
     <row r="150" ht="130" customHeight="1">
       <c r="A150" s="2" t="inlineStr">
         <is>
-          <t>AC-11 a,AC-11 (1)</t>
+          <t>AC-11 (1),AC-11 a</t>
         </is>
       </c>
       <c r="B150" s="2" t="inlineStr">
@@ -12446,7 +12446,7 @@
     <row r="152" ht="130" customHeight="1">
       <c r="A152" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,IA-7</t>
+          <t>IA-7,CM-6 b</t>
         </is>
       </c>
       <c r="B152" s="2" t="inlineStr">
@@ -12522,7 +12522,7 @@
     <row r="153" ht="130" customHeight="1">
       <c r="A153" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,IA-7</t>
+          <t>IA-7,CM-6 b</t>
         </is>
       </c>
       <c r="B153" s="2" t="inlineStr">
@@ -12607,7 +12607,7 @@
     <row r="154" ht="130" customHeight="1">
       <c r="A154" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,IA-7</t>
+          <t>IA-7,CM-6 b</t>
         </is>
       </c>
       <c r="B154" s="2" t="inlineStr">
@@ -12843,7 +12843,7 @@
     <row r="157" ht="130" customHeight="1">
       <c r="A157" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-3,AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B157" s="3" t="inlineStr">
@@ -12920,7 +12920,7 @@
     <row r="158" ht="130" customHeight="1">
       <c r="A158" s="3" t="inlineStr">
         <is>
-          <t>AU-12 a,MA-4 (1) (a),AU-3,AU-12 c</t>
+          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a</t>
         </is>
       </c>
       <c r="B158" s="3" t="inlineStr">
@@ -12993,7 +12993,7 @@
     <row r="159" ht="130" customHeight="1">
       <c r="A159" s="3" t="inlineStr">
         <is>
-          <t>AU-12 a,MA-4 (1) (a),AU-3,AU-12 c</t>
+          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a</t>
         </is>
       </c>
       <c r="B159" s="3" t="inlineStr">
@@ -13066,7 +13066,7 @@
     <row r="160" ht="130" customHeight="1">
       <c r="A160" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-3,AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B160" s="3" t="inlineStr">
@@ -13151,7 +13151,7 @@
     <row r="161" ht="130" customHeight="1">
       <c r="A161" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-3,AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B161" s="3" t="inlineStr">
@@ -13226,7 +13226,7 @@
     <row r="162" ht="130" customHeight="1">
       <c r="A162" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-3,AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B162" s="3" t="inlineStr">
@@ -13301,7 +13301,7 @@
     <row r="163" ht="130" customHeight="1">
       <c r="A163" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-3,AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B163" s="3" t="inlineStr">
@@ -13376,7 +13376,7 @@
     <row r="164" ht="130" customHeight="1">
       <c r="A164" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-3,AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B164" s="3" t="inlineStr">
@@ -13879,7 +13879,7 @@
     <row r="171" ht="130" customHeight="1">
       <c r="A171" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-3,AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B171" s="3" t="inlineStr">
@@ -14168,7 +14168,7 @@
     <row r="175" ht="130" customHeight="1">
       <c r="A175" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-3,AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B175" s="3" t="inlineStr">
@@ -14243,7 +14243,7 @@
     <row r="176" ht="130" customHeight="1">
       <c r="A176" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-3,AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B176" s="3" t="inlineStr">
@@ -14325,7 +14325,7 @@
     <row r="177" ht="130" customHeight="1">
       <c r="A177" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-3,AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B177" s="3" t="inlineStr">
@@ -14407,7 +14407,7 @@
     <row r="178" ht="130" customHeight="1">
       <c r="A178" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-3,AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B178" s="3" t="inlineStr">
@@ -14571,7 +14571,7 @@
     <row r="180" ht="130" customHeight="1">
       <c r="A180" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-3,AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B180" s="3" t="inlineStr">
@@ -14653,7 +14653,7 @@
     <row r="181" ht="130" customHeight="1">
       <c r="A181" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-3,AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B181" s="3" t="inlineStr">
@@ -14735,7 +14735,7 @@
     <row r="182" ht="130" customHeight="1">
       <c r="A182" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-3,AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B182" s="3" t="inlineStr">
@@ -14817,7 +14817,7 @@
     <row r="183" ht="130" customHeight="1">
       <c r="A183" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-3,AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B183" s="3" t="inlineStr">
@@ -14899,7 +14899,7 @@
     <row r="184" ht="130" customHeight="1">
       <c r="A184" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-3,AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B184" s="3" t="inlineStr">
@@ -15059,7 +15059,7 @@
     <row r="186" ht="130" customHeight="1">
       <c r="A186" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-3,AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B186" s="3" t="inlineStr">
@@ -15138,7 +15138,7 @@
     <row r="187" ht="130" customHeight="1">
       <c r="A187" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-3,AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B187" s="3" t="inlineStr">
@@ -15220,7 +15220,7 @@
     <row r="188" ht="130" customHeight="1">
       <c r="A188" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-3,AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B188" s="3" t="inlineStr">
@@ -15302,7 +15302,7 @@
     <row r="189" ht="130" customHeight="1">
       <c r="A189" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),MA-4 (1) (a),AU-3,AU-12 c</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-12 c,AU-3</t>
         </is>
       </c>
       <c r="B189" s="3" t="inlineStr">
@@ -15384,7 +15384,7 @@
     <row r="190" ht="130" customHeight="1">
       <c r="A190" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-3,AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B190" s="3" t="inlineStr">
@@ -15466,7 +15466,7 @@
     <row r="191" ht="130" customHeight="1">
       <c r="A191" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-3,AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B191" s="3" t="inlineStr">
@@ -15548,7 +15548,7 @@
     <row r="192" ht="130" customHeight="1">
       <c r="A192" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-3,AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B192" s="3" t="inlineStr">
@@ -15630,7 +15630,7 @@
     <row r="193" ht="130" customHeight="1">
       <c r="A193" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-3,AU-12 a,AU-12 c</t>
         </is>
       </c>
       <c r="B193" s="3" t="inlineStr">
@@ -15705,7 +15705,7 @@
     <row r="194" ht="130" customHeight="1">
       <c r="A194" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 a,AU-12 c,AC-2 (4)</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-3,AU-12 a,AU-12 c,AC-2 (4)</t>
         </is>
       </c>
       <c r="B194" s="3" t="inlineStr">
@@ -15778,7 +15778,7 @@
     <row r="195" ht="130" customHeight="1">
       <c r="A195" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-3,AU-3 (1),AU-12 c,AC-2 (4)</t>
+          <t>AU-3 (1),MA-4 (1) (a),AU-3,AU-12 c,AC-2 (4)</t>
         </is>
       </c>
       <c r="B195" s="3" t="inlineStr">
@@ -15855,7 +15855,7 @@
     <row r="196" ht="130" customHeight="1">
       <c r="A196" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (4),IA-2 (3),IA-2 (2),IA-2 (1)</t>
+          <t>IA-2 (2),IA-2 (3),IA-2 (1),IA-2 (4)</t>
         </is>
       </c>
       <c r="B196" s="2" t="inlineStr">
@@ -15942,7 +15942,7 @@
     <row r="197" ht="130" customHeight="1">
       <c r="A197" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (2),IA-2 (5),IA-2 (4),IA-2 (3),IA-2</t>
+          <t>IA-2 (3),IA-2,IA-2 (4),IA-2 (5),IA-2 (2)</t>
         </is>
       </c>
       <c r="B197" s="2" t="inlineStr">
@@ -16031,7 +16031,7 @@
     <row r="198" ht="130" customHeight="1">
       <c r="A198" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (2),IA-2 (5),IA-2 (4),IA-2 (3),IA-2</t>
+          <t>IA-2 (3),IA-2,IA-2 (4),IA-2 (5),IA-2 (2)</t>
         </is>
       </c>
       <c r="B198" s="2" t="inlineStr">
@@ -16275,7 +16275,7 @@
     <row r="201" ht="130" customHeight="1">
       <c r="A201" s="2" t="inlineStr">
         <is>
-          <t>IA-11,AC-3 (4)</t>
+          <t>AC-3 (4),IA-11</t>
         </is>
       </c>
       <c r="B201" s="2" t="inlineStr">
@@ -16655,7 +16655,7 @@
     <row r="206" ht="130" customHeight="1">
       <c r="A206" s="2" t="inlineStr">
         <is>
-          <t>SC-8 (2),SC-8,SC-8 (1)</t>
+          <t>SC-8 (1),SC-8 (2),SC-8</t>
         </is>
       </c>
       <c r="B206" s="2" t="inlineStr">
@@ -16732,7 +16732,7 @@
     <row r="207" ht="130" customHeight="1">
       <c r="A207" s="2" t="inlineStr">
         <is>
-          <t>SC-8 (2),SC-8,SC-8 (1)</t>
+          <t>SC-8 (1),SC-8 (2),SC-8</t>
         </is>
       </c>
       <c r="B207" s="2" t="inlineStr">
@@ -16818,7 +16818,7 @@
     <row r="208" ht="130" customHeight="1">
       <c r="A208" s="2" t="inlineStr">
         <is>
-          <t>AC-18 (1),SC-8,SC-8 (1)</t>
+          <t>SC-8 (1),SC-8,AC-18 (1)</t>
         </is>
       </c>
       <c r="B208" s="2" t="inlineStr">
@@ -16904,7 +16904,7 @@
     <row r="209" ht="130" customHeight="1">
       <c r="A209" s="2" t="inlineStr">
         <is>
-          <t>AC-11 a,AC-11 (1)</t>
+          <t>AC-11 (1),AC-11 a</t>
         </is>
       </c>
       <c r="B209" s="2" t="inlineStr">
@@ -16993,7 +16993,7 @@
     <row r="210" ht="130" customHeight="1">
       <c r="A210" s="2" t="inlineStr">
         <is>
-          <t>AC-11 a,AC-11 (1)</t>
+          <t>AC-11 (1),AC-11 a</t>
         </is>
       </c>
       <c r="B210" s="2" t="inlineStr">
@@ -17246,7 +17246,7 @@
     <row r="213" ht="130" customHeight="1">
       <c r="A213" s="2" t="inlineStr">
         <is>
-          <t>IA-5 (1) (c),CM-6 b,CM-7 a</t>
+          <t>IA-5 (1) (c),CM-7 a,CM-6 b</t>
         </is>
       </c>
       <c r="B213" s="2" t="inlineStr">
@@ -17677,7 +17677,7 @@
     <row r="218" ht="130" customHeight="1">
       <c r="A218" s="2" t="inlineStr">
         <is>
-          <t>SI-16,CM-7 a</t>
+          <t>CM-7 a,SI-16</t>
         </is>
       </c>
       <c r="B218" s="2" t="inlineStr">
@@ -17867,7 +17867,7 @@
     <row r="220" ht="130" customHeight="1">
       <c r="A220" s="2" t="inlineStr">
         <is>
-          <t>AU-3 (1),IA-8,IA-2</t>
+          <t>AU-3 (1),IA-2,IA-8</t>
         </is>
       </c>
       <c r="B220" s="2" t="inlineStr">
@@ -18838,7 +18838,7 @@
     <row r="232" ht="130" customHeight="1">
       <c r="A232" s="2" t="inlineStr">
         <is>
-          <t>SC-2,CM-6 b,SI-16</t>
+          <t>SC-2,SI-16,CM-6 b</t>
         </is>
       </c>
       <c r="B232" s="2" t="inlineStr">
@@ -19022,7 +19022,7 @@
     <row r="234" ht="130" customHeight="1">
       <c r="A234" s="2" t="inlineStr">
         <is>
-          <t>SI-16,SC-3</t>
+          <t>SC-3,SI-16</t>
         </is>
       </c>
       <c r="B234" s="2" t="inlineStr">
@@ -19751,7 +19751,7 @@
     <row r="243" ht="130" customHeight="1">
       <c r="A243" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,IA-5 (1) (b),IA-5 (1) (a)</t>
+          <t>IA-5 (1) (a),IA-5 (1) (b),CM-6 b</t>
         </is>
       </c>
       <c r="B243" s="2" t="inlineStr">
@@ -20575,7 +20575,7 @@
     <row r="253" ht="130" customHeight="1">
       <c r="A253" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (11),IA-2 (1)</t>
+          <t>IA-2 (1),IA-2 (11)</t>
         </is>
       </c>
       <c r="B253" s="2" t="inlineStr">
@@ -20664,7 +20664,7 @@
     <row r="254" ht="130" customHeight="1">
       <c r="A254" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (12),IA-2 (11)</t>
+          <t>IA-2 (11),IA-2 (12)</t>
         </is>
       </c>
       <c r="B254" s="2" t="inlineStr">
@@ -21623,7 +21623,7 @@
     <row r="266" ht="130" customHeight="1">
       <c r="A266" s="2" t="inlineStr">
         <is>
-          <t>AU-9,AU-12 c</t>
+          <t>AU-12 c,AU-9</t>
         </is>
       </c>
       <c r="B266" s="2" t="inlineStr">
@@ -21706,7 +21706,7 @@
     <row r="267" ht="130" customHeight="1">
       <c r="A267" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,CM-5 (3)</t>
+          <t>CM-5 (3),CM-6 b</t>
         </is>
       </c>
       <c r="B267" s="2" t="inlineStr">
@@ -22396,7 +22396,7 @@
     <row r="275" ht="130" customHeight="1">
       <c r="A275" s="3" t="inlineStr">
         <is>
-          <t>CM-6 b,CM-7 a</t>
+          <t>CM-7 a,CM-6 b</t>
         </is>
       </c>
       <c r="B275" s="3" t="inlineStr">
@@ -23392,7 +23392,7 @@
     <row r="288" ht="130" customHeight="1">
       <c r="A288" s="3" t="inlineStr">
         <is>
-          <t>CM-6 b,CM-7 a</t>
+          <t>CM-7 a,CM-6 b</t>
         </is>
       </c>
       <c r="B288" s="3" t="inlineStr">
@@ -23463,7 +23463,7 @@
     <row r="289" ht="130" customHeight="1">
       <c r="A289" s="3" t="inlineStr">
         <is>
-          <t>CM-6 b,CM-7 a</t>
+          <t>CM-7 a,CM-6 b</t>
         </is>
       </c>
       <c r="B289" s="3" t="inlineStr">
@@ -23535,7 +23535,7 @@
     <row r="290" ht="130" customHeight="1">
       <c r="A290" s="3" t="inlineStr">
         <is>
-          <t>CM-6 b,CM-7 a</t>
+          <t>CM-7 a,CM-6 b</t>
         </is>
       </c>
       <c r="B290" s="3" t="inlineStr">
@@ -23693,7 +23693,7 @@
     <row r="292" ht="130" customHeight="1">
       <c r="A292" s="3" t="inlineStr">
         <is>
-          <t>AU-12 c,AC-6 (9),AC-2 (4)</t>
+          <t>AC-2 (4),AU-12 c,AC-6 (9)</t>
         </is>
       </c>
       <c r="B292" s="3" t="inlineStr">
@@ -27436,7 +27436,7 @@
     <row r="341" ht="130" customHeight="1">
       <c r="A341" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,IA-2 (2)</t>
+          <t>IA-2 (2),CM-6 b</t>
         </is>
       </c>
       <c r="B341" s="2" t="inlineStr">
@@ -29913,7 +29913,7 @@
     <row r="374" ht="130" customHeight="1">
       <c r="A374" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,AU-3</t>
+          <t>AU-3,CM-6 b</t>
         </is>
       </c>
       <c r="B374" s="2" t="inlineStr">
@@ -30167,7 +30167,7 @@
     <row r="377" ht="130" customHeight="1">
       <c r="A377" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,SC-3</t>
+          <t>SC-3,CM-6 b</t>
         </is>
       </c>
       <c r="B377" s="2" t="inlineStr">
@@ -30561,7 +30561,7 @@
     <row r="382" ht="130" customHeight="1">
       <c r="A382" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,AC-17 (1),CM-7 b,AC-17 (9)</t>
+          <t>AC-17 (9),AC-17 (1),CM-7 b,CM-6 b</t>
         </is>
       </c>
       <c r="B382" s="2" t="inlineStr">
@@ -30639,7 +30639,7 @@
     <row r="383" ht="130" customHeight="1">
       <c r="A383" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,AC-17 (1),CM-7 b</t>
+          <t>AC-17 (1),CM-7 b,CM-6 b</t>
         </is>
       </c>
       <c r="B383" s="2" t="inlineStr">
@@ -33138,7 +33138,7 @@
     <row r="412" ht="130" customHeight="1">
       <c r="A412" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,IA-3</t>
+          <t>IA-3,CM-6 b</t>
         </is>
       </c>
       <c r="B412" s="2" t="inlineStr">
@@ -33220,7 +33220,7 @@
     <row r="413" ht="130" customHeight="1">
       <c r="A413" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,IA-3</t>
+          <t>IA-3,CM-6 b</t>
         </is>
       </c>
       <c r="B413" s="2" t="inlineStr">
@@ -33913,7 +33913,7 @@
     <row r="422" ht="130" customHeight="1">
       <c r="A422" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,SC-3</t>
+          <t>SC-3,CM-6 b</t>
         </is>
       </c>
       <c r="B422" s="2" t="inlineStr">
@@ -34516,7 +34516,7 @@
     <row r="429" ht="130" customHeight="1">
       <c r="A429" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,SC-3</t>
+          <t>SC-3,CM-6 b</t>
         </is>
       </c>
       <c r="B429" s="2" t="inlineStr">
@@ -35272,7 +35272,7 @@
     <row r="439" ht="130" customHeight="1">
       <c r="A439" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,IA-3</t>
+          <t>IA-3,CM-6 b</t>
         </is>
       </c>
       <c r="B439" s="2" t="inlineStr">
@@ -35362,7 +35362,7 @@
     <row r="440" ht="130" customHeight="1">
       <c r="A440" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,IA-3</t>
+          <t>IA-3,CM-6 b</t>
         </is>
       </c>
       <c r="B440" s="2" t="inlineStr">
@@ -35757,7 +35757,7 @@
     <row r="445" ht="130" customHeight="1">
       <c r="A445" s="3" t="inlineStr">
         <is>
-          <t>SI-2 (2),CM-6 b</t>
+          <t>CM-6 b,SI-2 (2)</t>
         </is>
       </c>
       <c r="B445" s="3" t="inlineStr">
@@ -36404,7 +36404,7 @@
     <row r="454" ht="130" customHeight="1">
       <c r="A454" s="3" t="inlineStr">
         <is>
-          <t>SI-2 (2),CM-6 b</t>
+          <t>CM-6 b,SI-2 (2)</t>
         </is>
       </c>
       <c r="B454" s="3" t="inlineStr">
@@ -36695,7 +36695,7 @@
     <row r="458" ht="130" customHeight="1">
       <c r="A458" s="3" t="inlineStr">
         <is>
-          <t>SC-10,AC-12,MA-4 e,MA-4 (7)</t>
+          <t>MA-4 (7),MA-4 e,AC-12,SC-10</t>
         </is>
       </c>
       <c r="B458" s="3" t="inlineStr">
@@ -36770,7 +36770,7 @@
     <row r="459" ht="130" customHeight="1">
       <c r="A459" s="3" t="inlineStr">
         <is>
-          <t>SC-10,AC-12</t>
+          <t>AC-12,SC-10</t>
         </is>
       </c>
       <c r="B459" s="3" t="inlineStr">
@@ -36849,7 +36849,7 @@
     <row r="460" ht="130" customHeight="1">
       <c r="A460" s="3" t="inlineStr">
         <is>
-          <t>SC-10,AC-12</t>
+          <t>AC-12,SC-10</t>
         </is>
       </c>
       <c r="B460" s="3" t="inlineStr">
@@ -37002,7 +37002,7 @@
     <row r="462" ht="130" customHeight="1">
       <c r="A462" s="2" t="inlineStr">
         <is>
-          <t>AC-17 (2),SC-8,SC-8 (1)</t>
+          <t>SC-8 (1),SC-8,AC-17 (2)</t>
         </is>
       </c>
       <c r="B462" s="2" t="inlineStr">
@@ -39752,7 +39752,7 @@
     <row r="497" ht="130" customHeight="1">
       <c r="A497" s="2" t="inlineStr">
         <is>
-          <t>AU-4,AU-4 (1)</t>
+          <t>AU-4 (1),AU-4</t>
         </is>
       </c>
       <c r="B497" s="2" t="inlineStr">
@@ -40003,7 +40003,7 @@
     <row r="500" ht="130" customHeight="1">
       <c r="A500" s="2" t="inlineStr">
         <is>
-          <t>AC-8 c 1, AC-8 c 2, AC-8 c 3,AC-8 a</t>
+          <t>AC-8 a,AC-8 c 1, AC-8 c 2, AC-8 c 3</t>
         </is>
       </c>
       <c r="B500" s="2" t="inlineStr">
@@ -40105,7 +40105,7 @@
     <row r="501" ht="130" customHeight="1">
       <c r="A501" s="2" t="inlineStr">
         <is>
-          <t>AC-8 c 1, AC-8 c 2, AC-8 c 3,AC-8 a</t>
+          <t>AC-8 a,AC-8 c 1, AC-8 c 2, AC-8 c 3</t>
         </is>
       </c>
       <c r="B501" s="2" t="inlineStr">
@@ -40215,7 +40215,7 @@
     <row r="502" ht="130" customHeight="1">
       <c r="A502" s="2" t="inlineStr">
         <is>
-          <t>AC-8 c 1, AC-8 c 2, AC-8 c 3,AC-8 a</t>
+          <t>AC-8 a,AC-8 c 1, AC-8 c 2, AC-8 c 3</t>
         </is>
       </c>
       <c r="B502" s="2" t="inlineStr">
@@ -40326,7 +40326,7 @@
     <row r="503" ht="130" customHeight="1">
       <c r="A503" s="2" t="inlineStr">
         <is>
-          <t>AC-8 c 1, AC-8 c 2, AC-8 c 3,AC-8 a</t>
+          <t>AC-8 a,AC-8 c 1, AC-8 c 2, AC-8 c 3</t>
         </is>
       </c>
       <c r="B503" s="2" t="inlineStr">
@@ -42662,7 +42662,7 @@
     <row r="533" ht="130" customHeight="1">
       <c r="A533" s="2" t="inlineStr">
         <is>
-          <t>AC-17 (2),SC-8</t>
+          <t>SC-8,AC-17 (2)</t>
         </is>
       </c>
       <c r="B533" s="2" t="inlineStr">

--- a/srg_mapping/srg-mapping-rhel9.xlsx
+++ b/srg_mapping/srg-mapping-rhel9.xlsx
@@ -550,7 +550,7 @@
     <row r="2" ht="130" customHeight="1">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>AC-7 a,AC-7 b</t>
+          <t>AC-7 b,AC-7 a</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -634,7 +634,7 @@
     <row r="3" ht="130" customHeight="1">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>AC-7 a,AC-7 b</t>
+          <t>AC-7 b,AC-7 a</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
@@ -719,7 +719,7 @@
     <row r="4" ht="130" customHeight="1">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>AC-7 a,AC-7 b</t>
+          <t>AC-7 b,AC-7 a</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -791,7 +791,7 @@
     <row r="5" ht="130" customHeight="1">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>AC-7 a,AC-7 b</t>
+          <t>AC-7 b,AC-7 a</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
@@ -973,7 +973,7 @@
     <row r="7" ht="130" customHeight="1">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>AU-5 b,AU-5 a</t>
+          <t>AU-5 a,AU-5 b</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
@@ -1467,7 +1467,7 @@
     <row r="13" ht="130" customHeight="1">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>AU-12 (3),AU-14 (1),AU-7 b,AU-3,AU-7 a,MA-4 (1) (a),AU-6 (4),AU-12 c,AU-12 a,AU-3 (1),AU-8 b,CM-5 (1),AU-7 (1)</t>
+          <t>AU-3,AU-12 a,AU-7 (1),AU-7 a,AU-12 (3),MA-4 (1) (a),AU-6 (4),AU-12 c,AU-8 b,AU-7 b,AU-3 (1),CM-5 (1),AU-14 (1)</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
@@ -1552,7 +1552,7 @@
     <row r="14" ht="130" customHeight="1">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>AU-12 (3),AU-14 (1),AU-7 b,AU-3,AU-7 a,MA-4 (1) (a),AU-6 (4),AU-12 c,AU-12 a,AU-3 (1),AU-8 b,CM-5 (1),AU-7 (1)</t>
+          <t>AU-3,AU-12 a,AU-7 (1),AU-7 a,AU-12 (3),MA-4 (1) (a),AU-6 (4),AU-12 c,AU-8 b,AU-7 b,AU-3 (1),CM-5 (1),AU-14 (1)</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
     <row r="15" ht="130" customHeight="1">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>CM-7 (5) (b),CM-7 (2)</t>
+          <t>CM-7 (2),CM-7 (5) (b)</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
@@ -1703,7 +1703,7 @@
     <row r="16" ht="130" customHeight="1">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>CM-7 (5) (b),CM-7 (2)</t>
+          <t>CM-7 (2),CM-7 (5) (b)</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
@@ -3345,7 +3345,7 @@
     <row r="38" ht="130" customHeight="1">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>AU-14 (1),AU-3,MA-4 (1) (a),AU-12 c,AU-12 a,AU-3 (1)</t>
+          <t>AU-3,MA-4 (1) (a),AU-12 a,AU-12 c,AU-3 (1),AU-14 (1)</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
@@ -3918,7 +3918,7 @@
     <row r="45" ht="130" customHeight="1">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,AU-6 (4),AU-4 (1)</t>
+          <t>CM-6 b,AU-4 (1),AU-6 (4)</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
@@ -4079,7 +4079,7 @@
     <row r="47" ht="130" customHeight="1">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>AU-8 (1) (a),AU-8 b,AU-8 (1) (b)</t>
+          <t>AU-8 (1) (b),AU-8 (1) (a),AU-8 b</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
@@ -4320,7 +4320,7 @@
     <row r="50" ht="130" customHeight="1">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (11),IA-2 (1),IA-2 (12)</t>
+          <t>IA-2 (1),IA-2 (11),IA-2 (12)</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
@@ -4404,7 +4404,7 @@
     <row r="51" ht="130" customHeight="1">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>CM-3 (5),SI-6 d,SI-6 b</t>
+          <t>SI-6 d,CM-3 (5),SI-6 b</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
@@ -4496,7 +4496,7 @@
     <row r="52" ht="130" customHeight="1">
       <c r="A52" s="3" t="inlineStr">
         <is>
-          <t>CM-3 (5),SI-6 d</t>
+          <t>SI-6 d,CM-3 (5)</t>
         </is>
       </c>
       <c r="B52" s="3" t="inlineStr">
@@ -4580,7 +4580,7 @@
     <row r="53" ht="130" customHeight="1">
       <c r="A53" s="3" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-12 a,AU-3 (1)</t>
+          <t>AU-3,MA-4 (1) (a),AU-12 a,AU-12 c,AU-3 (1)</t>
         </is>
       </c>
       <c r="B53" s="3" t="inlineStr">
@@ -4655,7 +4655,7 @@
     <row r="54" ht="130" customHeight="1">
       <c r="A54" s="3" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-12 a,AU-3 (1)</t>
+          <t>AU-3,MA-4 (1) (a),AU-12 a,AU-12 c,AU-3 (1)</t>
         </is>
       </c>
       <c r="B54" s="3" t="inlineStr">
@@ -4730,7 +4730,7 @@
     <row r="55" ht="130" customHeight="1">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-12 a,AU-3 (1)</t>
+          <t>AU-3,MA-4 (1) (a),AU-12 a,AU-12 c,AU-3 (1)</t>
         </is>
       </c>
       <c r="B55" s="3" t="inlineStr">
@@ -4805,7 +4805,7 @@
     <row r="56" ht="130" customHeight="1">
       <c r="A56" s="3" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-12 a,AU-3 (1)</t>
+          <t>AU-3,MA-4 (1) (a),AU-12 a,AU-12 c,AU-3 (1)</t>
         </is>
       </c>
       <c r="B56" s="3" t="inlineStr">
@@ -4880,7 +4880,7 @@
     <row r="57" ht="130" customHeight="1">
       <c r="A57" s="3" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-12 a,AU-3 (1)</t>
+          <t>AU-3,MA-4 (1) (a),AU-12 a,AU-12 c,AU-3 (1)</t>
         </is>
       </c>
       <c r="B57" s="3" t="inlineStr">
@@ -4955,7 +4955,7 @@
     <row r="58" ht="130" customHeight="1">
       <c r="A58" s="3" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-12 a,AU-3 (1)</t>
+          <t>AU-3,MA-4 (1) (a),AU-12 a,AU-12 c,AU-3 (1)</t>
         </is>
       </c>
       <c r="B58" s="3" t="inlineStr">
@@ -5030,7 +5030,7 @@
     <row r="59" ht="130" customHeight="1">
       <c r="A59" s="3" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-12 a,AU-3 (1)</t>
+          <t>AU-3,MA-4 (1) (a),AU-12 a,AU-12 c,AU-3 (1)</t>
         </is>
       </c>
       <c r="B59" s="3" t="inlineStr">
@@ -5105,7 +5105,7 @@
     <row r="60" ht="130" customHeight="1">
       <c r="A60" s="3" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-12 a,AU-3 (1)</t>
+          <t>AU-3,MA-4 (1) (a),AU-12 a,AU-12 c,AU-3 (1)</t>
         </is>
       </c>
       <c r="B60" s="3" t="inlineStr">
@@ -5180,7 +5180,7 @@
     <row r="61" ht="130" customHeight="1">
       <c r="A61" s="3" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-12 a,AU-3 (1)</t>
+          <t>AU-3,MA-4 (1) (a),AU-12 a,AU-12 c,AU-3 (1)</t>
         </is>
       </c>
       <c r="B61" s="3" t="inlineStr">
@@ -5255,7 +5255,7 @@
     <row r="62" ht="130" customHeight="1">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-12 a,AU-3 (1),AC-2 (4)</t>
+          <t>AU-3,MA-4 (1) (a),AU-12 a,AC-2 (4),AU-12 c,AU-3 (1)</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
@@ -5336,7 +5336,7 @@
     <row r="63" ht="130" customHeight="1">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-12 a,AU-3 (1),AC-2 (4)</t>
+          <t>AU-3,MA-4 (1) (a),AU-12 a,AC-2 (4),AU-12 c,AU-3 (1)</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
@@ -5417,7 +5417,7 @@
     <row r="64" ht="130" customHeight="1">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-12 a,AU-3 (1),AC-2 (4)</t>
+          <t>AU-3,MA-4 (1) (a),AU-12 a,AC-2 (4),AU-12 c,AU-3 (1)</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
@@ -5499,7 +5499,7 @@
     <row r="65" ht="130" customHeight="1">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-12 a,AU-3 (1),AC-2 (4)</t>
+          <t>AU-3,MA-4 (1) (a),AU-12 a,AC-2 (4),AU-12 c,AU-3 (1)</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
@@ -5581,7 +5581,7 @@
     <row r="66" ht="130" customHeight="1">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-12 a,AU-3 (1),AC-2 (4)</t>
+          <t>AU-3,MA-4 (1) (a),AU-12 a,AC-2 (4),AU-12 c,AU-3 (1)</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
@@ -5663,7 +5663,7 @@
     <row r="67" ht="130" customHeight="1">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-12 a,AU-3 (1),AC-2 (4)</t>
+          <t>AU-3,MA-4 (1) (a),AU-12 a,AC-2 (4),AU-12 c,AU-3 (1)</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
@@ -5745,7 +5745,7 @@
     <row r="68" ht="130" customHeight="1">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-12 a,AU-3 (1),AC-2 (4)</t>
+          <t>AU-3,MA-4 (1) (a),AU-12 a,AC-2 (4),AU-12 c,AU-3 (1)</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
@@ -5827,7 +5827,7 @@
     <row r="69" ht="130" customHeight="1">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>CM-3 (5),SI-6 a</t>
+          <t>SI-6 a,CM-3 (5)</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
@@ -6865,7 +6865,7 @@
     <row r="82" ht="130" customHeight="1">
       <c r="A82" s="3" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-12 a,AU-3 (1)</t>
+          <t>AU-3,MA-4 (1) (a),AU-12 a,AU-12 c,AU-3 (1)</t>
         </is>
       </c>
       <c r="B82" s="3" t="inlineStr">
@@ -6939,7 +6939,7 @@
     <row r="83" ht="130" customHeight="1">
       <c r="A83" s="3" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-12 a,AU-3 (1)</t>
+          <t>AU-3,MA-4 (1) (a),AU-12 a,AU-12 c,AU-3 (1)</t>
         </is>
       </c>
       <c r="B83" s="3" t="inlineStr">
@@ -7013,7 +7013,7 @@
     <row r="84" ht="130" customHeight="1">
       <c r="A84" s="3" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-12 a,AU-3 (1)</t>
+          <t>AU-3,MA-4 (1) (a),AU-12 a,AU-12 c,AU-3 (1)</t>
         </is>
       </c>
       <c r="B84" s="3" t="inlineStr">
@@ -7087,7 +7087,7 @@
     <row r="85" ht="130" customHeight="1">
       <c r="A85" s="3" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-12 a,AU-3 (1)</t>
+          <t>AU-3,MA-4 (1) (a),AU-12 a,AU-12 c,AU-3 (1)</t>
         </is>
       </c>
       <c r="B85" s="3" t="inlineStr">
@@ -7511,7 +7511,7 @@
     <row r="90" ht="130" customHeight="1">
       <c r="A90" s="3" t="inlineStr">
         <is>
-          <t>AU-9 (3),AU-9</t>
+          <t>AU-9,AU-9 (3)</t>
         </is>
       </c>
       <c r="B90" s="3" t="inlineStr">
@@ -7587,7 +7587,7 @@
     <row r="91" ht="130" customHeight="1">
       <c r="A91" s="3" t="inlineStr">
         <is>
-          <t>AU-9 (3),AU-9</t>
+          <t>AU-9,AU-9 (3)</t>
         </is>
       </c>
       <c r="B91" s="3" t="inlineStr">
@@ -7663,7 +7663,7 @@
     <row r="92" ht="130" customHeight="1">
       <c r="A92" s="3" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-12 a,AU-3 (1)</t>
+          <t>AU-3,MA-4 (1) (a),AU-12 a,AU-12 c,AU-3 (1)</t>
         </is>
       </c>
       <c r="B92" s="3" t="inlineStr">
@@ -7738,7 +7738,7 @@
     <row r="93" ht="130" customHeight="1">
       <c r="A93" s="3" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-12 a,AU-3 (1)</t>
+          <t>AU-3,MA-4 (1) (a),AU-12 a,AU-12 c,AU-3 (1)</t>
         </is>
       </c>
       <c r="B93" s="3" t="inlineStr">
@@ -7813,7 +7813,7 @@
     <row r="94" ht="130" customHeight="1">
       <c r="A94" s="3" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-12 a,AU-3 (1)</t>
+          <t>AU-3,MA-4 (1) (a),AU-12 a,AU-12 c,AU-3 (1)</t>
         </is>
       </c>
       <c r="B94" s="3" t="inlineStr">
@@ -7888,7 +7888,7 @@
     <row r="95" ht="130" customHeight="1">
       <c r="A95" s="3" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-12 a,AU-3 (1)</t>
+          <t>AU-3,MA-4 (1) (a),AU-12 a,AU-12 c,AU-3 (1)</t>
         </is>
       </c>
       <c r="B95" s="3" t="inlineStr">
@@ -7968,7 +7968,7 @@
     <row r="96" ht="130" customHeight="1">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-12 a,AU-3 (1)</t>
+          <t>AU-3,MA-4 (1) (a),AU-12 a,AU-12 c,AU-3 (1)</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
@@ -8050,7 +8050,7 @@
     <row r="97" ht="130" customHeight="1">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-12 a,AU-3 (1)</t>
+          <t>AU-3,MA-4 (1) (a),AU-12 a,AU-12 c,AU-3 (1)</t>
         </is>
       </c>
       <c r="B97" s="2" t="inlineStr">
@@ -8132,7 +8132,7 @@
     <row r="98" ht="130" customHeight="1">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-12 a,AU-3 (1)</t>
+          <t>AU-3,MA-4 (1) (a),AU-12 a,AU-12 c,AU-3 (1)</t>
         </is>
       </c>
       <c r="B98" s="2" t="inlineStr">
@@ -8214,7 +8214,7 @@
     <row r="99" ht="130" customHeight="1">
       <c r="A99" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-12 a,AU-3 (1)</t>
+          <t>AU-3,MA-4 (1) (a),AU-12 a,AU-12 c,AU-3 (1)</t>
         </is>
       </c>
       <c r="B99" s="2" t="inlineStr">
@@ -8296,7 +8296,7 @@
     <row r="100" ht="130" customHeight="1">
       <c r="A100" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-12 a,AU-3 (1)</t>
+          <t>AU-3,MA-4 (1) (a),AU-12 a,AU-12 c,AU-3 (1)</t>
         </is>
       </c>
       <c r="B100" s="2" t="inlineStr">
@@ -8378,7 +8378,7 @@
     <row r="101" ht="130" customHeight="1">
       <c r="A101" s="3" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-12 a,AU-3 (1)</t>
+          <t>AU-3,MA-4 (1) (a),AU-12 a,AU-12 c,AU-3 (1)</t>
         </is>
       </c>
       <c r="B101" s="3" t="inlineStr">
@@ -8458,7 +8458,7 @@
     <row r="102" ht="130" customHeight="1">
       <c r="A102" s="3" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-12 a,AU-3 (1)</t>
+          <t>AU-3,MA-4 (1) (a),AU-12 a,AU-12 c,AU-3 (1)</t>
         </is>
       </c>
       <c r="B102" s="3" t="inlineStr">
@@ -8538,7 +8538,7 @@
     <row r="103" ht="130" customHeight="1">
       <c r="A103" s="3" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-12 a,AU-3 (1)</t>
+          <t>AU-3,MA-4 (1) (a),AU-12 a,AU-12 c,AU-3 (1)</t>
         </is>
       </c>
       <c r="B103" s="3" t="inlineStr">
@@ -8789,7 +8789,7 @@
     <row r="106" ht="130" customHeight="1">
       <c r="A106" s="2" t="inlineStr">
         <is>
-          <t>AC-11 b,AC-6 (10)</t>
+          <t>AC-6 (10),AC-11 b</t>
         </is>
       </c>
       <c r="B106" s="2" t="inlineStr">
@@ -8868,7 +8868,7 @@
     <row r="107" ht="130" customHeight="1">
       <c r="A107" s="2" t="inlineStr">
         <is>
-          <t>AC-11 a,AC-11 b</t>
+          <t>AC-11 b,AC-11 a</t>
         </is>
       </c>
       <c r="B107" s="2" t="inlineStr">
@@ -8947,7 +8947,7 @@
     <row r="108" ht="130" customHeight="1">
       <c r="A108" s="2" t="inlineStr">
         <is>
-          <t>AC-11 a,AC-11 b</t>
+          <t>AC-11 b,AC-11 a</t>
         </is>
       </c>
       <c r="B108" s="2" t="inlineStr">
@@ -9034,7 +9034,7 @@
     <row r="109" ht="130" customHeight="1">
       <c r="A109" s="2" t="inlineStr">
         <is>
-          <t>AC-11 a,AC-11 b</t>
+          <t>AC-11 b,AC-11 a</t>
         </is>
       </c>
       <c r="B109" s="2" t="inlineStr">
@@ -9121,7 +9121,7 @@
     <row r="110" ht="130" customHeight="1">
       <c r="A110" s="3" t="inlineStr">
         <is>
-          <t>AC-11 a,AC-11 b</t>
+          <t>AC-11 b,AC-11 a</t>
         </is>
       </c>
       <c r="B110" s="3" t="inlineStr">
@@ -9366,7 +9366,7 @@
     <row r="113" ht="130" customHeight="1">
       <c r="A113" s="2" t="inlineStr">
         <is>
-          <t>SC-13,AC-17 (2),SC-8,MA-4 c</t>
+          <t>SC-13,AC-17 (2),MA-4 c,SC-8</t>
         </is>
       </c>
       <c r="B113" s="2" t="inlineStr">
@@ -9448,7 +9448,7 @@
     <row r="114" ht="130" customHeight="1">
       <c r="A114" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B114" s="2" t="inlineStr">
@@ -9526,7 +9526,7 @@
     <row r="115" ht="130" customHeight="1">
       <c r="A115" s="2" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-12 a,AU-3 (1)</t>
+          <t>AU-3,MA-4 (1) (a),AU-12 a,AU-12 c,AU-3 (1)</t>
         </is>
       </c>
       <c r="B115" s="2" t="inlineStr">
@@ -9604,7 +9604,7 @@
     <row r="116" ht="130" customHeight="1">
       <c r="A116" s="2" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B116" s="2" t="inlineStr">
@@ -9682,7 +9682,7 @@
     <row r="117" ht="130" customHeight="1">
       <c r="A117" s="3" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-12 a,AU-3 (1)</t>
+          <t>AU-3,MA-4 (1) (a),AU-12 a,AU-12 c,AU-3 (1)</t>
         </is>
       </c>
       <c r="B117" s="3" t="inlineStr">
@@ -9762,7 +9762,7 @@
     <row r="118" ht="130" customHeight="1">
       <c r="A118" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B118" s="3" t="inlineStr">
@@ -9831,7 +9831,7 @@
     <row r="119" ht="130" customHeight="1">
       <c r="A119" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B119" s="3" t="inlineStr">
@@ -9900,7 +9900,7 @@
     <row r="120" ht="130" customHeight="1">
       <c r="A120" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B120" s="3" t="inlineStr">
@@ -9969,7 +9969,7 @@
     <row r="121" ht="130" customHeight="1">
       <c r="A121" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B121" s="3" t="inlineStr">
@@ -10038,7 +10038,7 @@
     <row r="122" ht="130" customHeight="1">
       <c r="A122" s="3" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-12 a,AU-3 (1)</t>
+          <t>AU-3,MA-4 (1) (a),AU-12 a,AU-12 c,AU-3 (1)</t>
         </is>
       </c>
       <c r="B122" s="3" t="inlineStr">
@@ -10118,7 +10118,7 @@
     <row r="123" ht="130" customHeight="1">
       <c r="A123" s="2" t="inlineStr">
         <is>
-          <t>SC-28 (1),SC-28</t>
+          <t>SC-28,SC-28 (1)</t>
         </is>
       </c>
       <c r="B123" s="2" t="inlineStr">
@@ -10892,7 +10892,7 @@
     <row r="133" ht="130" customHeight="1">
       <c r="A133" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,AC-6 (10)</t>
+          <t>AC-6 (10),CM-6 b</t>
         </is>
       </c>
       <c r="B133" s="2" t="inlineStr">
@@ -10973,7 +10973,7 @@
     <row r="134" ht="130" customHeight="1">
       <c r="A134" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,AC-6 (10)</t>
+          <t>AC-6 (10),CM-6 b</t>
         </is>
       </c>
       <c r="B134" s="2" t="inlineStr">
@@ -11059,7 +11059,7 @@
     <row r="135" ht="130" customHeight="1">
       <c r="A135" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,AC-6 (10)</t>
+          <t>AC-6 (10),CM-6 b</t>
         </is>
       </c>
       <c r="B135" s="2" t="inlineStr">
@@ -11425,7 +11425,7 @@
     <row r="139" ht="130" customHeight="1">
       <c r="A139" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B139" s="3" t="inlineStr">
@@ -11505,7 +11505,7 @@
     <row r="140" ht="130" customHeight="1">
       <c r="A140" s="3" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-12 a,AU-3 (1)</t>
+          <t>AU-3,MA-4 (1) (a),AU-12 a,AU-12 c,AU-3 (1)</t>
         </is>
       </c>
       <c r="B140" s="3" t="inlineStr">
@@ -11585,7 +11585,7 @@
     <row r="141" ht="130" customHeight="1">
       <c r="A141" s="3" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-12 a,AU-3 (1)</t>
+          <t>AU-3,MA-4 (1) (a),AU-12 a,AU-12 c,AU-3 (1)</t>
         </is>
       </c>
       <c r="B141" s="3" t="inlineStr">
@@ -11665,7 +11665,7 @@
     <row r="142" ht="130" customHeight="1">
       <c r="A142" s="3" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-12 a,AU-3 (1)</t>
+          <t>AU-3,MA-4 (1) (a),AU-12 a,AU-12 c,AU-3 (1)</t>
         </is>
       </c>
       <c r="B142" s="3" t="inlineStr">
@@ -11977,7 +11977,7 @@
     <row r="146" ht="130" customHeight="1">
       <c r="A146" s="2" t="inlineStr">
         <is>
-          <t>IA-7,IA-5 (1) (c)</t>
+          <t>IA-5 (1) (c),IA-7</t>
         </is>
       </c>
       <c r="B146" s="2" t="inlineStr">
@@ -12287,7 +12287,7 @@
     <row r="150" ht="130" customHeight="1">
       <c r="A150" s="2" t="inlineStr">
         <is>
-          <t>AC-11 a,AC-11 (1)</t>
+          <t>AC-11 (1),AC-11 a</t>
         </is>
       </c>
       <c r="B150" s="2" t="inlineStr">
@@ -12766,7 +12766,7 @@
     <row r="156" ht="130" customHeight="1">
       <c r="A156" s="2" t="inlineStr">
         <is>
-          <t>IA-7,CM-7 a</t>
+          <t>CM-7 a,IA-7</t>
         </is>
       </c>
       <c r="B156" s="2" t="inlineStr">
@@ -12845,7 +12845,7 @@
     <row r="157" ht="130" customHeight="1">
       <c r="A157" s="3" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-12 a,AU-3 (1)</t>
+          <t>AU-3,MA-4 (1) (a),AU-12 a,AU-12 c,AU-3 (1)</t>
         </is>
       </c>
       <c r="B157" s="3" t="inlineStr">
@@ -12922,7 +12922,7 @@
     <row r="158" ht="130" customHeight="1">
       <c r="A158" s="3" t="inlineStr">
         <is>
-          <t>AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
+          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a</t>
         </is>
       </c>
       <c r="B158" s="3" t="inlineStr">
@@ -12995,7 +12995,7 @@
     <row r="159" ht="130" customHeight="1">
       <c r="A159" s="3" t="inlineStr">
         <is>
-          <t>AU-12 a,AU-12 c,MA-4 (1) (a),AU-3</t>
+          <t>MA-4 (1) (a),AU-12 c,AU-3,AU-12 a</t>
         </is>
       </c>
       <c r="B159" s="3" t="inlineStr">
@@ -13068,7 +13068,7 @@
     <row r="160" ht="130" customHeight="1">
       <c r="A160" s="3" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-12 a,AU-3 (1)</t>
+          <t>AU-3,MA-4 (1) (a),AU-12 a,AU-12 c,AU-3 (1)</t>
         </is>
       </c>
       <c r="B160" s="3" t="inlineStr">
@@ -13153,7 +13153,7 @@
     <row r="161" ht="130" customHeight="1">
       <c r="A161" s="3" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-12 a,AU-3 (1)</t>
+          <t>AU-3,MA-4 (1) (a),AU-12 a,AU-12 c,AU-3 (1)</t>
         </is>
       </c>
       <c r="B161" s="3" t="inlineStr">
@@ -13228,7 +13228,7 @@
     <row r="162" ht="130" customHeight="1">
       <c r="A162" s="3" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-12 a,AU-3 (1)</t>
+          <t>AU-3,MA-4 (1) (a),AU-12 a,AU-12 c,AU-3 (1)</t>
         </is>
       </c>
       <c r="B162" s="3" t="inlineStr">
@@ -13303,7 +13303,7 @@
     <row r="163" ht="130" customHeight="1">
       <c r="A163" s="3" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-12 a,AU-3 (1)</t>
+          <t>AU-3,MA-4 (1) (a),AU-12 a,AU-12 c,AU-3 (1)</t>
         </is>
       </c>
       <c r="B163" s="3" t="inlineStr">
@@ -13378,7 +13378,7 @@
     <row r="164" ht="130" customHeight="1">
       <c r="A164" s="3" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-12 a,AU-3 (1)</t>
+          <t>AU-3,MA-4 (1) (a),AU-12 a,AU-12 c,AU-3 (1)</t>
         </is>
       </c>
       <c r="B164" s="3" t="inlineStr">
@@ -13453,7 +13453,7 @@
     <row r="165" ht="130" customHeight="1">
       <c r="A165" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B165" s="3" t="inlineStr">
@@ -13524,7 +13524,7 @@
     <row r="166" ht="130" customHeight="1">
       <c r="A166" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B166" s="3" t="inlineStr">
@@ -13595,7 +13595,7 @@
     <row r="167" ht="130" customHeight="1">
       <c r="A167" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B167" s="3" t="inlineStr">
@@ -13667,7 +13667,7 @@
     <row r="168" ht="130" customHeight="1">
       <c r="A168" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B168" s="3" t="inlineStr">
@@ -13738,7 +13738,7 @@
     <row r="169" ht="130" customHeight="1">
       <c r="A169" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B169" s="3" t="inlineStr">
@@ -13809,7 +13809,7 @@
     <row r="170" ht="130" customHeight="1">
       <c r="A170" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B170" s="3" t="inlineStr">
@@ -13881,7 +13881,7 @@
     <row r="171" ht="130" customHeight="1">
       <c r="A171" s="3" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-12 a,AU-3 (1)</t>
+          <t>AU-3,MA-4 (1) (a),AU-12 a,AU-12 c,AU-3 (1)</t>
         </is>
       </c>
       <c r="B171" s="3" t="inlineStr">
@@ -13956,7 +13956,7 @@
     <row r="172" ht="130" customHeight="1">
       <c r="A172" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B172" s="3" t="inlineStr">
@@ -14027,7 +14027,7 @@
     <row r="173" ht="130" customHeight="1">
       <c r="A173" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B173" s="3" t="inlineStr">
@@ -14098,7 +14098,7 @@
     <row r="174" ht="130" customHeight="1">
       <c r="A174" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B174" s="3" t="inlineStr">
@@ -14170,7 +14170,7 @@
     <row r="175" ht="130" customHeight="1">
       <c r="A175" s="3" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-12 a,AU-3 (1)</t>
+          <t>AU-3,MA-4 (1) (a),AU-12 a,AU-12 c,AU-3 (1)</t>
         </is>
       </c>
       <c r="B175" s="3" t="inlineStr">
@@ -14245,7 +14245,7 @@
     <row r="176" ht="130" customHeight="1">
       <c r="A176" s="3" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-12 a,AU-3 (1)</t>
+          <t>AU-3,MA-4 (1) (a),AU-12 a,AU-12 c,AU-3 (1)</t>
         </is>
       </c>
       <c r="B176" s="3" t="inlineStr">
@@ -14327,7 +14327,7 @@
     <row r="177" ht="130" customHeight="1">
       <c r="A177" s="3" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-12 a,AU-3 (1)</t>
+          <t>AU-3,MA-4 (1) (a),AU-12 a,AU-12 c,AU-3 (1)</t>
         </is>
       </c>
       <c r="B177" s="3" t="inlineStr">
@@ -14409,7 +14409,7 @@
     <row r="178" ht="130" customHeight="1">
       <c r="A178" s="3" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-12 a,AU-3 (1)</t>
+          <t>AU-3,MA-4 (1) (a),AU-12 a,AU-12 c,AU-3 (1)</t>
         </is>
       </c>
       <c r="B178" s="3" t="inlineStr">
@@ -14491,7 +14491,7 @@
     <row r="179" ht="130" customHeight="1">
       <c r="A179" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),MA-4 (1) (a),AU-3</t>
+          <t>AU-3 (1),AU-3,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B179" s="3" t="inlineStr">
@@ -14573,7 +14573,7 @@
     <row r="180" ht="130" customHeight="1">
       <c r="A180" s="3" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-12 a,AU-3 (1)</t>
+          <t>AU-3,MA-4 (1) (a),AU-12 a,AU-12 c,AU-3 (1)</t>
         </is>
       </c>
       <c r="B180" s="3" t="inlineStr">
@@ -14655,7 +14655,7 @@
     <row r="181" ht="130" customHeight="1">
       <c r="A181" s="3" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-12 a,AU-3 (1)</t>
+          <t>AU-3,MA-4 (1) (a),AU-12 a,AU-12 c,AU-3 (1)</t>
         </is>
       </c>
       <c r="B181" s="3" t="inlineStr">
@@ -14737,7 +14737,7 @@
     <row r="182" ht="130" customHeight="1">
       <c r="A182" s="3" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-12 a,AU-3 (1)</t>
+          <t>AU-3,MA-4 (1) (a),AU-12 a,AU-12 c,AU-3 (1)</t>
         </is>
       </c>
       <c r="B182" s="3" t="inlineStr">
@@ -14819,7 +14819,7 @@
     <row r="183" ht="130" customHeight="1">
       <c r="A183" s="3" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-12 a,AU-3 (1)</t>
+          <t>AU-3,MA-4 (1) (a),AU-12 a,AU-12 c,AU-3 (1)</t>
         </is>
       </c>
       <c r="B183" s="3" t="inlineStr">
@@ -14901,7 +14901,7 @@
     <row r="184" ht="130" customHeight="1">
       <c r="A184" s="3" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-12 a,AU-3 (1)</t>
+          <t>AU-3,MA-4 (1) (a),AU-12 a,AU-12 c,AU-3 (1)</t>
         </is>
       </c>
       <c r="B184" s="3" t="inlineStr">
@@ -14983,7 +14983,7 @@
     <row r="185" ht="130" customHeight="1">
       <c r="A185" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),MA-4 (1) (a),AU-12 c</t>
+          <t>AU-12 c,AU-3 (1),MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B185" s="3" t="inlineStr">
@@ -15061,7 +15061,7 @@
     <row r="186" ht="130" customHeight="1">
       <c r="A186" s="3" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-12 a,AU-3 (1)</t>
+          <t>AU-3,MA-4 (1) (a),AU-12 a,AU-12 c,AU-3 (1)</t>
         </is>
       </c>
       <c r="B186" s="3" t="inlineStr">
@@ -15140,7 +15140,7 @@
     <row r="187" ht="130" customHeight="1">
       <c r="A187" s="3" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-12 a,AU-3 (1)</t>
+          <t>AU-3,MA-4 (1) (a),AU-12 a,AU-12 c,AU-3 (1)</t>
         </is>
       </c>
       <c r="B187" s="3" t="inlineStr">
@@ -15222,7 +15222,7 @@
     <row r="188" ht="130" customHeight="1">
       <c r="A188" s="3" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-12 a,AU-3 (1)</t>
+          <t>AU-3,MA-4 (1) (a),AU-12 a,AU-12 c,AU-3 (1)</t>
         </is>
       </c>
       <c r="B188" s="3" t="inlineStr">
@@ -15304,7 +15304,7 @@
     <row r="189" ht="130" customHeight="1">
       <c r="A189" s="3" t="inlineStr">
         <is>
-          <t>AU-3 (1),AU-12 c,MA-4 (1) (a),AU-3</t>
+          <t>AU-12 c,AU-3 (1),AU-3,MA-4 (1) (a)</t>
         </is>
       </c>
       <c r="B189" s="3" t="inlineStr">
@@ -15386,7 +15386,7 @@
     <row r="190" ht="130" customHeight="1">
       <c r="A190" s="3" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-12 a,AU-3 (1)</t>
+          <t>AU-3,MA-4 (1) (a),AU-12 a,AU-12 c,AU-3 (1)</t>
         </is>
       </c>
       <c r="B190" s="3" t="inlineStr">
@@ -15468,7 +15468,7 @@
     <row r="191" ht="130" customHeight="1">
       <c r="A191" s="3" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-12 a,AU-3 (1)</t>
+          <t>AU-3,AU-12 a,MA-4 (1) (a),AU-12 c,AU-3 (1)</t>
         </is>
       </c>
       <c r="B191" s="3" t="inlineStr">
@@ -15550,7 +15550,7 @@
     <row r="192" ht="130" customHeight="1">
       <c r="A192" s="3" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-12 a,AU-3 (1)</t>
+          <t>AU-3,MA-4 (1) (a),AU-12 a,AU-12 c,AU-3 (1)</t>
         </is>
       </c>
       <c r="B192" s="3" t="inlineStr">
@@ -15632,7 +15632,7 @@
     <row r="193" ht="130" customHeight="1">
       <c r="A193" s="3" t="inlineStr">
         <is>
-          <t>AU-3,MA-4 (1) (a),AU-12 c,AU-12 a,AU-3 (1)</t>
+          <t>AU-3,MA-4 (1) (a),AU-12 a,AU-12 c,AU-3 (1)</t>
         </is>
       </c>
       <c r="B193" s="3" t="inlineStr">
@@ -15707,7 +15707,7 @@
     <row r="194" ht="130" customHeight="1">
       <c r="A194" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (4),IA-2 (1),IA-2 (3),IA-2 (2)</t>
+          <t>IA-2 (1),IA-2 (4),IA-2 (3),IA-2 (2)</t>
         </is>
       </c>
       <c r="B194" s="2" t="inlineStr">
@@ -15794,7 +15794,7 @@
     <row r="195" ht="130" customHeight="1">
       <c r="A195" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (4),IA-2 (3),IA-2 (2),IA-2 (5),IA-2</t>
+          <t>IA-2 (5),IA-2,IA-2 (4),IA-2 (3),IA-2 (2)</t>
         </is>
       </c>
       <c r="B195" s="2" t="inlineStr">
@@ -15883,7 +15883,7 @@
     <row r="196" ht="130" customHeight="1">
       <c r="A196" s="2" t="inlineStr">
         <is>
-          <t>IA-2 (4),IA-2 (3),IA-2 (2),IA-2 (5),IA-2</t>
+          <t>IA-2 (5),IA-2,IA-2 (4),IA-2 (3),IA-2 (2)</t>
         </is>
       </c>
       <c r="B196" s="2" t="inlineStr">
@@ -16507,7 +16507,7 @@
     <row r="204" ht="130" customHeight="1">
       <c r="A204" s="2" t="inlineStr">
         <is>
-          <t>SC-8 (1),SC-8 (2),SC-8</t>
+          <t>SC-8 (2),SC-8 (1),SC-8</t>
         </is>
       </c>
       <c r="B204" s="2" t="inlineStr">
@@ -16584,7 +16584,7 @@
     <row r="205" ht="130" customHeight="1">
       <c r="A205" s="2" t="inlineStr">
         <is>
-          <t>SC-8 (1),SC-8 (2),SC-8</t>
+          <t>SC-8 (2),SC-8 (1),SC-8</t>
         </is>
       </c>
       <c r="B205" s="2" t="inlineStr">
@@ -16670,7 +16670,7 @@
     <row r="206" ht="130" customHeight="1">
       <c r="A206" s="2" t="inlineStr">
         <is>
-          <t>AC-18 (1),SC-8 (1),SC-8</t>
+          <t>SC-8,SC-8 (1),AC-18 (1)</t>
         </is>
       </c>
       <c r="B206" s="2" t="inlineStr">
@@ -16756,7 +16756,7 @@
     <row r="207" ht="130" customHeight="1">
       <c r="A207" s="2" t="inlineStr">
         <is>
-          <t>AC-11 a,AC-11 (1)</t>
+          <t>AC-11 (1),AC-11 a</t>
         </is>
       </c>
       <c r="B207" s="2" t="inlineStr">
@@ -16845,7 +16845,7 @@
     <row r="208" ht="130" customHeight="1">
       <c r="A208" s="2" t="inlineStr">
         <is>
-          <t>AC-11 a,AC-11 (1)</t>
+          <t>AC-11 (1),AC-11 a</t>
         </is>
       </c>
       <c r="B208" s="2" t="inlineStr">
@@ -17098,7 +17098,7 @@
     <row r="211" ht="130" customHeight="1">
       <c r="A211" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,IA-5 (1) (c),CM-7 a</t>
+          <t>CM-7 a,CM-6 b,IA-5 (1) (c)</t>
         </is>
       </c>
       <c r="B211" s="2" t="inlineStr">
@@ -17258,7 +17258,7 @@
     <row r="213" ht="130" customHeight="1">
       <c r="A213" s="2" t="inlineStr">
         <is>
-          <t>AU-12 a,CM-6 b</t>
+          <t>CM-6 b,AU-12 a</t>
         </is>
       </c>
       <c r="B213" s="2" t="inlineStr">
@@ -17529,7 +17529,7 @@
     <row r="216" ht="130" customHeight="1">
       <c r="A216" s="2" t="inlineStr">
         <is>
-          <t>SI-16,CM-7 a</t>
+          <t>CM-7 a,SI-16</t>
         </is>
       </c>
       <c r="B216" s="2" t="inlineStr">
@@ -17719,7 +17719,7 @@
     <row r="218" ht="130" customHeight="1">
       <c r="A218" s="2" t="inlineStr">
         <is>
-          <t>IA-8,IA-2,AU-3 (1)</t>
+          <t>IA-2,AU-3 (1),IA-8</t>
         </is>
       </c>
       <c r="B218" s="2" t="inlineStr">
@@ -18690,7 +18690,7 @@
     <row r="230" ht="130" customHeight="1">
       <c r="A230" s="2" t="inlineStr">
         <is>
-          <t>SC-2,SI-16,CM-6 b</t>
+          <t>CM-6 b,SC-2,SI-16</t>
         </is>
       </c>
       <c r="B230" s="2" t="inlineStr">
@@ -18874,7 +18874,7 @@
     <row r="232" ht="130" customHeight="1">
       <c r="A232" s="2" t="inlineStr">
         <is>
-          <t>SI-16,SC-3</t>
+          <t>SC-3,SI-16</t>
         </is>
       </c>
       <c r="B232" s="2" t="inlineStr">
@@ -19036,7 +19036,7 @@
     <row r="234" ht="130" customHeight="1">
       <c r="A234" s="2" t="inlineStr">
         <is>
-          <t>AC-18 (1),CM-7 a</t>
+          <t>CM-7 a,AC-18 (1)</t>
         </is>
       </c>
       <c r="B234" s="2" t="inlineStr">
@@ -19519,44 +19519,44 @@
       <c r="Q239" s="2" t="n"/>
     </row>
     <row r="240" ht="130" customHeight="1">
-      <c r="A240" s="3" t="inlineStr">
+      <c r="A240" s="2" t="inlineStr">
         <is>
           <t>IA-5 (1) (b)</t>
         </is>
       </c>
-      <c r="B240" s="3" t="inlineStr">
+      <c r="B240" s="2" t="inlineStr">
         <is>
           <t>CCI-000195</t>
         </is>
       </c>
-      <c r="C240" s="3" t="inlineStr">
+      <c r="C240" s="2" t="inlineStr">
         <is>
           <t>SRG-OS-000072-GPOS-00040</t>
         </is>
       </c>
-      <c r="D240" s="3" t="inlineStr">
+      <c r="D240" s="2" t="inlineStr">
         <is>
           <t>CCE-83564-5</t>
         </is>
       </c>
-      <c r="E240" s="3" t="inlineStr">
+      <c r="E240" s="2" t="inlineStr">
         <is>
           <t>The operating system must require the change of at least 50% of the total number of characters when passwords are changed.</t>
         </is>
       </c>
-      <c r="F240" s="3" t="inlineStr">
+      <c r="F240" s="2" t="inlineStr">
         <is>
           <t>Red Hat Enterprise Linux 9 Must Require The Change Of At Least 50% Of The Total Number Of Characters When Passwords Are Changed.</t>
         </is>
       </c>
-      <c r="G240" s="3" t="inlineStr">
+      <c r="G240" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> If the operating system allows the user to consecutively reuse extensive portions of passwords, this increases the chances of password compromise by increasing the window of opportunity for attempts at guessing and brute-force attacks.
 The number of changed characters refers to the number of changes required with respect to the total number of positions in the current password. In other words, characters may be the same within the two passwords; however, the positions of the like characters must be different.
 If the password length is an odd number then number of changed characters must be rounded up.  For example, a password length of 15 characters must require the change of at least 8 characters.</t>
         </is>
       </c>
-      <c r="H240" s="3" t="inlineStr">
+      <c r="H240" s="2" t="inlineStr">
         <is>
           <t>Use of a complex password helps to increase the time and resources
 required to compromise the password. Password complexity, or strength,
@@ -19571,39 +19571,46 @@
 Note that passwords which are changed on compromised systems will still be compromised, however.</t>
         </is>
       </c>
-      <c r="I240" s="3" t="inlineStr">
-        <is>
-          <t>Applicable - Configurable</t>
-        </is>
-      </c>
-      <c r="J240" s="3" t="inlineStr">
+      <c r="I240" s="2" t="inlineStr">
+        <is>
+          <t>Applicable - Configurable</t>
+        </is>
+      </c>
+      <c r="J240" s="2" t="inlineStr">
         <is>
           <t>Verify the operating system requires the change of at least eight of the total number of characters when passwords are changed. If it does not, this is a finding.</t>
         </is>
       </c>
-      <c r="K240" s="3" t="inlineStr">
+      <c r="K240" s="2" t="inlineStr">
         <is>
           <t>To check how many characters must differ during a password change, run the following command:
- $ grep difok /etc/security/pwquality.conf 
+ $ sudo grep difok /etc/security/pwquality.conf
+difok = 8
 The "difok" parameter will indicate how many characters must differ.
-If difok is not found or not equal to or greater than the required value, then this is a finding.</t>
-        </is>
-      </c>
-      <c r="L240" s="3" t="n"/>
-      <c r="M240" s="3" t="inlineStr"/>
-      <c r="N240" s="3" t="inlineStr">
-        <is>
-          <t>CAT II</t>
-        </is>
-      </c>
-      <c r="O240" s="3" t="n"/>
-      <c r="P240" s="3" t="n"/>
-      <c r="Q240" s="3" t="n"/>
+If difok is not found or set to less than the required value, then this is a finding.</t>
+        </is>
+      </c>
+      <c r="L240" s="2" t="n"/>
+      <c r="M240" s="2" t="inlineStr">
+        <is>
+          <t>Configure Red Hat Enterprise Linux 9 to require the change of at least 8 of the total number of characters when passwords are changed by setting the "difok" option.
+Add the following line to "/etc/security/pwquality.conf" (or modify the line to have the required value):
+difok = 8</t>
+        </is>
+      </c>
+      <c r="N240" s="2" t="inlineStr">
+        <is>
+          <t>CAT II</t>
+        </is>
+      </c>
+      <c r="O240" s="2" t="n"/>
+      <c r="P240" s="2" t="n"/>
+      <c r="Q240" s="2" t="n"/>
     </row>
     <row r="241" ht="130" customHeight="1">
       <c r="A241" s="2" t="inlineStr">
         <is>
-          <t>IA-5 (1) (a),CM-6 b,IA-5 (1) (b)</t>
+          <t>CM-6 b,IA-5 (1) (b),IA-5 (1) (a)</t>
         </is>
       </c>
       <c r="B241" s="2" t="inlineStr">
@@ -19684,46 +19691,46 @@
       <c r="Q241" s="2" t="n"/>
     </row>
     <row r="242" ht="130" customHeight="1">
-      <c r="A242" s="3" t="inlineStr">
+      <c r="A242" s="2" t="inlineStr">
         <is>
           <t>IA-5 (1) (b)</t>
         </is>
       </c>
-      <c r="B242" s="3" t="inlineStr">
+      <c r="B242" s="2" t="inlineStr">
         <is>
           <t>CCI-000195</t>
         </is>
       </c>
-      <c r="C242" s="3" t="inlineStr">
+      <c r="C242" s="2" t="inlineStr">
         <is>
           <t>SRG-OS-000072-GPOS-00040</t>
         </is>
       </c>
-      <c r="D242" s="3" t="inlineStr">
+      <c r="D242" s="2" t="inlineStr">
         <is>
           <t>CCE-83575-1</t>
         </is>
       </c>
-      <c r="E242" s="3" t="inlineStr">
+      <c r="E242" s="2" t="inlineStr">
         <is>
           <t>The operating system must require the change of at least 50% of the total number of characters when passwords are changed.</t>
         </is>
       </c>
-      <c r="F242" s="3" t="inlineStr">
+      <c r="F242" s="2" t="inlineStr">
         <is>
           <t>Red Hat Enterprise Linux 9 Must Require The Change Of At Least 50% Of The Total Number Of Characters When Passwords Are Changed.</t>
         </is>
       </c>
-      <c r="G242" s="3" t="inlineStr">
+      <c r="G242" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> If the operating system allows the user to consecutively reuse extensive portions of passwords, this increases the chances of password compromise by increasing the window of opportunity for attempts at guessing and brute-force attacks.
 The number of changed characters refers to the number of changes required with respect to the total number of positions in the current password. In other words, characters may be the same within the two passwords; however, the positions of the like characters must be different.
 If the password length is an odd number then number of changed characters must be rounded up.  For example, a password length of 15 characters must require the change of at least 8 characters.</t>
         </is>
       </c>
-      <c r="H242" s="3" t="inlineStr">
-        <is>
-          <t>Use of a complex password helps to increase the time and resources required to comrpomise the password.
+      <c r="H242" s="2" t="inlineStr">
+        <is>
+          <t>Use of a complex password helps to increase the time and resources required to compromise the password.
 Password complexity, or strength, is a measure of the effectiveness of a password in resisting
 attempts at guessing and brute-force attacks.
 Password complexity is one factor of several that determines how long it takes to crack a password. The
@@ -19731,74 +19738,79 @@
 password is compromised.</t>
         </is>
       </c>
-      <c r="I242" s="3" t="inlineStr">
-        <is>
-          <t>Applicable - Configurable</t>
-        </is>
-      </c>
-      <c r="J242" s="3" t="inlineStr">
+      <c r="I242" s="2" t="inlineStr">
+        <is>
+          <t>Applicable - Configurable</t>
+        </is>
+      </c>
+      <c r="J242" s="2" t="inlineStr">
         <is>
           <t>Verify the operating system requires the change of at least eight of the total number of characters when passwords are changed. If it does not, this is a finding.</t>
         </is>
       </c>
-      <c r="K242" s="3" t="inlineStr">
+      <c r="K242" s="2" t="inlineStr">
         <is>
           <t>To check the value for maximum consecutive repeating characters, run the following command:
- $ grep maxclassrepeat /etc/security/pwquality.conf 
-For DoD systems, the output should show "maxclassrepeat"=4 or less but greater than zero.
-If that is not the case, then this is a finding.</t>
-        </is>
-      </c>
-      <c r="L242" s="3" t="n"/>
-      <c r="M242" s="3" t="inlineStr"/>
-      <c r="N242" s="3" t="inlineStr">
-        <is>
-          <t>CAT II</t>
-        </is>
-      </c>
-      <c r="O242" s="3" t="n"/>
-      <c r="P242" s="3" t="n"/>
-      <c r="Q242" s="3" t="n"/>
+ $ sudo grep maxclassrepeat /etc/security/pwquality.conf 
+If the value of "maxclassrepeat" is set to "0", more than "4" or is commented out, then this is a finding.</t>
+        </is>
+      </c>
+      <c r="L242" s="2" t="n"/>
+      <c r="M242" s="2" t="inlineStr">
+        <is>
+          <t>Configure Red Hat Enterprise Linux 9 to require the change of the number of repeating characters of the same character class when passwords are changed by setting the "maxclassrepeat" option.
+Add the following line to "/etc/security/pwquality.conf" conf (or modify the line to have the required value):
+maxclassrepeat = 4</t>
+        </is>
+      </c>
+      <c r="N242" s="2" t="inlineStr">
+        <is>
+          <t>CAT II</t>
+        </is>
+      </c>
+      <c r="O242" s="2" t="n"/>
+      <c r="P242" s="2" t="n"/>
+      <c r="Q242" s="2" t="n"/>
     </row>
     <row r="243" ht="130" customHeight="1">
-      <c r="A243" s="3" t="inlineStr">
+      <c r="A243" s="2" t="inlineStr">
         <is>
           <t>IA-5 (1) (b)</t>
         </is>
       </c>
-      <c r="B243" s="3" t="inlineStr">
+      <c r="B243" s="2" t="inlineStr">
         <is>
           <t>CCI-000195</t>
         </is>
       </c>
-      <c r="C243" s="3" t="inlineStr">
+      <c r="C243" s="2" t="inlineStr">
         <is>
           <t>SRG-OS-000072-GPOS-00040</t>
         </is>
       </c>
-      <c r="D243" s="3" t="inlineStr">
+      <c r="D243" s="2" t="inlineStr">
         <is>
           <t>CCE-83567-8</t>
         </is>
       </c>
-      <c r="E243" s="3" t="inlineStr">
+      <c r="E243" s="2" t="inlineStr">
         <is>
           <t>The operating system must require the change of at least 50% of the total number of characters when passwords are changed.</t>
         </is>
       </c>
-      <c r="F243" s="3" t="inlineStr">
+      <c r="F243" s="2" t="inlineStr">
         <is>
           <t>Red Hat Enterprise Linux 9 Must Require The Change Of At Least 50% Of The Total Number Of Characters When Passwords Are Changed.</t>
         </is>
       </c>
-      <c r="G243" s="3" t="inlineStr">
+      <c r="G243" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> If the operating system allows the user to consecutively reuse extensive portions of passwords, this increases the chances of password compromise by increasing the window of opportunity for attempts at guessing and brute-force attacks.
 The number of changed characters refers to the number of changes required with respect to the total number of positions in the current password. In other words, characters may be the same within the two passwords; however, the positions of the like characters must be different.
 If the password length is an odd number then number of changed characters must be rounded up.  For example, a password length of 15 characters must require the change of at least 8 characters.</t>
         </is>
       </c>
-      <c r="H243" s="3" t="inlineStr">
+      <c r="H243" s="2" t="inlineStr">
         <is>
           <t>Use of a complex password helps to increase the time and resources required to compromise the password.
 Password complexity, or strength, is a measure of the effectiveness of a password in resisting attempts at
@@ -19809,75 +19821,79 @@
 Passwords with excessive repeating characters may be more vulnerable to password-guessing attacks.</t>
         </is>
       </c>
-      <c r="I243" s="3" t="inlineStr">
-        <is>
-          <t>Applicable - Configurable</t>
-        </is>
-      </c>
-      <c r="J243" s="3" t="inlineStr">
+      <c r="I243" s="2" t="inlineStr">
+        <is>
+          <t>Applicable - Configurable</t>
+        </is>
+      </c>
+      <c r="J243" s="2" t="inlineStr">
         <is>
           <t>Verify the operating system requires the change of at least eight of the total number of characters when passwords are changed. If it does not, this is a finding.</t>
         </is>
       </c>
-      <c r="K243" s="3" t="inlineStr">
+      <c r="K243" s="2" t="inlineStr">
         <is>
           <t>To check the maximum value for consecutive repeating characters, run the following command:
- $ grep maxrepeat /etc/security/pwquality.conf 
-Look for the value of the "maxrepeat" parameter. The DoD requirement is 3, which would appear as
-"maxrepeat=3".
-If maxrepeat is not found or not greater than or equal to the required value, then this is a finding.</t>
-        </is>
-      </c>
-      <c r="L243" s="3" t="n"/>
-      <c r="M243" s="3" t="inlineStr"/>
-      <c r="N243" s="3" t="inlineStr">
-        <is>
-          <t>CAT II</t>
-        </is>
-      </c>
-      <c r="O243" s="3" t="n"/>
-      <c r="P243" s="3" t="n"/>
-      <c r="Q243" s="3" t="n"/>
+ $ sudo grep maxrepeat /etc/security/pwquality.conf 
+If the value of "maxrepeat" is set to more than "3" or is commented out, then this is a finding.</t>
+        </is>
+      </c>
+      <c r="L243" s="2" t="n"/>
+      <c r="M243" s="2" t="inlineStr">
+        <is>
+          <t>Configure Red Hat Enterprise Linux 9 to require the change of the number of repeating consecutive characters when passwords are changed by setting the "maxrepeat" option.
+Add the following line to "/etc/security/pwquality.conf" (or modify the line to have the required value):
+maxrepeat = 3</t>
+        </is>
+      </c>
+      <c r="N243" s="2" t="inlineStr">
+        <is>
+          <t>CAT II</t>
+        </is>
+      </c>
+      <c r="O243" s="2" t="n"/>
+      <c r="P243" s="2" t="n"/>
+      <c r="Q243" s="2" t="n"/>
     </row>
     <row r="244" ht="130" customHeight="1">
-      <c r="A244" s="3" t="inlineStr">
+      <c r="A244" s="2" t="inlineStr">
         <is>
           <t>IA-5 (1) (b)</t>
         </is>
       </c>
-      <c r="B244" s="3" t="inlineStr">
+      <c r="B244" s="2" t="inlineStr">
         <is>
           <t>CCI-000195</t>
         </is>
       </c>
-      <c r="C244" s="3" t="inlineStr">
+      <c r="C244" s="2" t="inlineStr">
         <is>
           <t>SRG-OS-000072-GPOS-00040</t>
         </is>
       </c>
-      <c r="D244" s="3" t="inlineStr">
+      <c r="D244" s="2" t="inlineStr">
         <is>
           <t>CCE-83563-7</t>
         </is>
       </c>
-      <c r="E244" s="3" t="inlineStr">
+      <c r="E244" s="2" t="inlineStr">
         <is>
           <t>The operating system must require the change of at least 50% of the total number of characters when passwords are changed.</t>
         </is>
       </c>
-      <c r="F244" s="3" t="inlineStr">
+      <c r="F244" s="2" t="inlineStr">
         <is>
           <t>Red Hat Enterprise Linux 9 Must Require The Change Of At Least 50% Of The Total Number Of Characters When Passwords Are Changed.</t>
         </is>
       </c>
-      <c r="G244" s="3" t="inlineStr">
+      <c r="G244" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> If the operating system allows the user to consecutively reuse extensive portions of passwords, this increases the chances of password compromise by increasing the window of opportunity for attempts at guessing and brute-force attacks.
 The number of changed characters refers to the number of changes required with respect to the total number of positions in the current password. In other words, characters may be the same within the two passwords; however, the positions of the like characters must be different.
 If the password length is an odd number then number of changed characters must be rounded up.  For example, a password length of 15 characters must require the change of at least 8 characters.</t>
         </is>
       </c>
-      <c r="H244" s="3" t="inlineStr">
+      <c r="H244" s="2" t="inlineStr">
         <is>
           <t>Use of a complex password helps to increase the time and resources required to compromise the password.
 Password complexity, or strength, is a measure of the effectiveness of a password in resisting attempts
@@ -19889,37 +19905,43 @@
 by ensuring a larger search space.</t>
         </is>
       </c>
-      <c r="I244" s="3" t="inlineStr">
-        <is>
-          <t>Applicable - Configurable</t>
-        </is>
-      </c>
-      <c r="J244" s="3" t="inlineStr">
+      <c r="I244" s="2" t="inlineStr">
+        <is>
+          <t>Applicable - Configurable</t>
+        </is>
+      </c>
+      <c r="J244" s="2" t="inlineStr">
         <is>
           <t>Verify the operating system requires the change of at least eight of the total number of characters when passwords are changed. If it does not, this is a finding.</t>
         </is>
       </c>
-      <c r="K244" s="3" t="inlineStr">
+      <c r="K244" s="2" t="inlineStr">
         <is>
           <t>To check how many categories of characters must be used in password during a password change,
 run the following command:
- $ grep minclass /etc/security/pwquality.conf 
+ $ sudo grep minclass /etc/security/pwquality.conf 
 The "minclass" parameter will indicate how many character classes must be used. If
-the requirement was for the password to contain characters from three different categories,
-then this would appear as "minclass = 3".
-If minclass is not found or not set equal to or greater than the required value, then this is a finding.</t>
-        </is>
-      </c>
-      <c r="L244" s="3" t="n"/>
-      <c r="M244" s="3" t="inlineStr"/>
-      <c r="N244" s="3" t="inlineStr">
-        <is>
-          <t>CAT II</t>
-        </is>
-      </c>
-      <c r="O244" s="3" t="n"/>
-      <c r="P244" s="3" t="n"/>
-      <c r="Q244" s="3" t="n"/>
+the requirement was for the password to contain characters from 4 different categories,
+then this would appear as "minclass = 4".
+If the value of "minclass" is set to less than "4" or is commented out, then this is a finding.</t>
+        </is>
+      </c>
+      <c r="L244" s="2" t="n"/>
+      <c r="M244" s="2" t="inlineStr">
+        <is>
+          <t>Configure Red Hat Enterprise Linux 9 to require the change of at least 4 character classes when passwords are changed by setting the "minclass" option.
+Add the following line to "/etc/security/pwquality.conf" (or modify the line to have the required value):
+minclass = 4</t>
+        </is>
+      </c>
+      <c r="N244" s="2" t="inlineStr">
+        <is>
+          <t>CAT II</t>
+        </is>
+      </c>
+      <c r="O244" s="2" t="n"/>
+      <c r="P244" s="2" t="n"/>
+      <c r="Q244" s="2" t="n"/>
     </row>
     <row r="245" ht="130" customHeight="1">
       <c r="A245" s="2" t="inlineStr">
@@ -20252,7 +20274,7 @@
     <row r="249" ht="130" customHeight="1">
       <c r="A249" s="3" t="inlineStr">
         <is>
-          <t>SC-2,SC-4</t>
+          <t>SC-4,SC-2</t>
         </is>
       </c>
       <c r="B249" s="3" t="inlineStr">
@@ -20340,7 +20362,7 @@
     <row r="250" ht="130" customHeight="1">
       <c r="A250" s="3" t="inlineStr">
         <is>
-          <t>SC-2,SC-4</t>
+          <t>SC-4,SC-2</t>
         </is>
       </c>
       <c r="B250" s="3" t="inlineStr">
@@ -20847,7 +20869,7 @@
     <row r="256" ht="130" customHeight="1">
       <c r="A256" s="2" t="inlineStr">
         <is>
-          <t>SC-3,SI-6 a</t>
+          <t>SI-6 a,SC-3</t>
         </is>
       </c>
       <c r="B256" s="2" t="inlineStr">
@@ -23240,7 +23262,7 @@
     <row r="286" ht="130" customHeight="1">
       <c r="A286" s="3" t="inlineStr">
         <is>
-          <t>CM-6 b,CM-7 a</t>
+          <t>CM-7 a,CM-6 b</t>
         </is>
       </c>
       <c r="B286" s="3" t="inlineStr">
@@ -23311,7 +23333,7 @@
     <row r="287" ht="130" customHeight="1">
       <c r="A287" s="3" t="inlineStr">
         <is>
-          <t>CM-6 b,CM-7 a</t>
+          <t>CM-7 a,CM-6 b</t>
         </is>
       </c>
       <c r="B287" s="3" t="inlineStr">
@@ -23383,7 +23405,7 @@
     <row r="288" ht="130" customHeight="1">
       <c r="A288" s="3" t="inlineStr">
         <is>
-          <t>CM-6 b,CM-7 a</t>
+          <t>CM-7 a,CM-6 b</t>
         </is>
       </c>
       <c r="B288" s="3" t="inlineStr">
@@ -30268,7 +30290,7 @@
     <row r="379" ht="130" customHeight="1">
       <c r="A379" s="2" t="inlineStr">
         <is>
-          <t>AC-17 (9),CM-6 b,AC-17 (1),CM-7 b</t>
+          <t>CM-7 b,CM-6 b,AC-17 (9),AC-17 (1)</t>
         </is>
       </c>
       <c r="B379" s="2" t="inlineStr">
@@ -30346,7 +30368,7 @@
     <row r="380" ht="130" customHeight="1">
       <c r="A380" s="2" t="inlineStr">
         <is>
-          <t>CM-6 b,AC-17 (1),CM-7 b</t>
+          <t>CM-7 b,CM-6 b,AC-17 (1)</t>
         </is>
       </c>
       <c r="B380" s="2" t="inlineStr">
@@ -32845,7 +32867,7 @@
     <row r="409" ht="130" customHeight="1">
       <c r="A409" s="2" t="inlineStr">
         <is>
-          <t>IA-3,CM-6 b</t>
+          <t>CM-6 b,IA-3</t>
         </is>
       </c>
       <c r="B409" s="2" t="inlineStr">
@@ -32927,7 +32949,7 @@
     <row r="410" ht="130" customHeight="1">
       <c r="A410" s="2" t="inlineStr">
         <is>
-          <t>IA-3,CM-6 b</t>
+          <t>CM-6 b,IA-3</t>
         </is>
       </c>
       <c r="B410" s="2" t="inlineStr">
@@ -33801,7 +33823,7 @@
     <row r="421" ht="130" customHeight="1">
       <c r="A421" s="3" t="inlineStr">
         <is>
-          <t>SC-2,CM-6 b</t>
+          <t>CM-6 b,SC-2</t>
         </is>
       </c>
       <c r="B421" s="3" t="inlineStr">
@@ -33888,7 +33910,7 @@
     <row r="422" ht="130" customHeight="1">
       <c r="A422" s="3" t="inlineStr">
         <is>
-          <t>SC-2,CM-6 b</t>
+          <t>CM-6 b,SC-2</t>
         </is>
       </c>
       <c r="B422" s="3" t="inlineStr">
@@ -34979,7 +35001,7 @@
     <row r="436" ht="130" customHeight="1">
       <c r="A436" s="2" t="inlineStr">
         <is>
-          <t>IA-3,CM-6 b</t>
+          <t>CM-6 b,IA-3</t>
         </is>
       </c>
       <c r="B436" s="2" t="inlineStr">
@@ -35069,7 +35091,7 @@
     <row r="437" ht="130" customHeight="1">
       <c r="A437" s="2" t="inlineStr">
         <is>
-          <t>IA-3,CM-6 b</t>
+          <t>CM-6 b,IA-3</t>
         </is>
       </c>
       <c r="B437" s="2" t="inlineStr">
@@ -35464,7 +35486,7 @@
     <row r="442" ht="130" customHeight="1">
       <c r="A442" s="3" t="inlineStr">
         <is>
-          <t>CM-6 b,SI-2 (2)</t>
+          <t>SI-2 (2),CM-6 b</t>
         </is>
       </c>
       <c r="B442" s="3" t="inlineStr">
@@ -36402,7 +36424,7 @@
     <row r="455" ht="130" customHeight="1">
       <c r="A455" s="3" t="inlineStr">
         <is>
-          <t>MA-4 (7),AC-12,SC-10,MA-4 e</t>
+          <t>AC-12,SC-10,MA-4 (7),MA-4 e</t>
         </is>
       </c>
       <c r="B455" s="3" t="inlineStr">
@@ -36632,7 +36654,7 @@
     <row r="458" ht="130" customHeight="1">
       <c r="A458" s="3" t="inlineStr">
         <is>
-          <t>AC-11 a,SC-10</t>
+          <t>SC-10,AC-11 a</t>
         </is>
       </c>
       <c r="B458" s="3" t="inlineStr">
@@ -36709,7 +36731,7 @@
     <row r="459" ht="130" customHeight="1">
       <c r="A459" s="2" t="inlineStr">
         <is>
-          <t>SC-8 (1),SC-8,AC-17 (2)</t>
+          <t>AC-17 (2),SC-8 (1),SC-8</t>
         </is>
       </c>
       <c r="B459" s="2" t="inlineStr">
@@ -38016,7 +38038,7 @@
     <row r="476" ht="130" customHeight="1">
       <c r="A476" s="2" t="inlineStr">
         <is>
-          <t>IA-3,CM-7 b</t>
+          <t>CM-7 b,IA-3</t>
         </is>
       </c>
       <c r="B476" s="2" t="inlineStr">
@@ -38335,7 +38357,7 @@
     <row r="480" ht="130" customHeight="1">
       <c r="A480" s="2" t="inlineStr">
         <is>
-          <t>AC-17 (1),CM-7 b</t>
+          <t>CM-7 b,AC-17 (1)</t>
         </is>
       </c>
       <c r="B480" s="2" t="inlineStr">
